--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="118">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -334,6 +334,9 @@
     <t>['32', '62', '73']</t>
   </si>
   <si>
+    <t>['22', '42', '83']</t>
+  </si>
+  <si>
     <t>['62']</t>
   </si>
   <si>
@@ -362,6 +365,9 @@
   </si>
   <si>
     <t>['79']</t>
+  </si>
+  <si>
+    <t>['67', '69']</t>
   </si>
 </sst>
 </file>
@@ -723,7 +729,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP20"/>
+  <dimension ref="A1:BP21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -982,7 +988,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1600,7 +1606,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q5">
         <v>2.75</v>
@@ -2012,7 +2018,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q7">
         <v>4.33</v>
@@ -2218,7 +2224,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -2424,7 +2430,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2836,7 +2842,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q11">
         <v>3.5</v>
@@ -3248,7 +3254,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q13">
         <v>3.6</v>
@@ -3454,7 +3460,7 @@
         <v>101</v>
       </c>
       <c r="P14" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q14">
         <v>4.75</v>
@@ -3660,7 +3666,7 @@
         <v>101</v>
       </c>
       <c r="P15" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4072,7 +4078,7 @@
         <v>102</v>
       </c>
       <c r="P17" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q17">
         <v>2.75</v>
@@ -4846,6 +4852,212 @@
         <v>2.8</v>
       </c>
       <c r="BP20">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:68">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>7380338</v>
+      </c>
+      <c r="C21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="2">
+        <v>45411.8125</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21" t="s">
+        <v>89</v>
+      </c>
+      <c r="H21" t="s">
+        <v>76</v>
+      </c>
+      <c r="I21">
+        <v>2</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>3</v>
+      </c>
+      <c r="M21">
+        <v>2</v>
+      </c>
+      <c r="N21">
+        <v>5</v>
+      </c>
+      <c r="O21" t="s">
+        <v>106</v>
+      </c>
+      <c r="P21" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q21">
+        <v>2.75</v>
+      </c>
+      <c r="R21">
+        <v>2</v>
+      </c>
+      <c r="S21">
+        <v>4.5</v>
+      </c>
+      <c r="T21">
+        <v>1.48</v>
+      </c>
+      <c r="U21">
+        <v>2.45</v>
+      </c>
+      <c r="V21">
+        <v>3.35</v>
+      </c>
+      <c r="W21">
+        <v>1.28</v>
+      </c>
+      <c r="X21">
+        <v>8.9</v>
+      </c>
+      <c r="Y21">
+        <v>1.04</v>
+      </c>
+      <c r="Z21">
+        <v>2</v>
+      </c>
+      <c r="AA21">
+        <v>3.4</v>
+      </c>
+      <c r="AB21">
+        <v>3.75</v>
+      </c>
+      <c r="AC21">
+        <v>1.07</v>
+      </c>
+      <c r="AD21">
+        <v>8</v>
+      </c>
+      <c r="AE21">
+        <v>1.42</v>
+      </c>
+      <c r="AF21">
+        <v>2.85</v>
+      </c>
+      <c r="AG21">
+        <v>2.35</v>
+      </c>
+      <c r="AH21">
+        <v>1.57</v>
+      </c>
+      <c r="AI21">
+        <v>2.1</v>
+      </c>
+      <c r="AJ21">
+        <v>1.67</v>
+      </c>
+      <c r="AK21">
+        <v>1.25</v>
+      </c>
+      <c r="AL21">
+        <v>1.25</v>
+      </c>
+      <c r="AM21">
+        <v>1.8</v>
+      </c>
+      <c r="AN21">
+        <v>0</v>
+      </c>
+      <c r="AO21">
+        <v>0</v>
+      </c>
+      <c r="AP21">
+        <v>3</v>
+      </c>
+      <c r="AQ21">
+        <v>0</v>
+      </c>
+      <c r="AR21">
+        <v>0</v>
+      </c>
+      <c r="AS21">
+        <v>0</v>
+      </c>
+      <c r="AT21">
+        <v>0</v>
+      </c>
+      <c r="AU21">
+        <v>6</v>
+      </c>
+      <c r="AV21">
+        <v>5</v>
+      </c>
+      <c r="AW21">
+        <v>5</v>
+      </c>
+      <c r="AX21">
+        <v>7</v>
+      </c>
+      <c r="AY21">
+        <v>11</v>
+      </c>
+      <c r="AZ21">
+        <v>12</v>
+      </c>
+      <c r="BA21">
+        <v>6</v>
+      </c>
+      <c r="BB21">
+        <v>11</v>
+      </c>
+      <c r="BC21">
+        <v>17</v>
+      </c>
+      <c r="BD21">
+        <v>1.69</v>
+      </c>
+      <c r="BE21">
+        <v>8.1</v>
+      </c>
+      <c r="BF21">
+        <v>2.66</v>
+      </c>
+      <c r="BG21">
+        <v>1.2</v>
+      </c>
+      <c r="BH21">
+        <v>4.3</v>
+      </c>
+      <c r="BI21">
+        <v>1.37</v>
+      </c>
+      <c r="BJ21">
+        <v>2.95</v>
+      </c>
+      <c r="BK21">
+        <v>2.1</v>
+      </c>
+      <c r="BL21">
+        <v>2.14</v>
+      </c>
+      <c r="BM21">
+        <v>2.1</v>
+      </c>
+      <c r="BN21">
+        <v>1.68</v>
+      </c>
+      <c r="BO21">
+        <v>2.8</v>
+      </c>
+      <c r="BP21">
         <v>1.4</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="119">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -256,12 +256,12 @@
     <t>Brusque</t>
   </si>
   <si>
+    <t>Ituano</t>
+  </si>
+  <si>
     <t>Sport Recife</t>
   </si>
   <si>
-    <t>Ituano</t>
-  </si>
-  <si>
     <t>Avaí</t>
   </si>
   <si>
@@ -316,12 +316,12 @@
     <t>['8', '67', '90+7']</t>
   </si>
   <si>
+    <t>[]</t>
+  </si>
+  <si>
     <t>['27', '51']</t>
   </si>
   <si>
-    <t>[]</t>
-  </si>
-  <si>
     <t>['68']</t>
   </si>
   <si>
@@ -368,6 +368,9 @@
   </si>
   <si>
     <t>['67', '69']</t>
+  </si>
+  <si>
+    <t>['21']</t>
   </si>
 </sst>
 </file>
@@ -729,7 +732,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP21"/>
+  <dimension ref="A1:BP23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1400,7 +1403,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q4">
         <v>3.25</v>
@@ -1481,7 +1484,7 @@
         <v>3</v>
       </c>
       <c r="AQ4">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1582,7 +1585,7 @@
         <v>73</v>
       </c>
       <c r="H5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -1812,7 +1815,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q6">
         <v>1.91</v>
@@ -1994,7 +1997,7 @@
         <v>75</v>
       </c>
       <c r="H7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -2636,7 +2639,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q10">
         <v>2.88</v>
@@ -3006,7 +3009,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>7380345</v>
+        <v>7380339</v>
       </c>
       <c r="C12" t="s">
         <v>68</v>
@@ -3024,22 +3027,22 @@
         <v>80</v>
       </c>
       <c r="H12" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N12">
         <v>2</v>
@@ -3048,76 +3051,76 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="Q12">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="R12">
+        <v>1.91</v>
+      </c>
+      <c r="S12">
+        <v>3.6</v>
+      </c>
+      <c r="T12">
+        <v>1.57</v>
+      </c>
+      <c r="U12">
+        <v>2.31</v>
+      </c>
+      <c r="V12">
+        <v>3.54</v>
+      </c>
+      <c r="W12">
+        <v>1.27</v>
+      </c>
+      <c r="X12">
+        <v>9.9</v>
+      </c>
+      <c r="Y12">
+        <v>1.03</v>
+      </c>
+      <c r="Z12">
+        <v>2.75</v>
+      </c>
+      <c r="AA12">
+        <v>3.1</v>
+      </c>
+      <c r="AB12">
+        <v>2.75</v>
+      </c>
+      <c r="AC12">
+        <v>1.1</v>
+      </c>
+      <c r="AD12">
+        <v>6.5</v>
+      </c>
+      <c r="AE12">
+        <v>1.5</v>
+      </c>
+      <c r="AF12">
+        <v>2.4</v>
+      </c>
+      <c r="AG12">
+        <v>2.6</v>
+      </c>
+      <c r="AH12">
+        <v>1.48</v>
+      </c>
+      <c r="AI12">
         <v>2.1</v>
       </c>
-      <c r="S12">
-        <v>6</v>
-      </c>
-      <c r="T12">
-        <v>1.48</v>
-      </c>
-      <c r="U12">
-        <v>2.54</v>
-      </c>
-      <c r="V12">
-        <v>3.28</v>
-      </c>
-      <c r="W12">
-        <v>1.31</v>
-      </c>
-      <c r="X12">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="Y12">
-        <v>1.05</v>
-      </c>
-      <c r="Z12">
-        <v>1.62</v>
-      </c>
-      <c r="AA12">
-        <v>3.6</v>
-      </c>
-      <c r="AB12">
-        <v>6.5</v>
-      </c>
-      <c r="AC12">
-        <v>1.04</v>
-      </c>
-      <c r="AD12">
-        <v>7.4</v>
-      </c>
-      <c r="AE12">
-        <v>1.38</v>
-      </c>
-      <c r="AF12">
-        <v>2.71</v>
-      </c>
-      <c r="AG12">
-        <v>2.25</v>
-      </c>
-      <c r="AH12">
-        <v>1.62</v>
-      </c>
-      <c r="AI12">
-        <v>2.2</v>
-      </c>
       <c r="AJ12">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="AK12">
-        <v>1.15</v>
+        <v>1.35</v>
       </c>
       <c r="AL12">
-        <v>1.28</v>
+        <v>1.36</v>
       </c>
       <c r="AM12">
-        <v>2.1</v>
+        <v>1.52</v>
       </c>
       <c r="AN12">
         <v>0</v>
@@ -3126,11 +3129,11 @@
         <v>0</v>
       </c>
       <c r="AP12">
+        <v>0</v>
+      </c>
+      <c r="AQ12">
         <v>3</v>
       </c>
-      <c r="AQ12">
-        <v>0</v>
-      </c>
       <c r="AR12">
         <v>0</v>
       </c>
@@ -3141,70 +3144,70 @@
         <v>0</v>
       </c>
       <c r="AU12">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AV12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW12">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AX12">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AY12">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AZ12">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="BA12">
         <v>9</v>
       </c>
       <c r="BB12">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="BC12">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="BD12">
+        <v>2.05</v>
+      </c>
+      <c r="BE12">
+        <v>7.4</v>
+      </c>
+      <c r="BF12">
+        <v>2.1</v>
+      </c>
+      <c r="BG12">
+        <v>1.2</v>
+      </c>
+      <c r="BH12">
+        <v>4.3</v>
+      </c>
+      <c r="BI12">
+        <v>1.37</v>
+      </c>
+      <c r="BJ12">
+        <v>2.95</v>
+      </c>
+      <c r="BK12">
+        <v>2.2</v>
+      </c>
+      <c r="BL12">
+        <v>2.14</v>
+      </c>
+      <c r="BM12">
+        <v>2.1</v>
+      </c>
+      <c r="BN12">
+        <v>1.68</v>
+      </c>
+      <c r="BO12">
+        <v>2.8</v>
+      </c>
+      <c r="BP12">
         <v>1.4</v>
-      </c>
-      <c r="BE12">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="BF12">
-        <v>3.65</v>
-      </c>
-      <c r="BG12">
-        <v>1.18</v>
-      </c>
-      <c r="BH12">
-        <v>4.33</v>
-      </c>
-      <c r="BI12">
-        <v>1.3</v>
-      </c>
-      <c r="BJ12">
-        <v>3.35</v>
-      </c>
-      <c r="BK12">
-        <v>1.83</v>
-      </c>
-      <c r="BL12">
-        <v>2.4</v>
-      </c>
-      <c r="BM12">
-        <v>1.9</v>
-      </c>
-      <c r="BN12">
-        <v>1.84</v>
-      </c>
-      <c r="BO12">
-        <v>2.48</v>
-      </c>
-      <c r="BP12">
-        <v>1.5</v>
       </c>
     </row>
     <row r="13" spans="1:68">
@@ -3212,7 +3215,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>7380339</v>
+        <v>7380345</v>
       </c>
       <c r="C13" t="s">
         <v>68</v>
@@ -3230,22 +3233,22 @@
         <v>81</v>
       </c>
       <c r="H13" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>1</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>2</v>
@@ -3254,77 +3257,77 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="Q13">
+        <v>2.3</v>
+      </c>
+      <c r="R13">
+        <v>2.1</v>
+      </c>
+      <c r="S13">
+        <v>6</v>
+      </c>
+      <c r="T13">
+        <v>1.48</v>
+      </c>
+      <c r="U13">
+        <v>2.54</v>
+      </c>
+      <c r="V13">
+        <v>3.28</v>
+      </c>
+      <c r="W13">
+        <v>1.31</v>
+      </c>
+      <c r="X13">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="Y13">
+        <v>1.05</v>
+      </c>
+      <c r="Z13">
+        <v>1.62</v>
+      </c>
+      <c r="AA13">
         <v>3.6</v>
       </c>
-      <c r="R13">
-        <v>1.91</v>
-      </c>
-      <c r="S13">
-        <v>3.6</v>
-      </c>
-      <c r="T13">
-        <v>1.57</v>
-      </c>
-      <c r="U13">
-        <v>2.31</v>
-      </c>
-      <c r="V13">
-        <v>3.54</v>
-      </c>
-      <c r="W13">
-        <v>1.27</v>
-      </c>
-      <c r="X13">
-        <v>9.9</v>
-      </c>
-      <c r="Y13">
-        <v>1.03</v>
-      </c>
-      <c r="Z13">
-        <v>2.75</v>
-      </c>
-      <c r="AA13">
-        <v>3.1</v>
-      </c>
       <c r="AB13">
-        <v>2.75</v>
+        <v>6.5</v>
       </c>
       <c r="AC13">
-        <v>1.1</v>
+        <v>1.04</v>
       </c>
       <c r="AD13">
-        <v>6.5</v>
+        <v>7.4</v>
       </c>
       <c r="AE13">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AF13">
-        <v>2.4</v>
+        <v>2.71</v>
       </c>
       <c r="AG13">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="AH13">
-        <v>1.48</v>
+        <v>1.62</v>
       </c>
       <c r="AI13">
+        <v>2.2</v>
+      </c>
+      <c r="AJ13">
+        <v>1.62</v>
+      </c>
+      <c r="AK13">
+        <v>1.15</v>
+      </c>
+      <c r="AL13">
+        <v>1.28</v>
+      </c>
+      <c r="AM13">
         <v>2.1</v>
       </c>
-      <c r="AJ13">
-        <v>1.67</v>
-      </c>
-      <c r="AK13">
-        <v>1.35</v>
-      </c>
-      <c r="AL13">
-        <v>1.36</v>
-      </c>
-      <c r="AM13">
-        <v>1.52</v>
-      </c>
       <c r="AN13">
         <v>0</v>
       </c>
@@ -3332,85 +3335,85 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AQ13">
+        <v>0</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
+        <v>0</v>
+      </c>
+      <c r="AT13">
+        <v>0</v>
+      </c>
+      <c r="AU13">
+        <v>6</v>
+      </c>
+      <c r="AV13">
         <v>3</v>
       </c>
-      <c r="AR13">
-        <v>0</v>
-      </c>
-      <c r="AS13">
-        <v>0</v>
-      </c>
-      <c r="AT13">
-        <v>0</v>
-      </c>
-      <c r="AU13">
-        <v>4</v>
-      </c>
-      <c r="AV13">
-        <v>5</v>
-      </c>
       <c r="AW13">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AX13">
+        <v>8</v>
+      </c>
+      <c r="AY13">
+        <v>8</v>
+      </c>
+      <c r="AZ13">
         <v>11</v>
-      </c>
-      <c r="AY13">
-        <v>11</v>
-      </c>
-      <c r="AZ13">
-        <v>16</v>
       </c>
       <c r="BA13">
         <v>9</v>
       </c>
       <c r="BB13">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="BC13">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="BD13">
-        <v>2.05</v>
+        <v>1.4</v>
       </c>
       <c r="BE13">
-        <v>7.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="BF13">
-        <v>2.1</v>
+        <v>3.65</v>
       </c>
       <c r="BG13">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="BH13">
-        <v>4.3</v>
+        <v>4.33</v>
       </c>
       <c r="BI13">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="BJ13">
-        <v>2.95</v>
+        <v>3.35</v>
       </c>
       <c r="BK13">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="BL13">
-        <v>2.14</v>
+        <v>2.4</v>
       </c>
       <c r="BM13">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="BN13">
-        <v>1.68</v>
+        <v>1.84</v>
       </c>
       <c r="BO13">
-        <v>2.8</v>
+        <v>2.48</v>
       </c>
       <c r="BP13">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="14" spans="1:68">
@@ -3457,7 +3460,7 @@
         <v>2</v>
       </c>
       <c r="O14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P14" t="s">
         <v>114</v>
@@ -3663,7 +3666,7 @@
         <v>1</v>
       </c>
       <c r="O15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P15" t="s">
         <v>115</v>
@@ -3869,10 +3872,10 @@
         <v>0</v>
       </c>
       <c r="O16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q16">
         <v>2.1</v>
@@ -4284,7 +4287,7 @@
         <v>103</v>
       </c>
       <c r="P18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -4490,7 +4493,7 @@
         <v>104</v>
       </c>
       <c r="P19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q19">
         <v>2.1</v>
@@ -4568,7 +4571,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AQ19">
         <v>0</v>
@@ -4696,7 +4699,7 @@
         <v>105</v>
       </c>
       <c r="P20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q20">
         <v>2.3</v>
@@ -5059,6 +5062,418 @@
       </c>
       <c r="BP21">
         <v>1.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:68">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>7380354</v>
+      </c>
+      <c r="C22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="2">
+        <v>45415.79166666666</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22" t="s">
+        <v>85</v>
+      </c>
+      <c r="H22" t="s">
+        <v>82</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22" t="s">
+        <v>100</v>
+      </c>
+      <c r="P22" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q22">
+        <v>2.88</v>
+      </c>
+      <c r="R22">
+        <v>1.91</v>
+      </c>
+      <c r="S22">
+        <v>4.75</v>
+      </c>
+      <c r="T22">
+        <v>1.55</v>
+      </c>
+      <c r="U22">
+        <v>2.3</v>
+      </c>
+      <c r="V22">
+        <v>3.6</v>
+      </c>
+      <c r="W22">
+        <v>1.25</v>
+      </c>
+      <c r="X22">
+        <v>9.9</v>
+      </c>
+      <c r="Y22">
+        <v>1.03</v>
+      </c>
+      <c r="Z22">
+        <v>2.05</v>
+      </c>
+      <c r="AA22">
+        <v>3.1</v>
+      </c>
+      <c r="AB22">
+        <v>4.2</v>
+      </c>
+      <c r="AC22">
+        <v>1.09</v>
+      </c>
+      <c r="AD22">
+        <v>7</v>
+      </c>
+      <c r="AE22">
+        <v>1.5</v>
+      </c>
+      <c r="AF22">
+        <v>2.45</v>
+      </c>
+      <c r="AG22">
+        <v>2.6</v>
+      </c>
+      <c r="AH22">
+        <v>1.48</v>
+      </c>
+      <c r="AI22">
+        <v>2.25</v>
+      </c>
+      <c r="AJ22">
+        <v>1.57</v>
+      </c>
+      <c r="AK22">
+        <v>1.3</v>
+      </c>
+      <c r="AL22">
+        <v>1.28</v>
+      </c>
+      <c r="AM22">
+        <v>1.67</v>
+      </c>
+      <c r="AN22">
+        <v>1</v>
+      </c>
+      <c r="AO22">
+        <v>0</v>
+      </c>
+      <c r="AP22">
+        <v>1</v>
+      </c>
+      <c r="AQ22">
+        <v>0.5</v>
+      </c>
+      <c r="AR22">
+        <v>1.45</v>
+      </c>
+      <c r="AS22">
+        <v>0.65</v>
+      </c>
+      <c r="AT22">
+        <v>2.1</v>
+      </c>
+      <c r="AU22">
+        <v>4</v>
+      </c>
+      <c r="AV22">
+        <v>3</v>
+      </c>
+      <c r="AW22">
+        <v>4</v>
+      </c>
+      <c r="AX22">
+        <v>3</v>
+      </c>
+      <c r="AY22">
+        <v>8</v>
+      </c>
+      <c r="AZ22">
+        <v>6</v>
+      </c>
+      <c r="BA22">
+        <v>7</v>
+      </c>
+      <c r="BB22">
+        <v>2</v>
+      </c>
+      <c r="BC22">
+        <v>9</v>
+      </c>
+      <c r="BD22">
+        <v>1.59</v>
+      </c>
+      <c r="BE22">
+        <v>8.5</v>
+      </c>
+      <c r="BF22">
+        <v>2.91</v>
+      </c>
+      <c r="BG22">
+        <v>1.22</v>
+      </c>
+      <c r="BH22">
+        <v>4</v>
+      </c>
+      <c r="BI22">
+        <v>1.42</v>
+      </c>
+      <c r="BJ22">
+        <v>2.75</v>
+      </c>
+      <c r="BK22">
+        <v>2.1</v>
+      </c>
+      <c r="BL22">
+        <v>2.02</v>
+      </c>
+      <c r="BM22">
+        <v>2.23</v>
+      </c>
+      <c r="BN22">
+        <v>1.61</v>
+      </c>
+      <c r="BO22">
+        <v>3</v>
+      </c>
+      <c r="BP22">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:68">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>7380353</v>
+      </c>
+      <c r="C23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="2">
+        <v>45415.89583333334</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
+      <c r="G23" t="s">
+        <v>87</v>
+      </c>
+      <c r="H23" t="s">
+        <v>81</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23" t="s">
+        <v>100</v>
+      </c>
+      <c r="P23" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q23">
+        <v>3.2</v>
+      </c>
+      <c r="R23">
+        <v>1.95</v>
+      </c>
+      <c r="S23">
+        <v>4</v>
+      </c>
+      <c r="T23">
+        <v>1.48</v>
+      </c>
+      <c r="U23">
+        <v>2.45</v>
+      </c>
+      <c r="V23">
+        <v>3.2</v>
+      </c>
+      <c r="W23">
+        <v>1.3</v>
+      </c>
+      <c r="X23">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Y23">
+        <v>1.05</v>
+      </c>
+      <c r="Z23">
+        <v>2.38</v>
+      </c>
+      <c r="AA23">
+        <v>3</v>
+      </c>
+      <c r="AB23">
+        <v>3.3</v>
+      </c>
+      <c r="AC23">
+        <v>1.08</v>
+      </c>
+      <c r="AD23">
+        <v>7.5</v>
+      </c>
+      <c r="AE23">
+        <v>1.42</v>
+      </c>
+      <c r="AF23">
+        <v>2.8</v>
+      </c>
+      <c r="AG23">
+        <v>2.4</v>
+      </c>
+      <c r="AH23">
+        <v>1.53</v>
+      </c>
+      <c r="AI23">
+        <v>2</v>
+      </c>
+      <c r="AJ23">
+        <v>1.73</v>
+      </c>
+      <c r="AK23">
+        <v>1.25</v>
+      </c>
+      <c r="AL23">
+        <v>1.28</v>
+      </c>
+      <c r="AM23">
+        <v>1.73</v>
+      </c>
+      <c r="AN23">
+        <v>3</v>
+      </c>
+      <c r="AO23">
+        <v>3</v>
+      </c>
+      <c r="AP23">
+        <v>1.5</v>
+      </c>
+      <c r="AQ23">
+        <v>3</v>
+      </c>
+      <c r="AR23">
+        <v>1.39</v>
+      </c>
+      <c r="AS23">
+        <v>1.6</v>
+      </c>
+      <c r="AT23">
+        <v>2.99</v>
+      </c>
+      <c r="AU23">
+        <v>7</v>
+      </c>
+      <c r="AV23">
+        <v>4</v>
+      </c>
+      <c r="AW23">
+        <v>13</v>
+      </c>
+      <c r="AX23">
+        <v>3</v>
+      </c>
+      <c r="AY23">
+        <v>20</v>
+      </c>
+      <c r="AZ23">
+        <v>7</v>
+      </c>
+      <c r="BA23">
+        <v>3</v>
+      </c>
+      <c r="BB23">
+        <v>3</v>
+      </c>
+      <c r="BC23">
+        <v>6</v>
+      </c>
+      <c r="BD23">
+        <v>1.82</v>
+      </c>
+      <c r="BE23">
+        <v>8.1</v>
+      </c>
+      <c r="BF23">
+        <v>2.4</v>
+      </c>
+      <c r="BG23">
+        <v>1.15</v>
+      </c>
+      <c r="BH23">
+        <v>4.75</v>
+      </c>
+      <c r="BI23">
+        <v>1.24</v>
+      </c>
+      <c r="BJ23">
+        <v>3.85</v>
+      </c>
+      <c r="BK23">
+        <v>1.43</v>
+      </c>
+      <c r="BL23">
+        <v>2.7</v>
+      </c>
+      <c r="BM23">
+        <v>1.74</v>
+      </c>
+      <c r="BN23">
+        <v>2.02</v>
+      </c>
+      <c r="BO23">
+        <v>2.2</v>
+      </c>
+      <c r="BP23">
+        <v>1.62</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="124">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -337,6 +337,15 @@
     <t>['22', '42', '83']</t>
   </si>
   <si>
+    <t>['36', '77']</t>
+  </si>
+  <si>
+    <t>['90+5']</t>
+  </si>
+  <si>
+    <t>['45+6']</t>
+  </si>
+  <si>
     <t>['62']</t>
   </si>
   <si>
@@ -371,6 +380,12 @@
   </si>
   <si>
     <t>['21']</t>
+  </si>
+  <si>
+    <t>['79', '83']</t>
+  </si>
+  <si>
+    <t>['21', '47', '83']</t>
   </si>
 </sst>
 </file>
@@ -732,7 +747,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP23"/>
+  <dimension ref="A1:BP26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -991,7 +1006,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1609,7 +1624,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="Q5">
         <v>2.75</v>
@@ -1687,7 +1702,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ5">
         <v>0</v>
@@ -2021,7 +2036,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="Q7">
         <v>4.33</v>
@@ -2227,7 +2242,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -2433,7 +2448,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2845,7 +2860,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="Q11">
         <v>3.5</v>
@@ -3051,7 +3066,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Q12">
         <v>3.6</v>
@@ -3132,7 +3147,7 @@
         <v>0</v>
       </c>
       <c r="AQ12">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3463,7 +3478,7 @@
         <v>100</v>
       </c>
       <c r="P14" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="Q14">
         <v>4.75</v>
@@ -3669,7 +3684,7 @@
         <v>100</v>
       </c>
       <c r="P15" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4081,7 +4096,7 @@
         <v>102</v>
       </c>
       <c r="P17" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="Q17">
         <v>2.75</v>
@@ -4368,7 +4383,7 @@
         <v>3</v>
       </c>
       <c r="AQ18">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4905,7 +4920,7 @@
         <v>106</v>
       </c>
       <c r="P21" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5317,7 +5332,7 @@
         <v>100</v>
       </c>
       <c r="P23" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="Q23">
         <v>3.2</v>
@@ -5474,6 +5489,624 @@
       </c>
       <c r="BP23">
         <v>1.62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:68">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>7380351</v>
+      </c>
+      <c r="C24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="2">
+        <v>45416.70833333334</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+      <c r="G24" t="s">
+        <v>73</v>
+      </c>
+      <c r="H24" t="s">
+        <v>86</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>2</v>
+      </c>
+      <c r="M24">
+        <v>2</v>
+      </c>
+      <c r="N24">
+        <v>4</v>
+      </c>
+      <c r="O24" t="s">
+        <v>107</v>
+      </c>
+      <c r="P24" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q24">
+        <v>3.6</v>
+      </c>
+      <c r="R24">
+        <v>1.95</v>
+      </c>
+      <c r="S24">
+        <v>3.5</v>
+      </c>
+      <c r="T24">
+        <v>1.5</v>
+      </c>
+      <c r="U24">
+        <v>2.4</v>
+      </c>
+      <c r="V24">
+        <v>3.2</v>
+      </c>
+      <c r="W24">
+        <v>1.3</v>
+      </c>
+      <c r="X24">
+        <v>9.1</v>
+      </c>
+      <c r="Y24">
+        <v>1.04</v>
+      </c>
+      <c r="Z24">
+        <v>2.59</v>
+      </c>
+      <c r="AA24">
+        <v>2.98</v>
+      </c>
+      <c r="AB24">
+        <v>2.64</v>
+      </c>
+      <c r="AC24">
+        <v>1.09</v>
+      </c>
+      <c r="AD24">
+        <v>7</v>
+      </c>
+      <c r="AE24">
+        <v>1.45</v>
+      </c>
+      <c r="AF24">
+        <v>2.7</v>
+      </c>
+      <c r="AG24">
+        <v>2.26</v>
+      </c>
+      <c r="AH24">
+        <v>1.52</v>
+      </c>
+      <c r="AI24">
+        <v>2</v>
+      </c>
+      <c r="AJ24">
+        <v>1.73</v>
+      </c>
+      <c r="AK24">
+        <v>1.42</v>
+      </c>
+      <c r="AL24">
+        <v>1.3</v>
+      </c>
+      <c r="AM24">
+        <v>1.45</v>
+      </c>
+      <c r="AN24">
+        <v>3</v>
+      </c>
+      <c r="AO24">
+        <v>1</v>
+      </c>
+      <c r="AP24">
+        <v>2</v>
+      </c>
+      <c r="AQ24">
+        <v>1</v>
+      </c>
+      <c r="AR24">
+        <v>1.66</v>
+      </c>
+      <c r="AS24">
+        <v>1.06</v>
+      </c>
+      <c r="AT24">
+        <v>2.72</v>
+      </c>
+      <c r="AU24">
+        <v>4</v>
+      </c>
+      <c r="AV24">
+        <v>6</v>
+      </c>
+      <c r="AW24">
+        <v>4</v>
+      </c>
+      <c r="AX24">
+        <v>3</v>
+      </c>
+      <c r="AY24">
+        <v>8</v>
+      </c>
+      <c r="AZ24">
+        <v>9</v>
+      </c>
+      <c r="BA24">
+        <v>2</v>
+      </c>
+      <c r="BB24">
+        <v>9</v>
+      </c>
+      <c r="BC24">
+        <v>11</v>
+      </c>
+      <c r="BD24">
+        <v>1.95</v>
+      </c>
+      <c r="BE24">
+        <v>7.6</v>
+      </c>
+      <c r="BF24">
+        <v>2.2</v>
+      </c>
+      <c r="BG24">
+        <v>1.18</v>
+      </c>
+      <c r="BH24">
+        <v>4.5</v>
+      </c>
+      <c r="BI24">
+        <v>1.34</v>
+      </c>
+      <c r="BJ24">
+        <v>3.1</v>
+      </c>
+      <c r="BK24">
+        <v>2</v>
+      </c>
+      <c r="BL24">
+        <v>2.23</v>
+      </c>
+      <c r="BM24">
+        <v>2.02</v>
+      </c>
+      <c r="BN24">
+        <v>1.74</v>
+      </c>
+      <c r="BO24">
+        <v>2.7</v>
+      </c>
+      <c r="BP24">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:68">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>7380346</v>
+      </c>
+      <c r="C25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="2">
+        <v>45416.75</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+      <c r="G25" t="s">
+        <v>78</v>
+      </c>
+      <c r="H25" t="s">
+        <v>72</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25" t="s">
+        <v>108</v>
+      </c>
+      <c r="P25" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q25">
+        <v>2.88</v>
+      </c>
+      <c r="R25">
+        <v>1.91</v>
+      </c>
+      <c r="S25">
+        <v>4.75</v>
+      </c>
+      <c r="T25">
+        <v>1.57</v>
+      </c>
+      <c r="U25">
+        <v>2.25</v>
+      </c>
+      <c r="V25">
+        <v>3.7</v>
+      </c>
+      <c r="W25">
+        <v>1.22</v>
+      </c>
+      <c r="X25">
+        <v>10</v>
+      </c>
+      <c r="Y25">
+        <v>1.03</v>
+      </c>
+      <c r="Z25">
+        <v>1.88</v>
+      </c>
+      <c r="AA25">
+        <v>3.25</v>
+      </c>
+      <c r="AB25">
+        <v>3.85</v>
+      </c>
+      <c r="AC25">
+        <v>1.1</v>
+      </c>
+      <c r="AD25">
+        <v>6.5</v>
+      </c>
+      <c r="AE25">
+        <v>1.51</v>
+      </c>
+      <c r="AF25">
+        <v>2.39</v>
+      </c>
+      <c r="AG25">
+        <v>2.46</v>
+      </c>
+      <c r="AH25">
+        <v>1.44</v>
+      </c>
+      <c r="AI25">
+        <v>2.38</v>
+      </c>
+      <c r="AJ25">
+        <v>1.53</v>
+      </c>
+      <c r="AK25">
+        <v>1.22</v>
+      </c>
+      <c r="AL25">
+        <v>1.28</v>
+      </c>
+      <c r="AM25">
+        <v>1.83</v>
+      </c>
+      <c r="AN25">
+        <v>3</v>
+      </c>
+      <c r="AO25">
+        <v>3</v>
+      </c>
+      <c r="AP25">
+        <v>3</v>
+      </c>
+      <c r="AQ25">
+        <v>1.5</v>
+      </c>
+      <c r="AR25">
+        <v>1.46</v>
+      </c>
+      <c r="AS25">
+        <v>1.63</v>
+      </c>
+      <c r="AT25">
+        <v>3.09</v>
+      </c>
+      <c r="AU25">
+        <v>4</v>
+      </c>
+      <c r="AV25">
+        <v>6</v>
+      </c>
+      <c r="AW25">
+        <v>6</v>
+      </c>
+      <c r="AX25">
+        <v>5</v>
+      </c>
+      <c r="AY25">
+        <v>10</v>
+      </c>
+      <c r="AZ25">
+        <v>11</v>
+      </c>
+      <c r="BA25">
+        <v>4</v>
+      </c>
+      <c r="BB25">
+        <v>6</v>
+      </c>
+      <c r="BC25">
+        <v>10</v>
+      </c>
+      <c r="BD25">
+        <v>1.67</v>
+      </c>
+      <c r="BE25">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF25">
+        <v>2.71</v>
+      </c>
+      <c r="BG25">
+        <v>1.18</v>
+      </c>
+      <c r="BH25">
+        <v>4.5</v>
+      </c>
+      <c r="BI25">
+        <v>1.34</v>
+      </c>
+      <c r="BJ25">
+        <v>3.1</v>
+      </c>
+      <c r="BK25">
+        <v>2</v>
+      </c>
+      <c r="BL25">
+        <v>2.23</v>
+      </c>
+      <c r="BM25">
+        <v>2.02</v>
+      </c>
+      <c r="BN25">
+        <v>1.74</v>
+      </c>
+      <c r="BO25">
+        <v>2.7</v>
+      </c>
+      <c r="BP25">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:68">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>7380349</v>
+      </c>
+      <c r="C26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="2">
+        <v>45416.875</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="G26" t="s">
+        <v>80</v>
+      </c>
+      <c r="H26" t="s">
+        <v>71</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>3</v>
+      </c>
+      <c r="N26">
+        <v>4</v>
+      </c>
+      <c r="O26" t="s">
+        <v>109</v>
+      </c>
+      <c r="P26" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q26">
+        <v>4</v>
+      </c>
+      <c r="R26">
+        <v>1.95</v>
+      </c>
+      <c r="S26">
+        <v>3.2</v>
+      </c>
+      <c r="T26">
+        <v>1.57</v>
+      </c>
+      <c r="U26">
+        <v>2.25</v>
+      </c>
+      <c r="V26">
+        <v>3.65</v>
+      </c>
+      <c r="W26">
+        <v>1.25</v>
+      </c>
+      <c r="X26">
+        <v>9.9</v>
+      </c>
+      <c r="Y26">
+        <v>1.03</v>
+      </c>
+      <c r="Z26">
+        <v>3.3</v>
+      </c>
+      <c r="AA26">
+        <v>3.1</v>
+      </c>
+      <c r="AB26">
+        <v>2.38</v>
+      </c>
+      <c r="AC26">
+        <v>1.1</v>
+      </c>
+      <c r="AD26">
+        <v>6.5</v>
+      </c>
+      <c r="AE26">
+        <v>1.51</v>
+      </c>
+      <c r="AF26">
+        <v>2.4</v>
+      </c>
+      <c r="AG26">
+        <v>2.4</v>
+      </c>
+      <c r="AH26">
+        <v>1.53</v>
+      </c>
+      <c r="AI26">
+        <v>2</v>
+      </c>
+      <c r="AJ26">
+        <v>1.73</v>
+      </c>
+      <c r="AK26">
+        <v>1.62</v>
+      </c>
+      <c r="AL26">
+        <v>1.3</v>
+      </c>
+      <c r="AM26">
+        <v>1.3</v>
+      </c>
+      <c r="AN26">
+        <v>0</v>
+      </c>
+      <c r="AO26">
+        <v>0</v>
+      </c>
+      <c r="AP26">
+        <v>0</v>
+      </c>
+      <c r="AQ26">
+        <v>1.5</v>
+      </c>
+      <c r="AR26">
+        <v>1.2</v>
+      </c>
+      <c r="AS26">
+        <v>0.78</v>
+      </c>
+      <c r="AT26">
+        <v>1.98</v>
+      </c>
+      <c r="AU26">
+        <v>6</v>
+      </c>
+      <c r="AV26">
+        <v>5</v>
+      </c>
+      <c r="AW26">
+        <v>2</v>
+      </c>
+      <c r="AX26">
+        <v>16</v>
+      </c>
+      <c r="AY26">
+        <v>8</v>
+      </c>
+      <c r="AZ26">
+        <v>21</v>
+      </c>
+      <c r="BA26">
+        <v>1</v>
+      </c>
+      <c r="BB26">
+        <v>12</v>
+      </c>
+      <c r="BC26">
+        <v>13</v>
+      </c>
+      <c r="BD26">
+        <v>2.14</v>
+      </c>
+      <c r="BE26">
+        <v>7.3</v>
+      </c>
+      <c r="BF26">
+        <v>2.02</v>
+      </c>
+      <c r="BG26">
+        <v>1.2</v>
+      </c>
+      <c r="BH26">
+        <v>4.25</v>
+      </c>
+      <c r="BI26">
+        <v>1.38</v>
+      </c>
+      <c r="BJ26">
+        <v>2.9</v>
+      </c>
+      <c r="BK26">
+        <v>2.1</v>
+      </c>
+      <c r="BL26">
+        <v>2.12</v>
+      </c>
+      <c r="BM26">
+        <v>2.12</v>
+      </c>
+      <c r="BN26">
+        <v>1.67</v>
+      </c>
+      <c r="BO26">
+        <v>2.85</v>
+      </c>
+      <c r="BP26">
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="125">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -386,6 +386,9 @@
   </si>
   <si>
     <t>['21', '47', '83']</t>
+  </si>
+  <si>
+    <t>['6', '57']</t>
   </si>
 </sst>
 </file>
@@ -747,7 +750,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP26"/>
+  <dimension ref="A1:BP27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2323,7 +2326,7 @@
         <v>1</v>
       </c>
       <c r="AQ8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2938,7 +2941,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AQ11">
         <v>0</v>
@@ -6107,6 +6110,212 @@
       </c>
       <c r="BP26">
         <v>1.38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:68">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>7380352</v>
+      </c>
+      <c r="C27" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="2">
+        <v>45417.66666666666</v>
+      </c>
+      <c r="F27">
+        <v>3</v>
+      </c>
+      <c r="G27" t="s">
+        <v>79</v>
+      </c>
+      <c r="H27" t="s">
+        <v>88</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>2</v>
+      </c>
+      <c r="N27">
+        <v>2</v>
+      </c>
+      <c r="O27" t="s">
+        <v>100</v>
+      </c>
+      <c r="P27" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q27">
+        <v>4</v>
+      </c>
+      <c r="R27">
+        <v>1.91</v>
+      </c>
+      <c r="S27">
+        <v>3.25</v>
+      </c>
+      <c r="T27">
+        <v>1.57</v>
+      </c>
+      <c r="U27">
+        <v>2.25</v>
+      </c>
+      <c r="V27">
+        <v>3.55</v>
+      </c>
+      <c r="W27">
+        <v>1.25</v>
+      </c>
+      <c r="X27">
+        <v>10.5</v>
+      </c>
+      <c r="Y27">
+        <v>1.03</v>
+      </c>
+      <c r="Z27">
+        <v>3.1</v>
+      </c>
+      <c r="AA27">
+        <v>2.8</v>
+      </c>
+      <c r="AB27">
+        <v>2.39</v>
+      </c>
+      <c r="AC27">
+        <v>1.11</v>
+      </c>
+      <c r="AD27">
+        <v>6.25</v>
+      </c>
+      <c r="AE27">
+        <v>1.51</v>
+      </c>
+      <c r="AF27">
+        <v>2.4</v>
+      </c>
+      <c r="AG27">
+        <v>2.31</v>
+      </c>
+      <c r="AH27">
+        <v>1.5</v>
+      </c>
+      <c r="AI27">
+        <v>2.1</v>
+      </c>
+      <c r="AJ27">
+        <v>1.67</v>
+      </c>
+      <c r="AK27">
+        <v>1.48</v>
+      </c>
+      <c r="AL27">
+        <v>1.33</v>
+      </c>
+      <c r="AM27">
+        <v>1.38</v>
+      </c>
+      <c r="AN27">
+        <v>3</v>
+      </c>
+      <c r="AO27">
+        <v>1</v>
+      </c>
+      <c r="AP27">
+        <v>1.5</v>
+      </c>
+      <c r="AQ27">
+        <v>2</v>
+      </c>
+      <c r="AR27">
+        <v>1.04</v>
+      </c>
+      <c r="AS27">
+        <v>0.64</v>
+      </c>
+      <c r="AT27">
+        <v>1.68</v>
+      </c>
+      <c r="AU27">
+        <v>6</v>
+      </c>
+      <c r="AV27">
+        <v>5</v>
+      </c>
+      <c r="AW27">
+        <v>11</v>
+      </c>
+      <c r="AX27">
+        <v>4</v>
+      </c>
+      <c r="AY27">
+        <v>17</v>
+      </c>
+      <c r="AZ27">
+        <v>9</v>
+      </c>
+      <c r="BA27">
+        <v>4</v>
+      </c>
+      <c r="BB27">
+        <v>3</v>
+      </c>
+      <c r="BC27">
+        <v>7</v>
+      </c>
+      <c r="BD27">
+        <v>1.95</v>
+      </c>
+      <c r="BE27">
+        <v>7.6</v>
+      </c>
+      <c r="BF27">
+        <v>2.2</v>
+      </c>
+      <c r="BG27">
+        <v>1.18</v>
+      </c>
+      <c r="BH27">
+        <v>4.5</v>
+      </c>
+      <c r="BI27">
+        <v>1.31</v>
+      </c>
+      <c r="BJ27">
+        <v>3.15</v>
+      </c>
+      <c r="BK27">
+        <v>2</v>
+      </c>
+      <c r="BL27">
+        <v>2.25</v>
+      </c>
+      <c r="BM27">
+        <v>1.99</v>
+      </c>
+      <c r="BN27">
+        <v>1.73</v>
+      </c>
+      <c r="BO27">
+        <v>2.6</v>
+      </c>
+      <c r="BP27">
+        <v>1.44</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="130">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -346,6 +346,15 @@
     <t>['45+6']</t>
   </si>
   <si>
+    <t>['30', '75']</t>
+  </si>
+  <si>
+    <t>['18', '34', '90+5']</t>
+  </si>
+  <si>
+    <t>['32', '40', '55', '62']</t>
+  </si>
+  <si>
     <t>['62']</t>
   </si>
   <si>
@@ -389,6 +398,12 @@
   </si>
   <si>
     <t>['6', '57']</t>
+  </si>
+  <si>
+    <t>['45+2', '50']</t>
+  </si>
+  <si>
+    <t>['73']</t>
   </si>
 </sst>
 </file>
@@ -750,7 +765,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP27"/>
+  <dimension ref="A1:BP30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1009,7 +1024,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1296,7 +1311,7 @@
         <v>3</v>
       </c>
       <c r="AQ3">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1627,7 +1642,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="Q5">
         <v>2.75</v>
@@ -2039,7 +2054,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="Q7">
         <v>4.33</v>
@@ -2245,7 +2260,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -2451,7 +2466,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2529,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ9">
         <v>1</v>
@@ -2863,7 +2878,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="Q11">
         <v>3.5</v>
@@ -3069,7 +3084,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="Q12">
         <v>3.6</v>
@@ -3481,7 +3496,7 @@
         <v>100</v>
       </c>
       <c r="P14" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="Q14">
         <v>4.75</v>
@@ -3687,7 +3702,7 @@
         <v>100</v>
       </c>
       <c r="P15" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -3974,7 +3989,7 @@
         <v>1</v>
       </c>
       <c r="AQ16">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4099,7 +4114,7 @@
         <v>102</v>
       </c>
       <c r="P17" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q17">
         <v>2.75</v>
@@ -4923,7 +4938,7 @@
         <v>106</v>
       </c>
       <c r="P21" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5335,7 +5350,7 @@
         <v>100</v>
       </c>
       <c r="P23" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q23">
         <v>3.2</v>
@@ -5541,7 +5556,7 @@
         <v>107</v>
       </c>
       <c r="P24" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Q24">
         <v>3.6</v>
@@ -5953,7 +5968,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6159,7 +6174,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Q27">
         <v>4</v>
@@ -6316,6 +6331,624 @@
       </c>
       <c r="BP27">
         <v>1.44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:68">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>7380355</v>
+      </c>
+      <c r="C28" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" s="2">
+        <v>45418.79166666666</v>
+      </c>
+      <c r="F28">
+        <v>3</v>
+      </c>
+      <c r="G28" t="s">
+        <v>76</v>
+      </c>
+      <c r="H28" t="s">
+        <v>84</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>2</v>
+      </c>
+      <c r="M28">
+        <v>2</v>
+      </c>
+      <c r="N28">
+        <v>4</v>
+      </c>
+      <c r="O28" t="s">
+        <v>110</v>
+      </c>
+      <c r="P28" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q28">
+        <v>2.88</v>
+      </c>
+      <c r="R28">
+        <v>1.95</v>
+      </c>
+      <c r="S28">
+        <v>4.75</v>
+      </c>
+      <c r="T28">
+        <v>1.5</v>
+      </c>
+      <c r="U28">
+        <v>2.4</v>
+      </c>
+      <c r="V28">
+        <v>3.3</v>
+      </c>
+      <c r="W28">
+        <v>1.28</v>
+      </c>
+      <c r="X28">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="Y28">
+        <v>1.04</v>
+      </c>
+      <c r="Z28">
+        <v>2.05</v>
+      </c>
+      <c r="AA28">
+        <v>3</v>
+      </c>
+      <c r="AB28">
+        <v>4.2</v>
+      </c>
+      <c r="AC28">
+        <v>1.09</v>
+      </c>
+      <c r="AD28">
+        <v>7</v>
+      </c>
+      <c r="AE28">
+        <v>1.45</v>
+      </c>
+      <c r="AF28">
+        <v>2.7</v>
+      </c>
+      <c r="AG28">
+        <v>2.6</v>
+      </c>
+      <c r="AH28">
+        <v>1.48</v>
+      </c>
+      <c r="AI28">
+        <v>2.2</v>
+      </c>
+      <c r="AJ28">
+        <v>1.62</v>
+      </c>
+      <c r="AK28">
+        <v>1.25</v>
+      </c>
+      <c r="AL28">
+        <v>1.3</v>
+      </c>
+      <c r="AM28">
+        <v>1.75</v>
+      </c>
+      <c r="AN28">
+        <v>1</v>
+      </c>
+      <c r="AO28">
+        <v>0</v>
+      </c>
+      <c r="AP28">
+        <v>1</v>
+      </c>
+      <c r="AQ28">
+        <v>0.5</v>
+      </c>
+      <c r="AR28">
+        <v>2.07</v>
+      </c>
+      <c r="AS28">
+        <v>1.48</v>
+      </c>
+      <c r="AT28">
+        <v>3.55</v>
+      </c>
+      <c r="AU28">
+        <v>3</v>
+      </c>
+      <c r="AV28">
+        <v>5</v>
+      </c>
+      <c r="AW28">
+        <v>7</v>
+      </c>
+      <c r="AX28">
+        <v>6</v>
+      </c>
+      <c r="AY28">
+        <v>10</v>
+      </c>
+      <c r="AZ28">
+        <v>11</v>
+      </c>
+      <c r="BA28">
+        <v>7</v>
+      </c>
+      <c r="BB28">
+        <v>6</v>
+      </c>
+      <c r="BC28">
+        <v>13</v>
+      </c>
+      <c r="BD28">
+        <v>1.57</v>
+      </c>
+      <c r="BE28">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF28">
+        <v>3</v>
+      </c>
+      <c r="BG28">
+        <v>1.25</v>
+      </c>
+      <c r="BH28">
+        <v>3.7</v>
+      </c>
+      <c r="BI28">
+        <v>1.36</v>
+      </c>
+      <c r="BJ28">
+        <v>2.79</v>
+      </c>
+      <c r="BK28">
+        <v>2.25</v>
+      </c>
+      <c r="BL28">
+        <v>2.09</v>
+      </c>
+      <c r="BM28">
+        <v>2.07</v>
+      </c>
+      <c r="BN28">
+        <v>1.67</v>
+      </c>
+      <c r="BO28">
+        <v>2.67</v>
+      </c>
+      <c r="BP28">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:68">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>7380347</v>
+      </c>
+      <c r="C29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" s="2">
+        <v>45418.83333333334</v>
+      </c>
+      <c r="F29">
+        <v>3</v>
+      </c>
+      <c r="G29" t="s">
+        <v>77</v>
+      </c>
+      <c r="H29" t="s">
+        <v>75</v>
+      </c>
+      <c r="I29">
+        <v>2</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>3</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>3</v>
+      </c>
+      <c r="O29" t="s">
+        <v>111</v>
+      </c>
+      <c r="P29" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q29">
+        <v>2.88</v>
+      </c>
+      <c r="R29">
+        <v>1.91</v>
+      </c>
+      <c r="S29">
+        <v>5</v>
+      </c>
+      <c r="T29">
+        <v>1.55</v>
+      </c>
+      <c r="U29">
+        <v>2.3</v>
+      </c>
+      <c r="V29">
+        <v>3.6</v>
+      </c>
+      <c r="W29">
+        <v>1.25</v>
+      </c>
+      <c r="X29">
+        <v>9.9</v>
+      </c>
+      <c r="Y29">
+        <v>1.03</v>
+      </c>
+      <c r="Z29">
+        <v>2</v>
+      </c>
+      <c r="AA29">
+        <v>3.1</v>
+      </c>
+      <c r="AB29">
+        <v>4.2</v>
+      </c>
+      <c r="AC29">
+        <v>1.09</v>
+      </c>
+      <c r="AD29">
+        <v>6</v>
+      </c>
+      <c r="AE29">
+        <v>1.5</v>
+      </c>
+      <c r="AF29">
+        <v>2.4</v>
+      </c>
+      <c r="AG29">
+        <v>2.7</v>
+      </c>
+      <c r="AH29">
+        <v>1.44</v>
+      </c>
+      <c r="AI29">
+        <v>2.38</v>
+      </c>
+      <c r="AJ29">
+        <v>1.53</v>
+      </c>
+      <c r="AK29">
+        <v>1.25</v>
+      </c>
+      <c r="AL29">
+        <v>1.33</v>
+      </c>
+      <c r="AM29">
+        <v>1.83</v>
+      </c>
+      <c r="AN29">
+        <v>1</v>
+      </c>
+      <c r="AO29">
+        <v>1</v>
+      </c>
+      <c r="AP29">
+        <v>2</v>
+      </c>
+      <c r="AQ29">
+        <v>0.5</v>
+      </c>
+      <c r="AR29">
+        <v>0</v>
+      </c>
+      <c r="AS29">
+        <v>0.84</v>
+      </c>
+      <c r="AT29">
+        <v>0.84</v>
+      </c>
+      <c r="AU29">
+        <v>7</v>
+      </c>
+      <c r="AV29">
+        <v>3</v>
+      </c>
+      <c r="AW29">
+        <v>8</v>
+      </c>
+      <c r="AX29">
+        <v>7</v>
+      </c>
+      <c r="AY29">
+        <v>15</v>
+      </c>
+      <c r="AZ29">
+        <v>10</v>
+      </c>
+      <c r="BA29">
+        <v>3</v>
+      </c>
+      <c r="BB29">
+        <v>3</v>
+      </c>
+      <c r="BC29">
+        <v>6</v>
+      </c>
+      <c r="BD29">
+        <v>1.67</v>
+      </c>
+      <c r="BE29">
+        <v>7.7</v>
+      </c>
+      <c r="BF29">
+        <v>2.76</v>
+      </c>
+      <c r="BG29">
+        <v>1.22</v>
+      </c>
+      <c r="BH29">
+        <v>4</v>
+      </c>
+      <c r="BI29">
+        <v>1.41</v>
+      </c>
+      <c r="BJ29">
+        <v>2.7</v>
+      </c>
+      <c r="BK29">
+        <v>2.2</v>
+      </c>
+      <c r="BL29">
+        <v>1.99</v>
+      </c>
+      <c r="BM29">
+        <v>2.2</v>
+      </c>
+      <c r="BN29">
+        <v>1.6</v>
+      </c>
+      <c r="BO29">
+        <v>2.9</v>
+      </c>
+      <c r="BP29">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:68">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>7380350</v>
+      </c>
+      <c r="C30" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="2">
+        <v>45418.875</v>
+      </c>
+      <c r="F30">
+        <v>3</v>
+      </c>
+      <c r="G30" t="s">
+        <v>74</v>
+      </c>
+      <c r="H30" t="s">
+        <v>83</v>
+      </c>
+      <c r="I30">
+        <v>2</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>4</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <v>5</v>
+      </c>
+      <c r="O30" t="s">
+        <v>112</v>
+      </c>
+      <c r="P30" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q30">
+        <v>2.1</v>
+      </c>
+      <c r="R30">
+        <v>2.2</v>
+      </c>
+      <c r="S30">
+        <v>7</v>
+      </c>
+      <c r="T30">
+        <v>1.44</v>
+      </c>
+      <c r="U30">
+        <v>2.63</v>
+      </c>
+      <c r="V30">
+        <v>3.25</v>
+      </c>
+      <c r="W30">
+        <v>1.33</v>
+      </c>
+      <c r="X30">
+        <v>10</v>
+      </c>
+      <c r="Y30">
+        <v>1.06</v>
+      </c>
+      <c r="Z30">
+        <v>1.5</v>
+      </c>
+      <c r="AA30">
+        <v>3.8</v>
+      </c>
+      <c r="AB30">
+        <v>7</v>
+      </c>
+      <c r="AC30">
+        <v>1.04</v>
+      </c>
+      <c r="AD30">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AE30">
+        <v>1.36</v>
+      </c>
+      <c r="AF30">
+        <v>2.88</v>
+      </c>
+      <c r="AG30">
+        <v>2.15</v>
+      </c>
+      <c r="AH30">
+        <v>1.67</v>
+      </c>
+      <c r="AI30">
+        <v>2.25</v>
+      </c>
+      <c r="AJ30">
+        <v>1.57</v>
+      </c>
+      <c r="AK30">
+        <v>1.11</v>
+      </c>
+      <c r="AL30">
+        <v>1.25</v>
+      </c>
+      <c r="AM30">
+        <v>2.5</v>
+      </c>
+      <c r="AN30">
+        <v>3</v>
+      </c>
+      <c r="AO30">
+        <v>0</v>
+      </c>
+      <c r="AP30">
+        <v>3</v>
+      </c>
+      <c r="AQ30">
+        <v>0</v>
+      </c>
+      <c r="AR30">
+        <v>0.95</v>
+      </c>
+      <c r="AS30">
+        <v>1.48</v>
+      </c>
+      <c r="AT30">
+        <v>2.43</v>
+      </c>
+      <c r="AU30">
+        <v>8</v>
+      </c>
+      <c r="AV30">
+        <v>3</v>
+      </c>
+      <c r="AW30">
+        <v>3</v>
+      </c>
+      <c r="AX30">
+        <v>5</v>
+      </c>
+      <c r="AY30">
+        <v>11</v>
+      </c>
+      <c r="AZ30">
+        <v>8</v>
+      </c>
+      <c r="BA30">
+        <v>3</v>
+      </c>
+      <c r="BB30">
+        <v>7</v>
+      </c>
+      <c r="BC30">
+        <v>10</v>
+      </c>
+      <c r="BD30">
+        <v>1.43</v>
+      </c>
+      <c r="BE30">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF30">
+        <v>3.54</v>
+      </c>
+      <c r="BG30">
+        <v>1.22</v>
+      </c>
+      <c r="BH30">
+        <v>4</v>
+      </c>
+      <c r="BI30">
+        <v>1.42</v>
+      </c>
+      <c r="BJ30">
+        <v>2.75</v>
+      </c>
+      <c r="BK30">
+        <v>2.2</v>
+      </c>
+      <c r="BL30">
+        <v>2</v>
+      </c>
+      <c r="BM30">
+        <v>2.23</v>
+      </c>
+      <c r="BN30">
+        <v>1.61</v>
+      </c>
+      <c r="BO30">
+        <v>3</v>
+      </c>
+      <c r="BP30">
+        <v>1.35</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="132">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -256,12 +256,12 @@
     <t>Brusque</t>
   </si>
   <si>
+    <t>Sport Recife</t>
+  </si>
+  <si>
     <t>Ituano</t>
   </si>
   <si>
-    <t>Sport Recife</t>
-  </si>
-  <si>
     <t>Avaí</t>
   </si>
   <si>
@@ -316,12 +316,12 @@
     <t>['8', '67', '90+7']</t>
   </si>
   <si>
+    <t>['27', '51']</t>
+  </si>
+  <si>
     <t>[]</t>
   </si>
   <si>
-    <t>['27', '51']</t>
-  </si>
-  <si>
     <t>['68']</t>
   </si>
   <si>
@@ -346,13 +346,16 @@
     <t>['45+6']</t>
   </si>
   <si>
-    <t>['30', '75']</t>
-  </si>
-  <si>
-    <t>['18', '34', '90+5']</t>
-  </si>
-  <si>
-    <t>['32', '40', '55', '62']</t>
+    <t>['33', '83']</t>
+  </si>
+  <si>
+    <t>['8', '33', '98+5']</t>
+  </si>
+  <si>
+    <t>['22', '43', '50', '54']</t>
+  </si>
+  <si>
+    <t>['21', '42', '89']</t>
   </si>
   <si>
     <t>['62']</t>
@@ -400,10 +403,13 @@
     <t>['6', '57']</t>
   </si>
   <si>
-    <t>['45+2', '50']</t>
-  </si>
-  <si>
-    <t>['73']</t>
+    <t>['45+2', '52']</t>
+  </si>
+  <si>
+    <t>['78']</t>
+  </si>
+  <si>
+    <t>['10']</t>
   </si>
 </sst>
 </file>
@@ -765,7 +771,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP30"/>
+  <dimension ref="A1:BP32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1024,7 +1030,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1436,7 +1442,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q4">
         <v>3.25</v>
@@ -1618,7 +1624,7 @@
         <v>73</v>
       </c>
       <c r="H5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -1642,7 +1648,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q5">
         <v>2.75</v>
@@ -1848,7 +1854,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q6">
         <v>1.91</v>
@@ -2030,7 +2036,7 @@
         <v>75</v>
       </c>
       <c r="H7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -2054,7 +2060,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q7">
         <v>4.33</v>
@@ -2260,7 +2266,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -2466,7 +2472,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2672,7 +2678,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q10">
         <v>2.88</v>
@@ -2878,7 +2884,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q11">
         <v>3.5</v>
@@ -2959,7 +2965,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ11">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3042,7 +3048,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>7380339</v>
+        <v>7380345</v>
       </c>
       <c r="C12" t="s">
         <v>68</v>
@@ -3060,22 +3066,22 @@
         <v>80</v>
       </c>
       <c r="H12" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>2</v>
@@ -3084,77 +3090,77 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="Q12">
+        <v>2.3</v>
+      </c>
+      <c r="R12">
+        <v>2.1</v>
+      </c>
+      <c r="S12">
+        <v>6</v>
+      </c>
+      <c r="T12">
+        <v>1.48</v>
+      </c>
+      <c r="U12">
+        <v>2.54</v>
+      </c>
+      <c r="V12">
+        <v>3.28</v>
+      </c>
+      <c r="W12">
+        <v>1.31</v>
+      </c>
+      <c r="X12">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="Y12">
+        <v>1.05</v>
+      </c>
+      <c r="Z12">
+        <v>1.62</v>
+      </c>
+      <c r="AA12">
         <v>3.6</v>
       </c>
-      <c r="R12">
-        <v>1.91</v>
-      </c>
-      <c r="S12">
-        <v>3.6</v>
-      </c>
-      <c r="T12">
-        <v>1.57</v>
-      </c>
-      <c r="U12">
-        <v>2.31</v>
-      </c>
-      <c r="V12">
-        <v>3.54</v>
-      </c>
-      <c r="W12">
-        <v>1.27</v>
-      </c>
-      <c r="X12">
-        <v>9.9</v>
-      </c>
-      <c r="Y12">
-        <v>1.03</v>
-      </c>
-      <c r="Z12">
-        <v>2.75</v>
-      </c>
-      <c r="AA12">
-        <v>3.1</v>
-      </c>
       <c r="AB12">
-        <v>2.75</v>
+        <v>6.5</v>
       </c>
       <c r="AC12">
-        <v>1.1</v>
+        <v>1.04</v>
       </c>
       <c r="AD12">
-        <v>6.5</v>
+        <v>7.4</v>
       </c>
       <c r="AE12">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AF12">
-        <v>2.4</v>
+        <v>2.71</v>
       </c>
       <c r="AG12">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="AH12">
-        <v>1.48</v>
+        <v>1.62</v>
       </c>
       <c r="AI12">
+        <v>2.2</v>
+      </c>
+      <c r="AJ12">
+        <v>1.62</v>
+      </c>
+      <c r="AK12">
+        <v>1.15</v>
+      </c>
+      <c r="AL12">
+        <v>1.28</v>
+      </c>
+      <c r="AM12">
         <v>2.1</v>
       </c>
-      <c r="AJ12">
-        <v>1.67</v>
-      </c>
-      <c r="AK12">
-        <v>1.35</v>
-      </c>
-      <c r="AL12">
-        <v>1.36</v>
-      </c>
-      <c r="AM12">
-        <v>1.52</v>
-      </c>
       <c r="AN12">
         <v>0</v>
       </c>
@@ -3162,10 +3168,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AQ12">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3177,70 +3183,70 @@
         <v>0</v>
       </c>
       <c r="AU12">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AV12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AW12">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AX12">
+        <v>8</v>
+      </c>
+      <c r="AY12">
+        <v>8</v>
+      </c>
+      <c r="AZ12">
         <v>11</v>
-      </c>
-      <c r="AY12">
-        <v>11</v>
-      </c>
-      <c r="AZ12">
-        <v>16</v>
       </c>
       <c r="BA12">
         <v>9</v>
       </c>
       <c r="BB12">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="BC12">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="BD12">
-        <v>2.05</v>
+        <v>1.4</v>
       </c>
       <c r="BE12">
-        <v>7.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="BF12">
-        <v>2.1</v>
+        <v>3.65</v>
       </c>
       <c r="BG12">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="BH12">
-        <v>4.3</v>
+        <v>4.33</v>
       </c>
       <c r="BI12">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="BJ12">
-        <v>2.95</v>
+        <v>3.35</v>
       </c>
       <c r="BK12">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="BL12">
-        <v>2.14</v>
+        <v>2.4</v>
       </c>
       <c r="BM12">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="BN12">
-        <v>1.68</v>
+        <v>1.84</v>
       </c>
       <c r="BO12">
-        <v>2.8</v>
+        <v>2.48</v>
       </c>
       <c r="BP12">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="13" spans="1:68">
@@ -3248,7 +3254,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>7380345</v>
+        <v>7380339</v>
       </c>
       <c r="C13" t="s">
         <v>68</v>
@@ -3266,22 +3272,22 @@
         <v>81</v>
       </c>
       <c r="H13" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13">
         <v>1</v>
       </c>
       <c r="L13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N13">
         <v>2</v>
@@ -3290,76 +3296,76 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="Q13">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="R13">
+        <v>1.91</v>
+      </c>
+      <c r="S13">
+        <v>3.6</v>
+      </c>
+      <c r="T13">
+        <v>1.57</v>
+      </c>
+      <c r="U13">
+        <v>2.31</v>
+      </c>
+      <c r="V13">
+        <v>3.54</v>
+      </c>
+      <c r="W13">
+        <v>1.27</v>
+      </c>
+      <c r="X13">
+        <v>9.9</v>
+      </c>
+      <c r="Y13">
+        <v>1.03</v>
+      </c>
+      <c r="Z13">
+        <v>2.75</v>
+      </c>
+      <c r="AA13">
+        <v>3.1</v>
+      </c>
+      <c r="AB13">
+        <v>2.75</v>
+      </c>
+      <c r="AC13">
+        <v>1.1</v>
+      </c>
+      <c r="AD13">
+        <v>6.5</v>
+      </c>
+      <c r="AE13">
+        <v>1.5</v>
+      </c>
+      <c r="AF13">
+        <v>2.4</v>
+      </c>
+      <c r="AG13">
+        <v>2.6</v>
+      </c>
+      <c r="AH13">
+        <v>1.48</v>
+      </c>
+      <c r="AI13">
         <v>2.1</v>
       </c>
-      <c r="S13">
-        <v>6</v>
-      </c>
-      <c r="T13">
-        <v>1.48</v>
-      </c>
-      <c r="U13">
-        <v>2.54</v>
-      </c>
-      <c r="V13">
-        <v>3.28</v>
-      </c>
-      <c r="W13">
-        <v>1.31</v>
-      </c>
-      <c r="X13">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="Y13">
-        <v>1.05</v>
-      </c>
-      <c r="Z13">
-        <v>1.62</v>
-      </c>
-      <c r="AA13">
-        <v>3.6</v>
-      </c>
-      <c r="AB13">
-        <v>6.5</v>
-      </c>
-      <c r="AC13">
-        <v>1.04</v>
-      </c>
-      <c r="AD13">
-        <v>7.4</v>
-      </c>
-      <c r="AE13">
-        <v>1.38</v>
-      </c>
-      <c r="AF13">
-        <v>2.71</v>
-      </c>
-      <c r="AG13">
-        <v>2.25</v>
-      </c>
-      <c r="AH13">
-        <v>1.62</v>
-      </c>
-      <c r="AI13">
-        <v>2.2</v>
-      </c>
       <c r="AJ13">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="AK13">
-        <v>1.15</v>
+        <v>1.35</v>
       </c>
       <c r="AL13">
-        <v>1.28</v>
+        <v>1.36</v>
       </c>
       <c r="AM13">
-        <v>2.1</v>
+        <v>1.52</v>
       </c>
       <c r="AN13">
         <v>0</v>
@@ -3368,10 +3374,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AQ13">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3383,70 +3389,70 @@
         <v>0</v>
       </c>
       <c r="AU13">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AV13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW13">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AX13">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AY13">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AZ13">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="BA13">
         <v>9</v>
       </c>
       <c r="BB13">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="BC13">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="BD13">
+        <v>2.05</v>
+      </c>
+      <c r="BE13">
+        <v>7.4</v>
+      </c>
+      <c r="BF13">
+        <v>2.1</v>
+      </c>
+      <c r="BG13">
+        <v>1.2</v>
+      </c>
+      <c r="BH13">
+        <v>4.3</v>
+      </c>
+      <c r="BI13">
+        <v>1.37</v>
+      </c>
+      <c r="BJ13">
+        <v>2.95</v>
+      </c>
+      <c r="BK13">
+        <v>2.2</v>
+      </c>
+      <c r="BL13">
+        <v>2.14</v>
+      </c>
+      <c r="BM13">
+        <v>2.1</v>
+      </c>
+      <c r="BN13">
+        <v>1.68</v>
+      </c>
+      <c r="BO13">
+        <v>2.8</v>
+      </c>
+      <c r="BP13">
         <v>1.4</v>
-      </c>
-      <c r="BE13">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="BF13">
-        <v>3.65</v>
-      </c>
-      <c r="BG13">
-        <v>1.18</v>
-      </c>
-      <c r="BH13">
-        <v>4.33</v>
-      </c>
-      <c r="BI13">
-        <v>1.3</v>
-      </c>
-      <c r="BJ13">
-        <v>3.35</v>
-      </c>
-      <c r="BK13">
-        <v>1.83</v>
-      </c>
-      <c r="BL13">
-        <v>2.4</v>
-      </c>
-      <c r="BM13">
-        <v>1.9</v>
-      </c>
-      <c r="BN13">
-        <v>1.84</v>
-      </c>
-      <c r="BO13">
-        <v>2.48</v>
-      </c>
-      <c r="BP13">
-        <v>1.5</v>
       </c>
     </row>
     <row r="14" spans="1:68">
@@ -3493,10 +3499,10 @@
         <v>2</v>
       </c>
       <c r="O14" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q14">
         <v>4.75</v>
@@ -3699,10 +3705,10 @@
         <v>1</v>
       </c>
       <c r="O15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P15" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -3905,10 +3911,10 @@
         <v>0</v>
       </c>
       <c r="O16" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P16" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q16">
         <v>2.1</v>
@@ -4114,7 +4120,7 @@
         <v>102</v>
       </c>
       <c r="P17" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q17">
         <v>2.75</v>
@@ -4320,7 +4326,7 @@
         <v>103</v>
       </c>
       <c r="P18" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -4526,7 +4532,7 @@
         <v>104</v>
       </c>
       <c r="P19" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q19">
         <v>2.1</v>
@@ -4732,7 +4738,7 @@
         <v>105</v>
       </c>
       <c r="P20" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q20">
         <v>2.3</v>
@@ -4938,7 +4944,7 @@
         <v>106</v>
       </c>
       <c r="P21" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5141,10 +5147,10 @@
         <v>0</v>
       </c>
       <c r="O22" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P22" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -5326,7 +5332,7 @@
         <v>87</v>
       </c>
       <c r="H23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -5347,10 +5353,10 @@
         <v>1</v>
       </c>
       <c r="O23" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q23">
         <v>3.2</v>
@@ -5556,7 +5562,7 @@
         <v>107</v>
       </c>
       <c r="P24" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q24">
         <v>3.6</v>
@@ -5762,7 +5768,7 @@
         <v>108</v>
       </c>
       <c r="P25" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q25">
         <v>2.88</v>
@@ -5941,7 +5947,7 @@
         <v>3</v>
       </c>
       <c r="G26" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H26" t="s">
         <v>71</v>
@@ -5968,7 +5974,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6171,10 +6177,10 @@
         <v>2</v>
       </c>
       <c r="O27" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q27">
         <v>4</v>
@@ -6380,7 +6386,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6586,7 +6592,7 @@
         <v>111</v>
       </c>
       <c r="P29" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q29">
         <v>2.88</v>
@@ -6792,7 +6798,7 @@
         <v>112</v>
       </c>
       <c r="P30" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q30">
         <v>2.1</v>
@@ -6949,6 +6955,418 @@
       </c>
       <c r="BP30">
         <v>1.35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:68">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>7380348</v>
+      </c>
+      <c r="C31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="2">
+        <v>45419.875</v>
+      </c>
+      <c r="F31">
+        <v>3</v>
+      </c>
+      <c r="G31" t="s">
+        <v>70</v>
+      </c>
+      <c r="H31" t="s">
+        <v>89</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31" t="s">
+        <v>101</v>
+      </c>
+      <c r="P31" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q31">
+        <v>3.75</v>
+      </c>
+      <c r="R31">
+        <v>1.91</v>
+      </c>
+      <c r="S31">
+        <v>3.4</v>
+      </c>
+      <c r="T31">
+        <v>1.62</v>
+      </c>
+      <c r="U31">
+        <v>2.2</v>
+      </c>
+      <c r="V31">
+        <v>4</v>
+      </c>
+      <c r="W31">
+        <v>1.22</v>
+      </c>
+      <c r="X31">
+        <v>13</v>
+      </c>
+      <c r="Y31">
+        <v>1.04</v>
+      </c>
+      <c r="Z31">
+        <v>2.8</v>
+      </c>
+      <c r="AA31">
+        <v>3.1</v>
+      </c>
+      <c r="AB31">
+        <v>2.63</v>
+      </c>
+      <c r="AC31">
+        <v>1.09</v>
+      </c>
+      <c r="AD31">
+        <v>6.5</v>
+      </c>
+      <c r="AE31">
+        <v>1.5</v>
+      </c>
+      <c r="AF31">
+        <v>2.45</v>
+      </c>
+      <c r="AG31">
+        <v>2.6</v>
+      </c>
+      <c r="AH31">
+        <v>1.48</v>
+      </c>
+      <c r="AI31">
+        <v>2.1</v>
+      </c>
+      <c r="AJ31">
+        <v>1.67</v>
+      </c>
+      <c r="AK31">
+        <v>1.38</v>
+      </c>
+      <c r="AL31">
+        <v>1.3</v>
+      </c>
+      <c r="AM31">
+        <v>1.53</v>
+      </c>
+      <c r="AN31">
+        <v>1</v>
+      </c>
+      <c r="AO31">
+        <v>0</v>
+      </c>
+      <c r="AP31">
+        <v>1</v>
+      </c>
+      <c r="AQ31">
+        <v>0.5</v>
+      </c>
+      <c r="AR31">
+        <v>1.04</v>
+      </c>
+      <c r="AS31">
+        <v>1.76</v>
+      </c>
+      <c r="AT31">
+        <v>2.8</v>
+      </c>
+      <c r="AU31">
+        <v>3</v>
+      </c>
+      <c r="AV31">
+        <v>3</v>
+      </c>
+      <c r="AW31">
+        <v>7</v>
+      </c>
+      <c r="AX31">
+        <v>3</v>
+      </c>
+      <c r="AY31">
+        <v>10</v>
+      </c>
+      <c r="AZ31">
+        <v>6</v>
+      </c>
+      <c r="BA31">
+        <v>5</v>
+      </c>
+      <c r="BB31">
+        <v>5</v>
+      </c>
+      <c r="BC31">
+        <v>10</v>
+      </c>
+      <c r="BD31">
+        <v>2.02</v>
+      </c>
+      <c r="BE31">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF31">
+        <v>2.02</v>
+      </c>
+      <c r="BG31">
+        <v>1.19</v>
+      </c>
+      <c r="BH31">
+        <v>3.94</v>
+      </c>
+      <c r="BI31">
+        <v>1.38</v>
+      </c>
+      <c r="BJ31">
+        <v>2.71</v>
+      </c>
+      <c r="BK31">
+        <v>2.1</v>
+      </c>
+      <c r="BL31">
+        <v>2.04</v>
+      </c>
+      <c r="BM31">
+        <v>2.11</v>
+      </c>
+      <c r="BN31">
+        <v>1.62</v>
+      </c>
+      <c r="BO31">
+        <v>2.79</v>
+      </c>
+      <c r="BP31">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:68">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>7380360</v>
+      </c>
+      <c r="C32" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" s="2">
+        <v>45420.875</v>
+      </c>
+      <c r="F32">
+        <v>4</v>
+      </c>
+      <c r="G32" t="s">
+        <v>86</v>
+      </c>
+      <c r="H32" t="s">
+        <v>78</v>
+      </c>
+      <c r="I32">
+        <v>2</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>3</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32">
+        <v>4</v>
+      </c>
+      <c r="O32" t="s">
+        <v>113</v>
+      </c>
+      <c r="P32" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q32">
+        <v>2.38</v>
+      </c>
+      <c r="R32">
+        <v>2.05</v>
+      </c>
+      <c r="S32">
+        <v>6</v>
+      </c>
+      <c r="T32">
+        <v>1.5</v>
+      </c>
+      <c r="U32">
+        <v>2.5</v>
+      </c>
+      <c r="V32">
+        <v>3.4</v>
+      </c>
+      <c r="W32">
+        <v>1.3</v>
+      </c>
+      <c r="X32">
+        <v>10</v>
+      </c>
+      <c r="Y32">
+        <v>1.06</v>
+      </c>
+      <c r="Z32">
+        <v>1.7</v>
+      </c>
+      <c r="AA32">
+        <v>3.6</v>
+      </c>
+      <c r="AB32">
+        <v>5.25</v>
+      </c>
+      <c r="AC32">
+        <v>1.04</v>
+      </c>
+      <c r="AD32">
+        <v>7.4</v>
+      </c>
+      <c r="AE32">
+        <v>1.38</v>
+      </c>
+      <c r="AF32">
+        <v>2.71</v>
+      </c>
+      <c r="AG32">
+        <v>2.3</v>
+      </c>
+      <c r="AH32">
+        <v>1.6</v>
+      </c>
+      <c r="AI32">
+        <v>2.2</v>
+      </c>
+      <c r="AJ32">
+        <v>1.62</v>
+      </c>
+      <c r="AK32">
+        <v>1.16</v>
+      </c>
+      <c r="AL32">
+        <v>1.25</v>
+      </c>
+      <c r="AM32">
+        <v>1.9</v>
+      </c>
+      <c r="AN32">
+        <v>3</v>
+      </c>
+      <c r="AO32">
+        <v>0</v>
+      </c>
+      <c r="AP32">
+        <v>3</v>
+      </c>
+      <c r="AQ32">
+        <v>0</v>
+      </c>
+      <c r="AR32">
+        <v>2.22</v>
+      </c>
+      <c r="AS32">
+        <v>1.27</v>
+      </c>
+      <c r="AT32">
+        <v>3.49</v>
+      </c>
+      <c r="AU32">
+        <v>7</v>
+      </c>
+      <c r="AV32">
+        <v>4</v>
+      </c>
+      <c r="AW32">
+        <v>8</v>
+      </c>
+      <c r="AX32">
+        <v>4</v>
+      </c>
+      <c r="AY32">
+        <v>15</v>
+      </c>
+      <c r="AZ32">
+        <v>8</v>
+      </c>
+      <c r="BA32">
+        <v>5</v>
+      </c>
+      <c r="BB32">
+        <v>2</v>
+      </c>
+      <c r="BC32">
+        <v>7</v>
+      </c>
+      <c r="BD32">
+        <v>1.51</v>
+      </c>
+      <c r="BE32">
+        <v>8.4</v>
+      </c>
+      <c r="BF32">
+        <v>3.24</v>
+      </c>
+      <c r="BG32">
+        <v>1.24</v>
+      </c>
+      <c r="BH32">
+        <v>3.75</v>
+      </c>
+      <c r="BI32">
+        <v>1.45</v>
+      </c>
+      <c r="BJ32">
+        <v>2.55</v>
+      </c>
+      <c r="BK32">
+        <v>2.25</v>
+      </c>
+      <c r="BL32">
+        <v>1.98</v>
+      </c>
+      <c r="BM32">
+        <v>2.32</v>
+      </c>
+      <c r="BN32">
+        <v>1.54</v>
+      </c>
+      <c r="BO32">
+        <v>3.1</v>
+      </c>
+      <c r="BP32">
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
@@ -7312,13 +7312,13 @@
         <v>8</v>
       </c>
       <c r="AX32">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY32">
         <v>15</v>
       </c>
       <c r="AZ32">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA32">
         <v>5</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="135">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -358,6 +358,12 @@
     <t>['21', '42', '89']</t>
   </si>
   <si>
+    <t>['11', '73']</t>
+  </si>
+  <si>
+    <t>['19', '45+1']</t>
+  </si>
+  <si>
     <t>['62']</t>
   </si>
   <si>
@@ -410,6 +416,9 @@
   </si>
   <si>
     <t>['10']</t>
+  </si>
+  <si>
+    <t>['11', '58', '87']</t>
   </si>
 </sst>
 </file>
@@ -771,7 +780,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP32"/>
+  <dimension ref="A1:BP35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1030,7 +1039,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1314,7 +1323,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AQ3">
         <v>0.5</v>
@@ -1648,7 +1657,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q5">
         <v>2.75</v>
@@ -2060,7 +2069,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q7">
         <v>4.33</v>
@@ -2266,7 +2275,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -2472,7 +2481,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2884,7 +2893,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q11">
         <v>3.5</v>
@@ -3296,7 +3305,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q13">
         <v>3.6</v>
@@ -3502,7 +3511,7 @@
         <v>101</v>
       </c>
       <c r="P14" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q14">
         <v>4.75</v>
@@ -3708,7 +3717,7 @@
         <v>101</v>
       </c>
       <c r="P15" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -3789,7 +3798,7 @@
         <v>0</v>
       </c>
       <c r="AQ15">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -3992,7 +4001,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ16">
         <v>0.5</v>
@@ -4120,7 +4129,7 @@
         <v>102</v>
       </c>
       <c r="P17" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q17">
         <v>2.75</v>
@@ -4944,7 +4953,7 @@
         <v>106</v>
       </c>
       <c r="P21" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5025,7 +5034,7 @@
         <v>3</v>
       </c>
       <c r="AQ21">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5356,7 +5365,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q23">
         <v>3.2</v>
@@ -5562,7 +5571,7 @@
         <v>107</v>
       </c>
       <c r="P24" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q24">
         <v>3.6</v>
@@ -5974,7 +5983,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6180,7 +6189,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q27">
         <v>4</v>
@@ -6386,7 +6395,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6798,7 +6807,7 @@
         <v>112</v>
       </c>
       <c r="P30" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q30">
         <v>2.1</v>
@@ -7210,7 +7219,7 @@
         <v>113</v>
       </c>
       <c r="P32" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q32">
         <v>2.38</v>
@@ -7366,6 +7375,624 @@
         <v>3.1</v>
       </c>
       <c r="BP32">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:68">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>7380359</v>
+      </c>
+      <c r="C33" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" t="s">
+        <v>69</v>
+      </c>
+      <c r="E33" s="2">
+        <v>45422.79166666666</v>
+      </c>
+      <c r="F33">
+        <v>4</v>
+      </c>
+      <c r="G33" t="s">
+        <v>71</v>
+      </c>
+      <c r="H33" t="s">
+        <v>76</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>3</v>
+      </c>
+      <c r="N33">
+        <v>3</v>
+      </c>
+      <c r="O33" t="s">
+        <v>101</v>
+      </c>
+      <c r="P33" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q33">
+        <v>2.5</v>
+      </c>
+      <c r="R33">
+        <v>2.1</v>
+      </c>
+      <c r="S33">
+        <v>5</v>
+      </c>
+      <c r="T33">
+        <v>1.48</v>
+      </c>
+      <c r="U33">
+        <v>2.45</v>
+      </c>
+      <c r="V33">
+        <v>3.2</v>
+      </c>
+      <c r="W33">
+        <v>1.3</v>
+      </c>
+      <c r="X33">
+        <v>8.5</v>
+      </c>
+      <c r="Y33">
+        <v>1.05</v>
+      </c>
+      <c r="Z33">
+        <v>1.85</v>
+      </c>
+      <c r="AA33">
+        <v>3.4</v>
+      </c>
+      <c r="AB33">
+        <v>4.5</v>
+      </c>
+      <c r="AC33">
+        <v>1.08</v>
+      </c>
+      <c r="AD33">
+        <v>7.5</v>
+      </c>
+      <c r="AE33">
+        <v>1.42</v>
+      </c>
+      <c r="AF33">
+        <v>2.8</v>
+      </c>
+      <c r="AG33">
+        <v>2.2</v>
+      </c>
+      <c r="AH33">
+        <v>1.65</v>
+      </c>
+      <c r="AI33">
+        <v>2</v>
+      </c>
+      <c r="AJ33">
+        <v>1.73</v>
+      </c>
+      <c r="AK33">
+        <v>1.2</v>
+      </c>
+      <c r="AL33">
+        <v>1.28</v>
+      </c>
+      <c r="AM33">
+        <v>1.85</v>
+      </c>
+      <c r="AN33">
+        <v>3</v>
+      </c>
+      <c r="AO33">
+        <v>0</v>
+      </c>
+      <c r="AP33">
+        <v>1.5</v>
+      </c>
+      <c r="AQ33">
+        <v>1.5</v>
+      </c>
+      <c r="AR33">
+        <v>1.83</v>
+      </c>
+      <c r="AS33">
+        <v>1.57</v>
+      </c>
+      <c r="AT33">
+        <v>3.4</v>
+      </c>
+      <c r="AU33">
+        <v>7</v>
+      </c>
+      <c r="AV33">
+        <v>5</v>
+      </c>
+      <c r="AW33">
+        <v>11</v>
+      </c>
+      <c r="AX33">
+        <v>4</v>
+      </c>
+      <c r="AY33">
+        <v>18</v>
+      </c>
+      <c r="AZ33">
+        <v>9</v>
+      </c>
+      <c r="BA33">
+        <v>8</v>
+      </c>
+      <c r="BB33">
+        <v>2</v>
+      </c>
+      <c r="BC33">
+        <v>10</v>
+      </c>
+      <c r="BD33">
+        <v>1.51</v>
+      </c>
+      <c r="BE33">
+        <v>8.4</v>
+      </c>
+      <c r="BF33">
+        <v>3.24</v>
+      </c>
+      <c r="BG33">
+        <v>1.19</v>
+      </c>
+      <c r="BH33">
+        <v>4.2</v>
+      </c>
+      <c r="BI33">
+        <v>1.32</v>
+      </c>
+      <c r="BJ33">
+        <v>3.1</v>
+      </c>
+      <c r="BK33">
+        <v>2</v>
+      </c>
+      <c r="BL33">
+        <v>2.27</v>
+      </c>
+      <c r="BM33">
+        <v>1.99</v>
+      </c>
+      <c r="BN33">
+        <v>1.73</v>
+      </c>
+      <c r="BO33">
+        <v>2.6</v>
+      </c>
+      <c r="BP33">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:68">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>7380356</v>
+      </c>
+      <c r="C34" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34" s="2">
+        <v>45422.89583333334</v>
+      </c>
+      <c r="F34">
+        <v>4</v>
+      </c>
+      <c r="G34" t="s">
+        <v>88</v>
+      </c>
+      <c r="H34" t="s">
+        <v>81</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>2</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>2</v>
+      </c>
+      <c r="O34" t="s">
+        <v>114</v>
+      </c>
+      <c r="P34" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q34">
+        <v>1.95</v>
+      </c>
+      <c r="R34">
+        <v>2.25</v>
+      </c>
+      <c r="S34">
+        <v>8.5</v>
+      </c>
+      <c r="T34">
+        <v>1.44</v>
+      </c>
+      <c r="U34">
+        <v>2.67</v>
+      </c>
+      <c r="V34">
+        <v>3.04</v>
+      </c>
+      <c r="W34">
+        <v>1.35</v>
+      </c>
+      <c r="X34">
+        <v>8</v>
+      </c>
+      <c r="Y34">
+        <v>1.06</v>
+      </c>
+      <c r="Z34">
+        <v>1.4</v>
+      </c>
+      <c r="AA34">
+        <v>4.2</v>
+      </c>
+      <c r="AB34">
+        <v>9.5</v>
+      </c>
+      <c r="AC34">
+        <v>1.07</v>
+      </c>
+      <c r="AD34">
+        <v>8</v>
+      </c>
+      <c r="AE34">
+        <v>1.38</v>
+      </c>
+      <c r="AF34">
+        <v>3</v>
+      </c>
+      <c r="AG34">
+        <v>2.08</v>
+      </c>
+      <c r="AH34">
+        <v>1.73</v>
+      </c>
+      <c r="AI34">
+        <v>2.38</v>
+      </c>
+      <c r="AJ34">
+        <v>1.53</v>
+      </c>
+      <c r="AK34">
+        <v>1.07</v>
+      </c>
+      <c r="AL34">
+        <v>1.21</v>
+      </c>
+      <c r="AM34">
+        <v>2.71</v>
+      </c>
+      <c r="AN34">
+        <v>3</v>
+      </c>
+      <c r="AO34">
+        <v>0</v>
+      </c>
+      <c r="AP34">
+        <v>3</v>
+      </c>
+      <c r="AQ34">
+        <v>0</v>
+      </c>
+      <c r="AR34">
+        <v>1.81</v>
+      </c>
+      <c r="AS34">
+        <v>1.26</v>
+      </c>
+      <c r="AT34">
+        <v>3.07</v>
+      </c>
+      <c r="AU34">
+        <v>6</v>
+      </c>
+      <c r="AV34">
+        <v>2</v>
+      </c>
+      <c r="AW34">
+        <v>8</v>
+      </c>
+      <c r="AX34">
+        <v>4</v>
+      </c>
+      <c r="AY34">
+        <v>14</v>
+      </c>
+      <c r="AZ34">
+        <v>6</v>
+      </c>
+      <c r="BA34">
+        <v>4</v>
+      </c>
+      <c r="BB34">
+        <v>4</v>
+      </c>
+      <c r="BC34">
+        <v>8</v>
+      </c>
+      <c r="BD34">
+        <v>1.41</v>
+      </c>
+      <c r="BE34">
+        <v>9.4</v>
+      </c>
+      <c r="BF34">
+        <v>3.64</v>
+      </c>
+      <c r="BG34">
+        <v>1.24</v>
+      </c>
+      <c r="BH34">
+        <v>3.6</v>
+      </c>
+      <c r="BI34">
+        <v>1.4</v>
+      </c>
+      <c r="BJ34">
+        <v>2.75</v>
+      </c>
+      <c r="BK34">
+        <v>2.2</v>
+      </c>
+      <c r="BL34">
+        <v>1.99</v>
+      </c>
+      <c r="BM34">
+        <v>2.2</v>
+      </c>
+      <c r="BN34">
+        <v>1.6</v>
+      </c>
+      <c r="BO34">
+        <v>2.9</v>
+      </c>
+      <c r="BP34">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:68">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>7380362</v>
+      </c>
+      <c r="C35" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35" s="2">
+        <v>45422.89583333334</v>
+      </c>
+      <c r="F35">
+        <v>4</v>
+      </c>
+      <c r="G35" t="s">
+        <v>84</v>
+      </c>
+      <c r="H35" t="s">
+        <v>73</v>
+      </c>
+      <c r="I35">
+        <v>2</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>2</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>2</v>
+      </c>
+      <c r="O35" t="s">
+        <v>115</v>
+      </c>
+      <c r="P35" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q35">
+        <v>2.6</v>
+      </c>
+      <c r="R35">
+        <v>2</v>
+      </c>
+      <c r="S35">
+        <v>5</v>
+      </c>
+      <c r="T35">
+        <v>1.5</v>
+      </c>
+      <c r="U35">
+        <v>2.48</v>
+      </c>
+      <c r="V35">
+        <v>3.34</v>
+      </c>
+      <c r="W35">
+        <v>1.3</v>
+      </c>
+      <c r="X35">
+        <v>9.1</v>
+      </c>
+      <c r="Y35">
+        <v>1.04</v>
+      </c>
+      <c r="Z35">
+        <v>1.83</v>
+      </c>
+      <c r="AA35">
+        <v>3.25</v>
+      </c>
+      <c r="AB35">
+        <v>4.75</v>
+      </c>
+      <c r="AC35">
+        <v>1.09</v>
+      </c>
+      <c r="AD35">
+        <v>7</v>
+      </c>
+      <c r="AE35">
+        <v>1.45</v>
+      </c>
+      <c r="AF35">
+        <v>2.7</v>
+      </c>
+      <c r="AG35">
+        <v>2.35</v>
+      </c>
+      <c r="AH35">
+        <v>1.57</v>
+      </c>
+      <c r="AI35">
+        <v>2.1</v>
+      </c>
+      <c r="AJ35">
+        <v>1.67</v>
+      </c>
+      <c r="AK35">
+        <v>1.22</v>
+      </c>
+      <c r="AL35">
+        <v>1.31</v>
+      </c>
+      <c r="AM35">
+        <v>1.82</v>
+      </c>
+      <c r="AN35">
+        <v>1</v>
+      </c>
+      <c r="AO35">
+        <v>3</v>
+      </c>
+      <c r="AP35">
+        <v>2</v>
+      </c>
+      <c r="AQ35">
+        <v>1.5</v>
+      </c>
+      <c r="AR35">
+        <v>1.74</v>
+      </c>
+      <c r="AS35">
+        <v>0.48</v>
+      </c>
+      <c r="AT35">
+        <v>2.22</v>
+      </c>
+      <c r="AU35">
+        <v>6</v>
+      </c>
+      <c r="AV35">
+        <v>4</v>
+      </c>
+      <c r="AW35">
+        <v>11</v>
+      </c>
+      <c r="AX35">
+        <v>7</v>
+      </c>
+      <c r="AY35">
+        <v>17</v>
+      </c>
+      <c r="AZ35">
+        <v>11</v>
+      </c>
+      <c r="BA35">
+        <v>8</v>
+      </c>
+      <c r="BB35">
+        <v>3</v>
+      </c>
+      <c r="BC35">
+        <v>11</v>
+      </c>
+      <c r="BD35">
+        <v>1.49</v>
+      </c>
+      <c r="BE35">
+        <v>7.7</v>
+      </c>
+      <c r="BF35">
+        <v>3.45</v>
+      </c>
+      <c r="BG35">
+        <v>1.27</v>
+      </c>
+      <c r="BH35">
+        <v>3.4</v>
+      </c>
+      <c r="BI35">
+        <v>1.45</v>
+      </c>
+      <c r="BJ35">
+        <v>2.55</v>
+      </c>
+      <c r="BK35">
+        <v>2.25</v>
+      </c>
+      <c r="BL35">
+        <v>1.9</v>
+      </c>
+      <c r="BM35">
+        <v>2.32</v>
+      </c>
+      <c r="BN35">
+        <v>1.54</v>
+      </c>
+      <c r="BO35">
+        <v>3.1</v>
+      </c>
+      <c r="BP35">
         <v>1.32</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="139">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -364,6 +364,18 @@
     <t>['19', '45+1']</t>
   </si>
   <si>
+    <t>['43', '62', '74', '87']</t>
+  </si>
+  <si>
+    <t>['22', '66']</t>
+  </si>
+  <si>
+    <t>['26']</t>
+  </si>
+  <si>
+    <t>['19']</t>
+  </si>
+  <si>
     <t>['62']</t>
   </si>
   <si>
@@ -373,9 +385,6 @@
     <t>['31', '49', '69']</t>
   </si>
   <si>
-    <t>['19']</t>
-  </si>
-  <si>
     <t>['59']</t>
   </si>
   <si>
@@ -419,6 +428,9 @@
   </si>
   <si>
     <t>['11', '58', '87']</t>
+  </si>
+  <si>
+    <t>['81']</t>
   </si>
 </sst>
 </file>
@@ -780,7 +792,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP35"/>
+  <dimension ref="A1:BP40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1039,7 +1051,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1529,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ4">
         <v>0.5</v>
@@ -1657,7 +1669,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="Q5">
         <v>2.75</v>
@@ -2069,7 +2081,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="Q7">
         <v>4.33</v>
@@ -2147,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AQ7">
         <v>3</v>
@@ -2481,7 +2493,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2562,7 +2574,7 @@
         <v>2</v>
       </c>
       <c r="AQ9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2893,7 +2905,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q11">
         <v>3.5</v>
@@ -3305,7 +3317,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Q13">
         <v>3.6</v>
@@ -3511,7 +3523,7 @@
         <v>101</v>
       </c>
       <c r="P14" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q14">
         <v>4.75</v>
@@ -3589,10 +3601,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AQ14">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -3717,7 +3729,7 @@
         <v>101</v>
       </c>
       <c r="P15" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -3795,7 +3807,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AQ15">
         <v>1.5</v>
@@ -4129,7 +4141,7 @@
         <v>102</v>
       </c>
       <c r="P17" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="Q17">
         <v>2.75</v>
@@ -4210,7 +4222,7 @@
         <v>1</v>
       </c>
       <c r="AQ17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4828,7 +4840,7 @@
         <v>3</v>
       </c>
       <c r="AQ20">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -4953,7 +4965,7 @@
         <v>106</v>
       </c>
       <c r="P21" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5365,7 +5377,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Q23">
         <v>3.2</v>
@@ -5571,7 +5583,7 @@
         <v>107</v>
       </c>
       <c r="P24" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Q24">
         <v>3.6</v>
@@ -5983,7 +5995,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6189,7 +6201,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q27">
         <v>4</v>
@@ -6395,7 +6407,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6807,7 +6819,7 @@
         <v>112</v>
       </c>
       <c r="P30" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q30">
         <v>2.1</v>
@@ -7219,7 +7231,7 @@
         <v>113</v>
       </c>
       <c r="P32" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Q32">
         <v>2.38</v>
@@ -7425,7 +7437,7 @@
         <v>101</v>
       </c>
       <c r="P33" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -7994,6 +8006,1036 @@
       </c>
       <c r="BP35">
         <v>1.32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:68">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>7380365</v>
+      </c>
+      <c r="C36" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" t="s">
+        <v>69</v>
+      </c>
+      <c r="E36" s="2">
+        <v>45423.70833333334</v>
+      </c>
+      <c r="F36">
+        <v>4</v>
+      </c>
+      <c r="G36" t="s">
+        <v>80</v>
+      </c>
+      <c r="H36" t="s">
+        <v>79</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>4</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="N36">
+        <v>5</v>
+      </c>
+      <c r="O36" t="s">
+        <v>116</v>
+      </c>
+      <c r="P36" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q36">
+        <v>2</v>
+      </c>
+      <c r="R36">
+        <v>2.25</v>
+      </c>
+      <c r="S36">
+        <v>8</v>
+      </c>
+      <c r="T36">
+        <v>1.42</v>
+      </c>
+      <c r="U36">
+        <v>2.65</v>
+      </c>
+      <c r="V36">
+        <v>2.95</v>
+      </c>
+      <c r="W36">
+        <v>1.35</v>
+      </c>
+      <c r="X36">
+        <v>8.1</v>
+      </c>
+      <c r="Y36">
+        <v>1.06</v>
+      </c>
+      <c r="Z36">
+        <v>1.5</v>
+      </c>
+      <c r="AA36">
+        <v>3.85</v>
+      </c>
+      <c r="AB36">
+        <v>6.1</v>
+      </c>
+      <c r="AC36">
+        <v>1.06</v>
+      </c>
+      <c r="AD36">
+        <v>8.5</v>
+      </c>
+      <c r="AE36">
+        <v>1.36</v>
+      </c>
+      <c r="AF36">
+        <v>3.1</v>
+      </c>
+      <c r="AG36">
+        <v>2.02</v>
+      </c>
+      <c r="AH36">
+        <v>1.73</v>
+      </c>
+      <c r="AI36">
+        <v>2.38</v>
+      </c>
+      <c r="AJ36">
+        <v>1.53</v>
+      </c>
+      <c r="AK36">
+        <v>1.1</v>
+      </c>
+      <c r="AL36">
+        <v>1.2</v>
+      </c>
+      <c r="AM36">
+        <v>2.45</v>
+      </c>
+      <c r="AN36">
+        <v>3</v>
+      </c>
+      <c r="AO36">
+        <v>0</v>
+      </c>
+      <c r="AP36">
+        <v>3</v>
+      </c>
+      <c r="AQ36">
+        <v>0</v>
+      </c>
+      <c r="AR36">
+        <v>1.25</v>
+      </c>
+      <c r="AS36">
+        <v>1.15</v>
+      </c>
+      <c r="AT36">
+        <v>2.4</v>
+      </c>
+      <c r="AU36">
+        <v>7</v>
+      </c>
+      <c r="AV36">
+        <v>6</v>
+      </c>
+      <c r="AW36">
+        <v>9</v>
+      </c>
+      <c r="AX36">
+        <v>4</v>
+      </c>
+      <c r="AY36">
+        <v>16</v>
+      </c>
+      <c r="AZ36">
+        <v>10</v>
+      </c>
+      <c r="BA36">
+        <v>9</v>
+      </c>
+      <c r="BB36">
+        <v>10</v>
+      </c>
+      <c r="BC36">
+        <v>19</v>
+      </c>
+      <c r="BD36">
+        <v>1.29</v>
+      </c>
+      <c r="BE36">
+        <v>10.5</v>
+      </c>
+      <c r="BF36">
+        <v>4.38</v>
+      </c>
+      <c r="BG36">
+        <v>1.17</v>
+      </c>
+      <c r="BH36">
+        <v>4.8</v>
+      </c>
+      <c r="BI36">
+        <v>1.29</v>
+      </c>
+      <c r="BJ36">
+        <v>3.3</v>
+      </c>
+      <c r="BK36">
+        <v>1.91</v>
+      </c>
+      <c r="BL36">
+        <v>2.37</v>
+      </c>
+      <c r="BM36">
+        <v>1.9</v>
+      </c>
+      <c r="BN36">
+        <v>1.8</v>
+      </c>
+      <c r="BO36">
+        <v>2.45</v>
+      </c>
+      <c r="BP36">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:68">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>7380357</v>
+      </c>
+      <c r="C37" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" t="s">
+        <v>69</v>
+      </c>
+      <c r="E37" s="2">
+        <v>45423.70833333334</v>
+      </c>
+      <c r="F37">
+        <v>4</v>
+      </c>
+      <c r="G37" t="s">
+        <v>83</v>
+      </c>
+      <c r="H37" t="s">
+        <v>70</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>2</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>2</v>
+      </c>
+      <c r="O37" t="s">
+        <v>117</v>
+      </c>
+      <c r="P37" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q37">
+        <v>2.75</v>
+      </c>
+      <c r="R37">
+        <v>1.91</v>
+      </c>
+      <c r="S37">
+        <v>5.5</v>
+      </c>
+      <c r="T37">
+        <v>1.57</v>
+      </c>
+      <c r="U37">
+        <v>2.25</v>
+      </c>
+      <c r="V37">
+        <v>3.7</v>
+      </c>
+      <c r="W37">
+        <v>1.22</v>
+      </c>
+      <c r="X37">
+        <v>10.2</v>
+      </c>
+      <c r="Y37">
+        <v>1.03</v>
+      </c>
+      <c r="Z37">
+        <v>1.9</v>
+      </c>
+      <c r="AA37">
+        <v>3.05</v>
+      </c>
+      <c r="AB37">
+        <v>4.3</v>
+      </c>
+      <c r="AC37">
+        <v>1.1</v>
+      </c>
+      <c r="AD37">
+        <v>6.5</v>
+      </c>
+      <c r="AE37">
+        <v>1.5</v>
+      </c>
+      <c r="AF37">
+        <v>2.45</v>
+      </c>
+      <c r="AG37">
+        <v>2.44</v>
+      </c>
+      <c r="AH37">
+        <v>1.49</v>
+      </c>
+      <c r="AI37">
+        <v>2.38</v>
+      </c>
+      <c r="AJ37">
+        <v>1.53</v>
+      </c>
+      <c r="AK37">
+        <v>1.2</v>
+      </c>
+      <c r="AL37">
+        <v>1.28</v>
+      </c>
+      <c r="AM37">
+        <v>1.85</v>
+      </c>
+      <c r="AN37">
+        <v>0</v>
+      </c>
+      <c r="AO37">
+        <v>1</v>
+      </c>
+      <c r="AP37">
+        <v>1.5</v>
+      </c>
+      <c r="AQ37">
+        <v>0.5</v>
+      </c>
+      <c r="AR37">
+        <v>3.34</v>
+      </c>
+      <c r="AS37">
+        <v>1.49</v>
+      </c>
+      <c r="AT37">
+        <v>4.83</v>
+      </c>
+      <c r="AU37">
+        <v>6</v>
+      </c>
+      <c r="AV37">
+        <v>3</v>
+      </c>
+      <c r="AW37">
+        <v>5</v>
+      </c>
+      <c r="AX37">
+        <v>9</v>
+      </c>
+      <c r="AY37">
+        <v>11</v>
+      </c>
+      <c r="AZ37">
+        <v>12</v>
+      </c>
+      <c r="BA37">
+        <v>5</v>
+      </c>
+      <c r="BB37">
+        <v>4</v>
+      </c>
+      <c r="BC37">
+        <v>9</v>
+      </c>
+      <c r="BD37">
+        <v>1.51</v>
+      </c>
+      <c r="BE37">
+        <v>7.6</v>
+      </c>
+      <c r="BF37">
+        <v>3.26</v>
+      </c>
+      <c r="BG37">
+        <v>1.24</v>
+      </c>
+      <c r="BH37">
+        <v>3.75</v>
+      </c>
+      <c r="BI37">
+        <v>1.45</v>
+      </c>
+      <c r="BJ37">
+        <v>2.55</v>
+      </c>
+      <c r="BK37">
+        <v>2.25</v>
+      </c>
+      <c r="BL37">
+        <v>1.9</v>
+      </c>
+      <c r="BM37">
+        <v>2.32</v>
+      </c>
+      <c r="BN37">
+        <v>1.54</v>
+      </c>
+      <c r="BO37">
+        <v>3.1</v>
+      </c>
+      <c r="BP37">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:68">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>7380363</v>
+      </c>
+      <c r="C38" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" t="s">
+        <v>69</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45423.70833333334</v>
+      </c>
+      <c r="F38">
+        <v>4</v>
+      </c>
+      <c r="G38" t="s">
+        <v>72</v>
+      </c>
+      <c r="H38" t="s">
+        <v>77</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>1</v>
+      </c>
+      <c r="N38">
+        <v>2</v>
+      </c>
+      <c r="O38" t="s">
+        <v>118</v>
+      </c>
+      <c r="P38" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q38">
+        <v>2.75</v>
+      </c>
+      <c r="R38">
+        <v>1.91</v>
+      </c>
+      <c r="S38">
+        <v>5.5</v>
+      </c>
+      <c r="T38">
+        <v>1.58</v>
+      </c>
+      <c r="U38">
+        <v>2.29</v>
+      </c>
+      <c r="V38">
+        <v>3.8</v>
+      </c>
+      <c r="W38">
+        <v>1.24</v>
+      </c>
+      <c r="X38">
+        <v>10.5</v>
+      </c>
+      <c r="Y38">
+        <v>1.03</v>
+      </c>
+      <c r="Z38">
+        <v>1.9</v>
+      </c>
+      <c r="AA38">
+        <v>3.25</v>
+      </c>
+      <c r="AB38">
+        <v>3.95</v>
+      </c>
+      <c r="AC38">
+        <v>1.08</v>
+      </c>
+      <c r="AD38">
+        <v>7</v>
+      </c>
+      <c r="AE38">
+        <v>1.47</v>
+      </c>
+      <c r="AF38">
+        <v>2.5</v>
+      </c>
+      <c r="AG38">
+        <v>2.62</v>
+      </c>
+      <c r="AH38">
+        <v>1.43</v>
+      </c>
+      <c r="AI38">
+        <v>2.5</v>
+      </c>
+      <c r="AJ38">
+        <v>1.5</v>
+      </c>
+      <c r="AK38">
+        <v>1.18</v>
+      </c>
+      <c r="AL38">
+        <v>1.33</v>
+      </c>
+      <c r="AM38">
+        <v>1.87</v>
+      </c>
+      <c r="AN38">
+        <v>3</v>
+      </c>
+      <c r="AO38">
+        <v>0</v>
+      </c>
+      <c r="AP38">
+        <v>2</v>
+      </c>
+      <c r="AQ38">
+        <v>0.5</v>
+      </c>
+      <c r="AR38">
+        <v>1.35</v>
+      </c>
+      <c r="AS38">
+        <v>0.98</v>
+      </c>
+      <c r="AT38">
+        <v>2.33</v>
+      </c>
+      <c r="AU38">
+        <v>6</v>
+      </c>
+      <c r="AV38">
+        <v>4</v>
+      </c>
+      <c r="AW38">
+        <v>9</v>
+      </c>
+      <c r="AX38">
+        <v>7</v>
+      </c>
+      <c r="AY38">
+        <v>15</v>
+      </c>
+      <c r="AZ38">
+        <v>11</v>
+      </c>
+      <c r="BA38">
+        <v>6</v>
+      </c>
+      <c r="BB38">
+        <v>7</v>
+      </c>
+      <c r="BC38">
+        <v>13</v>
+      </c>
+      <c r="BD38">
+        <v>1.38</v>
+      </c>
+      <c r="BE38">
+        <v>7.6</v>
+      </c>
+      <c r="BF38">
+        <v>4.1</v>
+      </c>
+      <c r="BG38">
+        <v>1.18</v>
+      </c>
+      <c r="BH38">
+        <v>4.6</v>
+      </c>
+      <c r="BI38">
+        <v>1.28</v>
+      </c>
+      <c r="BJ38">
+        <v>3.35</v>
+      </c>
+      <c r="BK38">
+        <v>1.91</v>
+      </c>
+      <c r="BL38">
+        <v>2.37</v>
+      </c>
+      <c r="BM38">
+        <v>1.9</v>
+      </c>
+      <c r="BN38">
+        <v>1.8</v>
+      </c>
+      <c r="BO38">
+        <v>2.45</v>
+      </c>
+      <c r="BP38">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:68">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>7380364</v>
+      </c>
+      <c r="C39" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" s="2">
+        <v>45423.70833333334</v>
+      </c>
+      <c r="F39">
+        <v>4</v>
+      </c>
+      <c r="G39" t="s">
+        <v>75</v>
+      </c>
+      <c r="H39" t="s">
+        <v>74</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39" t="s">
+        <v>119</v>
+      </c>
+      <c r="P39" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q39">
+        <v>6.5</v>
+      </c>
+      <c r="R39">
+        <v>2.05</v>
+      </c>
+      <c r="S39">
+        <v>2.3</v>
+      </c>
+      <c r="T39">
+        <v>1.51</v>
+      </c>
+      <c r="U39">
+        <v>2.46</v>
+      </c>
+      <c r="V39">
+        <v>3.4</v>
+      </c>
+      <c r="W39">
+        <v>1.29</v>
+      </c>
+      <c r="X39">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Y39">
+        <v>1.04</v>
+      </c>
+      <c r="Z39">
+        <v>4.75</v>
+      </c>
+      <c r="AA39">
+        <v>3.3</v>
+      </c>
+      <c r="AB39">
+        <v>1.74</v>
+      </c>
+      <c r="AC39">
+        <v>1.05</v>
+      </c>
+      <c r="AD39">
+        <v>7</v>
+      </c>
+      <c r="AE39">
+        <v>1.42</v>
+      </c>
+      <c r="AF39">
+        <v>2.57</v>
+      </c>
+      <c r="AG39">
+        <v>2.18</v>
+      </c>
+      <c r="AH39">
+        <v>1.62</v>
+      </c>
+      <c r="AI39">
+        <v>2.25</v>
+      </c>
+      <c r="AJ39">
+        <v>1.57</v>
+      </c>
+      <c r="AK39">
+        <v>2.04</v>
+      </c>
+      <c r="AL39">
+        <v>1.28</v>
+      </c>
+      <c r="AM39">
+        <v>1.15</v>
+      </c>
+      <c r="AN39">
+        <v>0</v>
+      </c>
+      <c r="AO39">
+        <v>3</v>
+      </c>
+      <c r="AP39">
+        <v>1.5</v>
+      </c>
+      <c r="AQ39">
+        <v>1.5</v>
+      </c>
+      <c r="AR39">
+        <v>1.12</v>
+      </c>
+      <c r="AS39">
+        <v>1.45</v>
+      </c>
+      <c r="AT39">
+        <v>2.57</v>
+      </c>
+      <c r="AU39">
+        <v>3</v>
+      </c>
+      <c r="AV39">
+        <v>3</v>
+      </c>
+      <c r="AW39">
+        <v>2</v>
+      </c>
+      <c r="AX39">
+        <v>4</v>
+      </c>
+      <c r="AY39">
+        <v>5</v>
+      </c>
+      <c r="AZ39">
+        <v>7</v>
+      </c>
+      <c r="BA39">
+        <v>4</v>
+      </c>
+      <c r="BB39">
+        <v>1</v>
+      </c>
+      <c r="BC39">
+        <v>5</v>
+      </c>
+      <c r="BD39">
+        <v>2.71</v>
+      </c>
+      <c r="BE39">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF39">
+        <v>1.67</v>
+      </c>
+      <c r="BG39">
+        <v>1.24</v>
+      </c>
+      <c r="BH39">
+        <v>3.48</v>
+      </c>
+      <c r="BI39">
+        <v>1.5</v>
+      </c>
+      <c r="BJ39">
+        <v>2.4</v>
+      </c>
+      <c r="BK39">
+        <v>2.38</v>
+      </c>
+      <c r="BL39">
+        <v>1.85</v>
+      </c>
+      <c r="BM39">
+        <v>2.4</v>
+      </c>
+      <c r="BN39">
+        <v>1.5</v>
+      </c>
+      <c r="BO39">
+        <v>3.3</v>
+      </c>
+      <c r="BP39">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="40" spans="1:68">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>7380361</v>
+      </c>
+      <c r="C40" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40" s="2">
+        <v>45423.875</v>
+      </c>
+      <c r="F40">
+        <v>4</v>
+      </c>
+      <c r="G40" t="s">
+        <v>82</v>
+      </c>
+      <c r="H40" t="s">
+        <v>87</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40" t="s">
+        <v>104</v>
+      </c>
+      <c r="P40" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q40">
+        <v>3.5</v>
+      </c>
+      <c r="R40">
+        <v>1.95</v>
+      </c>
+      <c r="S40">
+        <v>3.6</v>
+      </c>
+      <c r="T40">
+        <v>1.57</v>
+      </c>
+      <c r="U40">
+        <v>2.25</v>
+      </c>
+      <c r="V40">
+        <v>3.55</v>
+      </c>
+      <c r="W40">
+        <v>1.25</v>
+      </c>
+      <c r="X40">
+        <v>9.9</v>
+      </c>
+      <c r="Y40">
+        <v>1.03</v>
+      </c>
+      <c r="Z40">
+        <v>2.63</v>
+      </c>
+      <c r="AA40">
+        <v>3.2</v>
+      </c>
+      <c r="AB40">
+        <v>2.7</v>
+      </c>
+      <c r="AC40">
+        <v>1.11</v>
+      </c>
+      <c r="AD40">
+        <v>6.25</v>
+      </c>
+      <c r="AE40">
+        <v>1.47</v>
+      </c>
+      <c r="AF40">
+        <v>2.5</v>
+      </c>
+      <c r="AG40">
+        <v>2.5</v>
+      </c>
+      <c r="AH40">
+        <v>1.5</v>
+      </c>
+      <c r="AI40">
+        <v>2.1</v>
+      </c>
+      <c r="AJ40">
+        <v>1.67</v>
+      </c>
+      <c r="AK40">
+        <v>1.42</v>
+      </c>
+      <c r="AL40">
+        <v>1.33</v>
+      </c>
+      <c r="AM40">
+        <v>1.45</v>
+      </c>
+      <c r="AN40">
+        <v>0</v>
+      </c>
+      <c r="AO40">
+        <v>1</v>
+      </c>
+      <c r="AP40">
+        <v>1.5</v>
+      </c>
+      <c r="AQ40">
+        <v>0.5</v>
+      </c>
+      <c r="AR40">
+        <v>1.33</v>
+      </c>
+      <c r="AS40">
+        <v>0</v>
+      </c>
+      <c r="AT40">
+        <v>1.33</v>
+      </c>
+      <c r="AU40">
+        <v>6</v>
+      </c>
+      <c r="AV40">
+        <v>6</v>
+      </c>
+      <c r="AW40">
+        <v>5</v>
+      </c>
+      <c r="AX40">
+        <v>8</v>
+      </c>
+      <c r="AY40">
+        <v>11</v>
+      </c>
+      <c r="AZ40">
+        <v>14</v>
+      </c>
+      <c r="BA40">
+        <v>6</v>
+      </c>
+      <c r="BB40">
+        <v>7</v>
+      </c>
+      <c r="BC40">
+        <v>13</v>
+      </c>
+      <c r="BD40">
+        <v>2.1</v>
+      </c>
+      <c r="BE40">
+        <v>7.4</v>
+      </c>
+      <c r="BF40">
+        <v>2.05</v>
+      </c>
+      <c r="BG40">
+        <v>1.17</v>
+      </c>
+      <c r="BH40">
+        <v>4.8</v>
+      </c>
+      <c r="BI40">
+        <v>1.3</v>
+      </c>
+      <c r="BJ40">
+        <v>3.25</v>
+      </c>
+      <c r="BK40">
+        <v>1.83</v>
+      </c>
+      <c r="BL40">
+        <v>2.47</v>
+      </c>
+      <c r="BM40">
+        <v>1.85</v>
+      </c>
+      <c r="BN40">
+        <v>1.85</v>
+      </c>
+      <c r="BO40">
+        <v>2.35</v>
+      </c>
+      <c r="BP40">
+        <v>1.52</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="140">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -374,6 +374,9 @@
   </si>
   <si>
     <t>['19']</t>
+  </si>
+  <si>
+    <t>['11', '16']</t>
   </si>
   <si>
     <t>['62']</t>
@@ -792,7 +795,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP40"/>
+  <dimension ref="A1:BP41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1051,7 +1054,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1669,7 +1672,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q5">
         <v>2.75</v>
@@ -2081,7 +2084,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q7">
         <v>4.33</v>
@@ -2493,7 +2496,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2905,7 +2908,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q11">
         <v>3.5</v>
@@ -3317,7 +3320,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q13">
         <v>3.6</v>
@@ -3523,7 +3526,7 @@
         <v>101</v>
       </c>
       <c r="P14" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q14">
         <v>4.75</v>
@@ -3729,7 +3732,7 @@
         <v>101</v>
       </c>
       <c r="P15" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4141,7 +4144,7 @@
         <v>102</v>
       </c>
       <c r="P17" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q17">
         <v>2.75</v>
@@ -4965,7 +4968,7 @@
         <v>106</v>
       </c>
       <c r="P21" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5377,7 +5380,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q23">
         <v>3.2</v>
@@ -5583,7 +5586,7 @@
         <v>107</v>
       </c>
       <c r="P24" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q24">
         <v>3.6</v>
@@ -5995,7 +5998,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6201,7 +6204,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q27">
         <v>4</v>
@@ -6407,7 +6410,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6819,7 +6822,7 @@
         <v>112</v>
       </c>
       <c r="P30" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q30">
         <v>2.1</v>
@@ -7231,7 +7234,7 @@
         <v>113</v>
       </c>
       <c r="P32" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q32">
         <v>2.38</v>
@@ -7437,7 +7440,7 @@
         <v>101</v>
       </c>
       <c r="P33" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -8055,7 +8058,7 @@
         <v>116</v>
       </c>
       <c r="P36" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q36">
         <v>2</v>
@@ -9036,6 +9039,212 @@
       </c>
       <c r="BP40">
         <v>1.52</v>
+      </c>
+    </row>
+    <row r="41" spans="1:68">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>7380358</v>
+      </c>
+      <c r="C41" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" t="s">
+        <v>69</v>
+      </c>
+      <c r="E41" s="2">
+        <v>45424.66666666666</v>
+      </c>
+      <c r="F41">
+        <v>4</v>
+      </c>
+      <c r="G41" t="s">
+        <v>89</v>
+      </c>
+      <c r="H41" t="s">
+        <v>85</v>
+      </c>
+      <c r="I41">
+        <v>2</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>2</v>
+      </c>
+      <c r="L41">
+        <v>2</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+      <c r="N41">
+        <v>3</v>
+      </c>
+      <c r="O41" t="s">
+        <v>120</v>
+      </c>
+      <c r="P41" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q41">
+        <v>2.25</v>
+      </c>
+      <c r="R41">
+        <v>2.1</v>
+      </c>
+      <c r="S41">
+        <v>6</v>
+      </c>
+      <c r="T41">
+        <v>1.45</v>
+      </c>
+      <c r="U41">
+        <v>2.55</v>
+      </c>
+      <c r="V41">
+        <v>3.2</v>
+      </c>
+      <c r="W41">
+        <v>1.3</v>
+      </c>
+      <c r="X41">
+        <v>8.5</v>
+      </c>
+      <c r="Y41">
+        <v>1.05</v>
+      </c>
+      <c r="Z41">
+        <v>1.6</v>
+      </c>
+      <c r="AA41">
+        <v>3.4</v>
+      </c>
+      <c r="AB41">
+        <v>5.25</v>
+      </c>
+      <c r="AC41">
+        <v>1.07</v>
+      </c>
+      <c r="AD41">
+        <v>8</v>
+      </c>
+      <c r="AE41">
+        <v>1.4</v>
+      </c>
+      <c r="AF41">
+        <v>2.9</v>
+      </c>
+      <c r="AG41">
+        <v>2.2</v>
+      </c>
+      <c r="AH41">
+        <v>1.62</v>
+      </c>
+      <c r="AI41">
+        <v>2.25</v>
+      </c>
+      <c r="AJ41">
+        <v>1.57</v>
+      </c>
+      <c r="AK41">
+        <v>1.14</v>
+      </c>
+      <c r="AL41">
+        <v>1.22</v>
+      </c>
+      <c r="AM41">
+        <v>2.25</v>
+      </c>
+      <c r="AN41">
+        <v>3</v>
+      </c>
+      <c r="AO41">
+        <v>0</v>
+      </c>
+      <c r="AP41">
+        <v>3</v>
+      </c>
+      <c r="AQ41">
+        <v>0</v>
+      </c>
+      <c r="AR41">
+        <v>1.37</v>
+      </c>
+      <c r="AS41">
+        <v>1.31</v>
+      </c>
+      <c r="AT41">
+        <v>2.68</v>
+      </c>
+      <c r="AU41">
+        <v>4</v>
+      </c>
+      <c r="AV41">
+        <v>5</v>
+      </c>
+      <c r="AW41">
+        <v>4</v>
+      </c>
+      <c r="AX41">
+        <v>8</v>
+      </c>
+      <c r="AY41">
+        <v>8</v>
+      </c>
+      <c r="AZ41">
+        <v>13</v>
+      </c>
+      <c r="BA41">
+        <v>2</v>
+      </c>
+      <c r="BB41">
+        <v>5</v>
+      </c>
+      <c r="BC41">
+        <v>7</v>
+      </c>
+      <c r="BD41">
+        <v>1.51</v>
+      </c>
+      <c r="BE41">
+        <v>8.4</v>
+      </c>
+      <c r="BF41">
+        <v>3.24</v>
+      </c>
+      <c r="BG41">
+        <v>1.23</v>
+      </c>
+      <c r="BH41">
+        <v>3.95</v>
+      </c>
+      <c r="BI41">
+        <v>1.41</v>
+      </c>
+      <c r="BJ41">
+        <v>2.7</v>
+      </c>
+      <c r="BK41">
+        <v>2.2</v>
+      </c>
+      <c r="BL41">
+        <v>1.99</v>
+      </c>
+      <c r="BM41">
+        <v>2.2</v>
+      </c>
+      <c r="BN41">
+        <v>1.6</v>
+      </c>
+      <c r="BO41">
+        <v>2.9</v>
+      </c>
+      <c r="BP41">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="145">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -379,6 +379,15 @@
     <t>['11', '16']</t>
   </si>
   <si>
+    <t>['68', '90+3']</t>
+  </si>
+  <si>
+    <t>['33', '36']</t>
+  </si>
+  <si>
+    <t>['18']</t>
+  </si>
+  <si>
     <t>['62']</t>
   </si>
   <si>
@@ -434,6 +443,12 @@
   </si>
   <si>
     <t>['81']</t>
+  </si>
+  <si>
+    <t>['80']</t>
+  </si>
+  <si>
+    <t>['90+1']</t>
   </si>
 </sst>
 </file>
@@ -795,7 +810,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP41"/>
+  <dimension ref="A1:BP45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1054,7 +1069,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1341,7 +1356,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ3">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1672,7 +1687,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Q5">
         <v>2.75</v>
@@ -2084,7 +2099,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q7">
         <v>4.33</v>
@@ -2496,7 +2511,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2908,7 +2923,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="Q11">
         <v>3.5</v>
@@ -3320,7 +3335,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Q13">
         <v>3.6</v>
@@ -3526,7 +3541,7 @@
         <v>101</v>
       </c>
       <c r="P14" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Q14">
         <v>4.75</v>
@@ -3604,7 +3619,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ14">
         <v>1.5</v>
@@ -3732,7 +3747,7 @@
         <v>101</v>
       </c>
       <c r="P15" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -3813,7 +3828,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ15">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4144,7 +4159,7 @@
         <v>102</v>
       </c>
       <c r="P17" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q17">
         <v>2.75</v>
@@ -4431,7 +4446,7 @@
         <v>3</v>
       </c>
       <c r="AQ18">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4634,7 +4649,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ19">
         <v>0</v>
@@ -4968,7 +4983,7 @@
         <v>106</v>
       </c>
       <c r="P21" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5380,7 +5395,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Q23">
         <v>3.2</v>
@@ -5458,7 +5473,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ23">
         <v>3</v>
@@ -5586,7 +5601,7 @@
         <v>107</v>
       </c>
       <c r="P24" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q24">
         <v>3.6</v>
@@ -5998,7 +6013,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6079,7 +6094,7 @@
         <v>0</v>
       </c>
       <c r="AQ26">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR26">
         <v>1.2</v>
@@ -6204,7 +6219,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q27">
         <v>4</v>
@@ -6410,7 +6425,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6491,7 +6506,7 @@
         <v>1</v>
       </c>
       <c r="AQ28">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR28">
         <v>2.07</v>
@@ -6822,7 +6837,7 @@
         <v>112</v>
       </c>
       <c r="P30" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q30">
         <v>2.1</v>
@@ -7234,7 +7249,7 @@
         <v>113</v>
       </c>
       <c r="P32" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q32">
         <v>2.38</v>
@@ -7440,7 +7455,7 @@
         <v>101</v>
       </c>
       <c r="P33" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -7933,7 +7948,7 @@
         <v>2</v>
       </c>
       <c r="AQ35">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR35">
         <v>1.74</v>
@@ -8058,7 +8073,7 @@
         <v>116</v>
       </c>
       <c r="P36" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q36">
         <v>2</v>
@@ -8960,7 +8975,7 @@
         <v>1</v>
       </c>
       <c r="AP40">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ40">
         <v>0.5</v>
@@ -9088,7 +9103,7 @@
         <v>120</v>
       </c>
       <c r="P41" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Q41">
         <v>2.25</v>
@@ -9245,6 +9260,830 @@
       </c>
       <c r="BP41">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="42" spans="1:68">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>7380366</v>
+      </c>
+      <c r="C42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E42" s="2">
+        <v>45426.79166666666</v>
+      </c>
+      <c r="F42">
+        <v>5</v>
+      </c>
+      <c r="G42" t="s">
+        <v>78</v>
+      </c>
+      <c r="H42" t="s">
+        <v>71</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>2</v>
+      </c>
+      <c r="M42">
+        <v>1</v>
+      </c>
+      <c r="N42">
+        <v>3</v>
+      </c>
+      <c r="O42" t="s">
+        <v>121</v>
+      </c>
+      <c r="P42" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q42">
+        <v>3.2</v>
+      </c>
+      <c r="R42">
+        <v>1.95</v>
+      </c>
+      <c r="S42">
+        <v>4</v>
+      </c>
+      <c r="T42">
+        <v>1.53</v>
+      </c>
+      <c r="U42">
+        <v>2.35</v>
+      </c>
+      <c r="V42">
+        <v>3.4</v>
+      </c>
+      <c r="W42">
+        <v>1.28</v>
+      </c>
+      <c r="X42">
+        <v>11</v>
+      </c>
+      <c r="Y42">
+        <v>1.05</v>
+      </c>
+      <c r="Z42">
+        <v>2.4</v>
+      </c>
+      <c r="AA42">
+        <v>2.9</v>
+      </c>
+      <c r="AB42">
+        <v>3.25</v>
+      </c>
+      <c r="AC42">
+        <v>1.1</v>
+      </c>
+      <c r="AD42">
+        <v>6.5</v>
+      </c>
+      <c r="AE42">
+        <v>1.48</v>
+      </c>
+      <c r="AF42">
+        <v>2.6</v>
+      </c>
+      <c r="AG42">
+        <v>2.4</v>
+      </c>
+      <c r="AH42">
+        <v>1.53</v>
+      </c>
+      <c r="AI42">
+        <v>2</v>
+      </c>
+      <c r="AJ42">
+        <v>1.73</v>
+      </c>
+      <c r="AK42">
+        <v>1.3</v>
+      </c>
+      <c r="AL42">
+        <v>1.33</v>
+      </c>
+      <c r="AM42">
+        <v>1.62</v>
+      </c>
+      <c r="AN42">
+        <v>3</v>
+      </c>
+      <c r="AO42">
+        <v>1.5</v>
+      </c>
+      <c r="AP42">
+        <v>3</v>
+      </c>
+      <c r="AQ42">
+        <v>1</v>
+      </c>
+      <c r="AR42">
+        <v>1.32</v>
+      </c>
+      <c r="AS42">
+        <v>1.41</v>
+      </c>
+      <c r="AT42">
+        <v>2.73</v>
+      </c>
+      <c r="AU42">
+        <v>3</v>
+      </c>
+      <c r="AV42">
+        <v>5</v>
+      </c>
+      <c r="AW42">
+        <v>8</v>
+      </c>
+      <c r="AX42">
+        <v>6</v>
+      </c>
+      <c r="AY42">
+        <v>11</v>
+      </c>
+      <c r="AZ42">
+        <v>11</v>
+      </c>
+      <c r="BA42">
+        <v>5</v>
+      </c>
+      <c r="BB42">
+        <v>4</v>
+      </c>
+      <c r="BC42">
+        <v>9</v>
+      </c>
+      <c r="BD42">
+        <v>1.9</v>
+      </c>
+      <c r="BE42">
+        <v>7.6</v>
+      </c>
+      <c r="BF42">
+        <v>2.27</v>
+      </c>
+      <c r="BG42">
+        <v>1.19</v>
+      </c>
+      <c r="BH42">
+        <v>4.2</v>
+      </c>
+      <c r="BI42">
+        <v>1.32</v>
+      </c>
+      <c r="BJ42">
+        <v>3.1</v>
+      </c>
+      <c r="BK42">
+        <v>2</v>
+      </c>
+      <c r="BL42">
+        <v>2.27</v>
+      </c>
+      <c r="BM42">
+        <v>1.99</v>
+      </c>
+      <c r="BN42">
+        <v>1.73</v>
+      </c>
+      <c r="BO42">
+        <v>2.6</v>
+      </c>
+      <c r="BP42">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:68">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>7380371</v>
+      </c>
+      <c r="C43" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E43" s="2">
+        <v>45426.79166666666</v>
+      </c>
+      <c r="F43">
+        <v>5</v>
+      </c>
+      <c r="G43" t="s">
+        <v>82</v>
+      </c>
+      <c r="H43" t="s">
+        <v>84</v>
+      </c>
+      <c r="I43">
+        <v>2</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>2</v>
+      </c>
+      <c r="L43">
+        <v>2</v>
+      </c>
+      <c r="M43">
+        <v>1</v>
+      </c>
+      <c r="N43">
+        <v>3</v>
+      </c>
+      <c r="O43" t="s">
+        <v>122</v>
+      </c>
+      <c r="P43" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q43">
+        <v>3.4</v>
+      </c>
+      <c r="R43">
+        <v>1.91</v>
+      </c>
+      <c r="S43">
+        <v>3.75</v>
+      </c>
+      <c r="T43">
+        <v>1.57</v>
+      </c>
+      <c r="U43">
+        <v>2.25</v>
+      </c>
+      <c r="V43">
+        <v>3.6</v>
+      </c>
+      <c r="W43">
+        <v>1.25</v>
+      </c>
+      <c r="X43">
+        <v>9</v>
+      </c>
+      <c r="Y43">
+        <v>1.03</v>
+      </c>
+      <c r="Z43">
+        <v>2.55</v>
+      </c>
+      <c r="AA43">
+        <v>3</v>
+      </c>
+      <c r="AB43">
+        <v>3</v>
+      </c>
+      <c r="AC43">
+        <v>1.1</v>
+      </c>
+      <c r="AD43">
+        <v>6.6</v>
+      </c>
+      <c r="AE43">
+        <v>1.5</v>
+      </c>
+      <c r="AF43">
+        <v>2.4</v>
+      </c>
+      <c r="AG43">
+        <v>2.6</v>
+      </c>
+      <c r="AH43">
+        <v>1.48</v>
+      </c>
+      <c r="AI43">
+        <v>2.1</v>
+      </c>
+      <c r="AJ43">
+        <v>1.67</v>
+      </c>
+      <c r="AK43">
+        <v>1.34</v>
+      </c>
+      <c r="AL43">
+        <v>1.43</v>
+      </c>
+      <c r="AM43">
+        <v>1.53</v>
+      </c>
+      <c r="AN43">
+        <v>1.5</v>
+      </c>
+      <c r="AO43">
+        <v>0.5</v>
+      </c>
+      <c r="AP43">
+        <v>2</v>
+      </c>
+      <c r="AQ43">
+        <v>0.33</v>
+      </c>
+      <c r="AR43">
+        <v>1.42</v>
+      </c>
+      <c r="AS43">
+        <v>1.35</v>
+      </c>
+      <c r="AT43">
+        <v>2.77</v>
+      </c>
+      <c r="AU43">
+        <v>5</v>
+      </c>
+      <c r="AV43">
+        <v>6</v>
+      </c>
+      <c r="AW43">
+        <v>4</v>
+      </c>
+      <c r="AX43">
+        <v>7</v>
+      </c>
+      <c r="AY43">
+        <v>9</v>
+      </c>
+      <c r="AZ43">
+        <v>13</v>
+      </c>
+      <c r="BA43">
+        <v>2</v>
+      </c>
+      <c r="BB43">
+        <v>4</v>
+      </c>
+      <c r="BC43">
+        <v>6</v>
+      </c>
+      <c r="BD43">
+        <v>1.87</v>
+      </c>
+      <c r="BE43">
+        <v>7.5</v>
+      </c>
+      <c r="BF43">
+        <v>2.37</v>
+      </c>
+      <c r="BG43">
+        <v>1.22</v>
+      </c>
+      <c r="BH43">
+        <v>3.8</v>
+      </c>
+      <c r="BI43">
+        <v>1.32</v>
+      </c>
+      <c r="BJ43">
+        <v>3.1</v>
+      </c>
+      <c r="BK43">
+        <v>2.1</v>
+      </c>
+      <c r="BL43">
+        <v>2.23</v>
+      </c>
+      <c r="BM43">
+        <v>2.03</v>
+      </c>
+      <c r="BN43">
+        <v>1.7</v>
+      </c>
+      <c r="BO43">
+        <v>2.62</v>
+      </c>
+      <c r="BP43">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:68">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>7380373</v>
+      </c>
+      <c r="C44" t="s">
+        <v>68</v>
+      </c>
+      <c r="D44" t="s">
+        <v>69</v>
+      </c>
+      <c r="E44" s="2">
+        <v>45426.89583333334</v>
+      </c>
+      <c r="F44">
+        <v>5</v>
+      </c>
+      <c r="G44" t="s">
+        <v>87</v>
+      </c>
+      <c r="H44" t="s">
+        <v>83</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44" t="s">
+        <v>123</v>
+      </c>
+      <c r="P44" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q44">
+        <v>2.38</v>
+      </c>
+      <c r="R44">
+        <v>2.05</v>
+      </c>
+      <c r="S44">
+        <v>6</v>
+      </c>
+      <c r="T44">
+        <v>1.5</v>
+      </c>
+      <c r="U44">
+        <v>2.4</v>
+      </c>
+      <c r="V44">
+        <v>3.3</v>
+      </c>
+      <c r="W44">
+        <v>1.28</v>
+      </c>
+      <c r="X44">
+        <v>11</v>
+      </c>
+      <c r="Y44">
+        <v>1.05</v>
+      </c>
+      <c r="Z44">
+        <v>1.7</v>
+      </c>
+      <c r="AA44">
+        <v>3.5</v>
+      </c>
+      <c r="AB44">
+        <v>5.25</v>
+      </c>
+      <c r="AC44">
+        <v>1.09</v>
+      </c>
+      <c r="AD44">
+        <v>7</v>
+      </c>
+      <c r="AE44">
+        <v>1.45</v>
+      </c>
+      <c r="AF44">
+        <v>2.7</v>
+      </c>
+      <c r="AG44">
+        <v>2.3</v>
+      </c>
+      <c r="AH44">
+        <v>1.6</v>
+      </c>
+      <c r="AI44">
+        <v>2.2</v>
+      </c>
+      <c r="AJ44">
+        <v>1.62</v>
+      </c>
+      <c r="AK44">
+        <v>1.2</v>
+      </c>
+      <c r="AL44">
+        <v>1.28</v>
+      </c>
+      <c r="AM44">
+        <v>1.9</v>
+      </c>
+      <c r="AN44">
+        <v>1.5</v>
+      </c>
+      <c r="AO44">
+        <v>0</v>
+      </c>
+      <c r="AP44">
+        <v>2</v>
+      </c>
+      <c r="AQ44">
+        <v>0</v>
+      </c>
+      <c r="AR44">
+        <v>1.74</v>
+      </c>
+      <c r="AS44">
+        <v>1.24</v>
+      </c>
+      <c r="AT44">
+        <v>2.98</v>
+      </c>
+      <c r="AU44">
+        <v>5</v>
+      </c>
+      <c r="AV44">
+        <v>3</v>
+      </c>
+      <c r="AW44">
+        <v>4</v>
+      </c>
+      <c r="AX44">
+        <v>4</v>
+      </c>
+      <c r="AY44">
+        <v>9</v>
+      </c>
+      <c r="AZ44">
+        <v>7</v>
+      </c>
+      <c r="BA44">
+        <v>4</v>
+      </c>
+      <c r="BB44">
+        <v>5</v>
+      </c>
+      <c r="BC44">
+        <v>9</v>
+      </c>
+      <c r="BD44">
+        <v>1.57</v>
+      </c>
+      <c r="BE44">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF44">
+        <v>3</v>
+      </c>
+      <c r="BG44">
+        <v>1.19</v>
+      </c>
+      <c r="BH44">
+        <v>4.2</v>
+      </c>
+      <c r="BI44">
+        <v>1.32</v>
+      </c>
+      <c r="BJ44">
+        <v>3.1</v>
+      </c>
+      <c r="BK44">
+        <v>2</v>
+      </c>
+      <c r="BL44">
+        <v>2.27</v>
+      </c>
+      <c r="BM44">
+        <v>1.99</v>
+      </c>
+      <c r="BN44">
+        <v>1.73</v>
+      </c>
+      <c r="BO44">
+        <v>2.6</v>
+      </c>
+      <c r="BP44">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:68">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>7380368</v>
+      </c>
+      <c r="C45" t="s">
+        <v>68</v>
+      </c>
+      <c r="D45" t="s">
+        <v>69</v>
+      </c>
+      <c r="E45" s="2">
+        <v>45426.89583333334</v>
+      </c>
+      <c r="F45">
+        <v>5</v>
+      </c>
+      <c r="G45" t="s">
+        <v>70</v>
+      </c>
+      <c r="H45" t="s">
+        <v>73</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45" t="s">
+        <v>101</v>
+      </c>
+      <c r="P45" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q45">
+        <v>2.88</v>
+      </c>
+      <c r="R45">
+        <v>1.91</v>
+      </c>
+      <c r="S45">
+        <v>4.5</v>
+      </c>
+      <c r="T45">
+        <v>1.6</v>
+      </c>
+      <c r="U45">
+        <v>2.2</v>
+      </c>
+      <c r="V45">
+        <v>3.8</v>
+      </c>
+      <c r="W45">
+        <v>1.22</v>
+      </c>
+      <c r="X45">
+        <v>10</v>
+      </c>
+      <c r="Y45">
+        <v>1.02</v>
+      </c>
+      <c r="Z45">
+        <v>2.1</v>
+      </c>
+      <c r="AA45">
+        <v>3</v>
+      </c>
+      <c r="AB45">
+        <v>3.8</v>
+      </c>
+      <c r="AC45">
+        <v>1.11</v>
+      </c>
+      <c r="AD45">
+        <v>6.25</v>
+      </c>
+      <c r="AE45">
+        <v>1.5</v>
+      </c>
+      <c r="AF45">
+        <v>2.4</v>
+      </c>
+      <c r="AG45">
+        <v>2.6</v>
+      </c>
+      <c r="AH45">
+        <v>1.48</v>
+      </c>
+      <c r="AI45">
+        <v>2.2</v>
+      </c>
+      <c r="AJ45">
+        <v>1.62</v>
+      </c>
+      <c r="AK45">
+        <v>1.25</v>
+      </c>
+      <c r="AL45">
+        <v>1.3</v>
+      </c>
+      <c r="AM45">
+        <v>1.7</v>
+      </c>
+      <c r="AN45">
+        <v>1</v>
+      </c>
+      <c r="AO45">
+        <v>1.5</v>
+      </c>
+      <c r="AP45">
+        <v>1</v>
+      </c>
+      <c r="AQ45">
+        <v>1.33</v>
+      </c>
+      <c r="AR45">
+        <v>1.09</v>
+      </c>
+      <c r="AS45">
+        <v>0.86</v>
+      </c>
+      <c r="AT45">
+        <v>1.95</v>
+      </c>
+      <c r="AU45">
+        <v>6</v>
+      </c>
+      <c r="AV45">
+        <v>0</v>
+      </c>
+      <c r="AW45">
+        <v>10</v>
+      </c>
+      <c r="AX45">
+        <v>6</v>
+      </c>
+      <c r="AY45">
+        <v>16</v>
+      </c>
+      <c r="AZ45">
+        <v>6</v>
+      </c>
+      <c r="BA45">
+        <v>14</v>
+      </c>
+      <c r="BB45">
+        <v>2</v>
+      </c>
+      <c r="BC45">
+        <v>16</v>
+      </c>
+      <c r="BD45">
+        <v>1.62</v>
+      </c>
+      <c r="BE45">
+        <v>8.1</v>
+      </c>
+      <c r="BF45">
+        <v>2.86</v>
+      </c>
+      <c r="BG45">
+        <v>1.21</v>
+      </c>
+      <c r="BH45">
+        <v>3.9</v>
+      </c>
+      <c r="BI45">
+        <v>1.34</v>
+      </c>
+      <c r="BJ45">
+        <v>3</v>
+      </c>
+      <c r="BK45">
+        <v>2.1</v>
+      </c>
+      <c r="BL45">
+        <v>2.2</v>
+      </c>
+      <c r="BM45">
+        <v>2.07</v>
+      </c>
+      <c r="BN45">
+        <v>1.67</v>
+      </c>
+      <c r="BO45">
+        <v>2.7</v>
+      </c>
+      <c r="BP45">
+        <v>1.41</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="149">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -388,6 +388,15 @@
     <t>['18']</t>
   </si>
   <si>
+    <t>['69']</t>
+  </si>
+  <si>
+    <t>['2', '18']</t>
+  </si>
+  <si>
+    <t>['53']</t>
+  </si>
+  <si>
     <t>['62']</t>
   </si>
   <si>
@@ -449,6 +458,9 @@
   </si>
   <si>
     <t>['90+1']</t>
+  </si>
+  <si>
+    <t>['17', '23']</t>
   </si>
 </sst>
 </file>
@@ -810,7 +822,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP45"/>
+  <dimension ref="A1:BP51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1069,7 +1081,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1687,7 +1699,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="Q5">
         <v>2.75</v>
@@ -2099,7 +2111,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Q7">
         <v>4.33</v>
@@ -2180,7 +2192,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2383,10 +2395,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AQ8">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2511,7 +2523,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2589,7 +2601,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AQ9">
         <v>0.5</v>
@@ -2923,7 +2935,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Q11">
         <v>3.5</v>
@@ -3001,10 +3013,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ11">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3335,7 +3347,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q13">
         <v>3.6</v>
@@ -3413,10 +3425,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ13">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3541,7 +3553,7 @@
         <v>101</v>
       </c>
       <c r="P14" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q14">
         <v>4.75</v>
@@ -3622,7 +3634,7 @@
         <v>2</v>
       </c>
       <c r="AQ14">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -3747,7 +3759,7 @@
         <v>101</v>
       </c>
       <c r="P15" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4034,7 +4046,7 @@
         <v>2</v>
       </c>
       <c r="AQ16">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4159,7 +4171,7 @@
         <v>102</v>
       </c>
       <c r="P17" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q17">
         <v>2.75</v>
@@ -4443,7 +4455,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AQ18">
         <v>1</v>
@@ -4983,7 +4995,7 @@
         <v>106</v>
       </c>
       <c r="P21" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5395,7 +5407,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q23">
         <v>3.2</v>
@@ -5476,7 +5488,7 @@
         <v>2</v>
       </c>
       <c r="AQ23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR23">
         <v>1.39</v>
@@ -5601,7 +5613,7 @@
         <v>107</v>
       </c>
       <c r="P24" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q24">
         <v>3.6</v>
@@ -5888,7 +5900,7 @@
         <v>3</v>
       </c>
       <c r="AQ25">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR25">
         <v>1.46</v>
@@ -6013,7 +6025,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6091,7 +6103,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ26">
         <v>1</v>
@@ -6219,7 +6231,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q27">
         <v>4</v>
@@ -6297,10 +6309,10 @@
         <v>1</v>
       </c>
       <c r="AP27">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ27">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR27">
         <v>1.04</v>
@@ -6425,7 +6437,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6503,7 +6515,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AQ28">
         <v>0.33</v>
@@ -6709,10 +6721,10 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AQ29">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR29">
         <v>0</v>
@@ -6837,7 +6849,7 @@
         <v>112</v>
       </c>
       <c r="P30" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q30">
         <v>2.1</v>
@@ -7124,7 +7136,7 @@
         <v>1</v>
       </c>
       <c r="AQ31">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR31">
         <v>1.04</v>
@@ -7249,7 +7261,7 @@
         <v>113</v>
       </c>
       <c r="P32" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q32">
         <v>2.38</v>
@@ -7327,7 +7339,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AQ32">
         <v>0</v>
@@ -7455,7 +7467,7 @@
         <v>101</v>
       </c>
       <c r="P33" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -8073,7 +8085,7 @@
         <v>116</v>
       </c>
       <c r="P36" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q36">
         <v>2</v>
@@ -8772,7 +8784,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ39">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR39">
         <v>1.12</v>
@@ -9103,7 +9115,7 @@
         <v>120</v>
       </c>
       <c r="P41" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Q41">
         <v>2.25</v>
@@ -9309,7 +9321,7 @@
         <v>121</v>
       </c>
       <c r="P42" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q42">
         <v>3.2</v>
@@ -9515,7 +9527,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q43">
         <v>3.4</v>
@@ -10084,6 +10096,1242 @@
       </c>
       <c r="BP45">
         <v>1.41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:68">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>7380372</v>
+      </c>
+      <c r="C46" t="s">
+        <v>68</v>
+      </c>
+      <c r="D46" t="s">
+        <v>69</v>
+      </c>
+      <c r="E46" s="2">
+        <v>45427.79166666666</v>
+      </c>
+      <c r="F46">
+        <v>5</v>
+      </c>
+      <c r="G46" t="s">
+        <v>79</v>
+      </c>
+      <c r="H46" t="s">
+        <v>72</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46" t="s">
+        <v>101</v>
+      </c>
+      <c r="P46" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q46">
+        <v>3.6</v>
+      </c>
+      <c r="R46">
+        <v>1.91</v>
+      </c>
+      <c r="S46">
+        <v>3.6</v>
+      </c>
+      <c r="T46">
+        <v>1.6</v>
+      </c>
+      <c r="U46">
+        <v>2.2</v>
+      </c>
+      <c r="V46">
+        <v>3.8</v>
+      </c>
+      <c r="W46">
+        <v>1.22</v>
+      </c>
+      <c r="X46">
+        <v>13</v>
+      </c>
+      <c r="Y46">
+        <v>1.04</v>
+      </c>
+      <c r="Z46">
+        <v>2.7</v>
+      </c>
+      <c r="AA46">
+        <v>3</v>
+      </c>
+      <c r="AB46">
+        <v>2.75</v>
+      </c>
+      <c r="AC46">
+        <v>1.11</v>
+      </c>
+      <c r="AD46">
+        <v>6.25</v>
+      </c>
+      <c r="AE46">
+        <v>1.53</v>
+      </c>
+      <c r="AF46">
+        <v>2.37</v>
+      </c>
+      <c r="AG46">
+        <v>2.7</v>
+      </c>
+      <c r="AH46">
+        <v>1.44</v>
+      </c>
+      <c r="AI46">
+        <v>2.2</v>
+      </c>
+      <c r="AJ46">
+        <v>1.62</v>
+      </c>
+      <c r="AK46">
+        <v>1.35</v>
+      </c>
+      <c r="AL46">
+        <v>1.3</v>
+      </c>
+      <c r="AM46">
+        <v>1.55</v>
+      </c>
+      <c r="AN46">
+        <v>1.5</v>
+      </c>
+      <c r="AO46">
+        <v>1.5</v>
+      </c>
+      <c r="AP46">
+        <v>1.33</v>
+      </c>
+      <c r="AQ46">
+        <v>1.33</v>
+      </c>
+      <c r="AR46">
+        <v>1.4</v>
+      </c>
+      <c r="AS46">
+        <v>1.57</v>
+      </c>
+      <c r="AT46">
+        <v>2.97</v>
+      </c>
+      <c r="AU46">
+        <v>2</v>
+      </c>
+      <c r="AV46">
+        <v>4</v>
+      </c>
+      <c r="AW46">
+        <v>6</v>
+      </c>
+      <c r="AX46">
+        <v>8</v>
+      </c>
+      <c r="AY46">
+        <v>8</v>
+      </c>
+      <c r="AZ46">
+        <v>12</v>
+      </c>
+      <c r="BA46">
+        <v>0</v>
+      </c>
+      <c r="BB46">
+        <v>8</v>
+      </c>
+      <c r="BC46">
+        <v>8</v>
+      </c>
+      <c r="BD46">
+        <v>1.95</v>
+      </c>
+      <c r="BE46">
+        <v>7.6</v>
+      </c>
+      <c r="BF46">
+        <v>2.2</v>
+      </c>
+      <c r="BG46">
+        <v>1.18</v>
+      </c>
+      <c r="BH46">
+        <v>4.6</v>
+      </c>
+      <c r="BI46">
+        <v>1.34</v>
+      </c>
+      <c r="BJ46">
+        <v>3.1</v>
+      </c>
+      <c r="BK46">
+        <v>1.91</v>
+      </c>
+      <c r="BL46">
+        <v>2.37</v>
+      </c>
+      <c r="BM46">
+        <v>2</v>
+      </c>
+      <c r="BN46">
+        <v>1.8</v>
+      </c>
+      <c r="BO46">
+        <v>2.45</v>
+      </c>
+      <c r="BP46">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:68">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>7380369</v>
+      </c>
+      <c r="C47" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" t="s">
+        <v>69</v>
+      </c>
+      <c r="E47" s="2">
+        <v>45427.79166666666</v>
+      </c>
+      <c r="F47">
+        <v>5</v>
+      </c>
+      <c r="G47" t="s">
+        <v>81</v>
+      </c>
+      <c r="H47" t="s">
+        <v>80</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>1</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47" t="s">
+        <v>124</v>
+      </c>
+      <c r="P47" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q47">
+        <v>4.75</v>
+      </c>
+      <c r="R47">
+        <v>2.05</v>
+      </c>
+      <c r="S47">
+        <v>2.6</v>
+      </c>
+      <c r="T47">
+        <v>1.53</v>
+      </c>
+      <c r="U47">
+        <v>2.35</v>
+      </c>
+      <c r="V47">
+        <v>3.4</v>
+      </c>
+      <c r="W47">
+        <v>1.28</v>
+      </c>
+      <c r="X47">
+        <v>7.8</v>
+      </c>
+      <c r="Y47">
+        <v>1.04</v>
+      </c>
+      <c r="Z47">
+        <v>4.33</v>
+      </c>
+      <c r="AA47">
+        <v>3.3</v>
+      </c>
+      <c r="AB47">
+        <v>1.9</v>
+      </c>
+      <c r="AC47">
+        <v>1.1</v>
+      </c>
+      <c r="AD47">
+        <v>6.5</v>
+      </c>
+      <c r="AE47">
+        <v>1.5</v>
+      </c>
+      <c r="AF47">
+        <v>2.55</v>
+      </c>
+      <c r="AG47">
+        <v>2.2</v>
+      </c>
+      <c r="AH47">
+        <v>1.65</v>
+      </c>
+      <c r="AI47">
+        <v>2</v>
+      </c>
+      <c r="AJ47">
+        <v>1.73</v>
+      </c>
+      <c r="AK47">
+        <v>1.8</v>
+      </c>
+      <c r="AL47">
+        <v>1.3</v>
+      </c>
+      <c r="AM47">
+        <v>1.2</v>
+      </c>
+      <c r="AN47">
+        <v>0</v>
+      </c>
+      <c r="AO47">
+        <v>3</v>
+      </c>
+      <c r="AP47">
+        <v>1</v>
+      </c>
+      <c r="AQ47">
+        <v>2</v>
+      </c>
+      <c r="AR47">
+        <v>1.18</v>
+      </c>
+      <c r="AS47">
+        <v>1.28</v>
+      </c>
+      <c r="AT47">
+        <v>2.46</v>
+      </c>
+      <c r="AU47">
+        <v>3</v>
+      </c>
+      <c r="AV47">
+        <v>3</v>
+      </c>
+      <c r="AW47">
+        <v>8</v>
+      </c>
+      <c r="AX47">
+        <v>8</v>
+      </c>
+      <c r="AY47">
+        <v>11</v>
+      </c>
+      <c r="AZ47">
+        <v>11</v>
+      </c>
+      <c r="BA47">
+        <v>2</v>
+      </c>
+      <c r="BB47">
+        <v>9</v>
+      </c>
+      <c r="BC47">
+        <v>11</v>
+      </c>
+      <c r="BD47">
+        <v>2.76</v>
+      </c>
+      <c r="BE47">
+        <v>8.5</v>
+      </c>
+      <c r="BF47">
+        <v>1.64</v>
+      </c>
+      <c r="BG47">
+        <v>1.19</v>
+      </c>
+      <c r="BH47">
+        <v>4.5</v>
+      </c>
+      <c r="BI47">
+        <v>1.31</v>
+      </c>
+      <c r="BJ47">
+        <v>3.15</v>
+      </c>
+      <c r="BK47">
+        <v>2</v>
+      </c>
+      <c r="BL47">
+        <v>2.3</v>
+      </c>
+      <c r="BM47">
+        <v>1.99</v>
+      </c>
+      <c r="BN47">
+        <v>1.73</v>
+      </c>
+      <c r="BO47">
+        <v>2.6</v>
+      </c>
+      <c r="BP47">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:68">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>7380370</v>
+      </c>
+      <c r="C48" t="s">
+        <v>68</v>
+      </c>
+      <c r="D48" t="s">
+        <v>69</v>
+      </c>
+      <c r="E48" s="2">
+        <v>45427.79166666666</v>
+      </c>
+      <c r="F48">
+        <v>5</v>
+      </c>
+      <c r="G48" t="s">
+        <v>86</v>
+      </c>
+      <c r="H48" t="s">
+        <v>89</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48" t="s">
+        <v>101</v>
+      </c>
+      <c r="P48" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q48">
+        <v>2.63</v>
+      </c>
+      <c r="R48">
+        <v>2</v>
+      </c>
+      <c r="S48">
+        <v>4.75</v>
+      </c>
+      <c r="T48">
+        <v>1.48</v>
+      </c>
+      <c r="U48">
+        <v>2.66</v>
+      </c>
+      <c r="V48">
+        <v>3.36</v>
+      </c>
+      <c r="W48">
+        <v>1.32</v>
+      </c>
+      <c r="X48">
+        <v>10</v>
+      </c>
+      <c r="Y48">
+        <v>1.06</v>
+      </c>
+      <c r="Z48">
+        <v>1.91</v>
+      </c>
+      <c r="AA48">
+        <v>3.2</v>
+      </c>
+      <c r="AB48">
+        <v>4.33</v>
+      </c>
+      <c r="AC48">
+        <v>1.06</v>
+      </c>
+      <c r="AD48">
+        <v>7.9</v>
+      </c>
+      <c r="AE48">
+        <v>1.41</v>
+      </c>
+      <c r="AF48">
+        <v>2.75</v>
+      </c>
+      <c r="AG48">
+        <v>2.35</v>
+      </c>
+      <c r="AH48">
+        <v>1.57</v>
+      </c>
+      <c r="AI48">
+        <v>2.1</v>
+      </c>
+      <c r="AJ48">
+        <v>1.67</v>
+      </c>
+      <c r="AK48">
+        <v>1.14</v>
+      </c>
+      <c r="AL48">
+        <v>1.24</v>
+      </c>
+      <c r="AM48">
+        <v>1.95</v>
+      </c>
+      <c r="AN48">
+        <v>3</v>
+      </c>
+      <c r="AO48">
+        <v>0.5</v>
+      </c>
+      <c r="AP48">
+        <v>2.33</v>
+      </c>
+      <c r="AQ48">
+        <v>0.67</v>
+      </c>
+      <c r="AR48">
+        <v>1.99</v>
+      </c>
+      <c r="AS48">
+        <v>1.29</v>
+      </c>
+      <c r="AT48">
+        <v>3.28</v>
+      </c>
+      <c r="AU48">
+        <v>6</v>
+      </c>
+      <c r="AV48">
+        <v>2</v>
+      </c>
+      <c r="AW48">
+        <v>13</v>
+      </c>
+      <c r="AX48">
+        <v>1</v>
+      </c>
+      <c r="AY48">
+        <v>19</v>
+      </c>
+      <c r="AZ48">
+        <v>3</v>
+      </c>
+      <c r="BA48">
+        <v>7</v>
+      </c>
+      <c r="BB48">
+        <v>0</v>
+      </c>
+      <c r="BC48">
+        <v>7</v>
+      </c>
+      <c r="BD48">
+        <v>1.6</v>
+      </c>
+      <c r="BE48">
+        <v>7.5</v>
+      </c>
+      <c r="BF48">
+        <v>3.01</v>
+      </c>
+      <c r="BG48">
+        <v>1.26</v>
+      </c>
+      <c r="BH48">
+        <v>3.65</v>
+      </c>
+      <c r="BI48">
+        <v>1.48</v>
+      </c>
+      <c r="BJ48">
+        <v>2.47</v>
+      </c>
+      <c r="BK48">
+        <v>2.38</v>
+      </c>
+      <c r="BL48">
+        <v>1.92</v>
+      </c>
+      <c r="BM48">
+        <v>2.37</v>
+      </c>
+      <c r="BN48">
+        <v>1.51</v>
+      </c>
+      <c r="BO48">
+        <v>3.2</v>
+      </c>
+      <c r="BP48">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:68">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>7380374</v>
+      </c>
+      <c r="C49" t="s">
+        <v>68</v>
+      </c>
+      <c r="D49" t="s">
+        <v>69</v>
+      </c>
+      <c r="E49" s="2">
+        <v>45427.89583333334</v>
+      </c>
+      <c r="F49">
+        <v>5</v>
+      </c>
+      <c r="G49" t="s">
+        <v>85</v>
+      </c>
+      <c r="H49" t="s">
+        <v>88</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
+      <c r="L49">
+        <v>1</v>
+      </c>
+      <c r="M49">
+        <v>1</v>
+      </c>
+      <c r="N49">
+        <v>2</v>
+      </c>
+      <c r="O49" t="s">
+        <v>119</v>
+      </c>
+      <c r="P49" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q49">
+        <v>3.4</v>
+      </c>
+      <c r="R49">
+        <v>1.95</v>
+      </c>
+      <c r="S49">
+        <v>3.6</v>
+      </c>
+      <c r="T49">
+        <v>1.55</v>
+      </c>
+      <c r="U49">
+        <v>2.3</v>
+      </c>
+      <c r="V49">
+        <v>3.45</v>
+      </c>
+      <c r="W49">
+        <v>1.25</v>
+      </c>
+      <c r="X49">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Y49">
+        <v>1.03</v>
+      </c>
+      <c r="Z49">
+        <v>2.6</v>
+      </c>
+      <c r="AA49">
+        <v>3.1</v>
+      </c>
+      <c r="AB49">
+        <v>2.8</v>
+      </c>
+      <c r="AC49">
+        <v>1.1</v>
+      </c>
+      <c r="AD49">
+        <v>6.5</v>
+      </c>
+      <c r="AE49">
+        <v>1.48</v>
+      </c>
+      <c r="AF49">
+        <v>2.6</v>
+      </c>
+      <c r="AG49">
+        <v>2.4</v>
+      </c>
+      <c r="AH49">
+        <v>1.53</v>
+      </c>
+      <c r="AI49">
+        <v>2.1</v>
+      </c>
+      <c r="AJ49">
+        <v>1.67</v>
+      </c>
+      <c r="AK49">
+        <v>1.48</v>
+      </c>
+      <c r="AL49">
+        <v>1.3</v>
+      </c>
+      <c r="AM49">
+        <v>1.44</v>
+      </c>
+      <c r="AN49">
+        <v>1</v>
+      </c>
+      <c r="AO49">
+        <v>2</v>
+      </c>
+      <c r="AP49">
+        <v>1</v>
+      </c>
+      <c r="AQ49">
+        <v>1.67</v>
+      </c>
+      <c r="AR49">
+        <v>1.29</v>
+      </c>
+      <c r="AS49">
+        <v>0.9</v>
+      </c>
+      <c r="AT49">
+        <v>2.19</v>
+      </c>
+      <c r="AU49">
+        <v>3</v>
+      </c>
+      <c r="AV49">
+        <v>4</v>
+      </c>
+      <c r="AW49">
+        <v>1</v>
+      </c>
+      <c r="AX49">
+        <v>8</v>
+      </c>
+      <c r="AY49">
+        <v>4</v>
+      </c>
+      <c r="AZ49">
+        <v>12</v>
+      </c>
+      <c r="BA49">
+        <v>4</v>
+      </c>
+      <c r="BB49">
+        <v>5</v>
+      </c>
+      <c r="BC49">
+        <v>9</v>
+      </c>
+      <c r="BD49">
+        <v>1.67</v>
+      </c>
+      <c r="BE49">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF49">
+        <v>2.66</v>
+      </c>
+      <c r="BG49">
+        <v>1.25</v>
+      </c>
+      <c r="BH49">
+        <v>3.6</v>
+      </c>
+      <c r="BI49">
+        <v>1.38</v>
+      </c>
+      <c r="BJ49">
+        <v>2.8</v>
+      </c>
+      <c r="BK49">
+        <v>2.1</v>
+      </c>
+      <c r="BL49">
+        <v>2.07</v>
+      </c>
+      <c r="BM49">
+        <v>2.12</v>
+      </c>
+      <c r="BN49">
+        <v>1.64</v>
+      </c>
+      <c r="BO49">
+        <v>2.77</v>
+      </c>
+      <c r="BP49">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="50" spans="1:68">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>7380375</v>
+      </c>
+      <c r="C50" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50" t="s">
+        <v>69</v>
+      </c>
+      <c r="E50" s="2">
+        <v>45427.89583333334</v>
+      </c>
+      <c r="F50">
+        <v>5</v>
+      </c>
+      <c r="G50" t="s">
+        <v>76</v>
+      </c>
+      <c r="H50" t="s">
+        <v>75</v>
+      </c>
+      <c r="I50">
+        <v>2</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>2</v>
+      </c>
+      <c r="L50">
+        <v>2</v>
+      </c>
+      <c r="M50">
+        <v>1</v>
+      </c>
+      <c r="N50">
+        <v>3</v>
+      </c>
+      <c r="O50" t="s">
+        <v>125</v>
+      </c>
+      <c r="P50" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q50">
+        <v>2.25</v>
+      </c>
+      <c r="R50">
+        <v>2.1</v>
+      </c>
+      <c r="S50">
+        <v>6.5</v>
+      </c>
+      <c r="T50">
+        <v>1.48</v>
+      </c>
+      <c r="U50">
+        <v>2.65</v>
+      </c>
+      <c r="V50">
+        <v>3.28</v>
+      </c>
+      <c r="W50">
+        <v>1.31</v>
+      </c>
+      <c r="X50">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="Y50">
+        <v>1.05</v>
+      </c>
+      <c r="Z50">
+        <v>1.6</v>
+      </c>
+      <c r="AA50">
+        <v>3.6</v>
+      </c>
+      <c r="AB50">
+        <v>6.25</v>
+      </c>
+      <c r="AC50">
+        <v>1.04</v>
+      </c>
+      <c r="AD50">
+        <v>7.4</v>
+      </c>
+      <c r="AE50">
+        <v>1.42</v>
+      </c>
+      <c r="AF50">
+        <v>2.78</v>
+      </c>
+      <c r="AG50">
+        <v>2.2</v>
+      </c>
+      <c r="AH50">
+        <v>1.65</v>
+      </c>
+      <c r="AI50">
+        <v>2.2</v>
+      </c>
+      <c r="AJ50">
+        <v>1.62</v>
+      </c>
+      <c r="AK50">
+        <v>1.12</v>
+      </c>
+      <c r="AL50">
+        <v>1.26</v>
+      </c>
+      <c r="AM50">
+        <v>2.24</v>
+      </c>
+      <c r="AN50">
+        <v>1</v>
+      </c>
+      <c r="AO50">
+        <v>0.5</v>
+      </c>
+      <c r="AP50">
+        <v>1.67</v>
+      </c>
+      <c r="AQ50">
+        <v>0.33</v>
+      </c>
+      <c r="AR50">
+        <v>1.66</v>
+      </c>
+      <c r="AS50">
+        <v>0.97</v>
+      </c>
+      <c r="AT50">
+        <v>2.63</v>
+      </c>
+      <c r="AU50">
+        <v>6</v>
+      </c>
+      <c r="AV50">
+        <v>5</v>
+      </c>
+      <c r="AW50">
+        <v>3</v>
+      </c>
+      <c r="AX50">
+        <v>7</v>
+      </c>
+      <c r="AY50">
+        <v>9</v>
+      </c>
+      <c r="AZ50">
+        <v>12</v>
+      </c>
+      <c r="BA50">
+        <v>6</v>
+      </c>
+      <c r="BB50">
+        <v>5</v>
+      </c>
+      <c r="BC50">
+        <v>11</v>
+      </c>
+      <c r="BD50">
+        <v>1.48</v>
+      </c>
+      <c r="BE50">
+        <v>9.4</v>
+      </c>
+      <c r="BF50">
+        <v>3.24</v>
+      </c>
+      <c r="BG50">
+        <v>1.29</v>
+      </c>
+      <c r="BH50">
+        <v>3.3</v>
+      </c>
+      <c r="BI50">
+        <v>1.45</v>
+      </c>
+      <c r="BJ50">
+        <v>2.55</v>
+      </c>
+      <c r="BK50">
+        <v>2.25</v>
+      </c>
+      <c r="BL50">
+        <v>2</v>
+      </c>
+      <c r="BM50">
+        <v>2.32</v>
+      </c>
+      <c r="BN50">
+        <v>1.54</v>
+      </c>
+      <c r="BO50">
+        <v>3.1</v>
+      </c>
+      <c r="BP50">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="51" spans="1:68">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>7380367</v>
+      </c>
+      <c r="C51" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51" t="s">
+        <v>69</v>
+      </c>
+      <c r="E51" s="2">
+        <v>45427.89583333334</v>
+      </c>
+      <c r="F51">
+        <v>5</v>
+      </c>
+      <c r="G51" t="s">
+        <v>77</v>
+      </c>
+      <c r="H51" t="s">
+        <v>74</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>2</v>
+      </c>
+      <c r="K51">
+        <v>2</v>
+      </c>
+      <c r="L51">
+        <v>1</v>
+      </c>
+      <c r="M51">
+        <v>2</v>
+      </c>
+      <c r="N51">
+        <v>3</v>
+      </c>
+      <c r="O51" t="s">
+        <v>126</v>
+      </c>
+      <c r="P51" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q51">
+        <v>5</v>
+      </c>
+      <c r="R51">
+        <v>1.95</v>
+      </c>
+      <c r="S51">
+        <v>2.75</v>
+      </c>
+      <c r="T51">
+        <v>1.52</v>
+      </c>
+      <c r="U51">
+        <v>2.54</v>
+      </c>
+      <c r="V51">
+        <v>3.5</v>
+      </c>
+      <c r="W51">
+        <v>1.29</v>
+      </c>
+      <c r="X51">
+        <v>11</v>
+      </c>
+      <c r="Y51">
+        <v>1.05</v>
+      </c>
+      <c r="Z51">
+        <v>4.5</v>
+      </c>
+      <c r="AA51">
+        <v>3.1</v>
+      </c>
+      <c r="AB51">
+        <v>1.95</v>
+      </c>
+      <c r="AC51">
+        <v>1.08</v>
+      </c>
+      <c r="AD51">
+        <v>7</v>
+      </c>
+      <c r="AE51">
+        <v>1.5</v>
+      </c>
+      <c r="AF51">
+        <v>2.6</v>
+      </c>
+      <c r="AG51">
+        <v>2.6</v>
+      </c>
+      <c r="AH51">
+        <v>1.48</v>
+      </c>
+      <c r="AI51">
+        <v>2.2</v>
+      </c>
+      <c r="AJ51">
+        <v>1.62</v>
+      </c>
+      <c r="AK51">
+        <v>1.65</v>
+      </c>
+      <c r="AL51">
+        <v>1.28</v>
+      </c>
+      <c r="AM51">
+        <v>1.23</v>
+      </c>
+      <c r="AN51">
+        <v>2</v>
+      </c>
+      <c r="AO51">
+        <v>1.5</v>
+      </c>
+      <c r="AP51">
+        <v>1.33</v>
+      </c>
+      <c r="AQ51">
+        <v>2</v>
+      </c>
+      <c r="AR51">
+        <v>1.83</v>
+      </c>
+      <c r="AS51">
+        <v>1.29</v>
+      </c>
+      <c r="AT51">
+        <v>3.12</v>
+      </c>
+      <c r="AU51">
+        <v>4</v>
+      </c>
+      <c r="AV51">
+        <v>5</v>
+      </c>
+      <c r="AW51">
+        <v>4</v>
+      </c>
+      <c r="AX51">
+        <v>3</v>
+      </c>
+      <c r="AY51">
+        <v>8</v>
+      </c>
+      <c r="AZ51">
+        <v>8</v>
+      </c>
+      <c r="BA51">
+        <v>6</v>
+      </c>
+      <c r="BB51">
+        <v>6</v>
+      </c>
+      <c r="BC51">
+        <v>12</v>
+      </c>
+      <c r="BD51">
+        <v>3</v>
+      </c>
+      <c r="BE51">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF51">
+        <v>1.57</v>
+      </c>
+      <c r="BG51">
+        <v>1.19</v>
+      </c>
+      <c r="BH51">
+        <v>4.5</v>
+      </c>
+      <c r="BI51">
+        <v>1.31</v>
+      </c>
+      <c r="BJ51">
+        <v>3.15</v>
+      </c>
+      <c r="BK51">
+        <v>2</v>
+      </c>
+      <c r="BL51">
+        <v>2.3</v>
+      </c>
+      <c r="BM51">
+        <v>1.99</v>
+      </c>
+      <c r="BN51">
+        <v>1.73</v>
+      </c>
+      <c r="BO51">
+        <v>2.6</v>
+      </c>
+      <c r="BP51">
+        <v>1.44</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="150">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -395,6 +395,9 @@
   </si>
   <si>
     <t>['53']</t>
+  </si>
+  <si>
+    <t>['15']</t>
   </si>
   <si>
     <t>['62']</t>
@@ -822,7 +825,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP51"/>
+  <dimension ref="A1:BP53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1081,7 +1084,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1365,7 +1368,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ3">
         <v>0.33</v>
@@ -1699,7 +1702,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q5">
         <v>2.75</v>
@@ -2111,7 +2114,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q7">
         <v>4.33</v>
@@ -2523,7 +2526,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2604,7 +2607,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ9">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2935,7 +2938,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q11">
         <v>3.5</v>
@@ -3347,7 +3350,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q13">
         <v>3.6</v>
@@ -3553,7 +3556,7 @@
         <v>101</v>
       </c>
       <c r="P14" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q14">
         <v>4.75</v>
@@ -3759,7 +3762,7 @@
         <v>101</v>
       </c>
       <c r="P15" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4043,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ16">
         <v>0.33</v>
@@ -4171,7 +4174,7 @@
         <v>102</v>
       </c>
       <c r="P17" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q17">
         <v>2.75</v>
@@ -4995,7 +4998,7 @@
         <v>106</v>
       </c>
       <c r="P21" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5407,7 +5410,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q23">
         <v>3.2</v>
@@ -5613,7 +5616,7 @@
         <v>107</v>
       </c>
       <c r="P24" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q24">
         <v>3.6</v>
@@ -6025,7 +6028,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6231,7 +6234,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q27">
         <v>4</v>
@@ -6437,7 +6440,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6849,7 +6852,7 @@
         <v>112</v>
       </c>
       <c r="P30" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q30">
         <v>2.1</v>
@@ -7261,7 +7264,7 @@
         <v>113</v>
       </c>
       <c r="P32" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q32">
         <v>2.38</v>
@@ -7467,7 +7470,7 @@
         <v>101</v>
       </c>
       <c r="P33" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -7545,7 +7548,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ33">
         <v>1.5</v>
@@ -7957,7 +7960,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ35">
         <v>1.33</v>
@@ -8085,7 +8088,7 @@
         <v>116</v>
       </c>
       <c r="P36" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q36">
         <v>2</v>
@@ -8990,7 +8993,7 @@
         <v>2</v>
       </c>
       <c r="AQ40">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR40">
         <v>1.33</v>
@@ -9115,7 +9118,7 @@
         <v>120</v>
       </c>
       <c r="P41" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q41">
         <v>2.25</v>
@@ -9321,7 +9324,7 @@
         <v>121</v>
       </c>
       <c r="P42" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q42">
         <v>3.2</v>
@@ -9527,7 +9530,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q43">
         <v>3.4</v>
@@ -10969,7 +10972,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q50">
         <v>2.25</v>
@@ -11175,7 +11178,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q51">
         <v>5</v>
@@ -11331,6 +11334,418 @@
         <v>2.6</v>
       </c>
       <c r="BP51">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="52" spans="1:68">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>7380382</v>
+      </c>
+      <c r="C52" t="s">
+        <v>68</v>
+      </c>
+      <c r="D52" t="s">
+        <v>69</v>
+      </c>
+      <c r="E52" s="2">
+        <v>45429.79166666666</v>
+      </c>
+      <c r="F52">
+        <v>6</v>
+      </c>
+      <c r="G52" t="s">
+        <v>84</v>
+      </c>
+      <c r="H52" t="s">
+        <v>78</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
+      <c r="L52">
+        <v>1</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+      <c r="O52" t="s">
+        <v>127</v>
+      </c>
+      <c r="P52" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q52">
+        <v>2.5</v>
+      </c>
+      <c r="R52">
+        <v>2</v>
+      </c>
+      <c r="S52">
+        <v>5.5</v>
+      </c>
+      <c r="T52">
+        <v>1.5</v>
+      </c>
+      <c r="U52">
+        <v>2.4</v>
+      </c>
+      <c r="V52">
+        <v>3.35</v>
+      </c>
+      <c r="W52">
+        <v>1.28</v>
+      </c>
+      <c r="X52">
+        <v>9.4</v>
+      </c>
+      <c r="Y52">
+        <v>1.04</v>
+      </c>
+      <c r="Z52">
+        <v>1.75</v>
+      </c>
+      <c r="AA52">
+        <v>3.4</v>
+      </c>
+      <c r="AB52">
+        <v>4.75</v>
+      </c>
+      <c r="AC52">
+        <v>1.06</v>
+      </c>
+      <c r="AD52">
+        <v>7</v>
+      </c>
+      <c r="AE52">
+        <v>1.4</v>
+      </c>
+      <c r="AF52">
+        <v>2.7</v>
+      </c>
+      <c r="AG52">
+        <v>2.35</v>
+      </c>
+      <c r="AH52">
+        <v>1.57</v>
+      </c>
+      <c r="AI52">
+        <v>2.2</v>
+      </c>
+      <c r="AJ52">
+        <v>1.62</v>
+      </c>
+      <c r="AK52">
+        <v>1.2</v>
+      </c>
+      <c r="AL52">
+        <v>1.28</v>
+      </c>
+      <c r="AM52">
+        <v>1.85</v>
+      </c>
+      <c r="AN52">
+        <v>2</v>
+      </c>
+      <c r="AO52">
+        <v>0</v>
+      </c>
+      <c r="AP52">
+        <v>2.33</v>
+      </c>
+      <c r="AQ52">
+        <v>0</v>
+      </c>
+      <c r="AR52">
+        <v>1.8</v>
+      </c>
+      <c r="AS52">
+        <v>1.15</v>
+      </c>
+      <c r="AT52">
+        <v>2.95</v>
+      </c>
+      <c r="AU52">
+        <v>5</v>
+      </c>
+      <c r="AV52">
+        <v>2</v>
+      </c>
+      <c r="AW52">
+        <v>9</v>
+      </c>
+      <c r="AX52">
+        <v>5</v>
+      </c>
+      <c r="AY52">
+        <v>14</v>
+      </c>
+      <c r="AZ52">
+        <v>7</v>
+      </c>
+      <c r="BA52">
+        <v>5</v>
+      </c>
+      <c r="BB52">
+        <v>2</v>
+      </c>
+      <c r="BC52">
+        <v>7</v>
+      </c>
+      <c r="BD52">
+        <v>1.5</v>
+      </c>
+      <c r="BE52">
+        <v>8</v>
+      </c>
+      <c r="BF52">
+        <v>3.34</v>
+      </c>
+      <c r="BG52">
+        <v>1.3</v>
+      </c>
+      <c r="BH52">
+        <v>3.2</v>
+      </c>
+      <c r="BI52">
+        <v>1.52</v>
+      </c>
+      <c r="BJ52">
+        <v>2.47</v>
+      </c>
+      <c r="BK52">
+        <v>2.38</v>
+      </c>
+      <c r="BL52">
+        <v>1.92</v>
+      </c>
+      <c r="BM52">
+        <v>2.39</v>
+      </c>
+      <c r="BN52">
+        <v>1.56</v>
+      </c>
+      <c r="BO52">
+        <v>3</v>
+      </c>
+      <c r="BP52">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="53" spans="1:68">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>7380379</v>
+      </c>
+      <c r="C53" t="s">
+        <v>68</v>
+      </c>
+      <c r="D53" t="s">
+        <v>69</v>
+      </c>
+      <c r="E53" s="2">
+        <v>45429.89583333334</v>
+      </c>
+      <c r="F53">
+        <v>6</v>
+      </c>
+      <c r="G53" t="s">
+        <v>71</v>
+      </c>
+      <c r="H53" t="s">
+        <v>87</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53" t="s">
+        <v>101</v>
+      </c>
+      <c r="P53" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q53">
+        <v>3</v>
+      </c>
+      <c r="R53">
+        <v>1.91</v>
+      </c>
+      <c r="S53">
+        <v>4.33</v>
+      </c>
+      <c r="T53">
+        <v>1.53</v>
+      </c>
+      <c r="U53">
+        <v>2.35</v>
+      </c>
+      <c r="V53">
+        <v>3.4</v>
+      </c>
+      <c r="W53">
+        <v>1.28</v>
+      </c>
+      <c r="X53">
+        <v>9.4</v>
+      </c>
+      <c r="Y53">
+        <v>1.04</v>
+      </c>
+      <c r="Z53">
+        <v>2.2</v>
+      </c>
+      <c r="AA53">
+        <v>2.9</v>
+      </c>
+      <c r="AB53">
+        <v>3.7</v>
+      </c>
+      <c r="AC53">
+        <v>1.07</v>
+      </c>
+      <c r="AD53">
+        <v>6.5</v>
+      </c>
+      <c r="AE53">
+        <v>1.42</v>
+      </c>
+      <c r="AF53">
+        <v>2.6</v>
+      </c>
+      <c r="AG53">
+        <v>2.6</v>
+      </c>
+      <c r="AH53">
+        <v>1.48</v>
+      </c>
+      <c r="AI53">
+        <v>2.1</v>
+      </c>
+      <c r="AJ53">
+        <v>1.67</v>
+      </c>
+      <c r="AK53">
+        <v>1.28</v>
+      </c>
+      <c r="AL53">
+        <v>1.3</v>
+      </c>
+      <c r="AM53">
+        <v>1.65</v>
+      </c>
+      <c r="AN53">
+        <v>1.5</v>
+      </c>
+      <c r="AO53">
+        <v>0.5</v>
+      </c>
+      <c r="AP53">
+        <v>1.33</v>
+      </c>
+      <c r="AQ53">
+        <v>0.67</v>
+      </c>
+      <c r="AR53">
+        <v>2.01</v>
+      </c>
+      <c r="AS53">
+        <v>1.82</v>
+      </c>
+      <c r="AT53">
+        <v>3.83</v>
+      </c>
+      <c r="AU53">
+        <v>6</v>
+      </c>
+      <c r="AV53">
+        <v>4</v>
+      </c>
+      <c r="AW53">
+        <v>11</v>
+      </c>
+      <c r="AX53">
+        <v>14</v>
+      </c>
+      <c r="AY53">
+        <v>17</v>
+      </c>
+      <c r="AZ53">
+        <v>18</v>
+      </c>
+      <c r="BA53">
+        <v>5</v>
+      </c>
+      <c r="BB53">
+        <v>6</v>
+      </c>
+      <c r="BC53">
+        <v>11</v>
+      </c>
+      <c r="BD53">
+        <v>1.67</v>
+      </c>
+      <c r="BE53">
+        <v>7.7</v>
+      </c>
+      <c r="BF53">
+        <v>2.76</v>
+      </c>
+      <c r="BG53">
+        <v>1.22</v>
+      </c>
+      <c r="BH53">
+        <v>3.8</v>
+      </c>
+      <c r="BI53">
+        <v>1.4</v>
+      </c>
+      <c r="BJ53">
+        <v>2.7</v>
+      </c>
+      <c r="BK53">
+        <v>2.1</v>
+      </c>
+      <c r="BL53">
+        <v>2.17</v>
+      </c>
+      <c r="BM53">
+        <v>2.08</v>
+      </c>
+      <c r="BN53">
+        <v>1.74</v>
+      </c>
+      <c r="BO53">
+        <v>2.6</v>
+      </c>
+      <c r="BP53">
         <v>1.44</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="155">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -400,6 +400,15 @@
     <t>['15']</t>
   </si>
   <si>
+    <t>['39']</t>
+  </si>
+  <si>
+    <t>['24', '40', '70', '90+2']</t>
+  </si>
+  <si>
+    <t>['4']</t>
+  </si>
+  <si>
     <t>['62']</t>
   </si>
   <si>
@@ -464,6 +473,12 @@
   </si>
   <si>
     <t>['17', '23']</t>
+  </si>
+  <si>
+    <t>['45+2']</t>
+  </si>
+  <si>
+    <t>['90', '90+6']</t>
   </si>
 </sst>
 </file>
@@ -825,7 +840,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP53"/>
+  <dimension ref="A1:BP56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1084,7 +1099,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1577,7 +1592,7 @@
         <v>2</v>
       </c>
       <c r="AQ4">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1702,7 +1717,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q5">
         <v>2.75</v>
@@ -1989,7 +2004,7 @@
         <v>3</v>
       </c>
       <c r="AQ6">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2114,7 +2129,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q7">
         <v>4.33</v>
@@ -2192,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ7">
         <v>2</v>
@@ -2526,7 +2541,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2938,7 +2953,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q11">
         <v>3.5</v>
@@ -3222,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ12">
         <v>0</v>
@@ -3350,7 +3365,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Q13">
         <v>3.6</v>
@@ -3556,7 +3571,7 @@
         <v>101</v>
       </c>
       <c r="P14" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q14">
         <v>4.75</v>
@@ -3762,7 +3777,7 @@
         <v>101</v>
       </c>
       <c r="P15" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4174,7 +4189,7 @@
         <v>102</v>
       </c>
       <c r="P17" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q17">
         <v>2.75</v>
@@ -4255,7 +4270,7 @@
         <v>1</v>
       </c>
       <c r="AQ17">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4998,7 +5013,7 @@
         <v>106</v>
       </c>
       <c r="P21" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5285,7 +5300,7 @@
         <v>1</v>
       </c>
       <c r="AQ22">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR22">
         <v>1.45</v>
@@ -5410,7 +5425,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q23">
         <v>3.2</v>
@@ -5616,7 +5631,7 @@
         <v>107</v>
       </c>
       <c r="P24" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q24">
         <v>3.6</v>
@@ -6028,7 +6043,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6234,7 +6249,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q27">
         <v>4</v>
@@ -6440,7 +6455,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6852,7 +6867,7 @@
         <v>112</v>
       </c>
       <c r="P30" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q30">
         <v>2.1</v>
@@ -7264,7 +7279,7 @@
         <v>113</v>
       </c>
       <c r="P32" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q32">
         <v>2.38</v>
@@ -7470,7 +7485,7 @@
         <v>101</v>
       </c>
       <c r="P33" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -8088,7 +8103,7 @@
         <v>116</v>
       </c>
       <c r="P36" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q36">
         <v>2</v>
@@ -8166,7 +8181,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ36">
         <v>0</v>
@@ -8375,7 +8390,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ37">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR37">
         <v>3.34</v>
@@ -8784,7 +8799,7 @@
         <v>3</v>
       </c>
       <c r="AP39">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ39">
         <v>2</v>
@@ -9118,7 +9133,7 @@
         <v>120</v>
       </c>
       <c r="P41" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Q41">
         <v>2.25</v>
@@ -9199,7 +9214,7 @@
         <v>3</v>
       </c>
       <c r="AQ41">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AR41">
         <v>1.37</v>
@@ -9324,7 +9339,7 @@
         <v>121</v>
       </c>
       <c r="P42" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q42">
         <v>3.2</v>
@@ -9530,7 +9545,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q43">
         <v>3.4</v>
@@ -10972,7 +10987,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Q50">
         <v>2.25</v>
@@ -11178,7 +11193,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q51">
         <v>5</v>
@@ -11747,6 +11762,624 @@
       </c>
       <c r="BP53">
         <v>1.44</v>
+      </c>
+    </row>
+    <row r="54" spans="1:68">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>7380384</v>
+      </c>
+      <c r="C54" t="s">
+        <v>68</v>
+      </c>
+      <c r="D54" t="s">
+        <v>69</v>
+      </c>
+      <c r="E54" s="2">
+        <v>45430.72916666666</v>
+      </c>
+      <c r="F54">
+        <v>6</v>
+      </c>
+      <c r="G54" t="s">
+        <v>75</v>
+      </c>
+      <c r="H54" t="s">
+        <v>85</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+      <c r="K54">
+        <v>2</v>
+      </c>
+      <c r="L54">
+        <v>1</v>
+      </c>
+      <c r="M54">
+        <v>1</v>
+      </c>
+      <c r="N54">
+        <v>2</v>
+      </c>
+      <c r="O54" t="s">
+        <v>128</v>
+      </c>
+      <c r="P54" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q54">
+        <v>3.2</v>
+      </c>
+      <c r="R54">
+        <v>1.95</v>
+      </c>
+      <c r="S54">
+        <v>4</v>
+      </c>
+      <c r="T54">
+        <v>1.5</v>
+      </c>
+      <c r="U54">
+        <v>2.43</v>
+      </c>
+      <c r="V54">
+        <v>3.85</v>
+      </c>
+      <c r="W54">
+        <v>1.22</v>
+      </c>
+      <c r="X54">
+        <v>10.5</v>
+      </c>
+      <c r="Y54">
+        <v>1.02</v>
+      </c>
+      <c r="Z54">
+        <v>2.35</v>
+      </c>
+      <c r="AA54">
+        <v>3.1</v>
+      </c>
+      <c r="AB54">
+        <v>3.2</v>
+      </c>
+      <c r="AC54">
+        <v>1.08</v>
+      </c>
+      <c r="AD54">
+        <v>6.75</v>
+      </c>
+      <c r="AE54">
+        <v>1.5</v>
+      </c>
+      <c r="AF54">
+        <v>2.43</v>
+      </c>
+      <c r="AG54">
+        <v>2.4</v>
+      </c>
+      <c r="AH54">
+        <v>1.53</v>
+      </c>
+      <c r="AI54">
+        <v>2.1</v>
+      </c>
+      <c r="AJ54">
+        <v>1.67</v>
+      </c>
+      <c r="AK54">
+        <v>1.25</v>
+      </c>
+      <c r="AL54">
+        <v>1.3</v>
+      </c>
+      <c r="AM54">
+        <v>1.71</v>
+      </c>
+      <c r="AN54">
+        <v>1.5</v>
+      </c>
+      <c r="AO54">
+        <v>0</v>
+      </c>
+      <c r="AP54">
+        <v>1.33</v>
+      </c>
+      <c r="AQ54">
+        <v>0.33</v>
+      </c>
+      <c r="AR54">
+        <v>0.92</v>
+      </c>
+      <c r="AS54">
+        <v>1.44</v>
+      </c>
+      <c r="AT54">
+        <v>2.36</v>
+      </c>
+      <c r="AU54">
+        <v>6</v>
+      </c>
+      <c r="AV54">
+        <v>5</v>
+      </c>
+      <c r="AW54">
+        <v>9</v>
+      </c>
+      <c r="AX54">
+        <v>9</v>
+      </c>
+      <c r="AY54">
+        <v>15</v>
+      </c>
+      <c r="AZ54">
+        <v>14</v>
+      </c>
+      <c r="BA54">
+        <v>6</v>
+      </c>
+      <c r="BB54">
+        <v>9</v>
+      </c>
+      <c r="BC54">
+        <v>15</v>
+      </c>
+      <c r="BD54">
+        <v>1.87</v>
+      </c>
+      <c r="BE54">
+        <v>7.4</v>
+      </c>
+      <c r="BF54">
+        <v>2.38</v>
+      </c>
+      <c r="BG54">
+        <v>1.23</v>
+      </c>
+      <c r="BH54">
+        <v>3.56</v>
+      </c>
+      <c r="BI54">
+        <v>1.44</v>
+      </c>
+      <c r="BJ54">
+        <v>2.51</v>
+      </c>
+      <c r="BK54">
+        <v>2.25</v>
+      </c>
+      <c r="BL54">
+        <v>1.98</v>
+      </c>
+      <c r="BM54">
+        <v>2.27</v>
+      </c>
+      <c r="BN54">
+        <v>1.53</v>
+      </c>
+      <c r="BO54">
+        <v>3.04</v>
+      </c>
+      <c r="BP54">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="55" spans="1:68">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>7380376</v>
+      </c>
+      <c r="C55" t="s">
+        <v>68</v>
+      </c>
+      <c r="D55" t="s">
+        <v>69</v>
+      </c>
+      <c r="E55" s="2">
+        <v>45430.77083333334</v>
+      </c>
+      <c r="F55">
+        <v>6</v>
+      </c>
+      <c r="G55" t="s">
+        <v>88</v>
+      </c>
+      <c r="H55" t="s">
+        <v>70</v>
+      </c>
+      <c r="I55">
+        <v>2</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>2</v>
+      </c>
+      <c r="L55">
+        <v>4</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>4</v>
+      </c>
+      <c r="O55" t="s">
+        <v>129</v>
+      </c>
+      <c r="P55" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q55">
+        <v>2.38</v>
+      </c>
+      <c r="R55">
+        <v>2.05</v>
+      </c>
+      <c r="S55">
+        <v>6</v>
+      </c>
+      <c r="T55">
+        <v>1.58</v>
+      </c>
+      <c r="U55">
+        <v>2.3</v>
+      </c>
+      <c r="V55">
+        <v>3.8</v>
+      </c>
+      <c r="W55">
+        <v>1.25</v>
+      </c>
+      <c r="X55">
+        <v>10.5</v>
+      </c>
+      <c r="Y55">
+        <v>1.03</v>
+      </c>
+      <c r="Z55">
+        <v>1.67</v>
+      </c>
+      <c r="AA55">
+        <v>3.5</v>
+      </c>
+      <c r="AB55">
+        <v>5.75</v>
+      </c>
+      <c r="AC55">
+        <v>1.09</v>
+      </c>
+      <c r="AD55">
+        <v>7.5</v>
+      </c>
+      <c r="AE55">
+        <v>1.5</v>
+      </c>
+      <c r="AF55">
+        <v>2.45</v>
+      </c>
+      <c r="AG55">
+        <v>2.3</v>
+      </c>
+      <c r="AH55">
+        <v>1.6</v>
+      </c>
+      <c r="AI55">
+        <v>2.2</v>
+      </c>
+      <c r="AJ55">
+        <v>1.62</v>
+      </c>
+      <c r="AK55">
+        <v>1.08</v>
+      </c>
+      <c r="AL55">
+        <v>1.26</v>
+      </c>
+      <c r="AM55">
+        <v>2.6</v>
+      </c>
+      <c r="AN55">
+        <v>3</v>
+      </c>
+      <c r="AO55">
+        <v>0.5</v>
+      </c>
+      <c r="AP55">
+        <v>3</v>
+      </c>
+      <c r="AQ55">
+        <v>0.33</v>
+      </c>
+      <c r="AR55">
+        <v>1.77</v>
+      </c>
+      <c r="AS55">
+        <v>1.38</v>
+      </c>
+      <c r="AT55">
+        <v>3.15</v>
+      </c>
+      <c r="AU55">
+        <v>10</v>
+      </c>
+      <c r="AV55">
+        <v>5</v>
+      </c>
+      <c r="AW55">
+        <v>3</v>
+      </c>
+      <c r="AX55">
+        <v>9</v>
+      </c>
+      <c r="AY55">
+        <v>13</v>
+      </c>
+      <c r="AZ55">
+        <v>14</v>
+      </c>
+      <c r="BA55">
+        <v>1</v>
+      </c>
+      <c r="BB55">
+        <v>2</v>
+      </c>
+      <c r="BC55">
+        <v>3</v>
+      </c>
+      <c r="BD55">
+        <v>1.41</v>
+      </c>
+      <c r="BE55">
+        <v>9.4</v>
+      </c>
+      <c r="BF55">
+        <v>3.64</v>
+      </c>
+      <c r="BG55">
+        <v>1.21</v>
+      </c>
+      <c r="BH55">
+        <v>3.74</v>
+      </c>
+      <c r="BI55">
+        <v>1.41</v>
+      </c>
+      <c r="BJ55">
+        <v>2.6</v>
+      </c>
+      <c r="BK55">
+        <v>2.2</v>
+      </c>
+      <c r="BL55">
+        <v>1.99</v>
+      </c>
+      <c r="BM55">
+        <v>2.17</v>
+      </c>
+      <c r="BN55">
+        <v>1.58</v>
+      </c>
+      <c r="BO55">
+        <v>2.88</v>
+      </c>
+      <c r="BP55">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="56" spans="1:68">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>7380385</v>
+      </c>
+      <c r="C56" t="s">
+        <v>68</v>
+      </c>
+      <c r="D56" t="s">
+        <v>69</v>
+      </c>
+      <c r="E56" s="2">
+        <v>45430.875</v>
+      </c>
+      <c r="F56">
+        <v>6</v>
+      </c>
+      <c r="G56" t="s">
+        <v>80</v>
+      </c>
+      <c r="H56" t="s">
+        <v>82</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>1</v>
+      </c>
+      <c r="L56">
+        <v>1</v>
+      </c>
+      <c r="M56">
+        <v>2</v>
+      </c>
+      <c r="N56">
+        <v>3</v>
+      </c>
+      <c r="O56" t="s">
+        <v>130</v>
+      </c>
+      <c r="P56" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q56">
+        <v>1.95</v>
+      </c>
+      <c r="R56">
+        <v>2.3</v>
+      </c>
+      <c r="S56">
+        <v>7.5</v>
+      </c>
+      <c r="T56">
+        <v>1.41</v>
+      </c>
+      <c r="U56">
+        <v>2.93</v>
+      </c>
+      <c r="V56">
+        <v>3.04</v>
+      </c>
+      <c r="W56">
+        <v>1.38</v>
+      </c>
+      <c r="X56">
+        <v>7.4</v>
+      </c>
+      <c r="Y56">
+        <v>1.07</v>
+      </c>
+      <c r="Z56">
+        <v>1.42</v>
+      </c>
+      <c r="AA56">
+        <v>4.75</v>
+      </c>
+      <c r="AB56">
+        <v>7</v>
+      </c>
+      <c r="AC56">
+        <v>1.05</v>
+      </c>
+      <c r="AD56">
+        <v>9</v>
+      </c>
+      <c r="AE56">
+        <v>1.33</v>
+      </c>
+      <c r="AF56">
+        <v>3.3</v>
+      </c>
+      <c r="AG56">
+        <v>1.95</v>
+      </c>
+      <c r="AH56">
+        <v>1.85</v>
+      </c>
+      <c r="AI56">
+        <v>2.25</v>
+      </c>
+      <c r="AJ56">
+        <v>1.57</v>
+      </c>
+      <c r="AK56">
+        <v>1.09</v>
+      </c>
+      <c r="AL56">
+        <v>1.17</v>
+      </c>
+      <c r="AM56">
+        <v>2.7</v>
+      </c>
+      <c r="AN56">
+        <v>3</v>
+      </c>
+      <c r="AO56">
+        <v>0.5</v>
+      </c>
+      <c r="AP56">
+        <v>2</v>
+      </c>
+      <c r="AQ56">
+        <v>1.33</v>
+      </c>
+      <c r="AR56">
+        <v>1.63</v>
+      </c>
+      <c r="AS56">
+        <v>0.75</v>
+      </c>
+      <c r="AT56">
+        <v>2.38</v>
+      </c>
+      <c r="AU56">
+        <v>4</v>
+      </c>
+      <c r="AV56">
+        <v>5</v>
+      </c>
+      <c r="AW56">
+        <v>1</v>
+      </c>
+      <c r="AX56">
+        <v>11</v>
+      </c>
+      <c r="AY56">
+        <v>5</v>
+      </c>
+      <c r="AZ56">
+        <v>16</v>
+      </c>
+      <c r="BA56">
+        <v>-1</v>
+      </c>
+      <c r="BB56">
+        <v>-1</v>
+      </c>
+      <c r="BC56">
+        <v>-1</v>
+      </c>
+      <c r="BD56">
+        <v>1.3</v>
+      </c>
+      <c r="BE56">
+        <v>13</v>
+      </c>
+      <c r="BF56">
+        <v>4.06</v>
+      </c>
+      <c r="BG56">
+        <v>1.13</v>
+      </c>
+      <c r="BH56">
+        <v>5</v>
+      </c>
+      <c r="BI56">
+        <v>1.25</v>
+      </c>
+      <c r="BJ56">
+        <v>3.6</v>
+      </c>
+      <c r="BK56">
+        <v>1.42</v>
+      </c>
+      <c r="BL56">
+        <v>2.62</v>
+      </c>
+      <c r="BM56">
+        <v>1.68</v>
+      </c>
+      <c r="BN56">
+        <v>2.15</v>
+      </c>
+      <c r="BO56">
+        <v>2.09</v>
+      </c>
+      <c r="BP56">
+        <v>1.72</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="157">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -407,6 +407,12 @@
   </si>
   <si>
     <t>['4']</t>
+  </si>
+  <si>
+    <t>['22', '34', '41', '81']</t>
+  </si>
+  <si>
+    <t>['68', '77']</t>
   </si>
   <si>
     <t>['62']</t>
@@ -840,7 +846,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP56"/>
+  <dimension ref="A1:BP59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1099,7 +1105,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1589,7 +1595,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ4">
         <v>1.33</v>
@@ -1717,7 +1723,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q5">
         <v>2.75</v>
@@ -2129,7 +2135,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q7">
         <v>4.33</v>
@@ -2541,7 +2547,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2953,7 +2959,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q11">
         <v>3.5</v>
@@ -3365,7 +3371,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q13">
         <v>3.6</v>
@@ -3571,7 +3577,7 @@
         <v>101</v>
       </c>
       <c r="P14" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q14">
         <v>4.75</v>
@@ -3777,7 +3783,7 @@
         <v>101</v>
       </c>
       <c r="P15" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4189,7 +4195,7 @@
         <v>102</v>
       </c>
       <c r="P17" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q17">
         <v>2.75</v>
@@ -5013,7 +5019,7 @@
         <v>106</v>
       </c>
       <c r="P21" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5094,7 +5100,7 @@
         <v>3</v>
       </c>
       <c r="AQ21">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5425,7 +5431,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q23">
         <v>3.2</v>
@@ -5631,7 +5637,7 @@
         <v>107</v>
       </c>
       <c r="P24" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q24">
         <v>3.6</v>
@@ -6043,7 +6049,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6249,7 +6255,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q27">
         <v>4</v>
@@ -6455,7 +6461,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6867,7 +6873,7 @@
         <v>112</v>
       </c>
       <c r="P30" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q30">
         <v>2.1</v>
@@ -7279,7 +7285,7 @@
         <v>113</v>
       </c>
       <c r="P32" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q32">
         <v>2.38</v>
@@ -7485,7 +7491,7 @@
         <v>101</v>
       </c>
       <c r="P33" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -7566,7 +7572,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ33">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR33">
         <v>1.83</v>
@@ -8103,7 +8109,7 @@
         <v>116</v>
       </c>
       <c r="P36" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q36">
         <v>2</v>
@@ -8593,7 +8599,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ38">
         <v>0.5</v>
@@ -9133,7 +9139,7 @@
         <v>120</v>
       </c>
       <c r="P41" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q41">
         <v>2.25</v>
@@ -9339,7 +9345,7 @@
         <v>121</v>
       </c>
       <c r="P42" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q42">
         <v>3.2</v>
@@ -9545,7 +9551,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q43">
         <v>3.4</v>
@@ -10987,7 +10993,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q50">
         <v>2.25</v>
@@ -11193,7 +11199,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q51">
         <v>5</v>
@@ -11811,7 +11817,7 @@
         <v>128</v>
       </c>
       <c r="P54" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q54">
         <v>3.2</v>
@@ -12223,7 +12229,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q56">
         <v>1.95</v>
@@ -12334,13 +12340,13 @@
         <v>16</v>
       </c>
       <c r="BA56">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BB56">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BC56">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BD56">
         <v>1.3</v>
@@ -12380,6 +12386,624 @@
       </c>
       <c r="BP56">
         <v>1.72</v>
+      </c>
+    </row>
+    <row r="57" spans="1:68">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>7380380</v>
+      </c>
+      <c r="C57" t="s">
+        <v>68</v>
+      </c>
+      <c r="D57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E57" s="2">
+        <v>45431.45833333334</v>
+      </c>
+      <c r="F57">
+        <v>6</v>
+      </c>
+      <c r="G57" t="s">
+        <v>74</v>
+      </c>
+      <c r="H57" t="s">
+        <v>79</v>
+      </c>
+      <c r="I57">
+        <v>3</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>3</v>
+      </c>
+      <c r="L57">
+        <v>4</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>4</v>
+      </c>
+      <c r="O57" t="s">
+        <v>131</v>
+      </c>
+      <c r="P57" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q57">
+        <v>1.95</v>
+      </c>
+      <c r="R57">
+        <v>2.3</v>
+      </c>
+      <c r="S57">
+        <v>7.5</v>
+      </c>
+      <c r="T57">
+        <v>1.41</v>
+      </c>
+      <c r="U57">
+        <v>2.7</v>
+      </c>
+      <c r="V57">
+        <v>2.95</v>
+      </c>
+      <c r="W57">
+        <v>1.35</v>
+      </c>
+      <c r="X57">
+        <v>7.4</v>
+      </c>
+      <c r="Y57">
+        <v>1.06</v>
+      </c>
+      <c r="Z57">
+        <v>1.33</v>
+      </c>
+      <c r="AA57">
+        <v>4.5</v>
+      </c>
+      <c r="AB57">
+        <v>9</v>
+      </c>
+      <c r="AC57">
+        <v>1.03</v>
+      </c>
+      <c r="AD57">
+        <v>9.5</v>
+      </c>
+      <c r="AE57">
+        <v>1.3</v>
+      </c>
+      <c r="AF57">
+        <v>3.3</v>
+      </c>
+      <c r="AG57">
+        <v>1.95</v>
+      </c>
+      <c r="AH57">
+        <v>1.7</v>
+      </c>
+      <c r="AI57">
+        <v>2.2</v>
+      </c>
+      <c r="AJ57">
+        <v>1.62</v>
+      </c>
+      <c r="AK57">
+        <v>1.01</v>
+      </c>
+      <c r="AL57">
+        <v>1.14</v>
+      </c>
+      <c r="AM57">
+        <v>3.2</v>
+      </c>
+      <c r="AN57">
+        <v>3</v>
+      </c>
+      <c r="AO57">
+        <v>0</v>
+      </c>
+      <c r="AP57">
+        <v>3</v>
+      </c>
+      <c r="AQ57">
+        <v>0</v>
+      </c>
+      <c r="AR57">
+        <v>1.24</v>
+      </c>
+      <c r="AS57">
+        <v>1.24</v>
+      </c>
+      <c r="AT57">
+        <v>2.48</v>
+      </c>
+      <c r="AU57">
+        <v>12</v>
+      </c>
+      <c r="AV57">
+        <v>0</v>
+      </c>
+      <c r="AW57">
+        <v>11</v>
+      </c>
+      <c r="AX57">
+        <v>9</v>
+      </c>
+      <c r="AY57">
+        <v>23</v>
+      </c>
+      <c r="AZ57">
+        <v>9</v>
+      </c>
+      <c r="BA57">
+        <v>11</v>
+      </c>
+      <c r="BB57">
+        <v>5</v>
+      </c>
+      <c r="BC57">
+        <v>16</v>
+      </c>
+      <c r="BD57">
+        <v>1.29</v>
+      </c>
+      <c r="BE57">
+        <v>12</v>
+      </c>
+      <c r="BF57">
+        <v>4.34</v>
+      </c>
+      <c r="BG57">
+        <v>1.21</v>
+      </c>
+      <c r="BH57">
+        <v>3.74</v>
+      </c>
+      <c r="BI57">
+        <v>1.4</v>
+      </c>
+      <c r="BJ57">
+        <v>2.64</v>
+      </c>
+      <c r="BK57">
+        <v>2.2</v>
+      </c>
+      <c r="BL57">
+        <v>2.02</v>
+      </c>
+      <c r="BM57">
+        <v>2.14</v>
+      </c>
+      <c r="BN57">
+        <v>1.6</v>
+      </c>
+      <c r="BO57">
+        <v>2.84</v>
+      </c>
+      <c r="BP57">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="58" spans="1:68">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>7380383</v>
+      </c>
+      <c r="C58" t="s">
+        <v>68</v>
+      </c>
+      <c r="D58" t="s">
+        <v>69</v>
+      </c>
+      <c r="E58" s="2">
+        <v>45431.66666666666</v>
+      </c>
+      <c r="F58">
+        <v>6</v>
+      </c>
+      <c r="G58" t="s">
+        <v>72</v>
+      </c>
+      <c r="H58" t="s">
+        <v>76</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58" t="s">
+        <v>101</v>
+      </c>
+      <c r="P58" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q58">
+        <v>3</v>
+      </c>
+      <c r="R58">
+        <v>1.95</v>
+      </c>
+      <c r="S58">
+        <v>4.33</v>
+      </c>
+      <c r="T58">
+        <v>1.5</v>
+      </c>
+      <c r="U58">
+        <v>2.48</v>
+      </c>
+      <c r="V58">
+        <v>3.3</v>
+      </c>
+      <c r="W58">
+        <v>1.3</v>
+      </c>
+      <c r="X58">
+        <v>9.1</v>
+      </c>
+      <c r="Y58">
+        <v>1.04</v>
+      </c>
+      <c r="Z58">
+        <v>2.2</v>
+      </c>
+      <c r="AA58">
+        <v>3.1</v>
+      </c>
+      <c r="AB58">
+        <v>3.6</v>
+      </c>
+      <c r="AC58">
+        <v>1.07</v>
+      </c>
+      <c r="AD58">
+        <v>7</v>
+      </c>
+      <c r="AE58">
+        <v>1.43</v>
+      </c>
+      <c r="AF58">
+        <v>2.63</v>
+      </c>
+      <c r="AG58">
+        <v>2.5</v>
+      </c>
+      <c r="AH58">
+        <v>1.5</v>
+      </c>
+      <c r="AI58">
+        <v>2.1</v>
+      </c>
+      <c r="AJ58">
+        <v>1.67</v>
+      </c>
+      <c r="AK58">
+        <v>1.39</v>
+      </c>
+      <c r="AL58">
+        <v>1.37</v>
+      </c>
+      <c r="AM58">
+        <v>1.53</v>
+      </c>
+      <c r="AN58">
+        <v>2</v>
+      </c>
+      <c r="AO58">
+        <v>1.5</v>
+      </c>
+      <c r="AP58">
+        <v>1.67</v>
+      </c>
+      <c r="AQ58">
+        <v>1.33</v>
+      </c>
+      <c r="AR58">
+        <v>1.54</v>
+      </c>
+      <c r="AS58">
+        <v>1.34</v>
+      </c>
+      <c r="AT58">
+        <v>2.88</v>
+      </c>
+      <c r="AU58">
+        <v>6</v>
+      </c>
+      <c r="AV58">
+        <v>8</v>
+      </c>
+      <c r="AW58">
+        <v>11</v>
+      </c>
+      <c r="AX58">
+        <v>5</v>
+      </c>
+      <c r="AY58">
+        <v>17</v>
+      </c>
+      <c r="AZ58">
+        <v>13</v>
+      </c>
+      <c r="BA58">
+        <v>9</v>
+      </c>
+      <c r="BB58">
+        <v>6</v>
+      </c>
+      <c r="BC58">
+        <v>15</v>
+      </c>
+      <c r="BD58">
+        <v>1.62</v>
+      </c>
+      <c r="BE58">
+        <v>8.6</v>
+      </c>
+      <c r="BF58">
+        <v>2.81</v>
+      </c>
+      <c r="BG58">
+        <v>1.15</v>
+      </c>
+      <c r="BH58">
+        <v>4.7</v>
+      </c>
+      <c r="BI58">
+        <v>1.27</v>
+      </c>
+      <c r="BJ58">
+        <v>3.28</v>
+      </c>
+      <c r="BK58">
+        <v>1.49</v>
+      </c>
+      <c r="BL58">
+        <v>2.38</v>
+      </c>
+      <c r="BM58">
+        <v>1.9</v>
+      </c>
+      <c r="BN58">
+        <v>1.9</v>
+      </c>
+      <c r="BO58">
+        <v>2.34</v>
+      </c>
+      <c r="BP58">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:68">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>7380378</v>
+      </c>
+      <c r="C59" t="s">
+        <v>68</v>
+      </c>
+      <c r="D59" t="s">
+        <v>69</v>
+      </c>
+      <c r="E59" s="2">
+        <v>45431.66666666666</v>
+      </c>
+      <c r="F59">
+        <v>6</v>
+      </c>
+      <c r="G59" t="s">
+        <v>89</v>
+      </c>
+      <c r="H59" t="s">
+        <v>81</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>2</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>2</v>
+      </c>
+      <c r="O59" t="s">
+        <v>132</v>
+      </c>
+      <c r="P59" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q59">
+        <v>2.1</v>
+      </c>
+      <c r="R59">
+        <v>2.2</v>
+      </c>
+      <c r="S59">
+        <v>7</v>
+      </c>
+      <c r="T59">
+        <v>1.42</v>
+      </c>
+      <c r="U59">
+        <v>2.62</v>
+      </c>
+      <c r="V59">
+        <v>2.95</v>
+      </c>
+      <c r="W59">
+        <v>1.35</v>
+      </c>
+      <c r="X59">
+        <v>8</v>
+      </c>
+      <c r="Y59">
+        <v>1.06</v>
+      </c>
+      <c r="Z59">
+        <v>1.5</v>
+      </c>
+      <c r="AA59">
+        <v>3.9</v>
+      </c>
+      <c r="AB59">
+        <v>7.5</v>
+      </c>
+      <c r="AC59">
+        <v>1.07</v>
+      </c>
+      <c r="AD59">
+        <v>8</v>
+      </c>
+      <c r="AE59">
+        <v>1.38</v>
+      </c>
+      <c r="AF59">
+        <v>3</v>
+      </c>
+      <c r="AG59">
+        <v>2.05</v>
+      </c>
+      <c r="AH59">
+        <v>1.75</v>
+      </c>
+      <c r="AI59">
+        <v>2.2</v>
+      </c>
+      <c r="AJ59">
+        <v>1.62</v>
+      </c>
+      <c r="AK59">
+        <v>1.1</v>
+      </c>
+      <c r="AL59">
+        <v>1.2</v>
+      </c>
+      <c r="AM59">
+        <v>2.45</v>
+      </c>
+      <c r="AN59">
+        <v>3</v>
+      </c>
+      <c r="AO59">
+        <v>0</v>
+      </c>
+      <c r="AP59">
+        <v>3</v>
+      </c>
+      <c r="AQ59">
+        <v>0</v>
+      </c>
+      <c r="AR59">
+        <v>1.2</v>
+      </c>
+      <c r="AS59">
+        <v>1.12</v>
+      </c>
+      <c r="AT59">
+        <v>2.32</v>
+      </c>
+      <c r="AU59">
+        <v>8</v>
+      </c>
+      <c r="AV59">
+        <v>0</v>
+      </c>
+      <c r="AW59">
+        <v>15</v>
+      </c>
+      <c r="AX59">
+        <v>4</v>
+      </c>
+      <c r="AY59">
+        <v>23</v>
+      </c>
+      <c r="AZ59">
+        <v>4</v>
+      </c>
+      <c r="BA59">
+        <v>9</v>
+      </c>
+      <c r="BB59">
+        <v>4</v>
+      </c>
+      <c r="BC59">
+        <v>13</v>
+      </c>
+      <c r="BD59">
+        <v>1.49</v>
+      </c>
+      <c r="BE59">
+        <v>9</v>
+      </c>
+      <c r="BF59">
+        <v>3.24</v>
+      </c>
+      <c r="BG59">
+        <v>1.22</v>
+      </c>
+      <c r="BH59">
+        <v>3.8</v>
+      </c>
+      <c r="BI59">
+        <v>1.4</v>
+      </c>
+      <c r="BJ59">
+        <v>2.7</v>
+      </c>
+      <c r="BK59">
+        <v>2.2</v>
+      </c>
+      <c r="BL59">
+        <v>2.19</v>
+      </c>
+      <c r="BM59">
+        <v>2.06</v>
+      </c>
+      <c r="BN59">
+        <v>1.74</v>
+      </c>
+      <c r="BO59">
+        <v>2.5</v>
+      </c>
+      <c r="BP59">
+        <v>1.48</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="158">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -485,6 +485,9 @@
   </si>
   <si>
     <t>['90', '90+6']</t>
+  </si>
+  <si>
+    <t>['30', '79']</t>
   </si>
 </sst>
 </file>
@@ -846,7 +849,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP59"/>
+  <dimension ref="A1:BP60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1186,7 +1189,7 @@
         <v>1</v>
       </c>
       <c r="AQ2">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -3861,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ15">
         <v>1.33</v>
@@ -5718,7 +5721,7 @@
         <v>2</v>
       </c>
       <c r="AQ24">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AR24">
         <v>1.66</v>
@@ -8393,7 +8396,7 @@
         <v>1</v>
       </c>
       <c r="AP37">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ37">
         <v>0.33</v>
@@ -13004,6 +13007,212 @@
       </c>
       <c r="BP59">
         <v>1.48</v>
+      </c>
+    </row>
+    <row r="60" spans="1:68">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>7380377</v>
+      </c>
+      <c r="C60" t="s">
+        <v>68</v>
+      </c>
+      <c r="D60" t="s">
+        <v>69</v>
+      </c>
+      <c r="E60" s="2">
+        <v>45432.875</v>
+      </c>
+      <c r="F60">
+        <v>6</v>
+      </c>
+      <c r="G60" t="s">
+        <v>83</v>
+      </c>
+      <c r="H60" t="s">
+        <v>86</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+      <c r="J60">
+        <v>1</v>
+      </c>
+      <c r="K60">
+        <v>2</v>
+      </c>
+      <c r="L60">
+        <v>1</v>
+      </c>
+      <c r="M60">
+        <v>2</v>
+      </c>
+      <c r="N60">
+        <v>3</v>
+      </c>
+      <c r="O60" t="s">
+        <v>119</v>
+      </c>
+      <c r="P60" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q60">
+        <v>4</v>
+      </c>
+      <c r="R60">
+        <v>1.95</v>
+      </c>
+      <c r="S60">
+        <v>3.1</v>
+      </c>
+      <c r="T60">
+        <v>1.53</v>
+      </c>
+      <c r="U60">
+        <v>2.41</v>
+      </c>
+      <c r="V60">
+        <v>3.48</v>
+      </c>
+      <c r="W60">
+        <v>1.28</v>
+      </c>
+      <c r="X60">
+        <v>9.5</v>
+      </c>
+      <c r="Y60">
+        <v>1.04</v>
+      </c>
+      <c r="Z60">
+        <v>3.25</v>
+      </c>
+      <c r="AA60">
+        <v>3.1</v>
+      </c>
+      <c r="AB60">
+        <v>2.25</v>
+      </c>
+      <c r="AC60">
+        <v>1.1</v>
+      </c>
+      <c r="AD60">
+        <v>6.5</v>
+      </c>
+      <c r="AE60">
+        <v>1.47</v>
+      </c>
+      <c r="AF60">
+        <v>2.6</v>
+      </c>
+      <c r="AG60">
+        <v>2.4</v>
+      </c>
+      <c r="AH60">
+        <v>1.53</v>
+      </c>
+      <c r="AI60">
+        <v>2.1</v>
+      </c>
+      <c r="AJ60">
+        <v>1.67</v>
+      </c>
+      <c r="AK60">
+        <v>1.57</v>
+      </c>
+      <c r="AL60">
+        <v>1.34</v>
+      </c>
+      <c r="AM60">
+        <v>1.34</v>
+      </c>
+      <c r="AN60">
+        <v>1.5</v>
+      </c>
+      <c r="AO60">
+        <v>1</v>
+      </c>
+      <c r="AP60">
+        <v>1</v>
+      </c>
+      <c r="AQ60">
+        <v>1.67</v>
+      </c>
+      <c r="AR60">
+        <v>2.36</v>
+      </c>
+      <c r="AS60">
+        <v>1.26</v>
+      </c>
+      <c r="AT60">
+        <v>3.62</v>
+      </c>
+      <c r="AU60">
+        <v>6</v>
+      </c>
+      <c r="AV60">
+        <v>4</v>
+      </c>
+      <c r="AW60">
+        <v>8</v>
+      </c>
+      <c r="AX60">
+        <v>9</v>
+      </c>
+      <c r="AY60">
+        <v>14</v>
+      </c>
+      <c r="AZ60">
+        <v>13</v>
+      </c>
+      <c r="BA60">
+        <v>7</v>
+      </c>
+      <c r="BB60">
+        <v>8</v>
+      </c>
+      <c r="BC60">
+        <v>15</v>
+      </c>
+      <c r="BD60">
+        <v>2.08</v>
+      </c>
+      <c r="BE60">
+        <v>7.3</v>
+      </c>
+      <c r="BF60">
+        <v>2.08</v>
+      </c>
+      <c r="BG60">
+        <v>1.23</v>
+      </c>
+      <c r="BH60">
+        <v>3.9</v>
+      </c>
+      <c r="BI60">
+        <v>1.4</v>
+      </c>
+      <c r="BJ60">
+        <v>2.75</v>
+      </c>
+      <c r="BK60">
+        <v>2.1</v>
+      </c>
+      <c r="BL60">
+        <v>2.1</v>
+      </c>
+      <c r="BM60">
+        <v>2.1</v>
+      </c>
+      <c r="BN60">
+        <v>1.67</v>
+      </c>
+      <c r="BO60">
+        <v>2.7</v>
+      </c>
+      <c r="BP60">
+        <v>1.42</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="158">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -849,7 +849,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP60"/>
+  <dimension ref="A1:BP61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1804,7 +1804,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ5">
         <v>0</v>
@@ -4897,7 +4897,7 @@
         <v>3</v>
       </c>
       <c r="AQ20">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5718,7 +5718,7 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ24">
         <v>1.67</v>
@@ -8605,7 +8605,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ38">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR38">
         <v>1.35</v>
@@ -13213,6 +13213,212 @@
       </c>
       <c r="BP60">
         <v>1.42</v>
+      </c>
+    </row>
+    <row r="61" spans="1:68">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>7380381</v>
+      </c>
+      <c r="C61" t="s">
+        <v>68</v>
+      </c>
+      <c r="D61" t="s">
+        <v>69</v>
+      </c>
+      <c r="E61" s="2">
+        <v>45433.70833333334</v>
+      </c>
+      <c r="F61">
+        <v>6</v>
+      </c>
+      <c r="G61" t="s">
+        <v>73</v>
+      </c>
+      <c r="H61" t="s">
+        <v>77</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61" t="s">
+        <v>101</v>
+      </c>
+      <c r="P61" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q61">
+        <v>3.1</v>
+      </c>
+      <c r="R61">
+        <v>1.91</v>
+      </c>
+      <c r="S61">
+        <v>4.33</v>
+      </c>
+      <c r="T61">
+        <v>1.49</v>
+      </c>
+      <c r="U61">
+        <v>2.43</v>
+      </c>
+      <c r="V61">
+        <v>3.65</v>
+      </c>
+      <c r="W61">
+        <v>1.24</v>
+      </c>
+      <c r="X61">
+        <v>9.4</v>
+      </c>
+      <c r="Y61">
+        <v>1.03</v>
+      </c>
+      <c r="Z61">
+        <v>2.25</v>
+      </c>
+      <c r="AA61">
+        <v>2.88</v>
+      </c>
+      <c r="AB61">
+        <v>3.55</v>
+      </c>
+      <c r="AC61">
+        <v>1.08</v>
+      </c>
+      <c r="AD61">
+        <v>6.75</v>
+      </c>
+      <c r="AE61">
+        <v>1.5</v>
+      </c>
+      <c r="AF61">
+        <v>2.45</v>
+      </c>
+      <c r="AG61">
+        <v>2.25</v>
+      </c>
+      <c r="AH61">
+        <v>1.53</v>
+      </c>
+      <c r="AI61">
+        <v>2.2</v>
+      </c>
+      <c r="AJ61">
+        <v>1.62</v>
+      </c>
+      <c r="AK61">
+        <v>1.21</v>
+      </c>
+      <c r="AL61">
+        <v>1.34</v>
+      </c>
+      <c r="AM61">
+        <v>1.74</v>
+      </c>
+      <c r="AN61">
+        <v>2</v>
+      </c>
+      <c r="AO61">
+        <v>0.5</v>
+      </c>
+      <c r="AP61">
+        <v>1.67</v>
+      </c>
+      <c r="AQ61">
+        <v>0.67</v>
+      </c>
+      <c r="AR61">
+        <v>1.31</v>
+      </c>
+      <c r="AS61">
+        <v>1.15</v>
+      </c>
+      <c r="AT61">
+        <v>2.46</v>
+      </c>
+      <c r="AU61">
+        <v>6</v>
+      </c>
+      <c r="AV61">
+        <v>4</v>
+      </c>
+      <c r="AW61">
+        <v>19</v>
+      </c>
+      <c r="AX61">
+        <v>7</v>
+      </c>
+      <c r="AY61">
+        <v>25</v>
+      </c>
+      <c r="AZ61">
+        <v>11</v>
+      </c>
+      <c r="BA61">
+        <v>6</v>
+      </c>
+      <c r="BB61">
+        <v>4</v>
+      </c>
+      <c r="BC61">
+        <v>10</v>
+      </c>
+      <c r="BD61">
+        <v>1.66</v>
+      </c>
+      <c r="BE61">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF61">
+        <v>2.53</v>
+      </c>
+      <c r="BG61">
+        <v>1.2</v>
+      </c>
+      <c r="BH61">
+        <v>4</v>
+      </c>
+      <c r="BI61">
+        <v>1.35</v>
+      </c>
+      <c r="BJ61">
+        <v>2.84</v>
+      </c>
+      <c r="BK61">
+        <v>2</v>
+      </c>
+      <c r="BL61">
+        <v>2.12</v>
+      </c>
+      <c r="BM61">
+        <v>2</v>
+      </c>
+      <c r="BN61">
+        <v>1.73</v>
+      </c>
+      <c r="BO61">
+        <v>2.64</v>
+      </c>
+      <c r="BP61">
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="159">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -413,6 +413,9 @@
   </si>
   <si>
     <t>['68', '77']</t>
+  </si>
+  <si>
+    <t>['15', '67']</t>
   </si>
   <si>
     <t>['62']</t>
@@ -849,7 +852,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP61"/>
+  <dimension ref="A1:BP62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1108,7 +1111,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1726,7 +1729,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q5">
         <v>2.75</v>
@@ -2138,7 +2141,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q7">
         <v>4.33</v>
@@ -2550,7 +2553,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2962,7 +2965,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q11">
         <v>3.5</v>
@@ -3374,7 +3377,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q13">
         <v>3.6</v>
@@ -3580,7 +3583,7 @@
         <v>101</v>
       </c>
       <c r="P14" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q14">
         <v>4.75</v>
@@ -3661,7 +3664,7 @@
         <v>2</v>
       </c>
       <c r="AQ14">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -3786,7 +3789,7 @@
         <v>101</v>
       </c>
       <c r="P15" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4198,7 +4201,7 @@
         <v>102</v>
       </c>
       <c r="P17" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q17">
         <v>2.75</v>
@@ -4482,7 +4485,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ18">
         <v>1</v>
@@ -5022,7 +5025,7 @@
         <v>106</v>
       </c>
       <c r="P21" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5434,7 +5437,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q23">
         <v>3.2</v>
@@ -5640,7 +5643,7 @@
         <v>107</v>
       </c>
       <c r="P24" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q24">
         <v>3.6</v>
@@ -6052,7 +6055,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6258,7 +6261,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q27">
         <v>4</v>
@@ -6464,7 +6467,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6876,7 +6879,7 @@
         <v>112</v>
       </c>
       <c r="P30" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q30">
         <v>2.1</v>
@@ -7288,7 +7291,7 @@
         <v>113</v>
       </c>
       <c r="P32" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q32">
         <v>2.38</v>
@@ -7366,7 +7369,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ32">
         <v>0</v>
@@ -7494,7 +7497,7 @@
         <v>101</v>
       </c>
       <c r="P33" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -8112,7 +8115,7 @@
         <v>116</v>
       </c>
       <c r="P36" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q36">
         <v>2</v>
@@ -8811,7 +8814,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ39">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR39">
         <v>1.12</v>
@@ -9142,7 +9145,7 @@
         <v>120</v>
       </c>
       <c r="P41" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q41">
         <v>2.25</v>
@@ -9348,7 +9351,7 @@
         <v>121</v>
       </c>
       <c r="P42" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q42">
         <v>3.2</v>
@@ -9554,7 +9557,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q43">
         <v>3.4</v>
@@ -10662,7 +10665,7 @@
         <v>0.5</v>
       </c>
       <c r="AP48">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ48">
         <v>0.67</v>
@@ -10996,7 +10999,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q50">
         <v>2.25</v>
@@ -11202,7 +11205,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q51">
         <v>5</v>
@@ -11283,7 +11286,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ51">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR51">
         <v>1.83</v>
@@ -11820,7 +11823,7 @@
         <v>128</v>
       </c>
       <c r="P54" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q54">
         <v>3.2</v>
@@ -12232,7 +12235,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q56">
         <v>1.95</v>
@@ -13056,7 +13059,7 @@
         <v>119</v>
       </c>
       <c r="P60" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13419,6 +13422,212 @@
       </c>
       <c r="BP61">
         <v>1.4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:68">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>7380390</v>
+      </c>
+      <c r="C62" t="s">
+        <v>68</v>
+      </c>
+      <c r="D62" t="s">
+        <v>69</v>
+      </c>
+      <c r="E62" s="2">
+        <v>45436.89583333334</v>
+      </c>
+      <c r="F62">
+        <v>7</v>
+      </c>
+      <c r="G62" t="s">
+        <v>86</v>
+      </c>
+      <c r="H62" t="s">
+        <v>74</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <v>1</v>
+      </c>
+      <c r="K62">
+        <v>2</v>
+      </c>
+      <c r="L62">
+        <v>2</v>
+      </c>
+      <c r="M62">
+        <v>1</v>
+      </c>
+      <c r="N62">
+        <v>3</v>
+      </c>
+      <c r="O62" t="s">
+        <v>133</v>
+      </c>
+      <c r="P62" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q62">
+        <v>3.4</v>
+      </c>
+      <c r="R62">
+        <v>1.91</v>
+      </c>
+      <c r="S62">
+        <v>3.75</v>
+      </c>
+      <c r="T62">
+        <v>1.49</v>
+      </c>
+      <c r="U62">
+        <v>2.63</v>
+      </c>
+      <c r="V62">
+        <v>3.2</v>
+      </c>
+      <c r="W62">
+        <v>1.3</v>
+      </c>
+      <c r="X62">
+        <v>8</v>
+      </c>
+      <c r="Y62">
+        <v>1.05</v>
+      </c>
+      <c r="Z62">
+        <v>2.63</v>
+      </c>
+      <c r="AA62">
+        <v>3</v>
+      </c>
+      <c r="AB62">
+        <v>2.9</v>
+      </c>
+      <c r="AC62">
+        <v>1.08</v>
+      </c>
+      <c r="AD62">
+        <v>6.5</v>
+      </c>
+      <c r="AE62">
+        <v>1.42</v>
+      </c>
+      <c r="AF62">
+        <v>2.62</v>
+      </c>
+      <c r="AG62">
+        <v>2.5</v>
+      </c>
+      <c r="AH62">
+        <v>1.5</v>
+      </c>
+      <c r="AI62">
+        <v>2.1</v>
+      </c>
+      <c r="AJ62">
+        <v>1.67</v>
+      </c>
+      <c r="AK62">
+        <v>1.39</v>
+      </c>
+      <c r="AL62">
+        <v>1.39</v>
+      </c>
+      <c r="AM62">
+        <v>1.5</v>
+      </c>
+      <c r="AN62">
+        <v>2.33</v>
+      </c>
+      <c r="AO62">
+        <v>2</v>
+      </c>
+      <c r="AP62">
+        <v>2.5</v>
+      </c>
+      <c r="AQ62">
+        <v>1.5</v>
+      </c>
+      <c r="AR62">
+        <v>2.09</v>
+      </c>
+      <c r="AS62">
+        <v>1.23</v>
+      </c>
+      <c r="AT62">
+        <v>3.32</v>
+      </c>
+      <c r="AU62">
+        <v>6</v>
+      </c>
+      <c r="AV62">
+        <v>4</v>
+      </c>
+      <c r="AW62">
+        <v>7</v>
+      </c>
+      <c r="AX62">
+        <v>10</v>
+      </c>
+      <c r="AY62">
+        <v>13</v>
+      </c>
+      <c r="AZ62">
+        <v>14</v>
+      </c>
+      <c r="BA62">
+        <v>0</v>
+      </c>
+      <c r="BB62">
+        <v>10</v>
+      </c>
+      <c r="BC62">
+        <v>10</v>
+      </c>
+      <c r="BD62">
+        <v>1.87</v>
+      </c>
+      <c r="BE62">
+        <v>7.5</v>
+      </c>
+      <c r="BF62">
+        <v>2.37</v>
+      </c>
+      <c r="BG62">
+        <v>1.22</v>
+      </c>
+      <c r="BH62">
+        <v>4</v>
+      </c>
+      <c r="BI62">
+        <v>1.42</v>
+      </c>
+      <c r="BJ62">
+        <v>2.75</v>
+      </c>
+      <c r="BK62">
+        <v>2</v>
+      </c>
+      <c r="BL62">
+        <v>2.02</v>
+      </c>
+      <c r="BM62">
+        <v>2.23</v>
+      </c>
+      <c r="BN62">
+        <v>1.61</v>
+      </c>
+      <c r="BO62">
+        <v>3</v>
+      </c>
+      <c r="BP62">
+        <v>1.35</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="159">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -852,7 +852,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP62"/>
+  <dimension ref="A1:BP63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2016,7 +2016,7 @@
         <v>3</v>
       </c>
       <c r="AQ6">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -9226,7 +9226,7 @@
         <v>3</v>
       </c>
       <c r="AQ41">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR41">
         <v>1.37</v>
@@ -11904,7 +11904,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ54">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR54">
         <v>0.92</v>
@@ -13628,6 +13628,212 @@
       </c>
       <c r="BP62">
         <v>1.35</v>
+      </c>
+    </row>
+    <row r="63" spans="1:68">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>7380387</v>
+      </c>
+      <c r="C63" t="s">
+        <v>68</v>
+      </c>
+      <c r="D63" t="s">
+        <v>69</v>
+      </c>
+      <c r="E63" s="2">
+        <v>45437.875</v>
+      </c>
+      <c r="F63">
+        <v>7</v>
+      </c>
+      <c r="G63" t="s">
+        <v>83</v>
+      </c>
+      <c r="H63" t="s">
+        <v>85</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
+      <c r="O63" t="s">
+        <v>101</v>
+      </c>
+      <c r="P63" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q63">
+        <v>3.2</v>
+      </c>
+      <c r="R63">
+        <v>1.91</v>
+      </c>
+      <c r="S63">
+        <v>4</v>
+      </c>
+      <c r="T63">
+        <v>1.54</v>
+      </c>
+      <c r="U63">
+        <v>2.34</v>
+      </c>
+      <c r="V63">
+        <v>3.6</v>
+      </c>
+      <c r="W63">
+        <v>1.25</v>
+      </c>
+      <c r="X63">
+        <v>9.85</v>
+      </c>
+      <c r="Y63">
+        <v>1.03</v>
+      </c>
+      <c r="Z63">
+        <v>2.3</v>
+      </c>
+      <c r="AA63">
+        <v>2.9</v>
+      </c>
+      <c r="AB63">
+        <v>3.4</v>
+      </c>
+      <c r="AC63">
+        <v>1.11</v>
+      </c>
+      <c r="AD63">
+        <v>6.75</v>
+      </c>
+      <c r="AE63">
+        <v>1.47</v>
+      </c>
+      <c r="AF63">
+        <v>2.5</v>
+      </c>
+      <c r="AG63">
+        <v>2.6</v>
+      </c>
+      <c r="AH63">
+        <v>1.48</v>
+      </c>
+      <c r="AI63">
+        <v>2.1</v>
+      </c>
+      <c r="AJ63">
+        <v>1.67</v>
+      </c>
+      <c r="AK63">
+        <v>1.22</v>
+      </c>
+      <c r="AL63">
+        <v>1.3</v>
+      </c>
+      <c r="AM63">
+        <v>1.78</v>
+      </c>
+      <c r="AN63">
+        <v>1</v>
+      </c>
+      <c r="AO63">
+        <v>0.33</v>
+      </c>
+      <c r="AP63">
+        <v>1</v>
+      </c>
+      <c r="AQ63">
+        <v>0.5</v>
+      </c>
+      <c r="AR63">
+        <v>2.11</v>
+      </c>
+      <c r="AS63">
+        <v>1.55</v>
+      </c>
+      <c r="AT63">
+        <v>3.66</v>
+      </c>
+      <c r="AU63">
+        <v>5</v>
+      </c>
+      <c r="AV63">
+        <v>3</v>
+      </c>
+      <c r="AW63">
+        <v>8</v>
+      </c>
+      <c r="AX63">
+        <v>9</v>
+      </c>
+      <c r="AY63">
+        <v>13</v>
+      </c>
+      <c r="AZ63">
+        <v>12</v>
+      </c>
+      <c r="BA63">
+        <v>3</v>
+      </c>
+      <c r="BB63">
+        <v>6</v>
+      </c>
+      <c r="BC63">
+        <v>9</v>
+      </c>
+      <c r="BD63">
+        <v>1.59</v>
+      </c>
+      <c r="BE63">
+        <v>7.8</v>
+      </c>
+      <c r="BF63">
+        <v>3</v>
+      </c>
+      <c r="BG63">
+        <v>1.22</v>
+      </c>
+      <c r="BH63">
+        <v>4</v>
+      </c>
+      <c r="BI63">
+        <v>1.4</v>
+      </c>
+      <c r="BJ63">
+        <v>2.8</v>
+      </c>
+      <c r="BK63">
+        <v>2.1</v>
+      </c>
+      <c r="BL63">
+        <v>2.05</v>
+      </c>
+      <c r="BM63">
+        <v>2.05</v>
+      </c>
+      <c r="BN63">
+        <v>1.7</v>
+      </c>
+      <c r="BO63">
+        <v>2.65</v>
+      </c>
+      <c r="BP63">
+        <v>1.44</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="162">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -418,6 +418,12 @@
     <t>['15', '67']</t>
   </si>
   <si>
+    <t>['57', '60']</t>
+  </si>
+  <si>
+    <t>['21', '48']</t>
+  </si>
+  <si>
     <t>['62']</t>
   </si>
   <si>
@@ -491,6 +497,9 @@
   </si>
   <si>
     <t>['30', '79']</t>
+  </si>
+  <si>
+    <t>['25', '55']</t>
   </si>
 </sst>
 </file>
@@ -852,7 +861,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP63"/>
+  <dimension ref="A1:BP65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1111,7 +1120,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1729,7 +1738,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q5">
         <v>2.75</v>
@@ -2141,7 +2150,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q7">
         <v>4.33</v>
@@ -2553,7 +2562,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2837,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ10">
         <v>0</v>
@@ -2965,7 +2974,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q11">
         <v>3.5</v>
@@ -3377,7 +3386,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q13">
         <v>3.6</v>
@@ -3455,7 +3464,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ13">
         <v>1.33</v>
@@ -3583,7 +3592,7 @@
         <v>101</v>
       </c>
       <c r="P14" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q14">
         <v>4.75</v>
@@ -3789,7 +3798,7 @@
         <v>101</v>
       </c>
       <c r="P15" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4201,7 +4210,7 @@
         <v>102</v>
       </c>
       <c r="P17" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q17">
         <v>2.75</v>
@@ -4694,7 +4703,7 @@
         <v>2</v>
       </c>
       <c r="AQ19">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -4900,7 +4909,7 @@
         <v>3</v>
       </c>
       <c r="AQ20">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5025,7 +5034,7 @@
         <v>106</v>
       </c>
       <c r="P21" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5437,7 +5446,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q23">
         <v>3.2</v>
@@ -5643,7 +5652,7 @@
         <v>107</v>
       </c>
       <c r="P24" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q24">
         <v>3.6</v>
@@ -5927,7 +5936,7 @@
         <v>3</v>
       </c>
       <c r="AP25">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ25">
         <v>1.33</v>
@@ -6055,7 +6064,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6133,7 +6142,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ26">
         <v>1</v>
@@ -6261,7 +6270,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q27">
         <v>4</v>
@@ -6467,7 +6476,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6879,7 +6888,7 @@
         <v>112</v>
       </c>
       <c r="P30" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q30">
         <v>2.1</v>
@@ -7291,7 +7300,7 @@
         <v>113</v>
       </c>
       <c r="P32" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q32">
         <v>2.38</v>
@@ -7497,7 +7506,7 @@
         <v>101</v>
       </c>
       <c r="P33" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -8115,7 +8124,7 @@
         <v>116</v>
       </c>
       <c r="P36" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q36">
         <v>2</v>
@@ -8196,7 +8205,7 @@
         <v>2</v>
       </c>
       <c r="AQ36">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AR36">
         <v>1.25</v>
@@ -8608,7 +8617,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ38">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AR38">
         <v>1.35</v>
@@ -9145,7 +9154,7 @@
         <v>120</v>
       </c>
       <c r="P41" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q41">
         <v>2.25</v>
@@ -9351,7 +9360,7 @@
         <v>121</v>
       </c>
       <c r="P42" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q42">
         <v>3.2</v>
@@ -9429,7 +9438,7 @@
         <v>1.5</v>
       </c>
       <c r="AP42">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ42">
         <v>1</v>
@@ -9557,7 +9566,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q43">
         <v>3.4</v>
@@ -10459,7 +10468,7 @@
         <v>3</v>
       </c>
       <c r="AP47">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ47">
         <v>2</v>
@@ -10999,7 +11008,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q50">
         <v>2.25</v>
@@ -11205,7 +11214,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q51">
         <v>5</v>
@@ -11823,7 +11832,7 @@
         <v>128</v>
       </c>
       <c r="P54" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q54">
         <v>3.2</v>
@@ -12235,7 +12244,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q56">
         <v>1.95</v>
@@ -12522,7 +12531,7 @@
         <v>3</v>
       </c>
       <c r="AQ57">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AR57">
         <v>1.24</v>
@@ -13059,7 +13068,7 @@
         <v>119</v>
       </c>
       <c r="P60" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13346,7 +13355,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ61">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AR61">
         <v>1.31</v>
@@ -13471,7 +13480,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q62">
         <v>3.4</v>
@@ -13834,6 +13843,418 @@
       </c>
       <c r="BP63">
         <v>1.44</v>
+      </c>
+    </row>
+    <row r="64" spans="1:68">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>7380389</v>
+      </c>
+      <c r="C64" t="s">
+        <v>68</v>
+      </c>
+      <c r="D64" t="s">
+        <v>69</v>
+      </c>
+      <c r="E64" s="2">
+        <v>45438.66666666666</v>
+      </c>
+      <c r="F64">
+        <v>7</v>
+      </c>
+      <c r="G64" t="s">
+        <v>81</v>
+      </c>
+      <c r="H64" t="s">
+        <v>77</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>2</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>2</v>
+      </c>
+      <c r="O64" t="s">
+        <v>134</v>
+      </c>
+      <c r="P64" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q64">
+        <v>3.75</v>
+      </c>
+      <c r="R64">
+        <v>1.91</v>
+      </c>
+      <c r="S64">
+        <v>3.4</v>
+      </c>
+      <c r="T64">
+        <v>1.57</v>
+      </c>
+      <c r="U64">
+        <v>2.4</v>
+      </c>
+      <c r="V64">
+        <v>3.62</v>
+      </c>
+      <c r="W64">
+        <v>1.26</v>
+      </c>
+      <c r="X64">
+        <v>10.2</v>
+      </c>
+      <c r="Y64">
+        <v>1.03</v>
+      </c>
+      <c r="Z64">
+        <v>2.45</v>
+      </c>
+      <c r="AA64">
+        <v>3.04</v>
+      </c>
+      <c r="AB64">
+        <v>3.05</v>
+      </c>
+      <c r="AC64">
+        <v>1.09</v>
+      </c>
+      <c r="AD64">
+        <v>6</v>
+      </c>
+      <c r="AE64">
+        <v>1.49</v>
+      </c>
+      <c r="AF64">
+        <v>2.44</v>
+      </c>
+      <c r="AG64">
+        <v>2.4</v>
+      </c>
+      <c r="AH64">
+        <v>1.5</v>
+      </c>
+      <c r="AI64">
+        <v>2.2</v>
+      </c>
+      <c r="AJ64">
+        <v>1.62</v>
+      </c>
+      <c r="AK64">
+        <v>1.4</v>
+      </c>
+      <c r="AL64">
+        <v>1.36</v>
+      </c>
+      <c r="AM64">
+        <v>1.48</v>
+      </c>
+      <c r="AN64">
+        <v>1</v>
+      </c>
+      <c r="AO64">
+        <v>0.67</v>
+      </c>
+      <c r="AP64">
+        <v>1.5</v>
+      </c>
+      <c r="AQ64">
+        <v>0.5</v>
+      </c>
+      <c r="AR64">
+        <v>1.17</v>
+      </c>
+      <c r="AS64">
+        <v>1.18</v>
+      </c>
+      <c r="AT64">
+        <v>2.35</v>
+      </c>
+      <c r="AU64">
+        <v>4</v>
+      </c>
+      <c r="AV64">
+        <v>3</v>
+      </c>
+      <c r="AW64">
+        <v>13</v>
+      </c>
+      <c r="AX64">
+        <v>7</v>
+      </c>
+      <c r="AY64">
+        <v>17</v>
+      </c>
+      <c r="AZ64">
+        <v>10</v>
+      </c>
+      <c r="BA64">
+        <v>1</v>
+      </c>
+      <c r="BB64">
+        <v>4</v>
+      </c>
+      <c r="BC64">
+        <v>5</v>
+      </c>
+      <c r="BD64">
+        <v>1.67</v>
+      </c>
+      <c r="BE64">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF64">
+        <v>2.71</v>
+      </c>
+      <c r="BG64">
+        <v>1.22</v>
+      </c>
+      <c r="BH64">
+        <v>4</v>
+      </c>
+      <c r="BI64">
+        <v>1.42</v>
+      </c>
+      <c r="BJ64">
+        <v>2.75</v>
+      </c>
+      <c r="BK64">
+        <v>2.1</v>
+      </c>
+      <c r="BL64">
+        <v>2.02</v>
+      </c>
+      <c r="BM64">
+        <v>2.23</v>
+      </c>
+      <c r="BN64">
+        <v>1.61</v>
+      </c>
+      <c r="BO64">
+        <v>3</v>
+      </c>
+      <c r="BP64">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="65" spans="1:68">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>7380386</v>
+      </c>
+      <c r="C65" t="s">
+        <v>68</v>
+      </c>
+      <c r="D65" t="s">
+        <v>69</v>
+      </c>
+      <c r="E65" s="2">
+        <v>45438.70833333334</v>
+      </c>
+      <c r="F65">
+        <v>7</v>
+      </c>
+      <c r="G65" t="s">
+        <v>78</v>
+      </c>
+      <c r="H65" t="s">
+        <v>79</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+      <c r="K65">
+        <v>2</v>
+      </c>
+      <c r="L65">
+        <v>2</v>
+      </c>
+      <c r="M65">
+        <v>2</v>
+      </c>
+      <c r="N65">
+        <v>4</v>
+      </c>
+      <c r="O65" t="s">
+        <v>135</v>
+      </c>
+      <c r="P65" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q65">
+        <v>2.38</v>
+      </c>
+      <c r="R65">
+        <v>2</v>
+      </c>
+      <c r="S65">
+        <v>6</v>
+      </c>
+      <c r="T65">
+        <v>1.52</v>
+      </c>
+      <c r="U65">
+        <v>2.55</v>
+      </c>
+      <c r="V65">
+        <v>3.48</v>
+      </c>
+      <c r="W65">
+        <v>1.28</v>
+      </c>
+      <c r="X65">
+        <v>9.4</v>
+      </c>
+      <c r="Y65">
+        <v>1.04</v>
+      </c>
+      <c r="Z65">
+        <v>1.73</v>
+      </c>
+      <c r="AA65">
+        <v>3.44</v>
+      </c>
+      <c r="AB65">
+        <v>5.09</v>
+      </c>
+      <c r="AC65">
+        <v>1.08</v>
+      </c>
+      <c r="AD65">
+        <v>6.5</v>
+      </c>
+      <c r="AE65">
+        <v>1.44</v>
+      </c>
+      <c r="AF65">
+        <v>2.6</v>
+      </c>
+      <c r="AG65">
+        <v>2.45</v>
+      </c>
+      <c r="AH65">
+        <v>1.49</v>
+      </c>
+      <c r="AI65">
+        <v>2.25</v>
+      </c>
+      <c r="AJ65">
+        <v>1.57</v>
+      </c>
+      <c r="AK65">
+        <v>1.14</v>
+      </c>
+      <c r="AL65">
+        <v>1.29</v>
+      </c>
+      <c r="AM65">
+        <v>2.07</v>
+      </c>
+      <c r="AN65">
+        <v>3</v>
+      </c>
+      <c r="AO65">
+        <v>0</v>
+      </c>
+      <c r="AP65">
+        <v>2.5</v>
+      </c>
+      <c r="AQ65">
+        <v>0.25</v>
+      </c>
+      <c r="AR65">
+        <v>1.27</v>
+      </c>
+      <c r="AS65">
+        <v>1.08</v>
+      </c>
+      <c r="AT65">
+        <v>2.35</v>
+      </c>
+      <c r="AU65">
+        <v>7</v>
+      </c>
+      <c r="AV65">
+        <v>7</v>
+      </c>
+      <c r="AW65">
+        <v>9</v>
+      </c>
+      <c r="AX65">
+        <v>4</v>
+      </c>
+      <c r="AY65">
+        <v>16</v>
+      </c>
+      <c r="AZ65">
+        <v>11</v>
+      </c>
+      <c r="BA65">
+        <v>3</v>
+      </c>
+      <c r="BB65">
+        <v>4</v>
+      </c>
+      <c r="BC65">
+        <v>7</v>
+      </c>
+      <c r="BD65">
+        <v>1.62</v>
+      </c>
+      <c r="BE65">
+        <v>8.1</v>
+      </c>
+      <c r="BF65">
+        <v>2.86</v>
+      </c>
+      <c r="BG65">
+        <v>1.22</v>
+      </c>
+      <c r="BH65">
+        <v>4</v>
+      </c>
+      <c r="BI65">
+        <v>1.42</v>
+      </c>
+      <c r="BJ65">
+        <v>2.75</v>
+      </c>
+      <c r="BK65">
+        <v>2.2</v>
+      </c>
+      <c r="BL65">
+        <v>2.02</v>
+      </c>
+      <c r="BM65">
+        <v>2.23</v>
+      </c>
+      <c r="BN65">
+        <v>1.61</v>
+      </c>
+      <c r="BO65">
+        <v>3</v>
+      </c>
+      <c r="BP65">
+        <v>1.35</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="164">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -424,6 +424,9 @@
     <t>['21', '48']</t>
   </si>
   <si>
+    <t>['44', '90+11']</t>
+  </si>
+  <si>
     <t>['62']</t>
   </si>
   <si>
@@ -500,6 +503,9 @@
   </si>
   <si>
     <t>['25', '55']</t>
+  </si>
+  <si>
+    <t>['17']</t>
   </si>
 </sst>
 </file>
@@ -861,7 +867,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP65"/>
+  <dimension ref="A1:BP66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1120,7 +1126,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1738,7 +1744,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q5">
         <v>2.75</v>
@@ -2150,7 +2156,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q7">
         <v>4.33</v>
@@ -2434,7 +2440,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AQ8">
         <v>1.67</v>
@@ -2562,7 +2568,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2974,7 +2980,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q11">
         <v>3.5</v>
@@ -3386,7 +3392,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q13">
         <v>3.6</v>
@@ -3592,7 +3598,7 @@
         <v>101</v>
       </c>
       <c r="P14" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q14">
         <v>4.75</v>
@@ -3798,7 +3804,7 @@
         <v>101</v>
       </c>
       <c r="P15" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -3879,7 +3885,7 @@
         <v>1</v>
       </c>
       <c r="AQ15">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4210,7 +4216,7 @@
         <v>102</v>
       </c>
       <c r="P17" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q17">
         <v>2.75</v>
@@ -5034,7 +5040,7 @@
         <v>106</v>
       </c>
       <c r="P21" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5446,7 +5452,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q23">
         <v>3.2</v>
@@ -5652,7 +5658,7 @@
         <v>107</v>
       </c>
       <c r="P24" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q24">
         <v>3.6</v>
@@ -6064,7 +6070,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6270,7 +6276,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q27">
         <v>4</v>
@@ -6476,7 +6482,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6554,7 +6560,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AQ28">
         <v>0.33</v>
@@ -6888,7 +6894,7 @@
         <v>112</v>
       </c>
       <c r="P30" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q30">
         <v>2.1</v>
@@ -7300,7 +7306,7 @@
         <v>113</v>
       </c>
       <c r="P32" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q32">
         <v>2.38</v>
@@ -7506,7 +7512,7 @@
         <v>101</v>
       </c>
       <c r="P33" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -7999,7 +8005,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ35">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR35">
         <v>1.74</v>
@@ -8124,7 +8130,7 @@
         <v>116</v>
       </c>
       <c r="P36" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q36">
         <v>2</v>
@@ -9154,7 +9160,7 @@
         <v>120</v>
       </c>
       <c r="P41" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q41">
         <v>2.25</v>
@@ -9360,7 +9366,7 @@
         <v>121</v>
       </c>
       <c r="P42" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q42">
         <v>3.2</v>
@@ -9566,7 +9572,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q43">
         <v>3.4</v>
@@ -10059,7 +10065,7 @@
         <v>1</v>
       </c>
       <c r="AQ45">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR45">
         <v>1.09</v>
@@ -11008,7 +11014,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q50">
         <v>2.25</v>
@@ -11086,7 +11092,7 @@
         <v>0.5</v>
       </c>
       <c r="AP50">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AQ50">
         <v>0.33</v>
@@ -11214,7 +11220,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q51">
         <v>5</v>
@@ -11832,7 +11838,7 @@
         <v>128</v>
       </c>
       <c r="P54" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q54">
         <v>3.2</v>
@@ -12244,7 +12250,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q56">
         <v>1.95</v>
@@ -13068,7 +13074,7 @@
         <v>119</v>
       </c>
       <c r="P60" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13480,7 +13486,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q62">
         <v>3.4</v>
@@ -13985,7 +13991,7 @@
         <v>2.35</v>
       </c>
       <c r="AU64">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV64">
         <v>3</v>
@@ -13994,13 +14000,13 @@
         <v>13</v>
       </c>
       <c r="AX64">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY64">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ64">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA64">
         <v>1</v>
@@ -14098,7 +14104,7 @@
         <v>135</v>
       </c>
       <c r="P65" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q65">
         <v>2.38</v>
@@ -14255,6 +14261,212 @@
       </c>
       <c r="BP65">
         <v>1.35</v>
+      </c>
+    </row>
+    <row r="66" spans="1:68">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>7380395</v>
+      </c>
+      <c r="C66" t="s">
+        <v>68</v>
+      </c>
+      <c r="D66" t="s">
+        <v>69</v>
+      </c>
+      <c r="E66" s="2">
+        <v>45438.77083333334</v>
+      </c>
+      <c r="F66">
+        <v>7</v>
+      </c>
+      <c r="G66" t="s">
+        <v>76</v>
+      </c>
+      <c r="H66" t="s">
+        <v>73</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+      <c r="K66">
+        <v>2</v>
+      </c>
+      <c r="L66">
+        <v>2</v>
+      </c>
+      <c r="M66">
+        <v>1</v>
+      </c>
+      <c r="N66">
+        <v>3</v>
+      </c>
+      <c r="O66" t="s">
+        <v>136</v>
+      </c>
+      <c r="P66" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q66">
+        <v>2.3</v>
+      </c>
+      <c r="R66">
+        <v>2.2</v>
+      </c>
+      <c r="S66">
+        <v>5.5</v>
+      </c>
+      <c r="T66">
+        <v>1.45</v>
+      </c>
+      <c r="U66">
+        <v>2.63</v>
+      </c>
+      <c r="V66">
+        <v>3.14</v>
+      </c>
+      <c r="W66">
+        <v>1.33</v>
+      </c>
+      <c r="X66">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Y66">
+        <v>1.06</v>
+      </c>
+      <c r="Z66">
+        <v>1.67</v>
+      </c>
+      <c r="AA66">
+        <v>3.7</v>
+      </c>
+      <c r="AB66">
+        <v>5</v>
+      </c>
+      <c r="AC66">
+        <v>1.07</v>
+      </c>
+      <c r="AD66">
+        <v>8</v>
+      </c>
+      <c r="AE66">
+        <v>1.4</v>
+      </c>
+      <c r="AF66">
+        <v>2.9</v>
+      </c>
+      <c r="AG66">
+        <v>2</v>
+      </c>
+      <c r="AH66">
+        <v>1.8</v>
+      </c>
+      <c r="AI66">
+        <v>1.91</v>
+      </c>
+      <c r="AJ66">
+        <v>1.8</v>
+      </c>
+      <c r="AK66">
+        <v>1.15</v>
+      </c>
+      <c r="AL66">
+        <v>1.27</v>
+      </c>
+      <c r="AM66">
+        <v>2.1</v>
+      </c>
+      <c r="AN66">
+        <v>1.67</v>
+      </c>
+      <c r="AO66">
+        <v>1.33</v>
+      </c>
+      <c r="AP66">
+        <v>2</v>
+      </c>
+      <c r="AQ66">
+        <v>1</v>
+      </c>
+      <c r="AR66">
+        <v>1.56</v>
+      </c>
+      <c r="AS66">
+        <v>0.77</v>
+      </c>
+      <c r="AT66">
+        <v>2.33</v>
+      </c>
+      <c r="AU66">
+        <v>6</v>
+      </c>
+      <c r="AV66">
+        <v>7</v>
+      </c>
+      <c r="AW66">
+        <v>17</v>
+      </c>
+      <c r="AX66">
+        <v>4</v>
+      </c>
+      <c r="AY66">
+        <v>23</v>
+      </c>
+      <c r="AZ66">
+        <v>11</v>
+      </c>
+      <c r="BA66">
+        <v>6</v>
+      </c>
+      <c r="BB66">
+        <v>3</v>
+      </c>
+      <c r="BC66">
+        <v>9</v>
+      </c>
+      <c r="BD66">
+        <v>1.37</v>
+      </c>
+      <c r="BE66">
+        <v>8.4</v>
+      </c>
+      <c r="BF66">
+        <v>4.16</v>
+      </c>
+      <c r="BG66">
+        <v>1.18</v>
+      </c>
+      <c r="BH66">
+        <v>4.5</v>
+      </c>
+      <c r="BI66">
+        <v>1.34</v>
+      </c>
+      <c r="BJ66">
+        <v>3.1</v>
+      </c>
+      <c r="BK66">
+        <v>1.83</v>
+      </c>
+      <c r="BL66">
+        <v>2.23</v>
+      </c>
+      <c r="BM66">
+        <v>2.02</v>
+      </c>
+      <c r="BN66">
+        <v>1.74</v>
+      </c>
+      <c r="BO66">
+        <v>2.7</v>
+      </c>
+      <c r="BP66">
+        <v>1.44</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="167">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -427,6 +427,12 @@
     <t>['44', '90+11']</t>
   </si>
   <si>
+    <t>['3', '9', '28']</t>
+  </si>
+  <si>
+    <t>['72', '88']</t>
+  </si>
+  <si>
     <t>['62']</t>
   </si>
   <si>
@@ -506,6 +512,9 @@
   </si>
   <si>
     <t>['17']</t>
+  </si>
+  <si>
+    <t>['88']</t>
   </si>
 </sst>
 </file>
@@ -867,7 +876,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP66"/>
+  <dimension ref="A1:BP69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1126,7 +1135,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1204,7 +1213,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ2">
         <v>1.67</v>
@@ -1744,7 +1753,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q5">
         <v>2.75</v>
@@ -2156,7 +2165,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q7">
         <v>4.33</v>
@@ -2443,7 +2452,7 @@
         <v>2</v>
       </c>
       <c r="AQ8">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2568,7 +2577,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2980,7 +2989,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q11">
         <v>3.5</v>
@@ -3392,7 +3401,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q13">
         <v>3.6</v>
@@ -3473,7 +3482,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ13">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3598,7 +3607,7 @@
         <v>101</v>
       </c>
       <c r="P14" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q14">
         <v>4.75</v>
@@ -3676,7 +3685,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ14">
         <v>1.5</v>
@@ -3804,7 +3813,7 @@
         <v>101</v>
       </c>
       <c r="P15" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4216,7 +4225,7 @@
         <v>102</v>
       </c>
       <c r="P17" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q17">
         <v>2.75</v>
@@ -4503,7 +4512,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ18">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4706,7 +4715,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ19">
         <v>0.25</v>
@@ -5040,7 +5049,7 @@
         <v>106</v>
       </c>
       <c r="P21" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5452,7 +5461,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q23">
         <v>3.2</v>
@@ -5530,7 +5539,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ23">
         <v>2</v>
@@ -5658,7 +5667,7 @@
         <v>107</v>
       </c>
       <c r="P24" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q24">
         <v>3.6</v>
@@ -5945,7 +5954,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ25">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR25">
         <v>1.46</v>
@@ -6070,7 +6079,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6151,7 +6160,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ26">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR26">
         <v>1.2</v>
@@ -6276,7 +6285,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q27">
         <v>4</v>
@@ -6357,7 +6366,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ27">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR27">
         <v>1.04</v>
@@ -6482,7 +6491,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6894,7 +6903,7 @@
         <v>112</v>
       </c>
       <c r="P30" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q30">
         <v>2.1</v>
@@ -7178,7 +7187,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ31">
         <v>0.67</v>
@@ -7306,7 +7315,7 @@
         <v>113</v>
       </c>
       <c r="P32" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q32">
         <v>2.38</v>
@@ -7512,7 +7521,7 @@
         <v>101</v>
       </c>
       <c r="P33" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -8130,7 +8139,7 @@
         <v>116</v>
       </c>
       <c r="P36" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q36">
         <v>2</v>
@@ -9032,7 +9041,7 @@
         <v>1</v>
       </c>
       <c r="AP40">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ40">
         <v>0.67</v>
@@ -9160,7 +9169,7 @@
         <v>120</v>
       </c>
       <c r="P41" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q41">
         <v>2.25</v>
@@ -9366,7 +9375,7 @@
         <v>121</v>
       </c>
       <c r="P42" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q42">
         <v>3.2</v>
@@ -9447,7 +9456,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ42">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR42">
         <v>1.32</v>
@@ -9572,7 +9581,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q43">
         <v>3.4</v>
@@ -9650,7 +9659,7 @@
         <v>0.5</v>
       </c>
       <c r="AP43">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ43">
         <v>0.33</v>
@@ -9856,7 +9865,7 @@
         <v>0</v>
       </c>
       <c r="AP44">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ44">
         <v>0</v>
@@ -10062,7 +10071,7 @@
         <v>1.5</v>
       </c>
       <c r="AP45">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ45">
         <v>1</v>
@@ -10271,7 +10280,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ46">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR46">
         <v>1.4</v>
@@ -10889,7 +10898,7 @@
         <v>1</v>
       </c>
       <c r="AQ49">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR49">
         <v>1.29</v>
@@ -11014,7 +11023,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q50">
         <v>2.25</v>
@@ -11220,7 +11229,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q51">
         <v>5</v>
@@ -11838,7 +11847,7 @@
         <v>128</v>
       </c>
       <c r="P54" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q54">
         <v>3.2</v>
@@ -12250,7 +12259,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q56">
         <v>1.95</v>
@@ -13074,7 +13083,7 @@
         <v>119</v>
       </c>
       <c r="P60" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13486,7 +13495,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q62">
         <v>3.4</v>
@@ -14104,7 +14113,7 @@
         <v>135</v>
       </c>
       <c r="P65" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q65">
         <v>2.38</v>
@@ -14310,7 +14319,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q66">
         <v>2.3</v>
@@ -14467,6 +14476,624 @@
       </c>
       <c r="BP66">
         <v>1.44</v>
+      </c>
+    </row>
+    <row r="67" spans="1:68">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>7380393</v>
+      </c>
+      <c r="C67" t="s">
+        <v>68</v>
+      </c>
+      <c r="D67" t="s">
+        <v>69</v>
+      </c>
+      <c r="E67" s="2">
+        <v>45439.79166666666</v>
+      </c>
+      <c r="F67">
+        <v>7</v>
+      </c>
+      <c r="G67" t="s">
+        <v>87</v>
+      </c>
+      <c r="H67" t="s">
+        <v>72</v>
+      </c>
+      <c r="I67">
+        <v>3</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>3</v>
+      </c>
+      <c r="L67">
+        <v>3</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>3</v>
+      </c>
+      <c r="O67" t="s">
+        <v>137</v>
+      </c>
+      <c r="P67" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q67">
+        <v>2.75</v>
+      </c>
+      <c r="R67">
+        <v>1.91</v>
+      </c>
+      <c r="S67">
+        <v>5.5</v>
+      </c>
+      <c r="T67">
+        <v>1.53</v>
+      </c>
+      <c r="U67">
+        <v>2.38</v>
+      </c>
+      <c r="V67">
+        <v>3.5</v>
+      </c>
+      <c r="W67">
+        <v>1.29</v>
+      </c>
+      <c r="X67">
+        <v>11</v>
+      </c>
+      <c r="Y67">
+        <v>1.05</v>
+      </c>
+      <c r="Z67">
+        <v>1.9</v>
+      </c>
+      <c r="AA67">
+        <v>3</v>
+      </c>
+      <c r="AB67">
+        <v>4.75</v>
+      </c>
+      <c r="AC67">
+        <v>1.09</v>
+      </c>
+      <c r="AD67">
+        <v>6.5</v>
+      </c>
+      <c r="AE67">
+        <v>1.47</v>
+      </c>
+      <c r="AF67">
+        <v>2.5</v>
+      </c>
+      <c r="AG67">
+        <v>2.7</v>
+      </c>
+      <c r="AH67">
+        <v>1.44</v>
+      </c>
+      <c r="AI67">
+        <v>2.38</v>
+      </c>
+      <c r="AJ67">
+        <v>1.53</v>
+      </c>
+      <c r="AK67">
+        <v>1.15</v>
+      </c>
+      <c r="AL67">
+        <v>1.25</v>
+      </c>
+      <c r="AM67">
+        <v>1.95</v>
+      </c>
+      <c r="AN67">
+        <v>2</v>
+      </c>
+      <c r="AO67">
+        <v>1.33</v>
+      </c>
+      <c r="AP67">
+        <v>2.25</v>
+      </c>
+      <c r="AQ67">
+        <v>1</v>
+      </c>
+      <c r="AR67">
+        <v>1.62</v>
+      </c>
+      <c r="AS67">
+        <v>1.51</v>
+      </c>
+      <c r="AT67">
+        <v>3.13</v>
+      </c>
+      <c r="AU67">
+        <v>7</v>
+      </c>
+      <c r="AV67">
+        <v>5</v>
+      </c>
+      <c r="AW67">
+        <v>5</v>
+      </c>
+      <c r="AX67">
+        <v>5</v>
+      </c>
+      <c r="AY67">
+        <v>12</v>
+      </c>
+      <c r="AZ67">
+        <v>10</v>
+      </c>
+      <c r="BA67">
+        <v>5</v>
+      </c>
+      <c r="BB67">
+        <v>4</v>
+      </c>
+      <c r="BC67">
+        <v>9</v>
+      </c>
+      <c r="BD67">
+        <v>1.67</v>
+      </c>
+      <c r="BE67">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF67">
+        <v>2.71</v>
+      </c>
+      <c r="BG67">
+        <v>1.17</v>
+      </c>
+      <c r="BH67">
+        <v>4.9</v>
+      </c>
+      <c r="BI67">
+        <v>1.29</v>
+      </c>
+      <c r="BJ67">
+        <v>3.45</v>
+      </c>
+      <c r="BK67">
+        <v>1.5</v>
+      </c>
+      <c r="BL67">
+        <v>2.45</v>
+      </c>
+      <c r="BM67">
+        <v>1.87</v>
+      </c>
+      <c r="BN67">
+        <v>1.87</v>
+      </c>
+      <c r="BO67">
+        <v>2.43</v>
+      </c>
+      <c r="BP67">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="68" spans="1:68">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>7380388</v>
+      </c>
+      <c r="C68" t="s">
+        <v>68</v>
+      </c>
+      <c r="D68" t="s">
+        <v>69</v>
+      </c>
+      <c r="E68" s="2">
+        <v>45439.875</v>
+      </c>
+      <c r="F68">
+        <v>7</v>
+      </c>
+      <c r="G68" t="s">
+        <v>70</v>
+      </c>
+      <c r="H68" t="s">
+        <v>71</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>1</v>
+      </c>
+      <c r="N68">
+        <v>1</v>
+      </c>
+      <c r="O68" t="s">
+        <v>101</v>
+      </c>
+      <c r="P68" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q68">
+        <v>3.6</v>
+      </c>
+      <c r="R68">
+        <v>1.83</v>
+      </c>
+      <c r="S68">
+        <v>3.75</v>
+      </c>
+      <c r="T68">
+        <v>1.67</v>
+      </c>
+      <c r="U68">
+        <v>2.1</v>
+      </c>
+      <c r="V68">
+        <v>4</v>
+      </c>
+      <c r="W68">
+        <v>1.22</v>
+      </c>
+      <c r="X68">
+        <v>15</v>
+      </c>
+      <c r="Y68">
+        <v>1.03</v>
+      </c>
+      <c r="Z68">
+        <v>2.75</v>
+      </c>
+      <c r="AA68">
+        <v>2.75</v>
+      </c>
+      <c r="AB68">
+        <v>3</v>
+      </c>
+      <c r="AC68">
+        <v>1.12</v>
+      </c>
+      <c r="AD68">
+        <v>6</v>
+      </c>
+      <c r="AE68">
+        <v>1.55</v>
+      </c>
+      <c r="AF68">
+        <v>2.3</v>
+      </c>
+      <c r="AG68">
+        <v>2.88</v>
+      </c>
+      <c r="AH68">
+        <v>1.4</v>
+      </c>
+      <c r="AI68">
+        <v>2.2</v>
+      </c>
+      <c r="AJ68">
+        <v>1.62</v>
+      </c>
+      <c r="AK68">
+        <v>1.5</v>
+      </c>
+      <c r="AL68">
+        <v>1.33</v>
+      </c>
+      <c r="AM68">
+        <v>1.36</v>
+      </c>
+      <c r="AN68">
+        <v>1</v>
+      </c>
+      <c r="AO68">
+        <v>1</v>
+      </c>
+      <c r="AP68">
+        <v>0.75</v>
+      </c>
+      <c r="AQ68">
+        <v>1.5</v>
+      </c>
+      <c r="AR68">
+        <v>1.37</v>
+      </c>
+      <c r="AS68">
+        <v>1.39</v>
+      </c>
+      <c r="AT68">
+        <v>2.76</v>
+      </c>
+      <c r="AU68">
+        <v>4</v>
+      </c>
+      <c r="AV68">
+        <v>7</v>
+      </c>
+      <c r="AW68">
+        <v>9</v>
+      </c>
+      <c r="AX68">
+        <v>2</v>
+      </c>
+      <c r="AY68">
+        <v>13</v>
+      </c>
+      <c r="AZ68">
+        <v>9</v>
+      </c>
+      <c r="BA68">
+        <v>8</v>
+      </c>
+      <c r="BB68">
+        <v>3</v>
+      </c>
+      <c r="BC68">
+        <v>11</v>
+      </c>
+      <c r="BD68">
+        <v>2.17</v>
+      </c>
+      <c r="BE68">
+        <v>7.5</v>
+      </c>
+      <c r="BF68">
+        <v>1.98</v>
+      </c>
+      <c r="BG68">
+        <v>1.2</v>
+      </c>
+      <c r="BH68">
+        <v>4.25</v>
+      </c>
+      <c r="BI68">
+        <v>1.38</v>
+      </c>
+      <c r="BJ68">
+        <v>2.9</v>
+      </c>
+      <c r="BK68">
+        <v>2.1</v>
+      </c>
+      <c r="BL68">
+        <v>2.12</v>
+      </c>
+      <c r="BM68">
+        <v>2.12</v>
+      </c>
+      <c r="BN68">
+        <v>1.67</v>
+      </c>
+      <c r="BO68">
+        <v>2.85</v>
+      </c>
+      <c r="BP68">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="69" spans="1:68">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>7380391</v>
+      </c>
+      <c r="C69" t="s">
+        <v>68</v>
+      </c>
+      <c r="D69" t="s">
+        <v>69</v>
+      </c>
+      <c r="E69" s="2">
+        <v>45439.89583333334</v>
+      </c>
+      <c r="F69">
+        <v>7</v>
+      </c>
+      <c r="G69" t="s">
+        <v>82</v>
+      </c>
+      <c r="H69" t="s">
+        <v>88</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>2</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>2</v>
+      </c>
+      <c r="O69" t="s">
+        <v>138</v>
+      </c>
+      <c r="P69" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q69">
+        <v>3.5</v>
+      </c>
+      <c r="R69">
+        <v>1.95</v>
+      </c>
+      <c r="S69">
+        <v>3.5</v>
+      </c>
+      <c r="T69">
+        <v>1.5</v>
+      </c>
+      <c r="U69">
+        <v>2.5</v>
+      </c>
+      <c r="V69">
+        <v>3.4</v>
+      </c>
+      <c r="W69">
+        <v>1.3</v>
+      </c>
+      <c r="X69">
+        <v>10</v>
+      </c>
+      <c r="Y69">
+        <v>1.06</v>
+      </c>
+      <c r="Z69">
+        <v>2.8</v>
+      </c>
+      <c r="AA69">
+        <v>2.9</v>
+      </c>
+      <c r="AB69">
+        <v>2.8</v>
+      </c>
+      <c r="AC69">
+        <v>1.09</v>
+      </c>
+      <c r="AD69">
+        <v>7</v>
+      </c>
+      <c r="AE69">
+        <v>1.4</v>
+      </c>
+      <c r="AF69">
+        <v>2.8</v>
+      </c>
+      <c r="AG69">
+        <v>2.5</v>
+      </c>
+      <c r="AH69">
+        <v>1.5</v>
+      </c>
+      <c r="AI69">
+        <v>2</v>
+      </c>
+      <c r="AJ69">
+        <v>1.73</v>
+      </c>
+      <c r="AK69">
+        <v>1.45</v>
+      </c>
+      <c r="AL69">
+        <v>1.3</v>
+      </c>
+      <c r="AM69">
+        <v>1.45</v>
+      </c>
+      <c r="AN69">
+        <v>2</v>
+      </c>
+      <c r="AO69">
+        <v>1.67</v>
+      </c>
+      <c r="AP69">
+        <v>2.25</v>
+      </c>
+      <c r="AQ69">
+        <v>1.25</v>
+      </c>
+      <c r="AR69">
+        <v>1.31</v>
+      </c>
+      <c r="AS69">
+        <v>1.04</v>
+      </c>
+      <c r="AT69">
+        <v>2.35</v>
+      </c>
+      <c r="AU69">
+        <v>8</v>
+      </c>
+      <c r="AV69">
+        <v>0</v>
+      </c>
+      <c r="AW69">
+        <v>8</v>
+      </c>
+      <c r="AX69">
+        <v>7</v>
+      </c>
+      <c r="AY69">
+        <v>16</v>
+      </c>
+      <c r="AZ69">
+        <v>7</v>
+      </c>
+      <c r="BA69">
+        <v>4</v>
+      </c>
+      <c r="BB69">
+        <v>2</v>
+      </c>
+      <c r="BC69">
+        <v>6</v>
+      </c>
+      <c r="BD69">
+        <v>1.9</v>
+      </c>
+      <c r="BE69">
+        <v>7.6</v>
+      </c>
+      <c r="BF69">
+        <v>2.27</v>
+      </c>
+      <c r="BG69">
+        <v>1.18</v>
+      </c>
+      <c r="BH69">
+        <v>4.33</v>
+      </c>
+      <c r="BI69">
+        <v>1.29</v>
+      </c>
+      <c r="BJ69">
+        <v>3.45</v>
+      </c>
+      <c r="BK69">
+        <v>1.83</v>
+      </c>
+      <c r="BL69">
+        <v>2.45</v>
+      </c>
+      <c r="BM69">
+        <v>1.87</v>
+      </c>
+      <c r="BN69">
+        <v>1.87</v>
+      </c>
+      <c r="BO69">
+        <v>2.43</v>
+      </c>
+      <c r="BP69">
+        <v>1.52</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="168">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -431,6 +431,9 @@
   </si>
   <si>
     <t>['72', '88']</t>
+  </si>
+  <si>
+    <t>['74']</t>
   </si>
   <si>
     <t>['62']</t>
@@ -876,7 +879,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP69"/>
+  <dimension ref="A1:BP70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1135,7 +1138,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1753,7 +1756,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q5">
         <v>2.75</v>
@@ -2165,7 +2168,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q7">
         <v>4.33</v>
@@ -2243,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ7">
         <v>2</v>
@@ -2577,7 +2580,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2989,7 +2992,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q11">
         <v>3.5</v>
@@ -3070,7 +3073,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ11">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3401,7 +3404,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q13">
         <v>3.6</v>
@@ -3607,7 +3610,7 @@
         <v>101</v>
       </c>
       <c r="P14" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q14">
         <v>4.75</v>
@@ -3813,7 +3816,7 @@
         <v>101</v>
       </c>
       <c r="P15" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4225,7 +4228,7 @@
         <v>102</v>
       </c>
       <c r="P17" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q17">
         <v>2.75</v>
@@ -5049,7 +5052,7 @@
         <v>106</v>
       </c>
       <c r="P21" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5461,7 +5464,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q23">
         <v>3.2</v>
@@ -5667,7 +5670,7 @@
         <v>107</v>
       </c>
       <c r="P24" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q24">
         <v>3.6</v>
@@ -6079,7 +6082,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6285,7 +6288,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q27">
         <v>4</v>
@@ -6491,7 +6494,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6903,7 +6906,7 @@
         <v>112</v>
       </c>
       <c r="P30" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q30">
         <v>2.1</v>
@@ -7190,7 +7193,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ31">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AR31">
         <v>1.04</v>
@@ -7315,7 +7318,7 @@
         <v>113</v>
       </c>
       <c r="P32" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q32">
         <v>2.38</v>
@@ -7521,7 +7524,7 @@
         <v>101</v>
       </c>
       <c r="P33" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -8139,7 +8142,7 @@
         <v>116</v>
       </c>
       <c r="P36" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q36">
         <v>2</v>
@@ -8835,7 +8838,7 @@
         <v>3</v>
       </c>
       <c r="AP39">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ39">
         <v>1.5</v>
@@ -9169,7 +9172,7 @@
         <v>120</v>
       </c>
       <c r="P41" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q41">
         <v>2.25</v>
@@ -9375,7 +9378,7 @@
         <v>121</v>
       </c>
       <c r="P42" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q42">
         <v>3.2</v>
@@ -9581,7 +9584,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q43">
         <v>3.4</v>
@@ -10692,7 +10695,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ48">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AR48">
         <v>1.99</v>
@@ -11023,7 +11026,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q50">
         <v>2.25</v>
@@ -11229,7 +11232,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q51">
         <v>5</v>
@@ -11847,7 +11850,7 @@
         <v>128</v>
       </c>
       <c r="P54" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q54">
         <v>3.2</v>
@@ -11925,7 +11928,7 @@
         <v>0</v>
       </c>
       <c r="AP54">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ54">
         <v>0.5</v>
@@ -12259,7 +12262,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q56">
         <v>1.95</v>
@@ -13083,7 +13086,7 @@
         <v>119</v>
       </c>
       <c r="P60" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13495,7 +13498,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q62">
         <v>3.4</v>
@@ -14113,7 +14116,7 @@
         <v>135</v>
       </c>
       <c r="P65" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q65">
         <v>2.38</v>
@@ -14319,7 +14322,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q66">
         <v>2.3</v>
@@ -14731,7 +14734,7 @@
         <v>101</v>
       </c>
       <c r="P68" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q68">
         <v>3.6</v>
@@ -15094,6 +15097,212 @@
       </c>
       <c r="BP69">
         <v>1.52</v>
+      </c>
+    </row>
+    <row r="70" spans="1:68">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>7380394</v>
+      </c>
+      <c r="C70" t="s">
+        <v>68</v>
+      </c>
+      <c r="D70" t="s">
+        <v>69</v>
+      </c>
+      <c r="E70" s="2">
+        <v>45440.79166666666</v>
+      </c>
+      <c r="F70">
+        <v>7</v>
+      </c>
+      <c r="G70" t="s">
+        <v>75</v>
+      </c>
+      <c r="H70" t="s">
+        <v>89</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>1</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>1</v>
+      </c>
+      <c r="O70" t="s">
+        <v>139</v>
+      </c>
+      <c r="P70" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q70">
+        <v>4</v>
+      </c>
+      <c r="R70">
+        <v>1.91</v>
+      </c>
+      <c r="S70">
+        <v>3.25</v>
+      </c>
+      <c r="T70">
+        <v>1.53</v>
+      </c>
+      <c r="U70">
+        <v>2.38</v>
+      </c>
+      <c r="V70">
+        <v>3.75</v>
+      </c>
+      <c r="W70">
+        <v>1.25</v>
+      </c>
+      <c r="X70">
+        <v>11</v>
+      </c>
+      <c r="Y70">
+        <v>1.05</v>
+      </c>
+      <c r="Z70">
+        <v>3.2</v>
+      </c>
+      <c r="AA70">
+        <v>3</v>
+      </c>
+      <c r="AB70">
+        <v>2.38</v>
+      </c>
+      <c r="AC70">
+        <v>1.1</v>
+      </c>
+      <c r="AD70">
+        <v>6.5</v>
+      </c>
+      <c r="AE70">
+        <v>1.45</v>
+      </c>
+      <c r="AF70">
+        <v>2.6</v>
+      </c>
+      <c r="AG70">
+        <v>2.7</v>
+      </c>
+      <c r="AH70">
+        <v>1.44</v>
+      </c>
+      <c r="AI70">
+        <v>2.2</v>
+      </c>
+      <c r="AJ70">
+        <v>1.62</v>
+      </c>
+      <c r="AK70">
+        <v>1.55</v>
+      </c>
+      <c r="AL70">
+        <v>1.4</v>
+      </c>
+      <c r="AM70">
+        <v>1.35</v>
+      </c>
+      <c r="AN70">
+        <v>1.33</v>
+      </c>
+      <c r="AO70">
+        <v>0.67</v>
+      </c>
+      <c r="AP70">
+        <v>1.75</v>
+      </c>
+      <c r="AQ70">
+        <v>0.5</v>
+      </c>
+      <c r="AR70">
+        <v>1.23</v>
+      </c>
+      <c r="AS70">
+        <v>1.03</v>
+      </c>
+      <c r="AT70">
+        <v>2.26</v>
+      </c>
+      <c r="AU70">
+        <v>3</v>
+      </c>
+      <c r="AV70">
+        <v>0</v>
+      </c>
+      <c r="AW70">
+        <v>11</v>
+      </c>
+      <c r="AX70">
+        <v>10</v>
+      </c>
+      <c r="AY70">
+        <v>14</v>
+      </c>
+      <c r="AZ70">
+        <v>10</v>
+      </c>
+      <c r="BA70">
+        <v>10</v>
+      </c>
+      <c r="BB70">
+        <v>5</v>
+      </c>
+      <c r="BC70">
+        <v>15</v>
+      </c>
+      <c r="BD70">
+        <v>2.05</v>
+      </c>
+      <c r="BE70">
+        <v>7.4</v>
+      </c>
+      <c r="BF70">
+        <v>2.1</v>
+      </c>
+      <c r="BG70">
+        <v>1.27</v>
+      </c>
+      <c r="BH70">
+        <v>3.55</v>
+      </c>
+      <c r="BI70">
+        <v>1.5</v>
+      </c>
+      <c r="BJ70">
+        <v>2.48</v>
+      </c>
+      <c r="BK70">
+        <v>1.92</v>
+      </c>
+      <c r="BL70">
+        <v>1.88</v>
+      </c>
+      <c r="BM70">
+        <v>2.45</v>
+      </c>
+      <c r="BN70">
+        <v>1.5</v>
+      </c>
+      <c r="BO70">
+        <v>3.4</v>
+      </c>
+      <c r="BP70">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
@@ -364,18 +364,18 @@
     <t>['19', '45+1']</t>
   </si>
   <si>
+    <t>['22', '66']</t>
+  </si>
+  <si>
+    <t>['26']</t>
+  </si>
+  <si>
+    <t>['19']</t>
+  </si>
+  <si>
     <t>['43', '62', '74', '87']</t>
   </si>
   <si>
-    <t>['22', '66']</t>
-  </si>
-  <si>
-    <t>['26']</t>
-  </si>
-  <si>
-    <t>['19']</t>
-  </si>
-  <si>
     <t>['11', '16']</t>
   </si>
   <si>
@@ -391,10 +391,10 @@
     <t>['69']</t>
   </si>
   <si>
+    <t>['53']</t>
+  </si>
+  <si>
     <t>['2', '18']</t>
-  </si>
-  <si>
-    <t>['53']</t>
   </si>
   <si>
     <t>['15']</t>
@@ -2374,7 +2374,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -8100,7 +8100,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>7380365</v>
+        <v>7380357</v>
       </c>
       <c r="C36" t="s">
         <v>68</v>
@@ -8115,10 +8115,10 @@
         <v>4</v>
       </c>
       <c r="G36" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H36" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="I36">
         <v>1</v>
@@ -8130,73 +8130,73 @@
         <v>1</v>
       </c>
       <c r="L36">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N36">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O36" t="s">
         <v>116</v>
       </c>
       <c r="P36" t="s">
-        <v>158</v>
+        <v>101</v>
       </c>
       <c r="Q36">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="R36">
+        <v>1.91</v>
+      </c>
+      <c r="S36">
+        <v>5.5</v>
+      </c>
+      <c r="T36">
+        <v>1.57</v>
+      </c>
+      <c r="U36">
         <v>2.25</v>
       </c>
-      <c r="S36">
-        <v>8</v>
-      </c>
-      <c r="T36">
-        <v>1.42</v>
-      </c>
-      <c r="U36">
-        <v>2.65</v>
-      </c>
       <c r="V36">
-        <v>2.95</v>
+        <v>3.7</v>
       </c>
       <c r="W36">
-        <v>1.35</v>
+        <v>1.22</v>
       </c>
       <c r="X36">
-        <v>8.1</v>
+        <v>10.2</v>
       </c>
       <c r="Y36">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="Z36">
+        <v>1.9</v>
+      </c>
+      <c r="AA36">
+        <v>3.05</v>
+      </c>
+      <c r="AB36">
+        <v>4.3</v>
+      </c>
+      <c r="AC36">
+        <v>1.1</v>
+      </c>
+      <c r="AD36">
+        <v>6.5</v>
+      </c>
+      <c r="AE36">
         <v>1.5</v>
       </c>
-      <c r="AA36">
-        <v>3.85</v>
-      </c>
-      <c r="AB36">
-        <v>6.1</v>
-      </c>
-      <c r="AC36">
-        <v>1.06</v>
-      </c>
-      <c r="AD36">
-        <v>8.5</v>
-      </c>
-      <c r="AE36">
-        <v>1.36</v>
-      </c>
       <c r="AF36">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="AG36">
-        <v>2.02</v>
+        <v>2.44</v>
       </c>
       <c r="AH36">
-        <v>1.73</v>
+        <v>1.49</v>
       </c>
       <c r="AI36">
         <v>2.38</v>
@@ -8205,100 +8205,100 @@
         <v>1.53</v>
       </c>
       <c r="AK36">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="AL36">
-        <v>1.2</v>
+        <v>1.28</v>
       </c>
       <c r="AM36">
-        <v>2.45</v>
+        <v>1.85</v>
       </c>
       <c r="AN36">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ36">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AR36">
-        <v>1.25</v>
+        <v>3.34</v>
       </c>
       <c r="AS36">
-        <v>1.15</v>
+        <v>1.49</v>
       </c>
       <c r="AT36">
-        <v>2.4</v>
+        <v>4.83</v>
       </c>
       <c r="AU36">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV36">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AW36">
+        <v>5</v>
+      </c>
+      <c r="AX36">
         <v>9</v>
       </c>
-      <c r="AX36">
+      <c r="AY36">
+        <v>11</v>
+      </c>
+      <c r="AZ36">
+        <v>12</v>
+      </c>
+      <c r="BA36">
+        <v>5</v>
+      </c>
+      <c r="BB36">
         <v>4</v>
       </c>
-      <c r="AY36">
-        <v>16</v>
-      </c>
-      <c r="AZ36">
-        <v>10</v>
-      </c>
-      <c r="BA36">
+      <c r="BC36">
         <v>9</v>
       </c>
-      <c r="BB36">
-        <v>10</v>
-      </c>
-      <c r="BC36">
-        <v>19</v>
-      </c>
       <c r="BD36">
-        <v>1.29</v>
+        <v>1.51</v>
       </c>
       <c r="BE36">
-        <v>10.5</v>
+        <v>7.6</v>
       </c>
       <c r="BF36">
-        <v>4.38</v>
+        <v>3.26</v>
       </c>
       <c r="BG36">
-        <v>1.17</v>
+        <v>1.24</v>
       </c>
       <c r="BH36">
-        <v>4.8</v>
+        <v>3.75</v>
       </c>
       <c r="BI36">
-        <v>1.29</v>
+        <v>1.45</v>
       </c>
       <c r="BJ36">
-        <v>3.3</v>
+        <v>2.55</v>
       </c>
       <c r="BK36">
-        <v>1.91</v>
+        <v>2.25</v>
       </c>
       <c r="BL36">
-        <v>2.37</v>
+        <v>1.9</v>
       </c>
       <c r="BM36">
-        <v>1.9</v>
+        <v>2.32</v>
       </c>
       <c r="BN36">
-        <v>1.8</v>
+        <v>1.54</v>
       </c>
       <c r="BO36">
-        <v>2.45</v>
+        <v>3.1</v>
       </c>
       <c r="BP36">
-        <v>1.49</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="37" spans="1:68">
@@ -8306,7 +8306,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>7380357</v>
+        <v>7380363</v>
       </c>
       <c r="C37" t="s">
         <v>68</v>
@@ -8321,10 +8321,10 @@
         <v>4</v>
       </c>
       <c r="G37" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="H37" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="I37">
         <v>1</v>
@@ -8336,10 +8336,10 @@
         <v>1</v>
       </c>
       <c r="L37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N37">
         <v>2</v>
@@ -8348,7 +8348,7 @@
         <v>117</v>
       </c>
       <c r="P37" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="Q37">
         <v>2.75</v>
@@ -8360,19 +8360,19 @@
         <v>5.5</v>
       </c>
       <c r="T37">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="U37">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="V37">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="W37">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="X37">
-        <v>10.2</v>
+        <v>10.5</v>
       </c>
       <c r="Y37">
         <v>1.03</v>
@@ -8381,130 +8381,130 @@
         <v>1.9</v>
       </c>
       <c r="AA37">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="AB37">
-        <v>4.3</v>
+        <v>3.95</v>
       </c>
       <c r="AC37">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="AD37">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE37">
+        <v>1.47</v>
+      </c>
+      <c r="AF37">
+        <v>2.5</v>
+      </c>
+      <c r="AG37">
+        <v>2.62</v>
+      </c>
+      <c r="AH37">
+        <v>1.43</v>
+      </c>
+      <c r="AI37">
+        <v>2.5</v>
+      </c>
+      <c r="AJ37">
         <v>1.5</v>
       </c>
-      <c r="AF37">
-        <v>2.45</v>
-      </c>
-      <c r="AG37">
-        <v>2.44</v>
-      </c>
-      <c r="AH37">
-        <v>1.49</v>
-      </c>
-      <c r="AI37">
-        <v>2.38</v>
-      </c>
-      <c r="AJ37">
-        <v>1.53</v>
-      </c>
       <c r="AK37">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AL37">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="AM37">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="AN37">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP37">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AQ37">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR37">
-        <v>3.34</v>
+        <v>1.35</v>
       </c>
       <c r="AS37">
-        <v>1.49</v>
+        <v>0.98</v>
       </c>
       <c r="AT37">
-        <v>4.83</v>
+        <v>2.33</v>
       </c>
       <c r="AU37">
         <v>6</v>
       </c>
       <c r="AV37">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW37">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AX37">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AY37">
+        <v>15</v>
+      </c>
+      <c r="AZ37">
         <v>11</v>
       </c>
-      <c r="AZ37">
-        <v>12</v>
-      </c>
       <c r="BA37">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB37">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BC37">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BD37">
-        <v>1.51</v>
+        <v>1.38</v>
       </c>
       <c r="BE37">
         <v>7.6</v>
       </c>
       <c r="BF37">
-        <v>3.26</v>
+        <v>4.1</v>
       </c>
       <c r="BG37">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="BH37">
-        <v>3.75</v>
+        <v>4.6</v>
       </c>
       <c r="BI37">
-        <v>1.45</v>
+        <v>1.28</v>
       </c>
       <c r="BJ37">
-        <v>2.55</v>
+        <v>3.35</v>
       </c>
       <c r="BK37">
-        <v>2.25</v>
+        <v>1.91</v>
       </c>
       <c r="BL37">
+        <v>2.37</v>
+      </c>
+      <c r="BM37">
         <v>1.9</v>
       </c>
-      <c r="BM37">
-        <v>2.32</v>
-      </c>
       <c r="BN37">
-        <v>1.54</v>
+        <v>1.8</v>
       </c>
       <c r="BO37">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="BP37">
-        <v>1.32</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="38" spans="1:68">
@@ -8512,7 +8512,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>7380363</v>
+        <v>7380364</v>
       </c>
       <c r="C38" t="s">
         <v>68</v>
@@ -8527,10 +8527,10 @@
         <v>4</v>
       </c>
       <c r="G38" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H38" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I38">
         <v>1</v>
@@ -8545,172 +8545,172 @@
         <v>1</v>
       </c>
       <c r="M38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O38" t="s">
         <v>118</v>
       </c>
       <c r="P38" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="Q38">
-        <v>2.75</v>
+        <v>6.5</v>
       </c>
       <c r="R38">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="S38">
-        <v>5.5</v>
+        <v>2.3</v>
       </c>
       <c r="T38">
-        <v>1.58</v>
+        <v>1.51</v>
       </c>
       <c r="U38">
-        <v>2.29</v>
+        <v>2.46</v>
       </c>
       <c r="V38">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="W38">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="X38">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y38">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="Z38">
-        <v>1.9</v>
+        <v>4.75</v>
       </c>
       <c r="AA38">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="AB38">
-        <v>3.95</v>
+        <v>1.74</v>
       </c>
       <c r="AC38">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="AD38">
         <v>7</v>
       </c>
       <c r="AE38">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="AF38">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AG38">
-        <v>2.62</v>
+        <v>2.18</v>
       </c>
       <c r="AH38">
-        <v>1.43</v>
+        <v>1.62</v>
       </c>
       <c r="AI38">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="AJ38">
+        <v>1.57</v>
+      </c>
+      <c r="AK38">
+        <v>2.04</v>
+      </c>
+      <c r="AL38">
+        <v>1.28</v>
+      </c>
+      <c r="AM38">
+        <v>1.15</v>
+      </c>
+      <c r="AN38">
+        <v>0</v>
+      </c>
+      <c r="AO38">
+        <v>3</v>
+      </c>
+      <c r="AP38">
+        <v>1.75</v>
+      </c>
+      <c r="AQ38">
         <v>1.5</v>
       </c>
-      <c r="AK38">
-        <v>1.18</v>
-      </c>
-      <c r="AL38">
-        <v>1.33</v>
-      </c>
-      <c r="AM38">
-        <v>1.87</v>
-      </c>
-      <c r="AN38">
-        <v>3</v>
-      </c>
-      <c r="AO38">
-        <v>0</v>
-      </c>
-      <c r="AP38">
+      <c r="AR38">
+        <v>1.12</v>
+      </c>
+      <c r="AS38">
+        <v>1.45</v>
+      </c>
+      <c r="AT38">
+        <v>2.57</v>
+      </c>
+      <c r="AU38">
+        <v>3</v>
+      </c>
+      <c r="AV38">
+        <v>3</v>
+      </c>
+      <c r="AW38">
+        <v>2</v>
+      </c>
+      <c r="AX38">
+        <v>4</v>
+      </c>
+      <c r="AY38">
+        <v>5</v>
+      </c>
+      <c r="AZ38">
+        <v>7</v>
+      </c>
+      <c r="BA38">
+        <v>4</v>
+      </c>
+      <c r="BB38">
+        <v>1</v>
+      </c>
+      <c r="BC38">
+        <v>5</v>
+      </c>
+      <c r="BD38">
+        <v>2.71</v>
+      </c>
+      <c r="BE38">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF38">
         <v>1.67</v>
       </c>
-      <c r="AQ38">
-        <v>0.5</v>
-      </c>
-      <c r="AR38">
-        <v>1.35</v>
-      </c>
-      <c r="AS38">
-        <v>0.98</v>
-      </c>
-      <c r="AT38">
-        <v>2.33</v>
-      </c>
-      <c r="AU38">
-        <v>6</v>
-      </c>
-      <c r="AV38">
-        <v>4</v>
-      </c>
-      <c r="AW38">
-        <v>9</v>
-      </c>
-      <c r="AX38">
-        <v>7</v>
-      </c>
-      <c r="AY38">
-        <v>15</v>
-      </c>
-      <c r="AZ38">
-        <v>11</v>
-      </c>
-      <c r="BA38">
-        <v>6</v>
-      </c>
-      <c r="BB38">
-        <v>7</v>
-      </c>
-      <c r="BC38">
-        <v>13</v>
-      </c>
-      <c r="BD38">
-        <v>1.38</v>
-      </c>
-      <c r="BE38">
-        <v>7.6</v>
-      </c>
-      <c r="BF38">
-        <v>4.1</v>
-      </c>
       <c r="BG38">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
       <c r="BH38">
-        <v>4.6</v>
+        <v>3.48</v>
       </c>
       <c r="BI38">
-        <v>1.28</v>
+        <v>1.5</v>
       </c>
       <c r="BJ38">
-        <v>3.35</v>
+        <v>2.4</v>
       </c>
       <c r="BK38">
-        <v>1.91</v>
+        <v>2.38</v>
       </c>
       <c r="BL38">
-        <v>2.37</v>
+        <v>1.85</v>
       </c>
       <c r="BM38">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="BN38">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="BO38">
-        <v>2.45</v>
+        <v>3.3</v>
       </c>
       <c r="BP38">
-        <v>1.49</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="39" spans="1:68">
@@ -8718,7 +8718,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>7380364</v>
+        <v>7380365</v>
       </c>
       <c r="C39" t="s">
         <v>68</v>
@@ -8733,10 +8733,10 @@
         <v>4</v>
       </c>
       <c r="G39" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="H39" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="I39">
         <v>1</v>
@@ -8748,175 +8748,175 @@
         <v>1</v>
       </c>
       <c r="L39">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N39">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O39" t="s">
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>101</v>
+        <v>158</v>
       </c>
       <c r="Q39">
-        <v>6.5</v>
+        <v>2</v>
       </c>
       <c r="R39">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="S39">
-        <v>2.3</v>
+        <v>8</v>
       </c>
       <c r="T39">
-        <v>1.51</v>
+        <v>1.42</v>
       </c>
       <c r="U39">
-        <v>2.46</v>
+        <v>2.65</v>
       </c>
       <c r="V39">
-        <v>3.4</v>
+        <v>2.95</v>
       </c>
       <c r="W39">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="X39">
-        <v>9.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="Y39">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="Z39">
-        <v>4.75</v>
+        <v>1.5</v>
       </c>
       <c r="AA39">
-        <v>3.3</v>
+        <v>3.85</v>
       </c>
       <c r="AB39">
-        <v>1.74</v>
+        <v>6.1</v>
       </c>
       <c r="AC39">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="AD39">
+        <v>8.5</v>
+      </c>
+      <c r="AE39">
+        <v>1.36</v>
+      </c>
+      <c r="AF39">
+        <v>3.1</v>
+      </c>
+      <c r="AG39">
+        <v>2.02</v>
+      </c>
+      <c r="AH39">
+        <v>1.73</v>
+      </c>
+      <c r="AI39">
+        <v>2.38</v>
+      </c>
+      <c r="AJ39">
+        <v>1.53</v>
+      </c>
+      <c r="AK39">
+        <v>1.1</v>
+      </c>
+      <c r="AL39">
+        <v>1.2</v>
+      </c>
+      <c r="AM39">
+        <v>2.45</v>
+      </c>
+      <c r="AN39">
+        <v>3</v>
+      </c>
+      <c r="AO39">
+        <v>0</v>
+      </c>
+      <c r="AP39">
+        <v>2</v>
+      </c>
+      <c r="AQ39">
+        <v>0.25</v>
+      </c>
+      <c r="AR39">
+        <v>1.25</v>
+      </c>
+      <c r="AS39">
+        <v>1.15</v>
+      </c>
+      <c r="AT39">
+        <v>2.4</v>
+      </c>
+      <c r="AU39">
         <v>7</v>
       </c>
-      <c r="AE39">
-        <v>1.42</v>
-      </c>
-      <c r="AF39">
-        <v>2.57</v>
-      </c>
-      <c r="AG39">
-        <v>2.18</v>
-      </c>
-      <c r="AH39">
-        <v>1.62</v>
-      </c>
-      <c r="AI39">
-        <v>2.25</v>
-      </c>
-      <c r="AJ39">
-        <v>1.57</v>
-      </c>
-      <c r="AK39">
-        <v>2.04</v>
-      </c>
-      <c r="AL39">
-        <v>1.28</v>
-      </c>
-      <c r="AM39">
-        <v>1.15</v>
-      </c>
-      <c r="AN39">
-        <v>0</v>
-      </c>
-      <c r="AO39">
-        <v>3</v>
-      </c>
-      <c r="AP39">
-        <v>1.75</v>
-      </c>
-      <c r="AQ39">
-        <v>1.5</v>
-      </c>
-      <c r="AR39">
-        <v>1.12</v>
-      </c>
-      <c r="AS39">
-        <v>1.45</v>
-      </c>
-      <c r="AT39">
-        <v>2.57</v>
-      </c>
-      <c r="AU39">
-        <v>3</v>
-      </c>
       <c r="AV39">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AW39">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AX39">
         <v>4</v>
       </c>
       <c r="AY39">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="AZ39">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA39">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BB39">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="BC39">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="BD39">
-        <v>2.71</v>
+        <v>1.29</v>
       </c>
       <c r="BE39">
-        <v>8.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="BF39">
-        <v>1.67</v>
+        <v>4.38</v>
       </c>
       <c r="BG39">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="BH39">
-        <v>3.48</v>
+        <v>4.8</v>
       </c>
       <c r="BI39">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="BJ39">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="BK39">
-        <v>2.38</v>
+        <v>1.91</v>
       </c>
       <c r="BL39">
-        <v>1.85</v>
+        <v>2.37</v>
       </c>
       <c r="BM39">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="BN39">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="BO39">
-        <v>3.3</v>
+        <v>2.45</v>
       </c>
       <c r="BP39">
-        <v>1.29</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="40" spans="1:68">
@@ -9748,7 +9748,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>7380373</v>
+        <v>7380368</v>
       </c>
       <c r="C44" t="s">
         <v>68</v>
@@ -9763,88 +9763,88 @@
         <v>5</v>
       </c>
       <c r="G44" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="H44" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44">
         <v>0</v>
       </c>
       <c r="K44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M44">
         <v>0</v>
       </c>
       <c r="N44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O44" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="P44" t="s">
         <v>101</v>
       </c>
       <c r="Q44">
-        <v>2.38</v>
+        <v>2.88</v>
       </c>
       <c r="R44">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="S44">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="T44">
+        <v>1.6</v>
+      </c>
+      <c r="U44">
+        <v>2.2</v>
+      </c>
+      <c r="V44">
+        <v>3.8</v>
+      </c>
+      <c r="W44">
+        <v>1.22</v>
+      </c>
+      <c r="X44">
+        <v>10</v>
+      </c>
+      <c r="Y44">
+        <v>1.02</v>
+      </c>
+      <c r="Z44">
+        <v>2.1</v>
+      </c>
+      <c r="AA44">
+        <v>3</v>
+      </c>
+      <c r="AB44">
+        <v>3.8</v>
+      </c>
+      <c r="AC44">
+        <v>1.11</v>
+      </c>
+      <c r="AD44">
+        <v>6.25</v>
+      </c>
+      <c r="AE44">
         <v>1.5</v>
       </c>
-      <c r="U44">
+      <c r="AF44">
         <v>2.4</v>
       </c>
-      <c r="V44">
-        <v>3.3</v>
-      </c>
-      <c r="W44">
-        <v>1.28</v>
-      </c>
-      <c r="X44">
-        <v>11</v>
-      </c>
-      <c r="Y44">
-        <v>1.05</v>
-      </c>
-      <c r="Z44">
-        <v>1.7</v>
-      </c>
-      <c r="AA44">
-        <v>3.5</v>
-      </c>
-      <c r="AB44">
-        <v>5.25</v>
-      </c>
-      <c r="AC44">
-        <v>1.09</v>
-      </c>
-      <c r="AD44">
-        <v>7</v>
-      </c>
-      <c r="AE44">
-        <v>1.45</v>
-      </c>
-      <c r="AF44">
-        <v>2.7</v>
-      </c>
       <c r="AG44">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="AH44">
-        <v>1.6</v>
+        <v>1.48</v>
       </c>
       <c r="AI44">
         <v>2.2</v>
@@ -9853,100 +9853,100 @@
         <v>1.62</v>
       </c>
       <c r="AK44">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="AL44">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="AM44">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="AN44">
+        <v>1</v>
+      </c>
+      <c r="AO44">
         <v>1.5</v>
       </c>
-      <c r="AO44">
-        <v>0</v>
-      </c>
       <c r="AP44">
-        <v>2.25</v>
+        <v>0.75</v>
       </c>
       <c r="AQ44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR44">
-        <v>1.74</v>
+        <v>1.09</v>
       </c>
       <c r="AS44">
-        <v>1.24</v>
+        <v>0.86</v>
       </c>
       <c r="AT44">
-        <v>2.98</v>
+        <v>1.95</v>
       </c>
       <c r="AU44">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV44">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AW44">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AX44">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AY44">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AZ44">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA44">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="BB44">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BC44">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="BD44">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="BE44">
-        <v>8.300000000000001</v>
+        <v>8.1</v>
       </c>
       <c r="BF44">
-        <v>3</v>
+        <v>2.86</v>
       </c>
       <c r="BG44">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="BH44">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="BI44">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="BJ44">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="BK44">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="BL44">
-        <v>2.27</v>
+        <v>2.2</v>
       </c>
       <c r="BM44">
-        <v>1.99</v>
+        <v>2.07</v>
       </c>
       <c r="BN44">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="BO44">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="BP44">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="45" spans="1:68">
@@ -9954,7 +9954,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>7380368</v>
+        <v>7380373</v>
       </c>
       <c r="C45" t="s">
         <v>68</v>
@@ -9969,88 +9969,88 @@
         <v>5</v>
       </c>
       <c r="G45" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="H45" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45">
         <v>0</v>
       </c>
       <c r="K45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M45">
         <v>0</v>
       </c>
       <c r="N45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O45" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="P45" t="s">
         <v>101</v>
       </c>
       <c r="Q45">
-        <v>2.88</v>
+        <v>2.38</v>
       </c>
       <c r="R45">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="S45">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="T45">
+        <v>1.5</v>
+      </c>
+      <c r="U45">
+        <v>2.4</v>
+      </c>
+      <c r="V45">
+        <v>3.3</v>
+      </c>
+      <c r="W45">
+        <v>1.28</v>
+      </c>
+      <c r="X45">
+        <v>11</v>
+      </c>
+      <c r="Y45">
+        <v>1.05</v>
+      </c>
+      <c r="Z45">
+        <v>1.7</v>
+      </c>
+      <c r="AA45">
+        <v>3.5</v>
+      </c>
+      <c r="AB45">
+        <v>5.25</v>
+      </c>
+      <c r="AC45">
+        <v>1.09</v>
+      </c>
+      <c r="AD45">
+        <v>7</v>
+      </c>
+      <c r="AE45">
+        <v>1.45</v>
+      </c>
+      <c r="AF45">
+        <v>2.7</v>
+      </c>
+      <c r="AG45">
+        <v>2.3</v>
+      </c>
+      <c r="AH45">
         <v>1.6</v>
-      </c>
-      <c r="U45">
-        <v>2.2</v>
-      </c>
-      <c r="V45">
-        <v>3.8</v>
-      </c>
-      <c r="W45">
-        <v>1.22</v>
-      </c>
-      <c r="X45">
-        <v>10</v>
-      </c>
-      <c r="Y45">
-        <v>1.02</v>
-      </c>
-      <c r="Z45">
-        <v>2.1</v>
-      </c>
-      <c r="AA45">
-        <v>3</v>
-      </c>
-      <c r="AB45">
-        <v>3.8</v>
-      </c>
-      <c r="AC45">
-        <v>1.11</v>
-      </c>
-      <c r="AD45">
-        <v>6.25</v>
-      </c>
-      <c r="AE45">
-        <v>1.5</v>
-      </c>
-      <c r="AF45">
-        <v>2.4</v>
-      </c>
-      <c r="AG45">
-        <v>2.6</v>
-      </c>
-      <c r="AH45">
-        <v>1.48</v>
       </c>
       <c r="AI45">
         <v>2.2</v>
@@ -10059,100 +10059,100 @@
         <v>1.62</v>
       </c>
       <c r="AK45">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AL45">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="AM45">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="AN45">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AO45">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AP45">
-        <v>0.75</v>
+        <v>2.25</v>
       </c>
       <c r="AQ45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR45">
-        <v>1.09</v>
+        <v>1.74</v>
       </c>
       <c r="AS45">
-        <v>0.86</v>
+        <v>1.24</v>
       </c>
       <c r="AT45">
-        <v>1.95</v>
+        <v>2.98</v>
       </c>
       <c r="AU45">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV45">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AW45">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AX45">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AY45">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="AZ45">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA45">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="BB45">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BC45">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="BD45">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="BE45">
-        <v>8.1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="BF45">
-        <v>2.86</v>
+        <v>3</v>
       </c>
       <c r="BG45">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="BH45">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="BI45">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="BJ45">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="BK45">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="BL45">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="BM45">
-        <v>2.07</v>
+        <v>1.99</v>
       </c>
       <c r="BN45">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="BO45">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="BP45">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="46" spans="1:68">
@@ -10778,7 +10778,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>7380374</v>
+        <v>7380367</v>
       </c>
       <c r="C49" t="s">
         <v>68</v>
@@ -10793,190 +10793,190 @@
         <v>5</v>
       </c>
       <c r="G49" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H49" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="I49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L49">
         <v>1</v>
       </c>
       <c r="M49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N49">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O49" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="P49" t="s">
-        <v>104</v>
+        <v>161</v>
       </c>
       <c r="Q49">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="R49">
         <v>1.95</v>
       </c>
       <c r="S49">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="T49">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="U49">
-        <v>2.3</v>
+        <v>2.54</v>
       </c>
       <c r="V49">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="W49">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="X49">
-        <v>9.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="Y49">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="Z49">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="AA49">
         <v>3.1</v>
       </c>
       <c r="AB49">
-        <v>2.8</v>
+        <v>1.95</v>
       </c>
       <c r="AC49">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="AD49">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE49">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="AF49">
         <v>2.6</v>
       </c>
       <c r="AG49">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="AH49">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="AI49">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AJ49">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AK49">
-        <v>1.48</v>
+        <v>1.65</v>
       </c>
       <c r="AL49">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="AM49">
+        <v>1.23</v>
+      </c>
+      <c r="AN49">
+        <v>2</v>
+      </c>
+      <c r="AO49">
+        <v>1.5</v>
+      </c>
+      <c r="AP49">
+        <v>1.33</v>
+      </c>
+      <c r="AQ49">
+        <v>1.5</v>
+      </c>
+      <c r="AR49">
+        <v>1.83</v>
+      </c>
+      <c r="AS49">
+        <v>1.29</v>
+      </c>
+      <c r="AT49">
+        <v>3.12</v>
+      </c>
+      <c r="AU49">
+        <v>4</v>
+      </c>
+      <c r="AV49">
+        <v>5</v>
+      </c>
+      <c r="AW49">
+        <v>4</v>
+      </c>
+      <c r="AX49">
+        <v>3</v>
+      </c>
+      <c r="AY49">
+        <v>8</v>
+      </c>
+      <c r="AZ49">
+        <v>8</v>
+      </c>
+      <c r="BA49">
+        <v>6</v>
+      </c>
+      <c r="BB49">
+        <v>6</v>
+      </c>
+      <c r="BC49">
+        <v>12</v>
+      </c>
+      <c r="BD49">
+        <v>3</v>
+      </c>
+      <c r="BE49">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF49">
+        <v>1.57</v>
+      </c>
+      <c r="BG49">
+        <v>1.19</v>
+      </c>
+      <c r="BH49">
+        <v>4.5</v>
+      </c>
+      <c r="BI49">
+        <v>1.31</v>
+      </c>
+      <c r="BJ49">
+        <v>3.15</v>
+      </c>
+      <c r="BK49">
+        <v>2</v>
+      </c>
+      <c r="BL49">
+        <v>2.3</v>
+      </c>
+      <c r="BM49">
+        <v>1.99</v>
+      </c>
+      <c r="BN49">
+        <v>1.73</v>
+      </c>
+      <c r="BO49">
+        <v>2.6</v>
+      </c>
+      <c r="BP49">
         <v>1.44</v>
-      </c>
-      <c r="AN49">
-        <v>1</v>
-      </c>
-      <c r="AO49">
-        <v>2</v>
-      </c>
-      <c r="AP49">
-        <v>1</v>
-      </c>
-      <c r="AQ49">
-        <v>1.25</v>
-      </c>
-      <c r="AR49">
-        <v>1.29</v>
-      </c>
-      <c r="AS49">
-        <v>0.9</v>
-      </c>
-      <c r="AT49">
-        <v>2.19</v>
-      </c>
-      <c r="AU49">
-        <v>3</v>
-      </c>
-      <c r="AV49">
-        <v>4</v>
-      </c>
-      <c r="AW49">
-        <v>1</v>
-      </c>
-      <c r="AX49">
-        <v>8</v>
-      </c>
-      <c r="AY49">
-        <v>4</v>
-      </c>
-      <c r="AZ49">
-        <v>12</v>
-      </c>
-      <c r="BA49">
-        <v>4</v>
-      </c>
-      <c r="BB49">
-        <v>5</v>
-      </c>
-      <c r="BC49">
-        <v>9</v>
-      </c>
-      <c r="BD49">
-        <v>1.67</v>
-      </c>
-      <c r="BE49">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="BF49">
-        <v>2.66</v>
-      </c>
-      <c r="BG49">
-        <v>1.25</v>
-      </c>
-      <c r="BH49">
-        <v>3.6</v>
-      </c>
-      <c r="BI49">
-        <v>1.38</v>
-      </c>
-      <c r="BJ49">
-        <v>2.8</v>
-      </c>
-      <c r="BK49">
-        <v>2.1</v>
-      </c>
-      <c r="BL49">
-        <v>2.07</v>
-      </c>
-      <c r="BM49">
-        <v>2.12</v>
-      </c>
-      <c r="BN49">
-        <v>1.64</v>
-      </c>
-      <c r="BO49">
-        <v>2.77</v>
-      </c>
-      <c r="BP49">
-        <v>1.39</v>
       </c>
     </row>
     <row r="50" spans="1:68">
@@ -10984,7 +10984,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>7380375</v>
+        <v>7380374</v>
       </c>
       <c r="C50" t="s">
         <v>68</v>
@@ -10999,190 +10999,190 @@
         <v>5</v>
       </c>
       <c r="G50" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H50" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="I50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J50">
         <v>0</v>
       </c>
       <c r="K50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M50">
         <v>1</v>
       </c>
       <c r="N50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O50" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="P50" t="s">
-        <v>140</v>
+        <v>104</v>
       </c>
       <c r="Q50">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="R50">
+        <v>1.95</v>
+      </c>
+      <c r="S50">
+        <v>3.6</v>
+      </c>
+      <c r="T50">
+        <v>1.55</v>
+      </c>
+      <c r="U50">
+        <v>2.3</v>
+      </c>
+      <c r="V50">
+        <v>3.45</v>
+      </c>
+      <c r="W50">
+        <v>1.25</v>
+      </c>
+      <c r="X50">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Y50">
+        <v>1.03</v>
+      </c>
+      <c r="Z50">
+        <v>2.6</v>
+      </c>
+      <c r="AA50">
+        <v>3.1</v>
+      </c>
+      <c r="AB50">
+        <v>2.8</v>
+      </c>
+      <c r="AC50">
+        <v>1.1</v>
+      </c>
+      <c r="AD50">
+        <v>6.5</v>
+      </c>
+      <c r="AE50">
+        <v>1.48</v>
+      </c>
+      <c r="AF50">
+        <v>2.6</v>
+      </c>
+      <c r="AG50">
+        <v>2.4</v>
+      </c>
+      <c r="AH50">
+        <v>1.53</v>
+      </c>
+      <c r="AI50">
         <v>2.1</v>
       </c>
-      <c r="S50">
-        <v>6.5</v>
-      </c>
-      <c r="T50">
+      <c r="AJ50">
+        <v>1.67</v>
+      </c>
+      <c r="AK50">
         <v>1.48</v>
       </c>
-      <c r="U50">
-        <v>2.65</v>
-      </c>
-      <c r="V50">
-        <v>3.28</v>
-      </c>
-      <c r="W50">
-        <v>1.31</v>
-      </c>
-      <c r="X50">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="Y50">
-        <v>1.05</v>
-      </c>
-      <c r="Z50">
-        <v>1.6</v>
-      </c>
-      <c r="AA50">
-        <v>3.6</v>
-      </c>
-      <c r="AB50">
-        <v>6.25</v>
-      </c>
-      <c r="AC50">
-        <v>1.04</v>
-      </c>
-      <c r="AD50">
-        <v>7.4</v>
-      </c>
-      <c r="AE50">
-        <v>1.42</v>
-      </c>
-      <c r="AF50">
-        <v>2.78</v>
-      </c>
-      <c r="AG50">
-        <v>2.2</v>
-      </c>
-      <c r="AH50">
-        <v>1.65</v>
-      </c>
-      <c r="AI50">
-        <v>2.2</v>
-      </c>
-      <c r="AJ50">
-        <v>1.62</v>
-      </c>
-      <c r="AK50">
-        <v>1.12</v>
-      </c>
       <c r="AL50">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="AM50">
-        <v>2.24</v>
+        <v>1.44</v>
       </c>
       <c r="AN50">
         <v>1</v>
       </c>
       <c r="AO50">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="AP50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ50">
-        <v>0.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR50">
-        <v>1.66</v>
+        <v>1.29</v>
       </c>
       <c r="AS50">
-        <v>0.97</v>
+        <v>0.9</v>
       </c>
       <c r="AT50">
-        <v>2.63</v>
+        <v>2.19</v>
       </c>
       <c r="AU50">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AV50">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX50">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY50">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AZ50">
         <v>12</v>
       </c>
       <c r="BA50">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BB50">
         <v>5</v>
       </c>
       <c r="BC50">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BD50">
-        <v>1.48</v>
+        <v>1.67</v>
       </c>
       <c r="BE50">
-        <v>9.4</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="BF50">
-        <v>3.24</v>
+        <v>2.66</v>
       </c>
       <c r="BG50">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="BH50">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="BI50">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="BJ50">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="BK50">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="BL50">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="BM50">
-        <v>2.32</v>
+        <v>2.12</v>
       </c>
       <c r="BN50">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="BO50">
-        <v>3.1</v>
+        <v>2.77</v>
       </c>
       <c r="BP50">
-        <v>1.32</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="51" spans="1:68">
@@ -11190,7 +11190,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>7380367</v>
+        <v>7380375</v>
       </c>
       <c r="C51" t="s">
         <v>68</v>
@@ -11205,25 +11205,25 @@
         <v>5</v>
       </c>
       <c r="G51" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H51" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J51">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K51">
         <v>2</v>
       </c>
       <c r="L51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N51">
         <v>3</v>
@@ -11232,61 +11232,61 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="Q51">
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="R51">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="S51">
-        <v>2.75</v>
+        <v>6.5</v>
       </c>
       <c r="T51">
-        <v>1.52</v>
+        <v>1.48</v>
       </c>
       <c r="U51">
-        <v>2.54</v>
+        <v>2.65</v>
       </c>
       <c r="V51">
-        <v>3.5</v>
+        <v>3.28</v>
       </c>
       <c r="W51">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="X51">
-        <v>11</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="Y51">
         <v>1.05</v>
       </c>
       <c r="Z51">
-        <v>4.5</v>
+        <v>1.6</v>
       </c>
       <c r="AA51">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="AB51">
-        <v>1.95</v>
+        <v>6.25</v>
       </c>
       <c r="AC51">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="AD51">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="AE51">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AF51">
-        <v>2.6</v>
+        <v>2.78</v>
       </c>
       <c r="AG51">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="AH51">
-        <v>1.48</v>
+        <v>1.65</v>
       </c>
       <c r="AI51">
         <v>2.2</v>
@@ -11295,100 +11295,100 @@
         <v>1.62</v>
       </c>
       <c r="AK51">
-        <v>1.65</v>
+        <v>1.12</v>
       </c>
       <c r="AL51">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AM51">
-        <v>1.23</v>
+        <v>2.24</v>
       </c>
       <c r="AN51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO51">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="AP51">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="AQ51">
-        <v>1.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR51">
-        <v>1.83</v>
+        <v>1.66</v>
       </c>
       <c r="AS51">
-        <v>1.29</v>
+        <v>0.97</v>
       </c>
       <c r="AT51">
-        <v>3.12</v>
+        <v>2.63</v>
       </c>
       <c r="AU51">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AV51">
         <v>5</v>
       </c>
       <c r="AW51">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX51">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AY51">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ51">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BA51">
         <v>6</v>
       </c>
       <c r="BB51">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BC51">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BD51">
-        <v>3</v>
+        <v>1.48</v>
       </c>
       <c r="BE51">
-        <v>8.300000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="BF51">
-        <v>1.57</v>
+        <v>3.24</v>
       </c>
       <c r="BG51">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="BH51">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="BI51">
-        <v>1.31</v>
+        <v>1.45</v>
       </c>
       <c r="BJ51">
-        <v>3.15</v>
+        <v>2.55</v>
       </c>
       <c r="BK51">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="BL51">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="BM51">
-        <v>1.99</v>
+        <v>2.32</v>
       </c>
       <c r="BN51">
-        <v>1.73</v>
+        <v>1.54</v>
       </c>
       <c r="BO51">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="BP51">
-        <v>1.44</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="52" spans="1:68">
@@ -13083,7 +13083,7 @@
         <v>3</v>
       </c>
       <c r="O60" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P60" t="s">
         <v>164</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="170">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -434,6 +434,12 @@
   </si>
   <si>
     <t>['74']</t>
+  </si>
+  <si>
+    <t>['49']</t>
+  </si>
+  <si>
+    <t>['5', '69', '90+6']</t>
   </si>
   <si>
     <t>['62']</t>
@@ -879,7 +885,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP70"/>
+  <dimension ref="A1:BP72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1138,7 +1144,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1756,7 +1762,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q5">
         <v>2.75</v>
@@ -2168,7 +2174,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q7">
         <v>4.33</v>
@@ -2249,7 +2255,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ7">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2452,7 +2458,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ8">
         <v>1.25</v>
@@ -2580,7 +2586,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2661,7 +2667,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ9">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2992,7 +2998,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q11">
         <v>3.5</v>
@@ -3404,7 +3410,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q13">
         <v>3.6</v>
@@ -3610,7 +3616,7 @@
         <v>101</v>
       </c>
       <c r="P14" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q14">
         <v>4.75</v>
@@ -3816,7 +3822,7 @@
         <v>101</v>
       </c>
       <c r="P15" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4228,7 +4234,7 @@
         <v>102</v>
       </c>
       <c r="P17" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q17">
         <v>2.75</v>
@@ -5052,7 +5058,7 @@
         <v>106</v>
       </c>
       <c r="P21" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5464,7 +5470,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q23">
         <v>3.2</v>
@@ -5545,7 +5551,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ23">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR23">
         <v>1.39</v>
@@ -5670,7 +5676,7 @@
         <v>107</v>
       </c>
       <c r="P24" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q24">
         <v>3.6</v>
@@ -6082,7 +6088,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6288,7 +6294,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q27">
         <v>4</v>
@@ -6494,7 +6500,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6572,7 +6578,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ28">
         <v>0.33</v>
@@ -6906,7 +6912,7 @@
         <v>112</v>
       </c>
       <c r="P30" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q30">
         <v>2.1</v>
@@ -7318,7 +7324,7 @@
         <v>113</v>
       </c>
       <c r="P32" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q32">
         <v>2.38</v>
@@ -7524,7 +7530,7 @@
         <v>101</v>
       </c>
       <c r="P33" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -8760,7 +8766,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q39">
         <v>2</v>
@@ -9047,7 +9053,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ40">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AR40">
         <v>1.33</v>
@@ -9172,7 +9178,7 @@
         <v>120</v>
       </c>
       <c r="P41" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q41">
         <v>2.25</v>
@@ -9378,7 +9384,7 @@
         <v>121</v>
       </c>
       <c r="P42" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q42">
         <v>3.2</v>
@@ -9584,7 +9590,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q43">
         <v>3.4</v>
@@ -10489,7 +10495,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ47">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR47">
         <v>1.18</v>
@@ -10820,7 +10826,7 @@
         <v>125</v>
       </c>
       <c r="P49" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -11232,7 +11238,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q51">
         <v>2.25</v>
@@ -11310,7 +11316,7 @@
         <v>0.5</v>
       </c>
       <c r="AP51">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ51">
         <v>0.33</v>
@@ -11725,7 +11731,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ53">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AR53">
         <v>2.01</v>
@@ -11850,7 +11856,7 @@
         <v>128</v>
       </c>
       <c r="P54" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q54">
         <v>3.2</v>
@@ -12262,7 +12268,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q56">
         <v>1.95</v>
@@ -13086,7 +13092,7 @@
         <v>118</v>
       </c>
       <c r="P60" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13498,7 +13504,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q62">
         <v>3.4</v>
@@ -14116,7 +14122,7 @@
         <v>135</v>
       </c>
       <c r="P65" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q65">
         <v>2.38</v>
@@ -14322,7 +14328,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q66">
         <v>2.3</v>
@@ -14400,7 +14406,7 @@
         <v>1.33</v>
       </c>
       <c r="AP66">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ66">
         <v>1</v>
@@ -14734,7 +14740,7 @@
         <v>101</v>
       </c>
       <c r="P68" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q68">
         <v>3.6</v>
@@ -15303,6 +15309,418 @@
       </c>
       <c r="BP70">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="71" spans="1:68">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>7380405</v>
+      </c>
+      <c r="C71" t="s">
+        <v>68</v>
+      </c>
+      <c r="D71" t="s">
+        <v>69</v>
+      </c>
+      <c r="E71" s="2">
+        <v>45443.79166666666</v>
+      </c>
+      <c r="F71">
+        <v>8</v>
+      </c>
+      <c r="G71" t="s">
+        <v>76</v>
+      </c>
+      <c r="H71" t="s">
+        <v>87</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>1</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>1</v>
+      </c>
+      <c r="O71" t="s">
+        <v>140</v>
+      </c>
+      <c r="P71" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q71">
+        <v>3</v>
+      </c>
+      <c r="R71">
+        <v>2</v>
+      </c>
+      <c r="S71">
+        <v>4</v>
+      </c>
+      <c r="T71">
+        <v>1.45</v>
+      </c>
+      <c r="U71">
+        <v>2.55</v>
+      </c>
+      <c r="V71">
+        <v>3</v>
+      </c>
+      <c r="W71">
+        <v>1.33</v>
+      </c>
+      <c r="X71">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Y71">
+        <v>1.06</v>
+      </c>
+      <c r="Z71">
+        <v>2.2</v>
+      </c>
+      <c r="AA71">
+        <v>3.1</v>
+      </c>
+      <c r="AB71">
+        <v>3.5</v>
+      </c>
+      <c r="AC71">
+        <v>1.08</v>
+      </c>
+      <c r="AD71">
+        <v>7.5</v>
+      </c>
+      <c r="AE71">
+        <v>1.4</v>
+      </c>
+      <c r="AF71">
+        <v>2.9</v>
+      </c>
+      <c r="AG71">
+        <v>2.3</v>
+      </c>
+      <c r="AH71">
+        <v>1.6</v>
+      </c>
+      <c r="AI71">
+        <v>2</v>
+      </c>
+      <c r="AJ71">
+        <v>1.73</v>
+      </c>
+      <c r="AK71">
+        <v>1.22</v>
+      </c>
+      <c r="AL71">
+        <v>1.28</v>
+      </c>
+      <c r="AM71">
+        <v>1.8</v>
+      </c>
+      <c r="AN71">
+        <v>2</v>
+      </c>
+      <c r="AO71">
+        <v>0.67</v>
+      </c>
+      <c r="AP71">
+        <v>2.2</v>
+      </c>
+      <c r="AQ71">
+        <v>0.5</v>
+      </c>
+      <c r="AR71">
+        <v>1.73</v>
+      </c>
+      <c r="AS71">
+        <v>1.78</v>
+      </c>
+      <c r="AT71">
+        <v>3.51</v>
+      </c>
+      <c r="AU71">
+        <v>7</v>
+      </c>
+      <c r="AV71">
+        <v>2</v>
+      </c>
+      <c r="AW71">
+        <v>4</v>
+      </c>
+      <c r="AX71">
+        <v>4</v>
+      </c>
+      <c r="AY71">
+        <v>11</v>
+      </c>
+      <c r="AZ71">
+        <v>6</v>
+      </c>
+      <c r="BA71">
+        <v>9</v>
+      </c>
+      <c r="BB71">
+        <v>3</v>
+      </c>
+      <c r="BC71">
+        <v>12</v>
+      </c>
+      <c r="BD71">
+        <v>1.67</v>
+      </c>
+      <c r="BE71">
+        <v>7.7</v>
+      </c>
+      <c r="BF71">
+        <v>2.76</v>
+      </c>
+      <c r="BG71">
+        <v>1.2</v>
+      </c>
+      <c r="BH71">
+        <v>4</v>
+      </c>
+      <c r="BI71">
+        <v>1.38</v>
+      </c>
+      <c r="BJ71">
+        <v>2.8</v>
+      </c>
+      <c r="BK71">
+        <v>2</v>
+      </c>
+      <c r="BL71">
+        <v>2.12</v>
+      </c>
+      <c r="BM71">
+        <v>2</v>
+      </c>
+      <c r="BN71">
+        <v>1.73</v>
+      </c>
+      <c r="BO71">
+        <v>2.55</v>
+      </c>
+      <c r="BP71">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="72" spans="1:68">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>7380396</v>
+      </c>
+      <c r="C72" t="s">
+        <v>68</v>
+      </c>
+      <c r="D72" t="s">
+        <v>69</v>
+      </c>
+      <c r="E72" s="2">
+        <v>45443.89583333334</v>
+      </c>
+      <c r="F72">
+        <v>8</v>
+      </c>
+      <c r="G72" t="s">
+        <v>88</v>
+      </c>
+      <c r="H72" t="s">
+        <v>80</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>1</v>
+      </c>
+      <c r="L72">
+        <v>3</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>3</v>
+      </c>
+      <c r="O72" t="s">
+        <v>141</v>
+      </c>
+      <c r="P72" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q72">
+        <v>3</v>
+      </c>
+      <c r="R72">
+        <v>2</v>
+      </c>
+      <c r="S72">
+        <v>4</v>
+      </c>
+      <c r="T72">
+        <v>1.45</v>
+      </c>
+      <c r="U72">
+        <v>2.55</v>
+      </c>
+      <c r="V72">
+        <v>2.95</v>
+      </c>
+      <c r="W72">
+        <v>1.35</v>
+      </c>
+      <c r="X72">
+        <v>8</v>
+      </c>
+      <c r="Y72">
+        <v>1.06</v>
+      </c>
+      <c r="Z72">
+        <v>2.3</v>
+      </c>
+      <c r="AA72">
+        <v>3</v>
+      </c>
+      <c r="AB72">
+        <v>3.4</v>
+      </c>
+      <c r="AC72">
+        <v>1.08</v>
+      </c>
+      <c r="AD72">
+        <v>7.5</v>
+      </c>
+      <c r="AE72">
+        <v>1.38</v>
+      </c>
+      <c r="AF72">
+        <v>3</v>
+      </c>
+      <c r="AG72">
+        <v>2.25</v>
+      </c>
+      <c r="AH72">
+        <v>1.62</v>
+      </c>
+      <c r="AI72">
+        <v>1.91</v>
+      </c>
+      <c r="AJ72">
+        <v>1.8</v>
+      </c>
+      <c r="AK72">
+        <v>1.28</v>
+      </c>
+      <c r="AL72">
+        <v>1.3</v>
+      </c>
+      <c r="AM72">
+        <v>1.67</v>
+      </c>
+      <c r="AN72">
+        <v>3</v>
+      </c>
+      <c r="AO72">
+        <v>2</v>
+      </c>
+      <c r="AP72">
+        <v>3</v>
+      </c>
+      <c r="AQ72">
+        <v>1.5</v>
+      </c>
+      <c r="AR72">
+        <v>1.76</v>
+      </c>
+      <c r="AS72">
+        <v>1.35</v>
+      </c>
+      <c r="AT72">
+        <v>3.11</v>
+      </c>
+      <c r="AU72">
+        <v>6</v>
+      </c>
+      <c r="AV72">
+        <v>4</v>
+      </c>
+      <c r="AW72">
+        <v>3</v>
+      </c>
+      <c r="AX72">
+        <v>9</v>
+      </c>
+      <c r="AY72">
+        <v>9</v>
+      </c>
+      <c r="AZ72">
+        <v>13</v>
+      </c>
+      <c r="BA72">
+        <v>9</v>
+      </c>
+      <c r="BB72">
+        <v>8</v>
+      </c>
+      <c r="BC72">
+        <v>17</v>
+      </c>
+      <c r="BD72">
+        <v>1.87</v>
+      </c>
+      <c r="BE72">
+        <v>7.5</v>
+      </c>
+      <c r="BF72">
+        <v>2.37</v>
+      </c>
+      <c r="BG72">
+        <v>1.18</v>
+      </c>
+      <c r="BH72">
+        <v>4.2</v>
+      </c>
+      <c r="BI72">
+        <v>1.35</v>
+      </c>
+      <c r="BJ72">
+        <v>2.9</v>
+      </c>
+      <c r="BK72">
+        <v>1.91</v>
+      </c>
+      <c r="BL72">
+        <v>2.2</v>
+      </c>
+      <c r="BM72">
+        <v>2</v>
+      </c>
+      <c r="BN72">
+        <v>1.8</v>
+      </c>
+      <c r="BO72">
+        <v>2.46</v>
+      </c>
+      <c r="BP72">
+        <v>1.48</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="170">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -885,7 +885,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP72"/>
+  <dimension ref="A1:BP73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ11">
         <v>0.5</v>
@@ -4521,7 +4521,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ18">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -6169,7 +6169,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ26">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR26">
         <v>1.2</v>
@@ -6372,7 +6372,7 @@
         <v>1</v>
       </c>
       <c r="AP27">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ27">
         <v>1.25</v>
@@ -9465,7 +9465,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ42">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR42">
         <v>1.32</v>
@@ -10286,7 +10286,7 @@
         <v>1.5</v>
       </c>
       <c r="AP46">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ46">
         <v>1</v>
@@ -14821,7 +14821,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ68">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR68">
         <v>1.37</v>
@@ -15721,6 +15721,212 @@
       </c>
       <c r="BP72">
         <v>1.48</v>
+      </c>
+    </row>
+    <row r="73" spans="1:68">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>7380402</v>
+      </c>
+      <c r="C73" t="s">
+        <v>68</v>
+      </c>
+      <c r="D73" t="s">
+        <v>69</v>
+      </c>
+      <c r="E73" s="2">
+        <v>45444.70833333334</v>
+      </c>
+      <c r="F73">
+        <v>8</v>
+      </c>
+      <c r="G73" t="s">
+        <v>79</v>
+      </c>
+      <c r="H73" t="s">
+        <v>71</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+      <c r="O73" t="s">
+        <v>101</v>
+      </c>
+      <c r="P73" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q73">
+        <v>3.75</v>
+      </c>
+      <c r="R73">
+        <v>1.91</v>
+      </c>
+      <c r="S73">
+        <v>3.4</v>
+      </c>
+      <c r="T73">
+        <v>1.55</v>
+      </c>
+      <c r="U73">
+        <v>2.3</v>
+      </c>
+      <c r="V73">
+        <v>3.55</v>
+      </c>
+      <c r="W73">
+        <v>1.25</v>
+      </c>
+      <c r="X73">
+        <v>9.6</v>
+      </c>
+      <c r="Y73">
+        <v>1.04</v>
+      </c>
+      <c r="Z73">
+        <v>2.63</v>
+      </c>
+      <c r="AA73">
+        <v>3.05</v>
+      </c>
+      <c r="AB73">
+        <v>2.49</v>
+      </c>
+      <c r="AC73">
+        <v>1.09</v>
+      </c>
+      <c r="AD73">
+        <v>7</v>
+      </c>
+      <c r="AE73">
+        <v>1.47</v>
+      </c>
+      <c r="AF73">
+        <v>2.42</v>
+      </c>
+      <c r="AG73">
+        <v>2.21</v>
+      </c>
+      <c r="AH73">
+        <v>1.59</v>
+      </c>
+      <c r="AI73">
+        <v>2.2</v>
+      </c>
+      <c r="AJ73">
+        <v>1.62</v>
+      </c>
+      <c r="AK73">
+        <v>1.48</v>
+      </c>
+      <c r="AL73">
+        <v>1.3</v>
+      </c>
+      <c r="AM73">
+        <v>1.42</v>
+      </c>
+      <c r="AN73">
+        <v>1.33</v>
+      </c>
+      <c r="AO73">
+        <v>1.5</v>
+      </c>
+      <c r="AP73">
+        <v>1.25</v>
+      </c>
+      <c r="AQ73">
+        <v>1.4</v>
+      </c>
+      <c r="AR73">
+        <v>1.23</v>
+      </c>
+      <c r="AS73">
+        <v>1.36</v>
+      </c>
+      <c r="AT73">
+        <v>2.59</v>
+      </c>
+      <c r="AU73">
+        <v>4</v>
+      </c>
+      <c r="AV73">
+        <v>4</v>
+      </c>
+      <c r="AW73">
+        <v>4</v>
+      </c>
+      <c r="AX73">
+        <v>11</v>
+      </c>
+      <c r="AY73">
+        <v>8</v>
+      </c>
+      <c r="AZ73">
+        <v>15</v>
+      </c>
+      <c r="BA73">
+        <v>7</v>
+      </c>
+      <c r="BB73">
+        <v>3</v>
+      </c>
+      <c r="BC73">
+        <v>10</v>
+      </c>
+      <c r="BD73">
+        <v>2.2</v>
+      </c>
+      <c r="BE73">
+        <v>7.6</v>
+      </c>
+      <c r="BF73">
+        <v>1.95</v>
+      </c>
+      <c r="BG73">
+        <v>1.22</v>
+      </c>
+      <c r="BH73">
+        <v>3.8</v>
+      </c>
+      <c r="BI73">
+        <v>1.33</v>
+      </c>
+      <c r="BJ73">
+        <v>2.93</v>
+      </c>
+      <c r="BK73">
+        <v>2</v>
+      </c>
+      <c r="BL73">
+        <v>2.17</v>
+      </c>
+      <c r="BM73">
+        <v>2</v>
+      </c>
+      <c r="BN73">
+        <v>1.73</v>
+      </c>
+      <c r="BO73">
+        <v>2.57</v>
+      </c>
+      <c r="BP73">
+        <v>1.42</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="174">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -442,6 +442,9 @@
     <t>['5', '69', '90+6']</t>
   </si>
   <si>
+    <t>['47', '66', '79', '90+8']</t>
+  </si>
+  <si>
     <t>['62']</t>
   </si>
   <si>
@@ -524,6 +527,15 @@
   </si>
   <si>
     <t>['88']</t>
+  </si>
+  <si>
+    <t>['62', '75']</t>
+  </si>
+  <si>
+    <t>['84']</t>
+  </si>
+  <si>
+    <t>['43', '51']</t>
   </si>
 </sst>
 </file>
@@ -885,7 +897,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP73"/>
+  <dimension ref="A1:BP77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1144,7 +1156,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1431,7 +1443,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ3">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1637,7 +1649,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ4">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1762,7 +1774,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q5">
         <v>2.75</v>
@@ -1840,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ5">
         <v>0</v>
@@ -2046,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AQ6">
         <v>0.5</v>
@@ -2174,7 +2186,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q7">
         <v>4.33</v>
@@ -2586,7 +2598,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2664,7 +2676,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ9">
         <v>0.5</v>
@@ -2998,7 +3010,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q11">
         <v>3.5</v>
@@ -3285,7 +3297,7 @@
         <v>2</v>
       </c>
       <c r="AQ12">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3410,7 +3422,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q13">
         <v>3.6</v>
@@ -3488,7 +3500,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ13">
         <v>1</v>
@@ -3616,7 +3628,7 @@
         <v>101</v>
       </c>
       <c r="P14" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q14">
         <v>4.75</v>
@@ -3822,7 +3834,7 @@
         <v>101</v>
       </c>
       <c r="P15" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4234,7 +4246,7 @@
         <v>102</v>
       </c>
       <c r="P17" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q17">
         <v>2.75</v>
@@ -4315,7 +4327,7 @@
         <v>1</v>
       </c>
       <c r="AQ17">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -5058,7 +5070,7 @@
         <v>106</v>
       </c>
       <c r="P21" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5345,7 +5357,7 @@
         <v>1</v>
       </c>
       <c r="AQ22">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR22">
         <v>1.45</v>
@@ -5470,7 +5482,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q23">
         <v>3.2</v>
@@ -5676,7 +5688,7 @@
         <v>107</v>
       </c>
       <c r="P24" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q24">
         <v>3.6</v>
@@ -5754,7 +5766,7 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ24">
         <v>1.67</v>
@@ -6088,7 +6100,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6166,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ26">
         <v>1.4</v>
@@ -6294,7 +6306,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q27">
         <v>4</v>
@@ -6500,7 +6512,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6581,7 +6593,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ28">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR28">
         <v>2.07</v>
@@ -6784,7 +6796,7 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ29">
         <v>0.33</v>
@@ -6912,7 +6924,7 @@
         <v>112</v>
       </c>
       <c r="P30" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q30">
         <v>2.1</v>
@@ -6990,7 +7002,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AQ30">
         <v>0</v>
@@ -7324,7 +7336,7 @@
         <v>113</v>
       </c>
       <c r="P32" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q32">
         <v>2.38</v>
@@ -7405,7 +7417,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ32">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AR32">
         <v>2.22</v>
@@ -7530,7 +7542,7 @@
         <v>101</v>
       </c>
       <c r="P33" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -8229,7 +8241,7 @@
         <v>1</v>
       </c>
       <c r="AQ36">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AR36">
         <v>3.34</v>
@@ -8766,7 +8778,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q39">
         <v>2</v>
@@ -9178,7 +9190,7 @@
         <v>120</v>
       </c>
       <c r="P41" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q41">
         <v>2.25</v>
@@ -9384,7 +9396,7 @@
         <v>121</v>
       </c>
       <c r="P42" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q42">
         <v>3.2</v>
@@ -9590,7 +9602,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q43">
         <v>3.4</v>
@@ -9671,7 +9683,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ43">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR43">
         <v>1.42</v>
@@ -10492,7 +10504,7 @@
         <v>3</v>
       </c>
       <c r="AP47">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ47">
         <v>1.5</v>
@@ -10826,7 +10838,7 @@
         <v>125</v>
       </c>
       <c r="P49" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -10904,7 +10916,7 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ49">
         <v>1.5</v>
@@ -11238,7 +11250,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q51">
         <v>2.25</v>
@@ -11525,7 +11537,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ52">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AR52">
         <v>1.8</v>
@@ -11856,7 +11868,7 @@
         <v>128</v>
       </c>
       <c r="P54" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q54">
         <v>3.2</v>
@@ -12143,7 +12155,7 @@
         <v>3</v>
       </c>
       <c r="AQ55">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AR55">
         <v>1.77</v>
@@ -12268,7 +12280,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q56">
         <v>1.95</v>
@@ -12349,7 +12361,7 @@
         <v>2</v>
       </c>
       <c r="AQ56">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR56">
         <v>1.63</v>
@@ -12552,7 +12564,7 @@
         <v>0</v>
       </c>
       <c r="AP57">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AQ57">
         <v>0.25</v>
@@ -13092,7 +13104,7 @@
         <v>118</v>
       </c>
       <c r="P60" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13376,7 +13388,7 @@
         <v>0.5</v>
       </c>
       <c r="AP61">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ61">
         <v>0.5</v>
@@ -13504,7 +13516,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q62">
         <v>3.4</v>
@@ -13994,7 +14006,7 @@
         <v>0.67</v>
       </c>
       <c r="AP64">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ64">
         <v>0.5</v>
@@ -14122,7 +14134,7 @@
         <v>135</v>
       </c>
       <c r="P65" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q65">
         <v>2.38</v>
@@ -14328,7 +14340,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q66">
         <v>2.3</v>
@@ -14740,7 +14752,7 @@
         <v>101</v>
       </c>
       <c r="P68" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q68">
         <v>3.6</v>
@@ -15926,6 +15938,830 @@
         <v>2.57</v>
       </c>
       <c r="BP73">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="74" spans="1:68">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>7380397</v>
+      </c>
+      <c r="C74" t="s">
+        <v>68</v>
+      </c>
+      <c r="D74" t="s">
+        <v>69</v>
+      </c>
+      <c r="E74" s="2">
+        <v>45445.66666666666</v>
+      </c>
+      <c r="F74">
+        <v>8</v>
+      </c>
+      <c r="G74" t="s">
+        <v>77</v>
+      </c>
+      <c r="H74" t="s">
+        <v>84</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>4</v>
+      </c>
+      <c r="M74">
+        <v>2</v>
+      </c>
+      <c r="N74">
+        <v>6</v>
+      </c>
+      <c r="O74" t="s">
+        <v>142</v>
+      </c>
+      <c r="P74" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q74">
+        <v>3</v>
+      </c>
+      <c r="R74">
+        <v>1.91</v>
+      </c>
+      <c r="S74">
+        <v>4.5</v>
+      </c>
+      <c r="T74">
+        <v>1.58</v>
+      </c>
+      <c r="U74">
+        <v>2.38</v>
+      </c>
+      <c r="V74">
+        <v>3.7</v>
+      </c>
+      <c r="W74">
+        <v>1.24</v>
+      </c>
+      <c r="X74">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="Y74">
+        <v>1.03</v>
+      </c>
+      <c r="Z74">
+        <v>2.55</v>
+      </c>
+      <c r="AA74">
+        <v>2.75</v>
+      </c>
+      <c r="AB74">
+        <v>3.04</v>
+      </c>
+      <c r="AC74">
+        <v>1.09</v>
+      </c>
+      <c r="AD74">
+        <v>6</v>
+      </c>
+      <c r="AE74">
+        <v>1.52</v>
+      </c>
+      <c r="AF74">
+        <v>2.4</v>
+      </c>
+      <c r="AG74">
+        <v>2.56</v>
+      </c>
+      <c r="AH74">
+        <v>1.45</v>
+      </c>
+      <c r="AI74">
+        <v>2.2</v>
+      </c>
+      <c r="AJ74">
+        <v>1.62</v>
+      </c>
+      <c r="AK74">
+        <v>1.38</v>
+      </c>
+      <c r="AL74">
+        <v>1.33</v>
+      </c>
+      <c r="AM74">
+        <v>1.5</v>
+      </c>
+      <c r="AN74">
+        <v>1.33</v>
+      </c>
+      <c r="AO74">
+        <v>0.33</v>
+      </c>
+      <c r="AP74">
+        <v>1.75</v>
+      </c>
+      <c r="AQ74">
+        <v>0.25</v>
+      </c>
+      <c r="AR74">
+        <v>1.49</v>
+      </c>
+      <c r="AS74">
+        <v>1.45</v>
+      </c>
+      <c r="AT74">
+        <v>2.94</v>
+      </c>
+      <c r="AU74">
+        <v>10</v>
+      </c>
+      <c r="AV74">
+        <v>6</v>
+      </c>
+      <c r="AW74">
+        <v>2</v>
+      </c>
+      <c r="AX74">
+        <v>3</v>
+      </c>
+      <c r="AY74">
+        <v>12</v>
+      </c>
+      <c r="AZ74">
+        <v>9</v>
+      </c>
+      <c r="BA74">
+        <v>7</v>
+      </c>
+      <c r="BB74">
+        <v>3</v>
+      </c>
+      <c r="BC74">
+        <v>10</v>
+      </c>
+      <c r="BD74">
+        <v>2</v>
+      </c>
+      <c r="BE74">
+        <v>7.2</v>
+      </c>
+      <c r="BF74">
+        <v>2.17</v>
+      </c>
+      <c r="BG74">
+        <v>1.19</v>
+      </c>
+      <c r="BH74">
+        <v>3.95</v>
+      </c>
+      <c r="BI74">
+        <v>1.38</v>
+      </c>
+      <c r="BJ74">
+        <v>2.71</v>
+      </c>
+      <c r="BK74">
+        <v>2.2</v>
+      </c>
+      <c r="BL74">
+        <v>2</v>
+      </c>
+      <c r="BM74">
+        <v>2.1</v>
+      </c>
+      <c r="BN74">
+        <v>1.62</v>
+      </c>
+      <c r="BO74">
+        <v>2.79</v>
+      </c>
+      <c r="BP74">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="75" spans="1:68">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>7380401</v>
+      </c>
+      <c r="C75" t="s">
+        <v>68</v>
+      </c>
+      <c r="D75" t="s">
+        <v>69</v>
+      </c>
+      <c r="E75" s="2">
+        <v>45445.66666666666</v>
+      </c>
+      <c r="F75">
+        <v>8</v>
+      </c>
+      <c r="G75" t="s">
+        <v>73</v>
+      </c>
+      <c r="H75" t="s">
+        <v>78</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>1</v>
+      </c>
+      <c r="M75">
+        <v>1</v>
+      </c>
+      <c r="N75">
+        <v>2</v>
+      </c>
+      <c r="O75" t="s">
+        <v>90</v>
+      </c>
+      <c r="P75" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q75">
+        <v>3.1</v>
+      </c>
+      <c r="R75">
+        <v>1.95</v>
+      </c>
+      <c r="S75">
+        <v>4</v>
+      </c>
+      <c r="T75">
+        <v>1.55</v>
+      </c>
+      <c r="U75">
+        <v>2.3</v>
+      </c>
+      <c r="V75">
+        <v>3.55</v>
+      </c>
+      <c r="W75">
+        <v>1.25</v>
+      </c>
+      <c r="X75">
+        <v>9.6</v>
+      </c>
+      <c r="Y75">
+        <v>1.04</v>
+      </c>
+      <c r="Z75">
+        <v>2.15</v>
+      </c>
+      <c r="AA75">
+        <v>3.1</v>
+      </c>
+      <c r="AB75">
+        <v>3.36</v>
+      </c>
+      <c r="AC75">
+        <v>1.09</v>
+      </c>
+      <c r="AD75">
+        <v>7</v>
+      </c>
+      <c r="AE75">
+        <v>1.48</v>
+      </c>
+      <c r="AF75">
+        <v>2.65</v>
+      </c>
+      <c r="AG75">
+        <v>2.41</v>
+      </c>
+      <c r="AH75">
+        <v>1.5</v>
+      </c>
+      <c r="AI75">
+        <v>2.1</v>
+      </c>
+      <c r="AJ75">
+        <v>1.67</v>
+      </c>
+      <c r="AK75">
+        <v>1.33</v>
+      </c>
+      <c r="AL75">
+        <v>1.3</v>
+      </c>
+      <c r="AM75">
+        <v>1.6</v>
+      </c>
+      <c r="AN75">
+        <v>1.67</v>
+      </c>
+      <c r="AO75">
+        <v>0</v>
+      </c>
+      <c r="AP75">
+        <v>1.5</v>
+      </c>
+      <c r="AQ75">
+        <v>0.25</v>
+      </c>
+      <c r="AR75">
+        <v>1.65</v>
+      </c>
+      <c r="AS75">
+        <v>1.04</v>
+      </c>
+      <c r="AT75">
+        <v>2.69</v>
+      </c>
+      <c r="AU75">
+        <v>4</v>
+      </c>
+      <c r="AV75">
+        <v>5</v>
+      </c>
+      <c r="AW75">
+        <v>11</v>
+      </c>
+      <c r="AX75">
+        <v>4</v>
+      </c>
+      <c r="AY75">
+        <v>15</v>
+      </c>
+      <c r="AZ75">
+        <v>9</v>
+      </c>
+      <c r="BA75">
+        <v>5</v>
+      </c>
+      <c r="BB75">
+        <v>1</v>
+      </c>
+      <c r="BC75">
+        <v>6</v>
+      </c>
+      <c r="BD75">
+        <v>1.87</v>
+      </c>
+      <c r="BE75">
+        <v>7.5</v>
+      </c>
+      <c r="BF75">
+        <v>2.37</v>
+      </c>
+      <c r="BG75">
+        <v>1.2</v>
+      </c>
+      <c r="BH75">
+        <v>4.25</v>
+      </c>
+      <c r="BI75">
+        <v>1.38</v>
+      </c>
+      <c r="BJ75">
+        <v>2.9</v>
+      </c>
+      <c r="BK75">
+        <v>2.1</v>
+      </c>
+      <c r="BL75">
+        <v>2.05</v>
+      </c>
+      <c r="BM75">
+        <v>2.05</v>
+      </c>
+      <c r="BN75">
+        <v>1.7</v>
+      </c>
+      <c r="BO75">
+        <v>2.85</v>
+      </c>
+      <c r="BP75">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="76" spans="1:68">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>7380399</v>
+      </c>
+      <c r="C76" t="s">
+        <v>68</v>
+      </c>
+      <c r="D76" t="s">
+        <v>69</v>
+      </c>
+      <c r="E76" s="2">
+        <v>45445.77083333334</v>
+      </c>
+      <c r="F76">
+        <v>8</v>
+      </c>
+      <c r="G76" t="s">
+        <v>81</v>
+      </c>
+      <c r="H76" t="s">
+        <v>82</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>1</v>
+      </c>
+      <c r="K76">
+        <v>1</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>1</v>
+      </c>
+      <c r="N76">
+        <v>1</v>
+      </c>
+      <c r="O76" t="s">
+        <v>101</v>
+      </c>
+      <c r="P76" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q76">
+        <v>3.75</v>
+      </c>
+      <c r="R76">
+        <v>1.95</v>
+      </c>
+      <c r="S76">
+        <v>3.4</v>
+      </c>
+      <c r="T76">
+        <v>1.52</v>
+      </c>
+      <c r="U76">
+        <v>2.39</v>
+      </c>
+      <c r="V76">
+        <v>3.45</v>
+      </c>
+      <c r="W76">
+        <v>1.27</v>
+      </c>
+      <c r="X76">
+        <v>9.4</v>
+      </c>
+      <c r="Y76">
+        <v>1.03</v>
+      </c>
+      <c r="Z76">
+        <v>2.88</v>
+      </c>
+      <c r="AA76">
+        <v>3.1</v>
+      </c>
+      <c r="AB76">
+        <v>2.55</v>
+      </c>
+      <c r="AC76">
+        <v>1.1</v>
+      </c>
+      <c r="AD76">
+        <v>6</v>
+      </c>
+      <c r="AE76">
+        <v>1.48</v>
+      </c>
+      <c r="AF76">
+        <v>2.37</v>
+      </c>
+      <c r="AG76">
+        <v>2.5</v>
+      </c>
+      <c r="AH76">
+        <v>1.5</v>
+      </c>
+      <c r="AI76">
+        <v>2.1</v>
+      </c>
+      <c r="AJ76">
+        <v>1.67</v>
+      </c>
+      <c r="AK76">
+        <v>1.44</v>
+      </c>
+      <c r="AL76">
+        <v>1.3</v>
+      </c>
+      <c r="AM76">
+        <v>1.45</v>
+      </c>
+      <c r="AN76">
+        <v>1.5</v>
+      </c>
+      <c r="AO76">
+        <v>1.33</v>
+      </c>
+      <c r="AP76">
+        <v>1.2</v>
+      </c>
+      <c r="AQ76">
+        <v>1.75</v>
+      </c>
+      <c r="AR76">
+        <v>1.31</v>
+      </c>
+      <c r="AS76">
+        <v>1.14</v>
+      </c>
+      <c r="AT76">
+        <v>2.45</v>
+      </c>
+      <c r="AU76">
+        <v>3</v>
+      </c>
+      <c r="AV76">
+        <v>5</v>
+      </c>
+      <c r="AW76">
+        <v>7</v>
+      </c>
+      <c r="AX76">
+        <v>6</v>
+      </c>
+      <c r="AY76">
+        <v>10</v>
+      </c>
+      <c r="AZ76">
+        <v>11</v>
+      </c>
+      <c r="BA76">
+        <v>4</v>
+      </c>
+      <c r="BB76">
+        <v>4</v>
+      </c>
+      <c r="BC76">
+        <v>8</v>
+      </c>
+      <c r="BD76">
+        <v>2.02</v>
+      </c>
+      <c r="BE76">
+        <v>7.4</v>
+      </c>
+      <c r="BF76">
+        <v>2.13</v>
+      </c>
+      <c r="BG76">
+        <v>1.2</v>
+      </c>
+      <c r="BH76">
+        <v>4</v>
+      </c>
+      <c r="BI76">
+        <v>1.3</v>
+      </c>
+      <c r="BJ76">
+        <v>3.08</v>
+      </c>
+      <c r="BK76">
+        <v>1.91</v>
+      </c>
+      <c r="BL76">
+        <v>2</v>
+      </c>
+      <c r="BM76">
+        <v>1.92</v>
+      </c>
+      <c r="BN76">
+        <v>1.79</v>
+      </c>
+      <c r="BO76">
+        <v>2.45</v>
+      </c>
+      <c r="BP76">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="77" spans="1:68">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>7380400</v>
+      </c>
+      <c r="C77" t="s">
+        <v>68</v>
+      </c>
+      <c r="D77" t="s">
+        <v>69</v>
+      </c>
+      <c r="E77" s="2">
+        <v>45446.83333333334</v>
+      </c>
+      <c r="F77">
+        <v>8</v>
+      </c>
+      <c r="G77" t="s">
+        <v>74</v>
+      </c>
+      <c r="H77" t="s">
+        <v>70</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>1</v>
+      </c>
+      <c r="K77">
+        <v>1</v>
+      </c>
+      <c r="L77">
+        <v>1</v>
+      </c>
+      <c r="M77">
+        <v>2</v>
+      </c>
+      <c r="N77">
+        <v>3</v>
+      </c>
+      <c r="O77" t="s">
+        <v>139</v>
+      </c>
+      <c r="P77" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q77">
+        <v>2.2</v>
+      </c>
+      <c r="R77">
+        <v>2</v>
+      </c>
+      <c r="S77">
+        <v>8</v>
+      </c>
+      <c r="T77">
+        <v>1.42</v>
+      </c>
+      <c r="U77">
+        <v>2.65</v>
+      </c>
+      <c r="V77">
+        <v>2.9</v>
+      </c>
+      <c r="W77">
+        <v>1.36</v>
+      </c>
+      <c r="X77">
+        <v>7.7</v>
+      </c>
+      <c r="Y77">
+        <v>1.06</v>
+      </c>
+      <c r="Z77">
+        <v>1.53</v>
+      </c>
+      <c r="AA77">
+        <v>3.5</v>
+      </c>
+      <c r="AB77">
+        <v>8.5</v>
+      </c>
+      <c r="AC77">
+        <v>1.07</v>
+      </c>
+      <c r="AD77">
+        <v>8</v>
+      </c>
+      <c r="AE77">
+        <v>1.35</v>
+      </c>
+      <c r="AF77">
+        <v>3.1</v>
+      </c>
+      <c r="AG77">
+        <v>2.5</v>
+      </c>
+      <c r="AH77">
+        <v>1.5</v>
+      </c>
+      <c r="AI77">
+        <v>2.63</v>
+      </c>
+      <c r="AJ77">
+        <v>1.44</v>
+      </c>
+      <c r="AK77">
+        <v>1.07</v>
+      </c>
+      <c r="AL77">
+        <v>1.17</v>
+      </c>
+      <c r="AM77">
+        <v>2.4</v>
+      </c>
+      <c r="AN77">
+        <v>3</v>
+      </c>
+      <c r="AO77">
+        <v>0.33</v>
+      </c>
+      <c r="AP77">
+        <v>2.25</v>
+      </c>
+      <c r="AQ77">
+        <v>1</v>
+      </c>
+      <c r="AR77">
+        <v>1.71</v>
+      </c>
+      <c r="AS77">
+        <v>1.4</v>
+      </c>
+      <c r="AT77">
+        <v>3.11</v>
+      </c>
+      <c r="AU77">
+        <v>3</v>
+      </c>
+      <c r="AV77">
+        <v>5</v>
+      </c>
+      <c r="AW77">
+        <v>18</v>
+      </c>
+      <c r="AX77">
+        <v>5</v>
+      </c>
+      <c r="AY77">
+        <v>21</v>
+      </c>
+      <c r="AZ77">
+        <v>10</v>
+      </c>
+      <c r="BA77">
+        <v>8</v>
+      </c>
+      <c r="BB77">
+        <v>1</v>
+      </c>
+      <c r="BC77">
+        <v>9</v>
+      </c>
+      <c r="BD77">
+        <v>1.42</v>
+      </c>
+      <c r="BE77">
+        <v>9.6</v>
+      </c>
+      <c r="BF77">
+        <v>3.54</v>
+      </c>
+      <c r="BG77">
+        <v>1.23</v>
+      </c>
+      <c r="BH77">
+        <v>3.9</v>
+      </c>
+      <c r="BI77">
+        <v>1.4</v>
+      </c>
+      <c r="BJ77">
+        <v>2.75</v>
+      </c>
+      <c r="BK77">
+        <v>2.2</v>
+      </c>
+      <c r="BL77">
+        <v>2.1</v>
+      </c>
+      <c r="BM77">
+        <v>2.1</v>
+      </c>
+      <c r="BN77">
+        <v>1.67</v>
+      </c>
+      <c r="BO77">
+        <v>2.7</v>
+      </c>
+      <c r="BP77">
         <v>1.42</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="175">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -443,6 +443,9 @@
   </si>
   <si>
     <t>['47', '66', '79', '90+8']</t>
+  </si>
+  <si>
+    <t>['35']</t>
   </si>
   <si>
     <t>['62']</t>
@@ -897,7 +900,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP77"/>
+  <dimension ref="A1:BP78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1156,7 +1159,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1646,7 +1649,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AQ4">
         <v>1.75</v>
@@ -1774,7 +1777,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q5">
         <v>2.75</v>
@@ -2186,7 +2189,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q7">
         <v>4.33</v>
@@ -2598,7 +2601,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -3010,7 +3013,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q11">
         <v>3.5</v>
@@ -3422,7 +3425,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q13">
         <v>3.6</v>
@@ -3628,7 +3631,7 @@
         <v>101</v>
       </c>
       <c r="P14" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q14">
         <v>4.75</v>
@@ -3834,7 +3837,7 @@
         <v>101</v>
       </c>
       <c r="P15" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4121,7 +4124,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ16">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4246,7 +4249,7 @@
         <v>102</v>
       </c>
       <c r="P17" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q17">
         <v>2.75</v>
@@ -5070,7 +5073,7 @@
         <v>106</v>
       </c>
       <c r="P21" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5482,7 +5485,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q23">
         <v>3.2</v>
@@ -5688,7 +5691,7 @@
         <v>107</v>
       </c>
       <c r="P24" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q24">
         <v>3.6</v>
@@ -6100,7 +6103,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6306,7 +6309,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q27">
         <v>4</v>
@@ -6512,7 +6515,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6799,7 +6802,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ29">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR29">
         <v>0</v>
@@ -6924,7 +6927,7 @@
         <v>112</v>
       </c>
       <c r="P30" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q30">
         <v>2.1</v>
@@ -7336,7 +7339,7 @@
         <v>113</v>
       </c>
       <c r="P32" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q32">
         <v>2.38</v>
@@ -7542,7 +7545,7 @@
         <v>101</v>
       </c>
       <c r="P33" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -8444,7 +8447,7 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AQ37">
         <v>0.5</v>
@@ -8778,7 +8781,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q39">
         <v>2</v>
@@ -9190,7 +9193,7 @@
         <v>120</v>
       </c>
       <c r="P41" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q41">
         <v>2.25</v>
@@ -9396,7 +9399,7 @@
         <v>121</v>
       </c>
       <c r="P42" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q42">
         <v>3.2</v>
@@ -9602,7 +9605,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q43">
         <v>3.4</v>
@@ -10838,7 +10841,7 @@
         <v>125</v>
       </c>
       <c r="P49" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -11250,7 +11253,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q51">
         <v>2.25</v>
@@ -11331,7 +11334,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ51">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR51">
         <v>1.66</v>
@@ -11868,7 +11871,7 @@
         <v>128</v>
       </c>
       <c r="P54" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q54">
         <v>3.2</v>
@@ -12280,7 +12283,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q56">
         <v>1.95</v>
@@ -12770,7 +12773,7 @@
         <v>1.5</v>
       </c>
       <c r="AP58">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AQ58">
         <v>1.33</v>
@@ -13104,7 +13107,7 @@
         <v>118</v>
       </c>
       <c r="P60" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13516,7 +13519,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q62">
         <v>3.4</v>
@@ -14134,7 +14137,7 @@
         <v>135</v>
       </c>
       <c r="P65" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q65">
         <v>2.38</v>
@@ -14340,7 +14343,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q66">
         <v>2.3</v>
@@ -14752,7 +14755,7 @@
         <v>101</v>
       </c>
       <c r="P68" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q68">
         <v>3.6</v>
@@ -15988,7 +15991,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q74">
         <v>3</v>
@@ -16194,7 +16197,7 @@
         <v>90</v>
       </c>
       <c r="P75" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q75">
         <v>3.1</v>
@@ -16606,7 +16609,7 @@
         <v>139</v>
       </c>
       <c r="P77" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q77">
         <v>2.2</v>
@@ -16699,31 +16702,31 @@
         <v>3.11</v>
       </c>
       <c r="AU77">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV77">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW77">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="AX77">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY77">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="AZ77">
         <v>10</v>
       </c>
       <c r="BA77">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BB77">
         <v>1</v>
       </c>
       <c r="BC77">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD77">
         <v>1.42</v>
@@ -16763,6 +16766,212 @@
       </c>
       <c r="BP77">
         <v>1.42</v>
+      </c>
+    </row>
+    <row r="78" spans="1:68">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>7380403</v>
+      </c>
+      <c r="C78" t="s">
+        <v>68</v>
+      </c>
+      <c r="D78" t="s">
+        <v>69</v>
+      </c>
+      <c r="E78" s="2">
+        <v>45446.875</v>
+      </c>
+      <c r="F78">
+        <v>8</v>
+      </c>
+      <c r="G78" t="s">
+        <v>72</v>
+      </c>
+      <c r="H78" t="s">
+        <v>75</v>
+      </c>
+      <c r="I78">
+        <v>1</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>1</v>
+      </c>
+      <c r="L78">
+        <v>1</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>1</v>
+      </c>
+      <c r="O78" t="s">
+        <v>143</v>
+      </c>
+      <c r="P78" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q78">
+        <v>2.5</v>
+      </c>
+      <c r="R78">
+        <v>1.95</v>
+      </c>
+      <c r="S78">
+        <v>6</v>
+      </c>
+      <c r="T78">
+        <v>1.52</v>
+      </c>
+      <c r="U78">
+        <v>2.39</v>
+      </c>
+      <c r="V78">
+        <v>3.45</v>
+      </c>
+      <c r="W78">
+        <v>1.27</v>
+      </c>
+      <c r="X78">
+        <v>9.4</v>
+      </c>
+      <c r="Y78">
+        <v>1.03</v>
+      </c>
+      <c r="Z78">
+        <v>1.73</v>
+      </c>
+      <c r="AA78">
+        <v>3.4</v>
+      </c>
+      <c r="AB78">
+        <v>5.25</v>
+      </c>
+      <c r="AC78">
+        <v>1.08</v>
+      </c>
+      <c r="AD78">
+        <v>7.5</v>
+      </c>
+      <c r="AE78">
+        <v>1.45</v>
+      </c>
+      <c r="AF78">
+        <v>2.6</v>
+      </c>
+      <c r="AG78">
+        <v>2.6</v>
+      </c>
+      <c r="AH78">
+        <v>1.48</v>
+      </c>
+      <c r="AI78">
+        <v>2.5</v>
+      </c>
+      <c r="AJ78">
+        <v>1.5</v>
+      </c>
+      <c r="AK78">
+        <v>1.12</v>
+      </c>
+      <c r="AL78">
+        <v>1.25</v>
+      </c>
+      <c r="AM78">
+        <v>2</v>
+      </c>
+      <c r="AN78">
+        <v>1.67</v>
+      </c>
+      <c r="AO78">
+        <v>0.33</v>
+      </c>
+      <c r="AP78">
+        <v>2</v>
+      </c>
+      <c r="AQ78">
+        <v>0.25</v>
+      </c>
+      <c r="AR78">
+        <v>1.62</v>
+      </c>
+      <c r="AS78">
+        <v>1.11</v>
+      </c>
+      <c r="AT78">
+        <v>2.73</v>
+      </c>
+      <c r="AU78">
+        <v>6</v>
+      </c>
+      <c r="AV78">
+        <v>4</v>
+      </c>
+      <c r="AW78">
+        <v>3</v>
+      </c>
+      <c r="AX78">
+        <v>6</v>
+      </c>
+      <c r="AY78">
+        <v>9</v>
+      </c>
+      <c r="AZ78">
+        <v>10</v>
+      </c>
+      <c r="BA78">
+        <v>2</v>
+      </c>
+      <c r="BB78">
+        <v>6</v>
+      </c>
+      <c r="BC78">
+        <v>8</v>
+      </c>
+      <c r="BD78">
+        <v>1.49</v>
+      </c>
+      <c r="BE78">
+        <v>9</v>
+      </c>
+      <c r="BF78">
+        <v>3.24</v>
+      </c>
+      <c r="BG78">
+        <v>1.22</v>
+      </c>
+      <c r="BH78">
+        <v>4.2</v>
+      </c>
+      <c r="BI78">
+        <v>1.37</v>
+      </c>
+      <c r="BJ78">
+        <v>2.9</v>
+      </c>
+      <c r="BK78">
+        <v>2.1</v>
+      </c>
+      <c r="BL78">
+        <v>2.2</v>
+      </c>
+      <c r="BM78">
+        <v>2</v>
+      </c>
+      <c r="BN78">
+        <v>1.75</v>
+      </c>
+      <c r="BO78">
+        <v>2.55</v>
+      </c>
+      <c r="BP78">
+        <v>1.46</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="177">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -446,6 +446,12 @@
   </si>
   <si>
     <t>['35']</t>
+  </si>
+  <si>
+    <t>['22', '77', '86']</t>
+  </si>
+  <si>
+    <t>['59', '68']</t>
   </si>
   <si>
     <t>['62']</t>
@@ -900,7 +906,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP78"/>
+  <dimension ref="A1:BP80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1159,7 +1165,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1240,7 +1246,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ2">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1777,7 +1783,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q5">
         <v>2.75</v>
@@ -2189,7 +2195,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q7">
         <v>4.33</v>
@@ -2601,7 +2607,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -3013,7 +3019,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q11">
         <v>3.5</v>
@@ -3425,7 +3431,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q13">
         <v>3.6</v>
@@ -3631,7 +3637,7 @@
         <v>101</v>
       </c>
       <c r="P14" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q14">
         <v>4.75</v>
@@ -3837,7 +3843,7 @@
         <v>101</v>
       </c>
       <c r="P15" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4249,7 +4255,7 @@
         <v>102</v>
       </c>
       <c r="P17" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q17">
         <v>2.75</v>
@@ -4327,7 +4333,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ17">
         <v>1</v>
@@ -5073,7 +5079,7 @@
         <v>106</v>
       </c>
       <c r="P21" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5357,7 +5363,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ22">
         <v>1.75</v>
@@ -5485,7 +5491,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q23">
         <v>3.2</v>
@@ -5691,7 +5697,7 @@
         <v>107</v>
       </c>
       <c r="P24" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q24">
         <v>3.6</v>
@@ -5772,7 +5778,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ24">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR24">
         <v>1.66</v>
@@ -6103,7 +6109,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6309,7 +6315,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q27">
         <v>4</v>
@@ -6515,7 +6521,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6927,7 +6933,7 @@
         <v>112</v>
       </c>
       <c r="P30" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q30">
         <v>2.1</v>
@@ -7339,7 +7345,7 @@
         <v>113</v>
       </c>
       <c r="P32" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q32">
         <v>2.38</v>
@@ -7545,7 +7551,7 @@
         <v>101</v>
       </c>
       <c r="P33" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -8781,7 +8787,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q39">
         <v>2</v>
@@ -9193,7 +9199,7 @@
         <v>120</v>
       </c>
       <c r="P41" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q41">
         <v>2.25</v>
@@ -9399,7 +9405,7 @@
         <v>121</v>
       </c>
       <c r="P42" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q42">
         <v>3.2</v>
@@ -9605,7 +9611,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q43">
         <v>3.4</v>
@@ -10841,7 +10847,7 @@
         <v>125</v>
       </c>
       <c r="P49" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -11125,7 +11131,7 @@
         <v>2</v>
       </c>
       <c r="AP50">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ50">
         <v>1.25</v>
@@ -11253,7 +11259,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q51">
         <v>2.25</v>
@@ -11871,7 +11877,7 @@
         <v>128</v>
       </c>
       <c r="P54" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q54">
         <v>3.2</v>
@@ -12283,7 +12289,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q56">
         <v>1.95</v>
@@ -13107,7 +13113,7 @@
         <v>118</v>
       </c>
       <c r="P60" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13188,7 +13194,7 @@
         <v>1</v>
       </c>
       <c r="AQ60">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR60">
         <v>2.36</v>
@@ -13519,7 +13525,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q62">
         <v>3.4</v>
@@ -14137,7 +14143,7 @@
         <v>135</v>
       </c>
       <c r="P65" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q65">
         <v>2.38</v>
@@ -14343,7 +14349,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q66">
         <v>2.3</v>
@@ -14755,7 +14761,7 @@
         <v>101</v>
       </c>
       <c r="P68" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q68">
         <v>3.6</v>
@@ -15991,7 +15997,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q74">
         <v>3</v>
@@ -16197,7 +16203,7 @@
         <v>90</v>
       </c>
       <c r="P75" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q75">
         <v>3.1</v>
@@ -16609,7 +16615,7 @@
         <v>139</v>
       </c>
       <c r="P77" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q77">
         <v>2.2</v>
@@ -16720,13 +16726,13 @@
         <v>10</v>
       </c>
       <c r="BA77">
+        <v>8</v>
+      </c>
+      <c r="BB77">
+        <v>1</v>
+      </c>
+      <c r="BC77">
         <v>9</v>
-      </c>
-      <c r="BB77">
-        <v>1</v>
-      </c>
-      <c r="BC77">
-        <v>10</v>
       </c>
       <c r="BD77">
         <v>1.42</v>
@@ -16971,6 +16977,418 @@
         <v>2.55</v>
       </c>
       <c r="BP78">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="79" spans="1:68">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>7380398</v>
+      </c>
+      <c r="C79" t="s">
+        <v>68</v>
+      </c>
+      <c r="D79" t="s">
+        <v>69</v>
+      </c>
+      <c r="E79" s="2">
+        <v>45447.79166666666</v>
+      </c>
+      <c r="F79">
+        <v>8</v>
+      </c>
+      <c r="G79" t="s">
+        <v>89</v>
+      </c>
+      <c r="H79" t="s">
+        <v>83</v>
+      </c>
+      <c r="I79">
+        <v>1</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>1</v>
+      </c>
+      <c r="L79">
+        <v>3</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>3</v>
+      </c>
+      <c r="O79" t="s">
+        <v>144</v>
+      </c>
+      <c r="P79" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q79">
+        <v>2.6</v>
+      </c>
+      <c r="R79">
+        <v>1.95</v>
+      </c>
+      <c r="S79">
+        <v>5.5</v>
+      </c>
+      <c r="T79">
+        <v>1.5</v>
+      </c>
+      <c r="U79">
+        <v>2.5</v>
+      </c>
+      <c r="V79">
+        <v>3.4</v>
+      </c>
+      <c r="W79">
+        <v>1.3</v>
+      </c>
+      <c r="X79">
+        <v>10</v>
+      </c>
+      <c r="Y79">
+        <v>1.06</v>
+      </c>
+      <c r="Z79">
+        <v>1.8</v>
+      </c>
+      <c r="AA79">
+        <v>3.4</v>
+      </c>
+      <c r="AB79">
+        <v>4.5</v>
+      </c>
+      <c r="AC79">
+        <v>1.11</v>
+      </c>
+      <c r="AD79">
+        <v>8</v>
+      </c>
+      <c r="AE79">
+        <v>1.5</v>
+      </c>
+      <c r="AF79">
+        <v>2.84</v>
+      </c>
+      <c r="AG79">
+        <v>2.5</v>
+      </c>
+      <c r="AH79">
+        <v>1.5</v>
+      </c>
+      <c r="AI79">
+        <v>2.38</v>
+      </c>
+      <c r="AJ79">
+        <v>1.53</v>
+      </c>
+      <c r="AK79">
+        <v>1.19</v>
+      </c>
+      <c r="AL79">
+        <v>1.28</v>
+      </c>
+      <c r="AM79">
+        <v>1.88</v>
+      </c>
+      <c r="AN79">
+        <v>3</v>
+      </c>
+      <c r="AO79">
+        <v>0</v>
+      </c>
+      <c r="AP79">
+        <v>3</v>
+      </c>
+      <c r="AQ79">
+        <v>0</v>
+      </c>
+      <c r="AR79">
+        <v>1.59</v>
+      </c>
+      <c r="AS79">
+        <v>1.27</v>
+      </c>
+      <c r="AT79">
+        <v>2.86</v>
+      </c>
+      <c r="AU79">
+        <v>5</v>
+      </c>
+      <c r="AV79">
+        <v>4</v>
+      </c>
+      <c r="AW79">
+        <v>4</v>
+      </c>
+      <c r="AX79">
+        <v>4</v>
+      </c>
+      <c r="AY79">
+        <v>9</v>
+      </c>
+      <c r="AZ79">
+        <v>8</v>
+      </c>
+      <c r="BA79">
+        <v>2</v>
+      </c>
+      <c r="BB79">
+        <v>7</v>
+      </c>
+      <c r="BC79">
+        <v>9</v>
+      </c>
+      <c r="BD79">
+        <v>1.6</v>
+      </c>
+      <c r="BE79">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF79">
+        <v>2.91</v>
+      </c>
+      <c r="BG79">
+        <v>1.22</v>
+      </c>
+      <c r="BH79">
+        <v>4</v>
+      </c>
+      <c r="BI79">
+        <v>1.3</v>
+      </c>
+      <c r="BJ79">
+        <v>3.3</v>
+      </c>
+      <c r="BK79">
+        <v>1.91</v>
+      </c>
+      <c r="BL79">
+        <v>2.05</v>
+      </c>
+      <c r="BM79">
+        <v>1.92</v>
+      </c>
+      <c r="BN79">
+        <v>1.82</v>
+      </c>
+      <c r="BO79">
+        <v>2.5</v>
+      </c>
+      <c r="BP79">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="80" spans="1:68">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>7380404</v>
+      </c>
+      <c r="C80" t="s">
+        <v>68</v>
+      </c>
+      <c r="D80" t="s">
+        <v>69</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45447.89583333334</v>
+      </c>
+      <c r="F80">
+        <v>8</v>
+      </c>
+      <c r="G80" t="s">
+        <v>85</v>
+      </c>
+      <c r="H80" t="s">
+        <v>86</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>2</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>2</v>
+      </c>
+      <c r="O80" t="s">
+        <v>145</v>
+      </c>
+      <c r="P80" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q80">
+        <v>3.5</v>
+      </c>
+      <c r="R80">
+        <v>2</v>
+      </c>
+      <c r="S80">
+        <v>3.5</v>
+      </c>
+      <c r="T80">
+        <v>1.53</v>
+      </c>
+      <c r="U80">
+        <v>2.38</v>
+      </c>
+      <c r="V80">
+        <v>3.5</v>
+      </c>
+      <c r="W80">
+        <v>1.29</v>
+      </c>
+      <c r="X80">
+        <v>11</v>
+      </c>
+      <c r="Y80">
+        <v>1.05</v>
+      </c>
+      <c r="Z80">
+        <v>2.75</v>
+      </c>
+      <c r="AA80">
+        <v>3</v>
+      </c>
+      <c r="AB80">
+        <v>2.7</v>
+      </c>
+      <c r="AC80">
+        <v>1.1</v>
+      </c>
+      <c r="AD80">
+        <v>6</v>
+      </c>
+      <c r="AE80">
+        <v>1.48</v>
+      </c>
+      <c r="AF80">
+        <v>2.35</v>
+      </c>
+      <c r="AG80">
+        <v>2.4</v>
+      </c>
+      <c r="AH80">
+        <v>1.53</v>
+      </c>
+      <c r="AI80">
+        <v>2</v>
+      </c>
+      <c r="AJ80">
+        <v>1.73</v>
+      </c>
+      <c r="AK80">
+        <v>1.5</v>
+      </c>
+      <c r="AL80">
+        <v>1.3</v>
+      </c>
+      <c r="AM80">
+        <v>1.4</v>
+      </c>
+      <c r="AN80">
+        <v>1</v>
+      </c>
+      <c r="AO80">
+        <v>1.67</v>
+      </c>
+      <c r="AP80">
+        <v>1.5</v>
+      </c>
+      <c r="AQ80">
+        <v>1.25</v>
+      </c>
+      <c r="AR80">
+        <v>1.12</v>
+      </c>
+      <c r="AS80">
+        <v>1.3</v>
+      </c>
+      <c r="AT80">
+        <v>2.42</v>
+      </c>
+      <c r="AU80">
+        <v>4</v>
+      </c>
+      <c r="AV80">
+        <v>4</v>
+      </c>
+      <c r="AW80">
+        <v>4</v>
+      </c>
+      <c r="AX80">
+        <v>6</v>
+      </c>
+      <c r="AY80">
+        <v>8</v>
+      </c>
+      <c r="AZ80">
+        <v>10</v>
+      </c>
+      <c r="BA80">
+        <v>7</v>
+      </c>
+      <c r="BB80">
+        <v>5</v>
+      </c>
+      <c r="BC80">
+        <v>12</v>
+      </c>
+      <c r="BD80">
+        <v>1.87</v>
+      </c>
+      <c r="BE80">
+        <v>7.5</v>
+      </c>
+      <c r="BF80">
+        <v>2.37</v>
+      </c>
+      <c r="BG80">
+        <v>1.22</v>
+      </c>
+      <c r="BH80">
+        <v>4.2</v>
+      </c>
+      <c r="BI80">
+        <v>1.37</v>
+      </c>
+      <c r="BJ80">
+        <v>2.9</v>
+      </c>
+      <c r="BK80">
+        <v>2.1</v>
+      </c>
+      <c r="BL80">
+        <v>2.1</v>
+      </c>
+      <c r="BM80">
+        <v>2</v>
+      </c>
+      <c r="BN80">
+        <v>1.75</v>
+      </c>
+      <c r="BO80">
+        <v>2.55</v>
+      </c>
+      <c r="BP80">
         <v>1.46</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="184">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -454,6 +454,15 @@
     <t>['59', '68']</t>
   </si>
   <si>
+    <t>['11', '19', '45+1', '70']</t>
+  </si>
+  <si>
+    <t>['21', '52', '80']</t>
+  </si>
+  <si>
+    <t>['52', '90+1']</t>
+  </si>
+  <si>
     <t>['62']</t>
   </si>
   <si>
@@ -545,6 +554,18 @@
   </si>
   <si>
     <t>['43', '51']</t>
+  </si>
+  <si>
+    <t>['52', '80']</t>
+  </si>
+  <si>
+    <t>['48']</t>
+  </si>
+  <si>
+    <t>['64']</t>
+  </si>
+  <si>
+    <t>['42']</t>
   </si>
 </sst>
 </file>
@@ -906,7 +927,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP80"/>
+  <dimension ref="A1:BP84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1165,7 +1186,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1449,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ3">
         <v>0.25</v>
@@ -1783,7 +1804,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q5">
         <v>2.75</v>
@@ -2195,7 +2216,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q7">
         <v>4.33</v>
@@ -2273,7 +2294,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ7">
         <v>1.5</v>
@@ -2607,7 +2628,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -3019,7 +3040,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q11">
         <v>3.5</v>
@@ -3431,7 +3452,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q13">
         <v>3.6</v>
@@ -3512,7 +3533,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ13">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3637,7 +3658,7 @@
         <v>101</v>
       </c>
       <c r="P14" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q14">
         <v>4.75</v>
@@ -3718,7 +3739,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ14">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -3843,7 +3864,7 @@
         <v>101</v>
       </c>
       <c r="P15" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -3921,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ15">
         <v>1</v>
@@ -4255,7 +4276,7 @@
         <v>102</v>
       </c>
       <c r="P17" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q17">
         <v>2.75</v>
@@ -4745,10 +4766,10 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ19">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5079,7 +5100,7 @@
         <v>106</v>
       </c>
       <c r="P21" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5491,7 +5512,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q23">
         <v>3.2</v>
@@ -5569,7 +5590,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ23">
         <v>1.5</v>
@@ -5697,7 +5718,7 @@
         <v>107</v>
       </c>
       <c r="P24" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q24">
         <v>3.6</v>
@@ -5984,7 +6005,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ25">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR25">
         <v>1.46</v>
@@ -6109,7 +6130,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6315,7 +6336,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q27">
         <v>4</v>
@@ -6521,7 +6542,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6933,7 +6954,7 @@
         <v>112</v>
       </c>
       <c r="P30" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q30">
         <v>2.1</v>
@@ -7345,7 +7366,7 @@
         <v>113</v>
       </c>
       <c r="P32" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q32">
         <v>2.38</v>
@@ -7551,7 +7572,7 @@
         <v>101</v>
       </c>
       <c r="P33" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -7629,7 +7650,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ33">
         <v>1.33</v>
@@ -8247,7 +8268,7 @@
         <v>1</v>
       </c>
       <c r="AP36">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ36">
         <v>1</v>
@@ -8659,10 +8680,10 @@
         <v>3</v>
       </c>
       <c r="AP38">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ38">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR38">
         <v>1.12</v>
@@ -8787,7 +8808,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q39">
         <v>2</v>
@@ -8868,7 +8889,7 @@
         <v>2</v>
       </c>
       <c r="AQ39">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR39">
         <v>1.25</v>
@@ -9199,7 +9220,7 @@
         <v>120</v>
       </c>
       <c r="P41" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q41">
         <v>2.25</v>
@@ -9405,7 +9426,7 @@
         <v>121</v>
       </c>
       <c r="P42" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q42">
         <v>3.2</v>
@@ -9611,7 +9632,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q43">
         <v>3.4</v>
@@ -10101,7 +10122,7 @@
         <v>0</v>
       </c>
       <c r="AP45">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ45">
         <v>0</v>
@@ -10310,7 +10331,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ46">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR46">
         <v>1.4</v>
@@ -10847,7 +10868,7 @@
         <v>125</v>
       </c>
       <c r="P49" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -10928,7 +10949,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ49">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR49">
         <v>1.83</v>
@@ -11259,7 +11280,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q51">
         <v>2.25</v>
@@ -11749,7 +11770,7 @@
         <v>0.5</v>
       </c>
       <c r="AP53">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ53">
         <v>0.5</v>
@@ -11877,7 +11898,7 @@
         <v>128</v>
       </c>
       <c r="P54" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q54">
         <v>3.2</v>
@@ -11955,7 +11976,7 @@
         <v>0</v>
       </c>
       <c r="AP54">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ54">
         <v>0.5</v>
@@ -12289,7 +12310,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q56">
         <v>1.95</v>
@@ -12576,7 +12597,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ57">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR57">
         <v>1.24</v>
@@ -13113,7 +13134,7 @@
         <v>118</v>
       </c>
       <c r="P60" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13191,7 +13212,7 @@
         <v>1</v>
       </c>
       <c r="AP60">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ60">
         <v>1.25</v>
@@ -13525,7 +13546,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q62">
         <v>3.4</v>
@@ -13606,7 +13627,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ62">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR62">
         <v>2.09</v>
@@ -13809,7 +13830,7 @@
         <v>0.33</v>
       </c>
       <c r="AP63">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ63">
         <v>0.5</v>
@@ -14143,7 +14164,7 @@
         <v>135</v>
       </c>
       <c r="P65" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q65">
         <v>2.38</v>
@@ -14224,7 +14245,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ65">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR65">
         <v>1.27</v>
@@ -14349,7 +14370,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q66">
         <v>2.3</v>
@@ -14633,10 +14654,10 @@
         <v>1.33</v>
       </c>
       <c r="AP67">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ67">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR67">
         <v>1.62</v>
@@ -14761,7 +14782,7 @@
         <v>101</v>
       </c>
       <c r="P68" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q68">
         <v>3.6</v>
@@ -15251,7 +15272,7 @@
         <v>0.67</v>
       </c>
       <c r="AP70">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ70">
         <v>0.5</v>
@@ -15997,7 +16018,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q74">
         <v>3</v>
@@ -16203,7 +16224,7 @@
         <v>90</v>
       </c>
       <c r="P75" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q75">
         <v>3.1</v>
@@ -16615,7 +16636,7 @@
         <v>139</v>
       </c>
       <c r="P77" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q77">
         <v>2.2</v>
@@ -17390,6 +17411,830 @@
       </c>
       <c r="BP80">
         <v>1.46</v>
+      </c>
+    </row>
+    <row r="81" spans="1:68">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>7380413</v>
+      </c>
+      <c r="C81" t="s">
+        <v>68</v>
+      </c>
+      <c r="D81" t="s">
+        <v>69</v>
+      </c>
+      <c r="E81" s="2">
+        <v>45450.79166666666</v>
+      </c>
+      <c r="F81">
+        <v>9</v>
+      </c>
+      <c r="G81" t="s">
+        <v>87</v>
+      </c>
+      <c r="H81" t="s">
+        <v>81</v>
+      </c>
+      <c r="I81">
+        <v>3</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>3</v>
+      </c>
+      <c r="L81">
+        <v>4</v>
+      </c>
+      <c r="M81">
+        <v>2</v>
+      </c>
+      <c r="N81">
+        <v>6</v>
+      </c>
+      <c r="O81" t="s">
+        <v>146</v>
+      </c>
+      <c r="P81" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q81">
+        <v>2.05</v>
+      </c>
+      <c r="R81">
+        <v>2.2</v>
+      </c>
+      <c r="S81">
+        <v>7.5</v>
+      </c>
+      <c r="T81">
+        <v>1.4</v>
+      </c>
+      <c r="U81">
+        <v>2.7</v>
+      </c>
+      <c r="V81">
+        <v>2.95</v>
+      </c>
+      <c r="W81">
+        <v>1.35</v>
+      </c>
+      <c r="X81">
+        <v>6.5</v>
+      </c>
+      <c r="Y81">
+        <v>1.07</v>
+      </c>
+      <c r="Z81">
+        <v>1.45</v>
+      </c>
+      <c r="AA81">
+        <v>4.33</v>
+      </c>
+      <c r="AB81">
+        <v>7</v>
+      </c>
+      <c r="AC81">
+        <v>1.05</v>
+      </c>
+      <c r="AD81">
+        <v>9</v>
+      </c>
+      <c r="AE81">
+        <v>1.33</v>
+      </c>
+      <c r="AF81">
+        <v>3.2</v>
+      </c>
+      <c r="AG81">
+        <v>2.15</v>
+      </c>
+      <c r="AH81">
+        <v>1.67</v>
+      </c>
+      <c r="AI81">
+        <v>2.38</v>
+      </c>
+      <c r="AJ81">
+        <v>1.53</v>
+      </c>
+      <c r="AK81">
+        <v>1.07</v>
+      </c>
+      <c r="AL81">
+        <v>1.17</v>
+      </c>
+      <c r="AM81">
+        <v>2.85</v>
+      </c>
+      <c r="AN81">
+        <v>2.25</v>
+      </c>
+      <c r="AO81">
+        <v>0</v>
+      </c>
+      <c r="AP81">
+        <v>2.4</v>
+      </c>
+      <c r="AQ81">
+        <v>0</v>
+      </c>
+      <c r="AR81">
+        <v>1.59</v>
+      </c>
+      <c r="AS81">
+        <v>0.91</v>
+      </c>
+      <c r="AT81">
+        <v>2.5</v>
+      </c>
+      <c r="AU81">
+        <v>12</v>
+      </c>
+      <c r="AV81">
+        <v>5</v>
+      </c>
+      <c r="AW81">
+        <v>7</v>
+      </c>
+      <c r="AX81">
+        <v>9</v>
+      </c>
+      <c r="AY81">
+        <v>19</v>
+      </c>
+      <c r="AZ81">
+        <v>14</v>
+      </c>
+      <c r="BA81">
+        <v>7</v>
+      </c>
+      <c r="BB81">
+        <v>4</v>
+      </c>
+      <c r="BC81">
+        <v>11</v>
+      </c>
+      <c r="BD81">
+        <v>1.26</v>
+      </c>
+      <c r="BE81">
+        <v>10.75</v>
+      </c>
+      <c r="BF81">
+        <v>4.6</v>
+      </c>
+      <c r="BG81">
+        <v>1.21</v>
+      </c>
+      <c r="BH81">
+        <v>3.74</v>
+      </c>
+      <c r="BI81">
+        <v>1.41</v>
+      </c>
+      <c r="BJ81">
+        <v>2.6</v>
+      </c>
+      <c r="BK81">
+        <v>2.2</v>
+      </c>
+      <c r="BL81">
+        <v>1.99</v>
+      </c>
+      <c r="BM81">
+        <v>2.15</v>
+      </c>
+      <c r="BN81">
+        <v>1.59</v>
+      </c>
+      <c r="BO81">
+        <v>2.88</v>
+      </c>
+      <c r="BP81">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="82" spans="1:68">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>7380409</v>
+      </c>
+      <c r="C82" t="s">
+        <v>68</v>
+      </c>
+      <c r="D82" t="s">
+        <v>69</v>
+      </c>
+      <c r="E82" s="2">
+        <v>45450.875</v>
+      </c>
+      <c r="F82">
+        <v>9</v>
+      </c>
+      <c r="G82" t="s">
+        <v>71</v>
+      </c>
+      <c r="H82" t="s">
+        <v>74</v>
+      </c>
+      <c r="I82">
+        <v>1</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>1</v>
+      </c>
+      <c r="L82">
+        <v>3</v>
+      </c>
+      <c r="M82">
+        <v>1</v>
+      </c>
+      <c r="N82">
+        <v>4</v>
+      </c>
+      <c r="O82" t="s">
+        <v>147</v>
+      </c>
+      <c r="P82" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q82">
+        <v>4</v>
+      </c>
+      <c r="R82">
+        <v>1.91</v>
+      </c>
+      <c r="S82">
+        <v>3.4</v>
+      </c>
+      <c r="T82">
+        <v>1.55</v>
+      </c>
+      <c r="U82">
+        <v>2.3</v>
+      </c>
+      <c r="V82">
+        <v>3.55</v>
+      </c>
+      <c r="W82">
+        <v>1.25</v>
+      </c>
+      <c r="X82">
+        <v>9.5</v>
+      </c>
+      <c r="Y82">
+        <v>1.04</v>
+      </c>
+      <c r="Z82">
+        <v>3.1</v>
+      </c>
+      <c r="AA82">
+        <v>3</v>
+      </c>
+      <c r="AB82">
+        <v>2.5</v>
+      </c>
+      <c r="AC82">
+        <v>1.08</v>
+      </c>
+      <c r="AD82">
+        <v>7.5</v>
+      </c>
+      <c r="AE82">
+        <v>1.45</v>
+      </c>
+      <c r="AF82">
+        <v>2.7</v>
+      </c>
+      <c r="AG82">
+        <v>2.7</v>
+      </c>
+      <c r="AH82">
+        <v>1.44</v>
+      </c>
+      <c r="AI82">
+        <v>2.2</v>
+      </c>
+      <c r="AJ82">
+        <v>1.62</v>
+      </c>
+      <c r="AK82">
+        <v>1.5</v>
+      </c>
+      <c r="AL82">
+        <v>1.28</v>
+      </c>
+      <c r="AM82">
+        <v>1.42</v>
+      </c>
+      <c r="AN82">
+        <v>1.33</v>
+      </c>
+      <c r="AO82">
+        <v>1.5</v>
+      </c>
+      <c r="AP82">
+        <v>1.75</v>
+      </c>
+      <c r="AQ82">
+        <v>1.2</v>
+      </c>
+      <c r="AR82">
+        <v>1.94</v>
+      </c>
+      <c r="AS82">
+        <v>1.29</v>
+      </c>
+      <c r="AT82">
+        <v>3.23</v>
+      </c>
+      <c r="AU82">
+        <v>9</v>
+      </c>
+      <c r="AV82">
+        <v>8</v>
+      </c>
+      <c r="AW82">
+        <v>7</v>
+      </c>
+      <c r="AX82">
+        <v>6</v>
+      </c>
+      <c r="AY82">
+        <v>16</v>
+      </c>
+      <c r="AZ82">
+        <v>14</v>
+      </c>
+      <c r="BA82">
+        <v>3</v>
+      </c>
+      <c r="BB82">
+        <v>1</v>
+      </c>
+      <c r="BC82">
+        <v>4</v>
+      </c>
+      <c r="BD82">
+        <v>2</v>
+      </c>
+      <c r="BE82">
+        <v>8.9</v>
+      </c>
+      <c r="BF82">
+        <v>2.03</v>
+      </c>
+      <c r="BG82">
+        <v>1.17</v>
+      </c>
+      <c r="BH82">
+        <v>4.5</v>
+      </c>
+      <c r="BI82">
+        <v>1.26</v>
+      </c>
+      <c r="BJ82">
+        <v>3.34</v>
+      </c>
+      <c r="BK82">
+        <v>1.91</v>
+      </c>
+      <c r="BL82">
+        <v>2.42</v>
+      </c>
+      <c r="BM82">
+        <v>1.81</v>
+      </c>
+      <c r="BN82">
+        <v>1.89</v>
+      </c>
+      <c r="BO82">
+        <v>2.28</v>
+      </c>
+      <c r="BP82">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="83" spans="1:68">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>7380414</v>
+      </c>
+      <c r="C83" t="s">
+        <v>68</v>
+      </c>
+      <c r="D83" t="s">
+        <v>69</v>
+      </c>
+      <c r="E83" s="2">
+        <v>45451.70833333334</v>
+      </c>
+      <c r="F83">
+        <v>9</v>
+      </c>
+      <c r="G83" t="s">
+        <v>75</v>
+      </c>
+      <c r="H83" t="s">
+        <v>79</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>2</v>
+      </c>
+      <c r="M83">
+        <v>1</v>
+      </c>
+      <c r="N83">
+        <v>3</v>
+      </c>
+      <c r="O83" t="s">
+        <v>148</v>
+      </c>
+      <c r="P83" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q83">
+        <v>2.75</v>
+      </c>
+      <c r="R83">
+        <v>1.95</v>
+      </c>
+      <c r="S83">
+        <v>5</v>
+      </c>
+      <c r="T83">
+        <v>1.57</v>
+      </c>
+      <c r="U83">
+        <v>2.25</v>
+      </c>
+      <c r="V83">
+        <v>3.55</v>
+      </c>
+      <c r="W83">
+        <v>1.25</v>
+      </c>
+      <c r="X83">
+        <v>7.8</v>
+      </c>
+      <c r="Y83">
+        <v>1.03</v>
+      </c>
+      <c r="Z83">
+        <v>2.22</v>
+      </c>
+      <c r="AA83">
+        <v>2.27</v>
+      </c>
+      <c r="AB83">
+        <v>4.56</v>
+      </c>
+      <c r="AC83">
+        <v>1.1</v>
+      </c>
+      <c r="AD83">
+        <v>6.5</v>
+      </c>
+      <c r="AE83">
+        <v>1.5</v>
+      </c>
+      <c r="AF83">
+        <v>2.4</v>
+      </c>
+      <c r="AG83">
+        <v>2.4</v>
+      </c>
+      <c r="AH83">
+        <v>1.5</v>
+      </c>
+      <c r="AI83">
+        <v>2.2</v>
+      </c>
+      <c r="AJ83">
+        <v>1.62</v>
+      </c>
+      <c r="AK83">
+        <v>1.25</v>
+      </c>
+      <c r="AL83">
+        <v>1.3</v>
+      </c>
+      <c r="AM83">
+        <v>1.7</v>
+      </c>
+      <c r="AN83">
+        <v>1.75</v>
+      </c>
+      <c r="AO83">
+        <v>0.25</v>
+      </c>
+      <c r="AP83">
+        <v>2</v>
+      </c>
+      <c r="AQ83">
+        <v>0.2</v>
+      </c>
+      <c r="AR83">
+        <v>1.29</v>
+      </c>
+      <c r="AS83">
+        <v>1.19</v>
+      </c>
+      <c r="AT83">
+        <v>2.48</v>
+      </c>
+      <c r="AU83">
+        <v>8</v>
+      </c>
+      <c r="AV83">
+        <v>6</v>
+      </c>
+      <c r="AW83">
+        <v>11</v>
+      </c>
+      <c r="AX83">
+        <v>3</v>
+      </c>
+      <c r="AY83">
+        <v>19</v>
+      </c>
+      <c r="AZ83">
+        <v>9</v>
+      </c>
+      <c r="BA83">
+        <v>12</v>
+      </c>
+      <c r="BB83">
+        <v>1</v>
+      </c>
+      <c r="BC83">
+        <v>13</v>
+      </c>
+      <c r="BD83">
+        <v>1.57</v>
+      </c>
+      <c r="BE83">
+        <v>7.6</v>
+      </c>
+      <c r="BF83">
+        <v>3.1</v>
+      </c>
+      <c r="BG83">
+        <v>1.32</v>
+      </c>
+      <c r="BH83">
+        <v>3.1</v>
+      </c>
+      <c r="BI83">
+        <v>1.57</v>
+      </c>
+      <c r="BJ83">
+        <v>2.26</v>
+      </c>
+      <c r="BK83">
+        <v>1.98</v>
+      </c>
+      <c r="BL83">
+        <v>1.82</v>
+      </c>
+      <c r="BM83">
+        <v>2.46</v>
+      </c>
+      <c r="BN83">
+        <v>1.48</v>
+      </c>
+      <c r="BO83">
+        <v>3.2</v>
+      </c>
+      <c r="BP83">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="84" spans="1:68">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>7380407</v>
+      </c>
+      <c r="C84" t="s">
+        <v>68</v>
+      </c>
+      <c r="D84" t="s">
+        <v>69</v>
+      </c>
+      <c r="E84" s="2">
+        <v>45451.70833333334</v>
+      </c>
+      <c r="F84">
+        <v>9</v>
+      </c>
+      <c r="G84" t="s">
+        <v>83</v>
+      </c>
+      <c r="H84" t="s">
+        <v>72</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>1</v>
+      </c>
+      <c r="K84">
+        <v>1</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="M84">
+        <v>1</v>
+      </c>
+      <c r="N84">
+        <v>1</v>
+      </c>
+      <c r="O84" t="s">
+        <v>101</v>
+      </c>
+      <c r="P84" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q84">
+        <v>3.2</v>
+      </c>
+      <c r="R84">
+        <v>1.83</v>
+      </c>
+      <c r="S84">
+        <v>4.33</v>
+      </c>
+      <c r="T84">
+        <v>1.57</v>
+      </c>
+      <c r="U84">
+        <v>2.25</v>
+      </c>
+      <c r="V84">
+        <v>3.75</v>
+      </c>
+      <c r="W84">
+        <v>1.25</v>
+      </c>
+      <c r="X84">
+        <v>13</v>
+      </c>
+      <c r="Y84">
+        <v>1.04</v>
+      </c>
+      <c r="Z84">
+        <v>2.24</v>
+      </c>
+      <c r="AA84">
+        <v>2.65</v>
+      </c>
+      <c r="AB84">
+        <v>3.53</v>
+      </c>
+      <c r="AC84">
+        <v>1.09</v>
+      </c>
+      <c r="AD84">
+        <v>5.8</v>
+      </c>
+      <c r="AE84">
+        <v>1.5</v>
+      </c>
+      <c r="AF84">
+        <v>2.4</v>
+      </c>
+      <c r="AG84">
+        <v>2.55</v>
+      </c>
+      <c r="AH84">
+        <v>1.45</v>
+      </c>
+      <c r="AI84">
+        <v>2.38</v>
+      </c>
+      <c r="AJ84">
+        <v>1.53</v>
+      </c>
+      <c r="AK84">
+        <v>1.36</v>
+      </c>
+      <c r="AL84">
+        <v>1.48</v>
+      </c>
+      <c r="AM84">
+        <v>1.65</v>
+      </c>
+      <c r="AN84">
+        <v>1</v>
+      </c>
+      <c r="AO84">
+        <v>1</v>
+      </c>
+      <c r="AP84">
+        <v>0.8</v>
+      </c>
+      <c r="AQ84">
+        <v>1.4</v>
+      </c>
+      <c r="AR84">
+        <v>1.96</v>
+      </c>
+      <c r="AS84">
+        <v>1.49</v>
+      </c>
+      <c r="AT84">
+        <v>3.45</v>
+      </c>
+      <c r="AU84">
+        <v>6</v>
+      </c>
+      <c r="AV84">
+        <v>3</v>
+      </c>
+      <c r="AW84">
+        <v>8</v>
+      </c>
+      <c r="AX84">
+        <v>4</v>
+      </c>
+      <c r="AY84">
+        <v>14</v>
+      </c>
+      <c r="AZ84">
+        <v>7</v>
+      </c>
+      <c r="BA84">
+        <v>7</v>
+      </c>
+      <c r="BB84">
+        <v>5</v>
+      </c>
+      <c r="BC84">
+        <v>12</v>
+      </c>
+      <c r="BD84">
+        <v>1.8</v>
+      </c>
+      <c r="BE84">
+        <v>9</v>
+      </c>
+      <c r="BF84">
+        <v>2.28</v>
+      </c>
+      <c r="BG84">
+        <v>1.2</v>
+      </c>
+      <c r="BH84">
+        <v>4.25</v>
+      </c>
+      <c r="BI84">
+        <v>1.38</v>
+      </c>
+      <c r="BJ84">
+        <v>2.9</v>
+      </c>
+      <c r="BK84">
+        <v>2.1</v>
+      </c>
+      <c r="BL84">
+        <v>2.12</v>
+      </c>
+      <c r="BM84">
+        <v>2.12</v>
+      </c>
+      <c r="BN84">
+        <v>1.67</v>
+      </c>
+      <c r="BO84">
+        <v>2.85</v>
+      </c>
+      <c r="BP84">
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="185">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -461,6 +461,9 @@
   </si>
   <si>
     <t>['52', '90+1']</t>
+  </si>
+  <si>
+    <t>['13', '51']</t>
   </si>
   <si>
     <t>['62']</t>
@@ -927,7 +930,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP84"/>
+  <dimension ref="A1:BP86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1186,7 +1189,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1804,7 +1807,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q5">
         <v>2.75</v>
@@ -2216,7 +2219,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q7">
         <v>4.33</v>
@@ -2628,7 +2631,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -3040,7 +3043,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q11">
         <v>3.5</v>
@@ -3452,7 +3455,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q13">
         <v>3.6</v>
@@ -3658,7 +3661,7 @@
         <v>101</v>
       </c>
       <c r="P14" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q14">
         <v>4.75</v>
@@ -3736,7 +3739,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ14">
         <v>1.2</v>
@@ -3864,7 +3867,7 @@
         <v>101</v>
       </c>
       <c r="P15" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4276,7 +4279,7 @@
         <v>102</v>
       </c>
       <c r="P17" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q17">
         <v>2.75</v>
@@ -4560,7 +4563,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ18">
         <v>1.4</v>
@@ -4975,7 +4978,7 @@
         <v>3</v>
       </c>
       <c r="AQ20">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5100,7 +5103,7 @@
         <v>106</v>
       </c>
       <c r="P21" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5512,7 +5515,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q23">
         <v>3.2</v>
@@ -5718,7 +5721,7 @@
         <v>107</v>
       </c>
       <c r="P24" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q24">
         <v>3.6</v>
@@ -6130,7 +6133,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6336,7 +6339,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q27">
         <v>4</v>
@@ -6542,7 +6545,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6954,7 +6957,7 @@
         <v>112</v>
       </c>
       <c r="P30" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q30">
         <v>2.1</v>
@@ -7366,7 +7369,7 @@
         <v>113</v>
       </c>
       <c r="P32" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q32">
         <v>2.38</v>
@@ -7444,7 +7447,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ32">
         <v>0.25</v>
@@ -7572,7 +7575,7 @@
         <v>101</v>
       </c>
       <c r="P33" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -8477,7 +8480,7 @@
         <v>2</v>
       </c>
       <c r="AQ37">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR37">
         <v>1.35</v>
@@ -8808,7 +8811,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q39">
         <v>2</v>
@@ -9092,7 +9095,7 @@
         <v>1</v>
       </c>
       <c r="AP40">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ40">
         <v>0.5</v>
@@ -9220,7 +9223,7 @@
         <v>120</v>
       </c>
       <c r="P41" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q41">
         <v>2.25</v>
@@ -9426,7 +9429,7 @@
         <v>121</v>
       </c>
       <c r="P42" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q42">
         <v>3.2</v>
@@ -9632,7 +9635,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q43">
         <v>3.4</v>
@@ -9710,7 +9713,7 @@
         <v>0.5</v>
       </c>
       <c r="AP43">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ43">
         <v>0.25</v>
@@ -10740,7 +10743,7 @@
         <v>0.5</v>
       </c>
       <c r="AP48">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ48">
         <v>0.5</v>
@@ -10868,7 +10871,7 @@
         <v>125</v>
       </c>
       <c r="P49" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -11280,7 +11283,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q51">
         <v>2.25</v>
@@ -11898,7 +11901,7 @@
         <v>128</v>
       </c>
       <c r="P54" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q54">
         <v>3.2</v>
@@ -12310,7 +12313,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q56">
         <v>1.95</v>
@@ -13134,7 +13137,7 @@
         <v>118</v>
       </c>
       <c r="P60" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13421,7 +13424,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ61">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR61">
         <v>1.31</v>
@@ -13546,7 +13549,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q62">
         <v>3.4</v>
@@ -13624,7 +13627,7 @@
         <v>2</v>
       </c>
       <c r="AP62">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ62">
         <v>1.2</v>
@@ -14039,7 +14042,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ64">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR64">
         <v>1.17</v>
@@ -14164,7 +14167,7 @@
         <v>135</v>
       </c>
       <c r="P65" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q65">
         <v>2.38</v>
@@ -14370,7 +14373,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q66">
         <v>2.3</v>
@@ -14782,7 +14785,7 @@
         <v>101</v>
       </c>
       <c r="P68" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q68">
         <v>3.6</v>
@@ -15066,7 +15069,7 @@
         <v>1.67</v>
       </c>
       <c r="AP69">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ69">
         <v>1.25</v>
@@ -16018,7 +16021,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q74">
         <v>3</v>
@@ -16224,7 +16227,7 @@
         <v>90</v>
       </c>
       <c r="P75" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q75">
         <v>3.1</v>
@@ -16636,7 +16639,7 @@
         <v>139</v>
       </c>
       <c r="P77" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q77">
         <v>2.2</v>
@@ -17460,7 +17463,7 @@
         <v>146</v>
       </c>
       <c r="P81" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q81">
         <v>2.05</v>
@@ -17666,7 +17669,7 @@
         <v>147</v>
       </c>
       <c r="P82" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q82">
         <v>4</v>
@@ -17872,7 +17875,7 @@
         <v>148</v>
       </c>
       <c r="P83" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q83">
         <v>2.75</v>
@@ -18078,7 +18081,7 @@
         <v>101</v>
       </c>
       <c r="P84" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q84">
         <v>3.2</v>
@@ -18234,6 +18237,418 @@
         <v>2.85</v>
       </c>
       <c r="BP84">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="85" spans="1:68">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>7380411</v>
+      </c>
+      <c r="C85" t="s">
+        <v>68</v>
+      </c>
+      <c r="D85" t="s">
+        <v>69</v>
+      </c>
+      <c r="E85" s="2">
+        <v>45452.66666666666</v>
+      </c>
+      <c r="F85">
+        <v>9</v>
+      </c>
+      <c r="G85" t="s">
+        <v>82</v>
+      </c>
+      <c r="H85" t="s">
+        <v>73</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
+      </c>
+      <c r="N85">
+        <v>0</v>
+      </c>
+      <c r="O85" t="s">
+        <v>101</v>
+      </c>
+      <c r="P85" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q85">
+        <v>2.5</v>
+      </c>
+      <c r="R85">
+        <v>2</v>
+      </c>
+      <c r="S85">
+        <v>5.5</v>
+      </c>
+      <c r="T85">
+        <v>1.53</v>
+      </c>
+      <c r="U85">
+        <v>2.35</v>
+      </c>
+      <c r="V85">
+        <v>3.55</v>
+      </c>
+      <c r="W85">
+        <v>1.25</v>
+      </c>
+      <c r="X85">
+        <v>7.8</v>
+      </c>
+      <c r="Y85">
+        <v>1.04</v>
+      </c>
+      <c r="Z85">
+        <v>1.67</v>
+      </c>
+      <c r="AA85">
+        <v>3.25</v>
+      </c>
+      <c r="AB85">
+        <v>4.6</v>
+      </c>
+      <c r="AC85">
+        <v>1.09</v>
+      </c>
+      <c r="AD85">
+        <v>7</v>
+      </c>
+      <c r="AE85">
+        <v>1.5</v>
+      </c>
+      <c r="AF85">
+        <v>2.4</v>
+      </c>
+      <c r="AG85">
+        <v>2.3</v>
+      </c>
+      <c r="AH85">
+        <v>1.55</v>
+      </c>
+      <c r="AI85">
+        <v>2.25</v>
+      </c>
+      <c r="AJ85">
+        <v>1.57</v>
+      </c>
+      <c r="AK85">
+        <v>1.22</v>
+      </c>
+      <c r="AL85">
+        <v>1.28</v>
+      </c>
+      <c r="AM85">
+        <v>1.83</v>
+      </c>
+      <c r="AN85">
+        <v>2.25</v>
+      </c>
+      <c r="AO85">
+        <v>1</v>
+      </c>
+      <c r="AP85">
+        <v>2</v>
+      </c>
+      <c r="AQ85">
+        <v>1</v>
+      </c>
+      <c r="AR85">
+        <v>1.43</v>
+      </c>
+      <c r="AS85">
+        <v>0.91</v>
+      </c>
+      <c r="AT85">
+        <v>2.34</v>
+      </c>
+      <c r="AU85">
+        <v>3</v>
+      </c>
+      <c r="AV85">
+        <v>4</v>
+      </c>
+      <c r="AW85">
+        <v>9</v>
+      </c>
+      <c r="AX85">
+        <v>3</v>
+      </c>
+      <c r="AY85">
+        <v>12</v>
+      </c>
+      <c r="AZ85">
+        <v>7</v>
+      </c>
+      <c r="BA85">
+        <v>5</v>
+      </c>
+      <c r="BB85">
+        <v>5</v>
+      </c>
+      <c r="BC85">
+        <v>10</v>
+      </c>
+      <c r="BD85">
+        <v>1.5</v>
+      </c>
+      <c r="BE85">
+        <v>8</v>
+      </c>
+      <c r="BF85">
+        <v>3.34</v>
+      </c>
+      <c r="BG85">
+        <v>1.18</v>
+      </c>
+      <c r="BH85">
+        <v>4.6</v>
+      </c>
+      <c r="BI85">
+        <v>1.32</v>
+      </c>
+      <c r="BJ85">
+        <v>3.15</v>
+      </c>
+      <c r="BK85">
+        <v>1.53</v>
+      </c>
+      <c r="BL85">
+        <v>2.35</v>
+      </c>
+      <c r="BM85">
+        <v>1.88</v>
+      </c>
+      <c r="BN85">
+        <v>1.92</v>
+      </c>
+      <c r="BO85">
+        <v>2.35</v>
+      </c>
+      <c r="BP85">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="86" spans="1:68">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>7380410</v>
+      </c>
+      <c r="C86" t="s">
+        <v>68</v>
+      </c>
+      <c r="D86" t="s">
+        <v>69</v>
+      </c>
+      <c r="E86" s="2">
+        <v>45452.77083333334</v>
+      </c>
+      <c r="F86">
+        <v>9</v>
+      </c>
+      <c r="G86" t="s">
+        <v>86</v>
+      </c>
+      <c r="H86" t="s">
+        <v>77</v>
+      </c>
+      <c r="I86">
+        <v>1</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>1</v>
+      </c>
+      <c r="L86">
+        <v>2</v>
+      </c>
+      <c r="M86">
+        <v>0</v>
+      </c>
+      <c r="N86">
+        <v>2</v>
+      </c>
+      <c r="O86" t="s">
+        <v>149</v>
+      </c>
+      <c r="P86" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q86">
+        <v>2</v>
+      </c>
+      <c r="R86">
+        <v>2.25</v>
+      </c>
+      <c r="S86">
+        <v>7.5</v>
+      </c>
+      <c r="T86">
+        <v>1.42</v>
+      </c>
+      <c r="U86">
+        <v>2.65</v>
+      </c>
+      <c r="V86">
+        <v>2.95</v>
+      </c>
+      <c r="W86">
+        <v>1.35</v>
+      </c>
+      <c r="X86">
+        <v>6.5</v>
+      </c>
+      <c r="Y86">
+        <v>1.07</v>
+      </c>
+      <c r="Z86">
+        <v>1.42</v>
+      </c>
+      <c r="AA86">
+        <v>4.1</v>
+      </c>
+      <c r="AB86">
+        <v>8.5</v>
+      </c>
+      <c r="AC86">
+        <v>1.06</v>
+      </c>
+      <c r="AD86">
+        <v>8.5</v>
+      </c>
+      <c r="AE86">
+        <v>1.35</v>
+      </c>
+      <c r="AF86">
+        <v>3.1</v>
+      </c>
+      <c r="AG86">
+        <v>1.95</v>
+      </c>
+      <c r="AH86">
+        <v>1.85</v>
+      </c>
+      <c r="AI86">
+        <v>2.25</v>
+      </c>
+      <c r="AJ86">
+        <v>1.57</v>
+      </c>
+      <c r="AK86">
+        <v>1.08</v>
+      </c>
+      <c r="AL86">
+        <v>1.2</v>
+      </c>
+      <c r="AM86">
+        <v>2.62</v>
+      </c>
+      <c r="AN86">
+        <v>2.5</v>
+      </c>
+      <c r="AO86">
+        <v>0.5</v>
+      </c>
+      <c r="AP86">
+        <v>2.6</v>
+      </c>
+      <c r="AQ86">
+        <v>0.4</v>
+      </c>
+      <c r="AR86">
+        <v>1.95</v>
+      </c>
+      <c r="AS86">
+        <v>1.17</v>
+      </c>
+      <c r="AT86">
+        <v>3.12</v>
+      </c>
+      <c r="AU86">
+        <v>3</v>
+      </c>
+      <c r="AV86">
+        <v>5</v>
+      </c>
+      <c r="AW86">
+        <v>6</v>
+      </c>
+      <c r="AX86">
+        <v>11</v>
+      </c>
+      <c r="AY86">
+        <v>9</v>
+      </c>
+      <c r="AZ86">
+        <v>16</v>
+      </c>
+      <c r="BA86">
+        <v>7</v>
+      </c>
+      <c r="BB86">
+        <v>4</v>
+      </c>
+      <c r="BC86">
+        <v>11</v>
+      </c>
+      <c r="BD86">
+        <v>1.23</v>
+      </c>
+      <c r="BE86">
+        <v>9.6</v>
+      </c>
+      <c r="BF86">
+        <v>5.77</v>
+      </c>
+      <c r="BG86">
+        <v>1.2</v>
+      </c>
+      <c r="BH86">
+        <v>4.25</v>
+      </c>
+      <c r="BI86">
+        <v>1.38</v>
+      </c>
+      <c r="BJ86">
+        <v>2.9</v>
+      </c>
+      <c r="BK86">
+        <v>2.2</v>
+      </c>
+      <c r="BL86">
+        <v>2.12</v>
+      </c>
+      <c r="BM86">
+        <v>2.05</v>
+      </c>
+      <c r="BN86">
+        <v>1.7</v>
+      </c>
+      <c r="BO86">
+        <v>2.85</v>
+      </c>
+      <c r="BP86">
         <v>1.38</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="188">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -466,6 +466,12 @@
     <t>['13', '51']</t>
   </si>
   <si>
+    <t>['7', '57', '90+6']</t>
+  </si>
+  <si>
+    <t>['73']</t>
+  </si>
+  <si>
     <t>['62']</t>
   </si>
   <si>
@@ -569,6 +575,9 @@
   </si>
   <si>
     <t>['42']</t>
+  </si>
+  <si>
+    <t>['43', '75']</t>
   </si>
 </sst>
 </file>
@@ -930,7 +939,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP86"/>
+  <dimension ref="A1:BP88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1189,7 +1198,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1807,7 +1816,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q5">
         <v>2.75</v>
@@ -2094,7 +2103,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ6">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2219,7 +2228,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q7">
         <v>4.33</v>
@@ -2631,7 +2640,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2915,7 +2924,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ10">
         <v>0</v>
@@ -3043,7 +3052,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q11">
         <v>3.5</v>
@@ -3327,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ12">
         <v>0.25</v>
@@ -3455,7 +3464,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q13">
         <v>3.6</v>
@@ -3661,7 +3670,7 @@
         <v>101</v>
       </c>
       <c r="P14" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q14">
         <v>4.75</v>
@@ -3867,7 +3876,7 @@
         <v>101</v>
       </c>
       <c r="P15" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4279,7 +4288,7 @@
         <v>102</v>
       </c>
       <c r="P17" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q17">
         <v>2.75</v>
@@ -5103,7 +5112,7 @@
         <v>106</v>
       </c>
       <c r="P21" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5184,7 +5193,7 @@
         <v>3</v>
       </c>
       <c r="AQ21">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5515,7 +5524,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q23">
         <v>3.2</v>
@@ -5721,7 +5730,7 @@
         <v>107</v>
       </c>
       <c r="P24" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q24">
         <v>3.6</v>
@@ -6005,7 +6014,7 @@
         <v>3</v>
       </c>
       <c r="AP25">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ25">
         <v>1.4</v>
@@ -6133,7 +6142,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6339,7 +6348,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q27">
         <v>4</v>
@@ -6545,7 +6554,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6957,7 +6966,7 @@
         <v>112</v>
       </c>
       <c r="P30" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q30">
         <v>2.1</v>
@@ -7369,7 +7378,7 @@
         <v>113</v>
       </c>
       <c r="P32" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q32">
         <v>2.38</v>
@@ -7575,7 +7584,7 @@
         <v>101</v>
       </c>
       <c r="P33" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -7656,7 +7665,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ33">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR33">
         <v>1.83</v>
@@ -8811,7 +8820,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q39">
         <v>2</v>
@@ -8889,7 +8898,7 @@
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ39">
         <v>0.2</v>
@@ -9223,7 +9232,7 @@
         <v>120</v>
       </c>
       <c r="P41" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q41">
         <v>2.25</v>
@@ -9304,7 +9313,7 @@
         <v>3</v>
       </c>
       <c r="AQ41">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR41">
         <v>1.37</v>
@@ -9429,7 +9438,7 @@
         <v>121</v>
       </c>
       <c r="P42" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q42">
         <v>3.2</v>
@@ -9507,7 +9516,7 @@
         <v>1.5</v>
       </c>
       <c r="AP42">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ42">
         <v>1.4</v>
@@ -9635,7 +9644,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q43">
         <v>3.4</v>
@@ -10871,7 +10880,7 @@
         <v>125</v>
       </c>
       <c r="P49" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -11283,7 +11292,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q51">
         <v>2.25</v>
@@ -11901,7 +11910,7 @@
         <v>128</v>
       </c>
       <c r="P54" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q54">
         <v>3.2</v>
@@ -11982,7 +11991,7 @@
         <v>2</v>
       </c>
       <c r="AQ54">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR54">
         <v>0.92</v>
@@ -12313,7 +12322,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q56">
         <v>1.95</v>
@@ -12391,7 +12400,7 @@
         <v>0.5</v>
       </c>
       <c r="AP56">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ56">
         <v>1.75</v>
@@ -12806,7 +12815,7 @@
         <v>2</v>
       </c>
       <c r="AQ58">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR58">
         <v>1.54</v>
@@ -13137,7 +13146,7 @@
         <v>118</v>
       </c>
       <c r="P60" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13549,7 +13558,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q62">
         <v>3.4</v>
@@ -13836,7 +13845,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ63">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR63">
         <v>2.11</v>
@@ -14167,7 +14176,7 @@
         <v>135</v>
       </c>
       <c r="P65" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q65">
         <v>2.38</v>
@@ -14245,7 +14254,7 @@
         <v>0</v>
       </c>
       <c r="AP65">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ65">
         <v>0.2</v>
@@ -14373,7 +14382,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q66">
         <v>2.3</v>
@@ -14785,7 +14794,7 @@
         <v>101</v>
       </c>
       <c r="P68" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q68">
         <v>3.6</v>
@@ -16021,7 +16030,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q74">
         <v>3</v>
@@ -16227,7 +16236,7 @@
         <v>90</v>
       </c>
       <c r="P75" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q75">
         <v>3.1</v>
@@ -16639,7 +16648,7 @@
         <v>139</v>
       </c>
       <c r="P77" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q77">
         <v>2.2</v>
@@ -17463,7 +17472,7 @@
         <v>146</v>
       </c>
       <c r="P81" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q81">
         <v>2.05</v>
@@ -17669,7 +17678,7 @@
         <v>147</v>
       </c>
       <c r="P82" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q82">
         <v>4</v>
@@ -17875,7 +17884,7 @@
         <v>148</v>
       </c>
       <c r="P83" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q83">
         <v>2.75</v>
@@ -18081,7 +18090,7 @@
         <v>101</v>
       </c>
       <c r="P84" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q84">
         <v>3.2</v>
@@ -18650,6 +18659,418 @@
       </c>
       <c r="BP86">
         <v>1.38</v>
+      </c>
+    </row>
+    <row r="87" spans="1:68">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>7380406</v>
+      </c>
+      <c r="C87" t="s">
+        <v>68</v>
+      </c>
+      <c r="D87" t="s">
+        <v>69</v>
+      </c>
+      <c r="E87" s="2">
+        <v>45453.79166666666</v>
+      </c>
+      <c r="F87">
+        <v>9</v>
+      </c>
+      <c r="G87" t="s">
+        <v>78</v>
+      </c>
+      <c r="H87" t="s">
+        <v>76</v>
+      </c>
+      <c r="I87">
+        <v>1</v>
+      </c>
+      <c r="J87">
+        <v>1</v>
+      </c>
+      <c r="K87">
+        <v>2</v>
+      </c>
+      <c r="L87">
+        <v>3</v>
+      </c>
+      <c r="M87">
+        <v>2</v>
+      </c>
+      <c r="N87">
+        <v>5</v>
+      </c>
+      <c r="O87" t="s">
+        <v>150</v>
+      </c>
+      <c r="P87" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q87">
+        <v>3.5</v>
+      </c>
+      <c r="R87">
+        <v>2</v>
+      </c>
+      <c r="S87">
+        <v>3.4</v>
+      </c>
+      <c r="T87">
+        <v>1.5</v>
+      </c>
+      <c r="U87">
+        <v>2.4</v>
+      </c>
+      <c r="V87">
+        <v>3.3</v>
+      </c>
+      <c r="W87">
+        <v>1.28</v>
+      </c>
+      <c r="X87">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Y87">
+        <v>1.04</v>
+      </c>
+      <c r="Z87">
+        <v>2.75</v>
+      </c>
+      <c r="AA87">
+        <v>3.1</v>
+      </c>
+      <c r="AB87">
+        <v>2.63</v>
+      </c>
+      <c r="AC87">
+        <v>1.09</v>
+      </c>
+      <c r="AD87">
+        <v>7</v>
+      </c>
+      <c r="AE87">
+        <v>1.45</v>
+      </c>
+      <c r="AF87">
+        <v>2.7</v>
+      </c>
+      <c r="AG87">
+        <v>2.3</v>
+      </c>
+      <c r="AH87">
+        <v>1.6</v>
+      </c>
+      <c r="AI87">
+        <v>2</v>
+      </c>
+      <c r="AJ87">
+        <v>1.73</v>
+      </c>
+      <c r="AK87">
+        <v>1.33</v>
+      </c>
+      <c r="AL87">
+        <v>1.3</v>
+      </c>
+      <c r="AM87">
+        <v>1.57</v>
+      </c>
+      <c r="AN87">
+        <v>2.5</v>
+      </c>
+      <c r="AO87">
+        <v>1.33</v>
+      </c>
+      <c r="AP87">
+        <v>2.6</v>
+      </c>
+      <c r="AQ87">
+        <v>1</v>
+      </c>
+      <c r="AR87">
+        <v>1.41</v>
+      </c>
+      <c r="AS87">
+        <v>1.45</v>
+      </c>
+      <c r="AT87">
+        <v>2.86</v>
+      </c>
+      <c r="AU87">
+        <v>7</v>
+      </c>
+      <c r="AV87">
+        <v>7</v>
+      </c>
+      <c r="AW87">
+        <v>2</v>
+      </c>
+      <c r="AX87">
+        <v>6</v>
+      </c>
+      <c r="AY87">
+        <v>9</v>
+      </c>
+      <c r="AZ87">
+        <v>13</v>
+      </c>
+      <c r="BA87">
+        <v>4</v>
+      </c>
+      <c r="BB87">
+        <v>9</v>
+      </c>
+      <c r="BC87">
+        <v>13</v>
+      </c>
+      <c r="BD87">
+        <v>2.05</v>
+      </c>
+      <c r="BE87">
+        <v>7.4</v>
+      </c>
+      <c r="BF87">
+        <v>2.1</v>
+      </c>
+      <c r="BG87">
+        <v>1.18</v>
+      </c>
+      <c r="BH87">
+        <v>4.5</v>
+      </c>
+      <c r="BI87">
+        <v>1.34</v>
+      </c>
+      <c r="BJ87">
+        <v>3.1</v>
+      </c>
+      <c r="BK87">
+        <v>1.91</v>
+      </c>
+      <c r="BL87">
+        <v>2.23</v>
+      </c>
+      <c r="BM87">
+        <v>2</v>
+      </c>
+      <c r="BN87">
+        <v>1.73</v>
+      </c>
+      <c r="BO87">
+        <v>2.7</v>
+      </c>
+      <c r="BP87">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="88" spans="1:68">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>7380415</v>
+      </c>
+      <c r="C88" t="s">
+        <v>68</v>
+      </c>
+      <c r="D88" t="s">
+        <v>69</v>
+      </c>
+      <c r="E88" s="2">
+        <v>45453.89583333334</v>
+      </c>
+      <c r="F88">
+        <v>9</v>
+      </c>
+      <c r="G88" t="s">
+        <v>80</v>
+      </c>
+      <c r="H88" t="s">
+        <v>85</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>1</v>
+      </c>
+      <c r="M88">
+        <v>0</v>
+      </c>
+      <c r="N88">
+        <v>1</v>
+      </c>
+      <c r="O88" t="s">
+        <v>151</v>
+      </c>
+      <c r="P88" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q88">
+        <v>2.38</v>
+      </c>
+      <c r="R88">
+        <v>2.1</v>
+      </c>
+      <c r="S88">
+        <v>5.5</v>
+      </c>
+      <c r="T88">
+        <v>1.4</v>
+      </c>
+      <c r="U88">
+        <v>2.75</v>
+      </c>
+      <c r="V88">
+        <v>2.8</v>
+      </c>
+      <c r="W88">
+        <v>1.39</v>
+      </c>
+      <c r="X88">
+        <v>6.95</v>
+      </c>
+      <c r="Y88">
+        <v>1.07</v>
+      </c>
+      <c r="Z88">
+        <v>1.73</v>
+      </c>
+      <c r="AA88">
+        <v>3.5</v>
+      </c>
+      <c r="AB88">
+        <v>5</v>
+      </c>
+      <c r="AC88">
+        <v>1.05</v>
+      </c>
+      <c r="AD88">
+        <v>9</v>
+      </c>
+      <c r="AE88">
+        <v>1.3</v>
+      </c>
+      <c r="AF88">
+        <v>3.3</v>
+      </c>
+      <c r="AG88">
+        <v>2.1</v>
+      </c>
+      <c r="AH88">
+        <v>1.7</v>
+      </c>
+      <c r="AI88">
+        <v>2</v>
+      </c>
+      <c r="AJ88">
+        <v>1.73</v>
+      </c>
+      <c r="AK88">
+        <v>1.09</v>
+      </c>
+      <c r="AL88">
+        <v>1.18</v>
+      </c>
+      <c r="AM88">
+        <v>2.4</v>
+      </c>
+      <c r="AN88">
+        <v>2</v>
+      </c>
+      <c r="AO88">
+        <v>0.5</v>
+      </c>
+      <c r="AP88">
+        <v>2.25</v>
+      </c>
+      <c r="AQ88">
+        <v>0.4</v>
+      </c>
+      <c r="AR88">
+        <v>1.37</v>
+      </c>
+      <c r="AS88">
+        <v>1.49</v>
+      </c>
+      <c r="AT88">
+        <v>2.86</v>
+      </c>
+      <c r="AU88">
+        <v>3</v>
+      </c>
+      <c r="AV88">
+        <v>2</v>
+      </c>
+      <c r="AW88">
+        <v>9</v>
+      </c>
+      <c r="AX88">
+        <v>4</v>
+      </c>
+      <c r="AY88">
+        <v>12</v>
+      </c>
+      <c r="AZ88">
+        <v>6</v>
+      </c>
+      <c r="BA88">
+        <v>8</v>
+      </c>
+      <c r="BB88">
+        <v>2</v>
+      </c>
+      <c r="BC88">
+        <v>10</v>
+      </c>
+      <c r="BD88">
+        <v>1.39</v>
+      </c>
+      <c r="BE88">
+        <v>8.5</v>
+      </c>
+      <c r="BF88">
+        <v>3.96</v>
+      </c>
+      <c r="BG88">
+        <v>1.17</v>
+      </c>
+      <c r="BH88">
+        <v>4.5</v>
+      </c>
+      <c r="BI88">
+        <v>1.27</v>
+      </c>
+      <c r="BJ88">
+        <v>3.55</v>
+      </c>
+      <c r="BK88">
+        <v>1.48</v>
+      </c>
+      <c r="BL88">
+        <v>2.55</v>
+      </c>
+      <c r="BM88">
+        <v>1.8</v>
+      </c>
+      <c r="BN88">
+        <v>2</v>
+      </c>
+      <c r="BO88">
+        <v>2.35</v>
+      </c>
+      <c r="BP88">
+        <v>1.55</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="188">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -939,7 +939,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP88"/>
+  <dimension ref="A1:BP89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2515,7 +2515,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ8">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -6429,7 +6429,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ27">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR27">
         <v>1.04</v>
@@ -11167,7 +11167,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ50">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR50">
         <v>1.29</v>
@@ -15081,7 +15081,7 @@
         <v>2</v>
       </c>
       <c r="AQ69">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR69">
         <v>1.31</v>
@@ -18819,13 +18819,13 @@
         <v>13</v>
       </c>
       <c r="BA87">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB87">
         <v>9</v>
       </c>
       <c r="BC87">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD87">
         <v>2.05</v>
@@ -19028,10 +19028,10 @@
         <v>8</v>
       </c>
       <c r="BB88">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC88">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD88">
         <v>1.39</v>
@@ -19071,6 +19071,212 @@
       </c>
       <c r="BP88">
         <v>1.55</v>
+      </c>
+    </row>
+    <row r="89" spans="1:68">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>7380408</v>
+      </c>
+      <c r="C89" t="s">
+        <v>68</v>
+      </c>
+      <c r="D89" t="s">
+        <v>69</v>
+      </c>
+      <c r="E89" s="2">
+        <v>45454.79166666666</v>
+      </c>
+      <c r="F89">
+        <v>9</v>
+      </c>
+      <c r="G89" t="s">
+        <v>89</v>
+      </c>
+      <c r="H89" t="s">
+        <v>88</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <v>1</v>
+      </c>
+      <c r="M89">
+        <v>0</v>
+      </c>
+      <c r="N89">
+        <v>1</v>
+      </c>
+      <c r="O89" t="s">
+        <v>102</v>
+      </c>
+      <c r="P89" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q89">
+        <v>3.2</v>
+      </c>
+      <c r="R89">
+        <v>1.91</v>
+      </c>
+      <c r="S89">
+        <v>4</v>
+      </c>
+      <c r="T89">
+        <v>1.53</v>
+      </c>
+      <c r="U89">
+        <v>2.38</v>
+      </c>
+      <c r="V89">
+        <v>3.75</v>
+      </c>
+      <c r="W89">
+        <v>1.25</v>
+      </c>
+      <c r="X89">
+        <v>11</v>
+      </c>
+      <c r="Y89">
+        <v>1.05</v>
+      </c>
+      <c r="Z89">
+        <v>2.3</v>
+      </c>
+      <c r="AA89">
+        <v>3</v>
+      </c>
+      <c r="AB89">
+        <v>3.3</v>
+      </c>
+      <c r="AC89">
+        <v>1.1</v>
+      </c>
+      <c r="AD89">
+        <v>6.5</v>
+      </c>
+      <c r="AE89">
+        <v>1.5</v>
+      </c>
+      <c r="AF89">
+        <v>2.4</v>
+      </c>
+      <c r="AG89">
+        <v>2.5</v>
+      </c>
+      <c r="AH89">
+        <v>1.5</v>
+      </c>
+      <c r="AI89">
+        <v>2.2</v>
+      </c>
+      <c r="AJ89">
+        <v>1.62</v>
+      </c>
+      <c r="AK89">
+        <v>1.28</v>
+      </c>
+      <c r="AL89">
+        <v>1.28</v>
+      </c>
+      <c r="AM89">
+        <v>1.68</v>
+      </c>
+      <c r="AN89">
+        <v>3</v>
+      </c>
+      <c r="AO89">
+        <v>1.25</v>
+      </c>
+      <c r="AP89">
+        <v>3</v>
+      </c>
+      <c r="AQ89">
+        <v>1</v>
+      </c>
+      <c r="AR89">
+        <v>1.5</v>
+      </c>
+      <c r="AS89">
+        <v>0.97</v>
+      </c>
+      <c r="AT89">
+        <v>2.47</v>
+      </c>
+      <c r="AU89">
+        <v>3</v>
+      </c>
+      <c r="AV89">
+        <v>3</v>
+      </c>
+      <c r="AW89">
+        <v>5</v>
+      </c>
+      <c r="AX89">
+        <v>11</v>
+      </c>
+      <c r="AY89">
+        <v>8</v>
+      </c>
+      <c r="AZ89">
+        <v>14</v>
+      </c>
+      <c r="BA89">
+        <v>3</v>
+      </c>
+      <c r="BB89">
+        <v>6</v>
+      </c>
+      <c r="BC89">
+        <v>9</v>
+      </c>
+      <c r="BD89">
+        <v>1.73</v>
+      </c>
+      <c r="BE89">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF89">
+        <v>2.44</v>
+      </c>
+      <c r="BG89">
+        <v>1.22</v>
+      </c>
+      <c r="BH89">
+        <v>4</v>
+      </c>
+      <c r="BI89">
+        <v>1.42</v>
+      </c>
+      <c r="BJ89">
+        <v>2.75</v>
+      </c>
+      <c r="BK89">
+        <v>2.2</v>
+      </c>
+      <c r="BL89">
+        <v>2</v>
+      </c>
+      <c r="BM89">
+        <v>2.23</v>
+      </c>
+      <c r="BN89">
+        <v>1.61</v>
+      </c>
+      <c r="BO89">
+        <v>3</v>
+      </c>
+      <c r="BP89">
+        <v>1.35</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="188">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -939,7 +939,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP89"/>
+  <dimension ref="A1:BP90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ7">
         <v>1.5</v>
@@ -3957,7 +3957,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ15">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -8077,7 +8077,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ35">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR35">
         <v>1.74</v>
@@ -8692,7 +8692,7 @@
         <v>3</v>
       </c>
       <c r="AP38">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ38">
         <v>1.2</v>
@@ -9931,7 +9931,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ44">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR44">
         <v>1.09</v>
@@ -11988,7 +11988,7 @@
         <v>0</v>
       </c>
       <c r="AP54">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ54">
         <v>0.4</v>
@@ -14463,7 +14463,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ66">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR66">
         <v>1.56</v>
@@ -15284,7 +15284,7 @@
         <v>0.67</v>
       </c>
       <c r="AP70">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ70">
         <v>0.5</v>
@@ -17962,7 +17962,7 @@
         <v>0.25</v>
       </c>
       <c r="AP83">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ83">
         <v>0.2</v>
@@ -18377,7 +18377,7 @@
         <v>2</v>
       </c>
       <c r="AQ85">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR85">
         <v>1.43</v>
@@ -19277,6 +19277,212 @@
       </c>
       <c r="BP89">
         <v>1.35</v>
+      </c>
+    </row>
+    <row r="90" spans="1:68">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>7380424</v>
+      </c>
+      <c r="C90" t="s">
+        <v>68</v>
+      </c>
+      <c r="D90" t="s">
+        <v>69</v>
+      </c>
+      <c r="E90" s="2">
+        <v>45456.875</v>
+      </c>
+      <c r="F90">
+        <v>10</v>
+      </c>
+      <c r="G90" t="s">
+        <v>75</v>
+      </c>
+      <c r="H90" t="s">
+        <v>73</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90">
+        <v>1</v>
+      </c>
+      <c r="N90">
+        <v>1</v>
+      </c>
+      <c r="O90" t="s">
+        <v>101</v>
+      </c>
+      <c r="P90" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q90">
+        <v>2.75</v>
+      </c>
+      <c r="R90">
+        <v>1.91</v>
+      </c>
+      <c r="S90">
+        <v>5</v>
+      </c>
+      <c r="T90">
+        <v>1.47</v>
+      </c>
+      <c r="U90">
+        <v>2.48</v>
+      </c>
+      <c r="V90">
+        <v>3.55</v>
+      </c>
+      <c r="W90">
+        <v>1.25</v>
+      </c>
+      <c r="X90">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="Y90">
+        <v>1.03</v>
+      </c>
+      <c r="Z90">
+        <v>2</v>
+      </c>
+      <c r="AA90">
+        <v>3.1</v>
+      </c>
+      <c r="AB90">
+        <v>4.1</v>
+      </c>
+      <c r="AC90">
+        <v>1.1</v>
+      </c>
+      <c r="AD90">
+        <v>6.5</v>
+      </c>
+      <c r="AE90">
+        <v>1.5</v>
+      </c>
+      <c r="AF90">
+        <v>2.45</v>
+      </c>
+      <c r="AG90">
+        <v>2.7</v>
+      </c>
+      <c r="AH90">
+        <v>1.44</v>
+      </c>
+      <c r="AI90">
+        <v>2.25</v>
+      </c>
+      <c r="AJ90">
+        <v>1.57</v>
+      </c>
+      <c r="AK90">
+        <v>1.23</v>
+      </c>
+      <c r="AL90">
+        <v>1.33</v>
+      </c>
+      <c r="AM90">
+        <v>1.71</v>
+      </c>
+      <c r="AN90">
+        <v>2</v>
+      </c>
+      <c r="AO90">
+        <v>1</v>
+      </c>
+      <c r="AP90">
+        <v>1.67</v>
+      </c>
+      <c r="AQ90">
+        <v>1.33</v>
+      </c>
+      <c r="AR90">
+        <v>1.45</v>
+      </c>
+      <c r="AS90">
+        <v>0.92</v>
+      </c>
+      <c r="AT90">
+        <v>2.37</v>
+      </c>
+      <c r="AU90">
+        <v>2</v>
+      </c>
+      <c r="AV90">
+        <v>5</v>
+      </c>
+      <c r="AW90">
+        <v>12</v>
+      </c>
+      <c r="AX90">
+        <v>7</v>
+      </c>
+      <c r="AY90">
+        <v>14</v>
+      </c>
+      <c r="AZ90">
+        <v>12</v>
+      </c>
+      <c r="BA90">
+        <v>6</v>
+      </c>
+      <c r="BB90">
+        <v>2</v>
+      </c>
+      <c r="BC90">
+        <v>8</v>
+      </c>
+      <c r="BD90">
+        <v>1.51</v>
+      </c>
+      <c r="BE90">
+        <v>7.7</v>
+      </c>
+      <c r="BF90">
+        <v>3.35</v>
+      </c>
+      <c r="BG90">
+        <v>1.2</v>
+      </c>
+      <c r="BH90">
+        <v>4.25</v>
+      </c>
+      <c r="BI90">
+        <v>1.34</v>
+      </c>
+      <c r="BJ90">
+        <v>3</v>
+      </c>
+      <c r="BK90">
+        <v>2.1</v>
+      </c>
+      <c r="BL90">
+        <v>2.05</v>
+      </c>
+      <c r="BM90">
+        <v>2.05</v>
+      </c>
+      <c r="BN90">
+        <v>1.7</v>
+      </c>
+      <c r="BO90">
+        <v>2.65</v>
+      </c>
+      <c r="BP90">
+        <v>1.42</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="190">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -472,6 +472,12 @@
     <t>['73']</t>
   </si>
   <si>
+    <t>['21']</t>
+  </si>
+  <si>
+    <t>['20', '49', '61']</t>
+  </si>
+  <si>
     <t>['62']</t>
   </si>
   <si>
@@ -500,9 +506,6 @@
   </si>
   <si>
     <t>['67', '69']</t>
-  </si>
-  <si>
-    <t>['21']</t>
   </si>
   <si>
     <t>['79', '83']</t>
@@ -578,6 +581,9 @@
   </si>
   <si>
     <t>['43', '75']</t>
+  </si>
+  <si>
+    <t>['10', '28']</t>
   </si>
 </sst>
 </file>
@@ -939,7 +945,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP90"/>
+  <dimension ref="A1:BP92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1198,7 +1204,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1688,7 +1694,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ4">
         <v>1.75</v>
@@ -1816,7 +1822,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q5">
         <v>2.75</v>
@@ -2228,7 +2234,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q7">
         <v>4.33</v>
@@ -2640,7 +2646,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -3052,7 +3058,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q11">
         <v>3.5</v>
@@ -3464,7 +3470,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q13">
         <v>3.6</v>
@@ -3670,7 +3676,7 @@
         <v>101</v>
       </c>
       <c r="P14" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q14">
         <v>4.75</v>
@@ -3748,10 +3754,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ14">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -3876,7 +3882,7 @@
         <v>101</v>
       </c>
       <c r="P15" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4288,7 +4294,7 @@
         <v>102</v>
       </c>
       <c r="P17" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q17">
         <v>2.75</v>
@@ -5112,7 +5118,7 @@
         <v>106</v>
       </c>
       <c r="P21" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5524,7 +5530,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="Q23">
         <v>3.2</v>
@@ -5730,7 +5736,7 @@
         <v>107</v>
       </c>
       <c r="P24" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q24">
         <v>3.6</v>
@@ -6142,7 +6148,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6348,7 +6354,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q27">
         <v>4</v>
@@ -6554,7 +6560,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6966,7 +6972,7 @@
         <v>112</v>
       </c>
       <c r="P30" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q30">
         <v>2.1</v>
@@ -7378,7 +7384,7 @@
         <v>113</v>
       </c>
       <c r="P32" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q32">
         <v>2.38</v>
@@ -7584,7 +7590,7 @@
         <v>101</v>
       </c>
       <c r="P33" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -8486,7 +8492,7 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ37">
         <v>0.4</v>
@@ -8695,7 +8701,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ38">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR38">
         <v>1.12</v>
@@ -8820,7 +8826,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q39">
         <v>2</v>
@@ -9104,7 +9110,7 @@
         <v>1</v>
       </c>
       <c r="AP40">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ40">
         <v>0.5</v>
@@ -9232,7 +9238,7 @@
         <v>120</v>
       </c>
       <c r="P41" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q41">
         <v>2.25</v>
@@ -9438,7 +9444,7 @@
         <v>121</v>
       </c>
       <c r="P42" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q42">
         <v>3.2</v>
@@ -9644,7 +9650,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q43">
         <v>3.4</v>
@@ -9722,7 +9728,7 @@
         <v>0.5</v>
       </c>
       <c r="AP43">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ43">
         <v>0.25</v>
@@ -10880,7 +10886,7 @@
         <v>125</v>
       </c>
       <c r="P49" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -10961,7 +10967,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ49">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR49">
         <v>1.83</v>
@@ -11292,7 +11298,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q51">
         <v>2.25</v>
@@ -11910,7 +11916,7 @@
         <v>128</v>
       </c>
       <c r="P54" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q54">
         <v>3.2</v>
@@ -12322,7 +12328,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q56">
         <v>1.95</v>
@@ -12812,7 +12818,7 @@
         <v>1.5</v>
       </c>
       <c r="AP58">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ58">
         <v>1</v>
@@ -13146,7 +13152,7 @@
         <v>118</v>
       </c>
       <c r="P60" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13558,7 +13564,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q62">
         <v>3.4</v>
@@ -13639,7 +13645,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ62">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR62">
         <v>2.09</v>
@@ -14176,7 +14182,7 @@
         <v>135</v>
       </c>
       <c r="P65" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q65">
         <v>2.38</v>
@@ -14382,7 +14388,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q66">
         <v>2.3</v>
@@ -14794,7 +14800,7 @@
         <v>101</v>
       </c>
       <c r="P68" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q68">
         <v>3.6</v>
@@ -15078,7 +15084,7 @@
         <v>1.67</v>
       </c>
       <c r="AP69">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ69">
         <v>1</v>
@@ -16030,7 +16036,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q74">
         <v>3</v>
@@ -16236,7 +16242,7 @@
         <v>90</v>
       </c>
       <c r="P75" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q75">
         <v>3.1</v>
@@ -16648,7 +16654,7 @@
         <v>139</v>
       </c>
       <c r="P77" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q77">
         <v>2.2</v>
@@ -16932,7 +16938,7 @@
         <v>0.33</v>
       </c>
       <c r="AP78">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ78">
         <v>0.25</v>
@@ -17472,7 +17478,7 @@
         <v>146</v>
       </c>
       <c r="P81" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q81">
         <v>2.05</v>
@@ -17678,7 +17684,7 @@
         <v>147</v>
       </c>
       <c r="P82" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q82">
         <v>4</v>
@@ -17759,7 +17765,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ82">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR82">
         <v>1.94</v>
@@ -17884,7 +17890,7 @@
         <v>148</v>
       </c>
       <c r="P83" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q83">
         <v>2.75</v>
@@ -18090,7 +18096,7 @@
         <v>101</v>
       </c>
       <c r="P84" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q84">
         <v>3.2</v>
@@ -18374,7 +18380,7 @@
         <v>1</v>
       </c>
       <c r="AP85">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ85">
         <v>1.33</v>
@@ -18708,7 +18714,7 @@
         <v>150</v>
       </c>
       <c r="P87" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q87">
         <v>3.5</v>
@@ -19482,6 +19488,418 @@
         <v>2.65</v>
       </c>
       <c r="BP90">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="91" spans="1:68">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>7380423</v>
+      </c>
+      <c r="C91" t="s">
+        <v>68</v>
+      </c>
+      <c r="D91" t="s">
+        <v>69</v>
+      </c>
+      <c r="E91" s="2">
+        <v>45457.79166666666</v>
+      </c>
+      <c r="F91">
+        <v>10</v>
+      </c>
+      <c r="G91" t="s">
+        <v>72</v>
+      </c>
+      <c r="H91" t="s">
+        <v>74</v>
+      </c>
+      <c r="I91">
+        <v>1</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>1</v>
+      </c>
+      <c r="L91">
+        <v>1</v>
+      </c>
+      <c r="M91">
+        <v>0</v>
+      </c>
+      <c r="N91">
+        <v>1</v>
+      </c>
+      <c r="O91" t="s">
+        <v>152</v>
+      </c>
+      <c r="P91" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q91">
+        <v>4.33</v>
+      </c>
+      <c r="R91">
+        <v>1.91</v>
+      </c>
+      <c r="S91">
+        <v>3.1</v>
+      </c>
+      <c r="T91">
+        <v>1.53</v>
+      </c>
+      <c r="U91">
+        <v>2.33</v>
+      </c>
+      <c r="V91">
+        <v>3.85</v>
+      </c>
+      <c r="W91">
+        <v>1.22</v>
+      </c>
+      <c r="X91">
+        <v>10</v>
+      </c>
+      <c r="Y91">
+        <v>1.03</v>
+      </c>
+      <c r="Z91">
+        <v>3.6</v>
+      </c>
+      <c r="AA91">
+        <v>2.9</v>
+      </c>
+      <c r="AB91">
+        <v>2.25</v>
+      </c>
+      <c r="AC91">
+        <v>1.11</v>
+      </c>
+      <c r="AD91">
+        <v>6.25</v>
+      </c>
+      <c r="AE91">
+        <v>1.5</v>
+      </c>
+      <c r="AF91">
+        <v>2.4</v>
+      </c>
+      <c r="AG91">
+        <v>2.6</v>
+      </c>
+      <c r="AH91">
+        <v>1.48</v>
+      </c>
+      <c r="AI91">
+        <v>2.1</v>
+      </c>
+      <c r="AJ91">
+        <v>1.67</v>
+      </c>
+      <c r="AK91">
+        <v>1.48</v>
+      </c>
+      <c r="AL91">
+        <v>1.38</v>
+      </c>
+      <c r="AM91">
+        <v>1.34</v>
+      </c>
+      <c r="AN91">
+        <v>2</v>
+      </c>
+      <c r="AO91">
+        <v>1.2</v>
+      </c>
+      <c r="AP91">
+        <v>2.2</v>
+      </c>
+      <c r="AQ91">
+        <v>1</v>
+      </c>
+      <c r="AR91">
+        <v>1.58</v>
+      </c>
+      <c r="AS91">
+        <v>1.39</v>
+      </c>
+      <c r="AT91">
+        <v>2.97</v>
+      </c>
+      <c r="AU91">
+        <v>3</v>
+      </c>
+      <c r="AV91">
+        <v>3</v>
+      </c>
+      <c r="AW91">
+        <v>7</v>
+      </c>
+      <c r="AX91">
+        <v>5</v>
+      </c>
+      <c r="AY91">
+        <v>10</v>
+      </c>
+      <c r="AZ91">
+        <v>8</v>
+      </c>
+      <c r="BA91">
+        <v>3</v>
+      </c>
+      <c r="BB91">
+        <v>7</v>
+      </c>
+      <c r="BC91">
+        <v>10</v>
+      </c>
+      <c r="BD91">
+        <v>2.05</v>
+      </c>
+      <c r="BE91">
+        <v>7.4</v>
+      </c>
+      <c r="BF91">
+        <v>2.1</v>
+      </c>
+      <c r="BG91">
+        <v>1.22</v>
+      </c>
+      <c r="BH91">
+        <v>3.8</v>
+      </c>
+      <c r="BI91">
+        <v>1.3</v>
+      </c>
+      <c r="BJ91">
+        <v>3.3</v>
+      </c>
+      <c r="BK91">
+        <v>1.91</v>
+      </c>
+      <c r="BL91">
+        <v>2.38</v>
+      </c>
+      <c r="BM91">
+        <v>2</v>
+      </c>
+      <c r="BN91">
+        <v>1.8</v>
+      </c>
+      <c r="BO91">
+        <v>2.5</v>
+      </c>
+      <c r="BP91">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="92" spans="1:68">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>7380421</v>
+      </c>
+      <c r="C92" t="s">
+        <v>68</v>
+      </c>
+      <c r="D92" t="s">
+        <v>69</v>
+      </c>
+      <c r="E92" s="2">
+        <v>45457.875</v>
+      </c>
+      <c r="F92">
+        <v>10</v>
+      </c>
+      <c r="G92" t="s">
+        <v>82</v>
+      </c>
+      <c r="H92" t="s">
+        <v>83</v>
+      </c>
+      <c r="I92">
+        <v>1</v>
+      </c>
+      <c r="J92">
+        <v>2</v>
+      </c>
+      <c r="K92">
+        <v>3</v>
+      </c>
+      <c r="L92">
+        <v>3</v>
+      </c>
+      <c r="M92">
+        <v>2</v>
+      </c>
+      <c r="N92">
+        <v>5</v>
+      </c>
+      <c r="O92" t="s">
+        <v>153</v>
+      </c>
+      <c r="P92" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q92">
+        <v>2.63</v>
+      </c>
+      <c r="R92">
+        <v>1.91</v>
+      </c>
+      <c r="S92">
+        <v>5.5</v>
+      </c>
+      <c r="T92">
+        <v>1.57</v>
+      </c>
+      <c r="U92">
+        <v>2.25</v>
+      </c>
+      <c r="V92">
+        <v>3.75</v>
+      </c>
+      <c r="W92">
+        <v>1.25</v>
+      </c>
+      <c r="X92">
+        <v>11</v>
+      </c>
+      <c r="Y92">
+        <v>1.05</v>
+      </c>
+      <c r="Z92">
+        <v>1.83</v>
+      </c>
+      <c r="AA92">
+        <v>3</v>
+      </c>
+      <c r="AB92">
+        <v>5.25</v>
+      </c>
+      <c r="AC92">
+        <v>1.1</v>
+      </c>
+      <c r="AD92">
+        <v>6.5</v>
+      </c>
+      <c r="AE92">
+        <v>1.53</v>
+      </c>
+      <c r="AF92">
+        <v>2.3</v>
+      </c>
+      <c r="AG92">
+        <v>2.7</v>
+      </c>
+      <c r="AH92">
+        <v>1.44</v>
+      </c>
+      <c r="AI92">
+        <v>2.38</v>
+      </c>
+      <c r="AJ92">
+        <v>1.53</v>
+      </c>
+      <c r="AK92">
+        <v>1.12</v>
+      </c>
+      <c r="AL92">
+        <v>1.26</v>
+      </c>
+      <c r="AM92">
+        <v>2</v>
+      </c>
+      <c r="AN92">
+        <v>2</v>
+      </c>
+      <c r="AO92">
+        <v>0</v>
+      </c>
+      <c r="AP92">
+        <v>2.17</v>
+      </c>
+      <c r="AQ92">
+        <v>0</v>
+      </c>
+      <c r="AR92">
+        <v>1.4</v>
+      </c>
+      <c r="AS92">
+        <v>1.22</v>
+      </c>
+      <c r="AT92">
+        <v>2.62</v>
+      </c>
+      <c r="AU92">
+        <v>7</v>
+      </c>
+      <c r="AV92">
+        <v>6</v>
+      </c>
+      <c r="AW92">
+        <v>6</v>
+      </c>
+      <c r="AX92">
+        <v>7</v>
+      </c>
+      <c r="AY92">
+        <v>13</v>
+      </c>
+      <c r="AZ92">
+        <v>13</v>
+      </c>
+      <c r="BA92">
+        <v>3</v>
+      </c>
+      <c r="BB92">
+        <v>4</v>
+      </c>
+      <c r="BC92">
+        <v>7</v>
+      </c>
+      <c r="BD92">
+        <v>1.65</v>
+      </c>
+      <c r="BE92">
+        <v>6.8</v>
+      </c>
+      <c r="BF92">
+        <v>2.84</v>
+      </c>
+      <c r="BG92">
+        <v>1.2</v>
+      </c>
+      <c r="BH92">
+        <v>4.25</v>
+      </c>
+      <c r="BI92">
+        <v>1.33</v>
+      </c>
+      <c r="BJ92">
+        <v>2.93</v>
+      </c>
+      <c r="BK92">
+        <v>2.1</v>
+      </c>
+      <c r="BL92">
+        <v>2</v>
+      </c>
+      <c r="BM92">
+        <v>2.05</v>
+      </c>
+      <c r="BN92">
+        <v>1.7</v>
+      </c>
+      <c r="BO92">
+        <v>2.57</v>
+      </c>
+      <c r="BP92">
         <v>1.42</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="194">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -478,6 +478,15 @@
     <t>['20', '49', '61']</t>
   </si>
   <si>
+    <t>['48', '56']</t>
+  </si>
+  <si>
+    <t>['34']</t>
+  </si>
+  <si>
+    <t>['42', '44', '72']</t>
+  </si>
+  <si>
     <t>['62']</t>
   </si>
   <si>
@@ -584,6 +593,9 @@
   </si>
   <si>
     <t>['10', '28']</t>
+  </si>
+  <si>
+    <t>['21', '26', '30', '56', '90+1']</t>
   </si>
 </sst>
 </file>
@@ -945,7 +957,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP92"/>
+  <dimension ref="A1:BP95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1204,7 +1216,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1491,7 +1503,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ3">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1822,7 +1834,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q5">
         <v>2.75</v>
@@ -2109,7 +2121,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ6">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2234,7 +2246,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q7">
         <v>4.33</v>
@@ -2646,7 +2658,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2724,7 +2736,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ9">
         <v>0.5</v>
@@ -3058,7 +3070,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q11">
         <v>3.5</v>
@@ -3470,7 +3482,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q13">
         <v>3.6</v>
@@ -3548,7 +3560,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ13">
         <v>1.4</v>
@@ -3676,7 +3688,7 @@
         <v>101</v>
       </c>
       <c r="P14" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q14">
         <v>4.75</v>
@@ -3882,7 +3894,7 @@
         <v>101</v>
       </c>
       <c r="P15" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4294,7 +4306,7 @@
         <v>102</v>
       </c>
       <c r="P17" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q17">
         <v>2.75</v>
@@ -4578,10 +4590,10 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ18">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5118,7 +5130,7 @@
         <v>106</v>
       </c>
       <c r="P21" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5736,7 +5748,7 @@
         <v>107</v>
       </c>
       <c r="P24" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q24">
         <v>3.6</v>
@@ -6148,7 +6160,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6226,10 +6238,10 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ26">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR26">
         <v>1.2</v>
@@ -6354,7 +6366,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q27">
         <v>4</v>
@@ -6560,7 +6572,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6641,7 +6653,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ28">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR28">
         <v>2.07</v>
@@ -6844,7 +6856,7 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ29">
         <v>0.25</v>
@@ -6972,7 +6984,7 @@
         <v>112</v>
       </c>
       <c r="P30" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q30">
         <v>2.1</v>
@@ -7384,7 +7396,7 @@
         <v>113</v>
       </c>
       <c r="P32" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q32">
         <v>2.38</v>
@@ -7462,7 +7474,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ32">
         <v>0.25</v>
@@ -7590,7 +7602,7 @@
         <v>101</v>
       </c>
       <c r="P33" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -8826,7 +8838,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q39">
         <v>2</v>
@@ -9238,7 +9250,7 @@
         <v>120</v>
       </c>
       <c r="P41" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q41">
         <v>2.25</v>
@@ -9319,7 +9331,7 @@
         <v>3</v>
       </c>
       <c r="AQ41">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AR41">
         <v>1.37</v>
@@ -9444,7 +9456,7 @@
         <v>121</v>
       </c>
       <c r="P42" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q42">
         <v>3.2</v>
@@ -9525,7 +9537,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ42">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR42">
         <v>1.32</v>
@@ -9650,7 +9662,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q43">
         <v>3.4</v>
@@ -9731,7 +9743,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ43">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR43">
         <v>1.42</v>
@@ -10552,7 +10564,7 @@
         <v>3</v>
       </c>
       <c r="AP47">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ47">
         <v>1.5</v>
@@ -10758,7 +10770,7 @@
         <v>0.5</v>
       </c>
       <c r="AP48">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ48">
         <v>0.5</v>
@@ -10886,7 +10898,7 @@
         <v>125</v>
       </c>
       <c r="P49" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -10964,7 +10976,7 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ49">
         <v>1</v>
@@ -11298,7 +11310,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q51">
         <v>2.25</v>
@@ -11916,7 +11928,7 @@
         <v>128</v>
       </c>
       <c r="P54" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q54">
         <v>3.2</v>
@@ -11997,7 +12009,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ54">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AR54">
         <v>0.92</v>
@@ -12328,7 +12340,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q56">
         <v>1.95</v>
@@ -13152,7 +13164,7 @@
         <v>118</v>
       </c>
       <c r="P60" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13564,7 +13576,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q62">
         <v>3.4</v>
@@ -13642,7 +13654,7 @@
         <v>2</v>
       </c>
       <c r="AP62">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ62">
         <v>1</v>
@@ -13851,7 +13863,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ63">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AR63">
         <v>2.11</v>
@@ -14054,7 +14066,7 @@
         <v>0.67</v>
       </c>
       <c r="AP64">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ64">
         <v>0.4</v>
@@ -14182,7 +14194,7 @@
         <v>135</v>
       </c>
       <c r="P65" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q65">
         <v>2.38</v>
@@ -14388,7 +14400,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q66">
         <v>2.3</v>
@@ -14800,7 +14812,7 @@
         <v>101</v>
       </c>
       <c r="P68" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q68">
         <v>3.6</v>
@@ -14881,7 +14893,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ68">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR68">
         <v>1.37</v>
@@ -15911,7 +15923,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ73">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR73">
         <v>1.23</v>
@@ -16036,7 +16048,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q74">
         <v>3</v>
@@ -16114,10 +16126,10 @@
         <v>0.33</v>
       </c>
       <c r="AP74">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ74">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR74">
         <v>1.49</v>
@@ -16242,7 +16254,7 @@
         <v>90</v>
       </c>
       <c r="P75" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q75">
         <v>3.1</v>
@@ -16526,7 +16538,7 @@
         <v>1.33</v>
       </c>
       <c r="AP76">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ76">
         <v>1.75</v>
@@ -16654,7 +16666,7 @@
         <v>139</v>
       </c>
       <c r="P77" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q77">
         <v>2.2</v>
@@ -17478,7 +17490,7 @@
         <v>146</v>
       </c>
       <c r="P81" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q81">
         <v>2.05</v>
@@ -17684,7 +17696,7 @@
         <v>147</v>
       </c>
       <c r="P82" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q82">
         <v>4</v>
@@ -17890,7 +17902,7 @@
         <v>148</v>
       </c>
       <c r="P83" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q83">
         <v>2.75</v>
@@ -18096,7 +18108,7 @@
         <v>101</v>
       </c>
       <c r="P84" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q84">
         <v>3.2</v>
@@ -18586,7 +18598,7 @@
         <v>0.5</v>
       </c>
       <c r="AP86">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ86">
         <v>0.4</v>
@@ -18714,7 +18726,7 @@
         <v>150</v>
       </c>
       <c r="P87" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q87">
         <v>3.5</v>
@@ -19001,7 +19013,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ88">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AR88">
         <v>1.37</v>
@@ -19652,10 +19664,10 @@
         <v>3</v>
       </c>
       <c r="BB91">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BC91">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD91">
         <v>2.05</v>
@@ -19744,7 +19756,7 @@
         <v>153</v>
       </c>
       <c r="P92" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q92">
         <v>2.63</v>
@@ -19901,6 +19913,624 @@
       </c>
       <c r="BP92">
         <v>1.42</v>
+      </c>
+    </row>
+    <row r="93" spans="1:68">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>7380420</v>
+      </c>
+      <c r="C93" t="s">
+        <v>68</v>
+      </c>
+      <c r="D93" t="s">
+        <v>69</v>
+      </c>
+      <c r="E93" s="2">
+        <v>45458.64583333334</v>
+      </c>
+      <c r="F93">
+        <v>10</v>
+      </c>
+      <c r="G93" t="s">
+        <v>86</v>
+      </c>
+      <c r="H93" t="s">
+        <v>84</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>1</v>
+      </c>
+      <c r="K93">
+        <v>1</v>
+      </c>
+      <c r="L93">
+        <v>2</v>
+      </c>
+      <c r="M93">
+        <v>1</v>
+      </c>
+      <c r="N93">
+        <v>3</v>
+      </c>
+      <c r="O93" t="s">
+        <v>154</v>
+      </c>
+      <c r="P93" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q93">
+        <v>2.25</v>
+      </c>
+      <c r="R93">
+        <v>2.1</v>
+      </c>
+      <c r="S93">
+        <v>6</v>
+      </c>
+      <c r="T93">
+        <v>1.44</v>
+      </c>
+      <c r="U93">
+        <v>2.65</v>
+      </c>
+      <c r="V93">
+        <v>3.1</v>
+      </c>
+      <c r="W93">
+        <v>1.34</v>
+      </c>
+      <c r="X93">
+        <v>8.1</v>
+      </c>
+      <c r="Y93">
+        <v>1.06</v>
+      </c>
+      <c r="Z93">
+        <v>1.62</v>
+      </c>
+      <c r="AA93">
+        <v>3.5</v>
+      </c>
+      <c r="AB93">
+        <v>5.1</v>
+      </c>
+      <c r="AC93">
+        <v>1.05</v>
+      </c>
+      <c r="AD93">
+        <v>8</v>
+      </c>
+      <c r="AE93">
+        <v>1.36</v>
+      </c>
+      <c r="AF93">
+        <v>2.9</v>
+      </c>
+      <c r="AG93">
+        <v>2.07</v>
+      </c>
+      <c r="AH93">
+        <v>1.7</v>
+      </c>
+      <c r="AI93">
+        <v>2.1</v>
+      </c>
+      <c r="AJ93">
+        <v>1.67</v>
+      </c>
+      <c r="AK93">
+        <v>1.17</v>
+      </c>
+      <c r="AL93">
+        <v>1.29</v>
+      </c>
+      <c r="AM93">
+        <v>2.15</v>
+      </c>
+      <c r="AN93">
+        <v>2.6</v>
+      </c>
+      <c r="AO93">
+        <v>0.25</v>
+      </c>
+      <c r="AP93">
+        <v>2.67</v>
+      </c>
+      <c r="AQ93">
+        <v>0.2</v>
+      </c>
+      <c r="AR93">
+        <v>1.79</v>
+      </c>
+      <c r="AS93">
+        <v>1.4</v>
+      </c>
+      <c r="AT93">
+        <v>3.19</v>
+      </c>
+      <c r="AU93">
+        <v>12</v>
+      </c>
+      <c r="AV93">
+        <v>3</v>
+      </c>
+      <c r="AW93">
+        <v>10</v>
+      </c>
+      <c r="AX93">
+        <v>1</v>
+      </c>
+      <c r="AY93">
+        <v>22</v>
+      </c>
+      <c r="AZ93">
+        <v>4</v>
+      </c>
+      <c r="BA93">
+        <v>3</v>
+      </c>
+      <c r="BB93">
+        <v>1</v>
+      </c>
+      <c r="BC93">
+        <v>4</v>
+      </c>
+      <c r="BD93">
+        <v>1.51</v>
+      </c>
+      <c r="BE93">
+        <v>8.4</v>
+      </c>
+      <c r="BF93">
+        <v>3.24</v>
+      </c>
+      <c r="BG93">
+        <v>1.27</v>
+      </c>
+      <c r="BH93">
+        <v>3.55</v>
+      </c>
+      <c r="BI93">
+        <v>1.5</v>
+      </c>
+      <c r="BJ93">
+        <v>2.48</v>
+      </c>
+      <c r="BK93">
+        <v>2.38</v>
+      </c>
+      <c r="BL93">
+        <v>1.9</v>
+      </c>
+      <c r="BM93">
+        <v>2.45</v>
+      </c>
+      <c r="BN93">
+        <v>1.5</v>
+      </c>
+      <c r="BO93">
+        <v>3.4</v>
+      </c>
+      <c r="BP93">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="94" spans="1:68">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>7380417</v>
+      </c>
+      <c r="C94" t="s">
+        <v>68</v>
+      </c>
+      <c r="D94" t="s">
+        <v>69</v>
+      </c>
+      <c r="E94" s="2">
+        <v>45458.70833333334</v>
+      </c>
+      <c r="F94">
+        <v>10</v>
+      </c>
+      <c r="G94" t="s">
+        <v>77</v>
+      </c>
+      <c r="H94" t="s">
+        <v>71</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>1</v>
+      </c>
+      <c r="L94">
+        <v>1</v>
+      </c>
+      <c r="M94">
+        <v>0</v>
+      </c>
+      <c r="N94">
+        <v>1</v>
+      </c>
+      <c r="O94" t="s">
+        <v>155</v>
+      </c>
+      <c r="P94" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q94">
+        <v>3.75</v>
+      </c>
+      <c r="R94">
+        <v>1.91</v>
+      </c>
+      <c r="S94">
+        <v>3.6</v>
+      </c>
+      <c r="T94">
+        <v>1.56</v>
+      </c>
+      <c r="U94">
+        <v>2.34</v>
+      </c>
+      <c r="V94">
+        <v>3.62</v>
+      </c>
+      <c r="W94">
+        <v>1.26</v>
+      </c>
+      <c r="X94">
+        <v>10.2</v>
+      </c>
+      <c r="Y94">
+        <v>1.03</v>
+      </c>
+      <c r="Z94">
+        <v>2.45</v>
+      </c>
+      <c r="AA94">
+        <v>2.8</v>
+      </c>
+      <c r="AB94">
+        <v>2.9</v>
+      </c>
+      <c r="AC94">
+        <v>1.07</v>
+      </c>
+      <c r="AD94">
+        <v>6.3</v>
+      </c>
+      <c r="AE94">
+        <v>1.5</v>
+      </c>
+      <c r="AF94">
+        <v>2.43</v>
+      </c>
+      <c r="AG94">
+        <v>2.38</v>
+      </c>
+      <c r="AH94">
+        <v>1.52</v>
+      </c>
+      <c r="AI94">
+        <v>2.2</v>
+      </c>
+      <c r="AJ94">
+        <v>1.62</v>
+      </c>
+      <c r="AK94">
+        <v>1.41</v>
+      </c>
+      <c r="AL94">
+        <v>1.36</v>
+      </c>
+      <c r="AM94">
+        <v>1.46</v>
+      </c>
+      <c r="AN94">
+        <v>1.75</v>
+      </c>
+      <c r="AO94">
+        <v>1.4</v>
+      </c>
+      <c r="AP94">
+        <v>2</v>
+      </c>
+      <c r="AQ94">
+        <v>1.17</v>
+      </c>
+      <c r="AR94">
+        <v>1.57</v>
+      </c>
+      <c r="AS94">
+        <v>1.39</v>
+      </c>
+      <c r="AT94">
+        <v>2.96</v>
+      </c>
+      <c r="AU94">
+        <v>5</v>
+      </c>
+      <c r="AV94">
+        <v>2</v>
+      </c>
+      <c r="AW94">
+        <v>6</v>
+      </c>
+      <c r="AX94">
+        <v>6</v>
+      </c>
+      <c r="AY94">
+        <v>11</v>
+      </c>
+      <c r="AZ94">
+        <v>8</v>
+      </c>
+      <c r="BA94">
+        <v>4</v>
+      </c>
+      <c r="BB94">
+        <v>3</v>
+      </c>
+      <c r="BC94">
+        <v>7</v>
+      </c>
+      <c r="BD94">
+        <v>2.2</v>
+      </c>
+      <c r="BE94">
+        <v>7.6</v>
+      </c>
+      <c r="BF94">
+        <v>1.95</v>
+      </c>
+      <c r="BG94">
+        <v>1.19</v>
+      </c>
+      <c r="BH94">
+        <v>4.2</v>
+      </c>
+      <c r="BI94">
+        <v>1.3</v>
+      </c>
+      <c r="BJ94">
+        <v>3.3</v>
+      </c>
+      <c r="BK94">
+        <v>2.1</v>
+      </c>
+      <c r="BL94">
+        <v>2.38</v>
+      </c>
+      <c r="BM94">
+        <v>2</v>
+      </c>
+      <c r="BN94">
+        <v>1.8</v>
+      </c>
+      <c r="BO94">
+        <v>2.5</v>
+      </c>
+      <c r="BP94">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="95" spans="1:68">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>7380419</v>
+      </c>
+      <c r="C95" t="s">
+        <v>68</v>
+      </c>
+      <c r="D95" t="s">
+        <v>69</v>
+      </c>
+      <c r="E95" s="2">
+        <v>45458.75</v>
+      </c>
+      <c r="F95">
+        <v>10</v>
+      </c>
+      <c r="G95" t="s">
+        <v>81</v>
+      </c>
+      <c r="H95" t="s">
+        <v>85</v>
+      </c>
+      <c r="I95">
+        <v>2</v>
+      </c>
+      <c r="J95">
+        <v>3</v>
+      </c>
+      <c r="K95">
+        <v>5</v>
+      </c>
+      <c r="L95">
+        <v>3</v>
+      </c>
+      <c r="M95">
+        <v>5</v>
+      </c>
+      <c r="N95">
+        <v>8</v>
+      </c>
+      <c r="O95" t="s">
+        <v>156</v>
+      </c>
+      <c r="P95" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q95">
+        <v>3.5</v>
+      </c>
+      <c r="R95">
+        <v>1.95</v>
+      </c>
+      <c r="S95">
+        <v>3.5</v>
+      </c>
+      <c r="T95">
+        <v>1.48</v>
+      </c>
+      <c r="U95">
+        <v>2.48</v>
+      </c>
+      <c r="V95">
+        <v>3.55</v>
+      </c>
+      <c r="W95">
+        <v>1.25</v>
+      </c>
+      <c r="X95">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="Y95">
+        <v>1.04</v>
+      </c>
+      <c r="Z95">
+        <v>2.75</v>
+      </c>
+      <c r="AA95">
+        <v>3</v>
+      </c>
+      <c r="AB95">
+        <v>2.7</v>
+      </c>
+      <c r="AC95">
+        <v>1.1</v>
+      </c>
+      <c r="AD95">
+        <v>6.5</v>
+      </c>
+      <c r="AE95">
+        <v>1.48</v>
+      </c>
+      <c r="AF95">
+        <v>2.6</v>
+      </c>
+      <c r="AG95">
+        <v>2.35</v>
+      </c>
+      <c r="AH95">
+        <v>1.57</v>
+      </c>
+      <c r="AI95">
+        <v>2</v>
+      </c>
+      <c r="AJ95">
+        <v>1.73</v>
+      </c>
+      <c r="AK95">
+        <v>1.4</v>
+      </c>
+      <c r="AL95">
+        <v>1.35</v>
+      </c>
+      <c r="AM95">
+        <v>1.43</v>
+      </c>
+      <c r="AN95">
+        <v>1.2</v>
+      </c>
+      <c r="AO95">
+        <v>0.4</v>
+      </c>
+      <c r="AP95">
+        <v>1</v>
+      </c>
+      <c r="AQ95">
+        <v>0.83</v>
+      </c>
+      <c r="AR95">
+        <v>1.35</v>
+      </c>
+      <c r="AS95">
+        <v>1.34</v>
+      </c>
+      <c r="AT95">
+        <v>2.69</v>
+      </c>
+      <c r="AU95">
+        <v>8</v>
+      </c>
+      <c r="AV95">
+        <v>10</v>
+      </c>
+      <c r="AW95">
+        <v>7</v>
+      </c>
+      <c r="AX95">
+        <v>6</v>
+      </c>
+      <c r="AY95">
+        <v>15</v>
+      </c>
+      <c r="AZ95">
+        <v>16</v>
+      </c>
+      <c r="BA95">
+        <v>6</v>
+      </c>
+      <c r="BB95">
+        <v>4</v>
+      </c>
+      <c r="BC95">
+        <v>10</v>
+      </c>
+      <c r="BD95">
+        <v>2.28</v>
+      </c>
+      <c r="BE95">
+        <v>7.5</v>
+      </c>
+      <c r="BF95">
+        <v>1.9</v>
+      </c>
+      <c r="BG95">
+        <v>1.25</v>
+      </c>
+      <c r="BH95">
+        <v>3.7</v>
+      </c>
+      <c r="BI95">
+        <v>1.47</v>
+      </c>
+      <c r="BJ95">
+        <v>2.55</v>
+      </c>
+      <c r="BK95">
+        <v>2.25</v>
+      </c>
+      <c r="BL95">
+        <v>2</v>
+      </c>
+      <c r="BM95">
+        <v>2.38</v>
+      </c>
+      <c r="BN95">
+        <v>1.54</v>
+      </c>
+      <c r="BO95">
+        <v>3.25</v>
+      </c>
+      <c r="BP95">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="197">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -487,6 +487,15 @@
     <t>['42', '44', '72']</t>
   </si>
   <si>
+    <t>['45+2']</t>
+  </si>
+  <si>
+    <t>['66']</t>
+  </si>
+  <si>
+    <t>['67']</t>
+  </si>
+  <si>
     <t>['62']</t>
   </si>
   <si>
@@ -550,9 +559,6 @@
     <t>['17', '23']</t>
   </si>
   <si>
-    <t>['45+2']</t>
-  </si>
-  <si>
     <t>['90', '90+6']</t>
   </si>
   <si>
@@ -596,6 +602,9 @@
   </si>
   <si>
     <t>['21', '26', '30', '56', '90+1']</t>
+  </si>
+  <si>
+    <t>['3']</t>
   </si>
 </sst>
 </file>
@@ -957,7 +966,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP95"/>
+  <dimension ref="A1:BP99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1216,7 +1225,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1294,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AQ2">
         <v>1.25</v>
@@ -1834,7 +1843,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q5">
         <v>2.75</v>
@@ -2246,7 +2255,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q7">
         <v>4.33</v>
@@ -2658,7 +2667,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2739,7 +2748,7 @@
         <v>2</v>
       </c>
       <c r="AQ9">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3070,7 +3079,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q11">
         <v>3.5</v>
@@ -3148,10 +3157,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ11">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3354,10 +3363,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ12">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3482,7 +3491,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q13">
         <v>3.6</v>
@@ -3688,7 +3697,7 @@
         <v>101</v>
       </c>
       <c r="P14" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q14">
         <v>4.75</v>
@@ -3894,7 +3903,7 @@
         <v>101</v>
       </c>
       <c r="P15" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4306,7 +4315,7 @@
         <v>102</v>
       </c>
       <c r="P17" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q17">
         <v>2.75</v>
@@ -5002,7 +5011,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AQ20">
         <v>0.4</v>
@@ -5130,7 +5139,7 @@
         <v>106</v>
       </c>
       <c r="P21" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5211,7 +5220,7 @@
         <v>3</v>
       </c>
       <c r="AQ21">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5748,7 +5757,7 @@
         <v>107</v>
       </c>
       <c r="P24" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q24">
         <v>3.6</v>
@@ -6160,7 +6169,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6366,7 +6375,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q27">
         <v>4</v>
@@ -6444,7 +6453,7 @@
         <v>1</v>
       </c>
       <c r="AP27">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ27">
         <v>1</v>
@@ -6572,7 +6581,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6984,7 +6993,7 @@
         <v>112</v>
       </c>
       <c r="P30" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q30">
         <v>2.1</v>
@@ -7268,10 +7277,10 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AQ31">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR31">
         <v>1.04</v>
@@ -7396,7 +7405,7 @@
         <v>113</v>
       </c>
       <c r="P32" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q32">
         <v>2.38</v>
@@ -7477,7 +7486,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ32">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR32">
         <v>2.22</v>
@@ -7602,7 +7611,7 @@
         <v>101</v>
       </c>
       <c r="P33" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -7683,7 +7692,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ33">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR33">
         <v>1.83</v>
@@ -7886,7 +7895,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AQ34">
         <v>0</v>
@@ -8838,7 +8847,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q39">
         <v>2</v>
@@ -8916,7 +8925,7 @@
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ39">
         <v>0.2</v>
@@ -9125,7 +9134,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ40">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AR40">
         <v>1.33</v>
@@ -9250,7 +9259,7 @@
         <v>120</v>
       </c>
       <c r="P41" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q41">
         <v>2.25</v>
@@ -9456,7 +9465,7 @@
         <v>121</v>
       </c>
       <c r="P42" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q42">
         <v>3.2</v>
@@ -9662,7 +9671,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q43">
         <v>3.4</v>
@@ -9946,7 +9955,7 @@
         <v>1.5</v>
       </c>
       <c r="AP44">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AQ44">
         <v>1.33</v>
@@ -10358,7 +10367,7 @@
         <v>1.5</v>
       </c>
       <c r="AP46">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ46">
         <v>1.4</v>
@@ -10773,7 +10782,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ48">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR48">
         <v>1.99</v>
@@ -10898,7 +10907,7 @@
         <v>125</v>
       </c>
       <c r="P49" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -11310,7 +11319,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q51">
         <v>2.25</v>
@@ -11597,7 +11606,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ52">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR52">
         <v>1.8</v>
@@ -11803,7 +11812,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ53">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AR53">
         <v>2.01</v>
@@ -11928,7 +11937,7 @@
         <v>128</v>
       </c>
       <c r="P54" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="Q54">
         <v>3.2</v>
@@ -12212,7 +12221,7 @@
         <v>0.5</v>
       </c>
       <c r="AP55">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AQ55">
         <v>1</v>
@@ -12340,7 +12349,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q56">
         <v>1.95</v>
@@ -12418,7 +12427,7 @@
         <v>0.5</v>
       </c>
       <c r="AP56">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ56">
         <v>1.75</v>
@@ -12833,7 +12842,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ58">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR58">
         <v>1.54</v>
@@ -13164,7 +13173,7 @@
         <v>118</v>
       </c>
       <c r="P60" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13576,7 +13585,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q62">
         <v>3.4</v>
@@ -14194,7 +14203,7 @@
         <v>135</v>
       </c>
       <c r="P65" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q65">
         <v>2.38</v>
@@ -14400,7 +14409,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q66">
         <v>2.3</v>
@@ -14812,7 +14821,7 @@
         <v>101</v>
       </c>
       <c r="P68" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q68">
         <v>3.6</v>
@@ -14890,7 +14899,7 @@
         <v>1</v>
       </c>
       <c r="AP68">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AQ68">
         <v>1.17</v>
@@ -15305,7 +15314,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ70">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR70">
         <v>1.23</v>
@@ -15511,7 +15520,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ71">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AR71">
         <v>1.73</v>
@@ -15714,7 +15723,7 @@
         <v>2</v>
       </c>
       <c r="AP72">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AQ72">
         <v>1.5</v>
@@ -15920,7 +15929,7 @@
         <v>1.5</v>
       </c>
       <c r="AP73">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ73">
         <v>1.17</v>
@@ -16048,7 +16057,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q74">
         <v>3</v>
@@ -16254,7 +16263,7 @@
         <v>90</v>
       </c>
       <c r="P75" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q75">
         <v>3.1</v>
@@ -16335,7 +16344,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ75">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR75">
         <v>1.65</v>
@@ -16666,7 +16675,7 @@
         <v>139</v>
       </c>
       <c r="P77" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q77">
         <v>2.2</v>
@@ -17490,7 +17499,7 @@
         <v>146</v>
       </c>
       <c r="P81" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q81">
         <v>2.05</v>
@@ -17696,7 +17705,7 @@
         <v>147</v>
       </c>
       <c r="P82" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q82">
         <v>4</v>
@@ -17902,7 +17911,7 @@
         <v>148</v>
       </c>
       <c r="P83" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q83">
         <v>2.75</v>
@@ -18108,7 +18117,7 @@
         <v>101</v>
       </c>
       <c r="P84" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q84">
         <v>3.2</v>
@@ -18726,7 +18735,7 @@
         <v>150</v>
       </c>
       <c r="P87" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q87">
         <v>3.5</v>
@@ -18807,7 +18816,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ87">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR87">
         <v>1.41</v>
@@ -19010,7 +19019,7 @@
         <v>0.5</v>
       </c>
       <c r="AP88">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ88">
         <v>0.83</v>
@@ -19756,7 +19765,7 @@
         <v>153</v>
       </c>
       <c r="P92" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q92">
         <v>2.63</v>
@@ -20374,7 +20383,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q95">
         <v>3.5</v>
@@ -20531,6 +20540,830 @@
       </c>
       <c r="BP95">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:68">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>7380418</v>
+      </c>
+      <c r="C96" t="s">
+        <v>68</v>
+      </c>
+      <c r="D96" t="s">
+        <v>69</v>
+      </c>
+      <c r="E96" s="2">
+        <v>45459.45833333334</v>
+      </c>
+      <c r="F96">
+        <v>10</v>
+      </c>
+      <c r="G96" t="s">
+        <v>70</v>
+      </c>
+      <c r="H96" t="s">
+        <v>78</v>
+      </c>
+      <c r="I96">
+        <v>1</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>1</v>
+      </c>
+      <c r="L96">
+        <v>1</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+      <c r="N96">
+        <v>1</v>
+      </c>
+      <c r="O96" t="s">
+        <v>157</v>
+      </c>
+      <c r="P96" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q96">
+        <v>3.1</v>
+      </c>
+      <c r="R96">
+        <v>1.91</v>
+      </c>
+      <c r="S96">
+        <v>4.5</v>
+      </c>
+      <c r="T96">
+        <v>1.56</v>
+      </c>
+      <c r="U96">
+        <v>2.28</v>
+      </c>
+      <c r="V96">
+        <v>4</v>
+      </c>
+      <c r="W96">
+        <v>1.21</v>
+      </c>
+      <c r="X96">
+        <v>10.75</v>
+      </c>
+      <c r="Y96">
+        <v>1.02</v>
+      </c>
+      <c r="Z96">
+        <v>2.15</v>
+      </c>
+      <c r="AA96">
+        <v>2.95</v>
+      </c>
+      <c r="AB96">
+        <v>3.56</v>
+      </c>
+      <c r="AC96">
+        <v>1.11</v>
+      </c>
+      <c r="AD96">
+        <v>6.25</v>
+      </c>
+      <c r="AE96">
+        <v>1.53</v>
+      </c>
+      <c r="AF96">
+        <v>2.25</v>
+      </c>
+      <c r="AG96">
+        <v>2.65</v>
+      </c>
+      <c r="AH96">
+        <v>1.42</v>
+      </c>
+      <c r="AI96">
+        <v>2.25</v>
+      </c>
+      <c r="AJ96">
+        <v>1.57</v>
+      </c>
+      <c r="AK96">
+        <v>1.24</v>
+      </c>
+      <c r="AL96">
+        <v>1.37</v>
+      </c>
+      <c r="AM96">
+        <v>1.62</v>
+      </c>
+      <c r="AN96">
+        <v>0.75</v>
+      </c>
+      <c r="AO96">
+        <v>0.25</v>
+      </c>
+      <c r="AP96">
+        <v>1.2</v>
+      </c>
+      <c r="AQ96">
+        <v>0.2</v>
+      </c>
+      <c r="AR96">
+        <v>1.38</v>
+      </c>
+      <c r="AS96">
+        <v>1.08</v>
+      </c>
+      <c r="AT96">
+        <v>2.46</v>
+      </c>
+      <c r="AU96">
+        <v>12</v>
+      </c>
+      <c r="AV96">
+        <v>8</v>
+      </c>
+      <c r="AW96">
+        <v>5</v>
+      </c>
+      <c r="AX96">
+        <v>4</v>
+      </c>
+      <c r="AY96">
+        <v>17</v>
+      </c>
+      <c r="AZ96">
+        <v>12</v>
+      </c>
+      <c r="BA96">
+        <v>10</v>
+      </c>
+      <c r="BB96">
+        <v>5</v>
+      </c>
+      <c r="BC96">
+        <v>15</v>
+      </c>
+      <c r="BD96">
+        <v>1.62</v>
+      </c>
+      <c r="BE96">
+        <v>7.7</v>
+      </c>
+      <c r="BF96">
+        <v>2.91</v>
+      </c>
+      <c r="BG96">
+        <v>1.22</v>
+      </c>
+      <c r="BH96">
+        <v>4</v>
+      </c>
+      <c r="BI96">
+        <v>1.42</v>
+      </c>
+      <c r="BJ96">
+        <v>2.75</v>
+      </c>
+      <c r="BK96">
+        <v>2.2</v>
+      </c>
+      <c r="BL96">
+        <v>2</v>
+      </c>
+      <c r="BM96">
+        <v>2.23</v>
+      </c>
+      <c r="BN96">
+        <v>1.61</v>
+      </c>
+      <c r="BO96">
+        <v>3</v>
+      </c>
+      <c r="BP96">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="97" spans="1:68">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>7380422</v>
+      </c>
+      <c r="C97" t="s">
+        <v>68</v>
+      </c>
+      <c r="D97" t="s">
+        <v>69</v>
+      </c>
+      <c r="E97" s="2">
+        <v>45459.66666666666</v>
+      </c>
+      <c r="F97">
+        <v>10</v>
+      </c>
+      <c r="G97" t="s">
+        <v>79</v>
+      </c>
+      <c r="H97" t="s">
+        <v>76</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+      <c r="L97">
+        <v>1</v>
+      </c>
+      <c r="M97">
+        <v>0</v>
+      </c>
+      <c r="N97">
+        <v>1</v>
+      </c>
+      <c r="O97" t="s">
+        <v>158</v>
+      </c>
+      <c r="P97" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q97">
+        <v>4</v>
+      </c>
+      <c r="R97">
+        <v>2</v>
+      </c>
+      <c r="S97">
+        <v>3</v>
+      </c>
+      <c r="T97">
+        <v>1.43</v>
+      </c>
+      <c r="U97">
+        <v>2.63</v>
+      </c>
+      <c r="V97">
+        <v>3.3</v>
+      </c>
+      <c r="W97">
+        <v>1.29</v>
+      </c>
+      <c r="X97">
+        <v>8.4</v>
+      </c>
+      <c r="Y97">
+        <v>1.05</v>
+      </c>
+      <c r="Z97">
+        <v>2.8</v>
+      </c>
+      <c r="AA97">
+        <v>3</v>
+      </c>
+      <c r="AB97">
+        <v>2.55</v>
+      </c>
+      <c r="AC97">
+        <v>1.08</v>
+      </c>
+      <c r="AD97">
+        <v>7.5</v>
+      </c>
+      <c r="AE97">
+        <v>1.42</v>
+      </c>
+      <c r="AF97">
+        <v>2.85</v>
+      </c>
+      <c r="AG97">
+        <v>2.19</v>
+      </c>
+      <c r="AH97">
+        <v>1.6</v>
+      </c>
+      <c r="AI97">
+        <v>1.91</v>
+      </c>
+      <c r="AJ97">
+        <v>1.8</v>
+      </c>
+      <c r="AK97">
+        <v>1.53</v>
+      </c>
+      <c r="AL97">
+        <v>1.33</v>
+      </c>
+      <c r="AM97">
+        <v>1.34</v>
+      </c>
+      <c r="AN97">
+        <v>1.25</v>
+      </c>
+      <c r="AO97">
+        <v>1</v>
+      </c>
+      <c r="AP97">
+        <v>1.6</v>
+      </c>
+      <c r="AQ97">
+        <v>0.8</v>
+      </c>
+      <c r="AR97">
+        <v>1.19</v>
+      </c>
+      <c r="AS97">
+        <v>1.51</v>
+      </c>
+      <c r="AT97">
+        <v>2.7</v>
+      </c>
+      <c r="AU97">
+        <v>2</v>
+      </c>
+      <c r="AV97">
+        <v>4</v>
+      </c>
+      <c r="AW97">
+        <v>6</v>
+      </c>
+      <c r="AX97">
+        <v>12</v>
+      </c>
+      <c r="AY97">
+        <v>8</v>
+      </c>
+      <c r="AZ97">
+        <v>16</v>
+      </c>
+      <c r="BA97">
+        <v>2</v>
+      </c>
+      <c r="BB97">
+        <v>6</v>
+      </c>
+      <c r="BC97">
+        <v>8</v>
+      </c>
+      <c r="BD97">
+        <v>2.37</v>
+      </c>
+      <c r="BE97">
+        <v>7.5</v>
+      </c>
+      <c r="BF97">
+        <v>1.87</v>
+      </c>
+      <c r="BG97">
+        <v>1.18</v>
+      </c>
+      <c r="BH97">
+        <v>4.2</v>
+      </c>
+      <c r="BI97">
+        <v>1.3</v>
+      </c>
+      <c r="BJ97">
+        <v>3.3</v>
+      </c>
+      <c r="BK97">
+        <v>1.91</v>
+      </c>
+      <c r="BL97">
+        <v>2.38</v>
+      </c>
+      <c r="BM97">
+        <v>2</v>
+      </c>
+      <c r="BN97">
+        <v>1.8</v>
+      </c>
+      <c r="BO97">
+        <v>2.5</v>
+      </c>
+      <c r="BP97">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="98" spans="1:68">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>7380416</v>
+      </c>
+      <c r="C98" t="s">
+        <v>68</v>
+      </c>
+      <c r="D98" t="s">
+        <v>69</v>
+      </c>
+      <c r="E98" s="2">
+        <v>45459.77083333334</v>
+      </c>
+      <c r="F98">
+        <v>10</v>
+      </c>
+      <c r="G98" t="s">
+        <v>88</v>
+      </c>
+      <c r="H98" t="s">
+        <v>87</v>
+      </c>
+      <c r="I98">
+        <v>1</v>
+      </c>
+      <c r="J98">
+        <v>1</v>
+      </c>
+      <c r="K98">
+        <v>2</v>
+      </c>
+      <c r="L98">
+        <v>1</v>
+      </c>
+      <c r="M98">
+        <v>1</v>
+      </c>
+      <c r="N98">
+        <v>2</v>
+      </c>
+      <c r="O98" t="s">
+        <v>117</v>
+      </c>
+      <c r="P98" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q98">
+        <v>3</v>
+      </c>
+      <c r="R98">
+        <v>1.91</v>
+      </c>
+      <c r="S98">
+        <v>4.5</v>
+      </c>
+      <c r="T98">
+        <v>1.48</v>
+      </c>
+      <c r="U98">
+        <v>2.45</v>
+      </c>
+      <c r="V98">
+        <v>3.6</v>
+      </c>
+      <c r="W98">
+        <v>1.25</v>
+      </c>
+      <c r="X98">
+        <v>9.6</v>
+      </c>
+      <c r="Y98">
+        <v>1.04</v>
+      </c>
+      <c r="Z98">
+        <v>2.15</v>
+      </c>
+      <c r="AA98">
+        <v>3</v>
+      </c>
+      <c r="AB98">
+        <v>3.75</v>
+      </c>
+      <c r="AC98">
+        <v>1.1</v>
+      </c>
+      <c r="AD98">
+        <v>6.5</v>
+      </c>
+      <c r="AE98">
+        <v>1.48</v>
+      </c>
+      <c r="AF98">
+        <v>2.6</v>
+      </c>
+      <c r="AG98">
+        <v>2.7</v>
+      </c>
+      <c r="AH98">
+        <v>1.44</v>
+      </c>
+      <c r="AI98">
+        <v>2.25</v>
+      </c>
+      <c r="AJ98">
+        <v>1.57</v>
+      </c>
+      <c r="AK98">
+        <v>1.19</v>
+      </c>
+      <c r="AL98">
+        <v>1.33</v>
+      </c>
+      <c r="AM98">
+        <v>1.79</v>
+      </c>
+      <c r="AN98">
+        <v>3</v>
+      </c>
+      <c r="AO98">
+        <v>0.5</v>
+      </c>
+      <c r="AP98">
+        <v>2.6</v>
+      </c>
+      <c r="AQ98">
+        <v>0.6</v>
+      </c>
+      <c r="AR98">
+        <v>1.63</v>
+      </c>
+      <c r="AS98">
+        <v>1.43</v>
+      </c>
+      <c r="AT98">
+        <v>3.06</v>
+      </c>
+      <c r="AU98">
+        <v>6</v>
+      </c>
+      <c r="AV98">
+        <v>10</v>
+      </c>
+      <c r="AW98">
+        <v>6</v>
+      </c>
+      <c r="AX98">
+        <v>4</v>
+      </c>
+      <c r="AY98">
+        <v>12</v>
+      </c>
+      <c r="AZ98">
+        <v>14</v>
+      </c>
+      <c r="BA98">
+        <v>2</v>
+      </c>
+      <c r="BB98">
+        <v>3</v>
+      </c>
+      <c r="BC98">
+        <v>5</v>
+      </c>
+      <c r="BD98">
+        <v>1.62</v>
+      </c>
+      <c r="BE98">
+        <v>8.1</v>
+      </c>
+      <c r="BF98">
+        <v>2.86</v>
+      </c>
+      <c r="BG98">
+        <v>1.18</v>
+      </c>
+      <c r="BH98">
+        <v>4.5</v>
+      </c>
+      <c r="BI98">
+        <v>1.34</v>
+      </c>
+      <c r="BJ98">
+        <v>3.1</v>
+      </c>
+      <c r="BK98">
+        <v>2.2</v>
+      </c>
+      <c r="BL98">
+        <v>2.23</v>
+      </c>
+      <c r="BM98">
+        <v>2</v>
+      </c>
+      <c r="BN98">
+        <v>1.73</v>
+      </c>
+      <c r="BO98">
+        <v>2.7</v>
+      </c>
+      <c r="BP98">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="99" spans="1:68">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>7380425</v>
+      </c>
+      <c r="C99" t="s">
+        <v>68</v>
+      </c>
+      <c r="D99" t="s">
+        <v>69</v>
+      </c>
+      <c r="E99" s="2">
+        <v>45459.77083333334</v>
+      </c>
+      <c r="F99">
+        <v>10</v>
+      </c>
+      <c r="G99" t="s">
+        <v>80</v>
+      </c>
+      <c r="H99" t="s">
+        <v>89</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <v>1</v>
+      </c>
+      <c r="M99">
+        <v>0</v>
+      </c>
+      <c r="N99">
+        <v>1</v>
+      </c>
+      <c r="O99" t="s">
+        <v>159</v>
+      </c>
+      <c r="P99" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q99">
+        <v>2.63</v>
+      </c>
+      <c r="R99">
+        <v>1.95</v>
+      </c>
+      <c r="S99">
+        <v>5</v>
+      </c>
+      <c r="T99">
+        <v>1.43</v>
+      </c>
+      <c r="U99">
+        <v>2.6</v>
+      </c>
+      <c r="V99">
+        <v>3.35</v>
+      </c>
+      <c r="W99">
+        <v>1.28</v>
+      </c>
+      <c r="X99">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Y99">
+        <v>1.05</v>
+      </c>
+      <c r="Z99">
+        <v>1.83</v>
+      </c>
+      <c r="AA99">
+        <v>3.3</v>
+      </c>
+      <c r="AB99">
+        <v>4.75</v>
+      </c>
+      <c r="AC99">
+        <v>1.08</v>
+      </c>
+      <c r="AD99">
+        <v>7.5</v>
+      </c>
+      <c r="AE99">
+        <v>1.42</v>
+      </c>
+      <c r="AF99">
+        <v>2.8</v>
+      </c>
+      <c r="AG99">
+        <v>2.5</v>
+      </c>
+      <c r="AH99">
+        <v>1.5</v>
+      </c>
+      <c r="AI99">
+        <v>2.2</v>
+      </c>
+      <c r="AJ99">
+        <v>1.62</v>
+      </c>
+      <c r="AK99">
+        <v>1.15</v>
+      </c>
+      <c r="AL99">
+        <v>1.28</v>
+      </c>
+      <c r="AM99">
+        <v>1.98</v>
+      </c>
+      <c r="AN99">
+        <v>2.25</v>
+      </c>
+      <c r="AO99">
+        <v>0.5</v>
+      </c>
+      <c r="AP99">
+        <v>2.4</v>
+      </c>
+      <c r="AQ99">
+        <v>0.4</v>
+      </c>
+      <c r="AR99">
+        <v>1.35</v>
+      </c>
+      <c r="AS99">
+        <v>1</v>
+      </c>
+      <c r="AT99">
+        <v>2.35</v>
+      </c>
+      <c r="AU99">
+        <v>5</v>
+      </c>
+      <c r="AV99">
+        <v>4</v>
+      </c>
+      <c r="AW99">
+        <v>7</v>
+      </c>
+      <c r="AX99">
+        <v>8</v>
+      </c>
+      <c r="AY99">
+        <v>12</v>
+      </c>
+      <c r="AZ99">
+        <v>12</v>
+      </c>
+      <c r="BA99">
+        <v>12</v>
+      </c>
+      <c r="BB99">
+        <v>4</v>
+      </c>
+      <c r="BC99">
+        <v>16</v>
+      </c>
+      <c r="BD99">
+        <v>1.44</v>
+      </c>
+      <c r="BE99">
+        <v>9.5</v>
+      </c>
+      <c r="BF99">
+        <v>3.44</v>
+      </c>
+      <c r="BG99">
+        <v>1.17</v>
+      </c>
+      <c r="BH99">
+        <v>4.5</v>
+      </c>
+      <c r="BI99">
+        <v>1.3</v>
+      </c>
+      <c r="BJ99">
+        <v>3.3</v>
+      </c>
+      <c r="BK99">
+        <v>1.91</v>
+      </c>
+      <c r="BL99">
+        <v>2.38</v>
+      </c>
+      <c r="BM99">
+        <v>2</v>
+      </c>
+      <c r="BN99">
+        <v>1.8</v>
+      </c>
+      <c r="BO99">
+        <v>2.5</v>
+      </c>
+      <c r="BP99">
+        <v>1.49</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="198">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -454,6 +454,48 @@
     <t>['59', '68']</t>
   </si>
   <si>
+    <t>['11', '19', '45+1', '70']</t>
+  </si>
+  <si>
+    <t>['21', '52', '80']</t>
+  </si>
+  <si>
+    <t>['52', '90+1']</t>
+  </si>
+  <si>
+    <t>['13', '51']</t>
+  </si>
+  <si>
+    <t>['7', '57', '90+6']</t>
+  </si>
+  <si>
+    <t>['73']</t>
+  </si>
+  <si>
+    <t>['21']</t>
+  </si>
+  <si>
+    <t>['20', '49', '61']</t>
+  </si>
+  <si>
+    <t>['48', '56']</t>
+  </si>
+  <si>
+    <t>['34']</t>
+  </si>
+  <si>
+    <t>['42', '44', '72']</t>
+  </si>
+  <si>
+    <t>['45+2']</t>
+  </si>
+  <si>
+    <t>['66']</t>
+  </si>
+  <si>
+    <t>['67']</t>
+  </si>
+  <si>
     <t>['62']</t>
   </si>
   <si>
@@ -482,9 +524,6 @@
   </si>
   <si>
     <t>['67', '69']</t>
-  </si>
-  <si>
-    <t>['21']</t>
   </si>
   <si>
     <t>['79', '83']</t>
@@ -520,9 +559,6 @@
     <t>['17', '23']</t>
   </si>
   <si>
-    <t>['45+2']</t>
-  </si>
-  <si>
     <t>['90', '90+6']</t>
   </si>
   <si>
@@ -545,6 +581,33 @@
   </si>
   <si>
     <t>['43', '51']</t>
+  </si>
+  <si>
+    <t>['52', '80']</t>
+  </si>
+  <si>
+    <t>['48']</t>
+  </si>
+  <si>
+    <t>['64']</t>
+  </si>
+  <si>
+    <t>['42']</t>
+  </si>
+  <si>
+    <t>['43', '75']</t>
+  </si>
+  <si>
+    <t>['10', '28']</t>
+  </si>
+  <si>
+    <t>['21', '26', '30', '56', '90+1']</t>
+  </si>
+  <si>
+    <t>['3']</t>
+  </si>
+  <si>
+    <t>['72']</t>
   </si>
 </sst>
 </file>
@@ -906,7 +969,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP80"/>
+  <dimension ref="A1:BP100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1165,7 +1228,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1243,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AQ2">
         <v>1.25</v>
@@ -1449,10 +1512,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ3">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1655,7 +1718,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ4">
         <v>1.75</v>
@@ -1783,7 +1846,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="Q5">
         <v>2.75</v>
@@ -1861,7 +1924,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ5">
         <v>0</v>
@@ -2070,7 +2133,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ6">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2195,7 +2258,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="Q7">
         <v>4.33</v>
@@ -2273,7 +2336,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ7">
         <v>1.5</v>
@@ -2482,7 +2545,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ8">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2607,7 +2670,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2685,10 +2748,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ9">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2891,7 +2954,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ10">
         <v>0</v>
@@ -3019,7 +3082,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="Q11">
         <v>3.5</v>
@@ -3097,10 +3160,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ11">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3303,10 +3366,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="AQ12">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3431,7 +3494,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="Q13">
         <v>3.6</v>
@@ -3509,10 +3572,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ13">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3637,7 +3700,7 @@
         <v>101</v>
       </c>
       <c r="P14" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="Q14">
         <v>4.75</v>
@@ -3715,10 +3778,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2.25</v>
+        <v>2.17</v>
       </c>
       <c r="AQ14">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -3843,7 +3906,7 @@
         <v>101</v>
       </c>
       <c r="P15" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -3921,10 +3984,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ15">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4255,7 +4318,7 @@
         <v>102</v>
       </c>
       <c r="P17" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="Q17">
         <v>2.75</v>
@@ -4539,10 +4602,10 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2.5</v>
+        <v>2.67</v>
       </c>
       <c r="AQ18">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4745,10 +4808,10 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ19">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -4951,10 +5014,10 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AQ20">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5079,7 +5142,7 @@
         <v>106</v>
       </c>
       <c r="P21" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5160,7 +5223,7 @@
         <v>3</v>
       </c>
       <c r="AQ21">
-        <v>1.33</v>
+        <v>0.8</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5491,7 +5554,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="Q23">
         <v>3.2</v>
@@ -5569,7 +5632,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ23">
         <v>1.5</v>
@@ -5697,7 +5760,7 @@
         <v>107</v>
       </c>
       <c r="P24" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="Q24">
         <v>3.6</v>
@@ -5775,7 +5838,7 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ24">
         <v>1.25</v>
@@ -5981,10 +6044,10 @@
         <v>3</v>
       </c>
       <c r="AP25">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ25">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AR25">
         <v>1.46</v>
@@ -6109,7 +6172,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6187,10 +6250,10 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ26">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR26">
         <v>1.2</v>
@@ -6315,7 +6378,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="Q27">
         <v>4</v>
@@ -6393,10 +6456,10 @@
         <v>1</v>
       </c>
       <c r="AP27">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ27">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR27">
         <v>1.04</v>
@@ -6521,7 +6584,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6602,7 +6665,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ28">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR28">
         <v>2.07</v>
@@ -6805,7 +6868,7 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ29">
         <v>0.25</v>
@@ -6933,7 +6996,7 @@
         <v>112</v>
       </c>
       <c r="P30" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="Q30">
         <v>2.1</v>
@@ -7217,10 +7280,10 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AQ31">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR31">
         <v>1.04</v>
@@ -7345,7 +7408,7 @@
         <v>113</v>
       </c>
       <c r="P32" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="Q32">
         <v>2.38</v>
@@ -7423,10 +7486,10 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>2.5</v>
+        <v>2.67</v>
       </c>
       <c r="AQ32">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR32">
         <v>2.22</v>
@@ -7551,7 +7614,7 @@
         <v>101</v>
       </c>
       <c r="P33" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -7629,10 +7692,10 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ33">
-        <v>1.33</v>
+        <v>0.8</v>
       </c>
       <c r="AR33">
         <v>1.83</v>
@@ -7835,7 +7898,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AQ34">
         <v>0</v>
@@ -8044,7 +8107,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ35">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR35">
         <v>1.74</v>
@@ -8247,7 +8310,7 @@
         <v>1</v>
       </c>
       <c r="AP36">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ36">
         <v>1</v>
@@ -8453,10 +8516,10 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ37">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR37">
         <v>1.35</v>
@@ -8659,10 +8722,10 @@
         <v>3</v>
       </c>
       <c r="AP38">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ38">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR38">
         <v>1.12</v>
@@ -8787,7 +8850,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="Q39">
         <v>2</v>
@@ -8865,10 +8928,10 @@
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="AQ39">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR39">
         <v>1.25</v>
@@ -9071,10 +9134,10 @@
         <v>1</v>
       </c>
       <c r="AP40">
-        <v>2.25</v>
+        <v>2.17</v>
       </c>
       <c r="AQ40">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AR40">
         <v>1.33</v>
@@ -9199,7 +9262,7 @@
         <v>120</v>
       </c>
       <c r="P41" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="Q41">
         <v>2.25</v>
@@ -9280,7 +9343,7 @@
         <v>3</v>
       </c>
       <c r="AQ41">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="AR41">
         <v>1.37</v>
@@ -9405,7 +9468,7 @@
         <v>121</v>
       </c>
       <c r="P42" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="Q42">
         <v>3.2</v>
@@ -9483,10 +9546,10 @@
         <v>1.5</v>
       </c>
       <c r="AP42">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ42">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR42">
         <v>1.32</v>
@@ -9611,7 +9674,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="Q43">
         <v>3.4</v>
@@ -9689,10 +9752,10 @@
         <v>0.5</v>
       </c>
       <c r="AP43">
-        <v>2.25</v>
+        <v>2.17</v>
       </c>
       <c r="AQ43">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR43">
         <v>1.42</v>
@@ -9895,10 +9958,10 @@
         <v>1.5</v>
       </c>
       <c r="AP44">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AQ44">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR44">
         <v>1.09</v>
@@ -10101,7 +10164,7 @@
         <v>0</v>
       </c>
       <c r="AP45">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ45">
         <v>0</v>
@@ -10307,10 +10370,10 @@
         <v>1.5</v>
       </c>
       <c r="AP46">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ46">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AR46">
         <v>1.4</v>
@@ -10513,7 +10576,7 @@
         <v>3</v>
       </c>
       <c r="AP47">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ47">
         <v>1.5</v>
@@ -10719,10 +10782,10 @@
         <v>0.5</v>
       </c>
       <c r="AP48">
-        <v>2.5</v>
+        <v>2.67</v>
       </c>
       <c r="AQ48">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR48">
         <v>1.99</v>
@@ -10847,7 +10910,7 @@
         <v>125</v>
       </c>
       <c r="P49" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -10925,10 +10988,10 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ49">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR49">
         <v>1.83</v>
@@ -11134,7 +11197,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ50">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR50">
         <v>1.29</v>
@@ -11259,7 +11322,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="Q51">
         <v>2.25</v>
@@ -11546,7 +11609,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ52">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR52">
         <v>1.8</v>
@@ -11749,10 +11812,10 @@
         <v>0.5</v>
       </c>
       <c r="AP53">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ53">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AR53">
         <v>2.01</v>
@@ -11877,7 +11940,7 @@
         <v>128</v>
       </c>
       <c r="P54" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="Q54">
         <v>3.2</v>
@@ -11955,10 +12018,10 @@
         <v>0</v>
       </c>
       <c r="AP54">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ54">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="AR54">
         <v>0.92</v>
@@ -12161,7 +12224,7 @@
         <v>0.5</v>
       </c>
       <c r="AP55">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AQ55">
         <v>1</v>
@@ -12289,7 +12352,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="Q56">
         <v>1.95</v>
@@ -12367,7 +12430,7 @@
         <v>0.5</v>
       </c>
       <c r="AP56">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="AQ56">
         <v>1.75</v>
@@ -12576,7 +12639,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ57">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR57">
         <v>1.24</v>
@@ -12779,10 +12842,10 @@
         <v>1.5</v>
       </c>
       <c r="AP58">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ58">
-        <v>1.33</v>
+        <v>0.8</v>
       </c>
       <c r="AR58">
         <v>1.54</v>
@@ -13113,7 +13176,7 @@
         <v>118</v>
       </c>
       <c r="P60" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13191,7 +13254,7 @@
         <v>1</v>
       </c>
       <c r="AP60">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ60">
         <v>1.25</v>
@@ -13397,10 +13460,10 @@
         <v>0.5</v>
       </c>
       <c r="AP61">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ61">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR61">
         <v>1.31</v>
@@ -13525,7 +13588,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="Q62">
         <v>3.4</v>
@@ -13603,10 +13666,10 @@
         <v>2</v>
       </c>
       <c r="AP62">
-        <v>2.5</v>
+        <v>2.67</v>
       </c>
       <c r="AQ62">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR62">
         <v>2.09</v>
@@ -13809,10 +13872,10 @@
         <v>0.33</v>
       </c>
       <c r="AP63">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ63">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="AR63">
         <v>2.11</v>
@@ -14015,10 +14078,10 @@
         <v>0.67</v>
       </c>
       <c r="AP64">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ64">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR64">
         <v>1.17</v>
@@ -14143,7 +14206,7 @@
         <v>135</v>
       </c>
       <c r="P65" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="Q65">
         <v>2.38</v>
@@ -14221,10 +14284,10 @@
         <v>0</v>
       </c>
       <c r="AP65">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ65">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR65">
         <v>1.27</v>
@@ -14349,7 +14412,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="Q66">
         <v>2.3</v>
@@ -14430,7 +14493,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ66">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR66">
         <v>1.56</v>
@@ -14633,10 +14696,10 @@
         <v>1.33</v>
       </c>
       <c r="AP67">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ67">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AR67">
         <v>1.62</v>
@@ -14761,7 +14824,7 @@
         <v>101</v>
       </c>
       <c r="P68" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="Q68">
         <v>3.6</v>
@@ -14839,10 +14902,10 @@
         <v>1</v>
       </c>
       <c r="AP68">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AQ68">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR68">
         <v>1.37</v>
@@ -15045,10 +15108,10 @@
         <v>1.67</v>
       </c>
       <c r="AP69">
-        <v>2.25</v>
+        <v>2.17</v>
       </c>
       <c r="AQ69">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR69">
         <v>1.31</v>
@@ -15251,10 +15314,10 @@
         <v>0.67</v>
       </c>
       <c r="AP70">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ70">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR70">
         <v>1.23</v>
@@ -15460,7 +15523,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ71">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AR71">
         <v>1.73</v>
@@ -15663,7 +15726,7 @@
         <v>2</v>
       </c>
       <c r="AP72">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AQ72">
         <v>1.5</v>
@@ -15869,10 +15932,10 @@
         <v>1.5</v>
       </c>
       <c r="AP73">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ73">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR73">
         <v>1.23</v>
@@ -15997,7 +16060,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="Q74">
         <v>3</v>
@@ -16075,10 +16138,10 @@
         <v>0.33</v>
       </c>
       <c r="AP74">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ74">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR74">
         <v>1.49</v>
@@ -16203,7 +16266,7 @@
         <v>90</v>
       </c>
       <c r="P75" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="Q75">
         <v>3.1</v>
@@ -16281,10 +16344,10 @@
         <v>0</v>
       </c>
       <c r="AP75">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ75">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR75">
         <v>1.65</v>
@@ -16487,7 +16550,7 @@
         <v>1.33</v>
       </c>
       <c r="AP76">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ76">
         <v>1.75</v>
@@ -16615,7 +16678,7 @@
         <v>139</v>
       </c>
       <c r="P77" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="Q77">
         <v>2.2</v>
@@ -16899,7 +16962,7 @@
         <v>0.33</v>
       </c>
       <c r="AP78">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ78">
         <v>0.25</v>
@@ -17390,6 +17453,4126 @@
       </c>
       <c r="BP80">
         <v>1.46</v>
+      </c>
+    </row>
+    <row r="81" spans="1:68">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>7380413</v>
+      </c>
+      <c r="C81" t="s">
+        <v>68</v>
+      </c>
+      <c r="D81" t="s">
+        <v>69</v>
+      </c>
+      <c r="E81" s="2">
+        <v>45450.79166666666</v>
+      </c>
+      <c r="F81">
+        <v>9</v>
+      </c>
+      <c r="G81" t="s">
+        <v>87</v>
+      </c>
+      <c r="H81" t="s">
+        <v>81</v>
+      </c>
+      <c r="I81">
+        <v>3</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>3</v>
+      </c>
+      <c r="L81">
+        <v>4</v>
+      </c>
+      <c r="M81">
+        <v>2</v>
+      </c>
+      <c r="N81">
+        <v>6</v>
+      </c>
+      <c r="O81" t="s">
+        <v>146</v>
+      </c>
+      <c r="P81" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q81">
+        <v>2.05</v>
+      </c>
+      <c r="R81">
+        <v>2.2</v>
+      </c>
+      <c r="S81">
+        <v>7.5</v>
+      </c>
+      <c r="T81">
+        <v>1.4</v>
+      </c>
+      <c r="U81">
+        <v>2.7</v>
+      </c>
+      <c r="V81">
+        <v>2.95</v>
+      </c>
+      <c r="W81">
+        <v>1.35</v>
+      </c>
+      <c r="X81">
+        <v>6.5</v>
+      </c>
+      <c r="Y81">
+        <v>1.07</v>
+      </c>
+      <c r="Z81">
+        <v>1.45</v>
+      </c>
+      <c r="AA81">
+        <v>4.33</v>
+      </c>
+      <c r="AB81">
+        <v>7</v>
+      </c>
+      <c r="AC81">
+        <v>1.05</v>
+      </c>
+      <c r="AD81">
+        <v>9</v>
+      </c>
+      <c r="AE81">
+        <v>1.33</v>
+      </c>
+      <c r="AF81">
+        <v>3.2</v>
+      </c>
+      <c r="AG81">
+        <v>2.15</v>
+      </c>
+      <c r="AH81">
+        <v>1.67</v>
+      </c>
+      <c r="AI81">
+        <v>2.38</v>
+      </c>
+      <c r="AJ81">
+        <v>1.53</v>
+      </c>
+      <c r="AK81">
+        <v>1.07</v>
+      </c>
+      <c r="AL81">
+        <v>1.17</v>
+      </c>
+      <c r="AM81">
+        <v>2.85</v>
+      </c>
+      <c r="AN81">
+        <v>2.25</v>
+      </c>
+      <c r="AO81">
+        <v>0</v>
+      </c>
+      <c r="AP81">
+        <v>2.4</v>
+      </c>
+      <c r="AQ81">
+        <v>0</v>
+      </c>
+      <c r="AR81">
+        <v>1.59</v>
+      </c>
+      <c r="AS81">
+        <v>0.91</v>
+      </c>
+      <c r="AT81">
+        <v>2.5</v>
+      </c>
+      <c r="AU81">
+        <v>12</v>
+      </c>
+      <c r="AV81">
+        <v>5</v>
+      </c>
+      <c r="AW81">
+        <v>7</v>
+      </c>
+      <c r="AX81">
+        <v>9</v>
+      </c>
+      <c r="AY81">
+        <v>19</v>
+      </c>
+      <c r="AZ81">
+        <v>14</v>
+      </c>
+      <c r="BA81">
+        <v>7</v>
+      </c>
+      <c r="BB81">
+        <v>4</v>
+      </c>
+      <c r="BC81">
+        <v>11</v>
+      </c>
+      <c r="BD81">
+        <v>1.26</v>
+      </c>
+      <c r="BE81">
+        <v>10.75</v>
+      </c>
+      <c r="BF81">
+        <v>4.6</v>
+      </c>
+      <c r="BG81">
+        <v>1.21</v>
+      </c>
+      <c r="BH81">
+        <v>3.74</v>
+      </c>
+      <c r="BI81">
+        <v>1.41</v>
+      </c>
+      <c r="BJ81">
+        <v>2.6</v>
+      </c>
+      <c r="BK81">
+        <v>2.2</v>
+      </c>
+      <c r="BL81">
+        <v>1.99</v>
+      </c>
+      <c r="BM81">
+        <v>2.15</v>
+      </c>
+      <c r="BN81">
+        <v>1.59</v>
+      </c>
+      <c r="BO81">
+        <v>2.88</v>
+      </c>
+      <c r="BP81">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="82" spans="1:68">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>7380409</v>
+      </c>
+      <c r="C82" t="s">
+        <v>68</v>
+      </c>
+      <c r="D82" t="s">
+        <v>69</v>
+      </c>
+      <c r="E82" s="2">
+        <v>45450.875</v>
+      </c>
+      <c r="F82">
+        <v>9</v>
+      </c>
+      <c r="G82" t="s">
+        <v>71</v>
+      </c>
+      <c r="H82" t="s">
+        <v>74</v>
+      </c>
+      <c r="I82">
+        <v>1</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>1</v>
+      </c>
+      <c r="L82">
+        <v>3</v>
+      </c>
+      <c r="M82">
+        <v>1</v>
+      </c>
+      <c r="N82">
+        <v>4</v>
+      </c>
+      <c r="O82" t="s">
+        <v>147</v>
+      </c>
+      <c r="P82" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q82">
+        <v>4</v>
+      </c>
+      <c r="R82">
+        <v>1.91</v>
+      </c>
+      <c r="S82">
+        <v>3.4</v>
+      </c>
+      <c r="T82">
+        <v>1.55</v>
+      </c>
+      <c r="U82">
+        <v>2.3</v>
+      </c>
+      <c r="V82">
+        <v>3.55</v>
+      </c>
+      <c r="W82">
+        <v>1.25</v>
+      </c>
+      <c r="X82">
+        <v>9.5</v>
+      </c>
+      <c r="Y82">
+        <v>1.04</v>
+      </c>
+      <c r="Z82">
+        <v>3.1</v>
+      </c>
+      <c r="AA82">
+        <v>3</v>
+      </c>
+      <c r="AB82">
+        <v>2.5</v>
+      </c>
+      <c r="AC82">
+        <v>1.08</v>
+      </c>
+      <c r="AD82">
+        <v>7.5</v>
+      </c>
+      <c r="AE82">
+        <v>1.45</v>
+      </c>
+      <c r="AF82">
+        <v>2.7</v>
+      </c>
+      <c r="AG82">
+        <v>2.7</v>
+      </c>
+      <c r="AH82">
+        <v>1.44</v>
+      </c>
+      <c r="AI82">
+        <v>2.2</v>
+      </c>
+      <c r="AJ82">
+        <v>1.62</v>
+      </c>
+      <c r="AK82">
+        <v>1.5</v>
+      </c>
+      <c r="AL82">
+        <v>1.28</v>
+      </c>
+      <c r="AM82">
+        <v>1.42</v>
+      </c>
+      <c r="AN82">
+        <v>1.33</v>
+      </c>
+      <c r="AO82">
+        <v>1.5</v>
+      </c>
+      <c r="AP82">
+        <v>1.75</v>
+      </c>
+      <c r="AQ82">
+        <v>1</v>
+      </c>
+      <c r="AR82">
+        <v>1.94</v>
+      </c>
+      <c r="AS82">
+        <v>1.29</v>
+      </c>
+      <c r="AT82">
+        <v>3.23</v>
+      </c>
+      <c r="AU82">
+        <v>9</v>
+      </c>
+      <c r="AV82">
+        <v>8</v>
+      </c>
+      <c r="AW82">
+        <v>7</v>
+      </c>
+      <c r="AX82">
+        <v>6</v>
+      </c>
+      <c r="AY82">
+        <v>16</v>
+      </c>
+      <c r="AZ82">
+        <v>14</v>
+      </c>
+      <c r="BA82">
+        <v>3</v>
+      </c>
+      <c r="BB82">
+        <v>1</v>
+      </c>
+      <c r="BC82">
+        <v>4</v>
+      </c>
+      <c r="BD82">
+        <v>2</v>
+      </c>
+      <c r="BE82">
+        <v>8.9</v>
+      </c>
+      <c r="BF82">
+        <v>2.03</v>
+      </c>
+      <c r="BG82">
+        <v>1.17</v>
+      </c>
+      <c r="BH82">
+        <v>4.5</v>
+      </c>
+      <c r="BI82">
+        <v>1.26</v>
+      </c>
+      <c r="BJ82">
+        <v>3.34</v>
+      </c>
+      <c r="BK82">
+        <v>1.91</v>
+      </c>
+      <c r="BL82">
+        <v>2.42</v>
+      </c>
+      <c r="BM82">
+        <v>1.81</v>
+      </c>
+      <c r="BN82">
+        <v>1.89</v>
+      </c>
+      <c r="BO82">
+        <v>2.28</v>
+      </c>
+      <c r="BP82">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="83" spans="1:68">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>7380414</v>
+      </c>
+      <c r="C83" t="s">
+        <v>68</v>
+      </c>
+      <c r="D83" t="s">
+        <v>69</v>
+      </c>
+      <c r="E83" s="2">
+        <v>45451.70833333334</v>
+      </c>
+      <c r="F83">
+        <v>9</v>
+      </c>
+      <c r="G83" t="s">
+        <v>75</v>
+      </c>
+      <c r="H83" t="s">
+        <v>79</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>2</v>
+      </c>
+      <c r="M83">
+        <v>1</v>
+      </c>
+      <c r="N83">
+        <v>3</v>
+      </c>
+      <c r="O83" t="s">
+        <v>148</v>
+      </c>
+      <c r="P83" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q83">
+        <v>2.75</v>
+      </c>
+      <c r="R83">
+        <v>1.95</v>
+      </c>
+      <c r="S83">
+        <v>5</v>
+      </c>
+      <c r="T83">
+        <v>1.57</v>
+      </c>
+      <c r="U83">
+        <v>2.25</v>
+      </c>
+      <c r="V83">
+        <v>3.55</v>
+      </c>
+      <c r="W83">
+        <v>1.25</v>
+      </c>
+      <c r="X83">
+        <v>7.8</v>
+      </c>
+      <c r="Y83">
+        <v>1.03</v>
+      </c>
+      <c r="Z83">
+        <v>2.22</v>
+      </c>
+      <c r="AA83">
+        <v>2.27</v>
+      </c>
+      <c r="AB83">
+        <v>4.56</v>
+      </c>
+      <c r="AC83">
+        <v>1.1</v>
+      </c>
+      <c r="AD83">
+        <v>6.5</v>
+      </c>
+      <c r="AE83">
+        <v>1.5</v>
+      </c>
+      <c r="AF83">
+        <v>2.4</v>
+      </c>
+      <c r="AG83">
+        <v>2.4</v>
+      </c>
+      <c r="AH83">
+        <v>1.5</v>
+      </c>
+      <c r="AI83">
+        <v>2.2</v>
+      </c>
+      <c r="AJ83">
+        <v>1.62</v>
+      </c>
+      <c r="AK83">
+        <v>1.25</v>
+      </c>
+      <c r="AL83">
+        <v>1.3</v>
+      </c>
+      <c r="AM83">
+        <v>1.7</v>
+      </c>
+      <c r="AN83">
+        <v>1.75</v>
+      </c>
+      <c r="AO83">
+        <v>0.25</v>
+      </c>
+      <c r="AP83">
+        <v>1.67</v>
+      </c>
+      <c r="AQ83">
+        <v>0.2</v>
+      </c>
+      <c r="AR83">
+        <v>1.29</v>
+      </c>
+      <c r="AS83">
+        <v>1.19</v>
+      </c>
+      <c r="AT83">
+        <v>2.48</v>
+      </c>
+      <c r="AU83">
+        <v>8</v>
+      </c>
+      <c r="AV83">
+        <v>6</v>
+      </c>
+      <c r="AW83">
+        <v>11</v>
+      </c>
+      <c r="AX83">
+        <v>3</v>
+      </c>
+      <c r="AY83">
+        <v>19</v>
+      </c>
+      <c r="AZ83">
+        <v>9</v>
+      </c>
+      <c r="BA83">
+        <v>12</v>
+      </c>
+      <c r="BB83">
+        <v>1</v>
+      </c>
+      <c r="BC83">
+        <v>13</v>
+      </c>
+      <c r="BD83">
+        <v>1.57</v>
+      </c>
+      <c r="BE83">
+        <v>7.6</v>
+      </c>
+      <c r="BF83">
+        <v>3.1</v>
+      </c>
+      <c r="BG83">
+        <v>1.32</v>
+      </c>
+      <c r="BH83">
+        <v>3.1</v>
+      </c>
+      <c r="BI83">
+        <v>1.57</v>
+      </c>
+      <c r="BJ83">
+        <v>2.26</v>
+      </c>
+      <c r="BK83">
+        <v>1.98</v>
+      </c>
+      <c r="BL83">
+        <v>1.82</v>
+      </c>
+      <c r="BM83">
+        <v>2.46</v>
+      </c>
+      <c r="BN83">
+        <v>1.48</v>
+      </c>
+      <c r="BO83">
+        <v>3.2</v>
+      </c>
+      <c r="BP83">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="84" spans="1:68">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>7380407</v>
+      </c>
+      <c r="C84" t="s">
+        <v>68</v>
+      </c>
+      <c r="D84" t="s">
+        <v>69</v>
+      </c>
+      <c r="E84" s="2">
+        <v>45451.70833333334</v>
+      </c>
+      <c r="F84">
+        <v>9</v>
+      </c>
+      <c r="G84" t="s">
+        <v>83</v>
+      </c>
+      <c r="H84" t="s">
+        <v>72</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>1</v>
+      </c>
+      <c r="K84">
+        <v>1</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="M84">
+        <v>1</v>
+      </c>
+      <c r="N84">
+        <v>1</v>
+      </c>
+      <c r="O84" t="s">
+        <v>101</v>
+      </c>
+      <c r="P84" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q84">
+        <v>3.2</v>
+      </c>
+      <c r="R84">
+        <v>1.83</v>
+      </c>
+      <c r="S84">
+        <v>4.33</v>
+      </c>
+      <c r="T84">
+        <v>1.57</v>
+      </c>
+      <c r="U84">
+        <v>2.25</v>
+      </c>
+      <c r="V84">
+        <v>3.75</v>
+      </c>
+      <c r="W84">
+        <v>1.25</v>
+      </c>
+      <c r="X84">
+        <v>13</v>
+      </c>
+      <c r="Y84">
+        <v>1.04</v>
+      </c>
+      <c r="Z84">
+        <v>2.24</v>
+      </c>
+      <c r="AA84">
+        <v>2.65</v>
+      </c>
+      <c r="AB84">
+        <v>3.53</v>
+      </c>
+      <c r="AC84">
+        <v>1.09</v>
+      </c>
+      <c r="AD84">
+        <v>5.8</v>
+      </c>
+      <c r="AE84">
+        <v>1.5</v>
+      </c>
+      <c r="AF84">
+        <v>2.4</v>
+      </c>
+      <c r="AG84">
+        <v>2.55</v>
+      </c>
+      <c r="AH84">
+        <v>1.45</v>
+      </c>
+      <c r="AI84">
+        <v>2.38</v>
+      </c>
+      <c r="AJ84">
+        <v>1.53</v>
+      </c>
+      <c r="AK84">
+        <v>1.36</v>
+      </c>
+      <c r="AL84">
+        <v>1.48</v>
+      </c>
+      <c r="AM84">
+        <v>1.65</v>
+      </c>
+      <c r="AN84">
+        <v>1</v>
+      </c>
+      <c r="AO84">
+        <v>1</v>
+      </c>
+      <c r="AP84">
+        <v>0.8</v>
+      </c>
+      <c r="AQ84">
+        <v>1.67</v>
+      </c>
+      <c r="AR84">
+        <v>1.96</v>
+      </c>
+      <c r="AS84">
+        <v>1.49</v>
+      </c>
+      <c r="AT84">
+        <v>3.45</v>
+      </c>
+      <c r="AU84">
+        <v>6</v>
+      </c>
+      <c r="AV84">
+        <v>3</v>
+      </c>
+      <c r="AW84">
+        <v>8</v>
+      </c>
+      <c r="AX84">
+        <v>4</v>
+      </c>
+      <c r="AY84">
+        <v>14</v>
+      </c>
+      <c r="AZ84">
+        <v>7</v>
+      </c>
+      <c r="BA84">
+        <v>7</v>
+      </c>
+      <c r="BB84">
+        <v>5</v>
+      </c>
+      <c r="BC84">
+        <v>12</v>
+      </c>
+      <c r="BD84">
+        <v>1.8</v>
+      </c>
+      <c r="BE84">
+        <v>9</v>
+      </c>
+      <c r="BF84">
+        <v>2.28</v>
+      </c>
+      <c r="BG84">
+        <v>1.2</v>
+      </c>
+      <c r="BH84">
+        <v>4.25</v>
+      </c>
+      <c r="BI84">
+        <v>1.38</v>
+      </c>
+      <c r="BJ84">
+        <v>2.9</v>
+      </c>
+      <c r="BK84">
+        <v>2.1</v>
+      </c>
+      <c r="BL84">
+        <v>2.12</v>
+      </c>
+      <c r="BM84">
+        <v>2.12</v>
+      </c>
+      <c r="BN84">
+        <v>1.67</v>
+      </c>
+      <c r="BO84">
+        <v>2.85</v>
+      </c>
+      <c r="BP84">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="85" spans="1:68">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>7380411</v>
+      </c>
+      <c r="C85" t="s">
+        <v>68</v>
+      </c>
+      <c r="D85" t="s">
+        <v>69</v>
+      </c>
+      <c r="E85" s="2">
+        <v>45452.66666666666</v>
+      </c>
+      <c r="F85">
+        <v>9</v>
+      </c>
+      <c r="G85" t="s">
+        <v>82</v>
+      </c>
+      <c r="H85" t="s">
+        <v>73</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
+      </c>
+      <c r="N85">
+        <v>0</v>
+      </c>
+      <c r="O85" t="s">
+        <v>101</v>
+      </c>
+      <c r="P85" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q85">
+        <v>2.5</v>
+      </c>
+      <c r="R85">
+        <v>2</v>
+      </c>
+      <c r="S85">
+        <v>5.5</v>
+      </c>
+      <c r="T85">
+        <v>1.53</v>
+      </c>
+      <c r="U85">
+        <v>2.35</v>
+      </c>
+      <c r="V85">
+        <v>3.55</v>
+      </c>
+      <c r="W85">
+        <v>1.25</v>
+      </c>
+      <c r="X85">
+        <v>7.8</v>
+      </c>
+      <c r="Y85">
+        <v>1.04</v>
+      </c>
+      <c r="Z85">
+        <v>1.67</v>
+      </c>
+      <c r="AA85">
+        <v>3.25</v>
+      </c>
+      <c r="AB85">
+        <v>4.6</v>
+      </c>
+      <c r="AC85">
+        <v>1.09</v>
+      </c>
+      <c r="AD85">
+        <v>7</v>
+      </c>
+      <c r="AE85">
+        <v>1.5</v>
+      </c>
+      <c r="AF85">
+        <v>2.4</v>
+      </c>
+      <c r="AG85">
+        <v>2.3</v>
+      </c>
+      <c r="AH85">
+        <v>1.55</v>
+      </c>
+      <c r="AI85">
+        <v>2.25</v>
+      </c>
+      <c r="AJ85">
+        <v>1.57</v>
+      </c>
+      <c r="AK85">
+        <v>1.22</v>
+      </c>
+      <c r="AL85">
+        <v>1.28</v>
+      </c>
+      <c r="AM85">
+        <v>1.83</v>
+      </c>
+      <c r="AN85">
+        <v>2.25</v>
+      </c>
+      <c r="AO85">
+        <v>1</v>
+      </c>
+      <c r="AP85">
+        <v>2.17</v>
+      </c>
+      <c r="AQ85">
+        <v>1.33</v>
+      </c>
+      <c r="AR85">
+        <v>1.43</v>
+      </c>
+      <c r="AS85">
+        <v>0.91</v>
+      </c>
+      <c r="AT85">
+        <v>2.34</v>
+      </c>
+      <c r="AU85">
+        <v>3</v>
+      </c>
+      <c r="AV85">
+        <v>4</v>
+      </c>
+      <c r="AW85">
+        <v>9</v>
+      </c>
+      <c r="AX85">
+        <v>3</v>
+      </c>
+      <c r="AY85">
+        <v>12</v>
+      </c>
+      <c r="AZ85">
+        <v>7</v>
+      </c>
+      <c r="BA85">
+        <v>5</v>
+      </c>
+      <c r="BB85">
+        <v>5</v>
+      </c>
+      <c r="BC85">
+        <v>10</v>
+      </c>
+      <c r="BD85">
+        <v>1.5</v>
+      </c>
+      <c r="BE85">
+        <v>8</v>
+      </c>
+      <c r="BF85">
+        <v>3.34</v>
+      </c>
+      <c r="BG85">
+        <v>1.18</v>
+      </c>
+      <c r="BH85">
+        <v>4.6</v>
+      </c>
+      <c r="BI85">
+        <v>1.32</v>
+      </c>
+      <c r="BJ85">
+        <v>3.15</v>
+      </c>
+      <c r="BK85">
+        <v>1.53</v>
+      </c>
+      <c r="BL85">
+        <v>2.35</v>
+      </c>
+      <c r="BM85">
+        <v>1.88</v>
+      </c>
+      <c r="BN85">
+        <v>1.92</v>
+      </c>
+      <c r="BO85">
+        <v>2.35</v>
+      </c>
+      <c r="BP85">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="86" spans="1:68">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>7380410</v>
+      </c>
+      <c r="C86" t="s">
+        <v>68</v>
+      </c>
+      <c r="D86" t="s">
+        <v>69</v>
+      </c>
+      <c r="E86" s="2">
+        <v>45452.77083333334</v>
+      </c>
+      <c r="F86">
+        <v>9</v>
+      </c>
+      <c r="G86" t="s">
+        <v>86</v>
+      </c>
+      <c r="H86" t="s">
+        <v>77</v>
+      </c>
+      <c r="I86">
+        <v>1</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>1</v>
+      </c>
+      <c r="L86">
+        <v>2</v>
+      </c>
+      <c r="M86">
+        <v>0</v>
+      </c>
+      <c r="N86">
+        <v>2</v>
+      </c>
+      <c r="O86" t="s">
+        <v>149</v>
+      </c>
+      <c r="P86" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q86">
+        <v>2</v>
+      </c>
+      <c r="R86">
+        <v>2.25</v>
+      </c>
+      <c r="S86">
+        <v>7.5</v>
+      </c>
+      <c r="T86">
+        <v>1.42</v>
+      </c>
+      <c r="U86">
+        <v>2.65</v>
+      </c>
+      <c r="V86">
+        <v>2.95</v>
+      </c>
+      <c r="W86">
+        <v>1.35</v>
+      </c>
+      <c r="X86">
+        <v>6.5</v>
+      </c>
+      <c r="Y86">
+        <v>1.07</v>
+      </c>
+      <c r="Z86">
+        <v>1.42</v>
+      </c>
+      <c r="AA86">
+        <v>4.1</v>
+      </c>
+      <c r="AB86">
+        <v>8.5</v>
+      </c>
+      <c r="AC86">
+        <v>1.06</v>
+      </c>
+      <c r="AD86">
+        <v>8.5</v>
+      </c>
+      <c r="AE86">
+        <v>1.35</v>
+      </c>
+      <c r="AF86">
+        <v>3.1</v>
+      </c>
+      <c r="AG86">
+        <v>1.95</v>
+      </c>
+      <c r="AH86">
+        <v>1.85</v>
+      </c>
+      <c r="AI86">
+        <v>2.25</v>
+      </c>
+      <c r="AJ86">
+        <v>1.57</v>
+      </c>
+      <c r="AK86">
+        <v>1.08</v>
+      </c>
+      <c r="AL86">
+        <v>1.2</v>
+      </c>
+      <c r="AM86">
+        <v>2.62</v>
+      </c>
+      <c r="AN86">
+        <v>2.5</v>
+      </c>
+      <c r="AO86">
+        <v>0.5</v>
+      </c>
+      <c r="AP86">
+        <v>2.67</v>
+      </c>
+      <c r="AQ86">
+        <v>0.4</v>
+      </c>
+      <c r="AR86">
+        <v>1.95</v>
+      </c>
+      <c r="AS86">
+        <v>1.17</v>
+      </c>
+      <c r="AT86">
+        <v>3.12</v>
+      </c>
+      <c r="AU86">
+        <v>3</v>
+      </c>
+      <c r="AV86">
+        <v>5</v>
+      </c>
+      <c r="AW86">
+        <v>6</v>
+      </c>
+      <c r="AX86">
+        <v>11</v>
+      </c>
+      <c r="AY86">
+        <v>9</v>
+      </c>
+      <c r="AZ86">
+        <v>16</v>
+      </c>
+      <c r="BA86">
+        <v>7</v>
+      </c>
+      <c r="BB86">
+        <v>4</v>
+      </c>
+      <c r="BC86">
+        <v>11</v>
+      </c>
+      <c r="BD86">
+        <v>1.23</v>
+      </c>
+      <c r="BE86">
+        <v>9.6</v>
+      </c>
+      <c r="BF86">
+        <v>5.77</v>
+      </c>
+      <c r="BG86">
+        <v>1.2</v>
+      </c>
+      <c r="BH86">
+        <v>4.25</v>
+      </c>
+      <c r="BI86">
+        <v>1.38</v>
+      </c>
+      <c r="BJ86">
+        <v>2.9</v>
+      </c>
+      <c r="BK86">
+        <v>2.2</v>
+      </c>
+      <c r="BL86">
+        <v>2.12</v>
+      </c>
+      <c r="BM86">
+        <v>2.05</v>
+      </c>
+      <c r="BN86">
+        <v>1.7</v>
+      </c>
+      <c r="BO86">
+        <v>2.85</v>
+      </c>
+      <c r="BP86">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="87" spans="1:68">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>7380406</v>
+      </c>
+      <c r="C87" t="s">
+        <v>68</v>
+      </c>
+      <c r="D87" t="s">
+        <v>69</v>
+      </c>
+      <c r="E87" s="2">
+        <v>45453.79166666666</v>
+      </c>
+      <c r="F87">
+        <v>9</v>
+      </c>
+      <c r="G87" t="s">
+        <v>78</v>
+      </c>
+      <c r="H87" t="s">
+        <v>76</v>
+      </c>
+      <c r="I87">
+        <v>1</v>
+      </c>
+      <c r="J87">
+        <v>1</v>
+      </c>
+      <c r="K87">
+        <v>2</v>
+      </c>
+      <c r="L87">
+        <v>3</v>
+      </c>
+      <c r="M87">
+        <v>2</v>
+      </c>
+      <c r="N87">
+        <v>5</v>
+      </c>
+      <c r="O87" t="s">
+        <v>150</v>
+      </c>
+      <c r="P87" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q87">
+        <v>3.5</v>
+      </c>
+      <c r="R87">
+        <v>2</v>
+      </c>
+      <c r="S87">
+        <v>3.4</v>
+      </c>
+      <c r="T87">
+        <v>1.5</v>
+      </c>
+      <c r="U87">
+        <v>2.4</v>
+      </c>
+      <c r="V87">
+        <v>3.3</v>
+      </c>
+      <c r="W87">
+        <v>1.28</v>
+      </c>
+      <c r="X87">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Y87">
+        <v>1.04</v>
+      </c>
+      <c r="Z87">
+        <v>2.75</v>
+      </c>
+      <c r="AA87">
+        <v>3.1</v>
+      </c>
+      <c r="AB87">
+        <v>2.63</v>
+      </c>
+      <c r="AC87">
+        <v>1.09</v>
+      </c>
+      <c r="AD87">
+        <v>7</v>
+      </c>
+      <c r="AE87">
+        <v>1.45</v>
+      </c>
+      <c r="AF87">
+        <v>2.7</v>
+      </c>
+      <c r="AG87">
+        <v>2.3</v>
+      </c>
+      <c r="AH87">
+        <v>1.6</v>
+      </c>
+      <c r="AI87">
+        <v>2</v>
+      </c>
+      <c r="AJ87">
+        <v>1.73</v>
+      </c>
+      <c r="AK87">
+        <v>1.33</v>
+      </c>
+      <c r="AL87">
+        <v>1.3</v>
+      </c>
+      <c r="AM87">
+        <v>1.57</v>
+      </c>
+      <c r="AN87">
+        <v>2.5</v>
+      </c>
+      <c r="AO87">
+        <v>1.33</v>
+      </c>
+      <c r="AP87">
+        <v>2.6</v>
+      </c>
+      <c r="AQ87">
+        <v>0.8</v>
+      </c>
+      <c r="AR87">
+        <v>1.41</v>
+      </c>
+      <c r="AS87">
+        <v>1.45</v>
+      </c>
+      <c r="AT87">
+        <v>2.86</v>
+      </c>
+      <c r="AU87">
+        <v>7</v>
+      </c>
+      <c r="AV87">
+        <v>7</v>
+      </c>
+      <c r="AW87">
+        <v>2</v>
+      </c>
+      <c r="AX87">
+        <v>6</v>
+      </c>
+      <c r="AY87">
+        <v>9</v>
+      </c>
+      <c r="AZ87">
+        <v>13</v>
+      </c>
+      <c r="BA87">
+        <v>5</v>
+      </c>
+      <c r="BB87">
+        <v>9</v>
+      </c>
+      <c r="BC87">
+        <v>14</v>
+      </c>
+      <c r="BD87">
+        <v>2.05</v>
+      </c>
+      <c r="BE87">
+        <v>7.4</v>
+      </c>
+      <c r="BF87">
+        <v>2.1</v>
+      </c>
+      <c r="BG87">
+        <v>1.18</v>
+      </c>
+      <c r="BH87">
+        <v>4.5</v>
+      </c>
+      <c r="BI87">
+        <v>1.34</v>
+      </c>
+      <c r="BJ87">
+        <v>3.1</v>
+      </c>
+      <c r="BK87">
+        <v>1.91</v>
+      </c>
+      <c r="BL87">
+        <v>2.23</v>
+      </c>
+      <c r="BM87">
+        <v>2</v>
+      </c>
+      <c r="BN87">
+        <v>1.73</v>
+      </c>
+      <c r="BO87">
+        <v>2.7</v>
+      </c>
+      <c r="BP87">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="88" spans="1:68">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>7380415</v>
+      </c>
+      <c r="C88" t="s">
+        <v>68</v>
+      </c>
+      <c r="D88" t="s">
+        <v>69</v>
+      </c>
+      <c r="E88" s="2">
+        <v>45453.89583333334</v>
+      </c>
+      <c r="F88">
+        <v>9</v>
+      </c>
+      <c r="G88" t="s">
+        <v>80</v>
+      </c>
+      <c r="H88" t="s">
+        <v>85</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>1</v>
+      </c>
+      <c r="M88">
+        <v>0</v>
+      </c>
+      <c r="N88">
+        <v>1</v>
+      </c>
+      <c r="O88" t="s">
+        <v>151</v>
+      </c>
+      <c r="P88" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q88">
+        <v>2.38</v>
+      </c>
+      <c r="R88">
+        <v>2.1</v>
+      </c>
+      <c r="S88">
+        <v>5.5</v>
+      </c>
+      <c r="T88">
+        <v>1.4</v>
+      </c>
+      <c r="U88">
+        <v>2.75</v>
+      </c>
+      <c r="V88">
+        <v>2.8</v>
+      </c>
+      <c r="W88">
+        <v>1.39</v>
+      </c>
+      <c r="X88">
+        <v>6.95</v>
+      </c>
+      <c r="Y88">
+        <v>1.07</v>
+      </c>
+      <c r="Z88">
+        <v>1.73</v>
+      </c>
+      <c r="AA88">
+        <v>3.5</v>
+      </c>
+      <c r="AB88">
+        <v>5</v>
+      </c>
+      <c r="AC88">
+        <v>1.05</v>
+      </c>
+      <c r="AD88">
+        <v>9</v>
+      </c>
+      <c r="AE88">
+        <v>1.3</v>
+      </c>
+      <c r="AF88">
+        <v>3.3</v>
+      </c>
+      <c r="AG88">
+        <v>2.1</v>
+      </c>
+      <c r="AH88">
+        <v>1.7</v>
+      </c>
+      <c r="AI88">
+        <v>2</v>
+      </c>
+      <c r="AJ88">
+        <v>1.73</v>
+      </c>
+      <c r="AK88">
+        <v>1.09</v>
+      </c>
+      <c r="AL88">
+        <v>1.18</v>
+      </c>
+      <c r="AM88">
+        <v>2.4</v>
+      </c>
+      <c r="AN88">
+        <v>2</v>
+      </c>
+      <c r="AO88">
+        <v>0.5</v>
+      </c>
+      <c r="AP88">
+        <v>2.4</v>
+      </c>
+      <c r="AQ88">
+        <v>0.83</v>
+      </c>
+      <c r="AR88">
+        <v>1.37</v>
+      </c>
+      <c r="AS88">
+        <v>1.49</v>
+      </c>
+      <c r="AT88">
+        <v>2.86</v>
+      </c>
+      <c r="AU88">
+        <v>3</v>
+      </c>
+      <c r="AV88">
+        <v>2</v>
+      </c>
+      <c r="AW88">
+        <v>9</v>
+      </c>
+      <c r="AX88">
+        <v>4</v>
+      </c>
+      <c r="AY88">
+        <v>12</v>
+      </c>
+      <c r="AZ88">
+        <v>6</v>
+      </c>
+      <c r="BA88">
+        <v>8</v>
+      </c>
+      <c r="BB88">
+        <v>3</v>
+      </c>
+      <c r="BC88">
+        <v>11</v>
+      </c>
+      <c r="BD88">
+        <v>1.39</v>
+      </c>
+      <c r="BE88">
+        <v>8.5</v>
+      </c>
+      <c r="BF88">
+        <v>3.96</v>
+      </c>
+      <c r="BG88">
+        <v>1.17</v>
+      </c>
+      <c r="BH88">
+        <v>4.5</v>
+      </c>
+      <c r="BI88">
+        <v>1.27</v>
+      </c>
+      <c r="BJ88">
+        <v>3.55</v>
+      </c>
+      <c r="BK88">
+        <v>1.48</v>
+      </c>
+      <c r="BL88">
+        <v>2.55</v>
+      </c>
+      <c r="BM88">
+        <v>1.8</v>
+      </c>
+      <c r="BN88">
+        <v>2</v>
+      </c>
+      <c r="BO88">
+        <v>2.35</v>
+      </c>
+      <c r="BP88">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="89" spans="1:68">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>7380408</v>
+      </c>
+      <c r="C89" t="s">
+        <v>68</v>
+      </c>
+      <c r="D89" t="s">
+        <v>69</v>
+      </c>
+      <c r="E89" s="2">
+        <v>45454.79166666666</v>
+      </c>
+      <c r="F89">
+        <v>9</v>
+      </c>
+      <c r="G89" t="s">
+        <v>89</v>
+      </c>
+      <c r="H89" t="s">
+        <v>88</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <v>1</v>
+      </c>
+      <c r="M89">
+        <v>0</v>
+      </c>
+      <c r="N89">
+        <v>1</v>
+      </c>
+      <c r="O89" t="s">
+        <v>102</v>
+      </c>
+      <c r="P89" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q89">
+        <v>3.2</v>
+      </c>
+      <c r="R89">
+        <v>1.91</v>
+      </c>
+      <c r="S89">
+        <v>4</v>
+      </c>
+      <c r="T89">
+        <v>1.53</v>
+      </c>
+      <c r="U89">
+        <v>2.38</v>
+      </c>
+      <c r="V89">
+        <v>3.75</v>
+      </c>
+      <c r="W89">
+        <v>1.25</v>
+      </c>
+      <c r="X89">
+        <v>11</v>
+      </c>
+      <c r="Y89">
+        <v>1.05</v>
+      </c>
+      <c r="Z89">
+        <v>2.3</v>
+      </c>
+      <c r="AA89">
+        <v>3</v>
+      </c>
+      <c r="AB89">
+        <v>3.3</v>
+      </c>
+      <c r="AC89">
+        <v>1.1</v>
+      </c>
+      <c r="AD89">
+        <v>6.5</v>
+      </c>
+      <c r="AE89">
+        <v>1.5</v>
+      </c>
+      <c r="AF89">
+        <v>2.4</v>
+      </c>
+      <c r="AG89">
+        <v>2.5</v>
+      </c>
+      <c r="AH89">
+        <v>1.5</v>
+      </c>
+      <c r="AI89">
+        <v>2.2</v>
+      </c>
+      <c r="AJ89">
+        <v>1.62</v>
+      </c>
+      <c r="AK89">
+        <v>1.28</v>
+      </c>
+      <c r="AL89">
+        <v>1.28</v>
+      </c>
+      <c r="AM89">
+        <v>1.68</v>
+      </c>
+      <c r="AN89">
+        <v>3</v>
+      </c>
+      <c r="AO89">
+        <v>1.25</v>
+      </c>
+      <c r="AP89">
+        <v>3</v>
+      </c>
+      <c r="AQ89">
+        <v>1</v>
+      </c>
+      <c r="AR89">
+        <v>1.5</v>
+      </c>
+      <c r="AS89">
+        <v>0.97</v>
+      </c>
+      <c r="AT89">
+        <v>2.47</v>
+      </c>
+      <c r="AU89">
+        <v>3</v>
+      </c>
+      <c r="AV89">
+        <v>3</v>
+      </c>
+      <c r="AW89">
+        <v>5</v>
+      </c>
+      <c r="AX89">
+        <v>11</v>
+      </c>
+      <c r="AY89">
+        <v>8</v>
+      </c>
+      <c r="AZ89">
+        <v>14</v>
+      </c>
+      <c r="BA89">
+        <v>3</v>
+      </c>
+      <c r="BB89">
+        <v>6</v>
+      </c>
+      <c r="BC89">
+        <v>9</v>
+      </c>
+      <c r="BD89">
+        <v>1.73</v>
+      </c>
+      <c r="BE89">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF89">
+        <v>2.44</v>
+      </c>
+      <c r="BG89">
+        <v>1.22</v>
+      </c>
+      <c r="BH89">
+        <v>4</v>
+      </c>
+      <c r="BI89">
+        <v>1.42</v>
+      </c>
+      <c r="BJ89">
+        <v>2.75</v>
+      </c>
+      <c r="BK89">
+        <v>2.2</v>
+      </c>
+      <c r="BL89">
+        <v>2</v>
+      </c>
+      <c r="BM89">
+        <v>2.23</v>
+      </c>
+      <c r="BN89">
+        <v>1.61</v>
+      </c>
+      <c r="BO89">
+        <v>3</v>
+      </c>
+      <c r="BP89">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="90" spans="1:68">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>7380424</v>
+      </c>
+      <c r="C90" t="s">
+        <v>68</v>
+      </c>
+      <c r="D90" t="s">
+        <v>69</v>
+      </c>
+      <c r="E90" s="2">
+        <v>45456.875</v>
+      </c>
+      <c r="F90">
+        <v>10</v>
+      </c>
+      <c r="G90" t="s">
+        <v>75</v>
+      </c>
+      <c r="H90" t="s">
+        <v>73</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90">
+        <v>1</v>
+      </c>
+      <c r="N90">
+        <v>1</v>
+      </c>
+      <c r="O90" t="s">
+        <v>101</v>
+      </c>
+      <c r="P90" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q90">
+        <v>2.75</v>
+      </c>
+      <c r="R90">
+        <v>1.91</v>
+      </c>
+      <c r="S90">
+        <v>5</v>
+      </c>
+      <c r="T90">
+        <v>1.47</v>
+      </c>
+      <c r="U90">
+        <v>2.48</v>
+      </c>
+      <c r="V90">
+        <v>3.55</v>
+      </c>
+      <c r="W90">
+        <v>1.25</v>
+      </c>
+      <c r="X90">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="Y90">
+        <v>1.03</v>
+      </c>
+      <c r="Z90">
+        <v>2</v>
+      </c>
+      <c r="AA90">
+        <v>3.1</v>
+      </c>
+      <c r="AB90">
+        <v>4.1</v>
+      </c>
+      <c r="AC90">
+        <v>1.1</v>
+      </c>
+      <c r="AD90">
+        <v>6.5</v>
+      </c>
+      <c r="AE90">
+        <v>1.5</v>
+      </c>
+      <c r="AF90">
+        <v>2.45</v>
+      </c>
+      <c r="AG90">
+        <v>2.7</v>
+      </c>
+      <c r="AH90">
+        <v>1.44</v>
+      </c>
+      <c r="AI90">
+        <v>2.25</v>
+      </c>
+      <c r="AJ90">
+        <v>1.57</v>
+      </c>
+      <c r="AK90">
+        <v>1.23</v>
+      </c>
+      <c r="AL90">
+        <v>1.33</v>
+      </c>
+      <c r="AM90">
+        <v>1.71</v>
+      </c>
+      <c r="AN90">
+        <v>2</v>
+      </c>
+      <c r="AO90">
+        <v>1</v>
+      </c>
+      <c r="AP90">
+        <v>1.67</v>
+      </c>
+      <c r="AQ90">
+        <v>1.33</v>
+      </c>
+      <c r="AR90">
+        <v>1.45</v>
+      </c>
+      <c r="AS90">
+        <v>0.92</v>
+      </c>
+      <c r="AT90">
+        <v>2.37</v>
+      </c>
+      <c r="AU90">
+        <v>2</v>
+      </c>
+      <c r="AV90">
+        <v>5</v>
+      </c>
+      <c r="AW90">
+        <v>12</v>
+      </c>
+      <c r="AX90">
+        <v>7</v>
+      </c>
+      <c r="AY90">
+        <v>14</v>
+      </c>
+      <c r="AZ90">
+        <v>12</v>
+      </c>
+      <c r="BA90">
+        <v>6</v>
+      </c>
+      <c r="BB90">
+        <v>2</v>
+      </c>
+      <c r="BC90">
+        <v>8</v>
+      </c>
+      <c r="BD90">
+        <v>1.51</v>
+      </c>
+      <c r="BE90">
+        <v>7.7</v>
+      </c>
+      <c r="BF90">
+        <v>3.35</v>
+      </c>
+      <c r="BG90">
+        <v>1.2</v>
+      </c>
+      <c r="BH90">
+        <v>4.25</v>
+      </c>
+      <c r="BI90">
+        <v>1.34</v>
+      </c>
+      <c r="BJ90">
+        <v>3</v>
+      </c>
+      <c r="BK90">
+        <v>2.1</v>
+      </c>
+      <c r="BL90">
+        <v>2.05</v>
+      </c>
+      <c r="BM90">
+        <v>2.05</v>
+      </c>
+      <c r="BN90">
+        <v>1.7</v>
+      </c>
+      <c r="BO90">
+        <v>2.65</v>
+      </c>
+      <c r="BP90">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="91" spans="1:68">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>7380423</v>
+      </c>
+      <c r="C91" t="s">
+        <v>68</v>
+      </c>
+      <c r="D91" t="s">
+        <v>69</v>
+      </c>
+      <c r="E91" s="2">
+        <v>45457.79166666666</v>
+      </c>
+      <c r="F91">
+        <v>10</v>
+      </c>
+      <c r="G91" t="s">
+        <v>72</v>
+      </c>
+      <c r="H91" t="s">
+        <v>74</v>
+      </c>
+      <c r="I91">
+        <v>1</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>1</v>
+      </c>
+      <c r="L91">
+        <v>1</v>
+      </c>
+      <c r="M91">
+        <v>0</v>
+      </c>
+      <c r="N91">
+        <v>1</v>
+      </c>
+      <c r="O91" t="s">
+        <v>152</v>
+      </c>
+      <c r="P91" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q91">
+        <v>4.33</v>
+      </c>
+      <c r="R91">
+        <v>1.91</v>
+      </c>
+      <c r="S91">
+        <v>3.1</v>
+      </c>
+      <c r="T91">
+        <v>1.53</v>
+      </c>
+      <c r="U91">
+        <v>2.33</v>
+      </c>
+      <c r="V91">
+        <v>3.85</v>
+      </c>
+      <c r="W91">
+        <v>1.22</v>
+      </c>
+      <c r="X91">
+        <v>10</v>
+      </c>
+      <c r="Y91">
+        <v>1.03</v>
+      </c>
+      <c r="Z91">
+        <v>3.6</v>
+      </c>
+      <c r="AA91">
+        <v>2.9</v>
+      </c>
+      <c r="AB91">
+        <v>2.25</v>
+      </c>
+      <c r="AC91">
+        <v>1.11</v>
+      </c>
+      <c r="AD91">
+        <v>6.25</v>
+      </c>
+      <c r="AE91">
+        <v>1.5</v>
+      </c>
+      <c r="AF91">
+        <v>2.4</v>
+      </c>
+      <c r="AG91">
+        <v>2.6</v>
+      </c>
+      <c r="AH91">
+        <v>1.48</v>
+      </c>
+      <c r="AI91">
+        <v>2.1</v>
+      </c>
+      <c r="AJ91">
+        <v>1.67</v>
+      </c>
+      <c r="AK91">
+        <v>1.48</v>
+      </c>
+      <c r="AL91">
+        <v>1.38</v>
+      </c>
+      <c r="AM91">
+        <v>1.34</v>
+      </c>
+      <c r="AN91">
+        <v>2</v>
+      </c>
+      <c r="AO91">
+        <v>1.2</v>
+      </c>
+      <c r="AP91">
+        <v>2.2</v>
+      </c>
+      <c r="AQ91">
+        <v>1</v>
+      </c>
+      <c r="AR91">
+        <v>1.58</v>
+      </c>
+      <c r="AS91">
+        <v>1.39</v>
+      </c>
+      <c r="AT91">
+        <v>2.97</v>
+      </c>
+      <c r="AU91">
+        <v>3</v>
+      </c>
+      <c r="AV91">
+        <v>3</v>
+      </c>
+      <c r="AW91">
+        <v>7</v>
+      </c>
+      <c r="AX91">
+        <v>5</v>
+      </c>
+      <c r="AY91">
+        <v>10</v>
+      </c>
+      <c r="AZ91">
+        <v>8</v>
+      </c>
+      <c r="BA91">
+        <v>3</v>
+      </c>
+      <c r="BB91">
+        <v>8</v>
+      </c>
+      <c r="BC91">
+        <v>11</v>
+      </c>
+      <c r="BD91">
+        <v>2.05</v>
+      </c>
+      <c r="BE91">
+        <v>7.4</v>
+      </c>
+      <c r="BF91">
+        <v>2.1</v>
+      </c>
+      <c r="BG91">
+        <v>1.22</v>
+      </c>
+      <c r="BH91">
+        <v>3.8</v>
+      </c>
+      <c r="BI91">
+        <v>1.3</v>
+      </c>
+      <c r="BJ91">
+        <v>3.3</v>
+      </c>
+      <c r="BK91">
+        <v>1.91</v>
+      </c>
+      <c r="BL91">
+        <v>2.38</v>
+      </c>
+      <c r="BM91">
+        <v>2</v>
+      </c>
+      <c r="BN91">
+        <v>1.8</v>
+      </c>
+      <c r="BO91">
+        <v>2.5</v>
+      </c>
+      <c r="BP91">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="92" spans="1:68">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>7380421</v>
+      </c>
+      <c r="C92" t="s">
+        <v>68</v>
+      </c>
+      <c r="D92" t="s">
+        <v>69</v>
+      </c>
+      <c r="E92" s="2">
+        <v>45457.875</v>
+      </c>
+      <c r="F92">
+        <v>10</v>
+      </c>
+      <c r="G92" t="s">
+        <v>82</v>
+      </c>
+      <c r="H92" t="s">
+        <v>83</v>
+      </c>
+      <c r="I92">
+        <v>1</v>
+      </c>
+      <c r="J92">
+        <v>2</v>
+      </c>
+      <c r="K92">
+        <v>3</v>
+      </c>
+      <c r="L92">
+        <v>3</v>
+      </c>
+      <c r="M92">
+        <v>2</v>
+      </c>
+      <c r="N92">
+        <v>5</v>
+      </c>
+      <c r="O92" t="s">
+        <v>153</v>
+      </c>
+      <c r="P92" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q92">
+        <v>2.63</v>
+      </c>
+      <c r="R92">
+        <v>1.91</v>
+      </c>
+      <c r="S92">
+        <v>5.5</v>
+      </c>
+      <c r="T92">
+        <v>1.57</v>
+      </c>
+      <c r="U92">
+        <v>2.25</v>
+      </c>
+      <c r="V92">
+        <v>3.75</v>
+      </c>
+      <c r="W92">
+        <v>1.25</v>
+      </c>
+      <c r="X92">
+        <v>11</v>
+      </c>
+      <c r="Y92">
+        <v>1.05</v>
+      </c>
+      <c r="Z92">
+        <v>1.83</v>
+      </c>
+      <c r="AA92">
+        <v>3</v>
+      </c>
+      <c r="AB92">
+        <v>5.25</v>
+      </c>
+      <c r="AC92">
+        <v>1.1</v>
+      </c>
+      <c r="AD92">
+        <v>6.5</v>
+      </c>
+      <c r="AE92">
+        <v>1.53</v>
+      </c>
+      <c r="AF92">
+        <v>2.3</v>
+      </c>
+      <c r="AG92">
+        <v>2.7</v>
+      </c>
+      <c r="AH92">
+        <v>1.44</v>
+      </c>
+      <c r="AI92">
+        <v>2.38</v>
+      </c>
+      <c r="AJ92">
+        <v>1.53</v>
+      </c>
+      <c r="AK92">
+        <v>1.12</v>
+      </c>
+      <c r="AL92">
+        <v>1.26</v>
+      </c>
+      <c r="AM92">
+        <v>2</v>
+      </c>
+      <c r="AN92">
+        <v>2</v>
+      </c>
+      <c r="AO92">
+        <v>0</v>
+      </c>
+      <c r="AP92">
+        <v>2.17</v>
+      </c>
+      <c r="AQ92">
+        <v>0</v>
+      </c>
+      <c r="AR92">
+        <v>1.4</v>
+      </c>
+      <c r="AS92">
+        <v>1.22</v>
+      </c>
+      <c r="AT92">
+        <v>2.62</v>
+      </c>
+      <c r="AU92">
+        <v>7</v>
+      </c>
+      <c r="AV92">
+        <v>6</v>
+      </c>
+      <c r="AW92">
+        <v>6</v>
+      </c>
+      <c r="AX92">
+        <v>7</v>
+      </c>
+      <c r="AY92">
+        <v>13</v>
+      </c>
+      <c r="AZ92">
+        <v>13</v>
+      </c>
+      <c r="BA92">
+        <v>3</v>
+      </c>
+      <c r="BB92">
+        <v>4</v>
+      </c>
+      <c r="BC92">
+        <v>7</v>
+      </c>
+      <c r="BD92">
+        <v>1.65</v>
+      </c>
+      <c r="BE92">
+        <v>6.8</v>
+      </c>
+      <c r="BF92">
+        <v>2.84</v>
+      </c>
+      <c r="BG92">
+        <v>1.2</v>
+      </c>
+      <c r="BH92">
+        <v>4.25</v>
+      </c>
+      <c r="BI92">
+        <v>1.33</v>
+      </c>
+      <c r="BJ92">
+        <v>2.93</v>
+      </c>
+      <c r="BK92">
+        <v>2.1</v>
+      </c>
+      <c r="BL92">
+        <v>2</v>
+      </c>
+      <c r="BM92">
+        <v>2.05</v>
+      </c>
+      <c r="BN92">
+        <v>1.7</v>
+      </c>
+      <c r="BO92">
+        <v>2.57</v>
+      </c>
+      <c r="BP92">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="93" spans="1:68">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>7380420</v>
+      </c>
+      <c r="C93" t="s">
+        <v>68</v>
+      </c>
+      <c r="D93" t="s">
+        <v>69</v>
+      </c>
+      <c r="E93" s="2">
+        <v>45458.64583333334</v>
+      </c>
+      <c r="F93">
+        <v>10</v>
+      </c>
+      <c r="G93" t="s">
+        <v>86</v>
+      </c>
+      <c r="H93" t="s">
+        <v>84</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>1</v>
+      </c>
+      <c r="K93">
+        <v>1</v>
+      </c>
+      <c r="L93">
+        <v>2</v>
+      </c>
+      <c r="M93">
+        <v>1</v>
+      </c>
+      <c r="N93">
+        <v>3</v>
+      </c>
+      <c r="O93" t="s">
+        <v>154</v>
+      </c>
+      <c r="P93" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q93">
+        <v>2.25</v>
+      </c>
+      <c r="R93">
+        <v>2.1</v>
+      </c>
+      <c r="S93">
+        <v>6</v>
+      </c>
+      <c r="T93">
+        <v>1.44</v>
+      </c>
+      <c r="U93">
+        <v>2.65</v>
+      </c>
+      <c r="V93">
+        <v>3.1</v>
+      </c>
+      <c r="W93">
+        <v>1.34</v>
+      </c>
+      <c r="X93">
+        <v>8.1</v>
+      </c>
+      <c r="Y93">
+        <v>1.06</v>
+      </c>
+      <c r="Z93">
+        <v>1.62</v>
+      </c>
+      <c r="AA93">
+        <v>3.5</v>
+      </c>
+      <c r="AB93">
+        <v>5.1</v>
+      </c>
+      <c r="AC93">
+        <v>1.05</v>
+      </c>
+      <c r="AD93">
+        <v>8</v>
+      </c>
+      <c r="AE93">
+        <v>1.36</v>
+      </c>
+      <c r="AF93">
+        <v>2.9</v>
+      </c>
+      <c r="AG93">
+        <v>2.07</v>
+      </c>
+      <c r="AH93">
+        <v>1.7</v>
+      </c>
+      <c r="AI93">
+        <v>2.1</v>
+      </c>
+      <c r="AJ93">
+        <v>1.67</v>
+      </c>
+      <c r="AK93">
+        <v>1.17</v>
+      </c>
+      <c r="AL93">
+        <v>1.29</v>
+      </c>
+      <c r="AM93">
+        <v>2.15</v>
+      </c>
+      <c r="AN93">
+        <v>2.6</v>
+      </c>
+      <c r="AO93">
+        <v>0.25</v>
+      </c>
+      <c r="AP93">
+        <v>2.67</v>
+      </c>
+      <c r="AQ93">
+        <v>0.2</v>
+      </c>
+      <c r="AR93">
+        <v>1.79</v>
+      </c>
+      <c r="AS93">
+        <v>1.4</v>
+      </c>
+      <c r="AT93">
+        <v>3.19</v>
+      </c>
+      <c r="AU93">
+        <v>12</v>
+      </c>
+      <c r="AV93">
+        <v>3</v>
+      </c>
+      <c r="AW93">
+        <v>10</v>
+      </c>
+      <c r="AX93">
+        <v>1</v>
+      </c>
+      <c r="AY93">
+        <v>22</v>
+      </c>
+      <c r="AZ93">
+        <v>4</v>
+      </c>
+      <c r="BA93">
+        <v>3</v>
+      </c>
+      <c r="BB93">
+        <v>1</v>
+      </c>
+      <c r="BC93">
+        <v>4</v>
+      </c>
+      <c r="BD93">
+        <v>1.51</v>
+      </c>
+      <c r="BE93">
+        <v>8.4</v>
+      </c>
+      <c r="BF93">
+        <v>3.24</v>
+      </c>
+      <c r="BG93">
+        <v>1.27</v>
+      </c>
+      <c r="BH93">
+        <v>3.55</v>
+      </c>
+      <c r="BI93">
+        <v>1.5</v>
+      </c>
+      <c r="BJ93">
+        <v>2.48</v>
+      </c>
+      <c r="BK93">
+        <v>2.38</v>
+      </c>
+      <c r="BL93">
+        <v>1.9</v>
+      </c>
+      <c r="BM93">
+        <v>2.45</v>
+      </c>
+      <c r="BN93">
+        <v>1.5</v>
+      </c>
+      <c r="BO93">
+        <v>3.4</v>
+      </c>
+      <c r="BP93">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="94" spans="1:68">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>7380417</v>
+      </c>
+      <c r="C94" t="s">
+        <v>68</v>
+      </c>
+      <c r="D94" t="s">
+        <v>69</v>
+      </c>
+      <c r="E94" s="2">
+        <v>45458.70833333334</v>
+      </c>
+      <c r="F94">
+        <v>10</v>
+      </c>
+      <c r="G94" t="s">
+        <v>77</v>
+      </c>
+      <c r="H94" t="s">
+        <v>71</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>1</v>
+      </c>
+      <c r="L94">
+        <v>1</v>
+      </c>
+      <c r="M94">
+        <v>0</v>
+      </c>
+      <c r="N94">
+        <v>1</v>
+      </c>
+      <c r="O94" t="s">
+        <v>155</v>
+      </c>
+      <c r="P94" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q94">
+        <v>3.75</v>
+      </c>
+      <c r="R94">
+        <v>1.91</v>
+      </c>
+      <c r="S94">
+        <v>3.6</v>
+      </c>
+      <c r="T94">
+        <v>1.56</v>
+      </c>
+      <c r="U94">
+        <v>2.34</v>
+      </c>
+      <c r="V94">
+        <v>3.62</v>
+      </c>
+      <c r="W94">
+        <v>1.26</v>
+      </c>
+      <c r="X94">
+        <v>10.2</v>
+      </c>
+      <c r="Y94">
+        <v>1.03</v>
+      </c>
+      <c r="Z94">
+        <v>2.45</v>
+      </c>
+      <c r="AA94">
+        <v>2.8</v>
+      </c>
+      <c r="AB94">
+        <v>2.9</v>
+      </c>
+      <c r="AC94">
+        <v>1.07</v>
+      </c>
+      <c r="AD94">
+        <v>6.3</v>
+      </c>
+      <c r="AE94">
+        <v>1.5</v>
+      </c>
+      <c r="AF94">
+        <v>2.43</v>
+      </c>
+      <c r="AG94">
+        <v>2.38</v>
+      </c>
+      <c r="AH94">
+        <v>1.52</v>
+      </c>
+      <c r="AI94">
+        <v>2.2</v>
+      </c>
+      <c r="AJ94">
+        <v>1.62</v>
+      </c>
+      <c r="AK94">
+        <v>1.41</v>
+      </c>
+      <c r="AL94">
+        <v>1.36</v>
+      </c>
+      <c r="AM94">
+        <v>1.46</v>
+      </c>
+      <c r="AN94">
+        <v>1.75</v>
+      </c>
+      <c r="AO94">
+        <v>1.4</v>
+      </c>
+      <c r="AP94">
+        <v>2</v>
+      </c>
+      <c r="AQ94">
+        <v>1.17</v>
+      </c>
+      <c r="AR94">
+        <v>1.57</v>
+      </c>
+      <c r="AS94">
+        <v>1.39</v>
+      </c>
+      <c r="AT94">
+        <v>2.96</v>
+      </c>
+      <c r="AU94">
+        <v>5</v>
+      </c>
+      <c r="AV94">
+        <v>2</v>
+      </c>
+      <c r="AW94">
+        <v>6</v>
+      </c>
+      <c r="AX94">
+        <v>6</v>
+      </c>
+      <c r="AY94">
+        <v>11</v>
+      </c>
+      <c r="AZ94">
+        <v>8</v>
+      </c>
+      <c r="BA94">
+        <v>4</v>
+      </c>
+      <c r="BB94">
+        <v>3</v>
+      </c>
+      <c r="BC94">
+        <v>7</v>
+      </c>
+      <c r="BD94">
+        <v>2.2</v>
+      </c>
+      <c r="BE94">
+        <v>7.6</v>
+      </c>
+      <c r="BF94">
+        <v>1.95</v>
+      </c>
+      <c r="BG94">
+        <v>1.19</v>
+      </c>
+      <c r="BH94">
+        <v>4.2</v>
+      </c>
+      <c r="BI94">
+        <v>1.3</v>
+      </c>
+      <c r="BJ94">
+        <v>3.3</v>
+      </c>
+      <c r="BK94">
+        <v>2.1</v>
+      </c>
+      <c r="BL94">
+        <v>2.38</v>
+      </c>
+      <c r="BM94">
+        <v>2</v>
+      </c>
+      <c r="BN94">
+        <v>1.8</v>
+      </c>
+      <c r="BO94">
+        <v>2.5</v>
+      </c>
+      <c r="BP94">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="95" spans="1:68">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>7380419</v>
+      </c>
+      <c r="C95" t="s">
+        <v>68</v>
+      </c>
+      <c r="D95" t="s">
+        <v>69</v>
+      </c>
+      <c r="E95" s="2">
+        <v>45458.75</v>
+      </c>
+      <c r="F95">
+        <v>10</v>
+      </c>
+      <c r="G95" t="s">
+        <v>81</v>
+      </c>
+      <c r="H95" t="s">
+        <v>85</v>
+      </c>
+      <c r="I95">
+        <v>2</v>
+      </c>
+      <c r="J95">
+        <v>3</v>
+      </c>
+      <c r="K95">
+        <v>5</v>
+      </c>
+      <c r="L95">
+        <v>3</v>
+      </c>
+      <c r="M95">
+        <v>5</v>
+      </c>
+      <c r="N95">
+        <v>8</v>
+      </c>
+      <c r="O95" t="s">
+        <v>156</v>
+      </c>
+      <c r="P95" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q95">
+        <v>3.5</v>
+      </c>
+      <c r="R95">
+        <v>1.95</v>
+      </c>
+      <c r="S95">
+        <v>3.5</v>
+      </c>
+      <c r="T95">
+        <v>1.48</v>
+      </c>
+      <c r="U95">
+        <v>2.48</v>
+      </c>
+      <c r="V95">
+        <v>3.55</v>
+      </c>
+      <c r="W95">
+        <v>1.25</v>
+      </c>
+      <c r="X95">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="Y95">
+        <v>1.04</v>
+      </c>
+      <c r="Z95">
+        <v>2.75</v>
+      </c>
+      <c r="AA95">
+        <v>3</v>
+      </c>
+      <c r="AB95">
+        <v>2.7</v>
+      </c>
+      <c r="AC95">
+        <v>1.1</v>
+      </c>
+      <c r="AD95">
+        <v>6.5</v>
+      </c>
+      <c r="AE95">
+        <v>1.48</v>
+      </c>
+      <c r="AF95">
+        <v>2.6</v>
+      </c>
+      <c r="AG95">
+        <v>2.35</v>
+      </c>
+      <c r="AH95">
+        <v>1.57</v>
+      </c>
+      <c r="AI95">
+        <v>2</v>
+      </c>
+      <c r="AJ95">
+        <v>1.73</v>
+      </c>
+      <c r="AK95">
+        <v>1.4</v>
+      </c>
+      <c r="AL95">
+        <v>1.35</v>
+      </c>
+      <c r="AM95">
+        <v>1.43</v>
+      </c>
+      <c r="AN95">
+        <v>1.2</v>
+      </c>
+      <c r="AO95">
+        <v>0.4</v>
+      </c>
+      <c r="AP95">
+        <v>1</v>
+      </c>
+      <c r="AQ95">
+        <v>0.83</v>
+      </c>
+      <c r="AR95">
+        <v>1.35</v>
+      </c>
+      <c r="AS95">
+        <v>1.34</v>
+      </c>
+      <c r="AT95">
+        <v>2.69</v>
+      </c>
+      <c r="AU95">
+        <v>8</v>
+      </c>
+      <c r="AV95">
+        <v>10</v>
+      </c>
+      <c r="AW95">
+        <v>7</v>
+      </c>
+      <c r="AX95">
+        <v>6</v>
+      </c>
+      <c r="AY95">
+        <v>15</v>
+      </c>
+      <c r="AZ95">
+        <v>16</v>
+      </c>
+      <c r="BA95">
+        <v>6</v>
+      </c>
+      <c r="BB95">
+        <v>4</v>
+      </c>
+      <c r="BC95">
+        <v>10</v>
+      </c>
+      <c r="BD95">
+        <v>2.28</v>
+      </c>
+      <c r="BE95">
+        <v>7.5</v>
+      </c>
+      <c r="BF95">
+        <v>1.9</v>
+      </c>
+      <c r="BG95">
+        <v>1.25</v>
+      </c>
+      <c r="BH95">
+        <v>3.7</v>
+      </c>
+      <c r="BI95">
+        <v>1.47</v>
+      </c>
+      <c r="BJ95">
+        <v>2.55</v>
+      </c>
+      <c r="BK95">
+        <v>2.25</v>
+      </c>
+      <c r="BL95">
+        <v>2</v>
+      </c>
+      <c r="BM95">
+        <v>2.38</v>
+      </c>
+      <c r="BN95">
+        <v>1.54</v>
+      </c>
+      <c r="BO95">
+        <v>3.25</v>
+      </c>
+      <c r="BP95">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:68">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>7380418</v>
+      </c>
+      <c r="C96" t="s">
+        <v>68</v>
+      </c>
+      <c r="D96" t="s">
+        <v>69</v>
+      </c>
+      <c r="E96" s="2">
+        <v>45459.45833333334</v>
+      </c>
+      <c r="F96">
+        <v>10</v>
+      </c>
+      <c r="G96" t="s">
+        <v>70</v>
+      </c>
+      <c r="H96" t="s">
+        <v>78</v>
+      </c>
+      <c r="I96">
+        <v>1</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>1</v>
+      </c>
+      <c r="L96">
+        <v>1</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+      <c r="N96">
+        <v>1</v>
+      </c>
+      <c r="O96" t="s">
+        <v>157</v>
+      </c>
+      <c r="P96" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q96">
+        <v>3.1</v>
+      </c>
+      <c r="R96">
+        <v>1.91</v>
+      </c>
+      <c r="S96">
+        <v>4.5</v>
+      </c>
+      <c r="T96">
+        <v>1.56</v>
+      </c>
+      <c r="U96">
+        <v>2.28</v>
+      </c>
+      <c r="V96">
+        <v>4</v>
+      </c>
+      <c r="W96">
+        <v>1.21</v>
+      </c>
+      <c r="X96">
+        <v>10.75</v>
+      </c>
+      <c r="Y96">
+        <v>1.02</v>
+      </c>
+      <c r="Z96">
+        <v>2.15</v>
+      </c>
+      <c r="AA96">
+        <v>2.95</v>
+      </c>
+      <c r="AB96">
+        <v>3.56</v>
+      </c>
+      <c r="AC96">
+        <v>1.11</v>
+      </c>
+      <c r="AD96">
+        <v>6.25</v>
+      </c>
+      <c r="AE96">
+        <v>1.53</v>
+      </c>
+      <c r="AF96">
+        <v>2.25</v>
+      </c>
+      <c r="AG96">
+        <v>2.65</v>
+      </c>
+      <c r="AH96">
+        <v>1.42</v>
+      </c>
+      <c r="AI96">
+        <v>2.25</v>
+      </c>
+      <c r="AJ96">
+        <v>1.57</v>
+      </c>
+      <c r="AK96">
+        <v>1.24</v>
+      </c>
+      <c r="AL96">
+        <v>1.37</v>
+      </c>
+      <c r="AM96">
+        <v>1.62</v>
+      </c>
+      <c r="AN96">
+        <v>0.75</v>
+      </c>
+      <c r="AO96">
+        <v>0.25</v>
+      </c>
+      <c r="AP96">
+        <v>1.2</v>
+      </c>
+      <c r="AQ96">
+        <v>0.2</v>
+      </c>
+      <c r="AR96">
+        <v>1.38</v>
+      </c>
+      <c r="AS96">
+        <v>1.08</v>
+      </c>
+      <c r="AT96">
+        <v>2.46</v>
+      </c>
+      <c r="AU96">
+        <v>12</v>
+      </c>
+      <c r="AV96">
+        <v>8</v>
+      </c>
+      <c r="AW96">
+        <v>5</v>
+      </c>
+      <c r="AX96">
+        <v>4</v>
+      </c>
+      <c r="AY96">
+        <v>17</v>
+      </c>
+      <c r="AZ96">
+        <v>12</v>
+      </c>
+      <c r="BA96">
+        <v>10</v>
+      </c>
+      <c r="BB96">
+        <v>5</v>
+      </c>
+      <c r="BC96">
+        <v>15</v>
+      </c>
+      <c r="BD96">
+        <v>1.62</v>
+      </c>
+      <c r="BE96">
+        <v>7.7</v>
+      </c>
+      <c r="BF96">
+        <v>2.91</v>
+      </c>
+      <c r="BG96">
+        <v>1.22</v>
+      </c>
+      <c r="BH96">
+        <v>4</v>
+      </c>
+      <c r="BI96">
+        <v>1.42</v>
+      </c>
+      <c r="BJ96">
+        <v>2.75</v>
+      </c>
+      <c r="BK96">
+        <v>2.2</v>
+      </c>
+      <c r="BL96">
+        <v>2</v>
+      </c>
+      <c r="BM96">
+        <v>2.23</v>
+      </c>
+      <c r="BN96">
+        <v>1.61</v>
+      </c>
+      <c r="BO96">
+        <v>3</v>
+      </c>
+      <c r="BP96">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="97" spans="1:68">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>7380422</v>
+      </c>
+      <c r="C97" t="s">
+        <v>68</v>
+      </c>
+      <c r="D97" t="s">
+        <v>69</v>
+      </c>
+      <c r="E97" s="2">
+        <v>45459.66666666666</v>
+      </c>
+      <c r="F97">
+        <v>10</v>
+      </c>
+      <c r="G97" t="s">
+        <v>79</v>
+      </c>
+      <c r="H97" t="s">
+        <v>76</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+      <c r="L97">
+        <v>1</v>
+      </c>
+      <c r="M97">
+        <v>0</v>
+      </c>
+      <c r="N97">
+        <v>1</v>
+      </c>
+      <c r="O97" t="s">
+        <v>158</v>
+      </c>
+      <c r="P97" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q97">
+        <v>4</v>
+      </c>
+      <c r="R97">
+        <v>2</v>
+      </c>
+      <c r="S97">
+        <v>3</v>
+      </c>
+      <c r="T97">
+        <v>1.43</v>
+      </c>
+      <c r="U97">
+        <v>2.63</v>
+      </c>
+      <c r="V97">
+        <v>3.3</v>
+      </c>
+      <c r="W97">
+        <v>1.29</v>
+      </c>
+      <c r="X97">
+        <v>8.4</v>
+      </c>
+      <c r="Y97">
+        <v>1.05</v>
+      </c>
+      <c r="Z97">
+        <v>2.8</v>
+      </c>
+      <c r="AA97">
+        <v>3</v>
+      </c>
+      <c r="AB97">
+        <v>2.55</v>
+      </c>
+      <c r="AC97">
+        <v>1.08</v>
+      </c>
+      <c r="AD97">
+        <v>7.5</v>
+      </c>
+      <c r="AE97">
+        <v>1.42</v>
+      </c>
+      <c r="AF97">
+        <v>2.85</v>
+      </c>
+      <c r="AG97">
+        <v>2.19</v>
+      </c>
+      <c r="AH97">
+        <v>1.6</v>
+      </c>
+      <c r="AI97">
+        <v>1.91</v>
+      </c>
+      <c r="AJ97">
+        <v>1.8</v>
+      </c>
+      <c r="AK97">
+        <v>1.53</v>
+      </c>
+      <c r="AL97">
+        <v>1.33</v>
+      </c>
+      <c r="AM97">
+        <v>1.34</v>
+      </c>
+      <c r="AN97">
+        <v>1.25</v>
+      </c>
+      <c r="AO97">
+        <v>1</v>
+      </c>
+      <c r="AP97">
+        <v>1.6</v>
+      </c>
+      <c r="AQ97">
+        <v>0.8</v>
+      </c>
+      <c r="AR97">
+        <v>1.19</v>
+      </c>
+      <c r="AS97">
+        <v>1.51</v>
+      </c>
+      <c r="AT97">
+        <v>2.7</v>
+      </c>
+      <c r="AU97">
+        <v>2</v>
+      </c>
+      <c r="AV97">
+        <v>4</v>
+      </c>
+      <c r="AW97">
+        <v>6</v>
+      </c>
+      <c r="AX97">
+        <v>12</v>
+      </c>
+      <c r="AY97">
+        <v>8</v>
+      </c>
+      <c r="AZ97">
+        <v>16</v>
+      </c>
+      <c r="BA97">
+        <v>2</v>
+      </c>
+      <c r="BB97">
+        <v>6</v>
+      </c>
+      <c r="BC97">
+        <v>8</v>
+      </c>
+      <c r="BD97">
+        <v>2.37</v>
+      </c>
+      <c r="BE97">
+        <v>7.5</v>
+      </c>
+      <c r="BF97">
+        <v>1.87</v>
+      </c>
+      <c r="BG97">
+        <v>1.18</v>
+      </c>
+      <c r="BH97">
+        <v>4.2</v>
+      </c>
+      <c r="BI97">
+        <v>1.3</v>
+      </c>
+      <c r="BJ97">
+        <v>3.3</v>
+      </c>
+      <c r="BK97">
+        <v>1.91</v>
+      </c>
+      <c r="BL97">
+        <v>2.38</v>
+      </c>
+      <c r="BM97">
+        <v>2</v>
+      </c>
+      <c r="BN97">
+        <v>1.8</v>
+      </c>
+      <c r="BO97">
+        <v>2.5</v>
+      </c>
+      <c r="BP97">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="98" spans="1:68">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>7380416</v>
+      </c>
+      <c r="C98" t="s">
+        <v>68</v>
+      </c>
+      <c r="D98" t="s">
+        <v>69</v>
+      </c>
+      <c r="E98" s="2">
+        <v>45459.77083333334</v>
+      </c>
+      <c r="F98">
+        <v>10</v>
+      </c>
+      <c r="G98" t="s">
+        <v>88</v>
+      </c>
+      <c r="H98" t="s">
+        <v>87</v>
+      </c>
+      <c r="I98">
+        <v>1</v>
+      </c>
+      <c r="J98">
+        <v>1</v>
+      </c>
+      <c r="K98">
+        <v>2</v>
+      </c>
+      <c r="L98">
+        <v>1</v>
+      </c>
+      <c r="M98">
+        <v>1</v>
+      </c>
+      <c r="N98">
+        <v>2</v>
+      </c>
+      <c r="O98" t="s">
+        <v>117</v>
+      </c>
+      <c r="P98" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q98">
+        <v>3</v>
+      </c>
+      <c r="R98">
+        <v>1.91</v>
+      </c>
+      <c r="S98">
+        <v>4.5</v>
+      </c>
+      <c r="T98">
+        <v>1.48</v>
+      </c>
+      <c r="U98">
+        <v>2.45</v>
+      </c>
+      <c r="V98">
+        <v>3.6</v>
+      </c>
+      <c r="W98">
+        <v>1.25</v>
+      </c>
+      <c r="X98">
+        <v>9.6</v>
+      </c>
+      <c r="Y98">
+        <v>1.04</v>
+      </c>
+      <c r="Z98">
+        <v>2.15</v>
+      </c>
+      <c r="AA98">
+        <v>3</v>
+      </c>
+      <c r="AB98">
+        <v>3.75</v>
+      </c>
+      <c r="AC98">
+        <v>1.1</v>
+      </c>
+      <c r="AD98">
+        <v>6.5</v>
+      </c>
+      <c r="AE98">
+        <v>1.48</v>
+      </c>
+      <c r="AF98">
+        <v>2.6</v>
+      </c>
+      <c r="AG98">
+        <v>2.7</v>
+      </c>
+      <c r="AH98">
+        <v>1.44</v>
+      </c>
+      <c r="AI98">
+        <v>2.25</v>
+      </c>
+      <c r="AJ98">
+        <v>1.57</v>
+      </c>
+      <c r="AK98">
+        <v>1.19</v>
+      </c>
+      <c r="AL98">
+        <v>1.33</v>
+      </c>
+      <c r="AM98">
+        <v>1.79</v>
+      </c>
+      <c r="AN98">
+        <v>3</v>
+      </c>
+      <c r="AO98">
+        <v>0.5</v>
+      </c>
+      <c r="AP98">
+        <v>2.6</v>
+      </c>
+      <c r="AQ98">
+        <v>0.6</v>
+      </c>
+      <c r="AR98">
+        <v>1.63</v>
+      </c>
+      <c r="AS98">
+        <v>1.43</v>
+      </c>
+      <c r="AT98">
+        <v>3.06</v>
+      </c>
+      <c r="AU98">
+        <v>6</v>
+      </c>
+      <c r="AV98">
+        <v>10</v>
+      </c>
+      <c r="AW98">
+        <v>6</v>
+      </c>
+      <c r="AX98">
+        <v>4</v>
+      </c>
+      <c r="AY98">
+        <v>12</v>
+      </c>
+      <c r="AZ98">
+        <v>14</v>
+      </c>
+      <c r="BA98">
+        <v>2</v>
+      </c>
+      <c r="BB98">
+        <v>3</v>
+      </c>
+      <c r="BC98">
+        <v>5</v>
+      </c>
+      <c r="BD98">
+        <v>1.62</v>
+      </c>
+      <c r="BE98">
+        <v>8.1</v>
+      </c>
+      <c r="BF98">
+        <v>2.86</v>
+      </c>
+      <c r="BG98">
+        <v>1.18</v>
+      </c>
+      <c r="BH98">
+        <v>4.5</v>
+      </c>
+      <c r="BI98">
+        <v>1.34</v>
+      </c>
+      <c r="BJ98">
+        <v>3.1</v>
+      </c>
+      <c r="BK98">
+        <v>2.2</v>
+      </c>
+      <c r="BL98">
+        <v>2.23</v>
+      </c>
+      <c r="BM98">
+        <v>2</v>
+      </c>
+      <c r="BN98">
+        <v>1.73</v>
+      </c>
+      <c r="BO98">
+        <v>2.7</v>
+      </c>
+      <c r="BP98">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="99" spans="1:68">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>7380425</v>
+      </c>
+      <c r="C99" t="s">
+        <v>68</v>
+      </c>
+      <c r="D99" t="s">
+        <v>69</v>
+      </c>
+      <c r="E99" s="2">
+        <v>45459.77083333334</v>
+      </c>
+      <c r="F99">
+        <v>10</v>
+      </c>
+      <c r="G99" t="s">
+        <v>80</v>
+      </c>
+      <c r="H99" t="s">
+        <v>89</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <v>1</v>
+      </c>
+      <c r="M99">
+        <v>0</v>
+      </c>
+      <c r="N99">
+        <v>1</v>
+      </c>
+      <c r="O99" t="s">
+        <v>159</v>
+      </c>
+      <c r="P99" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q99">
+        <v>2.63</v>
+      </c>
+      <c r="R99">
+        <v>1.95</v>
+      </c>
+      <c r="S99">
+        <v>5</v>
+      </c>
+      <c r="T99">
+        <v>1.43</v>
+      </c>
+      <c r="U99">
+        <v>2.6</v>
+      </c>
+      <c r="V99">
+        <v>3.35</v>
+      </c>
+      <c r="W99">
+        <v>1.28</v>
+      </c>
+      <c r="X99">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Y99">
+        <v>1.05</v>
+      </c>
+      <c r="Z99">
+        <v>1.83</v>
+      </c>
+      <c r="AA99">
+        <v>3.3</v>
+      </c>
+      <c r="AB99">
+        <v>4.75</v>
+      </c>
+      <c r="AC99">
+        <v>1.08</v>
+      </c>
+      <c r="AD99">
+        <v>7.5</v>
+      </c>
+      <c r="AE99">
+        <v>1.42</v>
+      </c>
+      <c r="AF99">
+        <v>2.8</v>
+      </c>
+      <c r="AG99">
+        <v>2.5</v>
+      </c>
+      <c r="AH99">
+        <v>1.5</v>
+      </c>
+      <c r="AI99">
+        <v>2.2</v>
+      </c>
+      <c r="AJ99">
+        <v>1.62</v>
+      </c>
+      <c r="AK99">
+        <v>1.15</v>
+      </c>
+      <c r="AL99">
+        <v>1.28</v>
+      </c>
+      <c r="AM99">
+        <v>1.98</v>
+      </c>
+      <c r="AN99">
+        <v>2.25</v>
+      </c>
+      <c r="AO99">
+        <v>0.5</v>
+      </c>
+      <c r="AP99">
+        <v>2.4</v>
+      </c>
+      <c r="AQ99">
+        <v>0.4</v>
+      </c>
+      <c r="AR99">
+        <v>1.35</v>
+      </c>
+      <c r="AS99">
+        <v>1</v>
+      </c>
+      <c r="AT99">
+        <v>2.35</v>
+      </c>
+      <c r="AU99">
+        <v>5</v>
+      </c>
+      <c r="AV99">
+        <v>4</v>
+      </c>
+      <c r="AW99">
+        <v>7</v>
+      </c>
+      <c r="AX99">
+        <v>8</v>
+      </c>
+      <c r="AY99">
+        <v>12</v>
+      </c>
+      <c r="AZ99">
+        <v>12</v>
+      </c>
+      <c r="BA99">
+        <v>12</v>
+      </c>
+      <c r="BB99">
+        <v>4</v>
+      </c>
+      <c r="BC99">
+        <v>16</v>
+      </c>
+      <c r="BD99">
+        <v>1.44</v>
+      </c>
+      <c r="BE99">
+        <v>9.5</v>
+      </c>
+      <c r="BF99">
+        <v>3.44</v>
+      </c>
+      <c r="BG99">
+        <v>1.17</v>
+      </c>
+      <c r="BH99">
+        <v>4.5</v>
+      </c>
+      <c r="BI99">
+        <v>1.3</v>
+      </c>
+      <c r="BJ99">
+        <v>3.3</v>
+      </c>
+      <c r="BK99">
+        <v>1.91</v>
+      </c>
+      <c r="BL99">
+        <v>2.38</v>
+      </c>
+      <c r="BM99">
+        <v>2</v>
+      </c>
+      <c r="BN99">
+        <v>1.8</v>
+      </c>
+      <c r="BO99">
+        <v>2.5</v>
+      </c>
+      <c r="BP99">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="100" spans="1:68">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>7380431</v>
+      </c>
+      <c r="C100" t="s">
+        <v>68</v>
+      </c>
+      <c r="D100" t="s">
+        <v>69</v>
+      </c>
+      <c r="E100" s="2">
+        <v>45460.875</v>
+      </c>
+      <c r="F100">
+        <v>11</v>
+      </c>
+      <c r="G100" t="s">
+        <v>73</v>
+      </c>
+      <c r="H100" t="s">
+        <v>72</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>1</v>
+      </c>
+      <c r="N100">
+        <v>1</v>
+      </c>
+      <c r="O100" t="s">
+        <v>101</v>
+      </c>
+      <c r="P100" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q100">
+        <v>3.5</v>
+      </c>
+      <c r="R100">
+        <v>1.83</v>
+      </c>
+      <c r="S100">
+        <v>4</v>
+      </c>
+      <c r="T100">
+        <v>1.62</v>
+      </c>
+      <c r="U100">
+        <v>2.2</v>
+      </c>
+      <c r="V100">
+        <v>4</v>
+      </c>
+      <c r="W100">
+        <v>1.22</v>
+      </c>
+      <c r="X100">
+        <v>11</v>
+      </c>
+      <c r="Y100">
+        <v>1.03</v>
+      </c>
+      <c r="Z100">
+        <v>2.5</v>
+      </c>
+      <c r="AA100">
+        <v>2.75</v>
+      </c>
+      <c r="AB100">
+        <v>3.3</v>
+      </c>
+      <c r="AC100">
+        <v>1.13</v>
+      </c>
+      <c r="AD100">
+        <v>4.85</v>
+      </c>
+      <c r="AE100">
+        <v>1.6</v>
+      </c>
+      <c r="AF100">
+        <v>2.23</v>
+      </c>
+      <c r="AG100">
+        <v>3.1</v>
+      </c>
+      <c r="AH100">
+        <v>1.36</v>
+      </c>
+      <c r="AI100">
+        <v>2.38</v>
+      </c>
+      <c r="AJ100">
+        <v>1.53</v>
+      </c>
+      <c r="AK100">
+        <v>1.06</v>
+      </c>
+      <c r="AL100">
+        <v>1.06</v>
+      </c>
+      <c r="AM100">
+        <v>1.1</v>
+      </c>
+      <c r="AN100">
+        <v>1.5</v>
+      </c>
+      <c r="AO100">
+        <v>1.4</v>
+      </c>
+      <c r="AP100">
+        <v>1.2</v>
+      </c>
+      <c r="AQ100">
+        <v>1.67</v>
+      </c>
+      <c r="AR100">
+        <v>1.66</v>
+      </c>
+      <c r="AS100">
+        <v>1.36</v>
+      </c>
+      <c r="AT100">
+        <v>3.02</v>
+      </c>
+      <c r="AU100">
+        <v>4</v>
+      </c>
+      <c r="AV100">
+        <v>5</v>
+      </c>
+      <c r="AW100">
+        <v>7</v>
+      </c>
+      <c r="AX100">
+        <v>1</v>
+      </c>
+      <c r="AY100">
+        <v>11</v>
+      </c>
+      <c r="AZ100">
+        <v>6</v>
+      </c>
+      <c r="BA100">
+        <v>7</v>
+      </c>
+      <c r="BB100">
+        <v>2</v>
+      </c>
+      <c r="BC100">
+        <v>9</v>
+      </c>
+      <c r="BD100">
+        <v>2.08</v>
+      </c>
+      <c r="BE100">
+        <v>7.3</v>
+      </c>
+      <c r="BF100">
+        <v>2.08</v>
+      </c>
+      <c r="BG100">
+        <v>1.18</v>
+      </c>
+      <c r="BH100">
+        <v>4.3</v>
+      </c>
+      <c r="BI100">
+        <v>1.29</v>
+      </c>
+      <c r="BJ100">
+        <v>3.14</v>
+      </c>
+      <c r="BK100">
+        <v>1.83</v>
+      </c>
+      <c r="BL100">
+        <v>2.32</v>
+      </c>
+      <c r="BM100">
+        <v>1.95</v>
+      </c>
+      <c r="BN100">
+        <v>1.85</v>
+      </c>
+      <c r="BO100">
+        <v>2.45</v>
+      </c>
+      <c r="BP100">
+        <v>1.53</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="200">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -496,6 +496,9 @@
     <t>['67']</t>
   </si>
   <si>
+    <t>['75', '83', '89']</t>
+  </si>
+  <si>
     <t>['62']</t>
   </si>
   <si>
@@ -608,6 +611,9 @@
   </si>
   <si>
     <t>['72']</t>
+  </si>
+  <si>
+    <t>['43', '57', '87']</t>
   </si>
 </sst>
 </file>
@@ -969,7 +975,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP100"/>
+  <dimension ref="A1:BP101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1228,7 +1234,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1846,7 +1852,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q5">
         <v>2.75</v>
@@ -1927,7 +1933,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2258,7 +2264,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q7">
         <v>4.33</v>
@@ -2670,7 +2676,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -3082,7 +3088,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q11">
         <v>3.5</v>
@@ -3494,7 +3500,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q13">
         <v>3.6</v>
@@ -3700,7 +3706,7 @@
         <v>101</v>
       </c>
       <c r="P14" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q14">
         <v>4.75</v>
@@ -3906,7 +3912,7 @@
         <v>101</v>
       </c>
       <c r="P15" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -3984,7 +3990,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ15">
         <v>1.33</v>
@@ -4318,7 +4324,7 @@
         <v>102</v>
       </c>
       <c r="P17" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q17">
         <v>2.75</v>
@@ -5142,7 +5148,7 @@
         <v>106</v>
       </c>
       <c r="P21" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5760,7 +5766,7 @@
         <v>107</v>
       </c>
       <c r="P24" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q24">
         <v>3.6</v>
@@ -6172,7 +6178,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6378,7 +6384,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q27">
         <v>4</v>
@@ -6584,7 +6590,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6996,7 +7002,7 @@
         <v>112</v>
       </c>
       <c r="P30" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q30">
         <v>2.1</v>
@@ -7408,7 +7414,7 @@
         <v>113</v>
       </c>
       <c r="P32" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q32">
         <v>2.38</v>
@@ -7614,7 +7620,7 @@
         <v>101</v>
       </c>
       <c r="P33" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -7901,7 +7907,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ34">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AR34">
         <v>1.81</v>
@@ -8310,7 +8316,7 @@
         <v>1</v>
       </c>
       <c r="AP36">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ36">
         <v>1</v>
@@ -8850,7 +8856,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q39">
         <v>2</v>
@@ -9262,7 +9268,7 @@
         <v>120</v>
       </c>
       <c r="P41" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q41">
         <v>2.25</v>
@@ -9468,7 +9474,7 @@
         <v>121</v>
       </c>
       <c r="P42" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q42">
         <v>3.2</v>
@@ -9674,7 +9680,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q43">
         <v>3.4</v>
@@ -10910,7 +10916,7 @@
         <v>125</v>
       </c>
       <c r="P49" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -11322,7 +11328,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q51">
         <v>2.25</v>
@@ -12352,7 +12358,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q56">
         <v>1.95</v>
@@ -13051,7 +13057,7 @@
         <v>3</v>
       </c>
       <c r="AQ59">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AR59">
         <v>1.2</v>
@@ -13176,7 +13182,7 @@
         <v>118</v>
       </c>
       <c r="P60" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13254,7 +13260,7 @@
         <v>1</v>
       </c>
       <c r="AP60">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ60">
         <v>1.25</v>
@@ -13588,7 +13594,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q62">
         <v>3.4</v>
@@ -13872,7 +13878,7 @@
         <v>0.33</v>
       </c>
       <c r="AP63">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ63">
         <v>0.83</v>
@@ -14206,7 +14212,7 @@
         <v>135</v>
       </c>
       <c r="P65" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q65">
         <v>2.38</v>
@@ -14412,7 +14418,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q66">
         <v>2.3</v>
@@ -14824,7 +14830,7 @@
         <v>101</v>
       </c>
       <c r="P68" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q68">
         <v>3.6</v>
@@ -16060,7 +16066,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q74">
         <v>3</v>
@@ -16266,7 +16272,7 @@
         <v>90</v>
       </c>
       <c r="P75" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q75">
         <v>3.1</v>
@@ -16678,7 +16684,7 @@
         <v>139</v>
       </c>
       <c r="P77" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q77">
         <v>2.2</v>
@@ -17502,7 +17508,7 @@
         <v>146</v>
       </c>
       <c r="P81" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q81">
         <v>2.05</v>
@@ -17583,7 +17589,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ81">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AR81">
         <v>1.59</v>
@@ -17708,7 +17714,7 @@
         <v>147</v>
       </c>
       <c r="P82" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q82">
         <v>4</v>
@@ -17914,7 +17920,7 @@
         <v>148</v>
       </c>
       <c r="P83" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q83">
         <v>2.75</v>
@@ -18120,7 +18126,7 @@
         <v>101</v>
       </c>
       <c r="P84" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q84">
         <v>3.2</v>
@@ -18198,7 +18204,7 @@
         <v>1</v>
       </c>
       <c r="AP84">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ84">
         <v>1.67</v>
@@ -18738,7 +18744,7 @@
         <v>150</v>
       </c>
       <c r="P87" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q87">
         <v>3.5</v>
@@ -19768,7 +19774,7 @@
         <v>153</v>
       </c>
       <c r="P92" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q92">
         <v>2.63</v>
@@ -20386,7 +20392,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q95">
         <v>3.5</v>
@@ -21004,7 +21010,7 @@
         <v>117</v>
       </c>
       <c r="P98" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q98">
         <v>3</v>
@@ -21416,7 +21422,7 @@
         <v>101</v>
       </c>
       <c r="P100" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q100">
         <v>3.5</v>
@@ -21573,6 +21579,212 @@
       </c>
       <c r="BP100">
         <v>1.53</v>
+      </c>
+    </row>
+    <row r="101" spans="1:68">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>7380427</v>
+      </c>
+      <c r="C101" t="s">
+        <v>68</v>
+      </c>
+      <c r="D101" t="s">
+        <v>69</v>
+      </c>
+      <c r="E101" s="2">
+        <v>45461.79166666666</v>
+      </c>
+      <c r="F101">
+        <v>11</v>
+      </c>
+      <c r="G101" t="s">
+        <v>83</v>
+      </c>
+      <c r="H101" t="s">
+        <v>81</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>1</v>
+      </c>
+      <c r="K101">
+        <v>1</v>
+      </c>
+      <c r="L101">
+        <v>3</v>
+      </c>
+      <c r="M101">
+        <v>3</v>
+      </c>
+      <c r="N101">
+        <v>6</v>
+      </c>
+      <c r="O101" t="s">
+        <v>160</v>
+      </c>
+      <c r="P101" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q101">
+        <v>2.6</v>
+      </c>
+      <c r="R101">
+        <v>2.05</v>
+      </c>
+      <c r="S101">
+        <v>5</v>
+      </c>
+      <c r="T101">
+        <v>1.48</v>
+      </c>
+      <c r="U101">
+        <v>2.56</v>
+      </c>
+      <c r="V101">
+        <v>3.3</v>
+      </c>
+      <c r="W101">
+        <v>1.28</v>
+      </c>
+      <c r="X101">
+        <v>9.1</v>
+      </c>
+      <c r="Y101">
+        <v>1.04</v>
+      </c>
+      <c r="Z101">
+        <v>1.85</v>
+      </c>
+      <c r="AA101">
+        <v>3.2</v>
+      </c>
+      <c r="AB101">
+        <v>4.75</v>
+      </c>
+      <c r="AC101">
+        <v>1.09</v>
+      </c>
+      <c r="AD101">
+        <v>7</v>
+      </c>
+      <c r="AE101">
+        <v>1.5</v>
+      </c>
+      <c r="AF101">
+        <v>2.4</v>
+      </c>
+      <c r="AG101">
+        <v>2.25</v>
+      </c>
+      <c r="AH101">
+        <v>1.62</v>
+      </c>
+      <c r="AI101">
+        <v>2</v>
+      </c>
+      <c r="AJ101">
+        <v>1.73</v>
+      </c>
+      <c r="AK101">
+        <v>1.15</v>
+      </c>
+      <c r="AL101">
+        <v>1.25</v>
+      </c>
+      <c r="AM101">
+        <v>2.05</v>
+      </c>
+      <c r="AN101">
+        <v>0.8</v>
+      </c>
+      <c r="AO101">
+        <v>0</v>
+      </c>
+      <c r="AP101">
+        <v>0.83</v>
+      </c>
+      <c r="AQ101">
+        <v>0.2</v>
+      </c>
+      <c r="AR101">
+        <v>1.9</v>
+      </c>
+      <c r="AS101">
+        <v>1.09</v>
+      </c>
+      <c r="AT101">
+        <v>2.99</v>
+      </c>
+      <c r="AU101">
+        <v>7</v>
+      </c>
+      <c r="AV101">
+        <v>6</v>
+      </c>
+      <c r="AW101">
+        <v>10</v>
+      </c>
+      <c r="AX101">
+        <v>2</v>
+      </c>
+      <c r="AY101">
+        <v>17</v>
+      </c>
+      <c r="AZ101">
+        <v>8</v>
+      </c>
+      <c r="BA101">
+        <v>10</v>
+      </c>
+      <c r="BB101">
+        <v>2</v>
+      </c>
+      <c r="BC101">
+        <v>12</v>
+      </c>
+      <c r="BD101">
+        <v>1.47</v>
+      </c>
+      <c r="BE101">
+        <v>9</v>
+      </c>
+      <c r="BF101">
+        <v>3.34</v>
+      </c>
+      <c r="BG101">
+        <v>1.2</v>
+      </c>
+      <c r="BH101">
+        <v>3.9</v>
+      </c>
+      <c r="BI101">
+        <v>1.39</v>
+      </c>
+      <c r="BJ101">
+        <v>2.67</v>
+      </c>
+      <c r="BK101">
+        <v>2.2</v>
+      </c>
+      <c r="BL101">
+        <v>2.03</v>
+      </c>
+      <c r="BM101">
+        <v>2.12</v>
+      </c>
+      <c r="BN101">
+        <v>1.61</v>
+      </c>
+      <c r="BO101">
+        <v>2.84</v>
+      </c>
+      <c r="BP101">
+        <v>1.35</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="205">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -499,10 +499,22 @@
     <t>['75', '83', '89']</t>
   </si>
   <si>
-    <t>['62']</t>
+    <t>['90+7']</t>
   </si>
   <si>
-    <t>['90+7']</t>
+    <t>['60']</t>
+  </si>
+  <si>
+    <t>['81', '85']</t>
+  </si>
+  <si>
+    <t>['55', '90+1']</t>
+  </si>
+  <si>
+    <t>['56']</t>
+  </si>
+  <si>
+    <t>['62']</t>
   </si>
   <si>
     <t>['31', '49', '69']</t>
@@ -614,6 +626,9 @@
   </si>
   <si>
     <t>['43', '57', '87']</t>
+  </si>
+  <si>
+    <t>['65']</t>
   </si>
 </sst>
 </file>
@@ -975,7 +990,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP101"/>
+  <dimension ref="A1:BP107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1234,7 +1249,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1312,10 +1327,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ2">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1518,10 +1533,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ3">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1727,7 +1742,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ4">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1852,7 +1867,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Q5">
         <v>2.75</v>
@@ -2136,7 +2151,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ6">
         <v>0.83</v>
@@ -2264,7 +2279,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q7">
         <v>4.33</v>
@@ -2551,7 +2566,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ8">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2676,7 +2691,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -3088,7 +3103,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q11">
         <v>3.5</v>
@@ -3166,7 +3181,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ11">
         <v>0.4</v>
@@ -3500,7 +3515,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q13">
         <v>3.6</v>
@@ -3706,7 +3721,7 @@
         <v>101</v>
       </c>
       <c r="P14" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q14">
         <v>4.75</v>
@@ -3912,7 +3927,7 @@
         <v>101</v>
       </c>
       <c r="P15" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4199,7 +4214,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ16">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4324,7 +4339,7 @@
         <v>102</v>
       </c>
       <c r="P17" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Q17">
         <v>2.75</v>
@@ -4402,7 +4417,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ17">
         <v>1</v>
@@ -4814,7 +4829,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ19">
         <v>0.2</v>
@@ -5023,7 +5038,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ20">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5148,7 +5163,7 @@
         <v>106</v>
       </c>
       <c r="P21" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5432,10 +5447,10 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ22">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AR22">
         <v>1.45</v>
@@ -5638,7 +5653,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ23">
         <v>1.5</v>
@@ -5766,7 +5781,7 @@
         <v>107</v>
       </c>
       <c r="P24" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q24">
         <v>3.6</v>
@@ -5847,7 +5862,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ24">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR24">
         <v>1.66</v>
@@ -6178,7 +6193,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6384,7 +6399,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q27">
         <v>4</v>
@@ -6462,10 +6477,10 @@
         <v>1</v>
       </c>
       <c r="AP27">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ27">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR27">
         <v>1.04</v>
@@ -6590,7 +6605,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6671,7 +6686,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ28">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AR28">
         <v>2.07</v>
@@ -6877,7 +6892,7 @@
         <v>2</v>
       </c>
       <c r="AQ29">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AR29">
         <v>0</v>
@@ -7002,7 +7017,7 @@
         <v>112</v>
       </c>
       <c r="P30" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q30">
         <v>2.1</v>
@@ -7080,7 +7095,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ30">
         <v>0</v>
@@ -7286,7 +7301,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ31">
         <v>0.4</v>
@@ -7414,7 +7429,7 @@
         <v>113</v>
       </c>
       <c r="P32" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q32">
         <v>2.38</v>
@@ -7620,7 +7635,7 @@
         <v>101</v>
       </c>
       <c r="P33" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -7698,7 +7713,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ33">
         <v>0.8</v>
@@ -8525,7 +8540,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ37">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR37">
         <v>1.35</v>
@@ -8856,7 +8871,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q39">
         <v>2</v>
@@ -9268,7 +9283,7 @@
         <v>120</v>
       </c>
       <c r="P41" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q41">
         <v>2.25</v>
@@ -9474,7 +9489,7 @@
         <v>121</v>
       </c>
       <c r="P42" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q42">
         <v>3.2</v>
@@ -9680,7 +9695,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q43">
         <v>3.4</v>
@@ -9761,7 +9776,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ43">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AR43">
         <v>1.42</v>
@@ -9964,7 +9979,7 @@
         <v>1.5</v>
       </c>
       <c r="AP44">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ44">
         <v>1.33</v>
@@ -10170,7 +10185,7 @@
         <v>0</v>
       </c>
       <c r="AP45">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ45">
         <v>0</v>
@@ -10376,7 +10391,7 @@
         <v>1.5</v>
       </c>
       <c r="AP46">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ46">
         <v>1.67</v>
@@ -10916,7 +10931,7 @@
         <v>125</v>
       </c>
       <c r="P49" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -11200,10 +11215,10 @@
         <v>2</v>
       </c>
       <c r="AP50">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ50">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR50">
         <v>1.29</v>
@@ -11328,7 +11343,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="Q51">
         <v>2.25</v>
@@ -11409,7 +11424,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ51">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AR51">
         <v>1.66</v>
@@ -11818,7 +11833,7 @@
         <v>0.5</v>
       </c>
       <c r="AP53">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ53">
         <v>0.6</v>
@@ -12358,7 +12373,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q56">
         <v>1.95</v>
@@ -12439,7 +12454,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ56">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AR56">
         <v>1.63</v>
@@ -12642,7 +12657,7 @@
         <v>0</v>
       </c>
       <c r="AP57">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ57">
         <v>0.2</v>
@@ -13182,7 +13197,7 @@
         <v>118</v>
       </c>
       <c r="P60" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13263,7 +13278,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ60">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR60">
         <v>2.36</v>
@@ -13469,7 +13484,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ61">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR61">
         <v>1.31</v>
@@ -13594,7 +13609,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q62">
         <v>3.4</v>
@@ -14087,7 +14102,7 @@
         <v>1</v>
       </c>
       <c r="AQ64">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR64">
         <v>1.17</v>
@@ -14212,7 +14227,7 @@
         <v>135</v>
       </c>
       <c r="P65" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q65">
         <v>2.38</v>
@@ -14418,7 +14433,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q66">
         <v>2.3</v>
@@ -14702,7 +14717,7 @@
         <v>1.33</v>
       </c>
       <c r="AP67">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ67">
         <v>1.67</v>
@@ -14830,7 +14845,7 @@
         <v>101</v>
       </c>
       <c r="P68" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q68">
         <v>3.6</v>
@@ -14908,7 +14923,7 @@
         <v>1</v>
       </c>
       <c r="AP68">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ68">
         <v>1.17</v>
@@ -15117,7 +15132,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ69">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR69">
         <v>1.31</v>
@@ -15938,7 +15953,7 @@
         <v>1.5</v>
       </c>
       <c r="AP73">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ73">
         <v>1.17</v>
@@ -16066,7 +16081,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q74">
         <v>3</v>
@@ -16147,7 +16162,7 @@
         <v>2</v>
       </c>
       <c r="AQ74">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AR74">
         <v>1.49</v>
@@ -16272,7 +16287,7 @@
         <v>90</v>
       </c>
       <c r="P75" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q75">
         <v>3.1</v>
@@ -16559,7 +16574,7 @@
         <v>1</v>
       </c>
       <c r="AQ76">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AR76">
         <v>1.31</v>
@@ -16684,7 +16699,7 @@
         <v>139</v>
       </c>
       <c r="P77" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q77">
         <v>2.2</v>
@@ -16762,7 +16777,7 @@
         <v>0.33</v>
       </c>
       <c r="AP77">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ77">
         <v>1</v>
@@ -16971,7 +16986,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ78">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AR78">
         <v>1.62</v>
@@ -17380,10 +17395,10 @@
         <v>1.67</v>
       </c>
       <c r="AP80">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ80">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR80">
         <v>1.12</v>
@@ -17508,7 +17523,7 @@
         <v>146</v>
       </c>
       <c r="P81" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q81">
         <v>2.05</v>
@@ -17586,7 +17601,7 @@
         <v>0</v>
       </c>
       <c r="AP81">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ81">
         <v>0.2</v>
@@ -17714,7 +17729,7 @@
         <v>147</v>
       </c>
       <c r="P82" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q82">
         <v>4</v>
@@ -17792,7 +17807,7 @@
         <v>1.5</v>
       </c>
       <c r="AP82">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ82">
         <v>1</v>
@@ -17920,7 +17935,7 @@
         <v>148</v>
       </c>
       <c r="P83" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q83">
         <v>2.75</v>
@@ -18126,7 +18141,7 @@
         <v>101</v>
       </c>
       <c r="P84" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q84">
         <v>3.2</v>
@@ -18619,7 +18634,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ86">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR86">
         <v>1.95</v>
@@ -18744,7 +18759,7 @@
         <v>150</v>
       </c>
       <c r="P87" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q87">
         <v>3.5</v>
@@ -19237,7 +19252,7 @@
         <v>3</v>
       </c>
       <c r="AQ89">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR89">
         <v>1.5</v>
@@ -19774,7 +19789,7 @@
         <v>153</v>
       </c>
       <c r="P92" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q92">
         <v>2.63</v>
@@ -20061,7 +20076,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ93">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AR93">
         <v>1.79</v>
@@ -20392,7 +20407,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q95">
         <v>3.5</v>
@@ -20676,7 +20691,7 @@
         <v>0.25</v>
       </c>
       <c r="AP96">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ96">
         <v>0.2</v>
@@ -20882,7 +20897,7 @@
         <v>1</v>
       </c>
       <c r="AP97">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ97">
         <v>0.8</v>
@@ -21010,7 +21025,7 @@
         <v>117</v>
       </c>
       <c r="P98" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q98">
         <v>3</v>
@@ -21422,7 +21437,7 @@
         <v>101</v>
       </c>
       <c r="P100" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q100">
         <v>3.5</v>
@@ -21628,7 +21643,7 @@
         <v>160</v>
       </c>
       <c r="P101" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q101">
         <v>2.6</v>
@@ -21727,16 +21742,16 @@
         <v>6</v>
       </c>
       <c r="AW101">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AX101">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY101">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AZ101">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA101">
         <v>10</v>
@@ -21785,6 +21800,1242 @@
       </c>
       <c r="BP101">
         <v>1.35</v>
+      </c>
+    </row>
+    <row r="102" spans="1:68">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>7380429</v>
+      </c>
+      <c r="C102" t="s">
+        <v>68</v>
+      </c>
+      <c r="D102" t="s">
+        <v>69</v>
+      </c>
+      <c r="E102" s="2">
+        <v>45461.875</v>
+      </c>
+      <c r="F102">
+        <v>11</v>
+      </c>
+      <c r="G102" t="s">
+        <v>71</v>
+      </c>
+      <c r="H102" t="s">
+        <v>75</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>1</v>
+      </c>
+      <c r="K102">
+        <v>1</v>
+      </c>
+      <c r="L102">
+        <v>1</v>
+      </c>
+      <c r="M102">
+        <v>1</v>
+      </c>
+      <c r="N102">
+        <v>2</v>
+      </c>
+      <c r="O102" t="s">
+        <v>161</v>
+      </c>
+      <c r="P102" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q102">
+        <v>2.38</v>
+      </c>
+      <c r="R102">
+        <v>2</v>
+      </c>
+      <c r="S102">
+        <v>6</v>
+      </c>
+      <c r="T102">
+        <v>1.55</v>
+      </c>
+      <c r="U102">
+        <v>2.3</v>
+      </c>
+      <c r="V102">
+        <v>3.55</v>
+      </c>
+      <c r="W102">
+        <v>1.25</v>
+      </c>
+      <c r="X102">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Y102">
+        <v>1.03</v>
+      </c>
+      <c r="Z102">
+        <v>1.67</v>
+      </c>
+      <c r="AA102">
+        <v>3.5</v>
+      </c>
+      <c r="AB102">
+        <v>5.5</v>
+      </c>
+      <c r="AC102">
+        <v>1.09</v>
+      </c>
+      <c r="AD102">
+        <v>7</v>
+      </c>
+      <c r="AE102">
+        <v>1.5</v>
+      </c>
+      <c r="AF102">
+        <v>2.4</v>
+      </c>
+      <c r="AG102">
+        <v>2.4</v>
+      </c>
+      <c r="AH102">
+        <v>1.53</v>
+      </c>
+      <c r="AI102">
+        <v>2.25</v>
+      </c>
+      <c r="AJ102">
+        <v>1.57</v>
+      </c>
+      <c r="AK102">
+        <v>1.17</v>
+      </c>
+      <c r="AL102">
+        <v>1.25</v>
+      </c>
+      <c r="AM102">
+        <v>2.05</v>
+      </c>
+      <c r="AN102">
+        <v>1.75</v>
+      </c>
+      <c r="AO102">
+        <v>0.25</v>
+      </c>
+      <c r="AP102">
+        <v>1.6</v>
+      </c>
+      <c r="AQ102">
+        <v>0.4</v>
+      </c>
+      <c r="AR102">
+        <v>1.91</v>
+      </c>
+      <c r="AS102">
+        <v>1.12</v>
+      </c>
+      <c r="AT102">
+        <v>3.03</v>
+      </c>
+      <c r="AU102">
+        <v>5</v>
+      </c>
+      <c r="AV102">
+        <v>3</v>
+      </c>
+      <c r="AW102">
+        <v>3</v>
+      </c>
+      <c r="AX102">
+        <v>4</v>
+      </c>
+      <c r="AY102">
+        <v>8</v>
+      </c>
+      <c r="AZ102">
+        <v>7</v>
+      </c>
+      <c r="BA102">
+        <v>4</v>
+      </c>
+      <c r="BB102">
+        <v>2</v>
+      </c>
+      <c r="BC102">
+        <v>6</v>
+      </c>
+      <c r="BD102">
+        <v>1.62</v>
+      </c>
+      <c r="BE102">
+        <v>8.6</v>
+      </c>
+      <c r="BF102">
+        <v>2.81</v>
+      </c>
+      <c r="BG102">
+        <v>1.24</v>
+      </c>
+      <c r="BH102">
+        <v>3.48</v>
+      </c>
+      <c r="BI102">
+        <v>1.46</v>
+      </c>
+      <c r="BJ102">
+        <v>2.45</v>
+      </c>
+      <c r="BK102">
+        <v>2.25</v>
+      </c>
+      <c r="BL102">
+        <v>1.88</v>
+      </c>
+      <c r="BM102">
+        <v>2.32</v>
+      </c>
+      <c r="BN102">
+        <v>1.51</v>
+      </c>
+      <c r="BO102">
+        <v>3.14</v>
+      </c>
+      <c r="BP102">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="103" spans="1:68">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>7380434</v>
+      </c>
+      <c r="C103" t="s">
+        <v>68</v>
+      </c>
+      <c r="D103" t="s">
+        <v>69</v>
+      </c>
+      <c r="E103" s="2">
+        <v>45461.89583333334</v>
+      </c>
+      <c r="F103">
+        <v>11</v>
+      </c>
+      <c r="G103" t="s">
+        <v>85</v>
+      </c>
+      <c r="H103" t="s">
+        <v>84</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>1</v>
+      </c>
+      <c r="M103">
+        <v>1</v>
+      </c>
+      <c r="N103">
+        <v>2</v>
+      </c>
+      <c r="O103" t="s">
+        <v>162</v>
+      </c>
+      <c r="P103" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q103">
+        <v>2.88</v>
+      </c>
+      <c r="R103">
+        <v>2</v>
+      </c>
+      <c r="S103">
+        <v>4.33</v>
+      </c>
+      <c r="T103">
+        <v>1.55</v>
+      </c>
+      <c r="U103">
+        <v>2.3</v>
+      </c>
+      <c r="V103">
+        <v>3.5</v>
+      </c>
+      <c r="W103">
+        <v>1.25</v>
+      </c>
+      <c r="X103">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Y103">
+        <v>1.03</v>
+      </c>
+      <c r="Z103">
+        <v>2.15</v>
+      </c>
+      <c r="AA103">
+        <v>3.2</v>
+      </c>
+      <c r="AB103">
+        <v>3.5</v>
+      </c>
+      <c r="AC103">
+        <v>1.1</v>
+      </c>
+      <c r="AD103">
+        <v>6.5</v>
+      </c>
+      <c r="AE103">
+        <v>1.5</v>
+      </c>
+      <c r="AF103">
+        <v>2.4</v>
+      </c>
+      <c r="AG103">
+        <v>2.35</v>
+      </c>
+      <c r="AH103">
+        <v>1.57</v>
+      </c>
+      <c r="AI103">
+        <v>2.1</v>
+      </c>
+      <c r="AJ103">
+        <v>1.67</v>
+      </c>
+      <c r="AK103">
+        <v>1.3</v>
+      </c>
+      <c r="AL103">
+        <v>1.33</v>
+      </c>
+      <c r="AM103">
+        <v>1.6</v>
+      </c>
+      <c r="AN103">
+        <v>1.5</v>
+      </c>
+      <c r="AO103">
+        <v>0.2</v>
+      </c>
+      <c r="AP103">
+        <v>1.4</v>
+      </c>
+      <c r="AQ103">
+        <v>0.33</v>
+      </c>
+      <c r="AR103">
+        <v>1.12</v>
+      </c>
+      <c r="AS103">
+        <v>1.25</v>
+      </c>
+      <c r="AT103">
+        <v>2.37</v>
+      </c>
+      <c r="AU103">
+        <v>5</v>
+      </c>
+      <c r="AV103">
+        <v>2</v>
+      </c>
+      <c r="AW103">
+        <v>6</v>
+      </c>
+      <c r="AX103">
+        <v>6</v>
+      </c>
+      <c r="AY103">
+        <v>11</v>
+      </c>
+      <c r="AZ103">
+        <v>8</v>
+      </c>
+      <c r="BA103">
+        <v>9</v>
+      </c>
+      <c r="BB103">
+        <v>3</v>
+      </c>
+      <c r="BC103">
+        <v>12</v>
+      </c>
+      <c r="BD103">
+        <v>1.62</v>
+      </c>
+      <c r="BE103">
+        <v>8.1</v>
+      </c>
+      <c r="BF103">
+        <v>2.86</v>
+      </c>
+      <c r="BG103">
+        <v>1.23</v>
+      </c>
+      <c r="BH103">
+        <v>3.56</v>
+      </c>
+      <c r="BI103">
+        <v>1.44</v>
+      </c>
+      <c r="BJ103">
+        <v>2.51</v>
+      </c>
+      <c r="BK103">
+        <v>2.38</v>
+      </c>
+      <c r="BL103">
+        <v>1.92</v>
+      </c>
+      <c r="BM103">
+        <v>2.27</v>
+      </c>
+      <c r="BN103">
+        <v>1.53</v>
+      </c>
+      <c r="BO103">
+        <v>3.04</v>
+      </c>
+      <c r="BP103">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="104" spans="1:68">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>7380430</v>
+      </c>
+      <c r="C104" t="s">
+        <v>68</v>
+      </c>
+      <c r="D104" t="s">
+        <v>69</v>
+      </c>
+      <c r="E104" s="2">
+        <v>45462.79166666666</v>
+      </c>
+      <c r="F104">
+        <v>11</v>
+      </c>
+      <c r="G104" t="s">
+        <v>74</v>
+      </c>
+      <c r="H104" t="s">
+        <v>88</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>2</v>
+      </c>
+      <c r="M104">
+        <v>0</v>
+      </c>
+      <c r="N104">
+        <v>2</v>
+      </c>
+      <c r="O104" t="s">
+        <v>163</v>
+      </c>
+      <c r="P104" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q104">
+        <v>2.3</v>
+      </c>
+      <c r="R104">
+        <v>2.1</v>
+      </c>
+      <c r="S104">
+        <v>6</v>
+      </c>
+      <c r="T104">
+        <v>1.45</v>
+      </c>
+      <c r="U104">
+        <v>2.76</v>
+      </c>
+      <c r="V104">
+        <v>3.27</v>
+      </c>
+      <c r="W104">
+        <v>1.34</v>
+      </c>
+      <c r="X104">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="Y104">
+        <v>1.05</v>
+      </c>
+      <c r="Z104">
+        <v>1.67</v>
+      </c>
+      <c r="AA104">
+        <v>3.5</v>
+      </c>
+      <c r="AB104">
+        <v>5.75</v>
+      </c>
+      <c r="AC104">
+        <v>1.04</v>
+      </c>
+      <c r="AD104">
+        <v>7.8</v>
+      </c>
+      <c r="AE104">
+        <v>1.35</v>
+      </c>
+      <c r="AF104">
+        <v>2.84</v>
+      </c>
+      <c r="AG104">
+        <v>2.15</v>
+      </c>
+      <c r="AH104">
+        <v>1.67</v>
+      </c>
+      <c r="AI104">
+        <v>2.1</v>
+      </c>
+      <c r="AJ104">
+        <v>1.67</v>
+      </c>
+      <c r="AK104">
+        <v>1.13</v>
+      </c>
+      <c r="AL104">
+        <v>1.26</v>
+      </c>
+      <c r="AM104">
+        <v>2.18</v>
+      </c>
+      <c r="AN104">
+        <v>2.25</v>
+      </c>
+      <c r="AO104">
+        <v>1</v>
+      </c>
+      <c r="AP104">
+        <v>2.4</v>
+      </c>
+      <c r="AQ104">
+        <v>0.83</v>
+      </c>
+      <c r="AR104">
+        <v>1.65</v>
+      </c>
+      <c r="AS104">
+        <v>1.13</v>
+      </c>
+      <c r="AT104">
+        <v>2.78</v>
+      </c>
+      <c r="AU104">
+        <v>7</v>
+      </c>
+      <c r="AV104">
+        <v>2</v>
+      </c>
+      <c r="AW104">
+        <v>12</v>
+      </c>
+      <c r="AX104">
+        <v>2</v>
+      </c>
+      <c r="AY104">
+        <v>19</v>
+      </c>
+      <c r="AZ104">
+        <v>4</v>
+      </c>
+      <c r="BA104">
+        <v>11</v>
+      </c>
+      <c r="BB104">
+        <v>3</v>
+      </c>
+      <c r="BC104">
+        <v>14</v>
+      </c>
+      <c r="BD104">
+        <v>1.36</v>
+      </c>
+      <c r="BE104">
+        <v>10.6</v>
+      </c>
+      <c r="BF104">
+        <v>3.83</v>
+      </c>
+      <c r="BG104">
+        <v>1.2</v>
+      </c>
+      <c r="BH104">
+        <v>4.25</v>
+      </c>
+      <c r="BI104">
+        <v>1.38</v>
+      </c>
+      <c r="BJ104">
+        <v>2.9</v>
+      </c>
+      <c r="BK104">
+        <v>2.1</v>
+      </c>
+      <c r="BL104">
+        <v>2.12</v>
+      </c>
+      <c r="BM104">
+        <v>2.12</v>
+      </c>
+      <c r="BN104">
+        <v>1.67</v>
+      </c>
+      <c r="BO104">
+        <v>2.85</v>
+      </c>
+      <c r="BP104">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="105" spans="1:68">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>7380428</v>
+      </c>
+      <c r="C105" t="s">
+        <v>68</v>
+      </c>
+      <c r="D105" t="s">
+        <v>69</v>
+      </c>
+      <c r="E105" s="2">
+        <v>45462.875</v>
+      </c>
+      <c r="F105">
+        <v>11</v>
+      </c>
+      <c r="G105" t="s">
+        <v>70</v>
+      </c>
+      <c r="H105" t="s">
+        <v>77</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <v>0</v>
+      </c>
+      <c r="L105">
+        <v>2</v>
+      </c>
+      <c r="M105">
+        <v>0</v>
+      </c>
+      <c r="N105">
+        <v>2</v>
+      </c>
+      <c r="O105" t="s">
+        <v>164</v>
+      </c>
+      <c r="P105" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q105">
+        <v>3</v>
+      </c>
+      <c r="R105">
+        <v>1.91</v>
+      </c>
+      <c r="S105">
+        <v>4.33</v>
+      </c>
+      <c r="T105">
+        <v>1.55</v>
+      </c>
+      <c r="U105">
+        <v>2.3</v>
+      </c>
+      <c r="V105">
+        <v>3.45</v>
+      </c>
+      <c r="W105">
+        <v>1.25</v>
+      </c>
+      <c r="X105">
+        <v>10.5</v>
+      </c>
+      <c r="Y105">
+        <v>1.03</v>
+      </c>
+      <c r="Z105">
+        <v>2.2</v>
+      </c>
+      <c r="AA105">
+        <v>3</v>
+      </c>
+      <c r="AB105">
+        <v>3.6</v>
+      </c>
+      <c r="AC105">
+        <v>1.11</v>
+      </c>
+      <c r="AD105">
+        <v>6.25</v>
+      </c>
+      <c r="AE105">
+        <v>1.52</v>
+      </c>
+      <c r="AF105">
+        <v>2.4</v>
+      </c>
+      <c r="AG105">
+        <v>2.6</v>
+      </c>
+      <c r="AH105">
+        <v>1.48</v>
+      </c>
+      <c r="AI105">
+        <v>2.2</v>
+      </c>
+      <c r="AJ105">
+        <v>1.62</v>
+      </c>
+      <c r="AK105">
+        <v>1.22</v>
+      </c>
+      <c r="AL105">
+        <v>1.3</v>
+      </c>
+      <c r="AM105">
+        <v>1.73</v>
+      </c>
+      <c r="AN105">
+        <v>1.2</v>
+      </c>
+      <c r="AO105">
+        <v>0.4</v>
+      </c>
+      <c r="AP105">
+        <v>1.5</v>
+      </c>
+      <c r="AQ105">
+        <v>0.33</v>
+      </c>
+      <c r="AR105">
+        <v>1.54</v>
+      </c>
+      <c r="AS105">
+        <v>1.28</v>
+      </c>
+      <c r="AT105">
+        <v>2.82</v>
+      </c>
+      <c r="AU105">
+        <v>6</v>
+      </c>
+      <c r="AV105">
+        <v>4</v>
+      </c>
+      <c r="AW105">
+        <v>4</v>
+      </c>
+      <c r="AX105">
+        <v>5</v>
+      </c>
+      <c r="AY105">
+        <v>10</v>
+      </c>
+      <c r="AZ105">
+        <v>9</v>
+      </c>
+      <c r="BA105">
+        <v>5</v>
+      </c>
+      <c r="BB105">
+        <v>1</v>
+      </c>
+      <c r="BC105">
+        <v>6</v>
+      </c>
+      <c r="BD105">
+        <v>1.62</v>
+      </c>
+      <c r="BE105">
+        <v>8.1</v>
+      </c>
+      <c r="BF105">
+        <v>2.86</v>
+      </c>
+      <c r="BG105">
+        <v>1.2</v>
+      </c>
+      <c r="BH105">
+        <v>4.25</v>
+      </c>
+      <c r="BI105">
+        <v>1.38</v>
+      </c>
+      <c r="BJ105">
+        <v>2.9</v>
+      </c>
+      <c r="BK105">
+        <v>2.1</v>
+      </c>
+      <c r="BL105">
+        <v>2.12</v>
+      </c>
+      <c r="BM105">
+        <v>2.12</v>
+      </c>
+      <c r="BN105">
+        <v>1.67</v>
+      </c>
+      <c r="BO105">
+        <v>2.85</v>
+      </c>
+      <c r="BP105">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="106" spans="1:68">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>7380432</v>
+      </c>
+      <c r="C106" t="s">
+        <v>68</v>
+      </c>
+      <c r="D106" t="s">
+        <v>69</v>
+      </c>
+      <c r="E106" s="2">
+        <v>45462.89583333334</v>
+      </c>
+      <c r="F106">
+        <v>11</v>
+      </c>
+      <c r="G106" t="s">
+        <v>79</v>
+      </c>
+      <c r="H106" t="s">
+        <v>82</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="K106">
+        <v>0</v>
+      </c>
+      <c r="L106">
+        <v>0</v>
+      </c>
+      <c r="M106">
+        <v>0</v>
+      </c>
+      <c r="N106">
+        <v>0</v>
+      </c>
+      <c r="O106" t="s">
+        <v>101</v>
+      </c>
+      <c r="P106" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q106">
+        <v>4</v>
+      </c>
+      <c r="R106">
+        <v>1.83</v>
+      </c>
+      <c r="S106">
+        <v>3.4</v>
+      </c>
+      <c r="T106">
+        <v>1.54</v>
+      </c>
+      <c r="U106">
+        <v>2.49</v>
+      </c>
+      <c r="V106">
+        <v>3.6</v>
+      </c>
+      <c r="W106">
+        <v>1.25</v>
+      </c>
+      <c r="X106">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Y106">
+        <v>1.03</v>
+      </c>
+      <c r="Z106">
+        <v>3.1</v>
+      </c>
+      <c r="AA106">
+        <v>2.9</v>
+      </c>
+      <c r="AB106">
+        <v>2.55</v>
+      </c>
+      <c r="AC106">
+        <v>1.1</v>
+      </c>
+      <c r="AD106">
+        <v>6.5</v>
+      </c>
+      <c r="AE106">
+        <v>1.5</v>
+      </c>
+      <c r="AF106">
+        <v>2.41</v>
+      </c>
+      <c r="AG106">
+        <v>2.88</v>
+      </c>
+      <c r="AH106">
+        <v>1.4</v>
+      </c>
+      <c r="AI106">
+        <v>2.2</v>
+      </c>
+      <c r="AJ106">
+        <v>1.62</v>
+      </c>
+      <c r="AK106">
+        <v>1.5</v>
+      </c>
+      <c r="AL106">
+        <v>1.3</v>
+      </c>
+      <c r="AM106">
+        <v>1.38</v>
+      </c>
+      <c r="AN106">
+        <v>1.6</v>
+      </c>
+      <c r="AO106">
+        <v>1.75</v>
+      </c>
+      <c r="AP106">
+        <v>1.5</v>
+      </c>
+      <c r="AQ106">
+        <v>1.6</v>
+      </c>
+      <c r="AR106">
+        <v>1.13</v>
+      </c>
+      <c r="AS106">
+        <v>1.21</v>
+      </c>
+      <c r="AT106">
+        <v>2.34</v>
+      </c>
+      <c r="AU106">
+        <v>4</v>
+      </c>
+      <c r="AV106">
+        <v>3</v>
+      </c>
+      <c r="AW106">
+        <v>5</v>
+      </c>
+      <c r="AX106">
+        <v>4</v>
+      </c>
+      <c r="AY106">
+        <v>9</v>
+      </c>
+      <c r="AZ106">
+        <v>7</v>
+      </c>
+      <c r="BA106">
+        <v>3</v>
+      </c>
+      <c r="BB106">
+        <v>9</v>
+      </c>
+      <c r="BC106">
+        <v>12</v>
+      </c>
+      <c r="BD106">
+        <v>2</v>
+      </c>
+      <c r="BE106">
+        <v>7.1</v>
+      </c>
+      <c r="BF106">
+        <v>2.18</v>
+      </c>
+      <c r="BG106">
+        <v>1.2</v>
+      </c>
+      <c r="BH106">
+        <v>4.25</v>
+      </c>
+      <c r="BI106">
+        <v>1.38</v>
+      </c>
+      <c r="BJ106">
+        <v>2.9</v>
+      </c>
+      <c r="BK106">
+        <v>2.1</v>
+      </c>
+      <c r="BL106">
+        <v>2.12</v>
+      </c>
+      <c r="BM106">
+        <v>2.12</v>
+      </c>
+      <c r="BN106">
+        <v>1.67</v>
+      </c>
+      <c r="BO106">
+        <v>2.85</v>
+      </c>
+      <c r="BP106">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="107" spans="1:68">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>7380433</v>
+      </c>
+      <c r="C107" t="s">
+        <v>68</v>
+      </c>
+      <c r="D107" t="s">
+        <v>69</v>
+      </c>
+      <c r="E107" s="2">
+        <v>45462.89583333334</v>
+      </c>
+      <c r="F107">
+        <v>11</v>
+      </c>
+      <c r="G107" t="s">
+        <v>87</v>
+      </c>
+      <c r="H107" t="s">
+        <v>86</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>0</v>
+      </c>
+      <c r="L107">
+        <v>1</v>
+      </c>
+      <c r="M107">
+        <v>0</v>
+      </c>
+      <c r="N107">
+        <v>1</v>
+      </c>
+      <c r="O107" t="s">
+        <v>165</v>
+      </c>
+      <c r="P107" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q107">
+        <v>3.2</v>
+      </c>
+      <c r="R107">
+        <v>1.95</v>
+      </c>
+      <c r="S107">
+        <v>4</v>
+      </c>
+      <c r="T107">
+        <v>1.49</v>
+      </c>
+      <c r="U107">
+        <v>2.51</v>
+      </c>
+      <c r="V107">
+        <v>3.28</v>
+      </c>
+      <c r="W107">
+        <v>1.31</v>
+      </c>
+      <c r="X107">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Y107">
+        <v>1.05</v>
+      </c>
+      <c r="Z107">
+        <v>2.45</v>
+      </c>
+      <c r="AA107">
+        <v>3.1</v>
+      </c>
+      <c r="AB107">
+        <v>3.1</v>
+      </c>
+      <c r="AC107">
+        <v>1.05</v>
+      </c>
+      <c r="AD107">
+        <v>7.3</v>
+      </c>
+      <c r="AE107">
+        <v>1.39</v>
+      </c>
+      <c r="AF107">
+        <v>2.67</v>
+      </c>
+      <c r="AG107">
+        <v>2.35</v>
+      </c>
+      <c r="AH107">
+        <v>1.57</v>
+      </c>
+      <c r="AI107">
+        <v>2</v>
+      </c>
+      <c r="AJ107">
+        <v>1.73</v>
+      </c>
+      <c r="AK107">
+        <v>1.33</v>
+      </c>
+      <c r="AL107">
+        <v>1.33</v>
+      </c>
+      <c r="AM107">
+        <v>1.61</v>
+      </c>
+      <c r="AN107">
+        <v>2.4</v>
+      </c>
+      <c r="AO107">
+        <v>1.25</v>
+      </c>
+      <c r="AP107">
+        <v>2.5</v>
+      </c>
+      <c r="AQ107">
+        <v>1</v>
+      </c>
+      <c r="AR107">
+        <v>1.73</v>
+      </c>
+      <c r="AS107">
+        <v>1.29</v>
+      </c>
+      <c r="AT107">
+        <v>3.02</v>
+      </c>
+      <c r="AU107">
+        <v>5</v>
+      </c>
+      <c r="AV107">
+        <v>2</v>
+      </c>
+      <c r="AW107">
+        <v>6</v>
+      </c>
+      <c r="AX107">
+        <v>5</v>
+      </c>
+      <c r="AY107">
+        <v>11</v>
+      </c>
+      <c r="AZ107">
+        <v>7</v>
+      </c>
+      <c r="BA107">
+        <v>6</v>
+      </c>
+      <c r="BB107">
+        <v>3</v>
+      </c>
+      <c r="BC107">
+        <v>9</v>
+      </c>
+      <c r="BD107">
+        <v>1.67</v>
+      </c>
+      <c r="BE107">
+        <v>7.7</v>
+      </c>
+      <c r="BF107">
+        <v>2.76</v>
+      </c>
+      <c r="BG107">
+        <v>1.19</v>
+      </c>
+      <c r="BH107">
+        <v>4</v>
+      </c>
+      <c r="BI107">
+        <v>1.29</v>
+      </c>
+      <c r="BJ107">
+        <v>3.45</v>
+      </c>
+      <c r="BK107">
+        <v>2</v>
+      </c>
+      <c r="BL107">
+        <v>2.45</v>
+      </c>
+      <c r="BM107">
+        <v>1.92</v>
+      </c>
+      <c r="BN107">
+        <v>1.88</v>
+      </c>
+      <c r="BO107">
+        <v>2.43</v>
+      </c>
+      <c r="BP107">
+        <v>1.52</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="205">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -990,7 +990,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP107"/>
+  <dimension ref="A1:BP109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2360,7 +2360,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ7">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2563,7 +2563,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ8">
         <v>0.83</v>
@@ -2975,7 +2975,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ10">
         <v>0</v>
@@ -3184,7 +3184,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ11">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -5656,7 +5656,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ23">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR23">
         <v>1.39</v>
@@ -6065,7 +6065,7 @@
         <v>3</v>
       </c>
       <c r="AP25">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ25">
         <v>1.67</v>
@@ -6683,7 +6683,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ28">
         <v>0.33</v>
@@ -7304,7 +7304,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ31">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR31">
         <v>1.04</v>
@@ -9567,7 +9567,7 @@
         <v>1.5</v>
       </c>
       <c r="AP42">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ42">
         <v>1.17</v>
@@ -10600,7 +10600,7 @@
         <v>1</v>
       </c>
       <c r="AQ47">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR47">
         <v>1.18</v>
@@ -10806,7 +10806,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ48">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR48">
         <v>1.99</v>
@@ -11421,7 +11421,7 @@
         <v>0.5</v>
       </c>
       <c r="AP51">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ51">
         <v>0.4</v>
@@ -14305,7 +14305,7 @@
         <v>0</v>
       </c>
       <c r="AP65">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ65">
         <v>0.2</v>
@@ -14511,7 +14511,7 @@
         <v>1.33</v>
       </c>
       <c r="AP66">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ66">
         <v>1.33</v>
@@ -15338,7 +15338,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ70">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR70">
         <v>1.23</v>
@@ -15541,7 +15541,7 @@
         <v>0.67</v>
       </c>
       <c r="AP71">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ71">
         <v>0.6</v>
@@ -15750,7 +15750,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ72">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR72">
         <v>1.76</v>
@@ -18837,7 +18837,7 @@
         <v>1.33</v>
       </c>
       <c r="AP87">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ87">
         <v>0.8</v>
@@ -21312,7 +21312,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ99">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR99">
         <v>1.35</v>
@@ -22578,13 +22578,13 @@
         <v>9</v>
       </c>
       <c r="BA105">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB105">
         <v>1</v>
       </c>
       <c r="BC105">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD105">
         <v>1.62</v>
@@ -23035,6 +23035,418 @@
         <v>2.43</v>
       </c>
       <c r="BP107">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="108" spans="1:68">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>7380426</v>
+      </c>
+      <c r="C108" t="s">
+        <v>68</v>
+      </c>
+      <c r="D108" t="s">
+        <v>69</v>
+      </c>
+      <c r="E108" s="2">
+        <v>45463.79166666666</v>
+      </c>
+      <c r="F108">
+        <v>11</v>
+      </c>
+      <c r="G108" t="s">
+        <v>78</v>
+      </c>
+      <c r="H108" t="s">
+        <v>89</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <v>0</v>
+      </c>
+      <c r="L108">
+        <v>1</v>
+      </c>
+      <c r="M108">
+        <v>0</v>
+      </c>
+      <c r="N108">
+        <v>1</v>
+      </c>
+      <c r="O108" t="s">
+        <v>102</v>
+      </c>
+      <c r="P108" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q108">
+        <v>3.5</v>
+      </c>
+      <c r="R108">
+        <v>1.91</v>
+      </c>
+      <c r="S108">
+        <v>3.6</v>
+      </c>
+      <c r="T108">
+        <v>1.55</v>
+      </c>
+      <c r="U108">
+        <v>2.45</v>
+      </c>
+      <c r="V108">
+        <v>3.6</v>
+      </c>
+      <c r="W108">
+        <v>1.25</v>
+      </c>
+      <c r="X108">
+        <v>10</v>
+      </c>
+      <c r="Y108">
+        <v>1.03</v>
+      </c>
+      <c r="Z108">
+        <v>2.63</v>
+      </c>
+      <c r="AA108">
+        <v>3.1</v>
+      </c>
+      <c r="AB108">
+        <v>2.8</v>
+      </c>
+      <c r="AC108">
+        <v>1.1</v>
+      </c>
+      <c r="AD108">
+        <v>6.5</v>
+      </c>
+      <c r="AE108">
+        <v>1.5</v>
+      </c>
+      <c r="AF108">
+        <v>2.45</v>
+      </c>
+      <c r="AG108">
+        <v>2.4</v>
+      </c>
+      <c r="AH108">
+        <v>1.53</v>
+      </c>
+      <c r="AI108">
+        <v>2.1</v>
+      </c>
+      <c r="AJ108">
+        <v>1.67</v>
+      </c>
+      <c r="AK108">
+        <v>1.44</v>
+      </c>
+      <c r="AL108">
+        <v>1.3</v>
+      </c>
+      <c r="AM108">
+        <v>1.42</v>
+      </c>
+      <c r="AN108">
+        <v>2.6</v>
+      </c>
+      <c r="AO108">
+        <v>0.4</v>
+      </c>
+      <c r="AP108">
+        <v>2.67</v>
+      </c>
+      <c r="AQ108">
+        <v>0.33</v>
+      </c>
+      <c r="AR108">
+        <v>1.39</v>
+      </c>
+      <c r="AS108">
+        <v>1.06</v>
+      </c>
+      <c r="AT108">
+        <v>2.45</v>
+      </c>
+      <c r="AU108">
+        <v>4</v>
+      </c>
+      <c r="AV108">
+        <v>5</v>
+      </c>
+      <c r="AW108">
+        <v>6</v>
+      </c>
+      <c r="AX108">
+        <v>5</v>
+      </c>
+      <c r="AY108">
+        <v>10</v>
+      </c>
+      <c r="AZ108">
+        <v>10</v>
+      </c>
+      <c r="BA108">
+        <v>6</v>
+      </c>
+      <c r="BB108">
+        <v>9</v>
+      </c>
+      <c r="BC108">
+        <v>15</v>
+      </c>
+      <c r="BD108">
+        <v>1.87</v>
+      </c>
+      <c r="BE108">
+        <v>7.4</v>
+      </c>
+      <c r="BF108">
+        <v>2.38</v>
+      </c>
+      <c r="BG108">
+        <v>1.27</v>
+      </c>
+      <c r="BH108">
+        <v>3.55</v>
+      </c>
+      <c r="BI108">
+        <v>1.5</v>
+      </c>
+      <c r="BJ108">
+        <v>2.48</v>
+      </c>
+      <c r="BK108">
+        <v>2.38</v>
+      </c>
+      <c r="BL108">
+        <v>1.95</v>
+      </c>
+      <c r="BM108">
+        <v>2.45</v>
+      </c>
+      <c r="BN108">
+        <v>1.5</v>
+      </c>
+      <c r="BO108">
+        <v>3.4</v>
+      </c>
+      <c r="BP108">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="109" spans="1:68">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>7380435</v>
+      </c>
+      <c r="C109" t="s">
+        <v>68</v>
+      </c>
+      <c r="D109" t="s">
+        <v>69</v>
+      </c>
+      <c r="E109" s="2">
+        <v>45463.89583333334</v>
+      </c>
+      <c r="F109">
+        <v>11</v>
+      </c>
+      <c r="G109" t="s">
+        <v>76</v>
+      </c>
+      <c r="H109" t="s">
+        <v>80</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109">
+        <v>0</v>
+      </c>
+      <c r="L109">
+        <v>0</v>
+      </c>
+      <c r="M109">
+        <v>0</v>
+      </c>
+      <c r="N109">
+        <v>0</v>
+      </c>
+      <c r="O109" t="s">
+        <v>101</v>
+      </c>
+      <c r="P109" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q109">
+        <v>2.75</v>
+      </c>
+      <c r="R109">
+        <v>2.1</v>
+      </c>
+      <c r="S109">
+        <v>4.33</v>
+      </c>
+      <c r="T109">
+        <v>1.44</v>
+      </c>
+      <c r="U109">
+        <v>2.81</v>
+      </c>
+      <c r="V109">
+        <v>3.19</v>
+      </c>
+      <c r="W109">
+        <v>1.35</v>
+      </c>
+      <c r="X109">
+        <v>8.1</v>
+      </c>
+      <c r="Y109">
+        <v>1.06</v>
+      </c>
+      <c r="Z109">
+        <v>2</v>
+      </c>
+      <c r="AA109">
+        <v>3.2</v>
+      </c>
+      <c r="AB109">
+        <v>4</v>
+      </c>
+      <c r="AC109">
+        <v>1.07</v>
+      </c>
+      <c r="AD109">
+        <v>8</v>
+      </c>
+      <c r="AE109">
+        <v>1.38</v>
+      </c>
+      <c r="AF109">
+        <v>3</v>
+      </c>
+      <c r="AG109">
+        <v>2.1</v>
+      </c>
+      <c r="AH109">
+        <v>1.7</v>
+      </c>
+      <c r="AI109">
+        <v>1.83</v>
+      </c>
+      <c r="AJ109">
+        <v>1.83</v>
+      </c>
+      <c r="AK109">
+        <v>1.36</v>
+      </c>
+      <c r="AL109">
+        <v>1.32</v>
+      </c>
+      <c r="AM109">
+        <v>1.57</v>
+      </c>
+      <c r="AN109">
+        <v>2.2</v>
+      </c>
+      <c r="AO109">
+        <v>1.5</v>
+      </c>
+      <c r="AP109">
+        <v>2</v>
+      </c>
+      <c r="AQ109">
+        <v>1.4</v>
+      </c>
+      <c r="AR109">
+        <v>1.74</v>
+      </c>
+      <c r="AS109">
+        <v>1.41</v>
+      </c>
+      <c r="AT109">
+        <v>3.15</v>
+      </c>
+      <c r="AU109">
+        <v>4</v>
+      </c>
+      <c r="AV109">
+        <v>4</v>
+      </c>
+      <c r="AW109">
+        <v>6</v>
+      </c>
+      <c r="AX109">
+        <v>6</v>
+      </c>
+      <c r="AY109">
+        <v>10</v>
+      </c>
+      <c r="AZ109">
+        <v>10</v>
+      </c>
+      <c r="BA109">
+        <v>7</v>
+      </c>
+      <c r="BB109">
+        <v>4</v>
+      </c>
+      <c r="BC109">
+        <v>11</v>
+      </c>
+      <c r="BD109">
+        <v>1.67</v>
+      </c>
+      <c r="BE109">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF109">
+        <v>2.66</v>
+      </c>
+      <c r="BG109">
+        <v>1.15</v>
+      </c>
+      <c r="BH109">
+        <v>4.75</v>
+      </c>
+      <c r="BI109">
+        <v>1.29</v>
+      </c>
+      <c r="BJ109">
+        <v>3.45</v>
+      </c>
+      <c r="BK109">
+        <v>1.83</v>
+      </c>
+      <c r="BL109">
+        <v>2.45</v>
+      </c>
+      <c r="BM109">
+        <v>1.92</v>
+      </c>
+      <c r="BN109">
+        <v>1.88</v>
+      </c>
+      <c r="BO109">
+        <v>2.43</v>
+      </c>
+      <c r="BP109">
         <v>1.52</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="206">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -514,6 +514,9 @@
     <t>['56']</t>
   </si>
   <si>
+    <t>['29']</t>
+  </si>
+  <si>
     <t>['62']</t>
   </si>
   <si>
@@ -990,7 +993,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP109"/>
+  <dimension ref="A1:BP112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1249,7 +1252,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1739,7 +1742,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ4">
         <v>1.6</v>
@@ -2279,7 +2282,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q7">
         <v>4.33</v>
@@ -2691,7 +2694,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -3103,7 +3106,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q11">
         <v>3.5</v>
@@ -3515,7 +3518,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q13">
         <v>3.6</v>
@@ -3721,7 +3724,7 @@
         <v>101</v>
       </c>
       <c r="P14" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q14">
         <v>4.75</v>
@@ -3927,7 +3930,7 @@
         <v>101</v>
       </c>
       <c r="P15" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4211,7 +4214,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ16">
         <v>0.4</v>
@@ -4339,7 +4342,7 @@
         <v>102</v>
       </c>
       <c r="P17" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q17">
         <v>2.75</v>
@@ -4420,7 +4423,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ17">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4832,7 +4835,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ19">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5163,7 +5166,7 @@
         <v>106</v>
       </c>
       <c r="P21" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5781,7 +5784,7 @@
         <v>107</v>
       </c>
       <c r="P24" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q24">
         <v>3.6</v>
@@ -6193,7 +6196,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6399,7 +6402,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q27">
         <v>4</v>
@@ -6605,7 +6608,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -7017,7 +7020,7 @@
         <v>112</v>
       </c>
       <c r="P30" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q30">
         <v>2.1</v>
@@ -7429,7 +7432,7 @@
         <v>113</v>
       </c>
       <c r="P32" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q32">
         <v>2.38</v>
@@ -7635,7 +7638,7 @@
         <v>101</v>
       </c>
       <c r="P33" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -8125,7 +8128,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ35">
         <v>1.33</v>
@@ -8334,7 +8337,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ36">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR36">
         <v>3.34</v>
@@ -8537,7 +8540,7 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ37">
         <v>0.33</v>
@@ -8871,7 +8874,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q39">
         <v>2</v>
@@ -8952,7 +8955,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ39">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AR39">
         <v>1.25</v>
@@ -9283,7 +9286,7 @@
         <v>120</v>
       </c>
       <c r="P41" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q41">
         <v>2.25</v>
@@ -9489,7 +9492,7 @@
         <v>121</v>
       </c>
       <c r="P42" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q42">
         <v>3.2</v>
@@ -9695,7 +9698,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q43">
         <v>3.4</v>
@@ -10931,7 +10934,7 @@
         <v>125</v>
       </c>
       <c r="P49" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -11343,7 +11346,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q51">
         <v>2.25</v>
@@ -11627,7 +11630,7 @@
         <v>0</v>
       </c>
       <c r="AP52">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ52">
         <v>0.2</v>
@@ -12248,7 +12251,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ55">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR55">
         <v>1.77</v>
@@ -12373,7 +12376,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q56">
         <v>1.95</v>
@@ -12660,7 +12663,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ57">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AR57">
         <v>1.24</v>
@@ -12863,7 +12866,7 @@
         <v>1.5</v>
       </c>
       <c r="AP58">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ58">
         <v>0.8</v>
@@ -13197,7 +13200,7 @@
         <v>118</v>
       </c>
       <c r="P60" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13609,7 +13612,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q62">
         <v>3.4</v>
@@ -14227,7 +14230,7 @@
         <v>135</v>
       </c>
       <c r="P65" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q65">
         <v>2.38</v>
@@ -14308,7 +14311,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ65">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AR65">
         <v>1.27</v>
@@ -14433,7 +14436,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q66">
         <v>2.3</v>
@@ -14845,7 +14848,7 @@
         <v>101</v>
       </c>
       <c r="P68" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q68">
         <v>3.6</v>
@@ -16081,7 +16084,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q74">
         <v>3</v>
@@ -16287,7 +16290,7 @@
         <v>90</v>
       </c>
       <c r="P75" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q75">
         <v>3.1</v>
@@ -16699,7 +16702,7 @@
         <v>139</v>
       </c>
       <c r="P77" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q77">
         <v>2.2</v>
@@ -16780,7 +16783,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ77">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR77">
         <v>1.71</v>
@@ -16983,7 +16986,7 @@
         <v>0.33</v>
       </c>
       <c r="AP78">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ78">
         <v>0.4</v>
@@ -17523,7 +17526,7 @@
         <v>146</v>
       </c>
       <c r="P81" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q81">
         <v>2.05</v>
@@ -17729,7 +17732,7 @@
         <v>147</v>
       </c>
       <c r="P82" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q82">
         <v>4</v>
@@ -17935,7 +17938,7 @@
         <v>148</v>
       </c>
       <c r="P83" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q83">
         <v>2.75</v>
@@ -18016,7 +18019,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ83">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AR83">
         <v>1.29</v>
@@ -18141,7 +18144,7 @@
         <v>101</v>
       </c>
       <c r="P84" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q84">
         <v>3.2</v>
@@ -18759,7 +18762,7 @@
         <v>150</v>
       </c>
       <c r="P87" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q87">
         <v>3.5</v>
@@ -19661,7 +19664,7 @@
         <v>1.2</v>
       </c>
       <c r="AP91">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ91">
         <v>1</v>
@@ -19789,7 +19792,7 @@
         <v>153</v>
       </c>
       <c r="P92" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q92">
         <v>2.63</v>
@@ -20407,7 +20410,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q95">
         <v>3.5</v>
@@ -21025,7 +21028,7 @@
         <v>117</v>
       </c>
       <c r="P98" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q98">
         <v>3</v>
@@ -21437,7 +21440,7 @@
         <v>101</v>
       </c>
       <c r="P100" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q100">
         <v>3.5</v>
@@ -21643,7 +21646,7 @@
         <v>160</v>
       </c>
       <c r="P101" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q101">
         <v>2.6</v>
@@ -22055,7 +22058,7 @@
         <v>162</v>
       </c>
       <c r="P103" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q103">
         <v>2.88</v>
@@ -23448,6 +23451,624 @@
       </c>
       <c r="BP109">
         <v>1.52</v>
+      </c>
+    </row>
+    <row r="110" spans="1:68">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>7380443</v>
+      </c>
+      <c r="C110" t="s">
+        <v>68</v>
+      </c>
+      <c r="D110" t="s">
+        <v>69</v>
+      </c>
+      <c r="E110" s="2">
+        <v>45465.70833333334</v>
+      </c>
+      <c r="F110">
+        <v>12</v>
+      </c>
+      <c r="G110" t="s">
+        <v>72</v>
+      </c>
+      <c r="H110" t="s">
+        <v>70</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110">
+        <v>0</v>
+      </c>
+      <c r="L110">
+        <v>0</v>
+      </c>
+      <c r="M110">
+        <v>1</v>
+      </c>
+      <c r="N110">
+        <v>1</v>
+      </c>
+      <c r="O110" t="s">
+        <v>101</v>
+      </c>
+      <c r="P110" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q110">
+        <v>2.75</v>
+      </c>
+      <c r="R110">
+        <v>1.91</v>
+      </c>
+      <c r="S110">
+        <v>5</v>
+      </c>
+      <c r="T110">
+        <v>1.55</v>
+      </c>
+      <c r="U110">
+        <v>2.3</v>
+      </c>
+      <c r="V110">
+        <v>3.65</v>
+      </c>
+      <c r="W110">
+        <v>1.25</v>
+      </c>
+      <c r="X110">
+        <v>9.9</v>
+      </c>
+      <c r="Y110">
+        <v>1.03</v>
+      </c>
+      <c r="Z110">
+        <v>1.78</v>
+      </c>
+      <c r="AA110">
+        <v>3.25</v>
+      </c>
+      <c r="AB110">
+        <v>4.75</v>
+      </c>
+      <c r="AC110">
+        <v>1.09</v>
+      </c>
+      <c r="AD110">
+        <v>7</v>
+      </c>
+      <c r="AE110">
+        <v>1.55</v>
+      </c>
+      <c r="AF110">
+        <v>2.3</v>
+      </c>
+      <c r="AG110">
+        <v>2.41</v>
+      </c>
+      <c r="AH110">
+        <v>1.46</v>
+      </c>
+      <c r="AI110">
+        <v>2.38</v>
+      </c>
+      <c r="AJ110">
+        <v>1.53</v>
+      </c>
+      <c r="AK110">
+        <v>1.2</v>
+      </c>
+      <c r="AL110">
+        <v>1.25</v>
+      </c>
+      <c r="AM110">
+        <v>1.91</v>
+      </c>
+      <c r="AN110">
+        <v>2.2</v>
+      </c>
+      <c r="AO110">
+        <v>1</v>
+      </c>
+      <c r="AP110">
+        <v>1.83</v>
+      </c>
+      <c r="AQ110">
+        <v>1.4</v>
+      </c>
+      <c r="AR110">
+        <v>1.48</v>
+      </c>
+      <c r="AS110">
+        <v>1.31</v>
+      </c>
+      <c r="AT110">
+        <v>2.79</v>
+      </c>
+      <c r="AU110">
+        <v>4</v>
+      </c>
+      <c r="AV110">
+        <v>3</v>
+      </c>
+      <c r="AW110">
+        <v>9</v>
+      </c>
+      <c r="AX110">
+        <v>3</v>
+      </c>
+      <c r="AY110">
+        <v>13</v>
+      </c>
+      <c r="AZ110">
+        <v>6</v>
+      </c>
+      <c r="BA110">
+        <v>8</v>
+      </c>
+      <c r="BB110">
+        <v>2</v>
+      </c>
+      <c r="BC110">
+        <v>10</v>
+      </c>
+      <c r="BD110">
+        <v>1.59</v>
+      </c>
+      <c r="BE110">
+        <v>8.5</v>
+      </c>
+      <c r="BF110">
+        <v>2.91</v>
+      </c>
+      <c r="BG110">
+        <v>1.18</v>
+      </c>
+      <c r="BH110">
+        <v>4.6</v>
+      </c>
+      <c r="BI110">
+        <v>1.34</v>
+      </c>
+      <c r="BJ110">
+        <v>3.1</v>
+      </c>
+      <c r="BK110">
+        <v>2</v>
+      </c>
+      <c r="BL110">
+        <v>2.23</v>
+      </c>
+      <c r="BM110">
+        <v>2</v>
+      </c>
+      <c r="BN110">
+        <v>1.73</v>
+      </c>
+      <c r="BO110">
+        <v>2.65</v>
+      </c>
+      <c r="BP110">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="111" spans="1:68">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>7380442</v>
+      </c>
+      <c r="C111" t="s">
+        <v>68</v>
+      </c>
+      <c r="D111" t="s">
+        <v>69</v>
+      </c>
+      <c r="E111" s="2">
+        <v>45465.70833333334</v>
+      </c>
+      <c r="F111">
+        <v>12</v>
+      </c>
+      <c r="G111" t="s">
+        <v>84</v>
+      </c>
+      <c r="H111" t="s">
+        <v>83</v>
+      </c>
+      <c r="I111">
+        <v>1</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <v>1</v>
+      </c>
+      <c r="L111">
+        <v>1</v>
+      </c>
+      <c r="M111">
+        <v>0</v>
+      </c>
+      <c r="N111">
+        <v>1</v>
+      </c>
+      <c r="O111" t="s">
+        <v>166</v>
+      </c>
+      <c r="P111" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q111">
+        <v>2.38</v>
+      </c>
+      <c r="R111">
+        <v>2.05</v>
+      </c>
+      <c r="S111">
+        <v>6</v>
+      </c>
+      <c r="T111">
+        <v>1.48</v>
+      </c>
+      <c r="U111">
+        <v>2.5</v>
+      </c>
+      <c r="V111">
+        <v>3.2</v>
+      </c>
+      <c r="W111">
+        <v>1.3</v>
+      </c>
+      <c r="X111">
+        <v>9</v>
+      </c>
+      <c r="Y111">
+        <v>1.04</v>
+      </c>
+      <c r="Z111">
+        <v>1.7</v>
+      </c>
+      <c r="AA111">
+        <v>3.3</v>
+      </c>
+      <c r="AB111">
+        <v>5.25</v>
+      </c>
+      <c r="AC111">
+        <v>1.09</v>
+      </c>
+      <c r="AD111">
+        <v>7</v>
+      </c>
+      <c r="AE111">
+        <v>1.5</v>
+      </c>
+      <c r="AF111">
+        <v>2.4</v>
+      </c>
+      <c r="AG111">
+        <v>2.22</v>
+      </c>
+      <c r="AH111">
+        <v>1.54</v>
+      </c>
+      <c r="AI111">
+        <v>2.25</v>
+      </c>
+      <c r="AJ111">
+        <v>1.57</v>
+      </c>
+      <c r="AK111">
+        <v>1.1</v>
+      </c>
+      <c r="AL111">
+        <v>1.25</v>
+      </c>
+      <c r="AM111">
+        <v>2.25</v>
+      </c>
+      <c r="AN111">
+        <v>2.33</v>
+      </c>
+      <c r="AO111">
+        <v>0</v>
+      </c>
+      <c r="AP111">
+        <v>2.5</v>
+      </c>
+      <c r="AQ111">
+        <v>0</v>
+      </c>
+      <c r="AR111">
+        <v>1.75</v>
+      </c>
+      <c r="AS111">
+        <v>1.27</v>
+      </c>
+      <c r="AT111">
+        <v>3.02</v>
+      </c>
+      <c r="AU111">
+        <v>8</v>
+      </c>
+      <c r="AV111">
+        <v>2</v>
+      </c>
+      <c r="AW111">
+        <v>3</v>
+      </c>
+      <c r="AX111">
+        <v>4</v>
+      </c>
+      <c r="AY111">
+        <v>11</v>
+      </c>
+      <c r="AZ111">
+        <v>6</v>
+      </c>
+      <c r="BA111">
+        <v>4</v>
+      </c>
+      <c r="BB111">
+        <v>10</v>
+      </c>
+      <c r="BC111">
+        <v>14</v>
+      </c>
+      <c r="BD111">
+        <v>1.6</v>
+      </c>
+      <c r="BE111">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF111">
+        <v>2.86</v>
+      </c>
+      <c r="BG111">
+        <v>1.27</v>
+      </c>
+      <c r="BH111">
+        <v>3.55</v>
+      </c>
+      <c r="BI111">
+        <v>1.5</v>
+      </c>
+      <c r="BJ111">
+        <v>2.48</v>
+      </c>
+      <c r="BK111">
+        <v>1.95</v>
+      </c>
+      <c r="BL111">
+        <v>1.85</v>
+      </c>
+      <c r="BM111">
+        <v>2.45</v>
+      </c>
+      <c r="BN111">
+        <v>1.5</v>
+      </c>
+      <c r="BO111">
+        <v>3.4</v>
+      </c>
+      <c r="BP111">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="112" spans="1:68">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>7380439</v>
+      </c>
+      <c r="C112" t="s">
+        <v>68</v>
+      </c>
+      <c r="D112" t="s">
+        <v>69</v>
+      </c>
+      <c r="E112" s="2">
+        <v>45465.875</v>
+      </c>
+      <c r="F112">
+        <v>12</v>
+      </c>
+      <c r="G112" t="s">
+        <v>81</v>
+      </c>
+      <c r="H112" t="s">
+        <v>79</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="K112">
+        <v>0</v>
+      </c>
+      <c r="L112">
+        <v>1</v>
+      </c>
+      <c r="M112">
+        <v>1</v>
+      </c>
+      <c r="N112">
+        <v>2</v>
+      </c>
+      <c r="O112" t="s">
+        <v>125</v>
+      </c>
+      <c r="P112" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q112">
+        <v>3.05</v>
+      </c>
+      <c r="R112">
+        <v>2.14</v>
+      </c>
+      <c r="S112">
+        <v>4.5</v>
+      </c>
+      <c r="T112">
+        <v>1.53</v>
+      </c>
+      <c r="U112">
+        <v>2.41</v>
+      </c>
+      <c r="V112">
+        <v>3.48</v>
+      </c>
+      <c r="W112">
+        <v>1.28</v>
+      </c>
+      <c r="X112">
+        <v>9.6</v>
+      </c>
+      <c r="Y112">
+        <v>1.04</v>
+      </c>
+      <c r="Z112">
+        <v>2</v>
+      </c>
+      <c r="AA112">
+        <v>3.25</v>
+      </c>
+      <c r="AB112">
+        <v>3.7</v>
+      </c>
+      <c r="AC112">
+        <v>1.06</v>
+      </c>
+      <c r="AD112">
+        <v>6.65</v>
+      </c>
+      <c r="AE112">
+        <v>1.5</v>
+      </c>
+      <c r="AF112">
+        <v>2.45</v>
+      </c>
+      <c r="AG112">
+        <v>2.4</v>
+      </c>
+      <c r="AH112">
+        <v>1.53</v>
+      </c>
+      <c r="AI112">
+        <v>2.1</v>
+      </c>
+      <c r="AJ112">
+        <v>1.67</v>
+      </c>
+      <c r="AK112">
+        <v>1.28</v>
+      </c>
+      <c r="AL112">
+        <v>1.3</v>
+      </c>
+      <c r="AM112">
+        <v>1.65</v>
+      </c>
+      <c r="AN112">
+        <v>1</v>
+      </c>
+      <c r="AO112">
+        <v>0.2</v>
+      </c>
+      <c r="AP112">
+        <v>1</v>
+      </c>
+      <c r="AQ112">
+        <v>0.33</v>
+      </c>
+      <c r="AR112">
+        <v>1.42</v>
+      </c>
+      <c r="AS112">
+        <v>1.19</v>
+      </c>
+      <c r="AT112">
+        <v>2.61</v>
+      </c>
+      <c r="AU112">
+        <v>6</v>
+      </c>
+      <c r="AV112">
+        <v>8</v>
+      </c>
+      <c r="AW112">
+        <v>5</v>
+      </c>
+      <c r="AX112">
+        <v>4</v>
+      </c>
+      <c r="AY112">
+        <v>11</v>
+      </c>
+      <c r="AZ112">
+        <v>12</v>
+      </c>
+      <c r="BA112">
+        <v>6</v>
+      </c>
+      <c r="BB112">
+        <v>9</v>
+      </c>
+      <c r="BC112">
+        <v>15</v>
+      </c>
+      <c r="BD112">
+        <v>1.57</v>
+      </c>
+      <c r="BE112">
+        <v>6.85</v>
+      </c>
+      <c r="BF112">
+        <v>3.1</v>
+      </c>
+      <c r="BG112">
+        <v>1.25</v>
+      </c>
+      <c r="BH112">
+        <v>3.6</v>
+      </c>
+      <c r="BI112">
+        <v>1.42</v>
+      </c>
+      <c r="BJ112">
+        <v>2.62</v>
+      </c>
+      <c r="BK112">
+        <v>1.69</v>
+      </c>
+      <c r="BL112">
+        <v>2.12</v>
+      </c>
+      <c r="BM112">
+        <v>2.12</v>
+      </c>
+      <c r="BN112">
+        <v>1.69</v>
+      </c>
+      <c r="BO112">
+        <v>2.62</v>
+      </c>
+      <c r="BP112">
+        <v>1.42</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="208">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -517,6 +517,9 @@
     <t>['29']</t>
   </si>
   <si>
+    <t>['16']</t>
+  </si>
+  <si>
     <t>['62']</t>
   </si>
   <si>
@@ -632,6 +635,9 @@
   </si>
   <si>
     <t>['65']</t>
+  </si>
+  <si>
+    <t>['45', '82']</t>
   </si>
 </sst>
 </file>
@@ -993,7 +999,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP112"/>
+  <dimension ref="A1:BP114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1252,7 +1258,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1948,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ5">
         <v>0.2</v>
@@ -2157,7 +2163,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ6">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2282,7 +2288,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q7">
         <v>4.33</v>
@@ -2569,7 +2575,7 @@
         <v>2</v>
       </c>
       <c r="AQ8">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2694,7 +2700,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2978,7 +2984,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ10">
         <v>0</v>
@@ -3106,7 +3112,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q11">
         <v>3.5</v>
@@ -3518,7 +3524,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q13">
         <v>3.6</v>
@@ -3724,7 +3730,7 @@
         <v>101</v>
       </c>
       <c r="P14" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q14">
         <v>4.75</v>
@@ -3930,7 +3936,7 @@
         <v>101</v>
       </c>
       <c r="P15" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4342,7 +4348,7 @@
         <v>102</v>
       </c>
       <c r="P17" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q17">
         <v>2.75</v>
@@ -5166,7 +5172,7 @@
         <v>106</v>
       </c>
       <c r="P21" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5784,7 +5790,7 @@
         <v>107</v>
       </c>
       <c r="P24" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q24">
         <v>3.6</v>
@@ -5862,7 +5868,7 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ24">
         <v>1</v>
@@ -6068,7 +6074,7 @@
         <v>3</v>
       </c>
       <c r="AP25">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ25">
         <v>1.67</v>
@@ -6196,7 +6202,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6402,7 +6408,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q27">
         <v>4</v>
@@ -6483,7 +6489,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ27">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR27">
         <v>1.04</v>
@@ -6608,7 +6614,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -7020,7 +7026,7 @@
         <v>112</v>
       </c>
       <c r="P30" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q30">
         <v>2.1</v>
@@ -7432,7 +7438,7 @@
         <v>113</v>
       </c>
       <c r="P32" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q32">
         <v>2.38</v>
@@ -7638,7 +7644,7 @@
         <v>101</v>
       </c>
       <c r="P33" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -8874,7 +8880,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q39">
         <v>2</v>
@@ -9286,7 +9292,7 @@
         <v>120</v>
       </c>
       <c r="P41" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q41">
         <v>2.25</v>
@@ -9367,7 +9373,7 @@
         <v>3</v>
       </c>
       <c r="AQ41">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR41">
         <v>1.37</v>
@@ -9492,7 +9498,7 @@
         <v>121</v>
       </c>
       <c r="P42" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q42">
         <v>3.2</v>
@@ -9570,7 +9576,7 @@
         <v>1.5</v>
       </c>
       <c r="AP42">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ42">
         <v>1.17</v>
@@ -9698,7 +9704,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q43">
         <v>3.4</v>
@@ -10934,7 +10940,7 @@
         <v>125</v>
       </c>
       <c r="P49" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -11221,7 +11227,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ50">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR50">
         <v>1.29</v>
@@ -11346,7 +11352,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q51">
         <v>2.25</v>
@@ -12045,7 +12051,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ54">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR54">
         <v>0.92</v>
@@ -12376,7 +12382,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q56">
         <v>1.95</v>
@@ -13200,7 +13206,7 @@
         <v>118</v>
       </c>
       <c r="P60" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13484,7 +13490,7 @@
         <v>0.5</v>
       </c>
       <c r="AP61">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ61">
         <v>0.33</v>
@@ -13612,7 +13618,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q62">
         <v>3.4</v>
@@ -13899,7 +13905,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ63">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR63">
         <v>2.11</v>
@@ -14230,7 +14236,7 @@
         <v>135</v>
       </c>
       <c r="P65" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q65">
         <v>2.38</v>
@@ -14308,7 +14314,7 @@
         <v>0</v>
       </c>
       <c r="AP65">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ65">
         <v>0.33</v>
@@ -14436,7 +14442,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q66">
         <v>2.3</v>
@@ -14848,7 +14854,7 @@
         <v>101</v>
       </c>
       <c r="P68" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q68">
         <v>3.6</v>
@@ -15135,7 +15141,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ69">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR69">
         <v>1.31</v>
@@ -16084,7 +16090,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q74">
         <v>3</v>
@@ -16290,7 +16296,7 @@
         <v>90</v>
       </c>
       <c r="P75" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q75">
         <v>3.1</v>
@@ -16368,7 +16374,7 @@
         <v>0</v>
       </c>
       <c r="AP75">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ75">
         <v>0.2</v>
@@ -16702,7 +16708,7 @@
         <v>139</v>
       </c>
       <c r="P77" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q77">
         <v>2.2</v>
@@ -17526,7 +17532,7 @@
         <v>146</v>
       </c>
       <c r="P81" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q81">
         <v>2.05</v>
@@ -17732,7 +17738,7 @@
         <v>147</v>
       </c>
       <c r="P82" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q82">
         <v>4</v>
@@ -17938,7 +17944,7 @@
         <v>148</v>
       </c>
       <c r="P83" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q83">
         <v>2.75</v>
@@ -18144,7 +18150,7 @@
         <v>101</v>
       </c>
       <c r="P84" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q84">
         <v>3.2</v>
@@ -18762,7 +18768,7 @@
         <v>150</v>
       </c>
       <c r="P87" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q87">
         <v>3.5</v>
@@ -18840,7 +18846,7 @@
         <v>1.33</v>
       </c>
       <c r="AP87">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ87">
         <v>0.8</v>
@@ -19049,7 +19055,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ88">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR88">
         <v>1.37</v>
@@ -19255,7 +19261,7 @@
         <v>3</v>
       </c>
       <c r="AQ89">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR89">
         <v>1.5</v>
@@ -19792,7 +19798,7 @@
         <v>153</v>
       </c>
       <c r="P92" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q92">
         <v>2.63</v>
@@ -20410,7 +20416,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q95">
         <v>3.5</v>
@@ -20491,7 +20497,7 @@
         <v>1</v>
       </c>
       <c r="AQ95">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR95">
         <v>1.35</v>
@@ -21028,7 +21034,7 @@
         <v>117</v>
       </c>
       <c r="P98" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q98">
         <v>3</v>
@@ -21440,7 +21446,7 @@
         <v>101</v>
       </c>
       <c r="P100" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q100">
         <v>3.5</v>
@@ -21518,7 +21524,7 @@
         <v>1.4</v>
       </c>
       <c r="AP100">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ100">
         <v>1.67</v>
@@ -21646,7 +21652,7 @@
         <v>160</v>
       </c>
       <c r="P101" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q101">
         <v>2.6</v>
@@ -22058,7 +22064,7 @@
         <v>162</v>
       </c>
       <c r="P103" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q103">
         <v>2.88</v>
@@ -22345,7 +22351,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ104">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR104">
         <v>1.65</v>
@@ -23166,7 +23172,7 @@
         <v>0.4</v>
       </c>
       <c r="AP108">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ108">
         <v>0.33</v>
@@ -23912,7 +23918,7 @@
         <v>125</v>
       </c>
       <c r="P112" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q112">
         <v>3.05</v>
@@ -24069,6 +24075,418 @@
       </c>
       <c r="BP112">
         <v>1.42</v>
+      </c>
+    </row>
+    <row r="113" spans="1:68">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>7380441</v>
+      </c>
+      <c r="C113" t="s">
+        <v>68</v>
+      </c>
+      <c r="D113" t="s">
+        <v>69</v>
+      </c>
+      <c r="E113" s="2">
+        <v>45466.66666666666</v>
+      </c>
+      <c r="F113">
+        <v>12</v>
+      </c>
+      <c r="G113" t="s">
+        <v>73</v>
+      </c>
+      <c r="H113" t="s">
+        <v>85</v>
+      </c>
+      <c r="I113">
+        <v>1</v>
+      </c>
+      <c r="J113">
+        <v>1</v>
+      </c>
+      <c r="K113">
+        <v>2</v>
+      </c>
+      <c r="L113">
+        <v>1</v>
+      </c>
+      <c r="M113">
+        <v>2</v>
+      </c>
+      <c r="N113">
+        <v>3</v>
+      </c>
+      <c r="O113" t="s">
+        <v>167</v>
+      </c>
+      <c r="P113" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q113">
+        <v>3.25</v>
+      </c>
+      <c r="R113">
+        <v>1.95</v>
+      </c>
+      <c r="S113">
+        <v>4</v>
+      </c>
+      <c r="T113">
+        <v>1.55</v>
+      </c>
+      <c r="U113">
+        <v>2.3</v>
+      </c>
+      <c r="V113">
+        <v>3.45</v>
+      </c>
+      <c r="W113">
+        <v>1.25</v>
+      </c>
+      <c r="X113">
+        <v>9.4</v>
+      </c>
+      <c r="Y113">
+        <v>1.04</v>
+      </c>
+      <c r="Z113">
+        <v>2.34</v>
+      </c>
+      <c r="AA113">
+        <v>2.97</v>
+      </c>
+      <c r="AB113">
+        <v>3.28</v>
+      </c>
+      <c r="AC113">
+        <v>1.1</v>
+      </c>
+      <c r="AD113">
+        <v>6.5</v>
+      </c>
+      <c r="AE113">
+        <v>1.48</v>
+      </c>
+      <c r="AF113">
+        <v>2.6</v>
+      </c>
+      <c r="AG113">
+        <v>2.52</v>
+      </c>
+      <c r="AH113">
+        <v>1.46</v>
+      </c>
+      <c r="AI113">
+        <v>2.1</v>
+      </c>
+      <c r="AJ113">
+        <v>1.67</v>
+      </c>
+      <c r="AK113">
+        <v>1.32</v>
+      </c>
+      <c r="AL113">
+        <v>1.32</v>
+      </c>
+      <c r="AM113">
+        <v>1.45</v>
+      </c>
+      <c r="AN113">
+        <v>1.2</v>
+      </c>
+      <c r="AO113">
+        <v>0.83</v>
+      </c>
+      <c r="AP113">
+        <v>1</v>
+      </c>
+      <c r="AQ113">
+        <v>1.14</v>
+      </c>
+      <c r="AR113">
+        <v>1.58</v>
+      </c>
+      <c r="AS113">
+        <v>1.45</v>
+      </c>
+      <c r="AT113">
+        <v>3.03</v>
+      </c>
+      <c r="AU113">
+        <v>4</v>
+      </c>
+      <c r="AV113">
+        <v>7</v>
+      </c>
+      <c r="AW113">
+        <v>5</v>
+      </c>
+      <c r="AX113">
+        <v>7</v>
+      </c>
+      <c r="AY113">
+        <v>9</v>
+      </c>
+      <c r="AZ113">
+        <v>14</v>
+      </c>
+      <c r="BA113">
+        <v>4</v>
+      </c>
+      <c r="BB113">
+        <v>6</v>
+      </c>
+      <c r="BC113">
+        <v>10</v>
+      </c>
+      <c r="BD113">
+        <v>2.08</v>
+      </c>
+      <c r="BE113">
+        <v>6.45</v>
+      </c>
+      <c r="BF113">
+        <v>2.13</v>
+      </c>
+      <c r="BG113">
+        <v>1.29</v>
+      </c>
+      <c r="BH113">
+        <v>3.4</v>
+      </c>
+      <c r="BI113">
+        <v>1.48</v>
+      </c>
+      <c r="BJ113">
+        <v>2.57</v>
+      </c>
+      <c r="BK113">
+        <v>1.83</v>
+      </c>
+      <c r="BL113">
+        <v>1.97</v>
+      </c>
+      <c r="BM113">
+        <v>2.32</v>
+      </c>
+      <c r="BN113">
+        <v>1.57</v>
+      </c>
+      <c r="BO113">
+        <v>2.98</v>
+      </c>
+      <c r="BP113">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="114" spans="1:68">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>7380436</v>
+      </c>
+      <c r="C114" t="s">
+        <v>68</v>
+      </c>
+      <c r="D114" t="s">
+        <v>69</v>
+      </c>
+      <c r="E114" s="2">
+        <v>45466.77083333334</v>
+      </c>
+      <c r="F114">
+        <v>12</v>
+      </c>
+      <c r="G114" t="s">
+        <v>78</v>
+      </c>
+      <c r="H114" t="s">
+        <v>88</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="K114">
+        <v>0</v>
+      </c>
+      <c r="L114">
+        <v>1</v>
+      </c>
+      <c r="M114">
+        <v>0</v>
+      </c>
+      <c r="N114">
+        <v>1</v>
+      </c>
+      <c r="O114" t="s">
+        <v>168</v>
+      </c>
+      <c r="P114" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q114">
+        <v>3.55</v>
+      </c>
+      <c r="R114">
+        <v>1.99</v>
+      </c>
+      <c r="S114">
+        <v>4</v>
+      </c>
+      <c r="T114">
+        <v>1.57</v>
+      </c>
+      <c r="U114">
+        <v>2.25</v>
+      </c>
+      <c r="V114">
+        <v>3.55</v>
+      </c>
+      <c r="W114">
+        <v>1.25</v>
+      </c>
+      <c r="X114">
+        <v>9.9</v>
+      </c>
+      <c r="Y114">
+        <v>1.03</v>
+      </c>
+      <c r="Z114">
+        <v>2.7</v>
+      </c>
+      <c r="AA114">
+        <v>2.9</v>
+      </c>
+      <c r="AB114">
+        <v>2.9</v>
+      </c>
+      <c r="AC114">
+        <v>1.11</v>
+      </c>
+      <c r="AD114">
+        <v>6.25</v>
+      </c>
+      <c r="AE114">
+        <v>1.49</v>
+      </c>
+      <c r="AF114">
+        <v>2.44</v>
+      </c>
+      <c r="AG114">
+        <v>2.5</v>
+      </c>
+      <c r="AH114">
+        <v>1.5</v>
+      </c>
+      <c r="AI114">
+        <v>2.1</v>
+      </c>
+      <c r="AJ114">
+        <v>1.67</v>
+      </c>
+      <c r="AK114">
+        <v>1.42</v>
+      </c>
+      <c r="AL114">
+        <v>1.33</v>
+      </c>
+      <c r="AM114">
+        <v>1.44</v>
+      </c>
+      <c r="AN114">
+        <v>2.67</v>
+      </c>
+      <c r="AO114">
+        <v>0.83</v>
+      </c>
+      <c r="AP114">
+        <v>2.71</v>
+      </c>
+      <c r="AQ114">
+        <v>0.71</v>
+      </c>
+      <c r="AR114">
+        <v>1.36</v>
+      </c>
+      <c r="AS114">
+        <v>1.06</v>
+      </c>
+      <c r="AT114">
+        <v>2.42</v>
+      </c>
+      <c r="AU114">
+        <v>4</v>
+      </c>
+      <c r="AV114">
+        <v>4</v>
+      </c>
+      <c r="AW114">
+        <v>5</v>
+      </c>
+      <c r="AX114">
+        <v>4</v>
+      </c>
+      <c r="AY114">
+        <v>9</v>
+      </c>
+      <c r="AZ114">
+        <v>8</v>
+      </c>
+      <c r="BA114">
+        <v>4</v>
+      </c>
+      <c r="BB114">
+        <v>7</v>
+      </c>
+      <c r="BC114">
+        <v>11</v>
+      </c>
+      <c r="BD114">
+        <v>2.08</v>
+      </c>
+      <c r="BE114">
+        <v>7.3</v>
+      </c>
+      <c r="BF114">
+        <v>2.08</v>
+      </c>
+      <c r="BG114">
+        <v>1.25</v>
+      </c>
+      <c r="BH114">
+        <v>3.7</v>
+      </c>
+      <c r="BI114">
+        <v>1.44</v>
+      </c>
+      <c r="BJ114">
+        <v>2.6</v>
+      </c>
+      <c r="BK114">
+        <v>1.75</v>
+      </c>
+      <c r="BL114">
+        <v>2</v>
+      </c>
+      <c r="BM114">
+        <v>2.2</v>
+      </c>
+      <c r="BN114">
+        <v>1.62</v>
+      </c>
+      <c r="BO114">
+        <v>2.85</v>
+      </c>
+      <c r="BP114">
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="209">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -523,6 +523,9 @@
     <t>['62']</t>
   </si>
   <si>
+    <t>['78']</t>
+  </si>
+  <si>
     <t>['31', '49', '69']</t>
   </si>
   <si>
@@ -557,9 +560,6 @@
   </si>
   <si>
     <t>['45+2', '52']</t>
-  </si>
-  <si>
-    <t>['78']</t>
   </si>
   <si>
     <t>['10']</t>
@@ -638,6 +638,9 @@
   </si>
   <si>
     <t>['45', '82']</t>
+  </si>
+  <si>
+    <t>['1', '38']</t>
   </si>
 </sst>
 </file>
@@ -999,7 +1002,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP114"/>
+  <dimension ref="A1:BP115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2288,7 +2291,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q7">
         <v>4.33</v>
@@ -2700,7 +2703,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -3112,7 +3115,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q11">
         <v>3.5</v>
@@ -3396,7 +3399,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ12">
         <v>0.2</v>
@@ -3524,7 +3527,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q13">
         <v>3.6</v>
@@ -3730,7 +3733,7 @@
         <v>101</v>
       </c>
       <c r="P14" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q14">
         <v>4.75</v>
@@ -3936,7 +3939,7 @@
         <v>101</v>
       </c>
       <c r="P15" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4348,7 +4351,7 @@
         <v>102</v>
       </c>
       <c r="P17" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q17">
         <v>2.75</v>
@@ -4635,7 +4638,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ18">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5172,7 +5175,7 @@
         <v>106</v>
       </c>
       <c r="P21" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5790,7 +5793,7 @@
         <v>107</v>
       </c>
       <c r="P24" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q24">
         <v>3.6</v>
@@ -6202,7 +6205,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6283,7 +6286,7 @@
         <v>1</v>
       </c>
       <c r="AQ26">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR26">
         <v>1.2</v>
@@ -6408,7 +6411,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q27">
         <v>4</v>
@@ -6614,7 +6617,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -7026,7 +7029,7 @@
         <v>112</v>
       </c>
       <c r="P30" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="Q30">
         <v>2.1</v>
@@ -8958,7 +8961,7 @@
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ39">
         <v>0.33</v>
@@ -9292,7 +9295,7 @@
         <v>120</v>
       </c>
       <c r="P41" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q41">
         <v>2.25</v>
@@ -9579,7 +9582,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ42">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR42">
         <v>1.32</v>
@@ -12460,7 +12463,7 @@
         <v>0.5</v>
       </c>
       <c r="AP56">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ56">
         <v>1.6</v>
@@ -13618,7 +13621,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q62">
         <v>3.4</v>
@@ -14935,7 +14938,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ68">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR68">
         <v>1.37</v>
@@ -15965,7 +15968,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ73">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR73">
         <v>1.23</v>
@@ -19052,7 +19055,7 @@
         <v>0.5</v>
       </c>
       <c r="AP88">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ88">
         <v>1.14</v>
@@ -20291,7 +20294,7 @@
         <v>2</v>
       </c>
       <c r="AQ94">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR94">
         <v>1.57</v>
@@ -21318,7 +21321,7 @@
         <v>0.5</v>
       </c>
       <c r="AP99">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ99">
         <v>0.33</v>
@@ -24487,6 +24490,212 @@
       </c>
       <c r="BP114">
         <v>1.38</v>
+      </c>
+    </row>
+    <row r="115" spans="1:68">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>7380445</v>
+      </c>
+      <c r="C115" t="s">
+        <v>68</v>
+      </c>
+      <c r="D115" t="s">
+        <v>69</v>
+      </c>
+      <c r="E115" s="2">
+        <v>45467.79166666666</v>
+      </c>
+      <c r="F115">
+        <v>12</v>
+      </c>
+      <c r="G115" t="s">
+        <v>80</v>
+      </c>
+      <c r="H115" t="s">
+        <v>71</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>2</v>
+      </c>
+      <c r="K115">
+        <v>2</v>
+      </c>
+      <c r="L115">
+        <v>1</v>
+      </c>
+      <c r="M115">
+        <v>2</v>
+      </c>
+      <c r="N115">
+        <v>3</v>
+      </c>
+      <c r="O115" t="s">
+        <v>169</v>
+      </c>
+      <c r="P115" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q115">
+        <v>2.68</v>
+      </c>
+      <c r="R115">
+        <v>2.14</v>
+      </c>
+      <c r="S115">
+        <v>5.5</v>
+      </c>
+      <c r="T115">
+        <v>1.45</v>
+      </c>
+      <c r="U115">
+        <v>2.55</v>
+      </c>
+      <c r="V115">
+        <v>3.05</v>
+      </c>
+      <c r="W115">
+        <v>1.33</v>
+      </c>
+      <c r="X115">
+        <v>7.9</v>
+      </c>
+      <c r="Y115">
+        <v>1.05</v>
+      </c>
+      <c r="Z115">
+        <v>1.7</v>
+      </c>
+      <c r="AA115">
+        <v>3.4</v>
+      </c>
+      <c r="AB115">
+        <v>5.75</v>
+      </c>
+      <c r="AC115">
+        <v>1.06</v>
+      </c>
+      <c r="AD115">
+        <v>8.5</v>
+      </c>
+      <c r="AE115">
+        <v>1.36</v>
+      </c>
+      <c r="AF115">
+        <v>2.95</v>
+      </c>
+      <c r="AG115">
+        <v>2.15</v>
+      </c>
+      <c r="AH115">
+        <v>1.67</v>
+      </c>
+      <c r="AI115">
+        <v>2.1</v>
+      </c>
+      <c r="AJ115">
+        <v>1.67</v>
+      </c>
+      <c r="AK115">
+        <v>1.15</v>
+      </c>
+      <c r="AL115">
+        <v>1.22</v>
+      </c>
+      <c r="AM115">
+        <v>2.1</v>
+      </c>
+      <c r="AN115">
+        <v>2.4</v>
+      </c>
+      <c r="AO115">
+        <v>1.17</v>
+      </c>
+      <c r="AP115">
+        <v>2</v>
+      </c>
+      <c r="AQ115">
+        <v>1.43</v>
+      </c>
+      <c r="AR115">
+        <v>1.4</v>
+      </c>
+      <c r="AS115">
+        <v>1.29</v>
+      </c>
+      <c r="AT115">
+        <v>2.69</v>
+      </c>
+      <c r="AU115">
+        <v>3</v>
+      </c>
+      <c r="AV115">
+        <v>5</v>
+      </c>
+      <c r="AW115">
+        <v>7</v>
+      </c>
+      <c r="AX115">
+        <v>3</v>
+      </c>
+      <c r="AY115">
+        <v>10</v>
+      </c>
+      <c r="AZ115">
+        <v>8</v>
+      </c>
+      <c r="BA115">
+        <v>10</v>
+      </c>
+      <c r="BB115">
+        <v>4</v>
+      </c>
+      <c r="BC115">
+        <v>14</v>
+      </c>
+      <c r="BD115">
+        <v>1.62</v>
+      </c>
+      <c r="BE115">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="BF115">
+        <v>2.71</v>
+      </c>
+      <c r="BG115">
+        <v>1.14</v>
+      </c>
+      <c r="BH115">
+        <v>5.6</v>
+      </c>
+      <c r="BI115">
+        <v>1.25</v>
+      </c>
+      <c r="BJ115">
+        <v>3.7</v>
+      </c>
+      <c r="BK115">
+        <v>1.42</v>
+      </c>
+      <c r="BL115">
+        <v>2.65</v>
+      </c>
+      <c r="BM115">
+        <v>1.7</v>
+      </c>
+      <c r="BN115">
+        <v>2.1</v>
+      </c>
+      <c r="BO115">
+        <v>2.1</v>
+      </c>
+      <c r="BP115">
+        <v>1.7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="213">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -523,7 +523,13 @@
     <t>['62']</t>
   </si>
   <si>
-    <t>['78']</t>
+    <t>['77']</t>
+  </si>
+  <si>
+    <t>['45+5']</t>
+  </si>
+  <si>
+    <t>['10', '34', '60']</t>
   </si>
   <si>
     <t>['31', '49', '69']</t>
@@ -560,6 +566,9 @@
   </si>
   <si>
     <t>['45+2', '52']</t>
+  </si>
+  <si>
+    <t>['78']</t>
   </si>
   <si>
     <t>['10']</t>
@@ -640,7 +649,10 @@
     <t>['45', '82']</t>
   </si>
   <si>
-    <t>['1', '38']</t>
+    <t>['2', '38']</t>
+  </si>
+  <si>
+    <t>['1']</t>
   </si>
 </sst>
 </file>
@@ -1002,7 +1014,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP115"/>
+  <dimension ref="A1:BP119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1754,7 +1766,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ4">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2291,7 +2303,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q7">
         <v>4.33</v>
@@ -2369,7 +2381,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ7">
         <v>1.4</v>
@@ -2703,7 +2715,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2781,10 +2793,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ9">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3115,7 +3127,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q11">
         <v>3.5</v>
@@ -3527,7 +3539,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q13">
         <v>3.6</v>
@@ -3733,7 +3745,7 @@
         <v>101</v>
       </c>
       <c r="P14" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q14">
         <v>4.75</v>
@@ -3939,7 +3951,7 @@
         <v>101</v>
       </c>
       <c r="P15" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4351,7 +4363,7 @@
         <v>102</v>
       </c>
       <c r="P17" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q17">
         <v>2.75</v>
@@ -4635,7 +4647,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AQ18">
         <v>1.43</v>
@@ -5175,7 +5187,7 @@
         <v>106</v>
       </c>
       <c r="P21" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5253,10 +5265,10 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="AQ21">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5462,7 +5474,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ22">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR22">
         <v>1.45</v>
@@ -5793,7 +5805,7 @@
         <v>107</v>
       </c>
       <c r="P24" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q24">
         <v>3.6</v>
@@ -6205,7 +6217,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6411,7 +6423,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q27">
         <v>4</v>
@@ -6617,7 +6629,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6901,7 +6913,7 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ29">
         <v>0.4</v>
@@ -7029,7 +7041,7 @@
         <v>112</v>
       </c>
       <c r="P30" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="Q30">
         <v>2.1</v>
@@ -7441,7 +7453,7 @@
         <v>113</v>
       </c>
       <c r="P32" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q32">
         <v>2.38</v>
@@ -7519,7 +7531,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AQ32">
         <v>0.2</v>
@@ -7647,7 +7659,7 @@
         <v>101</v>
       </c>
       <c r="P33" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -7728,7 +7740,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ33">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR33">
         <v>1.83</v>
@@ -8755,7 +8767,7 @@
         <v>3</v>
       </c>
       <c r="AP38">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ38">
         <v>1</v>
@@ -8883,7 +8895,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q39">
         <v>2</v>
@@ -9170,7 +9182,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ40">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR40">
         <v>1.33</v>
@@ -9295,7 +9307,7 @@
         <v>120</v>
       </c>
       <c r="P41" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q41">
         <v>2.25</v>
@@ -9373,7 +9385,7 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="AQ41">
         <v>1.14</v>
@@ -9501,7 +9513,7 @@
         <v>121</v>
       </c>
       <c r="P42" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q42">
         <v>3.2</v>
@@ -9707,7 +9719,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q43">
         <v>3.4</v>
@@ -10815,7 +10827,7 @@
         <v>0.5</v>
       </c>
       <c r="AP48">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AQ48">
         <v>0.33</v>
@@ -10943,7 +10955,7 @@
         <v>125</v>
       </c>
       <c r="P49" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -11021,7 +11033,7 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ49">
         <v>1</v>
@@ -11848,7 +11860,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ53">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR53">
         <v>2.01</v>
@@ -12051,7 +12063,7 @@
         <v>0</v>
       </c>
       <c r="AP54">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ54">
         <v>1.14</v>
@@ -12385,7 +12397,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q56">
         <v>1.95</v>
@@ -12466,7 +12478,7 @@
         <v>2</v>
       </c>
       <c r="AQ56">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR56">
         <v>1.63</v>
@@ -12878,7 +12890,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ58">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR58">
         <v>1.54</v>
@@ -13081,7 +13093,7 @@
         <v>0</v>
       </c>
       <c r="AP59">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="AQ59">
         <v>0.2</v>
@@ -13209,7 +13221,7 @@
         <v>118</v>
       </c>
       <c r="P60" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13621,7 +13633,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q62">
         <v>3.4</v>
@@ -13699,7 +13711,7 @@
         <v>2</v>
       </c>
       <c r="AP62">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AQ62">
         <v>1</v>
@@ -14239,7 +14251,7 @@
         <v>135</v>
       </c>
       <c r="P65" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q65">
         <v>2.38</v>
@@ -14445,7 +14457,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q66">
         <v>2.3</v>
@@ -14857,7 +14869,7 @@
         <v>101</v>
       </c>
       <c r="P68" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q68">
         <v>3.6</v>
@@ -15347,7 +15359,7 @@
         <v>0.67</v>
       </c>
       <c r="AP70">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ70">
         <v>0.33</v>
@@ -15556,7 +15568,7 @@
         <v>2</v>
       </c>
       <c r="AQ71">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR71">
         <v>1.73</v>
@@ -16093,7 +16105,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q74">
         <v>3</v>
@@ -16171,7 +16183,7 @@
         <v>0.33</v>
       </c>
       <c r="AP74">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ74">
         <v>0.33</v>
@@ -16299,7 +16311,7 @@
         <v>90</v>
       </c>
       <c r="P75" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q75">
         <v>3.1</v>
@@ -16586,7 +16598,7 @@
         <v>1</v>
       </c>
       <c r="AQ76">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR76">
         <v>1.31</v>
@@ -16711,7 +16723,7 @@
         <v>139</v>
       </c>
       <c r="P77" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q77">
         <v>2.2</v>
@@ -17201,7 +17213,7 @@
         <v>0</v>
       </c>
       <c r="AP79">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="AQ79">
         <v>0</v>
@@ -17535,7 +17547,7 @@
         <v>146</v>
       </c>
       <c r="P81" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q81">
         <v>2.05</v>
@@ -17741,7 +17753,7 @@
         <v>147</v>
       </c>
       <c r="P82" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q82">
         <v>4</v>
@@ -17947,7 +17959,7 @@
         <v>148</v>
       </c>
       <c r="P83" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q83">
         <v>2.75</v>
@@ -18025,7 +18037,7 @@
         <v>0.25</v>
       </c>
       <c r="AP83">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ83">
         <v>0.33</v>
@@ -18153,7 +18165,7 @@
         <v>101</v>
       </c>
       <c r="P84" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q84">
         <v>3.2</v>
@@ -18643,7 +18655,7 @@
         <v>0.5</v>
       </c>
       <c r="AP86">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AQ86">
         <v>0.33</v>
@@ -18771,7 +18783,7 @@
         <v>150</v>
       </c>
       <c r="P87" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q87">
         <v>3.5</v>
@@ -18852,7 +18864,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ87">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR87">
         <v>1.41</v>
@@ -19261,7 +19273,7 @@
         <v>1.25</v>
       </c>
       <c r="AP89">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="AQ89">
         <v>0.71</v>
@@ -19467,7 +19479,7 @@
         <v>1</v>
       </c>
       <c r="AP90">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ90">
         <v>1.33</v>
@@ -19801,7 +19813,7 @@
         <v>153</v>
       </c>
       <c r="P92" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q92">
         <v>2.63</v>
@@ -20085,7 +20097,7 @@
         <v>0.25</v>
       </c>
       <c r="AP93">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AQ93">
         <v>0.33</v>
@@ -20291,7 +20303,7 @@
         <v>1.4</v>
       </c>
       <c r="AP94">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ94">
         <v>1.43</v>
@@ -20419,7 +20431,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q95">
         <v>3.5</v>
@@ -20912,7 +20924,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ97">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR97">
         <v>1.19</v>
@@ -21037,7 +21049,7 @@
         <v>117</v>
       </c>
       <c r="P98" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q98">
         <v>3</v>
@@ -21118,7 +21130,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ98">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR98">
         <v>1.63</v>
@@ -21449,7 +21461,7 @@
         <v>101</v>
       </c>
       <c r="P100" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q100">
         <v>3.5</v>
@@ -21655,7 +21667,7 @@
         <v>160</v>
       </c>
       <c r="P101" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q101">
         <v>2.6</v>
@@ -22067,7 +22079,7 @@
         <v>162</v>
       </c>
       <c r="P103" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q103">
         <v>2.88</v>
@@ -22766,7 +22778,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ106">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR106">
         <v>1.13</v>
@@ -23921,7 +23933,7 @@
         <v>125</v>
       </c>
       <c r="P112" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q112">
         <v>3.05</v>
@@ -24127,7 +24139,7 @@
         <v>167</v>
       </c>
       <c r="P113" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q113">
         <v>3.25</v>
@@ -24539,7 +24551,7 @@
         <v>169</v>
       </c>
       <c r="P115" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q115">
         <v>2.68</v>
@@ -24696,6 +24708,830 @@
       </c>
       <c r="BP115">
         <v>1.7</v>
+      </c>
+    </row>
+    <row r="116" spans="1:68">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>7380440</v>
+      </c>
+      <c r="C116" t="s">
+        <v>68</v>
+      </c>
+      <c r="D116" t="s">
+        <v>69</v>
+      </c>
+      <c r="E116" s="2">
+        <v>45468.79166666666</v>
+      </c>
+      <c r="F116">
+        <v>12</v>
+      </c>
+      <c r="G116" t="s">
+        <v>86</v>
+      </c>
+      <c r="H116" t="s">
+        <v>82</v>
+      </c>
+      <c r="I116">
+        <v>1</v>
+      </c>
+      <c r="J116">
+        <v>1</v>
+      </c>
+      <c r="K116">
+        <v>2</v>
+      </c>
+      <c r="L116">
+        <v>1</v>
+      </c>
+      <c r="M116">
+        <v>1</v>
+      </c>
+      <c r="N116">
+        <v>2</v>
+      </c>
+      <c r="O116" t="s">
+        <v>170</v>
+      </c>
+      <c r="P116" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q116">
+        <v>2.38</v>
+      </c>
+      <c r="R116">
+        <v>2.28</v>
+      </c>
+      <c r="S116">
+        <v>6.6</v>
+      </c>
+      <c r="T116">
+        <v>1.45</v>
+      </c>
+      <c r="U116">
+        <v>2.55</v>
+      </c>
+      <c r="V116">
+        <v>3</v>
+      </c>
+      <c r="W116">
+        <v>1.33</v>
+      </c>
+      <c r="X116">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Y116">
+        <v>1.06</v>
+      </c>
+      <c r="Z116">
+        <v>1.62</v>
+      </c>
+      <c r="AA116">
+        <v>3.6</v>
+      </c>
+      <c r="AB116">
+        <v>6</v>
+      </c>
+      <c r="AC116">
+        <v>1.04</v>
+      </c>
+      <c r="AD116">
+        <v>7.8</v>
+      </c>
+      <c r="AE116">
+        <v>1.35</v>
+      </c>
+      <c r="AF116">
+        <v>2.84</v>
+      </c>
+      <c r="AG116">
+        <v>2.1</v>
+      </c>
+      <c r="AH116">
+        <v>1.7</v>
+      </c>
+      <c r="AI116">
+        <v>2.25</v>
+      </c>
+      <c r="AJ116">
+        <v>1.57</v>
+      </c>
+      <c r="AK116">
+        <v>1.14</v>
+      </c>
+      <c r="AL116">
+        <v>1.22</v>
+      </c>
+      <c r="AM116">
+        <v>2.15</v>
+      </c>
+      <c r="AN116">
+        <v>2.67</v>
+      </c>
+      <c r="AO116">
+        <v>1.6</v>
+      </c>
+      <c r="AP116">
+        <v>2.43</v>
+      </c>
+      <c r="AQ116">
+        <v>1.5</v>
+      </c>
+      <c r="AR116">
+        <v>1.94</v>
+      </c>
+      <c r="AS116">
+        <v>1.14</v>
+      </c>
+      <c r="AT116">
+        <v>3.08</v>
+      </c>
+      <c r="AU116">
+        <v>5</v>
+      </c>
+      <c r="AV116">
+        <v>6</v>
+      </c>
+      <c r="AW116">
+        <v>4</v>
+      </c>
+      <c r="AX116">
+        <v>2</v>
+      </c>
+      <c r="AY116">
+        <v>9</v>
+      </c>
+      <c r="AZ116">
+        <v>8</v>
+      </c>
+      <c r="BA116">
+        <v>8</v>
+      </c>
+      <c r="BB116">
+        <v>4</v>
+      </c>
+      <c r="BC116">
+        <v>12</v>
+      </c>
+      <c r="BD116">
+        <v>1.49</v>
+      </c>
+      <c r="BE116">
+        <v>9</v>
+      </c>
+      <c r="BF116">
+        <v>3.24</v>
+      </c>
+      <c r="BG116">
+        <v>1.2</v>
+      </c>
+      <c r="BH116">
+        <v>4.2</v>
+      </c>
+      <c r="BI116">
+        <v>1.37</v>
+      </c>
+      <c r="BJ116">
+        <v>2.9</v>
+      </c>
+      <c r="BK116">
+        <v>1.62</v>
+      </c>
+      <c r="BL116">
+        <v>2.2</v>
+      </c>
+      <c r="BM116">
+        <v>2</v>
+      </c>
+      <c r="BN116">
+        <v>1.75</v>
+      </c>
+      <c r="BO116">
+        <v>2.55</v>
+      </c>
+      <c r="BP116">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="117" spans="1:68">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>7380438</v>
+      </c>
+      <c r="C117" t="s">
+        <v>68</v>
+      </c>
+      <c r="D117" t="s">
+        <v>69</v>
+      </c>
+      <c r="E117" s="2">
+        <v>45468.79166666666</v>
+      </c>
+      <c r="F117">
+        <v>12</v>
+      </c>
+      <c r="G117" t="s">
+        <v>89</v>
+      </c>
+      <c r="H117" t="s">
+        <v>74</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+      <c r="K117">
+        <v>0</v>
+      </c>
+      <c r="L117">
+        <v>0</v>
+      </c>
+      <c r="M117">
+        <v>0</v>
+      </c>
+      <c r="N117">
+        <v>0</v>
+      </c>
+      <c r="O117" t="s">
+        <v>101</v>
+      </c>
+      <c r="P117" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q117">
+        <v>3.8</v>
+      </c>
+      <c r="R117">
+        <v>2.04</v>
+      </c>
+      <c r="S117">
+        <v>3.8</v>
+      </c>
+      <c r="T117">
+        <v>1.56</v>
+      </c>
+      <c r="U117">
+        <v>2.29</v>
+      </c>
+      <c r="V117">
+        <v>3.7</v>
+      </c>
+      <c r="W117">
+        <v>1.24</v>
+      </c>
+      <c r="X117">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="Y117">
+        <v>1.03</v>
+      </c>
+      <c r="Z117">
+        <v>2.8</v>
+      </c>
+      <c r="AA117">
+        <v>2.9</v>
+      </c>
+      <c r="AB117">
+        <v>2.7</v>
+      </c>
+      <c r="AC117">
+        <v>1.09</v>
+      </c>
+      <c r="AD117">
+        <v>7</v>
+      </c>
+      <c r="AE117">
+        <v>1.52</v>
+      </c>
+      <c r="AF117">
+        <v>2.38</v>
+      </c>
+      <c r="AG117">
+        <v>2.5</v>
+      </c>
+      <c r="AH117">
+        <v>1.5</v>
+      </c>
+      <c r="AI117">
+        <v>2.1</v>
+      </c>
+      <c r="AJ117">
+        <v>1.67</v>
+      </c>
+      <c r="AK117">
+        <v>1.45</v>
+      </c>
+      <c r="AL117">
+        <v>1.33</v>
+      </c>
+      <c r="AM117">
+        <v>1.42</v>
+      </c>
+      <c r="AN117">
+        <v>3</v>
+      </c>
+      <c r="AO117">
+        <v>1</v>
+      </c>
+      <c r="AP117">
+        <v>2.67</v>
+      </c>
+      <c r="AQ117">
+        <v>1</v>
+      </c>
+      <c r="AR117">
+        <v>1.38</v>
+      </c>
+      <c r="AS117">
+        <v>1.34</v>
+      </c>
+      <c r="AT117">
+        <v>2.72</v>
+      </c>
+      <c r="AU117">
+        <v>6</v>
+      </c>
+      <c r="AV117">
+        <v>5</v>
+      </c>
+      <c r="AW117">
+        <v>8</v>
+      </c>
+      <c r="AX117">
+        <v>6</v>
+      </c>
+      <c r="AY117">
+        <v>14</v>
+      </c>
+      <c r="AZ117">
+        <v>11</v>
+      </c>
+      <c r="BA117">
+        <v>7</v>
+      </c>
+      <c r="BB117">
+        <v>4</v>
+      </c>
+      <c r="BC117">
+        <v>11</v>
+      </c>
+      <c r="BD117">
+        <v>2.05</v>
+      </c>
+      <c r="BE117">
+        <v>7.4</v>
+      </c>
+      <c r="BF117">
+        <v>2.1</v>
+      </c>
+      <c r="BG117">
+        <v>1.22</v>
+      </c>
+      <c r="BH117">
+        <v>4.1</v>
+      </c>
+      <c r="BI117">
+        <v>1.38</v>
+      </c>
+      <c r="BJ117">
+        <v>2.85</v>
+      </c>
+      <c r="BK117">
+        <v>1.65</v>
+      </c>
+      <c r="BL117">
+        <v>2.15</v>
+      </c>
+      <c r="BM117">
+        <v>2.05</v>
+      </c>
+      <c r="BN117">
+        <v>1.72</v>
+      </c>
+      <c r="BO117">
+        <v>2.6</v>
+      </c>
+      <c r="BP117">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="118" spans="1:68">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>7380437</v>
+      </c>
+      <c r="C118" t="s">
+        <v>68</v>
+      </c>
+      <c r="D118" t="s">
+        <v>69</v>
+      </c>
+      <c r="E118" s="2">
+        <v>45468.875</v>
+      </c>
+      <c r="F118">
+        <v>12</v>
+      </c>
+      <c r="G118" t="s">
+        <v>77</v>
+      </c>
+      <c r="H118" t="s">
+        <v>76</v>
+      </c>
+      <c r="I118">
+        <v>2</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <v>2</v>
+      </c>
+      <c r="L118">
+        <v>3</v>
+      </c>
+      <c r="M118">
+        <v>1</v>
+      </c>
+      <c r="N118">
+        <v>4</v>
+      </c>
+      <c r="O118" t="s">
+        <v>171</v>
+      </c>
+      <c r="P118" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q118">
+        <v>3.75</v>
+      </c>
+      <c r="R118">
+        <v>2.04</v>
+      </c>
+      <c r="S118">
+        <v>3.85</v>
+      </c>
+      <c r="T118">
+        <v>1.56</v>
+      </c>
+      <c r="U118">
+        <v>2.29</v>
+      </c>
+      <c r="V118">
+        <v>3.7</v>
+      </c>
+      <c r="W118">
+        <v>1.24</v>
+      </c>
+      <c r="X118">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="Y118">
+        <v>1.03</v>
+      </c>
+      <c r="Z118">
+        <v>2.75</v>
+      </c>
+      <c r="AA118">
+        <v>2.9</v>
+      </c>
+      <c r="AB118">
+        <v>2.75</v>
+      </c>
+      <c r="AC118">
+        <v>1.1</v>
+      </c>
+      <c r="AD118">
+        <v>7</v>
+      </c>
+      <c r="AE118">
+        <v>1.5</v>
+      </c>
+      <c r="AF118">
+        <v>2.45</v>
+      </c>
+      <c r="AG118">
+        <v>2.5</v>
+      </c>
+      <c r="AH118">
+        <v>1.5</v>
+      </c>
+      <c r="AI118">
+        <v>2.1</v>
+      </c>
+      <c r="AJ118">
+        <v>1.67</v>
+      </c>
+      <c r="AK118">
+        <v>1.42</v>
+      </c>
+      <c r="AL118">
+        <v>1.33</v>
+      </c>
+      <c r="AM118">
+        <v>1.42</v>
+      </c>
+      <c r="AN118">
+        <v>2</v>
+      </c>
+      <c r="AO118">
+        <v>0.8</v>
+      </c>
+      <c r="AP118">
+        <v>2.17</v>
+      </c>
+      <c r="AQ118">
+        <v>0.67</v>
+      </c>
+      <c r="AR118">
+        <v>1.51</v>
+      </c>
+      <c r="AS118">
+        <v>1.56</v>
+      </c>
+      <c r="AT118">
+        <v>3.07</v>
+      </c>
+      <c r="AU118">
+        <v>8</v>
+      </c>
+      <c r="AV118">
+        <v>3</v>
+      </c>
+      <c r="AW118">
+        <v>2</v>
+      </c>
+      <c r="AX118">
+        <v>7</v>
+      </c>
+      <c r="AY118">
+        <v>10</v>
+      </c>
+      <c r="AZ118">
+        <v>10</v>
+      </c>
+      <c r="BA118">
+        <v>4</v>
+      </c>
+      <c r="BB118">
+        <v>7</v>
+      </c>
+      <c r="BC118">
+        <v>11</v>
+      </c>
+      <c r="BD118">
+        <v>2.07</v>
+      </c>
+      <c r="BE118">
+        <v>7.5</v>
+      </c>
+      <c r="BF118">
+        <v>2.07</v>
+      </c>
+      <c r="BG118">
+        <v>1.18</v>
+      </c>
+      <c r="BH118">
+        <v>4.6</v>
+      </c>
+      <c r="BI118">
+        <v>1.33</v>
+      </c>
+      <c r="BJ118">
+        <v>3.15</v>
+      </c>
+      <c r="BK118">
+        <v>1.55</v>
+      </c>
+      <c r="BL118">
+        <v>2.3</v>
+      </c>
+      <c r="BM118">
+        <v>1.9</v>
+      </c>
+      <c r="BN118">
+        <v>1.85</v>
+      </c>
+      <c r="BO118">
+        <v>2.4</v>
+      </c>
+      <c r="BP118">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="119" spans="1:68">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>7380444</v>
+      </c>
+      <c r="C119" t="s">
+        <v>68</v>
+      </c>
+      <c r="D119" t="s">
+        <v>69</v>
+      </c>
+      <c r="E119" s="2">
+        <v>45468.89583333334</v>
+      </c>
+      <c r="F119">
+        <v>12</v>
+      </c>
+      <c r="G119" t="s">
+        <v>75</v>
+      </c>
+      <c r="H119" t="s">
+        <v>87</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <v>0</v>
+      </c>
+      <c r="L119">
+        <v>1</v>
+      </c>
+      <c r="M119">
+        <v>0</v>
+      </c>
+      <c r="N119">
+        <v>1</v>
+      </c>
+      <c r="O119" t="s">
+        <v>125</v>
+      </c>
+      <c r="P119" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q119">
+        <v>4</v>
+      </c>
+      <c r="R119">
+        <v>1.91</v>
+      </c>
+      <c r="S119">
+        <v>3.4</v>
+      </c>
+      <c r="T119">
+        <v>1.6</v>
+      </c>
+      <c r="U119">
+        <v>2.25</v>
+      </c>
+      <c r="V119">
+        <v>3.9</v>
+      </c>
+      <c r="W119">
+        <v>1.23</v>
+      </c>
+      <c r="X119">
+        <v>11</v>
+      </c>
+      <c r="Y119">
+        <v>1.02</v>
+      </c>
+      <c r="Z119">
+        <v>3.3</v>
+      </c>
+      <c r="AA119">
+        <v>2.75</v>
+      </c>
+      <c r="AB119">
+        <v>2.5</v>
+      </c>
+      <c r="AC119">
+        <v>1.08</v>
+      </c>
+      <c r="AD119">
+        <v>5.9</v>
+      </c>
+      <c r="AE119">
+        <v>1.58</v>
+      </c>
+      <c r="AF119">
+        <v>2.25</v>
+      </c>
+      <c r="AG119">
+        <v>2.7</v>
+      </c>
+      <c r="AH119">
+        <v>1.44</v>
+      </c>
+      <c r="AI119">
+        <v>2.2</v>
+      </c>
+      <c r="AJ119">
+        <v>1.62</v>
+      </c>
+      <c r="AK119">
+        <v>1.47</v>
+      </c>
+      <c r="AL119">
+        <v>1.38</v>
+      </c>
+      <c r="AM119">
+        <v>1.39</v>
+      </c>
+      <c r="AN119">
+        <v>1.67</v>
+      </c>
+      <c r="AO119">
+        <v>0.6</v>
+      </c>
+      <c r="AP119">
+        <v>1.86</v>
+      </c>
+      <c r="AQ119">
+        <v>0.5</v>
+      </c>
+      <c r="AR119">
+        <v>1.45</v>
+      </c>
+      <c r="AS119">
+        <v>1.52</v>
+      </c>
+      <c r="AT119">
+        <v>2.97</v>
+      </c>
+      <c r="AU119">
+        <v>7</v>
+      </c>
+      <c r="AV119">
+        <v>4</v>
+      </c>
+      <c r="AW119">
+        <v>5</v>
+      </c>
+      <c r="AX119">
+        <v>5</v>
+      </c>
+      <c r="AY119">
+        <v>12</v>
+      </c>
+      <c r="AZ119">
+        <v>9</v>
+      </c>
+      <c r="BA119">
+        <v>10</v>
+      </c>
+      <c r="BB119">
+        <v>6</v>
+      </c>
+      <c r="BC119">
+        <v>16</v>
+      </c>
+      <c r="BD119">
+        <v>1.87</v>
+      </c>
+      <c r="BE119">
+        <v>7.4</v>
+      </c>
+      <c r="BF119">
+        <v>2.38</v>
+      </c>
+      <c r="BG119">
+        <v>1.25</v>
+      </c>
+      <c r="BH119">
+        <v>3.7</v>
+      </c>
+      <c r="BI119">
+        <v>1.44</v>
+      </c>
+      <c r="BJ119">
+        <v>2.6</v>
+      </c>
+      <c r="BK119">
+        <v>1.75</v>
+      </c>
+      <c r="BL119">
+        <v>2</v>
+      </c>
+      <c r="BM119">
+        <v>2.2</v>
+      </c>
+      <c r="BN119">
+        <v>1.62</v>
+      </c>
+      <c r="BO119">
+        <v>2.85</v>
+      </c>
+      <c r="BP119">
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
@@ -25283,10 +25283,10 @@
         <v>4</v>
       </c>
       <c r="BB118">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BC118">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD118">
         <v>2.07</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
@@ -256,10 +256,10 @@
     <t>Brusque</t>
   </si>
   <si>
-    <t>Sport Recife</t>
+    <t>Ituano</t>
   </si>
   <si>
-    <t>Ituano</t>
+    <t>Sport Recife</t>
   </si>
   <si>
     <t>Avaí</t>
@@ -316,10 +316,10 @@
     <t>['8', '67', '90+7']</t>
   </si>
   <si>
-    <t>['27', '51']</t>
+    <t>[]</t>
   </si>
   <si>
-    <t>[]</t>
+    <t>['27', '51']</t>
   </si>
   <si>
     <t>['68']</t>
@@ -364,10 +364,10 @@
     <t>['19', '45+1']</t>
   </si>
   <si>
-    <t>['22', '66']</t>
+    <t>['26']</t>
   </si>
   <si>
-    <t>['26']</t>
+    <t>['22', '66']</t>
   </si>
   <si>
     <t>['19']</t>
@@ -379,10 +379,10 @@
     <t>['11', '16']</t>
   </si>
   <si>
-    <t>['68', '90+3']</t>
+    <t>['33', '36']</t>
   </si>
   <si>
-    <t>['33', '36']</t>
+    <t>['68', '90+3']</t>
   </si>
   <si>
     <t>['18']</t>
@@ -580,10 +580,10 @@
     <t>['81']</t>
   </si>
   <si>
-    <t>['80']</t>
+    <t>['90+1']</t>
   </si>
   <si>
-    <t>['90+1']</t>
+    <t>['80']</t>
   </si>
   <si>
     <t>['17', '23']</t>
@@ -604,10 +604,10 @@
     <t>['88']</t>
   </si>
   <si>
-    <t>['62', '75']</t>
+    <t>['84']</t>
   </si>
   <si>
-    <t>['84']</t>
+    <t>['62', '75']</t>
   </si>
   <si>
     <t>['43', '51']</t>
@@ -619,10 +619,10 @@
     <t>['48']</t>
   </si>
   <si>
-    <t>['64']</t>
+    <t>['42']</t>
   </si>
   <si>
-    <t>['42']</t>
+    <t>['64']</t>
   </si>
   <si>
     <t>['43', '75']</t>
@@ -1685,7 +1685,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q4">
         <v>3.25</v>
@@ -1867,7 +1867,7 @@
         <v>73</v>
       </c>
       <c r="H5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -2097,7 +2097,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q6">
         <v>1.91</v>
@@ -2279,7 +2279,7 @@
         <v>75</v>
       </c>
       <c r="H7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q10">
         <v>2.88</v>
@@ -3291,7 +3291,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>7380345</v>
+        <v>7380339</v>
       </c>
       <c r="C12" t="s">
         <v>68</v>
@@ -3309,22 +3309,22 @@
         <v>80</v>
       </c>
       <c r="H12" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N12">
         <v>2</v>
@@ -3333,76 +3333,76 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>101</v>
+        <v>175</v>
       </c>
       <c r="Q12">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="R12">
+        <v>1.91</v>
+      </c>
+      <c r="S12">
+        <v>3.6</v>
+      </c>
+      <c r="T12">
+        <v>1.57</v>
+      </c>
+      <c r="U12">
+        <v>2.31</v>
+      </c>
+      <c r="V12">
+        <v>3.54</v>
+      </c>
+      <c r="W12">
+        <v>1.27</v>
+      </c>
+      <c r="X12">
+        <v>9.9</v>
+      </c>
+      <c r="Y12">
+        <v>1.03</v>
+      </c>
+      <c r="Z12">
+        <v>2.75</v>
+      </c>
+      <c r="AA12">
+        <v>3.1</v>
+      </c>
+      <c r="AB12">
+        <v>2.75</v>
+      </c>
+      <c r="AC12">
+        <v>1.1</v>
+      </c>
+      <c r="AD12">
+        <v>6.5</v>
+      </c>
+      <c r="AE12">
+        <v>1.5</v>
+      </c>
+      <c r="AF12">
+        <v>2.4</v>
+      </c>
+      <c r="AG12">
+        <v>2.6</v>
+      </c>
+      <c r="AH12">
+        <v>1.48</v>
+      </c>
+      <c r="AI12">
         <v>2.1</v>
       </c>
-      <c r="S12">
-        <v>6</v>
-      </c>
-      <c r="T12">
-        <v>1.48</v>
-      </c>
-      <c r="U12">
-        <v>2.54</v>
-      </c>
-      <c r="V12">
-        <v>3.28</v>
-      </c>
-      <c r="W12">
-        <v>1.31</v>
-      </c>
-      <c r="X12">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="Y12">
-        <v>1.05</v>
-      </c>
-      <c r="Z12">
-        <v>1.62</v>
-      </c>
-      <c r="AA12">
-        <v>3.6</v>
-      </c>
-      <c r="AB12">
-        <v>6.5</v>
-      </c>
-      <c r="AC12">
-        <v>1.04</v>
-      </c>
-      <c r="AD12">
-        <v>7.4</v>
-      </c>
-      <c r="AE12">
-        <v>1.38</v>
-      </c>
-      <c r="AF12">
-        <v>2.71</v>
-      </c>
-      <c r="AG12">
-        <v>2.25</v>
-      </c>
-      <c r="AH12">
-        <v>1.62</v>
-      </c>
-      <c r="AI12">
-        <v>2.2</v>
-      </c>
       <c r="AJ12">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="AK12">
-        <v>1.15</v>
+        <v>1.35</v>
       </c>
       <c r="AL12">
-        <v>1.28</v>
+        <v>1.36</v>
       </c>
       <c r="AM12">
-        <v>2.1</v>
+        <v>1.52</v>
       </c>
       <c r="AN12">
         <v>0</v>
@@ -3411,10 +3411,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ12">
-        <v>0.2</v>
+        <v>1.67</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3426,70 +3426,70 @@
         <v>0</v>
       </c>
       <c r="AU12">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AV12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW12">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AX12">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AY12">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AZ12">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="BA12">
         <v>9</v>
       </c>
       <c r="BB12">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="BC12">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="BD12">
+        <v>2.05</v>
+      </c>
+      <c r="BE12">
+        <v>7.4</v>
+      </c>
+      <c r="BF12">
+        <v>2.1</v>
+      </c>
+      <c r="BG12">
+        <v>1.2</v>
+      </c>
+      <c r="BH12">
+        <v>4.3</v>
+      </c>
+      <c r="BI12">
+        <v>1.37</v>
+      </c>
+      <c r="BJ12">
+        <v>2.95</v>
+      </c>
+      <c r="BK12">
+        <v>2.2</v>
+      </c>
+      <c r="BL12">
+        <v>2.14</v>
+      </c>
+      <c r="BM12">
+        <v>2.1</v>
+      </c>
+      <c r="BN12">
+        <v>1.68</v>
+      </c>
+      <c r="BO12">
+        <v>2.8</v>
+      </c>
+      <c r="BP12">
         <v>1.4</v>
-      </c>
-      <c r="BE12">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="BF12">
-        <v>3.65</v>
-      </c>
-      <c r="BG12">
-        <v>1.18</v>
-      </c>
-      <c r="BH12">
-        <v>4.33</v>
-      </c>
-      <c r="BI12">
-        <v>1.3</v>
-      </c>
-      <c r="BJ12">
-        <v>3.35</v>
-      </c>
-      <c r="BK12">
-        <v>1.83</v>
-      </c>
-      <c r="BL12">
-        <v>2.4</v>
-      </c>
-      <c r="BM12">
-        <v>1.9</v>
-      </c>
-      <c r="BN12">
-        <v>1.84</v>
-      </c>
-      <c r="BO12">
-        <v>2.48</v>
-      </c>
-      <c r="BP12">
-        <v>1.5</v>
       </c>
     </row>
     <row r="13" spans="1:68">
@@ -3497,7 +3497,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>7380339</v>
+        <v>7380345</v>
       </c>
       <c r="C13" t="s">
         <v>68</v>
@@ -3515,22 +3515,22 @@
         <v>81</v>
       </c>
       <c r="H13" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>1</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>2</v>
@@ -3539,77 +3539,77 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>175</v>
+        <v>100</v>
       </c>
       <c r="Q13">
+        <v>2.3</v>
+      </c>
+      <c r="R13">
+        <v>2.1</v>
+      </c>
+      <c r="S13">
+        <v>6</v>
+      </c>
+      <c r="T13">
+        <v>1.48</v>
+      </c>
+      <c r="U13">
+        <v>2.54</v>
+      </c>
+      <c r="V13">
+        <v>3.28</v>
+      </c>
+      <c r="W13">
+        <v>1.31</v>
+      </c>
+      <c r="X13">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="Y13">
+        <v>1.05</v>
+      </c>
+      <c r="Z13">
+        <v>1.62</v>
+      </c>
+      <c r="AA13">
         <v>3.6</v>
       </c>
-      <c r="R13">
-        <v>1.91</v>
-      </c>
-      <c r="S13">
-        <v>3.6</v>
-      </c>
-      <c r="T13">
-        <v>1.57</v>
-      </c>
-      <c r="U13">
-        <v>2.31</v>
-      </c>
-      <c r="V13">
-        <v>3.54</v>
-      </c>
-      <c r="W13">
-        <v>1.27</v>
-      </c>
-      <c r="X13">
-        <v>9.9</v>
-      </c>
-      <c r="Y13">
-        <v>1.03</v>
-      </c>
-      <c r="Z13">
-        <v>2.75</v>
-      </c>
-      <c r="AA13">
-        <v>3.1</v>
-      </c>
       <c r="AB13">
-        <v>2.75</v>
+        <v>6.5</v>
       </c>
       <c r="AC13">
-        <v>1.1</v>
+        <v>1.04</v>
       </c>
       <c r="AD13">
-        <v>6.5</v>
+        <v>7.4</v>
       </c>
       <c r="AE13">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AF13">
-        <v>2.4</v>
+        <v>2.71</v>
       </c>
       <c r="AG13">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="AH13">
-        <v>1.48</v>
+        <v>1.62</v>
       </c>
       <c r="AI13">
+        <v>2.2</v>
+      </c>
+      <c r="AJ13">
+        <v>1.62</v>
+      </c>
+      <c r="AK13">
+        <v>1.15</v>
+      </c>
+      <c r="AL13">
+        <v>1.28</v>
+      </c>
+      <c r="AM13">
         <v>2.1</v>
       </c>
-      <c r="AJ13">
-        <v>1.67</v>
-      </c>
-      <c r="AK13">
-        <v>1.35</v>
-      </c>
-      <c r="AL13">
-        <v>1.36</v>
-      </c>
-      <c r="AM13">
-        <v>1.52</v>
-      </c>
       <c r="AN13">
         <v>0</v>
       </c>
@@ -3617,10 +3617,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ13">
-        <v>1.67</v>
+        <v>0.2</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3632,70 +3632,70 @@
         <v>0</v>
       </c>
       <c r="AU13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AV13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AW13">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AX13">
+        <v>8</v>
+      </c>
+      <c r="AY13">
+        <v>8</v>
+      </c>
+      <c r="AZ13">
         <v>11</v>
-      </c>
-      <c r="AY13">
-        <v>11</v>
-      </c>
-      <c r="AZ13">
-        <v>16</v>
       </c>
       <c r="BA13">
         <v>9</v>
       </c>
       <c r="BB13">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="BC13">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="BD13">
-        <v>2.05</v>
+        <v>1.4</v>
       </c>
       <c r="BE13">
-        <v>7.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="BF13">
-        <v>2.1</v>
+        <v>3.65</v>
       </c>
       <c r="BG13">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="BH13">
-        <v>4.3</v>
+        <v>4.33</v>
       </c>
       <c r="BI13">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="BJ13">
-        <v>2.95</v>
+        <v>3.35</v>
       </c>
       <c r="BK13">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="BL13">
-        <v>2.14</v>
+        <v>2.4</v>
       </c>
       <c r="BM13">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="BN13">
-        <v>1.68</v>
+        <v>1.84</v>
       </c>
       <c r="BO13">
-        <v>2.8</v>
+        <v>2.48</v>
       </c>
       <c r="BP13">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="14" spans="1:68">
@@ -3742,7 +3742,7 @@
         <v>2</v>
       </c>
       <c r="O14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P14" t="s">
         <v>176</v>
@@ -3948,7 +3948,7 @@
         <v>1</v>
       </c>
       <c r="O15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P15" t="s">
         <v>177</v>
@@ -4154,10 +4154,10 @@
         <v>0</v>
       </c>
       <c r="O16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q16">
         <v>2.1</v>
@@ -4569,7 +4569,7 @@
         <v>103</v>
       </c>
       <c r="P18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -4775,7 +4775,7 @@
         <v>104</v>
       </c>
       <c r="P19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q19">
         <v>2.1</v>
@@ -4981,7 +4981,7 @@
         <v>105</v>
       </c>
       <c r="P20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q20">
         <v>2.3</v>
@@ -5390,10 +5390,10 @@
         <v>0</v>
       </c>
       <c r="O22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -5575,7 +5575,7 @@
         <v>87</v>
       </c>
       <c r="H23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -5596,7 +5596,7 @@
         <v>1</v>
       </c>
       <c r="O23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P23" t="s">
         <v>152</v>
@@ -6011,7 +6011,7 @@
         <v>108</v>
       </c>
       <c r="P25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q25">
         <v>2.88</v>
@@ -6190,7 +6190,7 @@
         <v>3</v>
       </c>
       <c r="G26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H26" t="s">
         <v>71</v>
@@ -6420,7 +6420,7 @@
         <v>2</v>
       </c>
       <c r="O27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P27" t="s">
         <v>182</v>
@@ -6835,7 +6835,7 @@
         <v>111</v>
       </c>
       <c r="P29" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q29">
         <v>2.88</v>
@@ -7244,10 +7244,10 @@
         <v>0</v>
       </c>
       <c r="O31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q31">
         <v>3.75</v>
@@ -7656,7 +7656,7 @@
         <v>3</v>
       </c>
       <c r="O33" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P33" t="s">
         <v>186</v>
@@ -7841,7 +7841,7 @@
         <v>88</v>
       </c>
       <c r="H34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I34">
         <v>1</v>
@@ -7865,7 +7865,7 @@
         <v>114</v>
       </c>
       <c r="P34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q34">
         <v>1.95</v>
@@ -8071,7 +8071,7 @@
         <v>115</v>
       </c>
       <c r="P35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q35">
         <v>2.6</v>
@@ -8235,7 +8235,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>7380357</v>
+        <v>7380363</v>
       </c>
       <c r="C36" t="s">
         <v>68</v>
@@ -8250,10 +8250,10 @@
         <v>4</v>
       </c>
       <c r="G36" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="H36" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="I36">
         <v>1</v>
@@ -8265,10 +8265,10 @@
         <v>1</v>
       </c>
       <c r="L36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N36">
         <v>2</v>
@@ -8277,7 +8277,7 @@
         <v>116</v>
       </c>
       <c r="P36" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="Q36">
         <v>2.75</v>
@@ -8289,19 +8289,19 @@
         <v>5.5</v>
       </c>
       <c r="T36">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="U36">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="V36">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="W36">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="X36">
-        <v>10.2</v>
+        <v>10.5</v>
       </c>
       <c r="Y36">
         <v>1.03</v>
@@ -8310,130 +8310,130 @@
         <v>1.9</v>
       </c>
       <c r="AA36">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="AB36">
-        <v>4.3</v>
+        <v>3.95</v>
       </c>
       <c r="AC36">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="AD36">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE36">
+        <v>1.47</v>
+      </c>
+      <c r="AF36">
+        <v>2.5</v>
+      </c>
+      <c r="AG36">
+        <v>2.62</v>
+      </c>
+      <c r="AH36">
+        <v>1.43</v>
+      </c>
+      <c r="AI36">
+        <v>2.5</v>
+      </c>
+      <c r="AJ36">
         <v>1.5</v>
       </c>
-      <c r="AF36">
-        <v>2.45</v>
-      </c>
-      <c r="AG36">
-        <v>2.44</v>
-      </c>
-      <c r="AH36">
-        <v>1.49</v>
-      </c>
-      <c r="AI36">
-        <v>2.38</v>
-      </c>
-      <c r="AJ36">
-        <v>1.53</v>
-      </c>
       <c r="AK36">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AL36">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="AM36">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="AN36">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP36">
-        <v>0.83</v>
+        <v>1.83</v>
       </c>
       <c r="AQ36">
-        <v>1.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR36">
-        <v>3.34</v>
+        <v>1.35</v>
       </c>
       <c r="AS36">
-        <v>1.49</v>
+        <v>0.98</v>
       </c>
       <c r="AT36">
-        <v>4.83</v>
+        <v>2.33</v>
       </c>
       <c r="AU36">
         <v>6</v>
       </c>
       <c r="AV36">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW36">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AX36">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AY36">
+        <v>15</v>
+      </c>
+      <c r="AZ36">
         <v>11</v>
       </c>
-      <c r="AZ36">
-        <v>12</v>
-      </c>
       <c r="BA36">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB36">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BC36">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BD36">
-        <v>1.51</v>
+        <v>1.38</v>
       </c>
       <c r="BE36">
         <v>7.6</v>
       </c>
       <c r="BF36">
-        <v>3.26</v>
+        <v>4.1</v>
       </c>
       <c r="BG36">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="BH36">
-        <v>3.75</v>
+        <v>4.6</v>
       </c>
       <c r="BI36">
-        <v>1.45</v>
+        <v>1.28</v>
       </c>
       <c r="BJ36">
-        <v>2.55</v>
+        <v>3.35</v>
       </c>
       <c r="BK36">
-        <v>2.25</v>
+        <v>1.91</v>
       </c>
       <c r="BL36">
+        <v>2.37</v>
+      </c>
+      <c r="BM36">
         <v>1.9</v>
       </c>
-      <c r="BM36">
-        <v>2.32</v>
-      </c>
       <c r="BN36">
-        <v>1.54</v>
+        <v>1.8</v>
       </c>
       <c r="BO36">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="BP36">
-        <v>1.32</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="37" spans="1:68">
@@ -8441,7 +8441,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>7380363</v>
+        <v>7380357</v>
       </c>
       <c r="C37" t="s">
         <v>68</v>
@@ -8456,10 +8456,10 @@
         <v>4</v>
       </c>
       <c r="G37" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="H37" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="I37">
         <v>1</v>
@@ -8471,10 +8471,10 @@
         <v>1</v>
       </c>
       <c r="L37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N37">
         <v>2</v>
@@ -8483,7 +8483,7 @@
         <v>117</v>
       </c>
       <c r="P37" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="Q37">
         <v>2.75</v>
@@ -8495,19 +8495,19 @@
         <v>5.5</v>
       </c>
       <c r="T37">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="U37">
-        <v>2.29</v>
+        <v>2.25</v>
       </c>
       <c r="V37">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="W37">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="X37">
-        <v>10.5</v>
+        <v>10.2</v>
       </c>
       <c r="Y37">
         <v>1.03</v>
@@ -8516,130 +8516,130 @@
         <v>1.9</v>
       </c>
       <c r="AA37">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="AB37">
-        <v>3.95</v>
+        <v>4.3</v>
       </c>
       <c r="AC37">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="AD37">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE37">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="AF37">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="AG37">
-        <v>2.62</v>
+        <v>2.44</v>
       </c>
       <c r="AH37">
-        <v>1.43</v>
+        <v>1.49</v>
       </c>
       <c r="AI37">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AJ37">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="AK37">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="AL37">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="AM37">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="AN37">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP37">
-        <v>1.83</v>
+        <v>0.83</v>
       </c>
       <c r="AQ37">
-        <v>0.33</v>
+        <v>1.4</v>
       </c>
       <c r="AR37">
-        <v>1.35</v>
+        <v>3.34</v>
       </c>
       <c r="AS37">
-        <v>0.98</v>
+        <v>1.49</v>
       </c>
       <c r="AT37">
-        <v>2.33</v>
+        <v>4.83</v>
       </c>
       <c r="AU37">
         <v>6</v>
       </c>
       <c r="AV37">
+        <v>3</v>
+      </c>
+      <c r="AW37">
+        <v>5</v>
+      </c>
+      <c r="AX37">
+        <v>9</v>
+      </c>
+      <c r="AY37">
+        <v>11</v>
+      </c>
+      <c r="AZ37">
+        <v>12</v>
+      </c>
+      <c r="BA37">
+        <v>5</v>
+      </c>
+      <c r="BB37">
         <v>4</v>
       </c>
-      <c r="AW37">
+      <c r="BC37">
         <v>9</v>
       </c>
-      <c r="AX37">
-        <v>7</v>
-      </c>
-      <c r="AY37">
-        <v>15</v>
-      </c>
-      <c r="AZ37">
-        <v>11</v>
-      </c>
-      <c r="BA37">
-        <v>6</v>
-      </c>
-      <c r="BB37">
-        <v>7</v>
-      </c>
-      <c r="BC37">
-        <v>13</v>
-      </c>
       <c r="BD37">
-        <v>1.38</v>
+        <v>1.51</v>
       </c>
       <c r="BE37">
         <v>7.6</v>
       </c>
       <c r="BF37">
-        <v>4.1</v>
+        <v>3.26</v>
       </c>
       <c r="BG37">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
       <c r="BH37">
-        <v>4.6</v>
+        <v>3.75</v>
       </c>
       <c r="BI37">
-        <v>1.28</v>
+        <v>1.45</v>
       </c>
       <c r="BJ37">
-        <v>3.35</v>
+        <v>2.55</v>
       </c>
       <c r="BK37">
-        <v>1.91</v>
+        <v>2.25</v>
       </c>
       <c r="BL37">
-        <v>2.37</v>
+        <v>1.9</v>
       </c>
       <c r="BM37">
-        <v>1.9</v>
+        <v>2.32</v>
       </c>
       <c r="BN37">
-        <v>1.8</v>
+        <v>1.54</v>
       </c>
       <c r="BO37">
-        <v>2.45</v>
+        <v>3.1</v>
       </c>
       <c r="BP37">
-        <v>1.49</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="38" spans="1:68">
@@ -8689,7 +8689,7 @@
         <v>118</v>
       </c>
       <c r="P38" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q38">
         <v>6.5</v>
@@ -8868,7 +8868,7 @@
         <v>4</v>
       </c>
       <c r="G39" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H39" t="s">
         <v>79</v>
@@ -9101,7 +9101,7 @@
         <v>104</v>
       </c>
       <c r="P40" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q40">
         <v>3.5</v>
@@ -9471,7 +9471,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>7380366</v>
+        <v>7380371</v>
       </c>
       <c r="C42" t="s">
         <v>68</v>
@@ -9486,19 +9486,19 @@
         <v>5</v>
       </c>
       <c r="G42" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H42" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J42">
         <v>0</v>
       </c>
       <c r="K42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L42">
         <v>2</v>
@@ -9516,136 +9516,136 @@
         <v>188</v>
       </c>
       <c r="Q42">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="R42">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="S42">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="T42">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="U42">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="V42">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="W42">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="X42">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Y42">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="Z42">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="AA42">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="AB42">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AC42">
         <v>1.1</v>
       </c>
       <c r="AD42">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AE42">
+        <v>1.5</v>
+      </c>
+      <c r="AF42">
+        <v>2.4</v>
+      </c>
+      <c r="AG42">
+        <v>2.6</v>
+      </c>
+      <c r="AH42">
         <v>1.48</v>
       </c>
-      <c r="AF42">
-        <v>2.6</v>
-      </c>
-      <c r="AG42">
-        <v>2.4</v>
-      </c>
-      <c r="AH42">
+      <c r="AI42">
+        <v>2.1</v>
+      </c>
+      <c r="AJ42">
+        <v>1.67</v>
+      </c>
+      <c r="AK42">
+        <v>1.34</v>
+      </c>
+      <c r="AL42">
+        <v>1.43</v>
+      </c>
+      <c r="AM42">
         <v>1.53</v>
       </c>
-      <c r="AI42">
-        <v>2</v>
-      </c>
-      <c r="AJ42">
-        <v>1.73</v>
-      </c>
-      <c r="AK42">
-        <v>1.3</v>
-      </c>
-      <c r="AL42">
-        <v>1.33</v>
-      </c>
-      <c r="AM42">
-        <v>1.62</v>
-      </c>
       <c r="AN42">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AO42">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="AP42">
-        <v>2.71</v>
+        <v>2.17</v>
       </c>
       <c r="AQ42">
-        <v>1.43</v>
+        <v>0.33</v>
       </c>
       <c r="AR42">
-        <v>1.32</v>
+        <v>1.42</v>
       </c>
       <c r="AS42">
-        <v>1.41</v>
+        <v>1.35</v>
       </c>
       <c r="AT42">
-        <v>2.73</v>
+        <v>2.77</v>
       </c>
       <c r="AU42">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV42">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW42">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AX42">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY42">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AZ42">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA42">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BB42">
         <v>4</v>
       </c>
       <c r="BC42">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BD42">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="BE42">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="BF42">
-        <v>2.27</v>
+        <v>2.37</v>
       </c>
       <c r="BG42">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="BH42">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="BI42">
         <v>1.32</v>
@@ -9654,22 +9654,22 @@
         <v>3.1</v>
       </c>
       <c r="BK42">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="BL42">
-        <v>2.27</v>
+        <v>2.23</v>
       </c>
       <c r="BM42">
-        <v>1.99</v>
+        <v>2.03</v>
       </c>
       <c r="BN42">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="BO42">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="BP42">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="43" spans="1:68">
@@ -9677,7 +9677,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>7380371</v>
+        <v>7380366</v>
       </c>
       <c r="C43" t="s">
         <v>68</v>
@@ -9692,19 +9692,19 @@
         <v>5</v>
       </c>
       <c r="G43" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H43" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="I43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J43">
         <v>0</v>
       </c>
       <c r="K43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L43">
         <v>2</v>
@@ -9722,136 +9722,136 @@
         <v>189</v>
       </c>
       <c r="Q43">
+        <v>3.2</v>
+      </c>
+      <c r="R43">
+        <v>1.95</v>
+      </c>
+      <c r="S43">
+        <v>4</v>
+      </c>
+      <c r="T43">
+        <v>1.53</v>
+      </c>
+      <c r="U43">
+        <v>2.35</v>
+      </c>
+      <c r="V43">
         <v>3.4</v>
       </c>
-      <c r="R43">
-        <v>1.91</v>
-      </c>
-      <c r="S43">
-        <v>3.75</v>
-      </c>
-      <c r="T43">
-        <v>1.57</v>
-      </c>
-      <c r="U43">
-        <v>2.25</v>
-      </c>
-      <c r="V43">
-        <v>3.6</v>
-      </c>
       <c r="W43">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="X43">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Y43">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="Z43">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="AA43">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="AB43">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AC43">
         <v>1.1</v>
       </c>
       <c r="AD43">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AE43">
+        <v>1.48</v>
+      </c>
+      <c r="AF43">
+        <v>2.6</v>
+      </c>
+      <c r="AG43">
+        <v>2.4</v>
+      </c>
+      <c r="AH43">
+        <v>1.53</v>
+      </c>
+      <c r="AI43">
+        <v>2</v>
+      </c>
+      <c r="AJ43">
+        <v>1.73</v>
+      </c>
+      <c r="AK43">
+        <v>1.3</v>
+      </c>
+      <c r="AL43">
+        <v>1.33</v>
+      </c>
+      <c r="AM43">
+        <v>1.62</v>
+      </c>
+      <c r="AN43">
+        <v>3</v>
+      </c>
+      <c r="AO43">
         <v>1.5</v>
       </c>
-      <c r="AF43">
-        <v>2.4</v>
-      </c>
-      <c r="AG43">
-        <v>2.6</v>
-      </c>
-      <c r="AH43">
-        <v>1.48</v>
-      </c>
-      <c r="AI43">
-        <v>2.1</v>
-      </c>
-      <c r="AJ43">
-        <v>1.67</v>
-      </c>
-      <c r="AK43">
-        <v>1.34</v>
-      </c>
-      <c r="AL43">
+      <c r="AP43">
+        <v>2.71</v>
+      </c>
+      <c r="AQ43">
         <v>1.43</v>
       </c>
-      <c r="AM43">
-        <v>1.53</v>
-      </c>
-      <c r="AN43">
-        <v>1.5</v>
-      </c>
-      <c r="AO43">
-        <v>0.5</v>
-      </c>
-      <c r="AP43">
-        <v>2.17</v>
-      </c>
-      <c r="AQ43">
-        <v>0.33</v>
-      </c>
       <c r="AR43">
-        <v>1.42</v>
+        <v>1.32</v>
       </c>
       <c r="AS43">
-        <v>1.35</v>
+        <v>1.41</v>
       </c>
       <c r="AT43">
-        <v>2.77</v>
+        <v>2.73</v>
       </c>
       <c r="AU43">
+        <v>3</v>
+      </c>
+      <c r="AV43">
         <v>5</v>
       </c>
-      <c r="AV43">
+      <c r="AW43">
+        <v>8</v>
+      </c>
+      <c r="AX43">
         <v>6</v>
       </c>
-      <c r="AW43">
-        <v>4</v>
-      </c>
-      <c r="AX43">
-        <v>7</v>
-      </c>
       <c r="AY43">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ43">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BA43">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BB43">
         <v>4</v>
       </c>
       <c r="BC43">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BD43">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="BE43">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="BF43">
-        <v>2.37</v>
+        <v>2.27</v>
       </c>
       <c r="BG43">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="BH43">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="BI43">
         <v>1.32</v>
@@ -9860,22 +9860,22 @@
         <v>3.1</v>
       </c>
       <c r="BK43">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="BL43">
-        <v>2.23</v>
+        <v>2.27</v>
       </c>
       <c r="BM43">
-        <v>2.03</v>
+        <v>1.99</v>
       </c>
       <c r="BN43">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="BO43">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="BP43">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="44" spans="1:68">
@@ -9922,10 +9922,10 @@
         <v>0</v>
       </c>
       <c r="O44" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P44" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -10131,7 +10131,7 @@
         <v>123</v>
       </c>
       <c r="P45" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q45">
         <v>2.38</v>
@@ -10295,7 +10295,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>7380372</v>
+        <v>7380369</v>
       </c>
       <c r="C46" t="s">
         <v>68</v>
@@ -10310,10 +10310,10 @@
         <v>5</v>
       </c>
       <c r="G46" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H46" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I46">
         <v>0</v>
@@ -10325,175 +10325,175 @@
         <v>0</v>
       </c>
       <c r="L46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M46">
         <v>0</v>
       </c>
       <c r="N46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O46" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="P46" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q46">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="R46">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="S46">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="T46">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="U46">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="V46">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="W46">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="X46">
-        <v>13</v>
+        <v>7.8</v>
       </c>
       <c r="Y46">
         <v>1.04</v>
       </c>
       <c r="Z46">
-        <v>2.7</v>
+        <v>4.33</v>
       </c>
       <c r="AA46">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="AB46">
-        <v>2.75</v>
+        <v>1.9</v>
       </c>
       <c r="AC46">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AD46">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="AE46">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AF46">
-        <v>2.37</v>
+        <v>2.55</v>
       </c>
       <c r="AG46">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="AH46">
-        <v>1.44</v>
+        <v>1.65</v>
       </c>
       <c r="AI46">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AJ46">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="AK46">
-        <v>1.35</v>
+        <v>1.8</v>
       </c>
       <c r="AL46">
         <v>1.3</v>
       </c>
       <c r="AM46">
-        <v>1.55</v>
+        <v>1.2</v>
       </c>
       <c r="AN46">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AO46">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AP46">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ46">
-        <v>1.67</v>
+        <v>1.4</v>
       </c>
       <c r="AR46">
-        <v>1.4</v>
+        <v>1.18</v>
       </c>
       <c r="AS46">
-        <v>1.57</v>
+        <v>1.28</v>
       </c>
       <c r="AT46">
-        <v>2.97</v>
+        <v>2.46</v>
       </c>
       <c r="AU46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV46">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW46">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AX46">
         <v>8</v>
       </c>
       <c r="AY46">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AZ46">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BB46">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BC46">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BD46">
-        <v>1.95</v>
+        <v>2.76</v>
       </c>
       <c r="BE46">
-        <v>7.6</v>
+        <v>8.5</v>
       </c>
       <c r="BF46">
-        <v>2.2</v>
+        <v>1.64</v>
       </c>
       <c r="BG46">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="BH46">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="BI46">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="BJ46">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="BK46">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="BL46">
-        <v>2.37</v>
+        <v>2.3</v>
       </c>
       <c r="BM46">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="BN46">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="BO46">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="BP46">
-        <v>1.49</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="47" spans="1:68">
@@ -10501,7 +10501,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>7380369</v>
+        <v>7380370</v>
       </c>
       <c r="C47" t="s">
         <v>68</v>
@@ -10516,10 +10516,10 @@
         <v>5</v>
       </c>
       <c r="G47" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H47" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I47">
         <v>0</v>
@@ -10531,175 +10531,175 @@
         <v>0</v>
       </c>
       <c r="L47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M47">
         <v>0</v>
       </c>
       <c r="N47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O47" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="P47" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q47">
+        <v>2.63</v>
+      </c>
+      <c r="R47">
+        <v>2</v>
+      </c>
+      <c r="S47">
         <v>4.75</v>
       </c>
-      <c r="R47">
-        <v>2.05</v>
-      </c>
-      <c r="S47">
-        <v>2.6</v>
-      </c>
       <c r="T47">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="U47">
+        <v>2.66</v>
+      </c>
+      <c r="V47">
+        <v>3.36</v>
+      </c>
+      <c r="W47">
+        <v>1.32</v>
+      </c>
+      <c r="X47">
+        <v>10</v>
+      </c>
+      <c r="Y47">
+        <v>1.06</v>
+      </c>
+      <c r="Z47">
+        <v>1.91</v>
+      </c>
+      <c r="AA47">
+        <v>3.2</v>
+      </c>
+      <c r="AB47">
+        <v>4.33</v>
+      </c>
+      <c r="AC47">
+        <v>1.06</v>
+      </c>
+      <c r="AD47">
+        <v>7.9</v>
+      </c>
+      <c r="AE47">
+        <v>1.41</v>
+      </c>
+      <c r="AF47">
+        <v>2.75</v>
+      </c>
+      <c r="AG47">
         <v>2.35</v>
       </c>
-      <c r="V47">
-        <v>3.4</v>
-      </c>
-      <c r="W47">
-        <v>1.28</v>
-      </c>
-      <c r="X47">
-        <v>7.8</v>
-      </c>
-      <c r="Y47">
-        <v>1.04</v>
-      </c>
-      <c r="Z47">
-        <v>4.33</v>
-      </c>
-      <c r="AA47">
-        <v>3.3</v>
-      </c>
-      <c r="AB47">
-        <v>1.9</v>
-      </c>
-      <c r="AC47">
-        <v>1.1</v>
-      </c>
-      <c r="AD47">
-        <v>6.5</v>
-      </c>
-      <c r="AE47">
-        <v>1.5</v>
-      </c>
-      <c r="AF47">
-        <v>2.55</v>
-      </c>
-      <c r="AG47">
-        <v>2.2</v>
-      </c>
       <c r="AH47">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="AI47">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AJ47">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AK47">
-        <v>1.8</v>
+        <v>1.14</v>
       </c>
       <c r="AL47">
+        <v>1.24</v>
+      </c>
+      <c r="AM47">
+        <v>1.95</v>
+      </c>
+      <c r="AN47">
+        <v>3</v>
+      </c>
+      <c r="AO47">
+        <v>0.5</v>
+      </c>
+      <c r="AP47">
+        <v>2.43</v>
+      </c>
+      <c r="AQ47">
+        <v>0.33</v>
+      </c>
+      <c r="AR47">
+        <v>1.99</v>
+      </c>
+      <c r="AS47">
+        <v>1.29</v>
+      </c>
+      <c r="AT47">
+        <v>3.28</v>
+      </c>
+      <c r="AU47">
+        <v>6</v>
+      </c>
+      <c r="AV47">
+        <v>2</v>
+      </c>
+      <c r="AW47">
+        <v>13</v>
+      </c>
+      <c r="AX47">
+        <v>1</v>
+      </c>
+      <c r="AY47">
+        <v>19</v>
+      </c>
+      <c r="AZ47">
+        <v>3</v>
+      </c>
+      <c r="BA47">
+        <v>7</v>
+      </c>
+      <c r="BB47">
+        <v>0</v>
+      </c>
+      <c r="BC47">
+        <v>7</v>
+      </c>
+      <c r="BD47">
+        <v>1.6</v>
+      </c>
+      <c r="BE47">
+        <v>7.5</v>
+      </c>
+      <c r="BF47">
+        <v>3.01</v>
+      </c>
+      <c r="BG47">
+        <v>1.26</v>
+      </c>
+      <c r="BH47">
+        <v>3.65</v>
+      </c>
+      <c r="BI47">
+        <v>1.48</v>
+      </c>
+      <c r="BJ47">
+        <v>2.47</v>
+      </c>
+      <c r="BK47">
+        <v>2.38</v>
+      </c>
+      <c r="BL47">
+        <v>1.92</v>
+      </c>
+      <c r="BM47">
+        <v>2.37</v>
+      </c>
+      <c r="BN47">
+        <v>1.51</v>
+      </c>
+      <c r="BO47">
+        <v>3.2</v>
+      </c>
+      <c r="BP47">
         <v>1.3</v>
-      </c>
-      <c r="AM47">
-        <v>1.2</v>
-      </c>
-      <c r="AN47">
-        <v>0</v>
-      </c>
-      <c r="AO47">
-        <v>3</v>
-      </c>
-      <c r="AP47">
-        <v>1</v>
-      </c>
-      <c r="AQ47">
-        <v>1.4</v>
-      </c>
-      <c r="AR47">
-        <v>1.18</v>
-      </c>
-      <c r="AS47">
-        <v>1.28</v>
-      </c>
-      <c r="AT47">
-        <v>2.46</v>
-      </c>
-      <c r="AU47">
-        <v>3</v>
-      </c>
-      <c r="AV47">
-        <v>3</v>
-      </c>
-      <c r="AW47">
-        <v>8</v>
-      </c>
-      <c r="AX47">
-        <v>8</v>
-      </c>
-      <c r="AY47">
-        <v>11</v>
-      </c>
-      <c r="AZ47">
-        <v>11</v>
-      </c>
-      <c r="BA47">
-        <v>2</v>
-      </c>
-      <c r="BB47">
-        <v>9</v>
-      </c>
-      <c r="BC47">
-        <v>11</v>
-      </c>
-      <c r="BD47">
-        <v>2.76</v>
-      </c>
-      <c r="BE47">
-        <v>8.5</v>
-      </c>
-      <c r="BF47">
-        <v>1.64</v>
-      </c>
-      <c r="BG47">
-        <v>1.19</v>
-      </c>
-      <c r="BH47">
-        <v>4.5</v>
-      </c>
-      <c r="BI47">
-        <v>1.31</v>
-      </c>
-      <c r="BJ47">
-        <v>3.15</v>
-      </c>
-      <c r="BK47">
-        <v>2</v>
-      </c>
-      <c r="BL47">
-        <v>2.3</v>
-      </c>
-      <c r="BM47">
-        <v>1.99</v>
-      </c>
-      <c r="BN47">
-        <v>1.73</v>
-      </c>
-      <c r="BO47">
-        <v>2.6</v>
-      </c>
-      <c r="BP47">
-        <v>1.44</v>
       </c>
     </row>
     <row r="48" spans="1:68">
@@ -10707,7 +10707,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>7380370</v>
+        <v>7380372</v>
       </c>
       <c r="C48" t="s">
         <v>68</v>
@@ -10722,10 +10722,10 @@
         <v>5</v>
       </c>
       <c r="G48" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H48" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="I48">
         <v>0</v>
@@ -10746,166 +10746,166 @@
         <v>0</v>
       </c>
       <c r="O48" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P48" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q48">
-        <v>2.63</v>
+        <v>3.6</v>
       </c>
       <c r="R48">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="S48">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="T48">
-        <v>1.48</v>
+        <v>1.6</v>
       </c>
       <c r="U48">
-        <v>2.66</v>
+        <v>2.2</v>
       </c>
       <c r="V48">
-        <v>3.36</v>
+        <v>3.8</v>
       </c>
       <c r="W48">
-        <v>1.32</v>
+        <v>1.22</v>
       </c>
       <c r="X48">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Y48">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="Z48">
+        <v>2.7</v>
+      </c>
+      <c r="AA48">
+        <v>3</v>
+      </c>
+      <c r="AB48">
+        <v>2.75</v>
+      </c>
+      <c r="AC48">
+        <v>1.11</v>
+      </c>
+      <c r="AD48">
+        <v>6.25</v>
+      </c>
+      <c r="AE48">
+        <v>1.53</v>
+      </c>
+      <c r="AF48">
+        <v>2.37</v>
+      </c>
+      <c r="AG48">
+        <v>2.7</v>
+      </c>
+      <c r="AH48">
+        <v>1.44</v>
+      </c>
+      <c r="AI48">
+        <v>2.2</v>
+      </c>
+      <c r="AJ48">
+        <v>1.62</v>
+      </c>
+      <c r="AK48">
+        <v>1.35</v>
+      </c>
+      <c r="AL48">
+        <v>1.3</v>
+      </c>
+      <c r="AM48">
+        <v>1.55</v>
+      </c>
+      <c r="AN48">
+        <v>1.5</v>
+      </c>
+      <c r="AO48">
+        <v>1.5</v>
+      </c>
+      <c r="AP48">
+        <v>1.5</v>
+      </c>
+      <c r="AQ48">
+        <v>1.67</v>
+      </c>
+      <c r="AR48">
+        <v>1.4</v>
+      </c>
+      <c r="AS48">
+        <v>1.57</v>
+      </c>
+      <c r="AT48">
+        <v>2.97</v>
+      </c>
+      <c r="AU48">
+        <v>2</v>
+      </c>
+      <c r="AV48">
+        <v>4</v>
+      </c>
+      <c r="AW48">
+        <v>6</v>
+      </c>
+      <c r="AX48">
+        <v>8</v>
+      </c>
+      <c r="AY48">
+        <v>8</v>
+      </c>
+      <c r="AZ48">
+        <v>12</v>
+      </c>
+      <c r="BA48">
+        <v>0</v>
+      </c>
+      <c r="BB48">
+        <v>8</v>
+      </c>
+      <c r="BC48">
+        <v>8</v>
+      </c>
+      <c r="BD48">
+        <v>1.95</v>
+      </c>
+      <c r="BE48">
+        <v>7.6</v>
+      </c>
+      <c r="BF48">
+        <v>2.2</v>
+      </c>
+      <c r="BG48">
+        <v>1.18</v>
+      </c>
+      <c r="BH48">
+        <v>4.6</v>
+      </c>
+      <c r="BI48">
+        <v>1.34</v>
+      </c>
+      <c r="BJ48">
+        <v>3.1</v>
+      </c>
+      <c r="BK48">
         <v>1.91</v>
       </c>
-      <c r="AA48">
-        <v>3.2</v>
-      </c>
-      <c r="AB48">
-        <v>4.33</v>
-      </c>
-      <c r="AC48">
-        <v>1.06</v>
-      </c>
-      <c r="AD48">
-        <v>7.9</v>
-      </c>
-      <c r="AE48">
-        <v>1.41</v>
-      </c>
-      <c r="AF48">
-        <v>2.75</v>
-      </c>
-      <c r="AG48">
-        <v>2.35</v>
-      </c>
-      <c r="AH48">
-        <v>1.57</v>
-      </c>
-      <c r="AI48">
-        <v>2.1</v>
-      </c>
-      <c r="AJ48">
-        <v>1.67</v>
-      </c>
-      <c r="AK48">
-        <v>1.14</v>
-      </c>
-      <c r="AL48">
-        <v>1.24</v>
-      </c>
-      <c r="AM48">
-        <v>1.95</v>
-      </c>
-      <c r="AN48">
-        <v>3</v>
-      </c>
-      <c r="AO48">
-        <v>0.5</v>
-      </c>
-      <c r="AP48">
-        <v>2.43</v>
-      </c>
-      <c r="AQ48">
-        <v>0.33</v>
-      </c>
-      <c r="AR48">
-        <v>1.99</v>
-      </c>
-      <c r="AS48">
-        <v>1.29</v>
-      </c>
-      <c r="AT48">
-        <v>3.28</v>
-      </c>
-      <c r="AU48">
-        <v>6</v>
-      </c>
-      <c r="AV48">
-        <v>2</v>
-      </c>
-      <c r="AW48">
-        <v>13</v>
-      </c>
-      <c r="AX48">
-        <v>1</v>
-      </c>
-      <c r="AY48">
-        <v>19</v>
-      </c>
-      <c r="AZ48">
-        <v>3</v>
-      </c>
-      <c r="BA48">
-        <v>7</v>
-      </c>
-      <c r="BB48">
-        <v>0</v>
-      </c>
-      <c r="BC48">
-        <v>7</v>
-      </c>
-      <c r="BD48">
-        <v>1.6</v>
-      </c>
-      <c r="BE48">
-        <v>7.5</v>
-      </c>
-      <c r="BF48">
-        <v>3.01</v>
-      </c>
-      <c r="BG48">
-        <v>1.26</v>
-      </c>
-      <c r="BH48">
-        <v>3.65</v>
-      </c>
-      <c r="BI48">
-        <v>1.48</v>
-      </c>
-      <c r="BJ48">
-        <v>2.47</v>
-      </c>
-      <c r="BK48">
-        <v>2.38</v>
-      </c>
       <c r="BL48">
-        <v>1.92</v>
+        <v>2.37</v>
       </c>
       <c r="BM48">
-        <v>2.37</v>
+        <v>2</v>
       </c>
       <c r="BN48">
-        <v>1.51</v>
+        <v>1.8</v>
       </c>
       <c r="BO48">
-        <v>3.2</v>
+        <v>2.45</v>
       </c>
       <c r="BP48">
-        <v>1.3</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="49" spans="1:68">
@@ -11573,7 +11573,7 @@
         <v>127</v>
       </c>
       <c r="P52" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q52">
         <v>2.5</v>
@@ -11776,10 +11776,10 @@
         <v>0</v>
       </c>
       <c r="O53" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P53" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -12191,7 +12191,7 @@
         <v>129</v>
       </c>
       <c r="P55" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q55">
         <v>2.38</v>
@@ -12370,7 +12370,7 @@
         <v>6</v>
       </c>
       <c r="G56" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H56" t="s">
         <v>82</v>
@@ -12603,7 +12603,7 @@
         <v>131</v>
       </c>
       <c r="P57" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q57">
         <v>1.95</v>
@@ -12806,10 +12806,10 @@
         <v>0</v>
       </c>
       <c r="O58" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P58" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q58">
         <v>3</v>
@@ -12991,7 +12991,7 @@
         <v>89</v>
       </c>
       <c r="H59" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I59">
         <v>0</v>
@@ -13015,7 +13015,7 @@
         <v>132</v>
       </c>
       <c r="P59" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q59">
         <v>2.1</v>
@@ -13424,10 +13424,10 @@
         <v>0</v>
       </c>
       <c r="O61" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P61" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q61">
         <v>3.1</v>
@@ -13836,10 +13836,10 @@
         <v>0</v>
       </c>
       <c r="O63" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P63" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q63">
         <v>3.2</v>
@@ -14018,7 +14018,7 @@
         <v>7</v>
       </c>
       <c r="G64" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H64" t="s">
         <v>77</v>
@@ -14045,7 +14045,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q64">
         <v>3.75</v>
@@ -14663,7 +14663,7 @@
         <v>137</v>
       </c>
       <c r="P67" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q67">
         <v>2.75</v>
@@ -14866,7 +14866,7 @@
         <v>1</v>
       </c>
       <c r="O68" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P68" t="s">
         <v>195</v>
@@ -15075,7 +15075,7 @@
         <v>138</v>
       </c>
       <c r="P69" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q69">
         <v>3.5</v>
@@ -15281,7 +15281,7 @@
         <v>139</v>
       </c>
       <c r="P70" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q70">
         <v>4</v>
@@ -15487,7 +15487,7 @@
         <v>140</v>
       </c>
       <c r="P71" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q71">
         <v>3</v>
@@ -15669,7 +15669,7 @@
         <v>88</v>
       </c>
       <c r="H72" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I72">
         <v>1</v>
@@ -15693,7 +15693,7 @@
         <v>141</v>
       </c>
       <c r="P72" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q72">
         <v>3</v>
@@ -15896,10 +15896,10 @@
         <v>0</v>
       </c>
       <c r="O73" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P73" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16063,7 +16063,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>7380397</v>
+        <v>7380401</v>
       </c>
       <c r="C74" t="s">
         <v>68</v>
@@ -16078,10 +16078,10 @@
         <v>8</v>
       </c>
       <c r="G74" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H74" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="I74">
         <v>0</v>
@@ -16093,175 +16093,175 @@
         <v>0</v>
       </c>
       <c r="L74">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N74">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O74" t="s">
-        <v>142</v>
+        <v>90</v>
       </c>
       <c r="P74" t="s">
         <v>196</v>
       </c>
       <c r="Q74">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="R74">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="S74">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="T74">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="U74">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="V74">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="W74">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="X74">
-        <v>9.949999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="Y74">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="Z74">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="AA74">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="AB74">
-        <v>3.04</v>
+        <v>3.36</v>
       </c>
       <c r="AC74">
         <v>1.09</v>
       </c>
       <c r="AD74">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE74">
-        <v>1.52</v>
+        <v>1.48</v>
       </c>
       <c r="AF74">
-        <v>2.4</v>
+        <v>2.65</v>
       </c>
       <c r="AG74">
-        <v>2.56</v>
+        <v>2.41</v>
       </c>
       <c r="AH74">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="AI74">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AJ74">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="AK74">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AL74">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AM74">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AN74">
-        <v>1.33</v>
+        <v>1.67</v>
       </c>
       <c r="AO74">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AP74">
-        <v>2.17</v>
+        <v>1</v>
       </c>
       <c r="AQ74">
-        <v>0.33</v>
+        <v>0.2</v>
       </c>
       <c r="AR74">
-        <v>1.49</v>
+        <v>1.65</v>
       </c>
       <c r="AS74">
-        <v>1.45</v>
+        <v>1.04</v>
       </c>
       <c r="AT74">
-        <v>2.94</v>
+        <v>2.69</v>
       </c>
       <c r="AU74">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AV74">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW74">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="AX74">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY74">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AZ74">
         <v>9</v>
       </c>
       <c r="BA74">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BB74">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BC74">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="BD74">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="BE74">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
       <c r="BF74">
-        <v>2.17</v>
+        <v>2.37</v>
       </c>
       <c r="BG74">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="BH74">
-        <v>3.95</v>
+        <v>4.25</v>
       </c>
       <c r="BI74">
         <v>1.38</v>
       </c>
       <c r="BJ74">
-        <v>2.71</v>
+        <v>2.9</v>
       </c>
       <c r="BK74">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="BL74">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="BM74">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="BN74">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="BO74">
-        <v>2.79</v>
+        <v>2.85</v>
       </c>
       <c r="BP74">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="75" spans="1:68">
@@ -16269,7 +16269,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>7380401</v>
+        <v>7380397</v>
       </c>
       <c r="C75" t="s">
         <v>68</v>
@@ -16284,10 +16284,10 @@
         <v>8</v>
       </c>
       <c r="G75" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H75" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="I75">
         <v>0</v>
@@ -16299,175 +16299,175 @@
         <v>0</v>
       </c>
       <c r="L75">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N75">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O75" t="s">
-        <v>90</v>
+        <v>142</v>
       </c>
       <c r="P75" t="s">
         <v>197</v>
       </c>
       <c r="Q75">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="R75">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="S75">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="T75">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="U75">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="V75">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="W75">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="X75">
-        <v>9.6</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="Y75">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="Z75">
-        <v>2.15</v>
+        <v>2.55</v>
       </c>
       <c r="AA75">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="AB75">
-        <v>3.36</v>
+        <v>3.04</v>
       </c>
       <c r="AC75">
         <v>1.09</v>
       </c>
       <c r="AD75">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE75">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="AF75">
-        <v>2.65</v>
+        <v>2.4</v>
       </c>
       <c r="AG75">
-        <v>2.41</v>
+        <v>2.56</v>
       </c>
       <c r="AH75">
+        <v>1.45</v>
+      </c>
+      <c r="AI75">
+        <v>2.2</v>
+      </c>
+      <c r="AJ75">
+        <v>1.62</v>
+      </c>
+      <c r="AK75">
+        <v>1.38</v>
+      </c>
+      <c r="AL75">
+        <v>1.33</v>
+      </c>
+      <c r="AM75">
         <v>1.5</v>
       </c>
-      <c r="AI75">
-        <v>2.1</v>
-      </c>
-      <c r="AJ75">
-        <v>1.67</v>
-      </c>
-      <c r="AK75">
+      <c r="AN75">
         <v>1.33</v>
       </c>
-      <c r="AL75">
-        <v>1.3</v>
-      </c>
-      <c r="AM75">
-        <v>1.6</v>
-      </c>
-      <c r="AN75">
-        <v>1.67</v>
-      </c>
       <c r="AO75">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AP75">
-        <v>1</v>
+        <v>2.17</v>
       </c>
       <c r="AQ75">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AR75">
-        <v>1.65</v>
+        <v>1.49</v>
       </c>
       <c r="AS75">
-        <v>1.04</v>
+        <v>1.45</v>
       </c>
       <c r="AT75">
-        <v>2.69</v>
+        <v>2.94</v>
       </c>
       <c r="AU75">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AV75">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW75">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="AX75">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY75">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AZ75">
         <v>9</v>
       </c>
       <c r="BA75">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BB75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BC75">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BD75">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="BE75">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="BF75">
-        <v>2.37</v>
+        <v>2.17</v>
       </c>
       <c r="BG75">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="BH75">
-        <v>4.25</v>
+        <v>3.95</v>
       </c>
       <c r="BI75">
         <v>1.38</v>
       </c>
       <c r="BJ75">
-        <v>2.9</v>
+        <v>2.71</v>
       </c>
       <c r="BK75">
+        <v>2.2</v>
+      </c>
+      <c r="BL75">
+        <v>2</v>
+      </c>
+      <c r="BM75">
         <v>2.1</v>
       </c>
-      <c r="BL75">
-        <v>2.05</v>
-      </c>
-      <c r="BM75">
-        <v>2.05</v>
-      </c>
       <c r="BN75">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="BO75">
-        <v>2.85</v>
+        <v>2.79</v>
       </c>
       <c r="BP75">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="76" spans="1:68">
@@ -16490,7 +16490,7 @@
         <v>8</v>
       </c>
       <c r="G76" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H76" t="s">
         <v>82</v>
@@ -16514,10 +16514,10 @@
         <v>1</v>
       </c>
       <c r="O76" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P76" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q76">
         <v>3.75</v>
@@ -16929,7 +16929,7 @@
         <v>143</v>
       </c>
       <c r="P78" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q78">
         <v>2.5</v>
@@ -17135,7 +17135,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q79">
         <v>2.6</v>
@@ -17341,7 +17341,7 @@
         <v>145</v>
       </c>
       <c r="P80" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q80">
         <v>3.5</v>
@@ -17523,7 +17523,7 @@
         <v>87</v>
       </c>
       <c r="H81" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I81">
         <v>3</v>
@@ -17917,7 +17917,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>7380414</v>
+        <v>7380407</v>
       </c>
       <c r="C83" t="s">
         <v>68</v>
@@ -17932,43 +17932,43 @@
         <v>9</v>
       </c>
       <c r="G83" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="H83" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="I83">
         <v>0</v>
       </c>
       <c r="J83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L83">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M83">
         <v>1</v>
       </c>
       <c r="N83">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O83" t="s">
-        <v>148</v>
+        <v>100</v>
       </c>
       <c r="P83" t="s">
         <v>201</v>
       </c>
       <c r="Q83">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="R83">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="S83">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="T83">
         <v>1.57</v>
@@ -17977,31 +17977,31 @@
         <v>2.25</v>
       </c>
       <c r="V83">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="W83">
         <v>1.25</v>
       </c>
       <c r="X83">
-        <v>7.8</v>
+        <v>13</v>
       </c>
       <c r="Y83">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="Z83">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="AA83">
-        <v>2.27</v>
+        <v>2.65</v>
       </c>
       <c r="AB83">
-        <v>4.56</v>
+        <v>3.53</v>
       </c>
       <c r="AC83">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AD83">
-        <v>6.5</v>
+        <v>5.8</v>
       </c>
       <c r="AE83">
         <v>1.5</v>
@@ -18010,112 +18010,112 @@
         <v>2.4</v>
       </c>
       <c r="AG83">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="AH83">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AI83">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="AJ83">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="AK83">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="AL83">
-        <v>1.3</v>
+        <v>1.48</v>
       </c>
       <c r="AM83">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="AN83">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="AO83">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="AP83">
-        <v>1.86</v>
+        <v>0.83</v>
       </c>
       <c r="AQ83">
-        <v>0.33</v>
+        <v>1.67</v>
       </c>
       <c r="AR83">
-        <v>1.29</v>
+        <v>1.96</v>
       </c>
       <c r="AS83">
-        <v>1.19</v>
+        <v>1.49</v>
       </c>
       <c r="AT83">
-        <v>2.48</v>
+        <v>3.45</v>
       </c>
       <c r="AU83">
+        <v>6</v>
+      </c>
+      <c r="AV83">
+        <v>3</v>
+      </c>
+      <c r="AW83">
         <v>8</v>
       </c>
-      <c r="AV83">
-        <v>6</v>
-      </c>
-      <c r="AW83">
-        <v>11</v>
-      </c>
       <c r="AX83">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY83">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AZ83">
+        <v>7</v>
+      </c>
+      <c r="BA83">
+        <v>7</v>
+      </c>
+      <c r="BB83">
+        <v>5</v>
+      </c>
+      <c r="BC83">
+        <v>12</v>
+      </c>
+      <c r="BD83">
+        <v>1.8</v>
+      </c>
+      <c r="BE83">
         <v>9</v>
       </c>
-      <c r="BA83">
-        <v>12</v>
-      </c>
-      <c r="BB83">
-        <v>1</v>
-      </c>
-      <c r="BC83">
-        <v>13</v>
-      </c>
-      <c r="BD83">
-        <v>1.57</v>
-      </c>
-      <c r="BE83">
-        <v>7.6</v>
-      </c>
       <c r="BF83">
-        <v>3.1</v>
+        <v>2.28</v>
       </c>
       <c r="BG83">
-        <v>1.32</v>
+        <v>1.2</v>
       </c>
       <c r="BH83">
-        <v>3.1</v>
+        <v>4.25</v>
       </c>
       <c r="BI83">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="BJ83">
-        <v>2.26</v>
+        <v>2.9</v>
       </c>
       <c r="BK83">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="BL83">
-        <v>1.82</v>
+        <v>2.12</v>
       </c>
       <c r="BM83">
-        <v>2.46</v>
+        <v>2.12</v>
       </c>
       <c r="BN83">
-        <v>1.48</v>
+        <v>1.67</v>
       </c>
       <c r="BO83">
-        <v>3.2</v>
+        <v>2.85</v>
       </c>
       <c r="BP83">
-        <v>1.29</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="84" spans="1:68">
@@ -18123,7 +18123,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>7380407</v>
+        <v>7380414</v>
       </c>
       <c r="C84" t="s">
         <v>68</v>
@@ -18138,43 +18138,43 @@
         <v>9</v>
       </c>
       <c r="G84" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="H84" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="I84">
         <v>0</v>
       </c>
       <c r="J84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L84">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M84">
         <v>1</v>
       </c>
       <c r="N84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O84" t="s">
-        <v>101</v>
+        <v>148</v>
       </c>
       <c r="P84" t="s">
         <v>202</v>
       </c>
       <c r="Q84">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="R84">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="S84">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="T84">
         <v>1.57</v>
@@ -18183,31 +18183,31 @@
         <v>2.25</v>
       </c>
       <c r="V84">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="W84">
         <v>1.25</v>
       </c>
       <c r="X84">
-        <v>13</v>
+        <v>7.8</v>
       </c>
       <c r="Y84">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="Z84">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="AA84">
-        <v>2.65</v>
+        <v>2.27</v>
       </c>
       <c r="AB84">
-        <v>3.53</v>
+        <v>4.56</v>
       </c>
       <c r="AC84">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="AD84">
-        <v>5.8</v>
+        <v>6.5</v>
       </c>
       <c r="AE84">
         <v>1.5</v>
@@ -18216,112 +18216,112 @@
         <v>2.4</v>
       </c>
       <c r="AG84">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="AH84">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="AI84">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="AJ84">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="AK84">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AL84">
+        <v>1.3</v>
+      </c>
+      <c r="AM84">
+        <v>1.7</v>
+      </c>
+      <c r="AN84">
+        <v>1.75</v>
+      </c>
+      <c r="AO84">
+        <v>0.25</v>
+      </c>
+      <c r="AP84">
+        <v>1.86</v>
+      </c>
+      <c r="AQ84">
+        <v>0.33</v>
+      </c>
+      <c r="AR84">
+        <v>1.29</v>
+      </c>
+      <c r="AS84">
+        <v>1.19</v>
+      </c>
+      <c r="AT84">
+        <v>2.48</v>
+      </c>
+      <c r="AU84">
+        <v>8</v>
+      </c>
+      <c r="AV84">
+        <v>6</v>
+      </c>
+      <c r="AW84">
+        <v>11</v>
+      </c>
+      <c r="AX84">
+        <v>3</v>
+      </c>
+      <c r="AY84">
+        <v>19</v>
+      </c>
+      <c r="AZ84">
+        <v>9</v>
+      </c>
+      <c r="BA84">
+        <v>12</v>
+      </c>
+      <c r="BB84">
+        <v>1</v>
+      </c>
+      <c r="BC84">
+        <v>13</v>
+      </c>
+      <c r="BD84">
+        <v>1.57</v>
+      </c>
+      <c r="BE84">
+        <v>7.6</v>
+      </c>
+      <c r="BF84">
+        <v>3.1</v>
+      </c>
+      <c r="BG84">
+        <v>1.32</v>
+      </c>
+      <c r="BH84">
+        <v>3.1</v>
+      </c>
+      <c r="BI84">
+        <v>1.57</v>
+      </c>
+      <c r="BJ84">
+        <v>2.26</v>
+      </c>
+      <c r="BK84">
+        <v>1.98</v>
+      </c>
+      <c r="BL84">
+        <v>1.82</v>
+      </c>
+      <c r="BM84">
+        <v>2.46</v>
+      </c>
+      <c r="BN84">
         <v>1.48</v>
       </c>
-      <c r="AM84">
-        <v>1.65</v>
-      </c>
-      <c r="AN84">
-        <v>1</v>
-      </c>
-      <c r="AO84">
-        <v>1</v>
-      </c>
-      <c r="AP84">
-        <v>0.83</v>
-      </c>
-      <c r="AQ84">
-        <v>1.67</v>
-      </c>
-      <c r="AR84">
-        <v>1.96</v>
-      </c>
-      <c r="AS84">
-        <v>1.49</v>
-      </c>
-      <c r="AT84">
-        <v>3.45</v>
-      </c>
-      <c r="AU84">
-        <v>6</v>
-      </c>
-      <c r="AV84">
-        <v>3</v>
-      </c>
-      <c r="AW84">
-        <v>8</v>
-      </c>
-      <c r="AX84">
-        <v>4</v>
-      </c>
-      <c r="AY84">
-        <v>14</v>
-      </c>
-      <c r="AZ84">
-        <v>7</v>
-      </c>
-      <c r="BA84">
-        <v>7</v>
-      </c>
-      <c r="BB84">
-        <v>5</v>
-      </c>
-      <c r="BC84">
-        <v>12</v>
-      </c>
-      <c r="BD84">
-        <v>1.8</v>
-      </c>
-      <c r="BE84">
-        <v>9</v>
-      </c>
-      <c r="BF84">
-        <v>2.28</v>
-      </c>
-      <c r="BG84">
-        <v>1.2</v>
-      </c>
-      <c r="BH84">
-        <v>4.25</v>
-      </c>
-      <c r="BI84">
-        <v>1.38</v>
-      </c>
-      <c r="BJ84">
-        <v>2.9</v>
-      </c>
-      <c r="BK84">
-        <v>2.1</v>
-      </c>
-      <c r="BL84">
-        <v>2.12</v>
-      </c>
-      <c r="BM84">
-        <v>2.12</v>
-      </c>
-      <c r="BN84">
-        <v>1.67</v>
-      </c>
       <c r="BO84">
-        <v>2.85</v>
+        <v>3.2</v>
       </c>
       <c r="BP84">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="85" spans="1:68">
@@ -18368,10 +18368,10 @@
         <v>0</v>
       </c>
       <c r="O85" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P85" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q85">
         <v>2.5</v>
@@ -18577,7 +18577,7 @@
         <v>149</v>
       </c>
       <c r="P86" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q86">
         <v>2</v>
@@ -18962,7 +18962,7 @@
         <v>9</v>
       </c>
       <c r="G88" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H88" t="s">
         <v>85</v>
@@ -18989,7 +18989,7 @@
         <v>151</v>
       </c>
       <c r="P88" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q88">
         <v>2.38</v>
@@ -19195,7 +19195,7 @@
         <v>102</v>
       </c>
       <c r="P89" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q89">
         <v>3.2</v>
@@ -19398,7 +19398,7 @@
         <v>1</v>
       </c>
       <c r="O90" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P90" t="s">
         <v>102</v>
@@ -19607,7 +19607,7 @@
         <v>152</v>
       </c>
       <c r="P91" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q91">
         <v>4.33</v>
@@ -20225,7 +20225,7 @@
         <v>155</v>
       </c>
       <c r="P94" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q94">
         <v>3.75</v>
@@ -20404,7 +20404,7 @@
         <v>10</v>
       </c>
       <c r="G95" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H95" t="s">
         <v>85</v>
@@ -20637,7 +20637,7 @@
         <v>157</v>
       </c>
       <c r="P96" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q96">
         <v>3.1</v>
@@ -20843,7 +20843,7 @@
         <v>158</v>
       </c>
       <c r="P97" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q97">
         <v>4</v>
@@ -21046,7 +21046,7 @@
         <v>2</v>
       </c>
       <c r="O98" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P98" t="s">
         <v>206</v>
@@ -21228,7 +21228,7 @@
         <v>10</v>
       </c>
       <c r="G99" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H99" t="s">
         <v>89</v>
@@ -21255,7 +21255,7 @@
         <v>159</v>
       </c>
       <c r="P99" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q99">
         <v>2.63</v>
@@ -21458,7 +21458,7 @@
         <v>1</v>
       </c>
       <c r="O100" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P100" t="s">
         <v>207</v>
@@ -21643,7 +21643,7 @@
         <v>83</v>
       </c>
       <c r="H101" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I101">
         <v>0</v>
@@ -22285,7 +22285,7 @@
         <v>163</v>
       </c>
       <c r="P104" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q104">
         <v>2.3</v>
@@ -22491,7 +22491,7 @@
         <v>164</v>
       </c>
       <c r="P105" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q105">
         <v>3</v>
@@ -22655,7 +22655,7 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>7380432</v>
+        <v>7380433</v>
       </c>
       <c r="C106" t="s">
         <v>68</v>
@@ -22670,10 +22670,10 @@
         <v>11</v>
       </c>
       <c r="G106" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H106" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I106">
         <v>0</v>
@@ -22685,175 +22685,175 @@
         <v>0</v>
       </c>
       <c r="L106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M106">
         <v>0</v>
       </c>
       <c r="N106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O106" t="s">
-        <v>101</v>
+        <v>165</v>
       </c>
       <c r="P106" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q106">
+        <v>3.2</v>
+      </c>
+      <c r="R106">
+        <v>1.95</v>
+      </c>
+      <c r="S106">
         <v>4</v>
       </c>
-      <c r="R106">
-        <v>1.83</v>
-      </c>
-      <c r="S106">
-        <v>3.4</v>
-      </c>
       <c r="T106">
-        <v>1.54</v>
+        <v>1.49</v>
       </c>
       <c r="U106">
-        <v>2.49</v>
+        <v>2.51</v>
       </c>
       <c r="V106">
-        <v>3.6</v>
+        <v>3.28</v>
       </c>
       <c r="W106">
+        <v>1.31</v>
+      </c>
+      <c r="X106">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Y106">
+        <v>1.05</v>
+      </c>
+      <c r="Z106">
+        <v>2.45</v>
+      </c>
+      <c r="AA106">
+        <v>3.1</v>
+      </c>
+      <c r="AB106">
+        <v>3.1</v>
+      </c>
+      <c r="AC106">
+        <v>1.05</v>
+      </c>
+      <c r="AD106">
+        <v>7.3</v>
+      </c>
+      <c r="AE106">
+        <v>1.39</v>
+      </c>
+      <c r="AF106">
+        <v>2.67</v>
+      </c>
+      <c r="AG106">
+        <v>2.35</v>
+      </c>
+      <c r="AH106">
+        <v>1.57</v>
+      </c>
+      <c r="AI106">
+        <v>2</v>
+      </c>
+      <c r="AJ106">
+        <v>1.73</v>
+      </c>
+      <c r="AK106">
+        <v>1.33</v>
+      </c>
+      <c r="AL106">
+        <v>1.33</v>
+      </c>
+      <c r="AM106">
+        <v>1.61</v>
+      </c>
+      <c r="AN106">
+        <v>2.4</v>
+      </c>
+      <c r="AO106">
         <v>1.25</v>
       </c>
-      <c r="X106">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="Y106">
-        <v>1.03</v>
-      </c>
-      <c r="Z106">
-        <v>3.1</v>
-      </c>
-      <c r="AA106">
-        <v>2.9</v>
-      </c>
-      <c r="AB106">
-        <v>2.55</v>
-      </c>
-      <c r="AC106">
-        <v>1.1</v>
-      </c>
-      <c r="AD106">
-        <v>6.5</v>
-      </c>
-      <c r="AE106">
-        <v>1.5</v>
-      </c>
-      <c r="AF106">
-        <v>2.41</v>
-      </c>
-      <c r="AG106">
-        <v>2.88</v>
-      </c>
-      <c r="AH106">
-        <v>1.4</v>
-      </c>
-      <c r="AI106">
-        <v>2.2</v>
-      </c>
-      <c r="AJ106">
-        <v>1.62</v>
-      </c>
-      <c r="AK106">
-        <v>1.5</v>
-      </c>
-      <c r="AL106">
-        <v>1.3</v>
-      </c>
-      <c r="AM106">
-        <v>1.38</v>
-      </c>
-      <c r="AN106">
-        <v>1.6</v>
-      </c>
-      <c r="AO106">
-        <v>1.75</v>
-      </c>
       <c r="AP106">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="AQ106">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR106">
-        <v>1.13</v>
+        <v>1.73</v>
       </c>
       <c r="AS106">
-        <v>1.21</v>
+        <v>1.29</v>
       </c>
       <c r="AT106">
-        <v>2.34</v>
+        <v>3.02</v>
       </c>
       <c r="AU106">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV106">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW106">
+        <v>6</v>
+      </c>
+      <c r="AX106">
         <v>5</v>
       </c>
-      <c r="AX106">
-        <v>4</v>
-      </c>
       <c r="AY106">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ106">
         <v>7</v>
       </c>
       <c r="BA106">
+        <v>6</v>
+      </c>
+      <c r="BB106">
         <v>3</v>
       </c>
-      <c r="BB106">
+      <c r="BC106">
         <v>9</v>
       </c>
-      <c r="BC106">
-        <v>12</v>
-      </c>
       <c r="BD106">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="BE106">
-        <v>7.1</v>
+        <v>7.7</v>
       </c>
       <c r="BF106">
-        <v>2.18</v>
+        <v>2.76</v>
       </c>
       <c r="BG106">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="BH106">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="BI106">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="BJ106">
-        <v>2.9</v>
+        <v>3.45</v>
       </c>
       <c r="BK106">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="BL106">
-        <v>2.12</v>
+        <v>2.45</v>
       </c>
       <c r="BM106">
-        <v>2.12</v>
+        <v>1.92</v>
       </c>
       <c r="BN106">
-        <v>1.67</v>
+        <v>1.88</v>
       </c>
       <c r="BO106">
-        <v>2.85</v>
+        <v>2.43</v>
       </c>
       <c r="BP106">
-        <v>1.38</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="107" spans="1:68">
@@ -22861,7 +22861,7 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>7380433</v>
+        <v>7380432</v>
       </c>
       <c r="C107" t="s">
         <v>68</v>
@@ -22876,10 +22876,10 @@
         <v>11</v>
       </c>
       <c r="G107" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H107" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I107">
         <v>0</v>
@@ -22891,175 +22891,175 @@
         <v>0</v>
       </c>
       <c r="L107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M107">
         <v>0</v>
       </c>
       <c r="N107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O107" t="s">
-        <v>165</v>
+        <v>100</v>
       </c>
       <c r="P107" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q107">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="R107">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="S107">
+        <v>3.4</v>
+      </c>
+      <c r="T107">
+        <v>1.54</v>
+      </c>
+      <c r="U107">
+        <v>2.49</v>
+      </c>
+      <c r="V107">
+        <v>3.6</v>
+      </c>
+      <c r="W107">
+        <v>1.25</v>
+      </c>
+      <c r="X107">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Y107">
+        <v>1.03</v>
+      </c>
+      <c r="Z107">
+        <v>3.1</v>
+      </c>
+      <c r="AA107">
+        <v>2.9</v>
+      </c>
+      <c r="AB107">
+        <v>2.55</v>
+      </c>
+      <c r="AC107">
+        <v>1.1</v>
+      </c>
+      <c r="AD107">
+        <v>6.5</v>
+      </c>
+      <c r="AE107">
+        <v>1.5</v>
+      </c>
+      <c r="AF107">
+        <v>2.41</v>
+      </c>
+      <c r="AG107">
+        <v>2.88</v>
+      </c>
+      <c r="AH107">
+        <v>1.4</v>
+      </c>
+      <c r="AI107">
+        <v>2.2</v>
+      </c>
+      <c r="AJ107">
+        <v>1.62</v>
+      </c>
+      <c r="AK107">
+        <v>1.5</v>
+      </c>
+      <c r="AL107">
+        <v>1.3</v>
+      </c>
+      <c r="AM107">
+        <v>1.38</v>
+      </c>
+      <c r="AN107">
+        <v>1.6</v>
+      </c>
+      <c r="AO107">
+        <v>1.75</v>
+      </c>
+      <c r="AP107">
+        <v>1.5</v>
+      </c>
+      <c r="AQ107">
+        <v>1.5</v>
+      </c>
+      <c r="AR107">
+        <v>1.13</v>
+      </c>
+      <c r="AS107">
+        <v>1.21</v>
+      </c>
+      <c r="AT107">
+        <v>2.34</v>
+      </c>
+      <c r="AU107">
         <v>4</v>
       </c>
-      <c r="T107">
-        <v>1.49</v>
-      </c>
-      <c r="U107">
-        <v>2.51</v>
-      </c>
-      <c r="V107">
-        <v>3.28</v>
-      </c>
-      <c r="W107">
-        <v>1.31</v>
-      </c>
-      <c r="X107">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="Y107">
-        <v>1.05</v>
-      </c>
-      <c r="Z107">
-        <v>2.45</v>
-      </c>
-      <c r="AA107">
-        <v>3.1</v>
-      </c>
-      <c r="AB107">
-        <v>3.1</v>
-      </c>
-      <c r="AC107">
-        <v>1.05</v>
-      </c>
-      <c r="AD107">
-        <v>7.3</v>
-      </c>
-      <c r="AE107">
-        <v>1.39</v>
-      </c>
-      <c r="AF107">
-        <v>2.67</v>
-      </c>
-      <c r="AG107">
-        <v>2.35</v>
-      </c>
-      <c r="AH107">
-        <v>1.57</v>
-      </c>
-      <c r="AI107">
-        <v>2</v>
-      </c>
-      <c r="AJ107">
-        <v>1.73</v>
-      </c>
-      <c r="AK107">
-        <v>1.33</v>
-      </c>
-      <c r="AL107">
-        <v>1.33</v>
-      </c>
-      <c r="AM107">
-        <v>1.61</v>
-      </c>
-      <c r="AN107">
-        <v>2.4</v>
-      </c>
-      <c r="AO107">
-        <v>1.25</v>
-      </c>
-      <c r="AP107">
-        <v>2.5</v>
-      </c>
-      <c r="AQ107">
-        <v>1</v>
-      </c>
-      <c r="AR107">
-        <v>1.73</v>
-      </c>
-      <c r="AS107">
-        <v>1.29</v>
-      </c>
-      <c r="AT107">
-        <v>3.02</v>
-      </c>
-      <c r="AU107">
+      <c r="AV107">
+        <v>3</v>
+      </c>
+      <c r="AW107">
         <v>5</v>
       </c>
-      <c r="AV107">
-        <v>2</v>
-      </c>
-      <c r="AW107">
-        <v>6</v>
-      </c>
       <c r="AX107">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY107">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AZ107">
         <v>7</v>
       </c>
       <c r="BA107">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BB107">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="BC107">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BD107">
+        <v>2</v>
+      </c>
+      <c r="BE107">
+        <v>7.1</v>
+      </c>
+      <c r="BF107">
+        <v>2.18</v>
+      </c>
+      <c r="BG107">
+        <v>1.2</v>
+      </c>
+      <c r="BH107">
+        <v>4.25</v>
+      </c>
+      <c r="BI107">
+        <v>1.38</v>
+      </c>
+      <c r="BJ107">
+        <v>2.9</v>
+      </c>
+      <c r="BK107">
+        <v>2.1</v>
+      </c>
+      <c r="BL107">
+        <v>2.12</v>
+      </c>
+      <c r="BM107">
+        <v>2.12</v>
+      </c>
+      <c r="BN107">
         <v>1.67</v>
       </c>
-      <c r="BE107">
-        <v>7.7</v>
-      </c>
-      <c r="BF107">
-        <v>2.76</v>
-      </c>
-      <c r="BG107">
-        <v>1.19</v>
-      </c>
-      <c r="BH107">
-        <v>4</v>
-      </c>
-      <c r="BI107">
-        <v>1.29</v>
-      </c>
-      <c r="BJ107">
-        <v>3.45</v>
-      </c>
-      <c r="BK107">
-        <v>2</v>
-      </c>
-      <c r="BL107">
-        <v>2.45</v>
-      </c>
-      <c r="BM107">
-        <v>1.92</v>
-      </c>
-      <c r="BN107">
-        <v>1.88</v>
-      </c>
       <c r="BO107">
-        <v>2.43</v>
+        <v>2.85</v>
       </c>
       <c r="BP107">
-        <v>1.52</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="108" spans="1:68">
@@ -23109,7 +23109,7 @@
         <v>102</v>
       </c>
       <c r="P108" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q108">
         <v>3.5</v>
@@ -23291,7 +23291,7 @@
         <v>76</v>
       </c>
       <c r="H109" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I109">
         <v>0</v>
@@ -23312,10 +23312,10 @@
         <v>0</v>
       </c>
       <c r="O109" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P109" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q109">
         <v>2.75</v>
@@ -23479,7 +23479,7 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>7380443</v>
+        <v>7380442</v>
       </c>
       <c r="C110" t="s">
         <v>68</v>
@@ -23494,70 +23494,70 @@
         <v>12</v>
       </c>
       <c r="G110" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="H110" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="I110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110">
         <v>0</v>
       </c>
       <c r="K110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N110">
         <v>1</v>
       </c>
       <c r="O110" t="s">
-        <v>101</v>
+        <v>166</v>
       </c>
       <c r="P110" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="Q110">
-        <v>2.75</v>
+        <v>2.38</v>
       </c>
       <c r="R110">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="S110">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T110">
-        <v>1.55</v>
+        <v>1.48</v>
       </c>
       <c r="U110">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="V110">
-        <v>3.65</v>
+        <v>3.2</v>
       </c>
       <c r="W110">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="X110">
-        <v>9.9</v>
+        <v>9</v>
       </c>
       <c r="Y110">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="Z110">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AA110">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="AB110">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="AC110">
         <v>1.09</v>
@@ -23566,118 +23566,118 @@
         <v>7</v>
       </c>
       <c r="AE110">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AF110">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="AG110">
-        <v>2.41</v>
+        <v>2.22</v>
       </c>
       <c r="AH110">
-        <v>1.46</v>
+        <v>1.54</v>
       </c>
       <c r="AI110">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AJ110">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="AK110">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="AL110">
         <v>1.25</v>
       </c>
       <c r="AM110">
-        <v>1.91</v>
+        <v>2.25</v>
       </c>
       <c r="AN110">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AO110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP110">
-        <v>1.83</v>
+        <v>2.5</v>
       </c>
       <c r="AQ110">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="AR110">
-        <v>1.48</v>
+        <v>1.75</v>
       </c>
       <c r="AS110">
-        <v>1.31</v>
+        <v>1.27</v>
       </c>
       <c r="AT110">
-        <v>2.79</v>
+        <v>3.02</v>
       </c>
       <c r="AU110">
+        <v>8</v>
+      </c>
+      <c r="AV110">
+        <v>2</v>
+      </c>
+      <c r="AW110">
+        <v>3</v>
+      </c>
+      <c r="AX110">
         <v>4</v>
       </c>
-      <c r="AV110">
-        <v>3</v>
-      </c>
-      <c r="AW110">
-        <v>9</v>
-      </c>
-      <c r="AX110">
-        <v>3</v>
-      </c>
       <c r="AY110">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AZ110">
         <v>6</v>
       </c>
       <c r="BA110">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BB110">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="BC110">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BD110">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="BE110">
-        <v>8.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="BF110">
-        <v>2.91</v>
+        <v>2.86</v>
       </c>
       <c r="BG110">
-        <v>1.18</v>
+        <v>1.27</v>
       </c>
       <c r="BH110">
-        <v>4.6</v>
+        <v>3.55</v>
       </c>
       <c r="BI110">
-        <v>1.34</v>
+        <v>1.5</v>
       </c>
       <c r="BJ110">
-        <v>3.1</v>
+        <v>2.48</v>
       </c>
       <c r="BK110">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="BL110">
-        <v>2.23</v>
+        <v>1.85</v>
       </c>
       <c r="BM110">
-        <v>2</v>
+        <v>2.45</v>
       </c>
       <c r="BN110">
-        <v>1.73</v>
+        <v>1.5</v>
       </c>
       <c r="BO110">
-        <v>2.65</v>
+        <v>3.4</v>
       </c>
       <c r="BP110">
-        <v>1.44</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="111" spans="1:68">
@@ -23685,7 +23685,7 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>7380442</v>
+        <v>7380443</v>
       </c>
       <c r="C111" t="s">
         <v>68</v>
@@ -23700,70 +23700,70 @@
         <v>12</v>
       </c>
       <c r="G111" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="H111" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="I111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J111">
         <v>0</v>
       </c>
       <c r="K111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N111">
         <v>1</v>
       </c>
       <c r="O111" t="s">
-        <v>166</v>
+        <v>100</v>
       </c>
       <c r="P111" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="Q111">
-        <v>2.38</v>
+        <v>2.75</v>
       </c>
       <c r="R111">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="S111">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T111">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="U111">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="V111">
-        <v>3.2</v>
+        <v>3.65</v>
       </c>
       <c r="W111">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="X111">
-        <v>9</v>
+        <v>9.9</v>
       </c>
       <c r="Y111">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="Z111">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="AA111">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="AB111">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="AC111">
         <v>1.09</v>
@@ -23772,118 +23772,118 @@
         <v>7</v>
       </c>
       <c r="AE111">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="AF111">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="AG111">
-        <v>2.22</v>
+        <v>2.41</v>
       </c>
       <c r="AH111">
-        <v>1.54</v>
+        <v>1.46</v>
       </c>
       <c r="AI111">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AJ111">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AK111">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="AL111">
         <v>1.25</v>
       </c>
       <c r="AM111">
-        <v>2.25</v>
+        <v>1.91</v>
       </c>
       <c r="AN111">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AO111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP111">
-        <v>2.5</v>
+        <v>1.83</v>
       </c>
       <c r="AQ111">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AR111">
-        <v>1.75</v>
+        <v>1.48</v>
       </c>
       <c r="AS111">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="AT111">
-        <v>3.02</v>
+        <v>2.79</v>
       </c>
       <c r="AU111">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AV111">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW111">
+        <v>9</v>
+      </c>
+      <c r="AX111">
         <v>3</v>
       </c>
-      <c r="AX111">
-        <v>4</v>
-      </c>
       <c r="AY111">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ111">
         <v>6</v>
       </c>
       <c r="BA111">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BB111">
+        <v>2</v>
+      </c>
+      <c r="BC111">
         <v>10</v>
       </c>
-      <c r="BC111">
-        <v>14</v>
-      </c>
       <c r="BD111">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="BE111">
-        <v>8.699999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="BF111">
-        <v>2.86</v>
+        <v>2.91</v>
       </c>
       <c r="BG111">
-        <v>1.27</v>
+        <v>1.18</v>
       </c>
       <c r="BH111">
-        <v>3.55</v>
+        <v>4.6</v>
       </c>
       <c r="BI111">
-        <v>1.5</v>
+        <v>1.34</v>
       </c>
       <c r="BJ111">
-        <v>2.48</v>
+        <v>3.1</v>
       </c>
       <c r="BK111">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="BL111">
-        <v>1.85</v>
+        <v>2.23</v>
       </c>
       <c r="BM111">
-        <v>2.45</v>
+        <v>2</v>
       </c>
       <c r="BN111">
-        <v>1.5</v>
+        <v>1.73</v>
       </c>
       <c r="BO111">
-        <v>3.4</v>
+        <v>2.65</v>
       </c>
       <c r="BP111">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="112" spans="1:68">
@@ -23906,7 +23906,7 @@
         <v>12</v>
       </c>
       <c r="G112" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H112" t="s">
         <v>79</v>
@@ -24345,7 +24345,7 @@
         <v>168</v>
       </c>
       <c r="P114" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q114">
         <v>3.55</v>
@@ -24524,7 +24524,7 @@
         <v>12</v>
       </c>
       <c r="G115" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H115" t="s">
         <v>71</v>
@@ -24715,7 +24715,7 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>7380440</v>
+        <v>7380438</v>
       </c>
       <c r="C116" t="s">
         <v>68</v>
@@ -24730,190 +24730,190 @@
         <v>12</v>
       </c>
       <c r="G116" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H116" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="I116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K116">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N116">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O116" t="s">
-        <v>170</v>
+        <v>100</v>
       </c>
       <c r="P116" t="s">
-        <v>212</v>
+        <v>100</v>
       </c>
       <c r="Q116">
+        <v>3.8</v>
+      </c>
+      <c r="R116">
+        <v>2.04</v>
+      </c>
+      <c r="S116">
+        <v>3.8</v>
+      </c>
+      <c r="T116">
+        <v>1.56</v>
+      </c>
+      <c r="U116">
+        <v>2.29</v>
+      </c>
+      <c r="V116">
+        <v>3.7</v>
+      </c>
+      <c r="W116">
+        <v>1.24</v>
+      </c>
+      <c r="X116">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="Y116">
+        <v>1.03</v>
+      </c>
+      <c r="Z116">
+        <v>2.8</v>
+      </c>
+      <c r="AA116">
+        <v>2.9</v>
+      </c>
+      <c r="AB116">
+        <v>2.7</v>
+      </c>
+      <c r="AC116">
+        <v>1.09</v>
+      </c>
+      <c r="AD116">
+        <v>7</v>
+      </c>
+      <c r="AE116">
+        <v>1.52</v>
+      </c>
+      <c r="AF116">
         <v>2.38</v>
       </c>
-      <c r="R116">
-        <v>2.28</v>
-      </c>
-      <c r="S116">
-        <v>6.6</v>
-      </c>
-      <c r="T116">
+      <c r="AG116">
+        <v>2.5</v>
+      </c>
+      <c r="AH116">
+        <v>1.5</v>
+      </c>
+      <c r="AI116">
+        <v>2.1</v>
+      </c>
+      <c r="AJ116">
+        <v>1.67</v>
+      </c>
+      <c r="AK116">
         <v>1.45</v>
       </c>
-      <c r="U116">
-        <v>2.55</v>
-      </c>
-      <c r="V116">
+      <c r="AL116">
+        <v>1.33</v>
+      </c>
+      <c r="AM116">
+        <v>1.42</v>
+      </c>
+      <c r="AN116">
         <v>3</v>
       </c>
-      <c r="W116">
-        <v>1.33</v>
-      </c>
-      <c r="X116">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="Y116">
-        <v>1.06</v>
-      </c>
-      <c r="Z116">
-        <v>1.62</v>
-      </c>
-      <c r="AA116">
-        <v>3.6</v>
-      </c>
-      <c r="AB116">
+      <c r="AO116">
+        <v>1</v>
+      </c>
+      <c r="AP116">
+        <v>2.67</v>
+      </c>
+      <c r="AQ116">
+        <v>1</v>
+      </c>
+      <c r="AR116">
+        <v>1.38</v>
+      </c>
+      <c r="AS116">
+        <v>1.34</v>
+      </c>
+      <c r="AT116">
+        <v>2.72</v>
+      </c>
+      <c r="AU116">
         <v>6</v>
       </c>
-      <c r="AC116">
-        <v>1.04</v>
-      </c>
-      <c r="AD116">
-        <v>7.8</v>
-      </c>
-      <c r="AE116">
-        <v>1.35</v>
-      </c>
-      <c r="AF116">
-        <v>2.84</v>
-      </c>
-      <c r="AG116">
-        <v>2.1</v>
-      </c>
-      <c r="AH116">
-        <v>1.7</v>
-      </c>
-      <c r="AI116">
-        <v>2.25</v>
-      </c>
-      <c r="AJ116">
-        <v>1.57</v>
-      </c>
-      <c r="AK116">
-        <v>1.14</v>
-      </c>
-      <c r="AL116">
-        <v>1.22</v>
-      </c>
-      <c r="AM116">
-        <v>2.15</v>
-      </c>
-      <c r="AN116">
-        <v>2.67</v>
-      </c>
-      <c r="AO116">
-        <v>1.6</v>
-      </c>
-      <c r="AP116">
-        <v>2.43</v>
-      </c>
-      <c r="AQ116">
-        <v>1.5</v>
-      </c>
-      <c r="AR116">
-        <v>1.94</v>
-      </c>
-      <c r="AS116">
-        <v>1.14</v>
-      </c>
-      <c r="AT116">
-        <v>3.08</v>
-      </c>
-      <c r="AU116">
+      <c r="AV116">
         <v>5</v>
       </c>
-      <c r="AV116">
+      <c r="AW116">
+        <v>8</v>
+      </c>
+      <c r="AX116">
         <v>6</v>
       </c>
-      <c r="AW116">
-        <v>4</v>
-      </c>
-      <c r="AX116">
-        <v>2</v>
-      </c>
       <c r="AY116">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AZ116">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA116">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB116">
         <v>4</v>
       </c>
       <c r="BC116">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BD116">
-        <v>1.49</v>
+        <v>2.05</v>
       </c>
       <c r="BE116">
-        <v>9</v>
+        <v>7.4</v>
       </c>
       <c r="BF116">
-        <v>3.24</v>
+        <v>2.1</v>
       </c>
       <c r="BG116">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="BH116">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="BI116">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="BJ116">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="BK116">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="BL116">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="BM116">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="BN116">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="BO116">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="BP116">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="117" spans="1:68">
@@ -24921,7 +24921,7 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>7380438</v>
+        <v>7380440</v>
       </c>
       <c r="C117" t="s">
         <v>68</v>
@@ -24936,190 +24936,190 @@
         <v>12</v>
       </c>
       <c r="G117" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H117" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="I117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K117">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N117">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O117" t="s">
-        <v>101</v>
+        <v>170</v>
       </c>
       <c r="P117" t="s">
-        <v>101</v>
+        <v>212</v>
       </c>
       <c r="Q117">
-        <v>3.8</v>
+        <v>2.38</v>
       </c>
       <c r="R117">
-        <v>2.04</v>
+        <v>2.28</v>
       </c>
       <c r="S117">
-        <v>3.8</v>
+        <v>6.6</v>
       </c>
       <c r="T117">
-        <v>1.56</v>
+        <v>1.45</v>
       </c>
       <c r="U117">
-        <v>2.29</v>
+        <v>2.55</v>
       </c>
       <c r="V117">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="W117">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="X117">
-        <v>9.949999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y117">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="Z117">
-        <v>2.8</v>
+        <v>1.62</v>
       </c>
       <c r="AA117">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="AB117">
-        <v>2.7</v>
+        <v>6</v>
       </c>
       <c r="AC117">
-        <v>1.09</v>
+        <v>1.04</v>
       </c>
       <c r="AD117">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="AE117">
-        <v>1.52</v>
+        <v>1.35</v>
       </c>
       <c r="AF117">
-        <v>2.38</v>
+        <v>2.84</v>
       </c>
       <c r="AG117">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="AH117">
+        <v>1.7</v>
+      </c>
+      <c r="AI117">
+        <v>2.25</v>
+      </c>
+      <c r="AJ117">
+        <v>1.57</v>
+      </c>
+      <c r="AK117">
+        <v>1.14</v>
+      </c>
+      <c r="AL117">
+        <v>1.22</v>
+      </c>
+      <c r="AM117">
+        <v>2.15</v>
+      </c>
+      <c r="AN117">
+        <v>2.67</v>
+      </c>
+      <c r="AO117">
+        <v>1.6</v>
+      </c>
+      <c r="AP117">
+        <v>2.43</v>
+      </c>
+      <c r="AQ117">
         <v>1.5</v>
       </c>
-      <c r="AI117">
-        <v>2.1</v>
-      </c>
-      <c r="AJ117">
-        <v>1.67</v>
-      </c>
-      <c r="AK117">
-        <v>1.45</v>
-      </c>
-      <c r="AL117">
-        <v>1.33</v>
-      </c>
-      <c r="AM117">
-        <v>1.42</v>
-      </c>
-      <c r="AN117">
-        <v>3</v>
-      </c>
-      <c r="AO117">
-        <v>1</v>
-      </c>
-      <c r="AP117">
-        <v>2.67</v>
-      </c>
-      <c r="AQ117">
-        <v>1</v>
-      </c>
       <c r="AR117">
-        <v>1.38</v>
+        <v>1.94</v>
       </c>
       <c r="AS117">
-        <v>1.34</v>
+        <v>1.14</v>
       </c>
       <c r="AT117">
-        <v>2.72</v>
+        <v>3.08</v>
       </c>
       <c r="AU117">
+        <v>5</v>
+      </c>
+      <c r="AV117">
         <v>6</v>
       </c>
-      <c r="AV117">
-        <v>5</v>
-      </c>
       <c r="AW117">
+        <v>4</v>
+      </c>
+      <c r="AX117">
+        <v>2</v>
+      </c>
+      <c r="AY117">
+        <v>9</v>
+      </c>
+      <c r="AZ117">
         <v>8</v>
       </c>
-      <c r="AX117">
-        <v>6</v>
-      </c>
-      <c r="AY117">
-        <v>14</v>
-      </c>
-      <c r="AZ117">
-        <v>11</v>
-      </c>
       <c r="BA117">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB117">
         <v>4</v>
       </c>
       <c r="BC117">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD117">
-        <v>2.05</v>
+        <v>1.49</v>
       </c>
       <c r="BE117">
-        <v>7.4</v>
+        <v>9</v>
       </c>
       <c r="BF117">
-        <v>2.1</v>
+        <v>3.24</v>
       </c>
       <c r="BG117">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="BH117">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="BI117">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="BJ117">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="BK117">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="BL117">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="BM117">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="BN117">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="BO117">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="BP117">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="118" spans="1:68">
@@ -25375,7 +25375,7 @@
         <v>125</v>
       </c>
       <c r="P119" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q119">
         <v>4</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="218">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -532,6 +532,12 @@
     <t>['10', '34', '60']</t>
   </si>
   <si>
+    <t>['6']</t>
+  </si>
+  <si>
+    <t>['21', '30', '39', '72']</t>
+  </si>
+  <si>
     <t>['31', '49', '69']</t>
   </si>
   <si>
@@ -653,6 +659,15 @@
   </si>
   <si>
     <t>['1']</t>
+  </si>
+  <si>
+    <t>['47']</t>
+  </si>
+  <si>
+    <t>['90+4']</t>
+  </si>
+  <si>
+    <t>['7', '78']</t>
   </si>
 </sst>
 </file>
@@ -1014,7 +1029,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP119"/>
+  <dimension ref="A1:BP122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1351,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ2">
         <v>1</v>
@@ -1972,7 +1987,7 @@
         <v>1</v>
       </c>
       <c r="AQ5">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2303,7 +2318,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q7">
         <v>4.33</v>
@@ -2384,7 +2399,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ7">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2587,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ8">
         <v>0.71</v>
@@ -2715,7 +2730,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -3127,7 +3142,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q11">
         <v>3.5</v>
@@ -3333,7 +3348,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q12">
         <v>3.6</v>
@@ -3620,7 +3635,7 @@
         <v>2</v>
       </c>
       <c r="AQ13">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3745,7 +3760,7 @@
         <v>100</v>
       </c>
       <c r="P14" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q14">
         <v>4.75</v>
@@ -3951,7 +3966,7 @@
         <v>100</v>
       </c>
       <c r="P15" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4363,7 +4378,7 @@
         <v>102</v>
       </c>
       <c r="P17" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q17">
         <v>2.75</v>
@@ -4853,7 +4868,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AQ19">
         <v>0.33</v>
@@ -5187,7 +5202,7 @@
         <v>106</v>
       </c>
       <c r="P21" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5677,10 +5692,10 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AQ23">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR23">
         <v>1.39</v>
@@ -5805,7 +5820,7 @@
         <v>107</v>
       </c>
       <c r="P24" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q24">
         <v>3.6</v>
@@ -6217,7 +6232,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6423,7 +6438,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q27">
         <v>4</v>
@@ -6629,7 +6644,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6707,7 +6722,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ28">
         <v>0.33</v>
@@ -7041,7 +7056,7 @@
         <v>112</v>
       </c>
       <c r="P30" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q30">
         <v>2.1</v>
@@ -7325,7 +7340,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ31">
         <v>0.33</v>
@@ -7453,7 +7468,7 @@
         <v>113</v>
       </c>
       <c r="P32" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q32">
         <v>2.38</v>
@@ -7534,7 +7549,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ32">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AR32">
         <v>2.22</v>
@@ -7659,7 +7674,7 @@
         <v>100</v>
       </c>
       <c r="P33" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -7946,7 +7961,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ34">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR34">
         <v>1.81</v>
@@ -8895,7 +8910,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q39">
         <v>2</v>
@@ -9307,7 +9322,7 @@
         <v>120</v>
       </c>
       <c r="P41" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q41">
         <v>2.25</v>
@@ -9513,7 +9528,7 @@
         <v>121</v>
       </c>
       <c r="P42" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9719,7 +9734,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q43">
         <v>3.2</v>
@@ -10003,7 +10018,7 @@
         <v>1.5</v>
       </c>
       <c r="AP44">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ44">
         <v>1.33</v>
@@ -10209,7 +10224,7 @@
         <v>0</v>
       </c>
       <c r="AP45">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AQ45">
         <v>0</v>
@@ -10418,7 +10433,7 @@
         <v>1</v>
       </c>
       <c r="AQ46">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR46">
         <v>1.18</v>
@@ -10955,7 +10970,7 @@
         <v>125</v>
       </c>
       <c r="P49" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -11445,7 +11460,7 @@
         <v>0.5</v>
       </c>
       <c r="AP51">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ51">
         <v>0.4</v>
@@ -11654,7 +11669,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ52">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AR52">
         <v>1.8</v>
@@ -12397,7 +12412,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q56">
         <v>1.95</v>
@@ -13096,7 +13111,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ59">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR59">
         <v>1.2</v>
@@ -13221,7 +13236,7 @@
         <v>118</v>
       </c>
       <c r="P60" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13633,7 +13648,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q62">
         <v>3.4</v>
@@ -14251,7 +14266,7 @@
         <v>135</v>
       </c>
       <c r="P65" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q65">
         <v>2.38</v>
@@ -14457,7 +14472,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q66">
         <v>2.3</v>
@@ -14535,7 +14550,7 @@
         <v>1.33</v>
       </c>
       <c r="AP66">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ66">
         <v>1.33</v>
@@ -14741,7 +14756,7 @@
         <v>1.33</v>
       </c>
       <c r="AP67">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AQ67">
         <v>1.67</v>
@@ -14869,7 +14884,7 @@
         <v>100</v>
       </c>
       <c r="P68" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q68">
         <v>3.6</v>
@@ -14947,7 +14962,7 @@
         <v>1</v>
       </c>
       <c r="AP68">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ68">
         <v>1.43</v>
@@ -15565,7 +15580,7 @@
         <v>0.67</v>
       </c>
       <c r="AP71">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ71">
         <v>0.5</v>
@@ -15774,7 +15789,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ72">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR72">
         <v>1.76</v>
@@ -16105,7 +16120,7 @@
         <v>90</v>
       </c>
       <c r="P74" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q74">
         <v>3.1</v>
@@ -16186,7 +16201,7 @@
         <v>1</v>
       </c>
       <c r="AQ74">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AR74">
         <v>1.65</v>
@@ -16311,7 +16326,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -16723,7 +16738,7 @@
         <v>139</v>
       </c>
       <c r="P77" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q77">
         <v>2.2</v>
@@ -17547,7 +17562,7 @@
         <v>146</v>
       </c>
       <c r="P81" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q81">
         <v>2.05</v>
@@ -17625,10 +17640,10 @@
         <v>0</v>
       </c>
       <c r="AP81">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AQ81">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR81">
         <v>1.59</v>
@@ -17753,7 +17768,7 @@
         <v>147</v>
       </c>
       <c r="P82" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q82">
         <v>4</v>
@@ -17959,7 +17974,7 @@
         <v>100</v>
       </c>
       <c r="P83" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q83">
         <v>3.2</v>
@@ -18165,7 +18180,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q84">
         <v>2.75</v>
@@ -18783,7 +18798,7 @@
         <v>150</v>
       </c>
       <c r="P87" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q87">
         <v>3.5</v>
@@ -19813,7 +19828,7 @@
         <v>153</v>
       </c>
       <c r="P92" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q92">
         <v>2.63</v>
@@ -20431,7 +20446,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q95">
         <v>3.5</v>
@@ -20715,10 +20730,10 @@
         <v>0.25</v>
       </c>
       <c r="AP96">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ96">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AR96">
         <v>1.38</v>
@@ -21049,7 +21064,7 @@
         <v>116</v>
       </c>
       <c r="P98" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q98">
         <v>3</v>
@@ -21461,7 +21476,7 @@
         <v>100</v>
       </c>
       <c r="P100" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q100">
         <v>3.5</v>
@@ -21667,7 +21682,7 @@
         <v>160</v>
       </c>
       <c r="P101" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q101">
         <v>2.6</v>
@@ -21748,7 +21763,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ101">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR101">
         <v>1.9</v>
@@ -22079,7 +22094,7 @@
         <v>162</v>
       </c>
       <c r="P103" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q103">
         <v>2.88</v>
@@ -22569,7 +22584,7 @@
         <v>0.4</v>
       </c>
       <c r="AP105">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ105">
         <v>0.33</v>
@@ -22775,7 +22790,7 @@
         <v>1.25</v>
       </c>
       <c r="AP106">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AQ106">
         <v>1</v>
@@ -23393,10 +23408,10 @@
         <v>1.5</v>
       </c>
       <c r="AP109">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ109">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR109">
         <v>1.74</v>
@@ -23933,7 +23948,7 @@
         <v>125</v>
       </c>
       <c r="P112" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q112">
         <v>3.05</v>
@@ -24139,7 +24154,7 @@
         <v>167</v>
       </c>
       <c r="P113" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q113">
         <v>3.25</v>
@@ -24551,7 +24566,7 @@
         <v>169</v>
       </c>
       <c r="P115" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q115">
         <v>2.68</v>
@@ -24963,7 +24978,7 @@
         <v>170</v>
       </c>
       <c r="P117" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q117">
         <v>2.38</v>
@@ -25532,6 +25547,624 @@
       </c>
       <c r="BP119">
         <v>1.38</v>
+      </c>
+    </row>
+    <row r="120" spans="1:68">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>7380453</v>
+      </c>
+      <c r="C120" t="s">
+        <v>68</v>
+      </c>
+      <c r="D120" t="s">
+        <v>69</v>
+      </c>
+      <c r="E120" s="2">
+        <v>45472.66666666666</v>
+      </c>
+      <c r="F120">
+        <v>13</v>
+      </c>
+      <c r="G120" t="s">
+        <v>87</v>
+      </c>
+      <c r="H120" t="s">
+        <v>78</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>0</v>
+      </c>
+      <c r="L120">
+        <v>1</v>
+      </c>
+      <c r="M120">
+        <v>1</v>
+      </c>
+      <c r="N120">
+        <v>2</v>
+      </c>
+      <c r="O120" t="s">
+        <v>90</v>
+      </c>
+      <c r="P120" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q120">
+        <v>2.4</v>
+      </c>
+      <c r="R120">
+        <v>2</v>
+      </c>
+      <c r="S120">
+        <v>6</v>
+      </c>
+      <c r="T120">
+        <v>1.47</v>
+      </c>
+      <c r="U120">
+        <v>2.4</v>
+      </c>
+      <c r="V120">
+        <v>3.2</v>
+      </c>
+      <c r="W120">
+        <v>1.27</v>
+      </c>
+      <c r="X120">
+        <v>7.8</v>
+      </c>
+      <c r="Y120">
+        <v>1.04</v>
+      </c>
+      <c r="Z120">
+        <v>1.72</v>
+      </c>
+      <c r="AA120">
+        <v>3.35</v>
+      </c>
+      <c r="AB120">
+        <v>5.22</v>
+      </c>
+      <c r="AC120">
+        <v>1.06</v>
+      </c>
+      <c r="AD120">
+        <v>7</v>
+      </c>
+      <c r="AE120">
+        <v>1.4</v>
+      </c>
+      <c r="AF120">
+        <v>2.7</v>
+      </c>
+      <c r="AG120">
+        <v>2.3</v>
+      </c>
+      <c r="AH120">
+        <v>1.5</v>
+      </c>
+      <c r="AI120">
+        <v>2.25</v>
+      </c>
+      <c r="AJ120">
+        <v>1.57</v>
+      </c>
+      <c r="AK120">
+        <v>1.15</v>
+      </c>
+      <c r="AL120">
+        <v>1.25</v>
+      </c>
+      <c r="AM120">
+        <v>2.05</v>
+      </c>
+      <c r="AN120">
+        <v>2.5</v>
+      </c>
+      <c r="AO120">
+        <v>0.2</v>
+      </c>
+      <c r="AP120">
+        <v>2.29</v>
+      </c>
+      <c r="AQ120">
+        <v>0.33</v>
+      </c>
+      <c r="AR120">
+        <v>1.67</v>
+      </c>
+      <c r="AS120">
+        <v>1.19</v>
+      </c>
+      <c r="AT120">
+        <v>2.86</v>
+      </c>
+      <c r="AU120">
+        <v>13</v>
+      </c>
+      <c r="AV120">
+        <v>4</v>
+      </c>
+      <c r="AW120">
+        <v>8</v>
+      </c>
+      <c r="AX120">
+        <v>7</v>
+      </c>
+      <c r="AY120">
+        <v>21</v>
+      </c>
+      <c r="AZ120">
+        <v>11</v>
+      </c>
+      <c r="BA120">
+        <v>13</v>
+      </c>
+      <c r="BB120">
+        <v>4</v>
+      </c>
+      <c r="BC120">
+        <v>17</v>
+      </c>
+      <c r="BD120">
+        <v>1.49</v>
+      </c>
+      <c r="BE120">
+        <v>9</v>
+      </c>
+      <c r="BF120">
+        <v>3.24</v>
+      </c>
+      <c r="BG120">
+        <v>1.2</v>
+      </c>
+      <c r="BH120">
+        <v>4</v>
+      </c>
+      <c r="BI120">
+        <v>1.29</v>
+      </c>
+      <c r="BJ120">
+        <v>3.14</v>
+      </c>
+      <c r="BK120">
+        <v>2</v>
+      </c>
+      <c r="BL120">
+        <v>2.3</v>
+      </c>
+      <c r="BM120">
+        <v>2</v>
+      </c>
+      <c r="BN120">
+        <v>1.73</v>
+      </c>
+      <c r="BO120">
+        <v>2.42</v>
+      </c>
+      <c r="BP120">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="121" spans="1:68">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>7380448</v>
+      </c>
+      <c r="C121" t="s">
+        <v>68</v>
+      </c>
+      <c r="D121" t="s">
+        <v>69</v>
+      </c>
+      <c r="E121" s="2">
+        <v>45472.70833333334</v>
+      </c>
+      <c r="F121">
+        <v>13</v>
+      </c>
+      <c r="G121" t="s">
+        <v>70</v>
+      </c>
+      <c r="H121" t="s">
+        <v>81</v>
+      </c>
+      <c r="I121">
+        <v>1</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121">
+        <v>1</v>
+      </c>
+      <c r="L121">
+        <v>1</v>
+      </c>
+      <c r="M121">
+        <v>1</v>
+      </c>
+      <c r="N121">
+        <v>2</v>
+      </c>
+      <c r="O121" t="s">
+        <v>172</v>
+      </c>
+      <c r="P121" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q121">
+        <v>4</v>
+      </c>
+      <c r="R121">
+        <v>1.95</v>
+      </c>
+      <c r="S121">
+        <v>3.1</v>
+      </c>
+      <c r="T121">
+        <v>1.55</v>
+      </c>
+      <c r="U121">
+        <v>2.3</v>
+      </c>
+      <c r="V121">
+        <v>3.4</v>
+      </c>
+      <c r="W121">
+        <v>1.29</v>
+      </c>
+      <c r="X121">
+        <v>9</v>
+      </c>
+      <c r="Y121">
+        <v>1.03</v>
+      </c>
+      <c r="Z121">
+        <v>3.49</v>
+      </c>
+      <c r="AA121">
+        <v>2.94</v>
+      </c>
+      <c r="AB121">
+        <v>2.28</v>
+      </c>
+      <c r="AC121">
+        <v>1.11</v>
+      </c>
+      <c r="AD121">
+        <v>6.66</v>
+      </c>
+      <c r="AE121">
+        <v>1.48</v>
+      </c>
+      <c r="AF121">
+        <v>2.37</v>
+      </c>
+      <c r="AG121">
+        <v>2.49</v>
+      </c>
+      <c r="AH121">
+        <v>1.43</v>
+      </c>
+      <c r="AI121">
+        <v>2.1</v>
+      </c>
+      <c r="AJ121">
+        <v>1.67</v>
+      </c>
+      <c r="AK121">
+        <v>1.42</v>
+      </c>
+      <c r="AL121">
+        <v>1.35</v>
+      </c>
+      <c r="AM121">
+        <v>1.32</v>
+      </c>
+      <c r="AN121">
+        <v>1.5</v>
+      </c>
+      <c r="AO121">
+        <v>1.4</v>
+      </c>
+      <c r="AP121">
+        <v>1.43</v>
+      </c>
+      <c r="AQ121">
+        <v>1.33</v>
+      </c>
+      <c r="AR121">
+        <v>1.51</v>
+      </c>
+      <c r="AS121">
+        <v>1.36</v>
+      </c>
+      <c r="AT121">
+        <v>2.87</v>
+      </c>
+      <c r="AU121">
+        <v>4</v>
+      </c>
+      <c r="AV121">
+        <v>3</v>
+      </c>
+      <c r="AW121">
+        <v>4</v>
+      </c>
+      <c r="AX121">
+        <v>6</v>
+      </c>
+      <c r="AY121">
+        <v>8</v>
+      </c>
+      <c r="AZ121">
+        <v>9</v>
+      </c>
+      <c r="BA121">
+        <v>2</v>
+      </c>
+      <c r="BB121">
+        <v>5</v>
+      </c>
+      <c r="BC121">
+        <v>7</v>
+      </c>
+      <c r="BD121">
+        <v>2.1</v>
+      </c>
+      <c r="BE121">
+        <v>7.4</v>
+      </c>
+      <c r="BF121">
+        <v>2.05</v>
+      </c>
+      <c r="BG121">
+        <v>1.15</v>
+      </c>
+      <c r="BH121">
+        <v>4.75</v>
+      </c>
+      <c r="BI121">
+        <v>1.26</v>
+      </c>
+      <c r="BJ121">
+        <v>3.34</v>
+      </c>
+      <c r="BK121">
+        <v>1.91</v>
+      </c>
+      <c r="BL121">
+        <v>2.42</v>
+      </c>
+      <c r="BM121">
+        <v>2</v>
+      </c>
+      <c r="BN121">
+        <v>1.8</v>
+      </c>
+      <c r="BO121">
+        <v>2.28</v>
+      </c>
+      <c r="BP121">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="122" spans="1:68">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>7380455</v>
+      </c>
+      <c r="C122" t="s">
+        <v>68</v>
+      </c>
+      <c r="D122" t="s">
+        <v>69</v>
+      </c>
+      <c r="E122" s="2">
+        <v>45472.875</v>
+      </c>
+      <c r="F122">
+        <v>13</v>
+      </c>
+      <c r="G122" t="s">
+        <v>76</v>
+      </c>
+      <c r="H122" t="s">
+        <v>80</v>
+      </c>
+      <c r="I122">
+        <v>3</v>
+      </c>
+      <c r="J122">
+        <v>1</v>
+      </c>
+      <c r="K122">
+        <v>4</v>
+      </c>
+      <c r="L122">
+        <v>4</v>
+      </c>
+      <c r="M122">
+        <v>2</v>
+      </c>
+      <c r="N122">
+        <v>6</v>
+      </c>
+      <c r="O122" t="s">
+        <v>173</v>
+      </c>
+      <c r="P122" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q122">
+        <v>1.95</v>
+      </c>
+      <c r="R122">
+        <v>2.3</v>
+      </c>
+      <c r="S122">
+        <v>7.5</v>
+      </c>
+      <c r="T122">
+        <v>1.35</v>
+      </c>
+      <c r="U122">
+        <v>2.8</v>
+      </c>
+      <c r="V122">
+        <v>2.6</v>
+      </c>
+      <c r="W122">
+        <v>1.4</v>
+      </c>
+      <c r="X122">
+        <v>5.5</v>
+      </c>
+      <c r="Y122">
+        <v>1.1</v>
+      </c>
+      <c r="Z122">
+        <v>1.4</v>
+      </c>
+      <c r="AA122">
+        <v>4.5</v>
+      </c>
+      <c r="AB122">
+        <v>7.5</v>
+      </c>
+      <c r="AC122">
+        <v>1.04</v>
+      </c>
+      <c r="AD122">
+        <v>8.5</v>
+      </c>
+      <c r="AE122">
+        <v>1.25</v>
+      </c>
+      <c r="AF122">
+        <v>3.5</v>
+      </c>
+      <c r="AG122">
+        <v>1.95</v>
+      </c>
+      <c r="AH122">
+        <v>1.85</v>
+      </c>
+      <c r="AI122">
+        <v>2.2</v>
+      </c>
+      <c r="AJ122">
+        <v>1.62</v>
+      </c>
+      <c r="AK122">
+        <v>1.01</v>
+      </c>
+      <c r="AL122">
+        <v>1.16</v>
+      </c>
+      <c r="AM122">
+        <v>2.8</v>
+      </c>
+      <c r="AN122">
+        <v>2</v>
+      </c>
+      <c r="AO122">
+        <v>0.2</v>
+      </c>
+      <c r="AP122">
+        <v>2.14</v>
+      </c>
+      <c r="AQ122">
+        <v>0.17</v>
+      </c>
+      <c r="AR122">
+        <v>1.66</v>
+      </c>
+      <c r="AS122">
+        <v>1.11</v>
+      </c>
+      <c r="AT122">
+        <v>2.77</v>
+      </c>
+      <c r="AU122">
+        <v>9</v>
+      </c>
+      <c r="AV122">
+        <v>4</v>
+      </c>
+      <c r="AW122">
+        <v>9</v>
+      </c>
+      <c r="AX122">
+        <v>2</v>
+      </c>
+      <c r="AY122">
+        <v>18</v>
+      </c>
+      <c r="AZ122">
+        <v>6</v>
+      </c>
+      <c r="BA122">
+        <v>13</v>
+      </c>
+      <c r="BB122">
+        <v>4</v>
+      </c>
+      <c r="BC122">
+        <v>17</v>
+      </c>
+      <c r="BD122">
+        <v>1.18</v>
+      </c>
+      <c r="BE122">
+        <v>9.6</v>
+      </c>
+      <c r="BF122">
+        <v>6.55</v>
+      </c>
+      <c r="BG122">
+        <v>1.22</v>
+      </c>
+      <c r="BH122">
+        <v>3.8</v>
+      </c>
+      <c r="BI122">
+        <v>1.38</v>
+      </c>
+      <c r="BJ122">
+        <v>2.8</v>
+      </c>
+      <c r="BK122">
+        <v>2.1</v>
+      </c>
+      <c r="BL122">
+        <v>2.25</v>
+      </c>
+      <c r="BM122">
+        <v>2.01</v>
+      </c>
+      <c r="BN122">
+        <v>1.78</v>
+      </c>
+      <c r="BO122">
+        <v>2.34</v>
+      </c>
+      <c r="BP122">
+        <v>1.56</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="221">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -538,6 +538,12 @@
     <t>['21', '30', '39', '72']</t>
   </si>
   <si>
+    <t>['31']</t>
+  </si>
+  <si>
+    <t>['24']</t>
+  </si>
+  <si>
     <t>['31', '49', '69']</t>
   </si>
   <si>
@@ -668,6 +674,9 @@
   </si>
   <si>
     <t>['7', '78']</t>
+  </si>
+  <si>
+    <t>['54']</t>
   </si>
 </sst>
 </file>
@@ -1029,7 +1038,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP122"/>
+  <dimension ref="A1:BP125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2318,7 +2327,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q7">
         <v>4.33</v>
@@ -2730,7 +2739,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -3142,7 +3151,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q11">
         <v>3.5</v>
@@ -3348,7 +3357,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q12">
         <v>3.6</v>
@@ -3429,7 +3438,7 @@
         <v>1</v>
       </c>
       <c r="AQ12">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3760,7 +3769,7 @@
         <v>100</v>
       </c>
       <c r="P14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q14">
         <v>4.75</v>
@@ -3838,7 +3847,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ14">
         <v>1</v>
@@ -3966,7 +3975,7 @@
         <v>100</v>
       </c>
       <c r="P15" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4044,7 +4053,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ15">
         <v>1.33</v>
@@ -4253,7 +4262,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ16">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4378,7 +4387,7 @@
         <v>102</v>
       </c>
       <c r="P17" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q17">
         <v>2.75</v>
@@ -4456,7 +4465,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ17">
         <v>1.4</v>
@@ -5077,7 +5086,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ20">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5202,7 +5211,7 @@
         <v>106</v>
       </c>
       <c r="P21" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5486,7 +5495,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ22">
         <v>1.5</v>
@@ -5820,7 +5829,7 @@
         <v>107</v>
       </c>
       <c r="P24" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q24">
         <v>3.6</v>
@@ -6107,7 +6116,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ25">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR25">
         <v>1.46</v>
@@ -6232,7 +6241,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6438,7 +6447,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q27">
         <v>4</v>
@@ -6644,7 +6653,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6931,7 +6940,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ29">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR29">
         <v>0</v>
@@ -7056,7 +7065,7 @@
         <v>112</v>
       </c>
       <c r="P30" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q30">
         <v>2.1</v>
@@ -7468,7 +7477,7 @@
         <v>113</v>
       </c>
       <c r="P32" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q32">
         <v>2.38</v>
@@ -7674,7 +7683,7 @@
         <v>100</v>
       </c>
       <c r="P33" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -8373,7 +8382,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ36">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AR36">
         <v>1.35</v>
@@ -8576,7 +8585,7 @@
         <v>1</v>
       </c>
       <c r="AP37">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ37">
         <v>1.4</v>
@@ -8910,7 +8919,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q39">
         <v>2</v>
@@ -9194,7 +9203,7 @@
         <v>1</v>
       </c>
       <c r="AP40">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ40">
         <v>0.5</v>
@@ -9322,7 +9331,7 @@
         <v>120</v>
       </c>
       <c r="P41" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q41">
         <v>2.25</v>
@@ -9528,7 +9537,7 @@
         <v>121</v>
       </c>
       <c r="P42" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9606,7 +9615,7 @@
         <v>0.5</v>
       </c>
       <c r="AP42">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ42">
         <v>0.33</v>
@@ -9734,7 +9743,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q43">
         <v>3.2</v>
@@ -10845,7 +10854,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ48">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR48">
         <v>1.4</v>
@@ -10970,7 +10979,7 @@
         <v>125</v>
       </c>
       <c r="P49" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -11254,7 +11263,7 @@
         <v>2</v>
       </c>
       <c r="AP50">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ50">
         <v>0.71</v>
@@ -11463,7 +11472,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ51">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR51">
         <v>1.66</v>
@@ -12412,7 +12421,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q56">
         <v>1.95</v>
@@ -13236,7 +13245,7 @@
         <v>118</v>
       </c>
       <c r="P60" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13314,7 +13323,7 @@
         <v>1</v>
       </c>
       <c r="AP60">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ60">
         <v>1</v>
@@ -13523,7 +13532,7 @@
         <v>1</v>
       </c>
       <c r="AQ61">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AR61">
         <v>1.31</v>
@@ -13648,7 +13657,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q62">
         <v>3.4</v>
@@ -13932,7 +13941,7 @@
         <v>0.33</v>
       </c>
       <c r="AP63">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ63">
         <v>1.14</v>
@@ -14141,7 +14150,7 @@
         <v>1</v>
       </c>
       <c r="AQ64">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AR64">
         <v>1.17</v>
@@ -14266,7 +14275,7 @@
         <v>135</v>
       </c>
       <c r="P65" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q65">
         <v>2.38</v>
@@ -14472,7 +14481,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q66">
         <v>2.3</v>
@@ -14759,7 +14768,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ67">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR67">
         <v>1.62</v>
@@ -14884,7 +14893,7 @@
         <v>100</v>
       </c>
       <c r="P68" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q68">
         <v>3.6</v>
@@ -15168,7 +15177,7 @@
         <v>1.67</v>
       </c>
       <c r="AP69">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ69">
         <v>0.71</v>
@@ -16120,7 +16129,7 @@
         <v>90</v>
       </c>
       <c r="P74" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q74">
         <v>3.1</v>
@@ -16326,7 +16335,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -16738,7 +16747,7 @@
         <v>139</v>
       </c>
       <c r="P77" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q77">
         <v>2.2</v>
@@ -17025,7 +17034,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ78">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR78">
         <v>1.62</v>
@@ -17434,7 +17443,7 @@
         <v>1.67</v>
       </c>
       <c r="AP80">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ80">
         <v>1</v>
@@ -17562,7 +17571,7 @@
         <v>146</v>
       </c>
       <c r="P81" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q81">
         <v>2.05</v>
@@ -17768,7 +17777,7 @@
         <v>147</v>
       </c>
       <c r="P82" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q82">
         <v>4</v>
@@ -17974,7 +17983,7 @@
         <v>100</v>
       </c>
       <c r="P83" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q83">
         <v>3.2</v>
@@ -18052,10 +18061,10 @@
         <v>1</v>
       </c>
       <c r="AP83">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ83">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR83">
         <v>1.96</v>
@@ -18180,7 +18189,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q84">
         <v>2.75</v>
@@ -18464,7 +18473,7 @@
         <v>1</v>
       </c>
       <c r="AP85">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ85">
         <v>1.33</v>
@@ -18673,7 +18682,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ86">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AR86">
         <v>1.95</v>
@@ -18798,7 +18807,7 @@
         <v>150</v>
       </c>
       <c r="P87" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q87">
         <v>3.5</v>
@@ -19828,7 +19837,7 @@
         <v>153</v>
       </c>
       <c r="P92" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q92">
         <v>2.63</v>
@@ -19906,7 +19915,7 @@
         <v>0</v>
       </c>
       <c r="AP92">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ92">
         <v>0</v>
@@ -20446,7 +20455,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q95">
         <v>3.5</v>
@@ -21064,7 +21073,7 @@
         <v>116</v>
       </c>
       <c r="P98" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q98">
         <v>3</v>
@@ -21476,7 +21485,7 @@
         <v>100</v>
       </c>
       <c r="P100" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q100">
         <v>3.5</v>
@@ -21557,7 +21566,7 @@
         <v>1</v>
       </c>
       <c r="AQ100">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR100">
         <v>1.66</v>
@@ -21682,7 +21691,7 @@
         <v>160</v>
       </c>
       <c r="P101" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q101">
         <v>2.6</v>
@@ -21760,7 +21769,7 @@
         <v>0</v>
       </c>
       <c r="AP101">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ101">
         <v>0.17</v>
@@ -21969,7 +21978,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ102">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR102">
         <v>1.91</v>
@@ -22094,7 +22103,7 @@
         <v>162</v>
       </c>
       <c r="P103" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q103">
         <v>2.88</v>
@@ -22172,7 +22181,7 @@
         <v>0.2</v>
       </c>
       <c r="AP103">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ103">
         <v>0.33</v>
@@ -22587,7 +22596,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ105">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AR105">
         <v>1.54</v>
@@ -23948,7 +23957,7 @@
         <v>125</v>
       </c>
       <c r="P112" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q112">
         <v>3.05</v>
@@ -24154,7 +24163,7 @@
         <v>167</v>
       </c>
       <c r="P113" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q113">
         <v>3.25</v>
@@ -24566,7 +24575,7 @@
         <v>169</v>
       </c>
       <c r="P115" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q115">
         <v>2.68</v>
@@ -24978,7 +24987,7 @@
         <v>170</v>
       </c>
       <c r="P117" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q117">
         <v>2.38</v>
@@ -25596,7 +25605,7 @@
         <v>90</v>
       </c>
       <c r="P120" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q120">
         <v>2.4</v>
@@ -25802,7 +25811,7 @@
         <v>172</v>
       </c>
       <c r="P121" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q121">
         <v>4</v>
@@ -26008,7 +26017,7 @@
         <v>173</v>
       </c>
       <c r="P122" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q122">
         <v>1.95</v>
@@ -26165,6 +26174,624 @@
       </c>
       <c r="BP122">
         <v>1.56</v>
+      </c>
+    </row>
+    <row r="123" spans="1:68">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>7380451</v>
+      </c>
+      <c r="C123" t="s">
+        <v>68</v>
+      </c>
+      <c r="D123" t="s">
+        <v>69</v>
+      </c>
+      <c r="E123" s="2">
+        <v>45473.45833333334</v>
+      </c>
+      <c r="F123">
+        <v>13</v>
+      </c>
+      <c r="G123" t="s">
+        <v>82</v>
+      </c>
+      <c r="H123" t="s">
+        <v>75</v>
+      </c>
+      <c r="I123">
+        <v>1</v>
+      </c>
+      <c r="J123">
+        <v>1</v>
+      </c>
+      <c r="K123">
+        <v>2</v>
+      </c>
+      <c r="L123">
+        <v>1</v>
+      </c>
+      <c r="M123">
+        <v>1</v>
+      </c>
+      <c r="N123">
+        <v>2</v>
+      </c>
+      <c r="O123" t="s">
+        <v>152</v>
+      </c>
+      <c r="P123" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q123">
+        <v>2.5</v>
+      </c>
+      <c r="R123">
+        <v>2</v>
+      </c>
+      <c r="S123">
+        <v>6</v>
+      </c>
+      <c r="T123">
+        <v>1.5</v>
+      </c>
+      <c r="U123">
+        <v>2.35</v>
+      </c>
+      <c r="V123">
+        <v>3.3</v>
+      </c>
+      <c r="W123">
+        <v>1.27</v>
+      </c>
+      <c r="X123">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Y123">
+        <v>1.03</v>
+      </c>
+      <c r="Z123">
+        <v>1.78</v>
+      </c>
+      <c r="AA123">
+        <v>3.3</v>
+      </c>
+      <c r="AB123">
+        <v>5.4</v>
+      </c>
+      <c r="AC123">
+        <v>1.05</v>
+      </c>
+      <c r="AD123">
+        <v>7.5</v>
+      </c>
+      <c r="AE123">
+        <v>1.42</v>
+      </c>
+      <c r="AF123">
+        <v>2.6</v>
+      </c>
+      <c r="AG123">
+        <v>2.4</v>
+      </c>
+      <c r="AH123">
+        <v>1.5</v>
+      </c>
+      <c r="AI123">
+        <v>2.25</v>
+      </c>
+      <c r="AJ123">
+        <v>1.57</v>
+      </c>
+      <c r="AK123">
+        <v>1.17</v>
+      </c>
+      <c r="AL123">
+        <v>1.28</v>
+      </c>
+      <c r="AM123">
+        <v>1.95</v>
+      </c>
+      <c r="AN123">
+        <v>2.17</v>
+      </c>
+      <c r="AO123">
+        <v>0.4</v>
+      </c>
+      <c r="AP123">
+        <v>2</v>
+      </c>
+      <c r="AQ123">
+        <v>0.5</v>
+      </c>
+      <c r="AR123">
+        <v>1.43</v>
+      </c>
+      <c r="AS123">
+        <v>1.08</v>
+      </c>
+      <c r="AT123">
+        <v>2.51</v>
+      </c>
+      <c r="AU123">
+        <v>6</v>
+      </c>
+      <c r="AV123">
+        <v>4</v>
+      </c>
+      <c r="AW123">
+        <v>9</v>
+      </c>
+      <c r="AX123">
+        <v>1</v>
+      </c>
+      <c r="AY123">
+        <v>15</v>
+      </c>
+      <c r="AZ123">
+        <v>5</v>
+      </c>
+      <c r="BA123">
+        <v>7</v>
+      </c>
+      <c r="BB123">
+        <v>4</v>
+      </c>
+      <c r="BC123">
+        <v>11</v>
+      </c>
+      <c r="BD123">
+        <v>1.51</v>
+      </c>
+      <c r="BE123">
+        <v>7.1</v>
+      </c>
+      <c r="BF123">
+        <v>3.32</v>
+      </c>
+      <c r="BG123">
+        <v>1.25</v>
+      </c>
+      <c r="BH123">
+        <v>3.6</v>
+      </c>
+      <c r="BI123">
+        <v>1.35</v>
+      </c>
+      <c r="BJ123">
+        <v>2.84</v>
+      </c>
+      <c r="BK123">
+        <v>2.2</v>
+      </c>
+      <c r="BL123">
+        <v>2.1</v>
+      </c>
+      <c r="BM123">
+        <v>2.04</v>
+      </c>
+      <c r="BN123">
+        <v>1.69</v>
+      </c>
+      <c r="BO123">
+        <v>2.67</v>
+      </c>
+      <c r="BP123">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="124" spans="1:68">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>7380454</v>
+      </c>
+      <c r="C124" t="s">
+        <v>68</v>
+      </c>
+      <c r="D124" t="s">
+        <v>69</v>
+      </c>
+      <c r="E124" s="2">
+        <v>45473.66666666666</v>
+      </c>
+      <c r="F124">
+        <v>13</v>
+      </c>
+      <c r="G124" t="s">
+        <v>85</v>
+      </c>
+      <c r="H124" t="s">
+        <v>72</v>
+      </c>
+      <c r="I124">
+        <v>1</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <v>1</v>
+      </c>
+      <c r="L124">
+        <v>1</v>
+      </c>
+      <c r="M124">
+        <v>1</v>
+      </c>
+      <c r="N124">
+        <v>2</v>
+      </c>
+      <c r="O124" t="s">
+        <v>174</v>
+      </c>
+      <c r="P124" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q124">
+        <v>2.75</v>
+      </c>
+      <c r="R124">
+        <v>1.95</v>
+      </c>
+      <c r="S124">
+        <v>5</v>
+      </c>
+      <c r="T124">
+        <v>1.56</v>
+      </c>
+      <c r="U124">
+        <v>2.29</v>
+      </c>
+      <c r="V124">
+        <v>3.7</v>
+      </c>
+      <c r="W124">
+        <v>1.24</v>
+      </c>
+      <c r="X124">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="Y124">
+        <v>1.03</v>
+      </c>
+      <c r="Z124">
+        <v>1.97</v>
+      </c>
+      <c r="AA124">
+        <v>3</v>
+      </c>
+      <c r="AB124">
+        <v>3.88</v>
+      </c>
+      <c r="AC124">
+        <v>1.1</v>
+      </c>
+      <c r="AD124">
+        <v>7</v>
+      </c>
+      <c r="AE124">
+        <v>1.45</v>
+      </c>
+      <c r="AF124">
+        <v>2.55</v>
+      </c>
+      <c r="AG124">
+        <v>2.4</v>
+      </c>
+      <c r="AH124">
+        <v>1.5</v>
+      </c>
+      <c r="AI124">
+        <v>2.25</v>
+      </c>
+      <c r="AJ124">
+        <v>1.57</v>
+      </c>
+      <c r="AK124">
+        <v>1.22</v>
+      </c>
+      <c r="AL124">
+        <v>1.3</v>
+      </c>
+      <c r="AM124">
+        <v>1.75</v>
+      </c>
+      <c r="AN124">
+        <v>1.4</v>
+      </c>
+      <c r="AO124">
+        <v>1.67</v>
+      </c>
+      <c r="AP124">
+        <v>1.33</v>
+      </c>
+      <c r="AQ124">
+        <v>1.57</v>
+      </c>
+      <c r="AR124">
+        <v>1.19</v>
+      </c>
+      <c r="AS124">
+        <v>1.32</v>
+      </c>
+      <c r="AT124">
+        <v>2.51</v>
+      </c>
+      <c r="AU124">
+        <v>5</v>
+      </c>
+      <c r="AV124">
+        <v>10</v>
+      </c>
+      <c r="AW124">
+        <v>4</v>
+      </c>
+      <c r="AX124">
+        <v>10</v>
+      </c>
+      <c r="AY124">
+        <v>9</v>
+      </c>
+      <c r="AZ124">
+        <v>20</v>
+      </c>
+      <c r="BA124">
+        <v>5</v>
+      </c>
+      <c r="BB124">
+        <v>6</v>
+      </c>
+      <c r="BC124">
+        <v>11</v>
+      </c>
+      <c r="BD124">
+        <v>1.51</v>
+      </c>
+      <c r="BE124">
+        <v>7.1</v>
+      </c>
+      <c r="BF124">
+        <v>3.3</v>
+      </c>
+      <c r="BG124">
+        <v>1.22</v>
+      </c>
+      <c r="BH124">
+        <v>3.8</v>
+      </c>
+      <c r="BI124">
+        <v>1.33</v>
+      </c>
+      <c r="BJ124">
+        <v>2.91</v>
+      </c>
+      <c r="BK124">
+        <v>2</v>
+      </c>
+      <c r="BL124">
+        <v>2.14</v>
+      </c>
+      <c r="BM124">
+        <v>2.02</v>
+      </c>
+      <c r="BN124">
+        <v>1.71</v>
+      </c>
+      <c r="BO124">
+        <v>2.6</v>
+      </c>
+      <c r="BP124">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="125" spans="1:68">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>7380447</v>
+      </c>
+      <c r="C125" t="s">
+        <v>68</v>
+      </c>
+      <c r="D125" t="s">
+        <v>69</v>
+      </c>
+      <c r="E125" s="2">
+        <v>45473.77083333334</v>
+      </c>
+      <c r="F125">
+        <v>13</v>
+      </c>
+      <c r="G125" t="s">
+        <v>83</v>
+      </c>
+      <c r="H125" t="s">
+        <v>77</v>
+      </c>
+      <c r="I125">
+        <v>1</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+      <c r="K125">
+        <v>1</v>
+      </c>
+      <c r="L125">
+        <v>1</v>
+      </c>
+      <c r="M125">
+        <v>1</v>
+      </c>
+      <c r="N125">
+        <v>2</v>
+      </c>
+      <c r="O125" t="s">
+        <v>175</v>
+      </c>
+      <c r="P125" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q125">
+        <v>3</v>
+      </c>
+      <c r="R125">
+        <v>1.91</v>
+      </c>
+      <c r="S125">
+        <v>4.5</v>
+      </c>
+      <c r="T125">
+        <v>1.52</v>
+      </c>
+      <c r="U125">
+        <v>2.3</v>
+      </c>
+      <c r="V125">
+        <v>3.5</v>
+      </c>
+      <c r="W125">
+        <v>1.25</v>
+      </c>
+      <c r="X125">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Y125">
+        <v>1.03</v>
+      </c>
+      <c r="Z125">
+        <v>2.15</v>
+      </c>
+      <c r="AA125">
+        <v>3.1</v>
+      </c>
+      <c r="AB125">
+        <v>3.75</v>
+      </c>
+      <c r="AC125">
+        <v>1.12</v>
+      </c>
+      <c r="AD125">
+        <v>5.3</v>
+      </c>
+      <c r="AE125">
+        <v>1.53</v>
+      </c>
+      <c r="AF125">
+        <v>2.46</v>
+      </c>
+      <c r="AG125">
+        <v>2.7</v>
+      </c>
+      <c r="AH125">
+        <v>1.44</v>
+      </c>
+      <c r="AI125">
+        <v>2.25</v>
+      </c>
+      <c r="AJ125">
+        <v>1.57</v>
+      </c>
+      <c r="AK125">
+        <v>1.33</v>
+      </c>
+      <c r="AL125">
+        <v>1.35</v>
+      </c>
+      <c r="AM125">
+        <v>1.4</v>
+      </c>
+      <c r="AN125">
+        <v>0.83</v>
+      </c>
+      <c r="AO125">
+        <v>0.33</v>
+      </c>
+      <c r="AP125">
+        <v>0.86</v>
+      </c>
+      <c r="AQ125">
+        <v>0.43</v>
+      </c>
+      <c r="AR125">
+        <v>1.89</v>
+      </c>
+      <c r="AS125">
+        <v>1.25</v>
+      </c>
+      <c r="AT125">
+        <v>3.14</v>
+      </c>
+      <c r="AU125">
+        <v>4</v>
+      </c>
+      <c r="AV125">
+        <v>5</v>
+      </c>
+      <c r="AW125">
+        <v>8</v>
+      </c>
+      <c r="AX125">
+        <v>6</v>
+      </c>
+      <c r="AY125">
+        <v>12</v>
+      </c>
+      <c r="AZ125">
+        <v>11</v>
+      </c>
+      <c r="BA125">
+        <v>3</v>
+      </c>
+      <c r="BB125">
+        <v>6</v>
+      </c>
+      <c r="BC125">
+        <v>9</v>
+      </c>
+      <c r="BD125">
+        <v>1.58</v>
+      </c>
+      <c r="BE125">
+        <v>6.9</v>
+      </c>
+      <c r="BF125">
+        <v>3.05</v>
+      </c>
+      <c r="BG125">
+        <v>1.22</v>
+      </c>
+      <c r="BH125">
+        <v>3.8</v>
+      </c>
+      <c r="BI125">
+        <v>1.34</v>
+      </c>
+      <c r="BJ125">
+        <v>2.88</v>
+      </c>
+      <c r="BK125">
+        <v>2.1</v>
+      </c>
+      <c r="BL125">
+        <v>2.14</v>
+      </c>
+      <c r="BM125">
+        <v>2.02</v>
+      </c>
+      <c r="BN125">
+        <v>1.71</v>
+      </c>
+      <c r="BO125">
+        <v>2.6</v>
+      </c>
+      <c r="BP125">
+        <v>1.41</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="222">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -544,6 +544,9 @@
     <t>['24']</t>
   </si>
   <si>
+    <t>['79']</t>
+  </si>
+  <si>
     <t>['31', '49', '69']</t>
   </si>
   <si>
@@ -560,9 +563,6 @@
   </si>
   <si>
     <t>['30']</t>
-  </si>
-  <si>
-    <t>['79']</t>
   </si>
   <si>
     <t>['67', '69']</t>
@@ -677,6 +677,9 @@
   </si>
   <si>
     <t>['54']</t>
+  </si>
+  <si>
+    <t>['90+12']</t>
   </si>
 </sst>
 </file>
@@ -1038,7 +1041,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP125"/>
+  <dimension ref="A1:BP127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2199,7 +2202,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ6">
         <v>1.14</v>
@@ -2327,7 +2330,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q7">
         <v>4.33</v>
@@ -2739,7 +2742,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -3151,7 +3154,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q11">
         <v>3.5</v>
@@ -3357,7 +3360,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q12">
         <v>3.6</v>
@@ -3769,7 +3772,7 @@
         <v>100</v>
       </c>
       <c r="P14" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q14">
         <v>4.75</v>
@@ -3975,7 +3978,7 @@
         <v>100</v>
       </c>
       <c r="P15" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4056,7 +4059,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ15">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4259,7 +4262,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AQ16">
         <v>0.5</v>
@@ -4387,7 +4390,7 @@
         <v>102</v>
       </c>
       <c r="P17" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="Q17">
         <v>2.75</v>
@@ -4880,7 +4883,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ19">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -7143,7 +7146,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ30">
         <v>0</v>
@@ -8173,10 +8176,10 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AQ35">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR35">
         <v>1.74</v>
@@ -9000,7 +9003,7 @@
         <v>2</v>
       </c>
       <c r="AQ39">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AR39">
         <v>1.25</v>
@@ -9331,7 +9334,7 @@
         <v>120</v>
       </c>
       <c r="P41" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q41">
         <v>2.25</v>
@@ -10030,7 +10033,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ44">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR44">
         <v>1.09</v>
@@ -11675,7 +11678,7 @@
         <v>0</v>
       </c>
       <c r="AP52">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AQ52">
         <v>0.33</v>
@@ -12705,10 +12708,10 @@
         <v>0</v>
       </c>
       <c r="AP57">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ57">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AR57">
         <v>1.24</v>
@@ -13657,7 +13660,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q62">
         <v>3.4</v>
@@ -14356,7 +14359,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ65">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AR65">
         <v>1.27</v>
@@ -14562,7 +14565,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ66">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR66">
         <v>1.56</v>
@@ -16825,7 +16828,7 @@
         <v>0.33</v>
       </c>
       <c r="AP77">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ77">
         <v>1.4</v>
@@ -18270,7 +18273,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ84">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AR84">
         <v>1.29</v>
@@ -18476,7 +18479,7 @@
         <v>2</v>
       </c>
       <c r="AQ85">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR85">
         <v>1.43</v>
@@ -19506,7 +19509,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ90">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR90">
         <v>1.45</v>
@@ -22387,7 +22390,7 @@
         <v>1</v>
       </c>
       <c r="AP104">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ104">
         <v>0.71</v>
@@ -23623,7 +23626,7 @@
         <v>0</v>
       </c>
       <c r="AP110">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AQ110">
         <v>0</v>
@@ -24038,7 +24041,7 @@
         <v>1</v>
       </c>
       <c r="AQ112">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AR112">
         <v>1.42</v>
@@ -26792,6 +26795,418 @@
       </c>
       <c r="BP125">
         <v>1.41</v>
+      </c>
+    </row>
+    <row r="126" spans="1:68">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>7380450</v>
+      </c>
+      <c r="C126" t="s">
+        <v>68</v>
+      </c>
+      <c r="D126" t="s">
+        <v>69</v>
+      </c>
+      <c r="E126" s="2">
+        <v>45474.79166666666</v>
+      </c>
+      <c r="F126">
+        <v>13</v>
+      </c>
+      <c r="G126" t="s">
+        <v>74</v>
+      </c>
+      <c r="H126" t="s">
+        <v>73</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <v>0</v>
+      </c>
+      <c r="L126">
+        <v>1</v>
+      </c>
+      <c r="M126">
+        <v>0</v>
+      </c>
+      <c r="N126">
+        <v>1</v>
+      </c>
+      <c r="O126" t="s">
+        <v>90</v>
+      </c>
+      <c r="P126" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q126">
+        <v>1.83</v>
+      </c>
+      <c r="R126">
+        <v>2.38</v>
+      </c>
+      <c r="S126">
+        <v>8.5</v>
+      </c>
+      <c r="T126">
+        <v>1.35</v>
+      </c>
+      <c r="U126">
+        <v>2.8</v>
+      </c>
+      <c r="V126">
+        <v>2.8</v>
+      </c>
+      <c r="W126">
+        <v>1.35</v>
+      </c>
+      <c r="X126">
+        <v>6.5</v>
+      </c>
+      <c r="Y126">
+        <v>1.07</v>
+      </c>
+      <c r="Z126">
+        <v>1.33</v>
+      </c>
+      <c r="AA126">
+        <v>4.75</v>
+      </c>
+      <c r="AB126">
+        <v>9</v>
+      </c>
+      <c r="AC126">
+        <v>1.02</v>
+      </c>
+      <c r="AD126">
+        <v>8.6</v>
+      </c>
+      <c r="AE126">
+        <v>1.35</v>
+      </c>
+      <c r="AF126">
+        <v>3.18</v>
+      </c>
+      <c r="AG126">
+        <v>1.85</v>
+      </c>
+      <c r="AH126">
+        <v>1.95</v>
+      </c>
+      <c r="AI126">
+        <v>2.25</v>
+      </c>
+      <c r="AJ126">
+        <v>1.57</v>
+      </c>
+      <c r="AK126">
+        <v>1.07</v>
+      </c>
+      <c r="AL126">
+        <v>1.17</v>
+      </c>
+      <c r="AM126">
+        <v>2.85</v>
+      </c>
+      <c r="AN126">
+        <v>2.4</v>
+      </c>
+      <c r="AO126">
+        <v>1.33</v>
+      </c>
+      <c r="AP126">
+        <v>2.5</v>
+      </c>
+      <c r="AQ126">
+        <v>1.14</v>
+      </c>
+      <c r="AR126">
+        <v>1.76</v>
+      </c>
+      <c r="AS126">
+        <v>0.99</v>
+      </c>
+      <c r="AT126">
+        <v>2.75</v>
+      </c>
+      <c r="AU126">
+        <v>12</v>
+      </c>
+      <c r="AV126">
+        <v>8</v>
+      </c>
+      <c r="AW126">
+        <v>9</v>
+      </c>
+      <c r="AX126">
+        <v>5</v>
+      </c>
+      <c r="AY126">
+        <v>21</v>
+      </c>
+      <c r="AZ126">
+        <v>13</v>
+      </c>
+      <c r="BA126">
+        <v>9</v>
+      </c>
+      <c r="BB126">
+        <v>7</v>
+      </c>
+      <c r="BC126">
+        <v>16</v>
+      </c>
+      <c r="BD126">
+        <v>1.32</v>
+      </c>
+      <c r="BE126">
+        <v>11</v>
+      </c>
+      <c r="BF126">
+        <v>4.15</v>
+      </c>
+      <c r="BG126">
+        <v>1.18</v>
+      </c>
+      <c r="BH126">
+        <v>4.6</v>
+      </c>
+      <c r="BI126">
+        <v>1.3</v>
+      </c>
+      <c r="BJ126">
+        <v>3.08</v>
+      </c>
+      <c r="BK126">
+        <v>2</v>
+      </c>
+      <c r="BL126">
+        <v>2.25</v>
+      </c>
+      <c r="BM126">
+        <v>1.92</v>
+      </c>
+      <c r="BN126">
+        <v>1.79</v>
+      </c>
+      <c r="BO126">
+        <v>2.45</v>
+      </c>
+      <c r="BP126">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="127" spans="1:68">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>7380452</v>
+      </c>
+      <c r="C127" t="s">
+        <v>68</v>
+      </c>
+      <c r="D127" t="s">
+        <v>69</v>
+      </c>
+      <c r="E127" s="2">
+        <v>45474.875</v>
+      </c>
+      <c r="F127">
+        <v>13</v>
+      </c>
+      <c r="G127" t="s">
+        <v>84</v>
+      </c>
+      <c r="H127" t="s">
+        <v>79</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+      <c r="K127">
+        <v>0</v>
+      </c>
+      <c r="L127">
+        <v>1</v>
+      </c>
+      <c r="M127">
+        <v>1</v>
+      </c>
+      <c r="N127">
+        <v>2</v>
+      </c>
+      <c r="O127" t="s">
+        <v>176</v>
+      </c>
+      <c r="P127" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q127">
+        <v>2.4</v>
+      </c>
+      <c r="R127">
+        <v>2.05</v>
+      </c>
+      <c r="S127">
+        <v>5.5</v>
+      </c>
+      <c r="T127">
+        <v>1.47</v>
+      </c>
+      <c r="U127">
+        <v>2.5</v>
+      </c>
+      <c r="V127">
+        <v>3.25</v>
+      </c>
+      <c r="W127">
+        <v>1.3</v>
+      </c>
+      <c r="X127">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="Y127">
+        <v>1.04</v>
+      </c>
+      <c r="Z127">
+        <v>1.7</v>
+      </c>
+      <c r="AA127">
+        <v>3.5</v>
+      </c>
+      <c r="AB127">
+        <v>5.25</v>
+      </c>
+      <c r="AC127">
+        <v>1.04</v>
+      </c>
+      <c r="AD127">
+        <v>7.3</v>
+      </c>
+      <c r="AE127">
+        <v>1.39</v>
+      </c>
+      <c r="AF127">
+        <v>2.96</v>
+      </c>
+      <c r="AG127">
+        <v>2.35</v>
+      </c>
+      <c r="AH127">
+        <v>1.57</v>
+      </c>
+      <c r="AI127">
+        <v>2.2</v>
+      </c>
+      <c r="AJ127">
+        <v>1.62</v>
+      </c>
+      <c r="AK127">
+        <v>1.1</v>
+      </c>
+      <c r="AL127">
+        <v>1.22</v>
+      </c>
+      <c r="AM127">
+        <v>2.2</v>
+      </c>
+      <c r="AN127">
+        <v>2.5</v>
+      </c>
+      <c r="AO127">
+        <v>0.33</v>
+      </c>
+      <c r="AP127">
+        <v>2.2</v>
+      </c>
+      <c r="AQ127">
+        <v>0.43</v>
+      </c>
+      <c r="AR127">
+        <v>1.71</v>
+      </c>
+      <c r="AS127">
+        <v>1.28</v>
+      </c>
+      <c r="AT127">
+        <v>2.99</v>
+      </c>
+      <c r="AU127">
+        <v>3</v>
+      </c>
+      <c r="AV127">
+        <v>6</v>
+      </c>
+      <c r="AW127">
+        <v>5</v>
+      </c>
+      <c r="AX127">
+        <v>4</v>
+      </c>
+      <c r="AY127">
+        <v>8</v>
+      </c>
+      <c r="AZ127">
+        <v>10</v>
+      </c>
+      <c r="BA127">
+        <v>4</v>
+      </c>
+      <c r="BB127">
+        <v>3</v>
+      </c>
+      <c r="BC127">
+        <v>7</v>
+      </c>
+      <c r="BD127">
+        <v>1.39</v>
+      </c>
+      <c r="BE127">
+        <v>8</v>
+      </c>
+      <c r="BF127">
+        <v>4.06</v>
+      </c>
+      <c r="BG127">
+        <v>1.19</v>
+      </c>
+      <c r="BH127">
+        <v>3.96</v>
+      </c>
+      <c r="BI127">
+        <v>1.38</v>
+      </c>
+      <c r="BJ127">
+        <v>2.71</v>
+      </c>
+      <c r="BK127">
+        <v>2.1</v>
+      </c>
+      <c r="BL127">
+        <v>2.06</v>
+      </c>
+      <c r="BM127">
+        <v>2.09</v>
+      </c>
+      <c r="BN127">
+        <v>1.63</v>
+      </c>
+      <c r="BO127">
+        <v>2.78</v>
+      </c>
+      <c r="BP127">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="226">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -547,6 +547,12 @@
     <t>['79']</t>
   </si>
   <si>
+    <t>['48', '66']</t>
+  </si>
+  <si>
+    <t>['9']</t>
+  </si>
+  <si>
     <t>['31', '49', '69']</t>
   </si>
   <si>
@@ -680,6 +686,12 @@
   </si>
   <si>
     <t>['90+12']</t>
+  </si>
+  <si>
+    <t>['87']</t>
+  </si>
+  <si>
+    <t>['45+3']</t>
   </si>
 </sst>
 </file>
@@ -1041,7 +1053,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP127"/>
+  <dimension ref="A1:BP129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1381,7 +1393,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ2">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1584,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ3">
         <v>0.33</v>
@@ -2330,7 +2342,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q7">
         <v>4.33</v>
@@ -2742,7 +2754,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -3154,7 +3166,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q11">
         <v>3.5</v>
@@ -3235,7 +3247,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ11">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3360,7 +3372,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q12">
         <v>3.6</v>
@@ -3772,7 +3784,7 @@
         <v>100</v>
       </c>
       <c r="P14" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q14">
         <v>4.75</v>
@@ -3978,7 +3990,7 @@
         <v>100</v>
       </c>
       <c r="P15" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -5086,7 +5098,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ20">
         <v>0.43</v>
@@ -5214,7 +5226,7 @@
         <v>106</v>
       </c>
       <c r="P21" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5832,7 +5844,7 @@
         <v>107</v>
       </c>
       <c r="P24" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q24">
         <v>3.6</v>
@@ -5913,7 +5925,7 @@
         <v>1</v>
       </c>
       <c r="AQ24">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR24">
         <v>1.66</v>
@@ -6244,7 +6256,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6450,7 +6462,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q27">
         <v>4</v>
@@ -6656,7 +6668,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -7068,7 +7080,7 @@
         <v>112</v>
       </c>
       <c r="P30" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q30">
         <v>2.1</v>
@@ -7355,7 +7367,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ31">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AR31">
         <v>1.04</v>
@@ -7480,7 +7492,7 @@
         <v>113</v>
       </c>
       <c r="P32" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q32">
         <v>2.38</v>
@@ -7686,7 +7698,7 @@
         <v>100</v>
       </c>
       <c r="P33" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -7764,7 +7776,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ33">
         <v>0.67</v>
@@ -7970,7 +7982,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ34">
         <v>0.17</v>
@@ -8922,7 +8934,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q39">
         <v>2</v>
@@ -9334,7 +9346,7 @@
         <v>120</v>
       </c>
       <c r="P41" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q41">
         <v>2.25</v>
@@ -9540,7 +9552,7 @@
         <v>121</v>
       </c>
       <c r="P42" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9746,7 +9758,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q43">
         <v>3.2</v>
@@ -10651,7 +10663,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ47">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AR47">
         <v>1.99</v>
@@ -10982,7 +10994,7 @@
         <v>125</v>
       </c>
       <c r="P49" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -11884,7 +11896,7 @@
         <v>0.5</v>
       </c>
       <c r="AP53">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ53">
         <v>0.5</v>
@@ -12296,7 +12308,7 @@
         <v>0.5</v>
       </c>
       <c r="AP55">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ55">
         <v>1.4</v>
@@ -12424,7 +12436,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q56">
         <v>1.95</v>
@@ -13248,7 +13260,7 @@
         <v>118</v>
       </c>
       <c r="P60" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13329,7 +13341,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ60">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR60">
         <v>2.36</v>
@@ -13660,7 +13672,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q62">
         <v>3.4</v>
@@ -14278,7 +14290,7 @@
         <v>135</v>
       </c>
       <c r="P65" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q65">
         <v>2.38</v>
@@ -14484,7 +14496,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q66">
         <v>2.3</v>
@@ -14896,7 +14908,7 @@
         <v>100</v>
       </c>
       <c r="P68" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q68">
         <v>3.6</v>
@@ -15389,7 +15401,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ70">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AR70">
         <v>1.23</v>
@@ -15798,7 +15810,7 @@
         <v>2</v>
       </c>
       <c r="AP72">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ72">
         <v>1.33</v>
@@ -16132,7 +16144,7 @@
         <v>90</v>
       </c>
       <c r="P74" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q74">
         <v>3.1</v>
@@ -16338,7 +16350,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -16750,7 +16762,7 @@
         <v>139</v>
       </c>
       <c r="P77" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q77">
         <v>2.2</v>
@@ -17449,7 +17461,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ80">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR80">
         <v>1.12</v>
@@ -17574,7 +17586,7 @@
         <v>146</v>
       </c>
       <c r="P81" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q81">
         <v>2.05</v>
@@ -17780,7 +17792,7 @@
         <v>147</v>
       </c>
       <c r="P82" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q82">
         <v>4</v>
@@ -17858,7 +17870,7 @@
         <v>1.5</v>
       </c>
       <c r="AP82">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ82">
         <v>1</v>
@@ -17986,7 +17998,7 @@
         <v>100</v>
       </c>
       <c r="P83" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q83">
         <v>3.2</v>
@@ -18192,7 +18204,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q84">
         <v>2.75</v>
@@ -18810,7 +18822,7 @@
         <v>150</v>
       </c>
       <c r="P87" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q87">
         <v>3.5</v>
@@ -19840,7 +19852,7 @@
         <v>153</v>
       </c>
       <c r="P92" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q92">
         <v>2.63</v>
@@ -20458,7 +20470,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q95">
         <v>3.5</v>
@@ -21076,7 +21088,7 @@
         <v>116</v>
       </c>
       <c r="P98" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q98">
         <v>3</v>
@@ -21154,7 +21166,7 @@
         <v>0.5</v>
       </c>
       <c r="AP98">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ98">
         <v>0.5</v>
@@ -21363,7 +21375,7 @@
         <v>2</v>
       </c>
       <c r="AQ99">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AR99">
         <v>1.35</v>
@@ -21488,7 +21500,7 @@
         <v>100</v>
       </c>
       <c r="P100" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q100">
         <v>3.5</v>
@@ -21694,7 +21706,7 @@
         <v>160</v>
       </c>
       <c r="P101" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q101">
         <v>2.6</v>
@@ -21978,7 +21990,7 @@
         <v>0.25</v>
       </c>
       <c r="AP102">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ102">
         <v>0.5</v>
@@ -22106,7 +22118,7 @@
         <v>162</v>
       </c>
       <c r="P103" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q103">
         <v>2.88</v>
@@ -22805,7 +22817,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ106">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR106">
         <v>1.73</v>
@@ -23217,7 +23229,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ108">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AR108">
         <v>1.39</v>
@@ -23960,7 +23972,7 @@
         <v>125</v>
       </c>
       <c r="P112" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q112">
         <v>3.05</v>
@@ -24166,7 +24178,7 @@
         <v>167</v>
       </c>
       <c r="P113" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q113">
         <v>3.25</v>
@@ -24578,7 +24590,7 @@
         <v>169</v>
       </c>
       <c r="P115" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q115">
         <v>2.68</v>
@@ -24990,7 +25002,7 @@
         <v>170</v>
       </c>
       <c r="P117" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q117">
         <v>2.38</v>
@@ -25608,7 +25620,7 @@
         <v>90</v>
       </c>
       <c r="P120" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q120">
         <v>2.4</v>
@@ -25814,7 +25826,7 @@
         <v>172</v>
       </c>
       <c r="P121" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q121">
         <v>4</v>
@@ -26020,7 +26032,7 @@
         <v>173</v>
       </c>
       <c r="P122" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q122">
         <v>1.95</v>
@@ -26432,7 +26444,7 @@
         <v>174</v>
       </c>
       <c r="P124" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q124">
         <v>2.75</v>
@@ -26638,7 +26650,7 @@
         <v>175</v>
       </c>
       <c r="P125" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q125">
         <v>3</v>
@@ -27050,7 +27062,7 @@
         <v>176</v>
       </c>
       <c r="P127" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q127">
         <v>2.4</v>
@@ -27207,6 +27219,418 @@
       </c>
       <c r="BP127">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="128" spans="1:68">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>7380446</v>
+      </c>
+      <c r="C128" t="s">
+        <v>68</v>
+      </c>
+      <c r="D128" t="s">
+        <v>69</v>
+      </c>
+      <c r="E128" s="2">
+        <v>45475.77083333334</v>
+      </c>
+      <c r="F128">
+        <v>13</v>
+      </c>
+      <c r="G128" t="s">
+        <v>88</v>
+      </c>
+      <c r="H128" t="s">
+        <v>86</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+      <c r="K128">
+        <v>0</v>
+      </c>
+      <c r="L128">
+        <v>2</v>
+      </c>
+      <c r="M128">
+        <v>1</v>
+      </c>
+      <c r="N128">
+        <v>3</v>
+      </c>
+      <c r="O128" t="s">
+        <v>177</v>
+      </c>
+      <c r="P128" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q128">
+        <v>2.75</v>
+      </c>
+      <c r="R128">
+        <v>2</v>
+      </c>
+      <c r="S128">
+        <v>4.5</v>
+      </c>
+      <c r="T128">
+        <v>1.42</v>
+      </c>
+      <c r="U128">
+        <v>2.55</v>
+      </c>
+      <c r="V128">
+        <v>3.2</v>
+      </c>
+      <c r="W128">
+        <v>1.28</v>
+      </c>
+      <c r="X128">
+        <v>6.8</v>
+      </c>
+      <c r="Y128">
+        <v>1.05</v>
+      </c>
+      <c r="Z128">
+        <v>2</v>
+      </c>
+      <c r="AA128">
+        <v>3</v>
+      </c>
+      <c r="AB128">
+        <v>4.1</v>
+      </c>
+      <c r="AC128">
+        <v>1.08</v>
+      </c>
+      <c r="AD128">
+        <v>6.5</v>
+      </c>
+      <c r="AE128">
+        <v>1.35</v>
+      </c>
+      <c r="AF128">
+        <v>2.9</v>
+      </c>
+      <c r="AG128">
+        <v>2.4</v>
+      </c>
+      <c r="AH128">
+        <v>1.53</v>
+      </c>
+      <c r="AI128">
+        <v>2</v>
+      </c>
+      <c r="AJ128">
+        <v>1.73</v>
+      </c>
+      <c r="AK128">
+        <v>1.35</v>
+      </c>
+      <c r="AL128">
+        <v>1.3</v>
+      </c>
+      <c r="AM128">
+        <v>1.55</v>
+      </c>
+      <c r="AN128">
+        <v>2.6</v>
+      </c>
+      <c r="AO128">
+        <v>1</v>
+      </c>
+      <c r="AP128">
+        <v>2.67</v>
+      </c>
+      <c r="AQ128">
+        <v>0.83</v>
+      </c>
+      <c r="AR128">
+        <v>1.66</v>
+      </c>
+      <c r="AS128">
+        <v>1.19</v>
+      </c>
+      <c r="AT128">
+        <v>2.85</v>
+      </c>
+      <c r="AU128">
+        <v>6</v>
+      </c>
+      <c r="AV128">
+        <v>2</v>
+      </c>
+      <c r="AW128">
+        <v>6</v>
+      </c>
+      <c r="AX128">
+        <v>4</v>
+      </c>
+      <c r="AY128">
+        <v>12</v>
+      </c>
+      <c r="AZ128">
+        <v>6</v>
+      </c>
+      <c r="BA128">
+        <v>4</v>
+      </c>
+      <c r="BB128">
+        <v>3</v>
+      </c>
+      <c r="BC128">
+        <v>7</v>
+      </c>
+      <c r="BD128">
+        <v>1.87</v>
+      </c>
+      <c r="BE128">
+        <v>7.5</v>
+      </c>
+      <c r="BF128">
+        <v>2.37</v>
+      </c>
+      <c r="BG128">
+        <v>1.18</v>
+      </c>
+      <c r="BH128">
+        <v>4</v>
+      </c>
+      <c r="BI128">
+        <v>1.37</v>
+      </c>
+      <c r="BJ128">
+        <v>2.75</v>
+      </c>
+      <c r="BK128">
+        <v>2</v>
+      </c>
+      <c r="BL128">
+        <v>2.07</v>
+      </c>
+      <c r="BM128">
+        <v>2.09</v>
+      </c>
+      <c r="BN128">
+        <v>1.63</v>
+      </c>
+      <c r="BO128">
+        <v>2.75</v>
+      </c>
+      <c r="BP128">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="129" spans="1:68">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>7380449</v>
+      </c>
+      <c r="C129" t="s">
+        <v>68</v>
+      </c>
+      <c r="D129" t="s">
+        <v>69</v>
+      </c>
+      <c r="E129" s="2">
+        <v>45475.83333333334</v>
+      </c>
+      <c r="F129">
+        <v>13</v>
+      </c>
+      <c r="G129" t="s">
+        <v>71</v>
+      </c>
+      <c r="H129" t="s">
+        <v>89</v>
+      </c>
+      <c r="I129">
+        <v>1</v>
+      </c>
+      <c r="J129">
+        <v>1</v>
+      </c>
+      <c r="K129">
+        <v>2</v>
+      </c>
+      <c r="L129">
+        <v>1</v>
+      </c>
+      <c r="M129">
+        <v>1</v>
+      </c>
+      <c r="N129">
+        <v>2</v>
+      </c>
+      <c r="O129" t="s">
+        <v>178</v>
+      </c>
+      <c r="P129" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q129">
+        <v>3.25</v>
+      </c>
+      <c r="R129">
+        <v>1.8</v>
+      </c>
+      <c r="S129">
+        <v>4.5</v>
+      </c>
+      <c r="T129">
+        <v>1.52</v>
+      </c>
+      <c r="U129">
+        <v>2.3</v>
+      </c>
+      <c r="V129">
+        <v>3.5</v>
+      </c>
+      <c r="W129">
+        <v>1.25</v>
+      </c>
+      <c r="X129">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Y129">
+        <v>1.03</v>
+      </c>
+      <c r="Z129">
+        <v>2.35</v>
+      </c>
+      <c r="AA129">
+        <v>2.8</v>
+      </c>
+      <c r="AB129">
+        <v>3.5</v>
+      </c>
+      <c r="AC129">
+        <v>1.08</v>
+      </c>
+      <c r="AD129">
+        <v>6.2</v>
+      </c>
+      <c r="AE129">
+        <v>1.52</v>
+      </c>
+      <c r="AF129">
+        <v>2.4</v>
+      </c>
+      <c r="AG129">
+        <v>3.1</v>
+      </c>
+      <c r="AH129">
+        <v>1.36</v>
+      </c>
+      <c r="AI129">
+        <v>2.5</v>
+      </c>
+      <c r="AJ129">
+        <v>1.5</v>
+      </c>
+      <c r="AK129">
+        <v>1.33</v>
+      </c>
+      <c r="AL129">
+        <v>1.33</v>
+      </c>
+      <c r="AM129">
+        <v>1.55</v>
+      </c>
+      <c r="AN129">
+        <v>1.6</v>
+      </c>
+      <c r="AO129">
+        <v>0.33</v>
+      </c>
+      <c r="AP129">
+        <v>1.5</v>
+      </c>
+      <c r="AQ129">
+        <v>0.43</v>
+      </c>
+      <c r="AR129">
+        <v>1.77</v>
+      </c>
+      <c r="AS129">
+        <v>1.12</v>
+      </c>
+      <c r="AT129">
+        <v>2.89</v>
+      </c>
+      <c r="AU129">
+        <v>5</v>
+      </c>
+      <c r="AV129">
+        <v>5</v>
+      </c>
+      <c r="AW129">
+        <v>1</v>
+      </c>
+      <c r="AX129">
+        <v>8</v>
+      </c>
+      <c r="AY129">
+        <v>6</v>
+      </c>
+      <c r="AZ129">
+        <v>13</v>
+      </c>
+      <c r="BA129">
+        <v>2</v>
+      </c>
+      <c r="BB129">
+        <v>6</v>
+      </c>
+      <c r="BC129">
+        <v>8</v>
+      </c>
+      <c r="BD129">
+        <v>1.72</v>
+      </c>
+      <c r="BE129">
+        <v>7.9</v>
+      </c>
+      <c r="BF129">
+        <v>2.62</v>
+      </c>
+      <c r="BG129">
+        <v>1.25</v>
+      </c>
+      <c r="BH129">
+        <v>3.7</v>
+      </c>
+      <c r="BI129">
+        <v>1.36</v>
+      </c>
+      <c r="BJ129">
+        <v>2.79</v>
+      </c>
+      <c r="BK129">
+        <v>2.38</v>
+      </c>
+      <c r="BL129">
+        <v>2.09</v>
+      </c>
+      <c r="BM129">
+        <v>2.08</v>
+      </c>
+      <c r="BN129">
+        <v>1.67</v>
+      </c>
+      <c r="BO129">
+        <v>2.67</v>
+      </c>
+      <c r="BP129">
+        <v>1.39</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="226">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1053,7 +1053,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP129"/>
+  <dimension ref="A1:BP131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ8">
         <v>0.71</v>
@@ -3244,7 +3244,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ11">
         <v>0.43</v>
@@ -3865,7 +3865,7 @@
         <v>2</v>
       </c>
       <c r="AQ14">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -5101,7 +5101,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ20">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -6540,7 +6540,7 @@
         <v>1</v>
       </c>
       <c r="AP27">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ27">
         <v>0.71</v>
@@ -6746,7 +6746,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ28">
         <v>0.33</v>
@@ -8397,7 +8397,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ36">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AR36">
         <v>1.35</v>
@@ -8809,7 +8809,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ38">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR38">
         <v>1.12</v>
@@ -10866,7 +10866,7 @@
         <v>1.5</v>
       </c>
       <c r="AP48">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ48">
         <v>1.57</v>
@@ -11075,7 +11075,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ49">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR49">
         <v>1.83</v>
@@ -11484,7 +11484,7 @@
         <v>0.5</v>
       </c>
       <c r="AP51">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ51">
         <v>0.5</v>
@@ -13547,7 +13547,7 @@
         <v>1</v>
       </c>
       <c r="AQ61">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AR61">
         <v>1.31</v>
@@ -13753,7 +13753,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ62">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR62">
         <v>2.09</v>
@@ -14165,7 +14165,7 @@
         <v>1</v>
       </c>
       <c r="AQ64">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AR64">
         <v>1.17</v>
@@ -14574,7 +14574,7 @@
         <v>1.33</v>
       </c>
       <c r="AP66">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ66">
         <v>1.14</v>
@@ -15604,7 +15604,7 @@
         <v>0.67</v>
       </c>
       <c r="AP71">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ71">
         <v>0.5</v>
@@ -16016,7 +16016,7 @@
         <v>1.5</v>
       </c>
       <c r="AP73">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ73">
         <v>1.43</v>
@@ -17873,7 +17873,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ82">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR82">
         <v>1.94</v>
@@ -18697,7 +18697,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ86">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AR86">
         <v>1.95</v>
@@ -19727,7 +19727,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ91">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR91">
         <v>1.58</v>
@@ -20960,7 +20960,7 @@
         <v>1</v>
       </c>
       <c r="AP97">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ97">
         <v>0.67</v>
@@ -22611,7 +22611,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ105">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AR105">
         <v>1.54</v>
@@ -23020,7 +23020,7 @@
         <v>1.75</v>
       </c>
       <c r="AP107">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ107">
         <v>1.5</v>
@@ -23432,7 +23432,7 @@
         <v>1.5</v>
       </c>
       <c r="AP109">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ109">
         <v>1.33</v>
@@ -24877,7 +24877,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ116">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR116">
         <v>1.38</v>
@@ -26110,7 +26110,7 @@
         <v>0.2</v>
       </c>
       <c r="AP122">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ122">
         <v>0.17</v>
@@ -26731,7 +26731,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ125">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AR125">
         <v>1.89</v>
@@ -27630,6 +27630,418 @@
         <v>2.67</v>
       </c>
       <c r="BP129">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="130" spans="1:68">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>7380465</v>
+      </c>
+      <c r="C130" t="s">
+        <v>68</v>
+      </c>
+      <c r="D130" t="s">
+        <v>69</v>
+      </c>
+      <c r="E130" s="2">
+        <v>45478.79166666666</v>
+      </c>
+      <c r="F130">
+        <v>14</v>
+      </c>
+      <c r="G130" t="s">
+        <v>76</v>
+      </c>
+      <c r="H130" t="s">
+        <v>74</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="J130">
+        <v>1</v>
+      </c>
+      <c r="K130">
+        <v>1</v>
+      </c>
+      <c r="L130">
+        <v>0</v>
+      </c>
+      <c r="M130">
+        <v>1</v>
+      </c>
+      <c r="N130">
+        <v>1</v>
+      </c>
+      <c r="O130" t="s">
+        <v>100</v>
+      </c>
+      <c r="P130" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q130">
+        <v>3.1</v>
+      </c>
+      <c r="R130">
+        <v>2.05</v>
+      </c>
+      <c r="S130">
+        <v>3.75</v>
+      </c>
+      <c r="T130">
+        <v>1.5</v>
+      </c>
+      <c r="U130">
+        <v>2.4</v>
+      </c>
+      <c r="V130">
+        <v>3.3</v>
+      </c>
+      <c r="W130">
+        <v>1.28</v>
+      </c>
+      <c r="X130">
+        <v>9</v>
+      </c>
+      <c r="Y130">
+        <v>1.04</v>
+      </c>
+      <c r="Z130">
+        <v>2.3</v>
+      </c>
+      <c r="AA130">
+        <v>3.2</v>
+      </c>
+      <c r="AB130">
+        <v>3.1</v>
+      </c>
+      <c r="AC130">
+        <v>1.08</v>
+      </c>
+      <c r="AD130">
+        <v>7.5</v>
+      </c>
+      <c r="AE130">
+        <v>1.42</v>
+      </c>
+      <c r="AF130">
+        <v>2.8</v>
+      </c>
+      <c r="AG130">
+        <v>2.25</v>
+      </c>
+      <c r="AH130">
+        <v>1.62</v>
+      </c>
+      <c r="AI130">
+        <v>1.91</v>
+      </c>
+      <c r="AJ130">
+        <v>1.8</v>
+      </c>
+      <c r="AK130">
+        <v>1.38</v>
+      </c>
+      <c r="AL130">
+        <v>1.3</v>
+      </c>
+      <c r="AM130">
+        <v>1.5</v>
+      </c>
+      <c r="AN130">
+        <v>2.14</v>
+      </c>
+      <c r="AO130">
+        <v>1</v>
+      </c>
+      <c r="AP130">
+        <v>1.88</v>
+      </c>
+      <c r="AQ130">
+        <v>1.25</v>
+      </c>
+      <c r="AR130">
+        <v>1.72</v>
+      </c>
+      <c r="AS130">
+        <v>1.33</v>
+      </c>
+      <c r="AT130">
+        <v>3.05</v>
+      </c>
+      <c r="AU130">
+        <v>6</v>
+      </c>
+      <c r="AV130">
+        <v>6</v>
+      </c>
+      <c r="AW130">
+        <v>17</v>
+      </c>
+      <c r="AX130">
+        <v>5</v>
+      </c>
+      <c r="AY130">
+        <v>23</v>
+      </c>
+      <c r="AZ130">
+        <v>11</v>
+      </c>
+      <c r="BA130">
+        <v>7</v>
+      </c>
+      <c r="BB130">
+        <v>2</v>
+      </c>
+      <c r="BC130">
+        <v>9</v>
+      </c>
+      <c r="BD130">
+        <v>1.67</v>
+      </c>
+      <c r="BE130">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF130">
+        <v>2.71</v>
+      </c>
+      <c r="BG130">
+        <v>1.19</v>
+      </c>
+      <c r="BH130">
+        <v>3.98</v>
+      </c>
+      <c r="BI130">
+        <v>1.37</v>
+      </c>
+      <c r="BJ130">
+        <v>2.75</v>
+      </c>
+      <c r="BK130">
+        <v>1.83</v>
+      </c>
+      <c r="BL130">
+        <v>2.06</v>
+      </c>
+      <c r="BM130">
+        <v>2.09</v>
+      </c>
+      <c r="BN130">
+        <v>1.63</v>
+      </c>
+      <c r="BO130">
+        <v>2.78</v>
+      </c>
+      <c r="BP130">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="131" spans="1:68">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>7380462</v>
+      </c>
+      <c r="C131" t="s">
+        <v>68</v>
+      </c>
+      <c r="D131" t="s">
+        <v>69</v>
+      </c>
+      <c r="E131" s="2">
+        <v>45478.875</v>
+      </c>
+      <c r="F131">
+        <v>14</v>
+      </c>
+      <c r="G131" t="s">
+        <v>79</v>
+      </c>
+      <c r="H131" t="s">
+        <v>77</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="K131">
+        <v>0</v>
+      </c>
+      <c r="L131">
+        <v>0</v>
+      </c>
+      <c r="M131">
+        <v>0</v>
+      </c>
+      <c r="N131">
+        <v>0</v>
+      </c>
+      <c r="O131" t="s">
+        <v>100</v>
+      </c>
+      <c r="P131" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q131">
+        <v>3.1</v>
+      </c>
+      <c r="R131">
+        <v>1.91</v>
+      </c>
+      <c r="S131">
+        <v>4.33</v>
+      </c>
+      <c r="T131">
+        <v>1.54</v>
+      </c>
+      <c r="U131">
+        <v>2.38</v>
+      </c>
+      <c r="V131">
+        <v>3.54</v>
+      </c>
+      <c r="W131">
+        <v>1.27</v>
+      </c>
+      <c r="X131">
+        <v>9.9</v>
+      </c>
+      <c r="Y131">
+        <v>1.03</v>
+      </c>
+      <c r="Z131">
+        <v>2.25</v>
+      </c>
+      <c r="AA131">
+        <v>2.9</v>
+      </c>
+      <c r="AB131">
+        <v>3.6</v>
+      </c>
+      <c r="AC131">
+        <v>1.06</v>
+      </c>
+      <c r="AD131">
+        <v>6.5</v>
+      </c>
+      <c r="AE131">
+        <v>1.5</v>
+      </c>
+      <c r="AF131">
+        <v>2.4</v>
+      </c>
+      <c r="AG131">
+        <v>2.7</v>
+      </c>
+      <c r="AH131">
+        <v>1.44</v>
+      </c>
+      <c r="AI131">
+        <v>2.2</v>
+      </c>
+      <c r="AJ131">
+        <v>1.62</v>
+      </c>
+      <c r="AK131">
+        <v>1.35</v>
+      </c>
+      <c r="AL131">
+        <v>1.33</v>
+      </c>
+      <c r="AM131">
+        <v>1.5</v>
+      </c>
+      <c r="AN131">
+        <v>1.5</v>
+      </c>
+      <c r="AO131">
+        <v>0.43</v>
+      </c>
+      <c r="AP131">
+        <v>1.43</v>
+      </c>
+      <c r="AQ131">
+        <v>0.5</v>
+      </c>
+      <c r="AR131">
+        <v>1.13</v>
+      </c>
+      <c r="AS131">
+        <v>1.27</v>
+      </c>
+      <c r="AT131">
+        <v>2.4</v>
+      </c>
+      <c r="AU131">
+        <v>6</v>
+      </c>
+      <c r="AV131">
+        <v>5</v>
+      </c>
+      <c r="AW131">
+        <v>10</v>
+      </c>
+      <c r="AX131">
+        <v>8</v>
+      </c>
+      <c r="AY131">
+        <v>16</v>
+      </c>
+      <c r="AZ131">
+        <v>13</v>
+      </c>
+      <c r="BA131">
+        <v>7</v>
+      </c>
+      <c r="BB131">
+        <v>5</v>
+      </c>
+      <c r="BC131">
+        <v>12</v>
+      </c>
+      <c r="BD131">
+        <v>1.72</v>
+      </c>
+      <c r="BE131">
+        <v>7.9</v>
+      </c>
+      <c r="BF131">
+        <v>2.62</v>
+      </c>
+      <c r="BG131">
+        <v>1.25</v>
+      </c>
+      <c r="BH131">
+        <v>3.6</v>
+      </c>
+      <c r="BI131">
+        <v>1.35</v>
+      </c>
+      <c r="BJ131">
+        <v>2.84</v>
+      </c>
+      <c r="BK131">
+        <v>2.1</v>
+      </c>
+      <c r="BL131">
+        <v>2.09</v>
+      </c>
+      <c r="BM131">
+        <v>2.06</v>
+      </c>
+      <c r="BN131">
+        <v>1.68</v>
+      </c>
+      <c r="BO131">
+        <v>2.67</v>
+      </c>
+      <c r="BP131">
         <v>1.39</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="231">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -553,6 +553,12 @@
     <t>['9']</t>
   </si>
   <si>
+    <t>['57', '71']</t>
+  </si>
+  <si>
+    <t>['3', '26', '31']</t>
+  </si>
+  <si>
     <t>['31', '49', '69']</t>
   </si>
   <si>
@@ -692,6 +698,15 @@
   </si>
   <si>
     <t>['45+3']</t>
+  </si>
+  <si>
+    <t>['40', '68']</t>
+  </si>
+  <si>
+    <t>['32']</t>
+  </si>
+  <si>
+    <t>['33', '48']</t>
   </si>
 </sst>
 </file>
@@ -1053,7 +1068,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP131"/>
+  <dimension ref="A1:BP136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2217,7 +2232,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ6">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2342,7 +2357,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q7">
         <v>4.33</v>
@@ -2423,7 +2438,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ7">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2754,7 +2769,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -3166,7 +3181,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q11">
         <v>3.5</v>
@@ -3372,7 +3387,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q12">
         <v>3.6</v>
@@ -3450,10 +3465,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ12">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3784,7 +3799,7 @@
         <v>100</v>
       </c>
       <c r="P14" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q14">
         <v>4.75</v>
@@ -3990,7 +4005,7 @@
         <v>100</v>
       </c>
       <c r="P15" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4068,10 +4083,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ15">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4483,7 +4498,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ17">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4686,7 +4701,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ18">
         <v>1.43</v>
@@ -4892,7 +4907,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ19">
         <v>0.43</v>
@@ -5098,7 +5113,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>2.67</v>
+        <v>2.29</v>
       </c>
       <c r="AQ20">
         <v>0.5</v>
@@ -5226,7 +5241,7 @@
         <v>106</v>
       </c>
       <c r="P21" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5716,10 +5731,10 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ23">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR23">
         <v>1.39</v>
@@ -5844,7 +5859,7 @@
         <v>107</v>
       </c>
       <c r="P24" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q24">
         <v>3.6</v>
@@ -6131,7 +6146,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ25">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR25">
         <v>1.46</v>
@@ -6256,7 +6271,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6334,7 +6349,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ26">
         <v>1.43</v>
@@ -6462,7 +6477,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q27">
         <v>4</v>
@@ -6668,7 +6683,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -7080,7 +7095,7 @@
         <v>112</v>
       </c>
       <c r="P30" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q30">
         <v>2.1</v>
@@ -7492,7 +7507,7 @@
         <v>113</v>
       </c>
       <c r="P32" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q32">
         <v>2.38</v>
@@ -7570,7 +7585,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ32">
         <v>0.33</v>
@@ -7698,7 +7713,7 @@
         <v>100</v>
       </c>
       <c r="P33" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -7982,7 +7997,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>2.67</v>
+        <v>2.29</v>
       </c>
       <c r="AQ34">
         <v>0.17</v>
@@ -8191,7 +8206,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ35">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR35">
         <v>1.74</v>
@@ -8600,10 +8615,10 @@
         <v>1</v>
       </c>
       <c r="AP37">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ37">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR37">
         <v>3.34</v>
@@ -8934,7 +8949,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q39">
         <v>2</v>
@@ -9346,7 +9361,7 @@
         <v>120</v>
       </c>
       <c r="P41" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q41">
         <v>2.25</v>
@@ -9427,7 +9442,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ41">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR41">
         <v>1.37</v>
@@ -9552,7 +9567,7 @@
         <v>121</v>
       </c>
       <c r="P42" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9758,7 +9773,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q43">
         <v>3.2</v>
@@ -10045,7 +10060,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ44">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR44">
         <v>1.09</v>
@@ -10248,7 +10263,7 @@
         <v>0</v>
       </c>
       <c r="AP45">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ45">
         <v>0</v>
@@ -10454,10 +10469,10 @@
         <v>3</v>
       </c>
       <c r="AP46">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ46">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR46">
         <v>1.18</v>
@@ -10660,7 +10675,7 @@
         <v>0.5</v>
       </c>
       <c r="AP47">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ47">
         <v>0.43</v>
@@ -10869,7 +10884,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ48">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR48">
         <v>1.4</v>
@@ -10994,7 +11009,7 @@
         <v>125</v>
       </c>
       <c r="P49" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -12105,7 +12120,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ54">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR54">
         <v>0.92</v>
@@ -12308,10 +12323,10 @@
         <v>0.5</v>
       </c>
       <c r="AP55">
-        <v>2.67</v>
+        <v>2.29</v>
       </c>
       <c r="AQ55">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR55">
         <v>1.77</v>
@@ -12436,7 +12451,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q56">
         <v>1.95</v>
@@ -13260,7 +13275,7 @@
         <v>118</v>
       </c>
       <c r="P60" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13338,7 +13353,7 @@
         <v>1</v>
       </c>
       <c r="AP60">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ60">
         <v>0.83</v>
@@ -13672,7 +13687,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q62">
         <v>3.4</v>
@@ -13750,7 +13765,7 @@
         <v>2</v>
       </c>
       <c r="AP62">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ62">
         <v>1.25</v>
@@ -13956,10 +13971,10 @@
         <v>0.33</v>
       </c>
       <c r="AP63">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ63">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR63">
         <v>2.11</v>
@@ -14162,7 +14177,7 @@
         <v>0.67</v>
       </c>
       <c r="AP64">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ64">
         <v>0.5</v>
@@ -14290,7 +14305,7 @@
         <v>135</v>
       </c>
       <c r="P65" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q65">
         <v>2.38</v>
@@ -14496,7 +14511,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q66">
         <v>2.3</v>
@@ -14577,7 +14592,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ66">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR66">
         <v>1.56</v>
@@ -14780,10 +14795,10 @@
         <v>1.33</v>
       </c>
       <c r="AP67">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ67">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR67">
         <v>1.62</v>
@@ -14908,7 +14923,7 @@
         <v>100</v>
       </c>
       <c r="P68" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q68">
         <v>3.6</v>
@@ -15810,10 +15825,10 @@
         <v>2</v>
       </c>
       <c r="AP72">
-        <v>2.67</v>
+        <v>2.29</v>
       </c>
       <c r="AQ72">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR72">
         <v>1.76</v>
@@ -16144,7 +16159,7 @@
         <v>90</v>
       </c>
       <c r="P74" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q74">
         <v>3.1</v>
@@ -16350,7 +16365,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -16634,7 +16649,7 @@
         <v>1.33</v>
       </c>
       <c r="AP76">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ76">
         <v>1.5</v>
@@ -16762,7 +16777,7 @@
         <v>139</v>
       </c>
       <c r="P77" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q77">
         <v>2.2</v>
@@ -16843,7 +16858,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ77">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR77">
         <v>1.71</v>
@@ -17586,7 +17601,7 @@
         <v>146</v>
       </c>
       <c r="P81" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q81">
         <v>2.05</v>
@@ -17664,7 +17679,7 @@
         <v>0</v>
       </c>
       <c r="AP81">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ81">
         <v>0.17</v>
@@ -17792,7 +17807,7 @@
         <v>147</v>
       </c>
       <c r="P82" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q82">
         <v>4</v>
@@ -17998,7 +18013,7 @@
         <v>100</v>
       </c>
       <c r="P83" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q83">
         <v>3.2</v>
@@ -18076,10 +18091,10 @@
         <v>1</v>
       </c>
       <c r="AP83">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ83">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR83">
         <v>1.96</v>
@@ -18204,7 +18219,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q84">
         <v>2.75</v>
@@ -18491,7 +18506,7 @@
         <v>2</v>
       </c>
       <c r="AQ85">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR85">
         <v>1.43</v>
@@ -18694,7 +18709,7 @@
         <v>0.5</v>
       </c>
       <c r="AP86">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ86">
         <v>0.5</v>
@@ -18822,7 +18837,7 @@
         <v>150</v>
       </c>
       <c r="P87" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q87">
         <v>3.5</v>
@@ -19109,7 +19124,7 @@
         <v>2</v>
       </c>
       <c r="AQ88">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR88">
         <v>1.37</v>
@@ -19521,7 +19536,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ90">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR90">
         <v>1.45</v>
@@ -19852,7 +19867,7 @@
         <v>153</v>
       </c>
       <c r="P92" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q92">
         <v>2.63</v>
@@ -20136,7 +20151,7 @@
         <v>0.25</v>
       </c>
       <c r="AP93">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ93">
         <v>0.33</v>
@@ -20470,7 +20485,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q95">
         <v>3.5</v>
@@ -20548,10 +20563,10 @@
         <v>0.4</v>
       </c>
       <c r="AP95">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ95">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR95">
         <v>1.35</v>
@@ -21088,7 +21103,7 @@
         <v>116</v>
       </c>
       <c r="P98" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q98">
         <v>3</v>
@@ -21166,7 +21181,7 @@
         <v>0.5</v>
       </c>
       <c r="AP98">
-        <v>2.67</v>
+        <v>2.29</v>
       </c>
       <c r="AQ98">
         <v>0.5</v>
@@ -21500,7 +21515,7 @@
         <v>100</v>
       </c>
       <c r="P100" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q100">
         <v>3.5</v>
@@ -21581,7 +21596,7 @@
         <v>1</v>
       </c>
       <c r="AQ100">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR100">
         <v>1.66</v>
@@ -21706,7 +21721,7 @@
         <v>160</v>
       </c>
       <c r="P101" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q101">
         <v>2.6</v>
@@ -21784,7 +21799,7 @@
         <v>0</v>
       </c>
       <c r="AP101">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ101">
         <v>0.17</v>
@@ -22118,7 +22133,7 @@
         <v>162</v>
       </c>
       <c r="P103" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q103">
         <v>2.88</v>
@@ -22814,7 +22829,7 @@
         <v>1.25</v>
       </c>
       <c r="AP106">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ106">
         <v>0.83</v>
@@ -23435,7 +23450,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ109">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR109">
         <v>1.74</v>
@@ -23847,7 +23862,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ111">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR111">
         <v>1.48</v>
@@ -23972,7 +23987,7 @@
         <v>125</v>
       </c>
       <c r="P112" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q112">
         <v>3.05</v>
@@ -24050,7 +24065,7 @@
         <v>0.2</v>
       </c>
       <c r="AP112">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ112">
         <v>0.43</v>
@@ -24178,7 +24193,7 @@
         <v>167</v>
       </c>
       <c r="P113" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q113">
         <v>3.25</v>
@@ -24259,7 +24274,7 @@
         <v>1</v>
       </c>
       <c r="AQ113">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR113">
         <v>1.58</v>
@@ -24590,7 +24605,7 @@
         <v>169</v>
       </c>
       <c r="P115" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q115">
         <v>2.68</v>
@@ -25002,7 +25017,7 @@
         <v>170</v>
       </c>
       <c r="P117" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q117">
         <v>2.38</v>
@@ -25080,7 +25095,7 @@
         <v>1.6</v>
       </c>
       <c r="AP117">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ117">
         <v>1.5</v>
@@ -25620,7 +25635,7 @@
         <v>90</v>
       </c>
       <c r="P120" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q120">
         <v>2.4</v>
@@ -25698,7 +25713,7 @@
         <v>0.2</v>
       </c>
       <c r="AP120">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ120">
         <v>0.33</v>
@@ -25826,7 +25841,7 @@
         <v>172</v>
       </c>
       <c r="P121" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q121">
         <v>4</v>
@@ -25907,7 +25922,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ121">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR121">
         <v>1.51</v>
@@ -26032,7 +26047,7 @@
         <v>173</v>
       </c>
       <c r="P122" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q122">
         <v>1.95</v>
@@ -26444,7 +26459,7 @@
         <v>174</v>
       </c>
       <c r="P124" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q124">
         <v>2.75</v>
@@ -26525,7 +26540,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ124">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR124">
         <v>1.19</v>
@@ -26650,7 +26665,7 @@
         <v>175</v>
       </c>
       <c r="P125" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q125">
         <v>3</v>
@@ -26728,7 +26743,7 @@
         <v>0.33</v>
       </c>
       <c r="AP125">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ125">
         <v>0.5</v>
@@ -26937,7 +26952,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ126">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR126">
         <v>1.76</v>
@@ -27062,7 +27077,7 @@
         <v>176</v>
       </c>
       <c r="P127" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q127">
         <v>2.4</v>
@@ -27268,7 +27283,7 @@
         <v>177</v>
       </c>
       <c r="P128" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q128">
         <v>2.75</v>
@@ -27346,7 +27361,7 @@
         <v>1</v>
       </c>
       <c r="AP128">
-        <v>2.67</v>
+        <v>2.29</v>
       </c>
       <c r="AQ128">
         <v>0.83</v>
@@ -27474,7 +27489,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q129">
         <v>3.25</v>
@@ -27779,16 +27794,16 @@
         <v>6</v>
       </c>
       <c r="AW130">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AX130">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AY130">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AZ130">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="BA130">
         <v>7</v>
@@ -27979,22 +27994,22 @@
         <v>2.4</v>
       </c>
       <c r="AU131">
+        <v>5</v>
+      </c>
+      <c r="AV131">
+        <v>4</v>
+      </c>
+      <c r="AW131">
         <v>6</v>
       </c>
-      <c r="AV131">
-        <v>5</v>
-      </c>
-      <c r="AW131">
+      <c r="AX131">
+        <v>6</v>
+      </c>
+      <c r="AY131">
+        <v>11</v>
+      </c>
+      <c r="AZ131">
         <v>10</v>
-      </c>
-      <c r="AX131">
-        <v>8</v>
-      </c>
-      <c r="AY131">
-        <v>16</v>
-      </c>
-      <c r="AZ131">
-        <v>13</v>
       </c>
       <c r="BA131">
         <v>7</v>
@@ -28043,6 +28058,1036 @@
       </c>
       <c r="BP131">
         <v>1.39</v>
+      </c>
+    </row>
+    <row r="132" spans="1:68">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>7380460</v>
+      </c>
+      <c r="C132" t="s">
+        <v>68</v>
+      </c>
+      <c r="D132" t="s">
+        <v>69</v>
+      </c>
+      <c r="E132" s="2">
+        <v>45479.45833333334</v>
+      </c>
+      <c r="F132">
+        <v>14</v>
+      </c>
+      <c r="G132" t="s">
+        <v>86</v>
+      </c>
+      <c r="H132" t="s">
+        <v>72</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <v>0</v>
+      </c>
+      <c r="L132">
+        <v>2</v>
+      </c>
+      <c r="M132">
+        <v>0</v>
+      </c>
+      <c r="N132">
+        <v>2</v>
+      </c>
+      <c r="O132" t="s">
+        <v>179</v>
+      </c>
+      <c r="P132" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q132">
+        <v>2.3</v>
+      </c>
+      <c r="R132">
+        <v>2.1</v>
+      </c>
+      <c r="S132">
+        <v>6</v>
+      </c>
+      <c r="T132">
+        <v>1.45</v>
+      </c>
+      <c r="U132">
+        <v>2.63</v>
+      </c>
+      <c r="V132">
+        <v>3.15</v>
+      </c>
+      <c r="W132">
+        <v>1.33</v>
+      </c>
+      <c r="X132">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Y132">
+        <v>1.06</v>
+      </c>
+      <c r="Z132">
+        <v>1.74</v>
+      </c>
+      <c r="AA132">
+        <v>3.35</v>
+      </c>
+      <c r="AB132">
+        <v>5</v>
+      </c>
+      <c r="AC132">
+        <v>1.07</v>
+      </c>
+      <c r="AD132">
+        <v>8</v>
+      </c>
+      <c r="AE132">
+        <v>1.48</v>
+      </c>
+      <c r="AF132">
+        <v>2.37</v>
+      </c>
+      <c r="AG132">
+        <v>2.25</v>
+      </c>
+      <c r="AH132">
+        <v>1.6</v>
+      </c>
+      <c r="AI132">
+        <v>2.2</v>
+      </c>
+      <c r="AJ132">
+        <v>1.62</v>
+      </c>
+      <c r="AK132">
+        <v>1.13</v>
+      </c>
+      <c r="AL132">
+        <v>1.2</v>
+      </c>
+      <c r="AM132">
+        <v>2.25</v>
+      </c>
+      <c r="AN132">
+        <v>2.43</v>
+      </c>
+      <c r="AO132">
+        <v>1.57</v>
+      </c>
+      <c r="AP132">
+        <v>2.5</v>
+      </c>
+      <c r="AQ132">
+        <v>1.38</v>
+      </c>
+      <c r="AR132">
+        <v>1.84</v>
+      </c>
+      <c r="AS132">
+        <v>1.44</v>
+      </c>
+      <c r="AT132">
+        <v>3.28</v>
+      </c>
+      <c r="AU132">
+        <v>4</v>
+      </c>
+      <c r="AV132">
+        <v>3</v>
+      </c>
+      <c r="AW132">
+        <v>7</v>
+      </c>
+      <c r="AX132">
+        <v>4</v>
+      </c>
+      <c r="AY132">
+        <v>11</v>
+      </c>
+      <c r="AZ132">
+        <v>7</v>
+      </c>
+      <c r="BA132">
+        <v>3</v>
+      </c>
+      <c r="BB132">
+        <v>7</v>
+      </c>
+      <c r="BC132">
+        <v>10</v>
+      </c>
+      <c r="BD132">
+        <v>1.5</v>
+      </c>
+      <c r="BE132">
+        <v>8</v>
+      </c>
+      <c r="BF132">
+        <v>3.34</v>
+      </c>
+      <c r="BG132">
+        <v>1.22</v>
+      </c>
+      <c r="BH132">
+        <v>3.8</v>
+      </c>
+      <c r="BI132">
+        <v>1.33</v>
+      </c>
+      <c r="BJ132">
+        <v>2.93</v>
+      </c>
+      <c r="BK132">
+        <v>2</v>
+      </c>
+      <c r="BL132">
+        <v>2.17</v>
+      </c>
+      <c r="BM132">
+        <v>1.99</v>
+      </c>
+      <c r="BN132">
+        <v>1.73</v>
+      </c>
+      <c r="BO132">
+        <v>2.57</v>
+      </c>
+      <c r="BP132">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="133" spans="1:68">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>7380456</v>
+      </c>
+      <c r="C133" t="s">
+        <v>68</v>
+      </c>
+      <c r="D133" t="s">
+        <v>69</v>
+      </c>
+      <c r="E133" s="2">
+        <v>45479.70833333334</v>
+      </c>
+      <c r="F133">
+        <v>14</v>
+      </c>
+      <c r="G133" t="s">
+        <v>88</v>
+      </c>
+      <c r="H133" t="s">
+        <v>73</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>1</v>
+      </c>
+      <c r="K133">
+        <v>1</v>
+      </c>
+      <c r="L133">
+        <v>1</v>
+      </c>
+      <c r="M133">
+        <v>2</v>
+      </c>
+      <c r="N133">
+        <v>3</v>
+      </c>
+      <c r="O133" t="s">
+        <v>140</v>
+      </c>
+      <c r="P133" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q133">
+        <v>2.25</v>
+      </c>
+      <c r="R133">
+        <v>2.1</v>
+      </c>
+      <c r="S133">
+        <v>6.5</v>
+      </c>
+      <c r="T133">
+        <v>1.48</v>
+      </c>
+      <c r="U133">
+        <v>2.45</v>
+      </c>
+      <c r="V133">
+        <v>3.2</v>
+      </c>
+      <c r="W133">
+        <v>1.3</v>
+      </c>
+      <c r="X133">
+        <v>8.6</v>
+      </c>
+      <c r="Y133">
+        <v>1.05</v>
+      </c>
+      <c r="Z133">
+        <v>1.59</v>
+      </c>
+      <c r="AA133">
+        <v>3.8</v>
+      </c>
+      <c r="AB133">
+        <v>5.78</v>
+      </c>
+      <c r="AC133">
+        <v>1.04</v>
+      </c>
+      <c r="AD133">
+        <v>7.5</v>
+      </c>
+      <c r="AE133">
+        <v>1.37</v>
+      </c>
+      <c r="AF133">
+        <v>2.75</v>
+      </c>
+      <c r="AG133">
+        <v>2.12</v>
+      </c>
+      <c r="AH133">
+        <v>1.66</v>
+      </c>
+      <c r="AI133">
+        <v>2.25</v>
+      </c>
+      <c r="AJ133">
+        <v>1.57</v>
+      </c>
+      <c r="AK133">
+        <v>1.12</v>
+      </c>
+      <c r="AL133">
+        <v>1.22</v>
+      </c>
+      <c r="AM133">
+        <v>2.3</v>
+      </c>
+      <c r="AN133">
+        <v>2.67</v>
+      </c>
+      <c r="AO133">
+        <v>1.14</v>
+      </c>
+      <c r="AP133">
+        <v>2.29</v>
+      </c>
+      <c r="AQ133">
+        <v>1.38</v>
+      </c>
+      <c r="AR133">
+        <v>1.64</v>
+      </c>
+      <c r="AS133">
+        <v>1.08</v>
+      </c>
+      <c r="AT133">
+        <v>2.72</v>
+      </c>
+      <c r="AU133">
+        <v>9</v>
+      </c>
+      <c r="AV133">
+        <v>4</v>
+      </c>
+      <c r="AW133">
+        <v>6</v>
+      </c>
+      <c r="AX133">
+        <v>3</v>
+      </c>
+      <c r="AY133">
+        <v>15</v>
+      </c>
+      <c r="AZ133">
+        <v>7</v>
+      </c>
+      <c r="BA133">
+        <v>14</v>
+      </c>
+      <c r="BB133">
+        <v>1</v>
+      </c>
+      <c r="BC133">
+        <v>15</v>
+      </c>
+      <c r="BD133">
+        <v>1.5</v>
+      </c>
+      <c r="BE133">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF133">
+        <v>3.24</v>
+      </c>
+      <c r="BG133">
+        <v>1.22</v>
+      </c>
+      <c r="BH133">
+        <v>3.8</v>
+      </c>
+      <c r="BI133">
+        <v>1.33</v>
+      </c>
+      <c r="BJ133">
+        <v>2.91</v>
+      </c>
+      <c r="BK133">
+        <v>2</v>
+      </c>
+      <c r="BL133">
+        <v>2.14</v>
+      </c>
+      <c r="BM133">
+        <v>2.02</v>
+      </c>
+      <c r="BN133">
+        <v>1.71</v>
+      </c>
+      <c r="BO133">
+        <v>2.6</v>
+      </c>
+      <c r="BP133">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="134" spans="1:68">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>7380463</v>
+      </c>
+      <c r="C134" t="s">
+        <v>68</v>
+      </c>
+      <c r="D134" t="s">
+        <v>69</v>
+      </c>
+      <c r="E134" s="2">
+        <v>45480.45833333334</v>
+      </c>
+      <c r="F134">
+        <v>14</v>
+      </c>
+      <c r="G134" t="s">
+        <v>87</v>
+      </c>
+      <c r="H134" t="s">
+        <v>85</v>
+      </c>
+      <c r="I134">
+        <v>1</v>
+      </c>
+      <c r="J134">
+        <v>1</v>
+      </c>
+      <c r="K134">
+        <v>2</v>
+      </c>
+      <c r="L134">
+        <v>1</v>
+      </c>
+      <c r="M134">
+        <v>1</v>
+      </c>
+      <c r="N134">
+        <v>2</v>
+      </c>
+      <c r="O134" t="s">
+        <v>96</v>
+      </c>
+      <c r="P134" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q134">
+        <v>2.5</v>
+      </c>
+      <c r="R134">
+        <v>2.05</v>
+      </c>
+      <c r="S134">
+        <v>5</v>
+      </c>
+      <c r="T134">
+        <v>1.48</v>
+      </c>
+      <c r="U134">
+        <v>2.5</v>
+      </c>
+      <c r="V134">
+        <v>3.2</v>
+      </c>
+      <c r="W134">
+        <v>1.3</v>
+      </c>
+      <c r="X134">
+        <v>8.5</v>
+      </c>
+      <c r="Y134">
+        <v>1.05</v>
+      </c>
+      <c r="Z134">
+        <v>1.83</v>
+      </c>
+      <c r="AA134">
+        <v>3</v>
+      </c>
+      <c r="AB134">
+        <v>3.76</v>
+      </c>
+      <c r="AC134">
+        <v>1.08</v>
+      </c>
+      <c r="AD134">
+        <v>7.5</v>
+      </c>
+      <c r="AE134">
+        <v>1.4</v>
+      </c>
+      <c r="AF134">
+        <v>2.88</v>
+      </c>
+      <c r="AG134">
+        <v>2.2</v>
+      </c>
+      <c r="AH134">
+        <v>1.6</v>
+      </c>
+      <c r="AI134">
+        <v>2.1</v>
+      </c>
+      <c r="AJ134">
+        <v>1.67</v>
+      </c>
+      <c r="AK134">
+        <v>1.2</v>
+      </c>
+      <c r="AL134">
+        <v>1.25</v>
+      </c>
+      <c r="AM134">
+        <v>1.93</v>
+      </c>
+      <c r="AN134">
+        <v>2.29</v>
+      </c>
+      <c r="AO134">
+        <v>1.14</v>
+      </c>
+      <c r="AP134">
+        <v>2.13</v>
+      </c>
+      <c r="AQ134">
+        <v>1.13</v>
+      </c>
+      <c r="AR134">
+        <v>1.81</v>
+      </c>
+      <c r="AS134">
+        <v>1.49</v>
+      </c>
+      <c r="AT134">
+        <v>3.3</v>
+      </c>
+      <c r="AU134">
+        <v>5</v>
+      </c>
+      <c r="AV134">
+        <v>4</v>
+      </c>
+      <c r="AW134">
+        <v>6</v>
+      </c>
+      <c r="AX134">
+        <v>3</v>
+      </c>
+      <c r="AY134">
+        <v>11</v>
+      </c>
+      <c r="AZ134">
+        <v>7</v>
+      </c>
+      <c r="BA134">
+        <v>8</v>
+      </c>
+      <c r="BB134">
+        <v>7</v>
+      </c>
+      <c r="BC134">
+        <v>15</v>
+      </c>
+      <c r="BD134">
+        <v>1.62</v>
+      </c>
+      <c r="BE134">
+        <v>6.9</v>
+      </c>
+      <c r="BF134">
+        <v>2.91</v>
+      </c>
+      <c r="BG134">
+        <v>1.22</v>
+      </c>
+      <c r="BH134">
+        <v>3.8</v>
+      </c>
+      <c r="BI134">
+        <v>1.32</v>
+      </c>
+      <c r="BJ134">
+        <v>2.98</v>
+      </c>
+      <c r="BK134">
+        <v>1.91</v>
+      </c>
+      <c r="BL134">
+        <v>2.19</v>
+      </c>
+      <c r="BM134">
+        <v>2</v>
+      </c>
+      <c r="BN134">
+        <v>1.8</v>
+      </c>
+      <c r="BO134">
+        <v>2.54</v>
+      </c>
+      <c r="BP134">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="135" spans="1:68">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>7380459</v>
+      </c>
+      <c r="C135" t="s">
+        <v>68</v>
+      </c>
+      <c r="D135" t="s">
+        <v>69</v>
+      </c>
+      <c r="E135" s="2">
+        <v>45480.66666666666</v>
+      </c>
+      <c r="F135">
+        <v>14</v>
+      </c>
+      <c r="G135" t="s">
+        <v>80</v>
+      </c>
+      <c r="H135" t="s">
+        <v>70</v>
+      </c>
+      <c r="I135">
+        <v>3</v>
+      </c>
+      <c r="J135">
+        <v>1</v>
+      </c>
+      <c r="K135">
+        <v>4</v>
+      </c>
+      <c r="L135">
+        <v>3</v>
+      </c>
+      <c r="M135">
+        <v>2</v>
+      </c>
+      <c r="N135">
+        <v>5</v>
+      </c>
+      <c r="O135" t="s">
+        <v>180</v>
+      </c>
+      <c r="P135" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q135">
+        <v>3.5</v>
+      </c>
+      <c r="R135">
+        <v>1.91</v>
+      </c>
+      <c r="S135">
+        <v>3.6</v>
+      </c>
+      <c r="T135">
+        <v>1.57</v>
+      </c>
+      <c r="U135">
+        <v>2.25</v>
+      </c>
+      <c r="V135">
+        <v>3.65</v>
+      </c>
+      <c r="W135">
+        <v>1.25</v>
+      </c>
+      <c r="X135">
+        <v>10</v>
+      </c>
+      <c r="Y135">
+        <v>1.03</v>
+      </c>
+      <c r="Z135">
+        <v>2.55</v>
+      </c>
+      <c r="AA135">
+        <v>2.88</v>
+      </c>
+      <c r="AB135">
+        <v>2.9</v>
+      </c>
+      <c r="AC135">
+        <v>1.1</v>
+      </c>
+      <c r="AD135">
+        <v>6.5</v>
+      </c>
+      <c r="AE135">
+        <v>1.5</v>
+      </c>
+      <c r="AF135">
+        <v>2.4</v>
+      </c>
+      <c r="AG135">
+        <v>2.4</v>
+      </c>
+      <c r="AH135">
+        <v>1.5</v>
+      </c>
+      <c r="AI135">
+        <v>2.1</v>
+      </c>
+      <c r="AJ135">
+        <v>1.67</v>
+      </c>
+      <c r="AK135">
+        <v>1.4</v>
+      </c>
+      <c r="AL135">
+        <v>1.33</v>
+      </c>
+      <c r="AM135">
+        <v>1.48</v>
+      </c>
+      <c r="AN135">
+        <v>1</v>
+      </c>
+      <c r="AO135">
+        <v>1.4</v>
+      </c>
+      <c r="AP135">
+        <v>1.25</v>
+      </c>
+      <c r="AQ135">
+        <v>1.17</v>
+      </c>
+      <c r="AR135">
+        <v>1.41</v>
+      </c>
+      <c r="AS135">
+        <v>1.19</v>
+      </c>
+      <c r="AT135">
+        <v>2.6</v>
+      </c>
+      <c r="AU135">
+        <v>4</v>
+      </c>
+      <c r="AV135">
+        <v>10</v>
+      </c>
+      <c r="AW135">
+        <v>1</v>
+      </c>
+      <c r="AX135">
+        <v>6</v>
+      </c>
+      <c r="AY135">
+        <v>5</v>
+      </c>
+      <c r="AZ135">
+        <v>16</v>
+      </c>
+      <c r="BA135">
+        <v>1</v>
+      </c>
+      <c r="BB135">
+        <v>13</v>
+      </c>
+      <c r="BC135">
+        <v>14</v>
+      </c>
+      <c r="BD135">
+        <v>1.94</v>
+      </c>
+      <c r="BE135">
+        <v>6.45</v>
+      </c>
+      <c r="BF135">
+        <v>2.3</v>
+      </c>
+      <c r="BG135">
+        <v>1.21</v>
+      </c>
+      <c r="BH135">
+        <v>3.74</v>
+      </c>
+      <c r="BI135">
+        <v>1.4</v>
+      </c>
+      <c r="BJ135">
+        <v>2.64</v>
+      </c>
+      <c r="BK135">
+        <v>2.38</v>
+      </c>
+      <c r="BL135">
+        <v>1.9</v>
+      </c>
+      <c r="BM135">
+        <v>2.17</v>
+      </c>
+      <c r="BN135">
+        <v>1.58</v>
+      </c>
+      <c r="BO135">
+        <v>2.88</v>
+      </c>
+      <c r="BP135">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="136" spans="1:68">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>7380457</v>
+      </c>
+      <c r="C136" t="s">
+        <v>68</v>
+      </c>
+      <c r="D136" t="s">
+        <v>69</v>
+      </c>
+      <c r="E136" s="2">
+        <v>45480.77083333334</v>
+      </c>
+      <c r="F136">
+        <v>14</v>
+      </c>
+      <c r="G136" t="s">
+        <v>83</v>
+      </c>
+      <c r="H136" t="s">
+        <v>81</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="J136">
+        <v>0</v>
+      </c>
+      <c r="K136">
+        <v>0</v>
+      </c>
+      <c r="L136">
+        <v>0</v>
+      </c>
+      <c r="M136">
+        <v>1</v>
+      </c>
+      <c r="N136">
+        <v>1</v>
+      </c>
+      <c r="O136" t="s">
+        <v>100</v>
+      </c>
+      <c r="P136" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q136">
+        <v>3.75</v>
+      </c>
+      <c r="R136">
+        <v>2</v>
+      </c>
+      <c r="S136">
+        <v>3.2</v>
+      </c>
+      <c r="T136">
+        <v>1.53</v>
+      </c>
+      <c r="U136">
+        <v>2.35</v>
+      </c>
+      <c r="V136">
+        <v>3.4</v>
+      </c>
+      <c r="W136">
+        <v>1.28</v>
+      </c>
+      <c r="X136">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Y136">
+        <v>1.04</v>
+      </c>
+      <c r="Z136">
+        <v>3.1</v>
+      </c>
+      <c r="AA136">
+        <v>3</v>
+      </c>
+      <c r="AB136">
+        <v>2.38</v>
+      </c>
+      <c r="AC136">
+        <v>1.1</v>
+      </c>
+      <c r="AD136">
+        <v>6.5</v>
+      </c>
+      <c r="AE136">
+        <v>1.48</v>
+      </c>
+      <c r="AF136">
+        <v>2.62</v>
+      </c>
+      <c r="AG136">
+        <v>2.3</v>
+      </c>
+      <c r="AH136">
+        <v>1.6</v>
+      </c>
+      <c r="AI136">
+        <v>2</v>
+      </c>
+      <c r="AJ136">
+        <v>1.73</v>
+      </c>
+      <c r="AK136">
+        <v>1.57</v>
+      </c>
+      <c r="AL136">
+        <v>1.3</v>
+      </c>
+      <c r="AM136">
+        <v>1.33</v>
+      </c>
+      <c r="AN136">
+        <v>0.86</v>
+      </c>
+      <c r="AO136">
+        <v>1.33</v>
+      </c>
+      <c r="AP136">
+        <v>0.75</v>
+      </c>
+      <c r="AQ136">
+        <v>1.57</v>
+      </c>
+      <c r="AR136">
+        <v>1.79</v>
+      </c>
+      <c r="AS136">
+        <v>1.33</v>
+      </c>
+      <c r="AT136">
+        <v>3.12</v>
+      </c>
+      <c r="AU136">
+        <v>4</v>
+      </c>
+      <c r="AV136">
+        <v>6</v>
+      </c>
+      <c r="AW136">
+        <v>6</v>
+      </c>
+      <c r="AX136">
+        <v>7</v>
+      </c>
+      <c r="AY136">
+        <v>10</v>
+      </c>
+      <c r="AZ136">
+        <v>13</v>
+      </c>
+      <c r="BA136">
+        <v>5</v>
+      </c>
+      <c r="BB136">
+        <v>5</v>
+      </c>
+      <c r="BC136">
+        <v>10</v>
+      </c>
+      <c r="BD136">
+        <v>2.15</v>
+      </c>
+      <c r="BE136">
+        <v>6.55</v>
+      </c>
+      <c r="BF136">
+        <v>2.05</v>
+      </c>
+      <c r="BG136">
+        <v>1.17</v>
+      </c>
+      <c r="BH136">
+        <v>4.5</v>
+      </c>
+      <c r="BI136">
+        <v>1.26</v>
+      </c>
+      <c r="BJ136">
+        <v>3.34</v>
+      </c>
+      <c r="BK136">
+        <v>1.91</v>
+      </c>
+      <c r="BL136">
+        <v>2.42</v>
+      </c>
+      <c r="BM136">
+        <v>1.98</v>
+      </c>
+      <c r="BN136">
+        <v>1.82</v>
+      </c>
+      <c r="BO136">
+        <v>2.28</v>
+      </c>
+      <c r="BP136">
+        <v>1.53</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="233">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -559,6 +559,9 @@
     <t>['3', '26', '31']</t>
   </si>
   <si>
+    <t>['17']</t>
+  </si>
+  <si>
     <t>['31', '49', '69']</t>
   </si>
   <si>
@@ -620,9 +623,6 @@
   </si>
   <si>
     <t>['25', '55']</t>
-  </si>
-  <si>
-    <t>['17']</t>
   </si>
   <si>
     <t>['88']</t>
@@ -707,6 +707,12 @@
   </si>
   <si>
     <t>['33', '48']</t>
+  </si>
+  <si>
+    <t>['43']</t>
+  </si>
+  <si>
+    <t>['52', '64']</t>
   </si>
 </sst>
 </file>
@@ -1068,7 +1074,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP136"/>
+  <dimension ref="A1:BP138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2357,7 +2363,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q7">
         <v>4.33</v>
@@ -2435,7 +2441,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ7">
         <v>1.57</v>
@@ -2769,7 +2775,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -3181,7 +3187,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q11">
         <v>3.5</v>
@@ -3387,7 +3393,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q12">
         <v>3.6</v>
@@ -3674,7 +3680,7 @@
         <v>2</v>
       </c>
       <c r="AQ13">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3799,7 +3805,7 @@
         <v>100</v>
       </c>
       <c r="P14" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q14">
         <v>4.75</v>
@@ -3877,7 +3883,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ14">
         <v>1.25</v>
@@ -4005,7 +4011,7 @@
         <v>100</v>
       </c>
       <c r="P15" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4704,7 +4710,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ18">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5241,7 +5247,7 @@
         <v>106</v>
       </c>
       <c r="P21" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5859,7 +5865,7 @@
         <v>107</v>
       </c>
       <c r="P24" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q24">
         <v>3.6</v>
@@ -6271,7 +6277,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6352,7 +6358,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ26">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR26">
         <v>1.2</v>
@@ -6477,7 +6483,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q27">
         <v>4</v>
@@ -6683,7 +6689,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -7095,7 +7101,7 @@
         <v>112</v>
       </c>
       <c r="P30" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q30">
         <v>2.1</v>
@@ -7507,7 +7513,7 @@
         <v>113</v>
       </c>
       <c r="P32" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q32">
         <v>2.38</v>
@@ -7588,7 +7594,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ32">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AR32">
         <v>2.22</v>
@@ -7713,7 +7719,7 @@
         <v>100</v>
       </c>
       <c r="P33" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -8821,7 +8827,7 @@
         <v>3</v>
       </c>
       <c r="AP38">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ38">
         <v>1.25</v>
@@ -8949,7 +8955,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q39">
         <v>2</v>
@@ -9233,7 +9239,7 @@
         <v>1</v>
       </c>
       <c r="AP40">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ40">
         <v>0.5</v>
@@ -9361,7 +9367,7 @@
         <v>120</v>
       </c>
       <c r="P41" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q41">
         <v>2.25</v>
@@ -9567,7 +9573,7 @@
         <v>121</v>
       </c>
       <c r="P42" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9645,7 +9651,7 @@
         <v>0.5</v>
       </c>
       <c r="AP42">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ42">
         <v>0.33</v>
@@ -9773,7 +9779,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q43">
         <v>3.2</v>
@@ -9854,7 +9860,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ43">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR43">
         <v>1.32</v>
@@ -11009,7 +11015,7 @@
         <v>125</v>
       </c>
       <c r="P49" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -11708,7 +11714,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ52">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AR52">
         <v>1.8</v>
@@ -12117,7 +12123,7 @@
         <v>0</v>
       </c>
       <c r="AP54">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ54">
         <v>1.13</v>
@@ -12451,7 +12457,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q56">
         <v>1.95</v>
@@ -13275,7 +13281,7 @@
         <v>118</v>
       </c>
       <c r="P60" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13687,7 +13693,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q62">
         <v>3.4</v>
@@ -14305,7 +14311,7 @@
         <v>135</v>
       </c>
       <c r="P65" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q65">
         <v>2.38</v>
@@ -14511,7 +14517,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="Q66">
         <v>2.3</v>
@@ -15004,7 +15010,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ68">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR68">
         <v>1.37</v>
@@ -15207,7 +15213,7 @@
         <v>1.67</v>
       </c>
       <c r="AP69">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ69">
         <v>0.71</v>
@@ -15413,7 +15419,7 @@
         <v>0.67</v>
       </c>
       <c r="AP70">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ70">
         <v>0.43</v>
@@ -16034,7 +16040,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ73">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR73">
         <v>1.23</v>
@@ -16240,7 +16246,7 @@
         <v>1</v>
       </c>
       <c r="AQ74">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AR74">
         <v>1.65</v>
@@ -18297,7 +18303,7 @@
         <v>0.25</v>
       </c>
       <c r="AP84">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ84">
         <v>0.43</v>
@@ -18503,7 +18509,7 @@
         <v>1</v>
       </c>
       <c r="AP85">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ85">
         <v>1.38</v>
@@ -19533,7 +19539,7 @@
         <v>1</v>
       </c>
       <c r="AP90">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ90">
         <v>1.38</v>
@@ -19945,7 +19951,7 @@
         <v>0</v>
       </c>
       <c r="AP92">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ92">
         <v>0</v>
@@ -20360,7 +20366,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ94">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR94">
         <v>1.57</v>
@@ -20772,7 +20778,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ96">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AR96">
         <v>1.38</v>
@@ -24686,7 +24692,7 @@
         <v>2</v>
       </c>
       <c r="AQ115">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR115">
         <v>1.4</v>
@@ -25507,7 +25513,7 @@
         <v>0.6</v>
       </c>
       <c r="AP119">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ119">
         <v>0.5</v>
@@ -25716,7 +25722,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ120">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AR120">
         <v>1.67</v>
@@ -26331,7 +26337,7 @@
         <v>0.4</v>
       </c>
       <c r="AP123">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ123">
         <v>0.5</v>
@@ -29088,6 +29094,418 @@
       </c>
       <c r="BP136">
         <v>1.53</v>
+      </c>
+    </row>
+    <row r="137" spans="1:68">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>7380461</v>
+      </c>
+      <c r="C137" t="s">
+        <v>68</v>
+      </c>
+      <c r="D137" t="s">
+        <v>69</v>
+      </c>
+      <c r="E137" s="2">
+        <v>45481.83333333334</v>
+      </c>
+      <c r="F137">
+        <v>14</v>
+      </c>
+      <c r="G137" t="s">
+        <v>82</v>
+      </c>
+      <c r="H137" t="s">
+        <v>71</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <v>1</v>
+      </c>
+      <c r="K137">
+        <v>1</v>
+      </c>
+      <c r="L137">
+        <v>0</v>
+      </c>
+      <c r="M137">
+        <v>1</v>
+      </c>
+      <c r="N137">
+        <v>1</v>
+      </c>
+      <c r="O137" t="s">
+        <v>100</v>
+      </c>
+      <c r="P137" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q137">
+        <v>2.75</v>
+      </c>
+      <c r="R137">
+        <v>1.91</v>
+      </c>
+      <c r="S137">
+        <v>5</v>
+      </c>
+      <c r="T137">
+        <v>1.57</v>
+      </c>
+      <c r="U137">
+        <v>2.25</v>
+      </c>
+      <c r="V137">
+        <v>3.75</v>
+      </c>
+      <c r="W137">
+        <v>1.25</v>
+      </c>
+      <c r="X137">
+        <v>11</v>
+      </c>
+      <c r="Y137">
+        <v>1.05</v>
+      </c>
+      <c r="Z137">
+        <v>2</v>
+      </c>
+      <c r="AA137">
+        <v>3</v>
+      </c>
+      <c r="AB137">
+        <v>4.33</v>
+      </c>
+      <c r="AC137">
+        <v>1.09</v>
+      </c>
+      <c r="AD137">
+        <v>6</v>
+      </c>
+      <c r="AE137">
+        <v>1.5</v>
+      </c>
+      <c r="AF137">
+        <v>2.4</v>
+      </c>
+      <c r="AG137">
+        <v>2.88</v>
+      </c>
+      <c r="AH137">
+        <v>1.4</v>
+      </c>
+      <c r="AI137">
+        <v>2.38</v>
+      </c>
+      <c r="AJ137">
+        <v>1.53</v>
+      </c>
+      <c r="AK137">
+        <v>1.14</v>
+      </c>
+      <c r="AL137">
+        <v>1.37</v>
+      </c>
+      <c r="AM137">
+        <v>1.67</v>
+      </c>
+      <c r="AN137">
+        <v>2</v>
+      </c>
+      <c r="AO137">
+        <v>1.43</v>
+      </c>
+      <c r="AP137">
+        <v>1.75</v>
+      </c>
+      <c r="AQ137">
+        <v>1.63</v>
+      </c>
+      <c r="AR137">
+        <v>1.46</v>
+      </c>
+      <c r="AS137">
+        <v>1.26</v>
+      </c>
+      <c r="AT137">
+        <v>2.72</v>
+      </c>
+      <c r="AU137">
+        <v>4</v>
+      </c>
+      <c r="AV137">
+        <v>5</v>
+      </c>
+      <c r="AW137">
+        <v>3</v>
+      </c>
+      <c r="AX137">
+        <v>7</v>
+      </c>
+      <c r="AY137">
+        <v>7</v>
+      </c>
+      <c r="AZ137">
+        <v>12</v>
+      </c>
+      <c r="BA137">
+        <v>4</v>
+      </c>
+      <c r="BB137">
+        <v>2</v>
+      </c>
+      <c r="BC137">
+        <v>6</v>
+      </c>
+      <c r="BD137">
+        <v>1.72</v>
+      </c>
+      <c r="BE137">
+        <v>7.9</v>
+      </c>
+      <c r="BF137">
+        <v>2.62</v>
+      </c>
+      <c r="BG137">
+        <v>1.22</v>
+      </c>
+      <c r="BH137">
+        <v>3.8</v>
+      </c>
+      <c r="BI137">
+        <v>1.31</v>
+      </c>
+      <c r="BJ137">
+        <v>3.04</v>
+      </c>
+      <c r="BK137">
+        <v>2</v>
+      </c>
+      <c r="BL137">
+        <v>2.23</v>
+      </c>
+      <c r="BM137">
+        <v>1.94</v>
+      </c>
+      <c r="BN137">
+        <v>1.77</v>
+      </c>
+      <c r="BO137">
+        <v>2.5</v>
+      </c>
+      <c r="BP137">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="138" spans="1:68">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>7380464</v>
+      </c>
+      <c r="C138" t="s">
+        <v>68</v>
+      </c>
+      <c r="D138" t="s">
+        <v>69</v>
+      </c>
+      <c r="E138" s="2">
+        <v>45481.875</v>
+      </c>
+      <c r="F138">
+        <v>14</v>
+      </c>
+      <c r="G138" t="s">
+        <v>75</v>
+      </c>
+      <c r="H138" t="s">
+        <v>78</v>
+      </c>
+      <c r="I138">
+        <v>1</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="K138">
+        <v>1</v>
+      </c>
+      <c r="L138">
+        <v>1</v>
+      </c>
+      <c r="M138">
+        <v>2</v>
+      </c>
+      <c r="N138">
+        <v>3</v>
+      </c>
+      <c r="O138" t="s">
+        <v>181</v>
+      </c>
+      <c r="P138" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q138">
+        <v>3</v>
+      </c>
+      <c r="R138">
+        <v>1.95</v>
+      </c>
+      <c r="S138">
+        <v>4.33</v>
+      </c>
+      <c r="T138">
+        <v>1.53</v>
+      </c>
+      <c r="U138">
+        <v>2.38</v>
+      </c>
+      <c r="V138">
+        <v>3.5</v>
+      </c>
+      <c r="W138">
+        <v>1.29</v>
+      </c>
+      <c r="X138">
+        <v>11</v>
+      </c>
+      <c r="Y138">
+        <v>1.05</v>
+      </c>
+      <c r="Z138">
+        <v>2.2</v>
+      </c>
+      <c r="AA138">
+        <v>3.1</v>
+      </c>
+      <c r="AB138">
+        <v>3.6</v>
+      </c>
+      <c r="AC138">
+        <v>1.06</v>
+      </c>
+      <c r="AD138">
+        <v>6.75</v>
+      </c>
+      <c r="AE138">
+        <v>1.44</v>
+      </c>
+      <c r="AF138">
+        <v>2.51</v>
+      </c>
+      <c r="AG138">
+        <v>2.5</v>
+      </c>
+      <c r="AH138">
+        <v>1.5</v>
+      </c>
+      <c r="AI138">
+        <v>2.1</v>
+      </c>
+      <c r="AJ138">
+        <v>1.67</v>
+      </c>
+      <c r="AK138">
+        <v>1.3</v>
+      </c>
+      <c r="AL138">
+        <v>1.3</v>
+      </c>
+      <c r="AM138">
+        <v>1.62</v>
+      </c>
+      <c r="AN138">
+        <v>1.86</v>
+      </c>
+      <c r="AO138">
+        <v>0.33</v>
+      </c>
+      <c r="AP138">
+        <v>1.63</v>
+      </c>
+      <c r="AQ138">
+        <v>0.71</v>
+      </c>
+      <c r="AR138">
+        <v>1.46</v>
+      </c>
+      <c r="AS138">
+        <v>1.21</v>
+      </c>
+      <c r="AT138">
+        <v>2.67</v>
+      </c>
+      <c r="AU138">
+        <v>6</v>
+      </c>
+      <c r="AV138">
+        <v>6</v>
+      </c>
+      <c r="AW138">
+        <v>6</v>
+      </c>
+      <c r="AX138">
+        <v>8</v>
+      </c>
+      <c r="AY138">
+        <v>12</v>
+      </c>
+      <c r="AZ138">
+        <v>14</v>
+      </c>
+      <c r="BA138">
+        <v>16</v>
+      </c>
+      <c r="BB138">
+        <v>4</v>
+      </c>
+      <c r="BC138">
+        <v>20</v>
+      </c>
+      <c r="BD138">
+        <v>1.6</v>
+      </c>
+      <c r="BE138">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF138">
+        <v>2.91</v>
+      </c>
+      <c r="BG138">
+        <v>1.22</v>
+      </c>
+      <c r="BH138">
+        <v>4</v>
+      </c>
+      <c r="BI138">
+        <v>1.33</v>
+      </c>
+      <c r="BJ138">
+        <v>2.93</v>
+      </c>
+      <c r="BK138">
+        <v>2</v>
+      </c>
+      <c r="BL138">
+        <v>2.17</v>
+      </c>
+      <c r="BM138">
+        <v>1.99</v>
+      </c>
+      <c r="BN138">
+        <v>1.73</v>
+      </c>
+      <c r="BO138">
+        <v>2.57</v>
+      </c>
+      <c r="BP138">
+        <v>1.42</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="233">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1074,7 +1074,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP138"/>
+  <dimension ref="A1:BP139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1620,7 +1620,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ3">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -5325,7 +5325,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ21">
         <v>0.67</v>
@@ -6770,7 +6770,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ28">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR28">
         <v>2.07</v>
@@ -9445,7 +9445,7 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ41">
         <v>1.13</v>
@@ -9654,7 +9654,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ42">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR42">
         <v>1.42</v>
@@ -13153,7 +13153,7 @@
         <v>0</v>
       </c>
       <c r="AP59">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ59">
         <v>0.17</v>
@@ -16452,7 +16452,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ75">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR75">
         <v>1.49</v>
@@ -17273,7 +17273,7 @@
         <v>0</v>
       </c>
       <c r="AP79">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ79">
         <v>0</v>
@@ -19333,7 +19333,7 @@
         <v>1.25</v>
       </c>
       <c r="AP89">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ89">
         <v>0.71</v>
@@ -20160,7 +20160,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ93">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR93">
         <v>1.79</v>
@@ -22220,7 +22220,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ103">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR103">
         <v>1.12</v>
@@ -24895,7 +24895,7 @@
         <v>1</v>
       </c>
       <c r="AP116">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ116">
         <v>1.25</v>
@@ -29506,6 +29506,212 @@
       </c>
       <c r="BP138">
         <v>1.42</v>
+      </c>
+    </row>
+    <row r="139" spans="1:68">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>7380458</v>
+      </c>
+      <c r="C139" t="s">
+        <v>68</v>
+      </c>
+      <c r="D139" t="s">
+        <v>69</v>
+      </c>
+      <c r="E139" s="2">
+        <v>45482.875</v>
+      </c>
+      <c r="F139">
+        <v>14</v>
+      </c>
+      <c r="G139" t="s">
+        <v>89</v>
+      </c>
+      <c r="H139" t="s">
+        <v>84</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+      <c r="K139">
+        <v>0</v>
+      </c>
+      <c r="L139">
+        <v>1</v>
+      </c>
+      <c r="M139">
+        <v>0</v>
+      </c>
+      <c r="N139">
+        <v>1</v>
+      </c>
+      <c r="O139" t="s">
+        <v>104</v>
+      </c>
+      <c r="P139" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q139">
+        <v>2.38</v>
+      </c>
+      <c r="R139">
+        <v>2.1</v>
+      </c>
+      <c r="S139">
+        <v>5.5</v>
+      </c>
+      <c r="T139">
+        <v>1.49</v>
+      </c>
+      <c r="U139">
+        <v>2.45</v>
+      </c>
+      <c r="V139">
+        <v>3.25</v>
+      </c>
+      <c r="W139">
+        <v>1.3</v>
+      </c>
+      <c r="X139">
+        <v>8.9</v>
+      </c>
+      <c r="Y139">
+        <v>1.04</v>
+      </c>
+      <c r="Z139">
+        <v>1.7</v>
+      </c>
+      <c r="AA139">
+        <v>3.7</v>
+      </c>
+      <c r="AB139">
+        <v>4.75</v>
+      </c>
+      <c r="AC139">
+        <v>1.05</v>
+      </c>
+      <c r="AD139">
+        <v>7.3</v>
+      </c>
+      <c r="AE139">
+        <v>1.39</v>
+      </c>
+      <c r="AF139">
+        <v>2.67</v>
+      </c>
+      <c r="AG139">
+        <v>2.2</v>
+      </c>
+      <c r="AH139">
+        <v>1.65</v>
+      </c>
+      <c r="AI139">
+        <v>2.2</v>
+      </c>
+      <c r="AJ139">
+        <v>1.62</v>
+      </c>
+      <c r="AK139">
+        <v>1.12</v>
+      </c>
+      <c r="AL139">
+        <v>1.25</v>
+      </c>
+      <c r="AM139">
+        <v>2.05</v>
+      </c>
+      <c r="AN139">
+        <v>2.67</v>
+      </c>
+      <c r="AO139">
+        <v>0.33</v>
+      </c>
+      <c r="AP139">
+        <v>2.71</v>
+      </c>
+      <c r="AQ139">
+        <v>0.29</v>
+      </c>
+      <c r="AR139">
+        <v>1.43</v>
+      </c>
+      <c r="AS139">
+        <v>1.18</v>
+      </c>
+      <c r="AT139">
+        <v>2.61</v>
+      </c>
+      <c r="AU139">
+        <v>4</v>
+      </c>
+      <c r="AV139">
+        <v>5</v>
+      </c>
+      <c r="AW139">
+        <v>3</v>
+      </c>
+      <c r="AX139">
+        <v>3</v>
+      </c>
+      <c r="AY139">
+        <v>7</v>
+      </c>
+      <c r="AZ139">
+        <v>8</v>
+      </c>
+      <c r="BA139">
+        <v>3</v>
+      </c>
+      <c r="BB139">
+        <v>4</v>
+      </c>
+      <c r="BC139">
+        <v>7</v>
+      </c>
+      <c r="BD139">
+        <v>1.57</v>
+      </c>
+      <c r="BE139">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF139">
+        <v>3</v>
+      </c>
+      <c r="BG139">
+        <v>1.21</v>
+      </c>
+      <c r="BH139">
+        <v>3.74</v>
+      </c>
+      <c r="BI139">
+        <v>1.4</v>
+      </c>
+      <c r="BJ139">
+        <v>2.64</v>
+      </c>
+      <c r="BK139">
+        <v>2.25</v>
+      </c>
+      <c r="BL139">
+        <v>1.99</v>
+      </c>
+      <c r="BM139">
+        <v>2.17</v>
+      </c>
+      <c r="BN139">
+        <v>1.58</v>
+      </c>
+      <c r="BO139">
+        <v>2.88</v>
+      </c>
+      <c r="BP139">
+        <v>1.34</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="238">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -562,6 +562,12 @@
     <t>['17']</t>
   </si>
   <si>
+    <t>['30', '49', '71', '90+11']</t>
+  </si>
+  <si>
+    <t>['2', '86']</t>
+  </si>
+  <si>
     <t>['31', '49', '69']</t>
   </si>
   <si>
@@ -713,6 +719,15 @@
   </si>
   <si>
     <t>['52', '64']</t>
+  </si>
+  <si>
+    <t>['26', '89']</t>
+  </si>
+  <si>
+    <t>['20']</t>
+  </si>
+  <si>
+    <t>['36']</t>
   </si>
 </sst>
 </file>
@@ -1074,7 +1089,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP139"/>
+  <dimension ref="A1:BP142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1411,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ2">
         <v>0.83</v>
@@ -2363,7 +2378,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q7">
         <v>4.33</v>
@@ -2775,7 +2790,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2853,7 +2868,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ9">
         <v>0.5</v>
@@ -3187,7 +3202,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q11">
         <v>3.5</v>
@@ -3268,7 +3283,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ11">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3393,7 +3408,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q12">
         <v>3.6</v>
@@ -3805,7 +3820,7 @@
         <v>100</v>
       </c>
       <c r="P14" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q14">
         <v>4.75</v>
@@ -4011,7 +4026,7 @@
         <v>100</v>
       </c>
       <c r="P15" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4298,7 +4313,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ16">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4501,7 +4516,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ17">
         <v>1.17</v>
@@ -5247,7 +5262,7 @@
         <v>106</v>
       </c>
       <c r="P21" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5328,7 +5343,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ21">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5531,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ22">
         <v>1.5</v>
@@ -5865,7 +5880,7 @@
         <v>107</v>
       </c>
       <c r="P24" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q24">
         <v>3.6</v>
@@ -6277,7 +6292,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6483,7 +6498,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q27">
         <v>4</v>
@@ -6689,7 +6704,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6973,10 +6988,10 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ29">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AR29">
         <v>0</v>
@@ -7101,7 +7116,7 @@
         <v>112</v>
       </c>
       <c r="P30" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q30">
         <v>2.1</v>
@@ -7385,10 +7400,10 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ31">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR31">
         <v>1.04</v>
@@ -7513,7 +7528,7 @@
         <v>113</v>
       </c>
       <c r="P32" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q32">
         <v>2.38</v>
@@ -7719,7 +7734,7 @@
         <v>100</v>
       </c>
       <c r="P33" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -7800,7 +7815,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ33">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR33">
         <v>1.83</v>
@@ -8955,7 +8970,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q39">
         <v>2</v>
@@ -9367,7 +9382,7 @@
         <v>120</v>
       </c>
       <c r="P41" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q41">
         <v>2.25</v>
@@ -9573,7 +9588,7 @@
         <v>121</v>
       </c>
       <c r="P42" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9779,7 +9794,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q43">
         <v>3.2</v>
@@ -10063,7 +10078,7 @@
         <v>1.5</v>
       </c>
       <c r="AP44">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ44">
         <v>1.38</v>
@@ -10684,7 +10699,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ47">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR47">
         <v>1.99</v>
@@ -11015,7 +11030,7 @@
         <v>125</v>
       </c>
       <c r="P49" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -11093,7 +11108,7 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ49">
         <v>1.25</v>
@@ -11299,7 +11314,7 @@
         <v>2</v>
       </c>
       <c r="AP50">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ50">
         <v>0.71</v>
@@ -11508,7 +11523,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ51">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AR51">
         <v>1.66</v>
@@ -12457,7 +12472,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q56">
         <v>1.95</v>
@@ -12950,7 +12965,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ58">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR58">
         <v>1.54</v>
@@ -13281,7 +13296,7 @@
         <v>118</v>
       </c>
       <c r="P60" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13693,7 +13708,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q62">
         <v>3.4</v>
@@ -14311,7 +14326,7 @@
         <v>135</v>
       </c>
       <c r="P65" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q65">
         <v>2.38</v>
@@ -14929,7 +14944,7 @@
         <v>100</v>
       </c>
       <c r="P68" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q68">
         <v>3.6</v>
@@ -15007,7 +15022,7 @@
         <v>1</v>
       </c>
       <c r="AP68">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ68">
         <v>1.63</v>
@@ -15422,7 +15437,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ70">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR70">
         <v>1.23</v>
@@ -16165,7 +16180,7 @@
         <v>90</v>
       </c>
       <c r="P74" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q74">
         <v>3.1</v>
@@ -16371,7 +16386,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -16449,7 +16464,7 @@
         <v>0.33</v>
       </c>
       <c r="AP75">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ75">
         <v>0.29</v>
@@ -16783,7 +16798,7 @@
         <v>139</v>
       </c>
       <c r="P77" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q77">
         <v>2.2</v>
@@ -17070,7 +17085,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ78">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AR78">
         <v>1.62</v>
@@ -17479,7 +17494,7 @@
         <v>1.67</v>
       </c>
       <c r="AP80">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ80">
         <v>0.83</v>
@@ -17607,7 +17622,7 @@
         <v>146</v>
       </c>
       <c r="P81" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q81">
         <v>2.05</v>
@@ -17813,7 +17828,7 @@
         <v>147</v>
       </c>
       <c r="P82" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q82">
         <v>4</v>
@@ -18019,7 +18034,7 @@
         <v>100</v>
       </c>
       <c r="P83" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q83">
         <v>3.2</v>
@@ -18225,7 +18240,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q84">
         <v>2.75</v>
@@ -18843,7 +18858,7 @@
         <v>150</v>
       </c>
       <c r="P87" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q87">
         <v>3.5</v>
@@ -18924,7 +18939,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ87">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR87">
         <v>1.41</v>
@@ -19873,7 +19888,7 @@
         <v>153</v>
       </c>
       <c r="P92" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q92">
         <v>2.63</v>
@@ -20363,7 +20378,7 @@
         <v>1.4</v>
       </c>
       <c r="AP94">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ94">
         <v>1.63</v>
@@ -20491,7 +20506,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q95">
         <v>3.5</v>
@@ -20775,7 +20790,7 @@
         <v>0.25</v>
       </c>
       <c r="AP96">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ96">
         <v>0.71</v>
@@ -20984,7 +20999,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ97">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR97">
         <v>1.19</v>
@@ -21109,7 +21124,7 @@
         <v>116</v>
       </c>
       <c r="P98" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q98">
         <v>3</v>
@@ -21396,7 +21411,7 @@
         <v>2</v>
       </c>
       <c r="AQ99">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR99">
         <v>1.35</v>
@@ -21521,7 +21536,7 @@
         <v>100</v>
       </c>
       <c r="P100" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q100">
         <v>3.5</v>
@@ -21727,7 +21742,7 @@
         <v>160</v>
       </c>
       <c r="P101" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q101">
         <v>2.6</v>
@@ -22014,7 +22029,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ102">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AR102">
         <v>1.91</v>
@@ -22139,7 +22154,7 @@
         <v>162</v>
       </c>
       <c r="P103" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q103">
         <v>2.88</v>
@@ -22217,7 +22232,7 @@
         <v>0.2</v>
       </c>
       <c r="AP103">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ103">
         <v>0.29</v>
@@ -22629,7 +22644,7 @@
         <v>0.4</v>
       </c>
       <c r="AP105">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ105">
         <v>0.5</v>
@@ -23250,7 +23265,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ108">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR108">
         <v>1.39</v>
@@ -23993,7 +24008,7 @@
         <v>125</v>
       </c>
       <c r="P112" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q112">
         <v>3.05</v>
@@ -24199,7 +24214,7 @@
         <v>167</v>
       </c>
       <c r="P113" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q113">
         <v>3.25</v>
@@ -24611,7 +24626,7 @@
         <v>169</v>
       </c>
       <c r="P115" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q115">
         <v>2.68</v>
@@ -25023,7 +25038,7 @@
         <v>170</v>
       </c>
       <c r="P117" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q117">
         <v>2.38</v>
@@ -25307,10 +25322,10 @@
         <v>0.8</v>
       </c>
       <c r="AP118">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ118">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR118">
         <v>1.51</v>
@@ -25641,7 +25656,7 @@
         <v>90</v>
       </c>
       <c r="P120" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q120">
         <v>2.4</v>
@@ -25847,7 +25862,7 @@
         <v>172</v>
       </c>
       <c r="P121" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q121">
         <v>4</v>
@@ -25925,7 +25940,7 @@
         <v>1.4</v>
       </c>
       <c r="AP121">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ121">
         <v>1.57</v>
@@ -26053,7 +26068,7 @@
         <v>173</v>
       </c>
       <c r="P122" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q122">
         <v>1.95</v>
@@ -26340,7 +26355,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ123">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AR123">
         <v>1.43</v>
@@ -26465,7 +26480,7 @@
         <v>174</v>
       </c>
       <c r="P124" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q124">
         <v>2.75</v>
@@ -26543,7 +26558,7 @@
         <v>1.67</v>
       </c>
       <c r="AP124">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ124">
         <v>1.38</v>
@@ -26671,7 +26686,7 @@
         <v>175</v>
       </c>
       <c r="P125" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q125">
         <v>3</v>
@@ -27083,7 +27098,7 @@
         <v>176</v>
       </c>
       <c r="P127" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q127">
         <v>2.4</v>
@@ -27289,7 +27304,7 @@
         <v>177</v>
       </c>
       <c r="P128" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q128">
         <v>2.75</v>
@@ -27495,7 +27510,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q129">
         <v>3.25</v>
@@ -27576,7 +27591,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ129">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR129">
         <v>1.77</v>
@@ -28319,7 +28334,7 @@
         <v>140</v>
       </c>
       <c r="P133" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q133">
         <v>2.25</v>
@@ -28525,7 +28540,7 @@
         <v>96</v>
       </c>
       <c r="P134" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q134">
         <v>2.5</v>
@@ -28731,7 +28746,7 @@
         <v>180</v>
       </c>
       <c r="P135" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q135">
         <v>3.5</v>
@@ -29143,7 +29158,7 @@
         <v>100</v>
       </c>
       <c r="P137" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q137">
         <v>2.75</v>
@@ -29349,7 +29364,7 @@
         <v>181</v>
       </c>
       <c r="P138" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q138">
         <v>3</v>
@@ -29712,6 +29727,624 @@
       </c>
       <c r="BP139">
         <v>1.34</v>
+      </c>
+    </row>
+    <row r="140" spans="1:68">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>7380467</v>
+      </c>
+      <c r="C140" t="s">
+        <v>68</v>
+      </c>
+      <c r="D140" t="s">
+        <v>69</v>
+      </c>
+      <c r="E140" s="2">
+        <v>45485.79166666666</v>
+      </c>
+      <c r="F140">
+        <v>15</v>
+      </c>
+      <c r="G140" t="s">
+        <v>77</v>
+      </c>
+      <c r="H140" t="s">
+        <v>89</v>
+      </c>
+      <c r="I140">
+        <v>1</v>
+      </c>
+      <c r="J140">
+        <v>1</v>
+      </c>
+      <c r="K140">
+        <v>2</v>
+      </c>
+      <c r="L140">
+        <v>4</v>
+      </c>
+      <c r="M140">
+        <v>2</v>
+      </c>
+      <c r="N140">
+        <v>6</v>
+      </c>
+      <c r="O140" t="s">
+        <v>182</v>
+      </c>
+      <c r="P140" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q140">
+        <v>3.75</v>
+      </c>
+      <c r="R140">
+        <v>1.83</v>
+      </c>
+      <c r="S140">
+        <v>3.75</v>
+      </c>
+      <c r="T140">
+        <v>1.6</v>
+      </c>
+      <c r="U140">
+        <v>2.2</v>
+      </c>
+      <c r="V140">
+        <v>3.65</v>
+      </c>
+      <c r="W140">
+        <v>1.25</v>
+      </c>
+      <c r="X140">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Y140">
+        <v>1.03</v>
+      </c>
+      <c r="Z140">
+        <v>2.9</v>
+      </c>
+      <c r="AA140">
+        <v>2.75</v>
+      </c>
+      <c r="AB140">
+        <v>2.88</v>
+      </c>
+      <c r="AC140">
+        <v>1.11</v>
+      </c>
+      <c r="AD140">
+        <v>6.25</v>
+      </c>
+      <c r="AE140">
+        <v>1.63</v>
+      </c>
+      <c r="AF140">
+        <v>2.1</v>
+      </c>
+      <c r="AG140">
+        <v>2.88</v>
+      </c>
+      <c r="AH140">
+        <v>1.4</v>
+      </c>
+      <c r="AI140">
+        <v>2.25</v>
+      </c>
+      <c r="AJ140">
+        <v>1.57</v>
+      </c>
+      <c r="AK140">
+        <v>1.42</v>
+      </c>
+      <c r="AL140">
+        <v>1.33</v>
+      </c>
+      <c r="AM140">
+        <v>1.42</v>
+      </c>
+      <c r="AN140">
+        <v>2.17</v>
+      </c>
+      <c r="AO140">
+        <v>0.43</v>
+      </c>
+      <c r="AP140">
+        <v>2.29</v>
+      </c>
+      <c r="AQ140">
+        <v>0.38</v>
+      </c>
+      <c r="AR140">
+        <v>1.49</v>
+      </c>
+      <c r="AS140">
+        <v>1.17</v>
+      </c>
+      <c r="AT140">
+        <v>2.66</v>
+      </c>
+      <c r="AU140">
+        <v>12</v>
+      </c>
+      <c r="AV140">
+        <v>5</v>
+      </c>
+      <c r="AW140">
+        <v>4</v>
+      </c>
+      <c r="AX140">
+        <v>7</v>
+      </c>
+      <c r="AY140">
+        <v>16</v>
+      </c>
+      <c r="AZ140">
+        <v>12</v>
+      </c>
+      <c r="BA140">
+        <v>6</v>
+      </c>
+      <c r="BB140">
+        <v>3</v>
+      </c>
+      <c r="BC140">
+        <v>9</v>
+      </c>
+      <c r="BD140">
+        <v>1.9</v>
+      </c>
+      <c r="BE140">
+        <v>7.6</v>
+      </c>
+      <c r="BF140">
+        <v>2.27</v>
+      </c>
+      <c r="BG140">
+        <v>1.26</v>
+      </c>
+      <c r="BH140">
+        <v>3.65</v>
+      </c>
+      <c r="BI140">
+        <v>1.48</v>
+      </c>
+      <c r="BJ140">
+        <v>2.55</v>
+      </c>
+      <c r="BK140">
+        <v>2</v>
+      </c>
+      <c r="BL140">
+        <v>1.85</v>
+      </c>
+      <c r="BM140">
+        <v>2.43</v>
+      </c>
+      <c r="BN140">
+        <v>1.52</v>
+      </c>
+      <c r="BO140">
+        <v>3.3</v>
+      </c>
+      <c r="BP140">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:68">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>7380468</v>
+      </c>
+      <c r="C141" t="s">
+        <v>68</v>
+      </c>
+      <c r="D141" t="s">
+        <v>69</v>
+      </c>
+      <c r="E141" s="2">
+        <v>45485.875</v>
+      </c>
+      <c r="F141">
+        <v>15</v>
+      </c>
+      <c r="G141" t="s">
+        <v>70</v>
+      </c>
+      <c r="H141" t="s">
+        <v>75</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="J141">
+        <v>1</v>
+      </c>
+      <c r="K141">
+        <v>1</v>
+      </c>
+      <c r="L141">
+        <v>0</v>
+      </c>
+      <c r="M141">
+        <v>1</v>
+      </c>
+      <c r="N141">
+        <v>1</v>
+      </c>
+      <c r="O141" t="s">
+        <v>100</v>
+      </c>
+      <c r="P141" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q141">
+        <v>3</v>
+      </c>
+      <c r="R141">
+        <v>1.8</v>
+      </c>
+      <c r="S141">
+        <v>5</v>
+      </c>
+      <c r="T141">
+        <v>1.62</v>
+      </c>
+      <c r="U141">
+        <v>2.2</v>
+      </c>
+      <c r="V141">
+        <v>4</v>
+      </c>
+      <c r="W141">
+        <v>1.22</v>
+      </c>
+      <c r="X141">
+        <v>13</v>
+      </c>
+      <c r="Y141">
+        <v>1.04</v>
+      </c>
+      <c r="Z141">
+        <v>2.1</v>
+      </c>
+      <c r="AA141">
+        <v>2.9</v>
+      </c>
+      <c r="AB141">
+        <v>4.1</v>
+      </c>
+      <c r="AC141">
+        <v>1.08</v>
+      </c>
+      <c r="AD141">
+        <v>5.95</v>
+      </c>
+      <c r="AE141">
+        <v>1.65</v>
+      </c>
+      <c r="AF141">
+        <v>2.1</v>
+      </c>
+      <c r="AG141">
+        <v>3.4</v>
+      </c>
+      <c r="AH141">
+        <v>1.33</v>
+      </c>
+      <c r="AI141">
+        <v>2.63</v>
+      </c>
+      <c r="AJ141">
+        <v>1.44</v>
+      </c>
+      <c r="AK141">
+        <v>1.22</v>
+      </c>
+      <c r="AL141">
+        <v>1.3</v>
+      </c>
+      <c r="AM141">
+        <v>1.75</v>
+      </c>
+      <c r="AN141">
+        <v>1.43</v>
+      </c>
+      <c r="AO141">
+        <v>0.5</v>
+      </c>
+      <c r="AP141">
+        <v>1.25</v>
+      </c>
+      <c r="AQ141">
+        <v>0.86</v>
+      </c>
+      <c r="AR141">
+        <v>1.42</v>
+      </c>
+      <c r="AS141">
+        <v>1.04</v>
+      </c>
+      <c r="AT141">
+        <v>2.46</v>
+      </c>
+      <c r="AU141">
+        <v>6</v>
+      </c>
+      <c r="AV141">
+        <v>3</v>
+      </c>
+      <c r="AW141">
+        <v>5</v>
+      </c>
+      <c r="AX141">
+        <v>6</v>
+      </c>
+      <c r="AY141">
+        <v>11</v>
+      </c>
+      <c r="AZ141">
+        <v>9</v>
+      </c>
+      <c r="BA141">
+        <v>11</v>
+      </c>
+      <c r="BB141">
+        <v>4</v>
+      </c>
+      <c r="BC141">
+        <v>15</v>
+      </c>
+      <c r="BD141">
+        <v>1.67</v>
+      </c>
+      <c r="BE141">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF141">
+        <v>2.71</v>
+      </c>
+      <c r="BG141">
+        <v>1.2</v>
+      </c>
+      <c r="BH141">
+        <v>4</v>
+      </c>
+      <c r="BI141">
+        <v>1.38</v>
+      </c>
+      <c r="BJ141">
+        <v>2.8</v>
+      </c>
+      <c r="BK141">
+        <v>1.91</v>
+      </c>
+      <c r="BL141">
+        <v>2.12</v>
+      </c>
+      <c r="BM141">
+        <v>2.03</v>
+      </c>
+      <c r="BN141">
+        <v>1.7</v>
+      </c>
+      <c r="BO141">
+        <v>2.55</v>
+      </c>
+      <c r="BP141">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="142" spans="1:68">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>7380474</v>
+      </c>
+      <c r="C142" t="s">
+        <v>68</v>
+      </c>
+      <c r="D142" t="s">
+        <v>69</v>
+      </c>
+      <c r="E142" s="2">
+        <v>45485.89583333334</v>
+      </c>
+      <c r="F142">
+        <v>15</v>
+      </c>
+      <c r="G142" t="s">
+        <v>85</v>
+      </c>
+      <c r="H142" t="s">
+        <v>76</v>
+      </c>
+      <c r="I142">
+        <v>1</v>
+      </c>
+      <c r="J142">
+        <v>1</v>
+      </c>
+      <c r="K142">
+        <v>2</v>
+      </c>
+      <c r="L142">
+        <v>2</v>
+      </c>
+      <c r="M142">
+        <v>1</v>
+      </c>
+      <c r="N142">
+        <v>3</v>
+      </c>
+      <c r="O142" t="s">
+        <v>183</v>
+      </c>
+      <c r="P142" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q142">
+        <v>3.2</v>
+      </c>
+      <c r="R142">
+        <v>2</v>
+      </c>
+      <c r="S142">
+        <v>3.75</v>
+      </c>
+      <c r="T142">
+        <v>1.49</v>
+      </c>
+      <c r="U142">
+        <v>2.51</v>
+      </c>
+      <c r="V142">
+        <v>3.2</v>
+      </c>
+      <c r="W142">
+        <v>1.32</v>
+      </c>
+      <c r="X142">
+        <v>8.6</v>
+      </c>
+      <c r="Y142">
+        <v>1.05</v>
+      </c>
+      <c r="Z142">
+        <v>2.55</v>
+      </c>
+      <c r="AA142">
+        <v>3</v>
+      </c>
+      <c r="AB142">
+        <v>3</v>
+      </c>
+      <c r="AC142">
+        <v>1.05</v>
+      </c>
+      <c r="AD142">
+        <v>7.2</v>
+      </c>
+      <c r="AE142">
+        <v>1.37</v>
+      </c>
+      <c r="AF142">
+        <v>2.75</v>
+      </c>
+      <c r="AG142">
+        <v>2.25</v>
+      </c>
+      <c r="AH142">
+        <v>1.62</v>
+      </c>
+      <c r="AI142">
+        <v>1.91</v>
+      </c>
+      <c r="AJ142">
+        <v>1.8</v>
+      </c>
+      <c r="AK142">
+        <v>1.3</v>
+      </c>
+      <c r="AL142">
+        <v>1.33</v>
+      </c>
+      <c r="AM142">
+        <v>1.64</v>
+      </c>
+      <c r="AN142">
+        <v>1.33</v>
+      </c>
+      <c r="AO142">
+        <v>0.67</v>
+      </c>
+      <c r="AP142">
+        <v>1.57</v>
+      </c>
+      <c r="AQ142">
+        <v>0.57</v>
+      </c>
+      <c r="AR142">
+        <v>1.18</v>
+      </c>
+      <c r="AS142">
+        <v>1.53</v>
+      </c>
+      <c r="AT142">
+        <v>2.71</v>
+      </c>
+      <c r="AU142">
+        <v>5</v>
+      </c>
+      <c r="AV142">
+        <v>8</v>
+      </c>
+      <c r="AW142">
+        <v>6</v>
+      </c>
+      <c r="AX142">
+        <v>6</v>
+      </c>
+      <c r="AY142">
+        <v>11</v>
+      </c>
+      <c r="AZ142">
+        <v>14</v>
+      </c>
+      <c r="BA142">
+        <v>3</v>
+      </c>
+      <c r="BB142">
+        <v>6</v>
+      </c>
+      <c r="BC142">
+        <v>9</v>
+      </c>
+      <c r="BD142">
+        <v>1.82</v>
+      </c>
+      <c r="BE142">
+        <v>7.9</v>
+      </c>
+      <c r="BF142">
+        <v>2.42</v>
+      </c>
+      <c r="BG142">
+        <v>1.15</v>
+      </c>
+      <c r="BH142">
+        <v>4.8</v>
+      </c>
+      <c r="BI142">
+        <v>1.29</v>
+      </c>
+      <c r="BJ142">
+        <v>3.2</v>
+      </c>
+      <c r="BK142">
+        <v>2</v>
+      </c>
+      <c r="BL142">
+        <v>2.4</v>
+      </c>
+      <c r="BM142">
+        <v>1.82</v>
+      </c>
+      <c r="BN142">
+        <v>1.88</v>
+      </c>
+      <c r="BO142">
+        <v>2.27</v>
+      </c>
+      <c r="BP142">
+        <v>1.56</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="240">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -568,6 +568,12 @@
     <t>['2', '86']</t>
   </si>
   <si>
+    <t>['61']</t>
+  </si>
+  <si>
+    <t>['53', '86']</t>
+  </si>
+  <si>
     <t>['31', '49', '69']</t>
   </si>
   <si>
@@ -1089,7 +1095,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP142"/>
+  <dimension ref="A1:BP145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1429,7 +1435,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ2">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1632,7 +1638,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ3">
         <v>0.29</v>
@@ -2378,7 +2384,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q7">
         <v>4.33</v>
@@ -2790,7 +2796,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2871,7 +2877,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ9">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3077,7 +3083,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ10">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3202,7 +3208,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q11">
         <v>3.5</v>
@@ -3408,7 +3414,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q12">
         <v>3.6</v>
@@ -3692,7 +3698,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ13">
         <v>0.71</v>
@@ -3820,7 +3826,7 @@
         <v>100</v>
       </c>
       <c r="P14" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q14">
         <v>4.75</v>
@@ -4026,7 +4032,7 @@
         <v>100</v>
       </c>
       <c r="P15" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4310,7 +4316,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ16">
         <v>0.86</v>
@@ -5262,7 +5268,7 @@
         <v>106</v>
       </c>
       <c r="P21" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5880,7 +5886,7 @@
         <v>107</v>
       </c>
       <c r="P24" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q24">
         <v>3.6</v>
@@ -5961,7 +5967,7 @@
         <v>1</v>
       </c>
       <c r="AQ24">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR24">
         <v>1.66</v>
@@ -6292,7 +6298,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6498,7 +6504,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q27">
         <v>4</v>
@@ -6704,7 +6710,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -7116,7 +7122,7 @@
         <v>112</v>
       </c>
       <c r="P30" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q30">
         <v>2.1</v>
@@ -7197,7 +7203,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ30">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="AR30">
         <v>0.95</v>
@@ -7528,7 +7534,7 @@
         <v>113</v>
       </c>
       <c r="P32" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q32">
         <v>2.38</v>
@@ -7734,7 +7740,7 @@
         <v>100</v>
       </c>
       <c r="P33" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -7812,7 +7818,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ33">
         <v>0.57</v>
@@ -8224,7 +8230,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ35">
         <v>1.38</v>
@@ -8970,7 +8976,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q39">
         <v>2</v>
@@ -9048,7 +9054,7 @@
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ39">
         <v>0.43</v>
@@ -9257,7 +9263,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ40">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR40">
         <v>1.33</v>
@@ -9382,7 +9388,7 @@
         <v>120</v>
       </c>
       <c r="P41" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q41">
         <v>2.25</v>
@@ -9588,7 +9594,7 @@
         <v>121</v>
       </c>
       <c r="P42" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9794,7 +9800,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q43">
         <v>3.2</v>
@@ -10287,7 +10293,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ45">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="AR45">
         <v>1.74</v>
@@ -11030,7 +11036,7 @@
         <v>125</v>
       </c>
       <c r="P49" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -11726,7 +11732,7 @@
         <v>0</v>
       </c>
       <c r="AP52">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ52">
         <v>0.71</v>
@@ -11932,10 +11938,10 @@
         <v>0.5</v>
       </c>
       <c r="AP53">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ53">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR53">
         <v>2.01</v>
@@ -12472,7 +12478,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q56">
         <v>1.95</v>
@@ -12550,7 +12556,7 @@
         <v>0.5</v>
       </c>
       <c r="AP56">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ56">
         <v>1.5</v>
@@ -13296,7 +13302,7 @@
         <v>118</v>
       </c>
       <c r="P60" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13377,7 +13383,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ60">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR60">
         <v>2.36</v>
@@ -13708,7 +13714,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q62">
         <v>3.4</v>
@@ -14326,7 +14332,7 @@
         <v>135</v>
       </c>
       <c r="P65" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q65">
         <v>2.38</v>
@@ -14944,7 +14950,7 @@
         <v>100</v>
       </c>
       <c r="P68" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q68">
         <v>3.6</v>
@@ -15643,7 +15649,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ71">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR71">
         <v>1.73</v>
@@ -16180,7 +16186,7 @@
         <v>90</v>
       </c>
       <c r="P74" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q74">
         <v>3.1</v>
@@ -16386,7 +16392,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -16798,7 +16804,7 @@
         <v>139</v>
       </c>
       <c r="P77" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q77">
         <v>2.2</v>
@@ -17291,7 +17297,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ79">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="AR79">
         <v>1.59</v>
@@ -17497,7 +17503,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ80">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR80">
         <v>1.12</v>
@@ -17622,7 +17628,7 @@
         <v>146</v>
       </c>
       <c r="P81" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q81">
         <v>2.05</v>
@@ -17828,7 +17834,7 @@
         <v>147</v>
       </c>
       <c r="P82" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q82">
         <v>4</v>
@@ -17906,7 +17912,7 @@
         <v>1.5</v>
       </c>
       <c r="AP82">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ82">
         <v>1.25</v>
@@ -18034,7 +18040,7 @@
         <v>100</v>
       </c>
       <c r="P83" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q83">
         <v>3.2</v>
@@ -18240,7 +18246,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q84">
         <v>2.75</v>
@@ -18858,7 +18864,7 @@
         <v>150</v>
       </c>
       <c r="P87" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q87">
         <v>3.5</v>
@@ -19142,7 +19148,7 @@
         <v>0.5</v>
       </c>
       <c r="AP88">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ88">
         <v>1.13</v>
@@ -19888,7 +19894,7 @@
         <v>153</v>
       </c>
       <c r="P92" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q92">
         <v>2.63</v>
@@ -19969,7 +19975,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ92">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="AR92">
         <v>1.4</v>
@@ -20506,7 +20512,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q95">
         <v>3.5</v>
@@ -21124,7 +21130,7 @@
         <v>116</v>
       </c>
       <c r="P98" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q98">
         <v>3</v>
@@ -21205,7 +21211,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ98">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR98">
         <v>1.63</v>
@@ -21408,7 +21414,7 @@
         <v>0.5</v>
       </c>
       <c r="AP99">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ99">
         <v>0.38</v>
@@ -21536,7 +21542,7 @@
         <v>100</v>
       </c>
       <c r="P100" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q100">
         <v>3.5</v>
@@ -21742,7 +21748,7 @@
         <v>160</v>
       </c>
       <c r="P101" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q101">
         <v>2.6</v>
@@ -22026,7 +22032,7 @@
         <v>0.25</v>
       </c>
       <c r="AP102">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ102">
         <v>0.86</v>
@@ -22154,7 +22160,7 @@
         <v>162</v>
       </c>
       <c r="P103" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q103">
         <v>2.88</v>
@@ -22853,7 +22859,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ106">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR106">
         <v>1.73</v>
@@ -23674,10 +23680,10 @@
         <v>0</v>
       </c>
       <c r="AP110">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ110">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="AR110">
         <v>1.75</v>
@@ -24008,7 +24014,7 @@
         <v>125</v>
       </c>
       <c r="P112" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q112">
         <v>3.05</v>
@@ -24214,7 +24220,7 @@
         <v>167</v>
       </c>
       <c r="P113" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q113">
         <v>3.25</v>
@@ -24626,7 +24632,7 @@
         <v>169</v>
       </c>
       <c r="P115" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q115">
         <v>2.68</v>
@@ -24704,7 +24710,7 @@
         <v>1.17</v>
       </c>
       <c r="AP115">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ115">
         <v>1.63</v>
@@ -25038,7 +25044,7 @@
         <v>170</v>
       </c>
       <c r="P117" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q117">
         <v>2.38</v>
@@ -25531,7 +25537,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ119">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR119">
         <v>1.45</v>
@@ -25656,7 +25662,7 @@
         <v>90</v>
       </c>
       <c r="P120" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q120">
         <v>2.4</v>
@@ -25862,7 +25868,7 @@
         <v>172</v>
       </c>
       <c r="P121" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q121">
         <v>4</v>
@@ -26068,7 +26074,7 @@
         <v>173</v>
       </c>
       <c r="P122" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q122">
         <v>1.95</v>
@@ -26480,7 +26486,7 @@
         <v>174</v>
       </c>
       <c r="P124" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q124">
         <v>2.75</v>
@@ -26686,7 +26692,7 @@
         <v>175</v>
       </c>
       <c r="P125" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q125">
         <v>3</v>
@@ -27098,7 +27104,7 @@
         <v>176</v>
       </c>
       <c r="P127" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q127">
         <v>2.4</v>
@@ -27176,7 +27182,7 @@
         <v>0.33</v>
       </c>
       <c r="AP127">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ127">
         <v>0.43</v>
@@ -27304,7 +27310,7 @@
         <v>177</v>
       </c>
       <c r="P128" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q128">
         <v>2.75</v>
@@ -27385,7 +27391,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ128">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR128">
         <v>1.66</v>
@@ -27510,7 +27516,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q129">
         <v>3.25</v>
@@ -27588,7 +27594,7 @@
         <v>0.33</v>
       </c>
       <c r="AP129">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ129">
         <v>0.38</v>
@@ -28334,7 +28340,7 @@
         <v>140</v>
       </c>
       <c r="P133" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q133">
         <v>2.25</v>
@@ -28540,7 +28546,7 @@
         <v>96</v>
       </c>
       <c r="P134" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q134">
         <v>2.5</v>
@@ -28746,7 +28752,7 @@
         <v>180</v>
       </c>
       <c r="P135" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q135">
         <v>3.5</v>
@@ -29158,7 +29164,7 @@
         <v>100</v>
       </c>
       <c r="P137" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q137">
         <v>2.75</v>
@@ -29364,7 +29370,7 @@
         <v>181</v>
       </c>
       <c r="P138" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q138">
         <v>3</v>
@@ -29776,7 +29782,7 @@
         <v>182</v>
       </c>
       <c r="P140" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q140">
         <v>3.75</v>
@@ -29982,7 +29988,7 @@
         <v>100</v>
       </c>
       <c r="P141" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q141">
         <v>3</v>
@@ -30188,7 +30194,7 @@
         <v>183</v>
       </c>
       <c r="P142" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q142">
         <v>3.2</v>
@@ -30345,6 +30351,624 @@
       </c>
       <c r="BP142">
         <v>1.56</v>
+      </c>
+    </row>
+    <row r="143" spans="1:68">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>7380469</v>
+      </c>
+      <c r="C143" t="s">
+        <v>68</v>
+      </c>
+      <c r="D143" t="s">
+        <v>69</v>
+      </c>
+      <c r="E143" s="2">
+        <v>45486.64583333334</v>
+      </c>
+      <c r="F143">
+        <v>15</v>
+      </c>
+      <c r="G143" t="s">
+        <v>71</v>
+      </c>
+      <c r="H143" t="s">
+        <v>83</v>
+      </c>
+      <c r="I143">
+        <v>1</v>
+      </c>
+      <c r="J143">
+        <v>1</v>
+      </c>
+      <c r="K143">
+        <v>2</v>
+      </c>
+      <c r="L143">
+        <v>1</v>
+      </c>
+      <c r="M143">
+        <v>1</v>
+      </c>
+      <c r="N143">
+        <v>2</v>
+      </c>
+      <c r="O143" t="s">
+        <v>152</v>
+      </c>
+      <c r="P143" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q143">
+        <v>2.5</v>
+      </c>
+      <c r="R143">
+        <v>2</v>
+      </c>
+      <c r="S143">
+        <v>6</v>
+      </c>
+      <c r="T143">
+        <v>1.53</v>
+      </c>
+      <c r="U143">
+        <v>2.38</v>
+      </c>
+      <c r="V143">
+        <v>3.5</v>
+      </c>
+      <c r="W143">
+        <v>1.29</v>
+      </c>
+      <c r="X143">
+        <v>11</v>
+      </c>
+      <c r="Y143">
+        <v>1.05</v>
+      </c>
+      <c r="Z143">
+        <v>1.68</v>
+      </c>
+      <c r="AA143">
+        <v>3.3</v>
+      </c>
+      <c r="AB143">
+        <v>5.3</v>
+      </c>
+      <c r="AC143">
+        <v>1.06</v>
+      </c>
+      <c r="AD143">
+        <v>6.8</v>
+      </c>
+      <c r="AE143">
+        <v>1.43</v>
+      </c>
+      <c r="AF143">
+        <v>2.54</v>
+      </c>
+      <c r="AG143">
+        <v>2.5</v>
+      </c>
+      <c r="AH143">
+        <v>1.5</v>
+      </c>
+      <c r="AI143">
+        <v>2.38</v>
+      </c>
+      <c r="AJ143">
+        <v>1.53</v>
+      </c>
+      <c r="AK143">
+        <v>1.11</v>
+      </c>
+      <c r="AL143">
+        <v>1.25</v>
+      </c>
+      <c r="AM143">
+        <v>2.1</v>
+      </c>
+      <c r="AN143">
+        <v>1.5</v>
+      </c>
+      <c r="AO143">
+        <v>0</v>
+      </c>
+      <c r="AP143">
+        <v>1.43</v>
+      </c>
+      <c r="AQ143">
+        <v>0.14</v>
+      </c>
+      <c r="AR143">
+        <v>1.64</v>
+      </c>
+      <c r="AS143">
+        <v>1.2</v>
+      </c>
+      <c r="AT143">
+        <v>2.84</v>
+      </c>
+      <c r="AU143">
+        <v>4</v>
+      </c>
+      <c r="AV143">
+        <v>3</v>
+      </c>
+      <c r="AW143">
+        <v>7</v>
+      </c>
+      <c r="AX143">
+        <v>3</v>
+      </c>
+      <c r="AY143">
+        <v>11</v>
+      </c>
+      <c r="AZ143">
+        <v>6</v>
+      </c>
+      <c r="BA143">
+        <v>4</v>
+      </c>
+      <c r="BB143">
+        <v>4</v>
+      </c>
+      <c r="BC143">
+        <v>8</v>
+      </c>
+      <c r="BD143">
+        <v>1.57</v>
+      </c>
+      <c r="BE143">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF143">
+        <v>3</v>
+      </c>
+      <c r="BG143">
+        <v>1.2</v>
+      </c>
+      <c r="BH143">
+        <v>3.84</v>
+      </c>
+      <c r="BI143">
+        <v>1.39</v>
+      </c>
+      <c r="BJ143">
+        <v>2.67</v>
+      </c>
+      <c r="BK143">
+        <v>2.25</v>
+      </c>
+      <c r="BL143">
+        <v>1.98</v>
+      </c>
+      <c r="BM143">
+        <v>2.14</v>
+      </c>
+      <c r="BN143">
+        <v>1.6</v>
+      </c>
+      <c r="BO143">
+        <v>2.84</v>
+      </c>
+      <c r="BP143">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="144" spans="1:68">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>7380475</v>
+      </c>
+      <c r="C144" t="s">
+        <v>68</v>
+      </c>
+      <c r="D144" t="s">
+        <v>69</v>
+      </c>
+      <c r="E144" s="2">
+        <v>45486.70833333334</v>
+      </c>
+      <c r="F144">
+        <v>15</v>
+      </c>
+      <c r="G144" t="s">
+        <v>81</v>
+      </c>
+      <c r="H144" t="s">
+        <v>86</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
+      </c>
+      <c r="J144">
+        <v>1</v>
+      </c>
+      <c r="K144">
+        <v>1</v>
+      </c>
+      <c r="L144">
+        <v>1</v>
+      </c>
+      <c r="M144">
+        <v>1</v>
+      </c>
+      <c r="N144">
+        <v>2</v>
+      </c>
+      <c r="O144" t="s">
+        <v>184</v>
+      </c>
+      <c r="P144" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q144">
+        <v>2.75</v>
+      </c>
+      <c r="R144">
+        <v>2.05</v>
+      </c>
+      <c r="S144">
+        <v>4.33</v>
+      </c>
+      <c r="T144">
+        <v>1.48</v>
+      </c>
+      <c r="U144">
+        <v>2.45</v>
+      </c>
+      <c r="V144">
+        <v>3.2</v>
+      </c>
+      <c r="W144">
+        <v>1.3</v>
+      </c>
+      <c r="X144">
+        <v>8.5</v>
+      </c>
+      <c r="Y144">
+        <v>1.05</v>
+      </c>
+      <c r="Z144">
+        <v>2</v>
+      </c>
+      <c r="AA144">
+        <v>3.16</v>
+      </c>
+      <c r="AB144">
+        <v>3.78</v>
+      </c>
+      <c r="AC144">
+        <v>1.08</v>
+      </c>
+      <c r="AD144">
+        <v>7.5</v>
+      </c>
+      <c r="AE144">
+        <v>1.42</v>
+      </c>
+      <c r="AF144">
+        <v>2.85</v>
+      </c>
+      <c r="AG144">
+        <v>2.18</v>
+      </c>
+      <c r="AH144">
+        <v>1.62</v>
+      </c>
+      <c r="AI144">
+        <v>1.91</v>
+      </c>
+      <c r="AJ144">
+        <v>1.8</v>
+      </c>
+      <c r="AK144">
+        <v>1.25</v>
+      </c>
+      <c r="AL144">
+        <v>1.28</v>
+      </c>
+      <c r="AM144">
+        <v>1.75</v>
+      </c>
+      <c r="AN144">
+        <v>2</v>
+      </c>
+      <c r="AO144">
+        <v>0.83</v>
+      </c>
+      <c r="AP144">
+        <v>1.86</v>
+      </c>
+      <c r="AQ144">
+        <v>0.86</v>
+      </c>
+      <c r="AR144">
+        <v>1.37</v>
+      </c>
+      <c r="AS144">
+        <v>1.11</v>
+      </c>
+      <c r="AT144">
+        <v>2.48</v>
+      </c>
+      <c r="AU144">
+        <v>5</v>
+      </c>
+      <c r="AV144">
+        <v>3</v>
+      </c>
+      <c r="AW144">
+        <v>9</v>
+      </c>
+      <c r="AX144">
+        <v>5</v>
+      </c>
+      <c r="AY144">
+        <v>14</v>
+      </c>
+      <c r="AZ144">
+        <v>8</v>
+      </c>
+      <c r="BA144">
+        <v>9</v>
+      </c>
+      <c r="BB144">
+        <v>3</v>
+      </c>
+      <c r="BC144">
+        <v>12</v>
+      </c>
+      <c r="BD144">
+        <v>1.54</v>
+      </c>
+      <c r="BE144">
+        <v>8.4</v>
+      </c>
+      <c r="BF144">
+        <v>3.1</v>
+      </c>
+      <c r="BG144">
+        <v>1.15</v>
+      </c>
+      <c r="BH144">
+        <v>4.75</v>
+      </c>
+      <c r="BI144">
+        <v>1.24</v>
+      </c>
+      <c r="BJ144">
+        <v>3.48</v>
+      </c>
+      <c r="BK144">
+        <v>1.44</v>
+      </c>
+      <c r="BL144">
+        <v>2.51</v>
+      </c>
+      <c r="BM144">
+        <v>1.77</v>
+      </c>
+      <c r="BN144">
+        <v>1.94</v>
+      </c>
+      <c r="BO144">
+        <v>2.19</v>
+      </c>
+      <c r="BP144">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="145" spans="1:68">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>7380472</v>
+      </c>
+      <c r="C145" t="s">
+        <v>68</v>
+      </c>
+      <c r="D145" t="s">
+        <v>69</v>
+      </c>
+      <c r="E145" s="2">
+        <v>45486.75</v>
+      </c>
+      <c r="F145">
+        <v>15</v>
+      </c>
+      <c r="G145" t="s">
+        <v>84</v>
+      </c>
+      <c r="H145" t="s">
+        <v>87</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="J145">
+        <v>1</v>
+      </c>
+      <c r="K145">
+        <v>1</v>
+      </c>
+      <c r="L145">
+        <v>2</v>
+      </c>
+      <c r="M145">
+        <v>1</v>
+      </c>
+      <c r="N145">
+        <v>3</v>
+      </c>
+      <c r="O145" t="s">
+        <v>185</v>
+      </c>
+      <c r="P145" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q145">
+        <v>3.2</v>
+      </c>
+      <c r="R145">
+        <v>1.91</v>
+      </c>
+      <c r="S145">
+        <v>4.33</v>
+      </c>
+      <c r="T145">
+        <v>1.57</v>
+      </c>
+      <c r="U145">
+        <v>2.25</v>
+      </c>
+      <c r="V145">
+        <v>3.75</v>
+      </c>
+      <c r="W145">
+        <v>1.25</v>
+      </c>
+      <c r="X145">
+        <v>13</v>
+      </c>
+      <c r="Y145">
+        <v>1.04</v>
+      </c>
+      <c r="Z145">
+        <v>2.3</v>
+      </c>
+      <c r="AA145">
+        <v>2.9</v>
+      </c>
+      <c r="AB145">
+        <v>3.5</v>
+      </c>
+      <c r="AC145">
+        <v>1.1</v>
+      </c>
+      <c r="AD145">
+        <v>7</v>
+      </c>
+      <c r="AE145">
+        <v>1.47</v>
+      </c>
+      <c r="AF145">
+        <v>2.5</v>
+      </c>
+      <c r="AG145">
+        <v>2.88</v>
+      </c>
+      <c r="AH145">
+        <v>1.4</v>
+      </c>
+      <c r="AI145">
+        <v>2.25</v>
+      </c>
+      <c r="AJ145">
+        <v>1.57</v>
+      </c>
+      <c r="AK145">
+        <v>1.35</v>
+      </c>
+      <c r="AL145">
+        <v>1.3</v>
+      </c>
+      <c r="AM145">
+        <v>1.57</v>
+      </c>
+      <c r="AN145">
+        <v>2.2</v>
+      </c>
+      <c r="AO145">
+        <v>0.5</v>
+      </c>
+      <c r="AP145">
+        <v>2.33</v>
+      </c>
+      <c r="AQ145">
+        <v>0.43</v>
+      </c>
+      <c r="AR145">
+        <v>1.6</v>
+      </c>
+      <c r="AS145">
+        <v>1.43</v>
+      </c>
+      <c r="AT145">
+        <v>3.03</v>
+      </c>
+      <c r="AU145">
+        <v>4</v>
+      </c>
+      <c r="AV145">
+        <v>6</v>
+      </c>
+      <c r="AW145">
+        <v>6</v>
+      </c>
+      <c r="AX145">
+        <v>3</v>
+      </c>
+      <c r="AY145">
+        <v>10</v>
+      </c>
+      <c r="AZ145">
+        <v>9</v>
+      </c>
+      <c r="BA145">
+        <v>4</v>
+      </c>
+      <c r="BB145">
+        <v>5</v>
+      </c>
+      <c r="BC145">
+        <v>9</v>
+      </c>
+      <c r="BD145">
+        <v>1.67</v>
+      </c>
+      <c r="BE145">
+        <v>7.7</v>
+      </c>
+      <c r="BF145">
+        <v>2.76</v>
+      </c>
+      <c r="BG145">
+        <v>1.25</v>
+      </c>
+      <c r="BH145">
+        <v>3.6</v>
+      </c>
+      <c r="BI145">
+        <v>1.36</v>
+      </c>
+      <c r="BJ145">
+        <v>2.79</v>
+      </c>
+      <c r="BK145">
+        <v>2.2</v>
+      </c>
+      <c r="BL145">
+        <v>2.09</v>
+      </c>
+      <c r="BM145">
+        <v>2.07</v>
+      </c>
+      <c r="BN145">
+        <v>1.67</v>
+      </c>
+      <c r="BO145">
+        <v>2.67</v>
+      </c>
+      <c r="BP145">
+        <v>1.39</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="243">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -574,6 +574,12 @@
     <t>['53', '86']</t>
   </si>
   <si>
+    <t>['64', '90+5']</t>
+  </si>
+  <si>
+    <t>['86']</t>
+  </si>
+  <si>
     <t>['31', '49', '69']</t>
   </si>
   <si>
@@ -734,6 +740,9 @@
   </si>
   <si>
     <t>['36']</t>
+  </si>
+  <si>
+    <t>['28']</t>
   </si>
 </sst>
 </file>
@@ -1095,7 +1104,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP145"/>
+  <dimension ref="A1:BP147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1847,7 +1856,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ4">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2384,7 +2393,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q7">
         <v>4.33</v>
@@ -2796,7 +2805,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -3080,7 +3089,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ10">
         <v>0.14</v>
@@ -3208,7 +3217,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q11">
         <v>3.5</v>
@@ -3414,7 +3423,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q12">
         <v>3.6</v>
@@ -3826,7 +3835,7 @@
         <v>100</v>
       </c>
       <c r="P14" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q14">
         <v>4.75</v>
@@ -4032,7 +4041,7 @@
         <v>100</v>
       </c>
       <c r="P15" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4937,7 +4946,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ19">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5268,7 +5277,7 @@
         <v>106</v>
       </c>
       <c r="P21" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5555,7 +5564,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ22">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR22">
         <v>1.45</v>
@@ -5886,7 +5895,7 @@
         <v>107</v>
       </c>
       <c r="P24" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q24">
         <v>3.6</v>
@@ -6170,7 +6179,7 @@
         <v>3</v>
       </c>
       <c r="AP25">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ25">
         <v>1.38</v>
@@ -6298,7 +6307,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6504,7 +6513,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q27">
         <v>4</v>
@@ -6710,7 +6719,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -7122,7 +7131,7 @@
         <v>112</v>
       </c>
       <c r="P30" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q30">
         <v>2.1</v>
@@ -7534,7 +7543,7 @@
         <v>113</v>
       </c>
       <c r="P32" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q32">
         <v>2.38</v>
@@ -7740,7 +7749,7 @@
         <v>100</v>
       </c>
       <c r="P33" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -8976,7 +8985,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q39">
         <v>2</v>
@@ -9057,7 +9066,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ39">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AR39">
         <v>1.25</v>
@@ -9388,7 +9397,7 @@
         <v>120</v>
       </c>
       <c r="P41" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q41">
         <v>2.25</v>
@@ -9594,7 +9603,7 @@
         <v>121</v>
       </c>
       <c r="P42" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9800,7 +9809,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q43">
         <v>3.2</v>
@@ -9878,7 +9887,7 @@
         <v>1.5</v>
       </c>
       <c r="AP43">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ43">
         <v>1.63</v>
@@ -11036,7 +11045,7 @@
         <v>125</v>
       </c>
       <c r="P49" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -12478,7 +12487,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q56">
         <v>1.95</v>
@@ -12559,7 +12568,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ56">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR56">
         <v>1.63</v>
@@ -12765,7 +12774,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ57">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AR57">
         <v>1.24</v>
@@ -13302,7 +13311,7 @@
         <v>118</v>
       </c>
       <c r="P60" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13714,7 +13723,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q62">
         <v>3.4</v>
@@ -14332,7 +14341,7 @@
         <v>135</v>
       </c>
       <c r="P65" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q65">
         <v>2.38</v>
@@ -14410,10 +14419,10 @@
         <v>0</v>
       </c>
       <c r="AP65">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ65">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AR65">
         <v>1.27</v>
@@ -14950,7 +14959,7 @@
         <v>100</v>
       </c>
       <c r="P68" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q68">
         <v>3.6</v>
@@ -16186,7 +16195,7 @@
         <v>90</v>
       </c>
       <c r="P74" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q74">
         <v>3.1</v>
@@ -16392,7 +16401,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -16679,7 +16688,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ76">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR76">
         <v>1.31</v>
@@ -16804,7 +16813,7 @@
         <v>139</v>
       </c>
       <c r="P77" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q77">
         <v>2.2</v>
@@ -17628,7 +17637,7 @@
         <v>146</v>
       </c>
       <c r="P81" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q81">
         <v>2.05</v>
@@ -17834,7 +17843,7 @@
         <v>147</v>
       </c>
       <c r="P82" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q82">
         <v>4</v>
@@ -18040,7 +18049,7 @@
         <v>100</v>
       </c>
       <c r="P83" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q83">
         <v>3.2</v>
@@ -18246,7 +18255,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q84">
         <v>2.75</v>
@@ -18327,7 +18336,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ84">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AR84">
         <v>1.29</v>
@@ -18864,7 +18873,7 @@
         <v>150</v>
       </c>
       <c r="P87" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q87">
         <v>3.5</v>
@@ -18942,7 +18951,7 @@
         <v>1.33</v>
       </c>
       <c r="AP87">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ87">
         <v>0.57</v>
@@ -19894,7 +19903,7 @@
         <v>153</v>
       </c>
       <c r="P92" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q92">
         <v>2.63</v>
@@ -20512,7 +20521,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q95">
         <v>3.5</v>
@@ -21130,7 +21139,7 @@
         <v>116</v>
       </c>
       <c r="P98" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q98">
         <v>3</v>
@@ -21542,7 +21551,7 @@
         <v>100</v>
       </c>
       <c r="P100" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q100">
         <v>3.5</v>
@@ -21748,7 +21757,7 @@
         <v>160</v>
       </c>
       <c r="P101" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q101">
         <v>2.6</v>
@@ -22160,7 +22169,7 @@
         <v>162</v>
       </c>
       <c r="P103" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q103">
         <v>2.88</v>
@@ -23065,7 +23074,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ107">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR107">
         <v>1.13</v>
@@ -23268,7 +23277,7 @@
         <v>0.4</v>
       </c>
       <c r="AP108">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ108">
         <v>0.38</v>
@@ -24014,7 +24023,7 @@
         <v>125</v>
       </c>
       <c r="P112" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q112">
         <v>3.05</v>
@@ -24095,7 +24104,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ112">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AR112">
         <v>1.42</v>
@@ -24220,7 +24229,7 @@
         <v>167</v>
       </c>
       <c r="P113" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q113">
         <v>3.25</v>
@@ -24504,7 +24513,7 @@
         <v>0.83</v>
       </c>
       <c r="AP114">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ114">
         <v>0.71</v>
@@ -24632,7 +24641,7 @@
         <v>169</v>
       </c>
       <c r="P115" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q115">
         <v>2.68</v>
@@ -25044,7 +25053,7 @@
         <v>170</v>
       </c>
       <c r="P117" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q117">
         <v>2.38</v>
@@ -25125,7 +25134,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ117">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR117">
         <v>1.94</v>
@@ -25662,7 +25671,7 @@
         <v>90</v>
       </c>
       <c r="P120" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q120">
         <v>2.4</v>
@@ -25868,7 +25877,7 @@
         <v>172</v>
       </c>
       <c r="P121" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q121">
         <v>4</v>
@@ -26074,7 +26083,7 @@
         <v>173</v>
       </c>
       <c r="P122" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q122">
         <v>1.95</v>
@@ -26486,7 +26495,7 @@
         <v>174</v>
       </c>
       <c r="P124" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q124">
         <v>2.75</v>
@@ -26692,7 +26701,7 @@
         <v>175</v>
       </c>
       <c r="P125" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q125">
         <v>3</v>
@@ -27104,7 +27113,7 @@
         <v>176</v>
       </c>
       <c r="P127" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q127">
         <v>2.4</v>
@@ -27185,7 +27194,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ127">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AR127">
         <v>1.71</v>
@@ -27310,7 +27319,7 @@
         <v>177</v>
       </c>
       <c r="P128" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q128">
         <v>2.75</v>
@@ -27516,7 +27525,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q129">
         <v>3.25</v>
@@ -28340,7 +28349,7 @@
         <v>140</v>
       </c>
       <c r="P133" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q133">
         <v>2.25</v>
@@ -28546,7 +28555,7 @@
         <v>96</v>
       </c>
       <c r="P134" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q134">
         <v>2.5</v>
@@ -28752,7 +28761,7 @@
         <v>180</v>
       </c>
       <c r="P135" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q135">
         <v>3.5</v>
@@ -29164,7 +29173,7 @@
         <v>100</v>
       </c>
       <c r="P137" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q137">
         <v>2.75</v>
@@ -29370,7 +29379,7 @@
         <v>181</v>
       </c>
       <c r="P138" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q138">
         <v>3</v>
@@ -29782,7 +29791,7 @@
         <v>182</v>
       </c>
       <c r="P140" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q140">
         <v>3.75</v>
@@ -29988,7 +29997,7 @@
         <v>100</v>
       </c>
       <c r="P141" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q141">
         <v>3</v>
@@ -30194,7 +30203,7 @@
         <v>183</v>
       </c>
       <c r="P142" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q142">
         <v>3.2</v>
@@ -30400,7 +30409,7 @@
         <v>152</v>
       </c>
       <c r="P143" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q143">
         <v>2.5</v>
@@ -30969,6 +30978,418 @@
       </c>
       <c r="BP145">
         <v>1.39</v>
+      </c>
+    </row>
+    <row r="146" spans="1:68">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>7380466</v>
+      </c>
+      <c r="C146" t="s">
+        <v>68</v>
+      </c>
+      <c r="D146" t="s">
+        <v>69</v>
+      </c>
+      <c r="E146" s="2">
+        <v>45487.66666666666</v>
+      </c>
+      <c r="F146">
+        <v>15</v>
+      </c>
+      <c r="G146" t="s">
+        <v>78</v>
+      </c>
+      <c r="H146" t="s">
+        <v>82</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146">
+        <v>1</v>
+      </c>
+      <c r="K146">
+        <v>1</v>
+      </c>
+      <c r="L146">
+        <v>2</v>
+      </c>
+      <c r="M146">
+        <v>1</v>
+      </c>
+      <c r="N146">
+        <v>3</v>
+      </c>
+      <c r="O146" t="s">
+        <v>186</v>
+      </c>
+      <c r="P146" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q146">
+        <v>3.1</v>
+      </c>
+      <c r="R146">
+        <v>1.91</v>
+      </c>
+      <c r="S146">
+        <v>4.33</v>
+      </c>
+      <c r="T146">
+        <v>1.53</v>
+      </c>
+      <c r="U146">
+        <v>2.38</v>
+      </c>
+      <c r="V146">
+        <v>3.75</v>
+      </c>
+      <c r="W146">
+        <v>1.25</v>
+      </c>
+      <c r="X146">
+        <v>11</v>
+      </c>
+      <c r="Y146">
+        <v>1.05</v>
+      </c>
+      <c r="Z146">
+        <v>2.03</v>
+      </c>
+      <c r="AA146">
+        <v>2.99</v>
+      </c>
+      <c r="AB146">
+        <v>3.65</v>
+      </c>
+      <c r="AC146">
+        <v>1.08</v>
+      </c>
+      <c r="AD146">
+        <v>6.2</v>
+      </c>
+      <c r="AE146">
+        <v>1.53</v>
+      </c>
+      <c r="AF146">
+        <v>2.35</v>
+      </c>
+      <c r="AG146">
+        <v>2.36</v>
+      </c>
+      <c r="AH146">
+        <v>1.48</v>
+      </c>
+      <c r="AI146">
+        <v>2.2</v>
+      </c>
+      <c r="AJ146">
+        <v>1.62</v>
+      </c>
+      <c r="AK146">
+        <v>1.17</v>
+      </c>
+      <c r="AL146">
+        <v>1.4</v>
+      </c>
+      <c r="AM146">
+        <v>1.57</v>
+      </c>
+      <c r="AN146">
+        <v>2.71</v>
+      </c>
+      <c r="AO146">
+        <v>1.5</v>
+      </c>
+      <c r="AP146">
+        <v>2.75</v>
+      </c>
+      <c r="AQ146">
+        <v>1.29</v>
+      </c>
+      <c r="AR146">
+        <v>1.33</v>
+      </c>
+      <c r="AS146">
+        <v>1.14</v>
+      </c>
+      <c r="AT146">
+        <v>2.47</v>
+      </c>
+      <c r="AU146">
+        <v>5</v>
+      </c>
+      <c r="AV146">
+        <v>5</v>
+      </c>
+      <c r="AW146">
+        <v>3</v>
+      </c>
+      <c r="AX146">
+        <v>7</v>
+      </c>
+      <c r="AY146">
+        <v>8</v>
+      </c>
+      <c r="AZ146">
+        <v>12</v>
+      </c>
+      <c r="BA146">
+        <v>5</v>
+      </c>
+      <c r="BB146">
+        <v>5</v>
+      </c>
+      <c r="BC146">
+        <v>10</v>
+      </c>
+      <c r="BD146">
+        <v>1.9</v>
+      </c>
+      <c r="BE146">
+        <v>7.7</v>
+      </c>
+      <c r="BF146">
+        <v>2.26</v>
+      </c>
+      <c r="BG146">
+        <v>1.18</v>
+      </c>
+      <c r="BH146">
+        <v>4.33</v>
+      </c>
+      <c r="BI146">
+        <v>1.26</v>
+      </c>
+      <c r="BJ146">
+        <v>3.34</v>
+      </c>
+      <c r="BK146">
+        <v>2.2</v>
+      </c>
+      <c r="BL146">
+        <v>2.42</v>
+      </c>
+      <c r="BM146">
+        <v>1.81</v>
+      </c>
+      <c r="BN146">
+        <v>1.89</v>
+      </c>
+      <c r="BO146">
+        <v>2.28</v>
+      </c>
+      <c r="BP146">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="147" spans="1:68">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>7380471</v>
+      </c>
+      <c r="C147" t="s">
+        <v>68</v>
+      </c>
+      <c r="D147" t="s">
+        <v>69</v>
+      </c>
+      <c r="E147" s="2">
+        <v>45487.80208333334</v>
+      </c>
+      <c r="F147">
+        <v>15</v>
+      </c>
+      <c r="G147" t="s">
+        <v>73</v>
+      </c>
+      <c r="H147" t="s">
+        <v>79</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147">
+        <v>1</v>
+      </c>
+      <c r="K147">
+        <v>1</v>
+      </c>
+      <c r="L147">
+        <v>1</v>
+      </c>
+      <c r="M147">
+        <v>1</v>
+      </c>
+      <c r="N147">
+        <v>2</v>
+      </c>
+      <c r="O147" t="s">
+        <v>187</v>
+      </c>
+      <c r="P147" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q147">
+        <v>3.2</v>
+      </c>
+      <c r="R147">
+        <v>1.91</v>
+      </c>
+      <c r="S147">
+        <v>4.33</v>
+      </c>
+      <c r="T147">
+        <v>1.57</v>
+      </c>
+      <c r="U147">
+        <v>2.25</v>
+      </c>
+      <c r="V147">
+        <v>3.55</v>
+      </c>
+      <c r="W147">
+        <v>1.25</v>
+      </c>
+      <c r="X147">
+        <v>10.5</v>
+      </c>
+      <c r="Y147">
+        <v>1.03</v>
+      </c>
+      <c r="Z147">
+        <v>2.3</v>
+      </c>
+      <c r="AA147">
+        <v>2.9</v>
+      </c>
+      <c r="AB147">
+        <v>3.5</v>
+      </c>
+      <c r="AC147">
+        <v>1.11</v>
+      </c>
+      <c r="AD147">
+        <v>6.25</v>
+      </c>
+      <c r="AE147">
+        <v>1.5</v>
+      </c>
+      <c r="AF147">
+        <v>2.43</v>
+      </c>
+      <c r="AG147">
+        <v>2.88</v>
+      </c>
+      <c r="AH147">
+        <v>1.4</v>
+      </c>
+      <c r="AI147">
+        <v>2.25</v>
+      </c>
+      <c r="AJ147">
+        <v>1.57</v>
+      </c>
+      <c r="AK147">
+        <v>1.25</v>
+      </c>
+      <c r="AL147">
+        <v>1.3</v>
+      </c>
+      <c r="AM147">
+        <v>1.67</v>
+      </c>
+      <c r="AN147">
+        <v>1</v>
+      </c>
+      <c r="AO147">
+        <v>0.43</v>
+      </c>
+      <c r="AP147">
+        <v>1</v>
+      </c>
+      <c r="AQ147">
+        <v>0.5</v>
+      </c>
+      <c r="AR147">
+        <v>1.5</v>
+      </c>
+      <c r="AS147">
+        <v>1.28</v>
+      </c>
+      <c r="AT147">
+        <v>2.78</v>
+      </c>
+      <c r="AU147">
+        <v>7</v>
+      </c>
+      <c r="AV147">
+        <v>4</v>
+      </c>
+      <c r="AW147">
+        <v>11</v>
+      </c>
+      <c r="AX147">
+        <v>3</v>
+      </c>
+      <c r="AY147">
+        <v>18</v>
+      </c>
+      <c r="AZ147">
+        <v>7</v>
+      </c>
+      <c r="BA147">
+        <v>5</v>
+      </c>
+      <c r="BB147">
+        <v>5</v>
+      </c>
+      <c r="BC147">
+        <v>10</v>
+      </c>
+      <c r="BD147">
+        <v>1.62</v>
+      </c>
+      <c r="BE147">
+        <v>8.1</v>
+      </c>
+      <c r="BF147">
+        <v>2.86</v>
+      </c>
+      <c r="BG147">
+        <v>1.22</v>
+      </c>
+      <c r="BH147">
+        <v>3.8</v>
+      </c>
+      <c r="BI147">
+        <v>1.32</v>
+      </c>
+      <c r="BJ147">
+        <v>2.98</v>
+      </c>
+      <c r="BK147">
+        <v>2</v>
+      </c>
+      <c r="BL147">
+        <v>2.19</v>
+      </c>
+      <c r="BM147">
+        <v>1.98</v>
+      </c>
+      <c r="BN147">
+        <v>1.74</v>
+      </c>
+      <c r="BO147">
+        <v>2.54</v>
+      </c>
+      <c r="BP147">
+        <v>1.43</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="244">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -580,6 +580,9 @@
     <t>['86']</t>
   </si>
   <si>
+    <t>['11', '18']</t>
+  </si>
+  <si>
     <t>['31', '49', '69']</t>
   </si>
   <si>
@@ -1104,7 +1107,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP147"/>
+  <dimension ref="A1:BP148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2062,7 +2065,7 @@
         <v>1</v>
       </c>
       <c r="AQ5">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2265,7 +2268,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ6">
         <v>1.13</v>
@@ -2393,7 +2396,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q7">
         <v>4.33</v>
@@ -2805,7 +2808,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -3217,7 +3220,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q11">
         <v>3.5</v>
@@ -3423,7 +3426,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q12">
         <v>3.6</v>
@@ -3835,7 +3838,7 @@
         <v>100</v>
       </c>
       <c r="P14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q14">
         <v>4.75</v>
@@ -4041,7 +4044,7 @@
         <v>100</v>
       </c>
       <c r="P15" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -5277,7 +5280,7 @@
         <v>106</v>
       </c>
       <c r="P21" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5895,7 +5898,7 @@
         <v>107</v>
       </c>
       <c r="P24" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q24">
         <v>3.6</v>
@@ -6307,7 +6310,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6513,7 +6516,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q27">
         <v>4</v>
@@ -6719,7 +6722,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -7131,7 +7134,7 @@
         <v>112</v>
       </c>
       <c r="P30" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q30">
         <v>2.1</v>
@@ -7209,7 +7212,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ30">
         <v>0.14</v>
@@ -7543,7 +7546,7 @@
         <v>113</v>
       </c>
       <c r="P32" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q32">
         <v>2.38</v>
@@ -7749,7 +7752,7 @@
         <v>100</v>
       </c>
       <c r="P33" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -8036,7 +8039,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ34">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR34">
         <v>1.81</v>
@@ -8985,7 +8988,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q39">
         <v>2</v>
@@ -9397,7 +9400,7 @@
         <v>120</v>
       </c>
       <c r="P41" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q41">
         <v>2.25</v>
@@ -9603,7 +9606,7 @@
         <v>121</v>
       </c>
       <c r="P42" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9809,7 +9812,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q43">
         <v>3.2</v>
@@ -11045,7 +11048,7 @@
         <v>125</v>
       </c>
       <c r="P49" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -12487,7 +12490,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q56">
         <v>1.95</v>
@@ -12771,7 +12774,7 @@
         <v>0</v>
       </c>
       <c r="AP57">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ57">
         <v>0.5</v>
@@ -13186,7 +13189,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ59">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR59">
         <v>1.2</v>
@@ -13311,7 +13314,7 @@
         <v>118</v>
       </c>
       <c r="P60" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13723,7 +13726,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q62">
         <v>3.4</v>
@@ -14341,7 +14344,7 @@
         <v>135</v>
       </c>
       <c r="P65" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q65">
         <v>2.38</v>
@@ -14959,7 +14962,7 @@
         <v>100</v>
       </c>
       <c r="P68" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q68">
         <v>3.6</v>
@@ -16195,7 +16198,7 @@
         <v>90</v>
       </c>
       <c r="P74" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q74">
         <v>3.1</v>
@@ -16401,7 +16404,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -16813,7 +16816,7 @@
         <v>139</v>
       </c>
       <c r="P77" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q77">
         <v>2.2</v>
@@ -16891,7 +16894,7 @@
         <v>0.33</v>
       </c>
       <c r="AP77">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ77">
         <v>1.17</v>
@@ -17637,7 +17640,7 @@
         <v>146</v>
       </c>
       <c r="P81" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q81">
         <v>2.05</v>
@@ -17718,7 +17721,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ81">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR81">
         <v>1.59</v>
@@ -17843,7 +17846,7 @@
         <v>147</v>
       </c>
       <c r="P82" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q82">
         <v>4</v>
@@ -18049,7 +18052,7 @@
         <v>100</v>
       </c>
       <c r="P83" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q83">
         <v>3.2</v>
@@ -18255,7 +18258,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q84">
         <v>2.75</v>
@@ -18873,7 +18876,7 @@
         <v>150</v>
       </c>
       <c r="P87" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q87">
         <v>3.5</v>
@@ -19903,7 +19906,7 @@
         <v>153</v>
       </c>
       <c r="P92" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q92">
         <v>2.63</v>
@@ -20521,7 +20524,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q95">
         <v>3.5</v>
@@ -21139,7 +21142,7 @@
         <v>116</v>
       </c>
       <c r="P98" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q98">
         <v>3</v>
@@ -21551,7 +21554,7 @@
         <v>100</v>
       </c>
       <c r="P100" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q100">
         <v>3.5</v>
@@ -21757,7 +21760,7 @@
         <v>160</v>
       </c>
       <c r="P101" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q101">
         <v>2.6</v>
@@ -21838,7 +21841,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ101">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR101">
         <v>1.9</v>
@@ -22169,7 +22172,7 @@
         <v>162</v>
       </c>
       <c r="P103" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q103">
         <v>2.88</v>
@@ -22453,7 +22456,7 @@
         <v>1</v>
       </c>
       <c r="AP104">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ104">
         <v>0.71</v>
@@ -24023,7 +24026,7 @@
         <v>125</v>
       </c>
       <c r="P112" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q112">
         <v>3.05</v>
@@ -24229,7 +24232,7 @@
         <v>167</v>
       </c>
       <c r="P113" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q113">
         <v>3.25</v>
@@ -24641,7 +24644,7 @@
         <v>169</v>
       </c>
       <c r="P115" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q115">
         <v>2.68</v>
@@ -25053,7 +25056,7 @@
         <v>170</v>
       </c>
       <c r="P117" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q117">
         <v>2.38</v>
@@ -25671,7 +25674,7 @@
         <v>90</v>
       </c>
       <c r="P120" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q120">
         <v>2.4</v>
@@ -25877,7 +25880,7 @@
         <v>172</v>
       </c>
       <c r="P121" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q121">
         <v>4</v>
@@ -26083,7 +26086,7 @@
         <v>173</v>
       </c>
       <c r="P122" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q122">
         <v>1.95</v>
@@ -26164,7 +26167,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ122">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR122">
         <v>1.66</v>
@@ -26495,7 +26498,7 @@
         <v>174</v>
       </c>
       <c r="P124" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q124">
         <v>2.75</v>
@@ -26701,7 +26704,7 @@
         <v>175</v>
       </c>
       <c r="P125" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q125">
         <v>3</v>
@@ -26985,7 +26988,7 @@
         <v>1.33</v>
       </c>
       <c r="AP126">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ126">
         <v>1.38</v>
@@ -27113,7 +27116,7 @@
         <v>176</v>
       </c>
       <c r="P127" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q127">
         <v>2.4</v>
@@ -27319,7 +27322,7 @@
         <v>177</v>
       </c>
       <c r="P128" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q128">
         <v>2.75</v>
@@ -27525,7 +27528,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q129">
         <v>3.25</v>
@@ -28349,7 +28352,7 @@
         <v>140</v>
       </c>
       <c r="P133" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q133">
         <v>2.25</v>
@@ -28555,7 +28558,7 @@
         <v>96</v>
       </c>
       <c r="P134" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q134">
         <v>2.5</v>
@@ -28761,7 +28764,7 @@
         <v>180</v>
       </c>
       <c r="P135" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q135">
         <v>3.5</v>
@@ -29173,7 +29176,7 @@
         <v>100</v>
       </c>
       <c r="P137" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q137">
         <v>2.75</v>
@@ -29379,7 +29382,7 @@
         <v>181</v>
       </c>
       <c r="P138" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q138">
         <v>3</v>
@@ -29791,7 +29794,7 @@
         <v>182</v>
       </c>
       <c r="P140" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q140">
         <v>3.75</v>
@@ -29997,7 +30000,7 @@
         <v>100</v>
       </c>
       <c r="P141" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q141">
         <v>3</v>
@@ -30203,7 +30206,7 @@
         <v>183</v>
       </c>
       <c r="P142" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q142">
         <v>3.2</v>
@@ -30409,7 +30412,7 @@
         <v>152</v>
       </c>
       <c r="P143" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q143">
         <v>2.5</v>
@@ -31027,7 +31030,7 @@
         <v>186</v>
       </c>
       <c r="P146" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q146">
         <v>3.1</v>
@@ -31390,6 +31393,212 @@
       </c>
       <c r="BP147">
         <v>1.43</v>
+      </c>
+    </row>
+    <row r="148" spans="1:68">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>7380470</v>
+      </c>
+      <c r="C148" t="s">
+        <v>68</v>
+      </c>
+      <c r="D148" t="s">
+        <v>69</v>
+      </c>
+      <c r="E148" s="2">
+        <v>45488.83333333334</v>
+      </c>
+      <c r="F148">
+        <v>15</v>
+      </c>
+      <c r="G148" t="s">
+        <v>74</v>
+      </c>
+      <c r="H148" t="s">
+        <v>80</v>
+      </c>
+      <c r="I148">
+        <v>2</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
+      <c r="K148">
+        <v>2</v>
+      </c>
+      <c r="L148">
+        <v>2</v>
+      </c>
+      <c r="M148">
+        <v>0</v>
+      </c>
+      <c r="N148">
+        <v>2</v>
+      </c>
+      <c r="O148" t="s">
+        <v>188</v>
+      </c>
+      <c r="P148" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q148">
+        <v>1.67</v>
+      </c>
+      <c r="R148">
+        <v>2.63</v>
+      </c>
+      <c r="S148">
+        <v>10</v>
+      </c>
+      <c r="T148">
+        <v>1.33</v>
+      </c>
+      <c r="U148">
+        <v>3.25</v>
+      </c>
+      <c r="V148">
+        <v>2.63</v>
+      </c>
+      <c r="W148">
+        <v>1.44</v>
+      </c>
+      <c r="X148">
+        <v>6.5</v>
+      </c>
+      <c r="Y148">
+        <v>1.11</v>
+      </c>
+      <c r="Z148">
+        <v>1.25</v>
+      </c>
+      <c r="AA148">
+        <v>5.75</v>
+      </c>
+      <c r="AB148">
+        <v>15</v>
+      </c>
+      <c r="AC148">
+        <v>1.01</v>
+      </c>
+      <c r="AD148">
+        <v>10.5</v>
+      </c>
+      <c r="AE148">
+        <v>1.22</v>
+      </c>
+      <c r="AF148">
+        <v>3.65</v>
+      </c>
+      <c r="AG148">
+        <v>1.65</v>
+      </c>
+      <c r="AH148">
+        <v>2.2</v>
+      </c>
+      <c r="AI148">
+        <v>2.38</v>
+      </c>
+      <c r="AJ148">
+        <v>1.53</v>
+      </c>
+      <c r="AK148">
+        <v>1.04</v>
+      </c>
+      <c r="AL148">
+        <v>1.1</v>
+      </c>
+      <c r="AM148">
+        <v>3.6</v>
+      </c>
+      <c r="AN148">
+        <v>2.5</v>
+      </c>
+      <c r="AO148">
+        <v>0.17</v>
+      </c>
+      <c r="AP148">
+        <v>2.57</v>
+      </c>
+      <c r="AQ148">
+        <v>0.14</v>
+      </c>
+      <c r="AR148">
+        <v>1.91</v>
+      </c>
+      <c r="AS148">
+        <v>1.06</v>
+      </c>
+      <c r="AT148">
+        <v>2.97</v>
+      </c>
+      <c r="AU148">
+        <v>9</v>
+      </c>
+      <c r="AV148">
+        <v>3</v>
+      </c>
+      <c r="AW148">
+        <v>10</v>
+      </c>
+      <c r="AX148">
+        <v>5</v>
+      </c>
+      <c r="AY148">
+        <v>19</v>
+      </c>
+      <c r="AZ148">
+        <v>8</v>
+      </c>
+      <c r="BA148">
+        <v>12</v>
+      </c>
+      <c r="BB148">
+        <v>2</v>
+      </c>
+      <c r="BC148">
+        <v>14</v>
+      </c>
+      <c r="BD148">
+        <v>1.25</v>
+      </c>
+      <c r="BE148">
+        <v>13.5</v>
+      </c>
+      <c r="BF148">
+        <v>4.64</v>
+      </c>
+      <c r="BG148">
+        <v>1.25</v>
+      </c>
+      <c r="BH148">
+        <v>3.6</v>
+      </c>
+      <c r="BI148">
+        <v>1.35</v>
+      </c>
+      <c r="BJ148">
+        <v>2.95</v>
+      </c>
+      <c r="BK148">
+        <v>1.91</v>
+      </c>
+      <c r="BL148">
+        <v>2</v>
+      </c>
+      <c r="BM148">
+        <v>2.07</v>
+      </c>
+      <c r="BN148">
+        <v>1.67</v>
+      </c>
+      <c r="BO148">
+        <v>2.7</v>
+      </c>
+      <c r="BP148">
+        <v>1.41</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="246">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -583,6 +583,12 @@
     <t>['11', '18']</t>
   </si>
   <si>
+    <t>['20', '44', '73', '90+6']</t>
+  </si>
+  <si>
+    <t>['43', '90+3']</t>
+  </si>
+  <si>
     <t>['31', '49', '69']</t>
   </si>
   <si>
@@ -1107,7 +1113,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP148"/>
+  <dimension ref="A1:BP150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1856,7 +1862,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ4">
         <v>1.29</v>
@@ -2396,7 +2402,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q7">
         <v>4.33</v>
@@ -2683,7 +2689,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ8">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2808,7 +2814,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -3220,7 +3226,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q11">
         <v>3.5</v>
@@ -3426,7 +3432,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q12">
         <v>3.6</v>
@@ -3838,7 +3844,7 @@
         <v>100</v>
       </c>
       <c r="P14" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q14">
         <v>4.75</v>
@@ -4044,7 +4050,7 @@
         <v>100</v>
       </c>
       <c r="P15" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4328,7 +4334,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ16">
         <v>0.86</v>
@@ -4537,7 +4543,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ17">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -5280,7 +5286,7 @@
         <v>106</v>
       </c>
       <c r="P21" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5898,7 +5904,7 @@
         <v>107</v>
       </c>
       <c r="P24" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q24">
         <v>3.6</v>
@@ -6310,7 +6316,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6516,7 +6522,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q27">
         <v>4</v>
@@ -6597,7 +6603,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ27">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR27">
         <v>1.04</v>
@@ -6722,7 +6728,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -7134,7 +7140,7 @@
         <v>112</v>
       </c>
       <c r="P30" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q30">
         <v>2.1</v>
@@ -7546,7 +7552,7 @@
         <v>113</v>
       </c>
       <c r="P32" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q32">
         <v>2.38</v>
@@ -7752,7 +7758,7 @@
         <v>100</v>
       </c>
       <c r="P33" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -8242,7 +8248,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ35">
         <v>1.38</v>
@@ -8448,7 +8454,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ36">
         <v>0.5</v>
@@ -8657,7 +8663,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ37">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR37">
         <v>3.34</v>
@@ -8988,7 +8994,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q39">
         <v>2</v>
@@ -9400,7 +9406,7 @@
         <v>120</v>
       </c>
       <c r="P41" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q41">
         <v>2.25</v>
@@ -9606,7 +9612,7 @@
         <v>121</v>
       </c>
       <c r="P42" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9812,7 +9818,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q43">
         <v>3.2</v>
@@ -11048,7 +11054,7 @@
         <v>125</v>
       </c>
       <c r="P49" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -11335,7 +11341,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ50">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR50">
         <v>1.29</v>
@@ -11744,7 +11750,7 @@
         <v>0</v>
       </c>
       <c r="AP52">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ52">
         <v>0.71</v>
@@ -12365,7 +12371,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ55">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR55">
         <v>1.77</v>
@@ -12490,7 +12496,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q56">
         <v>1.95</v>
@@ -12980,7 +12986,7 @@
         <v>1.5</v>
       </c>
       <c r="AP58">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ58">
         <v>0.57</v>
@@ -13314,7 +13320,7 @@
         <v>118</v>
       </c>
       <c r="P60" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13726,7 +13732,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q62">
         <v>3.4</v>
@@ -14344,7 +14350,7 @@
         <v>135</v>
       </c>
       <c r="P65" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q65">
         <v>2.38</v>
@@ -14962,7 +14968,7 @@
         <v>100</v>
       </c>
       <c r="P68" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q68">
         <v>3.6</v>
@@ -15249,7 +15255,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ69">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR69">
         <v>1.31</v>
@@ -16198,7 +16204,7 @@
         <v>90</v>
       </c>
       <c r="P74" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q74">
         <v>3.1</v>
@@ -16404,7 +16410,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -16816,7 +16822,7 @@
         <v>139</v>
       </c>
       <c r="P77" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q77">
         <v>2.2</v>
@@ -16897,7 +16903,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ77">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR77">
         <v>1.71</v>
@@ -17100,7 +17106,7 @@
         <v>0.33</v>
       </c>
       <c r="AP78">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ78">
         <v>0.86</v>
@@ -17640,7 +17646,7 @@
         <v>146</v>
       </c>
       <c r="P81" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q81">
         <v>2.05</v>
@@ -17846,7 +17852,7 @@
         <v>147</v>
       </c>
       <c r="P82" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q82">
         <v>4</v>
@@ -18052,7 +18058,7 @@
         <v>100</v>
       </c>
       <c r="P83" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q83">
         <v>3.2</v>
@@ -18258,7 +18264,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q84">
         <v>2.75</v>
@@ -18876,7 +18882,7 @@
         <v>150</v>
       </c>
       <c r="P87" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q87">
         <v>3.5</v>
@@ -19369,7 +19375,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ89">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR89">
         <v>1.5</v>
@@ -19778,7 +19784,7 @@
         <v>1.2</v>
       </c>
       <c r="AP91">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ91">
         <v>1.25</v>
@@ -19906,7 +19912,7 @@
         <v>153</v>
       </c>
       <c r="P92" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q92">
         <v>2.63</v>
@@ -20524,7 +20530,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q95">
         <v>3.5</v>
@@ -21142,7 +21148,7 @@
         <v>116</v>
       </c>
       <c r="P98" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q98">
         <v>3</v>
@@ -21554,7 +21560,7 @@
         <v>100</v>
       </c>
       <c r="P100" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q100">
         <v>3.5</v>
@@ -21760,7 +21766,7 @@
         <v>160</v>
       </c>
       <c r="P101" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q101">
         <v>2.6</v>
@@ -22172,7 +22178,7 @@
         <v>162</v>
       </c>
       <c r="P103" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q103">
         <v>2.88</v>
@@ -22459,7 +22465,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ104">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR104">
         <v>1.65</v>
@@ -23692,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="AP110">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ110">
         <v>0.14</v>
@@ -23898,10 +23904,10 @@
         <v>1</v>
       </c>
       <c r="AP111">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ111">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR111">
         <v>1.48</v>
@@ -24026,7 +24032,7 @@
         <v>125</v>
       </c>
       <c r="P112" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q112">
         <v>3.05</v>
@@ -24232,7 +24238,7 @@
         <v>167</v>
       </c>
       <c r="P113" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q113">
         <v>3.25</v>
@@ -24519,7 +24525,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ114">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR114">
         <v>1.36</v>
@@ -24644,7 +24650,7 @@
         <v>169</v>
       </c>
       <c r="P115" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q115">
         <v>2.68</v>
@@ -25056,7 +25062,7 @@
         <v>170</v>
       </c>
       <c r="P117" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q117">
         <v>2.38</v>
@@ -25674,7 +25680,7 @@
         <v>90</v>
       </c>
       <c r="P120" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q120">
         <v>2.4</v>
@@ -25880,7 +25886,7 @@
         <v>172</v>
       </c>
       <c r="P121" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q121">
         <v>4</v>
@@ -26086,7 +26092,7 @@
         <v>173</v>
       </c>
       <c r="P122" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q122">
         <v>1.95</v>
@@ -26498,7 +26504,7 @@
         <v>174</v>
       </c>
       <c r="P124" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q124">
         <v>2.75</v>
@@ -26704,7 +26710,7 @@
         <v>175</v>
       </c>
       <c r="P125" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q125">
         <v>3</v>
@@ -27116,7 +27122,7 @@
         <v>176</v>
       </c>
       <c r="P127" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q127">
         <v>2.4</v>
@@ -27194,7 +27200,7 @@
         <v>0.33</v>
       </c>
       <c r="AP127">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ127">
         <v>0.5</v>
@@ -27322,7 +27328,7 @@
         <v>177</v>
       </c>
       <c r="P128" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q128">
         <v>2.75</v>
@@ -27528,7 +27534,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q129">
         <v>3.25</v>
@@ -28352,7 +28358,7 @@
         <v>140</v>
       </c>
       <c r="P133" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q133">
         <v>2.25</v>
@@ -28558,7 +28564,7 @@
         <v>96</v>
       </c>
       <c r="P134" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q134">
         <v>2.5</v>
@@ -28764,7 +28770,7 @@
         <v>180</v>
       </c>
       <c r="P135" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q135">
         <v>3.5</v>
@@ -28845,7 +28851,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ135">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR135">
         <v>1.41</v>
@@ -29176,7 +29182,7 @@
         <v>100</v>
       </c>
       <c r="P137" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q137">
         <v>2.75</v>
@@ -29382,7 +29388,7 @@
         <v>181</v>
       </c>
       <c r="P138" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q138">
         <v>3</v>
@@ -29794,7 +29800,7 @@
         <v>182</v>
       </c>
       <c r="P140" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q140">
         <v>3.75</v>
@@ -30000,7 +30006,7 @@
         <v>100</v>
       </c>
       <c r="P141" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q141">
         <v>3</v>
@@ -30206,7 +30212,7 @@
         <v>183</v>
       </c>
       <c r="P142" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q142">
         <v>3.2</v>
@@ -30412,7 +30418,7 @@
         <v>152</v>
       </c>
       <c r="P143" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q143">
         <v>2.5</v>
@@ -30902,7 +30908,7 @@
         <v>0.5</v>
       </c>
       <c r="AP145">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ145">
         <v>0.43</v>
@@ -31030,7 +31036,7 @@
         <v>186</v>
       </c>
       <c r="P146" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q146">
         <v>3.1</v>
@@ -31599,6 +31605,418 @@
       </c>
       <c r="BP148">
         <v>1.41</v>
+      </c>
+    </row>
+    <row r="149" spans="1:68">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>7380412</v>
+      </c>
+      <c r="C149" t="s">
+        <v>68</v>
+      </c>
+      <c r="D149" t="s">
+        <v>69</v>
+      </c>
+      <c r="E149" s="2">
+        <v>45490.85416666666</v>
+      </c>
+      <c r="F149">
+        <v>9</v>
+      </c>
+      <c r="G149" t="s">
+        <v>84</v>
+      </c>
+      <c r="H149" t="s">
+        <v>70</v>
+      </c>
+      <c r="I149">
+        <v>2</v>
+      </c>
+      <c r="J149">
+        <v>1</v>
+      </c>
+      <c r="K149">
+        <v>3</v>
+      </c>
+      <c r="L149">
+        <v>4</v>
+      </c>
+      <c r="M149">
+        <v>1</v>
+      </c>
+      <c r="N149">
+        <v>5</v>
+      </c>
+      <c r="O149" t="s">
+        <v>189</v>
+      </c>
+      <c r="P149" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q149">
+        <v>2.5</v>
+      </c>
+      <c r="R149">
+        <v>2</v>
+      </c>
+      <c r="S149">
+        <v>6</v>
+      </c>
+      <c r="T149">
+        <v>1.5</v>
+      </c>
+      <c r="U149">
+        <v>2.4</v>
+      </c>
+      <c r="V149">
+        <v>3.3</v>
+      </c>
+      <c r="W149">
+        <v>1.28</v>
+      </c>
+      <c r="X149">
+        <v>7.8</v>
+      </c>
+      <c r="Y149">
+        <v>1.04</v>
+      </c>
+      <c r="Z149">
+        <v>1.73</v>
+      </c>
+      <c r="AA149">
+        <v>3.4</v>
+      </c>
+      <c r="AB149">
+        <v>5.25</v>
+      </c>
+      <c r="AC149">
+        <v>1.09</v>
+      </c>
+      <c r="AD149">
+        <v>7</v>
+      </c>
+      <c r="AE149">
+        <v>1.48</v>
+      </c>
+      <c r="AF149">
+        <v>2.46</v>
+      </c>
+      <c r="AG149">
+        <v>2.5</v>
+      </c>
+      <c r="AH149">
+        <v>1.5</v>
+      </c>
+      <c r="AI149">
+        <v>2.25</v>
+      </c>
+      <c r="AJ149">
+        <v>1.57</v>
+      </c>
+      <c r="AK149">
+        <v>1.15</v>
+      </c>
+      <c r="AL149">
+        <v>1.25</v>
+      </c>
+      <c r="AM149">
+        <v>2.05</v>
+      </c>
+      <c r="AN149">
+        <v>2.33</v>
+      </c>
+      <c r="AO149">
+        <v>1.17</v>
+      </c>
+      <c r="AP149">
+        <v>2.43</v>
+      </c>
+      <c r="AQ149">
+        <v>1</v>
+      </c>
+      <c r="AR149">
+        <v>1.56</v>
+      </c>
+      <c r="AS149">
+        <v>1.35</v>
+      </c>
+      <c r="AT149">
+        <v>2.91</v>
+      </c>
+      <c r="AU149">
+        <v>6</v>
+      </c>
+      <c r="AV149">
+        <v>2</v>
+      </c>
+      <c r="AW149">
+        <v>7</v>
+      </c>
+      <c r="AX149">
+        <v>6</v>
+      </c>
+      <c r="AY149">
+        <v>13</v>
+      </c>
+      <c r="AZ149">
+        <v>8</v>
+      </c>
+      <c r="BA149">
+        <v>3</v>
+      </c>
+      <c r="BB149">
+        <v>4</v>
+      </c>
+      <c r="BC149">
+        <v>7</v>
+      </c>
+      <c r="BD149">
+        <v>1.48</v>
+      </c>
+      <c r="BE149">
+        <v>7</v>
+      </c>
+      <c r="BF149">
+        <v>3.48</v>
+      </c>
+      <c r="BG149">
+        <v>1.29</v>
+      </c>
+      <c r="BH149">
+        <v>3.4</v>
+      </c>
+      <c r="BI149">
+        <v>1.48</v>
+      </c>
+      <c r="BJ149">
+        <v>2.5</v>
+      </c>
+      <c r="BK149">
+        <v>1.73</v>
+      </c>
+      <c r="BL149">
+        <v>2</v>
+      </c>
+      <c r="BM149">
+        <v>2.2</v>
+      </c>
+      <c r="BN149">
+        <v>1.62</v>
+      </c>
+      <c r="BO149">
+        <v>2.8</v>
+      </c>
+      <c r="BP149">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="150" spans="1:68">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>7380473</v>
+      </c>
+      <c r="C150" t="s">
+        <v>68</v>
+      </c>
+      <c r="D150" t="s">
+        <v>69</v>
+      </c>
+      <c r="E150" s="2">
+        <v>45490.875</v>
+      </c>
+      <c r="F150">
+        <v>15</v>
+      </c>
+      <c r="G150" t="s">
+        <v>72</v>
+      </c>
+      <c r="H150" t="s">
+        <v>88</v>
+      </c>
+      <c r="I150">
+        <v>1</v>
+      </c>
+      <c r="J150">
+        <v>0</v>
+      </c>
+      <c r="K150">
+        <v>1</v>
+      </c>
+      <c r="L150">
+        <v>2</v>
+      </c>
+      <c r="M150">
+        <v>0</v>
+      </c>
+      <c r="N150">
+        <v>2</v>
+      </c>
+      <c r="O150" t="s">
+        <v>190</v>
+      </c>
+      <c r="P150" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q150">
+        <v>3.75</v>
+      </c>
+      <c r="R150">
+        <v>1.8</v>
+      </c>
+      <c r="S150">
+        <v>3.75</v>
+      </c>
+      <c r="T150">
+        <v>1.53</v>
+      </c>
+      <c r="U150">
+        <v>2.38</v>
+      </c>
+      <c r="V150">
+        <v>3.75</v>
+      </c>
+      <c r="W150">
+        <v>1.25</v>
+      </c>
+      <c r="X150">
+        <v>11</v>
+      </c>
+      <c r="Y150">
+        <v>1.05</v>
+      </c>
+      <c r="Z150">
+        <v>2.8</v>
+      </c>
+      <c r="AA150">
+        <v>2.9</v>
+      </c>
+      <c r="AB150">
+        <v>2.75</v>
+      </c>
+      <c r="AC150">
+        <v>1.09</v>
+      </c>
+      <c r="AD150">
+        <v>7</v>
+      </c>
+      <c r="AE150">
+        <v>1.57</v>
+      </c>
+      <c r="AF150">
+        <v>2.25</v>
+      </c>
+      <c r="AG150">
+        <v>2.88</v>
+      </c>
+      <c r="AH150">
+        <v>1.4</v>
+      </c>
+      <c r="AI150">
+        <v>2.38</v>
+      </c>
+      <c r="AJ150">
+        <v>1.53</v>
+      </c>
+      <c r="AK150">
+        <v>1.42</v>
+      </c>
+      <c r="AL150">
+        <v>1.3</v>
+      </c>
+      <c r="AM150">
+        <v>1.47</v>
+      </c>
+      <c r="AN150">
+        <v>1.83</v>
+      </c>
+      <c r="AO150">
+        <v>0.71</v>
+      </c>
+      <c r="AP150">
+        <v>2</v>
+      </c>
+      <c r="AQ150">
+        <v>0.63</v>
+      </c>
+      <c r="AR150">
+        <v>1.49</v>
+      </c>
+      <c r="AS150">
+        <v>1.07</v>
+      </c>
+      <c r="AT150">
+        <v>2.56</v>
+      </c>
+      <c r="AU150">
+        <v>10</v>
+      </c>
+      <c r="AV150">
+        <v>4</v>
+      </c>
+      <c r="AW150">
+        <v>5</v>
+      </c>
+      <c r="AX150">
+        <v>3</v>
+      </c>
+      <c r="AY150">
+        <v>15</v>
+      </c>
+      <c r="AZ150">
+        <v>7</v>
+      </c>
+      <c r="BA150">
+        <v>3</v>
+      </c>
+      <c r="BB150">
+        <v>3</v>
+      </c>
+      <c r="BC150">
+        <v>6</v>
+      </c>
+      <c r="BD150">
+        <v>1.62</v>
+      </c>
+      <c r="BE150">
+        <v>8.1</v>
+      </c>
+      <c r="BF150">
+        <v>2.86</v>
+      </c>
+      <c r="BG150">
+        <v>1.2</v>
+      </c>
+      <c r="BH150">
+        <v>4</v>
+      </c>
+      <c r="BI150">
+        <v>1.3</v>
+      </c>
+      <c r="BJ150">
+        <v>3.35</v>
+      </c>
+      <c r="BK150">
+        <v>1.83</v>
+      </c>
+      <c r="BL150">
+        <v>2.4</v>
+      </c>
+      <c r="BM150">
+        <v>1.85</v>
+      </c>
+      <c r="BN150">
+        <v>1.85</v>
+      </c>
+      <c r="BO150">
+        <v>2.48</v>
+      </c>
+      <c r="BP150">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="247">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -586,7 +586,10 @@
     <t>['20', '44', '73', '90+6']</t>
   </si>
   <si>
-    <t>['43', '90+3']</t>
+    <t>['43', '90+2']</t>
+  </si>
+  <si>
+    <t>['65']</t>
   </si>
   <si>
     <t>['31', '49', '69']</t>
@@ -694,9 +697,6 @@
     <t>['43', '57', '87']</t>
   </si>
   <si>
-    <t>['65']</t>
-  </si>
-  <si>
     <t>['45', '82']</t>
   </si>
   <si>
@@ -752,6 +752,9 @@
   </si>
   <si>
     <t>['28']</t>
+  </si>
+  <si>
+    <t>['55']</t>
   </si>
 </sst>
 </file>
@@ -1113,7 +1116,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP150"/>
+  <dimension ref="A1:BP152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1656,7 +1659,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ3">
         <v>0.29</v>
@@ -2402,7 +2405,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q7">
         <v>4.33</v>
@@ -2814,7 +2817,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -3098,7 +3101,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2.75</v>
+        <v>2.56</v>
       </c>
       <c r="AQ10">
         <v>0.14</v>
@@ -3226,7 +3229,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q11">
         <v>3.5</v>
@@ -3432,7 +3435,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q12">
         <v>3.6</v>
@@ -3844,7 +3847,7 @@
         <v>100</v>
       </c>
       <c r="P14" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q14">
         <v>4.75</v>
@@ -3925,7 +3928,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ14">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4050,7 +4053,7 @@
         <v>100</v>
       </c>
       <c r="P15" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4131,7 +4134,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ15">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -5286,7 +5289,7 @@
         <v>106</v>
       </c>
       <c r="P21" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5904,7 +5907,7 @@
         <v>107</v>
       </c>
       <c r="P24" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q24">
         <v>3.6</v>
@@ -6188,7 +6191,7 @@
         <v>3</v>
       </c>
       <c r="AP25">
-        <v>2.75</v>
+        <v>2.56</v>
       </c>
       <c r="AQ25">
         <v>1.38</v>
@@ -6316,7 +6319,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6522,7 +6525,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q27">
         <v>4</v>
@@ -6728,7 +6731,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -7140,7 +7143,7 @@
         <v>112</v>
       </c>
       <c r="P30" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q30">
         <v>2.1</v>
@@ -7552,7 +7555,7 @@
         <v>113</v>
       </c>
       <c r="P32" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q32">
         <v>2.38</v>
@@ -7758,7 +7761,7 @@
         <v>100</v>
       </c>
       <c r="P33" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -7836,7 +7839,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ33">
         <v>0.57</v>
@@ -8251,7 +8254,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ35">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR35">
         <v>1.74</v>
@@ -8869,7 +8872,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ38">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR38">
         <v>1.12</v>
@@ -8994,7 +8997,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q39">
         <v>2</v>
@@ -9406,7 +9409,7 @@
         <v>120</v>
       </c>
       <c r="P41" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q41">
         <v>2.25</v>
@@ -9612,7 +9615,7 @@
         <v>121</v>
       </c>
       <c r="P42" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9818,7 +9821,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q43">
         <v>3.2</v>
@@ -9896,7 +9899,7 @@
         <v>1.5</v>
       </c>
       <c r="AP43">
-        <v>2.75</v>
+        <v>2.56</v>
       </c>
       <c r="AQ43">
         <v>1.63</v>
@@ -10105,7 +10108,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ44">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR44">
         <v>1.09</v>
@@ -11054,7 +11057,7 @@
         <v>125</v>
       </c>
       <c r="P49" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -11135,7 +11138,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ49">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR49">
         <v>1.83</v>
@@ -11956,7 +11959,7 @@
         <v>0.5</v>
       </c>
       <c r="AP53">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ53">
         <v>0.43</v>
@@ -12496,7 +12499,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q56">
         <v>1.95</v>
@@ -13320,7 +13323,7 @@
         <v>118</v>
       </c>
       <c r="P60" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13732,7 +13735,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q62">
         <v>3.4</v>
@@ -13813,7 +13816,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ62">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR62">
         <v>2.09</v>
@@ -14350,7 +14353,7 @@
         <v>135</v>
       </c>
       <c r="P65" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q65">
         <v>2.38</v>
@@ -14428,7 +14431,7 @@
         <v>0</v>
       </c>
       <c r="AP65">
-        <v>2.75</v>
+        <v>2.56</v>
       </c>
       <c r="AQ65">
         <v>0.5</v>
@@ -14637,7 +14640,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ66">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR66">
         <v>1.56</v>
@@ -14968,7 +14971,7 @@
         <v>100</v>
       </c>
       <c r="P68" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q68">
         <v>3.6</v>
@@ -16204,7 +16207,7 @@
         <v>90</v>
       </c>
       <c r="P74" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q74">
         <v>3.1</v>
@@ -16410,7 +16413,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -16822,7 +16825,7 @@
         <v>139</v>
       </c>
       <c r="P77" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q77">
         <v>2.2</v>
@@ -17646,7 +17649,7 @@
         <v>146</v>
       </c>
       <c r="P81" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q81">
         <v>2.05</v>
@@ -17852,7 +17855,7 @@
         <v>147</v>
       </c>
       <c r="P82" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q82">
         <v>4</v>
@@ -17930,10 +17933,10 @@
         <v>1.5</v>
       </c>
       <c r="AP82">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ82">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR82">
         <v>1.94</v>
@@ -18058,7 +18061,7 @@
         <v>100</v>
       </c>
       <c r="P83" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q83">
         <v>3.2</v>
@@ -18264,7 +18267,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q84">
         <v>2.75</v>
@@ -18551,7 +18554,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ85">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR85">
         <v>1.43</v>
@@ -18882,7 +18885,7 @@
         <v>150</v>
       </c>
       <c r="P87" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q87">
         <v>3.5</v>
@@ -18960,7 +18963,7 @@
         <v>1.33</v>
       </c>
       <c r="AP87">
-        <v>2.75</v>
+        <v>2.56</v>
       </c>
       <c r="AQ87">
         <v>0.57</v>
@@ -19581,7 +19584,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ90">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR90">
         <v>1.45</v>
@@ -19787,7 +19790,7 @@
         <v>2</v>
       </c>
       <c r="AQ91">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR91">
         <v>1.58</v>
@@ -19912,7 +19915,7 @@
         <v>153</v>
       </c>
       <c r="P92" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q92">
         <v>2.63</v>
@@ -20530,7 +20533,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q95">
         <v>3.5</v>
@@ -21148,7 +21151,7 @@
         <v>116</v>
       </c>
       <c r="P98" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q98">
         <v>3</v>
@@ -21560,7 +21563,7 @@
         <v>100</v>
       </c>
       <c r="P100" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q100">
         <v>3.5</v>
@@ -21766,7 +21769,7 @@
         <v>160</v>
       </c>
       <c r="P101" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q101">
         <v>2.6</v>
@@ -22050,7 +22053,7 @@
         <v>0.25</v>
       </c>
       <c r="AP102">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ102">
         <v>0.86</v>
@@ -22178,7 +22181,7 @@
         <v>162</v>
       </c>
       <c r="P103" t="s">
-        <v>226</v>
+        <v>191</v>
       </c>
       <c r="Q103">
         <v>2.88</v>
@@ -23286,7 +23289,7 @@
         <v>0.4</v>
       </c>
       <c r="AP108">
-        <v>2.75</v>
+        <v>2.56</v>
       </c>
       <c r="AQ108">
         <v>0.38</v>
@@ -24032,7 +24035,7 @@
         <v>125</v>
       </c>
       <c r="P112" t="s">
-        <v>226</v>
+        <v>191</v>
       </c>
       <c r="Q112">
         <v>3.05</v>
@@ -24522,7 +24525,7 @@
         <v>0.83</v>
       </c>
       <c r="AP114">
-        <v>2.75</v>
+        <v>2.56</v>
       </c>
       <c r="AQ114">
         <v>0.63</v>
@@ -24937,7 +24940,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ116">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR116">
         <v>1.38</v>
@@ -26504,7 +26507,7 @@
         <v>174</v>
       </c>
       <c r="P124" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q124">
         <v>2.75</v>
@@ -26997,7 +27000,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ126">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR126">
         <v>1.76</v>
@@ -27612,7 +27615,7 @@
         <v>0.33</v>
       </c>
       <c r="AP129">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ129">
         <v>0.38</v>
@@ -27821,7 +27824,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ130">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR130">
         <v>1.72</v>
@@ -28439,7 +28442,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ133">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR133">
         <v>1.64</v>
@@ -30496,7 +30499,7 @@
         <v>0</v>
       </c>
       <c r="AP143">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ143">
         <v>0.14</v>
@@ -31114,7 +31117,7 @@
         <v>1.5</v>
       </c>
       <c r="AP146">
-        <v>2.75</v>
+        <v>2.56</v>
       </c>
       <c r="AQ146">
         <v>1.29</v>
@@ -31654,7 +31657,7 @@
         <v>189</v>
       </c>
       <c r="P149" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q149">
         <v>2.5</v>
@@ -32017,6 +32020,418 @@
       </c>
       <c r="BP150">
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:68">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>7380476</v>
+      </c>
+      <c r="C151" t="s">
+        <v>68</v>
+      </c>
+      <c r="D151" t="s">
+        <v>69</v>
+      </c>
+      <c r="E151" s="2">
+        <v>45491.83333333334</v>
+      </c>
+      <c r="F151">
+        <v>16</v>
+      </c>
+      <c r="G151" t="s">
+        <v>78</v>
+      </c>
+      <c r="H151" t="s">
+        <v>74</v>
+      </c>
+      <c r="I151">
+        <v>0</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="K151">
+        <v>0</v>
+      </c>
+      <c r="L151">
+        <v>1</v>
+      </c>
+      <c r="M151">
+        <v>1</v>
+      </c>
+      <c r="N151">
+        <v>2</v>
+      </c>
+      <c r="O151" t="s">
+        <v>191</v>
+      </c>
+      <c r="P151" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q151">
+        <v>3.75</v>
+      </c>
+      <c r="R151">
+        <v>1.95</v>
+      </c>
+      <c r="S151">
+        <v>3.25</v>
+      </c>
+      <c r="T151">
+        <v>1.56</v>
+      </c>
+      <c r="U151">
+        <v>2.29</v>
+      </c>
+      <c r="V151">
+        <v>3.7</v>
+      </c>
+      <c r="W151">
+        <v>1.24</v>
+      </c>
+      <c r="X151">
+        <v>10.5</v>
+      </c>
+      <c r="Y151">
+        <v>1.02</v>
+      </c>
+      <c r="Z151">
+        <v>3.1</v>
+      </c>
+      <c r="AA151">
+        <v>3</v>
+      </c>
+      <c r="AB151">
+        <v>2.45</v>
+      </c>
+      <c r="AC151">
+        <v>1.09</v>
+      </c>
+      <c r="AD151">
+        <v>7</v>
+      </c>
+      <c r="AE151">
+        <v>1.53</v>
+      </c>
+      <c r="AF151">
+        <v>2.46</v>
+      </c>
+      <c r="AG151">
+        <v>2.4</v>
+      </c>
+      <c r="AH151">
+        <v>1.53</v>
+      </c>
+      <c r="AI151">
+        <v>2</v>
+      </c>
+      <c r="AJ151">
+        <v>1.73</v>
+      </c>
+      <c r="AK151">
+        <v>1.6</v>
+      </c>
+      <c r="AL151">
+        <v>1.28</v>
+      </c>
+      <c r="AM151">
+        <v>1.33</v>
+      </c>
+      <c r="AN151">
+        <v>2.75</v>
+      </c>
+      <c r="AO151">
+        <v>1.25</v>
+      </c>
+      <c r="AP151">
+        <v>2.56</v>
+      </c>
+      <c r="AQ151">
+        <v>1.22</v>
+      </c>
+      <c r="AR151">
+        <v>1.32</v>
+      </c>
+      <c r="AS151">
+        <v>1.3</v>
+      </c>
+      <c r="AT151">
+        <v>2.62</v>
+      </c>
+      <c r="AU151">
+        <v>4</v>
+      </c>
+      <c r="AV151">
+        <v>4</v>
+      </c>
+      <c r="AW151">
+        <v>5</v>
+      </c>
+      <c r="AX151">
+        <v>4</v>
+      </c>
+      <c r="AY151">
+        <v>9</v>
+      </c>
+      <c r="AZ151">
+        <v>8</v>
+      </c>
+      <c r="BA151">
+        <v>7</v>
+      </c>
+      <c r="BB151">
+        <v>7</v>
+      </c>
+      <c r="BC151">
+        <v>14</v>
+      </c>
+      <c r="BD151">
+        <v>2.78</v>
+      </c>
+      <c r="BE151">
+        <v>6.95</v>
+      </c>
+      <c r="BF151">
+        <v>1.66</v>
+      </c>
+      <c r="BG151">
+        <v>1.25</v>
+      </c>
+      <c r="BH151">
+        <v>3.7</v>
+      </c>
+      <c r="BI151">
+        <v>1.47</v>
+      </c>
+      <c r="BJ151">
+        <v>2.55</v>
+      </c>
+      <c r="BK151">
+        <v>2.1</v>
+      </c>
+      <c r="BL151">
+        <v>2</v>
+      </c>
+      <c r="BM151">
+        <v>2.38</v>
+      </c>
+      <c r="BN151">
+        <v>1.54</v>
+      </c>
+      <c r="BO151">
+        <v>3.25</v>
+      </c>
+      <c r="BP151">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:68">
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>7380479</v>
+      </c>
+      <c r="C152" t="s">
+        <v>68</v>
+      </c>
+      <c r="D152" t="s">
+        <v>69</v>
+      </c>
+      <c r="E152" s="2">
+        <v>45491.875</v>
+      </c>
+      <c r="F152">
+        <v>16</v>
+      </c>
+      <c r="G152" t="s">
+        <v>71</v>
+      </c>
+      <c r="H152" t="s">
+        <v>73</v>
+      </c>
+      <c r="I152">
+        <v>1</v>
+      </c>
+      <c r="J152">
+        <v>0</v>
+      </c>
+      <c r="K152">
+        <v>1</v>
+      </c>
+      <c r="L152">
+        <v>1</v>
+      </c>
+      <c r="M152">
+        <v>0</v>
+      </c>
+      <c r="N152">
+        <v>1</v>
+      </c>
+      <c r="O152" t="s">
+        <v>96</v>
+      </c>
+      <c r="P152" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q152">
+        <v>2.63</v>
+      </c>
+      <c r="R152">
+        <v>1.91</v>
+      </c>
+      <c r="S152">
+        <v>5.5</v>
+      </c>
+      <c r="T152">
+        <v>1.56</v>
+      </c>
+      <c r="U152">
+        <v>2.29</v>
+      </c>
+      <c r="V152">
+        <v>3.7</v>
+      </c>
+      <c r="W152">
+        <v>1.24</v>
+      </c>
+      <c r="X152">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="Y152">
+        <v>1.03</v>
+      </c>
+      <c r="Z152">
+        <v>1.85</v>
+      </c>
+      <c r="AA152">
+        <v>3.1</v>
+      </c>
+      <c r="AB152">
+        <v>5.25</v>
+      </c>
+      <c r="AC152">
+        <v>1.09</v>
+      </c>
+      <c r="AD152">
+        <v>7</v>
+      </c>
+      <c r="AE152">
+        <v>1.52</v>
+      </c>
+      <c r="AF152">
+        <v>2.49</v>
+      </c>
+      <c r="AG152">
+        <v>2.7</v>
+      </c>
+      <c r="AH152">
+        <v>1.44</v>
+      </c>
+      <c r="AI152">
+        <v>2.5</v>
+      </c>
+      <c r="AJ152">
+        <v>1.5</v>
+      </c>
+      <c r="AK152">
+        <v>1.11</v>
+      </c>
+      <c r="AL152">
+        <v>1.25</v>
+      </c>
+      <c r="AM152">
+        <v>2.05</v>
+      </c>
+      <c r="AN152">
+        <v>1.43</v>
+      </c>
+      <c r="AO152">
+        <v>1.38</v>
+      </c>
+      <c r="AP152">
+        <v>1.63</v>
+      </c>
+      <c r="AQ152">
+        <v>1.22</v>
+      </c>
+      <c r="AR152">
+        <v>1.59</v>
+      </c>
+      <c r="AS152">
+        <v>1.05</v>
+      </c>
+      <c r="AT152">
+        <v>2.64</v>
+      </c>
+      <c r="AU152">
+        <v>4</v>
+      </c>
+      <c r="AV152">
+        <v>5</v>
+      </c>
+      <c r="AW152">
+        <v>5</v>
+      </c>
+      <c r="AX152">
+        <v>8</v>
+      </c>
+      <c r="AY152">
+        <v>9</v>
+      </c>
+      <c r="AZ152">
+        <v>13</v>
+      </c>
+      <c r="BA152">
+        <v>5</v>
+      </c>
+      <c r="BB152">
+        <v>7</v>
+      </c>
+      <c r="BC152">
+        <v>12</v>
+      </c>
+      <c r="BD152">
+        <v>1.6</v>
+      </c>
+      <c r="BE152">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF152">
+        <v>2.81</v>
+      </c>
+      <c r="BG152">
+        <v>1.18</v>
+      </c>
+      <c r="BH152">
+        <v>4.5</v>
+      </c>
+      <c r="BI152">
+        <v>1.35</v>
+      </c>
+      <c r="BJ152">
+        <v>3.05</v>
+      </c>
+      <c r="BK152">
+        <v>2</v>
+      </c>
+      <c r="BL152">
+        <v>2.23</v>
+      </c>
+      <c r="BM152">
+        <v>2.04</v>
+      </c>
+      <c r="BN152">
+        <v>1.73</v>
+      </c>
+      <c r="BO152">
+        <v>2.7</v>
+      </c>
+      <c r="BP152">
+        <v>1.43</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="247">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1116,7 +1116,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP152"/>
+  <dimension ref="A1:BP154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3310,7 +3310,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ11">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3925,7 +3925,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ14">
         <v>1.22</v>
@@ -4955,7 +4955,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ19">
         <v>0.5</v>
@@ -5370,7 +5370,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ21">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5779,7 +5779,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ23">
         <v>1.57</v>
@@ -7430,7 +7430,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ31">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AR31">
         <v>1.04</v>
@@ -7842,7 +7842,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ33">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR33">
         <v>1.83</v>
@@ -9281,7 +9281,7 @@
         <v>1</v>
       </c>
       <c r="AP40">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ40">
         <v>0.43</v>
@@ -9693,7 +9693,7 @@
         <v>0.5</v>
       </c>
       <c r="AP42">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ42">
         <v>0.29</v>
@@ -10311,7 +10311,7 @@
         <v>0</v>
       </c>
       <c r="AP45">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ45">
         <v>0.14</v>
@@ -10726,7 +10726,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ47">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AR47">
         <v>1.99</v>
@@ -12992,7 +12992,7 @@
         <v>2</v>
       </c>
       <c r="AQ58">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR58">
         <v>1.54</v>
@@ -14843,7 +14843,7 @@
         <v>1.33</v>
       </c>
       <c r="AP67">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ67">
         <v>1.38</v>
@@ -15255,7 +15255,7 @@
         <v>1.67</v>
       </c>
       <c r="AP69">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ69">
         <v>0.63</v>
@@ -15464,7 +15464,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ70">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AR70">
         <v>1.23</v>
@@ -17727,7 +17727,7 @@
         <v>0</v>
       </c>
       <c r="AP81">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ81">
         <v>0.14</v>
@@ -18551,7 +18551,7 @@
         <v>1</v>
       </c>
       <c r="AP85">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ85">
         <v>1.22</v>
@@ -18966,7 +18966,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ87">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR87">
         <v>1.41</v>
@@ -19993,7 +19993,7 @@
         <v>0</v>
       </c>
       <c r="AP92">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ92">
         <v>0.14</v>
@@ -21026,7 +21026,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ97">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR97">
         <v>1.19</v>
@@ -21438,7 +21438,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ99">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AR99">
         <v>1.35</v>
@@ -22877,7 +22877,7 @@
         <v>1.25</v>
       </c>
       <c r="AP106">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ106">
         <v>0.86</v>
@@ -23292,7 +23292,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ108">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AR108">
         <v>1.39</v>
@@ -25352,7 +25352,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ118">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR118">
         <v>1.51</v>
@@ -25761,7 +25761,7 @@
         <v>0.2</v>
       </c>
       <c r="AP120">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ120">
         <v>0.71</v>
@@ -26379,7 +26379,7 @@
         <v>0.4</v>
       </c>
       <c r="AP123">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ123">
         <v>0.86</v>
@@ -27618,7 +27618,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ129">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AR129">
         <v>1.77</v>
@@ -28645,7 +28645,7 @@
         <v>1.14</v>
       </c>
       <c r="AP134">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ134">
         <v>1.13</v>
@@ -29263,7 +29263,7 @@
         <v>1.43</v>
       </c>
       <c r="AP137">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ137">
         <v>1.63</v>
@@ -29884,7 +29884,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ140">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AR140">
         <v>1.49</v>
@@ -30296,7 +30296,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ142">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR142">
         <v>1.18</v>
@@ -32432,6 +32432,418 @@
       </c>
       <c r="BP152">
         <v>1.43</v>
+      </c>
+    </row>
+    <row r="153" spans="1:68">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>7380481</v>
+      </c>
+      <c r="C153" t="s">
+        <v>68</v>
+      </c>
+      <c r="D153" t="s">
+        <v>69</v>
+      </c>
+      <c r="E153" s="2">
+        <v>45492.79166666666</v>
+      </c>
+      <c r="F153">
+        <v>16</v>
+      </c>
+      <c r="G153" t="s">
+        <v>82</v>
+      </c>
+      <c r="H153" t="s">
+        <v>76</v>
+      </c>
+      <c r="I153">
+        <v>0</v>
+      </c>
+      <c r="J153">
+        <v>0</v>
+      </c>
+      <c r="K153">
+        <v>0</v>
+      </c>
+      <c r="L153">
+        <v>0</v>
+      </c>
+      <c r="M153">
+        <v>1</v>
+      </c>
+      <c r="N153">
+        <v>1</v>
+      </c>
+      <c r="O153" t="s">
+        <v>100</v>
+      </c>
+      <c r="P153" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q153">
+        <v>3.2</v>
+      </c>
+      <c r="R153">
+        <v>1.91</v>
+      </c>
+      <c r="S153">
+        <v>4</v>
+      </c>
+      <c r="T153">
+        <v>1.53</v>
+      </c>
+      <c r="U153">
+        <v>2.35</v>
+      </c>
+      <c r="V153">
+        <v>3.4</v>
+      </c>
+      <c r="W153">
+        <v>1.28</v>
+      </c>
+      <c r="X153">
+        <v>9.5</v>
+      </c>
+      <c r="Y153">
+        <v>1.04</v>
+      </c>
+      <c r="Z153">
+        <v>2.35</v>
+      </c>
+      <c r="AA153">
+        <v>3</v>
+      </c>
+      <c r="AB153">
+        <v>3.4</v>
+      </c>
+      <c r="AC153">
+        <v>1.1</v>
+      </c>
+      <c r="AD153">
+        <v>6.5</v>
+      </c>
+      <c r="AE153">
+        <v>1.48</v>
+      </c>
+      <c r="AF153">
+        <v>2.6</v>
+      </c>
+      <c r="AG153">
+        <v>2.7</v>
+      </c>
+      <c r="AH153">
+        <v>1.44</v>
+      </c>
+      <c r="AI153">
+        <v>2.2</v>
+      </c>
+      <c r="AJ153">
+        <v>1.62</v>
+      </c>
+      <c r="AK153">
+        <v>1.25</v>
+      </c>
+      <c r="AL153">
+        <v>1.3</v>
+      </c>
+      <c r="AM153">
+        <v>1.7</v>
+      </c>
+      <c r="AN153">
+        <v>1.75</v>
+      </c>
+      <c r="AO153">
+        <v>0.57</v>
+      </c>
+      <c r="AP153">
+        <v>1.56</v>
+      </c>
+      <c r="AQ153">
+        <v>0.88</v>
+      </c>
+      <c r="AR153">
+        <v>1.39</v>
+      </c>
+      <c r="AS153">
+        <v>1.56</v>
+      </c>
+      <c r="AT153">
+        <v>2.95</v>
+      </c>
+      <c r="AU153">
+        <v>3</v>
+      </c>
+      <c r="AV153">
+        <v>4</v>
+      </c>
+      <c r="AW153">
+        <v>4</v>
+      </c>
+      <c r="AX153">
+        <v>4</v>
+      </c>
+      <c r="AY153">
+        <v>7</v>
+      </c>
+      <c r="AZ153">
+        <v>8</v>
+      </c>
+      <c r="BA153">
+        <v>4</v>
+      </c>
+      <c r="BB153">
+        <v>4</v>
+      </c>
+      <c r="BC153">
+        <v>8</v>
+      </c>
+      <c r="BD153">
+        <v>1.97</v>
+      </c>
+      <c r="BE153">
+        <v>7.5</v>
+      </c>
+      <c r="BF153">
+        <v>2.18</v>
+      </c>
+      <c r="BG153">
+        <v>1.15</v>
+      </c>
+      <c r="BH153">
+        <v>4.75</v>
+      </c>
+      <c r="BI153">
+        <v>1.27</v>
+      </c>
+      <c r="BJ153">
+        <v>3.55</v>
+      </c>
+      <c r="BK153">
+        <v>1.48</v>
+      </c>
+      <c r="BL153">
+        <v>2.55</v>
+      </c>
+      <c r="BM153">
+        <v>1.82</v>
+      </c>
+      <c r="BN153">
+        <v>1.98</v>
+      </c>
+      <c r="BO153">
+        <v>2.35</v>
+      </c>
+      <c r="BP153">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="154" spans="1:68">
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>7380483</v>
+      </c>
+      <c r="C154" t="s">
+        <v>68</v>
+      </c>
+      <c r="D154" t="s">
+        <v>69</v>
+      </c>
+      <c r="E154" s="2">
+        <v>45492.89583333334</v>
+      </c>
+      <c r="F154">
+        <v>16</v>
+      </c>
+      <c r="G154" t="s">
+        <v>87</v>
+      </c>
+      <c r="H154" t="s">
+        <v>89</v>
+      </c>
+      <c r="I154">
+        <v>0</v>
+      </c>
+      <c r="J154">
+        <v>0</v>
+      </c>
+      <c r="K154">
+        <v>0</v>
+      </c>
+      <c r="L154">
+        <v>0</v>
+      </c>
+      <c r="M154">
+        <v>1</v>
+      </c>
+      <c r="N154">
+        <v>1</v>
+      </c>
+      <c r="O154" t="s">
+        <v>100</v>
+      </c>
+      <c r="P154" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q154">
+        <v>3</v>
+      </c>
+      <c r="R154">
+        <v>1.91</v>
+      </c>
+      <c r="S154">
+        <v>4.75</v>
+      </c>
+      <c r="T154">
+        <v>1.56</v>
+      </c>
+      <c r="U154">
+        <v>2.29</v>
+      </c>
+      <c r="V154">
+        <v>3.7</v>
+      </c>
+      <c r="W154">
+        <v>1.24</v>
+      </c>
+      <c r="X154">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="Y154">
+        <v>1.03</v>
+      </c>
+      <c r="Z154">
+        <v>2.1</v>
+      </c>
+      <c r="AA154">
+        <v>3</v>
+      </c>
+      <c r="AB154">
+        <v>4</v>
+      </c>
+      <c r="AC154">
+        <v>1.09</v>
+      </c>
+      <c r="AD154">
+        <v>7</v>
+      </c>
+      <c r="AE154">
+        <v>1.5</v>
+      </c>
+      <c r="AF154">
+        <v>2.4</v>
+      </c>
+      <c r="AG154">
+        <v>2.88</v>
+      </c>
+      <c r="AH154">
+        <v>1.4</v>
+      </c>
+      <c r="AI154">
+        <v>2.25</v>
+      </c>
+      <c r="AJ154">
+        <v>1.57</v>
+      </c>
+      <c r="AK154">
+        <v>1.25</v>
+      </c>
+      <c r="AL154">
+        <v>1.28</v>
+      </c>
+      <c r="AM154">
+        <v>1.75</v>
+      </c>
+      <c r="AN154">
+        <v>2.13</v>
+      </c>
+      <c r="AO154">
+        <v>0.38</v>
+      </c>
+      <c r="AP154">
+        <v>1.89</v>
+      </c>
+      <c r="AQ154">
+        <v>0.67</v>
+      </c>
+      <c r="AR154">
+        <v>1.77</v>
+      </c>
+      <c r="AS154">
+        <v>1.19</v>
+      </c>
+      <c r="AT154">
+        <v>2.96</v>
+      </c>
+      <c r="AU154">
+        <v>5</v>
+      </c>
+      <c r="AV154">
+        <v>6</v>
+      </c>
+      <c r="AW154">
+        <v>6</v>
+      </c>
+      <c r="AX154">
+        <v>3</v>
+      </c>
+      <c r="AY154">
+        <v>11</v>
+      </c>
+      <c r="AZ154">
+        <v>9</v>
+      </c>
+      <c r="BA154">
+        <v>9</v>
+      </c>
+      <c r="BB154">
+        <v>5</v>
+      </c>
+      <c r="BC154">
+        <v>14</v>
+      </c>
+      <c r="BD154">
+        <v>1.6</v>
+      </c>
+      <c r="BE154">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF154">
+        <v>2.91</v>
+      </c>
+      <c r="BG154">
+        <v>1.2</v>
+      </c>
+      <c r="BH154">
+        <v>4.25</v>
+      </c>
+      <c r="BI154">
+        <v>1.38</v>
+      </c>
+      <c r="BJ154">
+        <v>2.88</v>
+      </c>
+      <c r="BK154">
+        <v>2.1</v>
+      </c>
+      <c r="BL154">
+        <v>2.12</v>
+      </c>
+      <c r="BM154">
+        <v>2.12</v>
+      </c>
+      <c r="BN154">
+        <v>1.66</v>
+      </c>
+      <c r="BO154">
+        <v>2.85</v>
+      </c>
+      <c r="BP154">
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="252">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -592,6 +592,18 @@
     <t>['65']</t>
   </si>
   <si>
+    <t>['90+4']</t>
+  </si>
+  <si>
+    <t>['37']</t>
+  </si>
+  <si>
+    <t>['31', '75']</t>
+  </si>
+  <si>
+    <t>['8', '72']</t>
+  </si>
+  <si>
     <t>['31', '49', '69']</t>
   </si>
   <si>
@@ -709,9 +721,6 @@
     <t>['47']</t>
   </si>
   <si>
-    <t>['90+4']</t>
-  </si>
-  <si>
     <t>['7', '78']</t>
   </si>
   <si>
@@ -755,6 +764,12 @@
   </si>
   <si>
     <t>['55']</t>
+  </si>
+  <si>
+    <t>['45', '90+2', '90+13']</t>
+  </si>
+  <si>
+    <t>['56', '88']</t>
   </si>
 </sst>
 </file>
@@ -1116,7 +1131,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP154"/>
+  <dimension ref="A1:BP159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1453,7 +1468,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ2">
         <v>0.86</v>
@@ -2074,7 +2089,7 @@
         <v>1</v>
       </c>
       <c r="AQ5">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2405,7 +2420,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q7">
         <v>4.33</v>
@@ -2692,7 +2707,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ8">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2817,7 +2832,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -3229,7 +3244,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q11">
         <v>3.5</v>
@@ -3435,7 +3450,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q12">
         <v>3.6</v>
@@ -3847,7 +3862,7 @@
         <v>100</v>
       </c>
       <c r="P14" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q14">
         <v>4.75</v>
@@ -4053,7 +4068,7 @@
         <v>100</v>
       </c>
       <c r="P15" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4131,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ15">
         <v>1.22</v>
@@ -4337,10 +4352,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ16">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4543,7 +4558,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ17">
         <v>1</v>
@@ -4749,7 +4764,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ18">
         <v>1.63</v>
@@ -4958,7 +4973,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ19">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5164,7 +5179,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ20">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5289,7 +5304,7 @@
         <v>106</v>
       </c>
       <c r="P21" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5573,7 +5588,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ22">
         <v>1.29</v>
@@ -5907,7 +5922,7 @@
         <v>107</v>
       </c>
       <c r="P24" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q24">
         <v>3.6</v>
@@ -6319,7 +6334,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6525,7 +6540,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q27">
         <v>4</v>
@@ -6606,7 +6621,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ27">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR27">
         <v>1.04</v>
@@ -6731,7 +6746,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -7018,7 +7033,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ29">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR29">
         <v>0</v>
@@ -7143,7 +7158,7 @@
         <v>112</v>
       </c>
       <c r="P30" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q30">
         <v>2.1</v>
@@ -7427,7 +7442,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ31">
         <v>0.67</v>
@@ -7555,7 +7570,7 @@
         <v>113</v>
       </c>
       <c r="P32" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q32">
         <v>2.38</v>
@@ -7633,7 +7648,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ32">
         <v>0.71</v>
@@ -7761,7 +7776,7 @@
         <v>100</v>
       </c>
       <c r="P33" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -8048,7 +8063,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ34">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR34">
         <v>1.81</v>
@@ -8251,7 +8266,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ35">
         <v>1.22</v>
@@ -8460,7 +8475,7 @@
         <v>2</v>
       </c>
       <c r="AQ36">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR36">
         <v>1.35</v>
@@ -8663,7 +8678,7 @@
         <v>1</v>
       </c>
       <c r="AP37">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ37">
         <v>1</v>
@@ -8997,7 +9012,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q39">
         <v>2</v>
@@ -9078,7 +9093,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ39">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR39">
         <v>1.25</v>
@@ -9409,7 +9424,7 @@
         <v>120</v>
       </c>
       <c r="P41" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q41">
         <v>2.25</v>
@@ -9615,7 +9630,7 @@
         <v>121</v>
       </c>
       <c r="P42" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9821,7 +9836,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q43">
         <v>3.2</v>
@@ -10105,7 +10120,7 @@
         <v>1.5</v>
       </c>
       <c r="AP44">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ44">
         <v>1.22</v>
@@ -10723,7 +10738,7 @@
         <v>0.5</v>
       </c>
       <c r="AP47">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ47">
         <v>0.67</v>
@@ -11057,7 +11072,7 @@
         <v>125</v>
       </c>
       <c r="P49" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -11341,10 +11356,10 @@
         <v>2</v>
       </c>
       <c r="AP50">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ50">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR50">
         <v>1.29</v>
@@ -11550,7 +11565,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ51">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR51">
         <v>1.66</v>
@@ -11753,7 +11768,7 @@
         <v>0</v>
       </c>
       <c r="AP52">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ52">
         <v>0.71</v>
@@ -12499,7 +12514,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q56">
         <v>1.95</v>
@@ -12786,7 +12801,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ57">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR57">
         <v>1.24</v>
@@ -13198,7 +13213,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ59">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR59">
         <v>1.2</v>
@@ -13323,7 +13338,7 @@
         <v>118</v>
       </c>
       <c r="P60" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13401,7 +13416,7 @@
         <v>1</v>
       </c>
       <c r="AP60">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ60">
         <v>0.86</v>
@@ -13610,7 +13625,7 @@
         <v>1</v>
       </c>
       <c r="AQ61">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR61">
         <v>1.31</v>
@@ -13735,7 +13750,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q62">
         <v>3.4</v>
@@ -13813,7 +13828,7 @@
         <v>2</v>
       </c>
       <c r="AP62">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ62">
         <v>1.22</v>
@@ -14019,7 +14034,7 @@
         <v>0.33</v>
       </c>
       <c r="AP63">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ63">
         <v>1.13</v>
@@ -14228,7 +14243,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ64">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR64">
         <v>1.17</v>
@@ -14353,7 +14368,7 @@
         <v>135</v>
       </c>
       <c r="P65" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q65">
         <v>2.38</v>
@@ -14434,7 +14449,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ65">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR65">
         <v>1.27</v>
@@ -14971,7 +14986,7 @@
         <v>100</v>
       </c>
       <c r="P68" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q68">
         <v>3.6</v>
@@ -15049,7 +15064,7 @@
         <v>1</v>
       </c>
       <c r="AP68">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ68">
         <v>1.63</v>
@@ -15258,7 +15273,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ69">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR69">
         <v>1.31</v>
@@ -16207,7 +16222,7 @@
         <v>90</v>
       </c>
       <c r="P74" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q74">
         <v>3.1</v>
@@ -16413,7 +16428,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -16825,7 +16840,7 @@
         <v>139</v>
       </c>
       <c r="P77" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q77">
         <v>2.2</v>
@@ -17112,7 +17127,7 @@
         <v>2</v>
       </c>
       <c r="AQ78">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR78">
         <v>1.62</v>
@@ -17521,7 +17536,7 @@
         <v>1.67</v>
       </c>
       <c r="AP80">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ80">
         <v>0.86</v>
@@ -17649,7 +17664,7 @@
         <v>146</v>
       </c>
       <c r="P81" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q81">
         <v>2.05</v>
@@ -17730,7 +17745,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ81">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR81">
         <v>1.59</v>
@@ -17855,7 +17870,7 @@
         <v>147</v>
       </c>
       <c r="P82" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q82">
         <v>4</v>
@@ -18061,7 +18076,7 @@
         <v>100</v>
       </c>
       <c r="P83" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q83">
         <v>3.2</v>
@@ -18139,7 +18154,7 @@
         <v>1</v>
       </c>
       <c r="AP83">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ83">
         <v>1.38</v>
@@ -18267,7 +18282,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q84">
         <v>2.75</v>
@@ -18348,7 +18363,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ84">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR84">
         <v>1.29</v>
@@ -18757,10 +18772,10 @@
         <v>0.5</v>
       </c>
       <c r="AP86">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ86">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR86">
         <v>1.95</v>
@@ -18885,7 +18900,7 @@
         <v>150</v>
       </c>
       <c r="P87" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q87">
         <v>3.5</v>
@@ -19378,7 +19393,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ89">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR89">
         <v>1.5</v>
@@ -19915,7 +19930,7 @@
         <v>153</v>
       </c>
       <c r="P92" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q92">
         <v>2.63</v>
@@ -20199,7 +20214,7 @@
         <v>0.25</v>
       </c>
       <c r="AP93">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ93">
         <v>0.29</v>
@@ -20533,7 +20548,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q95">
         <v>3.5</v>
@@ -20817,7 +20832,7 @@
         <v>0.25</v>
       </c>
       <c r="AP96">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ96">
         <v>0.71</v>
@@ -21151,7 +21166,7 @@
         <v>116</v>
       </c>
       <c r="P98" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q98">
         <v>3</v>
@@ -21563,7 +21578,7 @@
         <v>100</v>
       </c>
       <c r="P100" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q100">
         <v>3.5</v>
@@ -21769,7 +21784,7 @@
         <v>160</v>
       </c>
       <c r="P101" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q101">
         <v>2.6</v>
@@ -21847,10 +21862,10 @@
         <v>0</v>
       </c>
       <c r="AP101">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ101">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR101">
         <v>1.9</v>
@@ -22056,7 +22071,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ102">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR102">
         <v>1.91</v>
@@ -22259,7 +22274,7 @@
         <v>0.2</v>
       </c>
       <c r="AP103">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ103">
         <v>0.29</v>
@@ -22468,7 +22483,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ104">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR104">
         <v>1.65</v>
@@ -22671,10 +22686,10 @@
         <v>0.4</v>
       </c>
       <c r="AP105">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ105">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR105">
         <v>1.54</v>
@@ -23701,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="AP110">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ110">
         <v>0.14</v>
@@ -24116,7 +24131,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ112">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR112">
         <v>1.42</v>
@@ -24241,7 +24256,7 @@
         <v>167</v>
       </c>
       <c r="P113" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q113">
         <v>3.25</v>
@@ -24528,7 +24543,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ114">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR114">
         <v>1.36</v>
@@ -24653,7 +24668,7 @@
         <v>169</v>
       </c>
       <c r="P115" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q115">
         <v>2.68</v>
@@ -25065,7 +25080,7 @@
         <v>170</v>
       </c>
       <c r="P117" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q117">
         <v>2.38</v>
@@ -25143,7 +25158,7 @@
         <v>1.6</v>
       </c>
       <c r="AP117">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ117">
         <v>1.29</v>
@@ -25683,7 +25698,7 @@
         <v>90</v>
       </c>
       <c r="P120" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q120">
         <v>2.4</v>
@@ -25889,7 +25904,7 @@
         <v>172</v>
       </c>
       <c r="P121" t="s">
-        <v>231</v>
+        <v>192</v>
       </c>
       <c r="Q121">
         <v>4</v>
@@ -25967,7 +25982,7 @@
         <v>1.4</v>
       </c>
       <c r="AP121">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ121">
         <v>1.57</v>
@@ -26095,7 +26110,7 @@
         <v>173</v>
       </c>
       <c r="P122" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q122">
         <v>1.95</v>
@@ -26176,7 +26191,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ122">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR122">
         <v>1.66</v>
@@ -26382,7 +26397,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ123">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR123">
         <v>1.43</v>
@@ -26507,7 +26522,7 @@
         <v>174</v>
       </c>
       <c r="P124" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q124">
         <v>2.75</v>
@@ -26585,7 +26600,7 @@
         <v>1.67</v>
       </c>
       <c r="AP124">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ124">
         <v>1.38</v>
@@ -26713,7 +26728,7 @@
         <v>175</v>
       </c>
       <c r="P125" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q125">
         <v>3</v>
@@ -26791,10 +26806,10 @@
         <v>0.33</v>
       </c>
       <c r="AP125">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ125">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR125">
         <v>1.89</v>
@@ -27125,7 +27140,7 @@
         <v>176</v>
       </c>
       <c r="P127" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q127">
         <v>2.4</v>
@@ -27203,10 +27218,10 @@
         <v>0.33</v>
       </c>
       <c r="AP127">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ127">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR127">
         <v>1.71</v>
@@ -27331,7 +27346,7 @@
         <v>177</v>
       </c>
       <c r="P128" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q128">
         <v>2.75</v>
@@ -27537,7 +27552,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q129">
         <v>3.25</v>
@@ -28030,7 +28045,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ131">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR131">
         <v>1.13</v>
@@ -28233,7 +28248,7 @@
         <v>1.57</v>
       </c>
       <c r="AP132">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ132">
         <v>1.38</v>
@@ -28361,7 +28376,7 @@
         <v>140</v>
       </c>
       <c r="P133" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q133">
         <v>2.25</v>
@@ -28567,7 +28582,7 @@
         <v>96</v>
       </c>
       <c r="P134" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q134">
         <v>2.5</v>
@@ -28773,7 +28788,7 @@
         <v>180</v>
       </c>
       <c r="P135" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q135">
         <v>3.5</v>
@@ -29057,7 +29072,7 @@
         <v>1.33</v>
       </c>
       <c r="AP136">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ136">
         <v>1.57</v>
@@ -29185,7 +29200,7 @@
         <v>100</v>
       </c>
       <c r="P137" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q137">
         <v>2.75</v>
@@ -29391,7 +29406,7 @@
         <v>181</v>
       </c>
       <c r="P138" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q138">
         <v>3</v>
@@ -29803,7 +29818,7 @@
         <v>182</v>
       </c>
       <c r="P140" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q140">
         <v>3.75</v>
@@ -30009,7 +30024,7 @@
         <v>100</v>
       </c>
       <c r="P141" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q141">
         <v>3</v>
@@ -30087,10 +30102,10 @@
         <v>0.5</v>
       </c>
       <c r="AP141">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ141">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR141">
         <v>1.42</v>
@@ -30215,7 +30230,7 @@
         <v>183</v>
       </c>
       <c r="P142" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q142">
         <v>3.2</v>
@@ -30293,7 +30308,7 @@
         <v>0.67</v>
       </c>
       <c r="AP142">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ142">
         <v>0.88</v>
@@ -30421,7 +30436,7 @@
         <v>152</v>
       </c>
       <c r="P143" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q143">
         <v>2.5</v>
@@ -30911,7 +30926,7 @@
         <v>0.5</v>
       </c>
       <c r="AP145">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ145">
         <v>0.43</v>
@@ -31039,7 +31054,7 @@
         <v>186</v>
       </c>
       <c r="P146" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q146">
         <v>3.1</v>
@@ -31326,7 +31341,7 @@
         <v>1</v>
       </c>
       <c r="AQ147">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR147">
         <v>1.5</v>
@@ -31532,7 +31547,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ148">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR148">
         <v>1.91</v>
@@ -31657,7 +31672,7 @@
         <v>189</v>
       </c>
       <c r="P149" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q149">
         <v>2.5</v>
@@ -31735,7 +31750,7 @@
         <v>1.17</v>
       </c>
       <c r="AP149">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ149">
         <v>1</v>
@@ -31944,7 +31959,7 @@
         <v>2</v>
       </c>
       <c r="AQ150">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR150">
         <v>1.49</v>
@@ -32069,7 +32084,7 @@
         <v>191</v>
       </c>
       <c r="P151" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q151">
         <v>3.75</v>
@@ -32843,6 +32858,1036 @@
         <v>2.85</v>
       </c>
       <c r="BP154">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="155" spans="1:68">
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>7380480</v>
+      </c>
+      <c r="C155" t="s">
+        <v>68</v>
+      </c>
+      <c r="D155" t="s">
+        <v>69</v>
+      </c>
+      <c r="E155" s="2">
+        <v>45493.70833333334</v>
+      </c>
+      <c r="F155">
+        <v>16</v>
+      </c>
+      <c r="G155" t="s">
+        <v>86</v>
+      </c>
+      <c r="H155" t="s">
+        <v>75</v>
+      </c>
+      <c r="I155">
+        <v>0</v>
+      </c>
+      <c r="J155">
+        <v>0</v>
+      </c>
+      <c r="K155">
+        <v>0</v>
+      </c>
+      <c r="L155">
+        <v>0</v>
+      </c>
+      <c r="M155">
+        <v>0</v>
+      </c>
+      <c r="N155">
+        <v>0</v>
+      </c>
+      <c r="O155" t="s">
+        <v>100</v>
+      </c>
+      <c r="P155" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q155">
+        <v>2.25</v>
+      </c>
+      <c r="R155">
+        <v>2.1</v>
+      </c>
+      <c r="S155">
+        <v>6</v>
+      </c>
+      <c r="T155">
+        <v>1.44</v>
+      </c>
+      <c r="U155">
+        <v>2.6</v>
+      </c>
+      <c r="V155">
+        <v>3.05</v>
+      </c>
+      <c r="W155">
+        <v>1.33</v>
+      </c>
+      <c r="X155">
+        <v>7.9</v>
+      </c>
+      <c r="Y155">
+        <v>1.05</v>
+      </c>
+      <c r="Z155">
+        <v>1.55</v>
+      </c>
+      <c r="AA155">
+        <v>3.65</v>
+      </c>
+      <c r="AB155">
+        <v>6</v>
+      </c>
+      <c r="AC155">
+        <v>1.06</v>
+      </c>
+      <c r="AD155">
+        <v>8.5</v>
+      </c>
+      <c r="AE155">
+        <v>1.36</v>
+      </c>
+      <c r="AF155">
+        <v>3</v>
+      </c>
+      <c r="AG155">
+        <v>2</v>
+      </c>
+      <c r="AH155">
+        <v>1.7</v>
+      </c>
+      <c r="AI155">
+        <v>2.1</v>
+      </c>
+      <c r="AJ155">
+        <v>1.67</v>
+      </c>
+      <c r="AK155">
+        <v>1.08</v>
+      </c>
+      <c r="AL155">
+        <v>1.2</v>
+      </c>
+      <c r="AM155">
+        <v>2.35</v>
+      </c>
+      <c r="AN155">
+        <v>2.5</v>
+      </c>
+      <c r="AO155">
+        <v>0.86</v>
+      </c>
+      <c r="AP155">
+        <v>2.33</v>
+      </c>
+      <c r="AQ155">
+        <v>0.88</v>
+      </c>
+      <c r="AR155">
+        <v>1.76</v>
+      </c>
+      <c r="AS155">
+        <v>1.03</v>
+      </c>
+      <c r="AT155">
+        <v>2.79</v>
+      </c>
+      <c r="AU155">
+        <v>5</v>
+      </c>
+      <c r="AV155">
+        <v>3</v>
+      </c>
+      <c r="AW155">
+        <v>5</v>
+      </c>
+      <c r="AX155">
+        <v>5</v>
+      </c>
+      <c r="AY155">
+        <v>10</v>
+      </c>
+      <c r="AZ155">
+        <v>8</v>
+      </c>
+      <c r="BA155">
+        <v>7</v>
+      </c>
+      <c r="BB155">
+        <v>7</v>
+      </c>
+      <c r="BC155">
+        <v>14</v>
+      </c>
+      <c r="BD155">
+        <v>1.54</v>
+      </c>
+      <c r="BE155">
+        <v>8.4</v>
+      </c>
+      <c r="BF155">
+        <v>3.1</v>
+      </c>
+      <c r="BG155">
+        <v>1.2</v>
+      </c>
+      <c r="BH155">
+        <v>4.25</v>
+      </c>
+      <c r="BI155">
+        <v>1.38</v>
+      </c>
+      <c r="BJ155">
+        <v>2.88</v>
+      </c>
+      <c r="BK155">
+        <v>1.91</v>
+      </c>
+      <c r="BL155">
+        <v>1.88</v>
+      </c>
+      <c r="BM155">
+        <v>2.12</v>
+      </c>
+      <c r="BN155">
+        <v>1.66</v>
+      </c>
+      <c r="BO155">
+        <v>2.85</v>
+      </c>
+      <c r="BP155">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="156" spans="1:68">
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>7380482</v>
+      </c>
+      <c r="C156" t="s">
+        <v>68</v>
+      </c>
+      <c r="D156" t="s">
+        <v>69</v>
+      </c>
+      <c r="E156" s="2">
+        <v>45493.70833333334</v>
+      </c>
+      <c r="F156">
+        <v>16</v>
+      </c>
+      <c r="G156" t="s">
+        <v>84</v>
+      </c>
+      <c r="H156" t="s">
+        <v>80</v>
+      </c>
+      <c r="I156">
+        <v>0</v>
+      </c>
+      <c r="J156">
+        <v>0</v>
+      </c>
+      <c r="K156">
+        <v>0</v>
+      </c>
+      <c r="L156">
+        <v>1</v>
+      </c>
+      <c r="M156">
+        <v>0</v>
+      </c>
+      <c r="N156">
+        <v>1</v>
+      </c>
+      <c r="O156" t="s">
+        <v>192</v>
+      </c>
+      <c r="P156" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q156">
+        <v>1.95</v>
+      </c>
+      <c r="R156">
+        <v>2.3</v>
+      </c>
+      <c r="S156">
+        <v>7.5</v>
+      </c>
+      <c r="T156">
+        <v>1.4</v>
+      </c>
+      <c r="U156">
+        <v>2.75</v>
+      </c>
+      <c r="V156">
+        <v>2.8</v>
+      </c>
+      <c r="W156">
+        <v>1.38</v>
+      </c>
+      <c r="X156">
+        <v>7.4</v>
+      </c>
+      <c r="Y156">
+        <v>1.07</v>
+      </c>
+      <c r="Z156">
+        <v>1.5</v>
+      </c>
+      <c r="AA156">
+        <v>3.75</v>
+      </c>
+      <c r="AB156">
+        <v>7</v>
+      </c>
+      <c r="AC156">
+        <v>1.06</v>
+      </c>
+      <c r="AD156">
+        <v>8.5</v>
+      </c>
+      <c r="AE156">
+        <v>1.33</v>
+      </c>
+      <c r="AF156">
+        <v>3.25</v>
+      </c>
+      <c r="AG156">
+        <v>1.9</v>
+      </c>
+      <c r="AH156">
+        <v>1.8</v>
+      </c>
+      <c r="AI156">
+        <v>2.2</v>
+      </c>
+      <c r="AJ156">
+        <v>1.62</v>
+      </c>
+      <c r="AK156">
+        <v>1.09</v>
+      </c>
+      <c r="AL156">
+        <v>1.2</v>
+      </c>
+      <c r="AM156">
+        <v>2.55</v>
+      </c>
+      <c r="AN156">
+        <v>2.43</v>
+      </c>
+      <c r="AO156">
+        <v>0.14</v>
+      </c>
+      <c r="AP156">
+        <v>2.5</v>
+      </c>
+      <c r="AQ156">
+        <v>0.13</v>
+      </c>
+      <c r="AR156">
+        <v>1.57</v>
+      </c>
+      <c r="AS156">
+        <v>1.03</v>
+      </c>
+      <c r="AT156">
+        <v>2.6</v>
+      </c>
+      <c r="AU156">
+        <v>4</v>
+      </c>
+      <c r="AV156">
+        <v>4</v>
+      </c>
+      <c r="AW156">
+        <v>4</v>
+      </c>
+      <c r="AX156">
+        <v>5</v>
+      </c>
+      <c r="AY156">
+        <v>8</v>
+      </c>
+      <c r="AZ156">
+        <v>9</v>
+      </c>
+      <c r="BA156">
+        <v>10</v>
+      </c>
+      <c r="BB156">
+        <v>9</v>
+      </c>
+      <c r="BC156">
+        <v>19</v>
+      </c>
+      <c r="BD156">
+        <v>1.38</v>
+      </c>
+      <c r="BE156">
+        <v>10.5</v>
+      </c>
+      <c r="BF156">
+        <v>3.66</v>
+      </c>
+      <c r="BG156">
+        <v>1.27</v>
+      </c>
+      <c r="BH156">
+        <v>3.55</v>
+      </c>
+      <c r="BI156">
+        <v>1.5</v>
+      </c>
+      <c r="BJ156">
+        <v>2.48</v>
+      </c>
+      <c r="BK156">
+        <v>2.1</v>
+      </c>
+      <c r="BL156">
+        <v>1.88</v>
+      </c>
+      <c r="BM156">
+        <v>2.45</v>
+      </c>
+      <c r="BN156">
+        <v>1.5</v>
+      </c>
+      <c r="BO156">
+        <v>3.4</v>
+      </c>
+      <c r="BP156">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="157" spans="1:68">
+      <c r="A157" s="1">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>7380484</v>
+      </c>
+      <c r="C157" t="s">
+        <v>68</v>
+      </c>
+      <c r="D157" t="s">
+        <v>69</v>
+      </c>
+      <c r="E157" s="2">
+        <v>45493.75</v>
+      </c>
+      <c r="F157">
+        <v>16</v>
+      </c>
+      <c r="G157" t="s">
+        <v>85</v>
+      </c>
+      <c r="H157" t="s">
+        <v>77</v>
+      </c>
+      <c r="I157">
+        <v>1</v>
+      </c>
+      <c r="J157">
+        <v>0</v>
+      </c>
+      <c r="K157">
+        <v>1</v>
+      </c>
+      <c r="L157">
+        <v>1</v>
+      </c>
+      <c r="M157">
+        <v>0</v>
+      </c>
+      <c r="N157">
+        <v>1</v>
+      </c>
+      <c r="O157" t="s">
+        <v>193</v>
+      </c>
+      <c r="P157" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q157">
+        <v>2.3</v>
+      </c>
+      <c r="R157">
+        <v>2.1</v>
+      </c>
+      <c r="S157">
+        <v>6</v>
+      </c>
+      <c r="T157">
+        <v>1.51</v>
+      </c>
+      <c r="U157">
+        <v>2.4</v>
+      </c>
+      <c r="V157">
+        <v>3.4</v>
+      </c>
+      <c r="W157">
+        <v>1.28</v>
+      </c>
+      <c r="X157">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="Y157">
+        <v>1.04</v>
+      </c>
+      <c r="Z157">
+        <v>1.62</v>
+      </c>
+      <c r="AA157">
+        <v>3.7</v>
+      </c>
+      <c r="AB157">
+        <v>5.75</v>
+      </c>
+      <c r="AC157">
+        <v>1.09</v>
+      </c>
+      <c r="AD157">
+        <v>7</v>
+      </c>
+      <c r="AE157">
+        <v>1.44</v>
+      </c>
+      <c r="AF157">
+        <v>2.65</v>
+      </c>
+      <c r="AG157">
+        <v>2.1</v>
+      </c>
+      <c r="AH157">
+        <v>1.7</v>
+      </c>
+      <c r="AI157">
+        <v>2</v>
+      </c>
+      <c r="AJ157">
+        <v>1.73</v>
+      </c>
+      <c r="AK157">
+        <v>1.16</v>
+      </c>
+      <c r="AL157">
+        <v>1.25</v>
+      </c>
+      <c r="AM157">
+        <v>1.9</v>
+      </c>
+      <c r="AN157">
+        <v>1.57</v>
+      </c>
+      <c r="AO157">
+        <v>0.5</v>
+      </c>
+      <c r="AP157">
+        <v>1.75</v>
+      </c>
+      <c r="AQ157">
+        <v>0.44</v>
+      </c>
+      <c r="AR157">
+        <v>1.2</v>
+      </c>
+      <c r="AS157">
+        <v>1.26</v>
+      </c>
+      <c r="AT157">
+        <v>2.46</v>
+      </c>
+      <c r="AU157">
+        <v>6</v>
+      </c>
+      <c r="AV157">
+        <v>5</v>
+      </c>
+      <c r="AW157">
+        <v>17</v>
+      </c>
+      <c r="AX157">
+        <v>2</v>
+      </c>
+      <c r="AY157">
+        <v>23</v>
+      </c>
+      <c r="AZ157">
+        <v>7</v>
+      </c>
+      <c r="BA157">
+        <v>13</v>
+      </c>
+      <c r="BB157">
+        <v>0</v>
+      </c>
+      <c r="BC157">
+        <v>13</v>
+      </c>
+      <c r="BD157">
+        <v>1.4</v>
+      </c>
+      <c r="BE157">
+        <v>8.1</v>
+      </c>
+      <c r="BF157">
+        <v>3.96</v>
+      </c>
+      <c r="BG157">
+        <v>1.22</v>
+      </c>
+      <c r="BH157">
+        <v>4</v>
+      </c>
+      <c r="BI157">
+        <v>1.41</v>
+      </c>
+      <c r="BJ157">
+        <v>2.75</v>
+      </c>
+      <c r="BK157">
+        <v>2.1</v>
+      </c>
+      <c r="BL157">
+        <v>2.04</v>
+      </c>
+      <c r="BM157">
+        <v>2.23</v>
+      </c>
+      <c r="BN157">
+        <v>1.61</v>
+      </c>
+      <c r="BO157">
+        <v>3</v>
+      </c>
+      <c r="BP157">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="158" spans="1:68">
+      <c r="A158" s="1">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>7380477</v>
+      </c>
+      <c r="C158" t="s">
+        <v>68</v>
+      </c>
+      <c r="D158" t="s">
+        <v>69</v>
+      </c>
+      <c r="E158" s="2">
+        <v>45494.66666666666</v>
+      </c>
+      <c r="F158">
+        <v>16</v>
+      </c>
+      <c r="G158" t="s">
+        <v>83</v>
+      </c>
+      <c r="H158" t="s">
+        <v>88</v>
+      </c>
+      <c r="I158">
+        <v>1</v>
+      </c>
+      <c r="J158">
+        <v>1</v>
+      </c>
+      <c r="K158">
+        <v>2</v>
+      </c>
+      <c r="L158">
+        <v>2</v>
+      </c>
+      <c r="M158">
+        <v>3</v>
+      </c>
+      <c r="N158">
+        <v>5</v>
+      </c>
+      <c r="O158" t="s">
+        <v>194</v>
+      </c>
+      <c r="P158" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q158">
+        <v>3.75</v>
+      </c>
+      <c r="R158">
+        <v>1.83</v>
+      </c>
+      <c r="S158">
+        <v>3.75</v>
+      </c>
+      <c r="T158">
+        <v>1.57</v>
+      </c>
+      <c r="U158">
+        <v>2.25</v>
+      </c>
+      <c r="V158">
+        <v>3.75</v>
+      </c>
+      <c r="W158">
+        <v>1.25</v>
+      </c>
+      <c r="X158">
+        <v>13</v>
+      </c>
+      <c r="Y158">
+        <v>1.04</v>
+      </c>
+      <c r="Z158">
+        <v>2.75</v>
+      </c>
+      <c r="AA158">
+        <v>2.8</v>
+      </c>
+      <c r="AB158">
+        <v>2.85</v>
+      </c>
+      <c r="AC158">
+        <v>1.1</v>
+      </c>
+      <c r="AD158">
+        <v>7</v>
+      </c>
+      <c r="AE158">
+        <v>1.5</v>
+      </c>
+      <c r="AF158">
+        <v>2.4</v>
+      </c>
+      <c r="AG158">
+        <v>2.46</v>
+      </c>
+      <c r="AH158">
+        <v>1.49</v>
+      </c>
+      <c r="AI158">
+        <v>2.25</v>
+      </c>
+      <c r="AJ158">
+        <v>1.57</v>
+      </c>
+      <c r="AK158">
+        <v>1.5</v>
+      </c>
+      <c r="AL158">
+        <v>1.3</v>
+      </c>
+      <c r="AM158">
+        <v>1.4</v>
+      </c>
+      <c r="AN158">
+        <v>0.75</v>
+      </c>
+      <c r="AO158">
+        <v>0.63</v>
+      </c>
+      <c r="AP158">
+        <v>0.67</v>
+      </c>
+      <c r="AQ158">
+        <v>0.89</v>
+      </c>
+      <c r="AR158">
+        <v>1.72</v>
+      </c>
+      <c r="AS158">
+        <v>1.07</v>
+      </c>
+      <c r="AT158">
+        <v>2.79</v>
+      </c>
+      <c r="AU158">
+        <v>9</v>
+      </c>
+      <c r="AV158">
+        <v>5</v>
+      </c>
+      <c r="AW158">
+        <v>7</v>
+      </c>
+      <c r="AX158">
+        <v>2</v>
+      </c>
+      <c r="AY158">
+        <v>16</v>
+      </c>
+      <c r="AZ158">
+        <v>7</v>
+      </c>
+      <c r="BA158">
+        <v>10</v>
+      </c>
+      <c r="BB158">
+        <v>1</v>
+      </c>
+      <c r="BC158">
+        <v>11</v>
+      </c>
+      <c r="BD158">
+        <v>1.97</v>
+      </c>
+      <c r="BE158">
+        <v>6.45</v>
+      </c>
+      <c r="BF158">
+        <v>2.26</v>
+      </c>
+      <c r="BG158">
+        <v>1.2</v>
+      </c>
+      <c r="BH158">
+        <v>4.25</v>
+      </c>
+      <c r="BI158">
+        <v>1.38</v>
+      </c>
+      <c r="BJ158">
+        <v>2.88</v>
+      </c>
+      <c r="BK158">
+        <v>2.1</v>
+      </c>
+      <c r="BL158">
+        <v>2.12</v>
+      </c>
+      <c r="BM158">
+        <v>2.12</v>
+      </c>
+      <c r="BN158">
+        <v>1.66</v>
+      </c>
+      <c r="BO158">
+        <v>2.85</v>
+      </c>
+      <c r="BP158">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="159" spans="1:68">
+      <c r="A159" s="1">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>7380478</v>
+      </c>
+      <c r="C159" t="s">
+        <v>68</v>
+      </c>
+      <c r="D159" t="s">
+        <v>69</v>
+      </c>
+      <c r="E159" s="2">
+        <v>45494.77083333334</v>
+      </c>
+      <c r="F159">
+        <v>16</v>
+      </c>
+      <c r="G159" t="s">
+        <v>70</v>
+      </c>
+      <c r="H159" t="s">
+        <v>79</v>
+      </c>
+      <c r="I159">
+        <v>1</v>
+      </c>
+      <c r="J159">
+        <v>0</v>
+      </c>
+      <c r="K159">
+        <v>1</v>
+      </c>
+      <c r="L159">
+        <v>2</v>
+      </c>
+      <c r="M159">
+        <v>2</v>
+      </c>
+      <c r="N159">
+        <v>4</v>
+      </c>
+      <c r="O159" t="s">
+        <v>195</v>
+      </c>
+      <c r="P159" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q159">
+        <v>3</v>
+      </c>
+      <c r="R159">
+        <v>1.91</v>
+      </c>
+      <c r="S159">
+        <v>4.75</v>
+      </c>
+      <c r="T159">
+        <v>1.6</v>
+      </c>
+      <c r="U159">
+        <v>2.22</v>
+      </c>
+      <c r="V159">
+        <v>3.7</v>
+      </c>
+      <c r="W159">
+        <v>1.24</v>
+      </c>
+      <c r="X159">
+        <v>10.5</v>
+      </c>
+      <c r="Y159">
+        <v>1.02</v>
+      </c>
+      <c r="Z159">
+        <v>2.1</v>
+      </c>
+      <c r="AA159">
+        <v>2.88</v>
+      </c>
+      <c r="AB159">
+        <v>4.1</v>
+      </c>
+      <c r="AC159">
+        <v>1.11</v>
+      </c>
+      <c r="AD159">
+        <v>6</v>
+      </c>
+      <c r="AE159">
+        <v>1.53</v>
+      </c>
+      <c r="AF159">
+        <v>2.34</v>
+      </c>
+      <c r="AG159">
+        <v>2.88</v>
+      </c>
+      <c r="AH159">
+        <v>1.4</v>
+      </c>
+      <c r="AI159">
+        <v>2.25</v>
+      </c>
+      <c r="AJ159">
+        <v>1.57</v>
+      </c>
+      <c r="AK159">
+        <v>1.22</v>
+      </c>
+      <c r="AL159">
+        <v>1.3</v>
+      </c>
+      <c r="AM159">
+        <v>1.75</v>
+      </c>
+      <c r="AN159">
+        <v>1.25</v>
+      </c>
+      <c r="AO159">
+        <v>0.5</v>
+      </c>
+      <c r="AP159">
+        <v>1.22</v>
+      </c>
+      <c r="AQ159">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AR159">
+        <v>1.43</v>
+      </c>
+      <c r="AS159">
+        <v>1.23</v>
+      </c>
+      <c r="AT159">
+        <v>2.66</v>
+      </c>
+      <c r="AU159">
+        <v>3</v>
+      </c>
+      <c r="AV159">
+        <v>5</v>
+      </c>
+      <c r="AW159">
+        <v>9</v>
+      </c>
+      <c r="AX159">
+        <v>8</v>
+      </c>
+      <c r="AY159">
+        <v>12</v>
+      </c>
+      <c r="AZ159">
+        <v>13</v>
+      </c>
+      <c r="BA159">
+        <v>3</v>
+      </c>
+      <c r="BB159">
+        <v>2</v>
+      </c>
+      <c r="BC159">
+        <v>5</v>
+      </c>
+      <c r="BD159">
+        <v>1.5</v>
+      </c>
+      <c r="BE159">
+        <v>7.1</v>
+      </c>
+      <c r="BF159">
+        <v>3.36</v>
+      </c>
+      <c r="BG159">
+        <v>1.2</v>
+      </c>
+      <c r="BH159">
+        <v>4.25</v>
+      </c>
+      <c r="BI159">
+        <v>1.38</v>
+      </c>
+      <c r="BJ159">
+        <v>2.88</v>
+      </c>
+      <c r="BK159">
+        <v>2.1</v>
+      </c>
+      <c r="BL159">
+        <v>2.12</v>
+      </c>
+      <c r="BM159">
+        <v>2.12</v>
+      </c>
+      <c r="BN159">
+        <v>1.66</v>
+      </c>
+      <c r="BO159">
+        <v>2.85</v>
+      </c>
+      <c r="BP159">
         <v>1.38</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="253">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -604,6 +604,9 @@
     <t>['8', '72']</t>
   </si>
   <si>
+    <t>['4', '9', '73', '82']</t>
+  </si>
+  <si>
     <t>['31', '49', '69']</t>
   </si>
   <si>
@@ -1131,7 +1134,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP159"/>
+  <dimension ref="A1:BP160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2292,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ6">
         <v>1.13</v>
@@ -2420,7 +2423,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q7">
         <v>4.33</v>
@@ -2832,7 +2835,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2913,7 +2916,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ9">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3244,7 +3247,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q11">
         <v>3.5</v>
@@ -3450,7 +3453,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q12">
         <v>3.6</v>
@@ -3862,7 +3865,7 @@
         <v>100</v>
       </c>
       <c r="P14" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q14">
         <v>4.75</v>
@@ -4068,7 +4071,7 @@
         <v>100</v>
       </c>
       <c r="P15" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -5304,7 +5307,7 @@
         <v>106</v>
       </c>
       <c r="P21" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5922,7 +5925,7 @@
         <v>107</v>
       </c>
       <c r="P24" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q24">
         <v>3.6</v>
@@ -6334,7 +6337,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6540,7 +6543,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q27">
         <v>4</v>
@@ -6746,7 +6749,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -7158,7 +7161,7 @@
         <v>112</v>
       </c>
       <c r="P30" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q30">
         <v>2.1</v>
@@ -7236,7 +7239,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ30">
         <v>0.14</v>
@@ -7570,7 +7573,7 @@
         <v>113</v>
       </c>
       <c r="P32" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q32">
         <v>2.38</v>
@@ -7776,7 +7779,7 @@
         <v>100</v>
       </c>
       <c r="P33" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -9012,7 +9015,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q39">
         <v>2</v>
@@ -9299,7 +9302,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ40">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR40">
         <v>1.33</v>
@@ -9424,7 +9427,7 @@
         <v>120</v>
       </c>
       <c r="P41" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q41">
         <v>2.25</v>
@@ -9630,7 +9633,7 @@
         <v>121</v>
       </c>
       <c r="P42" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9836,7 +9839,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q43">
         <v>3.2</v>
@@ -11072,7 +11075,7 @@
         <v>125</v>
       </c>
       <c r="P49" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -11977,7 +11980,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ53">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR53">
         <v>2.01</v>
@@ -12514,7 +12517,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q56">
         <v>1.95</v>
@@ -12798,7 +12801,7 @@
         <v>0</v>
       </c>
       <c r="AP57">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ57">
         <v>0.5600000000000001</v>
@@ -13338,7 +13341,7 @@
         <v>118</v>
       </c>
       <c r="P60" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13750,7 +13753,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q62">
         <v>3.4</v>
@@ -14368,7 +14371,7 @@
         <v>135</v>
       </c>
       <c r="P65" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q65">
         <v>2.38</v>
@@ -14986,7 +14989,7 @@
         <v>100</v>
       </c>
       <c r="P68" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q68">
         <v>3.6</v>
@@ -15685,7 +15688,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ71">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR71">
         <v>1.73</v>
@@ -16222,7 +16225,7 @@
         <v>90</v>
       </c>
       <c r="P74" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q74">
         <v>3.1</v>
@@ -16428,7 +16431,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -16840,7 +16843,7 @@
         <v>139</v>
       </c>
       <c r="P77" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q77">
         <v>2.2</v>
@@ -16918,7 +16921,7 @@
         <v>0.33</v>
       </c>
       <c r="AP77">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ77">
         <v>1</v>
@@ -17664,7 +17667,7 @@
         <v>146</v>
       </c>
       <c r="P81" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q81">
         <v>2.05</v>
@@ -17870,7 +17873,7 @@
         <v>147</v>
       </c>
       <c r="P82" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q82">
         <v>4</v>
@@ -18076,7 +18079,7 @@
         <v>100</v>
       </c>
       <c r="P83" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q83">
         <v>3.2</v>
@@ -18282,7 +18285,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q84">
         <v>2.75</v>
@@ -18900,7 +18903,7 @@
         <v>150</v>
       </c>
       <c r="P87" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q87">
         <v>3.5</v>
@@ -19930,7 +19933,7 @@
         <v>153</v>
       </c>
       <c r="P92" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q92">
         <v>2.63</v>
@@ -20548,7 +20551,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q95">
         <v>3.5</v>
@@ -21166,7 +21169,7 @@
         <v>116</v>
       </c>
       <c r="P98" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q98">
         <v>3</v>
@@ -21247,7 +21250,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ98">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR98">
         <v>1.63</v>
@@ -21578,7 +21581,7 @@
         <v>100</v>
       </c>
       <c r="P100" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q100">
         <v>3.5</v>
@@ -21784,7 +21787,7 @@
         <v>160</v>
       </c>
       <c r="P101" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q101">
         <v>2.6</v>
@@ -22480,7 +22483,7 @@
         <v>1</v>
       </c>
       <c r="AP104">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ104">
         <v>0.89</v>
@@ -24256,7 +24259,7 @@
         <v>167</v>
       </c>
       <c r="P113" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q113">
         <v>3.25</v>
@@ -24668,7 +24671,7 @@
         <v>169</v>
       </c>
       <c r="P115" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q115">
         <v>2.68</v>
@@ -25080,7 +25083,7 @@
         <v>170</v>
       </c>
       <c r="P117" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q117">
         <v>2.38</v>
@@ -25573,7 +25576,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ119">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR119">
         <v>1.45</v>
@@ -25698,7 +25701,7 @@
         <v>90</v>
       </c>
       <c r="P120" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q120">
         <v>2.4</v>
@@ -26110,7 +26113,7 @@
         <v>173</v>
       </c>
       <c r="P122" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q122">
         <v>1.95</v>
@@ -26522,7 +26525,7 @@
         <v>174</v>
       </c>
       <c r="P124" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q124">
         <v>2.75</v>
@@ -26728,7 +26731,7 @@
         <v>175</v>
       </c>
       <c r="P125" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q125">
         <v>3</v>
@@ -27012,7 +27015,7 @@
         <v>1.33</v>
       </c>
       <c r="AP126">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ126">
         <v>1.22</v>
@@ -27140,7 +27143,7 @@
         <v>176</v>
       </c>
       <c r="P127" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q127">
         <v>2.4</v>
@@ -27346,7 +27349,7 @@
         <v>177</v>
       </c>
       <c r="P128" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q128">
         <v>2.75</v>
@@ -27552,7 +27555,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q129">
         <v>3.25</v>
@@ -28376,7 +28379,7 @@
         <v>140</v>
       </c>
       <c r="P133" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q133">
         <v>2.25</v>
@@ -28582,7 +28585,7 @@
         <v>96</v>
       </c>
       <c r="P134" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q134">
         <v>2.5</v>
@@ -28788,7 +28791,7 @@
         <v>180</v>
       </c>
       <c r="P135" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q135">
         <v>3.5</v>
@@ -29200,7 +29203,7 @@
         <v>100</v>
       </c>
       <c r="P137" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q137">
         <v>2.75</v>
@@ -29406,7 +29409,7 @@
         <v>181</v>
       </c>
       <c r="P138" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q138">
         <v>3</v>
@@ -29818,7 +29821,7 @@
         <v>182</v>
       </c>
       <c r="P140" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q140">
         <v>3.75</v>
@@ -30024,7 +30027,7 @@
         <v>100</v>
       </c>
       <c r="P141" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q141">
         <v>3</v>
@@ -30230,7 +30233,7 @@
         <v>183</v>
       </c>
       <c r="P142" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q142">
         <v>3.2</v>
@@ -30436,7 +30439,7 @@
         <v>152</v>
       </c>
       <c r="P143" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q143">
         <v>2.5</v>
@@ -30929,7 +30932,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ145">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR145">
         <v>1.6</v>
@@ -31054,7 +31057,7 @@
         <v>186</v>
       </c>
       <c r="P146" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q146">
         <v>3.1</v>
@@ -31544,7 +31547,7 @@
         <v>0.17</v>
       </c>
       <c r="AP148">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ148">
         <v>0.13</v>
@@ -31672,7 +31675,7 @@
         <v>189</v>
       </c>
       <c r="P149" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q149">
         <v>2.5</v>
@@ -32084,7 +32087,7 @@
         <v>191</v>
       </c>
       <c r="P151" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q151">
         <v>3.75</v>
@@ -33526,7 +33529,7 @@
         <v>194</v>
       </c>
       <c r="P158" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q158">
         <v>3.75</v>
@@ -33732,7 +33735,7 @@
         <v>195</v>
       </c>
       <c r="P159" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q159">
         <v>3</v>
@@ -33889,6 +33892,212 @@
       </c>
       <c r="BP159">
         <v>1.38</v>
+      </c>
+    </row>
+    <row r="160" spans="1:68">
+      <c r="A160" s="1">
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>7380490</v>
+      </c>
+      <c r="C160" t="s">
+        <v>68</v>
+      </c>
+      <c r="D160" t="s">
+        <v>69</v>
+      </c>
+      <c r="E160" s="2">
+        <v>45495.83333333334</v>
+      </c>
+      <c r="F160">
+        <v>17</v>
+      </c>
+      <c r="G160" t="s">
+        <v>74</v>
+      </c>
+      <c r="H160" t="s">
+        <v>87</v>
+      </c>
+      <c r="I160">
+        <v>2</v>
+      </c>
+      <c r="J160">
+        <v>0</v>
+      </c>
+      <c r="K160">
+        <v>2</v>
+      </c>
+      <c r="L160">
+        <v>4</v>
+      </c>
+      <c r="M160">
+        <v>0</v>
+      </c>
+      <c r="N160">
+        <v>4</v>
+      </c>
+      <c r="O160" t="s">
+        <v>196</v>
+      </c>
+      <c r="P160" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q160">
+        <v>2.25</v>
+      </c>
+      <c r="R160">
+        <v>2.05</v>
+      </c>
+      <c r="S160">
+        <v>6.5</v>
+      </c>
+      <c r="T160">
+        <v>1.47</v>
+      </c>
+      <c r="U160">
+        <v>2.76</v>
+      </c>
+      <c r="V160">
+        <v>3.35</v>
+      </c>
+      <c r="W160">
+        <v>1.34</v>
+      </c>
+      <c r="X160">
+        <v>8.4</v>
+      </c>
+      <c r="Y160">
+        <v>1.05</v>
+      </c>
+      <c r="Z160">
+        <v>1.6</v>
+      </c>
+      <c r="AA160">
+        <v>3.5</v>
+      </c>
+      <c r="AB160">
+        <v>6.5</v>
+      </c>
+      <c r="AC160">
+        <v>1.08</v>
+      </c>
+      <c r="AD160">
+        <v>7</v>
+      </c>
+      <c r="AE160">
+        <v>1.36</v>
+      </c>
+      <c r="AF160">
+        <v>2.79</v>
+      </c>
+      <c r="AG160">
+        <v>2.3</v>
+      </c>
+      <c r="AH160">
+        <v>1.6</v>
+      </c>
+      <c r="AI160">
+        <v>2.25</v>
+      </c>
+      <c r="AJ160">
+        <v>1.57</v>
+      </c>
+      <c r="AK160">
+        <v>1.15</v>
+      </c>
+      <c r="AL160">
+        <v>1.27</v>
+      </c>
+      <c r="AM160">
+        <v>2.1</v>
+      </c>
+      <c r="AN160">
+        <v>2.57</v>
+      </c>
+      <c r="AO160">
+        <v>0.43</v>
+      </c>
+      <c r="AP160">
+        <v>2.63</v>
+      </c>
+      <c r="AQ160">
+        <v>0.38</v>
+      </c>
+      <c r="AR160">
+        <v>1.96</v>
+      </c>
+      <c r="AS160">
+        <v>1.4</v>
+      </c>
+      <c r="AT160">
+        <v>3.36</v>
+      </c>
+      <c r="AU160">
+        <v>8</v>
+      </c>
+      <c r="AV160">
+        <v>5</v>
+      </c>
+      <c r="AW160">
+        <v>7</v>
+      </c>
+      <c r="AX160">
+        <v>6</v>
+      </c>
+      <c r="AY160">
+        <v>15</v>
+      </c>
+      <c r="AZ160">
+        <v>11</v>
+      </c>
+      <c r="BA160">
+        <v>5</v>
+      </c>
+      <c r="BB160">
+        <v>3</v>
+      </c>
+      <c r="BC160">
+        <v>8</v>
+      </c>
+      <c r="BD160">
+        <v>1.3</v>
+      </c>
+      <c r="BE160">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF160">
+        <v>4.65</v>
+      </c>
+      <c r="BG160">
+        <v>1.2</v>
+      </c>
+      <c r="BH160">
+        <v>4</v>
+      </c>
+      <c r="BI160">
+        <v>1.3</v>
+      </c>
+      <c r="BJ160">
+        <v>3.08</v>
+      </c>
+      <c r="BK160">
+        <v>1.58</v>
+      </c>
+      <c r="BL160">
+        <v>2.32</v>
+      </c>
+      <c r="BM160">
+        <v>1.96</v>
+      </c>
+      <c r="BN160">
+        <v>1.84</v>
+      </c>
+      <c r="BO160">
+        <v>2.49</v>
+      </c>
+      <c r="BP160">
+        <v>1.51</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="254">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -607,6 +607,9 @@
     <t>['4', '9', '73', '82']</t>
   </si>
   <si>
+    <t>['38', '69']</t>
+  </si>
+  <si>
     <t>['31', '49', '69']</t>
   </si>
   <si>
@@ -1134,7 +1137,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP160"/>
+  <dimension ref="A1:BP165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1474,7 +1477,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ2">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1883,10 +1886,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ4">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2423,7 +2426,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q7">
         <v>4.33</v>
@@ -2504,7 +2507,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ7">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2835,7 +2838,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2913,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ9">
         <v>0.38</v>
@@ -3247,7 +3250,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q11">
         <v>3.5</v>
@@ -3453,7 +3456,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q12">
         <v>3.6</v>
@@ -3531,7 +3534,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ12">
         <v>1.38</v>
@@ -3740,7 +3743,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ13">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3865,7 +3868,7 @@
         <v>100</v>
       </c>
       <c r="P14" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q14">
         <v>4.75</v>
@@ -4071,7 +4074,7 @@
         <v>100</v>
       </c>
       <c r="P15" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4770,7 +4773,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ18">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5307,7 +5310,7 @@
         <v>106</v>
       </c>
       <c r="P21" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5385,7 +5388,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AQ21">
         <v>0.88</v>
@@ -5594,7 +5597,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ22">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR22">
         <v>1.45</v>
@@ -5800,7 +5803,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ23">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR23">
         <v>1.39</v>
@@ -5925,7 +5928,7 @@
         <v>107</v>
       </c>
       <c r="P24" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q24">
         <v>3.6</v>
@@ -6006,7 +6009,7 @@
         <v>1</v>
       </c>
       <c r="AQ24">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR24">
         <v>1.66</v>
@@ -6337,7 +6340,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6415,10 +6418,10 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ26">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR26">
         <v>1.2</v>
@@ -6543,7 +6546,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q27">
         <v>4</v>
@@ -6749,7 +6752,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -7033,7 +7036,7 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ29">
         <v>0.88</v>
@@ -7161,7 +7164,7 @@
         <v>112</v>
       </c>
       <c r="P30" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q30">
         <v>2.1</v>
@@ -7573,7 +7576,7 @@
         <v>113</v>
       </c>
       <c r="P32" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q32">
         <v>2.38</v>
@@ -7654,7 +7657,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ32">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR32">
         <v>2.22</v>
@@ -7779,7 +7782,7 @@
         <v>100</v>
       </c>
       <c r="P33" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -8475,7 +8478,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ36">
         <v>0.44</v>
@@ -9015,7 +9018,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q39">
         <v>2</v>
@@ -9427,7 +9430,7 @@
         <v>120</v>
       </c>
       <c r="P41" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q41">
         <v>2.25</v>
@@ -9505,7 +9508,7 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AQ41">
         <v>1.13</v>
@@ -9633,7 +9636,7 @@
         <v>121</v>
       </c>
       <c r="P42" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9839,7 +9842,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q43">
         <v>3.2</v>
@@ -9920,7 +9923,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ43">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR43">
         <v>1.32</v>
@@ -10535,10 +10538,10 @@
         <v>3</v>
       </c>
       <c r="AP46">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ46">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR46">
         <v>1.18</v>
@@ -11075,7 +11078,7 @@
         <v>125</v>
       </c>
       <c r="P49" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -11153,7 +11156,7 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ49">
         <v>1.22</v>
@@ -11774,7 +11777,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ52">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR52">
         <v>1.8</v>
@@ -12517,7 +12520,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q56">
         <v>1.95</v>
@@ -12598,7 +12601,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ56">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR56">
         <v>1.63</v>
@@ -13007,7 +13010,7 @@
         <v>1.5</v>
       </c>
       <c r="AP58">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ58">
         <v>0.88</v>
@@ -13213,7 +13216,7 @@
         <v>0</v>
       </c>
       <c r="AP59">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AQ59">
         <v>0.13</v>
@@ -13341,7 +13344,7 @@
         <v>118</v>
       </c>
       <c r="P60" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13422,7 +13425,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ60">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR60">
         <v>2.36</v>
@@ -13753,7 +13756,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q62">
         <v>3.4</v>
@@ -14243,7 +14246,7 @@
         <v>0.67</v>
       </c>
       <c r="AP64">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ64">
         <v>0.44</v>
@@ -14371,7 +14374,7 @@
         <v>135</v>
       </c>
       <c r="P65" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q65">
         <v>2.38</v>
@@ -14989,7 +14992,7 @@
         <v>100</v>
       </c>
       <c r="P68" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q68">
         <v>3.6</v>
@@ -15070,7 +15073,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ68">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR68">
         <v>1.37</v>
@@ -15894,7 +15897,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ72">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR72">
         <v>1.76</v>
@@ -16100,7 +16103,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ73">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR73">
         <v>1.23</v>
@@ -16225,7 +16228,7 @@
         <v>90</v>
       </c>
       <c r="P74" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q74">
         <v>3.1</v>
@@ -16306,7 +16309,7 @@
         <v>1</v>
       </c>
       <c r="AQ74">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR74">
         <v>1.65</v>
@@ -16431,7 +16434,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -16509,7 +16512,7 @@
         <v>0.33</v>
       </c>
       <c r="AP75">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ75">
         <v>0.29</v>
@@ -16715,10 +16718,10 @@
         <v>1.33</v>
       </c>
       <c r="AP76">
+        <v>1.22</v>
+      </c>
+      <c r="AQ76">
         <v>1.25</v>
-      </c>
-      <c r="AQ76">
-        <v>1.29</v>
       </c>
       <c r="AR76">
         <v>1.31</v>
@@ -16843,7 +16846,7 @@
         <v>139</v>
       </c>
       <c r="P77" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q77">
         <v>2.2</v>
@@ -17127,7 +17130,7 @@
         <v>0.33</v>
       </c>
       <c r="AP78">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ78">
         <v>0.88</v>
@@ -17333,7 +17336,7 @@
         <v>0</v>
       </c>
       <c r="AP79">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AQ79">
         <v>0.14</v>
@@ -17542,7 +17545,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ80">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR80">
         <v>1.12</v>
@@ -17667,7 +17670,7 @@
         <v>146</v>
       </c>
       <c r="P81" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q81">
         <v>2.05</v>
@@ -17873,7 +17876,7 @@
         <v>147</v>
       </c>
       <c r="P82" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q82">
         <v>4</v>
@@ -18079,7 +18082,7 @@
         <v>100</v>
       </c>
       <c r="P83" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q83">
         <v>3.2</v>
@@ -18285,7 +18288,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q84">
         <v>2.75</v>
@@ -18903,7 +18906,7 @@
         <v>150</v>
       </c>
       <c r="P87" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q87">
         <v>3.5</v>
@@ -19393,7 +19396,7 @@
         <v>1.25</v>
       </c>
       <c r="AP89">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AQ89">
         <v>0.89</v>
@@ -19805,7 +19808,7 @@
         <v>1.2</v>
       </c>
       <c r="AP91">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ91">
         <v>1.22</v>
@@ -19933,7 +19936,7 @@
         <v>153</v>
       </c>
       <c r="P92" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q92">
         <v>2.63</v>
@@ -20423,10 +20426,10 @@
         <v>1.4</v>
       </c>
       <c r="AP94">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ94">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR94">
         <v>1.57</v>
@@ -20551,7 +20554,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q95">
         <v>3.5</v>
@@ -20629,7 +20632,7 @@
         <v>0.4</v>
       </c>
       <c r="AP95">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ95">
         <v>1.13</v>
@@ -20838,7 +20841,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ96">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR96">
         <v>1.38</v>
@@ -21169,7 +21172,7 @@
         <v>116</v>
       </c>
       <c r="P98" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q98">
         <v>3</v>
@@ -21581,7 +21584,7 @@
         <v>100</v>
       </c>
       <c r="P100" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q100">
         <v>3.5</v>
@@ -21787,7 +21790,7 @@
         <v>160</v>
       </c>
       <c r="P101" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q101">
         <v>2.6</v>
@@ -22898,7 +22901,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ106">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR106">
         <v>1.73</v>
@@ -23104,7 +23107,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ107">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR107">
         <v>1.13</v>
@@ -23516,7 +23519,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ109">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR109">
         <v>1.74</v>
@@ -23925,7 +23928,7 @@
         <v>1</v>
       </c>
       <c r="AP111">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ111">
         <v>1</v>
@@ -24131,7 +24134,7 @@
         <v>0.2</v>
       </c>
       <c r="AP112">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ112">
         <v>0.5600000000000001</v>
@@ -24259,7 +24262,7 @@
         <v>167</v>
       </c>
       <c r="P113" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q113">
         <v>3.25</v>
@@ -24671,7 +24674,7 @@
         <v>169</v>
       </c>
       <c r="P115" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q115">
         <v>2.68</v>
@@ -24752,7 +24755,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ115">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR115">
         <v>1.4</v>
@@ -24955,7 +24958,7 @@
         <v>1</v>
       </c>
       <c r="AP116">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AQ116">
         <v>1.22</v>
@@ -25083,7 +25086,7 @@
         <v>170</v>
       </c>
       <c r="P117" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q117">
         <v>2.38</v>
@@ -25164,7 +25167,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ117">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR117">
         <v>1.94</v>
@@ -25367,7 +25370,7 @@
         <v>0.8</v>
       </c>
       <c r="AP118">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ118">
         <v>0.88</v>
@@ -25701,7 +25704,7 @@
         <v>90</v>
       </c>
       <c r="P120" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q120">
         <v>2.4</v>
@@ -25782,7 +25785,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ120">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR120">
         <v>1.67</v>
@@ -25988,7 +25991,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ121">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR121">
         <v>1.51</v>
@@ -26113,7 +26116,7 @@
         <v>173</v>
       </c>
       <c r="P122" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q122">
         <v>1.95</v>
@@ -26525,7 +26528,7 @@
         <v>174</v>
       </c>
       <c r="P124" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q124">
         <v>2.75</v>
@@ -26731,7 +26734,7 @@
         <v>175</v>
       </c>
       <c r="P125" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q125">
         <v>3</v>
@@ -27143,7 +27146,7 @@
         <v>176</v>
       </c>
       <c r="P127" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q127">
         <v>2.4</v>
@@ -27349,7 +27352,7 @@
         <v>177</v>
       </c>
       <c r="P128" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q128">
         <v>2.75</v>
@@ -27430,7 +27433,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ128">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR128">
         <v>1.66</v>
@@ -27555,7 +27558,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q129">
         <v>3.25</v>
@@ -28379,7 +28382,7 @@
         <v>140</v>
       </c>
       <c r="P133" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q133">
         <v>2.25</v>
@@ -28585,7 +28588,7 @@
         <v>96</v>
       </c>
       <c r="P134" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q134">
         <v>2.5</v>
@@ -28791,7 +28794,7 @@
         <v>180</v>
       </c>
       <c r="P135" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q135">
         <v>3.5</v>
@@ -28869,7 +28872,7 @@
         <v>1.4</v>
       </c>
       <c r="AP135">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ135">
         <v>1</v>
@@ -29078,7 +29081,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ136">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR136">
         <v>1.79</v>
@@ -29203,7 +29206,7 @@
         <v>100</v>
       </c>
       <c r="P137" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q137">
         <v>2.75</v>
@@ -29284,7 +29287,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ137">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR137">
         <v>1.46</v>
@@ -29409,7 +29412,7 @@
         <v>181</v>
       </c>
       <c r="P138" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q138">
         <v>3</v>
@@ -29490,7 +29493,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ138">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR138">
         <v>1.46</v>
@@ -29693,7 +29696,7 @@
         <v>0.33</v>
       </c>
       <c r="AP139">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AQ139">
         <v>0.29</v>
@@ -29821,7 +29824,7 @@
         <v>182</v>
       </c>
       <c r="P140" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q140">
         <v>3.75</v>
@@ -29899,7 +29902,7 @@
         <v>0.43</v>
       </c>
       <c r="AP140">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ140">
         <v>0.67</v>
@@ -30027,7 +30030,7 @@
         <v>100</v>
       </c>
       <c r="P141" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q141">
         <v>3</v>
@@ -30233,7 +30236,7 @@
         <v>183</v>
       </c>
       <c r="P142" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q142">
         <v>3.2</v>
@@ -30439,7 +30442,7 @@
         <v>152</v>
       </c>
       <c r="P143" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q143">
         <v>2.5</v>
@@ -30726,7 +30729,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ144">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR144">
         <v>1.37</v>
@@ -31057,7 +31060,7 @@
         <v>186</v>
       </c>
       <c r="P146" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q146">
         <v>3.1</v>
@@ -31138,7 +31141,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ146">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR146">
         <v>1.33</v>
@@ -31675,7 +31678,7 @@
         <v>189</v>
       </c>
       <c r="P149" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q149">
         <v>2.5</v>
@@ -31959,7 +31962,7 @@
         <v>0.71</v>
       </c>
       <c r="AP150">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ150">
         <v>0.89</v>
@@ -32087,7 +32090,7 @@
         <v>191</v>
       </c>
       <c r="P151" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q151">
         <v>3.75</v>
@@ -33529,7 +33532,7 @@
         <v>194</v>
       </c>
       <c r="P158" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q158">
         <v>3.75</v>
@@ -33735,7 +33738,7 @@
         <v>195</v>
       </c>
       <c r="P159" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q159">
         <v>3</v>
@@ -34098,6 +34101,1036 @@
       </c>
       <c r="BP160">
         <v>1.51</v>
+      </c>
+    </row>
+    <row r="161" spans="1:68">
+      <c r="A161" s="1">
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>7380491</v>
+      </c>
+      <c r="C161" t="s">
+        <v>68</v>
+      </c>
+      <c r="D161" t="s">
+        <v>69</v>
+      </c>
+      <c r="E161" s="2">
+        <v>45496.79166666666</v>
+      </c>
+      <c r="F161">
+        <v>17</v>
+      </c>
+      <c r="G161" t="s">
+        <v>73</v>
+      </c>
+      <c r="H161" t="s">
+        <v>81</v>
+      </c>
+      <c r="I161">
+        <v>0</v>
+      </c>
+      <c r="J161">
+        <v>1</v>
+      </c>
+      <c r="K161">
+        <v>1</v>
+      </c>
+      <c r="L161">
+        <v>1</v>
+      </c>
+      <c r="M161">
+        <v>1</v>
+      </c>
+      <c r="N161">
+        <v>2</v>
+      </c>
+      <c r="O161" t="s">
+        <v>92</v>
+      </c>
+      <c r="P161" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q161">
+        <v>3.75</v>
+      </c>
+      <c r="R161">
+        <v>1.91</v>
+      </c>
+      <c r="S161">
+        <v>3.4</v>
+      </c>
+      <c r="T161">
+        <v>1.53</v>
+      </c>
+      <c r="U161">
+        <v>2.35</v>
+      </c>
+      <c r="V161">
+        <v>3.4</v>
+      </c>
+      <c r="W161">
+        <v>1.28</v>
+      </c>
+      <c r="X161">
+        <v>9.4</v>
+      </c>
+      <c r="Y161">
+        <v>1.04</v>
+      </c>
+      <c r="Z161">
+        <v>3</v>
+      </c>
+      <c r="AA161">
+        <v>2.88</v>
+      </c>
+      <c r="AB161">
+        <v>2.7</v>
+      </c>
+      <c r="AC161">
+        <v>1.1</v>
+      </c>
+      <c r="AD161">
+        <v>6.5</v>
+      </c>
+      <c r="AE161">
+        <v>1.5</v>
+      </c>
+      <c r="AF161">
+        <v>2.4</v>
+      </c>
+      <c r="AG161">
+        <v>2.7</v>
+      </c>
+      <c r="AH161">
+        <v>1.44</v>
+      </c>
+      <c r="AI161">
+        <v>2.1</v>
+      </c>
+      <c r="AJ161">
+        <v>1.67</v>
+      </c>
+      <c r="AK161">
+        <v>1.62</v>
+      </c>
+      <c r="AL161">
+        <v>1.33</v>
+      </c>
+      <c r="AM161">
+        <v>1.3</v>
+      </c>
+      <c r="AN161">
+        <v>1</v>
+      </c>
+      <c r="AO161">
+        <v>1.57</v>
+      </c>
+      <c r="AP161">
+        <v>1</v>
+      </c>
+      <c r="AQ161">
+        <v>1.5</v>
+      </c>
+      <c r="AR161">
+        <v>1.59</v>
+      </c>
+      <c r="AS161">
+        <v>1.39</v>
+      </c>
+      <c r="AT161">
+        <v>2.98</v>
+      </c>
+      <c r="AU161">
+        <v>6</v>
+      </c>
+      <c r="AV161">
+        <v>6</v>
+      </c>
+      <c r="AW161">
+        <v>11</v>
+      </c>
+      <c r="AX161">
+        <v>3</v>
+      </c>
+      <c r="AY161">
+        <v>17</v>
+      </c>
+      <c r="AZ161">
+        <v>9</v>
+      </c>
+      <c r="BA161">
+        <v>5</v>
+      </c>
+      <c r="BB161">
+        <v>5</v>
+      </c>
+      <c r="BC161">
+        <v>10</v>
+      </c>
+      <c r="BD161">
+        <v>2.58</v>
+      </c>
+      <c r="BE161">
+        <v>6.8</v>
+      </c>
+      <c r="BF161">
+        <v>1.76</v>
+      </c>
+      <c r="BG161">
+        <v>1.15</v>
+      </c>
+      <c r="BH161">
+        <v>4.75</v>
+      </c>
+      <c r="BI161">
+        <v>1.24</v>
+      </c>
+      <c r="BJ161">
+        <v>3.48</v>
+      </c>
+      <c r="BK161">
+        <v>1.91</v>
+      </c>
+      <c r="BL161">
+        <v>2.54</v>
+      </c>
+      <c r="BM161">
+        <v>1.79</v>
+      </c>
+      <c r="BN161">
+        <v>2.01</v>
+      </c>
+      <c r="BO161">
+        <v>2.22</v>
+      </c>
+      <c r="BP161">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="162" spans="1:68">
+      <c r="A162" s="1">
+        <v>161</v>
+      </c>
+      <c r="B162">
+        <v>7380493</v>
+      </c>
+      <c r="C162" t="s">
+        <v>68</v>
+      </c>
+      <c r="D162" t="s">
+        <v>69</v>
+      </c>
+      <c r="E162" s="2">
+        <v>45496.79166666666</v>
+      </c>
+      <c r="F162">
+        <v>17</v>
+      </c>
+      <c r="G162" t="s">
+        <v>72</v>
+      </c>
+      <c r="H162" t="s">
+        <v>71</v>
+      </c>
+      <c r="I162">
+        <v>0</v>
+      </c>
+      <c r="J162">
+        <v>0</v>
+      </c>
+      <c r="K162">
+        <v>0</v>
+      </c>
+      <c r="L162">
+        <v>0</v>
+      </c>
+      <c r="M162">
+        <v>0</v>
+      </c>
+      <c r="N162">
+        <v>0</v>
+      </c>
+      <c r="O162" t="s">
+        <v>100</v>
+      </c>
+      <c r="P162" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q162">
+        <v>3.2</v>
+      </c>
+      <c r="R162">
+        <v>1.8</v>
+      </c>
+      <c r="S162">
+        <v>4.75</v>
+      </c>
+      <c r="T162">
+        <v>1.67</v>
+      </c>
+      <c r="U162">
+        <v>2.1</v>
+      </c>
+      <c r="V162">
+        <v>4</v>
+      </c>
+      <c r="W162">
+        <v>1.2</v>
+      </c>
+      <c r="X162">
+        <v>11.75</v>
+      </c>
+      <c r="Y162">
+        <v>1.02</v>
+      </c>
+      <c r="Z162">
+        <v>2.3</v>
+      </c>
+      <c r="AA162">
+        <v>2.8</v>
+      </c>
+      <c r="AB162">
+        <v>3.75</v>
+      </c>
+      <c r="AC162">
+        <v>1.14</v>
+      </c>
+      <c r="AD162">
+        <v>5.5</v>
+      </c>
+      <c r="AE162">
+        <v>1.65</v>
+      </c>
+      <c r="AF162">
+        <v>2.1</v>
+      </c>
+      <c r="AG162">
+        <v>3.4</v>
+      </c>
+      <c r="AH162">
+        <v>1.33</v>
+      </c>
+      <c r="AI162">
+        <v>2.5</v>
+      </c>
+      <c r="AJ162">
+        <v>1.5</v>
+      </c>
+      <c r="AK162">
+        <v>1.22</v>
+      </c>
+      <c r="AL162">
+        <v>1.35</v>
+      </c>
+      <c r="AM162">
+        <v>1.7</v>
+      </c>
+      <c r="AN162">
+        <v>2</v>
+      </c>
+      <c r="AO162">
+        <v>1.63</v>
+      </c>
+      <c r="AP162">
+        <v>1.88</v>
+      </c>
+      <c r="AQ162">
+        <v>1.56</v>
+      </c>
+      <c r="AR162">
+        <v>1.54</v>
+      </c>
+      <c r="AS162">
+        <v>1.27</v>
+      </c>
+      <c r="AT162">
+        <v>2.81</v>
+      </c>
+      <c r="AU162">
+        <v>3</v>
+      </c>
+      <c r="AV162">
+        <v>3</v>
+      </c>
+      <c r="AW162">
+        <v>4</v>
+      </c>
+      <c r="AX162">
+        <v>3</v>
+      </c>
+      <c r="AY162">
+        <v>7</v>
+      </c>
+      <c r="AZ162">
+        <v>6</v>
+      </c>
+      <c r="BA162">
+        <v>4</v>
+      </c>
+      <c r="BB162">
+        <v>6</v>
+      </c>
+      <c r="BC162">
+        <v>10</v>
+      </c>
+      <c r="BD162">
+        <v>1.5</v>
+      </c>
+      <c r="BE162">
+        <v>7.2</v>
+      </c>
+      <c r="BF162">
+        <v>3.34</v>
+      </c>
+      <c r="BG162">
+        <v>1.25</v>
+      </c>
+      <c r="BH162">
+        <v>3.6</v>
+      </c>
+      <c r="BI162">
+        <v>1.34</v>
+      </c>
+      <c r="BJ162">
+        <v>2.88</v>
+      </c>
+      <c r="BK162">
+        <v>2.1</v>
+      </c>
+      <c r="BL162">
+        <v>2.16</v>
+      </c>
+      <c r="BM162">
+        <v>2.08</v>
+      </c>
+      <c r="BN162">
+        <v>1.72</v>
+      </c>
+      <c r="BO162">
+        <v>2.64</v>
+      </c>
+      <c r="BP162">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="163" spans="1:68">
+      <c r="A163" s="1">
+        <v>162</v>
+      </c>
+      <c r="B163">
+        <v>7380488</v>
+      </c>
+      <c r="C163" t="s">
+        <v>68</v>
+      </c>
+      <c r="D163" t="s">
+        <v>69</v>
+      </c>
+      <c r="E163" s="2">
+        <v>45496.83333333334</v>
+      </c>
+      <c r="F163">
+        <v>17</v>
+      </c>
+      <c r="G163" t="s">
+        <v>89</v>
+      </c>
+      <c r="H163" t="s">
+        <v>82</v>
+      </c>
+      <c r="I163">
+        <v>0</v>
+      </c>
+      <c r="J163">
+        <v>0</v>
+      </c>
+      <c r="K163">
+        <v>0</v>
+      </c>
+      <c r="L163">
+        <v>0</v>
+      </c>
+      <c r="M163">
+        <v>0</v>
+      </c>
+      <c r="N163">
+        <v>0</v>
+      </c>
+      <c r="O163" t="s">
+        <v>100</v>
+      </c>
+      <c r="P163" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q163">
+        <v>2.63</v>
+      </c>
+      <c r="R163">
+        <v>1.91</v>
+      </c>
+      <c r="S163">
+        <v>5.5</v>
+      </c>
+      <c r="T163">
+        <v>1.5</v>
+      </c>
+      <c r="U163">
+        <v>2.4</v>
+      </c>
+      <c r="V163">
+        <v>3.3</v>
+      </c>
+      <c r="W163">
+        <v>1.29</v>
+      </c>
+      <c r="X163">
+        <v>9</v>
+      </c>
+      <c r="Y163">
+        <v>1.03</v>
+      </c>
+      <c r="Z163">
+        <v>1.83</v>
+      </c>
+      <c r="AA163">
+        <v>3</v>
+      </c>
+      <c r="AB163">
+        <v>5.25</v>
+      </c>
+      <c r="AC163">
+        <v>1.08</v>
+      </c>
+      <c r="AD163">
+        <v>6.5</v>
+      </c>
+      <c r="AE163">
+        <v>1.55</v>
+      </c>
+      <c r="AF163">
+        <v>2.3</v>
+      </c>
+      <c r="AG163">
+        <v>2.88</v>
+      </c>
+      <c r="AH163">
+        <v>1.4</v>
+      </c>
+      <c r="AI163">
+        <v>2.5</v>
+      </c>
+      <c r="AJ163">
+        <v>1.5</v>
+      </c>
+      <c r="AK163">
+        <v>1.17</v>
+      </c>
+      <c r="AL163">
+        <v>1.3</v>
+      </c>
+      <c r="AM163">
+        <v>2.1</v>
+      </c>
+      <c r="AN163">
+        <v>2.71</v>
+      </c>
+      <c r="AO163">
+        <v>1.29</v>
+      </c>
+      <c r="AP163">
+        <v>2.5</v>
+      </c>
+      <c r="AQ163">
+        <v>1.25</v>
+      </c>
+      <c r="AR163">
+        <v>1.38</v>
+      </c>
+      <c r="AS163">
+        <v>1.18</v>
+      </c>
+      <c r="AT163">
+        <v>2.56</v>
+      </c>
+      <c r="AU163">
+        <v>6</v>
+      </c>
+      <c r="AV163">
+        <v>3</v>
+      </c>
+      <c r="AW163">
+        <v>6</v>
+      </c>
+      <c r="AX163">
+        <v>7</v>
+      </c>
+      <c r="AY163">
+        <v>12</v>
+      </c>
+      <c r="AZ163">
+        <v>10</v>
+      </c>
+      <c r="BA163">
+        <v>6</v>
+      </c>
+      <c r="BB163">
+        <v>8</v>
+      </c>
+      <c r="BC163">
+        <v>14</v>
+      </c>
+      <c r="BD163">
+        <v>1.52</v>
+      </c>
+      <c r="BE163">
+        <v>7.1</v>
+      </c>
+      <c r="BF163">
+        <v>3.26</v>
+      </c>
+      <c r="BG163">
+        <v>1.2</v>
+      </c>
+      <c r="BH163">
+        <v>4</v>
+      </c>
+      <c r="BI163">
+        <v>1.31</v>
+      </c>
+      <c r="BJ163">
+        <v>3.04</v>
+      </c>
+      <c r="BK163">
+        <v>2.1</v>
+      </c>
+      <c r="BL163">
+        <v>2.26</v>
+      </c>
+      <c r="BM163">
+        <v>1.99</v>
+      </c>
+      <c r="BN163">
+        <v>1.81</v>
+      </c>
+      <c r="BO163">
+        <v>2.52</v>
+      </c>
+      <c r="BP163">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="164" spans="1:68">
+      <c r="A164" s="1">
+        <v>163</v>
+      </c>
+      <c r="B164">
+        <v>7380489</v>
+      </c>
+      <c r="C164" t="s">
+        <v>68</v>
+      </c>
+      <c r="D164" t="s">
+        <v>69</v>
+      </c>
+      <c r="E164" s="2">
+        <v>45496.875</v>
+      </c>
+      <c r="F164">
+        <v>17</v>
+      </c>
+      <c r="G164" t="s">
+        <v>80</v>
+      </c>
+      <c r="H164" t="s">
+        <v>86</v>
+      </c>
+      <c r="I164">
+        <v>0</v>
+      </c>
+      <c r="J164">
+        <v>0</v>
+      </c>
+      <c r="K164">
+        <v>0</v>
+      </c>
+      <c r="L164">
+        <v>0</v>
+      </c>
+      <c r="M164">
+        <v>0</v>
+      </c>
+      <c r="N164">
+        <v>0</v>
+      </c>
+      <c r="O164" t="s">
+        <v>100</v>
+      </c>
+      <c r="P164" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q164">
+        <v>5</v>
+      </c>
+      <c r="R164">
+        <v>2.1</v>
+      </c>
+      <c r="S164">
+        <v>2.5</v>
+      </c>
+      <c r="T164">
+        <v>1.44</v>
+      </c>
+      <c r="U164">
+        <v>2.63</v>
+      </c>
+      <c r="V164">
+        <v>3</v>
+      </c>
+      <c r="W164">
+        <v>1.36</v>
+      </c>
+      <c r="X164">
+        <v>9</v>
+      </c>
+      <c r="Y164">
+        <v>1.07</v>
+      </c>
+      <c r="Z164">
+        <v>4.33</v>
+      </c>
+      <c r="AA164">
+        <v>3.5</v>
+      </c>
+      <c r="AB164">
+        <v>1.8</v>
+      </c>
+      <c r="AC164">
+        <v>1.06</v>
+      </c>
+      <c r="AD164">
+        <v>8.5</v>
+      </c>
+      <c r="AE164">
+        <v>1.3</v>
+      </c>
+      <c r="AF164">
+        <v>3.3</v>
+      </c>
+      <c r="AG164">
+        <v>2.08</v>
+      </c>
+      <c r="AH164">
+        <v>1.73</v>
+      </c>
+      <c r="AI164">
+        <v>1.91</v>
+      </c>
+      <c r="AJ164">
+        <v>1.8</v>
+      </c>
+      <c r="AK164">
+        <v>2.05</v>
+      </c>
+      <c r="AL164">
+        <v>1.22</v>
+      </c>
+      <c r="AM164">
+        <v>1.15</v>
+      </c>
+      <c r="AN164">
+        <v>1.25</v>
+      </c>
+      <c r="AO164">
+        <v>0.86</v>
+      </c>
+      <c r="AP164">
+        <v>1.22</v>
+      </c>
+      <c r="AQ164">
+        <v>0.88</v>
+      </c>
+      <c r="AR164">
+        <v>1.32</v>
+      </c>
+      <c r="AS164">
+        <v>1.08</v>
+      </c>
+      <c r="AT164">
+        <v>2.4</v>
+      </c>
+      <c r="AU164">
+        <v>4</v>
+      </c>
+      <c r="AV164">
+        <v>3</v>
+      </c>
+      <c r="AW164">
+        <v>4</v>
+      </c>
+      <c r="AX164">
+        <v>10</v>
+      </c>
+      <c r="AY164">
+        <v>8</v>
+      </c>
+      <c r="AZ164">
+        <v>13</v>
+      </c>
+      <c r="BA164">
+        <v>2</v>
+      </c>
+      <c r="BB164">
+        <v>10</v>
+      </c>
+      <c r="BC164">
+        <v>12</v>
+      </c>
+      <c r="BD164">
+        <v>2.71</v>
+      </c>
+      <c r="BE164">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF164">
+        <v>1.67</v>
+      </c>
+      <c r="BG164">
+        <v>1.22</v>
+      </c>
+      <c r="BH164">
+        <v>3.8</v>
+      </c>
+      <c r="BI164">
+        <v>1.38</v>
+      </c>
+      <c r="BJ164">
+        <v>2.8</v>
+      </c>
+      <c r="BK164">
+        <v>2.1</v>
+      </c>
+      <c r="BL164">
+        <v>2.23</v>
+      </c>
+      <c r="BM164">
+        <v>2.02</v>
+      </c>
+      <c r="BN164">
+        <v>1.77</v>
+      </c>
+      <c r="BO164">
+        <v>2.45</v>
+      </c>
+      <c r="BP164">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="165" spans="1:68">
+      <c r="A165" s="1">
+        <v>164</v>
+      </c>
+      <c r="B165">
+        <v>7380487</v>
+      </c>
+      <c r="C165" t="s">
+        <v>68</v>
+      </c>
+      <c r="D165" t="s">
+        <v>69</v>
+      </c>
+      <c r="E165" s="2">
+        <v>45496.89583333334</v>
+      </c>
+      <c r="F165">
+        <v>17</v>
+      </c>
+      <c r="G165" t="s">
+        <v>77</v>
+      </c>
+      <c r="H165" t="s">
+        <v>78</v>
+      </c>
+      <c r="I165">
+        <v>1</v>
+      </c>
+      <c r="J165">
+        <v>0</v>
+      </c>
+      <c r="K165">
+        <v>1</v>
+      </c>
+      <c r="L165">
+        <v>2</v>
+      </c>
+      <c r="M165">
+        <v>0</v>
+      </c>
+      <c r="N165">
+        <v>2</v>
+      </c>
+      <c r="O165" t="s">
+        <v>197</v>
+      </c>
+      <c r="P165" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q165">
+        <v>2.88</v>
+      </c>
+      <c r="R165">
+        <v>2.05</v>
+      </c>
+      <c r="S165">
+        <v>4.33</v>
+      </c>
+      <c r="T165">
+        <v>1.5</v>
+      </c>
+      <c r="U165">
+        <v>2.5</v>
+      </c>
+      <c r="V165">
+        <v>3.5</v>
+      </c>
+      <c r="W165">
+        <v>1.29</v>
+      </c>
+      <c r="X165">
+        <v>11</v>
+      </c>
+      <c r="Y165">
+        <v>1.05</v>
+      </c>
+      <c r="Z165">
+        <v>2.1</v>
+      </c>
+      <c r="AA165">
+        <v>3.1</v>
+      </c>
+      <c r="AB165">
+        <v>3.75</v>
+      </c>
+      <c r="AC165">
+        <v>1.07</v>
+      </c>
+      <c r="AD165">
+        <v>6.4</v>
+      </c>
+      <c r="AE165">
+        <v>1.44</v>
+      </c>
+      <c r="AF165">
+        <v>2.51</v>
+      </c>
+      <c r="AG165">
+        <v>2.25</v>
+      </c>
+      <c r="AH165">
+        <v>1.62</v>
+      </c>
+      <c r="AI165">
+        <v>1.91</v>
+      </c>
+      <c r="AJ165">
+        <v>1.8</v>
+      </c>
+      <c r="AK165">
+        <v>1.3</v>
+      </c>
+      <c r="AL165">
+        <v>1.38</v>
+      </c>
+      <c r="AM165">
+        <v>1.63</v>
+      </c>
+      <c r="AN165">
+        <v>2.29</v>
+      </c>
+      <c r="AO165">
+        <v>0.71</v>
+      </c>
+      <c r="AP165">
+        <v>2.38</v>
+      </c>
+      <c r="AQ165">
+        <v>0.63</v>
+      </c>
+      <c r="AR165">
+        <v>1.61</v>
+      </c>
+      <c r="AS165">
+        <v>1.26</v>
+      </c>
+      <c r="AT165">
+        <v>2.87</v>
+      </c>
+      <c r="AU165">
+        <v>4</v>
+      </c>
+      <c r="AV165">
+        <v>5</v>
+      </c>
+      <c r="AW165">
+        <v>4</v>
+      </c>
+      <c r="AX165">
+        <v>4</v>
+      </c>
+      <c r="AY165">
+        <v>8</v>
+      </c>
+      <c r="AZ165">
+        <v>9</v>
+      </c>
+      <c r="BA165">
+        <v>4</v>
+      </c>
+      <c r="BB165">
+        <v>8</v>
+      </c>
+      <c r="BC165">
+        <v>12</v>
+      </c>
+      <c r="BD165">
+        <v>1.65</v>
+      </c>
+      <c r="BE165">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF165">
+        <v>2.71</v>
+      </c>
+      <c r="BG165">
+        <v>1.15</v>
+      </c>
+      <c r="BH165">
+        <v>4.75</v>
+      </c>
+      <c r="BI165">
+        <v>1.26</v>
+      </c>
+      <c r="BJ165">
+        <v>3.5</v>
+      </c>
+      <c r="BK165">
+        <v>2</v>
+      </c>
+      <c r="BL165">
+        <v>2.5</v>
+      </c>
+      <c r="BM165">
+        <v>1.75</v>
+      </c>
+      <c r="BN165">
+        <v>1.96</v>
+      </c>
+      <c r="BO165">
+        <v>2.17</v>
+      </c>
+      <c r="BP165">
+        <v>1.61</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="256">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -610,6 +610,12 @@
     <t>['38', '69']</t>
   </si>
   <si>
+    <t>['12']</t>
+  </si>
+  <si>
+    <t>['45+4']</t>
+  </si>
+  <si>
     <t>['31', '49', '69']</t>
   </si>
   <si>
@@ -1137,7 +1143,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP165"/>
+  <dimension ref="A1:BP167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2301,7 +2307,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ6">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2426,7 +2432,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q7">
         <v>4.33</v>
@@ -2504,7 +2510,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ7">
         <v>1.5</v>
@@ -2838,7 +2844,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -3125,7 +3131,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ10">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3250,7 +3256,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q11">
         <v>3.5</v>
@@ -3328,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ11">
         <v>0.67</v>
@@ -3456,7 +3462,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q12">
         <v>3.6</v>
@@ -3868,7 +3874,7 @@
         <v>100</v>
       </c>
       <c r="P14" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q14">
         <v>4.75</v>
@@ -4074,7 +4080,7 @@
         <v>100</v>
       </c>
       <c r="P15" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -5310,7 +5316,7 @@
         <v>106</v>
       </c>
       <c r="P21" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5928,7 +5934,7 @@
         <v>107</v>
       </c>
       <c r="P24" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q24">
         <v>3.6</v>
@@ -6340,7 +6346,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6546,7 +6552,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q27">
         <v>4</v>
@@ -6624,7 +6630,7 @@
         <v>1</v>
       </c>
       <c r="AP27">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ27">
         <v>0.89</v>
@@ -6752,7 +6758,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -7164,7 +7170,7 @@
         <v>112</v>
       </c>
       <c r="P30" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q30">
         <v>2.1</v>
@@ -7245,7 +7251,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ30">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AR30">
         <v>0.95</v>
@@ -7576,7 +7582,7 @@
         <v>113</v>
       </c>
       <c r="P32" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q32">
         <v>2.38</v>
@@ -7782,7 +7788,7 @@
         <v>100</v>
       </c>
       <c r="P33" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -8890,7 +8896,7 @@
         <v>3</v>
       </c>
       <c r="AP38">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ38">
         <v>1.22</v>
@@ -9018,7 +9024,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q39">
         <v>2</v>
@@ -9430,7 +9436,7 @@
         <v>120</v>
       </c>
       <c r="P41" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q41">
         <v>2.25</v>
@@ -9511,7 +9517,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ41">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR41">
         <v>1.37</v>
@@ -9636,7 +9642,7 @@
         <v>121</v>
       </c>
       <c r="P42" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9842,7 +9848,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q43">
         <v>3.2</v>
@@ -10335,7 +10341,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ45">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AR45">
         <v>1.74</v>
@@ -10950,7 +10956,7 @@
         <v>1.5</v>
       </c>
       <c r="AP48">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ48">
         <v>1.38</v>
@@ -11078,7 +11084,7 @@
         <v>125</v>
       </c>
       <c r="P49" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -12186,10 +12192,10 @@
         <v>0</v>
       </c>
       <c r="AP54">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ54">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR54">
         <v>0.92</v>
@@ -12520,7 +12526,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q56">
         <v>1.95</v>
@@ -13344,7 +13350,7 @@
         <v>118</v>
       </c>
       <c r="P60" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13756,7 +13762,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q62">
         <v>3.4</v>
@@ -14043,7 +14049,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ63">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR63">
         <v>2.11</v>
@@ -14374,7 +14380,7 @@
         <v>135</v>
       </c>
       <c r="P65" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q65">
         <v>2.38</v>
@@ -14992,7 +14998,7 @@
         <v>100</v>
       </c>
       <c r="P68" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q68">
         <v>3.6</v>
@@ -15482,7 +15488,7 @@
         <v>0.67</v>
       </c>
       <c r="AP70">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ70">
         <v>0.67</v>
@@ -16100,7 +16106,7 @@
         <v>1.5</v>
       </c>
       <c r="AP73">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ73">
         <v>1.56</v>
@@ -16228,7 +16234,7 @@
         <v>90</v>
       </c>
       <c r="P74" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q74">
         <v>3.1</v>
@@ -16434,7 +16440,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -16846,7 +16852,7 @@
         <v>139</v>
       </c>
       <c r="P77" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q77">
         <v>2.2</v>
@@ -17339,7 +17345,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ79">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AR79">
         <v>1.59</v>
@@ -17670,7 +17676,7 @@
         <v>146</v>
       </c>
       <c r="P81" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q81">
         <v>2.05</v>
@@ -17876,7 +17882,7 @@
         <v>147</v>
       </c>
       <c r="P82" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q82">
         <v>4</v>
@@ -18082,7 +18088,7 @@
         <v>100</v>
       </c>
       <c r="P83" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q83">
         <v>3.2</v>
@@ -18288,7 +18294,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q84">
         <v>2.75</v>
@@ -18366,7 +18372,7 @@
         <v>0.25</v>
       </c>
       <c r="AP84">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ84">
         <v>0.5600000000000001</v>
@@ -18906,7 +18912,7 @@
         <v>150</v>
       </c>
       <c r="P87" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q87">
         <v>3.5</v>
@@ -19193,7 +19199,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ88">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR88">
         <v>1.37</v>
@@ -19602,7 +19608,7 @@
         <v>1</v>
       </c>
       <c r="AP90">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ90">
         <v>1.22</v>
@@ -19936,7 +19942,7 @@
         <v>153</v>
       </c>
       <c r="P92" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q92">
         <v>2.63</v>
@@ -20017,7 +20023,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ92">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AR92">
         <v>1.4</v>
@@ -20554,7 +20560,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q95">
         <v>3.5</v>
@@ -20635,7 +20641,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ95">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR95">
         <v>1.35</v>
@@ -21044,7 +21050,7 @@
         <v>1</v>
       </c>
       <c r="AP97">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ97">
         <v>0.88</v>
@@ -21172,7 +21178,7 @@
         <v>116</v>
       </c>
       <c r="P98" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q98">
         <v>3</v>
@@ -21584,7 +21590,7 @@
         <v>100</v>
       </c>
       <c r="P100" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q100">
         <v>3.5</v>
@@ -21790,7 +21796,7 @@
         <v>160</v>
       </c>
       <c r="P101" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q101">
         <v>2.6</v>
@@ -23104,7 +23110,7 @@
         <v>1.75</v>
       </c>
       <c r="AP107">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ107">
         <v>1.25</v>
@@ -23725,7 +23731,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ110">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AR110">
         <v>1.75</v>
@@ -24262,7 +24268,7 @@
         <v>167</v>
       </c>
       <c r="P113" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q113">
         <v>3.25</v>
@@ -24343,7 +24349,7 @@
         <v>1</v>
       </c>
       <c r="AQ113">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR113">
         <v>1.58</v>
@@ -24674,7 +24680,7 @@
         <v>169</v>
       </c>
       <c r="P115" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q115">
         <v>2.68</v>
@@ -25086,7 +25092,7 @@
         <v>170</v>
       </c>
       <c r="P117" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q117">
         <v>2.38</v>
@@ -25576,7 +25582,7 @@
         <v>0.6</v>
       </c>
       <c r="AP119">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ119">
         <v>0.38</v>
@@ -25704,7 +25710,7 @@
         <v>90</v>
       </c>
       <c r="P120" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q120">
         <v>2.4</v>
@@ -26116,7 +26122,7 @@
         <v>173</v>
       </c>
       <c r="P122" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q122">
         <v>1.95</v>
@@ -26528,7 +26534,7 @@
         <v>174</v>
       </c>
       <c r="P124" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q124">
         <v>2.75</v>
@@ -26734,7 +26740,7 @@
         <v>175</v>
       </c>
       <c r="P125" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q125">
         <v>3</v>
@@ -27146,7 +27152,7 @@
         <v>176</v>
       </c>
       <c r="P127" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q127">
         <v>2.4</v>
@@ -27352,7 +27358,7 @@
         <v>177</v>
       </c>
       <c r="P128" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q128">
         <v>2.75</v>
@@ -27558,7 +27564,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q129">
         <v>3.25</v>
@@ -28048,7 +28054,7 @@
         <v>0.43</v>
       </c>
       <c r="AP131">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ131">
         <v>0.44</v>
@@ -28382,7 +28388,7 @@
         <v>140</v>
       </c>
       <c r="P133" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q133">
         <v>2.25</v>
@@ -28588,7 +28594,7 @@
         <v>96</v>
       </c>
       <c r="P134" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q134">
         <v>2.5</v>
@@ -28669,7 +28675,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ134">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR134">
         <v>1.81</v>
@@ -28794,7 +28800,7 @@
         <v>180</v>
       </c>
       <c r="P135" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q135">
         <v>3.5</v>
@@ -29206,7 +29212,7 @@
         <v>100</v>
       </c>
       <c r="P137" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q137">
         <v>2.75</v>
@@ -29412,7 +29418,7 @@
         <v>181</v>
       </c>
       <c r="P138" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q138">
         <v>3</v>
@@ -29490,7 +29496,7 @@
         <v>0.33</v>
       </c>
       <c r="AP138">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ138">
         <v>0.63</v>
@@ -29824,7 +29830,7 @@
         <v>182</v>
       </c>
       <c r="P140" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q140">
         <v>3.75</v>
@@ -30030,7 +30036,7 @@
         <v>100</v>
       </c>
       <c r="P141" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q141">
         <v>3</v>
@@ -30236,7 +30242,7 @@
         <v>183</v>
       </c>
       <c r="P142" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q142">
         <v>3.2</v>
@@ -30442,7 +30448,7 @@
         <v>152</v>
       </c>
       <c r="P143" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q143">
         <v>2.5</v>
@@ -30523,7 +30529,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ143">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AR143">
         <v>1.64</v>
@@ -31060,7 +31066,7 @@
         <v>186</v>
       </c>
       <c r="P146" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q146">
         <v>3.1</v>
@@ -31678,7 +31684,7 @@
         <v>189</v>
       </c>
       <c r="P149" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q149">
         <v>2.5</v>
@@ -32090,7 +32096,7 @@
         <v>191</v>
       </c>
       <c r="P151" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q151">
         <v>3.75</v>
@@ -33532,7 +33538,7 @@
         <v>194</v>
       </c>
       <c r="P158" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q158">
         <v>3.75</v>
@@ -33738,7 +33744,7 @@
         <v>195</v>
       </c>
       <c r="P159" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q159">
         <v>3</v>
@@ -34264,10 +34270,10 @@
         <v>5</v>
       </c>
       <c r="BB161">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC161">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD161">
         <v>2.58</v>
@@ -35130,6 +35136,418 @@
         <v>2.17</v>
       </c>
       <c r="BP165">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="166" spans="1:68">
+      <c r="A166" s="1">
+        <v>165</v>
+      </c>
+      <c r="B166">
+        <v>7380492</v>
+      </c>
+      <c r="C166" t="s">
+        <v>68</v>
+      </c>
+      <c r="D166" t="s">
+        <v>69</v>
+      </c>
+      <c r="E166" s="2">
+        <v>45497.875</v>
+      </c>
+      <c r="F166">
+        <v>17</v>
+      </c>
+      <c r="G166" t="s">
+        <v>79</v>
+      </c>
+      <c r="H166" t="s">
+        <v>85</v>
+      </c>
+      <c r="I166">
+        <v>1</v>
+      </c>
+      <c r="J166">
+        <v>0</v>
+      </c>
+      <c r="K166">
+        <v>1</v>
+      </c>
+      <c r="L166">
+        <v>1</v>
+      </c>
+      <c r="M166">
+        <v>0</v>
+      </c>
+      <c r="N166">
+        <v>1</v>
+      </c>
+      <c r="O166" t="s">
+        <v>198</v>
+      </c>
+      <c r="P166" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q166">
+        <v>3.4</v>
+      </c>
+      <c r="R166">
+        <v>1.91</v>
+      </c>
+      <c r="S166">
+        <v>3.75</v>
+      </c>
+      <c r="T166">
+        <v>1.53</v>
+      </c>
+      <c r="U166">
+        <v>2.38</v>
+      </c>
+      <c r="V166">
+        <v>3.75</v>
+      </c>
+      <c r="W166">
+        <v>1.25</v>
+      </c>
+      <c r="X166">
+        <v>11</v>
+      </c>
+      <c r="Y166">
+        <v>1.05</v>
+      </c>
+      <c r="Z166">
+        <v>2.6</v>
+      </c>
+      <c r="AA166">
+        <v>2.9</v>
+      </c>
+      <c r="AB166">
+        <v>3</v>
+      </c>
+      <c r="AC166">
+        <v>1.06</v>
+      </c>
+      <c r="AD166">
+        <v>6.5</v>
+      </c>
+      <c r="AE166">
+        <v>1.5</v>
+      </c>
+      <c r="AF166">
+        <v>2.4</v>
+      </c>
+      <c r="AG166">
+        <v>2.6</v>
+      </c>
+      <c r="AH166">
+        <v>1.48</v>
+      </c>
+      <c r="AI166">
+        <v>2.2</v>
+      </c>
+      <c r="AJ166">
+        <v>1.62</v>
+      </c>
+      <c r="AK166">
+        <v>1.38</v>
+      </c>
+      <c r="AL166">
+        <v>1.33</v>
+      </c>
+      <c r="AM166">
+        <v>1.5</v>
+      </c>
+      <c r="AN166">
+        <v>1.43</v>
+      </c>
+      <c r="AO166">
+        <v>1.13</v>
+      </c>
+      <c r="AP166">
+        <v>1.63</v>
+      </c>
+      <c r="AQ166">
+        <v>1</v>
+      </c>
+      <c r="AR166">
+        <v>1.17</v>
+      </c>
+      <c r="AS166">
+        <v>1.44</v>
+      </c>
+      <c r="AT166">
+        <v>2.61</v>
+      </c>
+      <c r="AU166">
+        <v>6</v>
+      </c>
+      <c r="AV166">
+        <v>4</v>
+      </c>
+      <c r="AW166">
+        <v>3</v>
+      </c>
+      <c r="AX166">
+        <v>6</v>
+      </c>
+      <c r="AY166">
+        <v>9</v>
+      </c>
+      <c r="AZ166">
+        <v>10</v>
+      </c>
+      <c r="BA166">
+        <v>2</v>
+      </c>
+      <c r="BB166">
+        <v>9</v>
+      </c>
+      <c r="BC166">
+        <v>11</v>
+      </c>
+      <c r="BD166">
+        <v>2.13</v>
+      </c>
+      <c r="BE166">
+        <v>7.4</v>
+      </c>
+      <c r="BF166">
+        <v>2.02</v>
+      </c>
+      <c r="BG166">
+        <v>1.22</v>
+      </c>
+      <c r="BH166">
+        <v>3.8</v>
+      </c>
+      <c r="BI166">
+        <v>1.33</v>
+      </c>
+      <c r="BJ166">
+        <v>2.93</v>
+      </c>
+      <c r="BK166">
+        <v>2.1</v>
+      </c>
+      <c r="BL166">
+        <v>2.16</v>
+      </c>
+      <c r="BM166">
+        <v>2</v>
+      </c>
+      <c r="BN166">
+        <v>1.72</v>
+      </c>
+      <c r="BO166">
+        <v>2.57</v>
+      </c>
+      <c r="BP166">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="167" spans="1:68">
+      <c r="A167" s="1">
+        <v>166</v>
+      </c>
+      <c r="B167">
+        <v>7380494</v>
+      </c>
+      <c r="C167" t="s">
+        <v>68</v>
+      </c>
+      <c r="D167" t="s">
+        <v>69</v>
+      </c>
+      <c r="E167" s="2">
+        <v>45497.89583333334</v>
+      </c>
+      <c r="F167">
+        <v>17</v>
+      </c>
+      <c r="G167" t="s">
+        <v>75</v>
+      </c>
+      <c r="H167" t="s">
+        <v>83</v>
+      </c>
+      <c r="I167">
+        <v>1</v>
+      </c>
+      <c r="J167">
+        <v>1</v>
+      </c>
+      <c r="K167">
+        <v>2</v>
+      </c>
+      <c r="L167">
+        <v>1</v>
+      </c>
+      <c r="M167">
+        <v>1</v>
+      </c>
+      <c r="N167">
+        <v>2</v>
+      </c>
+      <c r="O167" t="s">
+        <v>199</v>
+      </c>
+      <c r="P167" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q167">
+        <v>2.63</v>
+      </c>
+      <c r="R167">
+        <v>1.95</v>
+      </c>
+      <c r="S167">
+        <v>5</v>
+      </c>
+      <c r="T167">
+        <v>1.57</v>
+      </c>
+      <c r="U167">
+        <v>2.25</v>
+      </c>
+      <c r="V167">
+        <v>3.75</v>
+      </c>
+      <c r="W167">
+        <v>1.25</v>
+      </c>
+      <c r="X167">
+        <v>13</v>
+      </c>
+      <c r="Y167">
+        <v>1.04</v>
+      </c>
+      <c r="Z167">
+        <v>1.9</v>
+      </c>
+      <c r="AA167">
+        <v>3.25</v>
+      </c>
+      <c r="AB167">
+        <v>4.33</v>
+      </c>
+      <c r="AC167">
+        <v>1.09</v>
+      </c>
+      <c r="AD167">
+        <v>6.6</v>
+      </c>
+      <c r="AE167">
+        <v>1.54</v>
+      </c>
+      <c r="AF167">
+        <v>2.48</v>
+      </c>
+      <c r="AG167">
+        <v>2.6</v>
+      </c>
+      <c r="AH167">
+        <v>1.48</v>
+      </c>
+      <c r="AI167">
+        <v>2.25</v>
+      </c>
+      <c r="AJ167">
+        <v>1.57</v>
+      </c>
+      <c r="AK167">
+        <v>1.25</v>
+      </c>
+      <c r="AL167">
+        <v>1.3</v>
+      </c>
+      <c r="AM167">
+        <v>1.7</v>
+      </c>
+      <c r="AN167">
+        <v>1.63</v>
+      </c>
+      <c r="AO167">
+        <v>0.14</v>
+      </c>
+      <c r="AP167">
+        <v>1.56</v>
+      </c>
+      <c r="AQ167">
+        <v>0.25</v>
+      </c>
+      <c r="AR167">
+        <v>1.5</v>
+      </c>
+      <c r="AS167">
+        <v>1.17</v>
+      </c>
+      <c r="AT167">
+        <v>2.67</v>
+      </c>
+      <c r="AU167">
+        <v>3</v>
+      </c>
+      <c r="AV167">
+        <v>3</v>
+      </c>
+      <c r="AW167">
+        <v>9</v>
+      </c>
+      <c r="AX167">
+        <v>2</v>
+      </c>
+      <c r="AY167">
+        <v>12</v>
+      </c>
+      <c r="AZ167">
+        <v>5</v>
+      </c>
+      <c r="BA167">
+        <v>12</v>
+      </c>
+      <c r="BB167">
+        <v>2</v>
+      </c>
+      <c r="BC167">
+        <v>14</v>
+      </c>
+      <c r="BD167">
+        <v>1.62</v>
+      </c>
+      <c r="BE167">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="BF167">
+        <v>2.71</v>
+      </c>
+      <c r="BG167">
+        <v>1.18</v>
+      </c>
+      <c r="BH167">
+        <v>4.33</v>
+      </c>
+      <c r="BI167">
+        <v>1.3</v>
+      </c>
+      <c r="BJ167">
+        <v>3.2</v>
+      </c>
+      <c r="BK167">
+        <v>1.42</v>
+      </c>
+      <c r="BL167">
+        <v>2.57</v>
+      </c>
+      <c r="BM167">
+        <v>1.71</v>
+      </c>
+      <c r="BN167">
+        <v>1.97</v>
+      </c>
+      <c r="BO167">
+        <v>2.17</v>
+      </c>
+      <c r="BP167">
         <v>1.61</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="258">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -613,7 +613,13 @@
     <t>['12']</t>
   </si>
   <si>
-    <t>['45+4']</t>
+    <t>['45+7']</t>
+  </si>
+  <si>
+    <t>['46']</t>
+  </si>
+  <si>
+    <t>['22', '24', '32', '55']</t>
   </si>
   <si>
     <t>['31', '49', '69']</t>
@@ -1143,7 +1149,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP167"/>
+  <dimension ref="A1:BP169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1689,7 +1695,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ3">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2432,7 +2438,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q7">
         <v>4.33</v>
@@ -2716,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ8">
         <v>0.89</v>
@@ -2844,7 +2850,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -3256,7 +3262,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q11">
         <v>3.5</v>
@@ -3462,7 +3468,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q12">
         <v>3.6</v>
@@ -3874,7 +3880,7 @@
         <v>100</v>
       </c>
       <c r="P14" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q14">
         <v>4.75</v>
@@ -4080,7 +4086,7 @@
         <v>100</v>
       </c>
       <c r="P15" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4573,7 +4579,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ17">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -5188,7 +5194,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ20">
         <v>0.44</v>
@@ -5316,7 +5322,7 @@
         <v>106</v>
       </c>
       <c r="P21" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5934,7 +5940,7 @@
         <v>107</v>
       </c>
       <c r="P24" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q24">
         <v>3.6</v>
@@ -6346,7 +6352,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6552,7 +6558,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q27">
         <v>4</v>
@@ -6758,7 +6764,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6836,10 +6842,10 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ28">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="AR28">
         <v>2.07</v>
@@ -7170,7 +7176,7 @@
         <v>112</v>
       </c>
       <c r="P30" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q30">
         <v>2.1</v>
@@ -7582,7 +7588,7 @@
         <v>113</v>
       </c>
       <c r="P32" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q32">
         <v>2.38</v>
@@ -7788,7 +7794,7 @@
         <v>100</v>
       </c>
       <c r="P33" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -8072,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ34">
         <v>0.13</v>
@@ -8693,7 +8699,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ37">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR37">
         <v>3.34</v>
@@ -9024,7 +9030,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q39">
         <v>2</v>
@@ -9436,7 +9442,7 @@
         <v>120</v>
       </c>
       <c r="P41" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q41">
         <v>2.25</v>
@@ -9642,7 +9648,7 @@
         <v>121</v>
       </c>
       <c r="P42" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9723,7 +9729,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ42">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="AR42">
         <v>1.42</v>
@@ -9848,7 +9854,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q43">
         <v>3.2</v>
@@ -11084,7 +11090,7 @@
         <v>125</v>
       </c>
       <c r="P49" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -11574,7 +11580,7 @@
         <v>0.5</v>
       </c>
       <c r="AP51">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ51">
         <v>0.88</v>
@@ -12398,10 +12404,10 @@
         <v>0.5</v>
       </c>
       <c r="AP55">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ55">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR55">
         <v>1.77</v>
@@ -12526,7 +12532,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q56">
         <v>1.95</v>
@@ -13350,7 +13356,7 @@
         <v>118</v>
       </c>
       <c r="P60" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13762,7 +13768,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q62">
         <v>3.4</v>
@@ -14380,7 +14386,7 @@
         <v>135</v>
       </c>
       <c r="P65" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q65">
         <v>2.38</v>
@@ -14664,7 +14670,7 @@
         <v>1.33</v>
       </c>
       <c r="AP66">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ66">
         <v>1.22</v>
@@ -14998,7 +15004,7 @@
         <v>100</v>
       </c>
       <c r="P68" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q68">
         <v>3.6</v>
@@ -15694,7 +15700,7 @@
         <v>0.67</v>
       </c>
       <c r="AP71">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ71">
         <v>0.38</v>
@@ -15900,7 +15906,7 @@
         <v>2</v>
       </c>
       <c r="AP72">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ72">
         <v>1.5</v>
@@ -16234,7 +16240,7 @@
         <v>90</v>
       </c>
       <c r="P74" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q74">
         <v>3.1</v>
@@ -16440,7 +16446,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -16521,7 +16527,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ75">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="AR75">
         <v>1.49</v>
@@ -16852,7 +16858,7 @@
         <v>139</v>
       </c>
       <c r="P77" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q77">
         <v>2.2</v>
@@ -16933,7 +16939,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ77">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR77">
         <v>1.71</v>
@@ -17676,7 +17682,7 @@
         <v>146</v>
       </c>
       <c r="P81" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q81">
         <v>2.05</v>
@@ -17882,7 +17888,7 @@
         <v>147</v>
       </c>
       <c r="P82" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q82">
         <v>4</v>
@@ -18088,7 +18094,7 @@
         <v>100</v>
       </c>
       <c r="P83" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q83">
         <v>3.2</v>
@@ -18294,7 +18300,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q84">
         <v>2.75</v>
@@ -18912,7 +18918,7 @@
         <v>150</v>
       </c>
       <c r="P87" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q87">
         <v>3.5</v>
@@ -19942,7 +19948,7 @@
         <v>153</v>
       </c>
       <c r="P92" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q92">
         <v>2.63</v>
@@ -20229,7 +20235,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ93">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="AR93">
         <v>1.79</v>
@@ -20560,7 +20566,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q95">
         <v>3.5</v>
@@ -21178,7 +21184,7 @@
         <v>116</v>
       </c>
       <c r="P98" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q98">
         <v>3</v>
@@ -21256,7 +21262,7 @@
         <v>0.5</v>
       </c>
       <c r="AP98">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ98">
         <v>0.38</v>
@@ -21590,7 +21596,7 @@
         <v>100</v>
       </c>
       <c r="P100" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q100">
         <v>3.5</v>
@@ -21796,7 +21802,7 @@
         <v>160</v>
       </c>
       <c r="P101" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q101">
         <v>2.6</v>
@@ -22289,7 +22295,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ103">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="AR103">
         <v>1.12</v>
@@ -23522,7 +23528,7 @@
         <v>1.5</v>
       </c>
       <c r="AP109">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ109">
         <v>1.5</v>
@@ -23937,7 +23943,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ111">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR111">
         <v>1.48</v>
@@ -24268,7 +24274,7 @@
         <v>167</v>
       </c>
       <c r="P113" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q113">
         <v>3.25</v>
@@ -24680,7 +24686,7 @@
         <v>169</v>
       </c>
       <c r="P115" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q115">
         <v>2.68</v>
@@ -25092,7 +25098,7 @@
         <v>170</v>
       </c>
       <c r="P117" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q117">
         <v>2.38</v>
@@ -25710,7 +25716,7 @@
         <v>90</v>
       </c>
       <c r="P120" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q120">
         <v>2.4</v>
@@ -26122,7 +26128,7 @@
         <v>173</v>
       </c>
       <c r="P122" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q122">
         <v>1.95</v>
@@ -26200,7 +26206,7 @@
         <v>0.2</v>
       </c>
       <c r="AP122">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ122">
         <v>0.13</v>
@@ -26534,7 +26540,7 @@
         <v>174</v>
       </c>
       <c r="P124" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q124">
         <v>2.75</v>
@@ -26740,7 +26746,7 @@
         <v>175</v>
       </c>
       <c r="P125" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q125">
         <v>3</v>
@@ -27152,7 +27158,7 @@
         <v>176</v>
       </c>
       <c r="P127" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q127">
         <v>2.4</v>
@@ -27358,7 +27364,7 @@
         <v>177</v>
       </c>
       <c r="P128" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q128">
         <v>2.75</v>
@@ -27436,7 +27442,7 @@
         <v>1</v>
       </c>
       <c r="AP128">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ128">
         <v>0.88</v>
@@ -27564,7 +27570,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q129">
         <v>3.25</v>
@@ -27848,7 +27854,7 @@
         <v>1</v>
       </c>
       <c r="AP130">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ130">
         <v>1.22</v>
@@ -28388,7 +28394,7 @@
         <v>140</v>
       </c>
       <c r="P133" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q133">
         <v>2.25</v>
@@ -28466,7 +28472,7 @@
         <v>1.14</v>
       </c>
       <c r="AP133">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ133">
         <v>1.22</v>
@@ -28594,7 +28600,7 @@
         <v>96</v>
       </c>
       <c r="P134" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q134">
         <v>2.5</v>
@@ -28800,7 +28806,7 @@
         <v>180</v>
       </c>
       <c r="P135" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q135">
         <v>3.5</v>
@@ -28881,7 +28887,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ135">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR135">
         <v>1.41</v>
@@ -29212,7 +29218,7 @@
         <v>100</v>
       </c>
       <c r="P137" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q137">
         <v>2.75</v>
@@ -29418,7 +29424,7 @@
         <v>181</v>
       </c>
       <c r="P138" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q138">
         <v>3</v>
@@ -29705,7 +29711,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ139">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="AR139">
         <v>1.43</v>
@@ -29830,7 +29836,7 @@
         <v>182</v>
       </c>
       <c r="P140" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q140">
         <v>3.75</v>
@@ -30036,7 +30042,7 @@
         <v>100</v>
       </c>
       <c r="P141" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q141">
         <v>3</v>
@@ -30242,7 +30248,7 @@
         <v>183</v>
       </c>
       <c r="P142" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q142">
         <v>3.2</v>
@@ -30448,7 +30454,7 @@
         <v>152</v>
       </c>
       <c r="P143" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q143">
         <v>2.5</v>
@@ -31066,7 +31072,7 @@
         <v>186</v>
       </c>
       <c r="P146" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q146">
         <v>3.1</v>
@@ -31684,7 +31690,7 @@
         <v>189</v>
       </c>
       <c r="P149" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q149">
         <v>2.5</v>
@@ -31765,7 +31771,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ149">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR149">
         <v>1.56</v>
@@ -32096,7 +32102,7 @@
         <v>191</v>
       </c>
       <c r="P151" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q151">
         <v>3.75</v>
@@ -33538,7 +33544,7 @@
         <v>194</v>
       </c>
       <c r="P158" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q158">
         <v>3.75</v>
@@ -33744,7 +33750,7 @@
         <v>195</v>
       </c>
       <c r="P159" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q159">
         <v>3</v>
@@ -35549,6 +35555,418 @@
       </c>
       <c r="BP167">
         <v>1.61</v>
+      </c>
+    </row>
+    <row r="168" spans="1:68">
+      <c r="A168" s="1">
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>7380486</v>
+      </c>
+      <c r="C168" t="s">
+        <v>68</v>
+      </c>
+      <c r="D168" t="s">
+        <v>69</v>
+      </c>
+      <c r="E168" s="2">
+        <v>45498.89583333334</v>
+      </c>
+      <c r="F168">
+        <v>17</v>
+      </c>
+      <c r="G168" t="s">
+        <v>88</v>
+      </c>
+      <c r="H168" t="s">
+        <v>84</v>
+      </c>
+      <c r="I168">
+        <v>0</v>
+      </c>
+      <c r="J168">
+        <v>0</v>
+      </c>
+      <c r="K168">
+        <v>0</v>
+      </c>
+      <c r="L168">
+        <v>1</v>
+      </c>
+      <c r="M168">
+        <v>1</v>
+      </c>
+      <c r="N168">
+        <v>2</v>
+      </c>
+      <c r="O168" t="s">
+        <v>200</v>
+      </c>
+      <c r="P168" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q168">
+        <v>2.63</v>
+      </c>
+      <c r="R168">
+        <v>1.91</v>
+      </c>
+      <c r="S168">
+        <v>5.5</v>
+      </c>
+      <c r="T168">
+        <v>1.5</v>
+      </c>
+      <c r="U168">
+        <v>2.5</v>
+      </c>
+      <c r="V168">
+        <v>3.5</v>
+      </c>
+      <c r="W168">
+        <v>1.29</v>
+      </c>
+      <c r="X168">
+        <v>11</v>
+      </c>
+      <c r="Y168">
+        <v>1.05</v>
+      </c>
+      <c r="Z168">
+        <v>1.9</v>
+      </c>
+      <c r="AA168">
+        <v>3</v>
+      </c>
+      <c r="AB168">
+        <v>5</v>
+      </c>
+      <c r="AC168">
+        <v>1.09</v>
+      </c>
+      <c r="AD168">
+        <v>7</v>
+      </c>
+      <c r="AE168">
+        <v>1.5</v>
+      </c>
+      <c r="AF168">
+        <v>2.35</v>
+      </c>
+      <c r="AG168">
+        <v>2.88</v>
+      </c>
+      <c r="AH168">
+        <v>1.4</v>
+      </c>
+      <c r="AI168">
+        <v>2.5</v>
+      </c>
+      <c r="AJ168">
+        <v>1.5</v>
+      </c>
+      <c r="AK168">
+        <v>1.17</v>
+      </c>
+      <c r="AL168">
+        <v>1.28</v>
+      </c>
+      <c r="AM168">
+        <v>1.95</v>
+      </c>
+      <c r="AN168">
+        <v>2.29</v>
+      </c>
+      <c r="AO168">
+        <v>0.29</v>
+      </c>
+      <c r="AP168">
+        <v>2.13</v>
+      </c>
+      <c r="AQ168">
+        <v>0.38</v>
+      </c>
+      <c r="AR168">
+        <v>1.69</v>
+      </c>
+      <c r="AS168">
+        <v>1.17</v>
+      </c>
+      <c r="AT168">
+        <v>2.86</v>
+      </c>
+      <c r="AU168">
+        <v>4</v>
+      </c>
+      <c r="AV168">
+        <v>2</v>
+      </c>
+      <c r="AW168">
+        <v>4</v>
+      </c>
+      <c r="AX168">
+        <v>6</v>
+      </c>
+      <c r="AY168">
+        <v>8</v>
+      </c>
+      <c r="AZ168">
+        <v>8</v>
+      </c>
+      <c r="BA168">
+        <v>6</v>
+      </c>
+      <c r="BB168">
+        <v>2</v>
+      </c>
+      <c r="BC168">
+        <v>8</v>
+      </c>
+      <c r="BD168">
+        <v>1.62</v>
+      </c>
+      <c r="BE168">
+        <v>8.1</v>
+      </c>
+      <c r="BF168">
+        <v>2.86</v>
+      </c>
+      <c r="BG168">
+        <v>1.27</v>
+      </c>
+      <c r="BH168">
+        <v>3.55</v>
+      </c>
+      <c r="BI168">
+        <v>1.5</v>
+      </c>
+      <c r="BJ168">
+        <v>2.48</v>
+      </c>
+      <c r="BK168">
+        <v>2.38</v>
+      </c>
+      <c r="BL168">
+        <v>1.92</v>
+      </c>
+      <c r="BM168">
+        <v>2.45</v>
+      </c>
+      <c r="BN168">
+        <v>1.5</v>
+      </c>
+      <c r="BO168">
+        <v>3.4</v>
+      </c>
+      <c r="BP168">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="169" spans="1:68">
+      <c r="A169" s="1">
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>7380495</v>
+      </c>
+      <c r="C169" t="s">
+        <v>68</v>
+      </c>
+      <c r="D169" t="s">
+        <v>69</v>
+      </c>
+      <c r="E169" s="2">
+        <v>45498.89583333334</v>
+      </c>
+      <c r="F169">
+        <v>17</v>
+      </c>
+      <c r="G169" t="s">
+        <v>76</v>
+      </c>
+      <c r="H169" t="s">
+        <v>70</v>
+      </c>
+      <c r="I169">
+        <v>3</v>
+      </c>
+      <c r="J169">
+        <v>1</v>
+      </c>
+      <c r="K169">
+        <v>4</v>
+      </c>
+      <c r="L169">
+        <v>4</v>
+      </c>
+      <c r="M169">
+        <v>1</v>
+      </c>
+      <c r="N169">
+        <v>5</v>
+      </c>
+      <c r="O169" t="s">
+        <v>201</v>
+      </c>
+      <c r="P169" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q169">
+        <v>2.05</v>
+      </c>
+      <c r="R169">
+        <v>2.2</v>
+      </c>
+      <c r="S169">
+        <v>7.5</v>
+      </c>
+      <c r="T169">
+        <v>1.5</v>
+      </c>
+      <c r="U169">
+        <v>2.5</v>
+      </c>
+      <c r="V169">
+        <v>3.4</v>
+      </c>
+      <c r="W169">
+        <v>1.3</v>
+      </c>
+      <c r="X169">
+        <v>10</v>
+      </c>
+      <c r="Y169">
+        <v>1.06</v>
+      </c>
+      <c r="Z169">
+        <v>1.45</v>
+      </c>
+      <c r="AA169">
+        <v>4.2</v>
+      </c>
+      <c r="AB169">
+        <v>7</v>
+      </c>
+      <c r="AC169">
+        <v>1.05</v>
+      </c>
+      <c r="AD169">
+        <v>7.2</v>
+      </c>
+      <c r="AE169">
+        <v>1.39</v>
+      </c>
+      <c r="AF169">
+        <v>2.67</v>
+      </c>
+      <c r="AG169">
+        <v>2.25</v>
+      </c>
+      <c r="AH169">
+        <v>1.62</v>
+      </c>
+      <c r="AI169">
+        <v>2.5</v>
+      </c>
+      <c r="AJ169">
+        <v>1.5</v>
+      </c>
+      <c r="AK169">
+        <v>1.11</v>
+      </c>
+      <c r="AL169">
+        <v>1.2</v>
+      </c>
+      <c r="AM169">
+        <v>2.38</v>
+      </c>
+      <c r="AN169">
+        <v>1.88</v>
+      </c>
+      <c r="AO169">
+        <v>1</v>
+      </c>
+      <c r="AP169">
+        <v>2</v>
+      </c>
+      <c r="AQ169">
+        <v>0.88</v>
+      </c>
+      <c r="AR169">
+        <v>1.76</v>
+      </c>
+      <c r="AS169">
+        <v>1.28</v>
+      </c>
+      <c r="AT169">
+        <v>3.04</v>
+      </c>
+      <c r="AU169">
+        <v>9</v>
+      </c>
+      <c r="AV169">
+        <v>3</v>
+      </c>
+      <c r="AW169">
+        <v>8</v>
+      </c>
+      <c r="AX169">
+        <v>4</v>
+      </c>
+      <c r="AY169">
+        <v>17</v>
+      </c>
+      <c r="AZ169">
+        <v>7</v>
+      </c>
+      <c r="BA169">
+        <v>3</v>
+      </c>
+      <c r="BB169">
+        <v>3</v>
+      </c>
+      <c r="BC169">
+        <v>6</v>
+      </c>
+      <c r="BD169">
+        <v>1.42</v>
+      </c>
+      <c r="BE169">
+        <v>9.6</v>
+      </c>
+      <c r="BF169">
+        <v>3.54</v>
+      </c>
+      <c r="BG169">
+        <v>1.2</v>
+      </c>
+      <c r="BH169">
+        <v>4.25</v>
+      </c>
+      <c r="BI169">
+        <v>1.38</v>
+      </c>
+      <c r="BJ169">
+        <v>2.9</v>
+      </c>
+      <c r="BK169">
+        <v>2.1</v>
+      </c>
+      <c r="BL169">
+        <v>2.12</v>
+      </c>
+      <c r="BM169">
+        <v>2.05</v>
+      </c>
+      <c r="BN169">
+        <v>1.7</v>
+      </c>
+      <c r="BO169">
+        <v>2.85</v>
+      </c>
+      <c r="BP169">
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="258">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1149,7 +1149,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP169"/>
+  <dimension ref="A1:BP170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ12">
         <v>1.38</v>
@@ -3755,7 +3755,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ13">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -6430,7 +6430,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ26">
         <v>1.56</v>
@@ -7669,7 +7669,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ32">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR32">
         <v>2.22</v>
@@ -10550,7 +10550,7 @@
         <v>3</v>
       </c>
       <c r="AP46">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ46">
         <v>1.5</v>
@@ -11789,7 +11789,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ52">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR52">
         <v>1.8</v>
@@ -14258,7 +14258,7 @@
         <v>0.67</v>
       </c>
       <c r="AP64">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ64">
         <v>0.44</v>
@@ -16321,7 +16321,7 @@
         <v>1</v>
       </c>
       <c r="AQ74">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR74">
         <v>1.65</v>
@@ -16730,7 +16730,7 @@
         <v>1.33</v>
       </c>
       <c r="AP76">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ76">
         <v>1.25</v>
@@ -20644,7 +20644,7 @@
         <v>0.4</v>
       </c>
       <c r="AP95">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ95">
         <v>1</v>
@@ -20853,7 +20853,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ96">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR96">
         <v>1.38</v>
@@ -24146,7 +24146,7 @@
         <v>0.2</v>
       </c>
       <c r="AP112">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ112">
         <v>0.5600000000000001</v>
@@ -25797,7 +25797,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ120">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR120">
         <v>1.67</v>
@@ -28884,7 +28884,7 @@
         <v>1.4</v>
       </c>
       <c r="AP135">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ135">
         <v>0.88</v>
@@ -29505,7 +29505,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ138">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR138">
         <v>1.46</v>
@@ -34858,7 +34858,7 @@
         <v>0.86</v>
       </c>
       <c r="AP164">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ164">
         <v>0.88</v>
@@ -35067,7 +35067,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ165">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR165">
         <v>1.61</v>
@@ -35967,6 +35967,212 @@
       </c>
       <c r="BP169">
         <v>1.38</v>
+      </c>
+    </row>
+    <row r="170" spans="1:68">
+      <c r="A170" s="1">
+        <v>169</v>
+      </c>
+      <c r="B170">
+        <v>7380499</v>
+      </c>
+      <c r="C170" t="s">
+        <v>68</v>
+      </c>
+      <c r="D170" t="s">
+        <v>69</v>
+      </c>
+      <c r="E170" s="2">
+        <v>45499.89583333334</v>
+      </c>
+      <c r="F170">
+        <v>18</v>
+      </c>
+      <c r="G170" t="s">
+        <v>80</v>
+      </c>
+      <c r="H170" t="s">
+        <v>78</v>
+      </c>
+      <c r="I170">
+        <v>0</v>
+      </c>
+      <c r="J170">
+        <v>0</v>
+      </c>
+      <c r="K170">
+        <v>0</v>
+      </c>
+      <c r="L170">
+        <v>0</v>
+      </c>
+      <c r="M170">
+        <v>0</v>
+      </c>
+      <c r="N170">
+        <v>0</v>
+      </c>
+      <c r="O170" t="s">
+        <v>100</v>
+      </c>
+      <c r="P170" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q170">
+        <v>3.75</v>
+      </c>
+      <c r="R170">
+        <v>2</v>
+      </c>
+      <c r="S170">
+        <v>3.1</v>
+      </c>
+      <c r="T170">
+        <v>1.44</v>
+      </c>
+      <c r="U170">
+        <v>2.63</v>
+      </c>
+      <c r="V170">
+        <v>3.25</v>
+      </c>
+      <c r="W170">
+        <v>1.33</v>
+      </c>
+      <c r="X170">
+        <v>10</v>
+      </c>
+      <c r="Y170">
+        <v>1.06</v>
+      </c>
+      <c r="Z170">
+        <v>3.1</v>
+      </c>
+      <c r="AA170">
+        <v>3.2</v>
+      </c>
+      <c r="AB170">
+        <v>2.3</v>
+      </c>
+      <c r="AC170">
+        <v>1.06</v>
+      </c>
+      <c r="AD170">
+        <v>8.5</v>
+      </c>
+      <c r="AE170">
+        <v>1.38</v>
+      </c>
+      <c r="AF170">
+        <v>3</v>
+      </c>
+      <c r="AG170">
+        <v>2.35</v>
+      </c>
+      <c r="AH170">
+        <v>1.57</v>
+      </c>
+      <c r="AI170">
+        <v>2</v>
+      </c>
+      <c r="AJ170">
+        <v>1.73</v>
+      </c>
+      <c r="AK170">
+        <v>2.05</v>
+      </c>
+      <c r="AL170">
+        <v>1.22</v>
+      </c>
+      <c r="AM170">
+        <v>1.17</v>
+      </c>
+      <c r="AN170">
+        <v>1.22</v>
+      </c>
+      <c r="AO170">
+        <v>0.63</v>
+      </c>
+      <c r="AP170">
+        <v>1.2</v>
+      </c>
+      <c r="AQ170">
+        <v>0.67</v>
+      </c>
+      <c r="AR170">
+        <v>1.28</v>
+      </c>
+      <c r="AS170">
+        <v>1.26</v>
+      </c>
+      <c r="AT170">
+        <v>2.54</v>
+      </c>
+      <c r="AU170">
+        <v>2</v>
+      </c>
+      <c r="AV170">
+        <v>3</v>
+      </c>
+      <c r="AW170">
+        <v>9</v>
+      </c>
+      <c r="AX170">
+        <v>12</v>
+      </c>
+      <c r="AY170">
+        <v>11</v>
+      </c>
+      <c r="AZ170">
+        <v>15</v>
+      </c>
+      <c r="BA170">
+        <v>9</v>
+      </c>
+      <c r="BB170">
+        <v>4</v>
+      </c>
+      <c r="BC170">
+        <v>13</v>
+      </c>
+      <c r="BD170">
+        <v>1.85</v>
+      </c>
+      <c r="BE170">
+        <v>8.1</v>
+      </c>
+      <c r="BF170">
+        <v>2.35</v>
+      </c>
+      <c r="BG170">
+        <v>1.15</v>
+      </c>
+      <c r="BH170">
+        <v>4.75</v>
+      </c>
+      <c r="BI170">
+        <v>1.29</v>
+      </c>
+      <c r="BJ170">
+        <v>3.3</v>
+      </c>
+      <c r="BK170">
+        <v>1.91</v>
+      </c>
+      <c r="BL170">
+        <v>2.62</v>
+      </c>
+      <c r="BM170">
+        <v>1.75</v>
+      </c>
+      <c r="BN170">
+        <v>1.96</v>
+      </c>
+      <c r="BO170">
+        <v>2.22</v>
+      </c>
+      <c r="BP170">
+        <v>1.59</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="259">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -622,6 +622,9 @@
     <t>['22', '24', '32', '55']</t>
   </si>
   <si>
+    <t>['25', '84', '90+9']</t>
+  </si>
+  <si>
     <t>['31', '49', '69']</t>
   </si>
   <si>
@@ -1149,7 +1152,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP170"/>
+  <dimension ref="A1:BP173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2438,7 +2441,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q7">
         <v>4.33</v>
@@ -2850,7 +2853,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -3262,7 +3265,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q11">
         <v>3.5</v>
@@ -3468,7 +3471,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q12">
         <v>3.6</v>
@@ -3549,7 +3552,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ12">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3752,7 +3755,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ13">
         <v>0.67</v>
@@ -3880,7 +3883,7 @@
         <v>100</v>
       </c>
       <c r="P14" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q14">
         <v>4.75</v>
@@ -4086,7 +4089,7 @@
         <v>100</v>
       </c>
       <c r="P15" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4167,7 +4170,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ15">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4988,7 +4991,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ19">
         <v>0.5600000000000001</v>
@@ -5197,7 +5200,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ20">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5322,7 +5325,7 @@
         <v>106</v>
       </c>
       <c r="P21" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5400,7 +5403,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AQ21">
         <v>0.88</v>
@@ -5812,7 +5815,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ23">
         <v>1.5</v>
@@ -5940,7 +5943,7 @@
         <v>107</v>
       </c>
       <c r="P24" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q24">
         <v>3.6</v>
@@ -6227,7 +6230,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ25">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR25">
         <v>1.46</v>
@@ -6352,7 +6355,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6558,7 +6561,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q27">
         <v>4</v>
@@ -6764,7 +6767,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -7176,7 +7179,7 @@
         <v>112</v>
       </c>
       <c r="P30" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q30">
         <v>2.1</v>
@@ -7588,7 +7591,7 @@
         <v>113</v>
       </c>
       <c r="P32" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q32">
         <v>2.38</v>
@@ -7794,7 +7797,7 @@
         <v>100</v>
       </c>
       <c r="P33" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -8287,7 +8290,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ35">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR35">
         <v>1.74</v>
@@ -8493,7 +8496,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ36">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AR36">
         <v>1.35</v>
@@ -9030,7 +9033,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q39">
         <v>2</v>
@@ -9108,7 +9111,7 @@
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ39">
         <v>0.5600000000000001</v>
@@ -9442,7 +9445,7 @@
         <v>120</v>
       </c>
       <c r="P41" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q41">
         <v>2.25</v>
@@ -9520,7 +9523,7 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AQ41">
         <v>1</v>
@@ -9648,7 +9651,7 @@
         <v>121</v>
       </c>
       <c r="P42" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9854,7 +9857,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q43">
         <v>3.2</v>
@@ -10141,7 +10144,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ44">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR44">
         <v>1.09</v>
@@ -10344,7 +10347,7 @@
         <v>0</v>
       </c>
       <c r="AP45">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ45">
         <v>0.25</v>
@@ -10965,7 +10968,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ48">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR48">
         <v>1.4</v>
@@ -11090,7 +11093,7 @@
         <v>125</v>
       </c>
       <c r="P49" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -12532,7 +12535,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q56">
         <v>1.95</v>
@@ -12610,7 +12613,7 @@
         <v>0.5</v>
       </c>
       <c r="AP56">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ56">
         <v>1.25</v>
@@ -13228,7 +13231,7 @@
         <v>0</v>
       </c>
       <c r="AP59">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AQ59">
         <v>0.13</v>
@@ -13356,7 +13359,7 @@
         <v>118</v>
       </c>
       <c r="P60" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13643,7 +13646,7 @@
         <v>1</v>
       </c>
       <c r="AQ61">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AR61">
         <v>1.31</v>
@@ -13768,7 +13771,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q62">
         <v>3.4</v>
@@ -14261,7 +14264,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ64">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AR64">
         <v>1.17</v>
@@ -14386,7 +14389,7 @@
         <v>135</v>
       </c>
       <c r="P65" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q65">
         <v>2.38</v>
@@ -14673,7 +14676,7 @@
         <v>2</v>
       </c>
       <c r="AQ66">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR66">
         <v>1.56</v>
@@ -14876,10 +14879,10 @@
         <v>1.33</v>
       </c>
       <c r="AP67">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ67">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR67">
         <v>1.62</v>
@@ -15004,7 +15007,7 @@
         <v>100</v>
       </c>
       <c r="P68" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q68">
         <v>3.6</v>
@@ -16240,7 +16243,7 @@
         <v>90</v>
       </c>
       <c r="P74" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q74">
         <v>3.1</v>
@@ -16446,7 +16449,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -16858,7 +16861,7 @@
         <v>139</v>
       </c>
       <c r="P77" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q77">
         <v>2.2</v>
@@ -17348,7 +17351,7 @@
         <v>0</v>
       </c>
       <c r="AP79">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AQ79">
         <v>0.25</v>
@@ -17682,7 +17685,7 @@
         <v>146</v>
       </c>
       <c r="P81" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q81">
         <v>2.05</v>
@@ -17760,7 +17763,7 @@
         <v>0</v>
       </c>
       <c r="AP81">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ81">
         <v>0.13</v>
@@ -17888,7 +17891,7 @@
         <v>147</v>
       </c>
       <c r="P82" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q82">
         <v>4</v>
@@ -18094,7 +18097,7 @@
         <v>100</v>
       </c>
       <c r="P83" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q83">
         <v>3.2</v>
@@ -18175,7 +18178,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ83">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR83">
         <v>1.96</v>
@@ -18300,7 +18303,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q84">
         <v>2.75</v>
@@ -18587,7 +18590,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ85">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR85">
         <v>1.43</v>
@@ -18793,7 +18796,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ86">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AR86">
         <v>1.95</v>
@@ -18918,7 +18921,7 @@
         <v>150</v>
       </c>
       <c r="P87" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q87">
         <v>3.5</v>
@@ -19202,7 +19205,7 @@
         <v>0.5</v>
       </c>
       <c r="AP88">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ88">
         <v>1</v>
@@ -19408,7 +19411,7 @@
         <v>1.25</v>
       </c>
       <c r="AP89">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AQ89">
         <v>0.89</v>
@@ -19617,7 +19620,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ90">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR90">
         <v>1.45</v>
@@ -19948,7 +19951,7 @@
         <v>153</v>
       </c>
       <c r="P92" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q92">
         <v>2.63</v>
@@ -20566,7 +20569,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q95">
         <v>3.5</v>
@@ -21184,7 +21187,7 @@
         <v>116</v>
       </c>
       <c r="P98" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q98">
         <v>3</v>
@@ -21468,7 +21471,7 @@
         <v>0.5</v>
       </c>
       <c r="AP99">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ99">
         <v>0.67</v>
@@ -21596,7 +21599,7 @@
         <v>100</v>
       </c>
       <c r="P100" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q100">
         <v>3.5</v>
@@ -21677,7 +21680,7 @@
         <v>1</v>
       </c>
       <c r="AQ100">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR100">
         <v>1.66</v>
@@ -21802,7 +21805,7 @@
         <v>160</v>
       </c>
       <c r="P101" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q101">
         <v>2.6</v>
@@ -22707,7 +22710,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ105">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AR105">
         <v>1.54</v>
@@ -22910,7 +22913,7 @@
         <v>1.25</v>
       </c>
       <c r="AP106">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ106">
         <v>0.88</v>
@@ -24274,7 +24277,7 @@
         <v>167</v>
       </c>
       <c r="P113" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q113">
         <v>3.25</v>
@@ -24686,7 +24689,7 @@
         <v>169</v>
       </c>
       <c r="P115" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q115">
         <v>2.68</v>
@@ -24764,7 +24767,7 @@
         <v>1.17</v>
       </c>
       <c r="AP115">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ115">
         <v>1.56</v>
@@ -24970,7 +24973,7 @@
         <v>1</v>
       </c>
       <c r="AP116">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AQ116">
         <v>1.22</v>
@@ -25098,7 +25101,7 @@
         <v>170</v>
       </c>
       <c r="P117" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q117">
         <v>2.38</v>
@@ -25716,7 +25719,7 @@
         <v>90</v>
       </c>
       <c r="P120" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q120">
         <v>2.4</v>
@@ -25794,7 +25797,7 @@
         <v>0.2</v>
       </c>
       <c r="AP120">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ120">
         <v>0.67</v>
@@ -26128,7 +26131,7 @@
         <v>173</v>
       </c>
       <c r="P122" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q122">
         <v>1.95</v>
@@ -26540,7 +26543,7 @@
         <v>174</v>
       </c>
       <c r="P124" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q124">
         <v>2.75</v>
@@ -26621,7 +26624,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ124">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR124">
         <v>1.19</v>
@@ -26746,7 +26749,7 @@
         <v>175</v>
       </c>
       <c r="P125" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q125">
         <v>3</v>
@@ -26827,7 +26830,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ125">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AR125">
         <v>1.89</v>
@@ -27033,7 +27036,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ126">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR126">
         <v>1.76</v>
@@ -27158,7 +27161,7 @@
         <v>176</v>
       </c>
       <c r="P127" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q127">
         <v>2.4</v>
@@ -27364,7 +27367,7 @@
         <v>177</v>
       </c>
       <c r="P128" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q128">
         <v>2.75</v>
@@ -27570,7 +27573,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q129">
         <v>3.25</v>
@@ -28063,7 +28066,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ131">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AR131">
         <v>1.13</v>
@@ -28269,7 +28272,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ132">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR132">
         <v>1.84</v>
@@ -28394,7 +28397,7 @@
         <v>140</v>
       </c>
       <c r="P133" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q133">
         <v>2.25</v>
@@ -28475,7 +28478,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ133">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR133">
         <v>1.64</v>
@@ -28600,7 +28603,7 @@
         <v>96</v>
       </c>
       <c r="P134" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q134">
         <v>2.5</v>
@@ -28678,7 +28681,7 @@
         <v>1.14</v>
       </c>
       <c r="AP134">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ134">
         <v>1</v>
@@ -28806,7 +28809,7 @@
         <v>180</v>
       </c>
       <c r="P135" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q135">
         <v>3.5</v>
@@ -29218,7 +29221,7 @@
         <v>100</v>
       </c>
       <c r="P137" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q137">
         <v>2.75</v>
@@ -29424,7 +29427,7 @@
         <v>181</v>
       </c>
       <c r="P138" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q138">
         <v>3</v>
@@ -29708,7 +29711,7 @@
         <v>0.33</v>
       </c>
       <c r="AP139">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AQ139">
         <v>0.38</v>
@@ -29836,7 +29839,7 @@
         <v>182</v>
       </c>
       <c r="P140" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q140">
         <v>3.75</v>
@@ -30042,7 +30045,7 @@
         <v>100</v>
       </c>
       <c r="P141" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q141">
         <v>3</v>
@@ -30248,7 +30251,7 @@
         <v>183</v>
       </c>
       <c r="P142" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q142">
         <v>3.2</v>
@@ -30454,7 +30457,7 @@
         <v>152</v>
       </c>
       <c r="P143" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q143">
         <v>2.5</v>
@@ -30738,7 +30741,7 @@
         <v>0.83</v>
       </c>
       <c r="AP144">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ144">
         <v>0.88</v>
@@ -31072,7 +31075,7 @@
         <v>186</v>
       </c>
       <c r="P146" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q146">
         <v>3.1</v>
@@ -31690,7 +31693,7 @@
         <v>189</v>
       </c>
       <c r="P149" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q149">
         <v>2.5</v>
@@ -32102,7 +32105,7 @@
         <v>191</v>
       </c>
       <c r="P151" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q151">
         <v>3.75</v>
@@ -32389,7 +32392,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ152">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR152">
         <v>1.59</v>
@@ -32798,7 +32801,7 @@
         <v>0.38</v>
       </c>
       <c r="AP154">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ154">
         <v>0.67</v>
@@ -33419,7 +33422,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ157">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AR157">
         <v>1.2</v>
@@ -33544,7 +33547,7 @@
         <v>194</v>
       </c>
       <c r="P158" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q158">
         <v>3.75</v>
@@ -33750,7 +33753,7 @@
         <v>195</v>
       </c>
       <c r="P159" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q159">
         <v>3</v>
@@ -34652,7 +34655,7 @@
         <v>1.29</v>
       </c>
       <c r="AP163">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AQ163">
         <v>1.25</v>
@@ -35604,7 +35607,7 @@
         <v>200</v>
       </c>
       <c r="P168" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q168">
         <v>2.63</v>
@@ -35810,7 +35813,7 @@
         <v>201</v>
       </c>
       <c r="P169" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q169">
         <v>2.05</v>
@@ -36109,22 +36112,22 @@
         <v>2.54</v>
       </c>
       <c r="AU170">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV170">
         <v>3</v>
       </c>
       <c r="AW170">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AX170">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AY170">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AZ170">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BA170">
         <v>9</v>
@@ -36173,6 +36176,624 @@
       </c>
       <c r="BP170">
         <v>1.59</v>
+      </c>
+    </row>
+    <row r="171" spans="1:68">
+      <c r="A171" s="1">
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>7380498</v>
+      </c>
+      <c r="C171" t="s">
+        <v>68</v>
+      </c>
+      <c r="D171" t="s">
+        <v>69</v>
+      </c>
+      <c r="E171" s="2">
+        <v>45500.70833333334</v>
+      </c>
+      <c r="F171">
+        <v>18</v>
+      </c>
+      <c r="G171" t="s">
+        <v>89</v>
+      </c>
+      <c r="H171" t="s">
+        <v>72</v>
+      </c>
+      <c r="I171">
+        <v>1</v>
+      </c>
+      <c r="J171">
+        <v>0</v>
+      </c>
+      <c r="K171">
+        <v>1</v>
+      </c>
+      <c r="L171">
+        <v>1</v>
+      </c>
+      <c r="M171">
+        <v>0</v>
+      </c>
+      <c r="N171">
+        <v>1</v>
+      </c>
+      <c r="O171" t="s">
+        <v>123</v>
+      </c>
+      <c r="P171" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q171">
+        <v>2.75</v>
+      </c>
+      <c r="R171">
+        <v>1.83</v>
+      </c>
+      <c r="S171">
+        <v>6</v>
+      </c>
+      <c r="T171">
+        <v>1.57</v>
+      </c>
+      <c r="U171">
+        <v>2.25</v>
+      </c>
+      <c r="V171">
+        <v>3.75</v>
+      </c>
+      <c r="W171">
+        <v>1.25</v>
+      </c>
+      <c r="X171">
+        <v>13</v>
+      </c>
+      <c r="Y171">
+        <v>1.04</v>
+      </c>
+      <c r="Z171">
+        <v>1.85</v>
+      </c>
+      <c r="AA171">
+        <v>3</v>
+      </c>
+      <c r="AB171">
+        <v>5.25</v>
+      </c>
+      <c r="AC171">
+        <v>1.07</v>
+      </c>
+      <c r="AD171">
+        <v>6.15</v>
+      </c>
+      <c r="AE171">
+        <v>1.61</v>
+      </c>
+      <c r="AF171">
+        <v>2.15</v>
+      </c>
+      <c r="AG171">
+        <v>2.88</v>
+      </c>
+      <c r="AH171">
+        <v>1.4</v>
+      </c>
+      <c r="AI171">
+        <v>2.63</v>
+      </c>
+      <c r="AJ171">
+        <v>1.44</v>
+      </c>
+      <c r="AK171">
+        <v>1.18</v>
+      </c>
+      <c r="AL171">
+        <v>1.33</v>
+      </c>
+      <c r="AM171">
+        <v>1.87</v>
+      </c>
+      <c r="AN171">
+        <v>2.5</v>
+      </c>
+      <c r="AO171">
+        <v>1.38</v>
+      </c>
+      <c r="AP171">
+        <v>2.56</v>
+      </c>
+      <c r="AQ171">
+        <v>1.22</v>
+      </c>
+      <c r="AR171">
+        <v>1.41</v>
+      </c>
+      <c r="AS171">
+        <v>1.37</v>
+      </c>
+      <c r="AT171">
+        <v>2.78</v>
+      </c>
+      <c r="AU171">
+        <v>4</v>
+      </c>
+      <c r="AV171">
+        <v>2</v>
+      </c>
+      <c r="AW171">
+        <v>5</v>
+      </c>
+      <c r="AX171">
+        <v>5</v>
+      </c>
+      <c r="AY171">
+        <v>9</v>
+      </c>
+      <c r="AZ171">
+        <v>7</v>
+      </c>
+      <c r="BA171">
+        <v>2</v>
+      </c>
+      <c r="BB171">
+        <v>8</v>
+      </c>
+      <c r="BC171">
+        <v>10</v>
+      </c>
+      <c r="BD171">
+        <v>1.65</v>
+      </c>
+      <c r="BE171">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF171">
+        <v>2.76</v>
+      </c>
+      <c r="BG171">
+        <v>1.22</v>
+      </c>
+      <c r="BH171">
+        <v>3.8</v>
+      </c>
+      <c r="BI171">
+        <v>1.33</v>
+      </c>
+      <c r="BJ171">
+        <v>2.93</v>
+      </c>
+      <c r="BK171">
+        <v>1.91</v>
+      </c>
+      <c r="BL171">
+        <v>2.17</v>
+      </c>
+      <c r="BM171">
+        <v>2</v>
+      </c>
+      <c r="BN171">
+        <v>1.8</v>
+      </c>
+      <c r="BO171">
+        <v>2.57</v>
+      </c>
+      <c r="BP171">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="172" spans="1:68">
+      <c r="A172" s="1">
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>7380503</v>
+      </c>
+      <c r="C172" t="s">
+        <v>68</v>
+      </c>
+      <c r="D172" t="s">
+        <v>69</v>
+      </c>
+      <c r="E172" s="2">
+        <v>45500.70833333334</v>
+      </c>
+      <c r="F172">
+        <v>18</v>
+      </c>
+      <c r="G172" t="s">
+        <v>87</v>
+      </c>
+      <c r="H172" t="s">
+        <v>73</v>
+      </c>
+      <c r="I172">
+        <v>0</v>
+      </c>
+      <c r="J172">
+        <v>0</v>
+      </c>
+      <c r="K172">
+        <v>0</v>
+      </c>
+      <c r="L172">
+        <v>1</v>
+      </c>
+      <c r="M172">
+        <v>0</v>
+      </c>
+      <c r="N172">
+        <v>1</v>
+      </c>
+      <c r="O172" t="s">
+        <v>168</v>
+      </c>
+      <c r="P172" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q172">
+        <v>2.38</v>
+      </c>
+      <c r="R172">
+        <v>2.05</v>
+      </c>
+      <c r="S172">
+        <v>6</v>
+      </c>
+      <c r="T172">
+        <v>1.5</v>
+      </c>
+      <c r="U172">
+        <v>2.5</v>
+      </c>
+      <c r="V172">
+        <v>3.5</v>
+      </c>
+      <c r="W172">
+        <v>1.29</v>
+      </c>
+      <c r="X172">
+        <v>11</v>
+      </c>
+      <c r="Y172">
+        <v>1.05</v>
+      </c>
+      <c r="Z172">
+        <v>1.67</v>
+      </c>
+      <c r="AA172">
+        <v>3.3</v>
+      </c>
+      <c r="AB172">
+        <v>5.75</v>
+      </c>
+      <c r="AC172">
+        <v>1.09</v>
+      </c>
+      <c r="AD172">
+        <v>7</v>
+      </c>
+      <c r="AE172">
+        <v>1.6</v>
+      </c>
+      <c r="AF172">
+        <v>2.2</v>
+      </c>
+      <c r="AG172">
+        <v>2.3</v>
+      </c>
+      <c r="AH172">
+        <v>1.6</v>
+      </c>
+      <c r="AI172">
+        <v>2.2</v>
+      </c>
+      <c r="AJ172">
+        <v>1.62</v>
+      </c>
+      <c r="AK172">
+        <v>1.14</v>
+      </c>
+      <c r="AL172">
+        <v>1.25</v>
+      </c>
+      <c r="AM172">
+        <v>2.1</v>
+      </c>
+      <c r="AN172">
+        <v>1.89</v>
+      </c>
+      <c r="AO172">
+        <v>1.22</v>
+      </c>
+      <c r="AP172">
+        <v>2</v>
+      </c>
+      <c r="AQ172">
+        <v>1.1</v>
+      </c>
+      <c r="AR172">
+        <v>1.74</v>
+      </c>
+      <c r="AS172">
+        <v>1.12</v>
+      </c>
+      <c r="AT172">
+        <v>2.86</v>
+      </c>
+      <c r="AU172">
+        <v>5</v>
+      </c>
+      <c r="AV172">
+        <v>6</v>
+      </c>
+      <c r="AW172">
+        <v>11</v>
+      </c>
+      <c r="AX172">
+        <v>4</v>
+      </c>
+      <c r="AY172">
+        <v>16</v>
+      </c>
+      <c r="AZ172">
+        <v>10</v>
+      </c>
+      <c r="BA172">
+        <v>6</v>
+      </c>
+      <c r="BB172">
+        <v>2</v>
+      </c>
+      <c r="BC172">
+        <v>8</v>
+      </c>
+      <c r="BD172">
+        <v>1.43</v>
+      </c>
+      <c r="BE172">
+        <v>9.9</v>
+      </c>
+      <c r="BF172">
+        <v>3.44</v>
+      </c>
+      <c r="BG172">
+        <v>1.15</v>
+      </c>
+      <c r="BH172">
+        <v>4.75</v>
+      </c>
+      <c r="BI172">
+        <v>1.24</v>
+      </c>
+      <c r="BJ172">
+        <v>3.48</v>
+      </c>
+      <c r="BK172">
+        <v>1.44</v>
+      </c>
+      <c r="BL172">
+        <v>2.5</v>
+      </c>
+      <c r="BM172">
+        <v>1.82</v>
+      </c>
+      <c r="BN172">
+        <v>1.98</v>
+      </c>
+      <c r="BO172">
+        <v>2.21</v>
+      </c>
+      <c r="BP172">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="173" spans="1:68">
+      <c r="A173" s="1">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>7380505</v>
+      </c>
+      <c r="C173" t="s">
+        <v>68</v>
+      </c>
+      <c r="D173" t="s">
+        <v>69</v>
+      </c>
+      <c r="E173" s="2">
+        <v>45500.75</v>
+      </c>
+      <c r="F173">
+        <v>18</v>
+      </c>
+      <c r="G173" t="s">
+        <v>81</v>
+      </c>
+      <c r="H173" t="s">
+        <v>77</v>
+      </c>
+      <c r="I173">
+        <v>1</v>
+      </c>
+      <c r="J173">
+        <v>1</v>
+      </c>
+      <c r="K173">
+        <v>2</v>
+      </c>
+      <c r="L173">
+        <v>3</v>
+      </c>
+      <c r="M173">
+        <v>1</v>
+      </c>
+      <c r="N173">
+        <v>4</v>
+      </c>
+      <c r="O173" t="s">
+        <v>202</v>
+      </c>
+      <c r="P173" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q173">
+        <v>2.1</v>
+      </c>
+      <c r="R173">
+        <v>2.2</v>
+      </c>
+      <c r="S173">
+        <v>6.5</v>
+      </c>
+      <c r="T173">
+        <v>1.44</v>
+      </c>
+      <c r="U173">
+        <v>2.63</v>
+      </c>
+      <c r="V173">
+        <v>3.25</v>
+      </c>
+      <c r="W173">
+        <v>1.33</v>
+      </c>
+      <c r="X173">
+        <v>10</v>
+      </c>
+      <c r="Y173">
+        <v>1.06</v>
+      </c>
+      <c r="Z173">
+        <v>1.53</v>
+      </c>
+      <c r="AA173">
+        <v>3.7</v>
+      </c>
+      <c r="AB173">
+        <v>8</v>
+      </c>
+      <c r="AC173">
+        <v>1.09</v>
+      </c>
+      <c r="AD173">
+        <v>7</v>
+      </c>
+      <c r="AE173">
+        <v>1.44</v>
+      </c>
+      <c r="AF173">
+        <v>2.75</v>
+      </c>
+      <c r="AG173">
+        <v>2.05</v>
+      </c>
+      <c r="AH173">
+        <v>1.75</v>
+      </c>
+      <c r="AI173">
+        <v>2.2</v>
+      </c>
+      <c r="AJ173">
+        <v>1.62</v>
+      </c>
+      <c r="AK173">
+        <v>1.2</v>
+      </c>
+      <c r="AL173">
+        <v>1.32</v>
+      </c>
+      <c r="AM173">
+        <v>1.65</v>
+      </c>
+      <c r="AN173">
+        <v>1.86</v>
+      </c>
+      <c r="AO173">
+        <v>0.44</v>
+      </c>
+      <c r="AP173">
+        <v>2</v>
+      </c>
+      <c r="AQ173">
+        <v>0.4</v>
+      </c>
+      <c r="AR173">
+        <v>1.42</v>
+      </c>
+      <c r="AS173">
+        <v>1.23</v>
+      </c>
+      <c r="AT173">
+        <v>2.65</v>
+      </c>
+      <c r="AU173">
+        <v>7</v>
+      </c>
+      <c r="AV173">
+        <v>7</v>
+      </c>
+      <c r="AW173">
+        <v>7</v>
+      </c>
+      <c r="AX173">
+        <v>9</v>
+      </c>
+      <c r="AY173">
+        <v>14</v>
+      </c>
+      <c r="AZ173">
+        <v>16</v>
+      </c>
+      <c r="BA173">
+        <v>4</v>
+      </c>
+      <c r="BB173">
+        <v>3</v>
+      </c>
+      <c r="BC173">
+        <v>7</v>
+      </c>
+      <c r="BD173">
+        <v>1.4</v>
+      </c>
+      <c r="BE173">
+        <v>11</v>
+      </c>
+      <c r="BF173">
+        <v>3.54</v>
+      </c>
+      <c r="BG173">
+        <v>1.14</v>
+      </c>
+      <c r="BH173">
+        <v>5.6</v>
+      </c>
+      <c r="BI173">
+        <v>1.25</v>
+      </c>
+      <c r="BJ173">
+        <v>3.7</v>
+      </c>
+      <c r="BK173">
+        <v>1.42</v>
+      </c>
+      <c r="BL173">
+        <v>2.7</v>
+      </c>
+      <c r="BM173">
+        <v>1.8</v>
+      </c>
+      <c r="BN173">
+        <v>2</v>
+      </c>
+      <c r="BO173">
+        <v>2.1</v>
+      </c>
+      <c r="BP173">
+        <v>1.7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="262">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -625,6 +625,9 @@
     <t>['25', '84', '90+9']</t>
   </si>
   <si>
+    <t>['7', '18']</t>
+  </si>
+  <si>
     <t>['31', '49', '69']</t>
   </si>
   <si>
@@ -791,6 +794,12 @@
   </si>
   <si>
     <t>['56', '88']</t>
+  </si>
+  <si>
+    <t>['5', '44']</t>
+  </si>
+  <si>
+    <t>['57']</t>
   </si>
 </sst>
 </file>
@@ -1152,7 +1161,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP173"/>
+  <dimension ref="A1:BP176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2441,7 +2450,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q7">
         <v>4.33</v>
@@ -2853,7 +2862,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -3265,7 +3274,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q11">
         <v>3.5</v>
@@ -3471,7 +3480,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q12">
         <v>3.6</v>
@@ -3883,7 +3892,7 @@
         <v>100</v>
       </c>
       <c r="P14" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q14">
         <v>4.75</v>
@@ -3964,7 +3973,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ14">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4089,7 +4098,7 @@
         <v>100</v>
       </c>
       <c r="P15" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4167,7 +4176,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AQ15">
         <v>1.1</v>
@@ -4373,7 +4382,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ16">
         <v>0.88</v>
@@ -4785,7 +4794,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AQ18">
         <v>1.56</v>
@@ -4994,7 +5003,7 @@
         <v>2</v>
       </c>
       <c r="AQ19">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5325,7 +5334,7 @@
         <v>106</v>
       </c>
       <c r="P21" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5406,7 +5415,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ21">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5943,7 +5952,7 @@
         <v>107</v>
       </c>
       <c r="P24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q24">
         <v>3.6</v>
@@ -6355,7 +6364,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6561,7 +6570,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q27">
         <v>4</v>
@@ -6767,7 +6776,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -7179,7 +7188,7 @@
         <v>112</v>
       </c>
       <c r="P30" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q30">
         <v>2.1</v>
@@ -7591,7 +7600,7 @@
         <v>113</v>
       </c>
       <c r="P32" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q32">
         <v>2.38</v>
@@ -7669,7 +7678,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AQ32">
         <v>0.67</v>
@@ -7797,7 +7806,7 @@
         <v>100</v>
       </c>
       <c r="P33" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -7878,7 +7887,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ33">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR33">
         <v>1.83</v>
@@ -8287,7 +8296,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ35">
         <v>1.1</v>
@@ -8699,7 +8708,7 @@
         <v>1</v>
       </c>
       <c r="AP37">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AQ37">
         <v>0.88</v>
@@ -8908,7 +8917,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ38">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR38">
         <v>1.12</v>
@@ -9033,7 +9042,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q39">
         <v>2</v>
@@ -9114,7 +9123,7 @@
         <v>2</v>
       </c>
       <c r="AQ39">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR39">
         <v>1.25</v>
@@ -9445,7 +9454,7 @@
         <v>120</v>
       </c>
       <c r="P41" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q41">
         <v>2.25</v>
@@ -9651,7 +9660,7 @@
         <v>121</v>
       </c>
       <c r="P42" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9857,7 +9866,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q43">
         <v>3.2</v>
@@ -10759,7 +10768,7 @@
         <v>0.5</v>
       </c>
       <c r="AP47">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AQ47">
         <v>0.67</v>
@@ -11093,7 +11102,7 @@
         <v>125</v>
       </c>
       <c r="P49" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -11174,7 +11183,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ49">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR49">
         <v>1.83</v>
@@ -11789,7 +11798,7 @@
         <v>0</v>
       </c>
       <c r="AP52">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ52">
         <v>0.67</v>
@@ -12535,7 +12544,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q56">
         <v>1.95</v>
@@ -12822,7 +12831,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ57">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR57">
         <v>1.24</v>
@@ -13028,7 +13037,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ58">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR58">
         <v>1.54</v>
@@ -13359,7 +13368,7 @@
         <v>118</v>
       </c>
       <c r="P60" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13437,7 +13446,7 @@
         <v>1</v>
       </c>
       <c r="AP60">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AQ60">
         <v>0.88</v>
@@ -13771,7 +13780,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q62">
         <v>3.4</v>
@@ -13849,10 +13858,10 @@
         <v>2</v>
       </c>
       <c r="AP62">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AQ62">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR62">
         <v>2.09</v>
@@ -14055,7 +14064,7 @@
         <v>0.33</v>
       </c>
       <c r="AP63">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AQ63">
         <v>1</v>
@@ -14389,7 +14398,7 @@
         <v>135</v>
       </c>
       <c r="P65" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q65">
         <v>2.38</v>
@@ -14470,7 +14479,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ65">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR65">
         <v>1.27</v>
@@ -15007,7 +15016,7 @@
         <v>100</v>
       </c>
       <c r="P68" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q68">
         <v>3.6</v>
@@ -16243,7 +16252,7 @@
         <v>90</v>
       </c>
       <c r="P74" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q74">
         <v>3.1</v>
@@ -16449,7 +16458,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -16861,7 +16870,7 @@
         <v>139</v>
       </c>
       <c r="P77" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q77">
         <v>2.2</v>
@@ -17685,7 +17694,7 @@
         <v>146</v>
       </c>
       <c r="P81" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q81">
         <v>2.05</v>
@@ -17891,7 +17900,7 @@
         <v>147</v>
       </c>
       <c r="P82" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q82">
         <v>4</v>
@@ -17972,7 +17981,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ82">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR82">
         <v>1.94</v>
@@ -18097,7 +18106,7 @@
         <v>100</v>
       </c>
       <c r="P83" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q83">
         <v>3.2</v>
@@ -18175,7 +18184,7 @@
         <v>1</v>
       </c>
       <c r="AP83">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AQ83">
         <v>1.22</v>
@@ -18303,7 +18312,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q84">
         <v>2.75</v>
@@ -18384,7 +18393,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ84">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR84">
         <v>1.29</v>
@@ -18793,7 +18802,7 @@
         <v>0.5</v>
       </c>
       <c r="AP86">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AQ86">
         <v>0.4</v>
@@ -18921,7 +18930,7 @@
         <v>150</v>
       </c>
       <c r="P87" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q87">
         <v>3.5</v>
@@ -19002,7 +19011,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ87">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR87">
         <v>1.41</v>
@@ -19826,7 +19835,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ91">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR91">
         <v>1.58</v>
@@ -19951,7 +19960,7 @@
         <v>153</v>
       </c>
       <c r="P92" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q92">
         <v>2.63</v>
@@ -20235,7 +20244,7 @@
         <v>0.25</v>
       </c>
       <c r="AP93">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AQ93">
         <v>0.38</v>
@@ -20569,7 +20578,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q95">
         <v>3.5</v>
@@ -21062,7 +21071,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ97">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR97">
         <v>1.19</v>
@@ -21187,7 +21196,7 @@
         <v>116</v>
       </c>
       <c r="P98" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q98">
         <v>3</v>
@@ -21599,7 +21608,7 @@
         <v>100</v>
       </c>
       <c r="P100" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q100">
         <v>3.5</v>
@@ -21805,7 +21814,7 @@
         <v>160</v>
       </c>
       <c r="P101" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q101">
         <v>2.6</v>
@@ -21883,7 +21892,7 @@
         <v>0</v>
       </c>
       <c r="AP101">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AQ101">
         <v>0.13</v>
@@ -23737,7 +23746,7 @@
         <v>0</v>
       </c>
       <c r="AP110">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ110">
         <v>0.25</v>
@@ -24152,7 +24161,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ112">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR112">
         <v>1.42</v>
@@ -24277,7 +24286,7 @@
         <v>167</v>
       </c>
       <c r="P113" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q113">
         <v>3.25</v>
@@ -24689,7 +24698,7 @@
         <v>169</v>
       </c>
       <c r="P115" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q115">
         <v>2.68</v>
@@ -24976,7 +24985,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ116">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR116">
         <v>1.38</v>
@@ -25101,7 +25110,7 @@
         <v>170</v>
       </c>
       <c r="P117" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q117">
         <v>2.38</v>
@@ -25179,7 +25188,7 @@
         <v>1.6</v>
       </c>
       <c r="AP117">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AQ117">
         <v>1.25</v>
@@ -25388,7 +25397,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ118">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR118">
         <v>1.51</v>
@@ -25719,7 +25728,7 @@
         <v>90</v>
       </c>
       <c r="P120" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q120">
         <v>2.4</v>
@@ -26131,7 +26140,7 @@
         <v>173</v>
       </c>
       <c r="P122" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q122">
         <v>1.95</v>
@@ -26543,7 +26552,7 @@
         <v>174</v>
       </c>
       <c r="P124" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q124">
         <v>2.75</v>
@@ -26749,7 +26758,7 @@
         <v>175</v>
       </c>
       <c r="P125" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q125">
         <v>3</v>
@@ -26827,7 +26836,7 @@
         <v>0.33</v>
       </c>
       <c r="AP125">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AQ125">
         <v>0.4</v>
@@ -27161,7 +27170,7 @@
         <v>176</v>
       </c>
       <c r="P127" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q127">
         <v>2.4</v>
@@ -27239,10 +27248,10 @@
         <v>0.33</v>
       </c>
       <c r="AP127">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ127">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR127">
         <v>1.71</v>
@@ -27367,7 +27376,7 @@
         <v>177</v>
       </c>
       <c r="P128" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q128">
         <v>2.75</v>
@@ -27573,7 +27582,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q129">
         <v>3.25</v>
@@ -27860,7 +27869,7 @@
         <v>2</v>
       </c>
       <c r="AQ130">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR130">
         <v>1.72</v>
@@ -28269,7 +28278,7 @@
         <v>1.57</v>
       </c>
       <c r="AP132">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AQ132">
         <v>1.22</v>
@@ -28397,7 +28406,7 @@
         <v>140</v>
       </c>
       <c r="P133" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q133">
         <v>2.25</v>
@@ -28603,7 +28612,7 @@
         <v>96</v>
       </c>
       <c r="P134" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q134">
         <v>2.5</v>
@@ -28809,7 +28818,7 @@
         <v>180</v>
       </c>
       <c r="P135" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q135">
         <v>3.5</v>
@@ -29093,7 +29102,7 @@
         <v>1.33</v>
       </c>
       <c r="AP136">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AQ136">
         <v>1.5</v>
@@ -29221,7 +29230,7 @@
         <v>100</v>
       </c>
       <c r="P137" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q137">
         <v>2.75</v>
@@ -29427,7 +29436,7 @@
         <v>181</v>
       </c>
       <c r="P138" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q138">
         <v>3</v>
@@ -29839,7 +29848,7 @@
         <v>182</v>
       </c>
       <c r="P140" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q140">
         <v>3.75</v>
@@ -30045,7 +30054,7 @@
         <v>100</v>
       </c>
       <c r="P141" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q141">
         <v>3</v>
@@ -30251,7 +30260,7 @@
         <v>183</v>
       </c>
       <c r="P142" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q142">
         <v>3.2</v>
@@ -30332,7 +30341,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ142">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR142">
         <v>1.18</v>
@@ -30457,7 +30466,7 @@
         <v>152</v>
       </c>
       <c r="P143" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q143">
         <v>2.5</v>
@@ -30947,7 +30956,7 @@
         <v>0.5</v>
       </c>
       <c r="AP145">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ145">
         <v>0.38</v>
@@ -31075,7 +31084,7 @@
         <v>186</v>
       </c>
       <c r="P146" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q146">
         <v>3.1</v>
@@ -31362,7 +31371,7 @@
         <v>1</v>
       </c>
       <c r="AQ147">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR147">
         <v>1.5</v>
@@ -31693,7 +31702,7 @@
         <v>189</v>
       </c>
       <c r="P149" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q149">
         <v>2.5</v>
@@ -31771,7 +31780,7 @@
         <v>1.17</v>
       </c>
       <c r="AP149">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ149">
         <v>0.88</v>
@@ -32105,7 +32114,7 @@
         <v>191</v>
       </c>
       <c r="P151" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q151">
         <v>3.75</v>
@@ -32186,7 +32195,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ151">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR151">
         <v>1.32</v>
@@ -32598,7 +32607,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ153">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR153">
         <v>1.39</v>
@@ -33007,7 +33016,7 @@
         <v>0.86</v>
       </c>
       <c r="AP155">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AQ155">
         <v>0.88</v>
@@ -33213,7 +33222,7 @@
         <v>0.14</v>
       </c>
       <c r="AP156">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ156">
         <v>0.13</v>
@@ -33547,7 +33556,7 @@
         <v>194</v>
       </c>
       <c r="P158" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q158">
         <v>3.75</v>
@@ -33625,7 +33634,7 @@
         <v>0.63</v>
       </c>
       <c r="AP158">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AQ158">
         <v>0.89</v>
@@ -33753,7 +33762,7 @@
         <v>195</v>
       </c>
       <c r="P159" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q159">
         <v>3</v>
@@ -33834,7 +33843,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ159">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR159">
         <v>1.43</v>
@@ -35607,7 +35616,7 @@
         <v>200</v>
       </c>
       <c r="P168" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q168">
         <v>2.63</v>
@@ -35813,7 +35822,7 @@
         <v>201</v>
       </c>
       <c r="P169" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q169">
         <v>2.05</v>
@@ -36794,6 +36803,624 @@
       </c>
       <c r="BP173">
         <v>1.7</v>
+      </c>
+    </row>
+    <row r="174" spans="1:68">
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>7380497</v>
+      </c>
+      <c r="C174" t="s">
+        <v>68</v>
+      </c>
+      <c r="D174" t="s">
+        <v>69</v>
+      </c>
+      <c r="E174" s="2">
+        <v>45501.66666666666</v>
+      </c>
+      <c r="F174">
+        <v>18</v>
+      </c>
+      <c r="G174" t="s">
+        <v>83</v>
+      </c>
+      <c r="H174" t="s">
+        <v>79</v>
+      </c>
+      <c r="I174">
+        <v>0</v>
+      </c>
+      <c r="J174">
+        <v>0</v>
+      </c>
+      <c r="K174">
+        <v>0</v>
+      </c>
+      <c r="L174">
+        <v>1</v>
+      </c>
+      <c r="M174">
+        <v>0</v>
+      </c>
+      <c r="N174">
+        <v>1</v>
+      </c>
+      <c r="O174" t="s">
+        <v>140</v>
+      </c>
+      <c r="P174" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q174">
+        <v>2.75</v>
+      </c>
+      <c r="R174">
+        <v>1.91</v>
+      </c>
+      <c r="S174">
+        <v>5</v>
+      </c>
+      <c r="T174">
+        <v>1.5</v>
+      </c>
+      <c r="U174">
+        <v>2.5</v>
+      </c>
+      <c r="V174">
+        <v>3.4</v>
+      </c>
+      <c r="W174">
+        <v>1.3</v>
+      </c>
+      <c r="X174">
+        <v>10</v>
+      </c>
+      <c r="Y174">
+        <v>1.06</v>
+      </c>
+      <c r="Z174">
+        <v>1.95</v>
+      </c>
+      <c r="AA174">
+        <v>3.2</v>
+      </c>
+      <c r="AB174">
+        <v>4.1</v>
+      </c>
+      <c r="AC174">
+        <v>1.1</v>
+      </c>
+      <c r="AD174">
+        <v>6.5</v>
+      </c>
+      <c r="AE174">
+        <v>1.49</v>
+      </c>
+      <c r="AF174">
+        <v>2.48</v>
+      </c>
+      <c r="AG174">
+        <v>2.7</v>
+      </c>
+      <c r="AH174">
+        <v>1.44</v>
+      </c>
+      <c r="AI174">
+        <v>2.25</v>
+      </c>
+      <c r="AJ174">
+        <v>1.57</v>
+      </c>
+      <c r="AK174">
+        <v>1.33</v>
+      </c>
+      <c r="AL174">
+        <v>1.3</v>
+      </c>
+      <c r="AM174">
+        <v>1.55</v>
+      </c>
+      <c r="AN174">
+        <v>0.67</v>
+      </c>
+      <c r="AO174">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AP174">
+        <v>0.9</v>
+      </c>
+      <c r="AQ174">
+        <v>0.5</v>
+      </c>
+      <c r="AR174">
+        <v>1.76</v>
+      </c>
+      <c r="AS174">
+        <v>1.26</v>
+      </c>
+      <c r="AT174">
+        <v>3.02</v>
+      </c>
+      <c r="AU174">
+        <v>11</v>
+      </c>
+      <c r="AV174">
+        <v>3</v>
+      </c>
+      <c r="AW174">
+        <v>12</v>
+      </c>
+      <c r="AX174">
+        <v>2</v>
+      </c>
+      <c r="AY174">
+        <v>23</v>
+      </c>
+      <c r="AZ174">
+        <v>5</v>
+      </c>
+      <c r="BA174">
+        <v>5</v>
+      </c>
+      <c r="BB174">
+        <v>2</v>
+      </c>
+      <c r="BC174">
+        <v>7</v>
+      </c>
+      <c r="BD174">
+        <v>1.52</v>
+      </c>
+      <c r="BE174">
+        <v>8.6</v>
+      </c>
+      <c r="BF174">
+        <v>3.02</v>
+      </c>
+      <c r="BG174">
+        <v>1.18</v>
+      </c>
+      <c r="BH174">
+        <v>4.6</v>
+      </c>
+      <c r="BI174">
+        <v>1.33</v>
+      </c>
+      <c r="BJ174">
+        <v>3.05</v>
+      </c>
+      <c r="BK174">
+        <v>2</v>
+      </c>
+      <c r="BL174">
+        <v>2.25</v>
+      </c>
+      <c r="BM174">
+        <v>2.03</v>
+      </c>
+      <c r="BN174">
+        <v>1.7</v>
+      </c>
+      <c r="BO174">
+        <v>2.62</v>
+      </c>
+      <c r="BP174">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="175" spans="1:68">
+      <c r="A175" s="1">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>7380500</v>
+      </c>
+      <c r="C175" t="s">
+        <v>68</v>
+      </c>
+      <c r="D175" t="s">
+        <v>69</v>
+      </c>
+      <c r="E175" s="2">
+        <v>45501.77083333334</v>
+      </c>
+      <c r="F175">
+        <v>18</v>
+      </c>
+      <c r="G175" t="s">
+        <v>86</v>
+      </c>
+      <c r="H175" t="s">
+        <v>76</v>
+      </c>
+      <c r="I175">
+        <v>2</v>
+      </c>
+      <c r="J175">
+        <v>2</v>
+      </c>
+      <c r="K175">
+        <v>4</v>
+      </c>
+      <c r="L175">
+        <v>2</v>
+      </c>
+      <c r="M175">
+        <v>2</v>
+      </c>
+      <c r="N175">
+        <v>4</v>
+      </c>
+      <c r="O175" t="s">
+        <v>203</v>
+      </c>
+      <c r="P175" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q175">
+        <v>2.63</v>
+      </c>
+      <c r="R175">
+        <v>2</v>
+      </c>
+      <c r="S175">
+        <v>4.75</v>
+      </c>
+      <c r="T175">
+        <v>1.5</v>
+      </c>
+      <c r="U175">
+        <v>2.5</v>
+      </c>
+      <c r="V175">
+        <v>3.4</v>
+      </c>
+      <c r="W175">
+        <v>1.3</v>
+      </c>
+      <c r="X175">
+        <v>10</v>
+      </c>
+      <c r="Y175">
+        <v>1.06</v>
+      </c>
+      <c r="Z175">
+        <v>1.91</v>
+      </c>
+      <c r="AA175">
+        <v>3.4</v>
+      </c>
+      <c r="AB175">
+        <v>4</v>
+      </c>
+      <c r="AC175">
+        <v>1.07</v>
+      </c>
+      <c r="AD175">
+        <v>8</v>
+      </c>
+      <c r="AE175">
+        <v>1.42</v>
+      </c>
+      <c r="AF175">
+        <v>2.8</v>
+      </c>
+      <c r="AG175">
+        <v>2.35</v>
+      </c>
+      <c r="AH175">
+        <v>1.57</v>
+      </c>
+      <c r="AI175">
+        <v>2.1</v>
+      </c>
+      <c r="AJ175">
+        <v>1.67</v>
+      </c>
+      <c r="AK175">
+        <v>1.3</v>
+      </c>
+      <c r="AL175">
+        <v>1.28</v>
+      </c>
+      <c r="AM175">
+        <v>1.7</v>
+      </c>
+      <c r="AN175">
+        <v>2.33</v>
+      </c>
+      <c r="AO175">
+        <v>0.88</v>
+      </c>
+      <c r="AP175">
+        <v>2.2</v>
+      </c>
+      <c r="AQ175">
+        <v>0.89</v>
+      </c>
+      <c r="AR175">
+        <v>1.71</v>
+      </c>
+      <c r="AS175">
+        <v>1.48</v>
+      </c>
+      <c r="AT175">
+        <v>3.19</v>
+      </c>
+      <c r="AU175">
+        <v>5</v>
+      </c>
+      <c r="AV175">
+        <v>7</v>
+      </c>
+      <c r="AW175">
+        <v>6</v>
+      </c>
+      <c r="AX175">
+        <v>3</v>
+      </c>
+      <c r="AY175">
+        <v>11</v>
+      </c>
+      <c r="AZ175">
+        <v>10</v>
+      </c>
+      <c r="BA175">
+        <v>2</v>
+      </c>
+      <c r="BB175">
+        <v>4</v>
+      </c>
+      <c r="BC175">
+        <v>6</v>
+      </c>
+      <c r="BD175">
+        <v>1.6</v>
+      </c>
+      <c r="BE175">
+        <v>6.9</v>
+      </c>
+      <c r="BF175">
+        <v>2.98</v>
+      </c>
+      <c r="BG175">
+        <v>1.19</v>
+      </c>
+      <c r="BH175">
+        <v>4.5</v>
+      </c>
+      <c r="BI175">
+        <v>1.35</v>
+      </c>
+      <c r="BJ175">
+        <v>3.05</v>
+      </c>
+      <c r="BK175">
+        <v>2</v>
+      </c>
+      <c r="BL175">
+        <v>2.2</v>
+      </c>
+      <c r="BM175">
+        <v>2.05</v>
+      </c>
+      <c r="BN175">
+        <v>1.72</v>
+      </c>
+      <c r="BO175">
+        <v>2.75</v>
+      </c>
+      <c r="BP175">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="176" spans="1:68">
+      <c r="A176" s="1">
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>7380502</v>
+      </c>
+      <c r="C176" t="s">
+        <v>68</v>
+      </c>
+      <c r="D176" t="s">
+        <v>69</v>
+      </c>
+      <c r="E176" s="2">
+        <v>45501.77083333334</v>
+      </c>
+      <c r="F176">
+        <v>18</v>
+      </c>
+      <c r="G176" t="s">
+        <v>84</v>
+      </c>
+      <c r="H176" t="s">
+        <v>74</v>
+      </c>
+      <c r="I176">
+        <v>0</v>
+      </c>
+      <c r="J176">
+        <v>0</v>
+      </c>
+      <c r="K176">
+        <v>0</v>
+      </c>
+      <c r="L176">
+        <v>1</v>
+      </c>
+      <c r="M176">
+        <v>1</v>
+      </c>
+      <c r="N176">
+        <v>2</v>
+      </c>
+      <c r="O176" t="s">
+        <v>169</v>
+      </c>
+      <c r="P176" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q176">
+        <v>4</v>
+      </c>
+      <c r="R176">
+        <v>1.91</v>
+      </c>
+      <c r="S176">
+        <v>3.4</v>
+      </c>
+      <c r="T176">
+        <v>1.44</v>
+      </c>
+      <c r="U176">
+        <v>2.63</v>
+      </c>
+      <c r="V176">
+        <v>3.25</v>
+      </c>
+      <c r="W176">
+        <v>1.33</v>
+      </c>
+      <c r="X176">
+        <v>10</v>
+      </c>
+      <c r="Y176">
+        <v>1.06</v>
+      </c>
+      <c r="Z176">
+        <v>3.4</v>
+      </c>
+      <c r="AA176">
+        <v>2.8</v>
+      </c>
+      <c r="AB176">
+        <v>2.5</v>
+      </c>
+      <c r="AC176">
+        <v>1.07</v>
+      </c>
+      <c r="AD176">
+        <v>8</v>
+      </c>
+      <c r="AE176">
+        <v>1.38</v>
+      </c>
+      <c r="AF176">
+        <v>2.95</v>
+      </c>
+      <c r="AG176">
+        <v>2.7</v>
+      </c>
+      <c r="AH176">
+        <v>1.44</v>
+      </c>
+      <c r="AI176">
+        <v>2.2</v>
+      </c>
+      <c r="AJ176">
+        <v>1.62</v>
+      </c>
+      <c r="AK176">
+        <v>1.45</v>
+      </c>
+      <c r="AL176">
+        <v>1.3</v>
+      </c>
+      <c r="AM176">
+        <v>1.45</v>
+      </c>
+      <c r="AN176">
+        <v>2.5</v>
+      </c>
+      <c r="AO176">
+        <v>1.22</v>
+      </c>
+      <c r="AP176">
+        <v>2.33</v>
+      </c>
+      <c r="AQ176">
+        <v>1.2</v>
+      </c>
+      <c r="AR176">
+        <v>1.52</v>
+      </c>
+      <c r="AS176">
+        <v>1.27</v>
+      </c>
+      <c r="AT176">
+        <v>2.79</v>
+      </c>
+      <c r="AU176">
+        <v>5</v>
+      </c>
+      <c r="AV176">
+        <v>7</v>
+      </c>
+      <c r="AW176">
+        <v>4</v>
+      </c>
+      <c r="AX176">
+        <v>5</v>
+      </c>
+      <c r="AY176">
+        <v>9</v>
+      </c>
+      <c r="AZ176">
+        <v>12</v>
+      </c>
+      <c r="BA176">
+        <v>6</v>
+      </c>
+      <c r="BB176">
+        <v>5</v>
+      </c>
+      <c r="BC176">
+        <v>11</v>
+      </c>
+      <c r="BD176">
+        <v>2.21</v>
+      </c>
+      <c r="BE176">
+        <v>6.45</v>
+      </c>
+      <c r="BF176">
+        <v>2.01</v>
+      </c>
+      <c r="BG176">
+        <v>1.28</v>
+      </c>
+      <c r="BH176">
+        <v>3.5</v>
+      </c>
+      <c r="BI176">
+        <v>1.5</v>
+      </c>
+      <c r="BJ176">
+        <v>2.43</v>
+      </c>
+      <c r="BK176">
+        <v>2.38</v>
+      </c>
+      <c r="BL176">
+        <v>1.9</v>
+      </c>
+      <c r="BM176">
+        <v>2.5</v>
+      </c>
+      <c r="BN176">
+        <v>1.49</v>
+      </c>
+      <c r="BO176">
+        <v>3.45</v>
+      </c>
+      <c r="BP176">
+        <v>1.28</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="263">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -801,6 +801,9 @@
   <si>
     <t>['57']</t>
   </si>
+  <si>
+    <t>['45+4', '83', '90+6']</t>
+  </si>
 </sst>
 </file>
 
@@ -1161,7 +1164,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP176"/>
+  <dimension ref="A1:BP177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4588,7 +4591,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ17">
         <v>0.88</v>
@@ -4797,7 +4800,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ18">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5618,7 +5621,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ22">
         <v>1.25</v>
@@ -6445,7 +6448,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ26">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR26">
         <v>1.2</v>
@@ -9947,7 +9950,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ43">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR43">
         <v>1.32</v>
@@ -11386,7 +11389,7 @@
         <v>2</v>
       </c>
       <c r="AP50">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ50">
         <v>0.89</v>
@@ -15097,7 +15100,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ68">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR68">
         <v>1.37</v>
@@ -16127,7 +16130,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ73">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR73">
         <v>1.23</v>
@@ -17566,7 +17569,7 @@
         <v>1.67</v>
       </c>
       <c r="AP80">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ80">
         <v>0.88</v>
@@ -20453,7 +20456,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ94">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR94">
         <v>1.57</v>
@@ -22304,7 +22307,7 @@
         <v>0.2</v>
       </c>
       <c r="AP103">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ103">
         <v>0.38</v>
@@ -24779,7 +24782,7 @@
         <v>2</v>
       </c>
       <c r="AQ115">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR115">
         <v>1.4</v>
@@ -26630,7 +26633,7 @@
         <v>1.67</v>
       </c>
       <c r="AP124">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ124">
         <v>1.22</v>
@@ -29311,7 +29314,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ137">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR137">
         <v>1.46</v>
@@ -30338,7 +30341,7 @@
         <v>0.67</v>
       </c>
       <c r="AP142">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ142">
         <v>0.89</v>
@@ -33428,7 +33431,7 @@
         <v>0.5</v>
       </c>
       <c r="AP157">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ157">
         <v>0.4</v>
@@ -34461,7 +34464,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ162">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR162">
         <v>1.54</v>
@@ -37421,6 +37424,212 @@
       </c>
       <c r="BP176">
         <v>1.28</v>
+      </c>
+    </row>
+    <row r="177" spans="1:68">
+      <c r="A177" s="1">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>7380504</v>
+      </c>
+      <c r="C177" t="s">
+        <v>68</v>
+      </c>
+      <c r="D177" t="s">
+        <v>69</v>
+      </c>
+      <c r="E177" s="2">
+        <v>45502.77083333334</v>
+      </c>
+      <c r="F177">
+        <v>18</v>
+      </c>
+      <c r="G177" t="s">
+        <v>85</v>
+      </c>
+      <c r="H177" t="s">
+        <v>71</v>
+      </c>
+      <c r="I177">
+        <v>1</v>
+      </c>
+      <c r="J177">
+        <v>1</v>
+      </c>
+      <c r="K177">
+        <v>2</v>
+      </c>
+      <c r="L177">
+        <v>1</v>
+      </c>
+      <c r="M177">
+        <v>3</v>
+      </c>
+      <c r="N177">
+        <v>4</v>
+      </c>
+      <c r="O177" t="s">
+        <v>155</v>
+      </c>
+      <c r="P177" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q177">
+        <v>2.88</v>
+      </c>
+      <c r="R177">
+        <v>1.91</v>
+      </c>
+      <c r="S177">
+        <v>4.75</v>
+      </c>
+      <c r="T177">
+        <v>1.57</v>
+      </c>
+      <c r="U177">
+        <v>2.25</v>
+      </c>
+      <c r="V177">
+        <v>3.75</v>
+      </c>
+      <c r="W177">
+        <v>1.25</v>
+      </c>
+      <c r="X177">
+        <v>13</v>
+      </c>
+      <c r="Y177">
+        <v>1.04</v>
+      </c>
+      <c r="Z177">
+        <v>2.1</v>
+      </c>
+      <c r="AA177">
+        <v>3</v>
+      </c>
+      <c r="AB177">
+        <v>4</v>
+      </c>
+      <c r="AC177">
+        <v>1.11</v>
+      </c>
+      <c r="AD177">
+        <v>6.25</v>
+      </c>
+      <c r="AE177">
+        <v>1.55</v>
+      </c>
+      <c r="AF177">
+        <v>2.3</v>
+      </c>
+      <c r="AG177">
+        <v>2.7</v>
+      </c>
+      <c r="AH177">
+        <v>1.44</v>
+      </c>
+      <c r="AI177">
+        <v>2.2</v>
+      </c>
+      <c r="AJ177">
+        <v>1.62</v>
+      </c>
+      <c r="AK177">
+        <v>1.25</v>
+      </c>
+      <c r="AL177">
+        <v>1.3</v>
+      </c>
+      <c r="AM177">
+        <v>1.7</v>
+      </c>
+      <c r="AN177">
+        <v>1.75</v>
+      </c>
+      <c r="AO177">
+        <v>1.56</v>
+      </c>
+      <c r="AP177">
+        <v>1.56</v>
+      </c>
+      <c r="AQ177">
+        <v>1.7</v>
+      </c>
+      <c r="AR177">
+        <v>1.36</v>
+      </c>
+      <c r="AS177">
+        <v>1.22</v>
+      </c>
+      <c r="AT177">
+        <v>2.58</v>
+      </c>
+      <c r="AU177">
+        <v>8</v>
+      </c>
+      <c r="AV177">
+        <v>5</v>
+      </c>
+      <c r="AW177">
+        <v>6</v>
+      </c>
+      <c r="AX177">
+        <v>5</v>
+      </c>
+      <c r="AY177">
+        <v>14</v>
+      </c>
+      <c r="AZ177">
+        <v>10</v>
+      </c>
+      <c r="BA177">
+        <v>10</v>
+      </c>
+      <c r="BB177">
+        <v>2</v>
+      </c>
+      <c r="BC177">
+        <v>12</v>
+      </c>
+      <c r="BD177">
+        <v>1.52</v>
+      </c>
+      <c r="BE177">
+        <v>9</v>
+      </c>
+      <c r="BF177">
+        <v>2.97</v>
+      </c>
+      <c r="BG177">
+        <v>1.2</v>
+      </c>
+      <c r="BH177">
+        <v>4.3</v>
+      </c>
+      <c r="BI177">
+        <v>1.34</v>
+      </c>
+      <c r="BJ177">
+        <v>2.88</v>
+      </c>
+      <c r="BK177">
+        <v>2.1</v>
+      </c>
+      <c r="BL177">
+        <v>2.12</v>
+      </c>
+      <c r="BM177">
+        <v>2.03</v>
+      </c>
+      <c r="BN177">
+        <v>1.7</v>
+      </c>
+      <c r="BO177">
+        <v>2.64</v>
+      </c>
+      <c r="BP177">
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="265">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -628,6 +628,9 @@
     <t>['7', '18']</t>
   </si>
   <si>
+    <t>['83']</t>
+  </si>
+  <si>
     <t>['31', '49', '69']</t>
   </si>
   <si>
@@ -803,6 +806,9 @@
   </si>
   <si>
     <t>['45+4', '83', '90+6']</t>
+  </si>
+  <si>
+    <t>['90+8']</t>
   </si>
 </sst>
 </file>
@@ -1164,7 +1170,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP177"/>
+  <dimension ref="A1:BP178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2453,7 +2459,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q7">
         <v>4.33</v>
@@ -2865,7 +2871,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -3277,7 +3283,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q11">
         <v>3.5</v>
@@ -3483,7 +3489,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q12">
         <v>3.6</v>
@@ -3895,7 +3901,7 @@
         <v>100</v>
       </c>
       <c r="P14" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q14">
         <v>4.75</v>
@@ -3973,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ14">
         <v>1.2</v>
@@ -4101,7 +4107,7 @@
         <v>100</v>
       </c>
       <c r="P15" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4594,7 +4600,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ17">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -5337,7 +5343,7 @@
         <v>106</v>
       </c>
       <c r="P21" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5955,7 +5961,7 @@
         <v>107</v>
       </c>
       <c r="P24" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q24">
         <v>3.6</v>
@@ -6367,7 +6373,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6573,7 +6579,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q27">
         <v>4</v>
@@ -6779,7 +6785,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -7191,7 +7197,7 @@
         <v>112</v>
       </c>
       <c r="P30" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q30">
         <v>2.1</v>
@@ -7603,7 +7609,7 @@
         <v>113</v>
       </c>
       <c r="P32" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q32">
         <v>2.38</v>
@@ -7809,7 +7815,7 @@
         <v>100</v>
       </c>
       <c r="P33" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -8714,7 +8720,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ37">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR37">
         <v>3.34</v>
@@ -9045,7 +9051,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q39">
         <v>2</v>
@@ -9329,7 +9335,7 @@
         <v>1</v>
       </c>
       <c r="AP40">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ40">
         <v>0.38</v>
@@ -9457,7 +9463,7 @@
         <v>120</v>
       </c>
       <c r="P41" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q41">
         <v>2.25</v>
@@ -9663,7 +9669,7 @@
         <v>121</v>
       </c>
       <c r="P42" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9741,7 +9747,7 @@
         <v>0.5</v>
       </c>
       <c r="AP42">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ42">
         <v>0.38</v>
@@ -9869,7 +9875,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q43">
         <v>3.2</v>
@@ -11105,7 +11111,7 @@
         <v>125</v>
       </c>
       <c r="P49" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -12422,7 +12428,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ55">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR55">
         <v>1.77</v>
@@ -12547,7 +12553,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q56">
         <v>1.95</v>
@@ -13371,7 +13377,7 @@
         <v>118</v>
       </c>
       <c r="P60" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13783,7 +13789,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q62">
         <v>3.4</v>
@@ -14401,7 +14407,7 @@
         <v>135</v>
       </c>
       <c r="P65" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q65">
         <v>2.38</v>
@@ -15019,7 +15025,7 @@
         <v>100</v>
       </c>
       <c r="P68" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q68">
         <v>3.6</v>
@@ -15303,7 +15309,7 @@
         <v>1.67</v>
       </c>
       <c r="AP69">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ69">
         <v>0.89</v>
@@ -16255,7 +16261,7 @@
         <v>90</v>
       </c>
       <c r="P74" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q74">
         <v>3.1</v>
@@ -16461,7 +16467,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -16873,7 +16879,7 @@
         <v>139</v>
       </c>
       <c r="P77" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q77">
         <v>2.2</v>
@@ -16954,7 +16960,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ77">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR77">
         <v>1.71</v>
@@ -17697,7 +17703,7 @@
         <v>146</v>
       </c>
       <c r="P81" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q81">
         <v>2.05</v>
@@ -17903,7 +17909,7 @@
         <v>147</v>
       </c>
       <c r="P82" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q82">
         <v>4</v>
@@ -18109,7 +18115,7 @@
         <v>100</v>
       </c>
       <c r="P83" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q83">
         <v>3.2</v>
@@ -18315,7 +18321,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q84">
         <v>2.75</v>
@@ -18599,7 +18605,7 @@
         <v>1</v>
       </c>
       <c r="AP85">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ85">
         <v>1.1</v>
@@ -18933,7 +18939,7 @@
         <v>150</v>
       </c>
       <c r="P87" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q87">
         <v>3.5</v>
@@ -19963,7 +19969,7 @@
         <v>153</v>
       </c>
       <c r="P92" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q92">
         <v>2.63</v>
@@ -20041,7 +20047,7 @@
         <v>0</v>
       </c>
       <c r="AP92">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ92">
         <v>0.25</v>
@@ -20581,7 +20587,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q95">
         <v>3.5</v>
@@ -21199,7 +21205,7 @@
         <v>116</v>
       </c>
       <c r="P98" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q98">
         <v>3</v>
@@ -21611,7 +21617,7 @@
         <v>100</v>
       </c>
       <c r="P100" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q100">
         <v>3.5</v>
@@ -21817,7 +21823,7 @@
         <v>160</v>
       </c>
       <c r="P101" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q101">
         <v>2.6</v>
@@ -23958,7 +23964,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ111">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR111">
         <v>1.48</v>
@@ -24289,7 +24295,7 @@
         <v>167</v>
       </c>
       <c r="P113" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q113">
         <v>3.25</v>
@@ -24701,7 +24707,7 @@
         <v>169</v>
       </c>
       <c r="P115" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q115">
         <v>2.68</v>
@@ -25113,7 +25119,7 @@
         <v>170</v>
       </c>
       <c r="P117" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q117">
         <v>2.38</v>
@@ -25731,7 +25737,7 @@
         <v>90</v>
       </c>
       <c r="P120" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q120">
         <v>2.4</v>
@@ -26143,7 +26149,7 @@
         <v>173</v>
       </c>
       <c r="P122" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q122">
         <v>1.95</v>
@@ -26427,7 +26433,7 @@
         <v>0.4</v>
       </c>
       <c r="AP123">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ123">
         <v>0.88</v>
@@ -26555,7 +26561,7 @@
         <v>174</v>
       </c>
       <c r="P124" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q124">
         <v>2.75</v>
@@ -26761,7 +26767,7 @@
         <v>175</v>
       </c>
       <c r="P125" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q125">
         <v>3</v>
@@ -27173,7 +27179,7 @@
         <v>176</v>
       </c>
       <c r="P127" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q127">
         <v>2.4</v>
@@ -27379,7 +27385,7 @@
         <v>177</v>
       </c>
       <c r="P128" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q128">
         <v>2.75</v>
@@ -27585,7 +27591,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q129">
         <v>3.25</v>
@@ -28409,7 +28415,7 @@
         <v>140</v>
       </c>
       <c r="P133" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q133">
         <v>2.25</v>
@@ -28615,7 +28621,7 @@
         <v>96</v>
       </c>
       <c r="P134" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q134">
         <v>2.5</v>
@@ -28821,7 +28827,7 @@
         <v>180</v>
       </c>
       <c r="P135" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q135">
         <v>3.5</v>
@@ -28902,7 +28908,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ135">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR135">
         <v>1.41</v>
@@ -29233,7 +29239,7 @@
         <v>100</v>
       </c>
       <c r="P137" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q137">
         <v>2.75</v>
@@ -29311,7 +29317,7 @@
         <v>1.43</v>
       </c>
       <c r="AP137">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ137">
         <v>1.7</v>
@@ -29439,7 +29445,7 @@
         <v>181</v>
       </c>
       <c r="P138" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q138">
         <v>3</v>
@@ -29851,7 +29857,7 @@
         <v>182</v>
       </c>
       <c r="P140" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q140">
         <v>3.75</v>
@@ -30057,7 +30063,7 @@
         <v>100</v>
       </c>
       <c r="P141" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q141">
         <v>3</v>
@@ -30263,7 +30269,7 @@
         <v>183</v>
       </c>
       <c r="P142" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q142">
         <v>3.2</v>
@@ -30469,7 +30475,7 @@
         <v>152</v>
       </c>
       <c r="P143" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q143">
         <v>2.5</v>
@@ -31087,7 +31093,7 @@
         <v>186</v>
       </c>
       <c r="P146" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q146">
         <v>3.1</v>
@@ -31705,7 +31711,7 @@
         <v>189</v>
       </c>
       <c r="P149" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q149">
         <v>2.5</v>
@@ -31786,7 +31792,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ149">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR149">
         <v>1.56</v>
@@ -32117,7 +32123,7 @@
         <v>191</v>
       </c>
       <c r="P151" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q151">
         <v>3.75</v>
@@ -32607,7 +32613,7 @@
         <v>0.57</v>
       </c>
       <c r="AP153">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ153">
         <v>0.89</v>
@@ -33559,7 +33565,7 @@
         <v>194</v>
       </c>
       <c r="P158" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q158">
         <v>3.75</v>
@@ -33765,7 +33771,7 @@
         <v>195</v>
       </c>
       <c r="P159" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q159">
         <v>3</v>
@@ -35619,7 +35625,7 @@
         <v>200</v>
       </c>
       <c r="P168" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q168">
         <v>2.63</v>
@@ -35825,7 +35831,7 @@
         <v>201</v>
       </c>
       <c r="P169" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q169">
         <v>2.05</v>
@@ -35906,7 +35912,7 @@
         <v>2</v>
       </c>
       <c r="AQ169">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR169">
         <v>1.76</v>
@@ -37061,7 +37067,7 @@
         <v>203</v>
       </c>
       <c r="P175" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q175">
         <v>2.63</v>
@@ -37267,7 +37273,7 @@
         <v>169</v>
       </c>
       <c r="P176" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q176">
         <v>4</v>
@@ -37473,7 +37479,7 @@
         <v>155</v>
       </c>
       <c r="P177" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q177">
         <v>2.88</v>
@@ -37630,6 +37636,212 @@
       </c>
       <c r="BP177">
         <v>1.4</v>
+      </c>
+    </row>
+    <row r="178" spans="1:68">
+      <c r="A178" s="1">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>7380501</v>
+      </c>
+      <c r="C178" t="s">
+        <v>68</v>
+      </c>
+      <c r="D178" t="s">
+        <v>69</v>
+      </c>
+      <c r="E178" s="2">
+        <v>45503.875</v>
+      </c>
+      <c r="F178">
+        <v>18</v>
+      </c>
+      <c r="G178" t="s">
+        <v>82</v>
+      </c>
+      <c r="H178" t="s">
+        <v>70</v>
+      </c>
+      <c r="I178">
+        <v>0</v>
+      </c>
+      <c r="J178">
+        <v>0</v>
+      </c>
+      <c r="K178">
+        <v>0</v>
+      </c>
+      <c r="L178">
+        <v>1</v>
+      </c>
+      <c r="M178">
+        <v>1</v>
+      </c>
+      <c r="N178">
+        <v>2</v>
+      </c>
+      <c r="O178" t="s">
+        <v>204</v>
+      </c>
+      <c r="P178" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q178">
+        <v>2.5</v>
+      </c>
+      <c r="R178">
+        <v>1.91</v>
+      </c>
+      <c r="S178">
+        <v>6</v>
+      </c>
+      <c r="T178">
+        <v>1.57</v>
+      </c>
+      <c r="U178">
+        <v>2.25</v>
+      </c>
+      <c r="V178">
+        <v>3.75</v>
+      </c>
+      <c r="W178">
+        <v>1.25</v>
+      </c>
+      <c r="X178">
+        <v>13</v>
+      </c>
+      <c r="Y178">
+        <v>1.04</v>
+      </c>
+      <c r="Z178">
+        <v>1.73</v>
+      </c>
+      <c r="AA178">
+        <v>3.1</v>
+      </c>
+      <c r="AB178">
+        <v>6</v>
+      </c>
+      <c r="AC178">
+        <v>1.11</v>
+      </c>
+      <c r="AD178">
+        <v>6.5</v>
+      </c>
+      <c r="AE178">
+        <v>1.65</v>
+      </c>
+      <c r="AF178">
+        <v>2.1</v>
+      </c>
+      <c r="AG178">
+        <v>2.7</v>
+      </c>
+      <c r="AH178">
+        <v>1.44</v>
+      </c>
+      <c r="AI178">
+        <v>2.5</v>
+      </c>
+      <c r="AJ178">
+        <v>1.5</v>
+      </c>
+      <c r="AK178">
+        <v>1.12</v>
+      </c>
+      <c r="AL178">
+        <v>1.28</v>
+      </c>
+      <c r="AM178">
+        <v>1.9</v>
+      </c>
+      <c r="AN178">
+        <v>1.56</v>
+      </c>
+      <c r="AO178">
+        <v>0.88</v>
+      </c>
+      <c r="AP178">
+        <v>1.5</v>
+      </c>
+      <c r="AQ178">
+        <v>0.89</v>
+      </c>
+      <c r="AR178">
+        <v>1.35</v>
+      </c>
+      <c r="AS178">
+        <v>1.22</v>
+      </c>
+      <c r="AT178">
+        <v>2.57</v>
+      </c>
+      <c r="AU178">
+        <v>5</v>
+      </c>
+      <c r="AV178">
+        <v>4</v>
+      </c>
+      <c r="AW178">
+        <v>5</v>
+      </c>
+      <c r="AX178">
+        <v>2</v>
+      </c>
+      <c r="AY178">
+        <v>10</v>
+      </c>
+      <c r="AZ178">
+        <v>6</v>
+      </c>
+      <c r="BA178">
+        <v>5</v>
+      </c>
+      <c r="BB178">
+        <v>5</v>
+      </c>
+      <c r="BC178">
+        <v>10</v>
+      </c>
+      <c r="BD178">
+        <v>1.51</v>
+      </c>
+      <c r="BE178">
+        <v>8.4</v>
+      </c>
+      <c r="BF178">
+        <v>3.24</v>
+      </c>
+      <c r="BG178">
+        <v>1.21</v>
+      </c>
+      <c r="BH178">
+        <v>4.2</v>
+      </c>
+      <c r="BI178">
+        <v>1.34</v>
+      </c>
+      <c r="BJ178">
+        <v>2.88</v>
+      </c>
+      <c r="BK178">
+        <v>2.1</v>
+      </c>
+      <c r="BL178">
+        <v>2.14</v>
+      </c>
+      <c r="BM178">
+        <v>2.02</v>
+      </c>
+      <c r="BN178">
+        <v>1.71</v>
+      </c>
+      <c r="BO178">
+        <v>2.6</v>
+      </c>
+      <c r="BP178">
+        <v>1.41</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="265">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1170,7 +1170,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP178"/>
+  <dimension ref="A1:BP180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1510,7 +1510,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ2">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2331,7 +2331,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.63</v>
+        <v>2.44</v>
       </c>
       <c r="AQ6">
         <v>1</v>
@@ -2540,7 +2540,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ7">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3361,7 +3361,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ11">
         <v>0.67</v>
@@ -5836,7 +5836,7 @@
         <v>2</v>
       </c>
       <c r="AQ23">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR23">
         <v>1.39</v>
@@ -6042,7 +6042,7 @@
         <v>1</v>
       </c>
       <c r="AQ24">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR24">
         <v>1.66</v>
@@ -6657,7 +6657,7 @@
         <v>1</v>
       </c>
       <c r="AP27">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ27">
         <v>0.89</v>
@@ -7275,7 +7275,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>2.63</v>
+        <v>2.44</v>
       </c>
       <c r="AQ30">
         <v>0.25</v>
@@ -10574,7 +10574,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ46">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR46">
         <v>1.18</v>
@@ -10983,7 +10983,7 @@
         <v>1.5</v>
       </c>
       <c r="AP48">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ48">
         <v>1.22</v>
@@ -12837,7 +12837,7 @@
         <v>0</v>
       </c>
       <c r="AP57">
-        <v>2.63</v>
+        <v>2.44</v>
       </c>
       <c r="AQ57">
         <v>0.5</v>
@@ -13458,7 +13458,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ60">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR60">
         <v>2.36</v>
@@ -15930,7 +15930,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ72">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR72">
         <v>1.76</v>
@@ -16133,7 +16133,7 @@
         <v>1.5</v>
       </c>
       <c r="AP73">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ73">
         <v>1.7</v>
@@ -16957,7 +16957,7 @@
         <v>0.33</v>
       </c>
       <c r="AP77">
-        <v>2.63</v>
+        <v>2.44</v>
       </c>
       <c r="AQ77">
         <v>0.89</v>
@@ -17578,7 +17578,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ80">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR80">
         <v>1.12</v>
@@ -21077,7 +21077,7 @@
         <v>1</v>
       </c>
       <c r="AP97">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ97">
         <v>0.89</v>
@@ -22519,7 +22519,7 @@
         <v>1</v>
       </c>
       <c r="AP104">
-        <v>2.63</v>
+        <v>2.44</v>
       </c>
       <c r="AQ104">
         <v>0.89</v>
@@ -22934,7 +22934,7 @@
         <v>2</v>
       </c>
       <c r="AQ106">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR106">
         <v>1.73</v>
@@ -23137,7 +23137,7 @@
         <v>1.75</v>
       </c>
       <c r="AP107">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ107">
         <v>1.25</v>
@@ -23552,7 +23552,7 @@
         <v>2</v>
       </c>
       <c r="AQ109">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR109">
         <v>1.74</v>
@@ -26024,7 +26024,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ121">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR121">
         <v>1.51</v>
@@ -27051,7 +27051,7 @@
         <v>1.33</v>
       </c>
       <c r="AP126">
-        <v>2.63</v>
+        <v>2.44</v>
       </c>
       <c r="AQ126">
         <v>1.1</v>
@@ -27466,7 +27466,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ128">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR128">
         <v>1.66</v>
@@ -28081,7 +28081,7 @@
         <v>0.43</v>
       </c>
       <c r="AP131">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ131">
         <v>0.4</v>
@@ -29114,7 +29114,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ136">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR136">
         <v>1.79</v>
@@ -30762,7 +30762,7 @@
         <v>2</v>
       </c>
       <c r="AQ144">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR144">
         <v>1.37</v>
@@ -31583,7 +31583,7 @@
         <v>0.17</v>
       </c>
       <c r="AP148">
-        <v>2.63</v>
+        <v>2.44</v>
       </c>
       <c r="AQ148">
         <v>0.13</v>
@@ -34055,7 +34055,7 @@
         <v>0.43</v>
       </c>
       <c r="AP160">
-        <v>2.63</v>
+        <v>2.44</v>
       </c>
       <c r="AQ160">
         <v>0.38</v>
@@ -34264,7 +34264,7 @@
         <v>1</v>
       </c>
       <c r="AQ161">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR161">
         <v>1.59</v>
@@ -34882,7 +34882,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ164">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR164">
         <v>1.32</v>
@@ -35291,7 +35291,7 @@
         <v>1.13</v>
       </c>
       <c r="AP166">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ166">
         <v>1</v>
@@ -37842,6 +37842,418 @@
       </c>
       <c r="BP178">
         <v>1.41</v>
+      </c>
+    </row>
+    <row r="179" spans="1:68">
+      <c r="A179" s="1">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>7380512</v>
+      </c>
+      <c r="C179" t="s">
+        <v>68</v>
+      </c>
+      <c r="D179" t="s">
+        <v>69</v>
+      </c>
+      <c r="E179" s="2">
+        <v>45506.79166666666</v>
+      </c>
+      <c r="F179">
+        <v>19</v>
+      </c>
+      <c r="G179" t="s">
+        <v>79</v>
+      </c>
+      <c r="H179" t="s">
+        <v>86</v>
+      </c>
+      <c r="I179">
+        <v>0</v>
+      </c>
+      <c r="J179">
+        <v>0</v>
+      </c>
+      <c r="K179">
+        <v>0</v>
+      </c>
+      <c r="L179">
+        <v>0</v>
+      </c>
+      <c r="M179">
+        <v>0</v>
+      </c>
+      <c r="N179">
+        <v>0</v>
+      </c>
+      <c r="O179" t="s">
+        <v>100</v>
+      </c>
+      <c r="P179" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q179">
+        <v>4.33</v>
+      </c>
+      <c r="R179">
+        <v>1.91</v>
+      </c>
+      <c r="S179">
+        <v>3.2</v>
+      </c>
+      <c r="T179">
+        <v>1.53</v>
+      </c>
+      <c r="U179">
+        <v>2.38</v>
+      </c>
+      <c r="V179">
+        <v>3.75</v>
+      </c>
+      <c r="W179">
+        <v>1.25</v>
+      </c>
+      <c r="X179">
+        <v>11</v>
+      </c>
+      <c r="Y179">
+        <v>1.05</v>
+      </c>
+      <c r="Z179">
+        <v>3.4</v>
+      </c>
+      <c r="AA179">
+        <v>2.9</v>
+      </c>
+      <c r="AB179">
+        <v>2.35</v>
+      </c>
+      <c r="AC179">
+        <v>1.1</v>
+      </c>
+      <c r="AD179">
+        <v>5.8</v>
+      </c>
+      <c r="AE179">
+        <v>1.5</v>
+      </c>
+      <c r="AF179">
+        <v>2.4</v>
+      </c>
+      <c r="AG179">
+        <v>2.7</v>
+      </c>
+      <c r="AH179">
+        <v>1.44</v>
+      </c>
+      <c r="AI179">
+        <v>2.2</v>
+      </c>
+      <c r="AJ179">
+        <v>1.62</v>
+      </c>
+      <c r="AK179">
+        <v>1.45</v>
+      </c>
+      <c r="AL179">
+        <v>1.37</v>
+      </c>
+      <c r="AM179">
+        <v>1.27</v>
+      </c>
+      <c r="AN179">
+        <v>1.63</v>
+      </c>
+      <c r="AO179">
+        <v>0.88</v>
+      </c>
+      <c r="AP179">
+        <v>1.56</v>
+      </c>
+      <c r="AQ179">
+        <v>0.89</v>
+      </c>
+      <c r="AR179">
+        <v>1.19</v>
+      </c>
+      <c r="AS179">
+        <v>1.12</v>
+      </c>
+      <c r="AT179">
+        <v>2.31</v>
+      </c>
+      <c r="AU179">
+        <v>2</v>
+      </c>
+      <c r="AV179">
+        <v>5</v>
+      </c>
+      <c r="AW179">
+        <v>8</v>
+      </c>
+      <c r="AX179">
+        <v>2</v>
+      </c>
+      <c r="AY179">
+        <v>10</v>
+      </c>
+      <c r="AZ179">
+        <v>7</v>
+      </c>
+      <c r="BA179">
+        <v>8</v>
+      </c>
+      <c r="BB179">
+        <v>4</v>
+      </c>
+      <c r="BC179">
+        <v>12</v>
+      </c>
+      <c r="BD179">
+        <v>2.13</v>
+      </c>
+      <c r="BE179">
+        <v>7.4</v>
+      </c>
+      <c r="BF179">
+        <v>2.02</v>
+      </c>
+      <c r="BG179">
+        <v>1.18</v>
+      </c>
+      <c r="BH179">
+        <v>4.5</v>
+      </c>
+      <c r="BI179">
+        <v>1.34</v>
+      </c>
+      <c r="BJ179">
+        <v>3.1</v>
+      </c>
+      <c r="BK179">
+        <v>2</v>
+      </c>
+      <c r="BL179">
+        <v>2.23</v>
+      </c>
+      <c r="BM179">
+        <v>2.02</v>
+      </c>
+      <c r="BN179">
+        <v>1.74</v>
+      </c>
+      <c r="BO179">
+        <v>2.7</v>
+      </c>
+      <c r="BP179">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="180" spans="1:68">
+      <c r="A180" s="1">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>7380510</v>
+      </c>
+      <c r="C180" t="s">
+        <v>68</v>
+      </c>
+      <c r="D180" t="s">
+        <v>69</v>
+      </c>
+      <c r="E180" s="2">
+        <v>45506.89583333334</v>
+      </c>
+      <c r="F180">
+        <v>19</v>
+      </c>
+      <c r="G180" t="s">
+        <v>74</v>
+      </c>
+      <c r="H180" t="s">
+        <v>81</v>
+      </c>
+      <c r="I180">
+        <v>1</v>
+      </c>
+      <c r="J180">
+        <v>0</v>
+      </c>
+      <c r="K180">
+        <v>1</v>
+      </c>
+      <c r="L180">
+        <v>1</v>
+      </c>
+      <c r="M180">
+        <v>1</v>
+      </c>
+      <c r="N180">
+        <v>2</v>
+      </c>
+      <c r="O180" t="s">
+        <v>166</v>
+      </c>
+      <c r="P180" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q180">
+        <v>2.38</v>
+      </c>
+      <c r="R180">
+        <v>2.1</v>
+      </c>
+      <c r="S180">
+        <v>5.5</v>
+      </c>
+      <c r="T180">
+        <v>1.44</v>
+      </c>
+      <c r="U180">
+        <v>2.63</v>
+      </c>
+      <c r="V180">
+        <v>3.25</v>
+      </c>
+      <c r="W180">
+        <v>1.33</v>
+      </c>
+      <c r="X180">
+        <v>9</v>
+      </c>
+      <c r="Y180">
+        <v>1.07</v>
+      </c>
+      <c r="Z180">
+        <v>1.67</v>
+      </c>
+      <c r="AA180">
+        <v>3.6</v>
+      </c>
+      <c r="AB180">
+        <v>5.25</v>
+      </c>
+      <c r="AC180">
+        <v>1.03</v>
+      </c>
+      <c r="AD180">
+        <v>8.5</v>
+      </c>
+      <c r="AE180">
+        <v>1.32</v>
+      </c>
+      <c r="AF180">
+        <v>3.1</v>
+      </c>
+      <c r="AG180">
+        <v>2.25</v>
+      </c>
+      <c r="AH180">
+        <v>1.62</v>
+      </c>
+      <c r="AI180">
+        <v>2.1</v>
+      </c>
+      <c r="AJ180">
+        <v>1.67</v>
+      </c>
+      <c r="AK180">
+        <v>1.05</v>
+      </c>
+      <c r="AL180">
+        <v>1.27</v>
+      </c>
+      <c r="AM180">
+        <v>2.15</v>
+      </c>
+      <c r="AN180">
+        <v>2.63</v>
+      </c>
+      <c r="AO180">
+        <v>1.5</v>
+      </c>
+      <c r="AP180">
+        <v>2.44</v>
+      </c>
+      <c r="AQ180">
+        <v>1.44</v>
+      </c>
+      <c r="AR180">
+        <v>1.94</v>
+      </c>
+      <c r="AS180">
+        <v>1.36</v>
+      </c>
+      <c r="AT180">
+        <v>3.3</v>
+      </c>
+      <c r="AU180">
+        <v>6</v>
+      </c>
+      <c r="AV180">
+        <v>6</v>
+      </c>
+      <c r="AW180">
+        <v>11</v>
+      </c>
+      <c r="AX180">
+        <v>2</v>
+      </c>
+      <c r="AY180">
+        <v>17</v>
+      </c>
+      <c r="AZ180">
+        <v>8</v>
+      </c>
+      <c r="BA180">
+        <v>6</v>
+      </c>
+      <c r="BB180">
+        <v>2</v>
+      </c>
+      <c r="BC180">
+        <v>8</v>
+      </c>
+      <c r="BD180">
+        <v>1.55</v>
+      </c>
+      <c r="BE180">
+        <v>8.1</v>
+      </c>
+      <c r="BF180">
+        <v>3.1</v>
+      </c>
+      <c r="BG180">
+        <v>1.15</v>
+      </c>
+      <c r="BH180">
+        <v>4.75</v>
+      </c>
+      <c r="BI180">
+        <v>1.29</v>
+      </c>
+      <c r="BJ180">
+        <v>3.45</v>
+      </c>
+      <c r="BK180">
+        <v>1.5</v>
+      </c>
+      <c r="BL180">
+        <v>2.45</v>
+      </c>
+      <c r="BM180">
+        <v>1.9</v>
+      </c>
+      <c r="BN180">
+        <v>1.9</v>
+      </c>
+      <c r="BO180">
+        <v>2.43</v>
+      </c>
+      <c r="BP180">
+        <v>1.52</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="267">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -631,6 +631,12 @@
     <t>['83']</t>
   </si>
   <si>
+    <t>['68', '72']</t>
+  </si>
+  <si>
+    <t>['63']</t>
+  </si>
+  <si>
     <t>['31', '49', '69']</t>
   </si>
   <si>
@@ -1170,7 +1176,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP180"/>
+  <dimension ref="A1:BP182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1507,7 +1513,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ2">
         <v>0.89</v>
@@ -2128,7 +2134,7 @@
         <v>1</v>
       </c>
       <c r="AQ5">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2459,7 +2465,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q7">
         <v>4.33</v>
@@ -2537,7 +2543,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ7">
         <v>1.44</v>
@@ -2871,7 +2877,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2952,7 +2958,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ9">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3283,7 +3289,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q11">
         <v>3.5</v>
@@ -3489,7 +3495,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q12">
         <v>3.6</v>
@@ -3901,7 +3907,7 @@
         <v>100</v>
       </c>
       <c r="P14" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q14">
         <v>4.75</v>
@@ -4107,7 +4113,7 @@
         <v>100</v>
       </c>
       <c r="P15" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -5343,7 +5349,7 @@
         <v>106</v>
       </c>
       <c r="P21" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5961,7 +5967,7 @@
         <v>107</v>
       </c>
       <c r="P24" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q24">
         <v>3.6</v>
@@ -6373,7 +6379,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6579,7 +6585,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q27">
         <v>4</v>
@@ -6785,7 +6791,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -7197,7 +7203,7 @@
         <v>112</v>
       </c>
       <c r="P30" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q30">
         <v>2.1</v>
@@ -7481,7 +7487,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ31">
         <v>0.67</v>
@@ -7609,7 +7615,7 @@
         <v>113</v>
       </c>
       <c r="P32" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q32">
         <v>2.38</v>
@@ -7815,7 +7821,7 @@
         <v>100</v>
       </c>
       <c r="P33" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -8102,7 +8108,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ34">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AR34">
         <v>1.81</v>
@@ -8923,7 +8929,7 @@
         <v>3</v>
       </c>
       <c r="AP38">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ38">
         <v>1.2</v>
@@ -9051,7 +9057,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q39">
         <v>2</v>
@@ -9338,7 +9344,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ40">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR40">
         <v>1.33</v>
@@ -9463,7 +9469,7 @@
         <v>120</v>
       </c>
       <c r="P41" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q41">
         <v>2.25</v>
@@ -9669,7 +9675,7 @@
         <v>121</v>
       </c>
       <c r="P42" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9875,7 +9881,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q43">
         <v>3.2</v>
@@ -10159,7 +10165,7 @@
         <v>1.5</v>
       </c>
       <c r="AP44">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ44">
         <v>1.1</v>
@@ -11111,7 +11117,7 @@
         <v>125</v>
       </c>
       <c r="P49" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -12016,7 +12022,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ53">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR53">
         <v>2.01</v>
@@ -12219,7 +12225,7 @@
         <v>0</v>
       </c>
       <c r="AP54">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ54">
         <v>1</v>
@@ -12553,7 +12559,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q56">
         <v>1.95</v>
@@ -13252,7 +13258,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ59">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AR59">
         <v>1.2</v>
@@ -13377,7 +13383,7 @@
         <v>118</v>
       </c>
       <c r="P60" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13789,7 +13795,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q62">
         <v>3.4</v>
@@ -14407,7 +14413,7 @@
         <v>135</v>
       </c>
       <c r="P65" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q65">
         <v>2.38</v>
@@ -15025,7 +15031,7 @@
         <v>100</v>
       </c>
       <c r="P68" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q68">
         <v>3.6</v>
@@ -15103,7 +15109,7 @@
         <v>1</v>
       </c>
       <c r="AP68">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ68">
         <v>1.7</v>
@@ -15515,7 +15521,7 @@
         <v>0.67</v>
       </c>
       <c r="AP70">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ70">
         <v>0.67</v>
@@ -15724,7 +15730,7 @@
         <v>2</v>
       </c>
       <c r="AQ71">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR71">
         <v>1.73</v>
@@ -16261,7 +16267,7 @@
         <v>90</v>
       </c>
       <c r="P74" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q74">
         <v>3.1</v>
@@ -16467,7 +16473,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -16879,7 +16885,7 @@
         <v>139</v>
       </c>
       <c r="P77" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q77">
         <v>2.2</v>
@@ -17703,7 +17709,7 @@
         <v>146</v>
       </c>
       <c r="P81" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q81">
         <v>2.05</v>
@@ -17784,7 +17790,7 @@
         <v>2</v>
       </c>
       <c r="AQ81">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AR81">
         <v>1.59</v>
@@ -17909,7 +17915,7 @@
         <v>147</v>
       </c>
       <c r="P82" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q82">
         <v>4</v>
@@ -18115,7 +18121,7 @@
         <v>100</v>
       </c>
       <c r="P83" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q83">
         <v>3.2</v>
@@ -18321,7 +18327,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q84">
         <v>2.75</v>
@@ -18399,7 +18405,7 @@
         <v>0.25</v>
       </c>
       <c r="AP84">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ84">
         <v>0.5</v>
@@ -18939,7 +18945,7 @@
         <v>150</v>
       </c>
       <c r="P87" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q87">
         <v>3.5</v>
@@ -19635,7 +19641,7 @@
         <v>1</v>
       </c>
       <c r="AP90">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ90">
         <v>1.1</v>
@@ -19969,7 +19975,7 @@
         <v>153</v>
       </c>
       <c r="P92" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q92">
         <v>2.63</v>
@@ -20587,7 +20593,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q95">
         <v>3.5</v>
@@ -20871,7 +20877,7 @@
         <v>0.25</v>
       </c>
       <c r="AP96">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ96">
         <v>0.67</v>
@@ -21205,7 +21211,7 @@
         <v>116</v>
       </c>
       <c r="P98" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q98">
         <v>3</v>
@@ -21286,7 +21292,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ98">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR98">
         <v>1.63</v>
@@ -21617,7 +21623,7 @@
         <v>100</v>
       </c>
       <c r="P100" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q100">
         <v>3.5</v>
@@ -21823,7 +21829,7 @@
         <v>160</v>
       </c>
       <c r="P101" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q101">
         <v>2.6</v>
@@ -21904,7 +21910,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ101">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AR101">
         <v>1.9</v>
@@ -22725,7 +22731,7 @@
         <v>0.4</v>
       </c>
       <c r="AP105">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ105">
         <v>0.4</v>
@@ -24295,7 +24301,7 @@
         <v>167</v>
       </c>
       <c r="P113" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q113">
         <v>3.25</v>
@@ -24707,7 +24713,7 @@
         <v>169</v>
       </c>
       <c r="P115" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q115">
         <v>2.68</v>
@@ -25119,7 +25125,7 @@
         <v>170</v>
       </c>
       <c r="P117" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q117">
         <v>2.38</v>
@@ -25609,10 +25615,10 @@
         <v>0.6</v>
       </c>
       <c r="AP119">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ119">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR119">
         <v>1.45</v>
@@ -25737,7 +25743,7 @@
         <v>90</v>
       </c>
       <c r="P120" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q120">
         <v>2.4</v>
@@ -26021,7 +26027,7 @@
         <v>1.4</v>
       </c>
       <c r="AP121">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ121">
         <v>1.44</v>
@@ -26149,7 +26155,7 @@
         <v>173</v>
       </c>
       <c r="P122" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q122">
         <v>1.95</v>
@@ -26230,7 +26236,7 @@
         <v>2</v>
       </c>
       <c r="AQ122">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AR122">
         <v>1.66</v>
@@ -26561,7 +26567,7 @@
         <v>174</v>
       </c>
       <c r="P124" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q124">
         <v>2.75</v>
@@ -26767,7 +26773,7 @@
         <v>175</v>
       </c>
       <c r="P125" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q125">
         <v>3</v>
@@ -27179,7 +27185,7 @@
         <v>176</v>
       </c>
       <c r="P127" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q127">
         <v>2.4</v>
@@ -27385,7 +27391,7 @@
         <v>177</v>
       </c>
       <c r="P128" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q128">
         <v>2.75</v>
@@ -27591,7 +27597,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q129">
         <v>3.25</v>
@@ -28415,7 +28421,7 @@
         <v>140</v>
       </c>
       <c r="P133" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q133">
         <v>2.25</v>
@@ -28621,7 +28627,7 @@
         <v>96</v>
       </c>
       <c r="P134" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q134">
         <v>2.5</v>
@@ -28827,7 +28833,7 @@
         <v>180</v>
       </c>
       <c r="P135" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q135">
         <v>3.5</v>
@@ -29239,7 +29245,7 @@
         <v>100</v>
       </c>
       <c r="P137" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q137">
         <v>2.75</v>
@@ -29445,7 +29451,7 @@
         <v>181</v>
       </c>
       <c r="P138" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q138">
         <v>3</v>
@@ -29523,7 +29529,7 @@
         <v>0.33</v>
       </c>
       <c r="AP138">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ138">
         <v>0.67</v>
@@ -29857,7 +29863,7 @@
         <v>182</v>
       </c>
       <c r="P140" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q140">
         <v>3.75</v>
@@ -30063,7 +30069,7 @@
         <v>100</v>
       </c>
       <c r="P141" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q141">
         <v>3</v>
@@ -30141,7 +30147,7 @@
         <v>0.5</v>
       </c>
       <c r="AP141">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ141">
         <v>0.88</v>
@@ -30269,7 +30275,7 @@
         <v>183</v>
       </c>
       <c r="P142" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q142">
         <v>3.2</v>
@@ -30475,7 +30481,7 @@
         <v>152</v>
       </c>
       <c r="P143" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q143">
         <v>2.5</v>
@@ -30968,7 +30974,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ145">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR145">
         <v>1.6</v>
@@ -31093,7 +31099,7 @@
         <v>186</v>
       </c>
       <c r="P146" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q146">
         <v>3.1</v>
@@ -31586,7 +31592,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ148">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AR148">
         <v>1.91</v>
@@ -31711,7 +31717,7 @@
         <v>189</v>
       </c>
       <c r="P149" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q149">
         <v>2.5</v>
@@ -32123,7 +32129,7 @@
         <v>191</v>
       </c>
       <c r="P151" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q151">
         <v>3.75</v>
@@ -33234,7 +33240,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ156">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AR156">
         <v>1.57</v>
@@ -33565,7 +33571,7 @@
         <v>194</v>
       </c>
       <c r="P158" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q158">
         <v>3.75</v>
@@ -33771,7 +33777,7 @@
         <v>195</v>
       </c>
       <c r="P159" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q159">
         <v>3</v>
@@ -33849,7 +33855,7 @@
         <v>0.5</v>
       </c>
       <c r="AP159">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ159">
         <v>0.5</v>
@@ -34058,7 +34064,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ160">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR160">
         <v>1.96</v>
@@ -35497,7 +35503,7 @@
         <v>0.14</v>
       </c>
       <c r="AP167">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ167">
         <v>0.25</v>
@@ -35625,7 +35631,7 @@
         <v>200</v>
       </c>
       <c r="P168" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q168">
         <v>2.63</v>
@@ -35831,7 +35837,7 @@
         <v>201</v>
       </c>
       <c r="P169" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q169">
         <v>2.05</v>
@@ -37067,7 +37073,7 @@
         <v>203</v>
       </c>
       <c r="P175" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q175">
         <v>2.63</v>
@@ -37273,7 +37279,7 @@
         <v>169</v>
       </c>
       <c r="P176" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q176">
         <v>4</v>
@@ -37479,7 +37485,7 @@
         <v>155</v>
       </c>
       <c r="P177" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q177">
         <v>2.88</v>
@@ -37685,7 +37691,7 @@
         <v>204</v>
       </c>
       <c r="P178" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q178">
         <v>2.5</v>
@@ -38097,7 +38103,7 @@
         <v>166</v>
       </c>
       <c r="P180" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q180">
         <v>2.38</v>
@@ -38253,6 +38259,418 @@
         <v>2.43</v>
       </c>
       <c r="BP180">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="181" spans="1:68">
+      <c r="A181" s="1">
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>7380508</v>
+      </c>
+      <c r="C181" t="s">
+        <v>68</v>
+      </c>
+      <c r="D181" t="s">
+        <v>69</v>
+      </c>
+      <c r="E181" s="2">
+        <v>45507.70833333334</v>
+      </c>
+      <c r="F181">
+        <v>19</v>
+      </c>
+      <c r="G181" t="s">
+        <v>70</v>
+      </c>
+      <c r="H181" t="s">
+        <v>87</v>
+      </c>
+      <c r="I181">
+        <v>0</v>
+      </c>
+      <c r="J181">
+        <v>0</v>
+      </c>
+      <c r="K181">
+        <v>0</v>
+      </c>
+      <c r="L181">
+        <v>2</v>
+      </c>
+      <c r="M181">
+        <v>0</v>
+      </c>
+      <c r="N181">
+        <v>2</v>
+      </c>
+      <c r="O181" t="s">
+        <v>205</v>
+      </c>
+      <c r="P181" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q181">
+        <v>3.6</v>
+      </c>
+      <c r="R181">
+        <v>1.95</v>
+      </c>
+      <c r="S181">
+        <v>3.4</v>
+      </c>
+      <c r="T181">
+        <v>1.57</v>
+      </c>
+      <c r="U181">
+        <v>2.25</v>
+      </c>
+      <c r="V181">
+        <v>3.75</v>
+      </c>
+      <c r="W181">
+        <v>1.25</v>
+      </c>
+      <c r="X181">
+        <v>13</v>
+      </c>
+      <c r="Y181">
+        <v>1.04</v>
+      </c>
+      <c r="Z181">
+        <v>2.8</v>
+      </c>
+      <c r="AA181">
+        <v>3.2</v>
+      </c>
+      <c r="AB181">
+        <v>2.55</v>
+      </c>
+      <c r="AC181">
+        <v>1.1</v>
+      </c>
+      <c r="AD181">
+        <v>6.5</v>
+      </c>
+      <c r="AE181">
+        <v>1.48</v>
+      </c>
+      <c r="AF181">
+        <v>2.37</v>
+      </c>
+      <c r="AG181">
+        <v>2.6</v>
+      </c>
+      <c r="AH181">
+        <v>1.48</v>
+      </c>
+      <c r="AI181">
+        <v>2.1</v>
+      </c>
+      <c r="AJ181">
+        <v>1.67</v>
+      </c>
+      <c r="AK181">
+        <v>1.45</v>
+      </c>
+      <c r="AL181">
+        <v>1.3</v>
+      </c>
+      <c r="AM181">
+        <v>1.44</v>
+      </c>
+      <c r="AN181">
+        <v>1.22</v>
+      </c>
+      <c r="AO181">
+        <v>0.38</v>
+      </c>
+      <c r="AP181">
+        <v>1.4</v>
+      </c>
+      <c r="AQ181">
+        <v>0.33</v>
+      </c>
+      <c r="AR181">
+        <v>1.41</v>
+      </c>
+      <c r="AS181">
+        <v>1.4</v>
+      </c>
+      <c r="AT181">
+        <v>2.81</v>
+      </c>
+      <c r="AU181">
+        <v>5</v>
+      </c>
+      <c r="AV181">
+        <v>7</v>
+      </c>
+      <c r="AW181">
+        <v>2</v>
+      </c>
+      <c r="AX181">
+        <v>4</v>
+      </c>
+      <c r="AY181">
+        <v>7</v>
+      </c>
+      <c r="AZ181">
+        <v>11</v>
+      </c>
+      <c r="BA181">
+        <v>4</v>
+      </c>
+      <c r="BB181">
+        <v>6</v>
+      </c>
+      <c r="BC181">
+        <v>10</v>
+      </c>
+      <c r="BD181">
+        <v>1.92</v>
+      </c>
+      <c r="BE181">
+        <v>7.6</v>
+      </c>
+      <c r="BF181">
+        <v>2.24</v>
+      </c>
+      <c r="BG181">
+        <v>1.22</v>
+      </c>
+      <c r="BH181">
+        <v>4</v>
+      </c>
+      <c r="BI181">
+        <v>1.42</v>
+      </c>
+      <c r="BJ181">
+        <v>2.75</v>
+      </c>
+      <c r="BK181">
+        <v>2.1</v>
+      </c>
+      <c r="BL181">
+        <v>2.02</v>
+      </c>
+      <c r="BM181">
+        <v>2.23</v>
+      </c>
+      <c r="BN181">
+        <v>1.61</v>
+      </c>
+      <c r="BO181">
+        <v>3</v>
+      </c>
+      <c r="BP181">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="182" spans="1:68">
+      <c r="A182" s="1">
+        <v>181</v>
+      </c>
+      <c r="B182">
+        <v>7380514</v>
+      </c>
+      <c r="C182" t="s">
+        <v>68</v>
+      </c>
+      <c r="D182" t="s">
+        <v>69</v>
+      </c>
+      <c r="E182" s="2">
+        <v>45507.89583333334</v>
+      </c>
+      <c r="F182">
+        <v>19</v>
+      </c>
+      <c r="G182" t="s">
+        <v>75</v>
+      </c>
+      <c r="H182" t="s">
+        <v>80</v>
+      </c>
+      <c r="I182">
+        <v>0</v>
+      </c>
+      <c r="J182">
+        <v>0</v>
+      </c>
+      <c r="K182">
+        <v>0</v>
+      </c>
+      <c r="L182">
+        <v>1</v>
+      </c>
+      <c r="M182">
+        <v>0</v>
+      </c>
+      <c r="N182">
+        <v>1</v>
+      </c>
+      <c r="O182" t="s">
+        <v>206</v>
+      </c>
+      <c r="P182" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q182">
+        <v>2.25</v>
+      </c>
+      <c r="R182">
+        <v>2.1</v>
+      </c>
+      <c r="S182">
+        <v>6</v>
+      </c>
+      <c r="T182">
+        <v>1.44</v>
+      </c>
+      <c r="U182">
+        <v>2.63</v>
+      </c>
+      <c r="V182">
+        <v>3.25</v>
+      </c>
+      <c r="W182">
+        <v>1.33</v>
+      </c>
+      <c r="X182">
+        <v>10</v>
+      </c>
+      <c r="Y182">
+        <v>1.06</v>
+      </c>
+      <c r="Z182">
+        <v>1.61</v>
+      </c>
+      <c r="AA182">
+        <v>3.55</v>
+      </c>
+      <c r="AB182">
+        <v>4.6</v>
+      </c>
+      <c r="AC182">
+        <v>1.05</v>
+      </c>
+      <c r="AD182">
+        <v>8</v>
+      </c>
+      <c r="AE182">
+        <v>1.36</v>
+      </c>
+      <c r="AF182">
+        <v>2.88</v>
+      </c>
+      <c r="AG182">
+        <v>2.2</v>
+      </c>
+      <c r="AH182">
+        <v>1.63</v>
+      </c>
+      <c r="AI182">
+        <v>2.2</v>
+      </c>
+      <c r="AJ182">
+        <v>1.62</v>
+      </c>
+      <c r="AK182">
+        <v>1.17</v>
+      </c>
+      <c r="AL182">
+        <v>1.29</v>
+      </c>
+      <c r="AM182">
+        <v>2.2</v>
+      </c>
+      <c r="AN182">
+        <v>1.56</v>
+      </c>
+      <c r="AO182">
+        <v>0.13</v>
+      </c>
+      <c r="AP182">
+        <v>1.7</v>
+      </c>
+      <c r="AQ182">
+        <v>0.11</v>
+      </c>
+      <c r="AR182">
+        <v>1.49</v>
+      </c>
+      <c r="AS182">
+        <v>1.04</v>
+      </c>
+      <c r="AT182">
+        <v>2.53</v>
+      </c>
+      <c r="AU182">
+        <v>6</v>
+      </c>
+      <c r="AV182">
+        <v>2</v>
+      </c>
+      <c r="AW182">
+        <v>13</v>
+      </c>
+      <c r="AX182">
+        <v>1</v>
+      </c>
+      <c r="AY182">
+        <v>19</v>
+      </c>
+      <c r="AZ182">
+        <v>3</v>
+      </c>
+      <c r="BA182">
+        <v>7</v>
+      </c>
+      <c r="BB182">
+        <v>2</v>
+      </c>
+      <c r="BC182">
+        <v>9</v>
+      </c>
+      <c r="BD182">
+        <v>1.23</v>
+      </c>
+      <c r="BE182">
+        <v>11</v>
+      </c>
+      <c r="BF182">
+        <v>5.36</v>
+      </c>
+      <c r="BG182">
+        <v>1.15</v>
+      </c>
+      <c r="BH182">
+        <v>4.75</v>
+      </c>
+      <c r="BI182">
+        <v>1.29</v>
+      </c>
+      <c r="BJ182">
+        <v>3.45</v>
+      </c>
+      <c r="BK182">
+        <v>1.5</v>
+      </c>
+      <c r="BL182">
+        <v>2.45</v>
+      </c>
+      <c r="BM182">
+        <v>1.9</v>
+      </c>
+      <c r="BN182">
+        <v>1.9</v>
+      </c>
+      <c r="BO182">
+        <v>2.43</v>
+      </c>
+      <c r="BP182">
         <v>1.52</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="270">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -637,6 +637,15 @@
     <t>['63']</t>
   </si>
   <si>
+    <t>['78']</t>
+  </si>
+  <si>
+    <t>['3', '49']</t>
+  </si>
+  <si>
+    <t>['12', '50']</t>
+  </si>
+  <si>
     <t>['31', '49', '69']</t>
   </si>
   <si>
@@ -668,9 +677,6 @@
   </si>
   <si>
     <t>['45+2', '52']</t>
-  </si>
-  <si>
-    <t>['78']</t>
   </si>
   <si>
     <t>['10']</t>
@@ -815,6 +821,9 @@
   </si>
   <si>
     <t>['90+8']</t>
+  </si>
+  <si>
+    <t>['70']</t>
   </si>
 </sst>
 </file>
@@ -1176,7 +1185,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP182"/>
+  <dimension ref="A1:BP185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1719,10 +1728,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ3">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1925,10 +1934,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ4">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2465,7 +2474,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q7">
         <v>4.33</v>
@@ -2752,7 +2761,7 @@
         <v>2</v>
       </c>
       <c r="AQ8">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2877,7 +2886,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2955,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ9">
         <v>0.33</v>
@@ -3289,7 +3298,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q11">
         <v>3.5</v>
@@ -3495,7 +3504,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q12">
         <v>3.6</v>
@@ -3907,7 +3916,7 @@
         <v>100</v>
       </c>
       <c r="P14" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q14">
         <v>4.75</v>
@@ -4113,7 +4122,7 @@
         <v>100</v>
       </c>
       <c r="P15" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -5349,7 +5358,7 @@
         <v>106</v>
       </c>
       <c r="P21" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5636,7 +5645,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ22">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR22">
         <v>1.45</v>
@@ -5967,7 +5976,7 @@
         <v>107</v>
       </c>
       <c r="P24" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q24">
         <v>3.6</v>
@@ -6379,7 +6388,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6585,7 +6594,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q27">
         <v>4</v>
@@ -6666,7 +6675,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ27">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR27">
         <v>1.04</v>
@@ -6791,7 +6800,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6872,7 +6881,7 @@
         <v>2</v>
       </c>
       <c r="AQ28">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR28">
         <v>2.07</v>
@@ -7075,7 +7084,7 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ29">
         <v>0.88</v>
@@ -7203,7 +7212,7 @@
         <v>112</v>
       </c>
       <c r="P30" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="Q30">
         <v>2.1</v>
@@ -7615,7 +7624,7 @@
         <v>113</v>
       </c>
       <c r="P32" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q32">
         <v>2.38</v>
@@ -7821,7 +7830,7 @@
         <v>100</v>
       </c>
       <c r="P33" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -7899,7 +7908,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ33">
         <v>0.89</v>
@@ -8517,7 +8526,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ36">
         <v>0.4</v>
@@ -9057,7 +9066,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q39">
         <v>2</v>
@@ -9469,7 +9478,7 @@
         <v>120</v>
       </c>
       <c r="P41" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q41">
         <v>2.25</v>
@@ -9675,7 +9684,7 @@
         <v>121</v>
       </c>
       <c r="P42" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9756,7 +9765,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ42">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR42">
         <v>1.42</v>
@@ -9881,7 +9890,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q43">
         <v>3.2</v>
@@ -11117,7 +11126,7 @@
         <v>125</v>
       </c>
       <c r="P49" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -11195,7 +11204,7 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ49">
         <v>1.2</v>
@@ -11404,7 +11413,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ50">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR50">
         <v>1.29</v>
@@ -12019,7 +12028,7 @@
         <v>0.5</v>
       </c>
       <c r="AP53">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ53">
         <v>0.33</v>
@@ -12559,7 +12568,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q56">
         <v>1.95</v>
@@ -12640,7 +12649,7 @@
         <v>2</v>
       </c>
       <c r="AQ56">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR56">
         <v>1.63</v>
@@ -13049,7 +13058,7 @@
         <v>1.5</v>
       </c>
       <c r="AP58">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ58">
         <v>0.89</v>
@@ -13383,7 +13392,7 @@
         <v>118</v>
       </c>
       <c r="P60" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13795,7 +13804,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q62">
         <v>3.4</v>
@@ -14413,7 +14422,7 @@
         <v>135</v>
       </c>
       <c r="P65" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q65">
         <v>2.38</v>
@@ -15031,7 +15040,7 @@
         <v>100</v>
       </c>
       <c r="P68" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q68">
         <v>3.6</v>
@@ -15318,7 +15327,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ69">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR69">
         <v>1.31</v>
@@ -16267,7 +16276,7 @@
         <v>90</v>
       </c>
       <c r="P74" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q74">
         <v>3.1</v>
@@ -16473,7 +16482,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -16551,10 +16560,10 @@
         <v>0.33</v>
       </c>
       <c r="AP75">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ75">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR75">
         <v>1.49</v>
@@ -16760,7 +16769,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ76">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR76">
         <v>1.31</v>
@@ -16885,7 +16894,7 @@
         <v>139</v>
       </c>
       <c r="P77" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q77">
         <v>2.2</v>
@@ -17169,7 +17178,7 @@
         <v>0.33</v>
       </c>
       <c r="AP78">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ78">
         <v>0.88</v>
@@ -17709,7 +17718,7 @@
         <v>146</v>
       </c>
       <c r="P81" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q81">
         <v>2.05</v>
@@ -17915,7 +17924,7 @@
         <v>147</v>
       </c>
       <c r="P82" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q82">
         <v>4</v>
@@ -17993,7 +18002,7 @@
         <v>1.5</v>
       </c>
       <c r="AP82">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ82">
         <v>1.2</v>
@@ -18121,7 +18130,7 @@
         <v>100</v>
       </c>
       <c r="P83" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q83">
         <v>3.2</v>
@@ -18327,7 +18336,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q84">
         <v>2.75</v>
@@ -18945,7 +18954,7 @@
         <v>150</v>
       </c>
       <c r="P87" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q87">
         <v>3.5</v>
@@ -19438,7 +19447,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ89">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR89">
         <v>1.5</v>
@@ -19847,7 +19856,7 @@
         <v>1.2</v>
       </c>
       <c r="AP91">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ91">
         <v>1.2</v>
@@ -19975,7 +19984,7 @@
         <v>153</v>
       </c>
       <c r="P92" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q92">
         <v>2.63</v>
@@ -20262,7 +20271,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ93">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR93">
         <v>1.79</v>
@@ -20465,7 +20474,7 @@
         <v>1.4</v>
       </c>
       <c r="AP94">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ94">
         <v>1.7</v>
@@ -20593,7 +20602,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q95">
         <v>3.5</v>
@@ -21211,7 +21220,7 @@
         <v>116</v>
       </c>
       <c r="P98" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q98">
         <v>3</v>
@@ -21623,7 +21632,7 @@
         <v>100</v>
       </c>
       <c r="P100" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q100">
         <v>3.5</v>
@@ -21829,7 +21838,7 @@
         <v>160</v>
       </c>
       <c r="P101" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q101">
         <v>2.6</v>
@@ -22113,7 +22122,7 @@
         <v>0.25</v>
       </c>
       <c r="AP102">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ102">
         <v>0.88</v>
@@ -22322,7 +22331,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ103">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR103">
         <v>1.12</v>
@@ -22528,7 +22537,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ104">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR104">
         <v>1.65</v>
@@ -23146,7 +23155,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ107">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR107">
         <v>1.13</v>
@@ -23967,7 +23976,7 @@
         <v>1</v>
       </c>
       <c r="AP111">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ111">
         <v>0.89</v>
@@ -24301,7 +24310,7 @@
         <v>167</v>
       </c>
       <c r="P113" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q113">
         <v>3.25</v>
@@ -24588,7 +24597,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ114">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR114">
         <v>1.36</v>
@@ -24713,7 +24722,7 @@
         <v>169</v>
       </c>
       <c r="P115" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q115">
         <v>2.68</v>
@@ -25125,7 +25134,7 @@
         <v>170</v>
       </c>
       <c r="P117" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q117">
         <v>2.38</v>
@@ -25206,7 +25215,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ117">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR117">
         <v>1.94</v>
@@ -25409,7 +25418,7 @@
         <v>0.8</v>
       </c>
       <c r="AP118">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ118">
         <v>0.89</v>
@@ -25743,7 +25752,7 @@
         <v>90</v>
       </c>
       <c r="P120" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q120">
         <v>2.4</v>
@@ -26155,7 +26164,7 @@
         <v>173</v>
       </c>
       <c r="P122" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q122">
         <v>1.95</v>
@@ -26567,7 +26576,7 @@
         <v>174</v>
       </c>
       <c r="P124" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q124">
         <v>2.75</v>
@@ -26773,7 +26782,7 @@
         <v>175</v>
       </c>
       <c r="P125" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q125">
         <v>3</v>
@@ -27185,7 +27194,7 @@
         <v>176</v>
       </c>
       <c r="P127" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q127">
         <v>2.4</v>
@@ -27391,7 +27400,7 @@
         <v>177</v>
       </c>
       <c r="P128" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q128">
         <v>2.75</v>
@@ -27597,7 +27606,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q129">
         <v>3.25</v>
@@ -27675,7 +27684,7 @@
         <v>0.33</v>
       </c>
       <c r="AP129">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ129">
         <v>0.67</v>
@@ -28421,7 +28430,7 @@
         <v>140</v>
       </c>
       <c r="P133" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q133">
         <v>2.25</v>
@@ -28627,7 +28636,7 @@
         <v>96</v>
       </c>
       <c r="P134" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q134">
         <v>2.5</v>
@@ -28833,7 +28842,7 @@
         <v>180</v>
       </c>
       <c r="P135" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q135">
         <v>3.5</v>
@@ -29245,7 +29254,7 @@
         <v>100</v>
       </c>
       <c r="P137" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q137">
         <v>2.75</v>
@@ -29451,7 +29460,7 @@
         <v>181</v>
       </c>
       <c r="P138" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q138">
         <v>3</v>
@@ -29738,7 +29747,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ139">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR139">
         <v>1.43</v>
@@ -29863,7 +29872,7 @@
         <v>182</v>
       </c>
       <c r="P140" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q140">
         <v>3.75</v>
@@ -29941,7 +29950,7 @@
         <v>0.43</v>
       </c>
       <c r="AP140">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ140">
         <v>0.67</v>
@@ -30069,7 +30078,7 @@
         <v>100</v>
       </c>
       <c r="P141" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q141">
         <v>3</v>
@@ -30275,7 +30284,7 @@
         <v>183</v>
       </c>
       <c r="P142" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q142">
         <v>3.2</v>
@@ -30481,7 +30490,7 @@
         <v>152</v>
       </c>
       <c r="P143" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q143">
         <v>2.5</v>
@@ -30559,7 +30568,7 @@
         <v>0</v>
       </c>
       <c r="AP143">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ143">
         <v>0.25</v>
@@ -31099,7 +31108,7 @@
         <v>186</v>
       </c>
       <c r="P146" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q146">
         <v>3.1</v>
@@ -31180,7 +31189,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ146">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR146">
         <v>1.33</v>
@@ -31717,7 +31726,7 @@
         <v>189</v>
       </c>
       <c r="P149" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q149">
         <v>2.5</v>
@@ -32001,10 +32010,10 @@
         <v>0.71</v>
       </c>
       <c r="AP150">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ150">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR150">
         <v>1.49</v>
@@ -32129,7 +32138,7 @@
         <v>191</v>
       </c>
       <c r="P151" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q151">
         <v>3.75</v>
@@ -32413,7 +32422,7 @@
         <v>1.38</v>
       </c>
       <c r="AP152">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ152">
         <v>1.1</v>
@@ -33571,7 +33580,7 @@
         <v>194</v>
       </c>
       <c r="P158" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q158">
         <v>3.75</v>
@@ -33652,7 +33661,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ158">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR158">
         <v>1.72</v>
@@ -33777,7 +33786,7 @@
         <v>195</v>
       </c>
       <c r="P159" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q159">
         <v>3</v>
@@ -34473,7 +34482,7 @@
         <v>1.63</v>
       </c>
       <c r="AP162">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ162">
         <v>1.7</v>
@@ -34682,7 +34691,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ163">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR163">
         <v>1.38</v>
@@ -35091,7 +35100,7 @@
         <v>0.71</v>
       </c>
       <c r="AP165">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ165">
         <v>0.67</v>
@@ -35631,7 +35640,7 @@
         <v>200</v>
       </c>
       <c r="P168" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q168">
         <v>2.63</v>
@@ -35712,7 +35721,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ168">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR168">
         <v>1.69</v>
@@ -35837,7 +35846,7 @@
         <v>201</v>
       </c>
       <c r="P169" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q169">
         <v>2.05</v>
@@ -37073,7 +37082,7 @@
         <v>203</v>
       </c>
       <c r="P175" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q175">
         <v>2.63</v>
@@ -37279,7 +37288,7 @@
         <v>169</v>
       </c>
       <c r="P176" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q176">
         <v>4</v>
@@ -37485,7 +37494,7 @@
         <v>155</v>
       </c>
       <c r="P177" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q177">
         <v>2.88</v>
@@ -37691,7 +37700,7 @@
         <v>204</v>
       </c>
       <c r="P178" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q178">
         <v>2.5</v>
@@ -38103,7 +38112,7 @@
         <v>166</v>
       </c>
       <c r="P180" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q180">
         <v>2.38</v>
@@ -38672,6 +38681,624 @@
       </c>
       <c r="BP182">
         <v>1.52</v>
+      </c>
+    </row>
+    <row r="183" spans="1:68">
+      <c r="A183" s="1">
+        <v>182</v>
+      </c>
+      <c r="B183">
+        <v>7380507</v>
+      </c>
+      <c r="C183" t="s">
+        <v>68</v>
+      </c>
+      <c r="D183" t="s">
+        <v>69</v>
+      </c>
+      <c r="E183" s="2">
+        <v>45508.66666666666</v>
+      </c>
+      <c r="F183">
+        <v>19</v>
+      </c>
+      <c r="G183" t="s">
+        <v>77</v>
+      </c>
+      <c r="H183" t="s">
+        <v>82</v>
+      </c>
+      <c r="I183">
+        <v>0</v>
+      </c>
+      <c r="J183">
+        <v>0</v>
+      </c>
+      <c r="K183">
+        <v>0</v>
+      </c>
+      <c r="L183">
+        <v>1</v>
+      </c>
+      <c r="M183">
+        <v>0</v>
+      </c>
+      <c r="N183">
+        <v>1</v>
+      </c>
+      <c r="O183" t="s">
+        <v>207</v>
+      </c>
+      <c r="P183" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q183">
+        <v>3.25</v>
+      </c>
+      <c r="R183">
+        <v>1.91</v>
+      </c>
+      <c r="S183">
+        <v>4</v>
+      </c>
+      <c r="T183">
+        <v>1.57</v>
+      </c>
+      <c r="U183">
+        <v>2.25</v>
+      </c>
+      <c r="V183">
+        <v>3.75</v>
+      </c>
+      <c r="W183">
+        <v>1.25</v>
+      </c>
+      <c r="X183">
+        <v>13</v>
+      </c>
+      <c r="Y183">
+        <v>1.04</v>
+      </c>
+      <c r="Z183">
+        <v>2.35</v>
+      </c>
+      <c r="AA183">
+        <v>2.9</v>
+      </c>
+      <c r="AB183">
+        <v>3.4</v>
+      </c>
+      <c r="AC183">
+        <v>1.1</v>
+      </c>
+      <c r="AD183">
+        <v>6.5</v>
+      </c>
+      <c r="AE183">
+        <v>1.53</v>
+      </c>
+      <c r="AF183">
+        <v>2.38</v>
+      </c>
+      <c r="AG183">
+        <v>2.7</v>
+      </c>
+      <c r="AH183">
+        <v>1.44</v>
+      </c>
+      <c r="AI183">
+        <v>2.2</v>
+      </c>
+      <c r="AJ183">
+        <v>1.62</v>
+      </c>
+      <c r="AK183">
+        <v>1.3</v>
+      </c>
+      <c r="AL183">
+        <v>1.33</v>
+      </c>
+      <c r="AM183">
+        <v>1.57</v>
+      </c>
+      <c r="AN183">
+        <v>2.38</v>
+      </c>
+      <c r="AO183">
+        <v>1.25</v>
+      </c>
+      <c r="AP183">
+        <v>2.44</v>
+      </c>
+      <c r="AQ183">
+        <v>1.11</v>
+      </c>
+      <c r="AR183">
+        <v>1.53</v>
+      </c>
+      <c r="AS183">
+        <v>1.16</v>
+      </c>
+      <c r="AT183">
+        <v>2.69</v>
+      </c>
+      <c r="AU183">
+        <v>7</v>
+      </c>
+      <c r="AV183">
+        <v>3</v>
+      </c>
+      <c r="AW183">
+        <v>9</v>
+      </c>
+      <c r="AX183">
+        <v>7</v>
+      </c>
+      <c r="AY183">
+        <v>16</v>
+      </c>
+      <c r="AZ183">
+        <v>10</v>
+      </c>
+      <c r="BA183">
+        <v>8</v>
+      </c>
+      <c r="BB183">
+        <v>2</v>
+      </c>
+      <c r="BC183">
+        <v>10</v>
+      </c>
+      <c r="BD183">
+        <v>1.69</v>
+      </c>
+      <c r="BE183">
+        <v>8.1</v>
+      </c>
+      <c r="BF183">
+        <v>2.66</v>
+      </c>
+      <c r="BG183">
+        <v>1.18</v>
+      </c>
+      <c r="BH183">
+        <v>4.5</v>
+      </c>
+      <c r="BI183">
+        <v>1.34</v>
+      </c>
+      <c r="BJ183">
+        <v>3.1</v>
+      </c>
+      <c r="BK183">
+        <v>2</v>
+      </c>
+      <c r="BL183">
+        <v>2.23</v>
+      </c>
+      <c r="BM183">
+        <v>2.02</v>
+      </c>
+      <c r="BN183">
+        <v>1.74</v>
+      </c>
+      <c r="BO183">
+        <v>2.7</v>
+      </c>
+      <c r="BP183">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="184" spans="1:68">
+      <c r="A184" s="1">
+        <v>183</v>
+      </c>
+      <c r="B184">
+        <v>7380509</v>
+      </c>
+      <c r="C184" t="s">
+        <v>68</v>
+      </c>
+      <c r="D184" t="s">
+        <v>69</v>
+      </c>
+      <c r="E184" s="2">
+        <v>45508.77083333334</v>
+      </c>
+      <c r="F184">
+        <v>19</v>
+      </c>
+      <c r="G184" t="s">
+        <v>71</v>
+      </c>
+      <c r="H184" t="s">
+        <v>88</v>
+      </c>
+      <c r="I184">
+        <v>1</v>
+      </c>
+      <c r="J184">
+        <v>0</v>
+      </c>
+      <c r="K184">
+        <v>1</v>
+      </c>
+      <c r="L184">
+        <v>2</v>
+      </c>
+      <c r="M184">
+        <v>1</v>
+      </c>
+      <c r="N184">
+        <v>3</v>
+      </c>
+      <c r="O184" t="s">
+        <v>208</v>
+      </c>
+      <c r="P184" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q184">
+        <v>3</v>
+      </c>
+      <c r="R184">
+        <v>1.83</v>
+      </c>
+      <c r="S184">
+        <v>5</v>
+      </c>
+      <c r="T184">
+        <v>1.62</v>
+      </c>
+      <c r="U184">
+        <v>2.2</v>
+      </c>
+      <c r="V184">
+        <v>4</v>
+      </c>
+      <c r="W184">
+        <v>1.22</v>
+      </c>
+      <c r="X184">
+        <v>13</v>
+      </c>
+      <c r="Y184">
+        <v>1.04</v>
+      </c>
+      <c r="Z184">
+        <v>2.1</v>
+      </c>
+      <c r="AA184">
+        <v>3</v>
+      </c>
+      <c r="AB184">
+        <v>3.9</v>
+      </c>
+      <c r="AC184">
+        <v>1.12</v>
+      </c>
+      <c r="AD184">
+        <v>6</v>
+      </c>
+      <c r="AE184">
+        <v>1.57</v>
+      </c>
+      <c r="AF184">
+        <v>2.25</v>
+      </c>
+      <c r="AG184">
+        <v>3.1</v>
+      </c>
+      <c r="AH184">
+        <v>1.36</v>
+      </c>
+      <c r="AI184">
+        <v>2.5</v>
+      </c>
+      <c r="AJ184">
+        <v>1.5</v>
+      </c>
+      <c r="AK184">
+        <v>1.25</v>
+      </c>
+      <c r="AL184">
+        <v>1.3</v>
+      </c>
+      <c r="AM184">
+        <v>1.73</v>
+      </c>
+      <c r="AN184">
+        <v>1.63</v>
+      </c>
+      <c r="AO184">
+        <v>0.89</v>
+      </c>
+      <c r="AP184">
+        <v>1.78</v>
+      </c>
+      <c r="AQ184">
+        <v>0.8</v>
+      </c>
+      <c r="AR184">
+        <v>1.53</v>
+      </c>
+      <c r="AS184">
+        <v>1.06</v>
+      </c>
+      <c r="AT184">
+        <v>2.59</v>
+      </c>
+      <c r="AU184">
+        <v>5</v>
+      </c>
+      <c r="AV184">
+        <v>3</v>
+      </c>
+      <c r="AW184">
+        <v>9</v>
+      </c>
+      <c r="AX184">
+        <v>2</v>
+      </c>
+      <c r="AY184">
+        <v>14</v>
+      </c>
+      <c r="AZ184">
+        <v>5</v>
+      </c>
+      <c r="BA184">
+        <v>8</v>
+      </c>
+      <c r="BB184">
+        <v>2</v>
+      </c>
+      <c r="BC184">
+        <v>10</v>
+      </c>
+      <c r="BD184">
+        <v>1.62</v>
+      </c>
+      <c r="BE184">
+        <v>8.1</v>
+      </c>
+      <c r="BF184">
+        <v>2.86</v>
+      </c>
+      <c r="BG184">
+        <v>1.22</v>
+      </c>
+      <c r="BH184">
+        <v>4</v>
+      </c>
+      <c r="BI184">
+        <v>1.42</v>
+      </c>
+      <c r="BJ184">
+        <v>2.75</v>
+      </c>
+      <c r="BK184">
+        <v>2.2</v>
+      </c>
+      <c r="BL184">
+        <v>2.02</v>
+      </c>
+      <c r="BM184">
+        <v>2.23</v>
+      </c>
+      <c r="BN184">
+        <v>1.61</v>
+      </c>
+      <c r="BO184">
+        <v>3</v>
+      </c>
+      <c r="BP184">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="185" spans="1:68">
+      <c r="A185" s="1">
+        <v>184</v>
+      </c>
+      <c r="B185">
+        <v>7380513</v>
+      </c>
+      <c r="C185" t="s">
+        <v>68</v>
+      </c>
+      <c r="D185" t="s">
+        <v>69</v>
+      </c>
+      <c r="E185" s="2">
+        <v>45508.77083333334</v>
+      </c>
+      <c r="F185">
+        <v>19</v>
+      </c>
+      <c r="G185" t="s">
+        <v>72</v>
+      </c>
+      <c r="H185" t="s">
+        <v>84</v>
+      </c>
+      <c r="I185">
+        <v>1</v>
+      </c>
+      <c r="J185">
+        <v>0</v>
+      </c>
+      <c r="K185">
+        <v>1</v>
+      </c>
+      <c r="L185">
+        <v>2</v>
+      </c>
+      <c r="M185">
+        <v>0</v>
+      </c>
+      <c r="N185">
+        <v>2</v>
+      </c>
+      <c r="O185" t="s">
+        <v>209</v>
+      </c>
+      <c r="P185" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q185">
+        <v>2.88</v>
+      </c>
+      <c r="R185">
+        <v>1.83</v>
+      </c>
+      <c r="S185">
+        <v>5.5</v>
+      </c>
+      <c r="T185">
+        <v>1.65</v>
+      </c>
+      <c r="U185">
+        <v>2.1</v>
+      </c>
+      <c r="V185">
+        <v>4</v>
+      </c>
+      <c r="W185">
+        <v>1.2</v>
+      </c>
+      <c r="X185">
+        <v>11.5</v>
+      </c>
+      <c r="Y185">
+        <v>1.02</v>
+      </c>
+      <c r="Z185">
+        <v>2</v>
+      </c>
+      <c r="AA185">
+        <v>2.88</v>
+      </c>
+      <c r="AB185">
+        <v>4.5</v>
+      </c>
+      <c r="AC185">
+        <v>1.12</v>
+      </c>
+      <c r="AD185">
+        <v>5.6</v>
+      </c>
+      <c r="AE185">
+        <v>1.55</v>
+      </c>
+      <c r="AF185">
+        <v>2.2</v>
+      </c>
+      <c r="AG185">
+        <v>3.1</v>
+      </c>
+      <c r="AH185">
+        <v>1.36</v>
+      </c>
+      <c r="AI185">
+        <v>2.5</v>
+      </c>
+      <c r="AJ185">
+        <v>1.5</v>
+      </c>
+      <c r="AK185">
+        <v>1.22</v>
+      </c>
+      <c r="AL185">
+        <v>1.33</v>
+      </c>
+      <c r="AM185">
+        <v>1.7</v>
+      </c>
+      <c r="AN185">
+        <v>1.88</v>
+      </c>
+      <c r="AO185">
+        <v>0.38</v>
+      </c>
+      <c r="AP185">
+        <v>2</v>
+      </c>
+      <c r="AQ185">
+        <v>0.33</v>
+      </c>
+      <c r="AR185">
+        <v>1.46</v>
+      </c>
+      <c r="AS185">
+        <v>1.14</v>
+      </c>
+      <c r="AT185">
+        <v>2.6</v>
+      </c>
+      <c r="AU185">
+        <v>5</v>
+      </c>
+      <c r="AV185">
+        <v>4</v>
+      </c>
+      <c r="AW185">
+        <v>7</v>
+      </c>
+      <c r="AX185">
+        <v>2</v>
+      </c>
+      <c r="AY185">
+        <v>12</v>
+      </c>
+      <c r="AZ185">
+        <v>6</v>
+      </c>
+      <c r="BA185">
+        <v>8</v>
+      </c>
+      <c r="BB185">
+        <v>2</v>
+      </c>
+      <c r="BC185">
+        <v>10</v>
+      </c>
+      <c r="BD185">
+        <v>1.59</v>
+      </c>
+      <c r="BE185">
+        <v>7.8</v>
+      </c>
+      <c r="BF185">
+        <v>3</v>
+      </c>
+      <c r="BG185">
+        <v>1.22</v>
+      </c>
+      <c r="BH185">
+        <v>4</v>
+      </c>
+      <c r="BI185">
+        <v>1.42</v>
+      </c>
+      <c r="BJ185">
+        <v>2.75</v>
+      </c>
+      <c r="BK185">
+        <v>2.2</v>
+      </c>
+      <c r="BL185">
+        <v>2.02</v>
+      </c>
+      <c r="BM185">
+        <v>2.23</v>
+      </c>
+      <c r="BN185">
+        <v>1.61</v>
+      </c>
+      <c r="BO185">
+        <v>3</v>
+      </c>
+      <c r="BP185">
+        <v>1.35</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="272">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -646,6 +646,9 @@
     <t>['12', '50']</t>
   </si>
   <si>
+    <t>['19', '46']</t>
+  </si>
+  <si>
     <t>['31', '49', '69']</t>
   </si>
   <si>
@@ -824,6 +827,9 @@
   </si>
   <si>
     <t>['70']</t>
+  </si>
+  <si>
+    <t>['1', '90+6']</t>
   </si>
 </sst>
 </file>
@@ -1185,7 +1191,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP185"/>
+  <dimension ref="A1:BP187"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2140,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ5">
         <v>0.11</v>
@@ -2474,7 +2480,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q7">
         <v>4.33</v>
@@ -2886,7 +2892,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -3170,7 +3176,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="AQ10">
         <v>0.25</v>
@@ -3298,7 +3304,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q11">
         <v>3.5</v>
@@ -3379,7 +3385,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ11">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3504,7 +3510,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q12">
         <v>3.6</v>
@@ -3916,7 +3922,7 @@
         <v>100</v>
       </c>
       <c r="P14" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q14">
         <v>4.75</v>
@@ -4122,7 +4128,7 @@
         <v>100</v>
       </c>
       <c r="P15" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -5358,7 +5364,7 @@
         <v>106</v>
       </c>
       <c r="P21" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5976,7 +5982,7 @@
         <v>107</v>
       </c>
       <c r="P24" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q24">
         <v>3.6</v>
@@ -6054,7 +6060,7 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ24">
         <v>0.89</v>
@@ -6260,7 +6266,7 @@
         <v>3</v>
       </c>
       <c r="AP25">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="AQ25">
         <v>1.22</v>
@@ -6388,7 +6394,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6594,7 +6600,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q27">
         <v>4</v>
@@ -6800,7 +6806,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -7499,7 +7505,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ31">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AR31">
         <v>1.04</v>
@@ -7624,7 +7630,7 @@
         <v>113</v>
       </c>
       <c r="P32" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q32">
         <v>2.38</v>
@@ -7830,7 +7836,7 @@
         <v>100</v>
       </c>
       <c r="P33" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -9066,7 +9072,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q39">
         <v>2</v>
@@ -9478,7 +9484,7 @@
         <v>120</v>
       </c>
       <c r="P41" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q41">
         <v>2.25</v>
@@ -9684,7 +9690,7 @@
         <v>121</v>
       </c>
       <c r="P42" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9890,7 +9896,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q43">
         <v>3.2</v>
@@ -9968,7 +9974,7 @@
         <v>1.5</v>
       </c>
       <c r="AP43">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="AQ43">
         <v>1.7</v>
@@ -10795,7 +10801,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ47">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AR47">
         <v>1.99</v>
@@ -11126,7 +11132,7 @@
         <v>125</v>
       </c>
       <c r="P49" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -12568,7 +12574,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q56">
         <v>1.95</v>
@@ -13392,7 +13398,7 @@
         <v>118</v>
       </c>
       <c r="P60" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13676,7 +13682,7 @@
         <v>0.5</v>
       </c>
       <c r="AP61">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ61">
         <v>0.4</v>
@@ -13804,7 +13810,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q62">
         <v>3.4</v>
@@ -14422,7 +14428,7 @@
         <v>135</v>
       </c>
       <c r="P65" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q65">
         <v>2.38</v>
@@ -14500,7 +14506,7 @@
         <v>0</v>
       </c>
       <c r="AP65">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="AQ65">
         <v>0.5</v>
@@ -15040,7 +15046,7 @@
         <v>100</v>
       </c>
       <c r="P68" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q68">
         <v>3.6</v>
@@ -15533,7 +15539,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ70">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AR70">
         <v>1.23</v>
@@ -16276,7 +16282,7 @@
         <v>90</v>
       </c>
       <c r="P74" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q74">
         <v>3.1</v>
@@ -16354,7 +16360,7 @@
         <v>0</v>
       </c>
       <c r="AP74">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ74">
         <v>0.67</v>
@@ -16482,7 +16488,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -16894,7 +16900,7 @@
         <v>139</v>
       </c>
       <c r="P77" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q77">
         <v>2.2</v>
@@ -17718,7 +17724,7 @@
         <v>146</v>
       </c>
       <c r="P81" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q81">
         <v>2.05</v>
@@ -17924,7 +17930,7 @@
         <v>147</v>
       </c>
       <c r="P82" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q82">
         <v>4</v>
@@ -18130,7 +18136,7 @@
         <v>100</v>
       </c>
       <c r="P83" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q83">
         <v>3.2</v>
@@ -18336,7 +18342,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q84">
         <v>2.75</v>
@@ -18954,7 +18960,7 @@
         <v>150</v>
       </c>
       <c r="P87" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q87">
         <v>3.5</v>
@@ -19032,7 +19038,7 @@
         <v>1.33</v>
       </c>
       <c r="AP87">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="AQ87">
         <v>0.89</v>
@@ -19984,7 +19990,7 @@
         <v>153</v>
       </c>
       <c r="P92" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q92">
         <v>2.63</v>
@@ -20602,7 +20608,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q95">
         <v>3.5</v>
@@ -21220,7 +21226,7 @@
         <v>116</v>
       </c>
       <c r="P98" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q98">
         <v>3</v>
@@ -21507,7 +21513,7 @@
         <v>2</v>
       </c>
       <c r="AQ99">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AR99">
         <v>1.35</v>
@@ -21632,7 +21638,7 @@
         <v>100</v>
       </c>
       <c r="P100" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q100">
         <v>3.5</v>
@@ -21710,7 +21716,7 @@
         <v>1.4</v>
       </c>
       <c r="AP100">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ100">
         <v>1.22</v>
@@ -21838,7 +21844,7 @@
         <v>160</v>
       </c>
       <c r="P101" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q101">
         <v>2.6</v>
@@ -23358,10 +23364,10 @@
         <v>0.4</v>
       </c>
       <c r="AP108">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="AQ108">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AR108">
         <v>1.39</v>
@@ -24310,7 +24316,7 @@
         <v>167</v>
       </c>
       <c r="P113" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q113">
         <v>3.25</v>
@@ -24388,7 +24394,7 @@
         <v>0.83</v>
       </c>
       <c r="AP113">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ113">
         <v>1</v>
@@ -24594,7 +24600,7 @@
         <v>0.83</v>
       </c>
       <c r="AP114">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="AQ114">
         <v>0.8</v>
@@ -24722,7 +24728,7 @@
         <v>169</v>
       </c>
       <c r="P115" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q115">
         <v>2.68</v>
@@ -25134,7 +25140,7 @@
         <v>170</v>
       </c>
       <c r="P117" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q117">
         <v>2.38</v>
@@ -25752,7 +25758,7 @@
         <v>90</v>
       </c>
       <c r="P120" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q120">
         <v>2.4</v>
@@ -26164,7 +26170,7 @@
         <v>173</v>
       </c>
       <c r="P122" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q122">
         <v>1.95</v>
@@ -26576,7 +26582,7 @@
         <v>174</v>
       </c>
       <c r="P124" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q124">
         <v>2.75</v>
@@ -26782,7 +26788,7 @@
         <v>175</v>
       </c>
       <c r="P125" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q125">
         <v>3</v>
@@ -27194,7 +27200,7 @@
         <v>176</v>
       </c>
       <c r="P127" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q127">
         <v>2.4</v>
@@ -27400,7 +27406,7 @@
         <v>177</v>
       </c>
       <c r="P128" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q128">
         <v>2.75</v>
@@ -27606,7 +27612,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q129">
         <v>3.25</v>
@@ -27687,7 +27693,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ129">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AR129">
         <v>1.77</v>
@@ -28430,7 +28436,7 @@
         <v>140</v>
       </c>
       <c r="P133" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q133">
         <v>2.25</v>
@@ -28636,7 +28642,7 @@
         <v>96</v>
       </c>
       <c r="P134" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q134">
         <v>2.5</v>
@@ -28842,7 +28848,7 @@
         <v>180</v>
       </c>
       <c r="P135" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q135">
         <v>3.5</v>
@@ -29254,7 +29260,7 @@
         <v>100</v>
       </c>
       <c r="P137" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q137">
         <v>2.75</v>
@@ -29460,7 +29466,7 @@
         <v>181</v>
       </c>
       <c r="P138" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q138">
         <v>3</v>
@@ -29872,7 +29878,7 @@
         <v>182</v>
       </c>
       <c r="P140" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q140">
         <v>3.75</v>
@@ -29953,7 +29959,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ140">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AR140">
         <v>1.49</v>
@@ -30078,7 +30084,7 @@
         <v>100</v>
       </c>
       <c r="P141" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q141">
         <v>3</v>
@@ -30284,7 +30290,7 @@
         <v>183</v>
       </c>
       <c r="P142" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q142">
         <v>3.2</v>
@@ -30490,7 +30496,7 @@
         <v>152</v>
       </c>
       <c r="P143" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q143">
         <v>2.5</v>
@@ -31108,7 +31114,7 @@
         <v>186</v>
       </c>
       <c r="P146" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q146">
         <v>3.1</v>
@@ -31186,7 +31192,7 @@
         <v>1.5</v>
       </c>
       <c r="AP146">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="AQ146">
         <v>1.11</v>
@@ -31392,7 +31398,7 @@
         <v>0.43</v>
       </c>
       <c r="AP147">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ147">
         <v>0.5</v>
@@ -31726,7 +31732,7 @@
         <v>189</v>
       </c>
       <c r="P149" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q149">
         <v>2.5</v>
@@ -32138,7 +32144,7 @@
         <v>191</v>
       </c>
       <c r="P151" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q151">
         <v>3.75</v>
@@ -32216,7 +32222,7 @@
         <v>1.25</v>
       </c>
       <c r="AP151">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="AQ151">
         <v>1.2</v>
@@ -32837,7 +32843,7 @@
         <v>2</v>
       </c>
       <c r="AQ154">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AR154">
         <v>1.77</v>
@@ -33580,7 +33586,7 @@
         <v>194</v>
       </c>
       <c r="P158" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q158">
         <v>3.75</v>
@@ -33786,7 +33792,7 @@
         <v>195</v>
       </c>
       <c r="P159" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q159">
         <v>3</v>
@@ -34276,7 +34282,7 @@
         <v>1.57</v>
       </c>
       <c r="AP161">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ161">
         <v>1.44</v>
@@ -35640,7 +35646,7 @@
         <v>200</v>
       </c>
       <c r="P168" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q168">
         <v>2.63</v>
@@ -35846,7 +35852,7 @@
         <v>201</v>
       </c>
       <c r="P169" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q169">
         <v>2.05</v>
@@ -37082,7 +37088,7 @@
         <v>203</v>
       </c>
       <c r="P175" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q175">
         <v>2.63</v>
@@ -37288,7 +37294,7 @@
         <v>169</v>
       </c>
       <c r="P176" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q176">
         <v>4</v>
@@ -37494,7 +37500,7 @@
         <v>155</v>
       </c>
       <c r="P177" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q177">
         <v>2.88</v>
@@ -37700,7 +37706,7 @@
         <v>204</v>
       </c>
       <c r="P178" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q178">
         <v>2.5</v>
@@ -38112,7 +38118,7 @@
         <v>166</v>
       </c>
       <c r="P180" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q180">
         <v>2.38</v>
@@ -38936,7 +38942,7 @@
         <v>208</v>
       </c>
       <c r="P184" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q184">
         <v>3</v>
@@ -39299,6 +39305,418 @@
       </c>
       <c r="BP185">
         <v>1.35</v>
+      </c>
+    </row>
+    <row r="186" spans="1:68">
+      <c r="A186" s="1">
+        <v>185</v>
+      </c>
+      <c r="B186">
+        <v>7380511</v>
+      </c>
+      <c r="C186" t="s">
+        <v>68</v>
+      </c>
+      <c r="D186" t="s">
+        <v>69</v>
+      </c>
+      <c r="E186" s="2">
+        <v>45509.77083333334</v>
+      </c>
+      <c r="F186">
+        <v>19</v>
+      </c>
+      <c r="G186" t="s">
+        <v>73</v>
+      </c>
+      <c r="H186" t="s">
+        <v>89</v>
+      </c>
+      <c r="I186">
+        <v>0</v>
+      </c>
+      <c r="J186">
+        <v>0</v>
+      </c>
+      <c r="K186">
+        <v>0</v>
+      </c>
+      <c r="L186">
+        <v>0</v>
+      </c>
+      <c r="M186">
+        <v>1</v>
+      </c>
+      <c r="N186">
+        <v>1</v>
+      </c>
+      <c r="O186" t="s">
+        <v>100</v>
+      </c>
+      <c r="P186" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q186">
+        <v>3.75</v>
+      </c>
+      <c r="R186">
+        <v>1.8</v>
+      </c>
+      <c r="S186">
+        <v>3.75</v>
+      </c>
+      <c r="T186">
+        <v>1.67</v>
+      </c>
+      <c r="U186">
+        <v>2.1</v>
+      </c>
+      <c r="V186">
+        <v>4.33</v>
+      </c>
+      <c r="W186">
+        <v>1.2</v>
+      </c>
+      <c r="X186">
+        <v>15</v>
+      </c>
+      <c r="Y186">
+        <v>1.03</v>
+      </c>
+      <c r="Z186">
+        <v>2.8</v>
+      </c>
+      <c r="AA186">
+        <v>2.8</v>
+      </c>
+      <c r="AB186">
+        <v>2.8</v>
+      </c>
+      <c r="AC186">
+        <v>1.12</v>
+      </c>
+      <c r="AD186">
+        <v>5.6</v>
+      </c>
+      <c r="AE186">
+        <v>1.6</v>
+      </c>
+      <c r="AF186">
+        <v>2.2</v>
+      </c>
+      <c r="AG186">
+        <v>3.1</v>
+      </c>
+      <c r="AH186">
+        <v>1.36</v>
+      </c>
+      <c r="AI186">
+        <v>2.38</v>
+      </c>
+      <c r="AJ186">
+        <v>1.53</v>
+      </c>
+      <c r="AK186">
+        <v>1.45</v>
+      </c>
+      <c r="AL186">
+        <v>1.33</v>
+      </c>
+      <c r="AM186">
+        <v>1.4</v>
+      </c>
+      <c r="AN186">
+        <v>1</v>
+      </c>
+      <c r="AO186">
+        <v>0.67</v>
+      </c>
+      <c r="AP186">
+        <v>0.89</v>
+      </c>
+      <c r="AQ186">
+        <v>0.9</v>
+      </c>
+      <c r="AR186">
+        <v>1.61</v>
+      </c>
+      <c r="AS186">
+        <v>1.18</v>
+      </c>
+      <c r="AT186">
+        <v>2.79</v>
+      </c>
+      <c r="AU186">
+        <v>9</v>
+      </c>
+      <c r="AV186">
+        <v>4</v>
+      </c>
+      <c r="AW186">
+        <v>7</v>
+      </c>
+      <c r="AX186">
+        <v>3</v>
+      </c>
+      <c r="AY186">
+        <v>16</v>
+      </c>
+      <c r="AZ186">
+        <v>7</v>
+      </c>
+      <c r="BA186">
+        <v>4</v>
+      </c>
+      <c r="BB186">
+        <v>2</v>
+      </c>
+      <c r="BC186">
+        <v>6</v>
+      </c>
+      <c r="BD186">
+        <v>1.9</v>
+      </c>
+      <c r="BE186">
+        <v>7.6</v>
+      </c>
+      <c r="BF186">
+        <v>2.27</v>
+      </c>
+      <c r="BG186">
+        <v>1.22</v>
+      </c>
+      <c r="BH186">
+        <v>4</v>
+      </c>
+      <c r="BI186">
+        <v>1.35</v>
+      </c>
+      <c r="BJ186">
+        <v>2.84</v>
+      </c>
+      <c r="BK186">
+        <v>2.2</v>
+      </c>
+      <c r="BL186">
+        <v>2.12</v>
+      </c>
+      <c r="BM186">
+        <v>2.04</v>
+      </c>
+      <c r="BN186">
+        <v>1.69</v>
+      </c>
+      <c r="BO186">
+        <v>2.64</v>
+      </c>
+      <c r="BP186">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="187" spans="1:68">
+      <c r="A187" s="1">
+        <v>186</v>
+      </c>
+      <c r="B187">
+        <v>7380506</v>
+      </c>
+      <c r="C187" t="s">
+        <v>68</v>
+      </c>
+      <c r="D187" t="s">
+        <v>69</v>
+      </c>
+      <c r="E187" s="2">
+        <v>45509.875</v>
+      </c>
+      <c r="F187">
+        <v>19</v>
+      </c>
+      <c r="G187" t="s">
+        <v>78</v>
+      </c>
+      <c r="H187" t="s">
+        <v>85</v>
+      </c>
+      <c r="I187">
+        <v>1</v>
+      </c>
+      <c r="J187">
+        <v>1</v>
+      </c>
+      <c r="K187">
+        <v>2</v>
+      </c>
+      <c r="L187">
+        <v>2</v>
+      </c>
+      <c r="M187">
+        <v>2</v>
+      </c>
+      <c r="N187">
+        <v>4</v>
+      </c>
+      <c r="O187" t="s">
+        <v>210</v>
+      </c>
+      <c r="P187" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q187">
+        <v>2.75</v>
+      </c>
+      <c r="R187">
+        <v>2</v>
+      </c>
+      <c r="S187">
+        <v>4.5</v>
+      </c>
+      <c r="T187">
+        <v>1.5</v>
+      </c>
+      <c r="U187">
+        <v>2.5</v>
+      </c>
+      <c r="V187">
+        <v>3.4</v>
+      </c>
+      <c r="W187">
+        <v>1.3</v>
+      </c>
+      <c r="X187">
+        <v>10</v>
+      </c>
+      <c r="Y187">
+        <v>1.06</v>
+      </c>
+      <c r="Z187">
+        <v>2</v>
+      </c>
+      <c r="AA187">
+        <v>3.25</v>
+      </c>
+      <c r="AB187">
+        <v>3.9</v>
+      </c>
+      <c r="AC187">
+        <v>1.08</v>
+      </c>
+      <c r="AD187">
+        <v>7.5</v>
+      </c>
+      <c r="AE187">
+        <v>1.48</v>
+      </c>
+      <c r="AF187">
+        <v>2.47</v>
+      </c>
+      <c r="AG187">
+        <v>2.35</v>
+      </c>
+      <c r="AH187">
+        <v>1.57</v>
+      </c>
+      <c r="AI187">
+        <v>2.1</v>
+      </c>
+      <c r="AJ187">
+        <v>1.67</v>
+      </c>
+      <c r="AK187">
+        <v>1.25</v>
+      </c>
+      <c r="AL187">
+        <v>1.28</v>
+      </c>
+      <c r="AM187">
+        <v>1.78</v>
+      </c>
+      <c r="AN187">
+        <v>2.56</v>
+      </c>
+      <c r="AO187">
+        <v>1</v>
+      </c>
+      <c r="AP187">
+        <v>2.4</v>
+      </c>
+      <c r="AQ187">
+        <v>1</v>
+      </c>
+      <c r="AR187">
+        <v>1.3</v>
+      </c>
+      <c r="AS187">
+        <v>1.42</v>
+      </c>
+      <c r="AT187">
+        <v>2.72</v>
+      </c>
+      <c r="AU187">
+        <v>5</v>
+      </c>
+      <c r="AV187">
+        <v>4</v>
+      </c>
+      <c r="AW187">
+        <v>6</v>
+      </c>
+      <c r="AX187">
+        <v>3</v>
+      </c>
+      <c r="AY187">
+        <v>11</v>
+      </c>
+      <c r="AZ187">
+        <v>7</v>
+      </c>
+      <c r="BA187">
+        <v>8</v>
+      </c>
+      <c r="BB187">
+        <v>7</v>
+      </c>
+      <c r="BC187">
+        <v>15</v>
+      </c>
+      <c r="BD187">
+        <v>2.07</v>
+      </c>
+      <c r="BE187">
+        <v>7.5</v>
+      </c>
+      <c r="BF187">
+        <v>2.07</v>
+      </c>
+      <c r="BG187">
+        <v>1.2</v>
+      </c>
+      <c r="BH187">
+        <v>4.25</v>
+      </c>
+      <c r="BI187">
+        <v>1.23</v>
+      </c>
+      <c r="BJ187">
+        <v>3.9</v>
+      </c>
+      <c r="BK187">
+        <v>1.83</v>
+      </c>
+      <c r="BL187">
+        <v>2.75</v>
+      </c>
+      <c r="BM187">
+        <v>1.71</v>
+      </c>
+      <c r="BN187">
+        <v>2.06</v>
+      </c>
+      <c r="BO187">
+        <v>2.17</v>
+      </c>
+      <c r="BP187">
+        <v>1.64</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="274">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -649,6 +649,9 @@
     <t>['19', '46']</t>
   </si>
   <si>
+    <t>['26', '78', '90+2']</t>
+  </si>
+  <si>
     <t>['31', '49', '69']</t>
   </si>
   <si>
@@ -830,6 +833,9 @@
   </si>
   <si>
     <t>['1', '90+6']</t>
+  </si>
+  <si>
+    <t>['44']</t>
   </si>
 </sst>
 </file>
@@ -1191,7 +1197,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP187"/>
+  <dimension ref="A1:BP188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2480,7 +2486,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q7">
         <v>4.33</v>
@@ -2764,7 +2770,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ8">
         <v>0.8</v>
@@ -2892,7 +2898,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -3179,7 +3185,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ10">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3304,7 +3310,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q11">
         <v>3.5</v>
@@ -3510,7 +3516,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q12">
         <v>3.6</v>
@@ -3922,7 +3928,7 @@
         <v>100</v>
       </c>
       <c r="P14" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q14">
         <v>4.75</v>
@@ -4128,7 +4134,7 @@
         <v>100</v>
       </c>
       <c r="P15" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -5364,7 +5370,7 @@
         <v>106</v>
       </c>
       <c r="P21" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5982,7 +5988,7 @@
         <v>107</v>
       </c>
       <c r="P24" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q24">
         <v>3.6</v>
@@ -6394,7 +6400,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6600,7 +6606,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q27">
         <v>4</v>
@@ -6806,7 +6812,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6884,7 +6890,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ28">
         <v>0.33</v>
@@ -7299,7 +7305,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ30">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR30">
         <v>0.95</v>
@@ -7630,7 +7636,7 @@
         <v>113</v>
       </c>
       <c r="P32" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q32">
         <v>2.38</v>
@@ -7836,7 +7842,7 @@
         <v>100</v>
       </c>
       <c r="P33" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -9072,7 +9078,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q39">
         <v>2</v>
@@ -9484,7 +9490,7 @@
         <v>120</v>
       </c>
       <c r="P41" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q41">
         <v>2.25</v>
@@ -9690,7 +9696,7 @@
         <v>121</v>
       </c>
       <c r="P42" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9896,7 +9902,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q43">
         <v>3.2</v>
@@ -10389,7 +10395,7 @@
         <v>2</v>
       </c>
       <c r="AQ45">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR45">
         <v>1.74</v>
@@ -11132,7 +11138,7 @@
         <v>125</v>
       </c>
       <c r="P49" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -11622,7 +11628,7 @@
         <v>0.5</v>
       </c>
       <c r="AP51">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ51">
         <v>0.88</v>
@@ -12574,7 +12580,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q56">
         <v>1.95</v>
@@ -13398,7 +13404,7 @@
         <v>118</v>
       </c>
       <c r="P60" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13810,7 +13816,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q62">
         <v>3.4</v>
@@ -14428,7 +14434,7 @@
         <v>135</v>
       </c>
       <c r="P65" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q65">
         <v>2.38</v>
@@ -14712,7 +14718,7 @@
         <v>1.33</v>
       </c>
       <c r="AP66">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ66">
         <v>1.1</v>
@@ -15046,7 +15052,7 @@
         <v>100</v>
       </c>
       <c r="P68" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q68">
         <v>3.6</v>
@@ -15742,7 +15748,7 @@
         <v>0.67</v>
       </c>
       <c r="AP71">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ71">
         <v>0.33</v>
@@ -16282,7 +16288,7 @@
         <v>90</v>
       </c>
       <c r="P74" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q74">
         <v>3.1</v>
@@ -16488,7 +16494,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -16900,7 +16906,7 @@
         <v>139</v>
       </c>
       <c r="P77" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q77">
         <v>2.2</v>
@@ -17393,7 +17399,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ79">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR79">
         <v>1.59</v>
@@ -17724,7 +17730,7 @@
         <v>146</v>
       </c>
       <c r="P81" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q81">
         <v>2.05</v>
@@ -17930,7 +17936,7 @@
         <v>147</v>
       </c>
       <c r="P82" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q82">
         <v>4</v>
@@ -18136,7 +18142,7 @@
         <v>100</v>
       </c>
       <c r="P83" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q83">
         <v>3.2</v>
@@ -18342,7 +18348,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q84">
         <v>2.75</v>
@@ -18960,7 +18966,7 @@
         <v>150</v>
       </c>
       <c r="P87" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q87">
         <v>3.5</v>
@@ -19990,7 +19996,7 @@
         <v>153</v>
       </c>
       <c r="P92" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q92">
         <v>2.63</v>
@@ -20071,7 +20077,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ92">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR92">
         <v>1.4</v>
@@ -20608,7 +20614,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q95">
         <v>3.5</v>
@@ -21226,7 +21232,7 @@
         <v>116</v>
       </c>
       <c r="P98" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q98">
         <v>3</v>
@@ -21638,7 +21644,7 @@
         <v>100</v>
       </c>
       <c r="P100" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q100">
         <v>3.5</v>
@@ -21844,7 +21850,7 @@
         <v>160</v>
       </c>
       <c r="P101" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q101">
         <v>2.6</v>
@@ -23570,7 +23576,7 @@
         <v>1.5</v>
       </c>
       <c r="AP109">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ109">
         <v>1.44</v>
@@ -23779,7 +23785,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ110">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR110">
         <v>1.75</v>
@@ -24316,7 +24322,7 @@
         <v>167</v>
       </c>
       <c r="P113" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q113">
         <v>3.25</v>
@@ -24728,7 +24734,7 @@
         <v>169</v>
       </c>
       <c r="P115" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q115">
         <v>2.68</v>
@@ -25140,7 +25146,7 @@
         <v>170</v>
       </c>
       <c r="P117" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q117">
         <v>2.38</v>
@@ -25758,7 +25764,7 @@
         <v>90</v>
       </c>
       <c r="P120" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q120">
         <v>2.4</v>
@@ -26170,7 +26176,7 @@
         <v>173</v>
       </c>
       <c r="P122" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q122">
         <v>1.95</v>
@@ -26248,7 +26254,7 @@
         <v>0.2</v>
       </c>
       <c r="AP122">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ122">
         <v>0.11</v>
@@ -26582,7 +26588,7 @@
         <v>174</v>
       </c>
       <c r="P124" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q124">
         <v>2.75</v>
@@ -26788,7 +26794,7 @@
         <v>175</v>
       </c>
       <c r="P125" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q125">
         <v>3</v>
@@ -27200,7 +27206,7 @@
         <v>176</v>
       </c>
       <c r="P127" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q127">
         <v>2.4</v>
@@ -27406,7 +27412,7 @@
         <v>177</v>
       </c>
       <c r="P128" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q128">
         <v>2.75</v>
@@ -27612,7 +27618,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q129">
         <v>3.25</v>
@@ -27896,7 +27902,7 @@
         <v>1</v>
       </c>
       <c r="AP130">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ130">
         <v>1.2</v>
@@ -28436,7 +28442,7 @@
         <v>140</v>
       </c>
       <c r="P133" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q133">
         <v>2.25</v>
@@ -28642,7 +28648,7 @@
         <v>96</v>
       </c>
       <c r="P134" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q134">
         <v>2.5</v>
@@ -28848,7 +28854,7 @@
         <v>180</v>
       </c>
       <c r="P135" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q135">
         <v>3.5</v>
@@ -29260,7 +29266,7 @@
         <v>100</v>
       </c>
       <c r="P137" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q137">
         <v>2.75</v>
@@ -29466,7 +29472,7 @@
         <v>181</v>
       </c>
       <c r="P138" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q138">
         <v>3</v>
@@ -29878,7 +29884,7 @@
         <v>182</v>
       </c>
       <c r="P140" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q140">
         <v>3.75</v>
@@ -30084,7 +30090,7 @@
         <v>100</v>
       </c>
       <c r="P141" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q141">
         <v>3</v>
@@ -30290,7 +30296,7 @@
         <v>183</v>
       </c>
       <c r="P142" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q142">
         <v>3.2</v>
@@ -30496,7 +30502,7 @@
         <v>152</v>
       </c>
       <c r="P143" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q143">
         <v>2.5</v>
@@ -30577,7 +30583,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ143">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR143">
         <v>1.64</v>
@@ -31114,7 +31120,7 @@
         <v>186</v>
       </c>
       <c r="P146" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q146">
         <v>3.1</v>
@@ -31732,7 +31738,7 @@
         <v>189</v>
       </c>
       <c r="P149" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q149">
         <v>2.5</v>
@@ -32144,7 +32150,7 @@
         <v>191</v>
       </c>
       <c r="P151" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q151">
         <v>3.75</v>
@@ -33586,7 +33592,7 @@
         <v>194</v>
       </c>
       <c r="P158" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q158">
         <v>3.75</v>
@@ -33792,7 +33798,7 @@
         <v>195</v>
       </c>
       <c r="P159" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q159">
         <v>3</v>
@@ -35521,7 +35527,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ167">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR167">
         <v>1.5</v>
@@ -35646,7 +35652,7 @@
         <v>200</v>
       </c>
       <c r="P168" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q168">
         <v>2.63</v>
@@ -35852,7 +35858,7 @@
         <v>201</v>
       </c>
       <c r="P169" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q169">
         <v>2.05</v>
@@ -35930,7 +35936,7 @@
         <v>1</v>
       </c>
       <c r="AP169">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ169">
         <v>0.89</v>
@@ -37088,7 +37094,7 @@
         <v>203</v>
       </c>
       <c r="P175" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q175">
         <v>2.63</v>
@@ -37294,7 +37300,7 @@
         <v>169</v>
       </c>
       <c r="P176" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q176">
         <v>4</v>
@@ -37500,7 +37506,7 @@
         <v>155</v>
       </c>
       <c r="P177" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q177">
         <v>2.88</v>
@@ -37706,7 +37712,7 @@
         <v>204</v>
       </c>
       <c r="P178" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q178">
         <v>2.5</v>
@@ -38118,7 +38124,7 @@
         <v>166</v>
       </c>
       <c r="P180" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q180">
         <v>2.38</v>
@@ -38942,7 +38948,7 @@
         <v>208</v>
       </c>
       <c r="P184" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q184">
         <v>3</v>
@@ -39354,7 +39360,7 @@
         <v>100</v>
       </c>
       <c r="P186" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q186">
         <v>3.75</v>
@@ -39560,7 +39566,7 @@
         <v>210</v>
       </c>
       <c r="P187" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q187">
         <v>2.75</v>
@@ -39674,10 +39680,10 @@
         <v>8</v>
       </c>
       <c r="BB187">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BC187">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BD187">
         <v>2.07</v>
@@ -39717,6 +39723,212 @@
       </c>
       <c r="BP187">
         <v>1.64</v>
+      </c>
+    </row>
+    <row r="188" spans="1:68">
+      <c r="A188" s="1">
+        <v>187</v>
+      </c>
+      <c r="B188">
+        <v>7380515</v>
+      </c>
+      <c r="C188" t="s">
+        <v>68</v>
+      </c>
+      <c r="D188" t="s">
+        <v>69</v>
+      </c>
+      <c r="E188" s="2">
+        <v>45510.875</v>
+      </c>
+      <c r="F188">
+        <v>19</v>
+      </c>
+      <c r="G188" t="s">
+        <v>76</v>
+      </c>
+      <c r="H188" t="s">
+        <v>83</v>
+      </c>
+      <c r="I188">
+        <v>1</v>
+      </c>
+      <c r="J188">
+        <v>1</v>
+      </c>
+      <c r="K188">
+        <v>2</v>
+      </c>
+      <c r="L188">
+        <v>3</v>
+      </c>
+      <c r="M188">
+        <v>1</v>
+      </c>
+      <c r="N188">
+        <v>4</v>
+      </c>
+      <c r="O188" t="s">
+        <v>211</v>
+      </c>
+      <c r="P188" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q188">
+        <v>2.25</v>
+      </c>
+      <c r="R188">
+        <v>2.1</v>
+      </c>
+      <c r="S188">
+        <v>6.5</v>
+      </c>
+      <c r="T188">
+        <v>1.44</v>
+      </c>
+      <c r="U188">
+        <v>2.63</v>
+      </c>
+      <c r="V188">
+        <v>3.25</v>
+      </c>
+      <c r="W188">
+        <v>1.33</v>
+      </c>
+      <c r="X188">
+        <v>9</v>
+      </c>
+      <c r="Y188">
+        <v>1.07</v>
+      </c>
+      <c r="Z188">
+        <v>1.6</v>
+      </c>
+      <c r="AA188">
+        <v>3.5</v>
+      </c>
+      <c r="AB188">
+        <v>6.5</v>
+      </c>
+      <c r="AC188">
+        <v>1.06</v>
+      </c>
+      <c r="AD188">
+        <v>8.5</v>
+      </c>
+      <c r="AE188">
+        <v>1.36</v>
+      </c>
+      <c r="AF188">
+        <v>2.95</v>
+      </c>
+      <c r="AG188">
+        <v>2.25</v>
+      </c>
+      <c r="AH188">
+        <v>1.62</v>
+      </c>
+      <c r="AI188">
+        <v>2.25</v>
+      </c>
+      <c r="AJ188">
+        <v>1.57</v>
+      </c>
+      <c r="AK188">
+        <v>1.08</v>
+      </c>
+      <c r="AL188">
+        <v>1.2</v>
+      </c>
+      <c r="AM188">
+        <v>2.35</v>
+      </c>
+      <c r="AN188">
+        <v>2</v>
+      </c>
+      <c r="AO188">
+        <v>0.25</v>
+      </c>
+      <c r="AP188">
+        <v>2.1</v>
+      </c>
+      <c r="AQ188">
+        <v>0.22</v>
+      </c>
+      <c r="AR188">
+        <v>1.78</v>
+      </c>
+      <c r="AS188">
+        <v>1.1</v>
+      </c>
+      <c r="AT188">
+        <v>2.88</v>
+      </c>
+      <c r="AU188">
+        <v>6</v>
+      </c>
+      <c r="AV188">
+        <v>2</v>
+      </c>
+      <c r="AW188">
+        <v>1</v>
+      </c>
+      <c r="AX188">
+        <v>2</v>
+      </c>
+      <c r="AY188">
+        <v>7</v>
+      </c>
+      <c r="AZ188">
+        <v>4</v>
+      </c>
+      <c r="BA188">
+        <v>3</v>
+      </c>
+      <c r="BB188">
+        <v>4</v>
+      </c>
+      <c r="BC188">
+        <v>7</v>
+      </c>
+      <c r="BD188">
+        <v>1.3</v>
+      </c>
+      <c r="BE188">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF188">
+        <v>4.89</v>
+      </c>
+      <c r="BG188">
+        <v>1.25</v>
+      </c>
+      <c r="BH188">
+        <v>3.6</v>
+      </c>
+      <c r="BI188">
+        <v>1.36</v>
+      </c>
+      <c r="BJ188">
+        <v>2.79</v>
+      </c>
+      <c r="BK188">
+        <v>2.1</v>
+      </c>
+      <c r="BL188">
+        <v>2.09</v>
+      </c>
+      <c r="BM188">
+        <v>2.08</v>
+      </c>
+      <c r="BN188">
+        <v>1.67</v>
+      </c>
+      <c r="BO188">
+        <v>2.71</v>
+      </c>
+      <c r="BP188">
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="277">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -652,6 +652,15 @@
     <t>['26', '78', '90+2']</t>
   </si>
   <si>
+    <t>['32']</t>
+  </si>
+  <si>
+    <t>['25', '36']</t>
+  </si>
+  <si>
+    <t>['13', '28', '85']</t>
+  </si>
+  <si>
     <t>['31', '49', '69']</t>
   </si>
   <si>
@@ -784,9 +793,6 @@
     <t>['40', '68']</t>
   </si>
   <si>
-    <t>['32']</t>
-  </si>
-  <si>
     <t>['33', '48']</t>
   </si>
   <si>
@@ -836,6 +842,9 @@
   </si>
   <si>
     <t>['44']</t>
+  </si>
+  <si>
+    <t>['39', '90+1', '90+9']</t>
   </si>
 </sst>
 </file>
@@ -1197,7 +1206,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP188"/>
+  <dimension ref="A1:BP192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2486,7 +2495,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q7">
         <v>4.33</v>
@@ -2898,7 +2907,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -3310,7 +3319,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q11">
         <v>3.5</v>
@@ -3516,7 +3525,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q12">
         <v>3.6</v>
@@ -3597,7 +3606,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ12">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3928,7 +3937,7 @@
         <v>100</v>
       </c>
       <c r="P14" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q14">
         <v>4.75</v>
@@ -4006,10 +4015,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ14">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4134,7 +4143,7 @@
         <v>100</v>
       </c>
       <c r="P15" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4624,10 +4633,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ17">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4830,7 +4839,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ18">
         <v>1.7</v>
@@ -5039,7 +5048,7 @@
         <v>2</v>
       </c>
       <c r="AQ19">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5370,7 +5379,7 @@
         <v>106</v>
       </c>
       <c r="P21" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5448,7 +5457,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AQ21">
         <v>0.89</v>
@@ -5654,7 +5663,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ22">
         <v>1.11</v>
@@ -5988,7 +5997,7 @@
         <v>107</v>
       </c>
       <c r="P24" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q24">
         <v>3.6</v>
@@ -6275,7 +6284,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ25">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR25">
         <v>1.46</v>
@@ -6400,7 +6409,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6606,7 +6615,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q27">
         <v>4</v>
@@ -6812,7 +6821,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -7636,7 +7645,7 @@
         <v>113</v>
       </c>
       <c r="P32" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q32">
         <v>2.38</v>
@@ -7714,7 +7723,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ32">
         <v>0.67</v>
@@ -7842,7 +7851,7 @@
         <v>100</v>
       </c>
       <c r="P33" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -8747,7 +8756,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ37">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR37">
         <v>3.34</v>
@@ -8953,7 +8962,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ38">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR38">
         <v>1.12</v>
@@ -9078,7 +9087,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q39">
         <v>2</v>
@@ -9159,7 +9168,7 @@
         <v>2</v>
       </c>
       <c r="AQ39">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR39">
         <v>1.25</v>
@@ -9362,7 +9371,7 @@
         <v>1</v>
       </c>
       <c r="AP40">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ40">
         <v>0.33</v>
@@ -9490,7 +9499,7 @@
         <v>120</v>
       </c>
       <c r="P41" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q41">
         <v>2.25</v>
@@ -9568,7 +9577,7 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AQ41">
         <v>1</v>
@@ -9696,7 +9705,7 @@
         <v>121</v>
       </c>
       <c r="P42" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9774,7 +9783,7 @@
         <v>0.5</v>
       </c>
       <c r="AP42">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ42">
         <v>0.33</v>
@@ -9902,7 +9911,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q43">
         <v>3.2</v>
@@ -10804,7 +10813,7 @@
         <v>0.5</v>
       </c>
       <c r="AP47">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ47">
         <v>0.9</v>
@@ -11013,7 +11022,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ48">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR48">
         <v>1.4</v>
@@ -11138,7 +11147,7 @@
         <v>125</v>
       </c>
       <c r="P49" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -11219,7 +11228,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ49">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR49">
         <v>1.83</v>
@@ -11422,7 +11431,7 @@
         <v>2</v>
       </c>
       <c r="AP50">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ50">
         <v>0.8</v>
@@ -12455,7 +12464,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ55">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR55">
         <v>1.77</v>
@@ -12580,7 +12589,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q56">
         <v>1.95</v>
@@ -12867,7 +12876,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ57">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR57">
         <v>1.24</v>
@@ -13276,7 +13285,7 @@
         <v>0</v>
       </c>
       <c r="AP59">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AQ59">
         <v>0.11</v>
@@ -13404,7 +13413,7 @@
         <v>118</v>
       </c>
       <c r="P60" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13816,7 +13825,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q62">
         <v>3.4</v>
@@ -13894,10 +13903,10 @@
         <v>2</v>
       </c>
       <c r="AP62">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ62">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR62">
         <v>2.09</v>
@@ -14434,7 +14443,7 @@
         <v>135</v>
       </c>
       <c r="P65" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q65">
         <v>2.38</v>
@@ -14515,7 +14524,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ65">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR65">
         <v>1.27</v>
@@ -14927,7 +14936,7 @@
         <v>2</v>
       </c>
       <c r="AQ67">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR67">
         <v>1.62</v>
@@ -15052,7 +15061,7 @@
         <v>100</v>
       </c>
       <c r="P68" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q68">
         <v>3.6</v>
@@ -15336,7 +15345,7 @@
         <v>1.67</v>
       </c>
       <c r="AP69">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ69">
         <v>0.8</v>
@@ -16288,7 +16297,7 @@
         <v>90</v>
       </c>
       <c r="P74" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q74">
         <v>3.1</v>
@@ -16494,7 +16503,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -16906,7 +16915,7 @@
         <v>139</v>
       </c>
       <c r="P77" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q77">
         <v>2.2</v>
@@ -16987,7 +16996,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ77">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR77">
         <v>1.71</v>
@@ -17396,7 +17405,7 @@
         <v>0</v>
       </c>
       <c r="AP79">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AQ79">
         <v>0.22</v>
@@ -17602,7 +17611,7 @@
         <v>1.67</v>
       </c>
       <c r="AP80">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ80">
         <v>0.89</v>
@@ -17730,7 +17739,7 @@
         <v>146</v>
       </c>
       <c r="P81" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q81">
         <v>2.05</v>
@@ -17936,7 +17945,7 @@
         <v>147</v>
       </c>
       <c r="P82" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q82">
         <v>4</v>
@@ -18017,7 +18026,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ82">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR82">
         <v>1.94</v>
@@ -18142,7 +18151,7 @@
         <v>100</v>
       </c>
       <c r="P83" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q83">
         <v>3.2</v>
@@ -18223,7 +18232,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ83">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR83">
         <v>1.96</v>
@@ -18348,7 +18357,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q84">
         <v>2.75</v>
@@ -18429,7 +18438,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ84">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR84">
         <v>1.29</v>
@@ -18632,7 +18641,7 @@
         <v>1</v>
       </c>
       <c r="AP85">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ85">
         <v>1.1</v>
@@ -18838,7 +18847,7 @@
         <v>0.5</v>
       </c>
       <c r="AP86">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ86">
         <v>0.4</v>
@@ -18966,7 +18975,7 @@
         <v>150</v>
       </c>
       <c r="P87" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q87">
         <v>3.5</v>
@@ -19456,7 +19465,7 @@
         <v>1.25</v>
       </c>
       <c r="AP89">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AQ89">
         <v>0.8</v>
@@ -19871,7 +19880,7 @@
         <v>2</v>
       </c>
       <c r="AQ91">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR91">
         <v>1.58</v>
@@ -19996,7 +20005,7 @@
         <v>153</v>
       </c>
       <c r="P92" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q92">
         <v>2.63</v>
@@ -20074,7 +20083,7 @@
         <v>0</v>
       </c>
       <c r="AP92">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ92">
         <v>0.22</v>
@@ -20280,7 +20289,7 @@
         <v>0.25</v>
       </c>
       <c r="AP93">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ93">
         <v>0.33</v>
@@ -20614,7 +20623,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q95">
         <v>3.5</v>
@@ -21232,7 +21241,7 @@
         <v>116</v>
       </c>
       <c r="P98" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q98">
         <v>3</v>
@@ -21644,7 +21653,7 @@
         <v>100</v>
       </c>
       <c r="P100" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q100">
         <v>3.5</v>
@@ -21725,7 +21734,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ100">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR100">
         <v>1.66</v>
@@ -21850,7 +21859,7 @@
         <v>160</v>
       </c>
       <c r="P101" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q101">
         <v>2.6</v>
@@ -22340,7 +22349,7 @@
         <v>0.2</v>
       </c>
       <c r="AP103">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ103">
         <v>0.33</v>
@@ -23991,7 +24000,7 @@
         <v>2</v>
       </c>
       <c r="AQ111">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR111">
         <v>1.48</v>
@@ -24197,7 +24206,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ112">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR112">
         <v>1.42</v>
@@ -24322,7 +24331,7 @@
         <v>167</v>
       </c>
       <c r="P113" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q113">
         <v>3.25</v>
@@ -24734,7 +24743,7 @@
         <v>169</v>
       </c>
       <c r="P115" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q115">
         <v>2.68</v>
@@ -25018,10 +25027,10 @@
         <v>1</v>
       </c>
       <c r="AP116">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AQ116">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR116">
         <v>1.38</v>
@@ -25146,7 +25155,7 @@
         <v>170</v>
       </c>
       <c r="P117" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q117">
         <v>2.38</v>
@@ -25224,7 +25233,7 @@
         <v>1.6</v>
       </c>
       <c r="AP117">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ117">
         <v>1.11</v>
@@ -25764,7 +25773,7 @@
         <v>90</v>
       </c>
       <c r="P120" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q120">
         <v>2.4</v>
@@ -26176,7 +26185,7 @@
         <v>173</v>
       </c>
       <c r="P122" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q122">
         <v>1.95</v>
@@ -26460,7 +26469,7 @@
         <v>0.4</v>
       </c>
       <c r="AP123">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ123">
         <v>0.88</v>
@@ -26588,7 +26597,7 @@
         <v>174</v>
       </c>
       <c r="P124" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q124">
         <v>2.75</v>
@@ -26666,10 +26675,10 @@
         <v>1.67</v>
       </c>
       <c r="AP124">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ124">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR124">
         <v>1.19</v>
@@ -26794,7 +26803,7 @@
         <v>175</v>
       </c>
       <c r="P125" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q125">
         <v>3</v>
@@ -27206,7 +27215,7 @@
         <v>176</v>
       </c>
       <c r="P127" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q127">
         <v>2.4</v>
@@ -27287,7 +27296,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ127">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR127">
         <v>1.71</v>
@@ -27412,7 +27421,7 @@
         <v>177</v>
       </c>
       <c r="P128" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q128">
         <v>2.75</v>
@@ -27618,7 +27627,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q129">
         <v>3.25</v>
@@ -27905,7 +27914,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ130">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR130">
         <v>1.72</v>
@@ -28314,10 +28323,10 @@
         <v>1.57</v>
       </c>
       <c r="AP132">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ132">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR132">
         <v>1.84</v>
@@ -28442,7 +28451,7 @@
         <v>140</v>
       </c>
       <c r="P133" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q133">
         <v>2.25</v>
@@ -28648,7 +28657,7 @@
         <v>96</v>
       </c>
       <c r="P134" t="s">
-        <v>256</v>
+        <v>212</v>
       </c>
       <c r="Q134">
         <v>2.5</v>
@@ -28854,7 +28863,7 @@
         <v>180</v>
       </c>
       <c r="P135" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q135">
         <v>3.5</v>
@@ -28935,7 +28944,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ135">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR135">
         <v>1.41</v>
@@ -29266,7 +29275,7 @@
         <v>100</v>
       </c>
       <c r="P137" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q137">
         <v>2.75</v>
@@ -29344,7 +29353,7 @@
         <v>1.43</v>
       </c>
       <c r="AP137">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ137">
         <v>1.7</v>
@@ -29472,7 +29481,7 @@
         <v>181</v>
       </c>
       <c r="P138" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q138">
         <v>3</v>
@@ -29756,7 +29765,7 @@
         <v>0.33</v>
       </c>
       <c r="AP139">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AQ139">
         <v>0.33</v>
@@ -29884,7 +29893,7 @@
         <v>182</v>
       </c>
       <c r="P140" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q140">
         <v>3.75</v>
@@ -30090,7 +30099,7 @@
         <v>100</v>
       </c>
       <c r="P141" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q141">
         <v>3</v>
@@ -30296,7 +30305,7 @@
         <v>183</v>
       </c>
       <c r="P142" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q142">
         <v>3.2</v>
@@ -30374,7 +30383,7 @@
         <v>0.67</v>
       </c>
       <c r="AP142">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ142">
         <v>0.89</v>
@@ -30502,7 +30511,7 @@
         <v>152</v>
       </c>
       <c r="P143" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q143">
         <v>2.5</v>
@@ -31120,7 +31129,7 @@
         <v>186</v>
       </c>
       <c r="P146" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q146">
         <v>3.1</v>
@@ -31407,7 +31416,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ147">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR147">
         <v>1.5</v>
@@ -31738,7 +31747,7 @@
         <v>189</v>
       </c>
       <c r="P149" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q149">
         <v>2.5</v>
@@ -31819,7 +31828,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ149">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR149">
         <v>1.56</v>
@@ -32150,7 +32159,7 @@
         <v>191</v>
       </c>
       <c r="P151" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q151">
         <v>3.75</v>
@@ -32231,7 +32240,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ151">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR151">
         <v>1.32</v>
@@ -32640,7 +32649,7 @@
         <v>0.57</v>
       </c>
       <c r="AP153">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ153">
         <v>0.89</v>
@@ -33052,7 +33061,7 @@
         <v>0.86</v>
       </c>
       <c r="AP155">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ155">
         <v>0.88</v>
@@ -33464,7 +33473,7 @@
         <v>0.5</v>
       </c>
       <c r="AP157">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ157">
         <v>0.4</v>
@@ -33592,7 +33601,7 @@
         <v>194</v>
       </c>
       <c r="P158" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q158">
         <v>3.75</v>
@@ -33798,7 +33807,7 @@
         <v>195</v>
       </c>
       <c r="P159" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q159">
         <v>3</v>
@@ -33879,7 +33888,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ159">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR159">
         <v>1.43</v>
@@ -34700,7 +34709,7 @@
         <v>1.29</v>
       </c>
       <c r="AP163">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AQ163">
         <v>1.11</v>
@@ -35652,7 +35661,7 @@
         <v>200</v>
       </c>
       <c r="P168" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q168">
         <v>2.63</v>
@@ -35858,7 +35867,7 @@
         <v>201</v>
       </c>
       <c r="P169" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q169">
         <v>2.05</v>
@@ -35939,7 +35948,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ169">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR169">
         <v>1.76</v>
@@ -36348,10 +36357,10 @@
         <v>1.38</v>
       </c>
       <c r="AP171">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AQ171">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR171">
         <v>1.41</v>
@@ -36969,7 +36978,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ174">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR174">
         <v>1.76</v>
@@ -37094,7 +37103,7 @@
         <v>203</v>
       </c>
       <c r="P175" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q175">
         <v>2.63</v>
@@ -37172,7 +37181,7 @@
         <v>0.88</v>
       </c>
       <c r="AP175">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ175">
         <v>0.89</v>
@@ -37300,7 +37309,7 @@
         <v>169</v>
       </c>
       <c r="P176" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q176">
         <v>4</v>
@@ -37381,7 +37390,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ176">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR176">
         <v>1.52</v>
@@ -37506,7 +37515,7 @@
         <v>155</v>
       </c>
       <c r="P177" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q177">
         <v>2.88</v>
@@ -37584,7 +37593,7 @@
         <v>1.56</v>
       </c>
       <c r="AP177">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ177">
         <v>1.7</v>
@@ -37712,7 +37721,7 @@
         <v>204</v>
       </c>
       <c r="P178" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q178">
         <v>2.5</v>
@@ -37790,10 +37799,10 @@
         <v>0.88</v>
       </c>
       <c r="AP178">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ178">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR178">
         <v>1.35</v>
@@ -38124,7 +38133,7 @@
         <v>166</v>
       </c>
       <c r="P180" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q180">
         <v>2.38</v>
@@ -38948,7 +38957,7 @@
         <v>208</v>
       </c>
       <c r="P184" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q184">
         <v>3</v>
@@ -39360,7 +39369,7 @@
         <v>100</v>
       </c>
       <c r="P186" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q186">
         <v>3.75</v>
@@ -39566,7 +39575,7 @@
         <v>210</v>
       </c>
       <c r="P187" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q187">
         <v>2.75</v>
@@ -39772,7 +39781,7 @@
         <v>211</v>
       </c>
       <c r="P188" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q188">
         <v>2.25</v>
@@ -39929,6 +39938,830 @@
       </c>
       <c r="BP188">
         <v>1.38</v>
+      </c>
+    </row>
+    <row r="189" spans="1:68">
+      <c r="A189" s="1">
+        <v>188</v>
+      </c>
+      <c r="B189">
+        <v>7380521</v>
+      </c>
+      <c r="C189" t="s">
+        <v>68</v>
+      </c>
+      <c r="D189" t="s">
+        <v>69</v>
+      </c>
+      <c r="E189" s="2">
+        <v>45513.80208333334</v>
+      </c>
+      <c r="F189">
+        <v>20</v>
+      </c>
+      <c r="G189" t="s">
+        <v>82</v>
+      </c>
+      <c r="H189" t="s">
+        <v>72</v>
+      </c>
+      <c r="I189">
+        <v>1</v>
+      </c>
+      <c r="J189">
+        <v>0</v>
+      </c>
+      <c r="K189">
+        <v>1</v>
+      </c>
+      <c r="L189">
+        <v>1</v>
+      </c>
+      <c r="M189">
+        <v>0</v>
+      </c>
+      <c r="N189">
+        <v>1</v>
+      </c>
+      <c r="O189" t="s">
+        <v>212</v>
+      </c>
+      <c r="P189" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q189">
+        <v>3</v>
+      </c>
+      <c r="R189">
+        <v>1.8</v>
+      </c>
+      <c r="S189">
+        <v>5</v>
+      </c>
+      <c r="T189">
+        <v>1.62</v>
+      </c>
+      <c r="U189">
+        <v>2.2</v>
+      </c>
+      <c r="V189">
+        <v>4</v>
+      </c>
+      <c r="W189">
+        <v>1.22</v>
+      </c>
+      <c r="X189">
+        <v>13</v>
+      </c>
+      <c r="Y189">
+        <v>1.04</v>
+      </c>
+      <c r="Z189">
+        <v>2.25</v>
+      </c>
+      <c r="AA189">
+        <v>2.77</v>
+      </c>
+      <c r="AB189">
+        <v>3.38</v>
+      </c>
+      <c r="AC189">
+        <v>1.12</v>
+      </c>
+      <c r="AD189">
+        <v>5.75</v>
+      </c>
+      <c r="AE189">
+        <v>1.54</v>
+      </c>
+      <c r="AF189">
+        <v>2.33</v>
+      </c>
+      <c r="AG189">
+        <v>2.72</v>
+      </c>
+      <c r="AH189">
+        <v>1.37</v>
+      </c>
+      <c r="AI189">
+        <v>2.63</v>
+      </c>
+      <c r="AJ189">
+        <v>1.44</v>
+      </c>
+      <c r="AK189">
+        <v>1.25</v>
+      </c>
+      <c r="AL189">
+        <v>1.33</v>
+      </c>
+      <c r="AM189">
+        <v>1.62</v>
+      </c>
+      <c r="AN189">
+        <v>1.5</v>
+      </c>
+      <c r="AO189">
+        <v>1.22</v>
+      </c>
+      <c r="AP189">
+        <v>1.64</v>
+      </c>
+      <c r="AQ189">
+        <v>1.1</v>
+      </c>
+      <c r="AR189">
+        <v>1.36</v>
+      </c>
+      <c r="AS189">
+        <v>1.32</v>
+      </c>
+      <c r="AT189">
+        <v>2.68</v>
+      </c>
+      <c r="AU189">
+        <v>5</v>
+      </c>
+      <c r="AV189">
+        <v>4</v>
+      </c>
+      <c r="AW189">
+        <v>5</v>
+      </c>
+      <c r="AX189">
+        <v>4</v>
+      </c>
+      <c r="AY189">
+        <v>10</v>
+      </c>
+      <c r="AZ189">
+        <v>8</v>
+      </c>
+      <c r="BA189">
+        <v>8</v>
+      </c>
+      <c r="BB189">
+        <v>8</v>
+      </c>
+      <c r="BC189">
+        <v>16</v>
+      </c>
+      <c r="BD189">
+        <v>1.65</v>
+      </c>
+      <c r="BE189">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF189">
+        <v>2.76</v>
+      </c>
+      <c r="BG189">
+        <v>1.2</v>
+      </c>
+      <c r="BH189">
+        <v>4.25</v>
+      </c>
+      <c r="BI189">
+        <v>1.38</v>
+      </c>
+      <c r="BJ189">
+        <v>2.9</v>
+      </c>
+      <c r="BK189">
+        <v>2.1</v>
+      </c>
+      <c r="BL189">
+        <v>2.12</v>
+      </c>
+      <c r="BM189">
+        <v>1.92</v>
+      </c>
+      <c r="BN189">
+        <v>1.88</v>
+      </c>
+      <c r="BO189">
+        <v>2.85</v>
+      </c>
+      <c r="BP189">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="190" spans="1:68">
+      <c r="A190" s="1">
+        <v>189</v>
+      </c>
+      <c r="B190">
+        <v>7380524</v>
+      </c>
+      <c r="C190" t="s">
+        <v>68</v>
+      </c>
+      <c r="D190" t="s">
+        <v>69</v>
+      </c>
+      <c r="E190" s="2">
+        <v>45513.83333333334</v>
+      </c>
+      <c r="F190">
+        <v>20</v>
+      </c>
+      <c r="G190" t="s">
+        <v>85</v>
+      </c>
+      <c r="H190" t="s">
+        <v>74</v>
+      </c>
+      <c r="I190">
+        <v>0</v>
+      </c>
+      <c r="J190">
+        <v>1</v>
+      </c>
+      <c r="K190">
+        <v>1</v>
+      </c>
+      <c r="L190">
+        <v>0</v>
+      </c>
+      <c r="M190">
+        <v>3</v>
+      </c>
+      <c r="N190">
+        <v>3</v>
+      </c>
+      <c r="O190" t="s">
+        <v>100</v>
+      </c>
+      <c r="P190" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q190">
+        <v>3.75</v>
+      </c>
+      <c r="R190">
+        <v>1.95</v>
+      </c>
+      <c r="S190">
+        <v>3.2</v>
+      </c>
+      <c r="T190">
+        <v>1.5</v>
+      </c>
+      <c r="U190">
+        <v>2.5</v>
+      </c>
+      <c r="V190">
+        <v>3.5</v>
+      </c>
+      <c r="W190">
+        <v>1.29</v>
+      </c>
+      <c r="X190">
+        <v>10</v>
+      </c>
+      <c r="Y190">
+        <v>1.06</v>
+      </c>
+      <c r="Z190">
+        <v>2.8</v>
+      </c>
+      <c r="AA190">
+        <v>2.95</v>
+      </c>
+      <c r="AB190">
+        <v>2.3</v>
+      </c>
+      <c r="AC190">
+        <v>1.09</v>
+      </c>
+      <c r="AD190">
+        <v>7</v>
+      </c>
+      <c r="AE190">
+        <v>1.44</v>
+      </c>
+      <c r="AF190">
+        <v>2.75</v>
+      </c>
+      <c r="AG190">
+        <v>2.25</v>
+      </c>
+      <c r="AH190">
+        <v>1.58</v>
+      </c>
+      <c r="AI190">
+        <v>2</v>
+      </c>
+      <c r="AJ190">
+        <v>1.73</v>
+      </c>
+      <c r="AK190">
+        <v>1.53</v>
+      </c>
+      <c r="AL190">
+        <v>1.33</v>
+      </c>
+      <c r="AM190">
+        <v>1.36</v>
+      </c>
+      <c r="AN190">
+        <v>1.56</v>
+      </c>
+      <c r="AO190">
+        <v>1.2</v>
+      </c>
+      <c r="AP190">
+        <v>1.4</v>
+      </c>
+      <c r="AQ190">
+        <v>1.36</v>
+      </c>
+      <c r="AR190">
+        <v>1.41</v>
+      </c>
+      <c r="AS190">
+        <v>1.29</v>
+      </c>
+      <c r="AT190">
+        <v>2.7</v>
+      </c>
+      <c r="AU190">
+        <v>5</v>
+      </c>
+      <c r="AV190">
+        <v>7</v>
+      </c>
+      <c r="AW190">
+        <v>5</v>
+      </c>
+      <c r="AX190">
+        <v>9</v>
+      </c>
+      <c r="AY190">
+        <v>10</v>
+      </c>
+      <c r="AZ190">
+        <v>16</v>
+      </c>
+      <c r="BA190">
+        <v>9</v>
+      </c>
+      <c r="BB190">
+        <v>2</v>
+      </c>
+      <c r="BC190">
+        <v>11</v>
+      </c>
+      <c r="BD190">
+        <v>1.84</v>
+      </c>
+      <c r="BE190">
+        <v>7.5</v>
+      </c>
+      <c r="BF190">
+        <v>2.42</v>
+      </c>
+      <c r="BG190">
+        <v>1.22</v>
+      </c>
+      <c r="BH190">
+        <v>4</v>
+      </c>
+      <c r="BI190">
+        <v>1.42</v>
+      </c>
+      <c r="BJ190">
+        <v>2.75</v>
+      </c>
+      <c r="BK190">
+        <v>1.83</v>
+      </c>
+      <c r="BL190">
+        <v>2.02</v>
+      </c>
+      <c r="BM190">
+        <v>2.23</v>
+      </c>
+      <c r="BN190">
+        <v>1.61</v>
+      </c>
+      <c r="BO190">
+        <v>3</v>
+      </c>
+      <c r="BP190">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="191" spans="1:68">
+      <c r="A191" s="1">
+        <v>190</v>
+      </c>
+      <c r="B191">
+        <v>7380518</v>
+      </c>
+      <c r="C191" t="s">
+        <v>68</v>
+      </c>
+      <c r="D191" t="s">
+        <v>69</v>
+      </c>
+      <c r="E191" s="2">
+        <v>45513.875</v>
+      </c>
+      <c r="F191">
+        <v>20</v>
+      </c>
+      <c r="G191" t="s">
+        <v>89</v>
+      </c>
+      <c r="H191" t="s">
+        <v>79</v>
+      </c>
+      <c r="I191">
+        <v>2</v>
+      </c>
+      <c r="J191">
+        <v>0</v>
+      </c>
+      <c r="K191">
+        <v>2</v>
+      </c>
+      <c r="L191">
+        <v>2</v>
+      </c>
+      <c r="M191">
+        <v>0</v>
+      </c>
+      <c r="N191">
+        <v>2</v>
+      </c>
+      <c r="O191" t="s">
+        <v>213</v>
+      </c>
+      <c r="P191" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q191">
+        <v>2.2</v>
+      </c>
+      <c r="R191">
+        <v>2</v>
+      </c>
+      <c r="S191">
+        <v>7.5</v>
+      </c>
+      <c r="T191">
+        <v>1.5</v>
+      </c>
+      <c r="U191">
+        <v>2.5</v>
+      </c>
+      <c r="V191">
+        <v>3.4</v>
+      </c>
+      <c r="W191">
+        <v>1.3</v>
+      </c>
+      <c r="X191">
+        <v>10</v>
+      </c>
+      <c r="Y191">
+        <v>1.06</v>
+      </c>
+      <c r="Z191">
+        <v>1.45</v>
+      </c>
+      <c r="AA191">
+        <v>3.56</v>
+      </c>
+      <c r="AB191">
+        <v>6.38</v>
+      </c>
+      <c r="AC191">
+        <v>1.05</v>
+      </c>
+      <c r="AD191">
+        <v>7.2</v>
+      </c>
+      <c r="AE191">
+        <v>1.43</v>
+      </c>
+      <c r="AF191">
+        <v>2.79</v>
+      </c>
+      <c r="AG191">
+        <v>2.22</v>
+      </c>
+      <c r="AH191">
+        <v>1.54</v>
+      </c>
+      <c r="AI191">
+        <v>2.63</v>
+      </c>
+      <c r="AJ191">
+        <v>1.44</v>
+      </c>
+      <c r="AK191">
+        <v>1.08</v>
+      </c>
+      <c r="AL191">
+        <v>1.24</v>
+      </c>
+      <c r="AM191">
+        <v>2.52</v>
+      </c>
+      <c r="AN191">
+        <v>2.56</v>
+      </c>
+      <c r="AO191">
+        <v>0.5</v>
+      </c>
+      <c r="AP191">
+        <v>2.6</v>
+      </c>
+      <c r="AQ191">
+        <v>0.45</v>
+      </c>
+      <c r="AR191">
+        <v>1.37</v>
+      </c>
+      <c r="AS191">
+        <v>1.2</v>
+      </c>
+      <c r="AT191">
+        <v>2.57</v>
+      </c>
+      <c r="AU191">
+        <v>11</v>
+      </c>
+      <c r="AV191">
+        <v>3</v>
+      </c>
+      <c r="AW191">
+        <v>3</v>
+      </c>
+      <c r="AX191">
+        <v>5</v>
+      </c>
+      <c r="AY191">
+        <v>14</v>
+      </c>
+      <c r="AZ191">
+        <v>8</v>
+      </c>
+      <c r="BA191">
+        <v>5</v>
+      </c>
+      <c r="BB191">
+        <v>1</v>
+      </c>
+      <c r="BC191">
+        <v>6</v>
+      </c>
+      <c r="BD191">
+        <v>1.51</v>
+      </c>
+      <c r="BE191">
+        <v>7.7</v>
+      </c>
+      <c r="BF191">
+        <v>3.35</v>
+      </c>
+      <c r="BG191">
+        <v>1.18</v>
+      </c>
+      <c r="BH191">
+        <v>4.5</v>
+      </c>
+      <c r="BI191">
+        <v>1.34</v>
+      </c>
+      <c r="BJ191">
+        <v>3.1</v>
+      </c>
+      <c r="BK191">
+        <v>2</v>
+      </c>
+      <c r="BL191">
+        <v>2.23</v>
+      </c>
+      <c r="BM191">
+        <v>2.02</v>
+      </c>
+      <c r="BN191">
+        <v>1.74</v>
+      </c>
+      <c r="BO191">
+        <v>2.7</v>
+      </c>
+      <c r="BP191">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="192" spans="1:68">
+      <c r="A192" s="1">
+        <v>191</v>
+      </c>
+      <c r="B192">
+        <v>7380520</v>
+      </c>
+      <c r="C192" t="s">
+        <v>68</v>
+      </c>
+      <c r="D192" t="s">
+        <v>69</v>
+      </c>
+      <c r="E192" s="2">
+        <v>45513.89583333334</v>
+      </c>
+      <c r="F192">
+        <v>20</v>
+      </c>
+      <c r="G192" t="s">
+        <v>86</v>
+      </c>
+      <c r="H192" t="s">
+        <v>70</v>
+      </c>
+      <c r="I192">
+        <v>2</v>
+      </c>
+      <c r="J192">
+        <v>0</v>
+      </c>
+      <c r="K192">
+        <v>2</v>
+      </c>
+      <c r="L192">
+        <v>3</v>
+      </c>
+      <c r="M192">
+        <v>1</v>
+      </c>
+      <c r="N192">
+        <v>4</v>
+      </c>
+      <c r="O192" t="s">
+        <v>214</v>
+      </c>
+      <c r="P192" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q192">
+        <v>2.1</v>
+      </c>
+      <c r="R192">
+        <v>2.1</v>
+      </c>
+      <c r="S192">
+        <v>7</v>
+      </c>
+      <c r="T192">
+        <v>1.44</v>
+      </c>
+      <c r="U192">
+        <v>2.6</v>
+      </c>
+      <c r="V192">
+        <v>3.05</v>
+      </c>
+      <c r="W192">
+        <v>1.33</v>
+      </c>
+      <c r="X192">
+        <v>7.9</v>
+      </c>
+      <c r="Y192">
+        <v>1.05</v>
+      </c>
+      <c r="Z192">
+        <v>1.43</v>
+      </c>
+      <c r="AA192">
+        <v>3.84</v>
+      </c>
+      <c r="AB192">
+        <v>6.8</v>
+      </c>
+      <c r="AC192">
+        <v>1.07</v>
+      </c>
+      <c r="AD192">
+        <v>8</v>
+      </c>
+      <c r="AE192">
+        <v>1.36</v>
+      </c>
+      <c r="AF192">
+        <v>2.95</v>
+      </c>
+      <c r="AG192">
+        <v>2.12</v>
+      </c>
+      <c r="AH192">
+        <v>1.65</v>
+      </c>
+      <c r="AI192">
+        <v>2.38</v>
+      </c>
+      <c r="AJ192">
+        <v>1.53</v>
+      </c>
+      <c r="AK192">
+        <v>1.06</v>
+      </c>
+      <c r="AL192">
+        <v>1.18</v>
+      </c>
+      <c r="AM192">
+        <v>2.55</v>
+      </c>
+      <c r="AN192">
+        <v>2.2</v>
+      </c>
+      <c r="AO192">
+        <v>0.89</v>
+      </c>
+      <c r="AP192">
+        <v>2.27</v>
+      </c>
+      <c r="AQ192">
+        <v>0.8</v>
+      </c>
+      <c r="AR192">
+        <v>1.67</v>
+      </c>
+      <c r="AS192">
+        <v>1.19</v>
+      </c>
+      <c r="AT192">
+        <v>2.86</v>
+      </c>
+      <c r="AU192">
+        <v>6</v>
+      </c>
+      <c r="AV192">
+        <v>5</v>
+      </c>
+      <c r="AW192">
+        <v>10</v>
+      </c>
+      <c r="AX192">
+        <v>6</v>
+      </c>
+      <c r="AY192">
+        <v>16</v>
+      </c>
+      <c r="AZ192">
+        <v>11</v>
+      </c>
+      <c r="BA192">
+        <v>5</v>
+      </c>
+      <c r="BB192">
+        <v>5</v>
+      </c>
+      <c r="BC192">
+        <v>10</v>
+      </c>
+      <c r="BD192">
+        <v>1.37</v>
+      </c>
+      <c r="BE192">
+        <v>8.4</v>
+      </c>
+      <c r="BF192">
+        <v>4.16</v>
+      </c>
+      <c r="BG192">
+        <v>1.25</v>
+      </c>
+      <c r="BH192">
+        <v>3.7</v>
+      </c>
+      <c r="BI192">
+        <v>1.47</v>
+      </c>
+      <c r="BJ192">
+        <v>2.55</v>
+      </c>
+      <c r="BK192">
+        <v>2</v>
+      </c>
+      <c r="BL192">
+        <v>1.98</v>
+      </c>
+      <c r="BM192">
+        <v>2.38</v>
+      </c>
+      <c r="BN192">
+        <v>1.54</v>
+      </c>
+      <c r="BO192">
+        <v>3.25</v>
+      </c>
+      <c r="BP192">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="280">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -661,6 +661,12 @@
     <t>['13', '28', '85']</t>
   </si>
   <si>
+    <t>['9', '15', '84']</t>
+  </si>
+  <si>
+    <t>['43', '72']</t>
+  </si>
+  <si>
     <t>['31', '49', '69']</t>
   </si>
   <si>
@@ -845,6 +851,9 @@
   </si>
   <si>
     <t>['39', '90+1', '90+9']</t>
+  </si>
+  <si>
+    <t>['40', '61']</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1215,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP192"/>
+  <dimension ref="A1:BP194"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2495,7 +2504,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q7">
         <v>4.33</v>
@@ -2907,7 +2916,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -3319,7 +3328,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q11">
         <v>3.5</v>
@@ -3525,7 +3534,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q12">
         <v>3.6</v>
@@ -3603,7 +3612,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ12">
         <v>1.1</v>
@@ -3809,7 +3818,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ13">
         <v>0.67</v>
@@ -3937,7 +3946,7 @@
         <v>100</v>
       </c>
       <c r="P14" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q14">
         <v>4.75</v>
@@ -4143,7 +4152,7 @@
         <v>100</v>
       </c>
       <c r="P15" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4224,7 +4233,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ15">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4430,7 +4439,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ16">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -5379,7 +5388,7 @@
         <v>106</v>
       </c>
       <c r="P21" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5997,7 +6006,7 @@
         <v>107</v>
       </c>
       <c r="P24" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q24">
         <v>3.6</v>
@@ -6409,7 +6418,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6487,7 +6496,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ26">
         <v>1.7</v>
@@ -6615,7 +6624,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q27">
         <v>4</v>
@@ -6821,7 +6830,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -7108,7 +7117,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ29">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR29">
         <v>0</v>
@@ -7645,7 +7654,7 @@
         <v>113</v>
       </c>
       <c r="P32" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q32">
         <v>2.38</v>
@@ -7851,7 +7860,7 @@
         <v>100</v>
       </c>
       <c r="P33" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -8344,7 +8353,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ35">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR35">
         <v>1.74</v>
@@ -9087,7 +9096,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q39">
         <v>2</v>
@@ -9165,7 +9174,7 @@
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ39">
         <v>0.45</v>
@@ -9499,7 +9508,7 @@
         <v>120</v>
       </c>
       <c r="P41" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q41">
         <v>2.25</v>
@@ -9705,7 +9714,7 @@
         <v>121</v>
       </c>
       <c r="P42" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9911,7 +9920,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q43">
         <v>3.2</v>
@@ -10198,7 +10207,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ44">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR44">
         <v>1.09</v>
@@ -10607,7 +10616,7 @@
         <v>3</v>
       </c>
       <c r="AP46">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ46">
         <v>1.44</v>
@@ -11147,7 +11156,7 @@
         <v>125</v>
       </c>
       <c r="P49" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -11640,7 +11649,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ51">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR51">
         <v>1.66</v>
@@ -12589,7 +12598,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q56">
         <v>1.95</v>
@@ -12667,7 +12676,7 @@
         <v>0.5</v>
       </c>
       <c r="AP56">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ56">
         <v>1.11</v>
@@ -13413,7 +13422,7 @@
         <v>118</v>
       </c>
       <c r="P60" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13825,7 +13834,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q62">
         <v>3.4</v>
@@ -14315,7 +14324,7 @@
         <v>0.67</v>
       </c>
       <c r="AP64">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ64">
         <v>0.4</v>
@@ -14443,7 +14452,7 @@
         <v>135</v>
       </c>
       <c r="P65" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q65">
         <v>2.38</v>
@@ -14730,7 +14739,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ66">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR66">
         <v>1.56</v>
@@ -15061,7 +15070,7 @@
         <v>100</v>
       </c>
       <c r="P68" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q68">
         <v>3.6</v>
@@ -16297,7 +16306,7 @@
         <v>90</v>
       </c>
       <c r="P74" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q74">
         <v>3.1</v>
@@ -16503,7 +16512,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -16787,7 +16796,7 @@
         <v>1.33</v>
       </c>
       <c r="AP76">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ76">
         <v>1.11</v>
@@ -16915,7 +16924,7 @@
         <v>139</v>
       </c>
       <c r="P77" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q77">
         <v>2.2</v>
@@ -17202,7 +17211,7 @@
         <v>2</v>
       </c>
       <c r="AQ78">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR78">
         <v>1.62</v>
@@ -17739,7 +17748,7 @@
         <v>146</v>
       </c>
       <c r="P81" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q81">
         <v>2.05</v>
@@ -17945,7 +17954,7 @@
         <v>147</v>
       </c>
       <c r="P82" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q82">
         <v>4</v>
@@ -18151,7 +18160,7 @@
         <v>100</v>
       </c>
       <c r="P83" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q83">
         <v>3.2</v>
@@ -18357,7 +18366,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q84">
         <v>2.75</v>
@@ -18644,7 +18653,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ85">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR85">
         <v>1.43</v>
@@ -18975,7 +18984,7 @@
         <v>150</v>
       </c>
       <c r="P87" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q87">
         <v>3.5</v>
@@ -19259,7 +19268,7 @@
         <v>0.5</v>
       </c>
       <c r="AP88">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ88">
         <v>1</v>
@@ -19674,7 +19683,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ90">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR90">
         <v>1.45</v>
@@ -20005,7 +20014,7 @@
         <v>153</v>
       </c>
       <c r="P92" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q92">
         <v>2.63</v>
@@ -20623,7 +20632,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q95">
         <v>3.5</v>
@@ -20701,7 +20710,7 @@
         <v>0.4</v>
       </c>
       <c r="AP95">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ95">
         <v>1</v>
@@ -21241,7 +21250,7 @@
         <v>116</v>
       </c>
       <c r="P98" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q98">
         <v>3</v>
@@ -21525,7 +21534,7 @@
         <v>0.5</v>
       </c>
       <c r="AP99">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ99">
         <v>0.9</v>
@@ -21653,7 +21662,7 @@
         <v>100</v>
       </c>
       <c r="P100" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q100">
         <v>3.5</v>
@@ -21859,7 +21868,7 @@
         <v>160</v>
       </c>
       <c r="P101" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q101">
         <v>2.6</v>
@@ -22146,7 +22155,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ102">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR102">
         <v>1.91</v>
@@ -24203,7 +24212,7 @@
         <v>0.2</v>
       </c>
       <c r="AP112">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ112">
         <v>0.45</v>
@@ -24331,7 +24340,7 @@
         <v>167</v>
       </c>
       <c r="P113" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q113">
         <v>3.25</v>
@@ -24743,7 +24752,7 @@
         <v>169</v>
       </c>
       <c r="P115" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q115">
         <v>2.68</v>
@@ -24821,7 +24830,7 @@
         <v>1.17</v>
       </c>
       <c r="AP115">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ115">
         <v>1.7</v>
@@ -25155,7 +25164,7 @@
         <v>170</v>
       </c>
       <c r="P117" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q117">
         <v>2.38</v>
@@ -25773,7 +25782,7 @@
         <v>90</v>
       </c>
       <c r="P120" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q120">
         <v>2.4</v>
@@ -26185,7 +26194,7 @@
         <v>173</v>
       </c>
       <c r="P122" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q122">
         <v>1.95</v>
@@ -26472,7 +26481,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ123">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR123">
         <v>1.43</v>
@@ -26597,7 +26606,7 @@
         <v>174</v>
       </c>
       <c r="P124" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q124">
         <v>2.75</v>
@@ -26803,7 +26812,7 @@
         <v>175</v>
       </c>
       <c r="P125" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q125">
         <v>3</v>
@@ -27090,7 +27099,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ126">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR126">
         <v>1.76</v>
@@ -27215,7 +27224,7 @@
         <v>176</v>
       </c>
       <c r="P127" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q127">
         <v>2.4</v>
@@ -27421,7 +27430,7 @@
         <v>177</v>
       </c>
       <c r="P128" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q128">
         <v>2.75</v>
@@ -27627,7 +27636,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q129">
         <v>3.25</v>
@@ -28451,7 +28460,7 @@
         <v>140</v>
       </c>
       <c r="P133" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q133">
         <v>2.25</v>
@@ -28532,7 +28541,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ133">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR133">
         <v>1.64</v>
@@ -28863,7 +28872,7 @@
         <v>180</v>
       </c>
       <c r="P135" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q135">
         <v>3.5</v>
@@ -28941,7 +28950,7 @@
         <v>1.4</v>
       </c>
       <c r="AP135">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ135">
         <v>0.8</v>
@@ -29275,7 +29284,7 @@
         <v>100</v>
       </c>
       <c r="P137" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q137">
         <v>2.75</v>
@@ -29481,7 +29490,7 @@
         <v>181</v>
       </c>
       <c r="P138" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q138">
         <v>3</v>
@@ -29893,7 +29902,7 @@
         <v>182</v>
       </c>
       <c r="P140" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q140">
         <v>3.75</v>
@@ -30099,7 +30108,7 @@
         <v>100</v>
       </c>
       <c r="P141" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q141">
         <v>3</v>
@@ -30180,7 +30189,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ141">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR141">
         <v>1.42</v>
@@ -30305,7 +30314,7 @@
         <v>183</v>
       </c>
       <c r="P142" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q142">
         <v>3.2</v>
@@ -30511,7 +30520,7 @@
         <v>152</v>
       </c>
       <c r="P143" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q143">
         <v>2.5</v>
@@ -30795,7 +30804,7 @@
         <v>0.83</v>
       </c>
       <c r="AP144">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ144">
         <v>0.89</v>
@@ -31129,7 +31138,7 @@
         <v>186</v>
       </c>
       <c r="P146" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q146">
         <v>3.1</v>
@@ -31747,7 +31756,7 @@
         <v>189</v>
       </c>
       <c r="P149" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q149">
         <v>2.5</v>
@@ -32159,7 +32168,7 @@
         <v>191</v>
       </c>
       <c r="P151" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q151">
         <v>3.75</v>
@@ -32446,7 +32455,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ152">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR152">
         <v>1.59</v>
@@ -33064,7 +33073,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ155">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR155">
         <v>1.76</v>
@@ -33601,7 +33610,7 @@
         <v>194</v>
       </c>
       <c r="P158" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q158">
         <v>3.75</v>
@@ -33807,7 +33816,7 @@
         <v>195</v>
       </c>
       <c r="P159" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q159">
         <v>3</v>
@@ -34915,7 +34924,7 @@
         <v>0.86</v>
       </c>
       <c r="AP164">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ164">
         <v>0.89</v>
@@ -35661,7 +35670,7 @@
         <v>200</v>
       </c>
       <c r="P168" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q168">
         <v>2.63</v>
@@ -35867,7 +35876,7 @@
         <v>201</v>
       </c>
       <c r="P169" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q169">
         <v>2.05</v>
@@ -36151,7 +36160,7 @@
         <v>0.63</v>
       </c>
       <c r="AP170">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ170">
         <v>0.67</v>
@@ -36566,7 +36575,7 @@
         <v>2</v>
       </c>
       <c r="AQ172">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR172">
         <v>1.74</v>
@@ -36769,7 +36778,7 @@
         <v>0.44</v>
       </c>
       <c r="AP173">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ173">
         <v>0.4</v>
@@ -37103,7 +37112,7 @@
         <v>203</v>
       </c>
       <c r="P175" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q175">
         <v>2.63</v>
@@ -37309,7 +37318,7 @@
         <v>169</v>
       </c>
       <c r="P176" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q176">
         <v>4</v>
@@ -37515,7 +37524,7 @@
         <v>155</v>
       </c>
       <c r="P177" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q177">
         <v>2.88</v>
@@ -37721,7 +37730,7 @@
         <v>204</v>
       </c>
       <c r="P178" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q178">
         <v>2.5</v>
@@ -38133,7 +38142,7 @@
         <v>166</v>
       </c>
       <c r="P180" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q180">
         <v>2.38</v>
@@ -38957,7 +38966,7 @@
         <v>208</v>
       </c>
       <c r="P184" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q184">
         <v>3</v>
@@ -39369,7 +39378,7 @@
         <v>100</v>
       </c>
       <c r="P186" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q186">
         <v>3.75</v>
@@ -39575,7 +39584,7 @@
         <v>210</v>
       </c>
       <c r="P187" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q187">
         <v>2.75</v>
@@ -39781,7 +39790,7 @@
         <v>211</v>
       </c>
       <c r="P188" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q188">
         <v>2.25</v>
@@ -40193,7 +40202,7 @@
         <v>100</v>
       </c>
       <c r="P190" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q190">
         <v>3.75</v>
@@ -40605,7 +40614,7 @@
         <v>214</v>
       </c>
       <c r="P192" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q192">
         <v>2.1</v>
@@ -40762,6 +40771,418 @@
       </c>
       <c r="BP192">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:68">
+      <c r="A193" s="1">
+        <v>192</v>
+      </c>
+      <c r="B193">
+        <v>7380525</v>
+      </c>
+      <c r="C193" t="s">
+        <v>68</v>
+      </c>
+      <c r="D193" t="s">
+        <v>69</v>
+      </c>
+      <c r="E193" s="2">
+        <v>45514.70833333334</v>
+      </c>
+      <c r="F193">
+        <v>20</v>
+      </c>
+      <c r="G193" t="s">
+        <v>81</v>
+      </c>
+      <c r="H193" t="s">
+        <v>75</v>
+      </c>
+      <c r="I193">
+        <v>2</v>
+      </c>
+      <c r="J193">
+        <v>1</v>
+      </c>
+      <c r="K193">
+        <v>3</v>
+      </c>
+      <c r="L193">
+        <v>3</v>
+      </c>
+      <c r="M193">
+        <v>2</v>
+      </c>
+      <c r="N193">
+        <v>5</v>
+      </c>
+      <c r="O193" t="s">
+        <v>215</v>
+      </c>
+      <c r="P193" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q193">
+        <v>2.2</v>
+      </c>
+      <c r="R193">
+        <v>2.1</v>
+      </c>
+      <c r="S193">
+        <v>7</v>
+      </c>
+      <c r="T193">
+        <v>1.5</v>
+      </c>
+      <c r="U193">
+        <v>2.5</v>
+      </c>
+      <c r="V193">
+        <v>3.4</v>
+      </c>
+      <c r="W193">
+        <v>1.3</v>
+      </c>
+      <c r="X193">
+        <v>10</v>
+      </c>
+      <c r="Y193">
+        <v>1.06</v>
+      </c>
+      <c r="Z193">
+        <v>1.53</v>
+      </c>
+      <c r="AA193">
+        <v>3.6</v>
+      </c>
+      <c r="AB193">
+        <v>7</v>
+      </c>
+      <c r="AC193">
+        <v>1.07</v>
+      </c>
+      <c r="AD193">
+        <v>8</v>
+      </c>
+      <c r="AE193">
+        <v>1.4</v>
+      </c>
+      <c r="AF193">
+        <v>2.9</v>
+      </c>
+      <c r="AG193">
+        <v>2.25</v>
+      </c>
+      <c r="AH193">
+        <v>1.62</v>
+      </c>
+      <c r="AI193">
+        <v>2.38</v>
+      </c>
+      <c r="AJ193">
+        <v>1.53</v>
+      </c>
+      <c r="AK193">
+        <v>1.11</v>
+      </c>
+      <c r="AL193">
+        <v>1.2</v>
+      </c>
+      <c r="AM193">
+        <v>2.38</v>
+      </c>
+      <c r="AN193">
+        <v>2</v>
+      </c>
+      <c r="AO193">
+        <v>0.88</v>
+      </c>
+      <c r="AP193">
+        <v>2.11</v>
+      </c>
+      <c r="AQ193">
+        <v>0.78</v>
+      </c>
+      <c r="AR193">
+        <v>1.45</v>
+      </c>
+      <c r="AS193">
+        <v>1.02</v>
+      </c>
+      <c r="AT193">
+        <v>2.47</v>
+      </c>
+      <c r="AU193">
+        <v>6</v>
+      </c>
+      <c r="AV193">
+        <v>8</v>
+      </c>
+      <c r="AW193">
+        <v>4</v>
+      </c>
+      <c r="AX193">
+        <v>4</v>
+      </c>
+      <c r="AY193">
+        <v>10</v>
+      </c>
+      <c r="AZ193">
+        <v>12</v>
+      </c>
+      <c r="BA193">
+        <v>5</v>
+      </c>
+      <c r="BB193">
+        <v>2</v>
+      </c>
+      <c r="BC193">
+        <v>7</v>
+      </c>
+      <c r="BD193">
+        <v>1.41</v>
+      </c>
+      <c r="BE193">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF193">
+        <v>3.86</v>
+      </c>
+      <c r="BG193">
+        <v>1.15</v>
+      </c>
+      <c r="BH193">
+        <v>4.75</v>
+      </c>
+      <c r="BI193">
+        <v>1.3</v>
+      </c>
+      <c r="BJ193">
+        <v>3.3</v>
+      </c>
+      <c r="BK193">
+        <v>1.91</v>
+      </c>
+      <c r="BL193">
+        <v>2.38</v>
+      </c>
+      <c r="BM193">
+        <v>1.98</v>
+      </c>
+      <c r="BN193">
+        <v>1.82</v>
+      </c>
+      <c r="BO193">
+        <v>2.5</v>
+      </c>
+      <c r="BP193">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="194" spans="1:68">
+      <c r="A194" s="1">
+        <v>193</v>
+      </c>
+      <c r="B194">
+        <v>7380519</v>
+      </c>
+      <c r="C194" t="s">
+        <v>68</v>
+      </c>
+      <c r="D194" t="s">
+        <v>69</v>
+      </c>
+      <c r="E194" s="2">
+        <v>45514.70833333334</v>
+      </c>
+      <c r="F194">
+        <v>20</v>
+      </c>
+      <c r="G194" t="s">
+        <v>80</v>
+      </c>
+      <c r="H194" t="s">
+        <v>73</v>
+      </c>
+      <c r="I194">
+        <v>1</v>
+      </c>
+      <c r="J194">
+        <v>1</v>
+      </c>
+      <c r="K194">
+        <v>2</v>
+      </c>
+      <c r="L194">
+        <v>2</v>
+      </c>
+      <c r="M194">
+        <v>1</v>
+      </c>
+      <c r="N194">
+        <v>3</v>
+      </c>
+      <c r="O194" t="s">
+        <v>216</v>
+      </c>
+      <c r="P194" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q194">
+        <v>3.6</v>
+      </c>
+      <c r="R194">
+        <v>1.91</v>
+      </c>
+      <c r="S194">
+        <v>3.5</v>
+      </c>
+      <c r="T194">
+        <v>1.53</v>
+      </c>
+      <c r="U194">
+        <v>2.38</v>
+      </c>
+      <c r="V194">
+        <v>3.5</v>
+      </c>
+      <c r="W194">
+        <v>1.29</v>
+      </c>
+      <c r="X194">
+        <v>11</v>
+      </c>
+      <c r="Y194">
+        <v>1.05</v>
+      </c>
+      <c r="Z194">
+        <v>2.75</v>
+      </c>
+      <c r="AA194">
+        <v>3</v>
+      </c>
+      <c r="AB194">
+        <v>2.7</v>
+      </c>
+      <c r="AC194">
+        <v>1.06</v>
+      </c>
+      <c r="AD194">
+        <v>6.8</v>
+      </c>
+      <c r="AE194">
+        <v>1.43</v>
+      </c>
+      <c r="AF194">
+        <v>2.54</v>
+      </c>
+      <c r="AG194">
+        <v>2.5</v>
+      </c>
+      <c r="AH194">
+        <v>1.5</v>
+      </c>
+      <c r="AI194">
+        <v>2.1</v>
+      </c>
+      <c r="AJ194">
+        <v>1.67</v>
+      </c>
+      <c r="AK194">
+        <v>1.35</v>
+      </c>
+      <c r="AL194">
+        <v>1.32</v>
+      </c>
+      <c r="AM194">
+        <v>1.42</v>
+      </c>
+      <c r="AN194">
+        <v>1.2</v>
+      </c>
+      <c r="AO194">
+        <v>1.1</v>
+      </c>
+      <c r="AP194">
+        <v>1.36</v>
+      </c>
+      <c r="AQ194">
+        <v>1</v>
+      </c>
+      <c r="AR194">
+        <v>1.25</v>
+      </c>
+      <c r="AS194">
+        <v>1.13</v>
+      </c>
+      <c r="AT194">
+        <v>2.38</v>
+      </c>
+      <c r="AU194">
+        <v>8</v>
+      </c>
+      <c r="AV194">
+        <v>3</v>
+      </c>
+      <c r="AW194">
+        <v>2</v>
+      </c>
+      <c r="AX194">
+        <v>6</v>
+      </c>
+      <c r="AY194">
+        <v>10</v>
+      </c>
+      <c r="AZ194">
+        <v>9</v>
+      </c>
+      <c r="BA194">
+        <v>9</v>
+      </c>
+      <c r="BB194">
+        <v>3</v>
+      </c>
+      <c r="BC194">
+        <v>12</v>
+      </c>
+      <c r="BD194">
+        <v>1.95</v>
+      </c>
+      <c r="BE194">
+        <v>7.6</v>
+      </c>
+      <c r="BF194">
+        <v>2.2</v>
+      </c>
+      <c r="BG194">
+        <v>1.18</v>
+      </c>
+      <c r="BH194">
+        <v>4.33</v>
+      </c>
+      <c r="BI194">
+        <v>1.3</v>
+      </c>
+      <c r="BJ194">
+        <v>3.3</v>
+      </c>
+      <c r="BK194">
+        <v>1.91</v>
+      </c>
+      <c r="BL194">
+        <v>2.38</v>
+      </c>
+      <c r="BM194">
+        <v>2</v>
+      </c>
+      <c r="BN194">
+        <v>1.8</v>
+      </c>
+      <c r="BO194">
+        <v>2.5</v>
+      </c>
+      <c r="BP194">
+        <v>1.49</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="280">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -667,6 +667,9 @@
     <t>['43', '72']</t>
   </si>
   <si>
+    <t>['44']</t>
+  </si>
+  <si>
     <t>['31', '49', '69']</t>
   </si>
   <si>
@@ -845,9 +848,6 @@
   </si>
   <si>
     <t>['1', '90+6']</t>
-  </si>
-  <si>
-    <t>['44']</t>
   </si>
   <si>
     <t>['39', '90+1', '90+9']</t>
@@ -1215,7 +1215,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP194"/>
+  <dimension ref="A1:BP196"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2504,7 +2504,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q7">
         <v>4.33</v>
@@ -2916,7 +2916,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -3328,7 +3328,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q11">
         <v>3.5</v>
@@ -3534,7 +3534,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q12">
         <v>3.6</v>
@@ -3946,7 +3946,7 @@
         <v>100</v>
       </c>
       <c r="P14" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q14">
         <v>4.75</v>
@@ -4152,7 +4152,7 @@
         <v>100</v>
       </c>
       <c r="P15" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4436,7 +4436,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AQ16">
         <v>0.78</v>
@@ -4851,7 +4851,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ18">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5054,7 +5054,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AQ19">
         <v>0.45</v>
@@ -5263,7 +5263,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ20">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5388,7 +5388,7 @@
         <v>106</v>
       </c>
       <c r="P21" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5878,7 +5878,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AQ23">
         <v>1.44</v>
@@ -6006,7 +6006,7 @@
         <v>107</v>
       </c>
       <c r="P24" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q24">
         <v>3.6</v>
@@ -6418,7 +6418,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6499,7 +6499,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ26">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AR26">
         <v>1.2</v>
@@ -6624,7 +6624,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q27">
         <v>4</v>
@@ -6830,7 +6830,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -7654,7 +7654,7 @@
         <v>113</v>
       </c>
       <c r="P32" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q32">
         <v>2.38</v>
@@ -7860,7 +7860,7 @@
         <v>100</v>
       </c>
       <c r="P33" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -8350,7 +8350,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AQ35">
         <v>1</v>
@@ -8559,7 +8559,7 @@
         <v>2</v>
       </c>
       <c r="AQ36">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="AR36">
         <v>1.35</v>
@@ -9096,7 +9096,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q39">
         <v>2</v>
@@ -9508,7 +9508,7 @@
         <v>120</v>
       </c>
       <c r="P41" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q41">
         <v>2.25</v>
@@ -9714,7 +9714,7 @@
         <v>121</v>
       </c>
       <c r="P42" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9920,7 +9920,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q43">
         <v>3.2</v>
@@ -10001,7 +10001,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ43">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AR43">
         <v>1.32</v>
@@ -10410,7 +10410,7 @@
         <v>0</v>
       </c>
       <c r="AP45">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AQ45">
         <v>0.22</v>
@@ -11156,7 +11156,7 @@
         <v>125</v>
       </c>
       <c r="P49" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -11852,7 +11852,7 @@
         <v>0</v>
       </c>
       <c r="AP52">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AQ52">
         <v>0.67</v>
@@ -12598,7 +12598,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q56">
         <v>1.95</v>
@@ -13422,7 +13422,7 @@
         <v>118</v>
       </c>
       <c r="P60" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13709,7 +13709,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ61">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="AR61">
         <v>1.31</v>
@@ -13834,7 +13834,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q62">
         <v>3.4</v>
@@ -14327,7 +14327,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ64">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="AR64">
         <v>1.17</v>
@@ -14452,7 +14452,7 @@
         <v>135</v>
       </c>
       <c r="P65" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q65">
         <v>2.38</v>
@@ -14942,7 +14942,7 @@
         <v>1.33</v>
       </c>
       <c r="AP67">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AQ67">
         <v>1.1</v>
@@ -15070,7 +15070,7 @@
         <v>100</v>
       </c>
       <c r="P68" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q68">
         <v>3.6</v>
@@ -15151,7 +15151,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ68">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AR68">
         <v>1.37</v>
@@ -16181,7 +16181,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ73">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AR73">
         <v>1.23</v>
@@ -16306,7 +16306,7 @@
         <v>90</v>
       </c>
       <c r="P74" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q74">
         <v>3.1</v>
@@ -16512,7 +16512,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -16924,7 +16924,7 @@
         <v>139</v>
       </c>
       <c r="P77" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q77">
         <v>2.2</v>
@@ -17748,7 +17748,7 @@
         <v>146</v>
       </c>
       <c r="P81" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q81">
         <v>2.05</v>
@@ -17826,7 +17826,7 @@
         <v>0</v>
       </c>
       <c r="AP81">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AQ81">
         <v>0.11</v>
@@ -17954,7 +17954,7 @@
         <v>147</v>
       </c>
       <c r="P82" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q82">
         <v>4</v>
@@ -18160,7 +18160,7 @@
         <v>100</v>
       </c>
       <c r="P83" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q83">
         <v>3.2</v>
@@ -18366,7 +18366,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q84">
         <v>2.75</v>
@@ -18859,7 +18859,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ86">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="AR86">
         <v>1.95</v>
@@ -18984,7 +18984,7 @@
         <v>150</v>
       </c>
       <c r="P87" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q87">
         <v>3.5</v>
@@ -20014,7 +20014,7 @@
         <v>153</v>
       </c>
       <c r="P92" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q92">
         <v>2.63</v>
@@ -20507,7 +20507,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ94">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AR94">
         <v>1.57</v>
@@ -20632,7 +20632,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q95">
         <v>3.5</v>
@@ -21250,7 +21250,7 @@
         <v>116</v>
       </c>
       <c r="P98" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q98">
         <v>3</v>
@@ -21662,7 +21662,7 @@
         <v>100</v>
       </c>
       <c r="P100" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q100">
         <v>3.5</v>
@@ -21868,7 +21868,7 @@
         <v>160</v>
       </c>
       <c r="P101" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q101">
         <v>2.6</v>
@@ -22773,7 +22773,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ105">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="AR105">
         <v>1.54</v>
@@ -22976,7 +22976,7 @@
         <v>1.25</v>
       </c>
       <c r="AP106">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AQ106">
         <v>0.89</v>
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="AP110">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AQ110">
         <v>0.22</v>
@@ -24340,7 +24340,7 @@
         <v>167</v>
       </c>
       <c r="P113" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q113">
         <v>3.25</v>
@@ -24752,7 +24752,7 @@
         <v>169</v>
       </c>
       <c r="P115" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q115">
         <v>2.68</v>
@@ -24833,7 +24833,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ115">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AR115">
         <v>1.4</v>
@@ -25164,7 +25164,7 @@
         <v>170</v>
       </c>
       <c r="P117" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q117">
         <v>2.38</v>
@@ -25782,7 +25782,7 @@
         <v>90</v>
       </c>
       <c r="P120" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q120">
         <v>2.4</v>
@@ -25860,7 +25860,7 @@
         <v>0.2</v>
       </c>
       <c r="AP120">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AQ120">
         <v>0.67</v>
@@ -26194,7 +26194,7 @@
         <v>173</v>
       </c>
       <c r="P122" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q122">
         <v>1.95</v>
@@ -26606,7 +26606,7 @@
         <v>174</v>
       </c>
       <c r="P124" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q124">
         <v>2.75</v>
@@ -26812,7 +26812,7 @@
         <v>175</v>
       </c>
       <c r="P125" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q125">
         <v>3</v>
@@ -26893,7 +26893,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ125">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="AR125">
         <v>1.89</v>
@@ -27224,7 +27224,7 @@
         <v>176</v>
       </c>
       <c r="P127" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q127">
         <v>2.4</v>
@@ -27302,7 +27302,7 @@
         <v>0.33</v>
       </c>
       <c r="AP127">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AQ127">
         <v>0.45</v>
@@ -27430,7 +27430,7 @@
         <v>177</v>
       </c>
       <c r="P128" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q128">
         <v>2.75</v>
@@ -27636,7 +27636,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q129">
         <v>3.25</v>
@@ -28129,7 +28129,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ131">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="AR131">
         <v>1.13</v>
@@ -28460,7 +28460,7 @@
         <v>140</v>
       </c>
       <c r="P133" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q133">
         <v>2.25</v>
@@ -28744,7 +28744,7 @@
         <v>1.14</v>
       </c>
       <c r="AP134">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AQ134">
         <v>1</v>
@@ -28872,7 +28872,7 @@
         <v>180</v>
       </c>
       <c r="P135" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q135">
         <v>3.5</v>
@@ -29284,7 +29284,7 @@
         <v>100</v>
       </c>
       <c r="P137" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q137">
         <v>2.75</v>
@@ -29365,7 +29365,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ137">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AR137">
         <v>1.46</v>
@@ -29490,7 +29490,7 @@
         <v>181</v>
       </c>
       <c r="P138" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q138">
         <v>3</v>
@@ -29902,7 +29902,7 @@
         <v>182</v>
       </c>
       <c r="P140" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q140">
         <v>3.75</v>
@@ -30108,7 +30108,7 @@
         <v>100</v>
       </c>
       <c r="P141" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q141">
         <v>3</v>
@@ -30314,7 +30314,7 @@
         <v>183</v>
       </c>
       <c r="P142" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q142">
         <v>3.2</v>
@@ -30520,7 +30520,7 @@
         <v>152</v>
       </c>
       <c r="P143" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q143">
         <v>2.5</v>
@@ -31010,7 +31010,7 @@
         <v>0.5</v>
       </c>
       <c r="AP145">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AQ145">
         <v>0.33</v>
@@ -31138,7 +31138,7 @@
         <v>186</v>
       </c>
       <c r="P146" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q146">
         <v>3.1</v>
@@ -31756,7 +31756,7 @@
         <v>189</v>
       </c>
       <c r="P149" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q149">
         <v>2.5</v>
@@ -31834,7 +31834,7 @@
         <v>1.17</v>
       </c>
       <c r="AP149">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AQ149">
         <v>0.8</v>
@@ -32168,7 +32168,7 @@
         <v>191</v>
       </c>
       <c r="P151" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q151">
         <v>3.75</v>
@@ -32864,7 +32864,7 @@
         <v>0.38</v>
       </c>
       <c r="AP154">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AQ154">
         <v>0.9</v>
@@ -33276,7 +33276,7 @@
         <v>0.14</v>
       </c>
       <c r="AP156">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AQ156">
         <v>0.11</v>
@@ -33485,7 +33485,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ157">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="AR157">
         <v>1.2</v>
@@ -33610,7 +33610,7 @@
         <v>194</v>
       </c>
       <c r="P158" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q158">
         <v>3.75</v>
@@ -33816,7 +33816,7 @@
         <v>195</v>
       </c>
       <c r="P159" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q159">
         <v>3</v>
@@ -34515,7 +34515,7 @@
         <v>2</v>
       </c>
       <c r="AQ162">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AR162">
         <v>1.54</v>
@@ -35670,7 +35670,7 @@
         <v>200</v>
       </c>
       <c r="P168" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q168">
         <v>2.63</v>
@@ -35876,7 +35876,7 @@
         <v>201</v>
       </c>
       <c r="P169" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q169">
         <v>2.05</v>
@@ -36572,7 +36572,7 @@
         <v>1.22</v>
       </c>
       <c r="AP172">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AQ172">
         <v>1</v>
@@ -36781,7 +36781,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ173">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="AR173">
         <v>1.42</v>
@@ -37112,7 +37112,7 @@
         <v>203</v>
       </c>
       <c r="P175" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q175">
         <v>2.63</v>
@@ -37318,7 +37318,7 @@
         <v>169</v>
       </c>
       <c r="P176" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q176">
         <v>4</v>
@@ -37396,7 +37396,7 @@
         <v>1.22</v>
       </c>
       <c r="AP176">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AQ176">
         <v>1.36</v>
@@ -37524,7 +37524,7 @@
         <v>155</v>
       </c>
       <c r="P177" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q177">
         <v>2.88</v>
@@ -37605,7 +37605,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ177">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AR177">
         <v>1.36</v>
@@ -37730,7 +37730,7 @@
         <v>204</v>
       </c>
       <c r="P178" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q178">
         <v>2.5</v>
@@ -38142,7 +38142,7 @@
         <v>166</v>
       </c>
       <c r="P180" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q180">
         <v>2.38</v>
@@ -38966,7 +38966,7 @@
         <v>208</v>
       </c>
       <c r="P184" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q184">
         <v>3</v>
@@ -39378,7 +39378,7 @@
         <v>100</v>
       </c>
       <c r="P186" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q186">
         <v>3.75</v>
@@ -39584,7 +39584,7 @@
         <v>210</v>
       </c>
       <c r="P187" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q187">
         <v>2.75</v>
@@ -39790,7 +39790,7 @@
         <v>211</v>
       </c>
       <c r="P188" t="s">
-        <v>277</v>
+        <v>217</v>
       </c>
       <c r="Q188">
         <v>2.25</v>
@@ -40614,7 +40614,7 @@
         <v>214</v>
       </c>
       <c r="P192" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q192">
         <v>2.1</v>
@@ -41183,6 +41183,418 @@
       </c>
       <c r="BP194">
         <v>1.49</v>
+      </c>
+    </row>
+    <row r="195" spans="1:68">
+      <c r="A195" s="1">
+        <v>194</v>
+      </c>
+      <c r="B195">
+        <v>7380523</v>
+      </c>
+      <c r="C195" t="s">
+        <v>68</v>
+      </c>
+      <c r="D195" t="s">
+        <v>69</v>
+      </c>
+      <c r="E195" s="2">
+        <v>45515.66666666666</v>
+      </c>
+      <c r="F195">
+        <v>20</v>
+      </c>
+      <c r="G195" t="s">
+        <v>87</v>
+      </c>
+      <c r="H195" t="s">
+        <v>77</v>
+      </c>
+      <c r="I195">
+        <v>1</v>
+      </c>
+      <c r="J195">
+        <v>0</v>
+      </c>
+      <c r="K195">
+        <v>1</v>
+      </c>
+      <c r="L195">
+        <v>1</v>
+      </c>
+      <c r="M195">
+        <v>1</v>
+      </c>
+      <c r="N195">
+        <v>2</v>
+      </c>
+      <c r="O195" t="s">
+        <v>217</v>
+      </c>
+      <c r="P195" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q195">
+        <v>2.3</v>
+      </c>
+      <c r="R195">
+        <v>2.1</v>
+      </c>
+      <c r="S195">
+        <v>6</v>
+      </c>
+      <c r="T195">
+        <v>1.45</v>
+      </c>
+      <c r="U195">
+        <v>2.45</v>
+      </c>
+      <c r="V195">
+        <v>3.3</v>
+      </c>
+      <c r="W195">
+        <v>1.27</v>
+      </c>
+      <c r="X195">
+        <v>7.8</v>
+      </c>
+      <c r="Y195">
+        <v>1.04</v>
+      </c>
+      <c r="Z195">
+        <v>1.67</v>
+      </c>
+      <c r="AA195">
+        <v>3.6</v>
+      </c>
+      <c r="AB195">
+        <v>5.5</v>
+      </c>
+      <c r="AC195">
+        <v>1.08</v>
+      </c>
+      <c r="AD195">
+        <v>7.8</v>
+      </c>
+      <c r="AE195">
+        <v>1.37</v>
+      </c>
+      <c r="AF195">
+        <v>2.8</v>
+      </c>
+      <c r="AG195">
+        <v>2.25</v>
+      </c>
+      <c r="AH195">
+        <v>1.62</v>
+      </c>
+      <c r="AI195">
+        <v>2.2</v>
+      </c>
+      <c r="AJ195">
+        <v>1.62</v>
+      </c>
+      <c r="AK195">
+        <v>1.13</v>
+      </c>
+      <c r="AL195">
+        <v>1.3</v>
+      </c>
+      <c r="AM195">
+        <v>1.8</v>
+      </c>
+      <c r="AN195">
+        <v>2</v>
+      </c>
+      <c r="AO195">
+        <v>0.4</v>
+      </c>
+      <c r="AP195">
+        <v>1.91</v>
+      </c>
+      <c r="AQ195">
+        <v>0.45</v>
+      </c>
+      <c r="AR195">
+        <v>1.74</v>
+      </c>
+      <c r="AS195">
+        <v>1.27</v>
+      </c>
+      <c r="AT195">
+        <v>3.01</v>
+      </c>
+      <c r="AU195">
+        <v>4</v>
+      </c>
+      <c r="AV195">
+        <v>7</v>
+      </c>
+      <c r="AW195">
+        <v>5</v>
+      </c>
+      <c r="AX195">
+        <v>4</v>
+      </c>
+      <c r="AY195">
+        <v>9</v>
+      </c>
+      <c r="AZ195">
+        <v>11</v>
+      </c>
+      <c r="BA195">
+        <v>3</v>
+      </c>
+      <c r="BB195">
+        <v>2</v>
+      </c>
+      <c r="BC195">
+        <v>5</v>
+      </c>
+      <c r="BD195">
+        <v>1.4</v>
+      </c>
+      <c r="BE195">
+        <v>8.1</v>
+      </c>
+      <c r="BF195">
+        <v>3.96</v>
+      </c>
+      <c r="BG195">
+        <v>1.18</v>
+      </c>
+      <c r="BH195">
+        <v>4.33</v>
+      </c>
+      <c r="BI195">
+        <v>1.29</v>
+      </c>
+      <c r="BJ195">
+        <v>3.4</v>
+      </c>
+      <c r="BK195">
+        <v>1.83</v>
+      </c>
+      <c r="BL195">
+        <v>2.45</v>
+      </c>
+      <c r="BM195">
+        <v>1.92</v>
+      </c>
+      <c r="BN195">
+        <v>1.88</v>
+      </c>
+      <c r="BO195">
+        <v>2.43</v>
+      </c>
+      <c r="BP195">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="196" spans="1:68">
+      <c r="A196" s="1">
+        <v>195</v>
+      </c>
+      <c r="B196">
+        <v>7380522</v>
+      </c>
+      <c r="C196" t="s">
+        <v>68</v>
+      </c>
+      <c r="D196" t="s">
+        <v>69</v>
+      </c>
+      <c r="E196" s="2">
+        <v>45515.77083333334</v>
+      </c>
+      <c r="F196">
+        <v>20</v>
+      </c>
+      <c r="G196" t="s">
+        <v>84</v>
+      </c>
+      <c r="H196" t="s">
+        <v>71</v>
+      </c>
+      <c r="I196">
+        <v>0</v>
+      </c>
+      <c r="J196">
+        <v>0</v>
+      </c>
+      <c r="K196">
+        <v>0</v>
+      </c>
+      <c r="L196">
+        <v>0</v>
+      </c>
+      <c r="M196">
+        <v>1</v>
+      </c>
+      <c r="N196">
+        <v>1</v>
+      </c>
+      <c r="O196" t="s">
+        <v>100</v>
+      </c>
+      <c r="P196" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q196">
+        <v>3</v>
+      </c>
+      <c r="R196">
+        <v>1.83</v>
+      </c>
+      <c r="S196">
+        <v>4.75</v>
+      </c>
+      <c r="T196">
+        <v>1.57</v>
+      </c>
+      <c r="U196">
+        <v>2.31</v>
+      </c>
+      <c r="V196">
+        <v>3.72</v>
+      </c>
+      <c r="W196">
+        <v>1.25</v>
+      </c>
+      <c r="X196">
+        <v>10.5</v>
+      </c>
+      <c r="Y196">
+        <v>1.03</v>
+      </c>
+      <c r="Z196">
+        <v>2.15</v>
+      </c>
+      <c r="AA196">
+        <v>2.9</v>
+      </c>
+      <c r="AB196">
+        <v>3.9</v>
+      </c>
+      <c r="AC196">
+        <v>1.08</v>
+      </c>
+      <c r="AD196">
+        <v>6.15</v>
+      </c>
+      <c r="AE196">
+        <v>1.51</v>
+      </c>
+      <c r="AF196">
+        <v>2.4</v>
+      </c>
+      <c r="AG196">
+        <v>3.1</v>
+      </c>
+      <c r="AH196">
+        <v>1.36</v>
+      </c>
+      <c r="AI196">
+        <v>2.5</v>
+      </c>
+      <c r="AJ196">
+        <v>1.5</v>
+      </c>
+      <c r="AK196">
+        <v>1.14</v>
+      </c>
+      <c r="AL196">
+        <v>1.37</v>
+      </c>
+      <c r="AM196">
+        <v>1.67</v>
+      </c>
+      <c r="AN196">
+        <v>2.33</v>
+      </c>
+      <c r="AO196">
+        <v>1.7</v>
+      </c>
+      <c r="AP196">
+        <v>2.1</v>
+      </c>
+      <c r="AQ196">
+        <v>1.82</v>
+      </c>
+      <c r="AR196">
+        <v>1.48</v>
+      </c>
+      <c r="AS196">
+        <v>1.22</v>
+      </c>
+      <c r="AT196">
+        <v>2.7</v>
+      </c>
+      <c r="AU196">
+        <v>4</v>
+      </c>
+      <c r="AV196">
+        <v>2</v>
+      </c>
+      <c r="AW196">
+        <v>3</v>
+      </c>
+      <c r="AX196">
+        <v>5</v>
+      </c>
+      <c r="AY196">
+        <v>7</v>
+      </c>
+      <c r="AZ196">
+        <v>7</v>
+      </c>
+      <c r="BA196">
+        <v>3</v>
+      </c>
+      <c r="BB196">
+        <v>8</v>
+      </c>
+      <c r="BC196">
+        <v>11</v>
+      </c>
+      <c r="BD196">
+        <v>1.64</v>
+      </c>
+      <c r="BE196">
+        <v>8</v>
+      </c>
+      <c r="BF196">
+        <v>2.81</v>
+      </c>
+      <c r="BG196">
+        <v>1.27</v>
+      </c>
+      <c r="BH196">
+        <v>3.55</v>
+      </c>
+      <c r="BI196">
+        <v>1.5</v>
+      </c>
+      <c r="BJ196">
+        <v>2.48</v>
+      </c>
+      <c r="BK196">
+        <v>2.38</v>
+      </c>
+      <c r="BL196">
+        <v>1.95</v>
+      </c>
+      <c r="BM196">
+        <v>2.45</v>
+      </c>
+      <c r="BN196">
+        <v>1.5</v>
+      </c>
+      <c r="BO196">
+        <v>3.4</v>
+      </c>
+      <c r="BP196">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="283">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -670,6 +670,12 @@
     <t>['44']</t>
   </si>
   <si>
+    <t>['38', '45+3']</t>
+  </si>
+  <si>
+    <t>['34', '90+11']</t>
+  </si>
+  <si>
     <t>['31', '49', '69']</t>
   </si>
   <si>
@@ -854,6 +860,9 @@
   </si>
   <si>
     <t>['40', '61']</t>
+  </si>
+  <si>
+    <t>['13']</t>
   </si>
 </sst>
 </file>
@@ -1215,7 +1224,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP196"/>
+  <dimension ref="A1:BP198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2504,7 +2513,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q7">
         <v>4.33</v>
@@ -2916,7 +2925,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -3328,7 +3337,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q11">
         <v>3.5</v>
@@ -3534,7 +3543,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q12">
         <v>3.6</v>
@@ -3821,7 +3830,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ13">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3946,7 +3955,7 @@
         <v>100</v>
       </c>
       <c r="P14" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q14">
         <v>4.75</v>
@@ -4152,7 +4161,7 @@
         <v>100</v>
       </c>
       <c r="P15" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4230,7 +4239,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AQ15">
         <v>1</v>
@@ -5260,7 +5269,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ20">
         <v>0.45</v>
@@ -5388,7 +5397,7 @@
         <v>106</v>
       </c>
       <c r="P21" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5469,7 +5478,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ21">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -6006,7 +6015,7 @@
         <v>107</v>
       </c>
       <c r="P24" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q24">
         <v>3.6</v>
@@ -6418,7 +6427,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6624,7 +6633,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q27">
         <v>4</v>
@@ -6830,7 +6839,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -7654,7 +7663,7 @@
         <v>113</v>
       </c>
       <c r="P32" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q32">
         <v>2.38</v>
@@ -7735,7 +7744,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ32">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR32">
         <v>2.22</v>
@@ -7860,7 +7869,7 @@
         <v>100</v>
       </c>
       <c r="P33" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -7941,7 +7950,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ33">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR33">
         <v>1.83</v>
@@ -8144,7 +8153,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ34">
         <v>0.11</v>
@@ -8762,7 +8771,7 @@
         <v>1</v>
       </c>
       <c r="AP37">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AQ37">
         <v>0.8</v>
@@ -9096,7 +9105,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q39">
         <v>2</v>
@@ -9508,7 +9517,7 @@
         <v>120</v>
       </c>
       <c r="P41" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q41">
         <v>2.25</v>
@@ -9714,7 +9723,7 @@
         <v>121</v>
       </c>
       <c r="P42" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9920,7 +9929,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q43">
         <v>3.2</v>
@@ -11156,7 +11165,7 @@
         <v>125</v>
       </c>
       <c r="P49" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -11855,7 +11864,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ52">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR52">
         <v>1.8</v>
@@ -12470,7 +12479,7 @@
         <v>0.5</v>
       </c>
       <c r="AP55">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ55">
         <v>0.8</v>
@@ -12598,7 +12607,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q56">
         <v>1.95</v>
@@ -13091,7 +13100,7 @@
         <v>2</v>
       </c>
       <c r="AQ58">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR58">
         <v>1.54</v>
@@ -13422,7 +13431,7 @@
         <v>118</v>
       </c>
       <c r="P60" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13500,7 +13509,7 @@
         <v>1</v>
       </c>
       <c r="AP60">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AQ60">
         <v>0.89</v>
@@ -13834,7 +13843,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q62">
         <v>3.4</v>
@@ -14118,7 +14127,7 @@
         <v>0.33</v>
       </c>
       <c r="AP63">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AQ63">
         <v>1</v>
@@ -14452,7 +14461,7 @@
         <v>135</v>
       </c>
       <c r="P65" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q65">
         <v>2.38</v>
@@ -15070,7 +15079,7 @@
         <v>100</v>
       </c>
       <c r="P68" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q68">
         <v>3.6</v>
@@ -15972,7 +15981,7 @@
         <v>2</v>
       </c>
       <c r="AP72">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ72">
         <v>1.44</v>
@@ -16306,7 +16315,7 @@
         <v>90</v>
       </c>
       <c r="P74" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q74">
         <v>3.1</v>
@@ -16387,7 +16396,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ74">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR74">
         <v>1.65</v>
@@ -16512,7 +16521,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -16924,7 +16933,7 @@
         <v>139</v>
       </c>
       <c r="P77" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q77">
         <v>2.2</v>
@@ -17748,7 +17757,7 @@
         <v>146</v>
       </c>
       <c r="P81" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q81">
         <v>2.05</v>
@@ -17954,7 +17963,7 @@
         <v>147</v>
       </c>
       <c r="P82" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q82">
         <v>4</v>
@@ -18160,7 +18169,7 @@
         <v>100</v>
       </c>
       <c r="P83" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q83">
         <v>3.2</v>
@@ -18238,7 +18247,7 @@
         <v>1</v>
       </c>
       <c r="AP83">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AQ83">
         <v>1.1</v>
@@ -18366,7 +18375,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q84">
         <v>2.75</v>
@@ -18984,7 +18993,7 @@
         <v>150</v>
       </c>
       <c r="P87" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q87">
         <v>3.5</v>
@@ -19065,7 +19074,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ87">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR87">
         <v>1.41</v>
@@ -20014,7 +20023,7 @@
         <v>153</v>
       </c>
       <c r="P92" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q92">
         <v>2.63</v>
@@ -20632,7 +20641,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q95">
         <v>3.5</v>
@@ -20919,7 +20928,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ96">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR96">
         <v>1.38</v>
@@ -21125,7 +21134,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ97">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR97">
         <v>1.19</v>
@@ -21250,7 +21259,7 @@
         <v>116</v>
       </c>
       <c r="P98" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q98">
         <v>3</v>
@@ -21328,7 +21337,7 @@
         <v>0.5</v>
       </c>
       <c r="AP98">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ98">
         <v>0.33</v>
@@ -21662,7 +21671,7 @@
         <v>100</v>
       </c>
       <c r="P100" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q100">
         <v>3.5</v>
@@ -21868,7 +21877,7 @@
         <v>160</v>
       </c>
       <c r="P101" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q101">
         <v>2.6</v>
@@ -21946,7 +21955,7 @@
         <v>0</v>
       </c>
       <c r="AP101">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AQ101">
         <v>0.11</v>
@@ -24340,7 +24349,7 @@
         <v>167</v>
       </c>
       <c r="P113" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q113">
         <v>3.25</v>
@@ -24752,7 +24761,7 @@
         <v>169</v>
       </c>
       <c r="P115" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q115">
         <v>2.68</v>
@@ -25164,7 +25173,7 @@
         <v>170</v>
       </c>
       <c r="P117" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q117">
         <v>2.38</v>
@@ -25451,7 +25460,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ118">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR118">
         <v>1.51</v>
@@ -25782,7 +25791,7 @@
         <v>90</v>
       </c>
       <c r="P120" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q120">
         <v>2.4</v>
@@ -25863,7 +25872,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ120">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR120">
         <v>1.67</v>
@@ -26194,7 +26203,7 @@
         <v>173</v>
       </c>
       <c r="P122" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q122">
         <v>1.95</v>
@@ -26606,7 +26615,7 @@
         <v>174</v>
       </c>
       <c r="P124" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q124">
         <v>2.75</v>
@@ -26812,7 +26821,7 @@
         <v>175</v>
       </c>
       <c r="P125" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q125">
         <v>3</v>
@@ -26890,7 +26899,7 @@
         <v>0.33</v>
       </c>
       <c r="AP125">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AQ125">
         <v>0.45</v>
@@ -27224,7 +27233,7 @@
         <v>176</v>
       </c>
       <c r="P127" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q127">
         <v>2.4</v>
@@ -27430,7 +27439,7 @@
         <v>177</v>
       </c>
       <c r="P128" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q128">
         <v>2.75</v>
@@ -27508,7 +27517,7 @@
         <v>1</v>
       </c>
       <c r="AP128">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ128">
         <v>0.89</v>
@@ -27636,7 +27645,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q129">
         <v>3.25</v>
@@ -28460,7 +28469,7 @@
         <v>140</v>
       </c>
       <c r="P133" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q133">
         <v>2.25</v>
@@ -28538,7 +28547,7 @@
         <v>1.14</v>
       </c>
       <c r="AP133">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ133">
         <v>1</v>
@@ -28872,7 +28881,7 @@
         <v>180</v>
       </c>
       <c r="P135" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q135">
         <v>3.5</v>
@@ -29156,7 +29165,7 @@
         <v>1.33</v>
       </c>
       <c r="AP136">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AQ136">
         <v>1.44</v>
@@ -29284,7 +29293,7 @@
         <v>100</v>
       </c>
       <c r="P137" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q137">
         <v>2.75</v>
@@ -29490,7 +29499,7 @@
         <v>181</v>
       </c>
       <c r="P138" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q138">
         <v>3</v>
@@ -29571,7 +29580,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ138">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR138">
         <v>1.46</v>
@@ -29902,7 +29911,7 @@
         <v>182</v>
       </c>
       <c r="P140" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q140">
         <v>3.75</v>
@@ -30108,7 +30117,7 @@
         <v>100</v>
       </c>
       <c r="P141" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q141">
         <v>3</v>
@@ -30314,7 +30323,7 @@
         <v>183</v>
       </c>
       <c r="P142" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q142">
         <v>3.2</v>
@@ -30395,7 +30404,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ142">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR142">
         <v>1.18</v>
@@ -30520,7 +30529,7 @@
         <v>152</v>
       </c>
       <c r="P143" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q143">
         <v>2.5</v>
@@ -31138,7 +31147,7 @@
         <v>186</v>
       </c>
       <c r="P146" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q146">
         <v>3.1</v>
@@ -31756,7 +31765,7 @@
         <v>189</v>
       </c>
       <c r="P149" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q149">
         <v>2.5</v>
@@ -32168,7 +32177,7 @@
         <v>191</v>
       </c>
       <c r="P151" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q151">
         <v>3.75</v>
@@ -32661,7 +32670,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ153">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR153">
         <v>1.39</v>
@@ -33610,7 +33619,7 @@
         <v>194</v>
       </c>
       <c r="P158" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q158">
         <v>3.75</v>
@@ -33688,7 +33697,7 @@
         <v>0.63</v>
       </c>
       <c r="AP158">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AQ158">
         <v>0.8</v>
@@ -33816,7 +33825,7 @@
         <v>195</v>
       </c>
       <c r="P159" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q159">
         <v>3</v>
@@ -35133,7 +35142,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ165">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR165">
         <v>1.61</v>
@@ -35670,7 +35679,7 @@
         <v>200</v>
       </c>
       <c r="P168" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q168">
         <v>2.63</v>
@@ -35748,7 +35757,7 @@
         <v>0.29</v>
       </c>
       <c r="AP168">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ168">
         <v>0.33</v>
@@ -35876,7 +35885,7 @@
         <v>201</v>
       </c>
       <c r="P169" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q169">
         <v>2.05</v>
@@ -36163,7 +36172,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ170">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR170">
         <v>1.28</v>
@@ -36984,7 +36993,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP174">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AQ174">
         <v>0.45</v>
@@ -37112,7 +37121,7 @@
         <v>203</v>
       </c>
       <c r="P175" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q175">
         <v>2.63</v>
@@ -37193,7 +37202,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ175">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR175">
         <v>1.71</v>
@@ -37318,7 +37327,7 @@
         <v>169</v>
       </c>
       <c r="P176" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q176">
         <v>4</v>
@@ -37524,7 +37533,7 @@
         <v>155</v>
       </c>
       <c r="P177" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q177">
         <v>2.88</v>
@@ -37730,7 +37739,7 @@
         <v>204</v>
       </c>
       <c r="P178" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q178">
         <v>2.5</v>
@@ -38142,7 +38151,7 @@
         <v>166</v>
       </c>
       <c r="P180" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q180">
         <v>2.38</v>
@@ -38966,7 +38975,7 @@
         <v>208</v>
       </c>
       <c r="P184" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q184">
         <v>3</v>
@@ -39378,7 +39387,7 @@
         <v>100</v>
       </c>
       <c r="P186" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q186">
         <v>3.75</v>
@@ -39584,7 +39593,7 @@
         <v>210</v>
       </c>
       <c r="P187" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q187">
         <v>2.75</v>
@@ -40202,7 +40211,7 @@
         <v>100</v>
       </c>
       <c r="P190" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q190">
         <v>3.75</v>
@@ -40614,7 +40623,7 @@
         <v>214</v>
       </c>
       <c r="P192" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q192">
         <v>2.1</v>
@@ -40820,7 +40829,7 @@
         <v>215</v>
       </c>
       <c r="P193" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q193">
         <v>2.2</v>
@@ -41595,6 +41604,418 @@
       </c>
       <c r="BP196">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="197" spans="1:68">
+      <c r="A197" s="1">
+        <v>196</v>
+      </c>
+      <c r="B197">
+        <v>7380517</v>
+      </c>
+      <c r="C197" t="s">
+        <v>68</v>
+      </c>
+      <c r="D197" t="s">
+        <v>69</v>
+      </c>
+      <c r="E197" s="2">
+        <v>45516.83333333334</v>
+      </c>
+      <c r="F197">
+        <v>20</v>
+      </c>
+      <c r="G197" t="s">
+        <v>83</v>
+      </c>
+      <c r="H197" t="s">
+        <v>78</v>
+      </c>
+      <c r="I197">
+        <v>2</v>
+      </c>
+      <c r="J197">
+        <v>0</v>
+      </c>
+      <c r="K197">
+        <v>2</v>
+      </c>
+      <c r="L197">
+        <v>2</v>
+      </c>
+      <c r="M197">
+        <v>0</v>
+      </c>
+      <c r="N197">
+        <v>2</v>
+      </c>
+      <c r="O197" t="s">
+        <v>218</v>
+      </c>
+      <c r="P197" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q197">
+        <v>3.1</v>
+      </c>
+      <c r="R197">
+        <v>1.95</v>
+      </c>
+      <c r="S197">
+        <v>4</v>
+      </c>
+      <c r="T197">
+        <v>1.53</v>
+      </c>
+      <c r="U197">
+        <v>2.38</v>
+      </c>
+      <c r="V197">
+        <v>3.75</v>
+      </c>
+      <c r="W197">
+        <v>1.25</v>
+      </c>
+      <c r="X197">
+        <v>11</v>
+      </c>
+      <c r="Y197">
+        <v>1.05</v>
+      </c>
+      <c r="Z197">
+        <v>2.35</v>
+      </c>
+      <c r="AA197">
+        <v>2.9</v>
+      </c>
+      <c r="AB197">
+        <v>3.4</v>
+      </c>
+      <c r="AC197">
+        <v>1.06</v>
+      </c>
+      <c r="AD197">
+        <v>6.5</v>
+      </c>
+      <c r="AE197">
+        <v>1.46</v>
+      </c>
+      <c r="AF197">
+        <v>2.45</v>
+      </c>
+      <c r="AG197">
+        <v>2.6</v>
+      </c>
+      <c r="AH197">
+        <v>1.48</v>
+      </c>
+      <c r="AI197">
+        <v>2.1</v>
+      </c>
+      <c r="AJ197">
+        <v>1.67</v>
+      </c>
+      <c r="AK197">
+        <v>1.2</v>
+      </c>
+      <c r="AL197">
+        <v>1.37</v>
+      </c>
+      <c r="AM197">
+        <v>1.55</v>
+      </c>
+      <c r="AN197">
+        <v>0.9</v>
+      </c>
+      <c r="AO197">
+        <v>0.67</v>
+      </c>
+      <c r="AP197">
+        <v>1.09</v>
+      </c>
+      <c r="AQ197">
+        <v>0.6</v>
+      </c>
+      <c r="AR197">
+        <v>1.84</v>
+      </c>
+      <c r="AS197">
+        <v>1.27</v>
+      </c>
+      <c r="AT197">
+        <v>3.11</v>
+      </c>
+      <c r="AU197">
+        <v>8</v>
+      </c>
+      <c r="AV197">
+        <v>4</v>
+      </c>
+      <c r="AW197">
+        <v>6</v>
+      </c>
+      <c r="AX197">
+        <v>0</v>
+      </c>
+      <c r="AY197">
+        <v>14</v>
+      </c>
+      <c r="AZ197">
+        <v>4</v>
+      </c>
+      <c r="BA197">
+        <v>5</v>
+      </c>
+      <c r="BB197">
+        <v>4</v>
+      </c>
+      <c r="BC197">
+        <v>9</v>
+      </c>
+      <c r="BD197">
+        <v>1.51</v>
+      </c>
+      <c r="BE197">
+        <v>8.4</v>
+      </c>
+      <c r="BF197">
+        <v>3.24</v>
+      </c>
+      <c r="BG197">
+        <v>1.19</v>
+      </c>
+      <c r="BH197">
+        <v>4.5</v>
+      </c>
+      <c r="BI197">
+        <v>1.35</v>
+      </c>
+      <c r="BJ197">
+        <v>3.05</v>
+      </c>
+      <c r="BK197">
+        <v>2</v>
+      </c>
+      <c r="BL197">
+        <v>2.2</v>
+      </c>
+      <c r="BM197">
+        <v>2.05</v>
+      </c>
+      <c r="BN197">
+        <v>1.72</v>
+      </c>
+      <c r="BO197">
+        <v>2.75</v>
+      </c>
+      <c r="BP197">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="198" spans="1:68">
+      <c r="A198" s="1">
+        <v>197</v>
+      </c>
+      <c r="B198">
+        <v>7380516</v>
+      </c>
+      <c r="C198" t="s">
+        <v>68</v>
+      </c>
+      <c r="D198" t="s">
+        <v>69</v>
+      </c>
+      <c r="E198" s="2">
+        <v>45516.875</v>
+      </c>
+      <c r="F198">
+        <v>20</v>
+      </c>
+      <c r="G198" t="s">
+        <v>88</v>
+      </c>
+      <c r="H198" t="s">
+        <v>76</v>
+      </c>
+      <c r="I198">
+        <v>1</v>
+      </c>
+      <c r="J198">
+        <v>1</v>
+      </c>
+      <c r="K198">
+        <v>2</v>
+      </c>
+      <c r="L198">
+        <v>2</v>
+      </c>
+      <c r="M198">
+        <v>1</v>
+      </c>
+      <c r="N198">
+        <v>3</v>
+      </c>
+      <c r="O198" t="s">
+        <v>219</v>
+      </c>
+      <c r="P198" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q198">
+        <v>3.2</v>
+      </c>
+      <c r="R198">
+        <v>1.83</v>
+      </c>
+      <c r="S198">
+        <v>4.33</v>
+      </c>
+      <c r="T198">
+        <v>1.53</v>
+      </c>
+      <c r="U198">
+        <v>2.38</v>
+      </c>
+      <c r="V198">
+        <v>3.75</v>
+      </c>
+      <c r="W198">
+        <v>1.25</v>
+      </c>
+      <c r="X198">
+        <v>11</v>
+      </c>
+      <c r="Y198">
+        <v>1.05</v>
+      </c>
+      <c r="Z198">
+        <v>2.3</v>
+      </c>
+      <c r="AA198">
+        <v>2.9</v>
+      </c>
+      <c r="AB198">
+        <v>3.5</v>
+      </c>
+      <c r="AC198">
+        <v>1.1</v>
+      </c>
+      <c r="AD198">
+        <v>6.5</v>
+      </c>
+      <c r="AE198">
+        <v>1.55</v>
+      </c>
+      <c r="AF198">
+        <v>2.3</v>
+      </c>
+      <c r="AG198">
+        <v>2.88</v>
+      </c>
+      <c r="AH198">
+        <v>1.4</v>
+      </c>
+      <c r="AI198">
+        <v>2.25</v>
+      </c>
+      <c r="AJ198">
+        <v>1.57</v>
+      </c>
+      <c r="AK198">
+        <v>1.28</v>
+      </c>
+      <c r="AL198">
+        <v>1.3</v>
+      </c>
+      <c r="AM198">
+        <v>1.66</v>
+      </c>
+      <c r="AN198">
+        <v>2.13</v>
+      </c>
+      <c r="AO198">
+        <v>0.89</v>
+      </c>
+      <c r="AP198">
+        <v>2.22</v>
+      </c>
+      <c r="AQ198">
+        <v>0.8</v>
+      </c>
+      <c r="AR198">
+        <v>1.6</v>
+      </c>
+      <c r="AS198">
+        <v>1.46</v>
+      </c>
+      <c r="AT198">
+        <v>3.06</v>
+      </c>
+      <c r="AU198">
+        <v>8</v>
+      </c>
+      <c r="AV198">
+        <v>2</v>
+      </c>
+      <c r="AW198">
+        <v>6</v>
+      </c>
+      <c r="AX198">
+        <v>3</v>
+      </c>
+      <c r="AY198">
+        <v>14</v>
+      </c>
+      <c r="AZ198">
+        <v>5</v>
+      </c>
+      <c r="BA198">
+        <v>6</v>
+      </c>
+      <c r="BB198">
+        <v>8</v>
+      </c>
+      <c r="BC198">
+        <v>14</v>
+      </c>
+      <c r="BD198">
+        <v>1.87</v>
+      </c>
+      <c r="BE198">
+        <v>7.5</v>
+      </c>
+      <c r="BF198">
+        <v>2.37</v>
+      </c>
+      <c r="BG198">
+        <v>1.18</v>
+      </c>
+      <c r="BH198">
+        <v>4.6</v>
+      </c>
+      <c r="BI198">
+        <v>1.34</v>
+      </c>
+      <c r="BJ198">
+        <v>3.1</v>
+      </c>
+      <c r="BK198">
+        <v>2.1</v>
+      </c>
+      <c r="BL198">
+        <v>2.25</v>
+      </c>
+      <c r="BM198">
+        <v>2</v>
+      </c>
+      <c r="BN198">
+        <v>1.8</v>
+      </c>
+      <c r="BO198">
+        <v>2.65</v>
+      </c>
+      <c r="BP198">
+        <v>1.44</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="283">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1224,7 +1224,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP198"/>
+  <dimension ref="A1:BP199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ4">
         <v>1.11</v>
@@ -2182,7 +2182,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ5">
-        <v>0.11</v>
+        <v>0.4</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -8156,7 +8156,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ34">
-        <v>0.11</v>
+        <v>0.4</v>
       </c>
       <c r="AR34">
         <v>1.81</v>
@@ -8565,7 +8565,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ36">
         <v>0.45</v>
@@ -13097,7 +13097,7 @@
         <v>1.5</v>
       </c>
       <c r="AP58">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ58">
         <v>0.8</v>
@@ -13306,7 +13306,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ59">
-        <v>0.11</v>
+        <v>0.4</v>
       </c>
       <c r="AR59">
         <v>1.2</v>
@@ -17217,7 +17217,7 @@
         <v>0.33</v>
       </c>
       <c r="AP78">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ78">
         <v>0.78</v>
@@ -17838,7 +17838,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ81">
-        <v>0.11</v>
+        <v>0.4</v>
       </c>
       <c r="AR81">
         <v>1.59</v>
@@ -19895,7 +19895,7 @@
         <v>1.2</v>
       </c>
       <c r="AP91">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ91">
         <v>1.36</v>
@@ -21958,7 +21958,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ101">
-        <v>0.11</v>
+        <v>0.4</v>
       </c>
       <c r="AR101">
         <v>1.9</v>
@@ -24015,7 +24015,7 @@
         <v>1</v>
       </c>
       <c r="AP111">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ111">
         <v>0.8</v>
@@ -26284,7 +26284,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ122">
-        <v>0.11</v>
+        <v>0.4</v>
       </c>
       <c r="AR122">
         <v>1.66</v>
@@ -31640,7 +31640,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ148">
-        <v>0.11</v>
+        <v>0.4</v>
       </c>
       <c r="AR148">
         <v>1.91</v>
@@ -32049,7 +32049,7 @@
         <v>0.71</v>
       </c>
       <c r="AP150">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ150">
         <v>0.8</v>
@@ -33288,7 +33288,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ156">
-        <v>0.11</v>
+        <v>0.4</v>
       </c>
       <c r="AR156">
         <v>1.57</v>
@@ -34521,7 +34521,7 @@
         <v>1.63</v>
       </c>
       <c r="AP162">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ162">
         <v>1.82</v>
@@ -38644,7 +38644,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ182">
-        <v>0.11</v>
+        <v>0.4</v>
       </c>
       <c r="AR182">
         <v>1.49</v>
@@ -39259,7 +39259,7 @@
         <v>0.38</v>
       </c>
       <c r="AP185">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ185">
         <v>0.33</v>
@@ -42016,6 +42016,212 @@
       </c>
       <c r="BP198">
         <v>1.44</v>
+      </c>
+    </row>
+    <row r="199" spans="1:68">
+      <c r="A199" s="1">
+        <v>198</v>
+      </c>
+      <c r="B199">
+        <v>7380533</v>
+      </c>
+      <c r="C199" t="s">
+        <v>68</v>
+      </c>
+      <c r="D199" t="s">
+        <v>69</v>
+      </c>
+      <c r="E199" s="2">
+        <v>45519.875</v>
+      </c>
+      <c r="F199">
+        <v>21</v>
+      </c>
+      <c r="G199" t="s">
+        <v>72</v>
+      </c>
+      <c r="H199" t="s">
+        <v>80</v>
+      </c>
+      <c r="I199">
+        <v>1</v>
+      </c>
+      <c r="J199">
+        <v>2</v>
+      </c>
+      <c r="K199">
+        <v>3</v>
+      </c>
+      <c r="L199">
+        <v>1</v>
+      </c>
+      <c r="M199">
+        <v>2</v>
+      </c>
+      <c r="N199">
+        <v>3</v>
+      </c>
+      <c r="O199" t="s">
+        <v>193</v>
+      </c>
+      <c r="P199" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q199">
+        <v>2.3</v>
+      </c>
+      <c r="R199">
+        <v>2</v>
+      </c>
+      <c r="S199">
+        <v>7</v>
+      </c>
+      <c r="T199">
+        <v>1.5</v>
+      </c>
+      <c r="U199">
+        <v>2.5</v>
+      </c>
+      <c r="V199">
+        <v>3.4</v>
+      </c>
+      <c r="W199">
+        <v>1.3</v>
+      </c>
+      <c r="X199">
+        <v>10</v>
+      </c>
+      <c r="Y199">
+        <v>1.06</v>
+      </c>
+      <c r="Z199">
+        <v>1.57</v>
+      </c>
+      <c r="AA199">
+        <v>3.5</v>
+      </c>
+      <c r="AB199">
+        <v>7</v>
+      </c>
+      <c r="AC199">
+        <v>1.07</v>
+      </c>
+      <c r="AD199">
+        <v>8</v>
+      </c>
+      <c r="AE199">
+        <v>1.4</v>
+      </c>
+      <c r="AF199">
+        <v>2.9</v>
+      </c>
+      <c r="AG199">
+        <v>2.6</v>
+      </c>
+      <c r="AH199">
+        <v>1.48</v>
+      </c>
+      <c r="AI199">
+        <v>2.63</v>
+      </c>
+      <c r="AJ199">
+        <v>1.44</v>
+      </c>
+      <c r="AK199">
+        <v>1.1</v>
+      </c>
+      <c r="AL199">
+        <v>1.2</v>
+      </c>
+      <c r="AM199">
+        <v>2.45</v>
+      </c>
+      <c r="AN199">
+        <v>2</v>
+      </c>
+      <c r="AO199">
+        <v>0.11</v>
+      </c>
+      <c r="AP199">
+        <v>1.8</v>
+      </c>
+      <c r="AQ199">
+        <v>0.4</v>
+      </c>
+      <c r="AR199">
+        <v>1.45</v>
+      </c>
+      <c r="AS199">
+        <v>0.98</v>
+      </c>
+      <c r="AT199">
+        <v>2.43</v>
+      </c>
+      <c r="AU199">
+        <v>5</v>
+      </c>
+      <c r="AV199">
+        <v>5</v>
+      </c>
+      <c r="AW199">
+        <v>9</v>
+      </c>
+      <c r="AX199">
+        <v>5</v>
+      </c>
+      <c r="AY199">
+        <v>14</v>
+      </c>
+      <c r="AZ199">
+        <v>10</v>
+      </c>
+      <c r="BA199">
+        <v>9</v>
+      </c>
+      <c r="BB199">
+        <v>0</v>
+      </c>
+      <c r="BC199">
+        <v>9</v>
+      </c>
+      <c r="BD199">
+        <v>1.32</v>
+      </c>
+      <c r="BE199">
+        <v>11</v>
+      </c>
+      <c r="BF199">
+        <v>4.15</v>
+      </c>
+      <c r="BG199">
+        <v>1.2</v>
+      </c>
+      <c r="BH199">
+        <v>4</v>
+      </c>
+      <c r="BI199">
+        <v>1.3</v>
+      </c>
+      <c r="BJ199">
+        <v>3.3</v>
+      </c>
+      <c r="BK199">
+        <v>1.91</v>
+      </c>
+      <c r="BL199">
+        <v>2.38</v>
+      </c>
+      <c r="BM199">
+        <v>1.98</v>
+      </c>
+      <c r="BN199">
+        <v>1.82</v>
+      </c>
+      <c r="BO199">
+        <v>2.5</v>
+      </c>
+      <c r="BP199">
+        <v>1.49</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="285">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -676,6 +676,15 @@
     <t>['34', '90+11']</t>
   </si>
   <si>
+    <t>['88']</t>
+  </si>
+  <si>
+    <t>['45+1', '77']</t>
+  </si>
+  <si>
+    <t>['2']</t>
+  </si>
+  <si>
     <t>['31', '49', '69']</t>
   </si>
   <si>
@@ -734,9 +743,6 @@
   </si>
   <si>
     <t>['25', '55']</t>
-  </si>
-  <si>
-    <t>['88']</t>
   </si>
   <si>
     <t>['84']</t>
@@ -1224,7 +1230,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP199"/>
+  <dimension ref="A1:BP202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1564,7 +1570,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ2">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1767,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AQ3">
         <v>0.33</v>
@@ -2513,7 +2519,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q7">
         <v>4.33</v>
@@ -2594,7 +2600,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ7">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2800,7 +2806,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ8">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2925,7 +2931,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -3003,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="AQ9">
         <v>0.33</v>
@@ -3209,7 +3215,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ10">
         <v>0.22</v>
@@ -3337,7 +3343,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q11">
         <v>3.5</v>
@@ -3543,7 +3549,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q12">
         <v>3.6</v>
@@ -3955,7 +3961,7 @@
         <v>100</v>
       </c>
       <c r="P14" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q14">
         <v>4.75</v>
@@ -4161,7 +4167,7 @@
         <v>100</v>
       </c>
       <c r="P15" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -5397,7 +5403,7 @@
         <v>106</v>
       </c>
       <c r="P21" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5890,7 +5896,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ23">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR23">
         <v>1.39</v>
@@ -6015,7 +6021,7 @@
         <v>107</v>
       </c>
       <c r="P24" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q24">
         <v>3.6</v>
@@ -6096,7 +6102,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ24">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR24">
         <v>1.66</v>
@@ -6299,7 +6305,7 @@
         <v>3</v>
       </c>
       <c r="AP25">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ25">
         <v>1.1</v>
@@ -6427,7 +6433,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6633,7 +6639,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q27">
         <v>4</v>
@@ -6714,7 +6720,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ27">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AR27">
         <v>1.04</v>
@@ -6839,7 +6845,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -7123,7 +7129,7 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="AQ29">
         <v>0.78</v>
@@ -7663,7 +7669,7 @@
         <v>113</v>
       </c>
       <c r="P32" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q32">
         <v>2.38</v>
@@ -7869,7 +7875,7 @@
         <v>100</v>
       </c>
       <c r="P33" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -7947,7 +7953,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AQ33">
         <v>0.8</v>
@@ -9105,7 +9111,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q39">
         <v>2</v>
@@ -9517,7 +9523,7 @@
         <v>120</v>
       </c>
       <c r="P41" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q41">
         <v>2.25</v>
@@ -9723,7 +9729,7 @@
         <v>121</v>
       </c>
       <c r="P42" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9929,7 +9935,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q43">
         <v>3.2</v>
@@ -10007,7 +10013,7 @@
         <v>1.5</v>
       </c>
       <c r="AP43">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ43">
         <v>1.82</v>
@@ -10628,7 +10634,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ46">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR46">
         <v>1.18</v>
@@ -11165,7 +11171,7 @@
         <v>125</v>
       </c>
       <c r="P49" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -11243,7 +11249,7 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="AQ49">
         <v>1.36</v>
@@ -11452,7 +11458,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ50">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AR50">
         <v>1.29</v>
@@ -12067,7 +12073,7 @@
         <v>0.5</v>
       </c>
       <c r="AP53">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AQ53">
         <v>0.33</v>
@@ -12607,7 +12613,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q56">
         <v>1.95</v>
@@ -13431,7 +13437,7 @@
         <v>118</v>
       </c>
       <c r="P60" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13512,7 +13518,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ60">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR60">
         <v>2.36</v>
@@ -13843,7 +13849,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q62">
         <v>3.4</v>
@@ -14461,7 +14467,7 @@
         <v>135</v>
       </c>
       <c r="P65" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q65">
         <v>2.38</v>
@@ -14539,7 +14545,7 @@
         <v>0</v>
       </c>
       <c r="AP65">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ65">
         <v>0.45</v>
@@ -15079,7 +15085,7 @@
         <v>100</v>
       </c>
       <c r="P68" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="Q68">
         <v>3.6</v>
@@ -15366,7 +15372,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ69">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AR69">
         <v>1.31</v>
@@ -15984,7 +15990,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ72">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR72">
         <v>1.76</v>
@@ -16315,7 +16321,7 @@
         <v>90</v>
       </c>
       <c r="P74" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q74">
         <v>3.1</v>
@@ -16521,7 +16527,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -16599,7 +16605,7 @@
         <v>0.33</v>
       </c>
       <c r="AP75">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="AQ75">
         <v>0.33</v>
@@ -16933,7 +16939,7 @@
         <v>139</v>
       </c>
       <c r="P77" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q77">
         <v>2.2</v>
@@ -17632,7 +17638,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ80">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR80">
         <v>1.12</v>
@@ -17757,7 +17763,7 @@
         <v>146</v>
       </c>
       <c r="P81" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q81">
         <v>2.05</v>
@@ -17963,7 +17969,7 @@
         <v>147</v>
       </c>
       <c r="P82" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q82">
         <v>4</v>
@@ -18041,7 +18047,7 @@
         <v>1.5</v>
       </c>
       <c r="AP82">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AQ82">
         <v>1.36</v>
@@ -18169,7 +18175,7 @@
         <v>100</v>
       </c>
       <c r="P83" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q83">
         <v>3.2</v>
@@ -18375,7 +18381,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q84">
         <v>2.75</v>
@@ -18993,7 +18999,7 @@
         <v>150</v>
       </c>
       <c r="P87" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q87">
         <v>3.5</v>
@@ -19071,7 +19077,7 @@
         <v>1.33</v>
       </c>
       <c r="AP87">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ87">
         <v>0.8</v>
@@ -19486,7 +19492,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ89">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AR89">
         <v>1.5</v>
@@ -20023,7 +20029,7 @@
         <v>153</v>
       </c>
       <c r="P92" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q92">
         <v>2.63</v>
@@ -20513,7 +20519,7 @@
         <v>1.4</v>
       </c>
       <c r="AP94">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="AQ94">
         <v>1.82</v>
@@ -20641,7 +20647,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q95">
         <v>3.5</v>
@@ -21259,7 +21265,7 @@
         <v>116</v>
       </c>
       <c r="P98" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q98">
         <v>3</v>
@@ -21671,7 +21677,7 @@
         <v>100</v>
       </c>
       <c r="P100" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q100">
         <v>3.5</v>
@@ -21877,7 +21883,7 @@
         <v>160</v>
       </c>
       <c r="P101" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q101">
         <v>2.6</v>
@@ -22161,7 +22167,7 @@
         <v>0.25</v>
       </c>
       <c r="AP102">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AQ102">
         <v>0.78</v>
@@ -22576,7 +22582,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ104">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AR104">
         <v>1.65</v>
@@ -22988,7 +22994,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ106">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR106">
         <v>1.73</v>
@@ -23397,7 +23403,7 @@
         <v>0.4</v>
       </c>
       <c r="AP108">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ108">
         <v>0.9</v>
@@ -23606,7 +23612,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ109">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR109">
         <v>1.74</v>
@@ -24349,7 +24355,7 @@
         <v>167</v>
       </c>
       <c r="P113" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q113">
         <v>3.25</v>
@@ -24633,10 +24639,10 @@
         <v>0.83</v>
       </c>
       <c r="AP114">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ114">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AR114">
         <v>1.36</v>
@@ -24761,7 +24767,7 @@
         <v>169</v>
       </c>
       <c r="P115" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q115">
         <v>2.68</v>
@@ -25173,7 +25179,7 @@
         <v>170</v>
       </c>
       <c r="P117" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q117">
         <v>2.38</v>
@@ -25457,7 +25463,7 @@
         <v>0.8</v>
       </c>
       <c r="AP118">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="AQ118">
         <v>0.8</v>
@@ -25791,7 +25797,7 @@
         <v>90</v>
       </c>
       <c r="P120" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q120">
         <v>2.4</v>
@@ -26078,7 +26084,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ121">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR121">
         <v>1.51</v>
@@ -26203,7 +26209,7 @@
         <v>173</v>
       </c>
       <c r="P122" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q122">
         <v>1.95</v>
@@ -26615,7 +26621,7 @@
         <v>174</v>
       </c>
       <c r="P124" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="Q124">
         <v>2.75</v>
@@ -26821,7 +26827,7 @@
         <v>175</v>
       </c>
       <c r="P125" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q125">
         <v>3</v>
@@ -27233,7 +27239,7 @@
         <v>176</v>
       </c>
       <c r="P127" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q127">
         <v>2.4</v>
@@ -27439,7 +27445,7 @@
         <v>177</v>
       </c>
       <c r="P128" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q128">
         <v>2.75</v>
@@ -27520,7 +27526,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ128">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR128">
         <v>1.66</v>
@@ -27645,7 +27651,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q129">
         <v>3.25</v>
@@ -27723,7 +27729,7 @@
         <v>0.33</v>
       </c>
       <c r="AP129">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AQ129">
         <v>0.9</v>
@@ -28469,7 +28475,7 @@
         <v>140</v>
       </c>
       <c r="P133" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q133">
         <v>2.25</v>
@@ -28881,7 +28887,7 @@
         <v>180</v>
       </c>
       <c r="P135" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q135">
         <v>3.5</v>
@@ -29168,7 +29174,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ136">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR136">
         <v>1.79</v>
@@ -29293,7 +29299,7 @@
         <v>100</v>
       </c>
       <c r="P137" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q137">
         <v>2.75</v>
@@ -29499,7 +29505,7 @@
         <v>181</v>
       </c>
       <c r="P138" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q138">
         <v>3</v>
@@ -29911,7 +29917,7 @@
         <v>182</v>
       </c>
       <c r="P140" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q140">
         <v>3.75</v>
@@ -29989,7 +29995,7 @@
         <v>0.43</v>
       </c>
       <c r="AP140">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="AQ140">
         <v>0.9</v>
@@ -30117,7 +30123,7 @@
         <v>100</v>
       </c>
       <c r="P141" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q141">
         <v>3</v>
@@ -30323,7 +30329,7 @@
         <v>183</v>
       </c>
       <c r="P142" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q142">
         <v>3.2</v>
@@ -30529,7 +30535,7 @@
         <v>152</v>
       </c>
       <c r="P143" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q143">
         <v>2.5</v>
@@ -30607,7 +30613,7 @@
         <v>0</v>
       </c>
       <c r="AP143">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AQ143">
         <v>0.22</v>
@@ -30816,7 +30822,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ144">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR144">
         <v>1.37</v>
@@ -31147,7 +31153,7 @@
         <v>186</v>
       </c>
       <c r="P146" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q146">
         <v>3.1</v>
@@ -31225,7 +31231,7 @@
         <v>1.5</v>
       </c>
       <c r="AP146">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ146">
         <v>1.11</v>
@@ -31765,7 +31771,7 @@
         <v>189</v>
       </c>
       <c r="P149" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q149">
         <v>2.5</v>
@@ -32052,7 +32058,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ150">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AR150">
         <v>1.49</v>
@@ -32177,7 +32183,7 @@
         <v>191</v>
       </c>
       <c r="P151" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q151">
         <v>3.75</v>
@@ -32255,7 +32261,7 @@
         <v>1.25</v>
       </c>
       <c r="AP151">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ151">
         <v>1.36</v>
@@ -32461,7 +32467,7 @@
         <v>1.38</v>
       </c>
       <c r="AP152">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AQ152">
         <v>1</v>
@@ -33619,7 +33625,7 @@
         <v>194</v>
       </c>
       <c r="P158" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q158">
         <v>3.75</v>
@@ -33700,7 +33706,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ158">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AR158">
         <v>1.72</v>
@@ -33825,7 +33831,7 @@
         <v>195</v>
       </c>
       <c r="P159" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q159">
         <v>3</v>
@@ -34318,7 +34324,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ161">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR161">
         <v>1.59</v>
@@ -34936,7 +34942,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ164">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR164">
         <v>1.32</v>
@@ -35139,7 +35145,7 @@
         <v>0.71</v>
       </c>
       <c r="AP165">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="AQ165">
         <v>0.6</v>
@@ -35679,7 +35685,7 @@
         <v>200</v>
       </c>
       <c r="P168" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q168">
         <v>2.63</v>
@@ -35885,7 +35891,7 @@
         <v>201</v>
       </c>
       <c r="P169" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q169">
         <v>2.05</v>
@@ -37121,7 +37127,7 @@
         <v>203</v>
       </c>
       <c r="P175" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q175">
         <v>2.63</v>
@@ -37327,7 +37333,7 @@
         <v>169</v>
       </c>
       <c r="P176" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q176">
         <v>4</v>
@@ -37533,7 +37539,7 @@
         <v>155</v>
       </c>
       <c r="P177" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q177">
         <v>2.88</v>
@@ -37739,7 +37745,7 @@
         <v>204</v>
       </c>
       <c r="P178" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q178">
         <v>2.5</v>
@@ -38026,7 +38032,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ179">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR179">
         <v>1.19</v>
@@ -38151,7 +38157,7 @@
         <v>166</v>
       </c>
       <c r="P180" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q180">
         <v>2.38</v>
@@ -38232,7 +38238,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ180">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR180">
         <v>1.94</v>
@@ -38847,7 +38853,7 @@
         <v>1.25</v>
       </c>
       <c r="AP183">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="AQ183">
         <v>1.11</v>
@@ -38975,7 +38981,7 @@
         <v>208</v>
       </c>
       <c r="P184" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q184">
         <v>3</v>
@@ -39053,10 +39059,10 @@
         <v>0.89</v>
       </c>
       <c r="AP184">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AQ184">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AR184">
         <v>1.53</v>
@@ -39387,7 +39393,7 @@
         <v>100</v>
       </c>
       <c r="P186" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q186">
         <v>3.75</v>
@@ -39593,7 +39599,7 @@
         <v>210</v>
       </c>
       <c r="P187" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q187">
         <v>2.75</v>
@@ -39671,7 +39677,7 @@
         <v>1</v>
       </c>
       <c r="AP187">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ187">
         <v>1</v>
@@ -40211,7 +40217,7 @@
         <v>100</v>
       </c>
       <c r="P190" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q190">
         <v>3.75</v>
@@ -40623,7 +40629,7 @@
         <v>214</v>
       </c>
       <c r="P192" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q192">
         <v>2.1</v>
@@ -40829,7 +40835,7 @@
         <v>215</v>
       </c>
       <c r="P193" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q193">
         <v>2.2</v>
@@ -41859,7 +41865,7 @@
         <v>219</v>
       </c>
       <c r="P198" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q198">
         <v>3.2</v>
@@ -42065,7 +42071,7 @@
         <v>193</v>
       </c>
       <c r="P199" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q199">
         <v>2.3</v>
@@ -42176,13 +42182,13 @@
         <v>10</v>
       </c>
       <c r="BA199">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BB199">
         <v>0</v>
       </c>
       <c r="BC199">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BD199">
         <v>1.32</v>
@@ -42222,6 +42228,624 @@
       </c>
       <c r="BP199">
         <v>1.49</v>
+      </c>
+    </row>
+    <row r="200" spans="1:68">
+      <c r="A200" s="1">
+        <v>199</v>
+      </c>
+      <c r="B200">
+        <v>7380527</v>
+      </c>
+      <c r="C200" t="s">
+        <v>68</v>
+      </c>
+      <c r="D200" t="s">
+        <v>69</v>
+      </c>
+      <c r="E200" s="2">
+        <v>45520.79166666666</v>
+      </c>
+      <c r="F200">
+        <v>21</v>
+      </c>
+      <c r="G200" t="s">
+        <v>77</v>
+      </c>
+      <c r="H200" t="s">
+        <v>88</v>
+      </c>
+      <c r="I200">
+        <v>0</v>
+      </c>
+      <c r="J200">
+        <v>1</v>
+      </c>
+      <c r="K200">
+        <v>1</v>
+      </c>
+      <c r="L200">
+        <v>1</v>
+      </c>
+      <c r="M200">
+        <v>1</v>
+      </c>
+      <c r="N200">
+        <v>2</v>
+      </c>
+      <c r="O200" t="s">
+        <v>220</v>
+      </c>
+      <c r="P200" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q200">
+        <v>3.25</v>
+      </c>
+      <c r="R200">
+        <v>1.95</v>
+      </c>
+      <c r="S200">
+        <v>3.75</v>
+      </c>
+      <c r="T200">
+        <v>1.5</v>
+      </c>
+      <c r="U200">
+        <v>2.5</v>
+      </c>
+      <c r="V200">
+        <v>3.4</v>
+      </c>
+      <c r="W200">
+        <v>1.3</v>
+      </c>
+      <c r="X200">
+        <v>10</v>
+      </c>
+      <c r="Y200">
+        <v>1.06</v>
+      </c>
+      <c r="Z200">
+        <v>2.45</v>
+      </c>
+      <c r="AA200">
+        <v>3</v>
+      </c>
+      <c r="AB200">
+        <v>3.1</v>
+      </c>
+      <c r="AC200">
+        <v>1.08</v>
+      </c>
+      <c r="AD200">
+        <v>7.5</v>
+      </c>
+      <c r="AE200">
+        <v>1.5</v>
+      </c>
+      <c r="AF200">
+        <v>2.4</v>
+      </c>
+      <c r="AG200">
+        <v>2.4</v>
+      </c>
+      <c r="AH200">
+        <v>1.53</v>
+      </c>
+      <c r="AI200">
+        <v>2</v>
+      </c>
+      <c r="AJ200">
+        <v>1.73</v>
+      </c>
+      <c r="AK200">
+        <v>1.35</v>
+      </c>
+      <c r="AL200">
+        <v>1.3</v>
+      </c>
+      <c r="AM200">
+        <v>1.45</v>
+      </c>
+      <c r="AN200">
+        <v>2.44</v>
+      </c>
+      <c r="AO200">
+        <v>0.8</v>
+      </c>
+      <c r="AP200">
+        <v>2.3</v>
+      </c>
+      <c r="AQ200">
+        <v>0.82</v>
+      </c>
+      <c r="AR200">
+        <v>1.57</v>
+      </c>
+      <c r="AS200">
+        <v>1.02</v>
+      </c>
+      <c r="AT200">
+        <v>2.59</v>
+      </c>
+      <c r="AU200">
+        <v>7</v>
+      </c>
+      <c r="AV200">
+        <v>3</v>
+      </c>
+      <c r="AW200">
+        <v>10</v>
+      </c>
+      <c r="AX200">
+        <v>4</v>
+      </c>
+      <c r="AY200">
+        <v>17</v>
+      </c>
+      <c r="AZ200">
+        <v>7</v>
+      </c>
+      <c r="BA200">
+        <v>5</v>
+      </c>
+      <c r="BB200">
+        <v>9</v>
+      </c>
+      <c r="BC200">
+        <v>14</v>
+      </c>
+      <c r="BD200">
+        <v>1.67</v>
+      </c>
+      <c r="BE200">
+        <v>7.7</v>
+      </c>
+      <c r="BF200">
+        <v>2.76</v>
+      </c>
+      <c r="BG200">
+        <v>1.18</v>
+      </c>
+      <c r="BH200">
+        <v>4.5</v>
+      </c>
+      <c r="BI200">
+        <v>1.34</v>
+      </c>
+      <c r="BJ200">
+        <v>3.1</v>
+      </c>
+      <c r="BK200">
+        <v>2.1</v>
+      </c>
+      <c r="BL200">
+        <v>2.23</v>
+      </c>
+      <c r="BM200">
+        <v>2</v>
+      </c>
+      <c r="BN200">
+        <v>1.73</v>
+      </c>
+      <c r="BO200">
+        <v>2.7</v>
+      </c>
+      <c r="BP200">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="201" spans="1:68">
+      <c r="A201" s="1">
+        <v>200</v>
+      </c>
+      <c r="B201">
+        <v>7380526</v>
+      </c>
+      <c r="C201" t="s">
+        <v>68</v>
+      </c>
+      <c r="D201" t="s">
+        <v>69</v>
+      </c>
+      <c r="E201" s="2">
+        <v>45520.875</v>
+      </c>
+      <c r="F201">
+        <v>21</v>
+      </c>
+      <c r="G201" t="s">
+        <v>78</v>
+      </c>
+      <c r="H201" t="s">
+        <v>81</v>
+      </c>
+      <c r="I201">
+        <v>1</v>
+      </c>
+      <c r="J201">
+        <v>0</v>
+      </c>
+      <c r="K201">
+        <v>1</v>
+      </c>
+      <c r="L201">
+        <v>2</v>
+      </c>
+      <c r="M201">
+        <v>0</v>
+      </c>
+      <c r="N201">
+        <v>2</v>
+      </c>
+      <c r="O201" t="s">
+        <v>221</v>
+      </c>
+      <c r="P201" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q201">
+        <v>3.25</v>
+      </c>
+      <c r="R201">
+        <v>1.95</v>
+      </c>
+      <c r="S201">
+        <v>3.75</v>
+      </c>
+      <c r="T201">
+        <v>1.53</v>
+      </c>
+      <c r="U201">
+        <v>2.38</v>
+      </c>
+      <c r="V201">
+        <v>3.75</v>
+      </c>
+      <c r="W201">
+        <v>1.25</v>
+      </c>
+      <c r="X201">
+        <v>11</v>
+      </c>
+      <c r="Y201">
+        <v>1.05</v>
+      </c>
+      <c r="Z201">
+        <v>2.45</v>
+      </c>
+      <c r="AA201">
+        <v>3.25</v>
+      </c>
+      <c r="AB201">
+        <v>2.75</v>
+      </c>
+      <c r="AC201">
+        <v>1.08</v>
+      </c>
+      <c r="AD201">
+        <v>7.5</v>
+      </c>
+      <c r="AE201">
+        <v>1.48</v>
+      </c>
+      <c r="AF201">
+        <v>2.4</v>
+      </c>
+      <c r="AG201">
+        <v>2.38</v>
+      </c>
+      <c r="AH201">
+        <v>1.52</v>
+      </c>
+      <c r="AI201">
+        <v>2.1</v>
+      </c>
+      <c r="AJ201">
+        <v>1.67</v>
+      </c>
+      <c r="AK201">
+        <v>1.35</v>
+      </c>
+      <c r="AL201">
+        <v>1.28</v>
+      </c>
+      <c r="AM201">
+        <v>1.45</v>
+      </c>
+      <c r="AN201">
+        <v>2.4</v>
+      </c>
+      <c r="AO201">
+        <v>1.44</v>
+      </c>
+      <c r="AP201">
+        <v>2.45</v>
+      </c>
+      <c r="AQ201">
+        <v>1.3</v>
+      </c>
+      <c r="AR201">
+        <v>1.31</v>
+      </c>
+      <c r="AS201">
+        <v>1.34</v>
+      </c>
+      <c r="AT201">
+        <v>2.65</v>
+      </c>
+      <c r="AU201">
+        <v>6</v>
+      </c>
+      <c r="AV201">
+        <v>3</v>
+      </c>
+      <c r="AW201">
+        <v>4</v>
+      </c>
+      <c r="AX201">
+        <v>1</v>
+      </c>
+      <c r="AY201">
+        <v>10</v>
+      </c>
+      <c r="AZ201">
+        <v>4</v>
+      </c>
+      <c r="BA201">
+        <v>1</v>
+      </c>
+      <c r="BB201">
+        <v>6</v>
+      </c>
+      <c r="BC201">
+        <v>7</v>
+      </c>
+      <c r="BD201">
+        <v>1.92</v>
+      </c>
+      <c r="BE201">
+        <v>7.7</v>
+      </c>
+      <c r="BF201">
+        <v>2.23</v>
+      </c>
+      <c r="BG201">
+        <v>1.2</v>
+      </c>
+      <c r="BH201">
+        <v>4.25</v>
+      </c>
+      <c r="BI201">
+        <v>1.22</v>
+      </c>
+      <c r="BJ201">
+        <v>4</v>
+      </c>
+      <c r="BK201">
+        <v>2.1</v>
+      </c>
+      <c r="BL201">
+        <v>2.8</v>
+      </c>
+      <c r="BM201">
+        <v>1.98</v>
+      </c>
+      <c r="BN201">
+        <v>1.82</v>
+      </c>
+      <c r="BO201">
+        <v>2.12</v>
+      </c>
+      <c r="BP201">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="202" spans="1:68">
+      <c r="A202" s="1">
+        <v>201</v>
+      </c>
+      <c r="B202">
+        <v>7380529</v>
+      </c>
+      <c r="C202" t="s">
+        <v>68</v>
+      </c>
+      <c r="D202" t="s">
+        <v>69</v>
+      </c>
+      <c r="E202" s="2">
+        <v>45520.89583333334</v>
+      </c>
+      <c r="F202">
+        <v>21</v>
+      </c>
+      <c r="G202" t="s">
+        <v>71</v>
+      </c>
+      <c r="H202" t="s">
+        <v>86</v>
+      </c>
+      <c r="I202">
+        <v>1</v>
+      </c>
+      <c r="J202">
+        <v>1</v>
+      </c>
+      <c r="K202">
+        <v>2</v>
+      </c>
+      <c r="L202">
+        <v>1</v>
+      </c>
+      <c r="M202">
+        <v>1</v>
+      </c>
+      <c r="N202">
+        <v>2</v>
+      </c>
+      <c r="O202" t="s">
+        <v>222</v>
+      </c>
+      <c r="P202" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q202">
+        <v>3.25</v>
+      </c>
+      <c r="R202">
+        <v>1.83</v>
+      </c>
+      <c r="S202">
+        <v>4.33</v>
+      </c>
+      <c r="T202">
+        <v>1.57</v>
+      </c>
+      <c r="U202">
+        <v>2.25</v>
+      </c>
+      <c r="V202">
+        <v>3.55</v>
+      </c>
+      <c r="W202">
+        <v>1.25</v>
+      </c>
+      <c r="X202">
+        <v>10.25</v>
+      </c>
+      <c r="Y202">
+        <v>1.03</v>
+      </c>
+      <c r="Z202">
+        <v>2.5</v>
+      </c>
+      <c r="AA202">
+        <v>2.88</v>
+      </c>
+      <c r="AB202">
+        <v>3.05</v>
+      </c>
+      <c r="AC202">
+        <v>1.11</v>
+      </c>
+      <c r="AD202">
+        <v>6.25</v>
+      </c>
+      <c r="AE202">
+        <v>1.5</v>
+      </c>
+      <c r="AF202">
+        <v>2.43</v>
+      </c>
+      <c r="AG202">
+        <v>2.55</v>
+      </c>
+      <c r="AH202">
+        <v>1.45</v>
+      </c>
+      <c r="AI202">
+        <v>2.25</v>
+      </c>
+      <c r="AJ202">
+        <v>1.57</v>
+      </c>
+      <c r="AK202">
+        <v>1.35</v>
+      </c>
+      <c r="AL202">
+        <v>1.35</v>
+      </c>
+      <c r="AM202">
+        <v>1.5</v>
+      </c>
+      <c r="AN202">
+        <v>1.78</v>
+      </c>
+      <c r="AO202">
+        <v>0.89</v>
+      </c>
+      <c r="AP202">
+        <v>1.7</v>
+      </c>
+      <c r="AQ202">
+        <v>0.9</v>
+      </c>
+      <c r="AR202">
+        <v>1.53</v>
+      </c>
+      <c r="AS202">
+        <v>1.11</v>
+      </c>
+      <c r="AT202">
+        <v>2.64</v>
+      </c>
+      <c r="AU202">
+        <v>3</v>
+      </c>
+      <c r="AV202">
+        <v>2</v>
+      </c>
+      <c r="AW202">
+        <v>6</v>
+      </c>
+      <c r="AX202">
+        <v>3</v>
+      </c>
+      <c r="AY202">
+        <v>9</v>
+      </c>
+      <c r="AZ202">
+        <v>5</v>
+      </c>
+      <c r="BA202">
+        <v>3</v>
+      </c>
+      <c r="BB202">
+        <v>6</v>
+      </c>
+      <c r="BC202">
+        <v>9</v>
+      </c>
+      <c r="BD202">
+        <v>1.65</v>
+      </c>
+      <c r="BE202">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF202">
+        <v>2.76</v>
+      </c>
+      <c r="BG202">
+        <v>1.22</v>
+      </c>
+      <c r="BH202">
+        <v>4</v>
+      </c>
+      <c r="BI202">
+        <v>1.42</v>
+      </c>
+      <c r="BJ202">
+        <v>2.75</v>
+      </c>
+      <c r="BK202">
+        <v>2.1</v>
+      </c>
+      <c r="BL202">
+        <v>2</v>
+      </c>
+      <c r="BM202">
+        <v>2.23</v>
+      </c>
+      <c r="BN202">
+        <v>1.61</v>
+      </c>
+      <c r="BO202">
+        <v>3</v>
+      </c>
+      <c r="BP202">
+        <v>1.35</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="289">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -685,6 +685,9 @@
     <t>['2']</t>
   </si>
   <si>
+    <t>['35', '49']</t>
+  </si>
+  <si>
     <t>['31', '49', '69']</t>
   </si>
   <si>
@@ -869,6 +872,15 @@
   </si>
   <si>
     <t>['13']</t>
+  </si>
+  <si>
+    <t>['5', '25', '55', '77']</t>
+  </si>
+  <si>
+    <t>['38']</t>
+  </si>
+  <si>
+    <t>['7', '90+8']</t>
   </si>
 </sst>
 </file>
@@ -1230,7 +1242,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP202"/>
+  <dimension ref="A1:BP206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1776,7 +1788,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ3">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1982,7 +1994,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ4">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2185,7 +2197,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ5">
         <v>0.4</v>
@@ -2391,7 +2403,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AQ6">
         <v>1</v>
@@ -2519,7 +2531,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q7">
         <v>4.33</v>
@@ -2597,7 +2609,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ7">
         <v>1.3</v>
@@ -2803,7 +2815,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AQ8">
         <v>0.82</v>
@@ -2931,7 +2943,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -3218,7 +3230,7 @@
         <v>2.45</v>
       </c>
       <c r="AQ10">
-        <v>0.22</v>
+        <v>0.5</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3343,7 +3355,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q11">
         <v>3.5</v>
@@ -3424,7 +3436,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ11">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3549,7 +3561,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q12">
         <v>3.6</v>
@@ -3961,7 +3973,7 @@
         <v>100</v>
       </c>
       <c r="P14" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q14">
         <v>4.75</v>
@@ -4167,7 +4179,7 @@
         <v>100</v>
       </c>
       <c r="P15" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -5403,7 +5415,7 @@
         <v>106</v>
       </c>
       <c r="P21" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5690,7 +5702,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ22">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR22">
         <v>1.45</v>
@@ -6021,7 +6033,7 @@
         <v>107</v>
       </c>
       <c r="P24" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q24">
         <v>3.6</v>
@@ -6099,7 +6111,7 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ24">
         <v>0.9</v>
@@ -6433,7 +6445,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6639,7 +6651,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q27">
         <v>4</v>
@@ -6845,7 +6857,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6923,10 +6935,10 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AQ28">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AR28">
         <v>2.07</v>
@@ -7335,10 +7347,10 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AQ30">
-        <v>0.22</v>
+        <v>0.5</v>
       </c>
       <c r="AR30">
         <v>0.95</v>
@@ -7544,7 +7556,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ31">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR31">
         <v>1.04</v>
@@ -7669,7 +7681,7 @@
         <v>113</v>
       </c>
       <c r="P32" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q32">
         <v>2.38</v>
@@ -7875,7 +7887,7 @@
         <v>100</v>
       </c>
       <c r="P33" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -8983,7 +8995,7 @@
         <v>3</v>
       </c>
       <c r="AP38">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ38">
         <v>1.36</v>
@@ -9111,7 +9123,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q39">
         <v>2</v>
@@ -9523,7 +9535,7 @@
         <v>120</v>
       </c>
       <c r="P41" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q41">
         <v>2.25</v>
@@ -9729,7 +9741,7 @@
         <v>121</v>
       </c>
       <c r="P42" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9810,7 +9822,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ42">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AR42">
         <v>1.42</v>
@@ -9935,7 +9947,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q43">
         <v>3.2</v>
@@ -10428,7 +10440,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ45">
-        <v>0.22</v>
+        <v>0.5</v>
       </c>
       <c r="AR45">
         <v>1.74</v>
@@ -10840,7 +10852,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ47">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR47">
         <v>1.99</v>
@@ -11171,7 +11183,7 @@
         <v>125</v>
       </c>
       <c r="P49" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -11661,7 +11673,7 @@
         <v>0.5</v>
       </c>
       <c r="AP51">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AQ51">
         <v>0.78</v>
@@ -12279,7 +12291,7 @@
         <v>0</v>
       </c>
       <c r="AP54">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ54">
         <v>1</v>
@@ -12613,7 +12625,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q56">
         <v>1.95</v>
@@ -12694,7 +12706,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ56">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR56">
         <v>1.63</v>
@@ -12897,7 +12909,7 @@
         <v>0</v>
       </c>
       <c r="AP57">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AQ57">
         <v>0.45</v>
@@ -13437,7 +13449,7 @@
         <v>118</v>
       </c>
       <c r="P60" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13721,7 +13733,7 @@
         <v>0.5</v>
       </c>
       <c r="AP61">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ61">
         <v>0.45</v>
@@ -13849,7 +13861,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q62">
         <v>3.4</v>
@@ -14467,7 +14479,7 @@
         <v>135</v>
       </c>
       <c r="P65" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q65">
         <v>2.38</v>
@@ -14751,7 +14763,7 @@
         <v>1.33</v>
       </c>
       <c r="AP66">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AQ66">
         <v>1</v>
@@ -15575,10 +15587,10 @@
         <v>0.67</v>
       </c>
       <c r="AP70">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ70">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR70">
         <v>1.23</v>
@@ -15781,7 +15793,7 @@
         <v>0.67</v>
       </c>
       <c r="AP71">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AQ71">
         <v>0.33</v>
@@ -16321,7 +16333,7 @@
         <v>90</v>
       </c>
       <c r="P74" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q74">
         <v>3.1</v>
@@ -16399,7 +16411,7 @@
         <v>0</v>
       </c>
       <c r="AP74">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ74">
         <v>0.6</v>
@@ -16527,7 +16539,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -16608,7 +16620,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ75">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AR75">
         <v>1.49</v>
@@ -16814,7 +16826,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ76">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR76">
         <v>1.31</v>
@@ -16939,7 +16951,7 @@
         <v>139</v>
       </c>
       <c r="P77" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q77">
         <v>2.2</v>
@@ -17017,7 +17029,7 @@
         <v>0.33</v>
       </c>
       <c r="AP77">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AQ77">
         <v>0.8</v>
@@ -17432,7 +17444,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ79">
-        <v>0.22</v>
+        <v>0.5</v>
       </c>
       <c r="AR79">
         <v>1.59</v>
@@ -17763,7 +17775,7 @@
         <v>146</v>
       </c>
       <c r="P81" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q81">
         <v>2.05</v>
@@ -17969,7 +17981,7 @@
         <v>147</v>
       </c>
       <c r="P82" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q82">
         <v>4</v>
@@ -18175,7 +18187,7 @@
         <v>100</v>
       </c>
       <c r="P83" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q83">
         <v>3.2</v>
@@ -18381,7 +18393,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q84">
         <v>2.75</v>
@@ -18459,7 +18471,7 @@
         <v>0.25</v>
       </c>
       <c r="AP84">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ84">
         <v>0.45</v>
@@ -18999,7 +19011,7 @@
         <v>150</v>
       </c>
       <c r="P87" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q87">
         <v>3.5</v>
@@ -19695,7 +19707,7 @@
         <v>1</v>
       </c>
       <c r="AP90">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ90">
         <v>1</v>
@@ -20029,7 +20041,7 @@
         <v>153</v>
       </c>
       <c r="P92" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q92">
         <v>2.63</v>
@@ -20110,7 +20122,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ92">
-        <v>0.22</v>
+        <v>0.5</v>
       </c>
       <c r="AR92">
         <v>1.4</v>
@@ -20316,7 +20328,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ93">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AR93">
         <v>1.79</v>
@@ -20647,7 +20659,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q95">
         <v>3.5</v>
@@ -21265,7 +21277,7 @@
         <v>116</v>
       </c>
       <c r="P98" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q98">
         <v>3</v>
@@ -21552,7 +21564,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ99">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR99">
         <v>1.35</v>
@@ -21677,7 +21689,7 @@
         <v>100</v>
       </c>
       <c r="P100" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q100">
         <v>3.5</v>
@@ -21755,7 +21767,7 @@
         <v>1.4</v>
       </c>
       <c r="AP100">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ100">
         <v>1.1</v>
@@ -21883,7 +21895,7 @@
         <v>160</v>
       </c>
       <c r="P101" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q101">
         <v>2.6</v>
@@ -22376,7 +22388,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ103">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AR103">
         <v>1.12</v>
@@ -22579,7 +22591,7 @@
         <v>1</v>
       </c>
       <c r="AP104">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AQ104">
         <v>0.82</v>
@@ -23200,7 +23212,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ107">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR107">
         <v>1.13</v>
@@ -23406,7 +23418,7 @@
         <v>2.45</v>
       </c>
       <c r="AQ108">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR108">
         <v>1.39</v>
@@ -23609,7 +23621,7 @@
         <v>1.5</v>
       </c>
       <c r="AP109">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AQ109">
         <v>1.3</v>
@@ -23818,7 +23830,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ110">
-        <v>0.22</v>
+        <v>0.5</v>
       </c>
       <c r="AR110">
         <v>1.75</v>
@@ -24355,7 +24367,7 @@
         <v>167</v>
       </c>
       <c r="P113" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q113">
         <v>3.25</v>
@@ -24433,7 +24445,7 @@
         <v>0.83</v>
       </c>
       <c r="AP113">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ113">
         <v>1</v>
@@ -24767,7 +24779,7 @@
         <v>169</v>
       </c>
       <c r="P115" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q115">
         <v>2.68</v>
@@ -25179,7 +25191,7 @@
         <v>170</v>
       </c>
       <c r="P117" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q117">
         <v>2.38</v>
@@ -25260,7 +25272,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ117">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR117">
         <v>1.94</v>
@@ -25669,7 +25681,7 @@
         <v>0.6</v>
       </c>
       <c r="AP119">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ119">
         <v>0.33</v>
@@ -25797,7 +25809,7 @@
         <v>90</v>
       </c>
       <c r="P120" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q120">
         <v>2.4</v>
@@ -26209,7 +26221,7 @@
         <v>173</v>
       </c>
       <c r="P122" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q122">
         <v>1.95</v>
@@ -26287,7 +26299,7 @@
         <v>0.2</v>
       </c>
       <c r="AP122">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AQ122">
         <v>0.4</v>
@@ -26827,7 +26839,7 @@
         <v>175</v>
       </c>
       <c r="P125" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q125">
         <v>3</v>
@@ -27111,7 +27123,7 @@
         <v>1.33</v>
       </c>
       <c r="AP126">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AQ126">
         <v>1</v>
@@ -27239,7 +27251,7 @@
         <v>176</v>
       </c>
       <c r="P127" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q127">
         <v>2.4</v>
@@ -27445,7 +27457,7 @@
         <v>177</v>
       </c>
       <c r="P128" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q128">
         <v>2.75</v>
@@ -27651,7 +27663,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q129">
         <v>3.25</v>
@@ -27732,7 +27744,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ129">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR129">
         <v>1.77</v>
@@ -27935,7 +27947,7 @@
         <v>1</v>
       </c>
       <c r="AP130">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AQ130">
         <v>1.36</v>
@@ -28475,7 +28487,7 @@
         <v>140</v>
       </c>
       <c r="P133" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q133">
         <v>2.25</v>
@@ -28887,7 +28899,7 @@
         <v>180</v>
       </c>
       <c r="P135" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q135">
         <v>3.5</v>
@@ -29299,7 +29311,7 @@
         <v>100</v>
       </c>
       <c r="P137" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q137">
         <v>2.75</v>
@@ -29505,7 +29517,7 @@
         <v>181</v>
       </c>
       <c r="P138" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q138">
         <v>3</v>
@@ -29583,7 +29595,7 @@
         <v>0.33</v>
       </c>
       <c r="AP138">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ138">
         <v>0.6</v>
@@ -29792,7 +29804,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ139">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AR139">
         <v>1.43</v>
@@ -29917,7 +29929,7 @@
         <v>182</v>
       </c>
       <c r="P140" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q140">
         <v>3.75</v>
@@ -29998,7 +30010,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ140">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR140">
         <v>1.49</v>
@@ -30123,7 +30135,7 @@
         <v>100</v>
       </c>
       <c r="P141" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q141">
         <v>3</v>
@@ -30329,7 +30341,7 @@
         <v>183</v>
       </c>
       <c r="P142" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q142">
         <v>3.2</v>
@@ -30535,7 +30547,7 @@
         <v>152</v>
       </c>
       <c r="P143" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q143">
         <v>2.5</v>
@@ -30616,7 +30628,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ143">
-        <v>0.22</v>
+        <v>0.5</v>
       </c>
       <c r="AR143">
         <v>1.64</v>
@@ -31153,7 +31165,7 @@
         <v>186</v>
       </c>
       <c r="P146" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q146">
         <v>3.1</v>
@@ -31234,7 +31246,7 @@
         <v>2.45</v>
       </c>
       <c r="AQ146">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR146">
         <v>1.33</v>
@@ -31437,7 +31449,7 @@
         <v>0.43</v>
       </c>
       <c r="AP147">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ147">
         <v>0.45</v>
@@ -31643,7 +31655,7 @@
         <v>0.17</v>
       </c>
       <c r="AP148">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AQ148">
         <v>0.4</v>
@@ -31771,7 +31783,7 @@
         <v>189</v>
       </c>
       <c r="P149" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q149">
         <v>2.5</v>
@@ -32183,7 +32195,7 @@
         <v>191</v>
       </c>
       <c r="P151" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q151">
         <v>3.75</v>
@@ -32882,7 +32894,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ154">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR154">
         <v>1.77</v>
@@ -33625,7 +33637,7 @@
         <v>194</v>
       </c>
       <c r="P158" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q158">
         <v>3.75</v>
@@ -33831,7 +33843,7 @@
         <v>195</v>
       </c>
       <c r="P159" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q159">
         <v>3</v>
@@ -34115,7 +34127,7 @@
         <v>0.43</v>
       </c>
       <c r="AP160">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AQ160">
         <v>0.33</v>
@@ -34321,7 +34333,7 @@
         <v>1.57</v>
       </c>
       <c r="AP161">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ161">
         <v>1.3</v>
@@ -34736,7 +34748,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ163">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR163">
         <v>1.38</v>
@@ -35557,10 +35569,10 @@
         <v>0.14</v>
       </c>
       <c r="AP167">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ167">
-        <v>0.22</v>
+        <v>0.5</v>
       </c>
       <c r="AR167">
         <v>1.5</v>
@@ -35685,7 +35697,7 @@
         <v>200</v>
       </c>
       <c r="P168" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q168">
         <v>2.63</v>
@@ -35766,7 +35778,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ168">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AR168">
         <v>1.69</v>
@@ -35891,7 +35903,7 @@
         <v>201</v>
       </c>
       <c r="P169" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q169">
         <v>2.05</v>
@@ -35969,7 +35981,7 @@
         <v>1</v>
       </c>
       <c r="AP169">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AQ169">
         <v>0.8</v>
@@ -37127,7 +37139,7 @@
         <v>203</v>
       </c>
       <c r="P175" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q175">
         <v>2.63</v>
@@ -37333,7 +37345,7 @@
         <v>169</v>
       </c>
       <c r="P176" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q176">
         <v>4</v>
@@ -37539,7 +37551,7 @@
         <v>155</v>
       </c>
       <c r="P177" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q177">
         <v>2.88</v>
@@ -37745,7 +37757,7 @@
         <v>204</v>
       </c>
       <c r="P178" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q178">
         <v>2.5</v>
@@ -38157,7 +38169,7 @@
         <v>166</v>
       </c>
       <c r="P180" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q180">
         <v>2.38</v>
@@ -38235,7 +38247,7 @@
         <v>1.5</v>
       </c>
       <c r="AP180">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AQ180">
         <v>1.3</v>
@@ -38647,7 +38659,7 @@
         <v>0.13</v>
       </c>
       <c r="AP182">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ182">
         <v>0.4</v>
@@ -38856,7 +38868,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ183">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR183">
         <v>1.53</v>
@@ -38981,7 +38993,7 @@
         <v>208</v>
       </c>
       <c r="P184" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q184">
         <v>3</v>
@@ -39268,7 +39280,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ185">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AR185">
         <v>1.46</v>
@@ -39393,7 +39405,7 @@
         <v>100</v>
       </c>
       <c r="P186" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q186">
         <v>3.75</v>
@@ -39471,10 +39483,10 @@
         <v>0.67</v>
       </c>
       <c r="AP186">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ186">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR186">
         <v>1.61</v>
@@ -39599,7 +39611,7 @@
         <v>210</v>
       </c>
       <c r="P187" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q187">
         <v>2.75</v>
@@ -39883,10 +39895,10 @@
         <v>0.25</v>
       </c>
       <c r="AP188">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AQ188">
-        <v>0.22</v>
+        <v>0.5</v>
       </c>
       <c r="AR188">
         <v>1.78</v>
@@ -40217,7 +40229,7 @@
         <v>100</v>
       </c>
       <c r="P190" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q190">
         <v>3.75</v>
@@ -40629,7 +40641,7 @@
         <v>214</v>
       </c>
       <c r="P192" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q192">
         <v>2.1</v>
@@ -40835,7 +40847,7 @@
         <v>215</v>
       </c>
       <c r="P193" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q193">
         <v>2.2</v>
@@ -41865,7 +41877,7 @@
         <v>219</v>
       </c>
       <c r="P198" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q198">
         <v>3.2</v>
@@ -42071,7 +42083,7 @@
         <v>193</v>
       </c>
       <c r="P199" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q199">
         <v>2.3</v>
@@ -42277,7 +42289,7 @@
         <v>220</v>
       </c>
       <c r="P200" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q200">
         <v>3.25</v>
@@ -42846,6 +42858,830 @@
       </c>
       <c r="BP202">
         <v>1.35</v>
+      </c>
+    </row>
+    <row r="203" spans="1:68">
+      <c r="A203" s="1">
+        <v>202</v>
+      </c>
+      <c r="B203">
+        <v>7380531</v>
+      </c>
+      <c r="C203" t="s">
+        <v>68</v>
+      </c>
+      <c r="D203" t="s">
+        <v>69</v>
+      </c>
+      <c r="E203" s="2">
+        <v>45521.64583333334</v>
+      </c>
+      <c r="F203">
+        <v>21</v>
+      </c>
+      <c r="G203" t="s">
+        <v>73</v>
+      </c>
+      <c r="H203" t="s">
+        <v>83</v>
+      </c>
+      <c r="I203">
+        <v>0</v>
+      </c>
+      <c r="J203">
+        <v>2</v>
+      </c>
+      <c r="K203">
+        <v>2</v>
+      </c>
+      <c r="L203">
+        <v>0</v>
+      </c>
+      <c r="M203">
+        <v>4</v>
+      </c>
+      <c r="N203">
+        <v>4</v>
+      </c>
+      <c r="O203" t="s">
+        <v>100</v>
+      </c>
+      <c r="P203" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q203">
+        <v>3</v>
+      </c>
+      <c r="R203">
+        <v>1.91</v>
+      </c>
+      <c r="S203">
+        <v>4.5</v>
+      </c>
+      <c r="T203">
+        <v>1.57</v>
+      </c>
+      <c r="U203">
+        <v>2.25</v>
+      </c>
+      <c r="V203">
+        <v>3.75</v>
+      </c>
+      <c r="W203">
+        <v>1.25</v>
+      </c>
+      <c r="X203">
+        <v>13</v>
+      </c>
+      <c r="Y203">
+        <v>1.04</v>
+      </c>
+      <c r="Z203">
+        <v>2.1</v>
+      </c>
+      <c r="AA203">
+        <v>3.2</v>
+      </c>
+      <c r="AB203">
+        <v>3.5</v>
+      </c>
+      <c r="AC203">
+        <v>1.09</v>
+      </c>
+      <c r="AD203">
+        <v>7</v>
+      </c>
+      <c r="AE203">
+        <v>1.48</v>
+      </c>
+      <c r="AF203">
+        <v>2.37</v>
+      </c>
+      <c r="AG203">
+        <v>2.6</v>
+      </c>
+      <c r="AH203">
+        <v>1.48</v>
+      </c>
+      <c r="AI203">
+        <v>2.25</v>
+      </c>
+      <c r="AJ203">
+        <v>1.57</v>
+      </c>
+      <c r="AK203">
+        <v>1.3</v>
+      </c>
+      <c r="AL203">
+        <v>1.3</v>
+      </c>
+      <c r="AM203">
+        <v>1.65</v>
+      </c>
+      <c r="AN203">
+        <v>0.89</v>
+      </c>
+      <c r="AO203">
+        <v>0.22</v>
+      </c>
+      <c r="AP203">
+        <v>0.8</v>
+      </c>
+      <c r="AQ203">
+        <v>0.5</v>
+      </c>
+      <c r="AR203">
+        <v>1.65</v>
+      </c>
+      <c r="AS203">
+        <v>1.05</v>
+      </c>
+      <c r="AT203">
+        <v>2.7</v>
+      </c>
+      <c r="AU203">
+        <v>5</v>
+      </c>
+      <c r="AV203">
+        <v>7</v>
+      </c>
+      <c r="AW203">
+        <v>6</v>
+      </c>
+      <c r="AX203">
+        <v>5</v>
+      </c>
+      <c r="AY203">
+        <v>11</v>
+      </c>
+      <c r="AZ203">
+        <v>12</v>
+      </c>
+      <c r="BA203">
+        <v>7</v>
+      </c>
+      <c r="BB203">
+        <v>3</v>
+      </c>
+      <c r="BC203">
+        <v>10</v>
+      </c>
+      <c r="BD203">
+        <v>1.9</v>
+      </c>
+      <c r="BE203">
+        <v>7.5</v>
+      </c>
+      <c r="BF203">
+        <v>2.28</v>
+      </c>
+      <c r="BG203">
+        <v>1.22</v>
+      </c>
+      <c r="BH203">
+        <v>4</v>
+      </c>
+      <c r="BI203">
+        <v>1.42</v>
+      </c>
+      <c r="BJ203">
+        <v>2.75</v>
+      </c>
+      <c r="BK203">
+        <v>2.2</v>
+      </c>
+      <c r="BL203">
+        <v>2</v>
+      </c>
+      <c r="BM203">
+        <v>2.23</v>
+      </c>
+      <c r="BN203">
+        <v>1.61</v>
+      </c>
+      <c r="BO203">
+        <v>3</v>
+      </c>
+      <c r="BP203">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="204" spans="1:68">
+      <c r="A204" s="1">
+        <v>203</v>
+      </c>
+      <c r="B204">
+        <v>7380530</v>
+      </c>
+      <c r="C204" t="s">
+        <v>68</v>
+      </c>
+      <c r="D204" t="s">
+        <v>69</v>
+      </c>
+      <c r="E204" s="2">
+        <v>45521.66666666666</v>
+      </c>
+      <c r="F204">
+        <v>21</v>
+      </c>
+      <c r="G204" t="s">
+        <v>74</v>
+      </c>
+      <c r="H204" t="s">
+        <v>82</v>
+      </c>
+      <c r="I204">
+        <v>0</v>
+      </c>
+      <c r="J204">
+        <v>1</v>
+      </c>
+      <c r="K204">
+        <v>1</v>
+      </c>
+      <c r="L204">
+        <v>0</v>
+      </c>
+      <c r="M204">
+        <v>1</v>
+      </c>
+      <c r="N204">
+        <v>1</v>
+      </c>
+      <c r="O204" t="s">
+        <v>100</v>
+      </c>
+      <c r="P204" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q204">
+        <v>2.2</v>
+      </c>
+      <c r="R204">
+        <v>2.05</v>
+      </c>
+      <c r="S204">
+        <v>7.5</v>
+      </c>
+      <c r="T204">
+        <v>1.47</v>
+      </c>
+      <c r="U204">
+        <v>2.5</v>
+      </c>
+      <c r="V204">
+        <v>3.25</v>
+      </c>
+      <c r="W204">
+        <v>1.3</v>
+      </c>
+      <c r="X204">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="Y204">
+        <v>1.04</v>
+      </c>
+      <c r="Z204">
+        <v>1.53</v>
+      </c>
+      <c r="AA204">
+        <v>3.6</v>
+      </c>
+      <c r="AB204">
+        <v>7.5</v>
+      </c>
+      <c r="AC204">
+        <v>1.04</v>
+      </c>
+      <c r="AD204">
+        <v>7.3</v>
+      </c>
+      <c r="AE204">
+        <v>1.4</v>
+      </c>
+      <c r="AF204">
+        <v>2.9</v>
+      </c>
+      <c r="AG204">
+        <v>2.4</v>
+      </c>
+      <c r="AH204">
+        <v>1.53</v>
+      </c>
+      <c r="AI204">
+        <v>2.5</v>
+      </c>
+      <c r="AJ204">
+        <v>1.5</v>
+      </c>
+      <c r="AK204">
+        <v>1.06</v>
+      </c>
+      <c r="AL204">
+        <v>1.18</v>
+      </c>
+      <c r="AM204">
+        <v>2.6</v>
+      </c>
+      <c r="AN204">
+        <v>2.44</v>
+      </c>
+      <c r="AO204">
+        <v>1.11</v>
+      </c>
+      <c r="AP204">
+        <v>2.2</v>
+      </c>
+      <c r="AQ204">
+        <v>1.3</v>
+      </c>
+      <c r="AR204">
+        <v>1.94</v>
+      </c>
+      <c r="AS204">
+        <v>1.16</v>
+      </c>
+      <c r="AT204">
+        <v>3.1</v>
+      </c>
+      <c r="AU204">
+        <v>8</v>
+      </c>
+      <c r="AV204">
+        <v>4</v>
+      </c>
+      <c r="AW204">
+        <v>5</v>
+      </c>
+      <c r="AX204">
+        <v>3</v>
+      </c>
+      <c r="AY204">
+        <v>13</v>
+      </c>
+      <c r="AZ204">
+        <v>7</v>
+      </c>
+      <c r="BA204">
+        <v>7</v>
+      </c>
+      <c r="BB204">
+        <v>4</v>
+      </c>
+      <c r="BC204">
+        <v>11</v>
+      </c>
+      <c r="BD204">
+        <v>1.4</v>
+      </c>
+      <c r="BE204">
+        <v>11</v>
+      </c>
+      <c r="BF204">
+        <v>3.54</v>
+      </c>
+      <c r="BG204">
+        <v>1.18</v>
+      </c>
+      <c r="BH204">
+        <v>4.5</v>
+      </c>
+      <c r="BI204">
+        <v>1.34</v>
+      </c>
+      <c r="BJ204">
+        <v>3.1</v>
+      </c>
+      <c r="BK204">
+        <v>2</v>
+      </c>
+      <c r="BL204">
+        <v>2.23</v>
+      </c>
+      <c r="BM204">
+        <v>2</v>
+      </c>
+      <c r="BN204">
+        <v>1.73</v>
+      </c>
+      <c r="BO204">
+        <v>2.7</v>
+      </c>
+      <c r="BP204">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="205" spans="1:68">
+      <c r="A205" s="1">
+        <v>204</v>
+      </c>
+      <c r="B205">
+        <v>7380535</v>
+      </c>
+      <c r="C205" t="s">
+        <v>68</v>
+      </c>
+      <c r="D205" t="s">
+        <v>69</v>
+      </c>
+      <c r="E205" s="2">
+        <v>45521.70833333334</v>
+      </c>
+      <c r="F205">
+        <v>21</v>
+      </c>
+      <c r="G205" t="s">
+        <v>76</v>
+      </c>
+      <c r="H205" t="s">
+        <v>89</v>
+      </c>
+      <c r="I205">
+        <v>0</v>
+      </c>
+      <c r="J205">
+        <v>1</v>
+      </c>
+      <c r="K205">
+        <v>1</v>
+      </c>
+      <c r="L205">
+        <v>1</v>
+      </c>
+      <c r="M205">
+        <v>2</v>
+      </c>
+      <c r="N205">
+        <v>3</v>
+      </c>
+      <c r="O205" t="s">
+        <v>151</v>
+      </c>
+      <c r="P205" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q205">
+        <v>2.75</v>
+      </c>
+      <c r="R205">
+        <v>2</v>
+      </c>
+      <c r="S205">
+        <v>4.33</v>
+      </c>
+      <c r="T205">
+        <v>1.5</v>
+      </c>
+      <c r="U205">
+        <v>2.5</v>
+      </c>
+      <c r="V205">
+        <v>3.5</v>
+      </c>
+      <c r="W205">
+        <v>1.29</v>
+      </c>
+      <c r="X205">
+        <v>11</v>
+      </c>
+      <c r="Y205">
+        <v>1.05</v>
+      </c>
+      <c r="Z205">
+        <v>2</v>
+      </c>
+      <c r="AA205">
+        <v>3.3</v>
+      </c>
+      <c r="AB205">
+        <v>3.5</v>
+      </c>
+      <c r="AC205">
+        <v>1.08</v>
+      </c>
+      <c r="AD205">
+        <v>7.5</v>
+      </c>
+      <c r="AE205">
+        <v>1.44</v>
+      </c>
+      <c r="AF205">
+        <v>2.75</v>
+      </c>
+      <c r="AG205">
+        <v>2.35</v>
+      </c>
+      <c r="AH205">
+        <v>1.57</v>
+      </c>
+      <c r="AI205">
+        <v>2</v>
+      </c>
+      <c r="AJ205">
+        <v>1.73</v>
+      </c>
+      <c r="AK205">
+        <v>1.28</v>
+      </c>
+      <c r="AL205">
+        <v>1.28</v>
+      </c>
+      <c r="AM205">
+        <v>1.7</v>
+      </c>
+      <c r="AN205">
+        <v>2.1</v>
+      </c>
+      <c r="AO205">
+        <v>0.9</v>
+      </c>
+      <c r="AP205">
+        <v>1.91</v>
+      </c>
+      <c r="AQ205">
+        <v>1.09</v>
+      </c>
+      <c r="AR205">
+        <v>1.71</v>
+      </c>
+      <c r="AS205">
+        <v>1.17</v>
+      </c>
+      <c r="AT205">
+        <v>2.88</v>
+      </c>
+      <c r="AU205">
+        <v>8</v>
+      </c>
+      <c r="AV205">
+        <v>4</v>
+      </c>
+      <c r="AW205">
+        <v>13</v>
+      </c>
+      <c r="AX205">
+        <v>3</v>
+      </c>
+      <c r="AY205">
+        <v>21</v>
+      </c>
+      <c r="AZ205">
+        <v>7</v>
+      </c>
+      <c r="BA205">
+        <v>19</v>
+      </c>
+      <c r="BB205">
+        <v>2</v>
+      </c>
+      <c r="BC205">
+        <v>21</v>
+      </c>
+      <c r="BD205">
+        <v>1.5</v>
+      </c>
+      <c r="BE205">
+        <v>8</v>
+      </c>
+      <c r="BF205">
+        <v>3.34</v>
+      </c>
+      <c r="BG205">
+        <v>1.2</v>
+      </c>
+      <c r="BH205">
+        <v>4.25</v>
+      </c>
+      <c r="BI205">
+        <v>1.38</v>
+      </c>
+      <c r="BJ205">
+        <v>2.9</v>
+      </c>
+      <c r="BK205">
+        <v>2.1</v>
+      </c>
+      <c r="BL205">
+        <v>2.12</v>
+      </c>
+      <c r="BM205">
+        <v>2.05</v>
+      </c>
+      <c r="BN205">
+        <v>1.7</v>
+      </c>
+      <c r="BO205">
+        <v>2.85</v>
+      </c>
+      <c r="BP205">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="206" spans="1:68">
+      <c r="A206" s="1">
+        <v>205</v>
+      </c>
+      <c r="B206">
+        <v>7380534</v>
+      </c>
+      <c r="C206" t="s">
+        <v>68</v>
+      </c>
+      <c r="D206" t="s">
+        <v>69</v>
+      </c>
+      <c r="E206" s="2">
+        <v>45521.75</v>
+      </c>
+      <c r="F206">
+        <v>21</v>
+      </c>
+      <c r="G206" t="s">
+        <v>75</v>
+      </c>
+      <c r="H206" t="s">
+        <v>84</v>
+      </c>
+      <c r="I206">
+        <v>1</v>
+      </c>
+      <c r="J206">
+        <v>0</v>
+      </c>
+      <c r="K206">
+        <v>1</v>
+      </c>
+      <c r="L206">
+        <v>2</v>
+      </c>
+      <c r="M206">
+        <v>0</v>
+      </c>
+      <c r="N206">
+        <v>2</v>
+      </c>
+      <c r="O206" t="s">
+        <v>223</v>
+      </c>
+      <c r="P206" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q206">
+        <v>3</v>
+      </c>
+      <c r="R206">
+        <v>1.91</v>
+      </c>
+      <c r="S206">
+        <v>4.33</v>
+      </c>
+      <c r="T206">
+        <v>1.54</v>
+      </c>
+      <c r="U206">
+        <v>2.3</v>
+      </c>
+      <c r="V206">
+        <v>3.9</v>
+      </c>
+      <c r="W206">
+        <v>1.22</v>
+      </c>
+      <c r="X206">
+        <v>10.5</v>
+      </c>
+      <c r="Y206">
+        <v>1.03</v>
+      </c>
+      <c r="Z206">
+        <v>2.15</v>
+      </c>
+      <c r="AA206">
+        <v>2.9</v>
+      </c>
+      <c r="AB206">
+        <v>3.5</v>
+      </c>
+      <c r="AC206">
+        <v>1.07</v>
+      </c>
+      <c r="AD206">
+        <v>6.35</v>
+      </c>
+      <c r="AE206">
+        <v>1.5</v>
+      </c>
+      <c r="AF206">
+        <v>2.3</v>
+      </c>
+      <c r="AG206">
+        <v>2.7</v>
+      </c>
+      <c r="AH206">
+        <v>1.44</v>
+      </c>
+      <c r="AI206">
+        <v>2.2</v>
+      </c>
+      <c r="AJ206">
+        <v>1.62</v>
+      </c>
+      <c r="AK206">
+        <v>1.27</v>
+      </c>
+      <c r="AL206">
+        <v>1.38</v>
+      </c>
+      <c r="AM206">
+        <v>1.57</v>
+      </c>
+      <c r="AN206">
+        <v>1.7</v>
+      </c>
+      <c r="AO206">
+        <v>0.33</v>
+      </c>
+      <c r="AP206">
+        <v>1.82</v>
+      </c>
+      <c r="AQ206">
+        <v>0.3</v>
+      </c>
+      <c r="AR206">
+        <v>1.56</v>
+      </c>
+      <c r="AS206">
+        <v>1.1</v>
+      </c>
+      <c r="AT206">
+        <v>2.66</v>
+      </c>
+      <c r="AU206">
+        <v>6</v>
+      </c>
+      <c r="AV206">
+        <v>4</v>
+      </c>
+      <c r="AW206">
+        <v>6</v>
+      </c>
+      <c r="AX206">
+        <v>3</v>
+      </c>
+      <c r="AY206">
+        <v>12</v>
+      </c>
+      <c r="AZ206">
+        <v>7</v>
+      </c>
+      <c r="BA206">
+        <v>5</v>
+      </c>
+      <c r="BB206">
+        <v>2</v>
+      </c>
+      <c r="BC206">
+        <v>7</v>
+      </c>
+      <c r="BD206">
+        <v>1.49</v>
+      </c>
+      <c r="BE206">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF206">
+        <v>3.34</v>
+      </c>
+      <c r="BG206">
+        <v>1.25</v>
+      </c>
+      <c r="BH206">
+        <v>3.7</v>
+      </c>
+      <c r="BI206">
+        <v>1.47</v>
+      </c>
+      <c r="BJ206">
+        <v>2.55</v>
+      </c>
+      <c r="BK206">
+        <v>2.25</v>
+      </c>
+      <c r="BL206">
+        <v>2</v>
+      </c>
+      <c r="BM206">
+        <v>2.38</v>
+      </c>
+      <c r="BN206">
+        <v>1.54</v>
+      </c>
+      <c r="BO206">
+        <v>3.25</v>
+      </c>
+      <c r="BP206">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="290">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -882,6 +882,9 @@
   <si>
     <t>['7', '90+8']</t>
   </si>
+  <si>
+    <t>['27']</t>
+  </si>
 </sst>
 </file>
 
@@ -1242,7 +1245,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP206"/>
+  <dimension ref="A1:BP208"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1579,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ2">
         <v>0.9</v>
@@ -3024,7 +3027,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ9">
-        <v>0.33</v>
+        <v>0.6</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3433,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ11">
         <v>1.09</v>
@@ -6729,7 +6732,7 @@
         <v>1</v>
       </c>
       <c r="AP27">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ27">
         <v>0.82</v>
@@ -7553,7 +7556,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ31">
         <v>1.09</v>
@@ -9410,7 +9413,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ40">
-        <v>0.33</v>
+        <v>0.6</v>
       </c>
       <c r="AR40">
         <v>1.33</v>
@@ -10231,7 +10234,7 @@
         <v>1.5</v>
       </c>
       <c r="AP44">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ44">
         <v>1</v>
@@ -11055,7 +11058,7 @@
         <v>1.5</v>
       </c>
       <c r="AP48">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ48">
         <v>1.1</v>
@@ -12088,7 +12091,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ53">
-        <v>0.33</v>
+        <v>0.6</v>
       </c>
       <c r="AR53">
         <v>2.01</v>
@@ -15175,7 +15178,7 @@
         <v>1</v>
       </c>
       <c r="AP68">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ68">
         <v>1.82</v>
@@ -15796,7 +15799,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ71">
-        <v>0.33</v>
+        <v>0.6</v>
       </c>
       <c r="AR71">
         <v>1.73</v>
@@ -16205,7 +16208,7 @@
         <v>1.5</v>
       </c>
       <c r="AP73">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ73">
         <v>1.82</v>
@@ -20943,7 +20946,7 @@
         <v>0.25</v>
       </c>
       <c r="AP96">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ96">
         <v>0.6</v>
@@ -21149,7 +21152,7 @@
         <v>1</v>
       </c>
       <c r="AP97">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ97">
         <v>0.8</v>
@@ -21358,7 +21361,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ98">
-        <v>0.33</v>
+        <v>0.6</v>
       </c>
       <c r="AR98">
         <v>1.63</v>
@@ -22797,7 +22800,7 @@
         <v>0.4</v>
       </c>
       <c r="AP105">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ105">
         <v>0.45</v>
@@ -23209,7 +23212,7 @@
         <v>1.75</v>
       </c>
       <c r="AP107">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ107">
         <v>1.3</v>
@@ -25684,7 +25687,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ119">
-        <v>0.33</v>
+        <v>0.6</v>
       </c>
       <c r="AR119">
         <v>1.45</v>
@@ -26093,7 +26096,7 @@
         <v>1.4</v>
       </c>
       <c r="AP121">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ121">
         <v>1.3</v>
@@ -28153,7 +28156,7 @@
         <v>0.43</v>
       </c>
       <c r="AP131">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ131">
         <v>0.45</v>
@@ -30213,7 +30216,7 @@
         <v>0.5</v>
       </c>
       <c r="AP141">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ141">
         <v>0.78</v>
@@ -31040,7 +31043,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ145">
-        <v>0.33</v>
+        <v>0.6</v>
       </c>
       <c r="AR145">
         <v>1.6</v>
@@ -33921,7 +33924,7 @@
         <v>0.5</v>
       </c>
       <c r="AP159">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ159">
         <v>0.45</v>
@@ -34130,7 +34133,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ160">
-        <v>0.33</v>
+        <v>0.6</v>
       </c>
       <c r="AR160">
         <v>1.96</v>
@@ -35363,7 +35366,7 @@
         <v>1.13</v>
       </c>
       <c r="AP166">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ166">
         <v>1</v>
@@ -38041,7 +38044,7 @@
         <v>0.88</v>
       </c>
       <c r="AP179">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ179">
         <v>0.9</v>
@@ -38453,10 +38456,10 @@
         <v>0.38</v>
       </c>
       <c r="AP181">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ181">
-        <v>0.33</v>
+        <v>0.6</v>
       </c>
       <c r="AR181">
         <v>1.41</v>
@@ -43682,6 +43685,418 @@
       </c>
       <c r="BP206">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:68">
+      <c r="A207" s="1">
+        <v>206</v>
+      </c>
+      <c r="B207">
+        <v>7380532</v>
+      </c>
+      <c r="C207" t="s">
+        <v>68</v>
+      </c>
+      <c r="D207" t="s">
+        <v>69</v>
+      </c>
+      <c r="E207" s="2">
+        <v>45522.66666666666</v>
+      </c>
+      <c r="F207">
+        <v>21</v>
+      </c>
+      <c r="G207" t="s">
+        <v>79</v>
+      </c>
+      <c r="H207" t="s">
+        <v>87</v>
+      </c>
+      <c r="I207">
+        <v>0</v>
+      </c>
+      <c r="J207">
+        <v>1</v>
+      </c>
+      <c r="K207">
+        <v>1</v>
+      </c>
+      <c r="L207">
+        <v>0</v>
+      </c>
+      <c r="M207">
+        <v>1</v>
+      </c>
+      <c r="N207">
+        <v>1</v>
+      </c>
+      <c r="O207" t="s">
+        <v>100</v>
+      </c>
+      <c r="P207" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q207">
+        <v>3.75</v>
+      </c>
+      <c r="R207">
+        <v>1.91</v>
+      </c>
+      <c r="S207">
+        <v>3.6</v>
+      </c>
+      <c r="T207">
+        <v>1.6</v>
+      </c>
+      <c r="U207">
+        <v>2.2</v>
+      </c>
+      <c r="V207">
+        <v>3.75</v>
+      </c>
+      <c r="W207">
+        <v>1.22</v>
+      </c>
+      <c r="X207">
+        <v>10.5</v>
+      </c>
+      <c r="Y207">
+        <v>1.03</v>
+      </c>
+      <c r="Z207">
+        <v>3</v>
+      </c>
+      <c r="AA207">
+        <v>2.9</v>
+      </c>
+      <c r="AB207">
+        <v>2.63</v>
+      </c>
+      <c r="AC207">
+        <v>1.12</v>
+      </c>
+      <c r="AD207">
+        <v>6</v>
+      </c>
+      <c r="AE207">
+        <v>1.5</v>
+      </c>
+      <c r="AF207">
+        <v>2.3</v>
+      </c>
+      <c r="AG207">
+        <v>2.7</v>
+      </c>
+      <c r="AH207">
+        <v>1.44</v>
+      </c>
+      <c r="AI207">
+        <v>2.2</v>
+      </c>
+      <c r="AJ207">
+        <v>1.62</v>
+      </c>
+      <c r="AK207">
+        <v>1.48</v>
+      </c>
+      <c r="AL207">
+        <v>1.33</v>
+      </c>
+      <c r="AM207">
+        <v>1.38</v>
+      </c>
+      <c r="AN207">
+        <v>1.56</v>
+      </c>
+      <c r="AO207">
+        <v>0.33</v>
+      </c>
+      <c r="AP207">
+        <v>1.4</v>
+      </c>
+      <c r="AQ207">
+        <v>0.6</v>
+      </c>
+      <c r="AR207">
+        <v>1.19</v>
+      </c>
+      <c r="AS207">
+        <v>1.4</v>
+      </c>
+      <c r="AT207">
+        <v>2.59</v>
+      </c>
+      <c r="AU207">
+        <v>3</v>
+      </c>
+      <c r="AV207">
+        <v>3</v>
+      </c>
+      <c r="AW207">
+        <v>6</v>
+      </c>
+      <c r="AX207">
+        <v>6</v>
+      </c>
+      <c r="AY207">
+        <v>9</v>
+      </c>
+      <c r="AZ207">
+        <v>9</v>
+      </c>
+      <c r="BA207">
+        <v>5</v>
+      </c>
+      <c r="BB207">
+        <v>6</v>
+      </c>
+      <c r="BC207">
+        <v>11</v>
+      </c>
+      <c r="BD207">
+        <v>2.07</v>
+      </c>
+      <c r="BE207">
+        <v>7.5</v>
+      </c>
+      <c r="BF207">
+        <v>2.07</v>
+      </c>
+      <c r="BG207">
+        <v>1.18</v>
+      </c>
+      <c r="BH207">
+        <v>4.5</v>
+      </c>
+      <c r="BI207">
+        <v>1.34</v>
+      </c>
+      <c r="BJ207">
+        <v>3.1</v>
+      </c>
+      <c r="BK207">
+        <v>2</v>
+      </c>
+      <c r="BL207">
+        <v>2.23</v>
+      </c>
+      <c r="BM207">
+        <v>2</v>
+      </c>
+      <c r="BN207">
+        <v>1.73</v>
+      </c>
+      <c r="BO207">
+        <v>2.7</v>
+      </c>
+      <c r="BP207">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="208" spans="1:68">
+      <c r="A208" s="1">
+        <v>207</v>
+      </c>
+      <c r="B208">
+        <v>7380528</v>
+      </c>
+      <c r="C208" t="s">
+        <v>68</v>
+      </c>
+      <c r="D208" t="s">
+        <v>69</v>
+      </c>
+      <c r="E208" s="2">
+        <v>45522.77083333334</v>
+      </c>
+      <c r="F208">
+        <v>21</v>
+      </c>
+      <c r="G208" t="s">
+        <v>70</v>
+      </c>
+      <c r="H208" t="s">
+        <v>85</v>
+      </c>
+      <c r="I208">
+        <v>1</v>
+      </c>
+      <c r="J208">
+        <v>1</v>
+      </c>
+      <c r="K208">
+        <v>2</v>
+      </c>
+      <c r="L208">
+        <v>1</v>
+      </c>
+      <c r="M208">
+        <v>1</v>
+      </c>
+      <c r="N208">
+        <v>2</v>
+      </c>
+      <c r="O208" t="s">
+        <v>96</v>
+      </c>
+      <c r="P208" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q208">
+        <v>3.4</v>
+      </c>
+      <c r="R208">
+        <v>1.91</v>
+      </c>
+      <c r="S208">
+        <v>4</v>
+      </c>
+      <c r="T208">
+        <v>1.56</v>
+      </c>
+      <c r="U208">
+        <v>2.34</v>
+      </c>
+      <c r="V208">
+        <v>3.62</v>
+      </c>
+      <c r="W208">
+        <v>1.26</v>
+      </c>
+      <c r="X208">
+        <v>10</v>
+      </c>
+      <c r="Y208">
+        <v>1.03</v>
+      </c>
+      <c r="Z208">
+        <v>2.45</v>
+      </c>
+      <c r="AA208">
+        <v>2.8</v>
+      </c>
+      <c r="AB208">
+        <v>3.1</v>
+      </c>
+      <c r="AC208">
+        <v>1.07</v>
+      </c>
+      <c r="AD208">
+        <v>6.35</v>
+      </c>
+      <c r="AE208">
+        <v>1.5</v>
+      </c>
+      <c r="AF208">
+        <v>2.3</v>
+      </c>
+      <c r="AG208">
+        <v>2.6</v>
+      </c>
+      <c r="AH208">
+        <v>1.48</v>
+      </c>
+      <c r="AI208">
+        <v>2.1</v>
+      </c>
+      <c r="AJ208">
+        <v>1.67</v>
+      </c>
+      <c r="AK208">
+        <v>1.37</v>
+      </c>
+      <c r="AL208">
+        <v>1.36</v>
+      </c>
+      <c r="AM208">
+        <v>1.51</v>
+      </c>
+      <c r="AN208">
+        <v>1.4</v>
+      </c>
+      <c r="AO208">
+        <v>1</v>
+      </c>
+      <c r="AP208">
+        <v>1.36</v>
+      </c>
+      <c r="AQ208">
+        <v>1</v>
+      </c>
+      <c r="AR208">
+        <v>1.36</v>
+      </c>
+      <c r="AS208">
+        <v>1.37</v>
+      </c>
+      <c r="AT208">
+        <v>2.73</v>
+      </c>
+      <c r="AU208">
+        <v>4</v>
+      </c>
+      <c r="AV208">
+        <v>4</v>
+      </c>
+      <c r="AW208">
+        <v>5</v>
+      </c>
+      <c r="AX208">
+        <v>3</v>
+      </c>
+      <c r="AY208">
+        <v>9</v>
+      </c>
+      <c r="AZ208">
+        <v>7</v>
+      </c>
+      <c r="BA208">
+        <v>4</v>
+      </c>
+      <c r="BB208">
+        <v>4</v>
+      </c>
+      <c r="BC208">
+        <v>8</v>
+      </c>
+      <c r="BD208">
+        <v>1.95</v>
+      </c>
+      <c r="BE208">
+        <v>7.3</v>
+      </c>
+      <c r="BF208">
+        <v>2.23</v>
+      </c>
+      <c r="BG208">
+        <v>1.2</v>
+      </c>
+      <c r="BH208">
+        <v>4.25</v>
+      </c>
+      <c r="BI208">
+        <v>1.38</v>
+      </c>
+      <c r="BJ208">
+        <v>2.9</v>
+      </c>
+      <c r="BK208">
+        <v>2.1</v>
+      </c>
+      <c r="BL208">
+        <v>2.12</v>
+      </c>
+      <c r="BM208">
+        <v>2.1</v>
+      </c>
+      <c r="BN208">
+        <v>1.67</v>
+      </c>
+      <c r="BO208">
+        <v>2.85</v>
+      </c>
+      <c r="BP208">
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1328" uniqueCount="294">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -688,6 +688,15 @@
     <t>['35', '49']</t>
   </si>
   <si>
+    <t>['75']</t>
+  </si>
+  <si>
+    <t>['8', '48']</t>
+  </si>
+  <si>
+    <t>['3', '84']</t>
+  </si>
+  <si>
     <t>['31', '49', '69']</t>
   </si>
   <si>
@@ -884,6 +893,9 @@
   </si>
   <si>
     <t>['27']</t>
+  </si>
+  <si>
+    <t>['50', '71', '81']</t>
   </si>
 </sst>
 </file>
@@ -1245,7 +1257,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP208"/>
+  <dimension ref="A1:BP211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1788,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ3">
         <v>0.3</v>
@@ -1994,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ4">
         <v>1.3</v>
@@ -2203,7 +2215,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ5">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2534,7 +2546,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q7">
         <v>4.33</v>
@@ -2612,7 +2624,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ7">
         <v>1.3</v>
@@ -2946,7 +2958,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -3358,7 +3370,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q11">
         <v>3.5</v>
@@ -3564,7 +3576,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q12">
         <v>3.6</v>
@@ -3851,7 +3863,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ13">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3976,7 +3988,7 @@
         <v>100</v>
       </c>
       <c r="P14" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q14">
         <v>4.75</v>
@@ -4182,7 +4194,7 @@
         <v>100</v>
       </c>
       <c r="P15" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -5293,7 +5305,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ20">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5418,7 +5430,7 @@
         <v>106</v>
       </c>
       <c r="P21" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -6036,7 +6048,7 @@
         <v>107</v>
       </c>
       <c r="P24" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q24">
         <v>3.6</v>
@@ -6448,7 +6460,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6654,7 +6666,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q27">
         <v>4</v>
@@ -6860,7 +6872,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -7684,7 +7696,7 @@
         <v>113</v>
       </c>
       <c r="P32" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q32">
         <v>2.38</v>
@@ -7765,7 +7777,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ32">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AR32">
         <v>2.22</v>
@@ -7890,7 +7902,7 @@
         <v>100</v>
       </c>
       <c r="P33" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -7968,7 +7980,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ33">
         <v>0.8</v>
@@ -8177,7 +8189,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ34">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AR34">
         <v>1.81</v>
@@ -8586,10 +8598,10 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ36">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR36">
         <v>1.35</v>
@@ -8998,7 +9010,7 @@
         <v>3</v>
       </c>
       <c r="AP38">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ38">
         <v>1.36</v>
@@ -9126,7 +9138,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q39">
         <v>2</v>
@@ -9538,7 +9550,7 @@
         <v>120</v>
       </c>
       <c r="P41" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q41">
         <v>2.25</v>
@@ -9744,7 +9756,7 @@
         <v>121</v>
       </c>
       <c r="P42" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9950,7 +9962,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q43">
         <v>3.2</v>
@@ -11186,7 +11198,7 @@
         <v>125</v>
       </c>
       <c r="P49" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -11885,7 +11897,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ52">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AR52">
         <v>1.8</v>
@@ -12088,7 +12100,7 @@
         <v>0.5</v>
       </c>
       <c r="AP53">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ53">
         <v>0.6</v>
@@ -12294,7 +12306,7 @@
         <v>0</v>
       </c>
       <c r="AP54">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ54">
         <v>1</v>
@@ -12628,7 +12640,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q56">
         <v>1.95</v>
@@ -13118,7 +13130,7 @@
         <v>1.5</v>
       </c>
       <c r="AP58">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ58">
         <v>0.8</v>
@@ -13327,7 +13339,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ59">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AR59">
         <v>1.2</v>
@@ -13452,7 +13464,7 @@
         <v>118</v>
       </c>
       <c r="P60" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13739,7 +13751,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ61">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR61">
         <v>1.31</v>
@@ -13864,7 +13876,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q62">
         <v>3.4</v>
@@ -14357,7 +14369,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ64">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR64">
         <v>1.17</v>
@@ -14482,7 +14494,7 @@
         <v>135</v>
       </c>
       <c r="P65" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q65">
         <v>2.38</v>
@@ -15590,7 +15602,7 @@
         <v>0.67</v>
       </c>
       <c r="AP70">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ70">
         <v>1.09</v>
@@ -16336,7 +16348,7 @@
         <v>90</v>
       </c>
       <c r="P74" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q74">
         <v>3.1</v>
@@ -16417,7 +16429,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ74">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AR74">
         <v>1.65</v>
@@ -16542,7 +16554,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -16954,7 +16966,7 @@
         <v>139</v>
       </c>
       <c r="P77" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q77">
         <v>2.2</v>
@@ -17238,7 +17250,7 @@
         <v>0.33</v>
       </c>
       <c r="AP78">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ78">
         <v>0.78</v>
@@ -17778,7 +17790,7 @@
         <v>146</v>
       </c>
       <c r="P81" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q81">
         <v>2.05</v>
@@ -17859,7 +17871,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ81">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AR81">
         <v>1.59</v>
@@ -17984,7 +17996,7 @@
         <v>147</v>
       </c>
       <c r="P82" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q82">
         <v>4</v>
@@ -18062,7 +18074,7 @@
         <v>1.5</v>
       </c>
       <c r="AP82">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ82">
         <v>1.36</v>
@@ -18190,7 +18202,7 @@
         <v>100</v>
       </c>
       <c r="P83" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q83">
         <v>3.2</v>
@@ -18396,7 +18408,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q84">
         <v>2.75</v>
@@ -18474,7 +18486,7 @@
         <v>0.25</v>
       </c>
       <c r="AP84">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ84">
         <v>0.45</v>
@@ -18889,7 +18901,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ86">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR86">
         <v>1.95</v>
@@ -19014,7 +19026,7 @@
         <v>150</v>
       </c>
       <c r="P87" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q87">
         <v>3.5</v>
@@ -19710,7 +19722,7 @@
         <v>1</v>
       </c>
       <c r="AP90">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ90">
         <v>1</v>
@@ -19916,7 +19928,7 @@
         <v>1.2</v>
       </c>
       <c r="AP91">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ91">
         <v>1.36</v>
@@ -20044,7 +20056,7 @@
         <v>153</v>
       </c>
       <c r="P92" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q92">
         <v>2.63</v>
@@ -20662,7 +20674,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q95">
         <v>3.5</v>
@@ -20949,7 +20961,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ96">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AR96">
         <v>1.38</v>
@@ -21280,7 +21292,7 @@
         <v>116</v>
       </c>
       <c r="P98" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q98">
         <v>3</v>
@@ -21692,7 +21704,7 @@
         <v>100</v>
       </c>
       <c r="P100" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q100">
         <v>3.5</v>
@@ -21898,7 +21910,7 @@
         <v>160</v>
       </c>
       <c r="P101" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q101">
         <v>2.6</v>
@@ -21979,7 +21991,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ101">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AR101">
         <v>1.9</v>
@@ -22182,7 +22194,7 @@
         <v>0.25</v>
       </c>
       <c r="AP102">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ102">
         <v>0.78</v>
@@ -22803,7 +22815,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ105">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR105">
         <v>1.54</v>
@@ -24036,7 +24048,7 @@
         <v>1</v>
       </c>
       <c r="AP111">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ111">
         <v>0.8</v>
@@ -24370,7 +24382,7 @@
         <v>167</v>
       </c>
       <c r="P113" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q113">
         <v>3.25</v>
@@ -24782,7 +24794,7 @@
         <v>169</v>
       </c>
       <c r="P115" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q115">
         <v>2.68</v>
@@ -25194,7 +25206,7 @@
         <v>170</v>
       </c>
       <c r="P117" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q117">
         <v>2.38</v>
@@ -25684,7 +25696,7 @@
         <v>0.6</v>
       </c>
       <c r="AP119">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ119">
         <v>0.6</v>
@@ -25812,7 +25824,7 @@
         <v>90</v>
       </c>
       <c r="P120" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q120">
         <v>2.4</v>
@@ -25893,7 +25905,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ120">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AR120">
         <v>1.67</v>
@@ -26224,7 +26236,7 @@
         <v>173</v>
       </c>
       <c r="P122" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q122">
         <v>1.95</v>
@@ -26305,7 +26317,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ122">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AR122">
         <v>1.66</v>
@@ -26842,7 +26854,7 @@
         <v>175</v>
       </c>
       <c r="P125" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q125">
         <v>3</v>
@@ -26923,7 +26935,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ125">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR125">
         <v>1.89</v>
@@ -27254,7 +27266,7 @@
         <v>176</v>
       </c>
       <c r="P127" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q127">
         <v>2.4</v>
@@ -27460,7 +27472,7 @@
         <v>177</v>
       </c>
       <c r="P128" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q128">
         <v>2.75</v>
@@ -27666,7 +27678,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q129">
         <v>3.25</v>
@@ -27744,7 +27756,7 @@
         <v>0.33</v>
       </c>
       <c r="AP129">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ129">
         <v>1.09</v>
@@ -28159,7 +28171,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ131">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR131">
         <v>1.13</v>
@@ -28490,7 +28502,7 @@
         <v>140</v>
       </c>
       <c r="P133" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q133">
         <v>2.25</v>
@@ -28902,7 +28914,7 @@
         <v>180</v>
       </c>
       <c r="P135" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q135">
         <v>3.5</v>
@@ -29314,7 +29326,7 @@
         <v>100</v>
       </c>
       <c r="P137" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q137">
         <v>2.75</v>
@@ -29520,7 +29532,7 @@
         <v>181</v>
       </c>
       <c r="P138" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q138">
         <v>3</v>
@@ -29598,10 +29610,10 @@
         <v>0.33</v>
       </c>
       <c r="AP138">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ138">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AR138">
         <v>1.46</v>
@@ -29932,7 +29944,7 @@
         <v>182</v>
       </c>
       <c r="P140" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q140">
         <v>3.75</v>
@@ -30138,7 +30150,7 @@
         <v>100</v>
       </c>
       <c r="P141" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q141">
         <v>3</v>
@@ -30344,7 +30356,7 @@
         <v>183</v>
       </c>
       <c r="P142" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q142">
         <v>3.2</v>
@@ -30550,7 +30562,7 @@
         <v>152</v>
       </c>
       <c r="P143" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q143">
         <v>2.5</v>
@@ -30628,7 +30640,7 @@
         <v>0</v>
       </c>
       <c r="AP143">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ143">
         <v>0.5</v>
@@ -31168,7 +31180,7 @@
         <v>186</v>
       </c>
       <c r="P146" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q146">
         <v>3.1</v>
@@ -31661,7 +31673,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ148">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AR148">
         <v>1.91</v>
@@ -31786,7 +31798,7 @@
         <v>189</v>
       </c>
       <c r="P149" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q149">
         <v>2.5</v>
@@ -32070,7 +32082,7 @@
         <v>0.71</v>
       </c>
       <c r="AP150">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ150">
         <v>0.82</v>
@@ -32198,7 +32210,7 @@
         <v>191</v>
       </c>
       <c r="P151" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q151">
         <v>3.75</v>
@@ -32482,7 +32494,7 @@
         <v>1.38</v>
       </c>
       <c r="AP152">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ152">
         <v>1</v>
@@ -33309,7 +33321,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ156">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AR156">
         <v>1.57</v>
@@ -33515,7 +33527,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ157">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR157">
         <v>1.2</v>
@@ -33640,7 +33652,7 @@
         <v>194</v>
       </c>
       <c r="P158" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q158">
         <v>3.75</v>
@@ -33846,7 +33858,7 @@
         <v>195</v>
       </c>
       <c r="P159" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q159">
         <v>3</v>
@@ -34542,7 +34554,7 @@
         <v>1.63</v>
       </c>
       <c r="AP162">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ162">
         <v>1.82</v>
@@ -35163,7 +35175,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ165">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AR165">
         <v>1.61</v>
@@ -35572,7 +35584,7 @@
         <v>0.14</v>
       </c>
       <c r="AP167">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ167">
         <v>0.5</v>
@@ -35700,7 +35712,7 @@
         <v>200</v>
       </c>
       <c r="P168" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q168">
         <v>2.63</v>
@@ -35906,7 +35918,7 @@
         <v>201</v>
       </c>
       <c r="P169" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q169">
         <v>2.05</v>
@@ -36193,7 +36205,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ170">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AR170">
         <v>1.28</v>
@@ -36811,7 +36823,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ173">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR173">
         <v>1.42</v>
@@ -37142,7 +37154,7 @@
         <v>203</v>
       </c>
       <c r="P175" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q175">
         <v>2.63</v>
@@ -37348,7 +37360,7 @@
         <v>169</v>
       </c>
       <c r="P176" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q176">
         <v>4</v>
@@ -37554,7 +37566,7 @@
         <v>155</v>
       </c>
       <c r="P177" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q177">
         <v>2.88</v>
@@ -37760,7 +37772,7 @@
         <v>204</v>
       </c>
       <c r="P178" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q178">
         <v>2.5</v>
@@ -38172,7 +38184,7 @@
         <v>166</v>
       </c>
       <c r="P180" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q180">
         <v>2.38</v>
@@ -38662,10 +38674,10 @@
         <v>0.13</v>
       </c>
       <c r="AP182">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ182">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AR182">
         <v>1.49</v>
@@ -38996,7 +39008,7 @@
         <v>208</v>
       </c>
       <c r="P184" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q184">
         <v>3</v>
@@ -39074,7 +39086,7 @@
         <v>0.89</v>
       </c>
       <c r="AP184">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ184">
         <v>0.82</v>
@@ -39280,7 +39292,7 @@
         <v>0.38</v>
       </c>
       <c r="AP185">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ185">
         <v>0.3</v>
@@ -39408,7 +39420,7 @@
         <v>100</v>
       </c>
       <c r="P186" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q186">
         <v>3.75</v>
@@ -39614,7 +39626,7 @@
         <v>210</v>
       </c>
       <c r="P187" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q187">
         <v>2.75</v>
@@ -40232,7 +40244,7 @@
         <v>100</v>
       </c>
       <c r="P190" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q190">
         <v>3.75</v>
@@ -40644,7 +40656,7 @@
         <v>214</v>
       </c>
       <c r="P192" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q192">
         <v>2.1</v>
@@ -40850,7 +40862,7 @@
         <v>215</v>
       </c>
       <c r="P193" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q193">
         <v>2.2</v>
@@ -41343,7 +41355,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ195">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR195">
         <v>1.74</v>
@@ -41755,7 +41767,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ197">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AR197">
         <v>1.84</v>
@@ -41880,7 +41892,7 @@
         <v>219</v>
       </c>
       <c r="P198" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q198">
         <v>3.2</v>
@@ -42086,7 +42098,7 @@
         <v>193</v>
       </c>
       <c r="P199" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q199">
         <v>2.3</v>
@@ -42164,10 +42176,10 @@
         <v>0.11</v>
       </c>
       <c r="AP199">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ199">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AR199">
         <v>1.45</v>
@@ -42292,7 +42304,7 @@
         <v>220</v>
       </c>
       <c r="P200" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q200">
         <v>3.25</v>
@@ -42782,7 +42794,7 @@
         <v>0.89</v>
       </c>
       <c r="AP202">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ202">
         <v>0.9</v>
@@ -42910,7 +42922,7 @@
         <v>100</v>
       </c>
       <c r="P203" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q203">
         <v>3</v>
@@ -43116,7 +43128,7 @@
         <v>100</v>
       </c>
       <c r="P204" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q204">
         <v>2.2</v>
@@ -43322,7 +43334,7 @@
         <v>151</v>
       </c>
       <c r="P205" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q205">
         <v>2.75</v>
@@ -43606,7 +43618,7 @@
         <v>0.33</v>
       </c>
       <c r="AP206">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ206">
         <v>0.3</v>
@@ -43734,7 +43746,7 @@
         <v>100</v>
       </c>
       <c r="P207" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q207">
         <v>3.75</v>
@@ -43940,7 +43952,7 @@
         <v>96</v>
       </c>
       <c r="P208" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q208">
         <v>3.4</v>
@@ -44097,6 +44109,624 @@
       </c>
       <c r="BP208">
         <v>1.38</v>
+      </c>
+    </row>
+    <row r="209" spans="1:68">
+      <c r="A209" s="1">
+        <v>208</v>
+      </c>
+      <c r="B209">
+        <v>7380539</v>
+      </c>
+      <c r="C209" t="s">
+        <v>68</v>
+      </c>
+      <c r="D209" t="s">
+        <v>69</v>
+      </c>
+      <c r="E209" s="2">
+        <v>45524.79166666666</v>
+      </c>
+      <c r="F209">
+        <v>22</v>
+      </c>
+      <c r="G209" t="s">
+        <v>71</v>
+      </c>
+      <c r="H209" t="s">
+        <v>80</v>
+      </c>
+      <c r="I209">
+        <v>0</v>
+      </c>
+      <c r="J209">
+        <v>0</v>
+      </c>
+      <c r="K209">
+        <v>0</v>
+      </c>
+      <c r="L209">
+        <v>1</v>
+      </c>
+      <c r="M209">
+        <v>0</v>
+      </c>
+      <c r="N209">
+        <v>1</v>
+      </c>
+      <c r="O209" t="s">
+        <v>224</v>
+      </c>
+      <c r="P209" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q209">
+        <v>2.2</v>
+      </c>
+      <c r="R209">
+        <v>2.1</v>
+      </c>
+      <c r="S209">
+        <v>7</v>
+      </c>
+      <c r="T209">
+        <v>1.48</v>
+      </c>
+      <c r="U209">
+        <v>2.45</v>
+      </c>
+      <c r="V209">
+        <v>3.3</v>
+      </c>
+      <c r="W209">
+        <v>1.28</v>
+      </c>
+      <c r="X209">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="Y209">
+        <v>1.05</v>
+      </c>
+      <c r="Z209">
+        <v>1.5</v>
+      </c>
+      <c r="AA209">
+        <v>3.65</v>
+      </c>
+      <c r="AB209">
+        <v>6.93</v>
+      </c>
+      <c r="AC209">
+        <v>1.06</v>
+      </c>
+      <c r="AD209">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AE209">
+        <v>1.42</v>
+      </c>
+      <c r="AF209">
+        <v>2.8</v>
+      </c>
+      <c r="AG209">
+        <v>2.29</v>
+      </c>
+      <c r="AH209">
+        <v>1.55</v>
+      </c>
+      <c r="AI209">
+        <v>2.38</v>
+      </c>
+      <c r="AJ209">
+        <v>1.53</v>
+      </c>
+      <c r="AK209">
+        <v>1.09</v>
+      </c>
+      <c r="AL209">
+        <v>1.2</v>
+      </c>
+      <c r="AM209">
+        <v>2.5</v>
+      </c>
+      <c r="AN209">
+        <v>1.7</v>
+      </c>
+      <c r="AO209">
+        <v>0.4</v>
+      </c>
+      <c r="AP209">
+        <v>1.82</v>
+      </c>
+      <c r="AQ209">
+        <v>0.36</v>
+      </c>
+      <c r="AR209">
+        <v>1.48</v>
+      </c>
+      <c r="AS209">
+        <v>1</v>
+      </c>
+      <c r="AT209">
+        <v>2.48</v>
+      </c>
+      <c r="AU209">
+        <v>3</v>
+      </c>
+      <c r="AV209">
+        <v>4</v>
+      </c>
+      <c r="AW209">
+        <v>8</v>
+      </c>
+      <c r="AX209">
+        <v>0</v>
+      </c>
+      <c r="AY209">
+        <v>11</v>
+      </c>
+      <c r="AZ209">
+        <v>4</v>
+      </c>
+      <c r="BA209">
+        <v>5</v>
+      </c>
+      <c r="BB209">
+        <v>2</v>
+      </c>
+      <c r="BC209">
+        <v>7</v>
+      </c>
+      <c r="BD209">
+        <v>1.33</v>
+      </c>
+      <c r="BE209">
+        <v>10.25</v>
+      </c>
+      <c r="BF209">
+        <v>3.88</v>
+      </c>
+      <c r="BG209">
+        <v>1.18</v>
+      </c>
+      <c r="BH209">
+        <v>4.33</v>
+      </c>
+      <c r="BI209">
+        <v>1.28</v>
+      </c>
+      <c r="BJ209">
+        <v>3.2</v>
+      </c>
+      <c r="BK209">
+        <v>1.83</v>
+      </c>
+      <c r="BL209">
+        <v>2.32</v>
+      </c>
+      <c r="BM209">
+        <v>1.87</v>
+      </c>
+      <c r="BN209">
+        <v>1.83</v>
+      </c>
+      <c r="BO209">
+        <v>2.38</v>
+      </c>
+      <c r="BP209">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="210" spans="1:68">
+      <c r="A210" s="1">
+        <v>209</v>
+      </c>
+      <c r="B210">
+        <v>7380544</v>
+      </c>
+      <c r="C210" t="s">
+        <v>68</v>
+      </c>
+      <c r="D210" t="s">
+        <v>69</v>
+      </c>
+      <c r="E210" s="2">
+        <v>45524.875</v>
+      </c>
+      <c r="F210">
+        <v>22</v>
+      </c>
+      <c r="G210" t="s">
+        <v>75</v>
+      </c>
+      <c r="H210" t="s">
+        <v>77</v>
+      </c>
+      <c r="I210">
+        <v>1</v>
+      </c>
+      <c r="J210">
+        <v>0</v>
+      </c>
+      <c r="K210">
+        <v>1</v>
+      </c>
+      <c r="L210">
+        <v>2</v>
+      </c>
+      <c r="M210">
+        <v>1</v>
+      </c>
+      <c r="N210">
+        <v>3</v>
+      </c>
+      <c r="O210" t="s">
+        <v>225</v>
+      </c>
+      <c r="P210" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q210">
+        <v>2.6</v>
+      </c>
+      <c r="R210">
+        <v>2</v>
+      </c>
+      <c r="S210">
+        <v>5.5</v>
+      </c>
+      <c r="T210">
+        <v>1.53</v>
+      </c>
+      <c r="U210">
+        <v>2.35</v>
+      </c>
+      <c r="V210">
+        <v>3.45</v>
+      </c>
+      <c r="W210">
+        <v>1.25</v>
+      </c>
+      <c r="X210">
+        <v>9.4</v>
+      </c>
+      <c r="Y210">
+        <v>1.04</v>
+      </c>
+      <c r="Z210">
+        <v>1.9</v>
+      </c>
+      <c r="AA210">
+        <v>3.1</v>
+      </c>
+      <c r="AB210">
+        <v>4.24</v>
+      </c>
+      <c r="AC210">
+        <v>1.09</v>
+      </c>
+      <c r="AD210">
+        <v>7.2</v>
+      </c>
+      <c r="AE210">
+        <v>1.5</v>
+      </c>
+      <c r="AF210">
+        <v>2.55</v>
+      </c>
+      <c r="AG210">
+        <v>2.41</v>
+      </c>
+      <c r="AH210">
+        <v>1.5</v>
+      </c>
+      <c r="AI210">
+        <v>2.2</v>
+      </c>
+      <c r="AJ210">
+        <v>1.62</v>
+      </c>
+      <c r="AK210">
+        <v>1.2</v>
+      </c>
+      <c r="AL210">
+        <v>1.3</v>
+      </c>
+      <c r="AM210">
+        <v>1.8</v>
+      </c>
+      <c r="AN210">
+        <v>1.82</v>
+      </c>
+      <c r="AO210">
+        <v>0.45</v>
+      </c>
+      <c r="AP210">
+        <v>1.92</v>
+      </c>
+      <c r="AQ210">
+        <v>0.42</v>
+      </c>
+      <c r="AR210">
+        <v>1.55</v>
+      </c>
+      <c r="AS210">
+        <v>1.29</v>
+      </c>
+      <c r="AT210">
+        <v>2.84</v>
+      </c>
+      <c r="AU210">
+        <v>5</v>
+      </c>
+      <c r="AV210">
+        <v>4</v>
+      </c>
+      <c r="AW210">
+        <v>4</v>
+      </c>
+      <c r="AX210">
+        <v>3</v>
+      </c>
+      <c r="AY210">
+        <v>9</v>
+      </c>
+      <c r="AZ210">
+        <v>7</v>
+      </c>
+      <c r="BA210">
+        <v>3</v>
+      </c>
+      <c r="BB210">
+        <v>1</v>
+      </c>
+      <c r="BC210">
+        <v>4</v>
+      </c>
+      <c r="BD210">
+        <v>1.5</v>
+      </c>
+      <c r="BE210">
+        <v>9.5</v>
+      </c>
+      <c r="BF210">
+        <v>3.14</v>
+      </c>
+      <c r="BG210">
+        <v>1.2</v>
+      </c>
+      <c r="BH210">
+        <v>4</v>
+      </c>
+      <c r="BI210">
+        <v>1.36</v>
+      </c>
+      <c r="BJ210">
+        <v>2.9</v>
+      </c>
+      <c r="BK210">
+        <v>1.83</v>
+      </c>
+      <c r="BL210">
+        <v>2.32</v>
+      </c>
+      <c r="BM210">
+        <v>1.96</v>
+      </c>
+      <c r="BN210">
+        <v>1.83</v>
+      </c>
+      <c r="BO210">
+        <v>2.47</v>
+      </c>
+      <c r="BP210">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="211" spans="1:68">
+      <c r="A211" s="1">
+        <v>210</v>
+      </c>
+      <c r="B211">
+        <v>7380543</v>
+      </c>
+      <c r="C211" t="s">
+        <v>68</v>
+      </c>
+      <c r="D211" t="s">
+        <v>69</v>
+      </c>
+      <c r="E211" s="2">
+        <v>45524.89583333334</v>
+      </c>
+      <c r="F211">
+        <v>22</v>
+      </c>
+      <c r="G211" t="s">
+        <v>72</v>
+      </c>
+      <c r="H211" t="s">
+        <v>78</v>
+      </c>
+      <c r="I211">
+        <v>1</v>
+      </c>
+      <c r="J211">
+        <v>0</v>
+      </c>
+      <c r="K211">
+        <v>1</v>
+      </c>
+      <c r="L211">
+        <v>2</v>
+      </c>
+      <c r="M211">
+        <v>3</v>
+      </c>
+      <c r="N211">
+        <v>5</v>
+      </c>
+      <c r="O211" t="s">
+        <v>226</v>
+      </c>
+      <c r="P211" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q211">
+        <v>2.75</v>
+      </c>
+      <c r="R211">
+        <v>1.83</v>
+      </c>
+      <c r="S211">
+        <v>5.5</v>
+      </c>
+      <c r="T211">
+        <v>1.62</v>
+      </c>
+      <c r="U211">
+        <v>2.2</v>
+      </c>
+      <c r="V211">
+        <v>4</v>
+      </c>
+      <c r="W211">
+        <v>1.22</v>
+      </c>
+      <c r="X211">
+        <v>13</v>
+      </c>
+      <c r="Y211">
+        <v>1.04</v>
+      </c>
+      <c r="Z211">
+        <v>2.15</v>
+      </c>
+      <c r="AA211">
+        <v>2.75</v>
+      </c>
+      <c r="AB211">
+        <v>3.9</v>
+      </c>
+      <c r="AC211">
+        <v>1.11</v>
+      </c>
+      <c r="AD211">
+        <v>6.25</v>
+      </c>
+      <c r="AE211">
+        <v>1.5</v>
+      </c>
+      <c r="AF211">
+        <v>2.4</v>
+      </c>
+      <c r="AG211">
+        <v>2.73</v>
+      </c>
+      <c r="AH211">
+        <v>1.4</v>
+      </c>
+      <c r="AI211">
+        <v>2.63</v>
+      </c>
+      <c r="AJ211">
+        <v>1.44</v>
+      </c>
+      <c r="AK211">
+        <v>1.3</v>
+      </c>
+      <c r="AL211">
+        <v>1.33</v>
+      </c>
+      <c r="AM211">
+        <v>1.62</v>
+      </c>
+      <c r="AN211">
+        <v>1.8</v>
+      </c>
+      <c r="AO211">
+        <v>0.6</v>
+      </c>
+      <c r="AP211">
+        <v>1.64</v>
+      </c>
+      <c r="AQ211">
+        <v>0.82</v>
+      </c>
+      <c r="AR211">
+        <v>1.46</v>
+      </c>
+      <c r="AS211">
+        <v>1.22</v>
+      </c>
+      <c r="AT211">
+        <v>2.68</v>
+      </c>
+      <c r="AU211">
+        <v>6</v>
+      </c>
+      <c r="AV211">
+        <v>5</v>
+      </c>
+      <c r="AW211">
+        <v>3</v>
+      </c>
+      <c r="AX211">
+        <v>3</v>
+      </c>
+      <c r="AY211">
+        <v>9</v>
+      </c>
+      <c r="AZ211">
+        <v>8</v>
+      </c>
+      <c r="BA211">
+        <v>3</v>
+      </c>
+      <c r="BB211">
+        <v>5</v>
+      </c>
+      <c r="BC211">
+        <v>8</v>
+      </c>
+      <c r="BD211">
+        <v>1.43</v>
+      </c>
+      <c r="BE211">
+        <v>7.4</v>
+      </c>
+      <c r="BF211">
+        <v>3.7</v>
+      </c>
+      <c r="BG211">
+        <v>1.22</v>
+      </c>
+      <c r="BH211">
+        <v>3.8</v>
+      </c>
+      <c r="BI211">
+        <v>1.38</v>
+      </c>
+      <c r="BJ211">
+        <v>2.8</v>
+      </c>
+      <c r="BK211">
+        <v>1.64</v>
+      </c>
+      <c r="BL211">
+        <v>2.21</v>
+      </c>
+      <c r="BM211">
+        <v>2.04</v>
+      </c>
+      <c r="BN211">
+        <v>1.75</v>
+      </c>
+      <c r="BO211">
+        <v>2.5</v>
+      </c>
+      <c r="BP211">
+        <v>1.48</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1328" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="297">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -697,6 +697,12 @@
     <t>['3', '84']</t>
   </si>
   <si>
+    <t>['87']</t>
+  </si>
+  <si>
+    <t>['35', '45+4', '57', '67']</t>
+  </si>
+  <si>
     <t>['31', '49', '69']</t>
   </si>
   <si>
@@ -817,9 +823,6 @@
     <t>['90+12']</t>
   </si>
   <si>
-    <t>['87']</t>
-  </si>
-  <si>
     <t>['45+3']</t>
   </si>
   <si>
@@ -896,6 +899,12 @@
   </si>
   <si>
     <t>['50', '71', '81']</t>
+  </si>
+  <si>
+    <t>['68', '85']</t>
+  </si>
+  <si>
+    <t>['27', '59']</t>
   </si>
 </sst>
 </file>
@@ -1257,7 +1266,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP211"/>
+  <dimension ref="A1:BP216"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2546,7 +2555,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q7">
         <v>4.33</v>
@@ -2958,7 +2967,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -3370,7 +3379,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q11">
         <v>3.5</v>
@@ -3576,7 +3585,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q12">
         <v>3.6</v>
@@ -3988,7 +3997,7 @@
         <v>100</v>
       </c>
       <c r="P14" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q14">
         <v>4.75</v>
@@ -4069,7 +4078,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ14">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4194,7 +4203,7 @@
         <v>100</v>
       </c>
       <c r="P15" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4272,7 +4281,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ15">
         <v>1</v>
@@ -4478,7 +4487,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AQ16">
         <v>0.78</v>
@@ -4687,7 +4696,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ17">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4890,7 +4899,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AQ18">
         <v>1.82</v>
@@ -5099,7 +5108,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ19">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5302,7 +5311,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ20">
         <v>0.42</v>
@@ -5430,7 +5439,7 @@
         <v>106</v>
       </c>
       <c r="P21" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5508,10 +5517,10 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>2.6</v>
+        <v>2.36</v>
       </c>
       <c r="AQ21">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -6048,7 +6057,7 @@
         <v>107</v>
       </c>
       <c r="P24" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q24">
         <v>3.6</v>
@@ -6460,7 +6469,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6666,7 +6675,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q27">
         <v>4</v>
@@ -6872,7 +6881,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -7696,7 +7705,7 @@
         <v>113</v>
       </c>
       <c r="P32" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q32">
         <v>2.38</v>
@@ -7774,7 +7783,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AQ32">
         <v>0.82</v>
@@ -7902,7 +7911,7 @@
         <v>100</v>
       </c>
       <c r="P33" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -7983,7 +7992,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ33">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR33">
         <v>1.83</v>
@@ -8186,7 +8195,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ34">
         <v>0.36</v>
@@ -8392,7 +8401,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AQ35">
         <v>1</v>
@@ -8804,10 +8813,10 @@
         <v>1</v>
       </c>
       <c r="AP37">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ37">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR37">
         <v>3.34</v>
@@ -9013,7 +9022,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ38">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR38">
         <v>1.12</v>
@@ -9138,7 +9147,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q39">
         <v>2</v>
@@ -9219,7 +9228,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ39">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR39">
         <v>1.25</v>
@@ -9550,7 +9559,7 @@
         <v>120</v>
       </c>
       <c r="P41" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q41">
         <v>2.25</v>
@@ -9628,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>2.6</v>
+        <v>2.36</v>
       </c>
       <c r="AQ41">
         <v>1</v>
@@ -9756,7 +9765,7 @@
         <v>121</v>
       </c>
       <c r="P42" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9962,7 +9971,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q43">
         <v>3.2</v>
@@ -10864,7 +10873,7 @@
         <v>0.5</v>
       </c>
       <c r="AP47">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AQ47">
         <v>1.09</v>
@@ -11198,7 +11207,7 @@
         <v>125</v>
       </c>
       <c r="P49" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -11279,7 +11288,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ49">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR49">
         <v>1.83</v>
@@ -11894,7 +11903,7 @@
         <v>0</v>
       </c>
       <c r="AP52">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AQ52">
         <v>0.82</v>
@@ -12512,10 +12521,10 @@
         <v>0.5</v>
       </c>
       <c r="AP55">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ55">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR55">
         <v>1.77</v>
@@ -12640,7 +12649,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q56">
         <v>1.95</v>
@@ -12927,7 +12936,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ57">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR57">
         <v>1.24</v>
@@ -13133,7 +13142,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ58">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR58">
         <v>1.54</v>
@@ -13336,7 +13345,7 @@
         <v>0</v>
       </c>
       <c r="AP59">
-        <v>2.6</v>
+        <v>2.36</v>
       </c>
       <c r="AQ59">
         <v>0.36</v>
@@ -13464,7 +13473,7 @@
         <v>118</v>
       </c>
       <c r="P60" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13542,7 +13551,7 @@
         <v>1</v>
       </c>
       <c r="AP60">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ60">
         <v>0.9</v>
@@ -13876,7 +13885,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q62">
         <v>3.4</v>
@@ -13954,10 +13963,10 @@
         <v>2</v>
       </c>
       <c r="AP62">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AQ62">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR62">
         <v>2.09</v>
@@ -14160,7 +14169,7 @@
         <v>0.33</v>
       </c>
       <c r="AP63">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ63">
         <v>1</v>
@@ -14494,7 +14503,7 @@
         <v>135</v>
       </c>
       <c r="P65" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q65">
         <v>2.38</v>
@@ -14575,7 +14584,7 @@
         <v>2.45</v>
       </c>
       <c r="AQ65">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR65">
         <v>1.27</v>
@@ -16014,7 +16023,7 @@
         <v>2</v>
       </c>
       <c r="AP72">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ72">
         <v>1.3</v>
@@ -16348,7 +16357,7 @@
         <v>90</v>
       </c>
       <c r="P74" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q74">
         <v>3.1</v>
@@ -16554,7 +16563,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -16966,7 +16975,7 @@
         <v>139</v>
       </c>
       <c r="P77" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q77">
         <v>2.2</v>
@@ -17047,7 +17056,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ77">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR77">
         <v>1.71</v>
@@ -17456,7 +17465,7 @@
         <v>0</v>
       </c>
       <c r="AP79">
-        <v>2.6</v>
+        <v>2.36</v>
       </c>
       <c r="AQ79">
         <v>0.5</v>
@@ -17790,7 +17799,7 @@
         <v>146</v>
       </c>
       <c r="P81" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q81">
         <v>2.05</v>
@@ -17996,7 +18005,7 @@
         <v>147</v>
       </c>
       <c r="P82" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q82">
         <v>4</v>
@@ -18077,7 +18086,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ82">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR82">
         <v>1.94</v>
@@ -18202,7 +18211,7 @@
         <v>100</v>
       </c>
       <c r="P83" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q83">
         <v>3.2</v>
@@ -18280,7 +18289,7 @@
         <v>1</v>
       </c>
       <c r="AP83">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ83">
         <v>1.1</v>
@@ -18408,7 +18417,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q84">
         <v>2.75</v>
@@ -18489,7 +18498,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ84">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR84">
         <v>1.29</v>
@@ -18898,7 +18907,7 @@
         <v>0.5</v>
       </c>
       <c r="AP86">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AQ86">
         <v>0.42</v>
@@ -19026,7 +19035,7 @@
         <v>150</v>
       </c>
       <c r="P87" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q87">
         <v>3.5</v>
@@ -19107,7 +19116,7 @@
         <v>2.45</v>
       </c>
       <c r="AQ87">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR87">
         <v>1.41</v>
@@ -19516,7 +19525,7 @@
         <v>1.25</v>
       </c>
       <c r="AP89">
-        <v>2.6</v>
+        <v>2.36</v>
       </c>
       <c r="AQ89">
         <v>0.82</v>
@@ -19931,7 +19940,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ91">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR91">
         <v>1.58</v>
@@ -20056,7 +20065,7 @@
         <v>153</v>
       </c>
       <c r="P92" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q92">
         <v>2.63</v>
@@ -20340,7 +20349,7 @@
         <v>0.25</v>
       </c>
       <c r="AP93">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AQ93">
         <v>0.3</v>
@@ -20674,7 +20683,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q95">
         <v>3.5</v>
@@ -21167,7 +21176,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ97">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR97">
         <v>1.19</v>
@@ -21292,7 +21301,7 @@
         <v>116</v>
       </c>
       <c r="P98" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q98">
         <v>3</v>
@@ -21370,7 +21379,7 @@
         <v>0.5</v>
       </c>
       <c r="AP98">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ98">
         <v>0.6</v>
@@ -21704,7 +21713,7 @@
         <v>100</v>
       </c>
       <c r="P100" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q100">
         <v>3.5</v>
@@ -21910,7 +21919,7 @@
         <v>160</v>
       </c>
       <c r="P101" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q101">
         <v>2.6</v>
@@ -21988,7 +21997,7 @@
         <v>0</v>
       </c>
       <c r="AP101">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ101">
         <v>0.36</v>
@@ -23842,7 +23851,7 @@
         <v>0</v>
       </c>
       <c r="AP110">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AQ110">
         <v>0.5</v>
@@ -24051,7 +24060,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ111">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR111">
         <v>1.48</v>
@@ -24257,7 +24266,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ112">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR112">
         <v>1.42</v>
@@ -24382,7 +24391,7 @@
         <v>167</v>
       </c>
       <c r="P113" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q113">
         <v>3.25</v>
@@ -24794,7 +24803,7 @@
         <v>169</v>
       </c>
       <c r="P115" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q115">
         <v>2.68</v>
@@ -25078,10 +25087,10 @@
         <v>1</v>
       </c>
       <c r="AP116">
-        <v>2.6</v>
+        <v>2.36</v>
       </c>
       <c r="AQ116">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR116">
         <v>1.38</v>
@@ -25206,7 +25215,7 @@
         <v>170</v>
       </c>
       <c r="P117" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q117">
         <v>2.38</v>
@@ -25284,7 +25293,7 @@
         <v>1.6</v>
       </c>
       <c r="AP117">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AQ117">
         <v>1.3</v>
@@ -25493,7 +25502,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ118">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR118">
         <v>1.51</v>
@@ -25824,7 +25833,7 @@
         <v>90</v>
       </c>
       <c r="P120" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q120">
         <v>2.4</v>
@@ -26236,7 +26245,7 @@
         <v>173</v>
       </c>
       <c r="P122" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q122">
         <v>1.95</v>
@@ -26854,7 +26863,7 @@
         <v>175</v>
       </c>
       <c r="P125" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q125">
         <v>3</v>
@@ -26932,7 +26941,7 @@
         <v>0.33</v>
       </c>
       <c r="AP125">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ125">
         <v>0.42</v>
@@ -27266,7 +27275,7 @@
         <v>176</v>
       </c>
       <c r="P127" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q127">
         <v>2.4</v>
@@ -27344,10 +27353,10 @@
         <v>0.33</v>
       </c>
       <c r="AP127">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AQ127">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR127">
         <v>1.71</v>
@@ -27472,7 +27481,7 @@
         <v>177</v>
       </c>
       <c r="P128" t="s">
-        <v>267</v>
+        <v>227</v>
       </c>
       <c r="Q128">
         <v>2.75</v>
@@ -27550,7 +27559,7 @@
         <v>1</v>
       </c>
       <c r="AP128">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ128">
         <v>0.9</v>
@@ -27678,7 +27687,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q129">
         <v>3.25</v>
@@ -27965,7 +27974,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ130">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR130">
         <v>1.72</v>
@@ -28374,7 +28383,7 @@
         <v>1.57</v>
       </c>
       <c r="AP132">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AQ132">
         <v>1.1</v>
@@ -28502,7 +28511,7 @@
         <v>140</v>
       </c>
       <c r="P133" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q133">
         <v>2.25</v>
@@ -28580,7 +28589,7 @@
         <v>1.14</v>
       </c>
       <c r="AP133">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ133">
         <v>1</v>
@@ -28914,7 +28923,7 @@
         <v>180</v>
       </c>
       <c r="P135" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q135">
         <v>3.5</v>
@@ -28995,7 +29004,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ135">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR135">
         <v>1.41</v>
@@ -29198,7 +29207,7 @@
         <v>1.33</v>
       </c>
       <c r="AP136">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ136">
         <v>1.3</v>
@@ -29326,7 +29335,7 @@
         <v>100</v>
       </c>
       <c r="P137" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q137">
         <v>2.75</v>
@@ -29532,7 +29541,7 @@
         <v>181</v>
       </c>
       <c r="P138" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q138">
         <v>3</v>
@@ -29816,7 +29825,7 @@
         <v>0.33</v>
       </c>
       <c r="AP139">
-        <v>2.6</v>
+        <v>2.36</v>
       </c>
       <c r="AQ139">
         <v>0.3</v>
@@ -29944,7 +29953,7 @@
         <v>182</v>
       </c>
       <c r="P140" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q140">
         <v>3.75</v>
@@ -30150,7 +30159,7 @@
         <v>100</v>
       </c>
       <c r="P141" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q141">
         <v>3</v>
@@ -30356,7 +30365,7 @@
         <v>183</v>
       </c>
       <c r="P142" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q142">
         <v>3.2</v>
@@ -30437,7 +30446,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ142">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR142">
         <v>1.18</v>
@@ -30562,7 +30571,7 @@
         <v>152</v>
       </c>
       <c r="P143" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q143">
         <v>2.5</v>
@@ -31052,7 +31061,7 @@
         <v>0.5</v>
       </c>
       <c r="AP145">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AQ145">
         <v>0.6</v>
@@ -31180,7 +31189,7 @@
         <v>186</v>
       </c>
       <c r="P146" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q146">
         <v>3.1</v>
@@ -31467,7 +31476,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ147">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR147">
         <v>1.5</v>
@@ -31798,7 +31807,7 @@
         <v>189</v>
       </c>
       <c r="P149" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q149">
         <v>2.5</v>
@@ -31876,10 +31885,10 @@
         <v>1.17</v>
       </c>
       <c r="AP149">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AQ149">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR149">
         <v>1.56</v>
@@ -32210,7 +32219,7 @@
         <v>191</v>
       </c>
       <c r="P151" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q151">
         <v>3.75</v>
@@ -32291,7 +32300,7 @@
         <v>2.45</v>
       </c>
       <c r="AQ151">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR151">
         <v>1.32</v>
@@ -32703,7 +32712,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ153">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR153">
         <v>1.39</v>
@@ -33112,7 +33121,7 @@
         <v>0.86</v>
       </c>
       <c r="AP155">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AQ155">
         <v>0.78</v>
@@ -33318,7 +33327,7 @@
         <v>0.14</v>
       </c>
       <c r="AP156">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AQ156">
         <v>0.36</v>
@@ -33652,7 +33661,7 @@
         <v>194</v>
       </c>
       <c r="P158" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q158">
         <v>3.75</v>
@@ -33730,7 +33739,7 @@
         <v>0.63</v>
       </c>
       <c r="AP158">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ158">
         <v>0.82</v>
@@ -33858,7 +33867,7 @@
         <v>195</v>
       </c>
       <c r="P159" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q159">
         <v>3</v>
@@ -33939,7 +33948,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ159">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR159">
         <v>1.43</v>
@@ -34760,7 +34769,7 @@
         <v>1.29</v>
       </c>
       <c r="AP163">
-        <v>2.6</v>
+        <v>2.36</v>
       </c>
       <c r="AQ163">
         <v>1.3</v>
@@ -35712,7 +35721,7 @@
         <v>200</v>
       </c>
       <c r="P168" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q168">
         <v>2.63</v>
@@ -35790,7 +35799,7 @@
         <v>0.29</v>
       </c>
       <c r="AP168">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ168">
         <v>0.3</v>
@@ -35918,7 +35927,7 @@
         <v>201</v>
       </c>
       <c r="P169" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q169">
         <v>2.05</v>
@@ -35999,7 +36008,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ169">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR169">
         <v>1.76</v>
@@ -36408,7 +36417,7 @@
         <v>1.38</v>
       </c>
       <c r="AP171">
-        <v>2.6</v>
+        <v>2.36</v>
       </c>
       <c r="AQ171">
         <v>1.1</v>
@@ -37026,10 +37035,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP174">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ174">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR174">
         <v>1.76</v>
@@ -37154,7 +37163,7 @@
         <v>203</v>
       </c>
       <c r="P175" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q175">
         <v>2.63</v>
@@ -37232,10 +37241,10 @@
         <v>0.88</v>
       </c>
       <c r="AP175">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AQ175">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR175">
         <v>1.71</v>
@@ -37360,7 +37369,7 @@
         <v>169</v>
       </c>
       <c r="P176" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q176">
         <v>4</v>
@@ -37438,10 +37447,10 @@
         <v>1.22</v>
       </c>
       <c r="AP176">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AQ176">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR176">
         <v>1.52</v>
@@ -37566,7 +37575,7 @@
         <v>155</v>
       </c>
       <c r="P177" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q177">
         <v>2.88</v>
@@ -37772,7 +37781,7 @@
         <v>204</v>
       </c>
       <c r="P178" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q178">
         <v>2.5</v>
@@ -37853,7 +37862,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ178">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR178">
         <v>1.35</v>
@@ -38184,7 +38193,7 @@
         <v>166</v>
       </c>
       <c r="P180" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q180">
         <v>2.38</v>
@@ -39008,7 +39017,7 @@
         <v>208</v>
       </c>
       <c r="P184" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q184">
         <v>3</v>
@@ -39420,7 +39429,7 @@
         <v>100</v>
       </c>
       <c r="P186" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q186">
         <v>3.75</v>
@@ -39626,7 +39635,7 @@
         <v>210</v>
       </c>
       <c r="P187" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q187">
         <v>2.75</v>
@@ -40244,7 +40253,7 @@
         <v>100</v>
       </c>
       <c r="P190" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q190">
         <v>3.75</v>
@@ -40325,7 +40334,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ190">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR190">
         <v>1.41</v>
@@ -40528,10 +40537,10 @@
         <v>0.5</v>
       </c>
       <c r="AP191">
-        <v>2.6</v>
+        <v>2.36</v>
       </c>
       <c r="AQ191">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR191">
         <v>1.37</v>
@@ -40656,7 +40665,7 @@
         <v>214</v>
       </c>
       <c r="P192" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q192">
         <v>2.1</v>
@@ -40734,10 +40743,10 @@
         <v>0.89</v>
       </c>
       <c r="AP192">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AQ192">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR192">
         <v>1.67</v>
@@ -40862,7 +40871,7 @@
         <v>215</v>
       </c>
       <c r="P193" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q193">
         <v>2.2</v>
@@ -41558,7 +41567,7 @@
         <v>1.7</v>
       </c>
       <c r="AP196">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AQ196">
         <v>1.82</v>
@@ -41764,7 +41773,7 @@
         <v>0.67</v>
       </c>
       <c r="AP197">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ197">
         <v>0.82</v>
@@ -41892,7 +41901,7 @@
         <v>219</v>
       </c>
       <c r="P198" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q198">
         <v>3.2</v>
@@ -41970,10 +41979,10 @@
         <v>0.89</v>
       </c>
       <c r="AP198">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ198">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR198">
         <v>1.6</v>
@@ -42098,7 +42107,7 @@
         <v>193</v>
       </c>
       <c r="P199" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q199">
         <v>2.3</v>
@@ -42304,7 +42313,7 @@
         <v>220</v>
       </c>
       <c r="P200" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q200">
         <v>3.25</v>
@@ -42922,7 +42931,7 @@
         <v>100</v>
       </c>
       <c r="P203" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q203">
         <v>3</v>
@@ -43128,7 +43137,7 @@
         <v>100</v>
       </c>
       <c r="P204" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q204">
         <v>2.2</v>
@@ -43334,7 +43343,7 @@
         <v>151</v>
       </c>
       <c r="P205" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q205">
         <v>2.75</v>
@@ -43746,7 +43755,7 @@
         <v>100</v>
       </c>
       <c r="P207" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q207">
         <v>3.75</v>
@@ -43952,7 +43961,7 @@
         <v>96</v>
       </c>
       <c r="P208" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q208">
         <v>3.4</v>
@@ -44570,7 +44579,7 @@
         <v>226</v>
       </c>
       <c r="P211" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q211">
         <v>2.75</v>
@@ -44727,6 +44736,1036 @@
       </c>
       <c r="BP211">
         <v>1.48</v>
+      </c>
+    </row>
+    <row r="212" spans="1:68">
+      <c r="A212" s="1">
+        <v>211</v>
+      </c>
+      <c r="B212">
+        <v>7380537</v>
+      </c>
+      <c r="C212" t="s">
+        <v>68</v>
+      </c>
+      <c r="D212" t="s">
+        <v>69</v>
+      </c>
+      <c r="E212" s="2">
+        <v>45525.79166666666</v>
+      </c>
+      <c r="F212">
+        <v>22</v>
+      </c>
+      <c r="G212" t="s">
+        <v>83</v>
+      </c>
+      <c r="H212" t="s">
+        <v>74</v>
+      </c>
+      <c r="I212">
+        <v>0</v>
+      </c>
+      <c r="J212">
+        <v>0</v>
+      </c>
+      <c r="K212">
+        <v>0</v>
+      </c>
+      <c r="L212">
+        <v>1</v>
+      </c>
+      <c r="M212">
+        <v>1</v>
+      </c>
+      <c r="N212">
+        <v>2</v>
+      </c>
+      <c r="O212" t="s">
+        <v>227</v>
+      </c>
+      <c r="P212" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q212">
+        <v>4.5</v>
+      </c>
+      <c r="R212">
+        <v>1.83</v>
+      </c>
+      <c r="S212">
+        <v>3.1</v>
+      </c>
+      <c r="T212">
+        <v>1.55</v>
+      </c>
+      <c r="U212">
+        <v>2.3</v>
+      </c>
+      <c r="V212">
+        <v>3.55</v>
+      </c>
+      <c r="W212">
+        <v>1.25</v>
+      </c>
+      <c r="X212">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="Y212">
+        <v>1.03</v>
+      </c>
+      <c r="Z212">
+        <v>3.64</v>
+      </c>
+      <c r="AA212">
+        <v>3.02</v>
+      </c>
+      <c r="AB212">
+        <v>2.16</v>
+      </c>
+      <c r="AC212">
+        <v>1.09</v>
+      </c>
+      <c r="AD212">
+        <v>2.02</v>
+      </c>
+      <c r="AE212">
+        <v>1.58</v>
+      </c>
+      <c r="AF212">
+        <v>2.25</v>
+      </c>
+      <c r="AG212">
+        <v>2.23</v>
+      </c>
+      <c r="AH212">
+        <v>1.58</v>
+      </c>
+      <c r="AI212">
+        <v>2.38</v>
+      </c>
+      <c r="AJ212">
+        <v>1.53</v>
+      </c>
+      <c r="AK212">
+        <v>1.65</v>
+      </c>
+      <c r="AL212">
+        <v>1.3</v>
+      </c>
+      <c r="AM212">
+        <v>1.3</v>
+      </c>
+      <c r="AN212">
+        <v>1.09</v>
+      </c>
+      <c r="AO212">
+        <v>1.36</v>
+      </c>
+      <c r="AP212">
+        <v>1.08</v>
+      </c>
+      <c r="AQ212">
+        <v>1.33</v>
+      </c>
+      <c r="AR212">
+        <v>1.83</v>
+      </c>
+      <c r="AS212">
+        <v>1.33</v>
+      </c>
+      <c r="AT212">
+        <v>3.16</v>
+      </c>
+      <c r="AU212">
+        <v>5</v>
+      </c>
+      <c r="AV212">
+        <v>3</v>
+      </c>
+      <c r="AW212">
+        <v>5</v>
+      </c>
+      <c r="AX212">
+        <v>1</v>
+      </c>
+      <c r="AY212">
+        <v>10</v>
+      </c>
+      <c r="AZ212">
+        <v>4</v>
+      </c>
+      <c r="BA212">
+        <v>3</v>
+      </c>
+      <c r="BB212">
+        <v>4</v>
+      </c>
+      <c r="BC212">
+        <v>7</v>
+      </c>
+      <c r="BD212">
+        <v>2.17</v>
+      </c>
+      <c r="BE212">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF212">
+        <v>1.89</v>
+      </c>
+      <c r="BG212">
+        <v>1.18</v>
+      </c>
+      <c r="BH212">
+        <v>4.3</v>
+      </c>
+      <c r="BI212">
+        <v>1.3</v>
+      </c>
+      <c r="BJ212">
+        <v>3.08</v>
+      </c>
+      <c r="BK212">
+        <v>2.1</v>
+      </c>
+      <c r="BL212">
+        <v>2.26</v>
+      </c>
+      <c r="BM212">
+        <v>1.98</v>
+      </c>
+      <c r="BN212">
+        <v>1.81</v>
+      </c>
+      <c r="BO212">
+        <v>2.49</v>
+      </c>
+      <c r="BP212">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="213" spans="1:68">
+      <c r="A213" s="1">
+        <v>212</v>
+      </c>
+      <c r="B213">
+        <v>7380538</v>
+      </c>
+      <c r="C213" t="s">
+        <v>68</v>
+      </c>
+      <c r="D213" t="s">
+        <v>69</v>
+      </c>
+      <c r="E213" s="2">
+        <v>45525.79166666666</v>
+      </c>
+      <c r="F213">
+        <v>22</v>
+      </c>
+      <c r="G213" t="s">
+        <v>89</v>
+      </c>
+      <c r="H213" t="s">
+        <v>70</v>
+      </c>
+      <c r="I213">
+        <v>0</v>
+      </c>
+      <c r="J213">
+        <v>0</v>
+      </c>
+      <c r="K213">
+        <v>0</v>
+      </c>
+      <c r="L213">
+        <v>1</v>
+      </c>
+      <c r="M213">
+        <v>2</v>
+      </c>
+      <c r="N213">
+        <v>3</v>
+      </c>
+      <c r="O213" t="s">
+        <v>184</v>
+      </c>
+      <c r="P213" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q213">
+        <v>2.5</v>
+      </c>
+      <c r="R213">
+        <v>1.95</v>
+      </c>
+      <c r="S213">
+        <v>6</v>
+      </c>
+      <c r="T213">
+        <v>1.57</v>
+      </c>
+      <c r="U213">
+        <v>2.25</v>
+      </c>
+      <c r="V213">
+        <v>3.75</v>
+      </c>
+      <c r="W213">
+        <v>1.25</v>
+      </c>
+      <c r="X213">
+        <v>11</v>
+      </c>
+      <c r="Y213">
+        <v>1.05</v>
+      </c>
+      <c r="Z213">
+        <v>1.68</v>
+      </c>
+      <c r="AA213">
+        <v>3.4</v>
+      </c>
+      <c r="AB213">
+        <v>5.55</v>
+      </c>
+      <c r="AC213">
+        <v>1.1</v>
+      </c>
+      <c r="AD213">
+        <v>6.5</v>
+      </c>
+      <c r="AE213">
+        <v>1.51</v>
+      </c>
+      <c r="AF213">
+        <v>2.39</v>
+      </c>
+      <c r="AG213">
+        <v>2.4</v>
+      </c>
+      <c r="AH213">
+        <v>1.5</v>
+      </c>
+      <c r="AI213">
+        <v>2.38</v>
+      </c>
+      <c r="AJ213">
+        <v>1.53</v>
+      </c>
+      <c r="AK213">
+        <v>1.11</v>
+      </c>
+      <c r="AL213">
+        <v>1.25</v>
+      </c>
+      <c r="AM213">
+        <v>2.2</v>
+      </c>
+      <c r="AN213">
+        <v>2.6</v>
+      </c>
+      <c r="AO213">
+        <v>0.8</v>
+      </c>
+      <c r="AP213">
+        <v>2.36</v>
+      </c>
+      <c r="AQ213">
+        <v>1</v>
+      </c>
+      <c r="AR213">
+        <v>1.43</v>
+      </c>
+      <c r="AS213">
+        <v>1.21</v>
+      </c>
+      <c r="AT213">
+        <v>2.64</v>
+      </c>
+      <c r="AU213">
+        <v>5</v>
+      </c>
+      <c r="AV213">
+        <v>4</v>
+      </c>
+      <c r="AW213">
+        <v>5</v>
+      </c>
+      <c r="AX213">
+        <v>5</v>
+      </c>
+      <c r="AY213">
+        <v>10</v>
+      </c>
+      <c r="AZ213">
+        <v>9</v>
+      </c>
+      <c r="BA213">
+        <v>6</v>
+      </c>
+      <c r="BB213">
+        <v>6</v>
+      </c>
+      <c r="BC213">
+        <v>12</v>
+      </c>
+      <c r="BD213">
+        <v>1.59</v>
+      </c>
+      <c r="BE213">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF213">
+        <v>2.76</v>
+      </c>
+      <c r="BG213">
+        <v>1.19</v>
+      </c>
+      <c r="BH213">
+        <v>3.96</v>
+      </c>
+      <c r="BI213">
+        <v>1.38</v>
+      </c>
+      <c r="BJ213">
+        <v>2.71</v>
+      </c>
+      <c r="BK213">
+        <v>2.25</v>
+      </c>
+      <c r="BL213">
+        <v>2.09</v>
+      </c>
+      <c r="BM213">
+        <v>2.15</v>
+      </c>
+      <c r="BN213">
+        <v>1.68</v>
+      </c>
+      <c r="BO213">
+        <v>2.78</v>
+      </c>
+      <c r="BP213">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="214" spans="1:68">
+      <c r="A214" s="1">
+        <v>213</v>
+      </c>
+      <c r="B214">
+        <v>7380540</v>
+      </c>
+      <c r="C214" t="s">
+        <v>68</v>
+      </c>
+      <c r="D214" t="s">
+        <v>69</v>
+      </c>
+      <c r="E214" s="2">
+        <v>45525.79166666666</v>
+      </c>
+      <c r="F214">
+        <v>22</v>
+      </c>
+      <c r="G214" t="s">
+        <v>86</v>
+      </c>
+      <c r="H214" t="s">
+        <v>73</v>
+      </c>
+      <c r="I214">
+        <v>0</v>
+      </c>
+      <c r="J214">
+        <v>0</v>
+      </c>
+      <c r="K214">
+        <v>0</v>
+      </c>
+      <c r="L214">
+        <v>0</v>
+      </c>
+      <c r="M214">
+        <v>0</v>
+      </c>
+      <c r="N214">
+        <v>0</v>
+      </c>
+      <c r="O214" t="s">
+        <v>100</v>
+      </c>
+      <c r="P214" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q214">
+        <v>2.05</v>
+      </c>
+      <c r="R214">
+        <v>2.2</v>
+      </c>
+      <c r="S214">
+        <v>7</v>
+      </c>
+      <c r="T214">
+        <v>1.46</v>
+      </c>
+      <c r="U214">
+        <v>2.55</v>
+      </c>
+      <c r="V214">
+        <v>3.05</v>
+      </c>
+      <c r="W214">
+        <v>1.33</v>
+      </c>
+      <c r="X214">
+        <v>7.9</v>
+      </c>
+      <c r="Y214">
+        <v>1.05</v>
+      </c>
+      <c r="Z214">
+        <v>1.5</v>
+      </c>
+      <c r="AA214">
+        <v>4</v>
+      </c>
+      <c r="AB214">
+        <v>6.55</v>
+      </c>
+      <c r="AC214">
+        <v>1.06</v>
+      </c>
+      <c r="AD214">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AE214">
+        <v>1.37</v>
+      </c>
+      <c r="AF214">
+        <v>3.07</v>
+      </c>
+      <c r="AG214">
+        <v>2.13</v>
+      </c>
+      <c r="AH214">
+        <v>1.64</v>
+      </c>
+      <c r="AI214">
+        <v>2.2</v>
+      </c>
+      <c r="AJ214">
+        <v>1.62</v>
+      </c>
+      <c r="AK214">
+        <v>1.08</v>
+      </c>
+      <c r="AL214">
+        <v>1.2</v>
+      </c>
+      <c r="AM214">
+        <v>2.4</v>
+      </c>
+      <c r="AN214">
+        <v>2.27</v>
+      </c>
+      <c r="AO214">
+        <v>1</v>
+      </c>
+      <c r="AP214">
+        <v>2.17</v>
+      </c>
+      <c r="AQ214">
+        <v>1</v>
+      </c>
+      <c r="AR214">
+        <v>1.68</v>
+      </c>
+      <c r="AS214">
+        <v>1.13</v>
+      </c>
+      <c r="AT214">
+        <v>2.81</v>
+      </c>
+      <c r="AU214">
+        <v>7</v>
+      </c>
+      <c r="AV214">
+        <v>9</v>
+      </c>
+      <c r="AW214">
+        <v>4</v>
+      </c>
+      <c r="AX214">
+        <v>6</v>
+      </c>
+      <c r="AY214">
+        <v>11</v>
+      </c>
+      <c r="AZ214">
+        <v>15</v>
+      </c>
+      <c r="BA214">
+        <v>7</v>
+      </c>
+      <c r="BB214">
+        <v>6</v>
+      </c>
+      <c r="BC214">
+        <v>13</v>
+      </c>
+      <c r="BD214">
+        <v>1.3</v>
+      </c>
+      <c r="BE214">
+        <v>10.25</v>
+      </c>
+      <c r="BF214">
+        <v>4.2</v>
+      </c>
+      <c r="BG214">
+        <v>1.2</v>
+      </c>
+      <c r="BH214">
+        <v>4</v>
+      </c>
+      <c r="BI214">
+        <v>1.36</v>
+      </c>
+      <c r="BJ214">
+        <v>2.9</v>
+      </c>
+      <c r="BK214">
+        <v>2</v>
+      </c>
+      <c r="BL214">
+        <v>2.29</v>
+      </c>
+      <c r="BM214">
+        <v>1.98</v>
+      </c>
+      <c r="BN214">
+        <v>1.81</v>
+      </c>
+      <c r="BO214">
+        <v>2.52</v>
+      </c>
+      <c r="BP214">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="215" spans="1:68">
+      <c r="A215" s="1">
+        <v>214</v>
+      </c>
+      <c r="B215">
+        <v>7380542</v>
+      </c>
+      <c r="C215" t="s">
+        <v>68</v>
+      </c>
+      <c r="D215" t="s">
+        <v>69</v>
+      </c>
+      <c r="E215" s="2">
+        <v>45525.83333333334</v>
+      </c>
+      <c r="F215">
+        <v>22</v>
+      </c>
+      <c r="G215" t="s">
+        <v>84</v>
+      </c>
+      <c r="H215" t="s">
+        <v>76</v>
+      </c>
+      <c r="I215">
+        <v>0</v>
+      </c>
+      <c r="J215">
+        <v>1</v>
+      </c>
+      <c r="K215">
+        <v>1</v>
+      </c>
+      <c r="L215">
+        <v>0</v>
+      </c>
+      <c r="M215">
+        <v>2</v>
+      </c>
+      <c r="N215">
+        <v>2</v>
+      </c>
+      <c r="O215" t="s">
+        <v>100</v>
+      </c>
+      <c r="P215" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q215">
+        <v>3.4</v>
+      </c>
+      <c r="R215">
+        <v>1.91</v>
+      </c>
+      <c r="S215">
+        <v>4</v>
+      </c>
+      <c r="T215">
+        <v>1.53</v>
+      </c>
+      <c r="U215">
+        <v>2.35</v>
+      </c>
+      <c r="V215">
+        <v>3.45</v>
+      </c>
+      <c r="W215">
+        <v>1.25</v>
+      </c>
+      <c r="X215">
+        <v>9.4</v>
+      </c>
+      <c r="Y215">
+        <v>1.04</v>
+      </c>
+      <c r="Z215">
+        <v>2.5</v>
+      </c>
+      <c r="AA215">
+        <v>2.85</v>
+      </c>
+      <c r="AB215">
+        <v>3.05</v>
+      </c>
+      <c r="AC215">
+        <v>1.08</v>
+      </c>
+      <c r="AD215">
+        <v>7.4</v>
+      </c>
+      <c r="AE215">
+        <v>1.53</v>
+      </c>
+      <c r="AF215">
+        <v>2.35</v>
+      </c>
+      <c r="AG215">
+        <v>2.22</v>
+      </c>
+      <c r="AH215">
+        <v>1.59</v>
+      </c>
+      <c r="AI215">
+        <v>2.2</v>
+      </c>
+      <c r="AJ215">
+        <v>1.62</v>
+      </c>
+      <c r="AK215">
+        <v>1.33</v>
+      </c>
+      <c r="AL215">
+        <v>1.33</v>
+      </c>
+      <c r="AM215">
+        <v>1.59</v>
+      </c>
+      <c r="AN215">
+        <v>2.1</v>
+      </c>
+      <c r="AO215">
+        <v>0.8</v>
+      </c>
+      <c r="AP215">
+        <v>1.91</v>
+      </c>
+      <c r="AQ215">
+        <v>1</v>
+      </c>
+      <c r="AR215">
+        <v>1.43</v>
+      </c>
+      <c r="AS215">
+        <v>1.39</v>
+      </c>
+      <c r="AT215">
+        <v>2.82</v>
+      </c>
+      <c r="AU215">
+        <v>5</v>
+      </c>
+      <c r="AV215">
+        <v>6</v>
+      </c>
+      <c r="AW215">
+        <v>5</v>
+      </c>
+      <c r="AX215">
+        <v>3</v>
+      </c>
+      <c r="AY215">
+        <v>10</v>
+      </c>
+      <c r="AZ215">
+        <v>9</v>
+      </c>
+      <c r="BA215">
+        <v>5</v>
+      </c>
+      <c r="BB215">
+        <v>4</v>
+      </c>
+      <c r="BC215">
+        <v>9</v>
+      </c>
+      <c r="BD215">
+        <v>2.1</v>
+      </c>
+      <c r="BE215">
+        <v>7.4</v>
+      </c>
+      <c r="BF215">
+        <v>2.05</v>
+      </c>
+      <c r="BG215">
+        <v>1.23</v>
+      </c>
+      <c r="BH215">
+        <v>3.7</v>
+      </c>
+      <c r="BI215">
+        <v>1.43</v>
+      </c>
+      <c r="BJ215">
+        <v>2.62</v>
+      </c>
+      <c r="BK215">
+        <v>2.1</v>
+      </c>
+      <c r="BL215">
+        <v>2.05</v>
+      </c>
+      <c r="BM215">
+        <v>2.18</v>
+      </c>
+      <c r="BN215">
+        <v>1.66</v>
+      </c>
+      <c r="BO215">
+        <v>2.9</v>
+      </c>
+      <c r="BP215">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="216" spans="1:68">
+      <c r="A216" s="1">
+        <v>215</v>
+      </c>
+      <c r="B216">
+        <v>7380536</v>
+      </c>
+      <c r="C216" t="s">
+        <v>68</v>
+      </c>
+      <c r="D216" t="s">
+        <v>69</v>
+      </c>
+      <c r="E216" s="2">
+        <v>45525.875</v>
+      </c>
+      <c r="F216">
+        <v>22</v>
+      </c>
+      <c r="G216" t="s">
+        <v>88</v>
+      </c>
+      <c r="H216" t="s">
+        <v>79</v>
+      </c>
+      <c r="I216">
+        <v>2</v>
+      </c>
+      <c r="J216">
+        <v>0</v>
+      </c>
+      <c r="K216">
+        <v>2</v>
+      </c>
+      <c r="L216">
+        <v>4</v>
+      </c>
+      <c r="M216">
+        <v>1</v>
+      </c>
+      <c r="N216">
+        <v>5</v>
+      </c>
+      <c r="O216" t="s">
+        <v>228</v>
+      </c>
+      <c r="P216" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q216">
+        <v>2.25</v>
+      </c>
+      <c r="R216">
+        <v>2.05</v>
+      </c>
+      <c r="S216">
+        <v>6.5</v>
+      </c>
+      <c r="T216">
+        <v>1.5</v>
+      </c>
+      <c r="U216">
+        <v>2.5</v>
+      </c>
+      <c r="V216">
+        <v>3.5</v>
+      </c>
+      <c r="W216">
+        <v>1.29</v>
+      </c>
+      <c r="X216">
+        <v>11</v>
+      </c>
+      <c r="Y216">
+        <v>1.05</v>
+      </c>
+      <c r="Z216">
+        <v>1.6</v>
+      </c>
+      <c r="AA216">
+        <v>3.64</v>
+      </c>
+      <c r="AB216">
+        <v>5.9</v>
+      </c>
+      <c r="AC216">
+        <v>1.09</v>
+      </c>
+      <c r="AD216">
+        <v>7</v>
+      </c>
+      <c r="AE216">
+        <v>1.45</v>
+      </c>
+      <c r="AF216">
+        <v>2.7</v>
+      </c>
+      <c r="AG216">
+        <v>2.33</v>
+      </c>
+      <c r="AH216">
+        <v>1.54</v>
+      </c>
+      <c r="AI216">
+        <v>2.38</v>
+      </c>
+      <c r="AJ216">
+        <v>1.53</v>
+      </c>
+      <c r="AK216">
+        <v>1.11</v>
+      </c>
+      <c r="AL216">
+        <v>1.25</v>
+      </c>
+      <c r="AM216">
+        <v>2.25</v>
+      </c>
+      <c r="AN216">
+        <v>2.22</v>
+      </c>
+      <c r="AO216">
+        <v>0.45</v>
+      </c>
+      <c r="AP216">
+        <v>2.3</v>
+      </c>
+      <c r="AQ216">
+        <v>0.42</v>
+      </c>
+      <c r="AR216">
+        <v>1.62</v>
+      </c>
+      <c r="AS216">
+        <v>1.18</v>
+      </c>
+      <c r="AT216">
+        <v>2.8</v>
+      </c>
+      <c r="AU216">
+        <v>6</v>
+      </c>
+      <c r="AV216">
+        <v>6</v>
+      </c>
+      <c r="AW216">
+        <v>5</v>
+      </c>
+      <c r="AX216">
+        <v>9</v>
+      </c>
+      <c r="AY216">
+        <v>11</v>
+      </c>
+      <c r="AZ216">
+        <v>15</v>
+      </c>
+      <c r="BA216">
+        <v>9</v>
+      </c>
+      <c r="BB216">
+        <v>8</v>
+      </c>
+      <c r="BC216">
+        <v>17</v>
+      </c>
+      <c r="BD216">
+        <v>1.28</v>
+      </c>
+      <c r="BE216">
+        <v>8.1</v>
+      </c>
+      <c r="BF216">
+        <v>4.9</v>
+      </c>
+      <c r="BG216">
+        <v>1.25</v>
+      </c>
+      <c r="BH216">
+        <v>3.6</v>
+      </c>
+      <c r="BI216">
+        <v>1.48</v>
+      </c>
+      <c r="BJ216">
+        <v>2.56</v>
+      </c>
+      <c r="BK216">
+        <v>2.1</v>
+      </c>
+      <c r="BL216">
+        <v>1.94</v>
+      </c>
+      <c r="BM216">
+        <v>2.28</v>
+      </c>
+      <c r="BN216">
+        <v>1.59</v>
+      </c>
+      <c r="BO216">
+        <v>2.62</v>
+      </c>
+      <c r="BP216">
+        <v>1.42</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1370" uniqueCount="298">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -703,6 +703,9 @@
     <t>['35', '45+4', '57', '67']</t>
   </si>
   <si>
+    <t>['45+4']</t>
+  </si>
+  <si>
     <t>['31', '49', '69']</t>
   </si>
   <si>
@@ -1266,7 +1269,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP216"/>
+  <dimension ref="A1:BP218"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2430,7 +2433,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ6">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2555,7 +2558,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q7">
         <v>4.33</v>
@@ -2967,7 +2970,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -3048,7 +3051,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ9">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3379,7 +3382,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q11">
         <v>3.5</v>
@@ -3585,7 +3588,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q12">
         <v>3.6</v>
@@ -3869,7 +3872,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AQ13">
         <v>0.82</v>
@@ -3997,7 +4000,7 @@
         <v>100</v>
       </c>
       <c r="P14" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q14">
         <v>4.75</v>
@@ -4075,7 +4078,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ14">
         <v>1.33</v>
@@ -4203,7 +4206,7 @@
         <v>100</v>
       </c>
       <c r="P15" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -5439,7 +5442,7 @@
         <v>106</v>
       </c>
       <c r="P21" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -6057,7 +6060,7 @@
         <v>107</v>
       </c>
       <c r="P24" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q24">
         <v>3.6</v>
@@ -6469,7 +6472,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6675,7 +6678,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q27">
         <v>4</v>
@@ -6881,7 +6884,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -7705,7 +7708,7 @@
         <v>113</v>
       </c>
       <c r="P32" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q32">
         <v>2.38</v>
@@ -7911,7 +7914,7 @@
         <v>100</v>
       </c>
       <c r="P33" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -9147,7 +9150,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q39">
         <v>2</v>
@@ -9225,7 +9228,7 @@
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AQ39">
         <v>0.42</v>
@@ -9431,10 +9434,10 @@
         <v>1</v>
       </c>
       <c r="AP40">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ40">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AR40">
         <v>1.33</v>
@@ -9559,7 +9562,7 @@
         <v>120</v>
       </c>
       <c r="P41" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q41">
         <v>2.25</v>
@@ -9640,7 +9643,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ41">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR41">
         <v>1.37</v>
@@ -9765,7 +9768,7 @@
         <v>121</v>
       </c>
       <c r="P42" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9843,7 +9846,7 @@
         <v>0.5</v>
       </c>
       <c r="AP42">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ42">
         <v>0.3</v>
@@ -9971,7 +9974,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q43">
         <v>3.2</v>
@@ -11207,7 +11210,7 @@
         <v>125</v>
       </c>
       <c r="P49" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -12112,7 +12115,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ53">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AR53">
         <v>2.01</v>
@@ -12318,7 +12321,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ54">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR54">
         <v>0.92</v>
@@ -12649,7 +12652,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q56">
         <v>1.95</v>
@@ -12727,7 +12730,7 @@
         <v>0.5</v>
       </c>
       <c r="AP56">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AQ56">
         <v>1.3</v>
@@ -13473,7 +13476,7 @@
         <v>118</v>
       </c>
       <c r="P60" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13885,7 +13888,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q62">
         <v>3.4</v>
@@ -14172,7 +14175,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ63">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR63">
         <v>2.11</v>
@@ -14503,7 +14506,7 @@
         <v>135</v>
       </c>
       <c r="P65" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q65">
         <v>2.38</v>
@@ -15405,7 +15408,7 @@
         <v>1.67</v>
       </c>
       <c r="AP69">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ69">
         <v>0.82</v>
@@ -15820,7 +15823,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ71">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AR71">
         <v>1.73</v>
@@ -16357,7 +16360,7 @@
         <v>90</v>
       </c>
       <c r="P74" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q74">
         <v>3.1</v>
@@ -16563,7 +16566,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -16975,7 +16978,7 @@
         <v>139</v>
       </c>
       <c r="P77" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q77">
         <v>2.2</v>
@@ -17799,7 +17802,7 @@
         <v>146</v>
       </c>
       <c r="P81" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q81">
         <v>2.05</v>
@@ -18005,7 +18008,7 @@
         <v>147</v>
       </c>
       <c r="P82" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q82">
         <v>4</v>
@@ -18211,7 +18214,7 @@
         <v>100</v>
       </c>
       <c r="P83" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q83">
         <v>3.2</v>
@@ -18417,7 +18420,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q84">
         <v>2.75</v>
@@ -18701,7 +18704,7 @@
         <v>1</v>
       </c>
       <c r="AP85">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ85">
         <v>1</v>
@@ -19035,7 +19038,7 @@
         <v>150</v>
       </c>
       <c r="P87" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q87">
         <v>3.5</v>
@@ -19319,10 +19322,10 @@
         <v>0.5</v>
       </c>
       <c r="AP88">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AQ88">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR88">
         <v>1.37</v>
@@ -20065,7 +20068,7 @@
         <v>153</v>
       </c>
       <c r="P92" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q92">
         <v>2.63</v>
@@ -20143,7 +20146,7 @@
         <v>0</v>
       </c>
       <c r="AP92">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ92">
         <v>0.5</v>
@@ -20683,7 +20686,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q95">
         <v>3.5</v>
@@ -20764,7 +20767,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ95">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR95">
         <v>1.35</v>
@@ -21301,7 +21304,7 @@
         <v>116</v>
       </c>
       <c r="P98" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q98">
         <v>3</v>
@@ -21382,7 +21385,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ98">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AR98">
         <v>1.63</v>
@@ -21585,7 +21588,7 @@
         <v>0.5</v>
       </c>
       <c r="AP99">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AQ99">
         <v>1.09</v>
@@ -21713,7 +21716,7 @@
         <v>100</v>
       </c>
       <c r="P100" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q100">
         <v>3.5</v>
@@ -21919,7 +21922,7 @@
         <v>160</v>
       </c>
       <c r="P101" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q101">
         <v>2.6</v>
@@ -24391,7 +24394,7 @@
         <v>167</v>
       </c>
       <c r="P113" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q113">
         <v>3.25</v>
@@ -24472,7 +24475,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ113">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR113">
         <v>1.58</v>
@@ -24803,7 +24806,7 @@
         <v>169</v>
       </c>
       <c r="P115" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q115">
         <v>2.68</v>
@@ -24881,7 +24884,7 @@
         <v>1.17</v>
       </c>
       <c r="AP115">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AQ115">
         <v>1.82</v>
@@ -25215,7 +25218,7 @@
         <v>170</v>
       </c>
       <c r="P117" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q117">
         <v>2.38</v>
@@ -25708,7 +25711,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ119">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AR119">
         <v>1.45</v>
@@ -25833,7 +25836,7 @@
         <v>90</v>
       </c>
       <c r="P120" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q120">
         <v>2.4</v>
@@ -26245,7 +26248,7 @@
         <v>173</v>
       </c>
       <c r="P122" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q122">
         <v>1.95</v>
@@ -26529,7 +26532,7 @@
         <v>0.4</v>
       </c>
       <c r="AP123">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ123">
         <v>0.78</v>
@@ -26863,7 +26866,7 @@
         <v>175</v>
       </c>
       <c r="P125" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q125">
         <v>3</v>
@@ -27275,7 +27278,7 @@
         <v>176</v>
       </c>
       <c r="P127" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q127">
         <v>2.4</v>
@@ -27687,7 +27690,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q129">
         <v>3.25</v>
@@ -28511,7 +28514,7 @@
         <v>140</v>
       </c>
       <c r="P133" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q133">
         <v>2.25</v>
@@ -28798,7 +28801,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ134">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR134">
         <v>1.81</v>
@@ -28923,7 +28926,7 @@
         <v>180</v>
       </c>
       <c r="P135" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q135">
         <v>3.5</v>
@@ -29335,7 +29338,7 @@
         <v>100</v>
       </c>
       <c r="P137" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q137">
         <v>2.75</v>
@@ -29413,7 +29416,7 @@
         <v>1.43</v>
       </c>
       <c r="AP137">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ137">
         <v>1.82</v>
@@ -29541,7 +29544,7 @@
         <v>181</v>
       </c>
       <c r="P138" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q138">
         <v>3</v>
@@ -29953,7 +29956,7 @@
         <v>182</v>
       </c>
       <c r="P140" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q140">
         <v>3.75</v>
@@ -30159,7 +30162,7 @@
         <v>100</v>
       </c>
       <c r="P141" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q141">
         <v>3</v>
@@ -30365,7 +30368,7 @@
         <v>183</v>
       </c>
       <c r="P142" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q142">
         <v>3.2</v>
@@ -30571,7 +30574,7 @@
         <v>152</v>
       </c>
       <c r="P143" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q143">
         <v>2.5</v>
@@ -30855,7 +30858,7 @@
         <v>0.83</v>
       </c>
       <c r="AP144">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AQ144">
         <v>0.9</v>
@@ -31064,7 +31067,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ145">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AR145">
         <v>1.6</v>
@@ -31189,7 +31192,7 @@
         <v>186</v>
       </c>
       <c r="P146" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q146">
         <v>3.1</v>
@@ -31807,7 +31810,7 @@
         <v>189</v>
       </c>
       <c r="P149" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q149">
         <v>2.5</v>
@@ -32219,7 +32222,7 @@
         <v>191</v>
       </c>
       <c r="P151" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q151">
         <v>3.75</v>
@@ -32709,7 +32712,7 @@
         <v>0.57</v>
       </c>
       <c r="AP153">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ153">
         <v>1</v>
@@ -33661,7 +33664,7 @@
         <v>194</v>
       </c>
       <c r="P158" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q158">
         <v>3.75</v>
@@ -33867,7 +33870,7 @@
         <v>195</v>
       </c>
       <c r="P159" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q159">
         <v>3</v>
@@ -34154,7 +34157,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ160">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AR160">
         <v>1.96</v>
@@ -35390,7 +35393,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ166">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR166">
         <v>1.17</v>
@@ -35721,7 +35724,7 @@
         <v>200</v>
       </c>
       <c r="P168" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q168">
         <v>2.63</v>
@@ -35927,7 +35930,7 @@
         <v>201</v>
       </c>
       <c r="P169" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q169">
         <v>2.05</v>
@@ -36829,7 +36832,7 @@
         <v>0.44</v>
       </c>
       <c r="AP173">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AQ173">
         <v>0.42</v>
@@ -37163,7 +37166,7 @@
         <v>203</v>
       </c>
       <c r="P175" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q175">
         <v>2.63</v>
@@ -37369,7 +37372,7 @@
         <v>169</v>
       </c>
       <c r="P176" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q176">
         <v>4</v>
@@ -37575,7 +37578,7 @@
         <v>155</v>
       </c>
       <c r="P177" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q177">
         <v>2.88</v>
@@ -37781,7 +37784,7 @@
         <v>204</v>
       </c>
       <c r="P178" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q178">
         <v>2.5</v>
@@ -37859,7 +37862,7 @@
         <v>0.88</v>
       </c>
       <c r="AP178">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ178">
         <v>1</v>
@@ -38193,7 +38196,7 @@
         <v>166</v>
       </c>
       <c r="P180" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q180">
         <v>2.38</v>
@@ -38480,7 +38483,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ181">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AR181">
         <v>1.41</v>
@@ -39017,7 +39020,7 @@
         <v>208</v>
       </c>
       <c r="P184" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q184">
         <v>3</v>
@@ -39429,7 +39432,7 @@
         <v>100</v>
       </c>
       <c r="P186" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q186">
         <v>3.75</v>
@@ -39635,7 +39638,7 @@
         <v>210</v>
       </c>
       <c r="P187" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q187">
         <v>2.75</v>
@@ -39716,7 +39719,7 @@
         <v>2.45</v>
       </c>
       <c r="AQ187">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR187">
         <v>1.3</v>
@@ -40125,7 +40128,7 @@
         <v>1.22</v>
       </c>
       <c r="AP189">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ189">
         <v>1.1</v>
@@ -40253,7 +40256,7 @@
         <v>100</v>
       </c>
       <c r="P190" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q190">
         <v>3.75</v>
@@ -40665,7 +40668,7 @@
         <v>214</v>
       </c>
       <c r="P192" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q192">
         <v>2.1</v>
@@ -40871,7 +40874,7 @@
         <v>215</v>
       </c>
       <c r="P193" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q193">
         <v>2.2</v>
@@ -40949,7 +40952,7 @@
         <v>0.88</v>
       </c>
       <c r="AP193">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AQ193">
         <v>0.78</v>
@@ -41901,7 +41904,7 @@
         <v>219</v>
       </c>
       <c r="P198" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q198">
         <v>3.2</v>
@@ -42107,7 +42110,7 @@
         <v>193</v>
       </c>
       <c r="P199" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q199">
         <v>2.3</v>
@@ -42313,7 +42316,7 @@
         <v>220</v>
       </c>
       <c r="P200" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q200">
         <v>3.25</v>
@@ -42931,7 +42934,7 @@
         <v>100</v>
       </c>
       <c r="P203" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q203">
         <v>3</v>
@@ -43137,7 +43140,7 @@
         <v>100</v>
       </c>
       <c r="P204" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q204">
         <v>2.2</v>
@@ -43343,7 +43346,7 @@
         <v>151</v>
       </c>
       <c r="P205" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q205">
         <v>2.75</v>
@@ -43755,7 +43758,7 @@
         <v>100</v>
       </c>
       <c r="P207" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q207">
         <v>3.75</v>
@@ -43836,7 +43839,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ207">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AR207">
         <v>1.19</v>
@@ -43961,7 +43964,7 @@
         <v>96</v>
       </c>
       <c r="P208" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q208">
         <v>3.4</v>
@@ -44042,7 +44045,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ208">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR208">
         <v>1.36</v>
@@ -44579,7 +44582,7 @@
         <v>226</v>
       </c>
       <c r="P211" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q211">
         <v>2.75</v>
@@ -44991,7 +44994,7 @@
         <v>184</v>
       </c>
       <c r="P213" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q213">
         <v>2.5</v>
@@ -45403,7 +45406,7 @@
         <v>100</v>
       </c>
       <c r="P215" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q215">
         <v>3.4</v>
@@ -45766,6 +45769,418 @@
       </c>
       <c r="BP216">
         <v>1.42</v>
+      </c>
+    </row>
+    <row r="217" spans="1:68">
+      <c r="A217" s="1">
+        <v>216</v>
+      </c>
+      <c r="B217">
+        <v>7380541</v>
+      </c>
+      <c r="C217" t="s">
+        <v>68</v>
+      </c>
+      <c r="D217" t="s">
+        <v>69</v>
+      </c>
+      <c r="E217" s="2">
+        <v>45526.83333333334</v>
+      </c>
+      <c r="F217">
+        <v>22</v>
+      </c>
+      <c r="G217" t="s">
+        <v>82</v>
+      </c>
+      <c r="H217" t="s">
+        <v>85</v>
+      </c>
+      <c r="I217">
+        <v>1</v>
+      </c>
+      <c r="J217">
+        <v>0</v>
+      </c>
+      <c r="K217">
+        <v>1</v>
+      </c>
+      <c r="L217">
+        <v>1</v>
+      </c>
+      <c r="M217">
+        <v>0</v>
+      </c>
+      <c r="N217">
+        <v>1</v>
+      </c>
+      <c r="O217" t="s">
+        <v>229</v>
+      </c>
+      <c r="P217" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q217">
+        <v>2.75</v>
+      </c>
+      <c r="R217">
+        <v>1.95</v>
+      </c>
+      <c r="S217">
+        <v>5</v>
+      </c>
+      <c r="T217">
+        <v>1.57</v>
+      </c>
+      <c r="U217">
+        <v>2.25</v>
+      </c>
+      <c r="V217">
+        <v>3.75</v>
+      </c>
+      <c r="W217">
+        <v>1.25</v>
+      </c>
+      <c r="X217">
+        <v>11</v>
+      </c>
+      <c r="Y217">
+        <v>1.05</v>
+      </c>
+      <c r="Z217">
+        <v>1.91</v>
+      </c>
+      <c r="AA217">
+        <v>3.1</v>
+      </c>
+      <c r="AB217">
+        <v>3.75</v>
+      </c>
+      <c r="AC217">
+        <v>1.1</v>
+      </c>
+      <c r="AD217">
+        <v>6.5</v>
+      </c>
+      <c r="AE217">
+        <v>1.48</v>
+      </c>
+      <c r="AF217">
+        <v>2.46</v>
+      </c>
+      <c r="AG217">
+        <v>2.4</v>
+      </c>
+      <c r="AH217">
+        <v>1.48</v>
+      </c>
+      <c r="AI217">
+        <v>2.25</v>
+      </c>
+      <c r="AJ217">
+        <v>1.57</v>
+      </c>
+      <c r="AK217">
+        <v>1.22</v>
+      </c>
+      <c r="AL217">
+        <v>1.3</v>
+      </c>
+      <c r="AM217">
+        <v>1.75</v>
+      </c>
+      <c r="AN217">
+        <v>1.64</v>
+      </c>
+      <c r="AO217">
+        <v>1</v>
+      </c>
+      <c r="AP217">
+        <v>1.75</v>
+      </c>
+      <c r="AQ217">
+        <v>0.92</v>
+      </c>
+      <c r="AR217">
+        <v>1.35</v>
+      </c>
+      <c r="AS217">
+        <v>1.33</v>
+      </c>
+      <c r="AT217">
+        <v>2.68</v>
+      </c>
+      <c r="AU217">
+        <v>3</v>
+      </c>
+      <c r="AV217">
+        <v>3</v>
+      </c>
+      <c r="AW217">
+        <v>4</v>
+      </c>
+      <c r="AX217">
+        <v>2</v>
+      </c>
+      <c r="AY217">
+        <v>7</v>
+      </c>
+      <c r="AZ217">
+        <v>5</v>
+      </c>
+      <c r="BA217">
+        <v>4</v>
+      </c>
+      <c r="BB217">
+        <v>2</v>
+      </c>
+      <c r="BC217">
+        <v>6</v>
+      </c>
+      <c r="BD217">
+        <v>1.85</v>
+      </c>
+      <c r="BE217">
+        <v>6.6</v>
+      </c>
+      <c r="BF217">
+        <v>2.42</v>
+      </c>
+      <c r="BG217">
+        <v>1.2</v>
+      </c>
+      <c r="BH217">
+        <v>4</v>
+      </c>
+      <c r="BI217">
+        <v>1.3</v>
+      </c>
+      <c r="BJ217">
+        <v>3.08</v>
+      </c>
+      <c r="BK217">
+        <v>1.91</v>
+      </c>
+      <c r="BL217">
+        <v>2.28</v>
+      </c>
+      <c r="BM217">
+        <v>2</v>
+      </c>
+      <c r="BN217">
+        <v>1.8</v>
+      </c>
+      <c r="BO217">
+        <v>2.42</v>
+      </c>
+      <c r="BP217">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="218" spans="1:68">
+      <c r="A218" s="1">
+        <v>217</v>
+      </c>
+      <c r="B218">
+        <v>7380545</v>
+      </c>
+      <c r="C218" t="s">
+        <v>68</v>
+      </c>
+      <c r="D218" t="s">
+        <v>69</v>
+      </c>
+      <c r="E218" s="2">
+        <v>45526.875</v>
+      </c>
+      <c r="F218">
+        <v>22</v>
+      </c>
+      <c r="G218" t="s">
+        <v>81</v>
+      </c>
+      <c r="H218" t="s">
+        <v>87</v>
+      </c>
+      <c r="I218">
+        <v>0</v>
+      </c>
+      <c r="J218">
+        <v>0</v>
+      </c>
+      <c r="K218">
+        <v>0</v>
+      </c>
+      <c r="L218">
+        <v>0</v>
+      </c>
+      <c r="M218">
+        <v>1</v>
+      </c>
+      <c r="N218">
+        <v>1</v>
+      </c>
+      <c r="O218" t="s">
+        <v>100</v>
+      </c>
+      <c r="P218" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q218">
+        <v>2.63</v>
+      </c>
+      <c r="R218">
+        <v>2</v>
+      </c>
+      <c r="S218">
+        <v>5</v>
+      </c>
+      <c r="T218">
+        <v>1.57</v>
+      </c>
+      <c r="U218">
+        <v>2.25</v>
+      </c>
+      <c r="V218">
+        <v>3.75</v>
+      </c>
+      <c r="W218">
+        <v>1.22</v>
+      </c>
+      <c r="X218">
+        <v>10.25</v>
+      </c>
+      <c r="Y218">
+        <v>1.03</v>
+      </c>
+      <c r="Z218">
+        <v>1.73</v>
+      </c>
+      <c r="AA218">
+        <v>3.25</v>
+      </c>
+      <c r="AB218">
+        <v>4.33</v>
+      </c>
+      <c r="AC218">
+        <v>1.1</v>
+      </c>
+      <c r="AD218">
+        <v>6.5</v>
+      </c>
+      <c r="AE218">
+        <v>1.5</v>
+      </c>
+      <c r="AF218">
+        <v>2.3</v>
+      </c>
+      <c r="AG218">
+        <v>2.55</v>
+      </c>
+      <c r="AH218">
+        <v>1.45</v>
+      </c>
+      <c r="AI218">
+        <v>2.2</v>
+      </c>
+      <c r="AJ218">
+        <v>1.62</v>
+      </c>
+      <c r="AK218">
+        <v>1.13</v>
+      </c>
+      <c r="AL218">
+        <v>1.25</v>
+      </c>
+      <c r="AM218">
+        <v>1.93</v>
+      </c>
+      <c r="AN218">
+        <v>2.11</v>
+      </c>
+      <c r="AO218">
+        <v>0.6</v>
+      </c>
+      <c r="AP218">
+        <v>1.9</v>
+      </c>
+      <c r="AQ218">
+        <v>0.82</v>
+      </c>
+      <c r="AR218">
+        <v>1.44</v>
+      </c>
+      <c r="AS218">
+        <v>1.36</v>
+      </c>
+      <c r="AT218">
+        <v>2.8</v>
+      </c>
+      <c r="AU218">
+        <v>3</v>
+      </c>
+      <c r="AV218">
+        <v>4</v>
+      </c>
+      <c r="AW218">
+        <v>7</v>
+      </c>
+      <c r="AX218">
+        <v>7</v>
+      </c>
+      <c r="AY218">
+        <v>10</v>
+      </c>
+      <c r="AZ218">
+        <v>11</v>
+      </c>
+      <c r="BA218">
+        <v>7</v>
+      </c>
+      <c r="BB218">
+        <v>2</v>
+      </c>
+      <c r="BC218">
+        <v>9</v>
+      </c>
+      <c r="BD218">
+        <v>1.41</v>
+      </c>
+      <c r="BE218">
+        <v>7.6</v>
+      </c>
+      <c r="BF218">
+        <v>3.78</v>
+      </c>
+      <c r="BG218">
+        <v>1.15</v>
+      </c>
+      <c r="BH218">
+        <v>4.75</v>
+      </c>
+      <c r="BI218">
+        <v>1.23</v>
+      </c>
+      <c r="BJ218">
+        <v>3.56</v>
+      </c>
+      <c r="BK218">
+        <v>1.42</v>
+      </c>
+      <c r="BL218">
+        <v>2.57</v>
+      </c>
+      <c r="BM218">
+        <v>1.74</v>
+      </c>
+      <c r="BN218">
+        <v>1.98</v>
+      </c>
+      <c r="BO218">
+        <v>2.15</v>
+      </c>
+      <c r="BP218">
+        <v>1.59</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1370" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="298">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1269,7 +1269,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP218"/>
+  <dimension ref="A1:BP219"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3048,7 +3048,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AQ9">
         <v>0.82</v>
@@ -3669,7 +3669,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ12">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -6347,7 +6347,7 @@
         <v>2.45</v>
       </c>
       <c r="AQ25">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR25">
         <v>1.46</v>
@@ -7168,7 +7168,7 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AQ29">
         <v>0.78</v>
@@ -11085,7 +11085,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ48">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR48">
         <v>1.4</v>
@@ -11288,7 +11288,7 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AQ49">
         <v>1.33</v>
@@ -14999,7 +14999,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ67">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR67">
         <v>1.62</v>
@@ -16644,7 +16644,7 @@
         <v>0.33</v>
       </c>
       <c r="AP75">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AQ75">
         <v>0.3</v>
@@ -18295,7 +18295,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ83">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR83">
         <v>1.96</v>
@@ -20558,7 +20558,7 @@
         <v>1.4</v>
       </c>
       <c r="AP94">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AQ94">
         <v>1.82</v>
@@ -21797,7 +21797,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ100">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR100">
         <v>1.66</v>
@@ -25502,7 +25502,7 @@
         <v>0.8</v>
       </c>
       <c r="AP118">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AQ118">
         <v>1</v>
@@ -26741,7 +26741,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ124">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR124">
         <v>1.19</v>
@@ -28389,7 +28389,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ132">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR132">
         <v>1.84</v>
@@ -30034,7 +30034,7 @@
         <v>0.43</v>
       </c>
       <c r="AP140">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AQ140">
         <v>1.09</v>
@@ -35184,7 +35184,7 @@
         <v>0.71</v>
       </c>
       <c r="AP165">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AQ165">
         <v>0.82</v>
@@ -36423,7 +36423,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ171">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR171">
         <v>1.41</v>
@@ -38892,7 +38892,7 @@
         <v>1.25</v>
       </c>
       <c r="AP183">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AQ183">
         <v>1.3</v>
@@ -40131,7 +40131,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ189">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR189">
         <v>1.36</v>
@@ -42394,7 +42394,7 @@
         <v>0.8</v>
       </c>
       <c r="AP200">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AQ200">
         <v>0.82</v>
@@ -46181,6 +46181,212 @@
       </c>
       <c r="BP218">
         <v>1.59</v>
+      </c>
+    </row>
+    <row r="219" spans="1:68">
+      <c r="A219" s="1">
+        <v>218</v>
+      </c>
+      <c r="B219">
+        <v>7380547</v>
+      </c>
+      <c r="C219" t="s">
+        <v>68</v>
+      </c>
+      <c r="D219" t="s">
+        <v>69</v>
+      </c>
+      <c r="E219" s="2">
+        <v>45527.89583333334</v>
+      </c>
+      <c r="F219">
+        <v>23</v>
+      </c>
+      <c r="G219" t="s">
+        <v>77</v>
+      </c>
+      <c r="H219" t="s">
+        <v>72</v>
+      </c>
+      <c r="I219">
+        <v>0</v>
+      </c>
+      <c r="J219">
+        <v>0</v>
+      </c>
+      <c r="K219">
+        <v>0</v>
+      </c>
+      <c r="L219">
+        <v>0</v>
+      </c>
+      <c r="M219">
+        <v>1</v>
+      </c>
+      <c r="N219">
+        <v>1</v>
+      </c>
+      <c r="O219" t="s">
+        <v>100</v>
+      </c>
+      <c r="P219" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q219">
+        <v>3.1</v>
+      </c>
+      <c r="R219">
+        <v>1.91</v>
+      </c>
+      <c r="S219">
+        <v>4.33</v>
+      </c>
+      <c r="T219">
+        <v>1.53</v>
+      </c>
+      <c r="U219">
+        <v>2.38</v>
+      </c>
+      <c r="V219">
+        <v>3.75</v>
+      </c>
+      <c r="W219">
+        <v>1.25</v>
+      </c>
+      <c r="X219">
+        <v>11</v>
+      </c>
+      <c r="Y219">
+        <v>1.05</v>
+      </c>
+      <c r="Z219">
+        <v>2.25</v>
+      </c>
+      <c r="AA219">
+        <v>3.05</v>
+      </c>
+      <c r="AB219">
+        <v>3.25</v>
+      </c>
+      <c r="AC219">
+        <v>1.08</v>
+      </c>
+      <c r="AD219">
+        <v>6.5</v>
+      </c>
+      <c r="AE219">
+        <v>1.53</v>
+      </c>
+      <c r="AF219">
+        <v>2.35</v>
+      </c>
+      <c r="AG219">
+        <v>2.37</v>
+      </c>
+      <c r="AH219">
+        <v>1.52</v>
+      </c>
+      <c r="AI219">
+        <v>2.25</v>
+      </c>
+      <c r="AJ219">
+        <v>1.57</v>
+      </c>
+      <c r="AK219">
+        <v>1.27</v>
+      </c>
+      <c r="AL219">
+        <v>1.28</v>
+      </c>
+      <c r="AM219">
+        <v>1.57</v>
+      </c>
+      <c r="AN219">
+        <v>2.3</v>
+      </c>
+      <c r="AO219">
+        <v>1.1</v>
+      </c>
+      <c r="AP219">
+        <v>2.09</v>
+      </c>
+      <c r="AQ219">
+        <v>1.27</v>
+      </c>
+      <c r="AR219">
+        <v>1.6</v>
+      </c>
+      <c r="AS219">
+        <v>1.29</v>
+      </c>
+      <c r="AT219">
+        <v>2.89</v>
+      </c>
+      <c r="AU219">
+        <v>3</v>
+      </c>
+      <c r="AV219">
+        <v>5</v>
+      </c>
+      <c r="AW219">
+        <v>4</v>
+      </c>
+      <c r="AX219">
+        <v>4</v>
+      </c>
+      <c r="AY219">
+        <v>7</v>
+      </c>
+      <c r="AZ219">
+        <v>9</v>
+      </c>
+      <c r="BA219">
+        <v>3</v>
+      </c>
+      <c r="BB219">
+        <v>4</v>
+      </c>
+      <c r="BC219">
+        <v>7</v>
+      </c>
+      <c r="BD219">
+        <v>1.9</v>
+      </c>
+      <c r="BE219">
+        <v>7.6</v>
+      </c>
+      <c r="BF219">
+        <v>2.27</v>
+      </c>
+      <c r="BG219">
+        <v>1.19</v>
+      </c>
+      <c r="BH219">
+        <v>3.98</v>
+      </c>
+      <c r="BI219">
+        <v>1.37</v>
+      </c>
+      <c r="BJ219">
+        <v>2.75</v>
+      </c>
+      <c r="BK219">
+        <v>2.1</v>
+      </c>
+      <c r="BL219">
+        <v>2.06</v>
+      </c>
+      <c r="BM219">
+        <v>2.09</v>
+      </c>
+      <c r="BN219">
+        <v>1.63</v>
+      </c>
+      <c r="BO219">
+        <v>2.78</v>
+      </c>
+      <c r="BP219">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie B_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="299">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -661,10 +661,10 @@
     <t>['13', '28', '85']</t>
   </si>
   <si>
-    <t>['9', '15', '84']</t>
+    <t>['43', '72']</t>
   </si>
   <si>
-    <t>['43', '72']</t>
+    <t>['9', '15', '84']</t>
   </si>
   <si>
     <t>['44']</t>
@@ -704,6 +704,9 @@
   </si>
   <si>
     <t>['45+4']</t>
+  </si>
+  <si>
+    <t>['8']</t>
   </si>
   <si>
     <t>['31', '49', '69']</t>
@@ -1269,7 +1272,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP219"/>
+  <dimension ref="A1:BP221"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2430,7 +2433,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ6">
         <v>0.92</v>
@@ -2558,7 +2561,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q7">
         <v>4.33</v>
@@ -2845,7 +2848,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ8">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2970,7 +2973,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -3382,7 +3385,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q11">
         <v>3.5</v>
@@ -3588,7 +3591,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q12">
         <v>3.6</v>
@@ -3666,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ12">
         <v>1.27</v>
@@ -4000,7 +4003,7 @@
         <v>100</v>
       </c>
       <c r="P14" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q14">
         <v>4.75</v>
@@ -4206,7 +4209,7 @@
         <v>100</v>
       </c>
       <c r="P15" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4493,7 +4496,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ16">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -5442,7 +5445,7 @@
         <v>106</v>
       </c>
       <c r="P21" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -6060,7 +6063,7 @@
         <v>107</v>
       </c>
       <c r="P24" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q24">
         <v>3.6</v>
@@ -6472,7 +6475,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6550,7 +6553,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ26">
         <v>1.82</v>
@@ -6678,7 +6681,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q27">
         <v>4</v>
@@ -6759,7 +6762,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ27">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR27">
         <v>1.04</v>
@@ -6884,7 +6887,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -7171,7 +7174,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ29">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR29">
         <v>0</v>
@@ -7374,7 +7377,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ30">
         <v>0.5</v>
@@ -7708,7 +7711,7 @@
         <v>113</v>
       </c>
       <c r="P32" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q32">
         <v>2.38</v>
@@ -7914,7 +7917,7 @@
         <v>100</v>
       </c>
       <c r="P33" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -9150,7 +9153,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q39">
         <v>2</v>
@@ -9562,7 +9565,7 @@
         <v>120</v>
       </c>
       <c r="P41" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q41">
         <v>2.25</v>
@@ -9768,7 +9771,7 @@
         <v>121</v>
       </c>
       <c r="P42" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9974,7 +9977,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q43">
         <v>3.2</v>
@@ -10670,7 +10673,7 @@
         <v>3</v>
       </c>
       <c r="AP46">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ46">
         <v>1.3</v>
@@ -11210,7 +11213,7 @@
         <v>125</v>
       </c>
       <c r="P49" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -11497,7 +11500,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ50">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR50">
         <v>1.29</v>
@@ -11703,7 +11706,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ51">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR51">
         <v>1.66</v>
@@ -12652,7 +12655,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q56">
         <v>1.95</v>
@@ -12936,7 +12939,7 @@
         <v>0</v>
       </c>
       <c r="AP57">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ57">
         <v>0.42</v>
@@ -13476,7 +13479,7 @@
         <v>118</v>
       </c>
       <c r="P60" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13888,7 +13891,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q62">
         <v>3.4</v>
@@ -14378,7 +14381,7 @@
         <v>0.67</v>
       </c>
       <c r="AP64">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ64">
         <v>0.42</v>
@@ -14506,7 +14509,7 @@
         <v>135</v>
       </c>
       <c r="P65" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q65">
         <v>2.38</v>
@@ -15411,7 +15414,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ69">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR69">
         <v>1.31</v>
@@ -16360,7 +16363,7 @@
         <v>90</v>
       </c>
       <c r="P74" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q74">
         <v>3.1</v>
@@ -16566,7 +16569,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -16850,7 +16853,7 @@
         <v>1.33</v>
       </c>
       <c r="AP76">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ76">
         <v>1.3</v>
@@ -16978,7 +16981,7 @@
         <v>139</v>
       </c>
       <c r="P77" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q77">
         <v>2.2</v>
@@ -17056,7 +17059,7 @@
         <v>0.33</v>
       </c>
       <c r="AP77">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ77">
         <v>1</v>
@@ -17265,7 +17268,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ78">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR78">
         <v>1.62</v>
@@ -17802,7 +17805,7 @@
         <v>146</v>
       </c>
       <c r="P81" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q81">
         <v>2.05</v>
@@ -18008,7 +18011,7 @@
         <v>147</v>
       </c>
       <c r="P82" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q82">
         <v>4</v>
@@ -18214,7 +18217,7 @@
         <v>100</v>
       </c>
       <c r="P83" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q83">
         <v>3.2</v>
@@ -18420,7 +18423,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q84">
         <v>2.75</v>
@@ -19038,7 +19041,7 @@
         <v>150</v>
       </c>
       <c r="P87" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q87">
         <v>3.5</v>
@@ -19531,7 +19534,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ89">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR89">
         <v>1.5</v>
@@ -20068,7 +20071,7 @@
         <v>153</v>
       </c>
       <c r="P92" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q92">
         <v>2.63</v>
@@ -20686,7 +20689,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q95">
         <v>3.5</v>
@@ -20764,7 +20767,7 @@
         <v>0.4</v>
       </c>
       <c r="AP95">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ95">
         <v>0.92</v>
@@ -21304,7 +21307,7 @@
         <v>116</v>
       </c>
       <c r="P98" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q98">
         <v>3</v>
@@ -21716,7 +21719,7 @@
         <v>100</v>
       </c>
       <c r="P100" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q100">
         <v>3.5</v>
@@ -21922,7 +21925,7 @@
         <v>160</v>
       </c>
       <c r="P101" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q101">
         <v>2.6</v>
@@ -22209,7 +22212,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ102">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR102">
         <v>1.91</v>
@@ -22618,10 +22621,10 @@
         <v>1</v>
       </c>
       <c r="AP104">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ104">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR104">
         <v>1.65</v>
@@ -24266,7 +24269,7 @@
         <v>0.2</v>
       </c>
       <c r="AP112">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ112">
         <v>0.42</v>
@@ -24394,7 +24397,7 @@
         <v>167</v>
       </c>
       <c r="P113" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q113">
         <v>3.25</v>
@@ -24681,7 +24684,7 @@
         <v>2.45</v>
       </c>
       <c r="AQ114">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR114">
         <v>1.36</v>
@@ -24806,7 +24809,7 @@
         <v>169</v>
       </c>
       <c r="P115" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q115">
         <v>2.68</v>
@@ -25218,7 +25221,7 @@
         <v>170</v>
       </c>
       <c r="P117" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q117">
         <v>2.38</v>
@@ -25836,7 +25839,7 @@
         <v>90</v>
       </c>
       <c r="P120" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q120">
         <v>2.4</v>
@@ -26248,7 +26251,7 @@
         <v>173</v>
       </c>
       <c r="P122" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q122">
         <v>1.95</v>
@@ -26535,7 +26538,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ123">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR123">
         <v>1.43</v>
@@ -26866,7 +26869,7 @@
         <v>175</v>
       </c>
       <c r="P125" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q125">
         <v>3</v>
@@ -27150,7 +27153,7 @@
         <v>1.33</v>
       </c>
       <c r="AP126">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ126">
         <v>1</v>
@@ -27278,7 +27281,7 @@
         <v>176</v>
       </c>
       <c r="P127" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q127">
         <v>2.4</v>
@@ -27690,7 +27693,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q129">
         <v>3.25</v>
@@ -28514,7 +28517,7 @@
         <v>140</v>
       </c>
       <c r="P133" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q133">
         <v>2.25</v>
@@ -28926,7 +28929,7 @@
         <v>180</v>
       </c>
       <c r="P135" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q135">
         <v>3.5</v>
@@ -29004,7 +29007,7 @@
         <v>1.4</v>
       </c>
       <c r="AP135">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ135">
         <v>1</v>
@@ -29338,7 +29341,7 @@
         <v>100</v>
       </c>
       <c r="P137" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q137">
         <v>2.75</v>
@@ -29544,7 +29547,7 @@
         <v>181</v>
       </c>
       <c r="P138" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q138">
         <v>3</v>
@@ -29956,7 +29959,7 @@
         <v>182</v>
       </c>
       <c r="P140" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q140">
         <v>3.75</v>
@@ -30162,7 +30165,7 @@
         <v>100</v>
       </c>
       <c r="P141" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q141">
         <v>3</v>
@@ -30243,7 +30246,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ141">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR141">
         <v>1.42</v>
@@ -30368,7 +30371,7 @@
         <v>183</v>
       </c>
       <c r="P142" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q142">
         <v>3.2</v>
@@ -30574,7 +30577,7 @@
         <v>152</v>
       </c>
       <c r="P143" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q143">
         <v>2.5</v>
@@ -31192,7 +31195,7 @@
         <v>186</v>
       </c>
       <c r="P146" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q146">
         <v>3.1</v>
@@ -31682,7 +31685,7 @@
         <v>0.17</v>
       </c>
       <c r="AP148">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ148">
         <v>0.36</v>
@@ -31810,7 +31813,7 @@
         <v>189</v>
       </c>
       <c r="P149" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q149">
         <v>2.5</v>
@@ -32097,7 +32100,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ150">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR150">
         <v>1.49</v>
@@ -32222,7 +32225,7 @@
         <v>191</v>
       </c>
       <c r="P151" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q151">
         <v>3.75</v>
@@ -33127,7 +33130,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ155">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR155">
         <v>1.76</v>
@@ -33664,7 +33667,7 @@
         <v>194</v>
       </c>
       <c r="P158" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q158">
         <v>3.75</v>
@@ -33745,7 +33748,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ158">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR158">
         <v>1.72</v>
@@ -33870,7 +33873,7 @@
         <v>195</v>
       </c>
       <c r="P159" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q159">
         <v>3</v>
@@ -34154,7 +34157,7 @@
         <v>0.43</v>
       </c>
       <c r="AP160">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ160">
         <v>0.82</v>
@@ -34978,7 +34981,7 @@
         <v>0.86</v>
       </c>
       <c r="AP164">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ164">
         <v>0.9</v>
@@ -35724,7 +35727,7 @@
         <v>200</v>
       </c>
       <c r="P168" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q168">
         <v>2.63</v>
@@ -35930,7 +35933,7 @@
         <v>201</v>
       </c>
       <c r="P169" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q169">
         <v>2.05</v>
@@ -36214,7 +36217,7 @@
         <v>0.63</v>
       </c>
       <c r="AP170">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ170">
         <v>0.82</v>
@@ -37166,7 +37169,7 @@
         <v>203</v>
       </c>
       <c r="P175" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q175">
         <v>2.63</v>
@@ -37372,7 +37375,7 @@
         <v>169</v>
       </c>
       <c r="P176" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q176">
         <v>4</v>
@@ -37578,7 +37581,7 @@
         <v>155</v>
       </c>
       <c r="P177" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q177">
         <v>2.88</v>
@@ -37784,7 +37787,7 @@
         <v>204</v>
       </c>
       <c r="P178" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q178">
         <v>2.5</v>
@@ -38196,7 +38199,7 @@
         <v>166</v>
       </c>
       <c r="P180" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q180">
         <v>2.38</v>
@@ -38274,7 +38277,7 @@
         <v>1.5</v>
       </c>
       <c r="AP180">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ180">
         <v>1.3</v>
@@ -39020,7 +39023,7 @@
         <v>208</v>
       </c>
       <c r="P184" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q184">
         <v>3</v>
@@ -39101,7 +39104,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ184">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR184">
         <v>1.53</v>
@@ -39432,7 +39435,7 @@
         <v>100</v>
       </c>
       <c r="P186" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q186">
         <v>3.75</v>
@@ -39638,7 +39641,7 @@
         <v>210</v>
       </c>
       <c r="P187" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q187">
         <v>2.75</v>
@@ -40256,7 +40259,7 @@
         <v>100</v>
       </c>
       <c r="P190" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q190">
         <v>3.75</v>
@@ -40668,7 +40671,7 @@
         <v>214</v>
       </c>
       <c r="P192" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q192">
         <v>2.1</v>
@@ -40832,7 +40835,7 @@
         <v>192</v>
       </c>
       <c r="B193">
-        <v>7380525</v>
+        <v>7380519</v>
       </c>
       <c r="C193" t="s">
         <v>68</v>
@@ -40847,166 +40850,166 @@
         <v>20</v>
       </c>
       <c r="G193" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H193" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I193">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J193">
         <v>1</v>
       </c>
       <c r="K193">
+        <v>2</v>
+      </c>
+      <c r="L193">
+        <v>2</v>
+      </c>
+      <c r="M193">
+        <v>1</v>
+      </c>
+      <c r="N193">
         <v>3</v>
-      </c>
-      <c r="L193">
-        <v>3</v>
-      </c>
-      <c r="M193">
-        <v>2</v>
-      </c>
-      <c r="N193">
-        <v>5</v>
       </c>
       <c r="O193" t="s">
         <v>215</v>
       </c>
       <c r="P193" t="s">
-        <v>289</v>
+        <v>178</v>
       </c>
       <c r="Q193">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="R193">
+        <v>1.91</v>
+      </c>
+      <c r="S193">
+        <v>3.5</v>
+      </c>
+      <c r="T193">
+        <v>1.53</v>
+      </c>
+      <c r="U193">
+        <v>2.38</v>
+      </c>
+      <c r="V193">
+        <v>3.5</v>
+      </c>
+      <c r="W193">
+        <v>1.29</v>
+      </c>
+      <c r="X193">
+        <v>11</v>
+      </c>
+      <c r="Y193">
+        <v>1.05</v>
+      </c>
+      <c r="Z193">
+        <v>2.75</v>
+      </c>
+      <c r="AA193">
+        <v>3</v>
+      </c>
+      <c r="AB193">
+        <v>2.7</v>
+      </c>
+      <c r="AC193">
+        <v>1.06</v>
+      </c>
+      <c r="AD193">
+        <v>6.8</v>
+      </c>
+      <c r="AE193">
+        <v>1.43</v>
+      </c>
+      <c r="AF193">
+        <v>2.54</v>
+      </c>
+      <c r="AG193">
+        <v>2.5</v>
+      </c>
+      <c r="AH193">
+        <v>1.5</v>
+      </c>
+      <c r="AI193">
         <v>2.1</v>
       </c>
-      <c r="S193">
-        <v>7</v>
-      </c>
-      <c r="T193">
+      <c r="AJ193">
+        <v>1.67</v>
+      </c>
+      <c r="AK193">
+        <v>1.35</v>
+      </c>
+      <c r="AL193">
+        <v>1.32</v>
+      </c>
+      <c r="AM193">
+        <v>1.42</v>
+      </c>
+      <c r="AN193">
+        <v>1.2</v>
+      </c>
+      <c r="AO193">
+        <v>1.1</v>
+      </c>
+      <c r="AP193">
         <v>1.5</v>
       </c>
-      <c r="U193">
-        <v>2.5</v>
-      </c>
-      <c r="V193">
-        <v>3.4</v>
-      </c>
-      <c r="W193">
-        <v>1.3</v>
-      </c>
-      <c r="X193">
-        <v>10</v>
-      </c>
-      <c r="Y193">
-        <v>1.06</v>
-      </c>
-      <c r="Z193">
-        <v>1.53</v>
-      </c>
-      <c r="AA193">
-        <v>3.6</v>
-      </c>
-      <c r="AB193">
-        <v>7</v>
-      </c>
-      <c r="AC193">
-        <v>1.07</v>
-      </c>
-      <c r="AD193">
+      <c r="AQ193">
+        <v>1</v>
+      </c>
+      <c r="AR193">
+        <v>1.25</v>
+      </c>
+      <c r="AS193">
+        <v>1.13</v>
+      </c>
+      <c r="AT193">
+        <v>2.38</v>
+      </c>
+      <c r="AU193">
         <v>8</v>
       </c>
-      <c r="AE193">
-        <v>1.4</v>
-      </c>
-      <c r="AF193">
-        <v>2.9</v>
-      </c>
-      <c r="AG193">
-        <v>2.25</v>
-      </c>
-      <c r="AH193">
-        <v>1.62</v>
-      </c>
-      <c r="AI193">
-        <v>2.38</v>
-      </c>
-      <c r="AJ193">
-        <v>1.53</v>
-      </c>
-      <c r="AK193">
-        <v>1.11</v>
-      </c>
-      <c r="AL193">
-        <v>1.2</v>
-      </c>
-      <c r="AM193">
-        <v>2.38</v>
-      </c>
-      <c r="AN193">
-        <v>2</v>
-      </c>
-      <c r="AO193">
-        <v>0.88</v>
-      </c>
-      <c r="AP193">
-        <v>1.9</v>
-      </c>
-      <c r="AQ193">
-        <v>0.78</v>
-      </c>
-      <c r="AR193">
-        <v>1.45</v>
-      </c>
-      <c r="AS193">
-        <v>1.02</v>
-      </c>
-      <c r="AT193">
-        <v>2.47</v>
-      </c>
-      <c r="AU193">
+      <c r="AV193">
+        <v>3</v>
+      </c>
+      <c r="AW193">
+        <v>2</v>
+      </c>
+      <c r="AX193">
         <v>6</v>
-      </c>
-      <c r="AV193">
-        <v>8</v>
-      </c>
-      <c r="AW193">
-        <v>4</v>
-      </c>
-      <c r="AX193">
-        <v>4</v>
       </c>
       <c r="AY193">
         <v>10</v>
       </c>
       <c r="AZ193">
+        <v>9</v>
+      </c>
+      <c r="BA193">
+        <v>9</v>
+      </c>
+      <c r="BB193">
+        <v>3</v>
+      </c>
+      <c r="BC193">
         <v>12</v>
       </c>
-      <c r="BA193">
-        <v>5</v>
-      </c>
-      <c r="BB193">
-        <v>2</v>
-      </c>
-      <c r="BC193">
-        <v>7</v>
-      </c>
       <c r="BD193">
-        <v>1.41</v>
+        <v>1.95</v>
       </c>
       <c r="BE193">
-        <v>8.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="BF193">
-        <v>3.86</v>
+        <v>2.2</v>
       </c>
       <c r="BG193">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="BH193">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="BI193">
         <v>1.3</v>
@@ -41021,10 +41024,10 @@
         <v>2.38</v>
       </c>
       <c r="BM193">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="BN193">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="BO193">
         <v>2.5</v>
@@ -41038,7 +41041,7 @@
         <v>193</v>
       </c>
       <c r="B194">
-        <v>7380519</v>
+        <v>7380525</v>
       </c>
       <c r="C194" t="s">
         <v>68</v>
@@ -41053,166 +41056,166 @@
         <v>20</v>
       </c>
       <c r="G194" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H194" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I194">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J194">
         <v>1</v>
       </c>
       <c r="K194">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L194">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M194">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N194">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O194" t="s">
         <v>216</v>
       </c>
       <c r="P194" t="s">
-        <v>178</v>
+        <v>290</v>
       </c>
       <c r="Q194">
+        <v>2.2</v>
+      </c>
+      <c r="R194">
+        <v>2.1</v>
+      </c>
+      <c r="S194">
+        <v>7</v>
+      </c>
+      <c r="T194">
+        <v>1.5</v>
+      </c>
+      <c r="U194">
+        <v>2.5</v>
+      </c>
+      <c r="V194">
+        <v>3.4</v>
+      </c>
+      <c r="W194">
+        <v>1.3</v>
+      </c>
+      <c r="X194">
+        <v>10</v>
+      </c>
+      <c r="Y194">
+        <v>1.06</v>
+      </c>
+      <c r="Z194">
+        <v>1.53</v>
+      </c>
+      <c r="AA194">
         <v>3.6</v>
       </c>
-      <c r="R194">
-        <v>1.91</v>
-      </c>
-      <c r="S194">
-        <v>3.5</v>
-      </c>
-      <c r="T194">
+      <c r="AB194">
+        <v>7</v>
+      </c>
+      <c r="AC194">
+        <v>1.07</v>
+      </c>
+      <c r="AD194">
+        <v>8</v>
+      </c>
+      <c r="AE194">
+        <v>1.4</v>
+      </c>
+      <c r="AF194">
+        <v>2.9</v>
+      </c>
+      <c r="AG194">
+        <v>2.25</v>
+      </c>
+      <c r="AH194">
+        <v>1.62</v>
+      </c>
+      <c r="AI194">
+        <v>2.38</v>
+      </c>
+      <c r="AJ194">
         <v>1.53</v>
       </c>
-      <c r="U194">
+      <c r="AK194">
+        <v>1.11</v>
+      </c>
+      <c r="AL194">
+        <v>1.2</v>
+      </c>
+      <c r="AM194">
         <v>2.38</v>
       </c>
-      <c r="V194">
-        <v>3.5</v>
-      </c>
-      <c r="W194">
-        <v>1.29</v>
-      </c>
-      <c r="X194">
-        <v>11</v>
-      </c>
-      <c r="Y194">
-        <v>1.05</v>
-      </c>
-      <c r="Z194">
-        <v>2.75</v>
-      </c>
-      <c r="AA194">
-        <v>3</v>
-      </c>
-      <c r="AB194">
-        <v>2.7</v>
-      </c>
-      <c r="AC194">
-        <v>1.06</v>
-      </c>
-      <c r="AD194">
-        <v>6.8</v>
-      </c>
-      <c r="AE194">
-        <v>1.43</v>
-      </c>
-      <c r="AF194">
-        <v>2.54</v>
-      </c>
-      <c r="AG194">
-        <v>2.5</v>
-      </c>
-      <c r="AH194">
-        <v>1.5</v>
-      </c>
-      <c r="AI194">
-        <v>2.1</v>
-      </c>
-      <c r="AJ194">
-        <v>1.67</v>
-      </c>
-      <c r="AK194">
-        <v>1.35</v>
-      </c>
-      <c r="AL194">
-        <v>1.32</v>
-      </c>
-      <c r="AM194">
-        <v>1.42</v>
-      </c>
       <c r="AN194">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="AO194">
-        <v>1.1</v>
+        <v>0.88</v>
       </c>
       <c r="AP194">
-        <v>1.36</v>
+        <v>1.9</v>
       </c>
       <c r="AQ194">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR194">
-        <v>1.25</v>
+        <v>1.45</v>
       </c>
       <c r="AS194">
-        <v>1.13</v>
+        <v>1.02</v>
       </c>
       <c r="AT194">
-        <v>2.38</v>
+        <v>2.47</v>
       </c>
       <c r="AU194">
+        <v>6</v>
+      </c>
+      <c r="AV194">
         <v>8</v>
       </c>
-      <c r="AV194">
-        <v>3</v>
-      </c>
       <c r="AW194">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AX194">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AY194">
         <v>10</v>
       </c>
       <c r="AZ194">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BA194">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BB194">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC194">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="BD194">
-        <v>1.95</v>
+        <v>1.41</v>
       </c>
       <c r="BE194">
-        <v>7.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BF194">
-        <v>2.2</v>
+        <v>3.86</v>
       </c>
       <c r="BG194">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="BH194">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="BI194">
         <v>1.3</v>
@@ -41227,10 +41230,10 @@
         <v>2.38</v>
       </c>
       <c r="BM194">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="BN194">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="BO194">
         <v>2.5</v>
@@ -41904,7 +41907,7 @@
         <v>219</v>
       </c>
       <c r="P198" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q198">
         <v>3.2</v>
@@ -42110,7 +42113,7 @@
         <v>193</v>
       </c>
       <c r="P199" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q199">
         <v>2.3</v>
@@ -42316,7 +42319,7 @@
         <v>220</v>
       </c>
       <c r="P200" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q200">
         <v>3.25</v>
@@ -42397,7 +42400,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ200">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR200">
         <v>1.57</v>
@@ -42934,7 +42937,7 @@
         <v>100</v>
       </c>
       <c r="P203" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q203">
         <v>3</v>
@@ -43140,7 +43143,7 @@
         <v>100</v>
       </c>
       <c r="P204" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q204">
         <v>2.2</v>
@@ -43218,7 +43221,7 @@
         <v>1.11</v>
       </c>
       <c r="AP204">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ204">
         <v>1.3</v>
@@ -43346,7 +43349,7 @@
         <v>151</v>
       </c>
       <c r="P205" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q205">
         <v>2.75</v>
@@ -43758,7 +43761,7 @@
         <v>100</v>
       </c>
       <c r="P207" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q207">
         <v>3.75</v>
@@ -43964,7 +43967,7 @@
         <v>96</v>
       </c>
       <c r="P208" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q208">
         <v>3.4</v>
@@ -44582,7 +44585,7 @@
         <v>226</v>
       </c>
       <c r="P211" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q211">
         <v>2.75</v>
@@ -44746,7 +44749,7 @@
         <v>211</v>
       </c>
       <c r="B212">
-        <v>7380537</v>
+        <v>7380540</v>
       </c>
       <c r="C212" t="s">
         <v>68</v>
@@ -44761,10 +44764,10 @@
         <v>22</v>
       </c>
       <c r="G212" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H212" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I212">
         <v>0</v>
@@ -44776,163 +44779,163 @@
         <v>0</v>
       </c>
       <c r="L212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N212">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O212" t="s">
-        <v>227</v>
+        <v>100</v>
       </c>
       <c r="P212" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="Q212">
-        <v>4.5</v>
+        <v>2.05</v>
       </c>
       <c r="R212">
-        <v>1.83</v>
+        <v>2.2</v>
       </c>
       <c r="S212">
-        <v>3.1</v>
+        <v>7</v>
       </c>
       <c r="T212">
-        <v>1.55</v>
+        <v>1.46</v>
       </c>
       <c r="U212">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="V212">
-        <v>3.55</v>
+        <v>3.05</v>
       </c>
       <c r="W212">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="X212">
-        <v>9.699999999999999</v>
+        <v>7.9</v>
       </c>
       <c r="Y212">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="Z212">
-        <v>3.64</v>
+        <v>1.5</v>
       </c>
       <c r="AA212">
-        <v>3.02</v>
+        <v>4</v>
       </c>
       <c r="AB212">
-        <v>2.16</v>
+        <v>6.55</v>
       </c>
       <c r="AC212">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="AD212">
-        <v>2.02</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE212">
-        <v>1.58</v>
+        <v>1.37</v>
       </c>
       <c r="AF212">
-        <v>2.25</v>
+        <v>3.07</v>
       </c>
       <c r="AG212">
-        <v>2.23</v>
+        <v>2.13</v>
       </c>
       <c r="AH212">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="AI212">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="AJ212">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="AK212">
-        <v>1.65</v>
+        <v>1.08</v>
       </c>
       <c r="AL212">
+        <v>1.2</v>
+      </c>
+      <c r="AM212">
+        <v>2.4</v>
+      </c>
+      <c r="AN212">
+        <v>2.27</v>
+      </c>
+      <c r="AO212">
+        <v>1</v>
+      </c>
+      <c r="AP212">
+        <v>2.17</v>
+      </c>
+      <c r="AQ212">
+        <v>1</v>
+      </c>
+      <c r="AR212">
+        <v>1.68</v>
+      </c>
+      <c r="AS212">
+        <v>1.13</v>
+      </c>
+      <c r="AT212">
+        <v>2.81</v>
+      </c>
+      <c r="AU212">
+        <v>7</v>
+      </c>
+      <c r="AV212">
+        <v>9</v>
+      </c>
+      <c r="AW212">
+        <v>4</v>
+      </c>
+      <c r="AX212">
+        <v>6</v>
+      </c>
+      <c r="AY212">
+        <v>11</v>
+      </c>
+      <c r="AZ212">
+        <v>15</v>
+      </c>
+      <c r="BA212">
+        <v>7</v>
+      </c>
+      <c r="BB212">
+        <v>6</v>
+      </c>
+      <c r="BC212">
+        <v>13</v>
+      </c>
+      <c r="BD212">
         <v>1.3</v>
       </c>
-      <c r="AM212">
-        <v>1.3</v>
-      </c>
-      <c r="AN212">
-        <v>1.09</v>
-      </c>
-      <c r="AO212">
+      <c r="BE212">
+        <v>10.25</v>
+      </c>
+      <c r="BF212">
+        <v>4.2</v>
+      </c>
+      <c r="BG212">
+        <v>1.2</v>
+      </c>
+      <c r="BH212">
+        <v>4</v>
+      </c>
+      <c r="BI212">
         <v>1.36</v>
       </c>
-      <c r="AP212">
-        <v>1.08</v>
-      </c>
-      <c r="AQ212">
-        <v>1.33</v>
-      </c>
-      <c r="AR212">
-        <v>1.83</v>
-      </c>
-      <c r="AS212">
-        <v>1.33</v>
-      </c>
-      <c r="AT212">
-        <v>3.16</v>
-      </c>
-      <c r="AU212">
-        <v>5</v>
-      </c>
-      <c r="AV212">
-        <v>3</v>
-      </c>
-      <c r="AW212">
-        <v>5</v>
-      </c>
-      <c r="AX212">
-        <v>1</v>
-      </c>
-      <c r="AY212">
-        <v>10</v>
-      </c>
-      <c r="AZ212">
-        <v>4</v>
-      </c>
-      <c r="BA212">
-        <v>3</v>
-      </c>
-      <c r="BB212">
-        <v>4</v>
-      </c>
-      <c r="BC212">
-        <v>7</v>
-      </c>
-      <c r="BD212">
-        <v>2.17</v>
-      </c>
-      <c r="BE212">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="BF212">
-        <v>1.89</v>
-      </c>
-      <c r="BG212">
-        <v>1.18</v>
-      </c>
-      <c r="BH212">
-        <v>4.3</v>
-      </c>
-      <c r="BI212">
-        <v>1.3</v>
-      </c>
       <c r="BJ212">
-        <v>3.08</v>
+        <v>2.9</v>
       </c>
       <c r="BK212">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="BL212">
-        <v>2.26</v>
+        <v>2.29</v>
       </c>
       <c r="BM212">
         <v>1.98</v>
@@ -44941,7 +44944,7 @@
         <v>1.81</v>
       </c>
       <c r="BO212">
-        <v>2.49</v>
+        <v>2.52</v>
       </c>
       <c r="BP212">
         <v>1.5</v>
@@ -44952,7 +44955,7 @@
         <v>212</v>
       </c>
       <c r="B213">
-        <v>7380538</v>
+        <v>7380537</v>
       </c>
       <c r="C213" t="s">
         <v>68</v>
@@ -44967,10 +44970,10 @@
         <v>22</v>
       </c>
       <c r="G213" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H213" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="I213">
         <v>0</v>
@@ -44985,70 +44988,70 @@
         <v>1</v>
       </c>
       <c r="M213">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N213">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O213" t="s">
-        <v>184</v>
+        <v>227</v>
       </c>
       <c r="P213" t="s">
-        <v>296</v>
+        <v>124</v>
       </c>
       <c r="Q213">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="R213">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="S213">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="T213">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="U213">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="V213">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="W213">
         <v>1.25</v>
       </c>
       <c r="X213">
-        <v>11</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="Y213">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="Z213">
-        <v>1.68</v>
+        <v>3.64</v>
       </c>
       <c r="AA213">
-        <v>3.4</v>
+        <v>3.02</v>
       </c>
       <c r="AB213">
-        <v>5.55</v>
+        <v>2.16</v>
       </c>
       <c r="AC213">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AD213">
-        <v>6.5</v>
+        <v>2.02</v>
       </c>
       <c r="AE213">
-        <v>1.51</v>
+        <v>1.58</v>
       </c>
       <c r="AF213">
-        <v>2.39</v>
+        <v>2.25</v>
       </c>
       <c r="AG213">
-        <v>2.4</v>
+        <v>2.23</v>
       </c>
       <c r="AH213">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AI213">
         <v>2.38</v>
@@ -45057,100 +45060,100 @@
         <v>1.53</v>
       </c>
       <c r="AK213">
-        <v>1.11</v>
+        <v>1.65</v>
       </c>
       <c r="AL213">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="AM213">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="AN213">
-        <v>2.6</v>
+        <v>1.09</v>
       </c>
       <c r="AO213">
-        <v>0.8</v>
+        <v>1.36</v>
       </c>
       <c r="AP213">
-        <v>2.36</v>
+        <v>1.08</v>
       </c>
       <c r="AQ213">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR213">
-        <v>1.43</v>
+        <v>1.83</v>
       </c>
       <c r="AS213">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT213">
-        <v>2.64</v>
+        <v>3.16</v>
       </c>
       <c r="AU213">
         <v>5</v>
       </c>
       <c r="AV213">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW213">
         <v>5</v>
       </c>
       <c r="AX213">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AY213">
         <v>10</v>
       </c>
       <c r="AZ213">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BA213">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BB213">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BC213">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="BD213">
-        <v>1.59</v>
+        <v>2.17</v>
       </c>
       <c r="BE213">
-        <v>8.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="BF213">
-        <v>2.76</v>
+        <v>1.89</v>
       </c>
       <c r="BG213">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="BH213">
-        <v>3.96</v>
+        <v>4.3</v>
       </c>
       <c r="BI213">
-        <v>1.38</v>
+        <v>1.3</v>
       </c>
       <c r="BJ213">
-        <v>2.71</v>
+        <v>3.08</v>
       </c>
       <c r="BK213">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="BL213">
-        <v>2.09</v>
+        <v>2.26</v>
       </c>
       <c r="BM213">
-        <v>2.15</v>
+        <v>1.98</v>
       </c>
       <c r="BN213">
-        <v>1.68</v>
+        <v>1.81</v>
       </c>
       <c r="BO213">
-        <v>2.78</v>
+        <v>2.49</v>
       </c>
       <c r="BP213">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="214" spans="1:68">
@@ -45158,7 +45161,7 @@
         <v>213</v>
       </c>
       <c r="B214">
-        <v>7380540</v>
+        <v>7380538</v>
       </c>
       <c r="C214" t="s">
         <v>68</v>
@@ -45173,10 +45176,10 @@
         <v>22</v>
       </c>
       <c r="G214" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H214" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I214">
         <v>0</v>
@@ -45188,175 +45191,175 @@
         <v>0</v>
       </c>
       <c r="L214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M214">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N214">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O214" t="s">
-        <v>100</v>
+        <v>184</v>
       </c>
       <c r="P214" t="s">
-        <v>100</v>
+        <v>297</v>
       </c>
       <c r="Q214">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="R214">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="S214">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T214">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="U214">
-        <v>2.55</v>
+        <v>2.25</v>
       </c>
       <c r="V214">
-        <v>3.05</v>
+        <v>3.75</v>
       </c>
       <c r="W214">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="X214">
-        <v>7.9</v>
+        <v>11</v>
       </c>
       <c r="Y214">
         <v>1.05</v>
       </c>
       <c r="Z214">
+        <v>1.68</v>
+      </c>
+      <c r="AA214">
+        <v>3.4</v>
+      </c>
+      <c r="AB214">
+        <v>5.55</v>
+      </c>
+      <c r="AC214">
+        <v>1.1</v>
+      </c>
+      <c r="AD214">
+        <v>6.5</v>
+      </c>
+      <c r="AE214">
+        <v>1.51</v>
+      </c>
+      <c r="AF214">
+        <v>2.39</v>
+      </c>
+      <c r="AG214">
+        <v>2.4</v>
+      </c>
+      <c r="AH214">
         <v>1.5</v>
       </c>
-      <c r="AA214">
+      <c r="AI214">
+        <v>2.38</v>
+      </c>
+      <c r="AJ214">
+